--- a/气象/For_Python_站点信息和记录.xlsx
+++ b/气象/For_Python_站点信息和记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650E93D1-4C14-4DAA-BCEF-CD91D69F1929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C28080C-66FA-46A3-A6BF-E97CC32B0CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2516,9 +2516,11 @@
       <c r="K2" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="1"/>
+      <c r="L2" s="1">
+        <v>-23</v>
+      </c>
       <c r="M2" s="1">
-        <v>1.9</v>
+        <v>-11.3</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="6" t="s">
@@ -2569,7 +2571,9 @@
         <v>36</v>
       </c>
       <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="M3" s="1">
+        <v>-7.9</v>
+      </c>
       <c r="N3" s="1"/>
       <c r="O3" s="6" t="s">
         <v>31</v>
@@ -2621,10 +2625,10 @@
       <c r="K4" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="1">
-        <v>-55.6</v>
-      </c>
-      <c r="M4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1">
+        <v>-11.6</v>
+      </c>
       <c r="N4" s="1"/>
       <c r="O4" s="6" t="s">
         <v>31</v>
@@ -2674,10 +2678,10 @@
         <v>41</v>
       </c>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1">
-        <v>-98.6</v>
-      </c>
+      <c r="M5" s="1">
+        <v>-9.4</v>
+      </c>
+      <c r="N5" s="1"/>
       <c r="O5" s="6" t="s">
         <v>31</v>
       </c>
@@ -2725,8 +2729,12 @@
       <c r="K6" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="L6" s="1">
+        <v>-26</v>
+      </c>
+      <c r="M6" s="1">
+        <v>-7.6</v>
+      </c>
       <c r="N6" s="1"/>
       <c r="O6" s="6" t="s">
         <v>31</v>
@@ -2779,7 +2787,9 @@
         <v>46</v>
       </c>
       <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="M7" s="1">
+        <v>-12.9</v>
+      </c>
       <c r="N7" s="1"/>
       <c r="O7" s="6" t="s">
         <v>31</v>
@@ -2828,8 +2838,12 @@
       <c r="K8" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+      <c r="L8" s="1">
+        <v>-13</v>
+      </c>
+      <c r="M8" s="1">
+        <v>-3.8</v>
+      </c>
       <c r="N8" s="1"/>
       <c r="O8" s="6" t="s">
         <v>31</v>
@@ -2887,8 +2901,12 @@
       <c r="K9" t="s">
         <v>54</v>
       </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="L9" s="1">
+        <v>-19.100000000000001</v>
+      </c>
+      <c r="M9" s="1">
+        <v>-3.9</v>
+      </c>
       <c r="N9" s="1"/>
       <c r="O9" s="6" t="s">
         <v>31</v>
@@ -2949,8 +2967,12 @@
       <c r="K10" t="s">
         <v>56</v>
       </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="L10" s="1">
+        <v>-18.8</v>
+      </c>
+      <c r="M10" s="1">
+        <v>-11.4</v>
+      </c>
       <c r="N10" s="1"/>
       <c r="O10" s="6" t="s">
         <v>31</v>
@@ -3008,8 +3030,12 @@
       <c r="K11" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="L11" s="1">
+        <v>-15.2</v>
+      </c>
+      <c r="M11" s="1">
+        <v>-3.6</v>
+      </c>
       <c r="N11" s="1"/>
       <c r="O11" s="6" t="s">
         <v>31</v>
@@ -3070,8 +3096,12 @@
       <c r="K12" t="s">
         <v>61</v>
       </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="L12" s="1">
+        <v>-22.1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>-7.4</v>
+      </c>
       <c r="N12" s="1"/>
       <c r="O12" s="6" t="s">
         <v>31</v>
@@ -3129,8 +3159,12 @@
       <c r="K13" t="s">
         <v>63</v>
       </c>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="L13" s="1">
+        <v>-20.2</v>
+      </c>
+      <c r="M13" s="1">
+        <v>-12.1</v>
+      </c>
       <c r="N13" s="1"/>
       <c r="O13" s="6" t="s">
         <v>31</v>
@@ -3188,8 +3222,12 @@
       <c r="K14" t="s">
         <v>65</v>
       </c>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="L14" s="1">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="M14" s="1">
+        <v>-5</v>
+      </c>
       <c r="N14" s="1"/>
       <c r="O14" s="6" t="s">
         <v>31</v>
@@ -3385,8 +3423,12 @@
       <c r="K18" t="s">
         <v>73</v>
       </c>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="L18" s="1">
+        <v>-27</v>
+      </c>
+      <c r="M18" s="1">
+        <v>-13.2</v>
+      </c>
       <c r="N18" s="1"/>
       <c r="P18" t="s">
         <v>71</v>
@@ -6037,8 +6079,12 @@
       <c r="K75" t="s">
         <v>164</v>
       </c>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
+      <c r="L75" s="1">
+        <v>-20.6</v>
+      </c>
+      <c r="M75" s="1">
+        <v>-3.1</v>
+      </c>
       <c r="N75" s="1"/>
       <c r="P75" t="s">
         <v>165</v>
@@ -6093,8 +6139,12 @@
       <c r="K76" t="s">
         <v>170</v>
       </c>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
+      <c r="L76" s="1">
+        <v>-25.2</v>
+      </c>
+      <c r="M76" s="1">
+        <v>-12.2</v>
+      </c>
       <c r="N76" s="1"/>
       <c r="P76" t="s">
         <v>171</v>
@@ -6149,8 +6199,12 @@
       <c r="K77" t="s">
         <v>174</v>
       </c>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
+      <c r="L77" s="1">
+        <v>-25.9</v>
+      </c>
+      <c r="M77" s="1">
+        <v>-12.8</v>
+      </c>
       <c r="N77" s="1"/>
       <c r="O77" s="6" t="s">
         <v>31</v>
@@ -6208,8 +6262,12 @@
       <c r="K78" t="s">
         <v>177</v>
       </c>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
+      <c r="L78" s="1">
+        <v>-23.3</v>
+      </c>
+      <c r="M78" s="1">
+        <v>-11.9</v>
+      </c>
       <c r="N78" s="1"/>
       <c r="P78" t="s">
         <v>178</v>
@@ -6264,8 +6322,12 @@
       <c r="K79" t="s">
         <v>181</v>
       </c>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
+      <c r="L79" s="1">
+        <v>-20</v>
+      </c>
+      <c r="M79" s="1">
+        <v>-6.5</v>
+      </c>
       <c r="N79" s="1"/>
       <c r="P79" t="s">
         <v>171</v>
@@ -6320,8 +6382,12 @@
       <c r="K80" t="s">
         <v>183</v>
       </c>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
+      <c r="L80" s="1">
+        <v>-24.3</v>
+      </c>
+      <c r="M80" s="1">
+        <v>-14.2</v>
+      </c>
       <c r="N80" s="1"/>
       <c r="P80" t="s">
         <v>184</v>
@@ -6376,8 +6442,12 @@
       <c r="K81" t="s">
         <v>187</v>
       </c>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
+      <c r="L81" s="1">
+        <v>-23.8</v>
+      </c>
+      <c r="M81" s="1">
+        <v>-11.4</v>
+      </c>
       <c r="N81" s="1"/>
       <c r="O81" s="6" t="s">
         <v>31</v>
@@ -6438,8 +6508,12 @@
       <c r="K82" t="s">
         <v>191</v>
       </c>
-      <c r="L82" s="1"/>
-      <c r="M82" s="1"/>
+      <c r="L82" s="1">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="M82" s="1">
+        <v>-11.6</v>
+      </c>
       <c r="N82" s="1"/>
       <c r="O82" s="6" t="s">
         <v>31</v>
@@ -6497,8 +6571,12 @@
       <c r="K83" t="s">
         <v>193</v>
       </c>
-      <c r="L83" s="1"/>
-      <c r="M83" s="1"/>
+      <c r="L83" s="1">
+        <v>-11.7</v>
+      </c>
+      <c r="M83" s="1">
+        <v>-5.0999999999999996</v>
+      </c>
       <c r="N83" s="1"/>
       <c r="P83" t="s">
         <v>194</v>
@@ -6553,8 +6631,12 @@
       <c r="K84" t="s">
         <v>197</v>
       </c>
-      <c r="L84" s="1"/>
-      <c r="M84" s="1"/>
+      <c r="L84" s="1">
+        <v>-13.2</v>
+      </c>
+      <c r="M84" s="1">
+        <v>-5.5</v>
+      </c>
       <c r="N84" s="1"/>
       <c r="O84" s="6" t="s">
         <v>31</v>
@@ -6612,8 +6694,12 @@
       <c r="K85" t="s">
         <v>201</v>
       </c>
-      <c r="L85" s="1"/>
-      <c r="M85" s="1"/>
+      <c r="L85" s="1">
+        <v>-16.600000000000001</v>
+      </c>
+      <c r="M85" s="1">
+        <v>-7</v>
+      </c>
       <c r="N85" s="1"/>
       <c r="P85" t="s">
         <v>202</v>
@@ -6668,8 +6754,12 @@
       <c r="K86" t="s">
         <v>205</v>
       </c>
-      <c r="L86" s="1"/>
-      <c r="M86" s="1"/>
+      <c r="L86" s="1">
+        <v>-17.5</v>
+      </c>
+      <c r="M86" s="1">
+        <v>-8.6999999999999993</v>
+      </c>
       <c r="N86" s="1"/>
       <c r="O86" s="6" t="s">
         <v>31</v>
@@ -6730,8 +6820,12 @@
       <c r="K87" t="s">
         <v>208</v>
       </c>
-      <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
+      <c r="L87" s="1">
+        <v>-21</v>
+      </c>
+      <c r="M87" s="1">
+        <v>-11.9</v>
+      </c>
       <c r="N87" s="1"/>
       <c r="P87" t="s">
         <v>202</v>
@@ -6786,8 +6880,12 @@
       <c r="K88" t="s">
         <v>210</v>
       </c>
-      <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
+      <c r="L88" s="1">
+        <v>-12.1</v>
+      </c>
+      <c r="M88" s="1">
+        <v>-6.7</v>
+      </c>
       <c r="N88" s="1"/>
       <c r="O88" s="6" t="s">
         <v>31</v>
@@ -6845,8 +6943,12 @@
       <c r="K89" t="s">
         <v>214</v>
       </c>
-      <c r="L89" s="1"/>
-      <c r="M89" s="1"/>
+      <c r="L89" s="1">
+        <v>-27.7</v>
+      </c>
+      <c r="M89" s="1">
+        <v>-8.6999999999999993</v>
+      </c>
       <c r="N89" s="1"/>
       <c r="P89" t="s">
         <v>184</v>
@@ -6898,8 +7000,12 @@
       <c r="K90" t="s">
         <v>217</v>
       </c>
-      <c r="L90" s="1"/>
-      <c r="M90" s="1"/>
+      <c r="L90" s="1">
+        <v>-6.8</v>
+      </c>
+      <c r="M90" s="1">
+        <v>-5.2</v>
+      </c>
       <c r="N90" s="1"/>
       <c r="P90" t="s">
         <v>218</v>
@@ -6951,8 +7057,12 @@
       <c r="K91" t="s">
         <v>222</v>
       </c>
-      <c r="L91" s="1"/>
-      <c r="M91" s="1"/>
+      <c r="L91" s="1">
+        <v>-13.9</v>
+      </c>
+      <c r="M91" s="1">
+        <v>-8.4</v>
+      </c>
       <c r="N91" s="1"/>
       <c r="P91" t="s">
         <v>223</v>
@@ -7004,8 +7114,12 @@
       <c r="K92" t="s">
         <v>225</v>
       </c>
-      <c r="L92" s="1"/>
-      <c r="M92" s="1"/>
+      <c r="L92" s="1">
+        <v>-7.1</v>
+      </c>
+      <c r="M92" s="1">
+        <v>-1.6</v>
+      </c>
       <c r="N92" s="1"/>
       <c r="P92" t="s">
         <v>226</v>
@@ -7060,8 +7174,12 @@
       <c r="K93" t="s">
         <v>230</v>
       </c>
-      <c r="L93" s="1"/>
-      <c r="M93" s="1"/>
+      <c r="L93" s="1">
+        <v>-4.3</v>
+      </c>
+      <c r="M93" s="1">
+        <v>2.7</v>
+      </c>
       <c r="N93" s="1"/>
       <c r="P93" t="s">
         <v>231</v>
@@ -7119,8 +7237,12 @@
       <c r="K94" t="s">
         <v>237</v>
       </c>
-      <c r="L94" s="1"/>
-      <c r="M94" s="1"/>
+      <c r="L94" s="1">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="M94" s="1">
+        <v>1.8</v>
+      </c>
       <c r="N94" s="1"/>
       <c r="O94" s="6" t="s">
         <v>31</v>
@@ -7184,8 +7306,12 @@
       <c r="K95" t="s">
         <v>242</v>
       </c>
-      <c r="L95" s="1"/>
-      <c r="M95" s="1"/>
+      <c r="L95" s="1">
+        <v>-10</v>
+      </c>
+      <c r="M95" s="1">
+        <v>-0.2</v>
+      </c>
       <c r="N95" s="1"/>
       <c r="P95" t="s">
         <v>243</v>
@@ -7249,8 +7375,12 @@
       <c r="K96" t="s">
         <v>248</v>
       </c>
-      <c r="L96" s="1"/>
-      <c r="M96" s="1"/>
+      <c r="L96" s="1">
+        <v>-7.8</v>
+      </c>
+      <c r="M96" s="1">
+        <v>0.2</v>
+      </c>
       <c r="N96" s="1"/>
       <c r="O96" s="6" t="s">
         <v>31</v>
@@ -7314,8 +7444,12 @@
       <c r="K97" t="s">
         <v>253</v>
       </c>
-      <c r="L97" s="1"/>
-      <c r="M97" s="1"/>
+      <c r="L97" s="1">
+        <v>-11.6</v>
+      </c>
+      <c r="M97" s="1">
+        <v>-0.3</v>
+      </c>
       <c r="N97" s="1"/>
       <c r="O97" s="6" t="s">
         <v>31</v>
@@ -7376,8 +7510,12 @@
       <c r="K98" t="s">
         <v>258</v>
       </c>
-      <c r="L98" s="1"/>
-      <c r="M98" s="1"/>
+      <c r="L98" s="1">
+        <v>-20.2</v>
+      </c>
+      <c r="M98" s="1">
+        <v>-5.6</v>
+      </c>
       <c r="N98" s="1"/>
       <c r="O98" s="6" t="s">
         <v>31</v>
@@ -7441,8 +7579,12 @@
       <c r="K99" t="s">
         <v>263</v>
       </c>
-      <c r="L99" s="1"/>
-      <c r="M99" s="1"/>
+      <c r="L99" s="1">
+        <v>-29.5</v>
+      </c>
+      <c r="M99" s="1">
+        <v>-13.9</v>
+      </c>
       <c r="N99" s="1"/>
       <c r="P99" t="s">
         <v>254</v>
@@ -7497,8 +7639,12 @@
       <c r="K100" t="s">
         <v>267</v>
       </c>
-      <c r="L100" s="1"/>
-      <c r="M100" s="1"/>
+      <c r="L100" s="1">
+        <v>-29.8</v>
+      </c>
+      <c r="M100" s="1">
+        <v>-14.7</v>
+      </c>
       <c r="N100" s="1"/>
       <c r="P100" t="s">
         <v>254</v>
@@ -7553,8 +7699,12 @@
       <c r="K101" t="s">
         <v>270</v>
       </c>
-      <c r="L101" s="1"/>
-      <c r="M101" s="1"/>
+      <c r="L101" s="1">
+        <v>-29.6</v>
+      </c>
+      <c r="M101" s="1">
+        <v>-15.5</v>
+      </c>
       <c r="N101" s="1"/>
       <c r="P101" t="s">
         <v>254</v>
@@ -7615,8 +7765,12 @@
       <c r="K102" t="s">
         <v>274</v>
       </c>
-      <c r="L102" s="1"/>
-      <c r="M102" s="1"/>
+      <c r="L102" s="1">
+        <v>-30</v>
+      </c>
+      <c r="M102" s="1">
+        <v>-13.1</v>
+      </c>
       <c r="N102" s="1"/>
       <c r="O102" s="6" t="s">
         <v>31</v>
@@ -7674,8 +7828,12 @@
       <c r="K103" t="s">
         <v>277</v>
       </c>
-      <c r="L103" s="1"/>
-      <c r="M103" s="1"/>
+      <c r="L103" s="1">
+        <v>-31.1</v>
+      </c>
+      <c r="M103" s="1">
+        <v>-17</v>
+      </c>
       <c r="N103" s="1"/>
       <c r="P103" t="s">
         <v>254</v>
@@ -7730,8 +7888,12 @@
       <c r="K104" t="s">
         <v>278</v>
       </c>
-      <c r="L104" s="1"/>
-      <c r="M104" s="1"/>
+      <c r="L104" s="1">
+        <v>-27.2</v>
+      </c>
+      <c r="M104" s="1">
+        <v>-11.2</v>
+      </c>
       <c r="N104" s="1"/>
       <c r="O104" s="6" t="s">
         <v>31</v>
@@ -7795,8 +7957,12 @@
       <c r="K105" t="s">
         <v>284</v>
       </c>
-      <c r="L105" s="1"/>
-      <c r="M105" s="1"/>
+      <c r="L105" s="1">
+        <v>-27.7</v>
+      </c>
+      <c r="M105" s="1">
+        <v>-10.5</v>
+      </c>
       <c r="N105" s="1"/>
       <c r="O105" s="6" t="s">
         <v>31</v>
@@ -7854,8 +8020,12 @@
       <c r="K106" t="s">
         <v>286</v>
       </c>
-      <c r="L106" s="1"/>
-      <c r="M106" s="1"/>
+      <c r="L106" s="1">
+        <v>-20.7</v>
+      </c>
+      <c r="M106" s="1">
+        <v>-9.5</v>
+      </c>
       <c r="N106" s="1"/>
       <c r="P106" t="s">
         <v>279</v>
@@ -7969,8 +8139,12 @@
       <c r="K108" t="s">
         <v>291</v>
       </c>
-      <c r="L108" s="1"/>
-      <c r="M108" s="1"/>
+      <c r="L108" s="1">
+        <v>-18</v>
+      </c>
+      <c r="M108" s="1">
+        <v>-8.1999999999999993</v>
+      </c>
       <c r="N108" s="1"/>
       <c r="P108" t="s">
         <v>279</v>
@@ -8140,8 +8314,12 @@
       <c r="K111" t="s">
         <v>298</v>
       </c>
-      <c r="L111" s="1"/>
-      <c r="M111" s="1"/>
+      <c r="L111" s="1">
+        <v>-22.3</v>
+      </c>
+      <c r="M111" s="1">
+        <v>-5.3</v>
+      </c>
       <c r="N111" s="1"/>
       <c r="P111" t="s">
         <v>279</v>
@@ -8196,8 +8374,12 @@
       <c r="K112" t="s">
         <v>301</v>
       </c>
-      <c r="L112" s="1"/>
-      <c r="M112" s="1"/>
+      <c r="L112" s="1">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="M112" s="1">
+        <v>0.7</v>
+      </c>
       <c r="N112" s="1"/>
       <c r="O112" s="6" t="s">
         <v>31</v>
@@ -8252,8 +8434,12 @@
       <c r="K113" t="s">
         <v>305</v>
       </c>
-      <c r="L113" s="1"/>
-      <c r="M113" s="1"/>
+      <c r="L113" s="1">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="M113" s="1">
+        <v>-1.8</v>
+      </c>
       <c r="N113" s="1"/>
       <c r="O113" s="6" t="s">
         <v>31</v>
@@ -8311,8 +8497,12 @@
       <c r="K114" t="s">
         <v>310</v>
       </c>
-      <c r="L114" s="1"/>
-      <c r="M114" s="1"/>
+      <c r="L114" s="1">
+        <v>-26.8</v>
+      </c>
+      <c r="M114" s="1">
+        <v>-4.0999999999999996</v>
+      </c>
       <c r="N114" s="1"/>
       <c r="O114" s="6" t="s">
         <v>31</v>
@@ -8376,8 +8566,12 @@
       <c r="K115" t="s">
         <v>315</v>
       </c>
-      <c r="L115" s="1"/>
-      <c r="M115" s="1"/>
+      <c r="L115" s="1">
+        <v>-23</v>
+      </c>
+      <c r="M115" s="1">
+        <v>-5.3</v>
+      </c>
       <c r="N115" s="1"/>
       <c r="O115" s="6" t="s">
         <v>31</v>
@@ -8441,8 +8635,12 @@
       <c r="K116" t="s">
         <v>318</v>
       </c>
-      <c r="L116" s="1"/>
-      <c r="M116" s="1"/>
+      <c r="L116" s="1">
+        <v>-6.6</v>
+      </c>
+      <c r="M116" s="1">
+        <v>2.9</v>
+      </c>
       <c r="N116" s="1"/>
       <c r="O116" s="6" t="s">
         <v>31</v>
@@ -8500,8 +8698,12 @@
       <c r="K117" t="s">
         <v>322</v>
       </c>
-      <c r="L117" s="1"/>
-      <c r="M117" s="1"/>
+      <c r="L117" s="1">
+        <v>-7.9</v>
+      </c>
+      <c r="M117" s="1">
+        <v>3</v>
+      </c>
       <c r="N117" s="1"/>
       <c r="O117" s="6" t="s">
         <v>31</v>
@@ -8559,8 +8761,12 @@
       <c r="K118" t="s">
         <v>327</v>
       </c>
-      <c r="L118" s="1"/>
-      <c r="M118" s="1"/>
+      <c r="L118" s="1">
+        <v>-15.3</v>
+      </c>
+      <c r="M118" s="1">
+        <v>-4.5999999999999996</v>
+      </c>
       <c r="N118" s="1"/>
       <c r="O118" s="6" t="s">
         <v>31</v>
@@ -8624,8 +8830,12 @@
       <c r="K119" t="s">
         <v>331</v>
       </c>
-      <c r="L119" s="1"/>
-      <c r="M119" s="1"/>
+      <c r="L119" s="1">
+        <v>-13.7</v>
+      </c>
+      <c r="M119" s="1">
+        <v>-3.2</v>
+      </c>
       <c r="N119" s="1"/>
       <c r="P119" t="s">
         <v>323</v>
@@ -8689,8 +8899,12 @@
       <c r="K120" t="s">
         <v>336</v>
       </c>
-      <c r="L120" s="1"/>
-      <c r="M120" s="1"/>
+      <c r="L120" s="1">
+        <v>-0.7</v>
+      </c>
+      <c r="M120" s="1">
+        <v>7.3</v>
+      </c>
       <c r="N120" s="1"/>
       <c r="O120" s="6" t="s">
         <v>31</v>
@@ -8751,8 +8965,12 @@
       <c r="K121" t="s">
         <v>341</v>
       </c>
-      <c r="L121" s="1"/>
-      <c r="M121" s="1"/>
+      <c r="L121" s="1">
+        <v>-4</v>
+      </c>
+      <c r="M121" s="1">
+        <v>3.6</v>
+      </c>
       <c r="N121" s="1"/>
       <c r="O121" s="6" t="s">
         <v>31</v>
@@ -8819,8 +9037,12 @@
       <c r="K122" t="s">
         <v>346</v>
       </c>
-      <c r="L122" s="1"/>
-      <c r="M122" s="1"/>
+      <c r="L122" s="1">
+        <v>-21.7</v>
+      </c>
+      <c r="M122" s="1">
+        <v>-3.1</v>
+      </c>
       <c r="N122" s="1"/>
       <c r="O122" s="6" t="s">
         <v>31</v>
@@ -8940,8 +9162,12 @@
       <c r="K124" t="s">
         <v>354</v>
       </c>
-      <c r="L124" s="1"/>
-      <c r="M124" s="1"/>
+      <c r="L124" s="1">
+        <v>-13.4</v>
+      </c>
+      <c r="M124" s="1">
+        <v>1.5</v>
+      </c>
       <c r="N124" s="1"/>
       <c r="O124" s="6" t="s">
         <v>31</v>
@@ -9008,8 +9234,12 @@
       <c r="K125" t="s">
         <v>359</v>
       </c>
-      <c r="L125" s="1"/>
-      <c r="M125" s="1"/>
+      <c r="L125" s="1">
+        <v>-3.5</v>
+      </c>
+      <c r="M125" s="1">
+        <v>6.2</v>
+      </c>
       <c r="N125" s="1"/>
       <c r="O125" s="6" t="s">
         <v>31</v>
@@ -9117,8 +9347,12 @@
       <c r="K127" t="s">
         <v>367</v>
       </c>
-      <c r="L127" s="1"/>
-      <c r="M127" s="1"/>
+      <c r="L127" s="1">
+        <v>-7.8</v>
+      </c>
+      <c r="M127" s="1">
+        <v>13.1</v>
+      </c>
       <c r="N127" s="1"/>
       <c r="O127" s="6" t="s">
         <v>31</v>
@@ -9182,8 +9416,12 @@
       <c r="K128" t="s">
         <v>373</v>
       </c>
-      <c r="L128" s="1"/>
-      <c r="M128" s="1"/>
+      <c r="L128" s="1">
+        <v>-0.4</v>
+      </c>
+      <c r="M128" s="1">
+        <v>9.5</v>
+      </c>
       <c r="N128" s="1"/>
       <c r="O128" s="6" t="s">
         <v>31</v>
@@ -9241,8 +9479,12 @@
       <c r="K129" t="s">
         <v>377</v>
       </c>
-      <c r="L129" s="1"/>
-      <c r="M129" s="1"/>
+      <c r="L129" s="1">
+        <v>-7.6</v>
+      </c>
+      <c r="M129" s="1">
+        <v>8.8000000000000007</v>
+      </c>
       <c r="N129" s="1"/>
       <c r="O129" s="6" t="s">
         <v>31</v>
@@ -9306,8 +9548,12 @@
       <c r="K130" t="s">
         <v>383</v>
       </c>
-      <c r="L130" s="1"/>
-      <c r="M130" s="1"/>
+      <c r="L130" s="1">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="M130" s="1">
+        <v>9.4</v>
+      </c>
       <c r="N130" s="1"/>
       <c r="O130" s="6" t="s">
         <v>31</v>
@@ -9371,8 +9617,12 @@
       <c r="K131" t="s">
         <v>388</v>
       </c>
-      <c r="L131" s="1"/>
-      <c r="M131" s="1"/>
+      <c r="L131" s="1">
+        <v>0</v>
+      </c>
+      <c r="M131" s="1">
+        <v>10</v>
+      </c>
       <c r="N131" s="1"/>
       <c r="O131" s="6" t="s">
         <v>31</v>
@@ -9433,8 +9683,12 @@
       <c r="K132" t="s">
         <v>394</v>
       </c>
-      <c r="L132" s="1"/>
-      <c r="M132" s="1"/>
+      <c r="L132" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="M132" s="1">
+        <v>14.1</v>
+      </c>
       <c r="N132" s="1"/>
       <c r="O132" s="6" t="s">
         <v>31</v>
@@ -9495,8 +9749,12 @@
       <c r="K133" t="s">
         <v>400</v>
       </c>
-      <c r="L133" s="1"/>
-      <c r="M133" s="1"/>
+      <c r="L133" s="1">
+        <v>-1.3</v>
+      </c>
+      <c r="M133" s="1">
+        <v>12.2</v>
+      </c>
       <c r="N133" s="1"/>
       <c r="O133" s="6" t="s">
         <v>31</v>
@@ -9560,8 +9818,12 @@
       <c r="K134" t="s">
         <v>407</v>
       </c>
-      <c r="L134" s="1"/>
-      <c r="M134" s="1"/>
+      <c r="L134" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="M134" s="1">
+        <v>15.8</v>
+      </c>
       <c r="N134" s="1"/>
       <c r="O134" s="6" t="s">
         <v>31</v>
@@ -9619,8 +9881,12 @@
       <c r="K135" t="s">
         <v>412</v>
       </c>
-      <c r="L135" s="1"/>
-      <c r="M135" s="1"/>
+      <c r="L135" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="M135" s="1">
+        <v>17.600000000000001</v>
+      </c>
       <c r="N135" s="1"/>
       <c r="O135" s="6" t="s">
         <v>31</v>
@@ -9681,8 +9947,12 @@
       <c r="K136" t="s">
         <v>418</v>
       </c>
-      <c r="L136" s="1"/>
-      <c r="M136" s="1"/>
+      <c r="L136" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="M136" s="1">
+        <v>16.7</v>
+      </c>
       <c r="N136" s="1"/>
       <c r="O136" s="6" t="s">
         <v>31</v>
@@ -9743,8 +10013,12 @@
       <c r="K137" t="s">
         <v>424</v>
       </c>
-      <c r="L137" s="1"/>
-      <c r="M137" s="1"/>
+      <c r="L137" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M137" s="1">
+        <v>16.399999999999999</v>
+      </c>
       <c r="N137" s="1"/>
       <c r="O137" s="6" t="s">
         <v>31</v>
@@ -9805,8 +10079,12 @@
       <c r="K138" t="s">
         <v>430</v>
       </c>
-      <c r="L138" s="1"/>
-      <c r="M138" s="1"/>
+      <c r="L138" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="M138" s="1">
+        <v>13.8</v>
+      </c>
       <c r="N138" s="1"/>
       <c r="O138" s="6" t="s">
         <v>31</v>
@@ -9867,8 +10145,12 @@
       <c r="K139" t="s">
         <v>436</v>
       </c>
-      <c r="L139" s="1"/>
-      <c r="M139" s="1"/>
+      <c r="L139" s="1">
+        <v>6</v>
+      </c>
+      <c r="M139" s="1">
+        <v>15.5</v>
+      </c>
       <c r="N139" s="1"/>
       <c r="O139" s="6" t="s">
         <v>31</v>
@@ -9929,8 +10211,12 @@
       <c r="K140" t="s">
         <v>441</v>
       </c>
-      <c r="L140" s="1"/>
-      <c r="M140" s="1"/>
+      <c r="L140" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="M140" s="1">
+        <v>16</v>
+      </c>
       <c r="N140" s="1"/>
       <c r="O140" s="6" t="s">
         <v>31</v>
@@ -9991,8 +10277,12 @@
       <c r="K141" t="s">
         <v>447</v>
       </c>
-      <c r="L141" s="1"/>
-      <c r="M141" s="1"/>
+      <c r="L141" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="M141" s="1">
+        <v>19.2</v>
+      </c>
       <c r="N141" s="1"/>
       <c r="O141" s="6" t="s">
         <v>31</v>
@@ -10050,8 +10340,12 @@
       <c r="K142" t="s">
         <v>452</v>
       </c>
-      <c r="L142" s="1"/>
-      <c r="M142" s="1"/>
+      <c r="L142" s="1">
+        <v>15.7</v>
+      </c>
+      <c r="M142" s="1">
+        <v>24.5</v>
+      </c>
       <c r="N142" s="1"/>
       <c r="O142" s="6" t="s">
         <v>31</v>
@@ -10112,8 +10406,12 @@
       <c r="K143" t="s">
         <v>458</v>
       </c>
-      <c r="L143" s="1"/>
-      <c r="M143" s="1"/>
+      <c r="L143" s="1">
+        <v>15</v>
+      </c>
+      <c r="M143" s="1">
+        <v>23.8</v>
+      </c>
       <c r="N143" s="1"/>
       <c r="O143" s="6" t="s">
         <v>31</v>
@@ -10174,8 +10472,12 @@
       <c r="K144" t="s">
         <v>464</v>
       </c>
-      <c r="L144" s="1"/>
-      <c r="M144" s="1"/>
+      <c r="L144" s="1">
+        <v>20.7</v>
+      </c>
+      <c r="M144" s="1">
+        <v>23.8</v>
+      </c>
       <c r="N144" s="1"/>
       <c r="P144" t="s">
         <v>465</v>
@@ -10230,8 +10532,12 @@
       <c r="K145" t="s">
         <v>469</v>
       </c>
-      <c r="L145" s="1"/>
-      <c r="M145" s="1"/>
+      <c r="L145" s="1">
+        <v>19</v>
+      </c>
+      <c r="M145" s="1">
+        <v>24.9</v>
+      </c>
       <c r="N145" s="1"/>
       <c r="O145" s="6" t="s">
         <v>31</v>
@@ -10286,8 +10592,12 @@
       <c r="K146" t="s">
         <v>473</v>
       </c>
-      <c r="L146" s="1"/>
-      <c r="M146" s="1"/>
+      <c r="L146" s="1">
+        <v>21.1</v>
+      </c>
+      <c r="M146" s="1">
+        <v>25.1</v>
+      </c>
       <c r="N146" s="1"/>
       <c r="O146" s="6" t="s">
         <v>31</v>
@@ -10342,8 +10652,12 @@
       <c r="K147" t="s">
         <v>476</v>
       </c>
-      <c r="L147" s="1"/>
-      <c r="M147" s="1"/>
+      <c r="L147" s="1">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="M147" s="1">
+        <v>22.1</v>
+      </c>
       <c r="N147" s="1"/>
       <c r="O147" s="6" t="s">
         <v>31</v>
@@ -10404,8 +10718,12 @@
       <c r="K148" t="s">
         <v>482</v>
       </c>
-      <c r="L148" s="1"/>
-      <c r="M148" s="1"/>
+      <c r="L148" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="M148" s="1">
+        <v>24.4</v>
+      </c>
       <c r="N148" s="1"/>
       <c r="O148" s="6" t="s">
         <v>31</v>
@@ -10463,8 +10781,12 @@
       <c r="K149" t="s">
         <v>487</v>
       </c>
-      <c r="L149" s="1"/>
-      <c r="M149" s="1"/>
+      <c r="L149" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M149" s="1">
+        <v>13.8</v>
+      </c>
       <c r="N149" s="1"/>
       <c r="O149" s="6" t="s">
         <v>31</v>
@@ -10525,8 +10847,12 @@
       <c r="K150" t="s">
         <v>492</v>
       </c>
-      <c r="L150" s="1"/>
-      <c r="M150" s="1"/>
+      <c r="L150" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="M150" s="1">
+        <v>15</v>
+      </c>
       <c r="N150" s="1"/>
       <c r="O150" s="6" t="s">
         <v>31</v>
@@ -10587,8 +10913,12 @@
       <c r="K151" t="s">
         <v>498</v>
       </c>
-      <c r="L151" s="1"/>
-      <c r="M151" s="1"/>
+      <c r="L151" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="M151" s="1">
+        <v>15.9</v>
+      </c>
       <c r="N151" s="1"/>
       <c r="O151" s="6" t="s">
         <v>31</v>
@@ -10699,8 +11029,12 @@
       <c r="K153" t="s">
         <v>507</v>
       </c>
-      <c r="L153" s="1"/>
-      <c r="M153" s="1"/>
+      <c r="L153" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="M153" s="1">
+        <v>15.1</v>
+      </c>
       <c r="N153" s="1"/>
       <c r="O153" s="6" t="s">
         <v>31</v>
@@ -10764,8 +11098,12 @@
       <c r="K154" t="s">
         <v>513</v>
       </c>
-      <c r="L154" s="1"/>
-      <c r="M154" s="1"/>
+      <c r="L154" s="1">
+        <v>-4.2</v>
+      </c>
+      <c r="M154" s="1">
+        <v>10.6</v>
+      </c>
       <c r="N154" s="1"/>
       <c r="O154" s="6" t="s">
         <v>31</v>
@@ -10873,8 +11211,12 @@
       <c r="K156" t="s">
         <v>520</v>
       </c>
-      <c r="L156" s="1"/>
-      <c r="M156" s="1"/>
+      <c r="L156" s="1">
+        <v>-15.6</v>
+      </c>
+      <c r="M156" s="1">
+        <v>6.7</v>
+      </c>
       <c r="N156" s="1"/>
       <c r="O156" s="6" t="s">
         <v>31</v>
@@ -11356,8 +11698,12 @@
       <c r="K165" t="s">
         <v>550</v>
       </c>
-      <c r="L165" s="1"/>
-      <c r="M165" s="1"/>
+      <c r="L165" s="1">
+        <v>-30.6</v>
+      </c>
+      <c r="M165" s="1">
+        <v>-10.199999999999999</v>
+      </c>
       <c r="N165" s="1"/>
       <c r="P165" t="s">
         <v>279</v>
@@ -11562,8 +11908,12 @@
       <c r="K169" t="s">
         <v>560</v>
       </c>
-      <c r="L169" s="1"/>
-      <c r="M169" s="1"/>
+      <c r="L169" s="1">
+        <v>-21.7</v>
+      </c>
+      <c r="M169" s="1">
+        <v>-7.3</v>
+      </c>
       <c r="N169" s="1"/>
       <c r="P169" t="s">
         <v>323</v>
@@ -11715,8 +12065,12 @@
       <c r="K172" t="s">
         <v>567</v>
       </c>
-      <c r="L172" s="1"/>
-      <c r="M172" s="1"/>
+      <c r="L172" s="1">
+        <v>-19</v>
+      </c>
+      <c r="M172" s="1">
+        <v>-0.5</v>
+      </c>
       <c r="N172" s="1"/>
       <c r="P172" t="s">
         <v>323</v>
@@ -11768,8 +12122,12 @@
       <c r="K173" t="s">
         <v>569</v>
       </c>
-      <c r="L173" s="1"/>
-      <c r="M173" s="1"/>
+      <c r="L173" s="1">
+        <v>-20.5</v>
+      </c>
+      <c r="M173" s="1">
+        <v>-3.2</v>
+      </c>
       <c r="N173" s="1"/>
       <c r="P173" t="s">
         <v>302</v>
@@ -11924,8 +12282,12 @@
       <c r="K176" t="s">
         <v>581</v>
       </c>
-      <c r="L176" s="1"/>
-      <c r="M176" s="1"/>
+      <c r="L176" s="1">
+        <v>-5.2</v>
+      </c>
+      <c r="M176" s="1">
+        <v>3.4</v>
+      </c>
       <c r="N176" s="1"/>
       <c r="O176" s="6" t="s">
         <v>31</v>
@@ -11971,8 +12333,12 @@
       <c r="K177" t="s">
         <v>584</v>
       </c>
-      <c r="L177" s="1"/>
-      <c r="M177" s="1"/>
+      <c r="L177" s="1">
+        <v>-12.9</v>
+      </c>
+      <c r="M177" s="1">
+        <v>-9.9</v>
+      </c>
       <c r="N177" s="1"/>
       <c r="O177" s="6" t="s">
         <v>31</v>
@@ -12380,8 +12746,12 @@
       <c r="K185" t="s">
         <v>608</v>
       </c>
-      <c r="L185" s="1"/>
-      <c r="M185" s="1"/>
+      <c r="L185" s="1">
+        <v>-38.299999999999997</v>
+      </c>
+      <c r="M185" s="1">
+        <v>-23.2</v>
+      </c>
       <c r="N185" s="1"/>
       <c r="O185" s="6" t="s">
         <v>31</v>
@@ -12436,8 +12806,12 @@
       <c r="K186" t="s">
         <v>614</v>
       </c>
-      <c r="L186" s="1"/>
-      <c r="M186" s="1"/>
+      <c r="L186" s="1">
+        <v>-49.5</v>
+      </c>
+      <c r="M186" s="1">
+        <v>-44.9</v>
+      </c>
       <c r="N186" s="1"/>
       <c r="O186" s="6" t="s">
         <v>31</v>
@@ -12492,8 +12866,12 @@
       <c r="K187" t="s">
         <v>617</v>
       </c>
-      <c r="L187" s="1"/>
-      <c r="M187" s="1"/>
+      <c r="L187" s="1">
+        <v>-50</v>
+      </c>
+      <c r="M187" s="1">
+        <v>-48.1</v>
+      </c>
       <c r="N187" s="1"/>
       <c r="O187" s="6" t="s">
         <v>31</v>
@@ -12545,8 +12923,12 @@
       <c r="K188" t="s">
         <v>620</v>
       </c>
-      <c r="L188" s="1"/>
-      <c r="M188" s="1"/>
+      <c r="L188" s="1">
+        <v>-50</v>
+      </c>
+      <c r="M188" s="1">
+        <v>-47.1</v>
+      </c>
       <c r="N188" s="1"/>
       <c r="O188" s="6" t="s">
         <v>31</v>
@@ -12598,8 +12980,12 @@
       <c r="K189" t="s">
         <v>622</v>
       </c>
-      <c r="L189" s="1"/>
-      <c r="M189" s="1"/>
+      <c r="L189" s="1">
+        <v>-50.7</v>
+      </c>
+      <c r="M189" s="1">
+        <v>-46</v>
+      </c>
       <c r="N189" s="1"/>
       <c r="O189" s="6" t="s">
         <v>31</v>
@@ -12651,8 +13037,12 @@
       <c r="K190" t="s">
         <v>624</v>
       </c>
-      <c r="L190" s="1"/>
-      <c r="M190" s="1"/>
+      <c r="L190" s="1">
+        <v>-47.8</v>
+      </c>
+      <c r="M190" s="1">
+        <v>-44.2</v>
+      </c>
       <c r="N190" s="1"/>
       <c r="O190" s="6" t="s">
         <v>31</v>
@@ -12704,8 +13094,12 @@
       <c r="K191" t="s">
         <v>627</v>
       </c>
-      <c r="L191" s="1"/>
-      <c r="M191" s="1"/>
+      <c r="L191" s="1">
+        <v>-48.8</v>
+      </c>
+      <c r="M191" s="1">
+        <v>-44.6</v>
+      </c>
       <c r="N191" s="1"/>
       <c r="O191" s="6" t="s">
         <v>31</v>
@@ -12754,8 +13148,12 @@
       <c r="K192" t="s">
         <v>629</v>
       </c>
-      <c r="L192" s="1"/>
-      <c r="M192" s="1"/>
+      <c r="L192" s="1">
+        <v>-44.8</v>
+      </c>
+      <c r="M192" s="1">
+        <v>-40</v>
+      </c>
       <c r="N192" s="1"/>
       <c r="O192" s="6" t="s">
         <v>31</v>
@@ -12807,8 +13205,12 @@
       <c r="K193" t="s">
         <v>632</v>
       </c>
-      <c r="L193" s="1"/>
-      <c r="M193" s="1"/>
+      <c r="L193" s="1">
+        <v>-37.5</v>
+      </c>
+      <c r="M193" s="1">
+        <v>-27.8</v>
+      </c>
       <c r="N193" s="1"/>
       <c r="O193" s="6" t="s">
         <v>31</v>
@@ -12863,8 +13265,12 @@
       <c r="K194" t="s">
         <v>635</v>
       </c>
-      <c r="L194" s="1"/>
-      <c r="M194" s="1"/>
+      <c r="L194" s="1">
+        <v>-47.8</v>
+      </c>
+      <c r="M194" s="1">
+        <v>-44.6</v>
+      </c>
       <c r="N194" s="1"/>
       <c r="O194" s="6" t="s">
         <v>31</v>
@@ -12913,8 +13319,12 @@
       <c r="K195" t="s">
         <v>637</v>
       </c>
-      <c r="L195" s="1"/>
-      <c r="M195" s="1"/>
+      <c r="L195" s="1">
+        <v>-22.6</v>
+      </c>
+      <c r="M195" s="1">
+        <v>-19.2</v>
+      </c>
       <c r="N195" s="1"/>
       <c r="O195" s="6" t="s">
         <v>31</v>
@@ -12966,8 +13376,12 @@
       <c r="K196" t="s">
         <v>641</v>
       </c>
-      <c r="L196" s="1"/>
-      <c r="M196" s="1"/>
+      <c r="L196" s="1">
+        <v>-44</v>
+      </c>
+      <c r="M196" s="1">
+        <v>-31.8</v>
+      </c>
       <c r="N196" s="1"/>
       <c r="O196" s="6" t="s">
         <v>31</v>
@@ -13019,8 +13433,12 @@
       <c r="K197" t="s">
         <v>645</v>
       </c>
-      <c r="L197" s="1"/>
-      <c r="M197" s="1"/>
+      <c r="L197" s="1">
+        <v>-35.6</v>
+      </c>
+      <c r="M197" s="1">
+        <v>-28</v>
+      </c>
       <c r="N197" s="1"/>
       <c r="O197" s="6" t="s">
         <v>31</v>
@@ -13070,8 +13488,12 @@
       <c r="N202" s="1"/>
     </row>
     <row r="203" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="L203" s="1"/>
-      <c r="M203" s="1"/>
+      <c r="L203" s="1">
+        <v>-29.9</v>
+      </c>
+      <c r="M203" s="1">
+        <v>-12.8</v>
+      </c>
       <c r="N203" s="1"/>
     </row>
     <row r="204" spans="1:28" x14ac:dyDescent="0.4">
@@ -13095,8 +13517,12 @@
       <c r="N207" s="1"/>
     </row>
     <row r="208" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="L208" s="1"/>
-      <c r="M208" s="1"/>
+      <c r="L208" s="1">
+        <v>-28.8</v>
+      </c>
+      <c r="M208" s="1">
+        <v>-1.3</v>
+      </c>
       <c r="N208" s="1"/>
     </row>
     <row r="209" spans="12:14" x14ac:dyDescent="0.4">
@@ -13120,8 +13546,12 @@
       <c r="N212" s="1"/>
     </row>
     <row r="213" spans="12:14" x14ac:dyDescent="0.4">
-      <c r="L213" s="1"/>
-      <c r="M213" s="1"/>
+      <c r="L213" s="1">
+        <v>-33.9</v>
+      </c>
+      <c r="M213" s="1">
+        <v>-17.5</v>
+      </c>
       <c r="N213" s="1"/>
     </row>
     <row r="214" spans="12:14" x14ac:dyDescent="0.4">
@@ -13816,9 +14246,6 @@
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <protectedRanges>
-    <protectedRange sqref="L2:N351" name="区域1"/>
-  </protectedRanges>
   <autoFilter ref="A1:AC197" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/气象/For_Python_站点信息和记录.xlsx
+++ b/气象/For_Python_站点信息和记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFA419F-31AD-4377-9061-25ADE7144F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578853EA-6930-4728-9D54-5075B977945E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="683">
   <si>
     <t>id</t>
   </si>
@@ -1721,9 +1721,6 @@
     <t>Y6770</t>
   </si>
   <si>
-    <t>可可托海滑雪场3100山顶</t>
-  </si>
-  <si>
     <t>Y5808</t>
   </si>
   <si>
@@ -1733,9 +1730,6 @@
     <t>B3521</t>
   </si>
   <si>
-    <t>机械林场</t>
-  </si>
-  <si>
     <t>承德市</t>
   </si>
   <si>
@@ -1790,12 +1784,6 @@
     <t>Y5315</t>
   </si>
   <si>
-    <t>喀纳斯湖一道弯</t>
-  </si>
-  <si>
-    <t>赛里木湖东岸</t>
-  </si>
-  <si>
     <t>博尔塔拉蒙古自治州</t>
   </si>
   <si>
@@ -1805,9 +1793,6 @@
     <t>S9355</t>
   </si>
   <si>
-    <t>九寨沟漳扎长海</t>
-  </si>
-  <si>
     <t>阿坝藏族羌族自治州</t>
   </si>
   <si>
@@ -1815,9 +1800,6 @@
   </si>
   <si>
     <t>P1823</t>
-  </si>
-  <si>
-    <t>张家界天门山景区</t>
   </si>
   <si>
     <t>张家界市</t>
@@ -2082,6 +2064,54 @@
   </si>
   <si>
     <t>黑龙江、大兴安岭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞罕坝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可可托海山顶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张家界天门山</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>九寨沟长海</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>喀纳斯湖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛里木湖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>👑💎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>💎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>▲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>⚡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>💎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>⚡</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2520,7 +2550,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2570,10 +2600,10 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>9</v>
@@ -2582,7 +2612,7 @@
         <v>10</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>11</v>
@@ -2659,7 +2689,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>654</v>
+        <v>677</v>
       </c>
       <c r="L2" t="s">
         <v>29</v>
@@ -2668,7 +2698,7 @@
         <v>30</v>
       </c>
       <c r="N2" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="O2" s="1">
         <v>-18.8</v>
@@ -2725,13 +2755,13 @@
         <v>12</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>654</v>
+        <v>677</v>
       </c>
       <c r="M3" t="s">
         <v>36</v>
       </c>
       <c r="N3" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="O3" s="1">
         <v>-21.7</v>
@@ -2795,7 +2825,7 @@
         <v>30</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="O4" s="1">
         <v>-11.9</v>
@@ -2911,13 +2941,13 @@
         <v>12</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>654</v>
+        <v>678</v>
       </c>
       <c r="M6" t="s">
         <v>43</v>
       </c>
       <c r="N6" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="O6" s="1">
         <v>-23.2</v>
@@ -2974,7 +3004,7 @@
         <v>12</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="L7" t="s">
         <v>45</v>
@@ -2982,7 +3012,9 @@
       <c r="M7" t="s">
         <v>46</v>
       </c>
-      <c r="N7"/>
+      <c r="N7" t="s">
+        <v>679</v>
+      </c>
       <c r="O7" s="1">
         <v>-18.5</v>
       </c>
@@ -3148,7 +3180,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:32" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3180,7 +3212,9 @@
       <c r="M10" t="s">
         <v>56</v>
       </c>
-      <c r="N10"/>
+      <c r="N10" s="10" t="s">
+        <v>680</v>
+      </c>
       <c r="O10" s="1">
         <v>-17</v>
       </c>
@@ -3249,7 +3283,7 @@
         <v>58</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="O11" s="1">
         <v>-8</v>
@@ -3386,12 +3420,14 @@
         <v>12</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="M13" t="s">
         <v>63</v>
       </c>
-      <c r="N13" s="11"/>
+      <c r="N13" s="10" t="s">
+        <v>679</v>
+      </c>
       <c r="O13" s="1">
         <v>-22.2</v>
       </c>
@@ -3637,7 +3673,7 @@
         <v>70</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -4399,8 +4435,12 @@
         <v>98</v>
       </c>
       <c r="N31"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
+      <c r="O31" s="1">
+        <v>-55.6</v>
+      </c>
+      <c r="P31" s="1">
+        <v>-41.5</v>
+      </c>
       <c r="Q31" s="1"/>
       <c r="S31" t="s">
         <v>47</v>
@@ -4791,7 +4831,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:31" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4817,7 +4857,7 @@
       <c r="M39" t="s">
         <v>108</v>
       </c>
-      <c r="N39"/>
+      <c r="N39" s="10"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
@@ -4840,7 +4880,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:31" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4863,7 +4903,9 @@
       <c r="M40" t="s">
         <v>109</v>
       </c>
-      <c r="N40"/>
+      <c r="N40" s="10" t="s">
+        <v>680</v>
+      </c>
       <c r="O40" s="1">
         <v>-25</v>
       </c>
@@ -6711,7 +6753,7 @@
         <v>15</v>
       </c>
       <c r="K76" s="10" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="M76" t="s">
         <v>170</v>
@@ -6780,13 +6822,13 @@
         <v>15</v>
       </c>
       <c r="K77" s="10" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="M77" t="s">
         <v>174</v>
       </c>
       <c r="N77" s="11" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="O77" s="1">
         <v>-20.5</v>
@@ -7055,13 +7097,13 @@
         <v>12</v>
       </c>
       <c r="K81" s="10" t="s">
-        <v>654</v>
+        <v>677</v>
       </c>
       <c r="M81" t="s">
         <v>187</v>
       </c>
       <c r="N81" s="10" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="O81" s="1">
         <v>-40.299999999999997</v>
@@ -7132,13 +7174,13 @@
         <v>12</v>
       </c>
       <c r="K82" s="10" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="M82" t="s">
         <v>191</v>
       </c>
       <c r="N82" s="10" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="O82" s="1">
         <v>-37.4</v>
@@ -7277,7 +7319,7 @@
         <v>197</v>
       </c>
       <c r="N84" s="10" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="O84" s="1">
         <v>-18.5</v>
@@ -7345,7 +7387,7 @@
         <v>12</v>
       </c>
       <c r="K85" s="10" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="M85" t="s">
         <v>201</v>
@@ -7491,7 +7533,7 @@
         <v>208</v>
       </c>
       <c r="N87" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="O87" s="1">
         <v>-16.5</v>
@@ -8492,7 +8534,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:31" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>101</v>
       </c>
@@ -8520,7 +8562,9 @@
       <c r="J102">
         <v>12</v>
       </c>
-      <c r="K102"/>
+      <c r="K102" s="10" t="s">
+        <v>681</v>
+      </c>
       <c r="M102" t="s">
         <v>274</v>
       </c>
@@ -8591,7 +8635,7 @@
         <v>12</v>
       </c>
       <c r="K103" s="10" t="s">
-        <v>654</v>
+        <v>681</v>
       </c>
       <c r="M103" t="s">
         <v>277</v>
@@ -8732,13 +8776,13 @@
         <v>12</v>
       </c>
       <c r="K105" s="10" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="M105" t="s">
         <v>284</v>
       </c>
       <c r="N105" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="O105" s="1">
         <v>-31.7</v>
@@ -8806,13 +8850,13 @@
         <v>12</v>
       </c>
       <c r="K106" s="10" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="M106" t="s">
         <v>286</v>
       </c>
       <c r="N106" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="O106" s="1">
         <v>-24.1</v>
@@ -9331,7 +9375,7 @@
         <v>310</v>
       </c>
       <c r="N114" s="11" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="O114" s="1">
         <v>-28.7</v>
@@ -9407,7 +9451,7 @@
         <v>315</v>
       </c>
       <c r="N115" s="11" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="O115" s="1">
         <v>-24.8</v>
@@ -9594,7 +9638,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="118" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:32" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>117</v>
       </c>
@@ -9620,7 +9664,9 @@
       <c r="M118" t="s">
         <v>327</v>
       </c>
-      <c r="N118"/>
+      <c r="N118" s="10" t="s">
+        <v>682</v>
+      </c>
       <c r="O118" s="1">
         <v>-21.3</v>
       </c>
@@ -12599,7 +12645,9 @@
       <c r="M162" t="s">
         <v>540</v>
       </c>
-      <c r="N162"/>
+      <c r="N162" s="10" t="s">
+        <v>680</v>
+      </c>
       <c r="O162" s="1"/>
       <c r="P162" s="1"/>
       <c r="Q162" s="1"/>
@@ -12654,13 +12702,13 @@
         <v>12</v>
       </c>
       <c r="K163" s="10" t="s">
-        <v>654</v>
+        <v>681</v>
       </c>
       <c r="M163" t="s">
         <v>544</v>
       </c>
       <c r="N163" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="O163" s="1"/>
       <c r="P163" s="1"/>
@@ -12717,7 +12765,7 @@
         <v>546</v>
       </c>
       <c r="N164" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="O164" s="1"/>
       <c r="P164" s="1"/>
@@ -12777,7 +12825,7 @@
         <v>550</v>
       </c>
       <c r="N165" s="10" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="O165" s="1">
         <v>-33</v>
@@ -12834,13 +12882,13 @@
         <v>12</v>
       </c>
       <c r="K166" s="10" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="M166" t="s">
         <v>552</v>
       </c>
       <c r="N166" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="O166" s="1"/>
       <c r="P166" s="1"/>
@@ -13021,7 +13069,7 @@
         <v>560</v>
       </c>
       <c r="N169" s="10" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="O169" s="1">
         <v>-23.1</v>
@@ -13085,7 +13133,7 @@
         <v>563</v>
       </c>
       <c r="N170" s="10" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="O170" s="1"/>
       <c r="P170" s="1"/>
@@ -13139,7 +13187,7 @@
       </c>
       <c r="K171"/>
       <c r="M171" t="s">
-        <v>565</v>
+        <v>672</v>
       </c>
       <c r="N171"/>
       <c r="O171" s="1"/>
@@ -13173,12 +13221,12 @@
         <v>542</v>
       </c>
     </row>
-    <row r="172" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:32" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="F172" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G172">
         <v>42.828800000000001</v>
@@ -13194,9 +13242,11 @@
       </c>
       <c r="K172"/>
       <c r="M172" t="s">
-        <v>567</v>
-      </c>
-      <c r="N172"/>
+        <v>566</v>
+      </c>
+      <c r="N172" s="10" t="s">
+        <v>682</v>
+      </c>
       <c r="O172" s="1">
         <v>-23.9</v>
       </c>
@@ -13223,7 +13273,7 @@
         <v>348</v>
       </c>
       <c r="Z172" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AB172" t="s">
         <v>234</v>
@@ -13240,7 +13290,7 @@
         <v>172</v>
       </c>
       <c r="F173" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G173">
         <v>42.410299999999999</v>
@@ -13256,7 +13306,7 @@
       </c>
       <c r="K173"/>
       <c r="M173" t="s">
-        <v>569</v>
+        <v>671</v>
       </c>
       <c r="N173"/>
       <c r="O173" s="1">
@@ -13279,10 +13329,10 @@
         <v>31</v>
       </c>
       <c r="X173" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="Y173" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AB173" t="s">
         <v>234</v>
@@ -13312,7 +13362,7 @@
       </c>
       <c r="K174"/>
       <c r="M174" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="N174"/>
       <c r="O174" s="1"/>
@@ -13328,10 +13378,10 @@
         <v>31</v>
       </c>
       <c r="X174" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="Y174" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AB174" t="s">
         <v>234</v>
@@ -13340,7 +13390,7 @@
         <v>235</v>
       </c>
       <c r="AE174" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AF174" t="s">
         <v>542</v>
@@ -13351,7 +13401,7 @@
         <v>174</v>
       </c>
       <c r="F175" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G175">
         <v>33.0672</v>
@@ -13367,7 +13417,7 @@
       </c>
       <c r="K175"/>
       <c r="M175" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="N175"/>
       <c r="O175" s="1"/>
@@ -13386,10 +13436,10 @@
         <v>31</v>
       </c>
       <c r="X175" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="Y175" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AB175" t="s">
         <v>234</v>
@@ -13412,7 +13462,7 @@
         <v>58437</v>
       </c>
       <c r="D176" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E176">
         <v>99999</v>
@@ -13431,7 +13481,7 @@
       </c>
       <c r="K176"/>
       <c r="M176" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="N176"/>
       <c r="O176" s="1"/>
@@ -13447,10 +13497,10 @@
         <v>31</v>
       </c>
       <c r="X176" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="Y176" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="AB176" t="s">
         <v>234</v>
@@ -13483,7 +13533,7 @@
       </c>
       <c r="K177"/>
       <c r="M177" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="N177"/>
       <c r="O177" s="1">
@@ -13506,10 +13556,10 @@
         <v>31</v>
       </c>
       <c r="X177" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="Y177" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AB177" t="s">
         <v>234</v>
@@ -13529,7 +13579,7 @@
         <v>177</v>
       </c>
       <c r="F178" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="G178">
         <v>48.721699999999998</v>
@@ -13545,7 +13595,7 @@
       </c>
       <c r="K178"/>
       <c r="M178" t="s">
-        <v>588</v>
+        <v>675</v>
       </c>
       <c r="N178"/>
       <c r="O178" s="1"/>
@@ -13609,7 +13659,7 @@
       </c>
       <c r="K179"/>
       <c r="M179" t="s">
-        <v>589</v>
+        <v>676</v>
       </c>
       <c r="N179"/>
       <c r="O179" s="1"/>
@@ -13631,10 +13681,10 @@
         <v>31</v>
       </c>
       <c r="X179" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="Y179" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="AB179" t="s">
         <v>234</v>
@@ -13654,7 +13704,7 @@
         <v>179</v>
       </c>
       <c r="F180" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G180">
         <v>33.043300000000002</v>
@@ -13670,7 +13720,7 @@
       </c>
       <c r="K180"/>
       <c r="M180" t="s">
-        <v>593</v>
+        <v>674</v>
       </c>
       <c r="N180"/>
       <c r="O180" s="1"/>
@@ -13686,10 +13736,10 @@
         <v>31</v>
       </c>
       <c r="X180" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="Y180" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="AB180" t="s">
         <v>234</v>
@@ -13709,7 +13759,7 @@
         <v>180</v>
       </c>
       <c r="F181" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="G181">
         <v>29.041899999999998</v>
@@ -13725,7 +13775,7 @@
       </c>
       <c r="K181"/>
       <c r="M181" t="s">
-        <v>597</v>
+        <v>673</v>
       </c>
       <c r="N181"/>
       <c r="O181" s="1"/>
@@ -13744,10 +13794,10 @@
         <v>31</v>
       </c>
       <c r="X181" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="Y181" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="AB181" t="s">
         <v>234</v>
@@ -13767,7 +13817,7 @@
         <v>58968</v>
       </c>
       <c r="D182" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="E182">
         <v>99999</v>
@@ -13786,14 +13836,14 @@
       </c>
       <c r="K182"/>
       <c r="M182" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="N182"/>
       <c r="O182" s="1"/>
       <c r="P182" s="1"/>
       <c r="Q182" s="1"/>
       <c r="S182" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="U182" s="8" t="s">
         <v>31</v>
@@ -13816,7 +13866,7 @@
         <v>45007</v>
       </c>
       <c r="D183" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="E183">
         <v>99999</v>
@@ -13835,14 +13885,14 @@
       </c>
       <c r="K183"/>
       <c r="M183" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="N183"/>
       <c r="O183" s="1"/>
       <c r="P183" s="1"/>
       <c r="Q183" s="1"/>
       <c r="S183" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="U183" s="8" t="s">
         <v>31</v>
@@ -13865,7 +13915,7 @@
         <v>45011</v>
       </c>
       <c r="D184" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="E184">
         <v>99999</v>
@@ -13884,14 +13934,14 @@
       </c>
       <c r="K184"/>
       <c r="M184" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="N184"/>
       <c r="O184" s="1"/>
       <c r="P184" s="1"/>
       <c r="Q184" s="1"/>
       <c r="S184" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="U184" s="8" t="s">
         <v>31</v>
@@ -13917,7 +13967,7 @@
         <v>31137</v>
       </c>
       <c r="D185" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="E185">
         <v>99999</v>
@@ -13936,7 +13986,7 @@
       </c>
       <c r="K185"/>
       <c r="M185" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="N185"/>
       <c r="O185" s="1"/>
@@ -13946,7 +13996,7 @@
         <v>31</v>
       </c>
       <c r="S185" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="T185" s="8" t="s">
         <v>31</v>
@@ -13958,13 +14008,13 @@
         <v>166</v>
       </c>
       <c r="AC185" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="AE185" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="AF185" s="9" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
     </row>
     <row r="186" spans="1:32" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -13978,7 +14028,7 @@
         <v>24688</v>
       </c>
       <c r="D186" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="E186">
         <v>99999</v>
@@ -13997,7 +14047,7 @@
       </c>
       <c r="K186"/>
       <c r="M186" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="N186"/>
       <c r="O186" s="1">
@@ -14013,7 +14063,7 @@
         <v>31</v>
       </c>
       <c r="S186" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="T186" s="8" t="s">
         <v>31</v>
@@ -14025,13 +14075,13 @@
         <v>166</v>
       </c>
       <c r="AC186" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="AE186" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="AF186" s="9" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
     </row>
     <row r="187" spans="1:32" x14ac:dyDescent="0.4">
@@ -14045,7 +14095,7 @@
         <v>24585</v>
       </c>
       <c r="D187" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="E187">
         <v>99999</v>
@@ -14064,7 +14114,7 @@
       </c>
       <c r="K187"/>
       <c r="M187" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="N187"/>
       <c r="O187" s="1">
@@ -14080,7 +14130,7 @@
         <v>31</v>
       </c>
       <c r="S187" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="T187" s="8" t="s">
         <v>31</v>
@@ -14092,10 +14142,10 @@
         <v>166</v>
       </c>
       <c r="AC187" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="AE187" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="188" spans="1:32" x14ac:dyDescent="0.4">
@@ -14109,7 +14159,7 @@
         <v>24588</v>
       </c>
       <c r="D188" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="E188">
         <v>99999</v>
@@ -14128,7 +14178,7 @@
       </c>
       <c r="K188"/>
       <c r="M188" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="N188"/>
       <c r="O188" s="1">
@@ -14144,7 +14194,7 @@
         <v>31</v>
       </c>
       <c r="S188" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="T188" s="8" t="s">
         <v>31</v>
@@ -14156,10 +14206,10 @@
         <v>166</v>
       </c>
       <c r="AC188" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="AE188" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
     </row>
     <row r="189" spans="1:32" x14ac:dyDescent="0.4">
@@ -14173,7 +14223,7 @@
         <v>24691</v>
       </c>
       <c r="D189" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="E189">
         <v>99999</v>
@@ -14192,7 +14242,7 @@
       </c>
       <c r="K189"/>
       <c r="M189" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="N189"/>
       <c r="O189" s="1">
@@ -14208,7 +14258,7 @@
         <v>31</v>
       </c>
       <c r="S189" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="T189" s="8" t="s">
         <v>31</v>
@@ -14220,10 +14270,10 @@
         <v>166</v>
       </c>
       <c r="AC189" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="AE189" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="190" spans="1:32" x14ac:dyDescent="0.4">
@@ -14237,7 +14287,7 @@
         <v>24266</v>
       </c>
       <c r="D190" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="E190">
         <v>99999</v>
@@ -14256,7 +14306,7 @@
       </c>
       <c r="K190"/>
       <c r="M190" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="N190"/>
       <c r="O190" s="1">
@@ -14272,7 +14322,7 @@
         <v>31</v>
       </c>
       <c r="S190" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="T190" s="8" t="s">
         <v>31</v>
@@ -14284,10 +14334,10 @@
         <v>166</v>
       </c>
       <c r="AC190" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="AE190" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
     </row>
     <row r="191" spans="1:32" x14ac:dyDescent="0.4">
@@ -14301,7 +14351,7 @@
         <v>24684</v>
       </c>
       <c r="D191" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="E191">
         <v>99999</v>
@@ -14320,7 +14370,7 @@
       </c>
       <c r="K191"/>
       <c r="M191" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="N191"/>
       <c r="O191" s="1">
@@ -14336,7 +14386,7 @@
         <v>31</v>
       </c>
       <c r="S191" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="T191" s="8" t="s">
         <v>31</v>
@@ -14348,7 +14398,7 @@
         <v>166</v>
       </c>
       <c r="AC191" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
     </row>
     <row r="192" spans="1:32" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -14362,7 +14412,7 @@
         <v>24382</v>
       </c>
       <c r="D192" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="E192">
         <v>99999</v>
@@ -14381,7 +14431,7 @@
       </c>
       <c r="K192"/>
       <c r="M192" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="N192"/>
       <c r="O192" s="1">
@@ -14397,7 +14447,7 @@
         <v>31</v>
       </c>
       <c r="S192" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="T192" s="8" t="s">
         <v>31</v>
@@ -14409,10 +14459,10 @@
         <v>166</v>
       </c>
       <c r="AC192" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="AE192" s="9" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
     </row>
     <row r="193" spans="1:31" x14ac:dyDescent="0.4">
@@ -14426,7 +14476,7 @@
         <v>24959</v>
       </c>
       <c r="D193" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="E193">
         <v>99999</v>
@@ -14445,7 +14495,7 @@
       </c>
       <c r="K193"/>
       <c r="M193" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="N193"/>
       <c r="O193" s="1">
@@ -14461,7 +14511,7 @@
         <v>31</v>
       </c>
       <c r="S193" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="T193" s="8" t="s">
         <v>31</v>
@@ -14476,10 +14526,10 @@
         <v>166</v>
       </c>
       <c r="AC193" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="AE193" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
     </row>
     <row r="194" spans="1:31" x14ac:dyDescent="0.4">
@@ -14493,7 +14543,7 @@
         <v>24477</v>
       </c>
       <c r="D194" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="E194">
         <v>99999</v>
@@ -14512,7 +14562,7 @@
       </c>
       <c r="K194"/>
       <c r="M194" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="N194"/>
       <c r="O194" s="1"/>
@@ -14522,7 +14572,7 @@
         <v>31</v>
       </c>
       <c r="S194" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="T194" s="8" t="s">
         <v>31</v>
@@ -14534,7 +14584,7 @@
         <v>166</v>
       </c>
       <c r="AC194" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
     </row>
     <row r="195" spans="1:31" x14ac:dyDescent="0.4">
@@ -14548,7 +14598,7 @@
         <v>25428</v>
       </c>
       <c r="D195" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="E195">
         <v>99999</v>
@@ -14567,7 +14617,7 @@
       </c>
       <c r="K195"/>
       <c r="M195" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="N195"/>
       <c r="O195" s="1">
@@ -14583,7 +14633,7 @@
         <v>31</v>
       </c>
       <c r="S195" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="T195" s="8" t="s">
         <v>31</v>
@@ -14595,10 +14645,10 @@
         <v>166</v>
       </c>
       <c r="AC195" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="AE195" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
     </row>
     <row r="196" spans="1:31" x14ac:dyDescent="0.4">
@@ -14612,7 +14662,7 @@
         <v>25700</v>
       </c>
       <c r="D196" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="E196">
         <v>99999</v>
@@ -14631,7 +14681,7 @@
       </c>
       <c r="K196"/>
       <c r="M196" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="N196"/>
       <c r="O196" s="1">
@@ -14647,7 +14697,7 @@
         <v>31</v>
       </c>
       <c r="S196" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="T196" s="8" t="s">
         <v>31</v>
@@ -14659,10 +14709,10 @@
         <v>166</v>
       </c>
       <c r="AC196" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="AE196" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
     </row>
     <row r="197" spans="1:31" x14ac:dyDescent="0.4">
@@ -14676,7 +14726,7 @@
         <v>24507</v>
       </c>
       <c r="D197" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="E197">
         <v>99999</v>
@@ -14695,7 +14745,7 @@
       </c>
       <c r="K197"/>
       <c r="M197" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="N197"/>
       <c r="O197" s="1">
@@ -14711,7 +14761,7 @@
         <v>31</v>
       </c>
       <c r="S197" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="T197" s="8" t="s">
         <v>31</v>
@@ -14723,10 +14773,10 @@
         <v>166</v>
       </c>
       <c r="AC197" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="AE197" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
     </row>
     <row r="198" spans="1:31" x14ac:dyDescent="0.4">
@@ -14746,7 +14796,7 @@
         <v>12</v>
       </c>
       <c r="M198" s="6" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="O198" s="1">
         <v>-36.799999999999997</v>
@@ -14756,31 +14806,31 @@
       </c>
       <c r="Q198" s="1"/>
       <c r="S198" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="T198" s="8" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="U198" s="8" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="V198" s="8" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="X198" s="8" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="Y198" s="8" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="AB198" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="AC198" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="AE198" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
     </row>
     <row r="199" spans="1:31" x14ac:dyDescent="0.4">
@@ -14800,7 +14850,7 @@
         <v>12</v>
       </c>
       <c r="M199" s="6" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="O199" s="1">
         <v>-29.4</v>
@@ -14810,28 +14860,28 @@
       </c>
       <c r="Q199" s="1"/>
       <c r="S199" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="T199" s="8" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="U199" s="8" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="V199" s="8" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="X199" s="8" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="AB199" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="AC199" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="AE199" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
     </row>
     <row r="200" spans="1:31" x14ac:dyDescent="0.4">
@@ -14851,7 +14901,7 @@
         <v>12</v>
       </c>
       <c r="M200" s="6" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="O200" s="1">
         <v>-36.799999999999997</v>
@@ -14861,31 +14911,31 @@
       </c>
       <c r="Q200" s="1"/>
       <c r="S200" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="T200" s="8" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="U200" s="8" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="V200" s="8" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="X200" s="8" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="Y200" s="8" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="AB200" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="AC200" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="AE200" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
     </row>
     <row r="201" spans="1:31" x14ac:dyDescent="0.4">

--- a/气象/For_Python_站点信息和记录.xlsx
+++ b/气象/For_Python_站点信息和记录.xlsx
@@ -607,8 +607,8 @@
     <col width="12.59765625" customWidth="1" style="4" min="19" max="19"/>
     <col width="12.59765625" customWidth="1" style="2" min="20" max="22"/>
     <col width="18.59765625" customWidth="1" style="2" min="23" max="23"/>
-    <col width="12.59765625" customWidth="1" style="4" min="24" max="32"/>
-    <col width="12.59765625" customWidth="1" style="4" min="33" max="16384"/>
+    <col width="12.59765625" customWidth="1" style="4" min="24" max="38"/>
+    <col width="12.59765625" customWidth="1" style="4" min="39" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.75" customFormat="1" customHeight="1" s="3">
@@ -817,13 +817,17 @@
         </is>
       </c>
       <c r="O2" s="14" t="n">
-        <v>-27.1</v>
+        <v>-27.2</v>
       </c>
       <c r="P2" s="14" t="n">
-        <v>-14.5</v>
+        <v>-20.1</v>
       </c>
       <c r="Q2" s="14" t="n"/>
-      <c r="R2" s="15" t="n"/>
+      <c r="R2" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S2" s="11" t="inlineStr">
         <is>
           <t>乌布苏省</t>
@@ -911,13 +915,17 @@
         </is>
       </c>
       <c r="O3" s="14" t="n">
-        <v>-34.9</v>
+        <v>-32</v>
       </c>
       <c r="P3" s="14" t="n">
-        <v>-19.8</v>
+        <v>-20.6</v>
       </c>
       <c r="Q3" s="14" t="n"/>
-      <c r="R3" s="15" t="n"/>
+      <c r="R3" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S3" s="11" t="inlineStr">
         <is>
           <t>乌布苏省</t>
@@ -1005,13 +1013,17 @@
         </is>
       </c>
       <c r="O4" s="14" t="n">
-        <v>-36.1</v>
+        <v>-39.7</v>
       </c>
       <c r="P4" s="14" t="n">
-        <v>-24.5</v>
+        <v>-26.8</v>
       </c>
       <c r="Q4" s="14" t="n"/>
-      <c r="R4" s="15" t="n"/>
+      <c r="R4" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S4" s="11" t="inlineStr">
         <is>
           <t>扎布汗省</t>
@@ -1091,13 +1103,17 @@
       </c>
       <c r="N5" s="11" t="n"/>
       <c r="O5" s="14" t="n">
-        <v>-30.1</v>
+        <v>-36.2</v>
       </c>
       <c r="P5" s="14" t="n">
-        <v>-19.3</v>
+        <v>-25.6</v>
       </c>
       <c r="Q5" s="14" t="n"/>
-      <c r="R5" s="15" t="n"/>
+      <c r="R5" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S5" s="11" t="inlineStr">
         <is>
           <t>扎布汗省</t>
@@ -1185,13 +1201,17 @@
         </is>
       </c>
       <c r="O6" s="14" t="n">
-        <v>-33.4</v>
+        <v>-31</v>
       </c>
       <c r="P6" s="14" t="n">
-        <v>-21.4</v>
+        <v>-20.6</v>
       </c>
       <c r="Q6" s="14" t="n"/>
-      <c r="R6" s="15" t="n"/>
+      <c r="R6" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S6" s="11" t="inlineStr">
         <is>
           <t>扎布汗省</t>
@@ -1283,13 +1303,17 @@
         </is>
       </c>
       <c r="O7" s="14" t="n">
-        <v>-26.3</v>
+        <v>-34.7</v>
       </c>
       <c r="P7" s="14" t="n">
-        <v>-20.5</v>
+        <v>-25.1</v>
       </c>
       <c r="Q7" s="14" t="n"/>
-      <c r="R7" s="15" t="n"/>
+      <c r="R7" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S7" s="11" t="inlineStr">
         <is>
           <t>库苏古尔省</t>
@@ -1377,13 +1401,19 @@
       </c>
       <c r="N8" s="11" t="n"/>
       <c r="O8" s="14" t="n">
-        <v>-25.2</v>
+        <v>-33.2</v>
       </c>
       <c r="P8" s="14" t="n">
-        <v>-11.4</v>
-      </c>
-      <c r="Q8" s="14" t="n"/>
-      <c r="R8" s="15" t="n"/>
+        <v>-24.1</v>
+      </c>
+      <c r="Q8" s="14" t="n">
+        <v>-30.22</v>
+      </c>
+      <c r="R8" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S8" s="11" t="inlineStr">
         <is>
           <t>色楞格省</t>
@@ -1473,13 +1503,19 @@
       </c>
       <c r="N9" s="11" t="n"/>
       <c r="O9" s="14" t="n">
-        <v>-23.6</v>
+        <v>-25.5</v>
       </c>
       <c r="P9" s="14" t="n">
-        <v>-11.6</v>
-      </c>
-      <c r="Q9" s="14" t="n"/>
-      <c r="R9" s="15" t="n"/>
+        <v>-14.8</v>
+      </c>
+      <c r="Q9" s="14" t="n">
+        <v>-19.46</v>
+      </c>
+      <c r="R9" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S9" s="11" t="inlineStr">
         <is>
           <t>乌布苏省</t>
@@ -1573,13 +1609,19 @@
       </c>
       <c r="N10" s="13" t="n"/>
       <c r="O10" s="14" t="n">
-        <v>-35.3</v>
+        <v>-39.3</v>
       </c>
       <c r="P10" s="14" t="n">
-        <v>-17.9</v>
-      </c>
-      <c r="Q10" s="14" t="n"/>
-      <c r="R10" s="15" t="n"/>
+        <v>-27.6</v>
+      </c>
+      <c r="Q10" s="14" t="n">
+        <v>-34.33</v>
+      </c>
+      <c r="R10" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S10" s="11" t="inlineStr">
         <is>
           <t>扎布汗省</t>
@@ -1673,13 +1715,19 @@
         </is>
       </c>
       <c r="O11" s="14" t="n">
-        <v>-39.6</v>
+        <v>-40.2</v>
       </c>
       <c r="P11" s="14" t="n">
-        <v>-24.5</v>
-      </c>
-      <c r="Q11" s="14" t="n"/>
-      <c r="R11" s="15" t="n"/>
+        <v>-22.7</v>
+      </c>
+      <c r="Q11" s="14" t="n">
+        <v>-32.6</v>
+      </c>
+      <c r="R11" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S11" s="11" t="inlineStr">
         <is>
           <t>扎布汗省</t>
@@ -1773,13 +1821,19 @@
       </c>
       <c r="N12" s="11" t="n"/>
       <c r="O12" s="14" t="n">
-        <v>-33.5</v>
+        <v>-39.7</v>
       </c>
       <c r="P12" s="14" t="n">
-        <v>-18.9</v>
-      </c>
-      <c r="Q12" s="14" t="n"/>
-      <c r="R12" s="15" t="n"/>
+        <v>-26.9</v>
+      </c>
+      <c r="Q12" s="14" t="n">
+        <v>-34.61</v>
+      </c>
+      <c r="R12" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S12" s="11" t="inlineStr">
         <is>
           <t>扎布汗省</t>
@@ -1877,13 +1931,19 @@
         </is>
       </c>
       <c r="O13" s="14" t="n">
-        <v>-30.3</v>
+        <v>-40.4</v>
       </c>
       <c r="P13" s="14" t="n">
-        <v>-21.4</v>
-      </c>
-      <c r="Q13" s="14" t="n"/>
-      <c r="R13" s="15" t="n"/>
+        <v>-29.5</v>
+      </c>
+      <c r="Q13" s="14" t="n">
+        <v>-34.14</v>
+      </c>
+      <c r="R13" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S13" s="11" t="inlineStr">
         <is>
           <t>库苏古尔省</t>
@@ -1973,13 +2033,19 @@
       </c>
       <c r="N14" s="11" t="n"/>
       <c r="O14" s="14" t="n">
-        <v>-22.9</v>
+        <v>-27.7</v>
       </c>
       <c r="P14" s="14" t="n">
-        <v>-13.2</v>
-      </c>
-      <c r="Q14" s="14" t="n"/>
-      <c r="R14" s="15" t="n"/>
+        <v>-20.3</v>
+      </c>
+      <c r="Q14" s="14" t="n">
+        <v>-25.12</v>
+      </c>
+      <c r="R14" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S14" s="11" t="inlineStr">
         <is>
           <t>乌兰巴托市</t>
@@ -2054,14 +2120,22 @@
       <c r="L15" s="11" t="n"/>
       <c r="M15" s="11" t="inlineStr">
         <is>
-          <t>Налайх</t>
+          <t>乌兰巴托Налайх</t>
         </is>
       </c>
       <c r="N15" s="11" t="n"/>
-      <c r="O15" s="14" t="n"/>
-      <c r="P15" s="14" t="n"/>
+      <c r="O15" s="14" t="n">
+        <v>-38</v>
+      </c>
+      <c r="P15" s="14" t="n">
+        <v>-22.3</v>
+      </c>
       <c r="Q15" s="14" t="n"/>
-      <c r="R15" s="15" t="n"/>
+      <c r="R15" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S15" s="11" t="inlineStr">
         <is>
           <t>乌兰巴托市</t>
@@ -2144,14 +2218,24 @@
       <c r="L16" s="11" t="n"/>
       <c r="M16" s="11" t="inlineStr">
         <is>
-          <t>Буянт-Ухаа</t>
+          <t>乌兰巴托Буянт-Ухаа</t>
         </is>
       </c>
       <c r="N16" s="11" t="n"/>
-      <c r="O16" s="14" t="n"/>
-      <c r="P16" s="14" t="n"/>
-      <c r="Q16" s="14" t="n"/>
-      <c r="R16" s="15" t="n"/>
+      <c r="O16" s="14" t="n">
+        <v>-37.5</v>
+      </c>
+      <c r="P16" s="14" t="n">
+        <v>-21.6</v>
+      </c>
+      <c r="Q16" s="14" t="n">
+        <v>-31.3</v>
+      </c>
+      <c r="R16" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S16" s="11" t="inlineStr">
         <is>
           <t>乌兰巴托市</t>
@@ -2233,7 +2317,11 @@
       <c r="O17" s="14" t="n"/>
       <c r="P17" s="14" t="n"/>
       <c r="Q17" s="14" t="n"/>
-      <c r="R17" s="15" t="n"/>
+      <c r="R17" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S17" s="11" t="inlineStr">
         <is>
           <t>巴彦洪戈尔省</t>
@@ -2313,13 +2401,17 @@
       </c>
       <c r="N18" s="11" t="n"/>
       <c r="O18" s="14" t="n">
-        <v>-37</v>
+        <v>-39.9</v>
       </c>
       <c r="P18" s="14" t="n">
-        <v>-17.1</v>
+        <v>-23.8</v>
       </c>
       <c r="Q18" s="14" t="n"/>
-      <c r="R18" s="15" t="n"/>
+      <c r="R18" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S18" s="11" t="inlineStr">
         <is>
           <t>巴彦洪戈尔省</t>
@@ -2409,7 +2501,11 @@
       <c r="O19" s="14" t="n"/>
       <c r="P19" s="14" t="n"/>
       <c r="Q19" s="14" t="n"/>
-      <c r="R19" s="15" t="n"/>
+      <c r="R19" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S19" s="11" t="inlineStr">
         <is>
           <t>巴彦洪戈尔省</t>
@@ -2499,7 +2595,11 @@
       <c r="O20" s="14" t="n"/>
       <c r="P20" s="14" t="n"/>
       <c r="Q20" s="14" t="n"/>
-      <c r="R20" s="15" t="n"/>
+      <c r="R20" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S20" s="11" t="inlineStr">
         <is>
           <t>巴彦洪戈尔省</t>
@@ -2577,7 +2677,11 @@
       <c r="O21" s="14" t="n"/>
       <c r="P21" s="14" t="n"/>
       <c r="Q21" s="14" t="n"/>
-      <c r="R21" s="15" t="n"/>
+      <c r="R21" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S21" s="11" t="inlineStr">
         <is>
           <t>科布多省</t>
@@ -2655,7 +2759,11 @@
       <c r="O22" s="14" t="n"/>
       <c r="P22" s="14" t="n"/>
       <c r="Q22" s="14" t="n"/>
-      <c r="R22" s="15" t="n"/>
+      <c r="R22" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S22" s="11" t="inlineStr">
         <is>
           <t>科布多省</t>
@@ -2733,7 +2841,11 @@
       <c r="O23" s="14" t="n"/>
       <c r="P23" s="14" t="n"/>
       <c r="Q23" s="14" t="n"/>
-      <c r="R23" s="15" t="n"/>
+      <c r="R23" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S23" s="11" t="inlineStr">
         <is>
           <t>科布多省</t>
@@ -2827,7 +2939,11 @@
       <c r="O24" s="14" t="n"/>
       <c r="P24" s="14" t="n"/>
       <c r="Q24" s="14" t="n"/>
-      <c r="R24" s="15" t="n"/>
+      <c r="R24" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S24" s="11" t="inlineStr">
         <is>
           <t>科布多省</t>
@@ -2905,7 +3021,11 @@
       <c r="O25" s="14" t="n"/>
       <c r="P25" s="14" t="n"/>
       <c r="Q25" s="14" t="n"/>
-      <c r="R25" s="15" t="n"/>
+      <c r="R25" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S25" s="11" t="inlineStr">
         <is>
           <t>科布多省</t>
@@ -2987,7 +3107,11 @@
       <c r="O26" s="14" t="n"/>
       <c r="P26" s="14" t="n"/>
       <c r="Q26" s="14" t="n"/>
-      <c r="R26" s="15" t="n"/>
+      <c r="R26" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S26" s="11" t="inlineStr">
         <is>
           <t>戈壁阿尔泰省</t>
@@ -3079,7 +3203,11 @@
       <c r="O27" s="14" t="n"/>
       <c r="P27" s="14" t="n"/>
       <c r="Q27" s="14" t="n"/>
-      <c r="R27" s="15" t="n"/>
+      <c r="R27" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S27" s="11" t="inlineStr">
         <is>
           <t>戈壁阿尔泰省</t>
@@ -3165,7 +3293,11 @@
       <c r="O28" s="14" t="n"/>
       <c r="P28" s="14" t="n"/>
       <c r="Q28" s="14" t="n"/>
-      <c r="R28" s="15" t="n"/>
+      <c r="R28" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S28" s="11" t="inlineStr">
         <is>
           <t>库苏古尔省</t>
@@ -3243,7 +3375,11 @@
       <c r="O29" s="14" t="n"/>
       <c r="P29" s="14" t="n"/>
       <c r="Q29" s="14" t="n"/>
-      <c r="R29" s="15" t="n"/>
+      <c r="R29" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S29" s="11" t="inlineStr">
         <is>
           <t>库苏古尔省</t>
@@ -3325,7 +3461,11 @@
       <c r="O30" s="14" t="n"/>
       <c r="P30" s="14" t="n"/>
       <c r="Q30" s="14" t="n"/>
-      <c r="R30" s="15" t="n"/>
+      <c r="R30" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S30" s="11" t="inlineStr">
         <is>
           <t>库苏古尔省</t>
@@ -3403,7 +3543,11 @@
       <c r="O31" s="14" t="n"/>
       <c r="P31" s="14" t="n"/>
       <c r="Q31" s="14" t="n"/>
-      <c r="R31" s="15" t="n"/>
+      <c r="R31" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S31" s="11" t="inlineStr">
         <is>
           <t>库苏古尔省</t>
@@ -3493,7 +3637,11 @@
       <c r="O32" s="14" t="n"/>
       <c r="P32" s="14" t="n"/>
       <c r="Q32" s="14" t="n"/>
-      <c r="R32" s="15" t="n"/>
+      <c r="R32" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S32" s="11" t="inlineStr">
         <is>
           <t>库苏古尔省</t>
@@ -3583,7 +3731,11 @@
       <c r="O33" s="14" t="n"/>
       <c r="P33" s="14" t="n"/>
       <c r="Q33" s="14" t="n"/>
-      <c r="R33" s="15" t="n"/>
+      <c r="R33" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S33" s="11" t="inlineStr">
         <is>
           <t>库苏古尔省</t>
@@ -3661,7 +3813,11 @@
       <c r="O34" s="14" t="n"/>
       <c r="P34" s="14" t="n"/>
       <c r="Q34" s="14" t="n"/>
-      <c r="R34" s="15" t="n"/>
+      <c r="R34" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S34" s="11" t="inlineStr">
         <is>
           <t>库苏古尔省</t>
@@ -3737,13 +3893,17 @@
       </c>
       <c r="N35" s="11" t="n"/>
       <c r="O35" s="14" t="n">
-        <v>-33.8</v>
+        <v>-38.3</v>
       </c>
       <c r="P35" s="14" t="n">
-        <v>-21.8</v>
+        <v>-26.1</v>
       </c>
       <c r="Q35" s="14" t="n"/>
-      <c r="R35" s="15" t="n"/>
+      <c r="R35" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S35" s="11" t="inlineStr">
         <is>
           <t>库苏古尔省</t>
@@ -3821,7 +3981,11 @@
       <c r="O36" s="14" t="n"/>
       <c r="P36" s="14" t="n"/>
       <c r="Q36" s="14" t="n"/>
-      <c r="R36" s="15" t="n"/>
+      <c r="R36" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S36" s="11" t="inlineStr">
         <is>
           <t>库苏古尔省</t>
@@ -3899,7 +4063,11 @@
       <c r="O37" s="14" t="n"/>
       <c r="P37" s="14" t="n"/>
       <c r="Q37" s="14" t="n"/>
-      <c r="R37" s="15" t="n"/>
+      <c r="R37" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S37" s="11" t="inlineStr">
         <is>
           <t>库苏古尔省</t>
@@ -3977,7 +4145,11 @@
       <c r="O38" s="14" t="n"/>
       <c r="P38" s="14" t="n"/>
       <c r="Q38" s="14" t="n"/>
-      <c r="R38" s="15" t="n"/>
+      <c r="R38" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S38" s="11" t="inlineStr">
         <is>
           <t>库苏古尔省</t>
@@ -4059,7 +4231,11 @@
       <c r="O39" s="14" t="n"/>
       <c r="P39" s="14" t="n"/>
       <c r="Q39" s="14" t="n"/>
-      <c r="R39" s="15" t="n"/>
+      <c r="R39" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S39" s="11" t="inlineStr">
         <is>
           <t>库苏古尔省</t>
@@ -4133,7 +4309,11 @@
       <c r="O40" s="14" t="n"/>
       <c r="P40" s="14" t="n"/>
       <c r="Q40" s="14" t="n"/>
-      <c r="R40" s="15" t="n"/>
+      <c r="R40" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S40" s="11" t="inlineStr">
         <is>
           <t>色楞格省</t>
@@ -4208,10 +4388,18 @@
         </is>
       </c>
       <c r="N41" s="11" t="n"/>
-      <c r="O41" s="14" t="n"/>
-      <c r="P41" s="14" t="n"/>
+      <c r="O41" s="14" t="n">
+        <v>-37.9</v>
+      </c>
+      <c r="P41" s="14" t="n">
+        <v>-23.5</v>
+      </c>
       <c r="Q41" s="14" t="n"/>
-      <c r="R41" s="15" t="n"/>
+      <c r="R41" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S41" s="11" t="inlineStr">
         <is>
           <t>色楞格省</t>
@@ -4285,7 +4473,11 @@
       <c r="O42" s="14" t="n"/>
       <c r="P42" s="14" t="n"/>
       <c r="Q42" s="14" t="n"/>
-      <c r="R42" s="15" t="n"/>
+      <c r="R42" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S42" s="11" t="inlineStr">
         <is>
           <t>色楞格省</t>
@@ -4363,7 +4555,11 @@
       <c r="O43" s="14" t="n"/>
       <c r="P43" s="14" t="n"/>
       <c r="Q43" s="14" t="n"/>
-      <c r="R43" s="15" t="n"/>
+      <c r="R43" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S43" s="11" t="inlineStr">
         <is>
           <t>乌布苏省</t>
@@ -4441,7 +4637,11 @@
       <c r="O44" s="14" t="n"/>
       <c r="P44" s="14" t="n"/>
       <c r="Q44" s="14" t="n"/>
-      <c r="R44" s="15" t="n"/>
+      <c r="R44" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S44" s="11" t="inlineStr">
         <is>
           <t>乌布苏省</t>
@@ -4531,7 +4731,11 @@
       <c r="O45" s="14" t="n"/>
       <c r="P45" s="14" t="n"/>
       <c r="Q45" s="14" t="n"/>
-      <c r="R45" s="15" t="n"/>
+      <c r="R45" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S45" s="11" t="inlineStr">
         <is>
           <t>乌布苏省</t>
@@ -4609,7 +4813,11 @@
       <c r="O46" s="14" t="n"/>
       <c r="P46" s="14" t="n"/>
       <c r="Q46" s="14" t="n"/>
-      <c r="R46" s="15" t="n"/>
+      <c r="R46" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S46" s="11" t="inlineStr">
         <is>
           <t>乌布苏省</t>
@@ -4687,7 +4895,11 @@
       <c r="O47" s="14" t="n"/>
       <c r="P47" s="14" t="n"/>
       <c r="Q47" s="14" t="n"/>
-      <c r="R47" s="15" t="n"/>
+      <c r="R47" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S47" s="11" t="inlineStr">
         <is>
           <t>乌布苏省</t>
@@ -4777,7 +4989,11 @@
       <c r="O48" s="14" t="n"/>
       <c r="P48" s="14" t="n"/>
       <c r="Q48" s="14" t="n"/>
-      <c r="R48" s="15" t="n"/>
+      <c r="R48" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S48" s="11" t="inlineStr">
         <is>
           <t>乌布苏省</t>
@@ -4859,7 +5075,11 @@
       <c r="O49" s="14" t="n"/>
       <c r="P49" s="14" t="n"/>
       <c r="Q49" s="14" t="n"/>
-      <c r="R49" s="15" t="n"/>
+      <c r="R49" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S49" s="11" t="inlineStr">
         <is>
           <t>乌布苏省</t>
@@ -4937,7 +5157,11 @@
       <c r="O50" s="14" t="n"/>
       <c r="P50" s="14" t="n"/>
       <c r="Q50" s="14" t="n"/>
-      <c r="R50" s="15" t="n"/>
+      <c r="R50" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S50" s="11" t="inlineStr">
         <is>
           <t>乌布苏省</t>
@@ -5011,7 +5235,11 @@
       <c r="O51" s="14" t="n"/>
       <c r="P51" s="14" t="n"/>
       <c r="Q51" s="14" t="n"/>
-      <c r="R51" s="15" t="n"/>
+      <c r="R51" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S51" s="11" t="inlineStr">
         <is>
           <t>乌布苏省</t>
@@ -5085,7 +5313,11 @@
       <c r="O52" s="14" t="n"/>
       <c r="P52" s="14" t="n"/>
       <c r="Q52" s="14" t="n"/>
-      <c r="R52" s="15" t="n"/>
+      <c r="R52" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S52" s="11" t="inlineStr">
         <is>
           <t>扎布汗省</t>
@@ -5163,7 +5395,11 @@
       <c r="O53" s="14" t="n"/>
       <c r="P53" s="14" t="n"/>
       <c r="Q53" s="14" t="n"/>
-      <c r="R53" s="15" t="n"/>
+      <c r="R53" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S53" s="11" t="inlineStr">
         <is>
           <t>扎布汗省</t>
@@ -5241,7 +5477,11 @@
       <c r="O54" s="14" t="n"/>
       <c r="P54" s="14" t="n"/>
       <c r="Q54" s="14" t="n"/>
-      <c r="R54" s="15" t="n"/>
+      <c r="R54" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S54" s="11" t="inlineStr">
         <is>
           <t>扎布汗省</t>
@@ -5319,7 +5559,11 @@
       <c r="O55" s="14" t="n"/>
       <c r="P55" s="14" t="n"/>
       <c r="Q55" s="14" t="n"/>
-      <c r="R55" s="15" t="n"/>
+      <c r="R55" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S55" s="11" t="inlineStr">
         <is>
           <t>扎布汗省</t>
@@ -5394,10 +5638,18 @@
         </is>
       </c>
       <c r="N56" s="11" t="n"/>
-      <c r="O56" s="14" t="n"/>
-      <c r="P56" s="14" t="n"/>
+      <c r="O56" s="14" t="n">
+        <v>-36.4</v>
+      </c>
+      <c r="P56" s="14" t="n">
+        <v>-28.5</v>
+      </c>
       <c r="Q56" s="14" t="n"/>
-      <c r="R56" s="15" t="n"/>
+      <c r="R56" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S56" s="11" t="inlineStr">
         <is>
           <t>扎布汗省</t>
@@ -5475,7 +5727,11 @@
       <c r="O57" s="14" t="n"/>
       <c r="P57" s="14" t="n"/>
       <c r="Q57" s="14" t="n"/>
-      <c r="R57" s="15" t="n"/>
+      <c r="R57" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S57" s="11" t="inlineStr">
         <is>
           <t>扎布汗省</t>
@@ -5549,7 +5805,11 @@
       <c r="O58" s="14" t="n"/>
       <c r="P58" s="14" t="n"/>
       <c r="Q58" s="14" t="n"/>
-      <c r="R58" s="15" t="n"/>
+      <c r="R58" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S58" s="11" t="inlineStr">
         <is>
           <t>扎布汗省</t>
@@ -5627,7 +5887,11 @@
       <c r="O59" s="14" t="n"/>
       <c r="P59" s="14" t="n"/>
       <c r="Q59" s="14" t="n"/>
-      <c r="R59" s="15" t="n"/>
+      <c r="R59" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S59" s="11" t="inlineStr">
         <is>
           <t>扎布汗省</t>
@@ -5705,7 +5969,11 @@
       <c r="O60" s="14" t="n"/>
       <c r="P60" s="14" t="n"/>
       <c r="Q60" s="14" t="n"/>
-      <c r="R60" s="15" t="n"/>
+      <c r="R60" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S60" s="11" t="inlineStr">
         <is>
           <t>扎布汗省</t>
@@ -5783,7 +6051,11 @@
       <c r="O61" s="14" t="n"/>
       <c r="P61" s="14" t="n"/>
       <c r="Q61" s="14" t="n"/>
-      <c r="R61" s="15" t="n"/>
+      <c r="R61" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S61" s="11" t="inlineStr">
         <is>
           <t>巴彦乌列盖省</t>
@@ -5865,7 +6137,11 @@
       <c r="O62" s="14" t="n"/>
       <c r="P62" s="14" t="n"/>
       <c r="Q62" s="14" t="n"/>
-      <c r="R62" s="15" t="n"/>
+      <c r="R62" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S62" s="11" t="inlineStr">
         <is>
           <t>巴彦乌列盖省</t>
@@ -5959,7 +6235,11 @@
       <c r="O63" s="14" t="n"/>
       <c r="P63" s="14" t="n"/>
       <c r="Q63" s="14" t="n"/>
-      <c r="R63" s="15" t="n"/>
+      <c r="R63" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S63" s="11" t="inlineStr">
         <is>
           <t>巴彦乌列盖省</t>
@@ -6037,7 +6317,11 @@
       <c r="O64" s="14" t="n"/>
       <c r="P64" s="14" t="n"/>
       <c r="Q64" s="14" t="n"/>
-      <c r="R64" s="15" t="n"/>
+      <c r="R64" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S64" s="11" t="inlineStr">
         <is>
           <t>后杭爱省</t>
@@ -6119,7 +6403,11 @@
       <c r="O65" s="14" t="n"/>
       <c r="P65" s="14" t="n"/>
       <c r="Q65" s="14" t="n"/>
-      <c r="R65" s="15" t="n"/>
+      <c r="R65" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S65" s="11" t="inlineStr">
         <is>
           <t>后杭爱省</t>
@@ -6201,7 +6489,11 @@
       <c r="O66" s="14" t="n"/>
       <c r="P66" s="14" t="n"/>
       <c r="Q66" s="14" t="n"/>
-      <c r="R66" s="15" t="n"/>
+      <c r="R66" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S66" s="11" t="inlineStr">
         <is>
           <t>后杭爱省</t>
@@ -6279,7 +6571,11 @@
       <c r="O67" s="14" t="n"/>
       <c r="P67" s="14" t="n"/>
       <c r="Q67" s="14" t="n"/>
-      <c r="R67" s="15" t="n"/>
+      <c r="R67" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S67" s="11" t="inlineStr">
         <is>
           <t>后杭爱省</t>
@@ -6369,7 +6665,11 @@
       <c r="O68" s="14" t="n"/>
       <c r="P68" s="14" t="n"/>
       <c r="Q68" s="14" t="n"/>
-      <c r="R68" s="15" t="n"/>
+      <c r="R68" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S68" s="11" t="inlineStr">
         <is>
           <t>后杭爱省</t>
@@ -6447,7 +6747,11 @@
       <c r="O69" s="14" t="n"/>
       <c r="P69" s="14" t="n"/>
       <c r="Q69" s="14" t="n"/>
-      <c r="R69" s="15" t="n"/>
+      <c r="R69" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S69" s="11" t="inlineStr">
         <is>
           <t>后杭爱省</t>
@@ -6525,7 +6829,11 @@
       <c r="O70" s="14" t="n"/>
       <c r="P70" s="14" t="n"/>
       <c r="Q70" s="14" t="n"/>
-      <c r="R70" s="15" t="n"/>
+      <c r="R70" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S70" s="11" t="inlineStr">
         <is>
           <t>前杭爱省</t>
@@ -6603,7 +6911,11 @@
       <c r="O71" s="14" t="n"/>
       <c r="P71" s="14" t="n"/>
       <c r="Q71" s="14" t="n"/>
-      <c r="R71" s="15" t="n"/>
+      <c r="R71" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S71" s="11" t="inlineStr">
         <is>
           <t>前杭爱省</t>
@@ -6681,7 +6993,11 @@
       <c r="O72" s="14" t="n"/>
       <c r="P72" s="14" t="n"/>
       <c r="Q72" s="14" t="n"/>
-      <c r="R72" s="15" t="n"/>
+      <c r="R72" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S72" s="11" t="inlineStr">
         <is>
           <t>中央省</t>
@@ -6759,7 +7075,11 @@
       <c r="O73" s="14" t="n"/>
       <c r="P73" s="14" t="n"/>
       <c r="Q73" s="14" t="n"/>
-      <c r="R73" s="15" t="n"/>
+      <c r="R73" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S73" s="11" t="inlineStr">
         <is>
           <t>肯特省</t>
@@ -6837,7 +7157,11 @@
       <c r="O74" s="14" t="n"/>
       <c r="P74" s="14" t="n"/>
       <c r="Q74" s="14" t="n"/>
-      <c r="R74" s="15" t="n"/>
+      <c r="R74" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S74" s="11" t="inlineStr">
         <is>
           <t>肯特省</t>
@@ -6919,13 +7243,13 @@
       </c>
       <c r="N75" s="11" t="n"/>
       <c r="O75" s="14" t="n">
+        <v>-20.4</v>
+      </c>
+      <c r="P75" s="14" t="n">
         <v>-13.1</v>
       </c>
-      <c r="P75" s="14" t="n">
-        <v>-8.199999999999999</v>
-      </c>
       <c r="Q75" s="14" t="n">
-        <v>-10.31</v>
+        <v>-16.5</v>
       </c>
       <c r="R75" s="15" t="inlineStr">
         <is>
@@ -7025,13 +7349,13 @@
       </c>
       <c r="N76" s="11" t="n"/>
       <c r="O76" s="14" t="n">
-        <v>-23</v>
+        <v>-18.6</v>
       </c>
       <c r="P76" s="14" t="n">
-        <v>-13.2</v>
+        <v>-13</v>
       </c>
       <c r="Q76" s="14" t="n">
-        <v>-17.4</v>
+        <v>-15.88</v>
       </c>
       <c r="R76" s="15" t="inlineStr">
         <is>
@@ -7135,13 +7459,13 @@
         </is>
       </c>
       <c r="O77" s="14" t="n">
-        <v>-30.8</v>
+        <v>-20.2</v>
       </c>
       <c r="P77" s="14" t="n">
-        <v>-7.6</v>
+        <v>-15.8</v>
       </c>
       <c r="Q77" s="14" t="n">
-        <v>-21.89</v>
+        <v>-17.52</v>
       </c>
       <c r="R77" s="15" t="inlineStr">
         <is>
@@ -7237,13 +7561,13 @@
       </c>
       <c r="N78" s="11" t="n"/>
       <c r="O78" s="14" t="n">
-        <v>-27.9</v>
+        <v>-21.9</v>
       </c>
       <c r="P78" s="14" t="n">
-        <v>-20.7</v>
+        <v>-15.4</v>
       </c>
       <c r="Q78" s="14" t="n">
-        <v>-24.15</v>
+        <v>-18.51</v>
       </c>
       <c r="R78" s="15" t="inlineStr">
         <is>
@@ -7343,13 +7667,13 @@
         </is>
       </c>
       <c r="O79" s="14" t="n">
-        <v>-32.2</v>
+        <v>-14.2</v>
       </c>
       <c r="P79" s="14" t="n">
-        <v>-11.1</v>
+        <v>-10.8</v>
       </c>
       <c r="Q79" s="14" t="n">
-        <v>-23.09</v>
+        <v>-12.53</v>
       </c>
       <c r="R79" s="15" t="inlineStr">
         <is>
@@ -7445,13 +7769,13 @@
       </c>
       <c r="N80" s="11" t="n"/>
       <c r="O80" s="14" t="n">
-        <v>-29.3</v>
+        <v>-26.4</v>
       </c>
       <c r="P80" s="14" t="n">
-        <v>-17.8</v>
+        <v>-22.2</v>
       </c>
       <c r="Q80" s="14" t="n">
-        <v>-24.2</v>
+        <v>-24.62</v>
       </c>
       <c r="R80" s="15" t="inlineStr">
         <is>
@@ -7555,10 +7879,10 @@
         </is>
       </c>
       <c r="O81" s="14" t="n">
-        <v>-32.8</v>
+        <v>-36.8</v>
       </c>
       <c r="P81" s="14" t="n">
-        <v>-19.4</v>
+        <v>-23.9</v>
       </c>
       <c r="Q81" s="14" t="n"/>
       <c r="R81" s="15" t="inlineStr">
@@ -7668,13 +7992,13 @@
         </is>
       </c>
       <c r="O82" s="14" t="n">
-        <v>-36.5</v>
+        <v>-39.6</v>
       </c>
       <c r="P82" s="14" t="n">
-        <v>-18.7</v>
+        <v>-22.7</v>
       </c>
       <c r="Q82" s="14" t="n">
-        <v>-28</v>
+        <v>-31.9</v>
       </c>
       <c r="R82" s="15" t="inlineStr">
         <is>
@@ -7770,13 +8094,13 @@
       </c>
       <c r="N83" s="11" t="n"/>
       <c r="O83" s="14" t="n">
-        <v>-18.3</v>
+        <v>-28.6</v>
       </c>
       <c r="P83" s="14" t="n">
-        <v>-10.9</v>
+        <v>-18.2</v>
       </c>
       <c r="Q83" s="14" t="n">
-        <v>-16.25</v>
+        <v>-20.82</v>
       </c>
       <c r="R83" s="15" t="inlineStr">
         <is>
@@ -7876,13 +8200,13 @@
         </is>
       </c>
       <c r="O84" s="14" t="n">
-        <v>-29.4</v>
+        <v>-39.5</v>
       </c>
       <c r="P84" s="14" t="n">
-        <v>-20.7</v>
+        <v>-26.6</v>
       </c>
       <c r="Q84" s="14" t="n">
-        <v>-26.28</v>
+        <v>-33.81</v>
       </c>
       <c r="R84" s="15" t="inlineStr">
         <is>
@@ -7982,14 +8306,12 @@
         </is>
       </c>
       <c r="O85" s="14" t="n">
-        <v>-30.7</v>
+        <v>-35.3</v>
       </c>
       <c r="P85" s="14" t="n">
-        <v>-17.8</v>
-      </c>
-      <c r="Q85" s="14" t="n">
-        <v>-25.78</v>
-      </c>
+        <v>-24.2</v>
+      </c>
+      <c r="Q85" s="14" t="n"/>
       <c r="R85" s="15" t="inlineStr">
         <is>
           <t>Y</t>
@@ -8084,14 +8406,12 @@
       </c>
       <c r="N86" s="11" t="n"/>
       <c r="O86" s="14" t="n">
-        <v>-25.3</v>
+        <v>-28.9</v>
       </c>
       <c r="P86" s="14" t="n">
-        <v>-13.7</v>
-      </c>
-      <c r="Q86" s="14" t="n">
-        <v>-21.69</v>
-      </c>
+        <v>-23.6</v>
+      </c>
+      <c r="Q86" s="14" t="n"/>
       <c r="R86" s="15" t="inlineStr">
         <is>
           <t>Y</t>
@@ -8198,14 +8518,12 @@
         </is>
       </c>
       <c r="O87" s="14" t="n">
-        <v>-26.3</v>
+        <v>-30</v>
       </c>
       <c r="P87" s="14" t="n">
-        <v>-19.6</v>
-      </c>
-      <c r="Q87" s="14" t="n">
-        <v>-23.19</v>
-      </c>
+        <v>-20.9</v>
+      </c>
+      <c r="Q87" s="14" t="n"/>
       <c r="R87" s="15" t="inlineStr">
         <is>
           <t>Y</t>
@@ -8300,13 +8618,13 @@
       </c>
       <c r="N88" s="11" t="n"/>
       <c r="O88" s="14" t="n">
-        <v>-22.7</v>
+        <v>-28.5</v>
       </c>
       <c r="P88" s="14" t="n">
-        <v>-15.8</v>
+        <v>-17</v>
       </c>
       <c r="Q88" s="14" t="n">
-        <v>-19.38</v>
+        <v>-22.84</v>
       </c>
       <c r="R88" s="15" t="inlineStr">
         <is>
@@ -8402,11 +8720,9 @@
       </c>
       <c r="N89" s="11" t="n"/>
       <c r="O89" s="14" t="n">
-        <v>-31.5</v>
-      </c>
-      <c r="P89" s="14" t="n">
-        <v>-15.3</v>
-      </c>
+        <v>-38.8</v>
+      </c>
+      <c r="P89" s="14" t="n"/>
       <c r="Q89" s="14" t="n"/>
       <c r="R89" s="15" t="inlineStr">
         <is>
@@ -8502,13 +8818,13 @@
         </is>
       </c>
       <c r="O90" s="14" t="n">
-        <v>-18.4</v>
+        <v>-21</v>
       </c>
       <c r="P90" s="14" t="n">
-        <v>-3</v>
+        <v>-10.2</v>
       </c>
       <c r="Q90" s="14" t="n">
-        <v>-12.68</v>
+        <v>-15.33</v>
       </c>
       <c r="R90" s="15" t="inlineStr">
         <is>
@@ -8600,13 +8916,13 @@
       </c>
       <c r="N91" s="11" t="n"/>
       <c r="O91" s="14" t="n">
-        <v>-19.1</v>
+        <v>-22.1</v>
       </c>
       <c r="P91" s="14" t="n">
-        <v>-12.9</v>
+        <v>-14.2</v>
       </c>
       <c r="Q91" s="14" t="n">
-        <v>-16.14</v>
+        <v>-17.18</v>
       </c>
       <c r="R91" s="15" t="inlineStr">
         <is>
@@ -8698,13 +9014,13 @@
       </c>
       <c r="N92" s="11" t="n"/>
       <c r="O92" s="14" t="n">
-        <v>-8.6</v>
+        <v>-16.6</v>
       </c>
       <c r="P92" s="14" t="n">
-        <v>0.7</v>
+        <v>-3.5</v>
       </c>
       <c r="Q92" s="14" t="n">
-        <v>-3.23</v>
+        <v>-10.32</v>
       </c>
       <c r="R92" s="15" t="inlineStr">
         <is>
@@ -8800,13 +9116,13 @@
       </c>
       <c r="N93" s="11" t="n"/>
       <c r="O93" s="14" t="n">
-        <v>-5</v>
+        <v>-11.1</v>
       </c>
       <c r="P93" s="14" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="Q93" s="14" t="n">
-        <v>-1.7</v>
+        <v>-5.45</v>
       </c>
       <c r="R93" s="15" t="inlineStr">
         <is>
@@ -8910,10 +9226,10 @@
         </is>
       </c>
       <c r="O94" s="14" t="n">
-        <v>-9.199999999999999</v>
+        <v>-17.2</v>
       </c>
       <c r="P94" s="14" t="n">
-        <v>1.6</v>
+        <v>-2.9</v>
       </c>
       <c r="Q94" s="14" t="n"/>
       <c r="R94" s="15" t="inlineStr">
@@ -9018,13 +9334,13 @@
       </c>
       <c r="N95" s="11" t="n"/>
       <c r="O95" s="14" t="n">
-        <v>-9.6</v>
+        <v>-13.4</v>
       </c>
       <c r="P95" s="14" t="n">
-        <v>-1.5</v>
+        <v>-3.2</v>
       </c>
       <c r="Q95" s="14" t="n">
-        <v>-5.08</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="R95" s="15" t="inlineStr">
         <is>
@@ -9136,10 +9452,10 @@
         </is>
       </c>
       <c r="O96" s="14" t="n">
-        <v>-8</v>
+        <v>-16.3</v>
       </c>
       <c r="P96" s="14" t="n">
-        <v>3.5</v>
+        <v>-3.2</v>
       </c>
       <c r="Q96" s="14" t="n"/>
       <c r="R96" s="15" t="inlineStr">
@@ -9244,13 +9560,13 @@
       </c>
       <c r="N97" s="11" t="n"/>
       <c r="O97" s="14" t="n">
-        <v>-11.3</v>
+        <v>-14.3</v>
       </c>
       <c r="P97" s="14" t="n">
-        <v>-2.5</v>
+        <v>-6.9</v>
       </c>
       <c r="Q97" s="14" t="n">
-        <v>-8.289999999999999</v>
+        <v>-10.86</v>
       </c>
       <c r="R97" s="15" t="inlineStr">
         <is>
@@ -9350,10 +9666,10 @@
       </c>
       <c r="N98" s="11" t="n"/>
       <c r="O98" s="14" t="n">
-        <v>-15.8</v>
+        <v>-15.9</v>
       </c>
       <c r="P98" s="14" t="n">
-        <v>-7.6</v>
+        <v>-12.7</v>
       </c>
       <c r="Q98" s="14" t="n"/>
       <c r="R98" s="15" t="inlineStr">
@@ -9458,13 +9774,13 @@
       </c>
       <c r="N99" s="11" t="n"/>
       <c r="O99" s="14" t="n">
-        <v>-15.6</v>
+        <v>-19.4</v>
       </c>
       <c r="P99" s="14" t="n">
-        <v>-13.4</v>
+        <v>-15</v>
       </c>
       <c r="Q99" s="14" t="n">
-        <v>-14.61</v>
+        <v>-16.88</v>
       </c>
       <c r="R99" s="15" t="inlineStr">
         <is>
@@ -9764,13 +10080,13 @@
       </c>
       <c r="N102" s="11" t="n"/>
       <c r="O102" s="14" t="n">
-        <v>-30.3</v>
+        <v>-30.6</v>
       </c>
       <c r="P102" s="14" t="n">
-        <v>-16.2</v>
+        <v>-20.7</v>
       </c>
       <c r="Q102" s="14" t="n">
-        <v>-23.07</v>
+        <v>-25.23</v>
       </c>
       <c r="R102" s="15" t="inlineStr">
         <is>
@@ -9869,8 +10185,12 @@
         </is>
       </c>
       <c r="N103" s="11" t="n"/>
-      <c r="O103" s="14" t="n"/>
-      <c r="P103" s="14" t="n"/>
+      <c r="O103" s="14" t="n">
+        <v>-32.2</v>
+      </c>
+      <c r="P103" s="14" t="n">
+        <v>-20.6</v>
+      </c>
       <c r="Q103" s="14" t="n"/>
       <c r="R103" s="15" t="inlineStr">
         <is>
@@ -9966,10 +10286,10 @@
       </c>
       <c r="N104" s="11" t="n"/>
       <c r="O104" s="14" t="n">
-        <v>-24.4</v>
+        <v>-34.8</v>
       </c>
       <c r="P104" s="14" t="n">
-        <v>-12.9</v>
+        <v>-18.6</v>
       </c>
       <c r="Q104" s="14" t="n"/>
       <c r="R104" s="15" t="inlineStr">
@@ -10082,13 +10402,13 @@
         </is>
       </c>
       <c r="O105" s="14" t="n">
-        <v>-28.5</v>
+        <v>-35</v>
       </c>
       <c r="P105" s="14" t="n">
-        <v>-12.3</v>
+        <v>-17.9</v>
       </c>
       <c r="Q105" s="14" t="n">
-        <v>-18.8</v>
+        <v>-27.22</v>
       </c>
       <c r="R105" s="15" t="inlineStr">
         <is>
@@ -10192,10 +10512,10 @@
         </is>
       </c>
       <c r="O106" s="14" t="n">
-        <v>-25.3</v>
+        <v>-28.1</v>
       </c>
       <c r="P106" s="14" t="n">
-        <v>-12.8</v>
+        <v>-19</v>
       </c>
       <c r="Q106" s="14" t="n"/>
       <c r="R106" s="15" t="inlineStr">
@@ -10291,8 +10611,12 @@
         </is>
       </c>
       <c r="N107" s="11" t="n"/>
-      <c r="O107" s="14" t="n"/>
-      <c r="P107" s="14" t="n"/>
+      <c r="O107" s="14" t="n">
+        <v>-29.4</v>
+      </c>
+      <c r="P107" s="14" t="n">
+        <v>-20.5</v>
+      </c>
       <c r="Q107" s="14" t="n"/>
       <c r="R107" s="15" t="inlineStr">
         <is>
@@ -10392,13 +10716,13 @@
       </c>
       <c r="N108" s="11" t="n"/>
       <c r="O108" s="14" t="n">
-        <v>-23.7</v>
+        <v>-27.7</v>
       </c>
       <c r="P108" s="14" t="n">
-        <v>-15.4</v>
+        <v>-20.6</v>
       </c>
       <c r="Q108" s="14" t="n">
-        <v>-19.58</v>
+        <v>-24.26</v>
       </c>
       <c r="R108" s="15" t="inlineStr">
         <is>
@@ -10690,13 +11014,13 @@
       </c>
       <c r="N111" s="11" t="n"/>
       <c r="O111" s="14" t="n">
-        <v>-25.1</v>
+        <v>-25.9</v>
       </c>
       <c r="P111" s="14" t="n">
-        <v>-12.9</v>
+        <v>-18.9</v>
       </c>
       <c r="Q111" s="14" t="n">
-        <v>-18.34</v>
+        <v>-21.82</v>
       </c>
       <c r="R111" s="15" t="inlineStr">
         <is>
@@ -10792,10 +11116,10 @@
       </c>
       <c r="N112" s="11" t="n"/>
       <c r="O112" s="14" t="n">
-        <v>-11.2</v>
+        <v>-22.2</v>
       </c>
       <c r="P112" s="14" t="n">
-        <v>-2.1</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="Q112" s="14" t="n"/>
       <c r="R112" s="15" t="inlineStr">
@@ -10888,10 +11212,10 @@
       </c>
       <c r="N113" s="11" t="n"/>
       <c r="O113" s="14" t="n">
-        <v>-17</v>
+        <v>-17.3</v>
       </c>
       <c r="P113" s="14" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q113" s="14" t="n"/>
       <c r="R113" s="15" t="inlineStr">
@@ -10992,10 +11316,10 @@
         </is>
       </c>
       <c r="O114" s="14" t="n">
-        <v>-26.2</v>
+        <v>-24.5</v>
       </c>
       <c r="P114" s="14" t="n">
-        <v>-0.4</v>
+        <v>3</v>
       </c>
       <c r="Q114" s="14" t="n"/>
       <c r="R114" s="15" t="inlineStr">
@@ -11104,10 +11428,10 @@
         </is>
       </c>
       <c r="O115" s="14" t="n">
-        <v>-20.8</v>
+        <v>-17.9</v>
       </c>
       <c r="P115" s="14" t="n">
-        <v>-2.3</v>
+        <v>-1</v>
       </c>
       <c r="Q115" s="14" t="n"/>
       <c r="R115" s="15" t="inlineStr">
@@ -11212,13 +11536,13 @@
       </c>
       <c r="N116" s="11" t="n"/>
       <c r="O116" s="14" t="n">
-        <v>-19.1</v>
+        <v>-12.1</v>
       </c>
       <c r="P116" s="14" t="n">
-        <v>4.9</v>
+        <v>-2.6</v>
       </c>
       <c r="Q116" s="14" t="n">
-        <v>-8.65</v>
+        <v>-7.18</v>
       </c>
       <c r="R116" s="15" t="inlineStr">
         <is>
@@ -11314,10 +11638,10 @@
       </c>
       <c r="N117" s="11" t="n"/>
       <c r="O117" s="14" t="n">
-        <v>-17.5</v>
+        <v>-12</v>
       </c>
       <c r="P117" s="14" t="n">
-        <v>2.7</v>
+        <v>-1.3</v>
       </c>
       <c r="Q117" s="14" t="n"/>
       <c r="R117" s="15" t="inlineStr">
@@ -11418,10 +11742,10 @@
         </is>
       </c>
       <c r="O118" s="14" t="n">
-        <v>-23.3</v>
+        <v>-21.2</v>
       </c>
       <c r="P118" s="14" t="n">
-        <v>-12.7</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="Q118" s="14" t="n"/>
       <c r="R118" s="15" t="inlineStr">
@@ -11526,13 +11850,13 @@
       </c>
       <c r="N119" s="11" t="n"/>
       <c r="O119" s="14" t="n">
-        <v>-18.5</v>
+        <v>-17.2</v>
       </c>
       <c r="P119" s="14" t="n">
-        <v>-7.9</v>
+        <v>-7</v>
       </c>
       <c r="Q119" s="14" t="n">
-        <v>-12.57</v>
+        <v>-12.99</v>
       </c>
       <c r="R119" s="15" t="inlineStr">
         <is>
@@ -11640,13 +11964,13 @@
       </c>
       <c r="N120" s="11" t="n"/>
       <c r="O120" s="14" t="n">
-        <v>-5</v>
+        <v>-3.6</v>
       </c>
       <c r="P120" s="14" t="n">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="Q120" s="14" t="n">
-        <v>0.49</v>
+        <v>0.19</v>
       </c>
       <c r="R120" s="15" t="inlineStr">
         <is>
@@ -11746,13 +12070,13 @@
       </c>
       <c r="N121" s="11" t="n"/>
       <c r="O121" s="14" t="n">
-        <v>-7.3</v>
+        <v>-7.9</v>
       </c>
       <c r="P121" s="14" t="n">
-        <v>-5.1</v>
+        <v>-1</v>
       </c>
       <c r="Q121" s="14" t="n">
-        <v>-6.38</v>
+        <v>-5.51</v>
       </c>
       <c r="R121" s="15" t="inlineStr">
         <is>
@@ -11860,10 +12184,10 @@
       </c>
       <c r="N122" s="11" t="n"/>
       <c r="O122" s="14" t="n">
-        <v>-27.5</v>
+        <v>-27.1</v>
       </c>
       <c r="P122" s="14" t="n">
-        <v>-15.4</v>
+        <v>-11.2</v>
       </c>
       <c r="Q122" s="14" t="n"/>
       <c r="R122" s="15" t="inlineStr">
@@ -12064,13 +12388,13 @@
       </c>
       <c r="N124" s="11" t="n"/>
       <c r="O124" s="14" t="n">
-        <v>-7.4</v>
+        <v>-14.4</v>
       </c>
       <c r="P124" s="14" t="n">
-        <v>3.3</v>
+        <v>-3.1</v>
       </c>
       <c r="Q124" s="14" t="n">
-        <v>-2.91</v>
+        <v>-10.17</v>
       </c>
       <c r="R124" s="15" t="inlineStr">
         <is>
@@ -12178,13 +12502,13 @@
       </c>
       <c r="N125" s="11" t="n"/>
       <c r="O125" s="14" t="n">
-        <v>-0.1</v>
+        <v>0.4</v>
       </c>
       <c r="P125" s="14" t="n">
-        <v>10.3</v>
+        <v>5.5</v>
       </c>
       <c r="Q125" s="14" t="n">
-        <v>4.97</v>
+        <v>2.99</v>
       </c>
       <c r="R125" s="15" t="inlineStr">
         <is>
@@ -12268,10 +12592,10 @@
       </c>
       <c r="N126" s="11" t="n"/>
       <c r="O126" s="14" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="P126" s="14" t="n">
-        <v>11.6</v>
+        <v>7.1</v>
       </c>
       <c r="Q126" s="14" t="n"/>
       <c r="R126" s="15" t="inlineStr">
@@ -12368,13 +12692,13 @@
       </c>
       <c r="N127" s="11" t="n"/>
       <c r="O127" s="14" t="n">
-        <v>-0.6</v>
+        <v>-7.7</v>
       </c>
       <c r="P127" s="14" t="n">
-        <v>6.8</v>
+        <v>5</v>
       </c>
       <c r="Q127" s="14" t="n">
-        <v>3.44</v>
+        <v>-1.45</v>
       </c>
       <c r="R127" s="15" t="inlineStr">
         <is>
@@ -12478,10 +12802,10 @@
       </c>
       <c r="N128" s="11" t="n"/>
       <c r="O128" s="14" t="n">
-        <v>0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="P128" s="14" t="n">
-        <v>16.6</v>
+        <v>7.9</v>
       </c>
       <c r="Q128" s="14" t="n"/>
       <c r="R128" s="15" t="inlineStr">
@@ -12578,13 +12902,13 @@
       </c>
       <c r="N129" s="11" t="n"/>
       <c r="O129" s="14" t="n">
-        <v>-4.3</v>
+        <v>-7.6</v>
       </c>
       <c r="P129" s="14" t="n">
-        <v>9.1</v>
+        <v>7</v>
       </c>
       <c r="Q129" s="14" t="n">
-        <v>2.94</v>
+        <v>-1.06</v>
       </c>
       <c r="R129" s="15" t="inlineStr">
         <is>
@@ -12688,13 +13012,13 @@
       </c>
       <c r="N130" s="11" t="n"/>
       <c r="O130" s="14" t="n">
-        <v>-7.4</v>
+        <v>-9.5</v>
       </c>
       <c r="P130" s="14" t="n">
-        <v>6.3</v>
+        <v>10.3</v>
       </c>
       <c r="Q130" s="14" t="n">
-        <v>-0.36</v>
+        <v>-1.44</v>
       </c>
       <c r="R130" s="15" t="inlineStr">
         <is>
@@ -12798,13 +13122,13 @@
       </c>
       <c r="N131" s="11" t="n"/>
       <c r="O131" s="14" t="n">
-        <v>7.1</v>
+        <v>1.4</v>
       </c>
       <c r="P131" s="14" t="n">
-        <v>18.6</v>
+        <v>11.3</v>
       </c>
       <c r="Q131" s="14" t="n">
-        <v>11.94</v>
+        <v>6.42</v>
       </c>
       <c r="R131" s="15" t="inlineStr">
         <is>
@@ -12904,13 +13228,13 @@
       </c>
       <c r="N132" s="11" t="n"/>
       <c r="O132" s="14" t="n">
-        <v>4</v>
+        <v>5.8</v>
       </c>
       <c r="P132" s="14" t="n">
-        <v>20.6</v>
+        <v>15.5</v>
       </c>
       <c r="Q132" s="14" t="n">
-        <v>11.82</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="R132" s="15" t="inlineStr">
         <is>
@@ -13010,13 +13334,13 @@
       </c>
       <c r="N133" s="11" t="n"/>
       <c r="O133" s="14" t="n">
-        <v>4.8</v>
+        <v>2.3</v>
       </c>
       <c r="P133" s="14" t="n">
-        <v>16.7</v>
+        <v>11.7</v>
       </c>
       <c r="Q133" s="14" t="n">
-        <v>9.949999999999999</v>
+        <v>6.81</v>
       </c>
       <c r="R133" s="15" t="inlineStr">
         <is>
@@ -13120,13 +13444,13 @@
       </c>
       <c r="N134" s="11" t="n"/>
       <c r="O134" s="14" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P134" s="14" t="n">
-        <v>16</v>
+        <v>12.7</v>
       </c>
       <c r="Q134" s="14" t="n">
-        <v>8.4</v>
+        <v>7.64</v>
       </c>
       <c r="R134" s="15" t="inlineStr">
         <is>
@@ -13222,13 +13546,13 @@
       </c>
       <c r="N135" s="11" t="n"/>
       <c r="O135" s="14" t="n">
-        <v>10.3</v>
+        <v>11.7</v>
       </c>
       <c r="P135" s="14" t="n">
-        <v>24.5</v>
+        <v>19.9</v>
       </c>
       <c r="Q135" s="14" t="n">
-        <v>15.91</v>
+        <v>15.55</v>
       </c>
       <c r="R135" s="15" t="inlineStr">
         <is>
@@ -13328,13 +13652,13 @@
       </c>
       <c r="N136" s="11" t="n"/>
       <c r="O136" s="14" t="n">
-        <v>8.6</v>
+        <v>10.9</v>
       </c>
       <c r="P136" s="14" t="n">
-        <v>23.5</v>
+        <v>22.9</v>
       </c>
       <c r="Q136" s="14" t="n">
-        <v>15.04</v>
+        <v>15.89</v>
       </c>
       <c r="R136" s="15" t="inlineStr">
         <is>
@@ -13434,13 +13758,13 @@
       </c>
       <c r="N137" s="11" t="n"/>
       <c r="O137" s="14" t="n">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="P137" s="14" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="Q137" s="14" t="n">
-        <v>11.96</v>
+        <v>11.15</v>
       </c>
       <c r="R137" s="15" t="inlineStr">
         <is>
@@ -13540,10 +13864,10 @@
       </c>
       <c r="N138" s="11" t="n"/>
       <c r="O138" s="14" t="n">
-        <v>3.2</v>
+        <v>6.7</v>
       </c>
       <c r="P138" s="14" t="n">
-        <v>23.8</v>
+        <v>16.3</v>
       </c>
       <c r="Q138" s="14" t="n"/>
       <c r="R138" s="15" t="inlineStr">
@@ -13644,13 +13968,13 @@
       </c>
       <c r="N139" s="11" t="n"/>
       <c r="O139" s="14" t="n">
-        <v>5.4</v>
+        <v>10.3</v>
       </c>
       <c r="P139" s="14" t="n">
-        <v>22.4</v>
+        <v>17.5</v>
       </c>
       <c r="Q139" s="14" t="n">
-        <v>12.54</v>
+        <v>13.11</v>
       </c>
       <c r="R139" s="15" t="inlineStr">
         <is>
@@ -13750,13 +14074,13 @@
       </c>
       <c r="N140" s="11" t="n"/>
       <c r="O140" s="14" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="P140" s="14" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q140" s="14" t="n">
-        <v>14.07</v>
+        <v>13.4</v>
       </c>
       <c r="R140" s="15" t="inlineStr">
         <is>
@@ -13856,13 +14180,13 @@
       </c>
       <c r="N141" s="11" t="n"/>
       <c r="O141" s="14" t="n">
-        <v>5.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="P141" s="14" t="n">
         <v>22.2</v>
       </c>
       <c r="Q141" s="14" t="n">
-        <v>12.31</v>
+        <v>13.74</v>
       </c>
       <c r="R141" s="15" t="inlineStr">
         <is>
@@ -13958,13 +14282,13 @@
       </c>
       <c r="N142" s="11" t="n"/>
       <c r="O142" s="14" t="n">
-        <v>11.2</v>
+        <v>15.8</v>
       </c>
       <c r="P142" s="14" t="n">
-        <v>26.4</v>
+        <v>27.1</v>
       </c>
       <c r="Q142" s="14" t="n">
-        <v>17.48</v>
+        <v>19.86</v>
       </c>
       <c r="R142" s="15" t="inlineStr">
         <is>
@@ -14064,13 +14388,13 @@
       </c>
       <c r="N143" s="11" t="n"/>
       <c r="O143" s="14" t="n">
-        <v>15.3</v>
+        <v>16.6</v>
       </c>
       <c r="P143" s="14" t="n">
-        <v>21.3</v>
+        <v>28.3</v>
       </c>
       <c r="Q143" s="14" t="n">
-        <v>17.99</v>
+        <v>20.89</v>
       </c>
       <c r="R143" s="15" t="inlineStr">
         <is>
@@ -14170,13 +14494,13 @@
       </c>
       <c r="N144" s="11" t="n"/>
       <c r="O144" s="14" t="n">
-        <v>18.9</v>
+        <v>20.4</v>
       </c>
       <c r="P144" s="14" t="n">
-        <v>22.9</v>
+        <v>21.9</v>
       </c>
       <c r="Q144" s="14" t="n">
-        <v>21.35</v>
+        <v>21.16</v>
       </c>
       <c r="R144" s="15" t="inlineStr">
         <is>
@@ -14272,13 +14596,13 @@
       </c>
       <c r="N145" s="11" t="n"/>
       <c r="O145" s="14" t="n">
-        <v>20.2</v>
+        <v>21.8</v>
       </c>
       <c r="P145" s="14" t="n">
-        <v>25</v>
+        <v>23.5</v>
       </c>
       <c r="Q145" s="14" t="n">
-        <v>21.82</v>
+        <v>22.28</v>
       </c>
       <c r="R145" s="15" t="inlineStr">
         <is>
@@ -14370,13 +14694,13 @@
       </c>
       <c r="N146" s="11" t="n"/>
       <c r="O146" s="14" t="n">
-        <v>20.7</v>
+        <v>22.2</v>
       </c>
       <c r="P146" s="14" t="n">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="Q146" s="14" t="n">
-        <v>23.11</v>
+        <v>24.09</v>
       </c>
       <c r="R146" s="15" t="inlineStr">
         <is>
@@ -14468,13 +14792,13 @@
       </c>
       <c r="N147" s="11" t="n"/>
       <c r="O147" s="14" t="n">
-        <v>14.4</v>
+        <v>17.7</v>
       </c>
       <c r="P147" s="14" t="n">
-        <v>22.5</v>
+        <v>25.5</v>
       </c>
       <c r="Q147" s="14" t="n">
-        <v>18.42</v>
+        <v>20.6</v>
       </c>
       <c r="R147" s="15" t="inlineStr">
         <is>
@@ -14574,10 +14898,10 @@
       </c>
       <c r="N148" s="11" t="n"/>
       <c r="O148" s="14" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="P148" s="14" t="n">
-        <v>24.6</v>
+        <v>25.7</v>
       </c>
       <c r="Q148" s="14" t="n"/>
       <c r="R148" s="15" t="inlineStr">
@@ -14674,13 +14998,13 @@
       </c>
       <c r="N149" s="11" t="n"/>
       <c r="O149" s="14" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="P149" s="14" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="Q149" s="14" t="n">
-        <v>10.49</v>
+        <v>10.25</v>
       </c>
       <c r="R149" s="15" t="inlineStr">
         <is>
@@ -14780,13 +15104,13 @@
       </c>
       <c r="N150" s="11" t="n"/>
       <c r="O150" s="14" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="P150" s="14" t="n">
-        <v>16.4</v>
+        <v>19</v>
       </c>
       <c r="Q150" s="14" t="n">
-        <v>10.76</v>
+        <v>11.26</v>
       </c>
       <c r="R150" s="15" t="inlineStr">
         <is>
@@ -14886,13 +15210,13 @@
       </c>
       <c r="N151" s="11" t="n"/>
       <c r="O151" s="14" t="n">
-        <v>10.4</v>
+        <v>10.1</v>
       </c>
       <c r="P151" s="14" t="n">
-        <v>18.9</v>
+        <v>18.1</v>
       </c>
       <c r="Q151" s="14" t="n">
-        <v>13.61</v>
+        <v>13.51</v>
       </c>
       <c r="R151" s="15" t="inlineStr">
         <is>
@@ -15076,13 +15400,13 @@
       </c>
       <c r="N153" s="11" t="n"/>
       <c r="O153" s="14" t="n">
-        <v>4.6</v>
+        <v>6</v>
       </c>
       <c r="P153" s="14" t="n">
-        <v>18.3</v>
+        <v>16.4</v>
       </c>
       <c r="Q153" s="14" t="n">
-        <v>10.05</v>
+        <v>10.3</v>
       </c>
       <c r="R153" s="15" t="inlineStr">
         <is>
@@ -15186,13 +15510,13 @@
       </c>
       <c r="N154" s="11" t="n"/>
       <c r="O154" s="14" t="n">
-        <v>-3.8</v>
+        <v>-3.9</v>
       </c>
       <c r="P154" s="14" t="n">
-        <v>13.2</v>
+        <v>12.6</v>
       </c>
       <c r="Q154" s="14" t="n">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="R154" s="15" t="inlineStr">
         <is>
@@ -15372,10 +15696,10 @@
       </c>
       <c r="N156" s="11" t="n"/>
       <c r="O156" s="14" t="n">
-        <v>-7.2</v>
+        <v>-18.7</v>
       </c>
       <c r="P156" s="14" t="n">
-        <v>3.9</v>
+        <v>-1.2</v>
       </c>
       <c r="Q156" s="14" t="n"/>
       <c r="R156" s="15" t="inlineStr">
@@ -15468,10 +15792,10 @@
       </c>
       <c r="N157" s="11" t="n"/>
       <c r="O157" s="14" t="n">
-        <v>9.6</v>
+        <v>11.4</v>
       </c>
       <c r="P157" s="14" t="n">
-        <v>22</v>
+        <v>17.4</v>
       </c>
       <c r="Q157" s="14" t="n"/>
       <c r="R157" s="15" t="inlineStr">
@@ -15824,10 +16148,10 @@
       </c>
       <c r="N161" s="11" t="n"/>
       <c r="O161" s="14" t="n">
-        <v>-4.9</v>
+        <v>-4.8</v>
       </c>
       <c r="P161" s="14" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Q161" s="14" t="n"/>
       <c r="R161" s="15" t="inlineStr">
@@ -16227,12 +16551,8 @@
           <t>⚡</t>
         </is>
       </c>
-      <c r="O165" s="14" t="n">
-        <v>-32.7</v>
-      </c>
-      <c r="P165" s="14" t="n">
-        <v>-11.9</v>
-      </c>
+      <c r="O165" s="14" t="n"/>
+      <c r="P165" s="14" t="n"/>
       <c r="Q165" s="14" t="n"/>
       <c r="R165" s="15" t="inlineStr">
         <is>
@@ -16331,8 +16651,12 @@
           <t>▼</t>
         </is>
       </c>
-      <c r="O166" s="14" t="n"/>
-      <c r="P166" s="14" t="n"/>
+      <c r="O166" s="14" t="n">
+        <v>-40.3</v>
+      </c>
+      <c r="P166" s="14" t="n">
+        <v>-23.6</v>
+      </c>
       <c r="Q166" s="14" t="n"/>
       <c r="R166" s="15" t="inlineStr">
         <is>
@@ -16523,8 +16847,12 @@
           <t>❄️</t>
         </is>
       </c>
-      <c r="O168" s="14" t="n"/>
-      <c r="P168" s="14" t="n"/>
+      <c r="O168" s="14" t="n">
+        <v>-22</v>
+      </c>
+      <c r="P168" s="14" t="n">
+        <v>-8.4</v>
+      </c>
       <c r="Q168" s="14" t="n"/>
       <c r="R168" s="15" t="inlineStr">
         <is>
@@ -16624,10 +16952,10 @@
         </is>
       </c>
       <c r="O169" s="14" t="n">
-        <v>-32.4</v>
+        <v>-28</v>
       </c>
       <c r="P169" s="14" t="n">
-        <v>-12.3</v>
+        <v>-10.7</v>
       </c>
       <c r="Q169" s="14" t="n"/>
       <c r="R169" s="15" t="inlineStr">
@@ -17012,10 +17340,10 @@
       </c>
       <c r="N173" s="11" t="n"/>
       <c r="O173" s="14" t="n">
-        <v>-13.1</v>
+        <v>-23.2</v>
       </c>
       <c r="P173" s="14" t="n">
-        <v>-4.3</v>
+        <v>-11.5</v>
       </c>
       <c r="Q173" s="14" t="n"/>
       <c r="R173" s="15" t="inlineStr">
@@ -17294,10 +17622,10 @@
       </c>
       <c r="N176" s="11" t="n"/>
       <c r="O176" s="14" t="n">
-        <v>7</v>
+        <v>4.4</v>
       </c>
       <c r="P176" s="14" t="n">
-        <v>13.4</v>
+        <v>10</v>
       </c>
       <c r="Q176" s="14" t="n"/>
       <c r="R176" s="15" t="inlineStr">
@@ -17380,10 +17708,10 @@
       </c>
       <c r="N177" s="11" t="n"/>
       <c r="O177" s="14" t="n">
-        <v>-16.6</v>
+        <v>-22.9</v>
       </c>
       <c r="P177" s="14" t="n">
-        <v>-12.2</v>
+        <v>-15</v>
       </c>
       <c r="Q177" s="14" t="n"/>
       <c r="R177" s="15" t="inlineStr">
@@ -18077,15 +18405,15 @@
       <c r="L185" s="11" t="n"/>
       <c r="M185" s="11" t="inlineStr">
         <is>
-          <t>TOKO</t>
+          <t>Toko</t>
         </is>
       </c>
       <c r="N185" s="11" t="n"/>
       <c r="O185" s="14" t="n">
-        <v>-37.2</v>
+        <v>-25</v>
       </c>
       <c r="P185" s="14" t="n">
-        <v>-24.5</v>
+        <v>-23.6</v>
       </c>
       <c r="Q185" s="14" t="n"/>
       <c r="R185" s="15" t="inlineStr">
@@ -18183,13 +18511,13 @@
       </c>
       <c r="N186" s="11" t="n"/>
       <c r="O186" s="14" t="n">
-        <v>-34.1</v>
+        <v>-33.3</v>
       </c>
       <c r="P186" s="14" t="n">
-        <v>-31.5</v>
+        <v>-28.9</v>
       </c>
       <c r="Q186" s="14" t="n">
-        <v>-32.89</v>
+        <v>-31.27</v>
       </c>
       <c r="R186" s="15" t="inlineStr">
         <is>
@@ -18285,10 +18613,10 @@
         <v>-39.5</v>
       </c>
       <c r="P187" s="14" t="n">
-        <v>-34.5</v>
+        <v>-33.6</v>
       </c>
       <c r="Q187" s="14" t="n">
-        <v>-38.19</v>
+        <v>-35.18</v>
       </c>
       <c r="R187" s="15" t="inlineStr">
         <is>
@@ -18371,18 +18699,18 @@
       <c r="L188" s="11" t="n"/>
       <c r="M188" s="11" t="inlineStr">
         <is>
-          <t>YURTY</t>
+          <t>Yurty</t>
         </is>
       </c>
       <c r="N188" s="11" t="n"/>
       <c r="O188" s="14" t="n">
-        <v>-40</v>
+        <v>-41</v>
       </c>
       <c r="P188" s="14" t="n">
-        <v>-34</v>
+        <v>-34.5</v>
       </c>
       <c r="Q188" s="14" t="n">
-        <v>-37.19</v>
+        <v>-38.15</v>
       </c>
       <c r="R188" s="15" t="inlineStr">
         <is>
@@ -18465,18 +18793,18 @@
       <c r="L189" s="11" t="n"/>
       <c r="M189" s="11" t="inlineStr">
         <is>
-          <t>DELYANKIR</t>
+          <t>Delyankir</t>
         </is>
       </c>
       <c r="N189" s="11" t="n"/>
       <c r="O189" s="14" t="n">
-        <v>-37.4</v>
+        <v>-36.2</v>
       </c>
       <c r="P189" s="14" t="n">
-        <v>-33.2</v>
+        <v>-27.5</v>
       </c>
       <c r="Q189" s="14" t="n">
-        <v>-35.19</v>
+        <v>-32.21</v>
       </c>
       <c r="R189" s="15" t="inlineStr">
         <is>
@@ -18564,13 +18892,13 @@
       </c>
       <c r="N190" s="11" t="n"/>
       <c r="O190" s="14" t="n">
-        <v>-48.9</v>
+        <v>-49.6</v>
       </c>
       <c r="P190" s="14" t="n">
-        <v>-46.6</v>
+        <v>-38.8</v>
       </c>
       <c r="Q190" s="14" t="n">
-        <v>-47.99</v>
+        <v>-47.11</v>
       </c>
       <c r="R190" s="15" t="inlineStr">
         <is>
@@ -18658,13 +18986,13 @@
       </c>
       <c r="N191" s="11" t="n"/>
       <c r="O191" s="14" t="n">
-        <v>-36.8</v>
+        <v>-34.7</v>
       </c>
       <c r="P191" s="14" t="n">
-        <v>-30.7</v>
+        <v>-29.4</v>
       </c>
       <c r="Q191" s="14" t="n">
-        <v>-34.54</v>
+        <v>-32.95</v>
       </c>
       <c r="R191" s="15" t="inlineStr">
         <is>
@@ -18748,13 +19076,13 @@
       </c>
       <c r="N192" s="11" t="n"/>
       <c r="O192" s="14" t="n">
-        <v>-39.3</v>
+        <v>-39.2</v>
       </c>
       <c r="P192" s="14" t="n">
-        <v>-34.9</v>
+        <v>-35.7</v>
       </c>
       <c r="Q192" s="14" t="n">
-        <v>-37.76</v>
+        <v>-37.91</v>
       </c>
       <c r="R192" s="15" t="inlineStr">
         <is>
@@ -18843,13 +19171,13 @@
       </c>
       <c r="N193" s="11" t="n"/>
       <c r="O193" s="14" t="n">
-        <v>-38.2</v>
+        <v>-36.2</v>
       </c>
       <c r="P193" s="14" t="n">
-        <v>-29.2</v>
+        <v>-31.2</v>
       </c>
       <c r="Q193" s="14" t="n">
-        <v>-32.73</v>
+        <v>-34.12</v>
       </c>
       <c r="R193" s="15" t="inlineStr">
         <is>
@@ -18936,15 +19264,15 @@
       <c r="L194" s="11" t="n"/>
       <c r="M194" s="11" t="inlineStr">
         <is>
-          <t>IEMA</t>
+          <t>Iema</t>
         </is>
       </c>
       <c r="N194" s="11" t="n"/>
       <c r="O194" s="14" t="n">
-        <v>-42.5</v>
+        <v>-43</v>
       </c>
       <c r="P194" s="14" t="n">
-        <v>-36</v>
+        <v>-36.9</v>
       </c>
       <c r="Q194" s="14" t="n"/>
       <c r="R194" s="15" t="inlineStr">
@@ -19029,13 +19357,13 @@
       </c>
       <c r="N195" s="11" t="n"/>
       <c r="O195" s="14" t="n">
-        <v>-39.3</v>
+        <v>-36.8</v>
       </c>
       <c r="P195" s="14" t="n">
-        <v>-29.9</v>
+        <v>-32.4</v>
       </c>
       <c r="Q195" s="14" t="n">
-        <v>-34.65</v>
+        <v>-34.94</v>
       </c>
       <c r="R195" s="15" t="inlineStr">
         <is>
@@ -19118,17 +19446,19 @@
       <c r="L196" s="11" t="n"/>
       <c r="M196" s="11" t="inlineStr">
         <is>
-          <t>Эльген</t>
+          <t>Taskan</t>
         </is>
       </c>
       <c r="N196" s="11" t="n"/>
       <c r="O196" s="14" t="n">
-        <v>-36.5</v>
+        <v>-36.1</v>
       </c>
       <c r="P196" s="14" t="n">
-        <v>-31.4</v>
-      </c>
-      <c r="Q196" s="14" t="n"/>
+        <v>-27.9</v>
+      </c>
+      <c r="Q196" s="14" t="n">
+        <v>-31.95</v>
+      </c>
       <c r="R196" s="15" t="inlineStr">
         <is>
           <t>Y</t>
@@ -19215,13 +19545,13 @@
       </c>
       <c r="N197" s="11" t="n"/>
       <c r="O197" s="14" t="n">
-        <v>-47.2</v>
+        <v>-45.8</v>
       </c>
       <c r="P197" s="14" t="n">
-        <v>-42.5</v>
+        <v>-30.4</v>
       </c>
       <c r="Q197" s="14" t="n">
-        <v>-45.31</v>
+        <v>-37.93</v>
       </c>
       <c r="R197" s="15" t="inlineStr">
         <is>
@@ -19477,10 +19807,10 @@
       </c>
       <c r="N200" s="11" t="n"/>
       <c r="O200" s="14" t="n">
-        <v>-36.1</v>
+        <v>-39.2</v>
       </c>
       <c r="P200" s="14" t="n">
-        <v>-21.3</v>
+        <v>-20.7</v>
       </c>
       <c r="Q200" s="14" t="n"/>
       <c r="R200" s="15" t="inlineStr">
@@ -19721,14 +20051,32 @@
       <c r="A203" s="11" t="n">
         <v>202</v>
       </c>
-      <c r="B203" s="11" t="n"/>
-      <c r="C203" s="11" t="n"/>
-      <c r="D203" s="11" t="n"/>
-      <c r="E203" s="11" t="n"/>
+      <c r="B203" s="11" t="inlineStr">
+        <is>
+          <t>ogimet</t>
+        </is>
+      </c>
+      <c r="C203" s="11" t="n">
+        <v>23699</v>
+      </c>
+      <c r="D203" s="11" t="inlineStr">
+        <is>
+          <t>Kerbo</t>
+        </is>
+      </c>
+      <c r="E203" s="11" t="n">
+        <v>99999</v>
+      </c>
       <c r="F203" s="12" t="n"/>
-      <c r="G203" s="11" t="n"/>
-      <c r="H203" s="11" t="n"/>
-      <c r="I203" s="11" t="n"/>
+      <c r="G203" s="11" t="n">
+        <v>62.7166666</v>
+      </c>
+      <c r="H203" s="11" t="n">
+        <v>101.1166666</v>
+      </c>
+      <c r="I203" s="11" t="n">
+        <v>230.4</v>
+      </c>
       <c r="J203" s="11" t="n">
         <v>12</v>
       </c>
@@ -19736,12 +20084,16 @@
       <c r="L203" s="11" t="n"/>
       <c r="M203" s="11" t="inlineStr">
         <is>
-          <t>阿巴河</t>
+          <t>Kerbo</t>
         </is>
       </c>
       <c r="N203" s="11" t="n"/>
-      <c r="O203" s="14" t="n"/>
-      <c r="P203" s="14" t="n"/>
+      <c r="O203" s="14" t="n">
+        <v>-52.2</v>
+      </c>
+      <c r="P203" s="14" t="n">
+        <v>-35.4</v>
+      </c>
       <c r="Q203" s="14" t="n"/>
       <c r="R203" s="15" t="inlineStr">
         <is>
@@ -19750,7 +20102,7 @@
       </c>
       <c r="S203" s="11" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>克拉斯诺亚尔斯克边疆区</t>
         </is>
       </c>
       <c r="T203" s="16" t="inlineStr">
@@ -19758,109 +20110,221 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="U203" s="16" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="U203" s="16" t="n"/>
       <c r="V203" s="16" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="W203" s="16" t="n"/>
-      <c r="X203" s="11" t="inlineStr">
-        <is>
-          <t>呼伦贝尔市</t>
-        </is>
-      </c>
+      <c r="X203" s="11" t="n"/>
       <c r="Y203" s="11" t="n"/>
       <c r="Z203" s="11" t="n"/>
       <c r="AA203" s="11" t="n"/>
       <c r="AB203" s="11" t="inlineStr">
         <is>
-          <t>中国</t>
+          <t>俄罗斯</t>
         </is>
       </c>
       <c r="AC203" s="11" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Z</t>
         </is>
       </c>
       <c r="AD203" s="11" t="n"/>
-      <c r="AE203" s="11" t="inlineStr">
-        <is>
-          <t>大兴安岭</t>
-        </is>
-      </c>
+      <c r="AE203" s="11" t="n"/>
       <c r="AF203" s="11" t="n"/>
     </row>
     <row r="204" ht="24" customHeight="1" s="20">
-      <c r="A204" s="11" t="n"/>
-      <c r="B204" s="11" t="n"/>
-      <c r="C204" s="11" t="n"/>
-      <c r="D204" s="11" t="n"/>
-      <c r="E204" s="11" t="n"/>
+      <c r="A204" s="11" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" s="11" t="inlineStr">
+        <is>
+          <t>ogimet</t>
+        </is>
+      </c>
+      <c r="C204" s="11" t="n">
+        <v>30337</v>
+      </c>
+      <c r="D204" s="11" t="inlineStr">
+        <is>
+          <t>Kazachinskoye_(airport)</t>
+        </is>
+      </c>
+      <c r="E204" s="11" t="n">
+        <v>99999</v>
+      </c>
       <c r="F204" s="12" t="n"/>
-      <c r="G204" s="11" t="n"/>
-      <c r="H204" s="11" t="n"/>
-      <c r="I204" s="11" t="n"/>
-      <c r="J204" s="11" t="n"/>
+      <c r="G204" s="11" t="n">
+        <v>56.3166666</v>
+      </c>
+      <c r="H204" s="11" t="n">
+        <v>107.6166666</v>
+      </c>
+      <c r="I204" s="11" t="n">
+        <v>362</v>
+      </c>
+      <c r="J204" s="11" t="n">
+        <v>12</v>
+      </c>
       <c r="K204" s="11" t="n"/>
       <c r="L204" s="11" t="n"/>
-      <c r="M204" s="11" t="n"/>
+      <c r="M204" s="11" t="inlineStr">
+        <is>
+          <t>卡扎钦斯科耶</t>
+        </is>
+      </c>
       <c r="N204" s="11" t="n"/>
-      <c r="O204" s="14" t="n"/>
-      <c r="P204" s="14" t="n"/>
-      <c r="Q204" s="14" t="n"/>
-      <c r="R204" s="15" t="n"/>
-      <c r="S204" s="11" t="n"/>
-      <c r="T204" s="16" t="n"/>
+      <c r="O204" s="14" t="n">
+        <v>-41.7</v>
+      </c>
+      <c r="P204" s="14" t="n">
+        <v>-33.3</v>
+      </c>
+      <c r="Q204" s="14" t="n">
+        <v>-38.51</v>
+      </c>
+      <c r="R204" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="S204" s="11" t="inlineStr">
+        <is>
+          <t>伊尔库茨克州</t>
+        </is>
+      </c>
+      <c r="T204" s="16" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="U204" s="16" t="n"/>
-      <c r="V204" s="16" t="n"/>
+      <c r="V204" s="16" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="W204" s="16" t="n"/>
       <c r="X204" s="11" t="n"/>
       <c r="Y204" s="11" t="n"/>
       <c r="Z204" s="11" t="n"/>
       <c r="AA204" s="11" t="n"/>
-      <c r="AB204" s="11" t="n"/>
-      <c r="AC204" s="11" t="n"/>
+      <c r="AB204" s="11" t="inlineStr">
+        <is>
+          <t>俄罗斯</t>
+        </is>
+      </c>
+      <c r="AC204" s="11" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
       <c r="AD204" s="11" t="n"/>
-      <c r="AE204" s="11" t="n"/>
+      <c r="AE204" s="11" t="inlineStr">
+        <is>
+          <t>贝加尔湖</t>
+        </is>
+      </c>
       <c r="AF204" s="11" t="n"/>
     </row>
     <row r="205" ht="24" customHeight="1" s="20">
-      <c r="A205" s="11" t="n"/>
-      <c r="B205" s="11" t="n"/>
-      <c r="C205" s="11" t="n"/>
-      <c r="D205" s="11" t="n"/>
-      <c r="E205" s="11" t="n"/>
+      <c r="A205" s="11" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" s="11" t="inlineStr">
+        <is>
+          <t>ogimet</t>
+        </is>
+      </c>
+      <c r="C205" s="11" t="n">
+        <v>36103</v>
+      </c>
+      <c r="D205" s="11" t="inlineStr">
+        <is>
+          <t>Toora-Khem</t>
+        </is>
+      </c>
+      <c r="E205" s="11" t="n">
+        <v>99999</v>
+      </c>
       <c r="F205" s="12" t="n"/>
-      <c r="G205" s="11" t="n"/>
-      <c r="H205" s="11" t="n"/>
-      <c r="I205" s="11" t="n"/>
-      <c r="J205" s="11" t="n"/>
+      <c r="G205" s="11" t="n">
+        <v>52.4666666</v>
+      </c>
+      <c r="H205" s="11" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="I205" s="11" t="n">
+        <v>920</v>
+      </c>
+      <c r="J205" s="11" t="n">
+        <v>12</v>
+      </c>
       <c r="K205" s="11" t="n"/>
       <c r="L205" s="11" t="n"/>
-      <c r="M205" s="11" t="n"/>
+      <c r="M205" s="11" t="inlineStr">
+        <is>
+          <t>托拉赫姆</t>
+        </is>
+      </c>
       <c r="N205" s="11" t="n"/>
-      <c r="O205" s="14" t="n"/>
-      <c r="P205" s="14" t="n"/>
-      <c r="Q205" s="14" t="n"/>
-      <c r="R205" s="15" t="n"/>
-      <c r="S205" s="11" t="n"/>
-      <c r="T205" s="16" t="n"/>
-      <c r="U205" s="16" t="n"/>
-      <c r="V205" s="16" t="n"/>
+      <c r="O205" s="14" t="n">
+        <v>-40.5</v>
+      </c>
+      <c r="P205" s="14" t="n">
+        <v>-23.3</v>
+      </c>
+      <c r="Q205" s="14" t="n">
+        <v>-31.96</v>
+      </c>
+      <c r="R205" s="15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="S205" s="11" t="inlineStr">
+        <is>
+          <t>图瓦共和国</t>
+        </is>
+      </c>
+      <c r="T205" s="16" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="U205" s="16" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="V205" s="16" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="W205" s="16" t="n"/>
       <c r="X205" s="11" t="n"/>
       <c r="Y205" s="11" t="n"/>
       <c r="Z205" s="11" t="n"/>
       <c r="AA205" s="11" t="n"/>
-      <c r="AB205" s="11" t="n"/>
-      <c r="AC205" s="11" t="n"/>
+      <c r="AB205" s="11" t="inlineStr">
+        <is>
+          <t>俄罗斯</t>
+        </is>
+      </c>
+      <c r="AC205" s="11" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="AD205" s="11" t="n"/>
-      <c r="AE205" s="11" t="n"/>
+      <c r="AE205" s="11" t="inlineStr">
+        <is>
+          <t>叶尼塞河</t>
+        </is>
+      </c>
       <c r="AF205" s="11" t="n"/>
     </row>
     <row r="206" ht="24" customHeight="1" s="20">

--- a/气象/For_Python_站点信息和记录.xlsx
+++ b/气象/For_Python_站点信息和记录.xlsx
@@ -821,8 +821,8 @@
     <col width="12.59765625" customWidth="1" style="6" min="19" max="19"/>
     <col width="12.59765625" customWidth="1" style="10" min="20" max="22"/>
     <col width="18.59765625" customWidth="1" style="10" min="23" max="23"/>
-    <col width="12.59765625" customWidth="1" style="6" min="24" max="60"/>
-    <col width="12.59765625" customWidth="1" style="6" min="61" max="16384"/>
+    <col width="12.59765625" customWidth="1" style="6" min="24" max="70"/>
+    <col width="12.59765625" customWidth="1" style="6" min="71" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.75" customFormat="1" customHeight="1" s="14">
@@ -1037,13 +1037,13 @@
         </is>
       </c>
       <c r="O2" s="24" t="n">
-        <v>-20.1</v>
+        <v>-25.6</v>
       </c>
       <c r="P2" s="24" t="n">
-        <v>-15.1</v>
+        <v>-16.6</v>
       </c>
       <c r="Q2" s="24" t="n">
-        <v>-17.05</v>
+        <v>-21.36</v>
       </c>
       <c r="R2" s="36" t="inlineStr">
         <is>
@@ -1137,10 +1137,10 @@
         </is>
       </c>
       <c r="O3" s="24" t="n">
-        <v>-25.7</v>
+        <v>-24.9</v>
       </c>
       <c r="P3" s="24" t="n">
-        <v>-14.7</v>
+        <v>-14.9</v>
       </c>
       <c r="Q3" s="24" t="n"/>
       <c r="R3" s="36" t="inlineStr">
@@ -1235,10 +1235,10 @@
         </is>
       </c>
       <c r="O4" s="24" t="n">
-        <v>-25.8</v>
+        <v>-27.5</v>
       </c>
       <c r="P4" s="24" t="n">
-        <v>-15.8</v>
+        <v>-14</v>
       </c>
       <c r="Q4" s="24" t="n"/>
       <c r="R4" s="36" t="inlineStr">
@@ -1325,10 +1325,10 @@
       </c>
       <c r="N5" s="21" t="n"/>
       <c r="O5" s="24" t="n">
-        <v>-24.2</v>
+        <v>-28.3</v>
       </c>
       <c r="P5" s="24" t="n">
-        <v>-14.3</v>
+        <v>-20.7</v>
       </c>
       <c r="Q5" s="24" t="n"/>
       <c r="R5" s="36" t="inlineStr">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="O6" s="24" t="n">
-        <v>-30.2</v>
+        <v>-32</v>
       </c>
       <c r="P6" s="24" t="n">
-        <v>-17.4</v>
+        <v>-19.7</v>
       </c>
       <c r="Q6" s="24" t="n">
-        <v>-24.66</v>
+        <v>-26.56</v>
       </c>
       <c r="R6" s="36" t="inlineStr">
         <is>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="O7" s="24" t="n">
-        <v>-19.5</v>
+        <v>-31.6</v>
       </c>
       <c r="P7" s="24" t="n">
-        <v>-15.9</v>
+        <v>-18.6</v>
       </c>
       <c r="Q7" s="24" t="n"/>
       <c r="R7" s="36" t="inlineStr">
@@ -1629,13 +1629,13 @@
       </c>
       <c r="N8" s="21" t="n"/>
       <c r="O8" s="24" t="n">
-        <v>-26.6</v>
+        <v>-31.1</v>
       </c>
       <c r="P8" s="24" t="n">
-        <v>-20</v>
+        <v>-20.9</v>
       </c>
       <c r="Q8" s="24" t="n">
-        <v>-22.89</v>
+        <v>-26.34</v>
       </c>
       <c r="R8" s="36" t="inlineStr">
         <is>
@@ -1731,13 +1731,13 @@
       </c>
       <c r="N9" s="21" t="n"/>
       <c r="O9" s="24" t="n">
-        <v>-23.2</v>
+        <v>-18.9</v>
       </c>
       <c r="P9" s="24" t="n">
-        <v>-12.5</v>
+        <v>-11.5</v>
       </c>
       <c r="Q9" s="24" t="n">
-        <v>-16.97</v>
+        <v>-15.5</v>
       </c>
       <c r="R9" s="36" t="inlineStr">
         <is>
@@ -1837,13 +1837,13 @@
       </c>
       <c r="N10" s="20" t="n"/>
       <c r="O10" s="24" t="n">
-        <v>-25.8</v>
+        <v>-29.6</v>
       </c>
       <c r="P10" s="24" t="n">
-        <v>-16.7</v>
+        <v>-16</v>
       </c>
       <c r="Q10" s="24" t="n">
-        <v>-19.35</v>
+        <v>-22.8</v>
       </c>
       <c r="R10" s="36" t="inlineStr">
         <is>
@@ -1943,13 +1943,13 @@
         </is>
       </c>
       <c r="O11" s="24" t="n">
-        <v>-23.9</v>
+        <v>-29.9</v>
       </c>
       <c r="P11" s="24" t="n">
-        <v>-10.1</v>
+        <v>-16.3</v>
       </c>
       <c r="Q11" s="24" t="n">
-        <v>-16.61</v>
+        <v>-23.64</v>
       </c>
       <c r="R11" s="36" t="inlineStr">
         <is>
@@ -2049,13 +2049,13 @@
       </c>
       <c r="N12" s="21" t="n"/>
       <c r="O12" s="24" t="n">
-        <v>-24.8</v>
+        <v>-29.1</v>
       </c>
       <c r="P12" s="24" t="n">
-        <v>-14.2</v>
+        <v>-19.3</v>
       </c>
       <c r="Q12" s="24" t="n">
-        <v>-20.94</v>
+        <v>-25.59</v>
       </c>
       <c r="R12" s="36" t="inlineStr">
         <is>
@@ -2159,13 +2159,13 @@
         </is>
       </c>
       <c r="O13" s="24" t="n">
-        <v>-24.9</v>
+        <v>-33</v>
       </c>
       <c r="P13" s="24" t="n">
-        <v>-15.7</v>
+        <v>-21.7</v>
       </c>
       <c r="Q13" s="24" t="n">
-        <v>-21.35</v>
+        <v>-27.59</v>
       </c>
       <c r="R13" s="36" t="inlineStr">
         <is>
@@ -2261,13 +2261,13 @@
       </c>
       <c r="N14" s="21" t="n"/>
       <c r="O14" s="24" t="n">
-        <v>-20.8</v>
+        <v>-21.8</v>
       </c>
       <c r="P14" s="24" t="n">
-        <v>-14.3</v>
+        <v>-15.6</v>
       </c>
       <c r="Q14" s="24" t="n">
-        <v>-17.15</v>
+        <v>-19.1</v>
       </c>
       <c r="R14" s="36" t="inlineStr">
         <is>
@@ -2357,10 +2357,10 @@
       </c>
       <c r="N15" s="21" t="n"/>
       <c r="O15" s="24" t="n">
-        <v>-29.3</v>
+        <v>-30.7</v>
       </c>
       <c r="P15" s="24" t="n">
-        <v>-16.5</v>
+        <v>-16.1</v>
       </c>
       <c r="Q15" s="24" t="n"/>
       <c r="R15" s="36" t="inlineStr">
@@ -2459,13 +2459,13 @@
       </c>
       <c r="N16" s="21" t="n"/>
       <c r="O16" s="24" t="n">
-        <v>-29.5</v>
+        <v>-29.4</v>
       </c>
       <c r="P16" s="24" t="n">
-        <v>-14.4</v>
+        <v>-17.1</v>
       </c>
       <c r="Q16" s="24" t="n">
-        <v>-21.14</v>
+        <v>-23.31</v>
       </c>
       <c r="R16" s="36" t="inlineStr">
         <is>
@@ -2637,12 +2637,14 @@
       </c>
       <c r="N18" s="21" t="n"/>
       <c r="O18" s="24" t="n">
-        <v>-31.5</v>
+        <v>-33</v>
       </c>
       <c r="P18" s="24" t="n">
-        <v>-19.2</v>
-      </c>
-      <c r="Q18" s="24" t="n"/>
+        <v>-19.4</v>
+      </c>
+      <c r="Q18" s="24" t="n">
+        <v>-28.16</v>
+      </c>
       <c r="R18" s="36" t="inlineStr">
         <is>
           <t>Y</t>
@@ -3651,13 +3653,13 @@
       </c>
       <c r="N30" s="21" t="n"/>
       <c r="O30" s="24" t="n">
-        <v>-30.2</v>
+        <v>-32.9</v>
       </c>
       <c r="P30" s="24" t="n">
-        <v>-20.6</v>
+        <v>-19</v>
       </c>
       <c r="Q30" s="24" t="n">
-        <v>-26.19</v>
+        <v>-27.75</v>
       </c>
       <c r="R30" s="36" t="n"/>
       <c r="S30" s="2" t="inlineStr">
@@ -7261,13 +7263,13 @@
       </c>
       <c r="N75" s="21" t="n"/>
       <c r="O75" s="24" t="n">
-        <v>-25.3</v>
+        <v>-26.9</v>
       </c>
       <c r="P75" s="24" t="n">
-        <v>-15.5</v>
+        <v>-16.2</v>
       </c>
       <c r="Q75" s="24" t="n">
-        <v>-19.55</v>
+        <v>-20.86</v>
       </c>
       <c r="R75" s="36" t="inlineStr">
         <is>
@@ -7367,13 +7369,13 @@
       </c>
       <c r="N76" s="21" t="n"/>
       <c r="O76" s="24" t="n">
-        <v>-31.3</v>
+        <v>-26.9</v>
       </c>
       <c r="P76" s="24" t="n">
-        <v>-18.4</v>
+        <v>-19.8</v>
       </c>
       <c r="Q76" s="24" t="n">
-        <v>-25.97</v>
+        <v>-24.16</v>
       </c>
       <c r="R76" s="36" t="inlineStr">
         <is>
@@ -7477,13 +7479,13 @@
         </is>
       </c>
       <c r="O77" s="24" t="n">
-        <v>-32.6</v>
+        <v>-35.8</v>
       </c>
       <c r="P77" s="24" t="n">
-        <v>-20.1</v>
+        <v>-24</v>
       </c>
       <c r="Q77" s="24" t="n">
-        <v>-26.76</v>
+        <v>-29.69</v>
       </c>
       <c r="R77" s="36" t="inlineStr">
         <is>
@@ -7579,13 +7581,13 @@
       </c>
       <c r="N78" s="21" t="n"/>
       <c r="O78" s="24" t="n">
+        <v>-30.1</v>
+      </c>
+      <c r="P78" s="24" t="n">
         <v>-24.2</v>
       </c>
-      <c r="P78" s="24" t="n">
-        <v>-20.1</v>
-      </c>
       <c r="Q78" s="24" t="n">
-        <v>-22.67</v>
+        <v>-27.01</v>
       </c>
       <c r="R78" s="36" t="inlineStr">
         <is>
@@ -7685,13 +7687,13 @@
         </is>
       </c>
       <c r="O79" s="24" t="n">
-        <v>-30.6</v>
+        <v>-36.3</v>
       </c>
       <c r="P79" s="24" t="n">
-        <v>-13.3</v>
+        <v>-19.7</v>
       </c>
       <c r="Q79" s="24" t="n">
-        <v>-23.01</v>
+        <v>-30.12</v>
       </c>
       <c r="R79" s="36" t="inlineStr">
         <is>
@@ -7787,13 +7789,13 @@
       </c>
       <c r="N80" s="21" t="n"/>
       <c r="O80" s="24" t="n">
-        <v>-29.8</v>
+        <v>-28.2</v>
       </c>
       <c r="P80" s="24" t="n">
         <v>-21.5</v>
       </c>
       <c r="Q80" s="24" t="n">
-        <v>-26.05</v>
+        <v>-24.32</v>
       </c>
       <c r="R80" s="36" t="inlineStr">
         <is>
@@ -7897,12 +7899,14 @@
         </is>
       </c>
       <c r="O81" s="24" t="n">
-        <v>-37.1</v>
+        <v>-38.2</v>
       </c>
       <c r="P81" s="24" t="n">
-        <v>-21.1</v>
-      </c>
-      <c r="Q81" s="24" t="n"/>
+        <v>-23.8</v>
+      </c>
+      <c r="Q81" s="24" t="n">
+        <v>-31.99</v>
+      </c>
       <c r="R81" s="36" t="inlineStr">
         <is>
           <t>Y</t>
@@ -8010,13 +8014,13 @@
         </is>
       </c>
       <c r="O82" s="24" t="n">
-        <v>-35.6</v>
+        <v>-40.8</v>
       </c>
       <c r="P82" s="24" t="n">
-        <v>-18.1</v>
+        <v>-23.6</v>
       </c>
       <c r="Q82" s="24" t="n">
-        <v>-25.61</v>
+        <v>-34.8</v>
       </c>
       <c r="R82" s="36" t="inlineStr">
         <is>
@@ -8112,13 +8116,13 @@
       </c>
       <c r="N83" s="21" t="n"/>
       <c r="O83" s="24" t="n">
+        <v>-32.7</v>
+      </c>
+      <c r="P83" s="24" t="n">
         <v>-18.6</v>
       </c>
-      <c r="P83" s="24" t="n">
-        <v>-11.9</v>
-      </c>
       <c r="Q83" s="24" t="n">
-        <v>-15.64</v>
+        <v>-29.35</v>
       </c>
       <c r="R83" s="36" t="inlineStr">
         <is>
@@ -8218,13 +8222,13 @@
         </is>
       </c>
       <c r="O84" s="24" t="n">
-        <v>-35.6</v>
+        <v>-38.9</v>
       </c>
       <c r="P84" s="24" t="n">
-        <v>-24.9</v>
+        <v>-31.5</v>
       </c>
       <c r="Q84" s="24" t="n">
-        <v>-31.26</v>
+        <v>-34.95</v>
       </c>
       <c r="R84" s="36" t="inlineStr">
         <is>
@@ -8324,13 +8328,13 @@
         </is>
       </c>
       <c r="O85" s="24" t="n">
-        <v>-20</v>
+        <v>-32.4</v>
       </c>
       <c r="P85" s="24" t="n">
-        <v>-12</v>
+        <v>-17.5</v>
       </c>
       <c r="Q85" s="24" t="n">
-        <v>-16.51</v>
+        <v>-25.05</v>
       </c>
       <c r="R85" s="36" t="inlineStr">
         <is>
@@ -8426,13 +8430,13 @@
       </c>
       <c r="N86" s="21" t="n"/>
       <c r="O86" s="24" t="n">
+        <v>-25.6</v>
+      </c>
+      <c r="P86" s="24" t="n">
         <v>-18.3</v>
       </c>
-      <c r="P86" s="24" t="n">
-        <v>-12.6</v>
-      </c>
       <c r="Q86" s="24" t="n">
-        <v>-16.09</v>
+        <v>-22.26</v>
       </c>
       <c r="R86" s="36" t="inlineStr">
         <is>
@@ -8540,13 +8544,13 @@
         </is>
       </c>
       <c r="O87" s="24" t="n">
-        <v>-20.8</v>
+        <v>-24.8</v>
       </c>
       <c r="P87" s="24" t="n">
-        <v>-13.6</v>
+        <v>-16.7</v>
       </c>
       <c r="Q87" s="24" t="n">
-        <v>-17.38</v>
+        <v>-20.3</v>
       </c>
       <c r="R87" s="36" t="inlineStr">
         <is>
@@ -8642,13 +8646,13 @@
       </c>
       <c r="N88" s="21" t="n"/>
       <c r="O88" s="24" t="n">
-        <v>-24.5</v>
+        <v>-24.3</v>
       </c>
       <c r="P88" s="24" t="n">
-        <v>-15</v>
+        <v>-17.3</v>
       </c>
       <c r="Q88" s="24" t="n">
-        <v>-18.54</v>
+        <v>-20.52</v>
       </c>
       <c r="R88" s="36" t="inlineStr">
         <is>
@@ -8744,12 +8748,14 @@
       </c>
       <c r="N89" s="21" t="n"/>
       <c r="O89" s="24" t="n">
-        <v>-29.3</v>
+        <v>-34.7</v>
       </c>
       <c r="P89" s="24" t="n">
-        <v>-17</v>
-      </c>
-      <c r="Q89" s="24" t="n"/>
+        <v>-18.5</v>
+      </c>
+      <c r="Q89" s="24" t="n">
+        <v>-29.05</v>
+      </c>
       <c r="R89" s="36" t="inlineStr">
         <is>
           <t>Y</t>
@@ -8844,13 +8850,13 @@
         </is>
       </c>
       <c r="O90" s="24" t="n">
-        <v>-15.9</v>
+        <v>-20.4</v>
       </c>
       <c r="P90" s="24" t="n">
-        <v>-4.8</v>
+        <v>-5.5</v>
       </c>
       <c r="Q90" s="24" t="n">
-        <v>-12.21</v>
+        <v>-10.69</v>
       </c>
       <c r="R90" s="36" t="inlineStr">
         <is>
@@ -8942,13 +8948,13 @@
       </c>
       <c r="N91" s="21" t="n"/>
       <c r="O91" s="24" t="n">
-        <v>-15.7</v>
+        <v>-15.3</v>
       </c>
       <c r="P91" s="24" t="n">
-        <v>-11.2</v>
+        <v>-8.4</v>
       </c>
       <c r="Q91" s="24" t="n">
-        <v>-13.18</v>
+        <v>-10.28</v>
       </c>
       <c r="R91" s="36" t="inlineStr">
         <is>
@@ -9040,13 +9046,13 @@
       </c>
       <c r="N92" s="21" t="n"/>
       <c r="O92" s="24" t="n">
-        <v>-18.2</v>
+        <v>-16.2</v>
       </c>
       <c r="P92" s="24" t="n">
-        <v>-6.5</v>
+        <v>-6.1</v>
       </c>
       <c r="Q92" s="24" t="n">
-        <v>-12.22</v>
+        <v>-10.53</v>
       </c>
       <c r="R92" s="36" t="inlineStr">
         <is>
@@ -9142,13 +9148,13 @@
       </c>
       <c r="N93" s="21" t="n"/>
       <c r="O93" s="24" t="n">
-        <v>-9.800000000000001</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="P93" s="24" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="Q93" s="24" t="n">
-        <v>-5.49</v>
+        <v>-4.59</v>
       </c>
       <c r="R93" s="36" t="inlineStr">
         <is>
@@ -9252,10 +9258,10 @@
         </is>
       </c>
       <c r="O94" s="24" t="n">
-        <v>-15.6</v>
+        <v>-14.8</v>
       </c>
       <c r="P94" s="24" t="n">
-        <v>-1</v>
+        <v>-2.6</v>
       </c>
       <c r="Q94" s="24" t="n"/>
       <c r="R94" s="36" t="inlineStr">
@@ -9360,13 +9366,13 @@
       </c>
       <c r="N95" s="21" t="n"/>
       <c r="O95" s="24" t="n">
-        <v>-13.5</v>
+        <v>-14.3</v>
       </c>
       <c r="P95" s="24" t="n">
-        <v>-4.1</v>
+        <v>-6.9</v>
       </c>
       <c r="Q95" s="24" t="n">
-        <v>-9.34</v>
+        <v>-10.54</v>
       </c>
       <c r="R95" s="36" t="inlineStr">
         <is>
@@ -9478,10 +9484,10 @@
         </is>
       </c>
       <c r="O96" s="24" t="n">
-        <v>-15.7</v>
+        <v>-14.6</v>
       </c>
       <c r="P96" s="24" t="n">
-        <v>-1.6</v>
+        <v>-4.9</v>
       </c>
       <c r="Q96" s="24" t="n"/>
       <c r="R96" s="36" t="inlineStr">
@@ -9586,13 +9592,13 @@
       </c>
       <c r="N97" s="21" t="n"/>
       <c r="O97" s="24" t="n">
-        <v>-15.9</v>
+        <v>-15.1</v>
       </c>
       <c r="P97" s="24" t="n">
-        <v>-8</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="Q97" s="24" t="n">
-        <v>-12.21</v>
+        <v>-12.09</v>
       </c>
       <c r="R97" s="36" t="inlineStr">
         <is>
@@ -9692,10 +9698,10 @@
       </c>
       <c r="N98" s="21" t="n"/>
       <c r="O98" s="24" t="n">
-        <v>-27</v>
+        <v>-24.9</v>
       </c>
       <c r="P98" s="24" t="n">
-        <v>-15.2</v>
+        <v>-14.4</v>
       </c>
       <c r="Q98" s="24" t="n"/>
       <c r="R98" s="36" t="inlineStr">
@@ -9800,13 +9806,13 @@
       </c>
       <c r="N99" s="21" t="n"/>
       <c r="O99" s="24" t="n">
-        <v>-35</v>
+        <v>-32.7</v>
       </c>
       <c r="P99" s="24" t="n">
-        <v>-22.9</v>
+        <v>-19.5</v>
       </c>
       <c r="Q99" s="24" t="n">
-        <v>-29.46</v>
+        <v>-24.96</v>
       </c>
       <c r="R99" s="36" t="inlineStr">
         <is>
@@ -9997,8 +10003,12 @@
         </is>
       </c>
       <c r="N101" s="21" t="n"/>
-      <c r="O101" s="24" t="n"/>
-      <c r="P101" s="24" t="n"/>
+      <c r="O101" s="24" t="n">
+        <v>-31.1</v>
+      </c>
+      <c r="P101" s="24" t="n">
+        <v>-21.1</v>
+      </c>
       <c r="Q101" s="24" t="n"/>
       <c r="R101" s="36" t="inlineStr">
         <is>
@@ -10106,13 +10116,13 @@
       </c>
       <c r="N102" s="21" t="n"/>
       <c r="O102" s="24" t="n">
-        <v>-28.7</v>
+        <v>-27.6</v>
       </c>
       <c r="P102" s="24" t="n">
-        <v>-18.4</v>
+        <v>-20.5</v>
       </c>
       <c r="Q102" s="24" t="n">
-        <v>-22.81</v>
+        <v>-24.4</v>
       </c>
       <c r="R102" s="36" t="inlineStr">
         <is>
@@ -10308,10 +10318,10 @@
       </c>
       <c r="N104" s="21" t="n"/>
       <c r="O104" s="24" t="n">
-        <v>-31.9</v>
+        <v>-37.8</v>
       </c>
       <c r="P104" s="24" t="n">
-        <v>-19.1</v>
+        <v>-20.8</v>
       </c>
       <c r="Q104" s="24" t="n"/>
       <c r="R104" s="36" t="inlineStr">
@@ -10424,13 +10434,13 @@
         </is>
       </c>
       <c r="O105" s="24" t="n">
-        <v>-32.8</v>
+        <v>-37.3</v>
       </c>
       <c r="P105" s="24" t="n">
-        <v>-18.3</v>
+        <v>-21.5</v>
       </c>
       <c r="Q105" s="24" t="n">
-        <v>-25.59</v>
+        <v>-29.71</v>
       </c>
       <c r="R105" s="36" t="inlineStr">
         <is>
@@ -10534,10 +10544,10 @@
         </is>
       </c>
       <c r="O106" s="24" t="n">
-        <v>-32.2</v>
+        <v>-30.8</v>
       </c>
       <c r="P106" s="24" t="n">
-        <v>-20.4</v>
+        <v>-23</v>
       </c>
       <c r="Q106" s="24" t="n"/>
       <c r="R106" s="36" t="inlineStr">
@@ -10734,13 +10744,13 @@
       </c>
       <c r="N108" s="21" t="n"/>
       <c r="O108" s="24" t="n">
-        <v>-28.7</v>
+        <v>-28.5</v>
       </c>
       <c r="P108" s="24" t="n">
-        <v>-17.8</v>
+        <v>-21.7</v>
       </c>
       <c r="Q108" s="24" t="n">
-        <v>-22.96</v>
+        <v>-24.39</v>
       </c>
       <c r="R108" s="36" t="inlineStr">
         <is>
@@ -10927,12 +10937,8 @@
         </is>
       </c>
       <c r="N110" s="21" t="n"/>
-      <c r="O110" s="24" t="n">
-        <v>-33.6</v>
-      </c>
-      <c r="P110" s="24" t="n">
-        <v>-16.7</v>
-      </c>
+      <c r="O110" s="24" t="n"/>
+      <c r="P110" s="24" t="n"/>
       <c r="Q110" s="24" t="n"/>
       <c r="R110" s="36" t="inlineStr">
         <is>
@@ -11036,13 +11042,13 @@
       </c>
       <c r="N111" s="21" t="n"/>
       <c r="O111" s="24" t="n">
-        <v>-31.5</v>
+        <v>-30.1</v>
       </c>
       <c r="P111" s="24" t="n">
-        <v>-14.6</v>
+        <v>-19.4</v>
       </c>
       <c r="Q111" s="24" t="n">
-        <v>-24.73</v>
+        <v>-25.24</v>
       </c>
       <c r="R111" s="36" t="inlineStr">
         <is>
@@ -11138,10 +11144,10 @@
       </c>
       <c r="N112" s="21" t="n"/>
       <c r="O112" s="24" t="n">
-        <v>-17.8</v>
+        <v>-14.3</v>
       </c>
       <c r="P112" s="24" t="n">
-        <v>1.8</v>
+        <v>-2.4</v>
       </c>
       <c r="Q112" s="24" t="n"/>
       <c r="R112" s="36" t="inlineStr">
@@ -11234,10 +11240,10 @@
       </c>
       <c r="N113" s="21" t="n"/>
       <c r="O113" s="24" t="n">
-        <v>-10.3</v>
+        <v>-21</v>
       </c>
       <c r="P113" s="24" t="n">
-        <v>-4.1</v>
+        <v>-2.7</v>
       </c>
       <c r="Q113" s="24" t="n"/>
       <c r="R113" s="36" t="inlineStr">
@@ -11338,10 +11344,10 @@
         </is>
       </c>
       <c r="O114" s="24" t="n">
-        <v>-13.1</v>
+        <v>-20.2</v>
       </c>
       <c r="P114" s="24" t="n">
-        <v>-2.1</v>
+        <v>-0.9</v>
       </c>
       <c r="Q114" s="24" t="n"/>
       <c r="R114" s="36" t="inlineStr">
@@ -11450,10 +11456,10 @@
         </is>
       </c>
       <c r="O115" s="24" t="n">
-        <v>-18.2</v>
+        <v>-19.6</v>
       </c>
       <c r="P115" s="24" t="n">
-        <v>-5.7</v>
+        <v>-2.9</v>
       </c>
       <c r="Q115" s="24" t="n"/>
       <c r="R115" s="36" t="inlineStr">
@@ -11558,13 +11564,13 @@
       </c>
       <c r="N116" s="21" t="n"/>
       <c r="O116" s="24" t="n">
-        <v>-11.8</v>
+        <v>-10.5</v>
       </c>
       <c r="P116" s="24" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q116" s="24" t="n">
-        <v>-5.19</v>
+        <v>-4.88</v>
       </c>
       <c r="R116" s="36" t="inlineStr">
         <is>
@@ -11660,10 +11666,10 @@
       </c>
       <c r="N117" s="21" t="n"/>
       <c r="O117" s="24" t="n">
-        <v>-12.6</v>
+        <v>-13.6</v>
       </c>
       <c r="P117" s="24" t="n">
-        <v>-4.4</v>
+        <v>-0.6</v>
       </c>
       <c r="Q117" s="24" t="n"/>
       <c r="R117" s="36" t="inlineStr">
@@ -11764,10 +11770,10 @@
         </is>
       </c>
       <c r="O118" s="24" t="n">
-        <v>-15</v>
+        <v>-17.5</v>
       </c>
       <c r="P118" s="24" t="n">
-        <v>-5.8</v>
+        <v>-9</v>
       </c>
       <c r="Q118" s="24" t="n"/>
       <c r="R118" s="36" t="inlineStr">
@@ -11872,13 +11878,13 @@
       </c>
       <c r="N119" s="21" t="n"/>
       <c r="O119" s="24" t="n">
-        <v>-8.9</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="P119" s="24" t="n">
-        <v>-2</v>
+        <v>-1.4</v>
       </c>
       <c r="Q119" s="24" t="n">
-        <v>-5.65</v>
+        <v>-4.95</v>
       </c>
       <c r="R119" s="36" t="inlineStr">
         <is>
@@ -11986,13 +11992,13 @@
       </c>
       <c r="N120" s="21" t="n"/>
       <c r="O120" s="24" t="n">
-        <v>-3.5</v>
+        <v>-5</v>
       </c>
       <c r="P120" s="24" t="n">
-        <v>5.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q120" s="24" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-1.64</v>
       </c>
       <c r="R120" s="36" t="inlineStr">
         <is>
@@ -12092,13 +12098,13 @@
       </c>
       <c r="N121" s="21" t="n"/>
       <c r="O121" s="24" t="n">
-        <v>-8.4</v>
+        <v>-8.5</v>
       </c>
       <c r="P121" s="24" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="Q121" s="24" t="n">
-        <v>-3.31</v>
+        <v>-5.25</v>
       </c>
       <c r="R121" s="36" t="inlineStr">
         <is>
@@ -12206,10 +12212,10 @@
       </c>
       <c r="N122" s="21" t="n"/>
       <c r="O122" s="24" t="n">
-        <v>-22.8</v>
+        <v>-22.1</v>
       </c>
       <c r="P122" s="24" t="n">
-        <v>-8.300000000000001</v>
+        <v>-7.5</v>
       </c>
       <c r="Q122" s="24" t="n"/>
       <c r="R122" s="36" t="inlineStr">
@@ -12410,13 +12416,13 @@
       </c>
       <c r="N124" s="21" t="n"/>
       <c r="O124" s="24" t="n">
-        <v>-10.9</v>
+        <v>-8.1</v>
       </c>
       <c r="P124" s="24" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Q124" s="24" t="n">
-        <v>-5.85</v>
+        <v>-3.19</v>
       </c>
       <c r="R124" s="36" t="inlineStr">
         <is>
@@ -12524,13 +12530,13 @@
       </c>
       <c r="N125" s="21" t="n"/>
       <c r="O125" s="24" t="n">
-        <v>-5.4</v>
+        <v>-4.5</v>
       </c>
       <c r="P125" s="24" t="n">
-        <v>7.7</v>
+        <v>6</v>
       </c>
       <c r="Q125" s="24" t="n">
-        <v>-0.27</v>
+        <v>0.47</v>
       </c>
       <c r="R125" s="36" t="inlineStr">
         <is>
@@ -12614,10 +12620,10 @@
       </c>
       <c r="N126" s="21" t="n"/>
       <c r="O126" s="24" t="n">
-        <v>-1.6</v>
+        <v>0.7</v>
       </c>
       <c r="P126" s="24" t="n">
-        <v>9.699999999999999</v>
+        <v>7.1</v>
       </c>
       <c r="Q126" s="24" t="n"/>
       <c r="R126" s="36" t="inlineStr">
@@ -12714,13 +12720,13 @@
       </c>
       <c r="N127" s="21" t="n"/>
       <c r="O127" s="24" t="n">
-        <v>-7.2</v>
+        <v>-5</v>
       </c>
       <c r="P127" s="24" t="n">
-        <v>5.5</v>
+        <v>7.4</v>
       </c>
       <c r="Q127" s="24" t="n">
-        <v>-1.4</v>
+        <v>-0.39</v>
       </c>
       <c r="R127" s="36" t="inlineStr">
         <is>
@@ -12824,10 +12830,10 @@
       </c>
       <c r="N128" s="21" t="n"/>
       <c r="O128" s="24" t="n">
-        <v>-1.9</v>
+        <v>0.1</v>
       </c>
       <c r="P128" s="24" t="n">
-        <v>10</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="Q128" s="24" t="n"/>
       <c r="R128" s="36" t="inlineStr">
@@ -12924,13 +12930,13 @@
       </c>
       <c r="N129" s="21" t="n"/>
       <c r="O129" s="24" t="n">
-        <v>-7.7</v>
+        <v>-3</v>
       </c>
       <c r="P129" s="24" t="n">
-        <v>9.9</v>
+        <v>10.5</v>
       </c>
       <c r="Q129" s="24" t="n">
-        <v>-0.44</v>
+        <v>2.91</v>
       </c>
       <c r="R129" s="36" t="inlineStr">
         <is>
@@ -13034,13 +13040,13 @@
       </c>
       <c r="N130" s="21" t="n"/>
       <c r="O130" s="24" t="n">
-        <v>-9.1</v>
+        <v>-8.5</v>
       </c>
       <c r="P130" s="24" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="Q130" s="24" t="n">
-        <v>-1.79</v>
+        <v>-1.75</v>
       </c>
       <c r="R130" s="36" t="inlineStr">
         <is>
@@ -13144,13 +13150,13 @@
       </c>
       <c r="N131" s="21" t="n"/>
       <c r="O131" s="24" t="n">
-        <v>4.9</v>
+        <v>8.5</v>
       </c>
       <c r="P131" s="24" t="n">
-        <v>13.9</v>
+        <v>15.3</v>
       </c>
       <c r="Q131" s="24" t="n">
-        <v>9.449999999999999</v>
+        <v>11.11</v>
       </c>
       <c r="R131" s="36" t="inlineStr">
         <is>
@@ -13250,13 +13256,13 @@
       </c>
       <c r="N132" s="21" t="n"/>
       <c r="O132" s="24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P132" s="24" t="n">
-        <v>13.8</v>
+        <v>16.6</v>
       </c>
       <c r="Q132" s="24" t="n">
-        <v>6.66</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="R132" s="36" t="inlineStr">
         <is>
@@ -13356,13 +13362,13 @@
       </c>
       <c r="N133" s="21" t="n"/>
       <c r="O133" s="24" t="n">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="P133" s="24" t="n">
-        <v>9.199999999999999</v>
+        <v>14.9</v>
       </c>
       <c r="Q133" s="24" t="n">
-        <v>5.35</v>
+        <v>8.69</v>
       </c>
       <c r="R133" s="36" t="inlineStr">
         <is>
@@ -13466,13 +13472,13 @@
       </c>
       <c r="N134" s="21" t="n"/>
       <c r="O134" s="24" t="n">
-        <v>7.4</v>
+        <v>5.7</v>
       </c>
       <c r="P134" s="24" t="n">
-        <v>16.3</v>
+        <v>17.1</v>
       </c>
       <c r="Q134" s="24" t="n">
-        <v>10.52</v>
+        <v>10.75</v>
       </c>
       <c r="R134" s="36" t="inlineStr">
         <is>
@@ -13568,13 +13574,13 @@
       </c>
       <c r="N135" s="21" t="n"/>
       <c r="O135" s="24" t="n">
-        <v>6.4</v>
+        <v>7.7</v>
       </c>
       <c r="P135" s="24" t="n">
-        <v>18.3</v>
+        <v>20.6</v>
       </c>
       <c r="Q135" s="24" t="n">
-        <v>12.31</v>
+        <v>13.35</v>
       </c>
       <c r="R135" s="36" t="inlineStr">
         <is>
@@ -13674,13 +13680,13 @@
       </c>
       <c r="N136" s="21" t="n"/>
       <c r="O136" s="24" t="n">
-        <v>9.9</v>
+        <v>10.1</v>
       </c>
       <c r="P136" s="24" t="n">
-        <v>18</v>
+        <v>20.8</v>
       </c>
       <c r="Q136" s="24" t="n">
-        <v>13.71</v>
+        <v>14.87</v>
       </c>
       <c r="R136" s="36" t="inlineStr">
         <is>
@@ -13780,13 +13786,13 @@
       </c>
       <c r="N137" s="21" t="n"/>
       <c r="O137" s="24" t="n">
-        <v>2.3</v>
+        <v>8.5</v>
       </c>
       <c r="P137" s="24" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="Q137" s="24" t="n">
-        <v>8.619999999999999</v>
+        <v>11.94</v>
       </c>
       <c r="R137" s="36" t="inlineStr">
         <is>
@@ -13886,10 +13892,10 @@
       </c>
       <c r="N138" s="21" t="n"/>
       <c r="O138" s="24" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="P138" s="24" t="n">
-        <v>16.3</v>
+        <v>19</v>
       </c>
       <c r="Q138" s="24" t="n"/>
       <c r="R138" s="36" t="inlineStr">
@@ -13990,13 +13996,13 @@
       </c>
       <c r="N139" s="21" t="n"/>
       <c r="O139" s="24" t="n">
-        <v>5.4</v>
+        <v>7.6</v>
       </c>
       <c r="P139" s="24" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="Q139" s="24" t="n">
-        <v>10.05</v>
+        <v>11.71</v>
       </c>
       <c r="R139" s="36" t="inlineStr">
         <is>
@@ -14096,13 +14102,13 @@
       </c>
       <c r="N140" s="21" t="n"/>
       <c r="O140" s="24" t="n">
-        <v>6.2</v>
+        <v>9.4</v>
       </c>
       <c r="P140" s="24" t="n">
-        <v>16.6</v>
+        <v>17.5</v>
       </c>
       <c r="Q140" s="24" t="n">
-        <v>11.34</v>
+        <v>13.69</v>
       </c>
       <c r="R140" s="36" t="inlineStr">
         <is>
@@ -14202,13 +14208,13 @@
       </c>
       <c r="N141" s="21" t="n"/>
       <c r="O141" s="24" t="n">
-        <v>6.5</v>
+        <v>10.5</v>
       </c>
       <c r="P141" s="24" t="n">
-        <v>18.6</v>
+        <v>20.2</v>
       </c>
       <c r="Q141" s="24" t="n">
-        <v>12.22</v>
+        <v>15.22</v>
       </c>
       <c r="R141" s="36" t="inlineStr">
         <is>
@@ -14304,13 +14310,13 @@
       </c>
       <c r="N142" s="21" t="n"/>
       <c r="O142" s="24" t="n">
-        <v>13.1</v>
+        <v>15.7</v>
       </c>
       <c r="P142" s="24" t="n">
-        <v>18.2</v>
+        <v>23.9</v>
       </c>
       <c r="Q142" s="24" t="n">
-        <v>15.82</v>
+        <v>18.38</v>
       </c>
       <c r="R142" s="36" t="inlineStr">
         <is>
@@ -14410,13 +14416,13 @@
       </c>
       <c r="N143" s="21" t="n"/>
       <c r="O143" s="24" t="n">
-        <v>12.1</v>
+        <v>13.4</v>
       </c>
       <c r="P143" s="24" t="n">
-        <v>25</v>
+        <v>24.8</v>
       </c>
       <c r="Q143" s="24" t="n">
-        <v>17.55</v>
+        <v>18.3</v>
       </c>
       <c r="R143" s="36" t="inlineStr">
         <is>
@@ -14516,13 +14522,13 @@
       </c>
       <c r="N144" s="21" t="n"/>
       <c r="O144" s="24" t="n">
-        <v>17.9</v>
+        <v>19.2</v>
       </c>
       <c r="P144" s="24" t="n">
-        <v>23.9</v>
+        <v>22</v>
       </c>
       <c r="Q144" s="24" t="n">
-        <v>20.81</v>
+        <v>20.69</v>
       </c>
       <c r="R144" s="36" t="inlineStr">
         <is>
@@ -14618,13 +14624,13 @@
       </c>
       <c r="N145" s="21" t="n"/>
       <c r="O145" s="24" t="n">
-        <v>17.7</v>
+        <v>18.8</v>
       </c>
       <c r="P145" s="24" t="n">
-        <v>22.2</v>
+        <v>24</v>
       </c>
       <c r="Q145" s="24" t="n">
-        <v>19.31</v>
+        <v>20.66</v>
       </c>
       <c r="R145" s="36" t="inlineStr">
         <is>
@@ -14716,13 +14722,13 @@
       </c>
       <c r="N146" s="21" t="n"/>
       <c r="O146" s="24" t="n">
-        <v>18.2</v>
+        <v>21.4</v>
       </c>
       <c r="P146" s="24" t="n">
-        <v>28.7</v>
+        <v>25.5</v>
       </c>
       <c r="Q146" s="24" t="n">
-        <v>22.85</v>
+        <v>22.77</v>
       </c>
       <c r="R146" s="36" t="inlineStr">
         <is>
@@ -14814,13 +14820,13 @@
       </c>
       <c r="N147" s="21" t="n"/>
       <c r="O147" s="24" t="n">
-        <v>14.3</v>
+        <v>14.6</v>
       </c>
       <c r="P147" s="24" t="n">
-        <v>24.1</v>
+        <v>24.6</v>
       </c>
       <c r="Q147" s="24" t="n">
-        <v>18.46</v>
+        <v>18.81</v>
       </c>
       <c r="R147" s="36" t="inlineStr">
         <is>
@@ -14920,10 +14926,10 @@
       </c>
       <c r="N148" s="21" t="n"/>
       <c r="O148" s="24" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="P148" s="24" t="n">
-        <v>25.6</v>
+        <v>24.9</v>
       </c>
       <c r="Q148" s="24" t="n"/>
       <c r="R148" s="36" t="inlineStr">
@@ -15020,13 +15026,13 @@
       </c>
       <c r="N149" s="21" t="n"/>
       <c r="O149" s="24" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="P149" s="24" t="n">
         <v>19.7</v>
       </c>
       <c r="Q149" s="24" t="n">
-        <v>11.69</v>
+        <v>11.85</v>
       </c>
       <c r="R149" s="36" t="inlineStr">
         <is>
@@ -15126,13 +15132,13 @@
       </c>
       <c r="N150" s="21" t="n"/>
       <c r="O150" s="24" t="n">
-        <v>8.800000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="P150" s="24" t="n">
-        <v>13.7</v>
+        <v>15.1</v>
       </c>
       <c r="Q150" s="24" t="n">
-        <v>10.86</v>
+        <v>11.26</v>
       </c>
       <c r="R150" s="36" t="inlineStr">
         <is>
@@ -15232,13 +15238,13 @@
       </c>
       <c r="N151" s="21" t="n"/>
       <c r="O151" s="24" t="n">
-        <v>12</v>
+        <v>12.6</v>
       </c>
       <c r="P151" s="24" t="n">
-        <v>13.7</v>
+        <v>16.3</v>
       </c>
       <c r="Q151" s="24" t="n">
-        <v>12.67</v>
+        <v>13.79</v>
       </c>
       <c r="R151" s="36" t="inlineStr">
         <is>
@@ -15422,13 +15428,13 @@
       </c>
       <c r="N153" s="21" t="n"/>
       <c r="O153" s="24" t="n">
-        <v>8.5</v>
+        <v>4.4</v>
       </c>
       <c r="P153" s="24" t="n">
-        <v>14</v>
+        <v>16.9</v>
       </c>
       <c r="Q153" s="24" t="n">
-        <v>10.54</v>
+        <v>10.62</v>
       </c>
       <c r="R153" s="36" t="inlineStr">
         <is>
@@ -15532,13 +15538,13 @@
       </c>
       <c r="N154" s="21" t="n"/>
       <c r="O154" s="24" t="n">
-        <v>-5.4</v>
+        <v>-4.9</v>
       </c>
       <c r="P154" s="24" t="n">
-        <v>11.1</v>
+        <v>8.4</v>
       </c>
       <c r="Q154" s="24" t="n">
-        <v>2.89</v>
+        <v>1.09</v>
       </c>
       <c r="R154" s="36" t="inlineStr">
         <is>
@@ -15718,10 +15724,10 @@
       </c>
       <c r="N156" s="21" t="n"/>
       <c r="O156" s="24" t="n">
-        <v>-16.3</v>
+        <v>-14.3</v>
       </c>
       <c r="P156" s="24" t="n">
-        <v>7</v>
+        <v>5.2</v>
       </c>
       <c r="Q156" s="24" t="n"/>
       <c r="R156" s="36" t="inlineStr">
@@ -15814,10 +15820,10 @@
       </c>
       <c r="N157" s="21" t="n"/>
       <c r="O157" s="24" t="n">
-        <v>7.6</v>
+        <v>10.4</v>
       </c>
       <c r="P157" s="24" t="n">
-        <v>16.2</v>
+        <v>18.7</v>
       </c>
       <c r="Q157" s="24" t="n"/>
       <c r="R157" s="36" t="inlineStr">
@@ -16170,10 +16176,10 @@
       </c>
       <c r="N161" s="21" t="n"/>
       <c r="O161" s="24" t="n">
-        <v>-4.7</v>
+        <v>-5.1</v>
       </c>
       <c r="P161" s="24" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Q161" s="24" t="n"/>
       <c r="R161" s="36" t="inlineStr">
@@ -16274,10 +16280,10 @@
         </is>
       </c>
       <c r="O162" s="24" t="n">
-        <v>-35</v>
+        <v>-38</v>
       </c>
       <c r="P162" s="24" t="n">
-        <v>-15.6</v>
+        <v>-21.5</v>
       </c>
       <c r="Q162" s="24" t="n"/>
       <c r="R162" s="36" t="inlineStr">
@@ -16577,12 +16583,8 @@
           <t>⚡</t>
         </is>
       </c>
-      <c r="O165" s="24" t="n">
-        <v>-39</v>
-      </c>
-      <c r="P165" s="24" t="n">
-        <v>-18.8</v>
-      </c>
+      <c r="O165" s="24" t="n"/>
+      <c r="P165" s="24" t="n"/>
       <c r="Q165" s="24" t="n"/>
       <c r="R165" s="36" t="inlineStr">
         <is>
@@ -16874,10 +16876,10 @@
         </is>
       </c>
       <c r="O168" s="24" t="n">
-        <v>-9.1</v>
+        <v>-8.5</v>
       </c>
       <c r="P168" s="24" t="n">
-        <v>-4.5</v>
+        <v>-4.8</v>
       </c>
       <c r="Q168" s="24" t="n"/>
       <c r="R168" s="36" t="inlineStr">
@@ -16978,10 +16980,10 @@
         </is>
       </c>
       <c r="O169" s="24" t="n">
-        <v>-20.3</v>
+        <v>-23.6</v>
       </c>
       <c r="P169" s="24" t="n">
-        <v>-6.6</v>
+        <v>-5.2</v>
       </c>
       <c r="Q169" s="24" t="n"/>
       <c r="R169" s="36" t="inlineStr">
@@ -17366,10 +17368,10 @@
       </c>
       <c r="N173" s="21" t="n"/>
       <c r="O173" s="24" t="n">
-        <v>-22.5</v>
+        <v>-18.2</v>
       </c>
       <c r="P173" s="24" t="n">
-        <v>-1.3</v>
+        <v>-3.8</v>
       </c>
       <c r="Q173" s="24" t="n"/>
       <c r="R173" s="36" t="inlineStr">
@@ -17648,10 +17650,10 @@
       </c>
       <c r="N176" s="21" t="n"/>
       <c r="O176" s="24" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="P176" s="24" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="Q176" s="24" t="n"/>
       <c r="R176" s="36" t="inlineStr">
@@ -17734,10 +17736,10 @@
       </c>
       <c r="N177" s="21" t="n"/>
       <c r="O177" s="24" t="n">
-        <v>-22.4</v>
+        <v>-19.4</v>
       </c>
       <c r="P177" s="24" t="n">
-        <v>-18</v>
+        <v>-13.8</v>
       </c>
       <c r="Q177" s="24" t="n"/>
       <c r="R177" s="36" t="inlineStr">
@@ -18436,10 +18438,10 @@
       </c>
       <c r="N185" s="21" t="n"/>
       <c r="O185" s="24" t="n">
-        <v>-37</v>
+        <v>-34.6</v>
       </c>
       <c r="P185" s="24" t="n">
-        <v>-25.3</v>
+        <v>-18</v>
       </c>
       <c r="Q185" s="24" t="n"/>
       <c r="R185" s="36" t="inlineStr">
@@ -18537,13 +18539,13 @@
       </c>
       <c r="N186" s="21" t="n"/>
       <c r="O186" s="24" t="n">
-        <v>-41.8</v>
+        <v>-36.4</v>
       </c>
       <c r="P186" s="24" t="n">
-        <v>-32.7</v>
+        <v>-31.4</v>
       </c>
       <c r="Q186" s="24" t="n">
-        <v>-36.51</v>
+        <v>-33.41</v>
       </c>
       <c r="R186" s="36" t="inlineStr">
         <is>
@@ -18636,13 +18638,13 @@
       </c>
       <c r="N187" s="21" t="n"/>
       <c r="O187" s="24" t="n">
-        <v>-43.5</v>
+        <v>-40.4</v>
       </c>
       <c r="P187" s="24" t="n">
-        <v>-38.9</v>
+        <v>-34</v>
       </c>
       <c r="Q187" s="24" t="n">
-        <v>-41.14</v>
+        <v>-37.34</v>
       </c>
       <c r="R187" s="36" t="inlineStr">
         <is>
@@ -18730,13 +18732,13 @@
       </c>
       <c r="N188" s="21" t="n"/>
       <c r="O188" s="24" t="n">
-        <v>-46.6</v>
+        <v>-41.2</v>
       </c>
       <c r="P188" s="24" t="n">
-        <v>-37</v>
+        <v>-36.1</v>
       </c>
       <c r="Q188" s="24" t="n">
-        <v>-42.96</v>
+        <v>-37.89</v>
       </c>
       <c r="R188" s="36" t="inlineStr">
         <is>
@@ -18824,13 +18826,13 @@
       </c>
       <c r="N189" s="21" t="n"/>
       <c r="O189" s="24" t="n">
-        <v>-38</v>
+        <v>-36.2</v>
       </c>
       <c r="P189" s="24" t="n">
-        <v>-30</v>
+        <v>-28</v>
       </c>
       <c r="Q189" s="24" t="n">
-        <v>-33.08</v>
+        <v>-30.4</v>
       </c>
       <c r="R189" s="36" t="inlineStr">
         <is>
@@ -18918,13 +18920,13 @@
       </c>
       <c r="N190" s="21" t="n"/>
       <c r="O190" s="24" t="n">
-        <v>-49.2</v>
+        <v>-51.6</v>
       </c>
       <c r="P190" s="24" t="n">
-        <v>-45.1</v>
+        <v>-48.4</v>
       </c>
       <c r="Q190" s="24" t="n">
-        <v>-47.59</v>
+        <v>-50.1</v>
       </c>
       <c r="R190" s="36" t="inlineStr">
         <is>
@@ -19012,13 +19014,13 @@
       </c>
       <c r="N191" s="21" t="n"/>
       <c r="O191" s="24" t="n">
-        <v>-42.6</v>
+        <v>-35.6</v>
       </c>
       <c r="P191" s="24" t="n">
-        <v>-33.5</v>
+        <v>-31</v>
       </c>
       <c r="Q191" s="24" t="n">
-        <v>-39.18</v>
+        <v>-33.49</v>
       </c>
       <c r="R191" s="36" t="inlineStr">
         <is>
@@ -19102,13 +19104,13 @@
       </c>
       <c r="N192" s="21" t="n"/>
       <c r="O192" s="24" t="n">
-        <v>-43.4</v>
+        <v>-43.2</v>
       </c>
       <c r="P192" s="24" t="n">
-        <v>-40.9</v>
+        <v>-32.8</v>
       </c>
       <c r="Q192" s="24" t="n">
-        <v>-42.66</v>
+        <v>-36.8</v>
       </c>
       <c r="R192" s="36" t="inlineStr">
         <is>
@@ -19197,13 +19199,13 @@
       </c>
       <c r="N193" s="21" t="n"/>
       <c r="O193" s="24" t="n">
-        <v>-40.6</v>
+        <v>-40.9</v>
       </c>
       <c r="P193" s="24" t="n">
-        <v>-36.3</v>
+        <v>-33.4</v>
       </c>
       <c r="Q193" s="24" t="n">
-        <v>-39.34</v>
+        <v>-36.06</v>
       </c>
       <c r="R193" s="36" t="inlineStr">
         <is>
@@ -19295,10 +19297,10 @@
       </c>
       <c r="N194" s="21" t="n"/>
       <c r="O194" s="24" t="n">
-        <v>-46.6</v>
+        <v>-49</v>
       </c>
       <c r="P194" s="24" t="n">
-        <v>-28.8</v>
+        <v>-40</v>
       </c>
       <c r="Q194" s="24" t="n"/>
       <c r="R194" s="36" t="inlineStr">
@@ -19387,13 +19389,13 @@
       </c>
       <c r="N195" s="21" t="n"/>
       <c r="O195" s="24" t="n">
-        <v>-27</v>
+        <v>-23.8</v>
       </c>
       <c r="P195" s="24" t="n">
-        <v>-16.9</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="Q195" s="24" t="n">
-        <v>-22.71</v>
+        <v>-16.78</v>
       </c>
       <c r="R195" s="36" t="inlineStr">
         <is>
@@ -19485,14 +19487,12 @@
       </c>
       <c r="N196" s="21" t="n"/>
       <c r="O196" s="24" t="n">
-        <v>-37.3</v>
+        <v>-29.4</v>
       </c>
       <c r="P196" s="24" t="n">
-        <v>-28.7</v>
-      </c>
-      <c r="Q196" s="24" t="n">
-        <v>-33.04</v>
-      </c>
+        <v>-19</v>
+      </c>
+      <c r="Q196" s="24" t="n"/>
       <c r="R196" s="36" t="inlineStr">
         <is>
           <t>Y</t>
@@ -19583,13 +19583,13 @@
         </is>
       </c>
       <c r="O197" s="24" t="n">
-        <v>-42.2</v>
+        <v>-35.1</v>
       </c>
       <c r="P197" s="24" t="n">
-        <v>-34.8</v>
+        <v>-28</v>
       </c>
       <c r="Q197" s="24" t="n">
-        <v>-39.48</v>
+        <v>-30.78</v>
       </c>
       <c r="R197" s="36" t="inlineStr">
         <is>
@@ -19936,8 +19936,12 @@
         </is>
       </c>
       <c r="N201" s="21" t="n"/>
-      <c r="O201" s="24" t="n"/>
-      <c r="P201" s="24" t="n"/>
+      <c r="O201" s="24" t="n">
+        <v>-40.8</v>
+      </c>
+      <c r="P201" s="24" t="n">
+        <v>-20.9</v>
+      </c>
       <c r="Q201" s="24" t="n"/>
       <c r="R201" s="36" t="inlineStr">
         <is>
@@ -20123,10 +20127,10 @@
       </c>
       <c r="N203" s="21" t="n"/>
       <c r="O203" s="24" t="n">
-        <v>-53.5</v>
+        <v>-43.5</v>
       </c>
       <c r="P203" s="24" t="n">
-        <v>-39.3</v>
+        <v>-31.8</v>
       </c>
       <c r="Q203" s="24" t="n"/>
       <c r="R203" s="36" t="inlineStr">
@@ -20903,10 +20907,10 @@
       </c>
       <c r="N212" s="21" t="n"/>
       <c r="O212" s="24" t="n">
-        <v>-41</v>
+        <v>-40.5</v>
       </c>
       <c r="P212" s="24" t="n">
-        <v>-29.9</v>
+        <v>-29.3</v>
       </c>
       <c r="Q212" s="24" t="n"/>
       <c r="R212" s="36" t="inlineStr">
@@ -20987,13 +20991,13 @@
       </c>
       <c r="N213" s="21" t="n"/>
       <c r="O213" s="24" t="n">
-        <v>-21.3</v>
+        <v>-23</v>
       </c>
       <c r="P213" s="24" t="n">
-        <v>-3.2</v>
+        <v>-15.8</v>
       </c>
       <c r="Q213" s="24" t="n">
-        <v>-13.65</v>
+        <v>-20.12</v>
       </c>
       <c r="R213" s="36" t="inlineStr">
         <is>
@@ -21089,13 +21093,13 @@
       </c>
       <c r="N214" s="21" t="n"/>
       <c r="O214" s="24" t="n">
+        <v>-30.8</v>
+      </c>
+      <c r="P214" s="24" t="n">
+        <v>-20.6</v>
+      </c>
+      <c r="Q214" s="24" t="n">
         <v>-26.3</v>
-      </c>
-      <c r="P214" s="24" t="n">
-        <v>-17.1</v>
-      </c>
-      <c r="Q214" s="24" t="n">
-        <v>-21.55</v>
       </c>
       <c r="R214" s="36" t="inlineStr">
         <is>
@@ -21195,13 +21199,13 @@
       </c>
       <c r="N215" s="21" t="n"/>
       <c r="O215" s="24" t="n">
-        <v>-26.2</v>
+        <v>-28.4</v>
       </c>
       <c r="P215" s="24" t="n">
-        <v>-17.8</v>
+        <v>-19.6</v>
       </c>
       <c r="Q215" s="24" t="n">
-        <v>-22.55</v>
+        <v>-24.99</v>
       </c>
       <c r="R215" s="36" t="inlineStr">
         <is>
@@ -21301,13 +21305,13 @@
       </c>
       <c r="N216" s="21" t="n"/>
       <c r="O216" s="24" t="n">
-        <v>-28.1</v>
+        <v>-30.1</v>
       </c>
       <c r="P216" s="24" t="n">
-        <v>-15.3</v>
+        <v>-18.4</v>
       </c>
       <c r="Q216" s="24" t="n">
-        <v>-20.75</v>
+        <v>-25.07</v>
       </c>
       <c r="R216" s="36" t="inlineStr">
         <is>
@@ -21403,13 +21407,13 @@
       </c>
       <c r="N217" s="21" t="n"/>
       <c r="O217" s="24" t="n">
-        <v>-29.6</v>
+        <v>-27.6</v>
       </c>
       <c r="P217" s="24" t="n">
-        <v>-22.5</v>
+        <v>-20.2</v>
       </c>
       <c r="Q217" s="24" t="n">
-        <v>-26.38</v>
+        <v>-24.6</v>
       </c>
       <c r="R217" s="36" t="inlineStr">
         <is>
@@ -21505,12 +21509,14 @@
       </c>
       <c r="N218" s="21" t="n"/>
       <c r="O218" s="24" t="n">
-        <v>-32.5</v>
+        <v>-33.8</v>
       </c>
       <c r="P218" s="24" t="n">
-        <v>-25.9</v>
-      </c>
-      <c r="Q218" s="24" t="n"/>
+        <v>-26.3</v>
+      </c>
+      <c r="Q218" s="24" t="n">
+        <v>-31.11</v>
+      </c>
       <c r="R218" s="36" t="inlineStr">
         <is>
           <t>Y</t>
@@ -21605,13 +21611,13 @@
       </c>
       <c r="N219" s="21" t="n"/>
       <c r="O219" s="24" t="n">
-        <v>-6.3</v>
+        <v>-8.9</v>
       </c>
       <c r="P219" s="24" t="n">
-        <v>-2.6</v>
+        <v>-1.7</v>
       </c>
       <c r="Q219" s="24" t="n">
-        <v>-4.78</v>
+        <v>-5.78</v>
       </c>
       <c r="R219" s="36" t="inlineStr">
         <is>
@@ -21698,8 +21704,12 @@
         </is>
       </c>
       <c r="N220" s="21" t="n"/>
-      <c r="O220" s="24" t="n"/>
-      <c r="P220" s="24" t="n"/>
+      <c r="O220" s="24" t="n">
+        <v>-40.5</v>
+      </c>
+      <c r="P220" s="24" t="n">
+        <v>-20.2</v>
+      </c>
       <c r="Q220" s="24" t="n"/>
       <c r="R220" s="36" t="inlineStr">
         <is>
@@ -22066,8 +22076,12 @@
         </is>
       </c>
       <c r="N224" s="21" t="n"/>
-      <c r="O224" s="24" t="n"/>
-      <c r="P224" s="24" t="n"/>
+      <c r="O224" s="24" t="n">
+        <v>-40.3</v>
+      </c>
+      <c r="P224" s="24" t="n">
+        <v>-20.4</v>
+      </c>
       <c r="Q224" s="24" t="n"/>
       <c r="R224" s="36" t="inlineStr">
         <is>
@@ -22420,12 +22434,8 @@
         </is>
       </c>
       <c r="N228" s="21" t="n"/>
-      <c r="O228" s="24" t="n">
-        <v>-34.1</v>
-      </c>
-      <c r="P228" s="24" t="n">
-        <v>-23.9</v>
-      </c>
+      <c r="O228" s="24" t="n"/>
+      <c r="P228" s="24" t="n"/>
       <c r="Q228" s="24" t="n"/>
       <c r="R228" s="36" t="inlineStr">
         <is>
@@ -22484,105 +22494,289 @@
       <c r="AF228" s="2" t="n"/>
     </row>
     <row r="229" ht="24" customHeight="1" s="38">
-      <c r="A229" s="2" t="n"/>
+      <c r="A229" s="2" t="n">
+        <v>228</v>
+      </c>
       <c r="B229" s="2" t="n"/>
       <c r="C229" s="17" t="n"/>
       <c r="D229" s="2" t="n"/>
       <c r="E229" s="2" t="n"/>
-      <c r="F229" s="3" t="n"/>
-      <c r="G229" s="2" t="n"/>
-      <c r="H229" s="2" t="n"/>
-      <c r="I229" s="2" t="n"/>
-      <c r="J229" s="17" t="n"/>
+      <c r="F229" s="3" t="inlineStr">
+        <is>
+          <t>H2516</t>
+        </is>
+      </c>
+      <c r="G229" s="2" t="n">
+        <v>50.9286</v>
+      </c>
+      <c r="H229" s="2" t="n">
+        <v>124.3136</v>
+      </c>
+      <c r="I229" s="2" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="J229" s="17" t="n">
+        <v>12</v>
+      </c>
       <c r="K229" s="2" t="n"/>
       <c r="L229" s="2" t="n"/>
-      <c r="M229" s="28" t="n"/>
+      <c r="M229" s="28" t="inlineStr">
+        <is>
+          <t>松岭古源</t>
+        </is>
+      </c>
       <c r="N229" s="21" t="n"/>
-      <c r="O229" s="24" t="n"/>
-      <c r="P229" s="24" t="n"/>
+      <c r="O229" s="24" t="n">
+        <v>-38.7</v>
+      </c>
+      <c r="P229" s="24" t="n">
+        <v>-18.8</v>
+      </c>
       <c r="Q229" s="24" t="n"/>
-      <c r="R229" s="36" t="n"/>
-      <c r="S229" s="2" t="n"/>
-      <c r="T229" s="5" t="n"/>
-      <c r="U229" s="5" t="n"/>
-      <c r="V229" s="5" t="n"/>
+      <c r="R229" s="36" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="S229" s="2" t="inlineStr">
+        <is>
+          <t>黑龙江</t>
+        </is>
+      </c>
+      <c r="T229" s="5" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="U229" s="5" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="V229" s="5" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="W229" s="5" t="n"/>
-      <c r="X229" s="2" t="n"/>
-      <c r="Y229" s="2" t="n"/>
+      <c r="X229" s="2" t="inlineStr">
+        <is>
+          <t>大兴安岭地区</t>
+        </is>
+      </c>
+      <c r="Y229" s="2" t="inlineStr">
+        <is>
+          <t>松岭区</t>
+        </is>
+      </c>
       <c r="Z229" s="2" t="n"/>
       <c r="AA229" s="2" t="n"/>
-      <c r="AB229" s="2" t="n"/>
-      <c r="AC229" s="2" t="n"/>
+      <c r="AB229" s="2" t="inlineStr">
+        <is>
+          <t>中国</t>
+        </is>
+      </c>
+      <c r="AC229" s="2" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
       <c r="AD229" s="2" t="n"/>
-      <c r="AE229" s="2" t="n"/>
+      <c r="AE229" s="2" t="inlineStr">
+        <is>
+          <t>大兴安岭</t>
+        </is>
+      </c>
       <c r="AF229" s="2" t="n"/>
     </row>
     <row r="230" ht="24" customHeight="1" s="38">
-      <c r="A230" s="2" t="n"/>
+      <c r="A230" s="2" t="n">
+        <v>229</v>
+      </c>
       <c r="B230" s="2" t="n"/>
-      <c r="C230" s="17" t="n"/>
+      <c r="C230" s="17" t="n">
+        <v>50445</v>
+      </c>
       <c r="D230" s="2" t="n"/>
       <c r="E230" s="2" t="n"/>
       <c r="F230" s="3" t="n"/>
-      <c r="G230" s="2" t="n"/>
-      <c r="H230" s="2" t="n"/>
-      <c r="I230" s="2" t="n"/>
-      <c r="J230" s="17" t="n"/>
+      <c r="G230" s="2" t="n">
+        <v>50.5764</v>
+      </c>
+      <c r="H230" s="2" t="n">
+        <v>123.7281</v>
+      </c>
+      <c r="I230" s="2" t="n">
+        <v>425.5</v>
+      </c>
+      <c r="J230" s="17" t="n">
+        <v>12</v>
+      </c>
       <c r="K230" s="2" t="n"/>
       <c r="L230" s="2" t="n"/>
-      <c r="M230" s="28" t="n"/>
+      <c r="M230" s="28" t="inlineStr">
+        <is>
+          <t>鄂伦春自治旗</t>
+        </is>
+      </c>
       <c r="N230" s="21" t="n"/>
-      <c r="O230" s="24" t="n"/>
-      <c r="P230" s="24" t="n"/>
+      <c r="O230" s="24" t="n">
+        <v>-32.7</v>
+      </c>
+      <c r="P230" s="24" t="n">
+        <v>-17.8</v>
+      </c>
       <c r="Q230" s="24" t="n"/>
-      <c r="R230" s="36" t="n"/>
-      <c r="S230" s="2" t="n"/>
-      <c r="T230" s="5" t="n"/>
-      <c r="U230" s="5" t="n"/>
-      <c r="V230" s="5" t="n"/>
+      <c r="R230" s="36" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="S230" s="2" t="inlineStr">
+        <is>
+          <t>内蒙古</t>
+        </is>
+      </c>
+      <c r="T230" s="5" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="U230" s="5" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="V230" s="5" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="W230" s="5" t="n"/>
-      <c r="X230" s="2" t="n"/>
-      <c r="Y230" s="2" t="n"/>
+      <c r="X230" s="2" t="inlineStr">
+        <is>
+          <t>呼伦贝尔市</t>
+        </is>
+      </c>
+      <c r="Y230" s="2" t="inlineStr">
+        <is>
+          <t>鄂伦春自治旗</t>
+        </is>
+      </c>
       <c r="Z230" s="2" t="n"/>
       <c r="AA230" s="2" t="n"/>
-      <c r="AB230" s="2" t="n"/>
-      <c r="AC230" s="2" t="n"/>
+      <c r="AB230" s="2" t="inlineStr">
+        <is>
+          <t>中国</t>
+        </is>
+      </c>
+      <c r="AC230" s="2" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
       <c r="AD230" s="2" t="n"/>
-      <c r="AE230" s="2" t="n"/>
+      <c r="AE230" s="2" t="inlineStr">
+        <is>
+          <t>大兴安岭</t>
+        </is>
+      </c>
       <c r="AF230" s="2" t="n"/>
     </row>
     <row r="231" ht="24" customHeight="1" s="38">
-      <c r="A231" s="2" t="n"/>
+      <c r="A231" s="2" t="n">
+        <v>230</v>
+      </c>
       <c r="B231" s="2" t="n"/>
       <c r="C231" s="17" t="n"/>
       <c r="D231" s="2" t="n"/>
       <c r="E231" s="2" t="n"/>
-      <c r="F231" s="3" t="n"/>
-      <c r="G231" s="2" t="n"/>
-      <c r="H231" s="2" t="n"/>
-      <c r="I231" s="2" t="n"/>
-      <c r="J231" s="17" t="n"/>
+      <c r="F231" s="3" t="inlineStr">
+        <is>
+          <t>C0113</t>
+        </is>
+      </c>
+      <c r="G231" s="2" t="n">
+        <v>50.46</v>
+      </c>
+      <c r="H231" s="2" t="n">
+        <v>120.0806</v>
+      </c>
+      <c r="I231" s="2" t="n">
+        <v>625.6</v>
+      </c>
+      <c r="J231" s="17" t="n">
+        <v>12</v>
+      </c>
       <c r="K231" s="2" t="n"/>
       <c r="L231" s="2" t="n"/>
-      <c r="M231" s="28" t="n"/>
+      <c r="M231" s="28" t="inlineStr">
+        <is>
+          <t>三河回族乡</t>
+        </is>
+      </c>
       <c r="N231" s="21" t="n"/>
-      <c r="O231" s="24" t="n"/>
-      <c r="P231" s="24" t="n"/>
+      <c r="O231" s="24" t="n">
+        <v>-37.1</v>
+      </c>
+      <c r="P231" s="24" t="n">
+        <v>-25.1</v>
+      </c>
       <c r="Q231" s="24" t="n"/>
-      <c r="R231" s="36" t="n"/>
-      <c r="S231" s="2" t="n"/>
-      <c r="T231" s="5" t="n"/>
-      <c r="U231" s="5" t="n"/>
-      <c r="V231" s="5" t="n"/>
+      <c r="R231" s="36" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="S231" s="2" t="inlineStr">
+        <is>
+          <t>内蒙古</t>
+        </is>
+      </c>
+      <c r="T231" s="5" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="U231" s="5" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="V231" s="5" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="W231" s="5" t="n"/>
-      <c r="X231" s="2" t="n"/>
-      <c r="Y231" s="2" t="n"/>
+      <c r="X231" s="2" t="inlineStr">
+        <is>
+          <t>呼伦贝尔市</t>
+        </is>
+      </c>
+      <c r="Y231" s="2" t="inlineStr">
+        <is>
+          <t>额尔古纳市</t>
+        </is>
+      </c>
       <c r="Z231" s="2" t="n"/>
       <c r="AA231" s="2" t="n"/>
-      <c r="AB231" s="2" t="n"/>
-      <c r="AC231" s="2" t="n"/>
+      <c r="AB231" s="2" t="inlineStr">
+        <is>
+          <t>中国</t>
+        </is>
+      </c>
+      <c r="AC231" s="2" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
       <c r="AD231" s="2" t="n"/>
-      <c r="AE231" s="2" t="n"/>
+      <c r="AE231" s="2" t="inlineStr">
+        <is>
+          <t>大兴安岭</t>
+        </is>
+      </c>
       <c r="AF231" s="2" t="n"/>
     </row>
     <row r="232" ht="24" customHeight="1" s="38">

--- a/气象/For_Python_站点信息和记录.xlsx
+++ b/气象/For_Python_站点信息和记录.xlsx
@@ -821,8 +821,8 @@
     <col width="12.59765625" customWidth="1" style="6" min="19" max="19"/>
     <col width="12.59765625" customWidth="1" style="10" min="20" max="22"/>
     <col width="18.59765625" customWidth="1" style="10" min="23" max="23"/>
-    <col width="12.59765625" customWidth="1" style="6" min="24" max="70"/>
-    <col width="12.59765625" customWidth="1" style="6" min="71" max="16384"/>
+    <col width="12.59765625" customWidth="1" style="6" min="24" max="72"/>
+    <col width="12.59765625" customWidth="1" style="6" min="73" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.75" customFormat="1" customHeight="1" s="14">
@@ -1037,13 +1037,13 @@
         </is>
       </c>
       <c r="O2" s="24" t="n">
-        <v>-25.6</v>
+        <v>-29.3</v>
       </c>
       <c r="P2" s="24" t="n">
-        <v>-16.6</v>
+        <v>-19.1</v>
       </c>
       <c r="Q2" s="24" t="n">
-        <v>-21.36</v>
+        <v>-23.66</v>
       </c>
       <c r="R2" s="36" t="inlineStr">
         <is>
@@ -1137,10 +1137,10 @@
         </is>
       </c>
       <c r="O3" s="24" t="n">
-        <v>-24.9</v>
+        <v>-27.9</v>
       </c>
       <c r="P3" s="24" t="n">
-        <v>-14.9</v>
+        <v>-16.6</v>
       </c>
       <c r="Q3" s="24" t="n"/>
       <c r="R3" s="36" t="inlineStr">
@@ -1235,10 +1235,10 @@
         </is>
       </c>
       <c r="O4" s="24" t="n">
-        <v>-27.5</v>
+        <v>-28.9</v>
       </c>
       <c r="P4" s="24" t="n">
-        <v>-14</v>
+        <v>-15.6</v>
       </c>
       <c r="Q4" s="24" t="n"/>
       <c r="R4" s="36" t="inlineStr">
@@ -1325,10 +1325,10 @@
       </c>
       <c r="N5" s="21" t="n"/>
       <c r="O5" s="24" t="n">
-        <v>-28.3</v>
+        <v>-26.8</v>
       </c>
       <c r="P5" s="24" t="n">
-        <v>-20.7</v>
+        <v>-15.4</v>
       </c>
       <c r="Q5" s="24" t="n"/>
       <c r="R5" s="36" t="inlineStr">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="O6" s="24" t="n">
-        <v>-32</v>
+        <v>-24.7</v>
       </c>
       <c r="P6" s="24" t="n">
-        <v>-19.7</v>
+        <v>-15</v>
       </c>
       <c r="Q6" s="24" t="n">
-        <v>-26.56</v>
+        <v>-18.79</v>
       </c>
       <c r="R6" s="36" t="inlineStr">
         <is>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="O7" s="24" t="n">
-        <v>-31.6</v>
+        <v>-36.2</v>
       </c>
       <c r="P7" s="24" t="n">
-        <v>-18.6</v>
+        <v>-28.8</v>
       </c>
       <c r="Q7" s="24" t="n"/>
       <c r="R7" s="36" t="inlineStr">
@@ -1629,13 +1629,13 @@
       </c>
       <c r="N8" s="21" t="n"/>
       <c r="O8" s="24" t="n">
-        <v>-31.1</v>
+        <v>-36.1</v>
       </c>
       <c r="P8" s="24" t="n">
-        <v>-20.9</v>
+        <v>-25</v>
       </c>
       <c r="Q8" s="24" t="n">
-        <v>-26.34</v>
+        <v>-32.17</v>
       </c>
       <c r="R8" s="36" t="inlineStr">
         <is>
@@ -1731,13 +1731,13 @@
       </c>
       <c r="N9" s="21" t="n"/>
       <c r="O9" s="24" t="n">
-        <v>-18.9</v>
+        <v>-23.9</v>
       </c>
       <c r="P9" s="24" t="n">
-        <v>-11.5</v>
+        <v>-12.6</v>
       </c>
       <c r="Q9" s="24" t="n">
-        <v>-15.5</v>
+        <v>-18.36</v>
       </c>
       <c r="R9" s="36" t="inlineStr">
         <is>
@@ -1837,13 +1837,13 @@
       </c>
       <c r="N10" s="20" t="n"/>
       <c r="O10" s="24" t="n">
-        <v>-29.6</v>
+        <v>-24.7</v>
       </c>
       <c r="P10" s="24" t="n">
-        <v>-16</v>
+        <v>-15.6</v>
       </c>
       <c r="Q10" s="24" t="n">
-        <v>-22.8</v>
+        <v>-20.46</v>
       </c>
       <c r="R10" s="36" t="inlineStr">
         <is>
@@ -1943,13 +1943,13 @@
         </is>
       </c>
       <c r="O11" s="24" t="n">
-        <v>-29.9</v>
+        <v>-25</v>
       </c>
       <c r="P11" s="24" t="n">
-        <v>-16.3</v>
+        <v>-12</v>
       </c>
       <c r="Q11" s="24" t="n">
-        <v>-23.64</v>
+        <v>-16.24</v>
       </c>
       <c r="R11" s="36" t="inlineStr">
         <is>
@@ -2049,13 +2049,13 @@
       </c>
       <c r="N12" s="21" t="n"/>
       <c r="O12" s="24" t="n">
-        <v>-29.1</v>
+        <v>-28.9</v>
       </c>
       <c r="P12" s="24" t="n">
-        <v>-19.3</v>
+        <v>-15.7</v>
       </c>
       <c r="Q12" s="24" t="n">
-        <v>-25.59</v>
+        <v>-21.94</v>
       </c>
       <c r="R12" s="36" t="inlineStr">
         <is>
@@ -2159,13 +2159,13 @@
         </is>
       </c>
       <c r="O13" s="24" t="n">
-        <v>-33</v>
+        <v>-37.3</v>
       </c>
       <c r="P13" s="24" t="n">
-        <v>-21.7</v>
+        <v>-29.2</v>
       </c>
       <c r="Q13" s="24" t="n">
-        <v>-27.59</v>
+        <v>-33.83</v>
       </c>
       <c r="R13" s="36" t="inlineStr">
         <is>
@@ -2261,13 +2261,13 @@
       </c>
       <c r="N14" s="21" t="n"/>
       <c r="O14" s="24" t="n">
-        <v>-21.8</v>
+        <v>-26.9</v>
       </c>
       <c r="P14" s="24" t="n">
-        <v>-15.6</v>
+        <v>-19.9</v>
       </c>
       <c r="Q14" s="24" t="n">
-        <v>-19.1</v>
+        <v>-23.8</v>
       </c>
       <c r="R14" s="36" t="inlineStr">
         <is>
@@ -2357,10 +2357,10 @@
       </c>
       <c r="N15" s="21" t="n"/>
       <c r="O15" s="24" t="n">
-        <v>-30.7</v>
+        <v>-37.7</v>
       </c>
       <c r="P15" s="24" t="n">
-        <v>-16.1</v>
+        <v>-19.3</v>
       </c>
       <c r="Q15" s="24" t="n"/>
       <c r="R15" s="36" t="inlineStr">
@@ -2459,13 +2459,13 @@
       </c>
       <c r="N16" s="21" t="n"/>
       <c r="O16" s="24" t="n">
-        <v>-29.4</v>
+        <v>-36.9</v>
       </c>
       <c r="P16" s="24" t="n">
-        <v>-17.1</v>
+        <v>-21.8</v>
       </c>
       <c r="Q16" s="24" t="n">
-        <v>-23.31</v>
+        <v>-29.7</v>
       </c>
       <c r="R16" s="36" t="inlineStr">
         <is>
@@ -2636,15 +2636,9 @@
         </is>
       </c>
       <c r="N18" s="21" t="n"/>
-      <c r="O18" s="24" t="n">
-        <v>-33</v>
-      </c>
-      <c r="P18" s="24" t="n">
-        <v>-19.4</v>
-      </c>
-      <c r="Q18" s="24" t="n">
-        <v>-28.16</v>
-      </c>
+      <c r="O18" s="24" t="n"/>
+      <c r="P18" s="24" t="n"/>
+      <c r="Q18" s="24" t="n"/>
       <c r="R18" s="36" t="inlineStr">
         <is>
           <t>Y</t>
@@ -3653,13 +3647,13 @@
       </c>
       <c r="N30" s="21" t="n"/>
       <c r="O30" s="24" t="n">
-        <v>-32.9</v>
+        <v>-36.6</v>
       </c>
       <c r="P30" s="24" t="n">
-        <v>-19</v>
+        <v>-24.1</v>
       </c>
       <c r="Q30" s="24" t="n">
-        <v>-27.75</v>
+        <v>-31.71</v>
       </c>
       <c r="R30" s="36" t="n"/>
       <c r="S30" s="2" t="inlineStr">
@@ -4618,9 +4612,15 @@
         </is>
       </c>
       <c r="N42" s="21" t="n"/>
-      <c r="O42" s="24" t="n"/>
-      <c r="P42" s="24" t="n"/>
-      <c r="Q42" s="24" t="n"/>
+      <c r="O42" s="24" t="n">
+        <v>-36.3</v>
+      </c>
+      <c r="P42" s="24" t="n">
+        <v>-24.6</v>
+      </c>
+      <c r="Q42" s="24" t="n">
+        <v>-30.92</v>
+      </c>
       <c r="R42" s="36" t="n"/>
       <c r="S42" s="2" t="inlineStr">
         <is>
@@ -7022,9 +7022,15 @@
         </is>
       </c>
       <c r="N72" s="21" t="n"/>
-      <c r="O72" s="24" t="n"/>
-      <c r="P72" s="24" t="n"/>
-      <c r="Q72" s="24" t="n"/>
+      <c r="O72" s="24" t="n">
+        <v>-35</v>
+      </c>
+      <c r="P72" s="24" t="n">
+        <v>-22.1</v>
+      </c>
+      <c r="Q72" s="24" t="n">
+        <v>-29.65</v>
+      </c>
       <c r="R72" s="36" t="n"/>
       <c r="S72" s="2" t="inlineStr">
         <is>
@@ -7263,13 +7269,13 @@
       </c>
       <c r="N75" s="21" t="n"/>
       <c r="O75" s="24" t="n">
-        <v>-26.9</v>
+        <v>-29.1</v>
       </c>
       <c r="P75" s="24" t="n">
-        <v>-16.2</v>
+        <v>-18.3</v>
       </c>
       <c r="Q75" s="24" t="n">
-        <v>-20.86</v>
+        <v>-23.99</v>
       </c>
       <c r="R75" s="36" t="inlineStr">
         <is>
@@ -7369,13 +7375,13 @@
       </c>
       <c r="N76" s="21" t="n"/>
       <c r="O76" s="24" t="n">
-        <v>-26.9</v>
+        <v>-26.6</v>
       </c>
       <c r="P76" s="24" t="n">
-        <v>-19.8</v>
+        <v>-20.1</v>
       </c>
       <c r="Q76" s="24" t="n">
-        <v>-24.16</v>
+        <v>-23.11</v>
       </c>
       <c r="R76" s="36" t="inlineStr">
         <is>
@@ -7479,13 +7485,13 @@
         </is>
       </c>
       <c r="O77" s="24" t="n">
-        <v>-35.8</v>
+        <v>-33.7</v>
       </c>
       <c r="P77" s="24" t="n">
-        <v>-24</v>
+        <v>-23.7</v>
       </c>
       <c r="Q77" s="24" t="n">
-        <v>-29.69</v>
+        <v>-27.86</v>
       </c>
       <c r="R77" s="36" t="inlineStr">
         <is>
@@ -7581,13 +7587,13 @@
       </c>
       <c r="N78" s="21" t="n"/>
       <c r="O78" s="24" t="n">
-        <v>-30.1</v>
+        <v>-36.9</v>
       </c>
       <c r="P78" s="24" t="n">
-        <v>-24.2</v>
+        <v>-26.7</v>
       </c>
       <c r="Q78" s="24" t="n">
-        <v>-27.01</v>
+        <v>-31.57</v>
       </c>
       <c r="R78" s="36" t="inlineStr">
         <is>
@@ -7687,13 +7693,13 @@
         </is>
       </c>
       <c r="O79" s="24" t="n">
-        <v>-36.3</v>
+        <v>-35.1</v>
       </c>
       <c r="P79" s="24" t="n">
-        <v>-19.7</v>
+        <v>-17.9</v>
       </c>
       <c r="Q79" s="24" t="n">
-        <v>-30.12</v>
+        <v>-28.84</v>
       </c>
       <c r="R79" s="36" t="inlineStr">
         <is>
@@ -7789,13 +7795,13 @@
       </c>
       <c r="N80" s="21" t="n"/>
       <c r="O80" s="24" t="n">
-        <v>-28.2</v>
+        <v>-35.9</v>
       </c>
       <c r="P80" s="24" t="n">
-        <v>-21.5</v>
+        <v>-21.6</v>
       </c>
       <c r="Q80" s="24" t="n">
-        <v>-24.32</v>
+        <v>-28.62</v>
       </c>
       <c r="R80" s="36" t="inlineStr">
         <is>
@@ -7899,13 +7905,13 @@
         </is>
       </c>
       <c r="O81" s="24" t="n">
-        <v>-38.2</v>
+        <v>-41.5</v>
       </c>
       <c r="P81" s="24" t="n">
-        <v>-23.8</v>
+        <v>-27.9</v>
       </c>
       <c r="Q81" s="24" t="n">
-        <v>-31.99</v>
+        <v>-34.49</v>
       </c>
       <c r="R81" s="36" t="inlineStr">
         <is>
@@ -8014,13 +8020,13 @@
         </is>
       </c>
       <c r="O82" s="24" t="n">
-        <v>-40.8</v>
+        <v>-41.7</v>
       </c>
       <c r="P82" s="24" t="n">
-        <v>-23.6</v>
+        <v>-16.6</v>
       </c>
       <c r="Q82" s="24" t="n">
-        <v>-34.8</v>
+        <v>-28.3</v>
       </c>
       <c r="R82" s="36" t="inlineStr">
         <is>
@@ -8116,13 +8122,13 @@
       </c>
       <c r="N83" s="21" t="n"/>
       <c r="O83" s="24" t="n">
-        <v>-32.7</v>
+        <v>-31.5</v>
       </c>
       <c r="P83" s="24" t="n">
-        <v>-18.6</v>
+        <v>-24.6</v>
       </c>
       <c r="Q83" s="24" t="n">
-        <v>-29.35</v>
+        <v>-27.34</v>
       </c>
       <c r="R83" s="36" t="inlineStr">
         <is>
@@ -8222,13 +8228,13 @@
         </is>
       </c>
       <c r="O84" s="24" t="n">
-        <v>-38.9</v>
+        <v>-38.5</v>
       </c>
       <c r="P84" s="24" t="n">
         <v>-31.5</v>
       </c>
       <c r="Q84" s="24" t="n">
-        <v>-34.95</v>
+        <v>-35.5</v>
       </c>
       <c r="R84" s="36" t="inlineStr">
         <is>
@@ -8328,13 +8334,13 @@
         </is>
       </c>
       <c r="O85" s="24" t="n">
-        <v>-32.4</v>
+        <v>-31.6</v>
       </c>
       <c r="P85" s="24" t="n">
-        <v>-17.5</v>
+        <v>-19.3</v>
       </c>
       <c r="Q85" s="24" t="n">
-        <v>-25.05</v>
+        <v>-26.61</v>
       </c>
       <c r="R85" s="36" t="inlineStr">
         <is>
@@ -8430,13 +8436,13 @@
       </c>
       <c r="N86" s="21" t="n"/>
       <c r="O86" s="24" t="n">
-        <v>-25.6</v>
+        <v>-26.9</v>
       </c>
       <c r="P86" s="24" t="n">
-        <v>-18.3</v>
+        <v>-19.9</v>
       </c>
       <c r="Q86" s="24" t="n">
-        <v>-22.26</v>
+        <v>-24.3</v>
       </c>
       <c r="R86" s="36" t="inlineStr">
         <is>
@@ -8547,10 +8553,10 @@
         <v>-24.8</v>
       </c>
       <c r="P87" s="24" t="n">
-        <v>-16.7</v>
+        <v>-14.5</v>
       </c>
       <c r="Q87" s="24" t="n">
-        <v>-20.3</v>
+        <v>-22</v>
       </c>
       <c r="R87" s="36" t="inlineStr">
         <is>
@@ -8646,13 +8652,13 @@
       </c>
       <c r="N88" s="21" t="n"/>
       <c r="O88" s="24" t="n">
-        <v>-24.3</v>
+        <v>-23.1</v>
       </c>
       <c r="P88" s="24" t="n">
-        <v>-17.3</v>
+        <v>-14.6</v>
       </c>
       <c r="Q88" s="24" t="n">
-        <v>-20.52</v>
+        <v>-18.64</v>
       </c>
       <c r="R88" s="36" t="inlineStr">
         <is>
@@ -8748,13 +8754,13 @@
       </c>
       <c r="N89" s="21" t="n"/>
       <c r="O89" s="24" t="n">
-        <v>-34.7</v>
+        <v>-40.1</v>
       </c>
       <c r="P89" s="24" t="n">
-        <v>-18.5</v>
+        <v>-21.4</v>
       </c>
       <c r="Q89" s="24" t="n">
-        <v>-29.05</v>
+        <v>-34.01</v>
       </c>
       <c r="R89" s="36" t="inlineStr">
         <is>
@@ -8850,13 +8856,13 @@
         </is>
       </c>
       <c r="O90" s="24" t="n">
-        <v>-20.4</v>
+        <v>-25.5</v>
       </c>
       <c r="P90" s="24" t="n">
-        <v>-5.5</v>
+        <v>-17.2</v>
       </c>
       <c r="Q90" s="24" t="n">
-        <v>-10.69</v>
+        <v>-20.62</v>
       </c>
       <c r="R90" s="36" t="inlineStr">
         <is>
@@ -8948,13 +8954,13 @@
       </c>
       <c r="N91" s="21" t="n"/>
       <c r="O91" s="24" t="n">
+        <v>-26.3</v>
+      </c>
+      <c r="P91" s="24" t="n">
         <v>-15.3</v>
       </c>
-      <c r="P91" s="24" t="n">
-        <v>-8.4</v>
-      </c>
       <c r="Q91" s="24" t="n">
-        <v>-10.28</v>
+        <v>-20.46</v>
       </c>
       <c r="R91" s="36" t="inlineStr">
         <is>
@@ -9046,13 +9052,13 @@
       </c>
       <c r="N92" s="21" t="n"/>
       <c r="O92" s="24" t="n">
-        <v>-16.2</v>
+        <v>-23.4</v>
       </c>
       <c r="P92" s="24" t="n">
-        <v>-6.1</v>
+        <v>-6</v>
       </c>
       <c r="Q92" s="24" t="n">
-        <v>-10.53</v>
+        <v>-14.39</v>
       </c>
       <c r="R92" s="36" t="inlineStr">
         <is>
@@ -9148,13 +9154,13 @@
       </c>
       <c r="N93" s="21" t="n"/>
       <c r="O93" s="24" t="n">
-        <v>-9.199999999999999</v>
+        <v>-16.7</v>
       </c>
       <c r="P93" s="24" t="n">
-        <v>0.8</v>
+        <v>-5.1</v>
       </c>
       <c r="Q93" s="24" t="n">
-        <v>-4.59</v>
+        <v>-10.65</v>
       </c>
       <c r="R93" s="36" t="inlineStr">
         <is>
@@ -9258,10 +9264,10 @@
         </is>
       </c>
       <c r="O94" s="24" t="n">
-        <v>-14.8</v>
+        <v>-22.5</v>
       </c>
       <c r="P94" s="24" t="n">
-        <v>-2.6</v>
+        <v>-6.8</v>
       </c>
       <c r="Q94" s="24" t="n"/>
       <c r="R94" s="36" t="inlineStr">
@@ -9366,13 +9372,13 @@
       </c>
       <c r="N95" s="21" t="n"/>
       <c r="O95" s="24" t="n">
-        <v>-14.3</v>
+        <v>-17.5</v>
       </c>
       <c r="P95" s="24" t="n">
-        <v>-6.9</v>
+        <v>-10.3</v>
       </c>
       <c r="Q95" s="24" t="n">
-        <v>-10.54</v>
+        <v>-14.22</v>
       </c>
       <c r="R95" s="36" t="inlineStr">
         <is>
@@ -9484,10 +9490,10 @@
         </is>
       </c>
       <c r="O96" s="24" t="n">
-        <v>-14.6</v>
+        <v>-18.1</v>
       </c>
       <c r="P96" s="24" t="n">
-        <v>-4.9</v>
+        <v>-6.4</v>
       </c>
       <c r="Q96" s="24" t="n"/>
       <c r="R96" s="36" t="inlineStr">
@@ -9592,13 +9598,13 @@
       </c>
       <c r="N97" s="21" t="n"/>
       <c r="O97" s="24" t="n">
-        <v>-15.1</v>
+        <v>-20.9</v>
       </c>
       <c r="P97" s="24" t="n">
-        <v>-8.699999999999999</v>
+        <v>-13.1</v>
       </c>
       <c r="Q97" s="24" t="n">
-        <v>-12.09</v>
+        <v>-16.41</v>
       </c>
       <c r="R97" s="36" t="inlineStr">
         <is>
@@ -9698,10 +9704,10 @@
       </c>
       <c r="N98" s="21" t="n"/>
       <c r="O98" s="24" t="n">
-        <v>-24.9</v>
+        <v>-27.4</v>
       </c>
       <c r="P98" s="24" t="n">
-        <v>-14.4</v>
+        <v>-18.4</v>
       </c>
       <c r="Q98" s="24" t="n"/>
       <c r="R98" s="36" t="inlineStr">
@@ -9806,13 +9812,13 @@
       </c>
       <c r="N99" s="21" t="n"/>
       <c r="O99" s="24" t="n">
-        <v>-32.7</v>
+        <v>-27.7</v>
       </c>
       <c r="P99" s="24" t="n">
-        <v>-19.5</v>
+        <v>-17.6</v>
       </c>
       <c r="Q99" s="24" t="n">
-        <v>-24.96</v>
+        <v>-21.78</v>
       </c>
       <c r="R99" s="36" t="inlineStr">
         <is>
@@ -10004,10 +10010,10 @@
       </c>
       <c r="N101" s="21" t="n"/>
       <c r="O101" s="24" t="n">
-        <v>-31.1</v>
+        <v>-36.7</v>
       </c>
       <c r="P101" s="24" t="n">
-        <v>-21.1</v>
+        <v>-18.3</v>
       </c>
       <c r="Q101" s="24" t="n"/>
       <c r="R101" s="36" t="inlineStr">
@@ -10116,13 +10122,13 @@
       </c>
       <c r="N102" s="21" t="n"/>
       <c r="O102" s="24" t="n">
-        <v>-27.6</v>
+        <v>-37.7</v>
       </c>
       <c r="P102" s="24" t="n">
-        <v>-20.5</v>
+        <v>-18.4</v>
       </c>
       <c r="Q102" s="24" t="n">
-        <v>-24.4</v>
+        <v>-30.07</v>
       </c>
       <c r="R102" s="36" t="inlineStr">
         <is>
@@ -10318,10 +10324,10 @@
       </c>
       <c r="N104" s="21" t="n"/>
       <c r="O104" s="24" t="n">
-        <v>-37.8</v>
+        <v>-38.3</v>
       </c>
       <c r="P104" s="24" t="n">
-        <v>-20.8</v>
+        <v>-22.7</v>
       </c>
       <c r="Q104" s="24" t="n"/>
       <c r="R104" s="36" t="inlineStr">
@@ -10434,13 +10440,13 @@
         </is>
       </c>
       <c r="O105" s="24" t="n">
-        <v>-37.3</v>
+        <v>-38.3</v>
       </c>
       <c r="P105" s="24" t="n">
-        <v>-21.5</v>
+        <v>-21.6</v>
       </c>
       <c r="Q105" s="24" t="n">
-        <v>-29.71</v>
+        <v>-31.21</v>
       </c>
       <c r="R105" s="36" t="inlineStr">
         <is>
@@ -10544,10 +10550,10 @@
         </is>
       </c>
       <c r="O106" s="24" t="n">
-        <v>-30.8</v>
+        <v>-32.3</v>
       </c>
       <c r="P106" s="24" t="n">
-        <v>-23</v>
+        <v>-22.9</v>
       </c>
       <c r="Q106" s="24" t="n"/>
       <c r="R106" s="36" t="inlineStr">
@@ -10744,13 +10750,13 @@
       </c>
       <c r="N108" s="21" t="n"/>
       <c r="O108" s="24" t="n">
-        <v>-28.5</v>
+        <v>-32.2</v>
       </c>
       <c r="P108" s="24" t="n">
-        <v>-21.7</v>
+        <v>-21.4</v>
       </c>
       <c r="Q108" s="24" t="n">
-        <v>-24.39</v>
+        <v>-26.56</v>
       </c>
       <c r="R108" s="36" t="inlineStr">
         <is>
@@ -11042,13 +11048,13 @@
       </c>
       <c r="N111" s="21" t="n"/>
       <c r="O111" s="24" t="n">
-        <v>-30.1</v>
+        <v>-36.2</v>
       </c>
       <c r="P111" s="24" t="n">
-        <v>-19.4</v>
+        <v>-20.5</v>
       </c>
       <c r="Q111" s="24" t="n">
-        <v>-25.24</v>
+        <v>-29.23</v>
       </c>
       <c r="R111" s="36" t="inlineStr">
         <is>
@@ -11144,10 +11150,10 @@
       </c>
       <c r="N112" s="21" t="n"/>
       <c r="O112" s="24" t="n">
-        <v>-14.3</v>
+        <v>-17.7</v>
       </c>
       <c r="P112" s="24" t="n">
-        <v>-2.4</v>
+        <v>-8.6</v>
       </c>
       <c r="Q112" s="24" t="n"/>
       <c r="R112" s="36" t="inlineStr">
@@ -11240,10 +11246,10 @@
       </c>
       <c r="N113" s="21" t="n"/>
       <c r="O113" s="24" t="n">
-        <v>-21</v>
+        <v>-16.2</v>
       </c>
       <c r="P113" s="24" t="n">
-        <v>-2.7</v>
+        <v>-1.2</v>
       </c>
       <c r="Q113" s="24" t="n"/>
       <c r="R113" s="36" t="inlineStr">
@@ -11344,10 +11350,10 @@
         </is>
       </c>
       <c r="O114" s="24" t="n">
-        <v>-20.2</v>
+        <v>-17.4</v>
       </c>
       <c r="P114" s="24" t="n">
-        <v>-0.9</v>
+        <v>-0.4</v>
       </c>
       <c r="Q114" s="24" t="n"/>
       <c r="R114" s="36" t="inlineStr">
@@ -11456,10 +11462,10 @@
         </is>
       </c>
       <c r="O115" s="24" t="n">
-        <v>-19.6</v>
+        <v>-15.1</v>
       </c>
       <c r="P115" s="24" t="n">
-        <v>-2.9</v>
+        <v>-4.3</v>
       </c>
       <c r="Q115" s="24" t="n"/>
       <c r="R115" s="36" t="inlineStr">
@@ -11564,13 +11570,13 @@
       </c>
       <c r="N116" s="21" t="n"/>
       <c r="O116" s="24" t="n">
-        <v>-10.5</v>
+        <v>-13.9</v>
       </c>
       <c r="P116" s="24" t="n">
-        <v>2.9</v>
+        <v>-3.8</v>
       </c>
       <c r="Q116" s="24" t="n">
-        <v>-4.88</v>
+        <v>-9.09</v>
       </c>
       <c r="R116" s="36" t="inlineStr">
         <is>
@@ -11666,10 +11672,10 @@
       </c>
       <c r="N117" s="21" t="n"/>
       <c r="O117" s="24" t="n">
-        <v>-13.6</v>
+        <v>-16</v>
       </c>
       <c r="P117" s="24" t="n">
-        <v>-0.6</v>
+        <v>-6.9</v>
       </c>
       <c r="Q117" s="24" t="n"/>
       <c r="R117" s="36" t="inlineStr">
@@ -11770,10 +11776,10 @@
         </is>
       </c>
       <c r="O118" s="24" t="n">
-        <v>-17.5</v>
+        <v>-21.8</v>
       </c>
       <c r="P118" s="24" t="n">
-        <v>-9</v>
+        <v>-7.1</v>
       </c>
       <c r="Q118" s="24" t="n"/>
       <c r="R118" s="36" t="inlineStr">
@@ -11878,13 +11884,13 @@
       </c>
       <c r="N119" s="21" t="n"/>
       <c r="O119" s="24" t="n">
-        <v>-8.300000000000001</v>
+        <v>-22.3</v>
       </c>
       <c r="P119" s="24" t="n">
-        <v>-1.4</v>
+        <v>-4.2</v>
       </c>
       <c r="Q119" s="24" t="n">
-        <v>-4.95</v>
+        <v>-16.37</v>
       </c>
       <c r="R119" s="36" t="inlineStr">
         <is>
@@ -11992,13 +11998,13 @@
       </c>
       <c r="N120" s="21" t="n"/>
       <c r="O120" s="24" t="n">
-        <v>-5</v>
+        <v>-0.6</v>
       </c>
       <c r="P120" s="24" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q120" s="24" t="n">
-        <v>-1.64</v>
+        <v>0.79</v>
       </c>
       <c r="R120" s="36" t="inlineStr">
         <is>
@@ -12098,13 +12104,13 @@
       </c>
       <c r="N121" s="21" t="n"/>
       <c r="O121" s="24" t="n">
-        <v>-8.5</v>
+        <v>-12.7</v>
       </c>
       <c r="P121" s="24" t="n">
-        <v>2.1</v>
+        <v>-5.3</v>
       </c>
       <c r="Q121" s="24" t="n">
-        <v>-5.25</v>
+        <v>-10.19</v>
       </c>
       <c r="R121" s="36" t="inlineStr">
         <is>
@@ -12212,10 +12218,10 @@
       </c>
       <c r="N122" s="21" t="n"/>
       <c r="O122" s="24" t="n">
-        <v>-22.1</v>
+        <v>-22.8</v>
       </c>
       <c r="P122" s="24" t="n">
-        <v>-7.5</v>
+        <v>-12.9</v>
       </c>
       <c r="Q122" s="24" t="n"/>
       <c r="R122" s="36" t="inlineStr">
@@ -12416,13 +12422,13 @@
       </c>
       <c r="N124" s="21" t="n"/>
       <c r="O124" s="24" t="n">
-        <v>-8.1</v>
+        <v>-7</v>
       </c>
       <c r="P124" s="24" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="Q124" s="24" t="n">
-        <v>-3.19</v>
+        <v>-2.98</v>
       </c>
       <c r="R124" s="36" t="inlineStr">
         <is>
@@ -12530,13 +12536,13 @@
       </c>
       <c r="N125" s="21" t="n"/>
       <c r="O125" s="24" t="n">
-        <v>-4.5</v>
+        <v>-3.9</v>
       </c>
       <c r="P125" s="24" t="n">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="Q125" s="24" t="n">
-        <v>0.47</v>
+        <v>0.15</v>
       </c>
       <c r="R125" s="36" t="inlineStr">
         <is>
@@ -12620,10 +12626,10 @@
       </c>
       <c r="N126" s="21" t="n"/>
       <c r="O126" s="24" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="P126" s="24" t="n">
-        <v>7.1</v>
+        <v>5.3</v>
       </c>
       <c r="Q126" s="24" t="n"/>
       <c r="R126" s="36" t="inlineStr">
@@ -12720,13 +12726,13 @@
       </c>
       <c r="N127" s="21" t="n"/>
       <c r="O127" s="24" t="n">
-        <v>-5</v>
+        <v>-5.7</v>
       </c>
       <c r="P127" s="24" t="n">
-        <v>7.4</v>
+        <v>3.9</v>
       </c>
       <c r="Q127" s="24" t="n">
-        <v>-0.39</v>
+        <v>-1.81</v>
       </c>
       <c r="R127" s="36" t="inlineStr">
         <is>
@@ -12830,10 +12836,10 @@
       </c>
       <c r="N128" s="21" t="n"/>
       <c r="O128" s="24" t="n">
-        <v>0.1</v>
+        <v>-0.7</v>
       </c>
       <c r="P128" s="24" t="n">
-        <v>8.699999999999999</v>
+        <v>4.4</v>
       </c>
       <c r="Q128" s="24" t="n"/>
       <c r="R128" s="36" t="inlineStr">
@@ -12930,13 +12936,13 @@
       </c>
       <c r="N129" s="21" t="n"/>
       <c r="O129" s="24" t="n">
-        <v>-3</v>
+        <v>-5.7</v>
       </c>
       <c r="P129" s="24" t="n">
-        <v>10.5</v>
+        <v>7</v>
       </c>
       <c r="Q129" s="24" t="n">
-        <v>2.91</v>
+        <v>0.51</v>
       </c>
       <c r="R129" s="36" t="inlineStr">
         <is>
@@ -13040,13 +13046,13 @@
       </c>
       <c r="N130" s="21" t="n"/>
       <c r="O130" s="24" t="n">
-        <v>-8.5</v>
+        <v>-7.6</v>
       </c>
       <c r="P130" s="24" t="n">
-        <v>7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="Q130" s="24" t="n">
-        <v>-1.75</v>
+        <v>-0.66</v>
       </c>
       <c r="R130" s="36" t="inlineStr">
         <is>
@@ -13150,13 +13156,13 @@
       </c>
       <c r="N131" s="21" t="n"/>
       <c r="O131" s="24" t="n">
-        <v>8.5</v>
+        <v>-0.4</v>
       </c>
       <c r="P131" s="24" t="n">
-        <v>15.3</v>
+        <v>10.7</v>
       </c>
       <c r="Q131" s="24" t="n">
-        <v>11.11</v>
+        <v>4.71</v>
       </c>
       <c r="R131" s="36" t="inlineStr">
         <is>
@@ -13256,13 +13262,13 @@
       </c>
       <c r="N132" s="21" t="n"/>
       <c r="O132" s="24" t="n">
-        <v>2</v>
+        <v>5.4</v>
       </c>
       <c r="P132" s="24" t="n">
-        <v>16.6</v>
+        <v>13.4</v>
       </c>
       <c r="Q132" s="24" t="n">
-        <v>8.119999999999999</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="R132" s="36" t="inlineStr">
         <is>
@@ -13362,13 +13368,13 @@
       </c>
       <c r="N133" s="21" t="n"/>
       <c r="O133" s="24" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P133" s="24" t="n">
-        <v>14.9</v>
+        <v>14.3</v>
       </c>
       <c r="Q133" s="24" t="n">
-        <v>8.69</v>
+        <v>7.97</v>
       </c>
       <c r="R133" s="36" t="inlineStr">
         <is>
@@ -13472,13 +13478,13 @@
       </c>
       <c r="N134" s="21" t="n"/>
       <c r="O134" s="24" t="n">
-        <v>5.7</v>
+        <v>4</v>
       </c>
       <c r="P134" s="24" t="n">
-        <v>17.1</v>
+        <v>17.7</v>
       </c>
       <c r="Q134" s="24" t="n">
-        <v>10.75</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="R134" s="36" t="inlineStr">
         <is>
@@ -13574,13 +13580,13 @@
       </c>
       <c r="N135" s="21" t="n"/>
       <c r="O135" s="24" t="n">
-        <v>7.7</v>
+        <v>10</v>
       </c>
       <c r="P135" s="24" t="n">
         <v>20.6</v>
       </c>
       <c r="Q135" s="24" t="n">
-        <v>13.35</v>
+        <v>14.65</v>
       </c>
       <c r="R135" s="36" t="inlineStr">
         <is>
@@ -13680,13 +13686,13 @@
       </c>
       <c r="N136" s="21" t="n"/>
       <c r="O136" s="24" t="n">
-        <v>10.1</v>
+        <v>11.5</v>
       </c>
       <c r="P136" s="24" t="n">
-        <v>20.8</v>
+        <v>21.3</v>
       </c>
       <c r="Q136" s="24" t="n">
-        <v>14.87</v>
+        <v>15.85</v>
       </c>
       <c r="R136" s="36" t="inlineStr">
         <is>
@@ -13786,13 +13792,13 @@
       </c>
       <c r="N137" s="21" t="n"/>
       <c r="O137" s="24" t="n">
-        <v>8.5</v>
+        <v>4.9</v>
       </c>
       <c r="P137" s="24" t="n">
-        <v>17.6</v>
+        <v>19.5</v>
       </c>
       <c r="Q137" s="24" t="n">
-        <v>11.94</v>
+        <v>11.43</v>
       </c>
       <c r="R137" s="36" t="inlineStr">
         <is>
@@ -13892,10 +13898,10 @@
       </c>
       <c r="N138" s="21" t="n"/>
       <c r="O138" s="24" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P138" s="24" t="n">
-        <v>19</v>
+        <v>17.1</v>
       </c>
       <c r="Q138" s="24" t="n"/>
       <c r="R138" s="36" t="inlineStr">
@@ -13996,13 +14002,13 @@
       </c>
       <c r="N139" s="21" t="n"/>
       <c r="O139" s="24" t="n">
-        <v>7.6</v>
+        <v>6.3</v>
       </c>
       <c r="P139" s="24" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="Q139" s="24" t="n">
-        <v>11.71</v>
+        <v>11.19</v>
       </c>
       <c r="R139" s="36" t="inlineStr">
         <is>
@@ -14102,13 +14108,13 @@
       </c>
       <c r="N140" s="21" t="n"/>
       <c r="O140" s="24" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="P140" s="24" t="n">
-        <v>17.5</v>
+        <v>19.3</v>
       </c>
       <c r="Q140" s="24" t="n">
-        <v>13.69</v>
+        <v>14.29</v>
       </c>
       <c r="R140" s="36" t="inlineStr">
         <is>
@@ -14208,13 +14214,13 @@
       </c>
       <c r="N141" s="21" t="n"/>
       <c r="O141" s="24" t="n">
-        <v>10.5</v>
+        <v>10.9</v>
       </c>
       <c r="P141" s="24" t="n">
-        <v>20.2</v>
+        <v>21.5</v>
       </c>
       <c r="Q141" s="24" t="n">
-        <v>15.22</v>
+        <v>14.65</v>
       </c>
       <c r="R141" s="36" t="inlineStr">
         <is>
@@ -14310,13 +14316,13 @@
       </c>
       <c r="N142" s="21" t="n"/>
       <c r="O142" s="24" t="n">
-        <v>15.7</v>
+        <v>13</v>
       </c>
       <c r="P142" s="24" t="n">
-        <v>23.9</v>
+        <v>25.9</v>
       </c>
       <c r="Q142" s="24" t="n">
-        <v>18.38</v>
+        <v>18.01</v>
       </c>
       <c r="R142" s="36" t="inlineStr">
         <is>
@@ -14416,13 +14422,13 @@
       </c>
       <c r="N143" s="21" t="n"/>
       <c r="O143" s="24" t="n">
-        <v>13.4</v>
+        <v>18.1</v>
       </c>
       <c r="P143" s="24" t="n">
-        <v>24.8</v>
+        <v>28</v>
       </c>
       <c r="Q143" s="24" t="n">
-        <v>18.3</v>
+        <v>21.54</v>
       </c>
       <c r="R143" s="36" t="inlineStr">
         <is>
@@ -14522,13 +14528,13 @@
       </c>
       <c r="N144" s="21" t="n"/>
       <c r="O144" s="24" t="n">
-        <v>19.2</v>
+        <v>19.5</v>
       </c>
       <c r="P144" s="24" t="n">
-        <v>22</v>
+        <v>24.5</v>
       </c>
       <c r="Q144" s="24" t="n">
-        <v>20.69</v>
+        <v>21.46</v>
       </c>
       <c r="R144" s="36" t="inlineStr">
         <is>
@@ -14624,13 +14630,13 @@
       </c>
       <c r="N145" s="21" t="n"/>
       <c r="O145" s="24" t="n">
-        <v>18.8</v>
+        <v>20.3</v>
       </c>
       <c r="P145" s="24" t="n">
-        <v>24</v>
+        <v>24.4</v>
       </c>
       <c r="Q145" s="24" t="n">
-        <v>20.66</v>
+        <v>21.69</v>
       </c>
       <c r="R145" s="36" t="inlineStr">
         <is>
@@ -14722,13 +14728,13 @@
       </c>
       <c r="N146" s="21" t="n"/>
       <c r="O146" s="24" t="n">
-        <v>21.4</v>
+        <v>20.8</v>
       </c>
       <c r="P146" s="24" t="n">
-        <v>25.5</v>
+        <v>27.9</v>
       </c>
       <c r="Q146" s="24" t="n">
-        <v>22.77</v>
+        <v>23.18</v>
       </c>
       <c r="R146" s="36" t="inlineStr">
         <is>
@@ -14820,13 +14826,13 @@
       </c>
       <c r="N147" s="21" t="n"/>
       <c r="O147" s="24" t="n">
-        <v>14.6</v>
+        <v>17.8</v>
       </c>
       <c r="P147" s="24" t="n">
-        <v>24.6</v>
+        <v>23.6</v>
       </c>
       <c r="Q147" s="24" t="n">
-        <v>18.81</v>
+        <v>19.75</v>
       </c>
       <c r="R147" s="36" t="inlineStr">
         <is>
@@ -14926,10 +14932,10 @@
       </c>
       <c r="N148" s="21" t="n"/>
       <c r="O148" s="24" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="P148" s="24" t="n">
-        <v>24.9</v>
+        <v>25.6</v>
       </c>
       <c r="Q148" s="24" t="n"/>
       <c r="R148" s="36" t="inlineStr">
@@ -15026,13 +15032,13 @@
       </c>
       <c r="N149" s="21" t="n"/>
       <c r="O149" s="24" t="n">
-        <v>7</v>
+        <v>5.7</v>
       </c>
       <c r="P149" s="24" t="n">
-        <v>19.7</v>
+        <v>18.4</v>
       </c>
       <c r="Q149" s="24" t="n">
-        <v>11.85</v>
+        <v>11.29</v>
       </c>
       <c r="R149" s="36" t="inlineStr">
         <is>
@@ -15132,13 +15138,13 @@
       </c>
       <c r="N150" s="21" t="n"/>
       <c r="O150" s="24" t="n">
-        <v>8.300000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="P150" s="24" t="n">
-        <v>15.1</v>
+        <v>15.7</v>
       </c>
       <c r="Q150" s="24" t="n">
-        <v>11.26</v>
+        <v>10.3</v>
       </c>
       <c r="R150" s="36" t="inlineStr">
         <is>
@@ -15238,13 +15244,13 @@
       </c>
       <c r="N151" s="21" t="n"/>
       <c r="O151" s="24" t="n">
-        <v>12.6</v>
+        <v>10</v>
       </c>
       <c r="P151" s="24" t="n">
-        <v>16.3</v>
+        <v>14.6</v>
       </c>
       <c r="Q151" s="24" t="n">
-        <v>13.79</v>
+        <v>12.19</v>
       </c>
       <c r="R151" s="36" t="inlineStr">
         <is>
@@ -15428,13 +15434,13 @@
       </c>
       <c r="N153" s="21" t="n"/>
       <c r="O153" s="24" t="n">
-        <v>4.4</v>
+        <v>6.9</v>
       </c>
       <c r="P153" s="24" t="n">
-        <v>16.9</v>
+        <v>13.9</v>
       </c>
       <c r="Q153" s="24" t="n">
-        <v>10.62</v>
+        <v>10.49</v>
       </c>
       <c r="R153" s="36" t="inlineStr">
         <is>
@@ -15538,13 +15544,13 @@
       </c>
       <c r="N154" s="21" t="n"/>
       <c r="O154" s="24" t="n">
-        <v>-4.9</v>
+        <v>-6.7</v>
       </c>
       <c r="P154" s="24" t="n">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Q154" s="24" t="n">
-        <v>1.09</v>
+        <v>-0.2</v>
       </c>
       <c r="R154" s="36" t="inlineStr">
         <is>
@@ -15724,10 +15730,10 @@
       </c>
       <c r="N156" s="21" t="n"/>
       <c r="O156" s="24" t="n">
-        <v>-14.3</v>
+        <v>-15.3</v>
       </c>
       <c r="P156" s="24" t="n">
-        <v>5.2</v>
+        <v>-0.9</v>
       </c>
       <c r="Q156" s="24" t="n"/>
       <c r="R156" s="36" t="inlineStr">
@@ -15820,10 +15826,10 @@
       </c>
       <c r="N157" s="21" t="n"/>
       <c r="O157" s="24" t="n">
-        <v>10.4</v>
+        <v>11.8</v>
       </c>
       <c r="P157" s="24" t="n">
-        <v>18.7</v>
+        <v>17.7</v>
       </c>
       <c r="Q157" s="24" t="n"/>
       <c r="R157" s="36" t="inlineStr">
@@ -16176,10 +16182,10 @@
       </c>
       <c r="N161" s="21" t="n"/>
       <c r="O161" s="24" t="n">
-        <v>-5.1</v>
+        <v>-4.7</v>
       </c>
       <c r="P161" s="24" t="n">
-        <v>9.199999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="Q161" s="24" t="n"/>
       <c r="R161" s="36" t="inlineStr">
@@ -16279,12 +16285,8 @@
           <t>⚡</t>
         </is>
       </c>
-      <c r="O162" s="24" t="n">
-        <v>-38</v>
-      </c>
-      <c r="P162" s="24" t="n">
-        <v>-21.5</v>
-      </c>
+      <c r="O162" s="24" t="n"/>
+      <c r="P162" s="24" t="n"/>
       <c r="Q162" s="24" t="n"/>
       <c r="R162" s="36" t="inlineStr">
         <is>
@@ -16387,8 +16389,12 @@
           <t>▼</t>
         </is>
       </c>
-      <c r="O163" s="24" t="n"/>
-      <c r="P163" s="24" t="n"/>
+      <c r="O163" s="24" t="n">
+        <v>-40.5</v>
+      </c>
+      <c r="P163" s="24" t="n">
+        <v>-20.4</v>
+      </c>
       <c r="Q163" s="24" t="n"/>
       <c r="R163" s="36" t="inlineStr">
         <is>
@@ -16583,8 +16589,12 @@
           <t>⚡</t>
         </is>
       </c>
-      <c r="O165" s="24" t="n"/>
-      <c r="P165" s="24" t="n"/>
+      <c r="O165" s="24" t="n">
+        <v>-40.9</v>
+      </c>
+      <c r="P165" s="24" t="n">
+        <v>-26.3</v>
+      </c>
       <c r="Q165" s="24" t="n"/>
       <c r="R165" s="36" t="inlineStr">
         <is>
@@ -16683,8 +16693,12 @@
           <t>▼</t>
         </is>
       </c>
-      <c r="O166" s="24" t="n"/>
-      <c r="P166" s="24" t="n"/>
+      <c r="O166" s="24" t="n">
+        <v>-42.4</v>
+      </c>
+      <c r="P166" s="24" t="n">
+        <v>-27.9</v>
+      </c>
       <c r="Q166" s="24" t="n"/>
       <c r="R166" s="36" t="inlineStr">
         <is>
@@ -16876,10 +16890,10 @@
         </is>
       </c>
       <c r="O168" s="24" t="n">
-        <v>-8.5</v>
+        <v>-24.9</v>
       </c>
       <c r="P168" s="24" t="n">
-        <v>-4.8</v>
+        <v>-8.4</v>
       </c>
       <c r="Q168" s="24" t="n"/>
       <c r="R168" s="36" t="inlineStr">
@@ -16980,10 +16994,10 @@
         </is>
       </c>
       <c r="O169" s="24" t="n">
-        <v>-23.6</v>
+        <v>-32.5</v>
       </c>
       <c r="P169" s="24" t="n">
-        <v>-5.2</v>
+        <v>-7.4</v>
       </c>
       <c r="Q169" s="24" t="n"/>
       <c r="R169" s="36" t="inlineStr">
@@ -17368,10 +17382,10 @@
       </c>
       <c r="N173" s="21" t="n"/>
       <c r="O173" s="24" t="n">
-        <v>-18.2</v>
+        <v>-24.8</v>
       </c>
       <c r="P173" s="24" t="n">
-        <v>-3.8</v>
+        <v>-10.6</v>
       </c>
       <c r="Q173" s="24" t="n"/>
       <c r="R173" s="36" t="inlineStr">
@@ -17650,10 +17664,10 @@
       </c>
       <c r="N176" s="21" t="n"/>
       <c r="O176" s="24" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="P176" s="24" t="n">
-        <v>6.3</v>
+        <v>9.6</v>
       </c>
       <c r="Q176" s="24" t="n"/>
       <c r="R176" s="36" t="inlineStr">
@@ -17735,12 +17749,8 @@
         </is>
       </c>
       <c r="N177" s="21" t="n"/>
-      <c r="O177" s="24" t="n">
-        <v>-19.4</v>
-      </c>
-      <c r="P177" s="24" t="n">
-        <v>-13.8</v>
-      </c>
+      <c r="O177" s="24" t="n"/>
+      <c r="P177" s="24" t="n"/>
       <c r="Q177" s="24" t="n"/>
       <c r="R177" s="36" t="inlineStr">
         <is>
@@ -18438,10 +18448,10 @@
       </c>
       <c r="N185" s="21" t="n"/>
       <c r="O185" s="24" t="n">
-        <v>-34.6</v>
+        <v>-43.8</v>
       </c>
       <c r="P185" s="24" t="n">
-        <v>-18</v>
+        <v>-28.5</v>
       </c>
       <c r="Q185" s="24" t="n"/>
       <c r="R185" s="36" t="inlineStr">
@@ -18539,13 +18549,13 @@
       </c>
       <c r="N186" s="21" t="n"/>
       <c r="O186" s="24" t="n">
-        <v>-36.4</v>
+        <v>-33.2</v>
       </c>
       <c r="P186" s="24" t="n">
-        <v>-31.4</v>
+        <v>-30.3</v>
       </c>
       <c r="Q186" s="24" t="n">
-        <v>-33.41</v>
+        <v>-31.94</v>
       </c>
       <c r="R186" s="36" t="inlineStr">
         <is>
@@ -18638,13 +18648,13 @@
       </c>
       <c r="N187" s="21" t="n"/>
       <c r="O187" s="24" t="n">
-        <v>-40.4</v>
+        <v>-39.5</v>
       </c>
       <c r="P187" s="24" t="n">
-        <v>-34</v>
+        <v>-31.6</v>
       </c>
       <c r="Q187" s="24" t="n">
-        <v>-37.34</v>
+        <v>-34.22</v>
       </c>
       <c r="R187" s="36" t="inlineStr">
         <is>
@@ -18732,13 +18742,13 @@
       </c>
       <c r="N188" s="21" t="n"/>
       <c r="O188" s="24" t="n">
-        <v>-41.2</v>
+        <v>-40.2</v>
       </c>
       <c r="P188" s="24" t="n">
-        <v>-36.1</v>
+        <v>-23.4</v>
       </c>
       <c r="Q188" s="24" t="n">
-        <v>-37.89</v>
+        <v>-33.06</v>
       </c>
       <c r="R188" s="36" t="inlineStr">
         <is>
@@ -18826,13 +18836,13 @@
       </c>
       <c r="N189" s="21" t="n"/>
       <c r="O189" s="24" t="n">
-        <v>-36.2</v>
+        <v>-33</v>
       </c>
       <c r="P189" s="24" t="n">
-        <v>-28</v>
+        <v>-26.5</v>
       </c>
       <c r="Q189" s="24" t="n">
-        <v>-30.4</v>
+        <v>-29.5</v>
       </c>
       <c r="R189" s="36" t="inlineStr">
         <is>
@@ -18920,13 +18930,13 @@
       </c>
       <c r="N190" s="21" t="n"/>
       <c r="O190" s="24" t="n">
-        <v>-51.6</v>
+        <v>-52.1</v>
       </c>
       <c r="P190" s="24" t="n">
-        <v>-48.4</v>
+        <v>-45.2</v>
       </c>
       <c r="Q190" s="24" t="n">
-        <v>-50.1</v>
+        <v>-49.8</v>
       </c>
       <c r="R190" s="36" t="inlineStr">
         <is>
@@ -19014,13 +19024,13 @@
       </c>
       <c r="N191" s="21" t="n"/>
       <c r="O191" s="24" t="n">
-        <v>-35.6</v>
+        <v>-33.5</v>
       </c>
       <c r="P191" s="24" t="n">
-        <v>-31</v>
+        <v>-29.6</v>
       </c>
       <c r="Q191" s="24" t="n">
-        <v>-33.49</v>
+        <v>-30.91</v>
       </c>
       <c r="R191" s="36" t="inlineStr">
         <is>
@@ -19104,13 +19114,13 @@
       </c>
       <c r="N192" s="21" t="n"/>
       <c r="O192" s="24" t="n">
-        <v>-43.2</v>
+        <v>-39.7</v>
       </c>
       <c r="P192" s="24" t="n">
-        <v>-32.8</v>
+        <v>-32.6</v>
       </c>
       <c r="Q192" s="24" t="n">
-        <v>-36.8</v>
+        <v>-35.21</v>
       </c>
       <c r="R192" s="36" t="inlineStr">
         <is>
@@ -19199,13 +19209,13 @@
       </c>
       <c r="N193" s="21" t="n"/>
       <c r="O193" s="24" t="n">
-        <v>-40.9</v>
+        <v>-40</v>
       </c>
       <c r="P193" s="24" t="n">
-        <v>-33.4</v>
+        <v>-36.2</v>
       </c>
       <c r="Q193" s="24" t="n">
-        <v>-36.06</v>
+        <v>-38.24</v>
       </c>
       <c r="R193" s="36" t="inlineStr">
         <is>
@@ -19297,10 +19307,10 @@
       </c>
       <c r="N194" s="21" t="n"/>
       <c r="O194" s="24" t="n">
-        <v>-49</v>
+        <v>-45.1</v>
       </c>
       <c r="P194" s="24" t="n">
-        <v>-40</v>
+        <v>-40.6</v>
       </c>
       <c r="Q194" s="24" t="n"/>
       <c r="R194" s="36" t="inlineStr">
@@ -19389,13 +19399,13 @@
       </c>
       <c r="N195" s="21" t="n"/>
       <c r="O195" s="24" t="n">
-        <v>-23.8</v>
+        <v>-17</v>
       </c>
       <c r="P195" s="24" t="n">
-        <v>-8.199999999999999</v>
+        <v>-4.7</v>
       </c>
       <c r="Q195" s="24" t="n">
-        <v>-16.78</v>
+        <v>-8.31</v>
       </c>
       <c r="R195" s="36" t="inlineStr">
         <is>
@@ -19487,12 +19497,14 @@
       </c>
       <c r="N196" s="21" t="n"/>
       <c r="O196" s="24" t="n">
-        <v>-29.4</v>
+        <v>-37.3</v>
       </c>
       <c r="P196" s="24" t="n">
-        <v>-19</v>
-      </c>
-      <c r="Q196" s="24" t="n"/>
+        <v>-19.3</v>
+      </c>
+      <c r="Q196" s="24" t="n">
+        <v>-25.32</v>
+      </c>
       <c r="R196" s="36" t="inlineStr">
         <is>
           <t>Y</t>
@@ -19583,13 +19595,13 @@
         </is>
       </c>
       <c r="O197" s="24" t="n">
-        <v>-35.1</v>
+        <v>-41.1</v>
       </c>
       <c r="P197" s="24" t="n">
-        <v>-28</v>
+        <v>-34.8</v>
       </c>
       <c r="Q197" s="24" t="n">
-        <v>-30.78</v>
+        <v>-37.52</v>
       </c>
       <c r="R197" s="36" t="inlineStr">
         <is>
@@ -19844,8 +19856,12 @@
         </is>
       </c>
       <c r="N200" s="21" t="n"/>
-      <c r="O200" s="24" t="n"/>
-      <c r="P200" s="24" t="n"/>
+      <c r="O200" s="24" t="n">
+        <v>-41.1</v>
+      </c>
+      <c r="P200" s="24" t="n">
+        <v>-23.3</v>
+      </c>
       <c r="Q200" s="24" t="n"/>
       <c r="R200" s="36" t="inlineStr">
         <is>
@@ -19936,12 +19952,8 @@
         </is>
       </c>
       <c r="N201" s="21" t="n"/>
-      <c r="O201" s="24" t="n">
-        <v>-40.8</v>
-      </c>
-      <c r="P201" s="24" t="n">
-        <v>-20.9</v>
-      </c>
+      <c r="O201" s="24" t="n"/>
+      <c r="P201" s="24" t="n"/>
       <c r="Q201" s="24" t="n"/>
       <c r="R201" s="36" t="inlineStr">
         <is>
@@ -20130,7 +20142,7 @@
         <v>-43.5</v>
       </c>
       <c r="P203" s="24" t="n">
-        <v>-31.8</v>
+        <v>-32.7</v>
       </c>
       <c r="Q203" s="24" t="n"/>
       <c r="R203" s="36" t="inlineStr">
@@ -20907,10 +20919,10 @@
       </c>
       <c r="N212" s="21" t="n"/>
       <c r="O212" s="24" t="n">
-        <v>-40.5</v>
+        <v>-39</v>
       </c>
       <c r="P212" s="24" t="n">
-        <v>-29.3</v>
+        <v>-29</v>
       </c>
       <c r="Q212" s="24" t="n"/>
       <c r="R212" s="36" t="inlineStr">
@@ -20991,13 +21003,13 @@
       </c>
       <c r="N213" s="21" t="n"/>
       <c r="O213" s="24" t="n">
-        <v>-23</v>
+        <v>-19.6</v>
       </c>
       <c r="P213" s="24" t="n">
-        <v>-15.8</v>
+        <v>-10.3</v>
       </c>
       <c r="Q213" s="24" t="n">
-        <v>-20.12</v>
+        <v>-16.4</v>
       </c>
       <c r="R213" s="36" t="inlineStr">
         <is>
@@ -21093,13 +21105,13 @@
       </c>
       <c r="N214" s="21" t="n"/>
       <c r="O214" s="24" t="n">
-        <v>-30.8</v>
+        <v>-27.1</v>
       </c>
       <c r="P214" s="24" t="n">
-        <v>-20.6</v>
+        <v>-20.5</v>
       </c>
       <c r="Q214" s="24" t="n">
-        <v>-26.3</v>
+        <v>-24.66</v>
       </c>
       <c r="R214" s="36" t="inlineStr">
         <is>
@@ -21199,13 +21211,13 @@
       </c>
       <c r="N215" s="21" t="n"/>
       <c r="O215" s="24" t="n">
-        <v>-28.4</v>
+        <v>-31.6</v>
       </c>
       <c r="P215" s="24" t="n">
-        <v>-19.6</v>
+        <v>-23.1</v>
       </c>
       <c r="Q215" s="24" t="n">
-        <v>-24.99</v>
+        <v>-27.41</v>
       </c>
       <c r="R215" s="36" t="inlineStr">
         <is>
@@ -21305,13 +21317,13 @@
       </c>
       <c r="N216" s="21" t="n"/>
       <c r="O216" s="24" t="n">
-        <v>-30.1</v>
+        <v>-33.3</v>
       </c>
       <c r="P216" s="24" t="n">
-        <v>-18.4</v>
+        <v>-14.9</v>
       </c>
       <c r="Q216" s="24" t="n">
-        <v>-25.07</v>
+        <v>-25.8</v>
       </c>
       <c r="R216" s="36" t="inlineStr">
         <is>
@@ -21407,13 +21419,13 @@
       </c>
       <c r="N217" s="21" t="n"/>
       <c r="O217" s="24" t="n">
-        <v>-27.6</v>
+        <v>-23.7</v>
       </c>
       <c r="P217" s="24" t="n">
-        <v>-20.2</v>
+        <v>-13.4</v>
       </c>
       <c r="Q217" s="24" t="n">
-        <v>-24.6</v>
+        <v>-17.39</v>
       </c>
       <c r="R217" s="36" t="inlineStr">
         <is>
@@ -21509,13 +21521,13 @@
       </c>
       <c r="N218" s="21" t="n"/>
       <c r="O218" s="24" t="n">
-        <v>-33.8</v>
+        <v>-30.5</v>
       </c>
       <c r="P218" s="24" t="n">
-        <v>-26.3</v>
+        <v>-11</v>
       </c>
       <c r="Q218" s="24" t="n">
-        <v>-31.11</v>
+        <v>-18.97</v>
       </c>
       <c r="R218" s="36" t="inlineStr">
         <is>
@@ -21611,13 +21623,13 @@
       </c>
       <c r="N219" s="21" t="n"/>
       <c r="O219" s="24" t="n">
-        <v>-8.9</v>
+        <v>-11.7</v>
       </c>
       <c r="P219" s="24" t="n">
-        <v>-1.7</v>
+        <v>-1.1</v>
       </c>
       <c r="Q219" s="24" t="n">
-        <v>-5.78</v>
+        <v>-8.65</v>
       </c>
       <c r="R219" s="36" t="inlineStr">
         <is>
@@ -21704,12 +21716,8 @@
         </is>
       </c>
       <c r="N220" s="21" t="n"/>
-      <c r="O220" s="24" t="n">
-        <v>-40.5</v>
-      </c>
-      <c r="P220" s="24" t="n">
-        <v>-20.2</v>
-      </c>
+      <c r="O220" s="24" t="n"/>
+      <c r="P220" s="24" t="n"/>
       <c r="Q220" s="24" t="n"/>
       <c r="R220" s="36" t="inlineStr">
         <is>
@@ -22076,12 +22084,8 @@
         </is>
       </c>
       <c r="N224" s="21" t="n"/>
-      <c r="O224" s="24" t="n">
-        <v>-40.3</v>
-      </c>
-      <c r="P224" s="24" t="n">
-        <v>-20.4</v>
-      </c>
+      <c r="O224" s="24" t="n"/>
+      <c r="P224" s="24" t="n"/>
       <c r="Q224" s="24" t="n"/>
       <c r="R224" s="36" t="inlineStr">
         <is>
@@ -22526,12 +22530,8 @@
         </is>
       </c>
       <c r="N229" s="21" t="n"/>
-      <c r="O229" s="24" t="n">
-        <v>-38.7</v>
-      </c>
-      <c r="P229" s="24" t="n">
-        <v>-18.8</v>
-      </c>
+      <c r="O229" s="24" t="n"/>
+      <c r="P229" s="24" t="n"/>
       <c r="Q229" s="24" t="n"/>
       <c r="R229" s="36" t="inlineStr">
         <is>
@@ -22620,12 +22620,8 @@
         </is>
       </c>
       <c r="N230" s="21" t="n"/>
-      <c r="O230" s="24" t="n">
-        <v>-32.7</v>
-      </c>
-      <c r="P230" s="24" t="n">
-        <v>-17.8</v>
-      </c>
+      <c r="O230" s="24" t="n"/>
+      <c r="P230" s="24" t="n"/>
       <c r="Q230" s="24" t="n"/>
       <c r="R230" s="36" t="inlineStr">
         <is>
@@ -22716,12 +22712,8 @@
         </is>
       </c>
       <c r="N231" s="21" t="n"/>
-      <c r="O231" s="24" t="n">
-        <v>-37.1</v>
-      </c>
-      <c r="P231" s="24" t="n">
-        <v>-25.1</v>
-      </c>
+      <c r="O231" s="24" t="n"/>
+      <c r="P231" s="24" t="n"/>
       <c r="Q231" s="24" t="n"/>
       <c r="R231" s="36" t="inlineStr">
         <is>

--- a/气象/For_Python_站点信息和记录.xlsx
+++ b/气象/For_Python_站点信息和记录.xlsx
@@ -821,8 +821,8 @@
     <col width="12.59765625" customWidth="1" style="6" min="19" max="19"/>
     <col width="12.59765625" customWidth="1" style="10" min="20" max="22"/>
     <col width="18.59765625" customWidth="1" style="10" min="23" max="23"/>
-    <col width="12.59765625" customWidth="1" style="6" min="24" max="78"/>
-    <col width="12.59765625" customWidth="1" style="6" min="79" max="16384"/>
+    <col width="12.59765625" customWidth="1" style="6" min="24" max="84"/>
+    <col width="12.59765625" customWidth="1" style="6" min="85" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.75" customFormat="1" customHeight="1" s="14">
@@ -1037,13 +1037,13 @@
         </is>
       </c>
       <c r="O2" s="24" t="n">
-        <v>-29.7</v>
+        <v>-27.9</v>
       </c>
       <c r="P2" s="24" t="n">
-        <v>-24.6</v>
+        <v>-18.6</v>
       </c>
       <c r="Q2" s="24" t="n">
-        <v>-27.36</v>
+        <v>-22.91</v>
       </c>
       <c r="R2" s="36" t="inlineStr">
         <is>
@@ -1137,10 +1137,10 @@
         </is>
       </c>
       <c r="O3" s="24" t="n">
-        <v>-34.1</v>
+        <v>-29.9</v>
       </c>
       <c r="P3" s="24" t="n">
-        <v>-23.9</v>
+        <v>-21.1</v>
       </c>
       <c r="Q3" s="24" t="n"/>
       <c r="R3" s="36" t="inlineStr">
@@ -1235,10 +1235,10 @@
         </is>
       </c>
       <c r="O4" s="24" t="n">
-        <v>-30.7</v>
+        <v>-26.5</v>
       </c>
       <c r="P4" s="24" t="n">
-        <v>-22.6</v>
+        <v>-17.3</v>
       </c>
       <c r="Q4" s="24" t="n"/>
       <c r="R4" s="36" t="inlineStr">
@@ -1325,10 +1325,10 @@
       </c>
       <c r="N5" s="21" t="n"/>
       <c r="O5" s="24" t="n">
-        <v>-36.9</v>
+        <v>-26.4</v>
       </c>
       <c r="P5" s="24" t="n">
-        <v>-25.1</v>
+        <v>-14.8</v>
       </c>
       <c r="Q5" s="24" t="n"/>
       <c r="R5" s="36" t="inlineStr">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="O6" s="24" t="n">
-        <v>-38.1</v>
+        <v>-32.1</v>
       </c>
       <c r="P6" s="24" t="n">
-        <v>-28</v>
+        <v>-19.7</v>
       </c>
       <c r="Q6" s="24" t="n">
-        <v>-34.15</v>
+        <v>-27.25</v>
       </c>
       <c r="R6" s="36" t="inlineStr">
         <is>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="O7" s="24" t="n">
-        <v>-35.1</v>
+        <v>-28.6</v>
       </c>
       <c r="P7" s="24" t="n">
-        <v>-27.2</v>
+        <v>-22.8</v>
       </c>
       <c r="Q7" s="24" t="n"/>
       <c r="R7" s="36" t="inlineStr">
@@ -1629,13 +1629,13 @@
       </c>
       <c r="N8" s="21" t="n"/>
       <c r="O8" s="24" t="n">
-        <v>-33</v>
+        <v>-28.1</v>
       </c>
       <c r="P8" s="24" t="n">
-        <v>-22.9</v>
+        <v>-16.7</v>
       </c>
       <c r="Q8" s="24" t="n">
-        <v>-28.81</v>
+        <v>-23.56</v>
       </c>
       <c r="R8" s="36" t="inlineStr">
         <is>
@@ -1731,13 +1731,13 @@
       </c>
       <c r="N9" s="21" t="n"/>
       <c r="O9" s="24" t="n">
-        <v>-29.1</v>
+        <v>-26.8</v>
       </c>
       <c r="P9" s="24" t="n">
-        <v>-18.9</v>
+        <v>-16.7</v>
       </c>
       <c r="Q9" s="24" t="n">
-        <v>-25.24</v>
+        <v>-23.26</v>
       </c>
       <c r="R9" s="36" t="inlineStr">
         <is>
@@ -1837,13 +1837,13 @@
       </c>
       <c r="N10" s="20" t="n"/>
       <c r="O10" s="24" t="n">
-        <v>-36.8</v>
+        <v>-21.8</v>
       </c>
       <c r="P10" s="24" t="n">
-        <v>-24</v>
+        <v>-14.7</v>
       </c>
       <c r="Q10" s="24" t="n">
-        <v>-30.45</v>
+        <v>-18.14</v>
       </c>
       <c r="R10" s="36" t="inlineStr">
         <is>
@@ -1943,13 +1943,13 @@
         </is>
       </c>
       <c r="O11" s="24" t="n">
-        <v>-33.6</v>
+        <v>-23.1</v>
       </c>
       <c r="P11" s="24" t="n">
-        <v>-18.6</v>
+        <v>-12.3</v>
       </c>
       <c r="Q11" s="24" t="n">
-        <v>-27.28</v>
+        <v>-17.68</v>
       </c>
       <c r="R11" s="36" t="inlineStr">
         <is>
@@ -2049,13 +2049,13 @@
       </c>
       <c r="N12" s="21" t="n"/>
       <c r="O12" s="24" t="n">
-        <v>-36.6</v>
+        <v>-20.7</v>
       </c>
       <c r="P12" s="24" t="n">
-        <v>-25</v>
+        <v>-14.8</v>
       </c>
       <c r="Q12" s="24" t="n">
-        <v>-32.74</v>
+        <v>-17.05</v>
       </c>
       <c r="R12" s="36" t="inlineStr">
         <is>
@@ -2159,13 +2159,13 @@
         </is>
       </c>
       <c r="O13" s="24" t="n">
-        <v>-36.8</v>
+        <v>-29.7</v>
       </c>
       <c r="P13" s="24" t="n">
-        <v>-26.8</v>
+        <v>-22.7</v>
       </c>
       <c r="Q13" s="24" t="n">
-        <v>-33.92</v>
+        <v>-27.22</v>
       </c>
       <c r="R13" s="36" t="inlineStr">
         <is>
@@ -2261,13 +2261,13 @@
       </c>
       <c r="N14" s="21" t="n"/>
       <c r="O14" s="24" t="n">
-        <v>-25.4</v>
+        <v>-20.4</v>
       </c>
       <c r="P14" s="24" t="n">
-        <v>-17.4</v>
+        <v>-11.2</v>
       </c>
       <c r="Q14" s="24" t="n">
-        <v>-21.96</v>
+        <v>-16.12</v>
       </c>
       <c r="R14" s="36" t="inlineStr">
         <is>
@@ -2615,13 +2615,13 @@
       </c>
       <c r="N18" s="21" t="n"/>
       <c r="O18" s="24" t="n">
-        <v>-35.7</v>
+        <v>-30.2</v>
       </c>
       <c r="P18" s="24" t="n">
-        <v>-24.3</v>
+        <v>-21</v>
       </c>
       <c r="Q18" s="24" t="n">
-        <v>-31.4</v>
+        <v>-26.75</v>
       </c>
       <c r="R18" s="36" t="n"/>
       <c r="S18" s="2" t="inlineStr">
@@ -7231,13 +7231,13 @@
       </c>
       <c r="N75" s="21" t="n"/>
       <c r="O75" s="24" t="n">
-        <v>-27.6</v>
+        <v>-22.9</v>
       </c>
       <c r="P75" s="24" t="n">
-        <v>-14.4</v>
+        <v>-13.9</v>
       </c>
       <c r="Q75" s="24" t="n">
-        <v>-23.3</v>
+        <v>-18.21</v>
       </c>
       <c r="R75" s="36" t="inlineStr">
         <is>
@@ -7337,13 +7337,13 @@
       </c>
       <c r="N76" s="21" t="n"/>
       <c r="O76" s="24" t="n">
-        <v>-35.4</v>
+        <v>-30</v>
       </c>
       <c r="P76" s="24" t="n">
-        <v>-27.2</v>
+        <v>-23.5</v>
       </c>
       <c r="Q76" s="24" t="n">
-        <v>-31.75</v>
+        <v>-26.86</v>
       </c>
       <c r="R76" s="36" t="inlineStr">
         <is>
@@ -7447,13 +7447,13 @@
         </is>
       </c>
       <c r="O77" s="24" t="n">
-        <v>-41.3</v>
+        <v>-32.6</v>
       </c>
       <c r="P77" s="24" t="n">
-        <v>-26.1</v>
+        <v>-18.8</v>
       </c>
       <c r="Q77" s="24" t="n">
-        <v>-35.78</v>
+        <v>-27.29</v>
       </c>
       <c r="R77" s="36" t="inlineStr">
         <is>
@@ -7549,13 +7549,13 @@
       </c>
       <c r="N78" s="21" t="n"/>
       <c r="O78" s="24" t="n">
-        <v>-38.2</v>
+        <v>-31.6</v>
       </c>
       <c r="P78" s="24" t="n">
-        <v>-28.9</v>
+        <v>-24.8</v>
       </c>
       <c r="Q78" s="24" t="n">
-        <v>-33.99</v>
+        <v>-28.57</v>
       </c>
       <c r="R78" s="36" t="inlineStr">
         <is>
@@ -7655,13 +7655,13 @@
         </is>
       </c>
       <c r="O79" s="24" t="n">
-        <v>-39.5</v>
+        <v>-34.2</v>
       </c>
       <c r="P79" s="24" t="n">
-        <v>-24.2</v>
+        <v>-18.7</v>
       </c>
       <c r="Q79" s="24" t="n">
-        <v>-33.81</v>
+        <v>-26.04</v>
       </c>
       <c r="R79" s="36" t="inlineStr">
         <is>
@@ -7757,13 +7757,13 @@
       </c>
       <c r="N80" s="21" t="n"/>
       <c r="O80" s="24" t="n">
-        <v>-30</v>
+        <v>-30.9</v>
       </c>
       <c r="P80" s="24" t="n">
-        <v>-20.5</v>
+        <v>-21.4</v>
       </c>
       <c r="Q80" s="24" t="n">
-        <v>-25.86</v>
+        <v>-27.19</v>
       </c>
       <c r="R80" s="36" t="inlineStr">
         <is>
@@ -7867,13 +7867,13 @@
         </is>
       </c>
       <c r="O81" s="24" t="n">
-        <v>-35</v>
+        <v>-44.3</v>
       </c>
       <c r="P81" s="24" t="n">
-        <v>-22.9</v>
+        <v>-29</v>
       </c>
       <c r="Q81" s="24" t="n">
-        <v>-26.74</v>
+        <v>-37.06</v>
       </c>
       <c r="R81" s="36" t="inlineStr">
         <is>
@@ -7982,13 +7982,13 @@
         </is>
       </c>
       <c r="O82" s="24" t="n">
-        <v>-29.8</v>
+        <v>-41.6</v>
       </c>
       <c r="P82" s="24" t="n">
-        <v>-15</v>
+        <v>-24.1</v>
       </c>
       <c r="Q82" s="24" t="n">
-        <v>-21.9</v>
+        <v>-35.66</v>
       </c>
       <c r="R82" s="36" t="inlineStr">
         <is>
@@ -8084,13 +8084,13 @@
       </c>
       <c r="N83" s="21" t="n"/>
       <c r="O83" s="24" t="n">
-        <v>-15.9</v>
+        <v>-27.6</v>
       </c>
       <c r="P83" s="24" t="n">
-        <v>-5.3</v>
+        <v>-18.2</v>
       </c>
       <c r="Q83" s="24" t="n">
-        <v>-8.44</v>
+        <v>-23.51</v>
       </c>
       <c r="R83" s="36" t="inlineStr">
         <is>
@@ -8190,13 +8190,13 @@
         </is>
       </c>
       <c r="O84" s="24" t="n">
-        <v>-24.8</v>
+        <v>-22.1</v>
       </c>
       <c r="P84" s="24" t="n">
-        <v>-18.9</v>
+        <v>-15.7</v>
       </c>
       <c r="Q84" s="24" t="n">
-        <v>-22.2</v>
+        <v>-20.21</v>
       </c>
       <c r="R84" s="36" t="inlineStr">
         <is>
@@ -8296,13 +8296,13 @@
         </is>
       </c>
       <c r="O85" s="24" t="n">
-        <v>-31.8</v>
+        <v>-21.9</v>
       </c>
       <c r="P85" s="24" t="n">
-        <v>-22.2</v>
+        <v>-13.3</v>
       </c>
       <c r="Q85" s="24" t="n">
-        <v>-27.01</v>
+        <v>-17.3</v>
       </c>
       <c r="R85" s="36" t="inlineStr">
         <is>
@@ -8398,13 +8398,13 @@
       </c>
       <c r="N86" s="21" t="n"/>
       <c r="O86" s="24" t="n">
-        <v>-28.3</v>
+        <v>-20.8</v>
       </c>
       <c r="P86" s="24" t="n">
-        <v>-22.1</v>
+        <v>-13.9</v>
       </c>
       <c r="Q86" s="24" t="n">
-        <v>-26.02</v>
+        <v>-17.89</v>
       </c>
       <c r="R86" s="36" t="inlineStr">
         <is>
@@ -8512,13 +8512,13 @@
         </is>
       </c>
       <c r="O87" s="24" t="n">
-        <v>-31.5</v>
+        <v>-24.5</v>
       </c>
       <c r="P87" s="24" t="n">
-        <v>-20.3</v>
+        <v>-17.1</v>
       </c>
       <c r="Q87" s="24" t="n">
-        <v>-27.19</v>
+        <v>-20.96</v>
       </c>
       <c r="R87" s="36" t="inlineStr">
         <is>
@@ -8614,13 +8614,13 @@
       </c>
       <c r="N88" s="21" t="n"/>
       <c r="O88" s="24" t="n">
-        <v>-34</v>
+        <v>-26.6</v>
       </c>
       <c r="P88" s="24" t="n">
-        <v>-22</v>
+        <v>-16.1</v>
       </c>
       <c r="Q88" s="24" t="n">
-        <v>-27.96</v>
+        <v>-21.86</v>
       </c>
       <c r="R88" s="36" t="inlineStr">
         <is>
@@ -8716,14 +8716,12 @@
       </c>
       <c r="N89" s="21" t="n"/>
       <c r="O89" s="24" t="n">
-        <v>-33.4</v>
+        <v>-36.9</v>
       </c>
       <c r="P89" s="24" t="n">
-        <v>-18.7</v>
-      </c>
-      <c r="Q89" s="24" t="n">
-        <v>-28.76</v>
-      </c>
+        <v>-22</v>
+      </c>
+      <c r="Q89" s="24" t="n"/>
       <c r="R89" s="36" t="inlineStr">
         <is>
           <t>Y</t>
@@ -8818,13 +8816,13 @@
         </is>
       </c>
       <c r="O90" s="24" t="n">
-        <v>-21.8</v>
+        <v>-4.7</v>
       </c>
       <c r="P90" s="24" t="n">
-        <v>-5.6</v>
+        <v>-2.9</v>
       </c>
       <c r="Q90" s="24" t="n">
-        <v>-11.89</v>
+        <v>-4.19</v>
       </c>
       <c r="R90" s="36" t="inlineStr">
         <is>
@@ -8916,13 +8914,13 @@
       </c>
       <c r="N91" s="21" t="n"/>
       <c r="O91" s="24" t="n">
-        <v>-20.1</v>
+        <v>-8.5</v>
       </c>
       <c r="P91" s="24" t="n">
-        <v>-8</v>
+        <v>-2.6</v>
       </c>
       <c r="Q91" s="24" t="n">
-        <v>-12.88</v>
+        <v>-5.54</v>
       </c>
       <c r="R91" s="36" t="inlineStr">
         <is>
@@ -9014,13 +9012,13 @@
       </c>
       <c r="N92" s="21" t="n"/>
       <c r="O92" s="24" t="n">
-        <v>-17.9</v>
+        <v>-19.6</v>
       </c>
       <c r="P92" s="24" t="n">
-        <v>-7.9</v>
+        <v>-7</v>
       </c>
       <c r="Q92" s="24" t="n">
-        <v>-13.23</v>
+        <v>-13.25</v>
       </c>
       <c r="R92" s="36" t="inlineStr">
         <is>
@@ -9116,13 +9114,13 @@
       </c>
       <c r="N93" s="21" t="n"/>
       <c r="O93" s="24" t="n">
-        <v>-10.7</v>
+        <v>-13.7</v>
       </c>
       <c r="P93" s="24" t="n">
-        <v>-4.9</v>
+        <v>3.9</v>
       </c>
       <c r="Q93" s="24" t="n">
-        <v>-7.26</v>
+        <v>-5.64</v>
       </c>
       <c r="R93" s="36" t="inlineStr">
         <is>
@@ -9226,10 +9224,10 @@
         </is>
       </c>
       <c r="O94" s="24" t="n">
-        <v>-16.7</v>
+        <v>-19.1</v>
       </c>
       <c r="P94" s="24" t="n">
-        <v>-5.7</v>
+        <v>1.2</v>
       </c>
       <c r="Q94" s="24" t="n"/>
       <c r="R94" s="36" t="inlineStr">
@@ -9334,13 +9332,13 @@
       </c>
       <c r="N95" s="21" t="n"/>
       <c r="O95" s="24" t="n">
-        <v>-15.5</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="P95" s="24" t="n">
-        <v>-6.5</v>
+        <v>-1.5</v>
       </c>
       <c r="Q95" s="24" t="n">
-        <v>-10.78</v>
+        <v>-5.79</v>
       </c>
       <c r="R95" s="36" t="inlineStr">
         <is>
@@ -9452,10 +9450,10 @@
         </is>
       </c>
       <c r="O96" s="24" t="n">
-        <v>-17.5</v>
+        <v>-21</v>
       </c>
       <c r="P96" s="24" t="n">
-        <v>-6.8</v>
+        <v>-3.3</v>
       </c>
       <c r="Q96" s="24" t="n"/>
       <c r="R96" s="36" t="inlineStr">
@@ -9560,13 +9558,13 @@
       </c>
       <c r="N97" s="21" t="n"/>
       <c r="O97" s="24" t="n">
-        <v>-16.1</v>
+        <v>-12.6</v>
       </c>
       <c r="P97" s="24" t="n">
-        <v>-7</v>
+        <v>-4.7</v>
       </c>
       <c r="Q97" s="24" t="n">
-        <v>-12.05</v>
+        <v>-9.08</v>
       </c>
       <c r="R97" s="36" t="inlineStr">
         <is>
@@ -9666,10 +9664,10 @@
       </c>
       <c r="N98" s="21" t="n"/>
       <c r="O98" s="24" t="n">
-        <v>-29</v>
+        <v>-22.9</v>
       </c>
       <c r="P98" s="24" t="n">
-        <v>-17.8</v>
+        <v>-13.6</v>
       </c>
       <c r="Q98" s="24" t="n"/>
       <c r="R98" s="36" t="inlineStr">
@@ -9774,13 +9772,13 @@
       </c>
       <c r="N99" s="21" t="n"/>
       <c r="O99" s="24" t="n">
-        <v>-33.1</v>
+        <v>-31.6</v>
       </c>
       <c r="P99" s="24" t="n">
-        <v>-24.7</v>
+        <v>-22.6</v>
       </c>
       <c r="Q99" s="24" t="n">
-        <v>-30.23</v>
+        <v>-26.15</v>
       </c>
       <c r="R99" s="36" t="inlineStr">
         <is>
@@ -9875,12 +9873,8 @@
         </is>
       </c>
       <c r="N100" s="21" t="n"/>
-      <c r="O100" s="24" t="n">
-        <v>-30</v>
-      </c>
-      <c r="P100" s="24" t="n">
-        <v>-19</v>
-      </c>
+      <c r="O100" s="24" t="n"/>
+      <c r="P100" s="24" t="n"/>
       <c r="Q100" s="24" t="n"/>
       <c r="R100" s="36" t="inlineStr">
         <is>
@@ -9976,10 +9970,10 @@
       </c>
       <c r="N101" s="21" t="n"/>
       <c r="O101" s="24" t="n">
-        <v>-32.1</v>
+        <v>-37.7</v>
       </c>
       <c r="P101" s="24" t="n">
-        <v>-19.7</v>
+        <v>-22.6</v>
       </c>
       <c r="Q101" s="24" t="n"/>
       <c r="R101" s="36" t="inlineStr">
@@ -10088,13 +10082,13 @@
       </c>
       <c r="N102" s="21" t="n"/>
       <c r="O102" s="24" t="n">
-        <v>-32.6</v>
+        <v>-39.7</v>
       </c>
       <c r="P102" s="24" t="n">
-        <v>-20.5</v>
+        <v>-26</v>
       </c>
       <c r="Q102" s="24" t="n">
-        <v>-28.95</v>
+        <v>-34.81</v>
       </c>
       <c r="R102" s="36" t="inlineStr">
         <is>
@@ -10194,10 +10188,10 @@
       </c>
       <c r="N103" s="21" t="n"/>
       <c r="O103" s="24" t="n">
-        <v>-36.2</v>
+        <v>-39.9</v>
       </c>
       <c r="P103" s="24" t="n">
-        <v>-25.5</v>
+        <v>-26.4</v>
       </c>
       <c r="Q103" s="24" t="n"/>
       <c r="R103" s="36" t="inlineStr">
@@ -10294,10 +10288,10 @@
       </c>
       <c r="N104" s="21" t="n"/>
       <c r="O104" s="24" t="n">
-        <v>-32.9</v>
+        <v>-36</v>
       </c>
       <c r="P104" s="24" t="n">
-        <v>-19.2</v>
+        <v>-19.8</v>
       </c>
       <c r="Q104" s="24" t="n"/>
       <c r="R104" s="36" t="inlineStr">
@@ -10410,13 +10404,13 @@
         </is>
       </c>
       <c r="O105" s="24" t="n">
-        <v>-34.6</v>
+        <v>-37.6</v>
       </c>
       <c r="P105" s="24" t="n">
-        <v>-19.9</v>
+        <v>-19.3</v>
       </c>
       <c r="Q105" s="24" t="n">
-        <v>-29.3</v>
+        <v>-31.21</v>
       </c>
       <c r="R105" s="36" t="inlineStr">
         <is>
@@ -10520,10 +10514,10 @@
         </is>
       </c>
       <c r="O106" s="24" t="n">
-        <v>-29.3</v>
+        <v>-31.5</v>
       </c>
       <c r="P106" s="24" t="n">
-        <v>-19.9</v>
+        <v>-23.1</v>
       </c>
       <c r="Q106" s="24" t="n"/>
       <c r="R106" s="36" t="inlineStr">
@@ -10720,13 +10714,13 @@
       </c>
       <c r="N108" s="21" t="n"/>
       <c r="O108" s="24" t="n">
-        <v>-24.8</v>
+        <v>-27.4</v>
       </c>
       <c r="P108" s="24" t="n">
-        <v>-16.6</v>
+        <v>-18.9</v>
       </c>
       <c r="Q108" s="24" t="n">
-        <v>-21.68</v>
+        <v>-23.75</v>
       </c>
       <c r="R108" s="36" t="inlineStr">
         <is>
@@ -10913,12 +10907,8 @@
         </is>
       </c>
       <c r="N110" s="21" t="n"/>
-      <c r="O110" s="24" t="n">
-        <v>-30.4</v>
-      </c>
-      <c r="P110" s="24" t="n">
-        <v>-19.6</v>
-      </c>
+      <c r="O110" s="24" t="n"/>
+      <c r="P110" s="24" t="n"/>
       <c r="Q110" s="24" t="n"/>
       <c r="R110" s="36" t="inlineStr">
         <is>
@@ -11022,13 +11012,13 @@
       </c>
       <c r="N111" s="21" t="n"/>
       <c r="O111" s="24" t="n">
-        <v>-29.8</v>
+        <v>-24</v>
       </c>
       <c r="P111" s="24" t="n">
-        <v>-14.9</v>
+        <v>-12.3</v>
       </c>
       <c r="Q111" s="24" t="n">
-        <v>-24.27</v>
+        <v>-20.16</v>
       </c>
       <c r="R111" s="36" t="inlineStr">
         <is>
@@ -11124,10 +11114,10 @@
       </c>
       <c r="N112" s="21" t="n"/>
       <c r="O112" s="24" t="n">
-        <v>-16.4</v>
+        <v>-17.9</v>
       </c>
       <c r="P112" s="24" t="n">
-        <v>-10.6</v>
+        <v>-2.7</v>
       </c>
       <c r="Q112" s="24" t="n"/>
       <c r="R112" s="36" t="inlineStr">
@@ -11220,10 +11210,10 @@
       </c>
       <c r="N113" s="21" t="n"/>
       <c r="O113" s="24" t="n">
-        <v>-20.5</v>
+        <v>-17.6</v>
       </c>
       <c r="P113" s="24" t="n">
-        <v>-1</v>
+        <v>-0.9</v>
       </c>
       <c r="Q113" s="24" t="n"/>
       <c r="R113" s="36" t="inlineStr">
@@ -11324,10 +11314,10 @@
         </is>
       </c>
       <c r="O114" s="24" t="n">
-        <v>-27.9</v>
+        <v>-24.8</v>
       </c>
       <c r="P114" s="24" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="Q114" s="24" t="n"/>
       <c r="R114" s="36" t="inlineStr">
@@ -11436,10 +11426,10 @@
         </is>
       </c>
       <c r="O115" s="24" t="n">
-        <v>-21.1</v>
+        <v>-16.6</v>
       </c>
       <c r="P115" s="24" t="n">
-        <v>-0.4</v>
+        <v>-2.1</v>
       </c>
       <c r="Q115" s="24" t="n"/>
       <c r="R115" s="36" t="inlineStr">
@@ -11544,13 +11534,13 @@
       </c>
       <c r="N116" s="21" t="n"/>
       <c r="O116" s="24" t="n">
-        <v>-20.6</v>
+        <v>-6.3</v>
       </c>
       <c r="P116" s="24" t="n">
-        <v>-0.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q116" s="24" t="n">
-        <v>-11.29</v>
+        <v>-2.74</v>
       </c>
       <c r="R116" s="36" t="inlineStr">
         <is>
@@ -11646,10 +11636,10 @@
       </c>
       <c r="N117" s="21" t="n"/>
       <c r="O117" s="24" t="n">
-        <v>-19.5</v>
+        <v>-13.3</v>
       </c>
       <c r="P117" s="24" t="n">
-        <v>-5.3</v>
+        <v>-1.4</v>
       </c>
       <c r="Q117" s="24" t="n"/>
       <c r="R117" s="36" t="inlineStr">
@@ -11750,10 +11740,10 @@
         </is>
       </c>
       <c r="O118" s="24" t="n">
-        <v>-30.1</v>
+        <v>-12.9</v>
       </c>
       <c r="P118" s="24" t="n">
-        <v>-9.9</v>
+        <v>-2.6</v>
       </c>
       <c r="Q118" s="24" t="n"/>
       <c r="R118" s="36" t="inlineStr">
@@ -11858,13 +11848,13 @@
       </c>
       <c r="N119" s="21" t="n"/>
       <c r="O119" s="24" t="n">
-        <v>-19.7</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="P119" s="24" t="n">
-        <v>-5.5</v>
+        <v>-2.5</v>
       </c>
       <c r="Q119" s="24" t="n">
-        <v>-12</v>
+        <v>-5.6</v>
       </c>
       <c r="R119" s="36" t="inlineStr">
         <is>
@@ -11972,13 +11962,13 @@
       </c>
       <c r="N120" s="21" t="n"/>
       <c r="O120" s="24" t="n">
-        <v>-8.4</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="P120" s="24" t="n">
         <v>-1.5</v>
       </c>
       <c r="Q120" s="24" t="n">
-        <v>-4.83</v>
+        <v>-5.36</v>
       </c>
       <c r="R120" s="36" t="inlineStr">
         <is>
@@ -12078,13 +12068,13 @@
       </c>
       <c r="N121" s="21" t="n"/>
       <c r="O121" s="24" t="n">
-        <v>-18.9</v>
+        <v>-11.5</v>
       </c>
       <c r="P121" s="24" t="n">
-        <v>-11.4</v>
+        <v>-2.2</v>
       </c>
       <c r="Q121" s="24" t="n">
-        <v>-14.77</v>
+        <v>-7.12</v>
       </c>
       <c r="R121" s="36" t="inlineStr">
         <is>
@@ -12192,10 +12182,10 @@
       </c>
       <c r="N122" s="21" t="n"/>
       <c r="O122" s="24" t="n">
-        <v>-25.8</v>
+        <v>-22</v>
       </c>
       <c r="P122" s="24" t="n">
-        <v>-13.1</v>
+        <v>-6.2</v>
       </c>
       <c r="Q122" s="24" t="n"/>
       <c r="R122" s="36" t="inlineStr">
@@ -12396,13 +12386,13 @@
       </c>
       <c r="N124" s="21" t="n"/>
       <c r="O124" s="24" t="n">
-        <v>-13.5</v>
+        <v>-12.6</v>
       </c>
       <c r="P124" s="24" t="n">
-        <v>-6.9</v>
+        <v>-1.9</v>
       </c>
       <c r="Q124" s="24" t="n">
-        <v>-10.84</v>
+        <v>-8.34</v>
       </c>
       <c r="R124" s="36" t="inlineStr">
         <is>
@@ -12510,13 +12500,13 @@
       </c>
       <c r="N125" s="21" t="n"/>
       <c r="O125" s="24" t="n">
-        <v>-6.2</v>
+        <v>-5.9</v>
       </c>
       <c r="P125" s="24" t="n">
-        <v>2.6</v>
+        <v>4.3</v>
       </c>
       <c r="Q125" s="24" t="n">
-        <v>-2.26</v>
+        <v>-1.64</v>
       </c>
       <c r="R125" s="36" t="inlineStr">
         <is>
@@ -12600,10 +12590,10 @@
       </c>
       <c r="N126" s="21" t="n"/>
       <c r="O126" s="24" t="n">
-        <v>-3.4</v>
+        <v>-2.3</v>
       </c>
       <c r="P126" s="24" t="n">
-        <v>3.1</v>
+        <v>7.3</v>
       </c>
       <c r="Q126" s="24" t="n"/>
       <c r="R126" s="36" t="inlineStr">
@@ -12700,13 +12690,13 @@
       </c>
       <c r="N127" s="21" t="n"/>
       <c r="O127" s="24" t="n">
-        <v>-9.199999999999999</v>
+        <v>-7.8</v>
       </c>
       <c r="P127" s="24" t="n">
-        <v>1.3</v>
+        <v>5.5</v>
       </c>
       <c r="Q127" s="24" t="n">
-        <v>-4.06</v>
+        <v>-2.14</v>
       </c>
       <c r="R127" s="36" t="inlineStr">
         <is>
@@ -12810,10 +12800,10 @@
       </c>
       <c r="N128" s="21" t="n"/>
       <c r="O128" s="24" t="n">
-        <v>-4.2</v>
+        <v>-3</v>
       </c>
       <c r="P128" s="24" t="n">
-        <v>4</v>
+        <v>6.1</v>
       </c>
       <c r="Q128" s="24" t="n"/>
       <c r="R128" s="36" t="inlineStr">
@@ -12910,13 +12900,13 @@
       </c>
       <c r="N129" s="21" t="n"/>
       <c r="O129" s="24" t="n">
-        <v>-7</v>
+        <v>-9.9</v>
       </c>
       <c r="P129" s="24" t="n">
-        <v>-0.7</v>
+        <v>5.5</v>
       </c>
       <c r="Q129" s="24" t="n">
-        <v>-3.57</v>
+        <v>-3.75</v>
       </c>
       <c r="R129" s="36" t="inlineStr">
         <is>
@@ -13020,13 +13010,13 @@
       </c>
       <c r="N130" s="21" t="n"/>
       <c r="O130" s="24" t="n">
-        <v>-16.7</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="P130" s="24" t="n">
-        <v>0.4</v>
+        <v>11.4</v>
       </c>
       <c r="Q130" s="24" t="n">
-        <v>-9.41</v>
+        <v>0.5</v>
       </c>
       <c r="R130" s="36" t="inlineStr">
         <is>
@@ -13130,13 +13120,13 @@
       </c>
       <c r="N131" s="21" t="n"/>
       <c r="O131" s="24" t="n">
-        <v>-4.4</v>
+        <v>1.8</v>
       </c>
       <c r="P131" s="24" t="n">
-        <v>-1.5</v>
+        <v>11.7</v>
       </c>
       <c r="Q131" s="24" t="n">
-        <v>-2.6</v>
+        <v>6.63</v>
       </c>
       <c r="R131" s="36" t="inlineStr">
         <is>
@@ -13236,13 +13226,13 @@
       </c>
       <c r="N132" s="21" t="n"/>
       <c r="O132" s="24" t="n">
-        <v>-1.5</v>
+        <v>-1.7</v>
       </c>
       <c r="P132" s="24" t="n">
-        <v>6.1</v>
+        <v>16</v>
       </c>
       <c r="Q132" s="24" t="n">
-        <v>2.84</v>
+        <v>5.04</v>
       </c>
       <c r="R132" s="36" t="inlineStr">
         <is>
@@ -13342,13 +13332,13 @@
       </c>
       <c r="N133" s="21" t="n"/>
       <c r="O133" s="24" t="n">
-        <v>-0.5</v>
+        <v>-2.3</v>
       </c>
       <c r="P133" s="24" t="n">
-        <v>7.3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="Q133" s="24" t="n">
-        <v>3.64</v>
+        <v>2.74</v>
       </c>
       <c r="R133" s="36" t="inlineStr">
         <is>
@@ -13452,13 +13442,13 @@
       </c>
       <c r="N134" s="21" t="n"/>
       <c r="O134" s="24" t="n">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="P134" s="24" t="n">
-        <v>11</v>
+        <v>17.4</v>
       </c>
       <c r="Q134" s="24" t="n">
-        <v>6.6</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="R134" s="36" t="inlineStr">
         <is>
@@ -13554,13 +13544,13 @@
       </c>
       <c r="N135" s="21" t="n"/>
       <c r="O135" s="24" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P135" s="24" t="n">
-        <v>10.5</v>
+        <v>15.4</v>
       </c>
       <c r="Q135" s="24" t="n">
-        <v>6.79</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="R135" s="36" t="inlineStr">
         <is>
@@ -13660,13 +13650,13 @@
       </c>
       <c r="N136" s="21" t="n"/>
       <c r="O136" s="24" t="n">
-        <v>6.6</v>
+        <v>2.7</v>
       </c>
       <c r="P136" s="24" t="n">
-        <v>13.4</v>
+        <v>15</v>
       </c>
       <c r="Q136" s="24" t="n">
-        <v>9.369999999999999</v>
+        <v>8.43</v>
       </c>
       <c r="R136" s="36" t="inlineStr">
         <is>
@@ -13766,13 +13756,13 @@
       </c>
       <c r="N137" s="21" t="n"/>
       <c r="O137" s="24" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="P137" s="24" t="n">
-        <v>10.7</v>
+        <v>14.8</v>
       </c>
       <c r="Q137" s="24" t="n">
-        <v>4.65</v>
+        <v>7.54</v>
       </c>
       <c r="R137" s="36" t="inlineStr">
         <is>
@@ -13872,10 +13862,10 @@
       </c>
       <c r="N138" s="21" t="n"/>
       <c r="O138" s="24" t="n">
-        <v>1.5</v>
+        <v>-2.9</v>
       </c>
       <c r="P138" s="24" t="n">
-        <v>7.8</v>
+        <v>13.6</v>
       </c>
       <c r="Q138" s="24" t="n"/>
       <c r="R138" s="36" t="inlineStr">
@@ -13976,13 +13966,13 @@
       </c>
       <c r="N139" s="21" t="n"/>
       <c r="O139" s="24" t="n">
-        <v>4</v>
+        <v>-1.3</v>
       </c>
       <c r="P139" s="24" t="n">
-        <v>9.5</v>
+        <v>12.8</v>
       </c>
       <c r="Q139" s="24" t="n">
-        <v>5.98</v>
+        <v>4.86</v>
       </c>
       <c r="R139" s="36" t="inlineStr">
         <is>
@@ -14082,13 +14072,13 @@
       </c>
       <c r="N140" s="21" t="n"/>
       <c r="O140" s="24" t="n">
-        <v>5.4</v>
+        <v>0.2</v>
       </c>
       <c r="P140" s="24" t="n">
-        <v>10.9</v>
+        <v>14.3</v>
       </c>
       <c r="Q140" s="24" t="n">
-        <v>8.69</v>
+        <v>6.24</v>
       </c>
       <c r="R140" s="36" t="inlineStr">
         <is>
@@ -14188,13 +14178,13 @@
       </c>
       <c r="N141" s="21" t="n"/>
       <c r="O141" s="24" t="n">
-        <v>10.3</v>
+        <v>0.1</v>
       </c>
       <c r="P141" s="24" t="n">
-        <v>14.2</v>
+        <v>15.8</v>
       </c>
       <c r="Q141" s="24" t="n">
-        <v>10.94</v>
+        <v>6.37</v>
       </c>
       <c r="R141" s="36" t="inlineStr">
         <is>
@@ -14290,13 +14280,13 @@
       </c>
       <c r="N142" s="21" t="n"/>
       <c r="O142" s="24" t="n">
-        <v>14.4</v>
+        <v>6.9</v>
       </c>
       <c r="P142" s="24" t="n">
-        <v>18.4</v>
+        <v>18.1</v>
       </c>
       <c r="Q142" s="24" t="n">
-        <v>15.7</v>
+        <v>11.74</v>
       </c>
       <c r="R142" s="36" t="inlineStr">
         <is>
@@ -14396,13 +14386,13 @@
       </c>
       <c r="N143" s="21" t="n"/>
       <c r="O143" s="24" t="n">
-        <v>13.4</v>
+        <v>6.8</v>
       </c>
       <c r="P143" s="24" t="n">
-        <v>20.8</v>
+        <v>21.5</v>
       </c>
       <c r="Q143" s="24" t="n">
-        <v>16.85</v>
+        <v>12.82</v>
       </c>
       <c r="R143" s="36" t="inlineStr">
         <is>
@@ -14502,13 +14492,13 @@
       </c>
       <c r="N144" s="21" t="n"/>
       <c r="O144" s="24" t="n">
-        <v>18.9</v>
+        <v>18</v>
       </c>
       <c r="P144" s="24" t="n">
-        <v>23.4</v>
+        <v>22.1</v>
       </c>
       <c r="Q144" s="24" t="n">
-        <v>21.32</v>
+        <v>19.84</v>
       </c>
       <c r="R144" s="36" t="inlineStr">
         <is>
@@ -14604,13 +14594,13 @@
       </c>
       <c r="N145" s="21" t="n"/>
       <c r="O145" s="24" t="n">
-        <v>19.9</v>
+        <v>17.4</v>
       </c>
       <c r="P145" s="24" t="n">
-        <v>25.3</v>
+        <v>23.3</v>
       </c>
       <c r="Q145" s="24" t="n">
-        <v>21.59</v>
+        <v>19.69</v>
       </c>
       <c r="R145" s="36" t="inlineStr">
         <is>
@@ -14702,13 +14692,13 @@
       </c>
       <c r="N146" s="21" t="n"/>
       <c r="O146" s="24" t="n">
-        <v>22.2</v>
+        <v>17.9</v>
       </c>
       <c r="P146" s="24" t="n">
-        <v>27.2</v>
+        <v>26</v>
       </c>
       <c r="Q146" s="24" t="n">
-        <v>23.88</v>
+        <v>21.62</v>
       </c>
       <c r="R146" s="36" t="inlineStr">
         <is>
@@ -14800,13 +14790,13 @@
       </c>
       <c r="N147" s="21" t="n"/>
       <c r="O147" s="24" t="n">
-        <v>12.3</v>
+        <v>11.4</v>
       </c>
       <c r="P147" s="24" t="n">
-        <v>19.6</v>
+        <v>19</v>
       </c>
       <c r="Q147" s="24" t="n">
-        <v>16.6</v>
+        <v>14.53</v>
       </c>
       <c r="R147" s="36" t="inlineStr">
         <is>
@@ -14906,10 +14896,10 @@
       </c>
       <c r="N148" s="21" t="n"/>
       <c r="O148" s="24" t="n">
-        <v>15.7</v>
+        <v>14.2</v>
       </c>
       <c r="P148" s="24" t="n">
-        <v>25.9</v>
+        <v>26.6</v>
       </c>
       <c r="Q148" s="24" t="n"/>
       <c r="R148" s="36" t="inlineStr">
@@ -15006,13 +14996,13 @@
       </c>
       <c r="N149" s="21" t="n"/>
       <c r="O149" s="24" t="n">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="P149" s="24" t="n">
-        <v>14.5</v>
+        <v>17.9</v>
       </c>
       <c r="Q149" s="24" t="n">
-        <v>9.609999999999999</v>
+        <v>11.22</v>
       </c>
       <c r="R149" s="36" t="inlineStr">
         <is>
@@ -15112,13 +15102,13 @@
       </c>
       <c r="N150" s="21" t="n"/>
       <c r="O150" s="24" t="n">
-        <v>4.4</v>
+        <v>7.2</v>
       </c>
       <c r="P150" s="24" t="n">
-        <v>13.7</v>
+        <v>13.4</v>
       </c>
       <c r="Q150" s="24" t="n">
-        <v>8.140000000000001</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="R150" s="36" t="inlineStr">
         <is>
@@ -15218,13 +15208,13 @@
       </c>
       <c r="N151" s="21" t="n"/>
       <c r="O151" s="24" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="P151" s="24" t="n">
-        <v>14.2</v>
+        <v>12.1</v>
       </c>
       <c r="Q151" s="24" t="n">
-        <v>11.43</v>
+        <v>10.78</v>
       </c>
       <c r="R151" s="36" t="inlineStr">
         <is>
@@ -15408,13 +15398,13 @@
       </c>
       <c r="N153" s="21" t="n"/>
       <c r="O153" s="24" t="n">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="P153" s="24" t="n">
-        <v>11.7</v>
+        <v>12.8</v>
       </c>
       <c r="Q153" s="24" t="n">
-        <v>7.9</v>
+        <v>8.48</v>
       </c>
       <c r="R153" s="36" t="inlineStr">
         <is>
@@ -15518,13 +15508,13 @@
       </c>
       <c r="N154" s="21" t="n"/>
       <c r="O154" s="24" t="n">
-        <v>-5.8</v>
+        <v>-4.4</v>
       </c>
       <c r="P154" s="24" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="Q154" s="24" t="n">
-        <v>0.39</v>
+        <v>1.54</v>
       </c>
       <c r="R154" s="36" t="inlineStr">
         <is>
@@ -15704,10 +15694,10 @@
       </c>
       <c r="N156" s="21" t="n"/>
       <c r="O156" s="24" t="n">
-        <v>-18.3</v>
+        <v>-21.6</v>
       </c>
       <c r="P156" s="24" t="n">
-        <v>-6.7</v>
+        <v>0.4</v>
       </c>
       <c r="Q156" s="24" t="n"/>
       <c r="R156" s="36" t="inlineStr">
@@ -15800,10 +15790,10 @@
       </c>
       <c r="N157" s="21" t="n"/>
       <c r="O157" s="24" t="n">
-        <v>5.7</v>
+        <v>2.3</v>
       </c>
       <c r="P157" s="24" t="n">
-        <v>10.3</v>
+        <v>12.4</v>
       </c>
       <c r="Q157" s="24" t="n"/>
       <c r="R157" s="36" t="inlineStr">
@@ -16156,10 +16146,10 @@
       </c>
       <c r="N161" s="21" t="n"/>
       <c r="O161" s="24" t="n">
-        <v>-9.800000000000001</v>
+        <v>-7.5</v>
       </c>
       <c r="P161" s="24" t="n">
-        <v>1.8</v>
+        <v>8.1</v>
       </c>
       <c r="Q161" s="24" t="n"/>
       <c r="R161" s="36" t="inlineStr">
@@ -16363,7 +16353,9 @@
           <t>▼</t>
         </is>
       </c>
-      <c r="O163" s="24" t="n"/>
+      <c r="O163" s="24" t="n">
+        <v>-41.7</v>
+      </c>
       <c r="P163" s="24" t="n"/>
       <c r="Q163" s="24" t="n"/>
       <c r="R163" s="36" t="inlineStr">
@@ -16559,12 +16551,8 @@
           <t>⚡</t>
         </is>
       </c>
-      <c r="O165" s="24" t="n">
-        <v>-35</v>
-      </c>
-      <c r="P165" s="24" t="n">
-        <v>-20.8</v>
-      </c>
+      <c r="O165" s="24" t="n"/>
+      <c r="P165" s="24" t="n"/>
       <c r="Q165" s="24" t="n"/>
       <c r="R165" s="36" t="inlineStr">
         <is>
@@ -17340,10 +17328,10 @@
       </c>
       <c r="N173" s="21" t="n"/>
       <c r="O173" s="24" t="n">
-        <v>-21.4</v>
+        <v>-22.1</v>
       </c>
       <c r="P173" s="24" t="n">
-        <v>-11.4</v>
+        <v>-3.5</v>
       </c>
       <c r="Q173" s="24" t="n"/>
       <c r="R173" s="36" t="inlineStr">
@@ -17622,10 +17610,10 @@
       </c>
       <c r="N176" s="21" t="n"/>
       <c r="O176" s="24" t="n">
-        <v>-9</v>
+        <v>-0.1</v>
       </c>
       <c r="P176" s="24" t="n">
-        <v>5</v>
+        <v>6.6</v>
       </c>
       <c r="Q176" s="24" t="n"/>
       <c r="R176" s="36" t="inlineStr">
@@ -17708,10 +17696,10 @@
       </c>
       <c r="N177" s="21" t="n"/>
       <c r="O177" s="24" t="n">
-        <v>-18.9</v>
+        <v>-21.2</v>
       </c>
       <c r="P177" s="24" t="n">
-        <v>-15.1</v>
+        <v>-14.1</v>
       </c>
       <c r="Q177" s="24" t="n"/>
       <c r="R177" s="36" t="inlineStr">
@@ -18410,10 +18398,10 @@
       </c>
       <c r="N185" s="21" t="n"/>
       <c r="O185" s="24" t="n">
-        <v>-45.5</v>
+        <v>-45.3</v>
       </c>
       <c r="P185" s="24" t="n">
-        <v>-32.4</v>
+        <v>-34.1</v>
       </c>
       <c r="Q185" s="24" t="n"/>
       <c r="R185" s="36" t="inlineStr">
@@ -18511,13 +18499,13 @@
       </c>
       <c r="N186" s="21" t="n"/>
       <c r="O186" s="24" t="n">
-        <v>-45.1</v>
+        <v>-45.9</v>
       </c>
       <c r="P186" s="24" t="n">
-        <v>-34.4</v>
+        <v>-29.3</v>
       </c>
       <c r="Q186" s="24" t="n">
-        <v>-37.62</v>
+        <v>-38.76</v>
       </c>
       <c r="R186" s="36" t="inlineStr">
         <is>
@@ -18610,13 +18598,13 @@
       </c>
       <c r="N187" s="21" t="n"/>
       <c r="O187" s="24" t="n">
-        <v>-45</v>
+        <v>-31.8</v>
       </c>
       <c r="P187" s="24" t="n">
-        <v>-35.4</v>
+        <v>-25.4</v>
       </c>
       <c r="Q187" s="24" t="n">
-        <v>-39.54</v>
+        <v>-27.91</v>
       </c>
       <c r="R187" s="36" t="inlineStr">
         <is>
@@ -18704,13 +18692,13 @@
       </c>
       <c r="N188" s="21" t="n"/>
       <c r="O188" s="24" t="n">
-        <v>-44.4</v>
+        <v>-40</v>
       </c>
       <c r="P188" s="24" t="n">
-        <v>-35.4</v>
+        <v>-28</v>
       </c>
       <c r="Q188" s="24" t="n">
-        <v>-39.8</v>
+        <v>-31.83</v>
       </c>
       <c r="R188" s="36" t="inlineStr">
         <is>
@@ -18798,13 +18786,13 @@
       </c>
       <c r="N189" s="21" t="n"/>
       <c r="O189" s="24" t="n">
-        <v>-42</v>
+        <v>-41.6</v>
       </c>
       <c r="P189" s="24" t="n">
-        <v>-28.4</v>
+        <v>-18.7</v>
       </c>
       <c r="Q189" s="24" t="n">
-        <v>-33.65</v>
+        <v>-26.42</v>
       </c>
       <c r="R189" s="36" t="inlineStr">
         <is>
@@ -18892,13 +18880,13 @@
       </c>
       <c r="N190" s="21" t="n"/>
       <c r="O190" s="24" t="n">
-        <v>-49.9</v>
+        <v>-45.5</v>
       </c>
       <c r="P190" s="24" t="n">
-        <v>-43.2</v>
+        <v>-36.4</v>
       </c>
       <c r="Q190" s="24" t="n">
-        <v>-47.96</v>
+        <v>-41.24</v>
       </c>
       <c r="R190" s="36" t="inlineStr">
         <is>
@@ -18986,13 +18974,13 @@
       </c>
       <c r="N191" s="21" t="n"/>
       <c r="O191" s="24" t="n">
-        <v>-45.2</v>
+        <v>-45.5</v>
       </c>
       <c r="P191" s="24" t="n">
-        <v>-34.9</v>
+        <v>-30.4</v>
       </c>
       <c r="Q191" s="24" t="n">
-        <v>-38.58</v>
+        <v>-39.14</v>
       </c>
       <c r="R191" s="36" t="inlineStr">
         <is>
@@ -19076,13 +19064,13 @@
       </c>
       <c r="N192" s="21" t="n"/>
       <c r="O192" s="24" t="n">
-        <v>-42.7</v>
+        <v>-36.5</v>
       </c>
       <c r="P192" s="24" t="n">
-        <v>-35.8</v>
+        <v>-18.9</v>
       </c>
       <c r="Q192" s="24" t="n">
-        <v>-39.55</v>
+        <v>-31.86</v>
       </c>
       <c r="R192" s="36" t="inlineStr">
         <is>
@@ -19171,13 +19159,13 @@
       </c>
       <c r="N193" s="21" t="n"/>
       <c r="O193" s="24" t="n">
-        <v>-42.8</v>
+        <v>-45</v>
       </c>
       <c r="P193" s="24" t="n">
-        <v>-40.7</v>
+        <v>-41.3</v>
       </c>
       <c r="Q193" s="24" t="n">
-        <v>-41.8</v>
+        <v>-43.74</v>
       </c>
       <c r="R193" s="36" t="inlineStr">
         <is>
@@ -19269,10 +19257,10 @@
       </c>
       <c r="N194" s="21" t="n"/>
       <c r="O194" s="24" t="n">
-        <v>-50.1</v>
+        <v>-41</v>
       </c>
       <c r="P194" s="24" t="n">
-        <v>-39.9</v>
+        <v>-34.9</v>
       </c>
       <c r="Q194" s="24" t="n"/>
       <c r="R194" s="36" t="inlineStr">
@@ -19361,13 +19349,13 @@
       </c>
       <c r="N195" s="21" t="n"/>
       <c r="O195" s="24" t="n">
-        <v>-32</v>
+        <v>-11</v>
       </c>
       <c r="P195" s="24" t="n">
-        <v>-3.1</v>
+        <v>3</v>
       </c>
       <c r="Q195" s="24" t="n">
-        <v>-14.03</v>
+        <v>-3.86</v>
       </c>
       <c r="R195" s="36" t="inlineStr">
         <is>
@@ -19459,13 +19447,13 @@
       </c>
       <c r="N196" s="21" t="n"/>
       <c r="O196" s="24" t="n">
-        <v>-38.8</v>
+        <v>-40.7</v>
       </c>
       <c r="P196" s="24" t="n">
-        <v>-24.1</v>
+        <v>-30.1</v>
       </c>
       <c r="Q196" s="24" t="n">
-        <v>-29</v>
+        <v>-36.78</v>
       </c>
       <c r="R196" s="36" t="inlineStr">
         <is>
@@ -19553,14 +19541,12 @@
       </c>
       <c r="N197" s="22" t="n"/>
       <c r="O197" s="24" t="n">
-        <v>-48.2</v>
+        <v>-51</v>
       </c>
       <c r="P197" s="24" t="n">
-        <v>-45.5</v>
-      </c>
-      <c r="Q197" s="24" t="n">
-        <v>-47.29</v>
-      </c>
+        <v>-46.5</v>
+      </c>
+      <c r="Q197" s="24" t="n"/>
       <c r="R197" s="36" t="inlineStr">
         <is>
           <t>Y</t>
@@ -19728,12 +19714,8 @@
         </is>
       </c>
       <c r="N199" s="21" t="n"/>
-      <c r="O199" s="24" t="n">
-        <v>-31</v>
-      </c>
-      <c r="P199" s="24" t="n">
-        <v>-16.3</v>
-      </c>
+      <c r="O199" s="24" t="n"/>
+      <c r="P199" s="24" t="n"/>
       <c r="Q199" s="24" t="n"/>
       <c r="R199" s="36" t="inlineStr">
         <is>
@@ -19910,8 +19892,12 @@
         </is>
       </c>
       <c r="N201" s="21" t="n"/>
-      <c r="O201" s="24" t="n"/>
-      <c r="P201" s="24" t="n"/>
+      <c r="O201" s="24" t="n">
+        <v>-39.2</v>
+      </c>
+      <c r="P201" s="24" t="n">
+        <v>-19.2</v>
+      </c>
       <c r="Q201" s="24" t="n"/>
       <c r="R201" s="36" t="inlineStr">
         <is>
@@ -20101,10 +20087,10 @@
         </is>
       </c>
       <c r="O203" s="24" t="n">
-        <v>-52.1</v>
+        <v>-51.2</v>
       </c>
       <c r="P203" s="24" t="n">
-        <v>-43.5</v>
+        <v>-44.6</v>
       </c>
       <c r="Q203" s="24" t="n"/>
       <c r="R203" s="36" t="inlineStr">
@@ -20881,10 +20867,10 @@
       </c>
       <c r="N212" s="21" t="n"/>
       <c r="O212" s="24" t="n">
-        <v>-39.3</v>
+        <v>-38.7</v>
       </c>
       <c r="P212" s="24" t="n">
-        <v>-29.5</v>
+        <v>-28.1</v>
       </c>
       <c r="Q212" s="24" t="n"/>
       <c r="R212" s="36" t="inlineStr">
@@ -20965,13 +20951,13 @@
       </c>
       <c r="N213" s="21" t="n"/>
       <c r="O213" s="24" t="n">
-        <v>-5.2</v>
+        <v>-11.5</v>
       </c>
       <c r="P213" s="24" t="n">
-        <v>-2.8</v>
+        <v>2.2</v>
       </c>
       <c r="Q213" s="24" t="n">
-        <v>-4.64</v>
+        <v>-5.26</v>
       </c>
       <c r="R213" s="36" t="inlineStr">
         <is>
@@ -21067,13 +21053,13 @@
       </c>
       <c r="N214" s="21" t="n"/>
       <c r="O214" s="24" t="n">
-        <v>-17.7</v>
+        <v>-12.8</v>
       </c>
       <c r="P214" s="24" t="n">
-        <v>-10</v>
+        <v>-6.7</v>
       </c>
       <c r="Q214" s="24" t="n">
-        <v>-14.16</v>
+        <v>-10.35</v>
       </c>
       <c r="R214" s="36" t="inlineStr">
         <is>
@@ -21173,13 +21159,13 @@
       </c>
       <c r="N215" s="21" t="n"/>
       <c r="O215" s="24" t="n">
-        <v>-26</v>
+        <v>-19.5</v>
       </c>
       <c r="P215" s="24" t="n">
-        <v>-18.3</v>
+        <v>-14</v>
       </c>
       <c r="Q215" s="24" t="n">
-        <v>-22.23</v>
+        <v>-16.51</v>
       </c>
       <c r="R215" s="36" t="inlineStr">
         <is>
@@ -21279,13 +21265,13 @@
       </c>
       <c r="N216" s="21" t="n"/>
       <c r="O216" s="24" t="n">
-        <v>-14.4</v>
+        <v>-29.1</v>
       </c>
       <c r="P216" s="24" t="n">
-        <v>-10.5</v>
+        <v>-17</v>
       </c>
       <c r="Q216" s="24" t="n">
-        <v>-12.44</v>
+        <v>-23.26</v>
       </c>
       <c r="R216" s="36" t="inlineStr">
         <is>
@@ -21381,13 +21367,13 @@
       </c>
       <c r="N217" s="21" t="n"/>
       <c r="O217" s="24" t="n">
-        <v>-12.6</v>
+        <v>-9.4</v>
       </c>
       <c r="P217" s="24" t="n">
-        <v>-3.5</v>
+        <v>1.6</v>
       </c>
       <c r="Q217" s="24" t="n">
-        <v>-9.06</v>
+        <v>-5.03</v>
       </c>
       <c r="R217" s="36" t="inlineStr">
         <is>
@@ -21483,13 +21469,13 @@
       </c>
       <c r="N218" s="21" t="n"/>
       <c r="O218" s="24" t="n">
-        <v>-5.3</v>
+        <v>-7.2</v>
       </c>
       <c r="P218" s="24" t="n">
-        <v>-2.8</v>
+        <v>-1.9</v>
       </c>
       <c r="Q218" s="24" t="n">
-        <v>-4.35</v>
+        <v>-4.09</v>
       </c>
       <c r="R218" s="36" t="inlineStr">
         <is>
@@ -21585,13 +21571,13 @@
       </c>
       <c r="N219" s="21" t="n"/>
       <c r="O219" s="24" t="n">
-        <v>-10.4</v>
+        <v>-13.2</v>
       </c>
       <c r="P219" s="24" t="n">
-        <v>-4.4</v>
+        <v>-1.7</v>
       </c>
       <c r="Q219" s="24" t="n">
-        <v>-7.65</v>
+        <v>-8.75</v>
       </c>
       <c r="R219" s="36" t="inlineStr">
         <is>
@@ -21678,8 +21664,12 @@
         </is>
       </c>
       <c r="N220" s="21" t="n"/>
-      <c r="O220" s="24" t="n"/>
-      <c r="P220" s="24" t="n"/>
+      <c r="O220" s="24" t="n">
+        <v>-39.6</v>
+      </c>
+      <c r="P220" s="24" t="n">
+        <v>-17.9</v>
+      </c>
       <c r="Q220" s="24" t="n"/>
       <c r="R220" s="36" t="inlineStr">
         <is>
@@ -22046,12 +22036,8 @@
         </is>
       </c>
       <c r="N224" s="21" t="n"/>
-      <c r="O224" s="24" t="n">
-        <v>-36.5</v>
-      </c>
-      <c r="P224" s="24" t="n">
-        <v>-17.3</v>
-      </c>
+      <c r="O224" s="24" t="n"/>
+      <c r="P224" s="24" t="n"/>
       <c r="Q224" s="24" t="n"/>
       <c r="R224" s="36" t="inlineStr">
         <is>
@@ -22142,12 +22128,8 @@
         </is>
       </c>
       <c r="N225" s="21" t="n"/>
-      <c r="O225" s="24" t="n">
-        <v>-34</v>
-      </c>
-      <c r="P225" s="24" t="n">
-        <v>-24.6</v>
-      </c>
+      <c r="O225" s="24" t="n"/>
+      <c r="P225" s="24" t="n"/>
       <c r="Q225" s="24" t="n"/>
       <c r="R225" s="36" t="inlineStr">
         <is>
@@ -22945,13 +22927,13 @@
       </c>
       <c r="N234" s="21" t="n"/>
       <c r="O234" s="24" t="n">
-        <v>-53.4</v>
+        <v>-38.3</v>
       </c>
       <c r="P234" s="24" t="n">
-        <v>-48.7</v>
+        <v>-28.3</v>
       </c>
       <c r="Q234" s="24" t="n">
-        <v>-51.87</v>
+        <v>-31.36</v>
       </c>
       <c r="R234" s="36" t="inlineStr">
         <is>
@@ -22998,105 +22980,285 @@
       <c r="AF234" s="2" t="n"/>
     </row>
     <row r="235" ht="24" customHeight="1" s="38">
-      <c r="A235" s="2" t="n"/>
+      <c r="A235" s="2" t="n">
+        <v>234</v>
+      </c>
       <c r="B235" s="2" t="n"/>
       <c r="C235" s="17" t="n"/>
       <c r="D235" s="2" t="n"/>
       <c r="E235" s="2" t="n"/>
-      <c r="F235" s="3" t="n"/>
-      <c r="G235" s="2" t="n"/>
-      <c r="H235" s="2" t="n"/>
+      <c r="F235" s="3" t="inlineStr">
+        <is>
+          <t>CA112</t>
+        </is>
+      </c>
+      <c r="G235" s="2" t="n">
+        <v>49.32</v>
+      </c>
+      <c r="H235" s="2" t="n">
+        <v>123.61</v>
+      </c>
       <c r="I235" s="2" t="n"/>
-      <c r="J235" s="17" t="n"/>
+      <c r="J235" s="17" t="n">
+        <v>12</v>
+      </c>
       <c r="K235" s="2" t="n"/>
       <c r="L235" s="2" t="n"/>
-      <c r="M235" s="28" t="n"/>
+      <c r="M235" s="28" t="inlineStr">
+        <is>
+          <t>齐奇岭</t>
+        </is>
+      </c>
       <c r="N235" s="21" t="n"/>
       <c r="O235" s="24" t="n"/>
       <c r="P235" s="24" t="n"/>
       <c r="Q235" s="24" t="n"/>
-      <c r="R235" s="36" t="n"/>
-      <c r="S235" s="2" t="n"/>
-      <c r="T235" s="5" t="n"/>
-      <c r="U235" s="5" t="n"/>
-      <c r="V235" s="5" t="n"/>
+      <c r="R235" s="36" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="S235" s="2" t="inlineStr">
+        <is>
+          <t>内蒙古</t>
+        </is>
+      </c>
+      <c r="T235" s="5" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="U235" s="5" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="V235" s="5" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="W235" s="5" t="n"/>
-      <c r="X235" s="2" t="n"/>
-      <c r="Y235" s="2" t="n"/>
+      <c r="X235" s="2" t="inlineStr">
+        <is>
+          <t>呼伦贝尔市</t>
+        </is>
+      </c>
+      <c r="Y235" s="2" t="inlineStr">
+        <is>
+          <t>鄂伦春自治旗</t>
+        </is>
+      </c>
       <c r="Z235" s="2" t="n"/>
       <c r="AA235" s="2" t="n"/>
-      <c r="AB235" s="2" t="n"/>
-      <c r="AC235" s="2" t="n"/>
+      <c r="AB235" s="2" t="inlineStr">
+        <is>
+          <t>中国</t>
+        </is>
+      </c>
+      <c r="AC235" s="2" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
       <c r="AD235" s="2" t="n"/>
-      <c r="AE235" s="2" t="n"/>
+      <c r="AE235" s="2" t="inlineStr">
+        <is>
+          <t>大兴安岭</t>
+        </is>
+      </c>
       <c r="AF235" s="2" t="n"/>
     </row>
     <row r="236" ht="24" customHeight="1" s="38">
-      <c r="A236" s="2" t="n"/>
-      <c r="B236" s="2" t="n"/>
-      <c r="C236" s="17" t="n"/>
-      <c r="D236" s="2" t="n"/>
-      <c r="E236" s="2" t="n"/>
+      <c r="A236" s="2" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" s="2" t="inlineStr">
+        <is>
+          <t>ogimet</t>
+        </is>
+      </c>
+      <c r="C236" s="17" t="n">
+        <v>24525</v>
+      </c>
+      <c r="D236" s="2" t="inlineStr">
+        <is>
+          <t>Khabardino</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="n">
+        <v>99999</v>
+      </c>
       <c r="F236" s="3" t="n"/>
-      <c r="G236" s="2" t="n"/>
-      <c r="H236" s="2" t="n"/>
-      <c r="I236" s="2" t="n"/>
-      <c r="J236" s="17" t="n"/>
+      <c r="G236" s="2" t="n">
+        <v>64.59999999999999</v>
+      </c>
+      <c r="H236" s="2" t="n">
+        <v>112.5166666</v>
+      </c>
+      <c r="I236" s="2" t="n">
+        <v>251.24</v>
+      </c>
+      <c r="J236" s="17" t="n">
+        <v>12</v>
+      </c>
       <c r="K236" s="2" t="n"/>
       <c r="L236" s="2" t="n"/>
-      <c r="M236" s="28" t="n"/>
+      <c r="M236" s="30" t="inlineStr">
+        <is>
+          <t>莫尔科卡</t>
+        </is>
+      </c>
       <c r="N236" s="21" t="n"/>
-      <c r="O236" s="24" t="n"/>
-      <c r="P236" s="24" t="n"/>
-      <c r="Q236" s="24" t="n"/>
-      <c r="R236" s="36" t="n"/>
-      <c r="S236" s="2" t="n"/>
-      <c r="T236" s="5" t="n"/>
+      <c r="O236" s="24" t="n">
+        <v>-43.4</v>
+      </c>
+      <c r="P236" s="24" t="n">
+        <v>-27.4</v>
+      </c>
+      <c r="Q236" s="24" t="n">
+        <v>-35.96</v>
+      </c>
+      <c r="R236" s="36" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="S236" s="2" t="inlineStr">
+        <is>
+          <t>萨哈共和国</t>
+        </is>
+      </c>
+      <c r="T236" s="5" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="U236" s="5" t="n"/>
-      <c r="V236" s="5" t="n"/>
+      <c r="V236" s="5" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="W236" s="5" t="n"/>
       <c r="X236" s="2" t="n"/>
       <c r="Y236" s="2" t="n"/>
       <c r="Z236" s="2" t="n"/>
-      <c r="AA236" s="2" t="n"/>
-      <c r="AB236" s="2" t="n"/>
-      <c r="AC236" s="2" t="n"/>
+      <c r="AA236" s="2" t="inlineStr">
+        <is>
+          <t>Хабардино</t>
+        </is>
+      </c>
+      <c r="AB236" s="2" t="inlineStr">
+        <is>
+          <t>俄罗斯</t>
+        </is>
+      </c>
+      <c r="AC236" s="2" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
       <c r="AD236" s="2" t="n"/>
       <c r="AE236" s="2" t="n"/>
       <c r="AF236" s="2" t="n"/>
     </row>
     <row r="237" ht="24" customHeight="1" s="38">
-      <c r="A237" s="2" t="n"/>
-      <c r="B237" s="2" t="n"/>
-      <c r="C237" s="17" t="n"/>
-      <c r="D237" s="2" t="n"/>
-      <c r="E237" s="2" t="n"/>
+      <c r="A237" s="2" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" s="2" t="inlineStr">
+        <is>
+          <t>ogimet</t>
+        </is>
+      </c>
+      <c r="C237" s="17" t="n">
+        <v>24856</v>
+      </c>
+      <c r="D237" s="2" t="inlineStr">
+        <is>
+          <t>Pokrovsk</t>
+        </is>
+      </c>
+      <c r="E237" s="2" t="n">
+        <v>99999</v>
+      </c>
       <c r="F237" s="3" t="n"/>
-      <c r="G237" s="2" t="n"/>
-      <c r="H237" s="2" t="n"/>
-      <c r="I237" s="2" t="n"/>
-      <c r="J237" s="17" t="n"/>
+      <c r="G237" s="2" t="n">
+        <v>61.4954</v>
+      </c>
+      <c r="H237" s="2" t="n">
+        <v>129.1667</v>
+      </c>
+      <c r="I237" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="J237" s="17" t="n">
+        <v>12</v>
+      </c>
       <c r="K237" s="2" t="n"/>
       <c r="L237" s="2" t="n"/>
-      <c r="M237" s="28" t="n"/>
+      <c r="M237" s="30" t="inlineStr">
+        <is>
+          <t>Pokrovsk</t>
+        </is>
+      </c>
       <c r="N237" s="21" t="n"/>
-      <c r="O237" s="24" t="n"/>
-      <c r="P237" s="24" t="n"/>
-      <c r="Q237" s="24" t="n"/>
-      <c r="R237" s="36" t="n"/>
-      <c r="S237" s="2" t="n"/>
-      <c r="T237" s="5" t="n"/>
+      <c r="O237" s="24" t="n">
+        <v>-51.9</v>
+      </c>
+      <c r="P237" s="24" t="n">
+        <v>-44.5</v>
+      </c>
+      <c r="Q237" s="24" t="n">
+        <v>-50.2</v>
+      </c>
+      <c r="R237" s="36" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="S237" s="2" t="inlineStr">
+        <is>
+          <t>萨哈共和国</t>
+        </is>
+      </c>
+      <c r="T237" s="5" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="U237" s="5" t="n"/>
-      <c r="V237" s="5" t="n"/>
+      <c r="V237" s="5" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="W237" s="5" t="n"/>
       <c r="X237" s="2" t="n"/>
       <c r="Y237" s="2" t="n"/>
       <c r="Z237" s="2" t="n"/>
-      <c r="AA237" s="2" t="n"/>
-      <c r="AB237" s="2" t="n"/>
-      <c r="AC237" s="2" t="n"/>
+      <c r="AA237" s="2" t="inlineStr">
+        <is>
+          <t>Покровск</t>
+        </is>
+      </c>
+      <c r="AB237" s="2" t="inlineStr">
+        <is>
+          <t>俄罗斯</t>
+        </is>
+      </c>
+      <c r="AC237" s="2" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
       <c r="AD237" s="2" t="n"/>
-      <c r="AE237" s="2" t="n"/>
+      <c r="AE237" s="2" t="inlineStr">
+        <is>
+          <t>勒拿河</t>
+        </is>
+      </c>
       <c r="AF237" s="2" t="n"/>
     </row>
     <row r="238" ht="24" customHeight="1" s="38">

--- a/气象/For_Python_站点信息和记录.xlsx
+++ b/气象/For_Python_站点信息和记录.xlsx
@@ -821,8 +821,8 @@
     <col width="12.59765625" customWidth="1" style="6" min="19" max="19"/>
     <col width="12.59765625" customWidth="1" style="10" min="20" max="22"/>
     <col width="18.59765625" customWidth="1" style="10" min="23" max="23"/>
-    <col width="12.59765625" customWidth="1" style="6" min="24" max="84"/>
-    <col width="12.59765625" customWidth="1" style="6" min="85" max="16384"/>
+    <col width="12.59765625" customWidth="1" style="6" min="24" max="91"/>
+    <col width="12.59765625" customWidth="1" style="6" min="92" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.75" customFormat="1" customHeight="1" s="14">
@@ -1037,13 +1037,13 @@
         </is>
       </c>
       <c r="O2" s="24" t="n">
-        <v>-27.9</v>
+        <v>-32.6</v>
       </c>
       <c r="P2" s="24" t="n">
-        <v>-18.6</v>
+        <v>-20.7</v>
       </c>
       <c r="Q2" s="24" t="n">
-        <v>-22.91</v>
+        <v>-25.4</v>
       </c>
       <c r="R2" s="36" t="inlineStr">
         <is>
@@ -1137,10 +1137,10 @@
         </is>
       </c>
       <c r="O3" s="24" t="n">
-        <v>-29.9</v>
+        <v>-31.3</v>
       </c>
       <c r="P3" s="24" t="n">
-        <v>-21.1</v>
+        <v>-17.3</v>
       </c>
       <c r="Q3" s="24" t="n"/>
       <c r="R3" s="36" t="inlineStr">
@@ -1235,10 +1235,10 @@
         </is>
       </c>
       <c r="O4" s="24" t="n">
-        <v>-26.5</v>
+        <v>-25.1</v>
       </c>
       <c r="P4" s="24" t="n">
-        <v>-17.3</v>
+        <v>-15</v>
       </c>
       <c r="Q4" s="24" t="n"/>
       <c r="R4" s="36" t="inlineStr">
@@ -1324,11 +1324,9 @@
         </is>
       </c>
       <c r="N5" s="21" t="n"/>
-      <c r="O5" s="24" t="n">
-        <v>-26.4</v>
-      </c>
+      <c r="O5" s="24" t="n"/>
       <c r="P5" s="24" t="n">
-        <v>-14.8</v>
+        <v>-13.8</v>
       </c>
       <c r="Q5" s="24" t="n"/>
       <c r="R5" s="36" t="inlineStr">
@@ -1423,13 +1421,13 @@
         </is>
       </c>
       <c r="O6" s="24" t="n">
-        <v>-32.1</v>
+        <v>-19.7</v>
       </c>
       <c r="P6" s="24" t="n">
-        <v>-19.7</v>
+        <v>-7.2</v>
       </c>
       <c r="Q6" s="24" t="n">
-        <v>-27.25</v>
+        <v>-12.7</v>
       </c>
       <c r="R6" s="36" t="inlineStr">
         <is>
@@ -1527,10 +1525,10 @@
         </is>
       </c>
       <c r="O7" s="24" t="n">
-        <v>-28.6</v>
+        <v>-23.2</v>
       </c>
       <c r="P7" s="24" t="n">
-        <v>-22.8</v>
+        <v>-12.2</v>
       </c>
       <c r="Q7" s="24" t="n"/>
       <c r="R7" s="36" t="inlineStr">
@@ -1629,13 +1627,13 @@
       </c>
       <c r="N8" s="21" t="n"/>
       <c r="O8" s="24" t="n">
-        <v>-28.1</v>
+        <v>-22.3</v>
       </c>
       <c r="P8" s="24" t="n">
-        <v>-16.7</v>
+        <v>-8.9</v>
       </c>
       <c r="Q8" s="24" t="n">
-        <v>-23.56</v>
+        <v>-15.76</v>
       </c>
       <c r="R8" s="36" t="inlineStr">
         <is>
@@ -1731,13 +1729,13 @@
       </c>
       <c r="N9" s="21" t="n"/>
       <c r="O9" s="24" t="n">
-        <v>-26.8</v>
+        <v>-26.9</v>
       </c>
       <c r="P9" s="24" t="n">
-        <v>-16.7</v>
+        <v>-16.4</v>
       </c>
       <c r="Q9" s="24" t="n">
-        <v>-23.26</v>
+        <v>-22.31</v>
       </c>
       <c r="R9" s="36" t="inlineStr">
         <is>
@@ -1837,13 +1835,13 @@
       </c>
       <c r="N10" s="20" t="n"/>
       <c r="O10" s="24" t="n">
-        <v>-21.8</v>
+        <v>-23.3</v>
       </c>
       <c r="P10" s="24" t="n">
-        <v>-14.7</v>
+        <v>-13.3</v>
       </c>
       <c r="Q10" s="24" t="n">
-        <v>-18.14</v>
+        <v>-17.55</v>
       </c>
       <c r="R10" s="36" t="inlineStr">
         <is>
@@ -1943,13 +1941,13 @@
         </is>
       </c>
       <c r="O11" s="24" t="n">
-        <v>-23.1</v>
+        <v>-27.1</v>
       </c>
       <c r="P11" s="24" t="n">
-        <v>-12.3</v>
+        <v>-1.4</v>
       </c>
       <c r="Q11" s="24" t="n">
-        <v>-17.68</v>
+        <v>-13.38</v>
       </c>
       <c r="R11" s="36" t="inlineStr">
         <is>
@@ -2049,13 +2047,13 @@
       </c>
       <c r="N12" s="21" t="n"/>
       <c r="O12" s="24" t="n">
-        <v>-20.7</v>
+        <v>-19.7</v>
       </c>
       <c r="P12" s="24" t="n">
-        <v>-14.8</v>
+        <v>-6.7</v>
       </c>
       <c r="Q12" s="24" t="n">
-        <v>-17.05</v>
+        <v>-13.51</v>
       </c>
       <c r="R12" s="36" t="inlineStr">
         <is>
@@ -2159,13 +2157,13 @@
         </is>
       </c>
       <c r="O13" s="24" t="n">
-        <v>-29.7</v>
+        <v>-24</v>
       </c>
       <c r="P13" s="24" t="n">
-        <v>-22.7</v>
+        <v>-13.3</v>
       </c>
       <c r="Q13" s="24" t="n">
-        <v>-27.22</v>
+        <v>-19.59</v>
       </c>
       <c r="R13" s="36" t="inlineStr">
         <is>
@@ -2261,13 +2259,13 @@
       </c>
       <c r="N14" s="21" t="n"/>
       <c r="O14" s="24" t="n">
-        <v>-20.4</v>
+        <v>-13.4</v>
       </c>
       <c r="P14" s="24" t="n">
-        <v>-11.2</v>
+        <v>-4.4</v>
       </c>
       <c r="Q14" s="24" t="n">
-        <v>-16.12</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="R14" s="36" t="inlineStr">
         <is>
@@ -2614,15 +2612,9 @@
         </is>
       </c>
       <c r="N18" s="21" t="n"/>
-      <c r="O18" s="24" t="n">
-        <v>-30.2</v>
-      </c>
-      <c r="P18" s="24" t="n">
-        <v>-21</v>
-      </c>
-      <c r="Q18" s="24" t="n">
-        <v>-26.75</v>
-      </c>
+      <c r="O18" s="24" t="n"/>
+      <c r="P18" s="24" t="n"/>
+      <c r="Q18" s="24" t="n"/>
       <c r="R18" s="36" t="n"/>
       <c r="S18" s="2" t="inlineStr">
         <is>
@@ -7231,13 +7223,13 @@
       </c>
       <c r="N75" s="21" t="n"/>
       <c r="O75" s="24" t="n">
-        <v>-22.9</v>
+        <v>-33.6</v>
       </c>
       <c r="P75" s="24" t="n">
-        <v>-13.9</v>
+        <v>-14.8</v>
       </c>
       <c r="Q75" s="24" t="n">
-        <v>-18.21</v>
+        <v>-27.24</v>
       </c>
       <c r="R75" s="36" t="inlineStr">
         <is>
@@ -7337,13 +7329,13 @@
       </c>
       <c r="N76" s="21" t="n"/>
       <c r="O76" s="24" t="n">
-        <v>-30</v>
+        <v>-39.9</v>
       </c>
       <c r="P76" s="24" t="n">
-        <v>-23.5</v>
+        <v>-30.3</v>
       </c>
       <c r="Q76" s="24" t="n">
-        <v>-26.86</v>
+        <v>-36.01</v>
       </c>
       <c r="R76" s="36" t="inlineStr">
         <is>
@@ -7447,13 +7439,13 @@
         </is>
       </c>
       <c r="O77" s="24" t="n">
-        <v>-32.6</v>
+        <v>-42.8</v>
       </c>
       <c r="P77" s="24" t="n">
-        <v>-18.8</v>
+        <v>-28.2</v>
       </c>
       <c r="Q77" s="24" t="n">
-        <v>-27.29</v>
+        <v>-36.74</v>
       </c>
       <c r="R77" s="36" t="inlineStr">
         <is>
@@ -7549,13 +7541,13 @@
       </c>
       <c r="N78" s="21" t="n"/>
       <c r="O78" s="24" t="n">
-        <v>-31.6</v>
+        <v>-41.8</v>
       </c>
       <c r="P78" s="24" t="n">
-        <v>-24.8</v>
+        <v>-30.9</v>
       </c>
       <c r="Q78" s="24" t="n">
-        <v>-28.57</v>
+        <v>-37.29</v>
       </c>
       <c r="R78" s="36" t="inlineStr">
         <is>
@@ -7655,13 +7647,13 @@
         </is>
       </c>
       <c r="O79" s="24" t="n">
-        <v>-34.2</v>
+        <v>-35.6</v>
       </c>
       <c r="P79" s="24" t="n">
-        <v>-18.7</v>
+        <v>-18.1</v>
       </c>
       <c r="Q79" s="24" t="n">
-        <v>-26.04</v>
+        <v>-28.78</v>
       </c>
       <c r="R79" s="36" t="inlineStr">
         <is>
@@ -7757,13 +7749,13 @@
       </c>
       <c r="N80" s="21" t="n"/>
       <c r="O80" s="24" t="n">
-        <v>-30.9</v>
+        <v>-30.6</v>
       </c>
       <c r="P80" s="24" t="n">
-        <v>-21.4</v>
+        <v>-21</v>
       </c>
       <c r="Q80" s="24" t="n">
-        <v>-27.19</v>
+        <v>-26.26</v>
       </c>
       <c r="R80" s="36" t="inlineStr">
         <is>
@@ -7867,13 +7859,13 @@
         </is>
       </c>
       <c r="O81" s="24" t="n">
-        <v>-44.3</v>
+        <v>-35.8</v>
       </c>
       <c r="P81" s="24" t="n">
-        <v>-29</v>
+        <v>-26.1</v>
       </c>
       <c r="Q81" s="24" t="n">
-        <v>-37.06</v>
+        <v>-30.36</v>
       </c>
       <c r="R81" s="36" t="inlineStr">
         <is>
@@ -7982,13 +7974,13 @@
         </is>
       </c>
       <c r="O82" s="24" t="n">
-        <v>-41.6</v>
+        <v>-29.2</v>
       </c>
       <c r="P82" s="24" t="n">
-        <v>-24.1</v>
+        <v>-21</v>
       </c>
       <c r="Q82" s="24" t="n">
-        <v>-35.66</v>
+        <v>-24.7</v>
       </c>
       <c r="R82" s="36" t="inlineStr">
         <is>
@@ -8084,13 +8076,13 @@
       </c>
       <c r="N83" s="21" t="n"/>
       <c r="O83" s="24" t="n">
-        <v>-27.6</v>
+        <v>-21.5</v>
       </c>
       <c r="P83" s="24" t="n">
-        <v>-18.2</v>
+        <v>-14.7</v>
       </c>
       <c r="Q83" s="24" t="n">
-        <v>-23.51</v>
+        <v>-18.23</v>
       </c>
       <c r="R83" s="36" t="inlineStr">
         <is>
@@ -8190,13 +8182,13 @@
         </is>
       </c>
       <c r="O84" s="24" t="n">
-        <v>-22.1</v>
+        <v>-25.5</v>
       </c>
       <c r="P84" s="24" t="n">
-        <v>-15.7</v>
+        <v>-9.4</v>
       </c>
       <c r="Q84" s="24" t="n">
-        <v>-20.21</v>
+        <v>-15.99</v>
       </c>
       <c r="R84" s="36" t="inlineStr">
         <is>
@@ -8296,13 +8288,13 @@
         </is>
       </c>
       <c r="O85" s="24" t="n">
-        <v>-21.9</v>
+        <v>-28.3</v>
       </c>
       <c r="P85" s="24" t="n">
-        <v>-13.3</v>
+        <v>-14.4</v>
       </c>
       <c r="Q85" s="24" t="n">
-        <v>-17.3</v>
+        <v>-19.8</v>
       </c>
       <c r="R85" s="36" t="inlineStr">
         <is>
@@ -8398,13 +8390,13 @@
       </c>
       <c r="N86" s="21" t="n"/>
       <c r="O86" s="24" t="n">
-        <v>-20.8</v>
+        <v>-21.1</v>
       </c>
       <c r="P86" s="24" t="n">
-        <v>-13.9</v>
+        <v>-11.3</v>
       </c>
       <c r="Q86" s="24" t="n">
-        <v>-17.89</v>
+        <v>-16.12</v>
       </c>
       <c r="R86" s="36" t="inlineStr">
         <is>
@@ -8512,13 +8504,13 @@
         </is>
       </c>
       <c r="O87" s="24" t="n">
-        <v>-24.5</v>
+        <v>-26.5</v>
       </c>
       <c r="P87" s="24" t="n">
-        <v>-17.1</v>
+        <v>-18.2</v>
       </c>
       <c r="Q87" s="24" t="n">
-        <v>-20.96</v>
+        <v>-23.04</v>
       </c>
       <c r="R87" s="36" t="inlineStr">
         <is>
@@ -8614,13 +8606,13 @@
       </c>
       <c r="N88" s="21" t="n"/>
       <c r="O88" s="24" t="n">
-        <v>-26.6</v>
+        <v>-19.8</v>
       </c>
       <c r="P88" s="24" t="n">
-        <v>-16.1</v>
+        <v>-7.3</v>
       </c>
       <c r="Q88" s="24" t="n">
-        <v>-21.86</v>
+        <v>-13.89</v>
       </c>
       <c r="R88" s="36" t="inlineStr">
         <is>
@@ -8716,12 +8708,14 @@
       </c>
       <c r="N89" s="21" t="n"/>
       <c r="O89" s="24" t="n">
-        <v>-36.9</v>
+        <v>-33</v>
       </c>
       <c r="P89" s="24" t="n">
-        <v>-22</v>
-      </c>
-      <c r="Q89" s="24" t="n"/>
+        <v>-21.3</v>
+      </c>
+      <c r="Q89" s="24" t="n">
+        <v>-27.35</v>
+      </c>
       <c r="R89" s="36" t="inlineStr">
         <is>
           <t>Y</t>
@@ -8816,13 +8810,13 @@
         </is>
       </c>
       <c r="O90" s="24" t="n">
-        <v>-4.7</v>
+        <v>-26.2</v>
       </c>
       <c r="P90" s="24" t="n">
-        <v>-2.9</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="Q90" s="24" t="n">
-        <v>-4.19</v>
+        <v>-18.31</v>
       </c>
       <c r="R90" s="36" t="inlineStr">
         <is>
@@ -8914,13 +8908,13 @@
       </c>
       <c r="N91" s="21" t="n"/>
       <c r="O91" s="24" t="n">
-        <v>-8.5</v>
+        <v>-19.5</v>
       </c>
       <c r="P91" s="24" t="n">
-        <v>-2.6</v>
+        <v>-6.6</v>
       </c>
       <c r="Q91" s="24" t="n">
-        <v>-5.54</v>
+        <v>-15.62</v>
       </c>
       <c r="R91" s="36" t="inlineStr">
         <is>
@@ -9012,13 +9006,13 @@
       </c>
       <c r="N92" s="21" t="n"/>
       <c r="O92" s="24" t="n">
-        <v>-19.6</v>
+        <v>-16.5</v>
       </c>
       <c r="P92" s="24" t="n">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="Q92" s="24" t="n">
-        <v>-13.25</v>
+        <v>-11.3</v>
       </c>
       <c r="R92" s="36" t="inlineStr">
         <is>
@@ -9114,13 +9108,13 @@
       </c>
       <c r="N93" s="21" t="n"/>
       <c r="O93" s="24" t="n">
-        <v>-13.7</v>
+        <v>-11.4</v>
       </c>
       <c r="P93" s="24" t="n">
-        <v>3.9</v>
+        <v>6</v>
       </c>
       <c r="Q93" s="24" t="n">
-        <v>-5.64</v>
+        <v>-2.72</v>
       </c>
       <c r="R93" s="36" t="inlineStr">
         <is>
@@ -9224,10 +9218,10 @@
         </is>
       </c>
       <c r="O94" s="24" t="n">
-        <v>-19.1</v>
+        <v>-17.2</v>
       </c>
       <c r="P94" s="24" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q94" s="24" t="n"/>
       <c r="R94" s="36" t="inlineStr">
@@ -9332,13 +9326,13 @@
       </c>
       <c r="N95" s="21" t="n"/>
       <c r="O95" s="24" t="n">
-        <v>-9.199999999999999</v>
+        <v>-13.5</v>
       </c>
       <c r="P95" s="24" t="n">
-        <v>-1.5</v>
+        <v>1.1</v>
       </c>
       <c r="Q95" s="24" t="n">
-        <v>-5.79</v>
+        <v>-4.72</v>
       </c>
       <c r="R95" s="36" t="inlineStr">
         <is>
@@ -9450,10 +9444,10 @@
         </is>
       </c>
       <c r="O96" s="24" t="n">
-        <v>-21</v>
+        <v>-18.7</v>
       </c>
       <c r="P96" s="24" t="n">
-        <v>-3.3</v>
+        <v>-2.8</v>
       </c>
       <c r="Q96" s="24" t="n"/>
       <c r="R96" s="36" t="inlineStr">
@@ -9558,13 +9552,13 @@
       </c>
       <c r="N97" s="21" t="n"/>
       <c r="O97" s="24" t="n">
-        <v>-12.6</v>
+        <v>-19.6</v>
       </c>
       <c r="P97" s="24" t="n">
-        <v>-4.7</v>
+        <v>-6.7</v>
       </c>
       <c r="Q97" s="24" t="n">
-        <v>-9.08</v>
+        <v>-12.06</v>
       </c>
       <c r="R97" s="36" t="inlineStr">
         <is>
@@ -9664,10 +9658,10 @@
       </c>
       <c r="N98" s="21" t="n"/>
       <c r="O98" s="24" t="n">
-        <v>-22.9</v>
+        <v>-34</v>
       </c>
       <c r="P98" s="24" t="n">
-        <v>-13.6</v>
+        <v>-19.1</v>
       </c>
       <c r="Q98" s="24" t="n"/>
       <c r="R98" s="36" t="inlineStr">
@@ -9772,13 +9766,13 @@
       </c>
       <c r="N99" s="21" t="n"/>
       <c r="O99" s="24" t="n">
-        <v>-31.6</v>
+        <v>-34.9</v>
       </c>
       <c r="P99" s="24" t="n">
-        <v>-22.6</v>
+        <v>-23.2</v>
       </c>
       <c r="Q99" s="24" t="n">
-        <v>-26.15</v>
+        <v>-30.1</v>
       </c>
       <c r="R99" s="36" t="inlineStr">
         <is>
@@ -9969,12 +9963,8 @@
         </is>
       </c>
       <c r="N101" s="21" t="n"/>
-      <c r="O101" s="24" t="n">
-        <v>-37.7</v>
-      </c>
-      <c r="P101" s="24" t="n">
-        <v>-22.6</v>
-      </c>
+      <c r="O101" s="24" t="n"/>
+      <c r="P101" s="24" t="n"/>
       <c r="Q101" s="24" t="n"/>
       <c r="R101" s="36" t="inlineStr">
         <is>
@@ -10082,13 +10072,13 @@
       </c>
       <c r="N102" s="21" t="n"/>
       <c r="O102" s="24" t="n">
-        <v>-39.7</v>
+        <v>-34.9</v>
       </c>
       <c r="P102" s="24" t="n">
-        <v>-26</v>
+        <v>-21.5</v>
       </c>
       <c r="Q102" s="24" t="n">
-        <v>-34.81</v>
+        <v>-29.16</v>
       </c>
       <c r="R102" s="36" t="inlineStr">
         <is>
@@ -10188,10 +10178,10 @@
       </c>
       <c r="N103" s="21" t="n"/>
       <c r="O103" s="24" t="n">
-        <v>-39.9</v>
+        <v>-37.4</v>
       </c>
       <c r="P103" s="24" t="n">
-        <v>-26.4</v>
+        <v>-26.7</v>
       </c>
       <c r="Q103" s="24" t="n"/>
       <c r="R103" s="36" t="inlineStr">
@@ -10288,10 +10278,10 @@
       </c>
       <c r="N104" s="21" t="n"/>
       <c r="O104" s="24" t="n">
-        <v>-36</v>
+        <v>-30.5</v>
       </c>
       <c r="P104" s="24" t="n">
-        <v>-19.8</v>
+        <v>-18.5</v>
       </c>
       <c r="Q104" s="24" t="n"/>
       <c r="R104" s="36" t="inlineStr">
@@ -10404,13 +10394,13 @@
         </is>
       </c>
       <c r="O105" s="24" t="n">
-        <v>-37.6</v>
+        <v>-32.2</v>
       </c>
       <c r="P105" s="24" t="n">
-        <v>-19.3</v>
+        <v>-14.8</v>
       </c>
       <c r="Q105" s="24" t="n">
-        <v>-31.21</v>
+        <v>-23.11</v>
       </c>
       <c r="R105" s="36" t="inlineStr">
         <is>
@@ -10514,10 +10504,10 @@
         </is>
       </c>
       <c r="O106" s="24" t="n">
-        <v>-31.5</v>
+        <v>-27.6</v>
       </c>
       <c r="P106" s="24" t="n">
-        <v>-23.1</v>
+        <v>-13.9</v>
       </c>
       <c r="Q106" s="24" t="n"/>
       <c r="R106" s="36" t="inlineStr">
@@ -10714,13 +10704,13 @@
       </c>
       <c r="N108" s="21" t="n"/>
       <c r="O108" s="24" t="n">
-        <v>-27.4</v>
+        <v>-22.2</v>
       </c>
       <c r="P108" s="24" t="n">
-        <v>-18.9</v>
+        <v>-10.8</v>
       </c>
       <c r="Q108" s="24" t="n">
-        <v>-23.75</v>
+        <v>-18.15</v>
       </c>
       <c r="R108" s="36" t="inlineStr">
         <is>
@@ -11012,13 +11002,13 @@
       </c>
       <c r="N111" s="21" t="n"/>
       <c r="O111" s="24" t="n">
-        <v>-24</v>
+        <v>-21.1</v>
       </c>
       <c r="P111" s="24" t="n">
-        <v>-12.3</v>
+        <v>-4.4</v>
       </c>
       <c r="Q111" s="24" t="n">
-        <v>-20.16</v>
+        <v>-13.49</v>
       </c>
       <c r="R111" s="36" t="inlineStr">
         <is>
@@ -11114,10 +11104,10 @@
       </c>
       <c r="N112" s="21" t="n"/>
       <c r="O112" s="24" t="n">
-        <v>-17.9</v>
+        <v>-14.4</v>
       </c>
       <c r="P112" s="24" t="n">
-        <v>-2.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q112" s="24" t="n"/>
       <c r="R112" s="36" t="inlineStr">
@@ -11210,10 +11200,10 @@
       </c>
       <c r="N113" s="21" t="n"/>
       <c r="O113" s="24" t="n">
-        <v>-17.6</v>
+        <v>-19.3</v>
       </c>
       <c r="P113" s="24" t="n">
-        <v>-0.9</v>
+        <v>1.4</v>
       </c>
       <c r="Q113" s="24" t="n"/>
       <c r="R113" s="36" t="inlineStr">
@@ -11314,10 +11304,10 @@
         </is>
       </c>
       <c r="O114" s="24" t="n">
-        <v>-24.8</v>
+        <v>-26.2</v>
       </c>
       <c r="P114" s="24" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="Q114" s="24" t="n"/>
       <c r="R114" s="36" t="inlineStr">
@@ -11426,10 +11416,10 @@
         </is>
       </c>
       <c r="O115" s="24" t="n">
-        <v>-16.6</v>
+        <v>-13</v>
       </c>
       <c r="P115" s="24" t="n">
-        <v>-2.1</v>
+        <v>1</v>
       </c>
       <c r="Q115" s="24" t="n"/>
       <c r="R115" s="36" t="inlineStr">
@@ -11534,13 +11524,13 @@
       </c>
       <c r="N116" s="21" t="n"/>
       <c r="O116" s="24" t="n">
-        <v>-6.3</v>
+        <v>-7.6</v>
       </c>
       <c r="P116" s="24" t="n">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q116" s="24" t="n">
-        <v>-2.74</v>
+        <v>-3.49</v>
       </c>
       <c r="R116" s="36" t="inlineStr">
         <is>
@@ -11636,10 +11626,10 @@
       </c>
       <c r="N117" s="21" t="n"/>
       <c r="O117" s="24" t="n">
-        <v>-13.3</v>
+        <v>-11.6</v>
       </c>
       <c r="P117" s="24" t="n">
-        <v>-1.4</v>
+        <v>-1.1</v>
       </c>
       <c r="Q117" s="24" t="n"/>
       <c r="R117" s="36" t="inlineStr">
@@ -11740,10 +11730,10 @@
         </is>
       </c>
       <c r="O118" s="24" t="n">
-        <v>-12.9</v>
+        <v>-18.8</v>
       </c>
       <c r="P118" s="24" t="n">
-        <v>-2.6</v>
+        <v>-5.4</v>
       </c>
       <c r="Q118" s="24" t="n"/>
       <c r="R118" s="36" t="inlineStr">
@@ -11848,13 +11838,13 @@
       </c>
       <c r="N119" s="21" t="n"/>
       <c r="O119" s="24" t="n">
-        <v>-8.300000000000001</v>
+        <v>-14.8</v>
       </c>
       <c r="P119" s="24" t="n">
-        <v>-2.5</v>
+        <v>-5.2</v>
       </c>
       <c r="Q119" s="24" t="n">
-        <v>-5.6</v>
+        <v>-9.16</v>
       </c>
       <c r="R119" s="36" t="inlineStr">
         <is>
@@ -11962,13 +11952,13 @@
       </c>
       <c r="N120" s="21" t="n"/>
       <c r="O120" s="24" t="n">
-        <v>-8.199999999999999</v>
+        <v>-7</v>
       </c>
       <c r="P120" s="24" t="n">
-        <v>-1.5</v>
+        <v>1.3</v>
       </c>
       <c r="Q120" s="24" t="n">
-        <v>-5.36</v>
+        <v>-3.89</v>
       </c>
       <c r="R120" s="36" t="inlineStr">
         <is>
@@ -12068,13 +12058,13 @@
       </c>
       <c r="N121" s="21" t="n"/>
       <c r="O121" s="24" t="n">
-        <v>-11.5</v>
+        <v>-5.6</v>
       </c>
       <c r="P121" s="24" t="n">
-        <v>-2.2</v>
+        <v>-1.3</v>
       </c>
       <c r="Q121" s="24" t="n">
-        <v>-7.12</v>
+        <v>-3.95</v>
       </c>
       <c r="R121" s="36" t="inlineStr">
         <is>
@@ -12182,10 +12172,10 @@
       </c>
       <c r="N122" s="21" t="n"/>
       <c r="O122" s="24" t="n">
-        <v>-22</v>
+        <v>-13.3</v>
       </c>
       <c r="P122" s="24" t="n">
-        <v>-6.2</v>
+        <v>-6</v>
       </c>
       <c r="Q122" s="24" t="n"/>
       <c r="R122" s="36" t="inlineStr">
@@ -12386,13 +12376,13 @@
       </c>
       <c r="N124" s="21" t="n"/>
       <c r="O124" s="24" t="n">
-        <v>-12.6</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="P124" s="24" t="n">
-        <v>-1.9</v>
+        <v>2.1</v>
       </c>
       <c r="Q124" s="24" t="n">
-        <v>-8.34</v>
+        <v>-4.01</v>
       </c>
       <c r="R124" s="36" t="inlineStr">
         <is>
@@ -12500,13 +12490,13 @@
       </c>
       <c r="N125" s="21" t="n"/>
       <c r="O125" s="24" t="n">
-        <v>-5.9</v>
+        <v>-3</v>
       </c>
       <c r="P125" s="24" t="n">
-        <v>4.3</v>
+        <v>2.1</v>
       </c>
       <c r="Q125" s="24" t="n">
-        <v>-1.64</v>
+        <v>-0.03</v>
       </c>
       <c r="R125" s="36" t="inlineStr">
         <is>
@@ -12590,10 +12580,10 @@
       </c>
       <c r="N126" s="21" t="n"/>
       <c r="O126" s="24" t="n">
-        <v>-2.3</v>
+        <v>0.6</v>
       </c>
       <c r="P126" s="24" t="n">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="Q126" s="24" t="n"/>
       <c r="R126" s="36" t="inlineStr">
@@ -12690,13 +12680,13 @@
       </c>
       <c r="N127" s="21" t="n"/>
       <c r="O127" s="24" t="n">
-        <v>-7.8</v>
+        <v>-7</v>
       </c>
       <c r="P127" s="24" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="Q127" s="24" t="n">
-        <v>-2.14</v>
+        <v>-1.35</v>
       </c>
       <c r="R127" s="36" t="inlineStr">
         <is>
@@ -12800,10 +12790,10 @@
       </c>
       <c r="N128" s="21" t="n"/>
       <c r="O128" s="24" t="n">
-        <v>-3</v>
+        <v>-2.8</v>
       </c>
       <c r="P128" s="24" t="n">
-        <v>6.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q128" s="24" t="n"/>
       <c r="R128" s="36" t="inlineStr">
@@ -12900,13 +12890,13 @@
       </c>
       <c r="N129" s="21" t="n"/>
       <c r="O129" s="24" t="n">
-        <v>-9.9</v>
+        <v>-7.4</v>
       </c>
       <c r="P129" s="24" t="n">
-        <v>5.5</v>
+        <v>8.4</v>
       </c>
       <c r="Q129" s="24" t="n">
-        <v>-3.75</v>
+        <v>-1.27</v>
       </c>
       <c r="R129" s="36" t="inlineStr">
         <is>
@@ -13010,13 +13000,13 @@
       </c>
       <c r="N130" s="21" t="n"/>
       <c r="O130" s="24" t="n">
-        <v>-8.199999999999999</v>
+        <v>-7.1</v>
       </c>
       <c r="P130" s="24" t="n">
-        <v>11.4</v>
+        <v>10.6</v>
       </c>
       <c r="Q130" s="24" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="R130" s="36" t="inlineStr">
         <is>
@@ -13120,13 +13110,13 @@
       </c>
       <c r="N131" s="21" t="n"/>
       <c r="O131" s="24" t="n">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="P131" s="24" t="n">
-        <v>11.7</v>
+        <v>14</v>
       </c>
       <c r="Q131" s="24" t="n">
-        <v>6.63</v>
+        <v>8.08</v>
       </c>
       <c r="R131" s="36" t="inlineStr">
         <is>
@@ -13226,13 +13216,13 @@
       </c>
       <c r="N132" s="21" t="n"/>
       <c r="O132" s="24" t="n">
-        <v>-1.7</v>
+        <v>1.7</v>
       </c>
       <c r="P132" s="24" t="n">
-        <v>16</v>
+        <v>12.4</v>
       </c>
       <c r="Q132" s="24" t="n">
-        <v>5.04</v>
+        <v>6.81</v>
       </c>
       <c r="R132" s="36" t="inlineStr">
         <is>
@@ -13332,13 +13322,13 @@
       </c>
       <c r="N133" s="21" t="n"/>
       <c r="O133" s="24" t="n">
-        <v>-2.3</v>
+        <v>0.2</v>
       </c>
       <c r="P133" s="24" t="n">
-        <v>9.699999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="Q133" s="24" t="n">
-        <v>2.74</v>
+        <v>4.96</v>
       </c>
       <c r="R133" s="36" t="inlineStr">
         <is>
@@ -13442,13 +13432,13 @@
       </c>
       <c r="N134" s="21" t="n"/>
       <c r="O134" s="24" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="P134" s="24" t="n">
-        <v>17.4</v>
+        <v>14.2</v>
       </c>
       <c r="Q134" s="24" t="n">
-        <v>8.609999999999999</v>
+        <v>7.61</v>
       </c>
       <c r="R134" s="36" t="inlineStr">
         <is>
@@ -13544,13 +13534,13 @@
       </c>
       <c r="N135" s="21" t="n"/>
       <c r="O135" s="24" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P135" s="24" t="n">
-        <v>15.4</v>
+        <v>17.1</v>
       </c>
       <c r="Q135" s="24" t="n">
-        <v>9.119999999999999</v>
+        <v>11.01</v>
       </c>
       <c r="R135" s="36" t="inlineStr">
         <is>
@@ -13650,13 +13640,13 @@
       </c>
       <c r="N136" s="21" t="n"/>
       <c r="O136" s="24" t="n">
-        <v>2.7</v>
+        <v>7.9</v>
       </c>
       <c r="P136" s="24" t="n">
-        <v>15</v>
+        <v>17.2</v>
       </c>
       <c r="Q136" s="24" t="n">
-        <v>8.43</v>
+        <v>12.1</v>
       </c>
       <c r="R136" s="36" t="inlineStr">
         <is>
@@ -13756,13 +13746,13 @@
       </c>
       <c r="N137" s="21" t="n"/>
       <c r="O137" s="24" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="P137" s="24" t="n">
-        <v>14.8</v>
+        <v>16.2</v>
       </c>
       <c r="Q137" s="24" t="n">
-        <v>7.54</v>
+        <v>7.02</v>
       </c>
       <c r="R137" s="36" t="inlineStr">
         <is>
@@ -13862,10 +13852,10 @@
       </c>
       <c r="N138" s="21" t="n"/>
       <c r="O138" s="24" t="n">
-        <v>-2.9</v>
+        <v>-1.8</v>
       </c>
       <c r="P138" s="24" t="n">
-        <v>13.6</v>
+        <v>14.3</v>
       </c>
       <c r="Q138" s="24" t="n"/>
       <c r="R138" s="36" t="inlineStr">
@@ -13966,13 +13956,13 @@
       </c>
       <c r="N139" s="21" t="n"/>
       <c r="O139" s="24" t="n">
-        <v>-1.3</v>
+        <v>3.3</v>
       </c>
       <c r="P139" s="24" t="n">
-        <v>12.8</v>
+        <v>14.7</v>
       </c>
       <c r="Q139" s="24" t="n">
-        <v>4.86</v>
+        <v>7.84</v>
       </c>
       <c r="R139" s="36" t="inlineStr">
         <is>
@@ -14072,13 +14062,13 @@
       </c>
       <c r="N140" s="21" t="n"/>
       <c r="O140" s="24" t="n">
-        <v>0.2</v>
+        <v>4.9</v>
       </c>
       <c r="P140" s="24" t="n">
-        <v>14.3</v>
+        <v>15.7</v>
       </c>
       <c r="Q140" s="24" t="n">
-        <v>6.24</v>
+        <v>9.51</v>
       </c>
       <c r="R140" s="36" t="inlineStr">
         <is>
@@ -14178,13 +14168,13 @@
       </c>
       <c r="N141" s="21" t="n"/>
       <c r="O141" s="24" t="n">
-        <v>0.1</v>
+        <v>5.9</v>
       </c>
       <c r="P141" s="24" t="n">
-        <v>15.8</v>
+        <v>18.9</v>
       </c>
       <c r="Q141" s="24" t="n">
-        <v>6.37</v>
+        <v>11.68</v>
       </c>
       <c r="R141" s="36" t="inlineStr">
         <is>
@@ -14280,13 +14270,13 @@
       </c>
       <c r="N142" s="21" t="n"/>
       <c r="O142" s="24" t="n">
-        <v>6.9</v>
+        <v>12</v>
       </c>
       <c r="P142" s="24" t="n">
-        <v>18.1</v>
+        <v>21.4</v>
       </c>
       <c r="Q142" s="24" t="n">
-        <v>11.74</v>
+        <v>16.44</v>
       </c>
       <c r="R142" s="36" t="inlineStr">
         <is>
@@ -14386,13 +14376,13 @@
       </c>
       <c r="N143" s="21" t="n"/>
       <c r="O143" s="24" t="n">
-        <v>6.8</v>
+        <v>12.5</v>
       </c>
       <c r="P143" s="24" t="n">
-        <v>21.5</v>
+        <v>25.8</v>
       </c>
       <c r="Q143" s="24" t="n">
-        <v>12.82</v>
+        <v>17.96</v>
       </c>
       <c r="R143" s="36" t="inlineStr">
         <is>
@@ -14492,13 +14482,13 @@
       </c>
       <c r="N144" s="21" t="n"/>
       <c r="O144" s="24" t="n">
-        <v>18</v>
+        <v>18.4</v>
       </c>
       <c r="P144" s="24" t="n">
-        <v>22.1</v>
+        <v>24.3</v>
       </c>
       <c r="Q144" s="24" t="n">
-        <v>19.84</v>
+        <v>20.91</v>
       </c>
       <c r="R144" s="36" t="inlineStr">
         <is>
@@ -14594,13 +14584,13 @@
       </c>
       <c r="N145" s="21" t="n"/>
       <c r="O145" s="24" t="n">
-        <v>17.4</v>
+        <v>18.3</v>
       </c>
       <c r="P145" s="24" t="n">
-        <v>23.3</v>
+        <v>23.9</v>
       </c>
       <c r="Q145" s="24" t="n">
-        <v>19.69</v>
+        <v>20.52</v>
       </c>
       <c r="R145" s="36" t="inlineStr">
         <is>
@@ -14692,13 +14682,13 @@
       </c>
       <c r="N146" s="21" t="n"/>
       <c r="O146" s="24" t="n">
-        <v>17.9</v>
+        <v>18.4</v>
       </c>
       <c r="P146" s="24" t="n">
-        <v>26</v>
+        <v>27.6</v>
       </c>
       <c r="Q146" s="24" t="n">
-        <v>21.62</v>
+        <v>22.66</v>
       </c>
       <c r="R146" s="36" t="inlineStr">
         <is>
@@ -14790,13 +14780,13 @@
       </c>
       <c r="N147" s="21" t="n"/>
       <c r="O147" s="24" t="n">
-        <v>11.4</v>
+        <v>14.7</v>
       </c>
       <c r="P147" s="24" t="n">
-        <v>19</v>
+        <v>23.7</v>
       </c>
       <c r="Q147" s="24" t="n">
-        <v>14.53</v>
+        <v>18.8</v>
       </c>
       <c r="R147" s="36" t="inlineStr">
         <is>
@@ -14896,10 +14886,10 @@
       </c>
       <c r="N148" s="21" t="n"/>
       <c r="O148" s="24" t="n">
-        <v>14.2</v>
+        <v>15</v>
       </c>
       <c r="P148" s="24" t="n">
-        <v>26.6</v>
+        <v>23.3</v>
       </c>
       <c r="Q148" s="24" t="n"/>
       <c r="R148" s="36" t="inlineStr">
@@ -14996,13 +14986,13 @@
       </c>
       <c r="N149" s="21" t="n"/>
       <c r="O149" s="24" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="P149" s="24" t="n">
-        <v>17.9</v>
+        <v>16.3</v>
       </c>
       <c r="Q149" s="24" t="n">
-        <v>11.22</v>
+        <v>10.3</v>
       </c>
       <c r="R149" s="36" t="inlineStr">
         <is>
@@ -15102,13 +15092,13 @@
       </c>
       <c r="N150" s="21" t="n"/>
       <c r="O150" s="24" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="P150" s="24" t="n">
-        <v>13.4</v>
+        <v>15.4</v>
       </c>
       <c r="Q150" s="24" t="n">
-        <v>8.970000000000001</v>
+        <v>10.4</v>
       </c>
       <c r="R150" s="36" t="inlineStr">
         <is>
@@ -15208,13 +15198,13 @@
       </c>
       <c r="N151" s="21" t="n"/>
       <c r="O151" s="24" t="n">
-        <v>9.800000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="P151" s="24" t="n">
-        <v>12.1</v>
+        <v>16.8</v>
       </c>
       <c r="Q151" s="24" t="n">
-        <v>10.78</v>
+        <v>12.94</v>
       </c>
       <c r="R151" s="36" t="inlineStr">
         <is>
@@ -15398,13 +15388,13 @@
       </c>
       <c r="N153" s="21" t="n"/>
       <c r="O153" s="24" t="n">
-        <v>5.8</v>
+        <v>3.2</v>
       </c>
       <c r="P153" s="24" t="n">
-        <v>12.8</v>
+        <v>13.4</v>
       </c>
       <c r="Q153" s="24" t="n">
-        <v>8.48</v>
+        <v>8.52</v>
       </c>
       <c r="R153" s="36" t="inlineStr">
         <is>
@@ -15508,13 +15498,13 @@
       </c>
       <c r="N154" s="21" t="n"/>
       <c r="O154" s="24" t="n">
-        <v>-4.4</v>
+        <v>-6.2</v>
       </c>
       <c r="P154" s="24" t="n">
-        <v>11</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Q154" s="24" t="n">
-        <v>1.54</v>
+        <v>-0.04</v>
       </c>
       <c r="R154" s="36" t="inlineStr">
         <is>
@@ -15694,10 +15684,10 @@
       </c>
       <c r="N156" s="21" t="n"/>
       <c r="O156" s="24" t="n">
-        <v>-21.6</v>
+        <v>-16.5</v>
       </c>
       <c r="P156" s="24" t="n">
-        <v>0.4</v>
+        <v>6.7</v>
       </c>
       <c r="Q156" s="24" t="n"/>
       <c r="R156" s="36" t="inlineStr">
@@ -15790,10 +15780,10 @@
       </c>
       <c r="N157" s="21" t="n"/>
       <c r="O157" s="24" t="n">
-        <v>2.3</v>
+        <v>6.9</v>
       </c>
       <c r="P157" s="24" t="n">
-        <v>12.4</v>
+        <v>15.2</v>
       </c>
       <c r="Q157" s="24" t="n"/>
       <c r="R157" s="36" t="inlineStr">
@@ -16146,10 +16136,10 @@
       </c>
       <c r="N161" s="21" t="n"/>
       <c r="O161" s="24" t="n">
-        <v>-7.5</v>
+        <v>-6</v>
       </c>
       <c r="P161" s="24" t="n">
-        <v>8.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="Q161" s="24" t="n"/>
       <c r="R161" s="36" t="inlineStr">
@@ -16353,9 +16343,7 @@
           <t>▼</t>
         </is>
       </c>
-      <c r="O163" s="24" t="n">
-        <v>-41.7</v>
-      </c>
+      <c r="O163" s="24" t="n"/>
       <c r="P163" s="24" t="n"/>
       <c r="Q163" s="24" t="n"/>
       <c r="R163" s="36" t="inlineStr">
@@ -17328,10 +17316,10 @@
       </c>
       <c r="N173" s="21" t="n"/>
       <c r="O173" s="24" t="n">
-        <v>-22.1</v>
+        <v>-17.6</v>
       </c>
       <c r="P173" s="24" t="n">
-        <v>-3.5</v>
+        <v>1.6</v>
       </c>
       <c r="Q173" s="24" t="n"/>
       <c r="R173" s="36" t="inlineStr">
@@ -17610,10 +17598,10 @@
       </c>
       <c r="N176" s="21" t="n"/>
       <c r="O176" s="24" t="n">
-        <v>-0.1</v>
+        <v>1.3</v>
       </c>
       <c r="P176" s="24" t="n">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="Q176" s="24" t="n"/>
       <c r="R176" s="36" t="inlineStr">
@@ -17695,12 +17683,8 @@
         </is>
       </c>
       <c r="N177" s="21" t="n"/>
-      <c r="O177" s="24" t="n">
-        <v>-21.2</v>
-      </c>
-      <c r="P177" s="24" t="n">
-        <v>-14.1</v>
-      </c>
+      <c r="O177" s="24" t="n"/>
+      <c r="P177" s="24" t="n"/>
       <c r="Q177" s="24" t="n"/>
       <c r="R177" s="36" t="inlineStr">
         <is>
@@ -18398,10 +18382,10 @@
       </c>
       <c r="N185" s="21" t="n"/>
       <c r="O185" s="24" t="n">
-        <v>-45.3</v>
+        <v>-48.4</v>
       </c>
       <c r="P185" s="24" t="n">
-        <v>-34.1</v>
+        <v>-36.6</v>
       </c>
       <c r="Q185" s="24" t="n"/>
       <c r="R185" s="36" t="inlineStr">
@@ -18499,13 +18483,13 @@
       </c>
       <c r="N186" s="21" t="n"/>
       <c r="O186" s="24" t="n">
-        <v>-45.9</v>
+        <v>-40.3</v>
       </c>
       <c r="P186" s="24" t="n">
-        <v>-29.3</v>
+        <v>-32.3</v>
       </c>
       <c r="Q186" s="24" t="n">
-        <v>-38.76</v>
+        <v>-35.73</v>
       </c>
       <c r="R186" s="36" t="inlineStr">
         <is>
@@ -18598,13 +18582,13 @@
       </c>
       <c r="N187" s="21" t="n"/>
       <c r="O187" s="24" t="n">
-        <v>-31.8</v>
+        <v>-39.6</v>
       </c>
       <c r="P187" s="24" t="n">
-        <v>-25.4</v>
+        <v>-33.2</v>
       </c>
       <c r="Q187" s="24" t="n">
-        <v>-27.91</v>
+        <v>-36.92</v>
       </c>
       <c r="R187" s="36" t="inlineStr">
         <is>
@@ -18695,10 +18679,10 @@
         <v>-40</v>
       </c>
       <c r="P188" s="24" t="n">
-        <v>-28</v>
+        <v>-33.8</v>
       </c>
       <c r="Q188" s="24" t="n">
-        <v>-31.83</v>
+        <v>-36.98</v>
       </c>
       <c r="R188" s="36" t="inlineStr">
         <is>
@@ -18786,13 +18770,13 @@
       </c>
       <c r="N189" s="21" t="n"/>
       <c r="O189" s="24" t="n">
-        <v>-41.6</v>
+        <v>-34.6</v>
       </c>
       <c r="P189" s="24" t="n">
-        <v>-18.7</v>
+        <v>-27.2</v>
       </c>
       <c r="Q189" s="24" t="n">
-        <v>-26.42</v>
+        <v>-30.3</v>
       </c>
       <c r="R189" s="36" t="inlineStr">
         <is>
@@ -18880,13 +18864,13 @@
       </c>
       <c r="N190" s="21" t="n"/>
       <c r="O190" s="24" t="n">
-        <v>-45.5</v>
+        <v>-49.6</v>
       </c>
       <c r="P190" s="24" t="n">
-        <v>-36.4</v>
+        <v>-40.6</v>
       </c>
       <c r="Q190" s="24" t="n">
-        <v>-41.24</v>
+        <v>-44.11</v>
       </c>
       <c r="R190" s="36" t="inlineStr">
         <is>
@@ -18974,13 +18958,13 @@
       </c>
       <c r="N191" s="21" t="n"/>
       <c r="O191" s="24" t="n">
-        <v>-45.5</v>
+        <v>-39.2</v>
       </c>
       <c r="P191" s="24" t="n">
-        <v>-30.4</v>
+        <v>-32.5</v>
       </c>
       <c r="Q191" s="24" t="n">
-        <v>-39.14</v>
+        <v>-36.45</v>
       </c>
       <c r="R191" s="36" t="inlineStr">
         <is>
@@ -19064,13 +19048,13 @@
       </c>
       <c r="N192" s="21" t="n"/>
       <c r="O192" s="24" t="n">
-        <v>-36.5</v>
+        <v>-36.9</v>
       </c>
       <c r="P192" s="24" t="n">
-        <v>-18.9</v>
+        <v>-30.9</v>
       </c>
       <c r="Q192" s="24" t="n">
-        <v>-31.86</v>
+        <v>-34.23</v>
       </c>
       <c r="R192" s="36" t="inlineStr">
         <is>
@@ -19159,13 +19143,13 @@
       </c>
       <c r="N193" s="21" t="n"/>
       <c r="O193" s="24" t="n">
-        <v>-45</v>
+        <v>-44.3</v>
       </c>
       <c r="P193" s="24" t="n">
-        <v>-41.3</v>
+        <v>-41.8</v>
       </c>
       <c r="Q193" s="24" t="n">
-        <v>-43.74</v>
+        <v>-43.5</v>
       </c>
       <c r="R193" s="36" t="inlineStr">
         <is>
@@ -19257,10 +19241,10 @@
       </c>
       <c r="N194" s="21" t="n"/>
       <c r="O194" s="24" t="n">
-        <v>-41</v>
+        <v>-44.5</v>
       </c>
       <c r="P194" s="24" t="n">
-        <v>-34.9</v>
+        <v>-37</v>
       </c>
       <c r="Q194" s="24" t="n"/>
       <c r="R194" s="36" t="inlineStr">
@@ -19349,13 +19333,13 @@
       </c>
       <c r="N195" s="21" t="n"/>
       <c r="O195" s="24" t="n">
-        <v>-11</v>
+        <v>-13</v>
       </c>
       <c r="P195" s="24" t="n">
-        <v>3</v>
+        <v>-2.2</v>
       </c>
       <c r="Q195" s="24" t="n">
-        <v>-3.86</v>
+        <v>-6.2</v>
       </c>
       <c r="R195" s="36" t="inlineStr">
         <is>
@@ -19447,13 +19431,13 @@
       </c>
       <c r="N196" s="21" t="n"/>
       <c r="O196" s="24" t="n">
-        <v>-40.7</v>
+        <v>-28.1</v>
       </c>
       <c r="P196" s="24" t="n">
-        <v>-30.1</v>
+        <v>-19.1</v>
       </c>
       <c r="Q196" s="24" t="n">
-        <v>-36.78</v>
+        <v>-24.44</v>
       </c>
       <c r="R196" s="36" t="inlineStr">
         <is>
@@ -19541,12 +19525,14 @@
       </c>
       <c r="N197" s="22" t="n"/>
       <c r="O197" s="24" t="n">
-        <v>-51</v>
+        <v>-43.4</v>
       </c>
       <c r="P197" s="24" t="n">
-        <v>-46.5</v>
-      </c>
-      <c r="Q197" s="24" t="n"/>
+        <v>-39.3</v>
+      </c>
+      <c r="Q197" s="24" t="n">
+        <v>-42.59</v>
+      </c>
       <c r="R197" s="36" t="inlineStr">
         <is>
           <t>Y</t>
@@ -19892,12 +19878,8 @@
         </is>
       </c>
       <c r="N201" s="21" t="n"/>
-      <c r="O201" s="24" t="n">
-        <v>-39.2</v>
-      </c>
-      <c r="P201" s="24" t="n">
-        <v>-19.2</v>
-      </c>
+      <c r="O201" s="24" t="n"/>
+      <c r="P201" s="24" t="n"/>
       <c r="Q201" s="24" t="n"/>
       <c r="R201" s="36" t="inlineStr">
         <is>
@@ -20086,18 +20068,10 @@
           <t>♦️</t>
         </is>
       </c>
-      <c r="O203" s="24" t="n">
-        <v>-51.2</v>
-      </c>
-      <c r="P203" s="24" t="n">
-        <v>-44.6</v>
-      </c>
+      <c r="O203" s="24" t="n"/>
+      <c r="P203" s="24" t="n"/>
       <c r="Q203" s="24" t="n"/>
-      <c r="R203" s="36" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="R203" s="36" t="n"/>
       <c r="S203" s="2" t="inlineStr">
         <is>
           <t>克拉斯诺亚尔斯克边疆区</t>
@@ -20867,10 +20841,10 @@
       </c>
       <c r="N212" s="21" t="n"/>
       <c r="O212" s="24" t="n">
-        <v>-38.7</v>
+        <v>-36</v>
       </c>
       <c r="P212" s="24" t="n">
-        <v>-28.1</v>
+        <v>-28</v>
       </c>
       <c r="Q212" s="24" t="n"/>
       <c r="R212" s="36" t="inlineStr">
@@ -20951,13 +20925,13 @@
       </c>
       <c r="N213" s="21" t="n"/>
       <c r="O213" s="24" t="n">
-        <v>-11.5</v>
+        <v>-18.8</v>
       </c>
       <c r="P213" s="24" t="n">
-        <v>2.2</v>
+        <v>-10.6</v>
       </c>
       <c r="Q213" s="24" t="n">
-        <v>-5.26</v>
+        <v>-15.16</v>
       </c>
       <c r="R213" s="36" t="inlineStr">
         <is>
@@ -21053,13 +21027,13 @@
       </c>
       <c r="N214" s="21" t="n"/>
       <c r="O214" s="24" t="n">
-        <v>-12.8</v>
+        <v>-11.8</v>
       </c>
       <c r="P214" s="24" t="n">
-        <v>-6.7</v>
+        <v>-7</v>
       </c>
       <c r="Q214" s="24" t="n">
-        <v>-10.35</v>
+        <v>-9.050000000000001</v>
       </c>
       <c r="R214" s="36" t="inlineStr">
         <is>
@@ -21159,13 +21133,13 @@
       </c>
       <c r="N215" s="21" t="n"/>
       <c r="O215" s="24" t="n">
-        <v>-19.5</v>
+        <v>-12</v>
       </c>
       <c r="P215" s="24" t="n">
-        <v>-14</v>
+        <v>-6.1</v>
       </c>
       <c r="Q215" s="24" t="n">
-        <v>-16.51</v>
+        <v>-9.859999999999999</v>
       </c>
       <c r="R215" s="36" t="inlineStr">
         <is>
@@ -21265,13 +21239,13 @@
       </c>
       <c r="N216" s="21" t="n"/>
       <c r="O216" s="24" t="n">
-        <v>-29.1</v>
+        <v>-19.5</v>
       </c>
       <c r="P216" s="24" t="n">
-        <v>-17</v>
+        <v>-11.7</v>
       </c>
       <c r="Q216" s="24" t="n">
-        <v>-23.26</v>
+        <v>-15.51</v>
       </c>
       <c r="R216" s="36" t="inlineStr">
         <is>
@@ -21367,13 +21341,13 @@
       </c>
       <c r="N217" s="21" t="n"/>
       <c r="O217" s="24" t="n">
-        <v>-9.4</v>
+        <v>-18.7</v>
       </c>
       <c r="P217" s="24" t="n">
-        <v>1.6</v>
+        <v>-16.2</v>
       </c>
       <c r="Q217" s="24" t="n">
-        <v>-5.03</v>
+        <v>-17.54</v>
       </c>
       <c r="R217" s="36" t="inlineStr">
         <is>
@@ -21469,13 +21443,13 @@
       </c>
       <c r="N218" s="21" t="n"/>
       <c r="O218" s="24" t="n">
-        <v>-7.2</v>
+        <v>-17</v>
       </c>
       <c r="P218" s="24" t="n">
-        <v>-1.9</v>
+        <v>-5.8</v>
       </c>
       <c r="Q218" s="24" t="n">
-        <v>-4.09</v>
+        <v>-13.69</v>
       </c>
       <c r="R218" s="36" t="inlineStr">
         <is>
@@ -21571,13 +21545,13 @@
       </c>
       <c r="N219" s="21" t="n"/>
       <c r="O219" s="24" t="n">
-        <v>-13.2</v>
+        <v>-12.2</v>
       </c>
       <c r="P219" s="24" t="n">
-        <v>-1.7</v>
+        <v>-5.2</v>
       </c>
       <c r="Q219" s="24" t="n">
-        <v>-8.75</v>
+        <v>-9.5</v>
       </c>
       <c r="R219" s="36" t="inlineStr">
         <is>
@@ -21664,12 +21638,8 @@
         </is>
       </c>
       <c r="N220" s="21" t="n"/>
-      <c r="O220" s="24" t="n">
-        <v>-39.6</v>
-      </c>
-      <c r="P220" s="24" t="n">
-        <v>-17.9</v>
-      </c>
+      <c r="O220" s="24" t="n"/>
+      <c r="P220" s="24" t="n"/>
       <c r="Q220" s="24" t="n"/>
       <c r="R220" s="36" t="inlineStr">
         <is>
@@ -22036,8 +22006,12 @@
         </is>
       </c>
       <c r="N224" s="21" t="n"/>
-      <c r="O224" s="24" t="n"/>
-      <c r="P224" s="24" t="n"/>
+      <c r="O224" s="24" t="n">
+        <v>-34.7</v>
+      </c>
+      <c r="P224" s="24" t="n">
+        <v>-13.2</v>
+      </c>
       <c r="Q224" s="24" t="n"/>
       <c r="R224" s="36" t="inlineStr">
         <is>
@@ -22841,11 +22815,7 @@
       <c r="O233" s="24" t="n"/>
       <c r="P233" s="24" t="n"/>
       <c r="Q233" s="24" t="n"/>
-      <c r="R233" s="36" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="R233" s="36" t="n"/>
       <c r="S233" s="2" t="inlineStr">
         <is>
           <t>克拉斯诺亚尔斯克边疆区</t>
@@ -22926,20 +22896,10 @@
         </is>
       </c>
       <c r="N234" s="21" t="n"/>
-      <c r="O234" s="24" t="n">
-        <v>-38.3</v>
-      </c>
-      <c r="P234" s="24" t="n">
-        <v>-28.3</v>
-      </c>
-      <c r="Q234" s="24" t="n">
-        <v>-31.36</v>
-      </c>
-      <c r="R234" s="36" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="O234" s="24" t="n"/>
+      <c r="P234" s="24" t="n"/>
+      <c r="Q234" s="24" t="n"/>
+      <c r="R234" s="36" t="n"/>
       <c r="S234" s="2" t="inlineStr">
         <is>
           <t>萨哈共和国</t>
@@ -23110,20 +23070,10 @@
         </is>
       </c>
       <c r="N236" s="21" t="n"/>
-      <c r="O236" s="24" t="n">
-        <v>-43.4</v>
-      </c>
-      <c r="P236" s="24" t="n">
-        <v>-27.4</v>
-      </c>
-      <c r="Q236" s="24" t="n">
-        <v>-35.96</v>
-      </c>
-      <c r="R236" s="36" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="O236" s="24" t="n"/>
+      <c r="P236" s="24" t="n"/>
+      <c r="Q236" s="24" t="n"/>
+      <c r="R236" s="36" t="n"/>
       <c r="S236" s="2" t="inlineStr">
         <is>
           <t>萨哈共和国</t>
@@ -23204,20 +23154,10 @@
         </is>
       </c>
       <c r="N237" s="21" t="n"/>
-      <c r="O237" s="24" t="n">
-        <v>-51.9</v>
-      </c>
-      <c r="P237" s="24" t="n">
-        <v>-44.5</v>
-      </c>
-      <c r="Q237" s="24" t="n">
-        <v>-50.2</v>
-      </c>
-      <c r="R237" s="36" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="O237" s="24" t="n"/>
+      <c r="P237" s="24" t="n"/>
+      <c r="Q237" s="24" t="n"/>
+      <c r="R237" s="36" t="n"/>
       <c r="S237" s="2" t="inlineStr">
         <is>
           <t>萨哈共和国</t>
@@ -23262,37 +23202,95 @@
       <c r="AF237" s="2" t="n"/>
     </row>
     <row r="238" ht="24" customHeight="1" s="38">
-      <c r="A238" s="2" t="n"/>
+      <c r="A238" s="2" t="n">
+        <v>237</v>
+      </c>
       <c r="B238" s="2" t="n"/>
       <c r="C238" s="17" t="n"/>
       <c r="D238" s="2" t="n"/>
       <c r="E238" s="2" t="n"/>
-      <c r="F238" s="3" t="n"/>
-      <c r="G238" s="2" t="n"/>
-      <c r="H238" s="2" t="n"/>
-      <c r="I238" s="2" t="n"/>
-      <c r="J238" s="17" t="n"/>
+      <c r="F238" s="3" t="inlineStr">
+        <is>
+          <t>C0065</t>
+        </is>
+      </c>
+      <c r="G238" s="2" t="n">
+        <v>52.0419</v>
+      </c>
+      <c r="H238" s="2" t="n">
+        <v>122.0761</v>
+      </c>
+      <c r="I238" s="2" t="n">
+        <v>632</v>
+      </c>
+      <c r="J238" s="17" t="n">
+        <v>12</v>
+      </c>
       <c r="K238" s="2" t="n"/>
       <c r="L238" s="2" t="n"/>
-      <c r="M238" s="28" t="n"/>
+      <c r="M238" s="28" t="inlineStr">
+        <is>
+          <t>满归</t>
+        </is>
+      </c>
       <c r="N238" s="21" t="n"/>
       <c r="O238" s="24" t="n"/>
       <c r="P238" s="24" t="n"/>
       <c r="Q238" s="24" t="n"/>
-      <c r="R238" s="36" t="n"/>
-      <c r="S238" s="2" t="n"/>
-      <c r="T238" s="5" t="n"/>
-      <c r="U238" s="5" t="n"/>
-      <c r="V238" s="5" t="n"/>
+      <c r="R238" s="36" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="S238" s="2" t="inlineStr">
+        <is>
+          <t>内蒙古</t>
+        </is>
+      </c>
+      <c r="T238" s="5" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="U238" s="5" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="V238" s="5" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="W238" s="5" t="n"/>
-      <c r="X238" s="2" t="n"/>
-      <c r="Y238" s="2" t="n"/>
+      <c r="X238" s="2" t="inlineStr">
+        <is>
+          <t>呼伦贝尔市</t>
+        </is>
+      </c>
+      <c r="Y238" s="2" t="inlineStr">
+        <is>
+          <t>根河市</t>
+        </is>
+      </c>
       <c r="Z238" s="2" t="n"/>
       <c r="AA238" s="2" t="n"/>
-      <c r="AB238" s="2" t="n"/>
-      <c r="AC238" s="2" t="n"/>
+      <c r="AB238" s="2" t="inlineStr">
+        <is>
+          <t>中国</t>
+        </is>
+      </c>
+      <c r="AC238" s="2" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
       <c r="AD238" s="2" t="n"/>
-      <c r="AE238" s="2" t="n"/>
+      <c r="AE238" s="2" t="inlineStr">
+        <is>
+          <t>大兴安岭</t>
+        </is>
+      </c>
       <c r="AF238" s="2" t="n"/>
     </row>
     <row r="239" ht="24" customHeight="1" s="38">
@@ -28820,7 +28818,11 @@
       <c r="L401" s="2" t="n"/>
       <c r="M401" s="28" t="n"/>
       <c r="N401" s="21" t="n"/>
-      <c r="O401" s="25" t="n"/>
+      <c r="O401" s="25" t="inlineStr">
+        <is>
+          <t>END</t>
+        </is>
+      </c>
       <c r="P401" s="25" t="n"/>
       <c r="Q401" s="25" t="n"/>
       <c r="R401" s="36" t="n"/>

--- a/气象/For_Python_站点信息和记录.xlsx
+++ b/气象/For_Python_站点信息和记录.xlsx
@@ -745,9 +745,9 @@
   </sheetPr>
   <dimension ref="A1:AG401"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N227" sqref="N227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.59765625" defaultRowHeight="20.25"/>
@@ -773,8 +773,8 @@
     <col width="18.59765625" customWidth="1" style="8" min="24" max="24"/>
     <col width="12.59765625" customWidth="1" style="5" min="25" max="29"/>
     <col width="12.59765625" customWidth="1" style="8" min="30" max="31"/>
-    <col width="12.59765625" customWidth="1" style="5" min="32" max="100"/>
-    <col width="12.59765625" customWidth="1" style="5" min="101" max="16384"/>
+    <col width="12.59765625" customWidth="1" style="5" min="32" max="105"/>
+    <col width="12.59765625" customWidth="1" style="5" min="106" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.75" customFormat="1" customHeight="1" s="11">
@@ -996,19 +996,15 @@
         </is>
       </c>
       <c r="O2" s="32" t="n">
-        <v>-32</v>
+        <v>-29.2</v>
       </c>
       <c r="P2" s="32" t="n">
-        <v>-23.2</v>
+        <v>-16.7</v>
       </c>
       <c r="Q2" s="32" t="n">
-        <v>-27.95</v>
-      </c>
-      <c r="R2" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+        <v>-22.46</v>
+      </c>
+      <c r="R2" s="23" t="n"/>
       <c r="S2" s="37" t="inlineStr">
         <is>
           <t>Y</t>
@@ -1100,18 +1096,10 @@
           <t>▼▲</t>
         </is>
       </c>
-      <c r="O3" s="32" t="n">
-        <v>-34.2</v>
-      </c>
-      <c r="P3" s="32" t="n">
-        <v>-23.6</v>
-      </c>
+      <c r="O3" s="32" t="n"/>
+      <c r="P3" s="32" t="n"/>
       <c r="Q3" s="32" t="n"/>
-      <c r="R3" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="R3" s="23" t="n"/>
       <c r="S3" s="37" t="n"/>
       <c r="T3" s="2" t="inlineStr">
         <is>
@@ -1199,18 +1187,10 @@
           <t>⚡</t>
         </is>
       </c>
-      <c r="O4" s="32" t="n">
-        <v>-33</v>
-      </c>
-      <c r="P4" s="32" t="n">
-        <v>-19</v>
-      </c>
+      <c r="O4" s="32" t="n"/>
+      <c r="P4" s="32" t="n"/>
       <c r="Q4" s="32" t="n"/>
-      <c r="R4" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="R4" s="23" t="n"/>
       <c r="S4" s="37" t="n"/>
       <c r="T4" s="2" t="inlineStr">
         <is>
@@ -1290,18 +1270,10 @@
         </is>
       </c>
       <c r="N5" s="2" t="n"/>
-      <c r="O5" s="32" t="n">
-        <v>-32.2</v>
-      </c>
-      <c r="P5" s="32" t="n">
-        <v>-23.1</v>
-      </c>
+      <c r="O5" s="32" t="n"/>
+      <c r="P5" s="32" t="n"/>
       <c r="Q5" s="32" t="n"/>
-      <c r="R5" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="R5" s="23" t="n"/>
       <c r="S5" s="37" t="n"/>
       <c r="T5" s="2" t="inlineStr">
         <is>
@@ -1390,19 +1362,15 @@
         </is>
       </c>
       <c r="O6" s="32" t="n">
-        <v>-35.4</v>
+        <v>-30</v>
       </c>
       <c r="P6" s="32" t="n">
-        <v>-24.9</v>
+        <v>-11.4</v>
       </c>
       <c r="Q6" s="32" t="n">
-        <v>-30.94</v>
-      </c>
-      <c r="R6" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+        <v>-23.09</v>
+      </c>
+      <c r="R6" s="23" t="n"/>
       <c r="S6" s="37" t="inlineStr">
         <is>
           <t>Y</t>
@@ -1498,18 +1466,10 @@
           <t>▲🧊</t>
         </is>
       </c>
-      <c r="O7" s="32" t="n">
-        <v>-31.6</v>
-      </c>
-      <c r="P7" s="32" t="n">
-        <v>-26.5</v>
-      </c>
+      <c r="O7" s="32" t="n"/>
+      <c r="P7" s="32" t="n"/>
       <c r="Q7" s="32" t="n"/>
-      <c r="R7" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="R7" s="23" t="n"/>
       <c r="S7" s="37" t="n"/>
       <c r="T7" s="2" t="inlineStr">
         <is>
@@ -1564,7 +1524,7 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>ogimet</t>
+          <t>rp5</t>
         </is>
       </c>
       <c r="C8" s="27" t="n">
@@ -1602,13 +1562,13 @@
       </c>
       <c r="N8" s="2" t="n"/>
       <c r="O8" s="32" t="n">
-        <v>-34.3</v>
+        <v>-30</v>
       </c>
       <c r="P8" s="32" t="n">
-        <v>-25.1</v>
+        <v>-21</v>
       </c>
       <c r="Q8" s="32" t="n">
-        <v>-31.06</v>
+        <v>-25.51</v>
       </c>
       <c r="R8" s="23" t="inlineStr">
         <is>
@@ -1669,7 +1629,7 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>ogimet</t>
+          <t>rp5</t>
         </is>
       </c>
       <c r="C9" s="27" t="n">
@@ -1705,13 +1665,13 @@
       </c>
       <c r="N9" s="2" t="n"/>
       <c r="O9" s="32" t="n">
-        <v>-29</v>
+        <v>-28.2</v>
       </c>
       <c r="P9" s="32" t="n">
-        <v>-19.8</v>
+        <v>-17.2</v>
       </c>
       <c r="Q9" s="32" t="n">
-        <v>-23.26</v>
+        <v>-23.76</v>
       </c>
       <c r="R9" s="23" t="inlineStr">
         <is>
@@ -1776,7 +1736,7 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>ogimet</t>
+          <t>rp5</t>
         </is>
       </c>
       <c r="C10" s="27" t="n">
@@ -1812,13 +1772,13 @@
       </c>
       <c r="N10" s="3" t="n"/>
       <c r="O10" s="32" t="n">
-        <v>-32.9</v>
+        <v>-24.2</v>
       </c>
       <c r="P10" s="32" t="n">
-        <v>-20.4</v>
+        <v>-16.8</v>
       </c>
       <c r="Q10" s="32" t="n">
-        <v>-25.02</v>
+        <v>-20.75</v>
       </c>
       <c r="R10" s="23" t="inlineStr">
         <is>
@@ -1879,7 +1839,7 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>ogimet</t>
+          <t>rp5</t>
         </is>
       </c>
       <c r="C11" s="27" t="n">
@@ -1919,13 +1879,13 @@
         </is>
       </c>
       <c r="O11" s="32" t="n">
-        <v>-30.1</v>
+        <v>-25.2</v>
       </c>
       <c r="P11" s="32" t="n">
-        <v>-6.9</v>
+        <v>-12.4</v>
       </c>
       <c r="Q11" s="32" t="n">
-        <v>-12.1</v>
+        <v>-16.18</v>
       </c>
       <c r="R11" s="23" t="inlineStr">
         <is>
@@ -1986,7 +1946,7 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>ogimet</t>
+          <t>rp5</t>
         </is>
       </c>
       <c r="C12" s="27" t="n">
@@ -2026,13 +1986,13 @@
       </c>
       <c r="N12" s="2" t="n"/>
       <c r="O12" s="32" t="n">
-        <v>-33.9</v>
+        <v>-25</v>
       </c>
       <c r="P12" s="32" t="n">
-        <v>-21.5</v>
+        <v>-14.6</v>
       </c>
       <c r="Q12" s="32" t="n">
-        <v>-28.56</v>
+        <v>-20.54</v>
       </c>
       <c r="R12" s="23" t="inlineStr">
         <is>
@@ -2093,7 +2053,7 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>ogimet</t>
+          <t>rp5</t>
         </is>
       </c>
       <c r="C13" s="27" t="n">
@@ -2137,13 +2097,13 @@
         </is>
       </c>
       <c r="O13" s="32" t="n">
-        <v>-35.5</v>
+        <v>-29</v>
       </c>
       <c r="P13" s="32" t="n">
-        <v>-27</v>
+        <v>-13.2</v>
       </c>
       <c r="Q13" s="32" t="n">
-        <v>-32.3</v>
+        <v>-22.64</v>
       </c>
       <c r="R13" s="23" t="inlineStr">
         <is>
@@ -2208,7 +2168,7 @@
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>ogimet</t>
+          <t>rp5</t>
         </is>
       </c>
       <c r="C14" s="27" t="n">
@@ -2244,13 +2204,13 @@
       </c>
       <c r="N14" s="2" t="n"/>
       <c r="O14" s="32" t="n">
-        <v>-23.5</v>
+        <v>-23.1</v>
       </c>
       <c r="P14" s="32" t="n">
-        <v>-15.2</v>
+        <v>-14.4</v>
       </c>
       <c r="Q14" s="32" t="n">
-        <v>-20.59</v>
+        <v>-18.96</v>
       </c>
       <c r="R14" s="23" t="inlineStr">
         <is>
@@ -2602,13 +2562,13 @@
       </c>
       <c r="N18" s="2" t="n"/>
       <c r="O18" s="32" t="n">
-        <v>-36.2</v>
+        <v>-32.1</v>
       </c>
       <c r="P18" s="32" t="n">
-        <v>-23.9</v>
+        <v>-21.4</v>
       </c>
       <c r="Q18" s="32" t="n">
-        <v>-30.46</v>
+        <v>-28.1</v>
       </c>
       <c r="R18" s="23" t="n"/>
       <c r="S18" s="37" t="n"/>
@@ -4441,12 +4401,8 @@
         </is>
       </c>
       <c r="N40" s="3" t="n"/>
-      <c r="O40" s="32" t="n">
-        <v>-33.1</v>
-      </c>
-      <c r="P40" s="32" t="n">
-        <v>-23.3</v>
-      </c>
+      <c r="O40" s="32" t="n"/>
+      <c r="P40" s="32" t="n"/>
       <c r="Q40" s="32" t="n"/>
       <c r="R40" s="23" t="n"/>
       <c r="S40" s="37" t="n"/>
@@ -7281,13 +7237,13 @@
       </c>
       <c r="N75" s="2" t="n"/>
       <c r="O75" s="32" t="n">
-        <v>-31.4</v>
+        <v>-24.4</v>
       </c>
       <c r="P75" s="32" t="n">
-        <v>-17.9</v>
+        <v>-14.4</v>
       </c>
       <c r="Q75" s="32" t="n">
-        <v>-22.61</v>
+        <v>-16.34</v>
       </c>
       <c r="R75" s="23" t="inlineStr">
         <is>
@@ -7388,13 +7344,13 @@
       </c>
       <c r="N76" s="2" t="n"/>
       <c r="O76" s="32" t="n">
-        <v>-35.3</v>
+        <v>-37.4</v>
       </c>
       <c r="P76" s="32" t="n">
-        <v>-18.8</v>
+        <v>-24.8</v>
       </c>
       <c r="Q76" s="32" t="n">
-        <v>-27.78</v>
+        <v>-29.33</v>
       </c>
       <c r="R76" s="23" t="inlineStr">
         <is>
@@ -7499,13 +7455,13 @@
         </is>
       </c>
       <c r="O77" s="32" t="n">
-        <v>-35.8</v>
+        <v>-38.4</v>
       </c>
       <c r="P77" s="32" t="n">
-        <v>-22</v>
+        <v>-21.5</v>
       </c>
       <c r="Q77" s="32" t="n">
-        <v>-29.49</v>
+        <v>-30.14</v>
       </c>
       <c r="R77" s="23" t="inlineStr">
         <is>
@@ -7606,13 +7562,13 @@
       </c>
       <c r="N78" s="2" t="n"/>
       <c r="O78" s="32" t="n">
-        <v>-35.8</v>
+        <v>-34.3</v>
       </c>
       <c r="P78" s="32" t="n">
-        <v>-24.5</v>
+        <v>-23.9</v>
       </c>
       <c r="Q78" s="32" t="n">
-        <v>-30.49</v>
+        <v>-28.73</v>
       </c>
       <c r="R78" s="23" t="inlineStr">
         <is>
@@ -7713,13 +7669,13 @@
         </is>
       </c>
       <c r="O79" s="32" t="n">
-        <v>-35.2</v>
+        <v>-35.1</v>
       </c>
       <c r="P79" s="32" t="n">
-        <v>-20.4</v>
+        <v>-19.1</v>
       </c>
       <c r="Q79" s="32" t="n">
-        <v>-29.28</v>
+        <v>-26.84</v>
       </c>
       <c r="R79" s="23" t="inlineStr">
         <is>
@@ -7816,13 +7772,13 @@
       </c>
       <c r="N80" s="2" t="n"/>
       <c r="O80" s="32" t="n">
-        <v>-37.2</v>
+        <v>-27.3</v>
       </c>
       <c r="P80" s="32" t="n">
-        <v>-23.9</v>
+        <v>-23.5</v>
       </c>
       <c r="Q80" s="32" t="n">
-        <v>-31.36</v>
+        <v>-25.88</v>
       </c>
       <c r="R80" s="23" t="inlineStr">
         <is>
@@ -7927,13 +7883,13 @@
         </is>
       </c>
       <c r="O81" s="32" t="n">
-        <v>-43.3</v>
+        <v>-35.7</v>
       </c>
       <c r="P81" s="32" t="n">
-        <v>-30.4</v>
+        <v>-25.5</v>
       </c>
       <c r="Q81" s="32" t="n">
-        <v>-37.59</v>
+        <v>-31.86</v>
       </c>
       <c r="R81" s="23" t="inlineStr">
         <is>
@@ -8043,13 +7999,13 @@
         </is>
       </c>
       <c r="O82" s="32" t="n">
-        <v>-42.3</v>
+        <v>-31</v>
       </c>
       <c r="P82" s="32" t="n">
-        <v>-24.2</v>
+        <v>-17.5</v>
       </c>
       <c r="Q82" s="32" t="n">
-        <v>-36.77</v>
+        <v>-21.64</v>
       </c>
       <c r="R82" s="23" t="inlineStr">
         <is>
@@ -8150,13 +8106,13 @@
       </c>
       <c r="N83" s="2" t="n"/>
       <c r="O83" s="32" t="n">
-        <v>-29.7</v>
+        <v>-26.9</v>
       </c>
       <c r="P83" s="32" t="n">
-        <v>-20.6</v>
+        <v>-12.7</v>
       </c>
       <c r="Q83" s="32" t="n">
-        <v>-25.51</v>
+        <v>-17.86</v>
       </c>
       <c r="R83" s="23" t="inlineStr">
         <is>
@@ -8257,13 +8213,13 @@
         </is>
       </c>
       <c r="O84" s="32" t="n">
-        <v>-30.8</v>
+        <v>-30.7</v>
       </c>
       <c r="P84" s="32" t="n">
-        <v>-23.6</v>
+        <v>-21.5</v>
       </c>
       <c r="Q84" s="32" t="n">
-        <v>-27.26</v>
+        <v>-25.45</v>
       </c>
       <c r="R84" s="23" t="inlineStr">
         <is>
@@ -8368,13 +8324,13 @@
         </is>
       </c>
       <c r="O85" s="32" t="n">
-        <v>-27.7</v>
+        <v>-20.4</v>
       </c>
       <c r="P85" s="32" t="n">
-        <v>-18</v>
+        <v>-14.7</v>
       </c>
       <c r="Q85" s="32" t="n">
-        <v>-22.61</v>
+        <v>-16.91</v>
       </c>
       <c r="R85" s="23" t="inlineStr">
         <is>
@@ -8471,13 +8427,13 @@
       </c>
       <c r="N86" s="2" t="n"/>
       <c r="O86" s="32" t="n">
-        <v>-22.6</v>
+        <v>-19.1</v>
       </c>
       <c r="P86" s="32" t="n">
-        <v>-17</v>
+        <v>-13.9</v>
       </c>
       <c r="Q86" s="32" t="n">
-        <v>-20.02</v>
+        <v>-16.64</v>
       </c>
       <c r="R86" s="23" t="inlineStr">
         <is>
@@ -8590,13 +8546,13 @@
         </is>
       </c>
       <c r="O87" s="32" t="n">
-        <v>-30.2</v>
+        <v>-22.7</v>
       </c>
       <c r="P87" s="32" t="n">
-        <v>-20.9</v>
+        <v>-16.8</v>
       </c>
       <c r="Q87" s="32" t="n">
-        <v>-25.79</v>
+        <v>-20.61</v>
       </c>
       <c r="R87" s="23" t="inlineStr">
         <is>
@@ -8693,13 +8649,13 @@
       </c>
       <c r="N88" s="2" t="n"/>
       <c r="O88" s="32" t="n">
-        <v>-21.8</v>
+        <v>-19.4</v>
       </c>
       <c r="P88" s="32" t="n">
-        <v>-11.2</v>
+        <v>-13.3</v>
       </c>
       <c r="Q88" s="32" t="n">
-        <v>-18.31</v>
+        <v>-16.85</v>
       </c>
       <c r="R88" s="23" t="inlineStr">
         <is>
@@ -8893,13 +8849,13 @@
         </is>
       </c>
       <c r="O90" s="32" t="n">
-        <v>-15.9</v>
+        <v>-22.8</v>
       </c>
       <c r="P90" s="32" t="n">
-        <v>-9</v>
+        <v>-14</v>
       </c>
       <c r="Q90" s="32" t="n">
-        <v>-11.5</v>
+        <v>-17.44</v>
       </c>
       <c r="R90" s="23" t="inlineStr">
         <is>
@@ -8992,13 +8948,13 @@
       </c>
       <c r="N91" s="2" t="n"/>
       <c r="O91" s="32" t="n">
-        <v>-18.1</v>
+        <v>-25.1</v>
       </c>
       <c r="P91" s="32" t="n">
-        <v>-11.9</v>
+        <v>-18</v>
       </c>
       <c r="Q91" s="32" t="n">
-        <v>-14.6</v>
+        <v>-20.62</v>
       </c>
       <c r="R91" s="23" t="inlineStr">
         <is>
@@ -9091,13 +9047,13 @@
       </c>
       <c r="N92" s="2" t="n"/>
       <c r="O92" s="32" t="n">
-        <v>-19.5</v>
+        <v>-10.8</v>
       </c>
       <c r="P92" s="32" t="n">
-        <v>-9.6</v>
+        <v>-6.7</v>
       </c>
       <c r="Q92" s="32" t="n">
-        <v>-17.1</v>
+        <v>-7.8</v>
       </c>
       <c r="R92" s="23" t="inlineStr">
         <is>
@@ -9194,13 +9150,13 @@
       </c>
       <c r="N93" s="2" t="n"/>
       <c r="O93" s="32" t="n">
-        <v>-11.4</v>
+        <v>-5.7</v>
       </c>
       <c r="P93" s="32" t="n">
-        <v>-4.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q93" s="32" t="n">
-        <v>-7.59</v>
+        <v>-0.37</v>
       </c>
       <c r="R93" s="23" t="inlineStr">
         <is>
@@ -9305,10 +9261,10 @@
         </is>
       </c>
       <c r="O94" s="32" t="n">
-        <v>-18.6</v>
+        <v>-15</v>
       </c>
       <c r="P94" s="32" t="n">
-        <v>-7.6</v>
+        <v>1.8</v>
       </c>
       <c r="Q94" s="32" t="n"/>
       <c r="R94" s="23" t="inlineStr">
@@ -9414,13 +9370,13 @@
       </c>
       <c r="N95" s="2" t="n"/>
       <c r="O95" s="32" t="n">
-        <v>-16.4</v>
+        <v>-13.4</v>
       </c>
       <c r="P95" s="32" t="n">
-        <v>-9</v>
+        <v>-0.2</v>
       </c>
       <c r="Q95" s="32" t="n">
-        <v>-12.81</v>
+        <v>-5.11</v>
       </c>
       <c r="R95" s="23" t="inlineStr">
         <is>
@@ -9533,10 +9489,10 @@
         </is>
       </c>
       <c r="O96" s="32" t="n">
-        <v>-14.9</v>
+        <v>-11.9</v>
       </c>
       <c r="P96" s="32" t="n">
-        <v>-7.7</v>
+        <v>-0.4</v>
       </c>
       <c r="Q96" s="32" t="n"/>
       <c r="R96" s="23" t="inlineStr">
@@ -9642,13 +9598,13 @@
       </c>
       <c r="N97" s="2" t="n"/>
       <c r="O97" s="32" t="n">
-        <v>-16.6</v>
+        <v>-15.7</v>
       </c>
       <c r="P97" s="32" t="n">
-        <v>-10.2</v>
+        <v>-1.1</v>
       </c>
       <c r="Q97" s="32" t="n">
-        <v>-14.35</v>
+        <v>-5.91</v>
       </c>
       <c r="R97" s="23" t="inlineStr">
         <is>
@@ -9749,10 +9705,10 @@
       </c>
       <c r="N98" s="2" t="n"/>
       <c r="O98" s="32" t="n">
-        <v>-30.5</v>
+        <v>-20</v>
       </c>
       <c r="P98" s="32" t="n">
-        <v>-15.6</v>
+        <v>-13.5</v>
       </c>
       <c r="Q98" s="32" t="n"/>
       <c r="R98" s="23" t="inlineStr">
@@ -9858,13 +9814,13 @@
       </c>
       <c r="N99" s="2" t="n"/>
       <c r="O99" s="32" t="n">
-        <v>-32.4</v>
+        <v>-29.2</v>
       </c>
       <c r="P99" s="32" t="n">
-        <v>-17.8</v>
+        <v>-18.1</v>
       </c>
       <c r="Q99" s="32" t="n">
-        <v>-27.36</v>
+        <v>-22.97</v>
       </c>
       <c r="R99" s="23" t="inlineStr">
         <is>
@@ -10058,10 +10014,10 @@
       </c>
       <c r="N101" s="2" t="n"/>
       <c r="O101" s="32" t="n">
-        <v>-38.2</v>
+        <v>-35.8</v>
       </c>
       <c r="P101" s="32" t="n">
-        <v>-22.5</v>
+        <v>-23</v>
       </c>
       <c r="Q101" s="32" t="n"/>
       <c r="R101" s="23" t="inlineStr">
@@ -10171,13 +10127,13 @@
       </c>
       <c r="N102" s="2" t="n"/>
       <c r="O102" s="32" t="n">
-        <v>-38</v>
+        <v>-35.5</v>
       </c>
       <c r="P102" s="32" t="n">
-        <v>-23</v>
+        <v>-23.6</v>
       </c>
       <c r="Q102" s="32" t="n">
-        <v>-32.25</v>
+        <v>-30.16</v>
       </c>
       <c r="R102" s="23" t="inlineStr">
         <is>
@@ -10278,10 +10234,10 @@
       </c>
       <c r="N103" s="2" t="n"/>
       <c r="O103" s="32" t="n">
-        <v>-38</v>
+        <v>-34.4</v>
       </c>
       <c r="P103" s="32" t="n">
-        <v>-26.2</v>
+        <v>-24.6</v>
       </c>
       <c r="Q103" s="32" t="n"/>
       <c r="R103" s="23" t="inlineStr">
@@ -10383,10 +10339,10 @@
       </c>
       <c r="N104" s="2" t="n"/>
       <c r="O104" s="32" t="n">
-        <v>-37.2</v>
+        <v>-33</v>
       </c>
       <c r="P104" s="32" t="n">
-        <v>-22.2</v>
+        <v>-20.9</v>
       </c>
       <c r="Q104" s="32" t="n"/>
       <c r="R104" s="23" t="inlineStr">
@@ -10500,13 +10456,13 @@
         </is>
       </c>
       <c r="O105" s="32" t="n">
-        <v>-40.1</v>
+        <v>-34.7</v>
       </c>
       <c r="P105" s="32" t="n">
-        <v>-21.3</v>
+        <v>-20.3</v>
       </c>
       <c r="Q105" s="32" t="n">
-        <v>-32.26</v>
+        <v>-28.85</v>
       </c>
       <c r="R105" s="23" t="inlineStr">
         <is>
@@ -10615,10 +10571,10 @@
         </is>
       </c>
       <c r="O106" s="32" t="n">
-        <v>-38</v>
+        <v>-32.9</v>
       </c>
       <c r="P106" s="32" t="n">
-        <v>-27.8</v>
+        <v>-23.2</v>
       </c>
       <c r="Q106" s="32" t="n"/>
       <c r="R106" s="23" t="inlineStr">
@@ -10821,13 +10777,13 @@
       </c>
       <c r="N108" s="2" t="n"/>
       <c r="O108" s="32" t="n">
-        <v>-30.2</v>
+        <v>-29.3</v>
       </c>
       <c r="P108" s="32" t="n">
-        <v>-22.7</v>
+        <v>-18.5</v>
       </c>
       <c r="Q108" s="32" t="n">
-        <v>-26.95</v>
+        <v>-24.29</v>
       </c>
       <c r="R108" s="23" t="inlineStr">
         <is>
@@ -11016,12 +10972,8 @@
         </is>
       </c>
       <c r="N110" s="2" t="n"/>
-      <c r="O110" s="32" t="n">
-        <v>-37</v>
-      </c>
-      <c r="P110" s="32" t="n">
-        <v>-23.4</v>
-      </c>
+      <c r="O110" s="32" t="n"/>
+      <c r="P110" s="32" t="n"/>
       <c r="Q110" s="32" t="n"/>
       <c r="R110" s="23" t="inlineStr">
         <is>
@@ -11126,13 +11078,13 @@
       </c>
       <c r="N111" s="2" t="n"/>
       <c r="O111" s="32" t="n">
-        <v>-29.8</v>
+        <v>-25.9</v>
       </c>
       <c r="P111" s="32" t="n">
-        <v>-16.3</v>
+        <v>-13.9</v>
       </c>
       <c r="Q111" s="32" t="n">
-        <v>-24.57</v>
+        <v>-19.69</v>
       </c>
       <c r="R111" s="23" t="inlineStr">
         <is>
@@ -11229,10 +11181,10 @@
       </c>
       <c r="N112" s="2" t="n"/>
       <c r="O112" s="32" t="n">
-        <v>-24.4</v>
+        <v>-18.5</v>
       </c>
       <c r="P112" s="32" t="n">
-        <v>-5.4</v>
+        <v>-2.4</v>
       </c>
       <c r="Q112" s="32" t="n"/>
       <c r="R112" s="23" t="inlineStr">
@@ -11326,10 +11278,10 @@
       </c>
       <c r="N113" s="2" t="n"/>
       <c r="O113" s="32" t="n">
-        <v>-15.8</v>
+        <v>-15.6</v>
       </c>
       <c r="P113" s="32" t="n">
-        <v>5.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q113" s="32" t="n"/>
       <c r="R113" s="23" t="inlineStr">
@@ -11431,10 +11383,10 @@
         </is>
       </c>
       <c r="O114" s="32" t="n">
-        <v>-21.4</v>
+        <v>-15.6</v>
       </c>
       <c r="P114" s="32" t="n">
-        <v>4.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q114" s="32" t="n"/>
       <c r="R114" s="23" t="inlineStr">
@@ -11544,10 +11496,10 @@
         </is>
       </c>
       <c r="O115" s="32" t="n">
-        <v>-14</v>
+        <v>-18.8</v>
       </c>
       <c r="P115" s="32" t="n">
-        <v>2.8</v>
+        <v>-1.9</v>
       </c>
       <c r="Q115" s="32" t="n"/>
       <c r="R115" s="23" t="inlineStr">
@@ -11653,13 +11605,13 @@
       </c>
       <c r="N116" s="2" t="n"/>
       <c r="O116" s="32" t="n">
-        <v>-15</v>
+        <v>-19.1</v>
       </c>
       <c r="P116" s="32" t="n">
-        <v>1</v>
+        <v>-1.2</v>
       </c>
       <c r="Q116" s="32" t="n">
-        <v>-7.7</v>
+        <v>-10.61</v>
       </c>
       <c r="R116" s="23" t="inlineStr">
         <is>
@@ -11756,10 +11708,10 @@
       </c>
       <c r="N117" s="2" t="n"/>
       <c r="O117" s="32" t="n">
-        <v>-16.7</v>
+        <v>-19.3</v>
       </c>
       <c r="P117" s="32" t="n">
-        <v>-6.5</v>
+        <v>-5.1</v>
       </c>
       <c r="Q117" s="32" t="n"/>
       <c r="R117" s="23" t="inlineStr">
@@ -11861,10 +11813,10 @@
         </is>
       </c>
       <c r="O118" s="32" t="n">
-        <v>-26.5</v>
+        <v>-31.1</v>
       </c>
       <c r="P118" s="32" t="n">
-        <v>-10.6</v>
+        <v>-17.1</v>
       </c>
       <c r="Q118" s="32" t="n"/>
       <c r="R118" s="23" t="inlineStr">
@@ -11970,13 +11922,13 @@
       </c>
       <c r="N119" s="2" t="n"/>
       <c r="O119" s="32" t="n">
-        <v>-14.6</v>
+        <v>-21.5</v>
       </c>
       <c r="P119" s="32" t="n">
-        <v>-4.6</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="Q119" s="32" t="n">
-        <v>-8.65</v>
+        <v>-16.85</v>
       </c>
       <c r="R119" s="23" t="inlineStr">
         <is>
@@ -12085,13 +12037,13 @@
       </c>
       <c r="N120" s="2" t="n"/>
       <c r="O120" s="32" t="n">
-        <v>-6.6</v>
+        <v>-7.5</v>
       </c>
       <c r="P120" s="32" t="n">
-        <v>-2.4</v>
+        <v>-0.2</v>
       </c>
       <c r="Q120" s="32" t="n">
-        <v>-4.54</v>
+        <v>-4.35</v>
       </c>
       <c r="R120" s="23" t="inlineStr">
         <is>
@@ -12192,13 +12144,13 @@
       </c>
       <c r="N121" s="2" t="n"/>
       <c r="O121" s="32" t="n">
-        <v>-13.1</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="P121" s="32" t="n">
-        <v>-7.8</v>
+        <v>-6</v>
       </c>
       <c r="Q121" s="32" t="n">
-        <v>-11.11</v>
+        <v>-8.130000000000001</v>
       </c>
       <c r="R121" s="23" t="inlineStr">
         <is>
@@ -12307,10 +12259,10 @@
       </c>
       <c r="N122" s="2" t="n"/>
       <c r="O122" s="32" t="n">
-        <v>-21.1</v>
+        <v>-25.7</v>
       </c>
       <c r="P122" s="32" t="n">
-        <v>-10.9</v>
+        <v>-14.2</v>
       </c>
       <c r="Q122" s="32" t="n"/>
       <c r="R122" s="23" t="inlineStr">
@@ -12517,13 +12469,13 @@
       </c>
       <c r="N124" s="2" t="n"/>
       <c r="O124" s="32" t="n">
-        <v>-17.2</v>
+        <v>-12</v>
       </c>
       <c r="P124" s="32" t="n">
-        <v>-2.5</v>
+        <v>-0.7</v>
       </c>
       <c r="Q124" s="32" t="n">
-        <v>-10.77</v>
+        <v>-6.02</v>
       </c>
       <c r="R124" s="23" t="inlineStr">
         <is>
@@ -12632,13 +12584,13 @@
       </c>
       <c r="N125" s="2" t="n"/>
       <c r="O125" s="32" t="n">
-        <v>-7.1</v>
+        <v>-1.9</v>
       </c>
       <c r="P125" s="32" t="n">
-        <v>3.8</v>
+        <v>6.7</v>
       </c>
       <c r="Q125" s="32" t="n">
-        <v>-1.65</v>
+        <v>2.75</v>
       </c>
       <c r="R125" s="23" t="inlineStr">
         <is>
@@ -12723,10 +12675,10 @@
       </c>
       <c r="N126" s="2" t="n"/>
       <c r="O126" s="32" t="n">
-        <v>-4.6</v>
+        <v>1</v>
       </c>
       <c r="P126" s="32" t="n">
-        <v>4.4</v>
+        <v>8.5</v>
       </c>
       <c r="Q126" s="32" t="n"/>
       <c r="R126" s="23" t="inlineStr">
@@ -12824,13 +12776,13 @@
       </c>
       <c r="N127" s="2" t="n"/>
       <c r="O127" s="32" t="n">
-        <v>-8.800000000000001</v>
+        <v>-5.7</v>
       </c>
       <c r="P127" s="32" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q127" s="32" t="n">
-        <v>-3.95</v>
+        <v>-0.89</v>
       </c>
       <c r="R127" s="23" t="inlineStr">
         <is>
@@ -12935,10 +12887,10 @@
       </c>
       <c r="N128" s="2" t="n"/>
       <c r="O128" s="32" t="n">
-        <v>-4</v>
+        <v>-0.5</v>
       </c>
       <c r="P128" s="32" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Q128" s="32" t="n"/>
       <c r="R128" s="23" t="inlineStr">
@@ -13036,13 +12988,13 @@
       </c>
       <c r="N129" s="2" t="n"/>
       <c r="O129" s="32" t="n">
-        <v>-10.8</v>
+        <v>-2.2</v>
       </c>
       <c r="P129" s="32" t="n">
-        <v>4.4</v>
+        <v>5.4</v>
       </c>
       <c r="Q129" s="32" t="n">
-        <v>-3.51</v>
+        <v>2.21</v>
       </c>
       <c r="R129" s="23" t="inlineStr">
         <is>
@@ -13147,13 +13099,13 @@
       </c>
       <c r="N130" s="2" t="n"/>
       <c r="O130" s="32" t="n">
-        <v>-12.6</v>
+        <v>-7.4</v>
       </c>
       <c r="P130" s="32" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q130" s="32" t="n">
-        <v>-6.41</v>
+        <v>-3.39</v>
       </c>
       <c r="R130" s="23" t="inlineStr">
         <is>
@@ -13258,13 +13210,13 @@
       </c>
       <c r="N131" s="2" t="n"/>
       <c r="O131" s="32" t="n">
-        <v>-2.3</v>
+        <v>-0.2</v>
       </c>
       <c r="P131" s="32" t="n">
-        <v>7.7</v>
+        <v>5.8</v>
       </c>
       <c r="Q131" s="32" t="n">
-        <v>2.14</v>
+        <v>2.77</v>
       </c>
       <c r="R131" s="23" t="inlineStr">
         <is>
@@ -13365,13 +13317,13 @@
       </c>
       <c r="N132" s="2" t="n"/>
       <c r="O132" s="32" t="n">
-        <v>-2.4</v>
+        <v>2.9</v>
       </c>
       <c r="P132" s="32" t="n">
-        <v>7.7</v>
+        <v>10.2</v>
       </c>
       <c r="Q132" s="32" t="n">
-        <v>3.07</v>
+        <v>6.51</v>
       </c>
       <c r="R132" s="23" t="inlineStr">
         <is>
@@ -13472,13 +13424,13 @@
       </c>
       <c r="N133" s="2" t="n"/>
       <c r="O133" s="32" t="n">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="P133" s="32" t="n">
-        <v>8.300000000000001</v>
+        <v>10</v>
       </c>
       <c r="Q133" s="32" t="n">
-        <v>4.53</v>
+        <v>6.44</v>
       </c>
       <c r="R133" s="23" t="inlineStr">
         <is>
@@ -13583,13 +13535,13 @@
       </c>
       <c r="N134" s="2" t="n"/>
       <c r="O134" s="32" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="P134" s="32" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="Q134" s="32" t="n">
-        <v>7.17</v>
+        <v>6.55</v>
       </c>
       <c r="R134" s="23" t="inlineStr">
         <is>
@@ -13686,13 +13638,13 @@
       </c>
       <c r="N135" s="2" t="n"/>
       <c r="O135" s="32" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="P135" s="32" t="n">
         <v>11.8</v>
       </c>
       <c r="Q135" s="32" t="n">
-        <v>8.640000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="R135" s="23" t="inlineStr">
         <is>
@@ -13793,13 +13745,13 @@
       </c>
       <c r="N136" s="2" t="n"/>
       <c r="O136" s="32" t="n">
-        <v>7.6</v>
+        <v>10.4</v>
       </c>
       <c r="P136" s="32" t="n">
-        <v>12.9</v>
+        <v>14.2</v>
       </c>
       <c r="Q136" s="32" t="n">
-        <v>9.09</v>
+        <v>11.81</v>
       </c>
       <c r="R136" s="23" t="inlineStr">
         <is>
@@ -13900,13 +13852,13 @@
       </c>
       <c r="N137" s="2" t="n"/>
       <c r="O137" s="32" t="n">
-        <v>5.9</v>
+        <v>6.7</v>
       </c>
       <c r="P137" s="32" t="n">
-        <v>10.4</v>
+        <v>10.6</v>
       </c>
       <c r="Q137" s="32" t="n">
-        <v>7.99</v>
+        <v>7.75</v>
       </c>
       <c r="R137" s="23" t="inlineStr">
         <is>
@@ -14007,10 +13959,10 @@
       </c>
       <c r="N138" s="2" t="n"/>
       <c r="O138" s="32" t="n">
-        <v>4.5</v>
+        <v>5.7</v>
       </c>
       <c r="P138" s="32" t="n">
-        <v>9.199999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="Q138" s="32" t="n"/>
       <c r="R138" s="23" t="inlineStr">
@@ -14112,13 +14064,13 @@
       </c>
       <c r="N139" s="2" t="n"/>
       <c r="O139" s="32" t="n">
-        <v>5.1</v>
+        <v>7</v>
       </c>
       <c r="P139" s="32" t="n">
-        <v>10</v>
+        <v>10.4</v>
       </c>
       <c r="Q139" s="32" t="n">
-        <v>6.75</v>
+        <v>8.65</v>
       </c>
       <c r="R139" s="23" t="inlineStr">
         <is>
@@ -14219,13 +14171,13 @@
       </c>
       <c r="N140" s="2" t="n"/>
       <c r="O140" s="32" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="P140" s="32" t="n">
-        <v>11.8</v>
+        <v>16.4</v>
       </c>
       <c r="Q140" s="32" t="n">
-        <v>7.84</v>
+        <v>10.38</v>
       </c>
       <c r="R140" s="23" t="inlineStr">
         <is>
@@ -14326,13 +14278,13 @@
       </c>
       <c r="N141" s="2" t="n"/>
       <c r="O141" s="32" t="n">
-        <v>7.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="P141" s="32" t="n">
-        <v>17.4</v>
+        <v>19.4</v>
       </c>
       <c r="Q141" s="32" t="n">
-        <v>10.43</v>
+        <v>13.31</v>
       </c>
       <c r="R141" s="23" t="inlineStr">
         <is>
@@ -14429,13 +14381,13 @@
       </c>
       <c r="N142" s="2" t="n"/>
       <c r="O142" s="32" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="P142" s="32" t="n">
-        <v>19.6</v>
+        <v>22.9</v>
       </c>
       <c r="Q142" s="32" t="n">
-        <v>15.74</v>
+        <v>17.05</v>
       </c>
       <c r="R142" s="23" t="inlineStr">
         <is>
@@ -14536,13 +14488,13 @@
       </c>
       <c r="N143" s="2" t="n"/>
       <c r="O143" s="32" t="n">
-        <v>16.2</v>
+        <v>15.5</v>
       </c>
       <c r="P143" s="32" t="n">
-        <v>26.2</v>
+        <v>25.3</v>
       </c>
       <c r="Q143" s="32" t="n">
-        <v>20.13</v>
+        <v>19.44</v>
       </c>
       <c r="R143" s="23" t="inlineStr">
         <is>
@@ -14643,13 +14595,13 @@
       </c>
       <c r="N144" s="2" t="n"/>
       <c r="O144" s="32" t="n">
-        <v>21.5</v>
+        <v>21.1</v>
       </c>
       <c r="P144" s="32" t="n">
         <v>26.3</v>
       </c>
       <c r="Q144" s="32" t="n">
-        <v>22.99</v>
+        <v>22.93</v>
       </c>
       <c r="R144" s="23" t="inlineStr">
         <is>
@@ -14746,13 +14698,13 @@
       </c>
       <c r="N145" s="2" t="n"/>
       <c r="O145" s="32" t="n">
-        <v>20.3</v>
+        <v>19.3</v>
       </c>
       <c r="P145" s="32" t="n">
-        <v>24.6</v>
+        <v>24</v>
       </c>
       <c r="Q145" s="32" t="n">
-        <v>21.76</v>
+        <v>20.91</v>
       </c>
       <c r="R145" s="23" t="inlineStr">
         <is>
@@ -14845,13 +14797,13 @@
       </c>
       <c r="N146" s="2" t="n"/>
       <c r="O146" s="32" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="P146" s="32" t="n">
-        <v>29.1</v>
+        <v>26.2</v>
       </c>
       <c r="Q146" s="32" t="n">
-        <v>23.89</v>
+        <v>24.21</v>
       </c>
       <c r="R146" s="23" t="inlineStr">
         <is>
@@ -14944,13 +14896,13 @@
       </c>
       <c r="N147" s="2" t="n"/>
       <c r="O147" s="32" t="n">
-        <v>17.3</v>
+        <v>18.1</v>
       </c>
       <c r="P147" s="32" t="n">
-        <v>23.3</v>
+        <v>22.6</v>
       </c>
       <c r="Q147" s="32" t="n">
-        <v>19.9</v>
+        <v>19.64</v>
       </c>
       <c r="R147" s="23" t="inlineStr">
         <is>
@@ -15051,10 +15003,10 @@
       </c>
       <c r="N148" s="2" t="n"/>
       <c r="O148" s="32" t="n">
-        <v>14.4</v>
+        <v>13.1</v>
       </c>
       <c r="P148" s="32" t="n">
-        <v>26.1</v>
+        <v>20.6</v>
       </c>
       <c r="Q148" s="32" t="n"/>
       <c r="R148" s="23" t="inlineStr">
@@ -15152,13 +15104,13 @@
       </c>
       <c r="N149" s="2" t="n"/>
       <c r="O149" s="32" t="n">
-        <v>7.6</v>
+        <v>5.3</v>
       </c>
       <c r="P149" s="32" t="n">
-        <v>16.7</v>
+        <v>12.4</v>
       </c>
       <c r="Q149" s="32" t="n">
-        <v>11.9</v>
+        <v>9.18</v>
       </c>
       <c r="R149" s="23" t="inlineStr">
         <is>
@@ -15262,9 +15214,11 @@
         <v>6</v>
       </c>
       <c r="P150" s="32" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="Q150" s="32" t="n"/>
+        <v>13.9</v>
+      </c>
+      <c r="Q150" s="32" t="n">
+        <v>8</v>
+      </c>
       <c r="R150" s="23" t="inlineStr">
         <is>
           <t>Y</t>
@@ -15364,13 +15318,13 @@
       </c>
       <c r="N151" s="2" t="n"/>
       <c r="O151" s="32" t="n">
-        <v>9.800000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="P151" s="32" t="n">
-        <v>11.9</v>
+        <v>13.1</v>
       </c>
       <c r="Q151" s="32" t="n">
-        <v>10.6</v>
+        <v>11.16</v>
       </c>
       <c r="R151" s="23" t="inlineStr">
         <is>
@@ -15556,13 +15510,13 @@
       </c>
       <c r="N153" s="2" t="n"/>
       <c r="O153" s="32" t="n">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="P153" s="32" t="n">
-        <v>11.7</v>
+        <v>15</v>
       </c>
       <c r="Q153" s="32" t="n">
-        <v>9.109999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="R153" s="23" t="inlineStr">
         <is>
@@ -15667,13 +15621,13 @@
       </c>
       <c r="N154" s="2" t="n"/>
       <c r="O154" s="32" t="n">
-        <v>-3.8</v>
+        <v>-3.9</v>
       </c>
       <c r="P154" s="32" t="n">
-        <v>13.9</v>
+        <v>15.4</v>
       </c>
       <c r="Q154" s="32" t="n">
-        <v>2.69</v>
+        <v>2.58</v>
       </c>
       <c r="R154" s="23" t="inlineStr">
         <is>
@@ -15855,10 +15809,10 @@
       </c>
       <c r="N156" s="2" t="n"/>
       <c r="O156" s="32" t="n">
-        <v>-22.5</v>
+        <v>-13.3</v>
       </c>
       <c r="P156" s="32" t="n">
-        <v>0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="Q156" s="32" t="n"/>
       <c r="R156" s="23" t="inlineStr">
@@ -15952,10 +15906,10 @@
       </c>
       <c r="N157" s="2" t="n"/>
       <c r="O157" s="32" t="n">
-        <v>6.7</v>
+        <v>10.3</v>
       </c>
       <c r="P157" s="32" t="n">
-        <v>11.9</v>
+        <v>16.9</v>
       </c>
       <c r="Q157" s="32" t="n"/>
       <c r="R157" s="23" t="inlineStr">
@@ -16312,10 +16266,10 @@
       </c>
       <c r="N161" s="2" t="n"/>
       <c r="O161" s="32" t="n">
-        <v>-5.6</v>
+        <v>-2.8</v>
       </c>
       <c r="P161" s="32" t="n">
-        <v>2.9</v>
+        <v>5.1</v>
       </c>
       <c r="Q161" s="32" t="n"/>
       <c r="R161" s="23" t="inlineStr">
@@ -16720,10 +16674,10 @@
         </is>
       </c>
       <c r="O165" s="32" t="n">
-        <v>-43.3</v>
+        <v>-38.2</v>
       </c>
       <c r="P165" s="32" t="n">
-        <v>-27.8</v>
+        <v>-23.6</v>
       </c>
       <c r="Q165" s="32" t="n"/>
       <c r="R165" s="23" t="inlineStr">
@@ -17508,10 +17462,10 @@
       </c>
       <c r="N173" s="2" t="n"/>
       <c r="O173" s="32" t="n">
-        <v>-30.1</v>
+        <v>-19</v>
       </c>
       <c r="P173" s="32" t="n">
-        <v>-8.800000000000001</v>
+        <v>-5.8</v>
       </c>
       <c r="Q173" s="32" t="n"/>
       <c r="R173" s="23" t="inlineStr">
@@ -17799,10 +17753,10 @@
       </c>
       <c r="N176" s="2" t="n"/>
       <c r="O176" s="32" t="n">
-        <v>-5.6</v>
+        <v>4.7</v>
       </c>
       <c r="P176" s="32" t="n">
-        <v>1.9</v>
+        <v>7.9</v>
       </c>
       <c r="Q176" s="32" t="n"/>
       <c r="R176" s="23" t="inlineStr">
@@ -17888,10 +17842,10 @@
       </c>
       <c r="N177" s="2" t="n"/>
       <c r="O177" s="32" t="n">
-        <v>-25</v>
+        <v>-17.4</v>
       </c>
       <c r="P177" s="32" t="n">
-        <v>-20.3</v>
+        <v>-12.5</v>
       </c>
       <c r="Q177" s="32" t="n"/>
       <c r="R177" s="23" t="inlineStr">
@@ -18698,13 +18652,13 @@
       </c>
       <c r="N186" s="2" t="n"/>
       <c r="O186" s="32" t="n">
-        <v>-33.6</v>
+        <v>-54.6</v>
       </c>
       <c r="P186" s="32" t="n">
-        <v>-32.3</v>
+        <v>-51.4</v>
       </c>
       <c r="Q186" s="32" t="n">
-        <v>-32.96</v>
+        <v>-53.38</v>
       </c>
       <c r="R186" s="23" t="inlineStr">
         <is>
@@ -18798,13 +18752,13 @@
       </c>
       <c r="N187" s="2" t="n"/>
       <c r="O187" s="32" t="n">
-        <v>-44.7</v>
+        <v>-53.5</v>
       </c>
       <c r="P187" s="32" t="n">
-        <v>-37.9</v>
+        <v>-48</v>
       </c>
       <c r="Q187" s="32" t="n">
-        <v>-40.48</v>
+        <v>-52.36</v>
       </c>
       <c r="R187" s="23" t="inlineStr">
         <is>
@@ -18893,13 +18847,13 @@
       </c>
       <c r="N188" s="2" t="n"/>
       <c r="O188" s="32" t="n">
-        <v>-44</v>
+        <v>-51</v>
       </c>
       <c r="P188" s="32" t="n">
-        <v>-34</v>
+        <v>-47.1</v>
       </c>
       <c r="Q188" s="32" t="n">
-        <v>-38.27</v>
+        <v>-49.54</v>
       </c>
       <c r="R188" s="23" t="inlineStr">
         <is>
@@ -18988,13 +18942,13 @@
       </c>
       <c r="N189" s="2" t="n"/>
       <c r="O189" s="32" t="n">
-        <v>-41.9</v>
+        <v>-57</v>
       </c>
       <c r="P189" s="32" t="n">
-        <v>-36.3</v>
+        <v>-52.4</v>
       </c>
       <c r="Q189" s="32" t="n">
-        <v>-38.21</v>
+        <v>-54.85</v>
       </c>
       <c r="R189" s="23" t="inlineStr">
         <is>
@@ -19083,13 +19037,13 @@
       </c>
       <c r="N190" s="2" t="n"/>
       <c r="O190" s="32" t="n">
-        <v>-52.8</v>
+        <v>-53.8</v>
       </c>
       <c r="P190" s="32" t="n">
-        <v>-45.9</v>
+        <v>-51.5</v>
       </c>
       <c r="Q190" s="32" t="n">
-        <v>-50.86</v>
+        <v>-52.4</v>
       </c>
       <c r="R190" s="23" t="inlineStr">
         <is>
@@ -19178,13 +19132,13 @@
       </c>
       <c r="N191" s="2" t="n"/>
       <c r="O191" s="32" t="n">
-        <v>-36.8</v>
+        <v>-53.5</v>
       </c>
       <c r="P191" s="32" t="n">
-        <v>-32.5</v>
+        <v>-49.6</v>
       </c>
       <c r="Q191" s="32" t="n">
-        <v>-34.04</v>
+        <v>-51.85</v>
       </c>
       <c r="R191" s="23" t="inlineStr">
         <is>
@@ -19269,13 +19223,13 @@
       </c>
       <c r="N192" s="2" t="n"/>
       <c r="O192" s="32" t="n">
-        <v>-44.9</v>
+        <v>-50.4</v>
       </c>
       <c r="P192" s="32" t="n">
-        <v>-38.1</v>
+        <v>-45.9</v>
       </c>
       <c r="Q192" s="32" t="n">
-        <v>-40.24</v>
+        <v>-48.97</v>
       </c>
       <c r="R192" s="23" t="inlineStr">
         <is>
@@ -19365,13 +19319,13 @@
       </c>
       <c r="N193" s="2" t="n"/>
       <c r="O193" s="32" t="n">
-        <v>-43.4</v>
+        <v>-44.4</v>
       </c>
       <c r="P193" s="32" t="n">
-        <v>-40.5</v>
+        <v>-42.4</v>
       </c>
       <c r="Q193" s="32" t="n">
-        <v>-41.41</v>
+        <v>-43.5</v>
       </c>
       <c r="R193" s="23" t="inlineStr">
         <is>
@@ -19464,10 +19418,10 @@
       </c>
       <c r="N194" s="2" t="n"/>
       <c r="O194" s="32" t="n">
-        <v>-52</v>
+        <v>-55.6</v>
       </c>
       <c r="P194" s="32" t="n">
-        <v>-49.1</v>
+        <v>-52.1</v>
       </c>
       <c r="Q194" s="32" t="n"/>
       <c r="R194" s="23" t="inlineStr">
@@ -19557,13 +19511,13 @@
       </c>
       <c r="N195" s="2" t="n"/>
       <c r="O195" s="32" t="n">
-        <v>-37.8</v>
+        <v>-41.6</v>
       </c>
       <c r="P195" s="32" t="n">
-        <v>-13.3</v>
+        <v>-33.4</v>
       </c>
       <c r="Q195" s="32" t="n">
-        <v>-24.82</v>
+        <v>-36.53</v>
       </c>
       <c r="R195" s="23" t="inlineStr">
         <is>
@@ -19656,13 +19610,13 @@
       </c>
       <c r="N196" s="2" t="n"/>
       <c r="O196" s="32" t="n">
-        <v>-45.2</v>
+        <v>-44.7</v>
       </c>
       <c r="P196" s="32" t="n">
-        <v>-27.1</v>
+        <v>-36</v>
       </c>
       <c r="Q196" s="32" t="n">
-        <v>-40.05</v>
+        <v>-39.6</v>
       </c>
       <c r="R196" s="23" t="inlineStr">
         <is>
@@ -19751,13 +19705,13 @@
       </c>
       <c r="N197" s="24" t="n"/>
       <c r="O197" s="32" t="n">
-        <v>-46.4</v>
+        <v>-49.1</v>
       </c>
       <c r="P197" s="32" t="n">
-        <v>-43.9</v>
+        <v>-46.7</v>
       </c>
       <c r="Q197" s="32" t="n">
-        <v>-39.81</v>
+        <v>-48.61</v>
       </c>
       <c r="R197" s="23" t="inlineStr">
         <is>
@@ -21090,10 +21044,10 @@
       </c>
       <c r="N212" s="2" t="n"/>
       <c r="O212" s="32" t="n">
-        <v>-38.7</v>
+        <v>-37.1</v>
       </c>
       <c r="P212" s="32" t="n">
-        <v>-27.6</v>
+        <v>-25.2</v>
       </c>
       <c r="Q212" s="32" t="n"/>
       <c r="R212" s="23" t="inlineStr">
@@ -21175,13 +21129,13 @@
       </c>
       <c r="N213" s="2" t="n"/>
       <c r="O213" s="32" t="n">
-        <v>-21.2</v>
+        <v>-12.6</v>
       </c>
       <c r="P213" s="32" t="n">
-        <v>-6.1</v>
+        <v>-1.3</v>
       </c>
       <c r="Q213" s="32" t="n">
-        <v>-14.95</v>
+        <v>-4.99</v>
       </c>
       <c r="R213" s="23" t="inlineStr">
         <is>
@@ -21278,13 +21232,13 @@
       </c>
       <c r="N214" s="2" t="n"/>
       <c r="O214" s="32" t="n">
-        <v>-17.9</v>
+        <v>-22</v>
       </c>
       <c r="P214" s="32" t="n">
-        <v>-6.3</v>
+        <v>-14.3</v>
       </c>
       <c r="Q214" s="32" t="n">
-        <v>-9.94</v>
+        <v>-18.38</v>
       </c>
       <c r="R214" s="23" t="inlineStr">
         <is>
@@ -21385,13 +21339,13 @@
       </c>
       <c r="N215" s="2" t="n"/>
       <c r="O215" s="32" t="n">
-        <v>-31.1</v>
+        <v>-23.4</v>
       </c>
       <c r="P215" s="32" t="n">
-        <v>-23.3</v>
+        <v>-13.7</v>
       </c>
       <c r="Q215" s="32" t="n">
-        <v>-27.77</v>
+        <v>-19.75</v>
       </c>
       <c r="R215" s="23" t="inlineStr">
         <is>
@@ -21492,13 +21446,13 @@
       </c>
       <c r="N216" s="2" t="n"/>
       <c r="O216" s="32" t="n">
-        <v>-35</v>
+        <v>-26.4</v>
       </c>
       <c r="P216" s="32" t="n">
-        <v>-27.6</v>
+        <v>-15.3</v>
       </c>
       <c r="Q216" s="32" t="n">
-        <v>-31.19</v>
+        <v>-18.41</v>
       </c>
       <c r="R216" s="23" t="inlineStr">
         <is>
@@ -21595,13 +21549,13 @@
       </c>
       <c r="N217" s="2" t="n"/>
       <c r="O217" s="32" t="n">
-        <v>-27.1</v>
+        <v>-10.9</v>
       </c>
       <c r="P217" s="32" t="n">
-        <v>-6.8</v>
+        <v>-8.1</v>
       </c>
       <c r="Q217" s="32" t="n">
-        <v>-14.96</v>
+        <v>-9.19</v>
       </c>
       <c r="R217" s="23" t="inlineStr">
         <is>
@@ -21698,13 +21652,13 @@
       </c>
       <c r="N218" s="2" t="n"/>
       <c r="O218" s="32" t="n">
-        <v>-13.5</v>
+        <v>-19.6</v>
       </c>
       <c r="P218" s="32" t="n">
-        <v>-5.5</v>
+        <v>-16.4</v>
       </c>
       <c r="Q218" s="32" t="n">
-        <v>-7.77</v>
+        <v>-17.78</v>
       </c>
       <c r="R218" s="23" t="inlineStr">
         <is>
@@ -21801,13 +21755,13 @@
       </c>
       <c r="N219" s="2" t="n"/>
       <c r="O219" s="32" t="n">
-        <v>-10.3</v>
+        <v>-8.4</v>
       </c>
       <c r="P219" s="32" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="Q219" s="32" t="n">
-        <v>-7.29</v>
+        <v>-3.46</v>
       </c>
       <c r="R219" s="23" t="inlineStr">
         <is>
@@ -22174,8 +22128,12 @@
         </is>
       </c>
       <c r="N223" s="2" t="n"/>
-      <c r="O223" s="32" t="n"/>
-      <c r="P223" s="32" t="n"/>
+      <c r="O223" s="32" t="n">
+        <v>-33.9</v>
+      </c>
+      <c r="P223" s="32" t="n">
+        <v>-26.3</v>
+      </c>
       <c r="Q223" s="32" t="n"/>
       <c r="R223" s="23" t="inlineStr">
         <is>
@@ -22625,8 +22583,12 @@
         </is>
       </c>
       <c r="N228" s="2" t="n"/>
-      <c r="O228" s="32" t="n"/>
-      <c r="P228" s="32" t="n"/>
+      <c r="O228" s="32" t="n">
+        <v>-36.1</v>
+      </c>
+      <c r="P228" s="32" t="n">
+        <v>-26.2</v>
+      </c>
       <c r="Q228" s="32" t="n"/>
       <c r="R228" s="23" t="inlineStr">
         <is>
@@ -22987,8 +22949,12 @@
         </is>
       </c>
       <c r="N232" s="2" t="n"/>
-      <c r="O232" s="32" t="n"/>
-      <c r="P232" s="32" t="n"/>
+      <c r="O232" s="32" t="n">
+        <v>-38.5</v>
+      </c>
+      <c r="P232" s="32" t="n">
+        <v>-24.9</v>
+      </c>
       <c r="Q232" s="32" t="n"/>
       <c r="R232" s="23" t="inlineStr">
         <is>
@@ -23887,18 +23853,10 @@
         </is>
       </c>
       <c r="N242" s="2" t="n"/>
-      <c r="O242" s="32" t="n">
-        <v>-51.5</v>
-      </c>
-      <c r="P242" s="32" t="n">
-        <v>-46.3</v>
-      </c>
+      <c r="O242" s="32" t="n"/>
+      <c r="P242" s="32" t="n"/>
       <c r="Q242" s="32" t="n"/>
-      <c r="R242" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="R242" s="23" t="n"/>
       <c r="S242" s="37" t="n"/>
       <c r="T242" s="2" t="inlineStr">
         <is>
@@ -23976,9 +23934,7 @@
         </is>
       </c>
       <c r="N243" s="2" t="n"/>
-      <c r="O243" s="32" t="n">
-        <v>-42.2</v>
-      </c>
+      <c r="O243" s="32" t="n"/>
       <c r="P243" s="32" t="n"/>
       <c r="Q243" s="32" t="n"/>
       <c r="R243" s="23" t="inlineStr">
@@ -24067,12 +24023,8 @@
         </is>
       </c>
       <c r="N244" s="2" t="n"/>
-      <c r="O244" s="32" t="n">
-        <v>-28.3</v>
-      </c>
-      <c r="P244" s="32" t="n">
-        <v>-12.6</v>
-      </c>
+      <c r="O244" s="32" t="n"/>
+      <c r="P244" s="32" t="n"/>
       <c r="Q244" s="32" t="n"/>
       <c r="R244" s="23" t="inlineStr">
         <is>
@@ -24160,12 +24112,8 @@
         </is>
       </c>
       <c r="N245" s="2" t="n"/>
-      <c r="O245" s="32" t="n">
-        <v>-40.2</v>
-      </c>
-      <c r="P245" s="32" t="n">
-        <v>-29.8</v>
-      </c>
+      <c r="O245" s="32" t="n"/>
+      <c r="P245" s="32" t="n"/>
       <c r="Q245" s="32" t="n"/>
       <c r="R245" s="23" t="inlineStr">
         <is>

--- a/气象/For_Python_站点信息和记录.xlsx
+++ b/气象/For_Python_站点信息和记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394321E0-3FB5-4AC8-90A9-5BECE6547370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56142EE-A18B-4ED6-AA58-16A1AC663DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2889" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2890" uniqueCount="784">
   <si>
     <t>id</t>
   </si>
@@ -2374,6 +2374,10 @@
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
@@ -3216,16 +3220,12 @@
       <c r="N2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="32">
-        <v>-29.2</v>
-      </c>
-      <c r="P2" s="32">
-        <v>-16.7</v>
-      </c>
-      <c r="Q2" s="32">
-        <v>-22.46</v>
-      </c>
-      <c r="R2" s="23"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="23" t="s">
+        <v>783</v>
+      </c>
       <c r="S2" s="37" t="s">
         <v>38</v>
       </c>
@@ -3496,15 +3496,9 @@
       <c r="N6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O6" s="32">
-        <v>-30</v>
-      </c>
-      <c r="P6" s="32">
-        <v>-11.4</v>
-      </c>
-      <c r="Q6" s="32">
-        <v>-23.09</v>
-      </c>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
       <c r="R6" s="23"/>
       <c r="S6" s="37" t="s">
         <v>38</v>
@@ -3648,15 +3642,9 @@
         <v>62</v>
       </c>
       <c r="N8" s="2"/>
-      <c r="O8" s="32">
-        <v>-30</v>
-      </c>
-      <c r="P8" s="32">
-        <v>-21</v>
-      </c>
-      <c r="Q8" s="32">
-        <v>-25.51</v>
-      </c>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
       <c r="R8" s="23" t="s">
         <v>38</v>
       </c>
@@ -3727,15 +3715,9 @@
         <v>66</v>
       </c>
       <c r="N9" s="2"/>
-      <c r="O9" s="32">
-        <v>-28.2</v>
-      </c>
-      <c r="P9" s="32">
-        <v>-17.2</v>
-      </c>
-      <c r="Q9" s="32">
-        <v>-23.76</v>
-      </c>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
       <c r="R9" s="23" t="s">
         <v>38</v>
       </c>
@@ -3808,15 +3790,9 @@
         <v>68</v>
       </c>
       <c r="N10" s="3"/>
-      <c r="O10" s="32">
-        <v>-24.2</v>
-      </c>
-      <c r="P10" s="32">
-        <v>-16.8</v>
-      </c>
-      <c r="Q10" s="32">
-        <v>-20.75</v>
-      </c>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
       <c r="R10" s="23" t="s">
         <v>38</v>
       </c>
@@ -3889,15 +3865,9 @@
       <c r="N11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="O11" s="32">
-        <v>-25.2</v>
-      </c>
-      <c r="P11" s="32">
-        <v>-12.4</v>
-      </c>
-      <c r="Q11" s="32">
-        <v>-16.18</v>
-      </c>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
       <c r="R11" s="23" t="s">
         <v>38</v>
       </c>
@@ -3970,15 +3940,9 @@
         <v>73</v>
       </c>
       <c r="N12" s="2"/>
-      <c r="O12" s="32">
-        <v>-25</v>
-      </c>
-      <c r="P12" s="32">
-        <v>-14.6</v>
-      </c>
-      <c r="Q12" s="32">
-        <v>-20.54</v>
-      </c>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
       <c r="R12" s="23" t="s">
         <v>38</v>
       </c>
@@ -4053,15 +4017,9 @@
       <c r="N13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="O13" s="32">
-        <v>-29</v>
-      </c>
-      <c r="P13" s="32">
-        <v>-13.2</v>
-      </c>
-      <c r="Q13" s="32">
-        <v>-22.64</v>
-      </c>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
       <c r="R13" s="23" t="s">
         <v>38</v>
       </c>
@@ -4134,15 +4092,9 @@
         <v>77</v>
       </c>
       <c r="N14" s="2"/>
-      <c r="O14" s="32">
-        <v>-23.1</v>
-      </c>
-      <c r="P14" s="32">
-        <v>-14.4</v>
-      </c>
-      <c r="Q14" s="32">
-        <v>-18.96</v>
-      </c>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
       <c r="R14" s="23" t="s">
         <v>38</v>
       </c>
@@ -4412,15 +4364,9 @@
         <v>86</v>
       </c>
       <c r="N18" s="2"/>
-      <c r="O18" s="32">
-        <v>-32.1</v>
-      </c>
-      <c r="P18" s="32">
-        <v>-21.4</v>
-      </c>
-      <c r="Q18" s="32">
-        <v>-28.1</v>
-      </c>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
       <c r="R18" s="23"/>
       <c r="S18" s="37"/>
       <c r="T18" s="2" t="s">
@@ -8113,15 +8059,9 @@
         <v>178</v>
       </c>
       <c r="N75" s="2"/>
-      <c r="O75" s="32">
-        <v>-24.4</v>
-      </c>
-      <c r="P75" s="32">
-        <v>-14.4</v>
-      </c>
-      <c r="Q75" s="32">
-        <v>-16.34</v>
-      </c>
+      <c r="O75" s="32"/>
+      <c r="P75" s="32"/>
+      <c r="Q75" s="32"/>
       <c r="R75" s="23" t="s">
         <v>38</v>
       </c>
@@ -8194,15 +8134,9 @@
         <v>184</v>
       </c>
       <c r="N76" s="2"/>
-      <c r="O76" s="32">
-        <v>-37.4</v>
-      </c>
-      <c r="P76" s="32">
-        <v>-24.8</v>
-      </c>
-      <c r="Q76" s="32">
-        <v>-29.33</v>
-      </c>
+      <c r="O76" s="32"/>
+      <c r="P76" s="32"/>
+      <c r="Q76" s="32"/>
       <c r="R76" s="23" t="s">
         <v>38</v>
       </c>
@@ -8277,15 +8211,9 @@
       <c r="N77" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="O77" s="32">
-        <v>-38.4</v>
-      </c>
-      <c r="P77" s="32">
-        <v>-21.5</v>
-      </c>
-      <c r="Q77" s="32">
-        <v>-30.14</v>
-      </c>
+      <c r="O77" s="32"/>
+      <c r="P77" s="32"/>
+      <c r="Q77" s="32"/>
       <c r="R77" s="23" t="s">
         <v>38</v>
       </c>
@@ -8358,15 +8286,9 @@
         <v>191</v>
       </c>
       <c r="N78" s="2"/>
-      <c r="O78" s="32">
-        <v>-34.299999999999997</v>
-      </c>
-      <c r="P78" s="32">
-        <v>-23.9</v>
-      </c>
-      <c r="Q78" s="32">
-        <v>-28.73</v>
-      </c>
+      <c r="O78" s="32"/>
+      <c r="P78" s="32"/>
+      <c r="Q78" s="32"/>
       <c r="R78" s="23" t="s">
         <v>38</v>
       </c>
@@ -8439,15 +8361,9 @@
       <c r="N79" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="O79" s="32">
-        <v>-35.1</v>
-      </c>
-      <c r="P79" s="32">
-        <v>-19.100000000000001</v>
-      </c>
-      <c r="Q79" s="32">
-        <v>-26.84</v>
-      </c>
+      <c r="O79" s="32"/>
+      <c r="P79" s="32"/>
+      <c r="Q79" s="32"/>
       <c r="R79" s="23" t="s">
         <v>38</v>
       </c>
@@ -8518,15 +8434,9 @@
         <v>197</v>
       </c>
       <c r="N80" s="2"/>
-      <c r="O80" s="32">
-        <v>-27.3</v>
-      </c>
-      <c r="P80" s="32">
-        <v>-23.5</v>
-      </c>
-      <c r="Q80" s="32">
-        <v>-25.88</v>
-      </c>
+      <c r="O80" s="32"/>
+      <c r="P80" s="32"/>
+      <c r="Q80" s="32"/>
       <c r="R80" s="23" t="s">
         <v>38</v>
       </c>
@@ -8601,15 +8511,9 @@
       <c r="N81" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="O81" s="32">
-        <v>-35.700000000000003</v>
-      </c>
-      <c r="P81" s="32">
-        <v>-25.5</v>
-      </c>
-      <c r="Q81" s="32">
-        <v>-31.86</v>
-      </c>
+      <c r="O81" s="32"/>
+      <c r="P81" s="32"/>
+      <c r="Q81" s="32"/>
       <c r="R81" s="23" t="s">
         <v>38</v>
       </c>
@@ -8686,15 +8590,9 @@
       <c r="N82" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="O82" s="32">
-        <v>-31</v>
-      </c>
-      <c r="P82" s="32">
-        <v>-17.5</v>
-      </c>
-      <c r="Q82" s="32">
-        <v>-21.64</v>
-      </c>
+      <c r="O82" s="32"/>
+      <c r="P82" s="32"/>
+      <c r="Q82" s="32"/>
       <c r="R82" s="23" t="s">
         <v>38</v>
       </c>
@@ -8767,15 +8665,9 @@
         <v>208</v>
       </c>
       <c r="N83" s="2"/>
-      <c r="O83" s="32">
-        <v>-26.9</v>
-      </c>
-      <c r="P83" s="32">
-        <v>-12.7</v>
-      </c>
-      <c r="Q83" s="32">
-        <v>-17.86</v>
-      </c>
+      <c r="O83" s="32"/>
+      <c r="P83" s="32"/>
+      <c r="Q83" s="32"/>
       <c r="R83" s="23" t="s">
         <v>38</v>
       </c>
@@ -8848,15 +8740,9 @@
       <c r="N84" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="O84" s="32">
-        <v>-30.7</v>
-      </c>
-      <c r="P84" s="32">
-        <v>-21.5</v>
-      </c>
-      <c r="Q84" s="32">
-        <v>-25.45</v>
-      </c>
+      <c r="O84" s="32"/>
+      <c r="P84" s="32"/>
+      <c r="Q84" s="32"/>
       <c r="R84" s="23" t="s">
         <v>38</v>
       </c>
@@ -8931,15 +8817,9 @@
       <c r="N85" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="O85" s="32">
-        <v>-20.399999999999999</v>
-      </c>
-      <c r="P85" s="32">
-        <v>-14.7</v>
-      </c>
-      <c r="Q85" s="32">
-        <v>-16.91</v>
-      </c>
+      <c r="O85" s="32"/>
+      <c r="P85" s="32"/>
+      <c r="Q85" s="32"/>
       <c r="R85" s="23" t="s">
         <v>38</v>
       </c>
@@ -9010,15 +8890,9 @@
         <v>221</v>
       </c>
       <c r="N86" s="2"/>
-      <c r="O86" s="32">
-        <v>-19.100000000000001</v>
-      </c>
-      <c r="P86" s="32">
-        <v>-13.9</v>
-      </c>
-      <c r="Q86" s="32">
-        <v>-16.64</v>
-      </c>
+      <c r="O86" s="32"/>
+      <c r="P86" s="32"/>
+      <c r="Q86" s="32"/>
       <c r="R86" s="23" t="s">
         <v>38</v>
       </c>
@@ -9097,15 +8971,9 @@
       <c r="N87" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O87" s="32">
-        <v>-22.7</v>
-      </c>
-      <c r="P87" s="32">
-        <v>-16.8</v>
-      </c>
-      <c r="Q87" s="32">
-        <v>-20.61</v>
-      </c>
+      <c r="O87" s="32"/>
+      <c r="P87" s="32"/>
+      <c r="Q87" s="32"/>
       <c r="R87" s="23" t="s">
         <v>38</v>
       </c>
@@ -9176,15 +9044,9 @@
         <v>226</v>
       </c>
       <c r="N88" s="2"/>
-      <c r="O88" s="32">
-        <v>-19.399999999999999</v>
-      </c>
-      <c r="P88" s="32">
-        <v>-13.3</v>
-      </c>
-      <c r="Q88" s="32">
-        <v>-16.850000000000001</v>
-      </c>
+      <c r="O88" s="32"/>
+      <c r="P88" s="32"/>
+      <c r="Q88" s="32"/>
       <c r="R88" s="23" t="s">
         <v>38</v>
       </c>
@@ -9328,15 +9190,9 @@
       <c r="N90" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="O90" s="32">
-        <v>-22.8</v>
-      </c>
-      <c r="P90" s="32">
-        <v>-14</v>
-      </c>
-      <c r="Q90" s="32">
-        <v>-17.440000000000001</v>
-      </c>
+      <c r="O90" s="32"/>
+      <c r="P90" s="32"/>
+      <c r="Q90" s="32"/>
       <c r="R90" s="23" t="s">
         <v>38</v>
       </c>
@@ -9405,15 +9261,9 @@
         <v>239</v>
       </c>
       <c r="N91" s="2"/>
-      <c r="O91" s="32">
-        <v>-25.1</v>
-      </c>
-      <c r="P91" s="32">
-        <v>-18</v>
-      </c>
-      <c r="Q91" s="32">
-        <v>-20.62</v>
-      </c>
+      <c r="O91" s="32"/>
+      <c r="P91" s="32"/>
+      <c r="Q91" s="32"/>
       <c r="R91" s="23" t="s">
         <v>38</v>
       </c>
@@ -9482,15 +9332,9 @@
         <v>242</v>
       </c>
       <c r="N92" s="2"/>
-      <c r="O92" s="32">
-        <v>-10.8</v>
-      </c>
-      <c r="P92" s="32">
-        <v>-6.7</v>
-      </c>
-      <c r="Q92" s="32">
-        <v>-7.8</v>
-      </c>
+      <c r="O92" s="32"/>
+      <c r="P92" s="32"/>
+      <c r="Q92" s="32"/>
       <c r="R92" s="23" t="s">
         <v>38</v>
       </c>
@@ -9561,15 +9405,9 @@
         <v>247</v>
       </c>
       <c r="N93" s="2"/>
-      <c r="O93" s="32">
-        <v>-5.7</v>
-      </c>
-      <c r="P93" s="32">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="Q93" s="32">
-        <v>-0.37</v>
-      </c>
+      <c r="O93" s="32"/>
+      <c r="P93" s="32"/>
+      <c r="Q93" s="32"/>
       <c r="R93" s="23" t="s">
         <v>38</v>
       </c>
@@ -9645,10 +9483,10 @@
         <v>234</v>
       </c>
       <c r="O94" s="32">
-        <v>-15</v>
+        <v>-25.5</v>
       </c>
       <c r="P94" s="32">
-        <v>1.8</v>
+        <v>-6</v>
       </c>
       <c r="Q94" s="32"/>
       <c r="R94" s="23" t="s">
@@ -9725,15 +9563,9 @@
         <v>259</v>
       </c>
       <c r="N95" s="2"/>
-      <c r="O95" s="32">
-        <v>-13.4</v>
-      </c>
-      <c r="P95" s="32">
-        <v>-0.2</v>
-      </c>
-      <c r="Q95" s="32">
-        <v>-5.1100000000000003</v>
-      </c>
+      <c r="O95" s="32"/>
+      <c r="P95" s="32"/>
+      <c r="Q95" s="32"/>
       <c r="R95" s="23" t="s">
         <v>38</v>
       </c>
@@ -9812,12 +9644,8 @@
       <c r="N96" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="O96" s="32">
-        <v>-11.9</v>
-      </c>
-      <c r="P96" s="32">
-        <v>-0.4</v>
-      </c>
+      <c r="O96" s="32"/>
+      <c r="P96" s="32"/>
       <c r="Q96" s="32"/>
       <c r="R96" s="23" t="s">
         <v>38</v>
@@ -9893,15 +9721,9 @@
         <v>270</v>
       </c>
       <c r="N97" s="2"/>
-      <c r="O97" s="32">
-        <v>-15.7</v>
-      </c>
-      <c r="P97" s="32">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="Q97" s="32">
-        <v>-5.91</v>
-      </c>
+      <c r="O97" s="32"/>
+      <c r="P97" s="32"/>
+      <c r="Q97" s="32"/>
       <c r="R97" s="23" t="s">
         <v>38</v>
       </c>
@@ -9975,10 +9797,10 @@
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="32">
-        <v>-20</v>
+        <v>-26.2</v>
       </c>
       <c r="P98" s="32">
-        <v>-13.5</v>
+        <v>-13.7</v>
       </c>
       <c r="Q98" s="32"/>
       <c r="R98" s="23" t="s">
@@ -10055,15 +9877,9 @@
         <v>280</v>
       </c>
       <c r="N99" s="2"/>
-      <c r="O99" s="32">
-        <v>-29.2</v>
-      </c>
-      <c r="P99" s="32">
-        <v>-18.100000000000001</v>
-      </c>
-      <c r="Q99" s="32">
-        <v>-22.97</v>
-      </c>
+      <c r="O99" s="32"/>
+      <c r="P99" s="32"/>
+      <c r="Q99" s="32"/>
       <c r="R99" s="23" t="s">
         <v>38</v>
       </c>
@@ -10134,8 +9950,12 @@
         <v>284</v>
       </c>
       <c r="N100" s="2"/>
-      <c r="O100" s="32"/>
-      <c r="P100" s="32"/>
+      <c r="O100" s="32">
+        <v>-38.4</v>
+      </c>
+      <c r="P100" s="32">
+        <v>-21.6</v>
+      </c>
       <c r="Q100" s="32"/>
       <c r="R100" s="23" t="s">
         <v>38</v>
@@ -10208,10 +10028,10 @@
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="32">
-        <v>-35.799999999999997</v>
+        <v>-38.9</v>
       </c>
       <c r="P101" s="32">
-        <v>-23</v>
+        <v>-23.1</v>
       </c>
       <c r="Q101" s="32"/>
       <c r="R101" s="23" t="s">
@@ -10290,15 +10110,9 @@
         <v>291</v>
       </c>
       <c r="N102" s="2"/>
-      <c r="O102" s="32">
-        <v>-35.5</v>
-      </c>
-      <c r="P102" s="32">
-        <v>-23.6</v>
-      </c>
-      <c r="Q102" s="32">
-        <v>-30.16</v>
-      </c>
+      <c r="O102" s="32"/>
+      <c r="P102" s="32"/>
+      <c r="Q102" s="32"/>
       <c r="R102" s="23" t="s">
         <v>38</v>
       </c>
@@ -10371,12 +10185,8 @@
         <v>294</v>
       </c>
       <c r="N103" s="2"/>
-      <c r="O103" s="32">
-        <v>-34.4</v>
-      </c>
-      <c r="P103" s="32">
-        <v>-24.6</v>
-      </c>
+      <c r="O103" s="32"/>
+      <c r="P103" s="32"/>
       <c r="Q103" s="32"/>
       <c r="R103" s="23" t="s">
         <v>38</v>
@@ -10451,10 +10261,10 @@
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="32">
-        <v>-33</v>
+        <v>-39.4</v>
       </c>
       <c r="P104" s="32">
-        <v>-20.9</v>
+        <v>-22.9</v>
       </c>
       <c r="Q104" s="32"/>
       <c r="R104" s="23" t="s">
@@ -10535,15 +10345,9 @@
       <c r="N105" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="O105" s="32">
-        <v>-34.700000000000003</v>
-      </c>
-      <c r="P105" s="32">
-        <v>-20.3</v>
-      </c>
-      <c r="Q105" s="32">
-        <v>-28.85</v>
-      </c>
+      <c r="O105" s="32"/>
+      <c r="P105" s="32"/>
+      <c r="Q105" s="32"/>
       <c r="R105" s="23" t="s">
         <v>38</v>
       </c>
@@ -10621,10 +10425,10 @@
         <v>37</v>
       </c>
       <c r="O106" s="32">
-        <v>-32.9</v>
+        <v>-35.6</v>
       </c>
       <c r="P106" s="32">
-        <v>-23.2</v>
+        <v>-24.7</v>
       </c>
       <c r="Q106" s="32"/>
       <c r="R106" s="23" t="s">
@@ -10774,15 +10578,9 @@
         <v>308</v>
       </c>
       <c r="N108" s="2"/>
-      <c r="O108" s="32">
-        <v>-29.3</v>
-      </c>
-      <c r="P108" s="32">
-        <v>-18.5</v>
-      </c>
-      <c r="Q108" s="32">
-        <v>-24.29</v>
-      </c>
+      <c r="O108" s="32"/>
+      <c r="P108" s="32"/>
+      <c r="Q108" s="32"/>
       <c r="R108" s="23" t="s">
         <v>38</v>
       </c>
@@ -11001,15 +10799,9 @@
         <v>315</v>
       </c>
       <c r="N111" s="2"/>
-      <c r="O111" s="32">
-        <v>-25.9</v>
-      </c>
-      <c r="P111" s="32">
-        <v>-13.9</v>
-      </c>
-      <c r="Q111" s="32">
-        <v>-19.690000000000001</v>
-      </c>
+      <c r="O111" s="32"/>
+      <c r="P111" s="32"/>
+      <c r="Q111" s="32"/>
       <c r="R111" s="23" t="s">
         <v>38</v>
       </c>
@@ -11081,10 +10873,10 @@
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="32">
-        <v>-18.5</v>
+        <v>-20</v>
       </c>
       <c r="P112" s="32">
-        <v>-2.4</v>
+        <v>-8.8000000000000007</v>
       </c>
       <c r="Q112" s="32"/>
       <c r="R112" s="23" t="s">
@@ -11156,10 +10948,10 @@
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="32">
-        <v>-15.6</v>
+        <v>-18.3</v>
       </c>
       <c r="P113" s="32">
-        <v>2.2999999999999998</v>
+        <v>-2.1</v>
       </c>
       <c r="Q113" s="32"/>
       <c r="R113" s="23" t="s">
@@ -11235,10 +11027,10 @@
         <v>83</v>
       </c>
       <c r="O114" s="32">
-        <v>-15.6</v>
+        <v>-22.9</v>
       </c>
       <c r="P114" s="32">
-        <v>3.1</v>
+        <v>-0.8</v>
       </c>
       <c r="Q114" s="32"/>
       <c r="R114" s="23" t="s">
@@ -11317,12 +11109,8 @@
       <c r="N115" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="O115" s="32">
-        <v>-18.8</v>
-      </c>
-      <c r="P115" s="32">
-        <v>-1.9</v>
-      </c>
+      <c r="O115" s="32"/>
+      <c r="P115" s="32"/>
       <c r="Q115" s="32"/>
       <c r="R115" s="23" t="s">
         <v>38</v>
@@ -11398,15 +11186,9 @@
         <v>335</v>
       </c>
       <c r="N116" s="2"/>
-      <c r="O116" s="32">
-        <v>-19.100000000000001</v>
-      </c>
-      <c r="P116" s="32">
-        <v>-1.2</v>
-      </c>
-      <c r="Q116" s="32">
-        <v>-10.61</v>
-      </c>
+      <c r="O116" s="32"/>
+      <c r="P116" s="32"/>
+      <c r="Q116" s="32"/>
       <c r="R116" s="23" t="s">
         <v>38</v>
       </c>
@@ -11478,10 +11260,10 @@
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="32">
-        <v>-19.3</v>
+        <v>-20.3</v>
       </c>
       <c r="P117" s="32">
-        <v>-5.0999999999999996</v>
+        <v>-5.5</v>
       </c>
       <c r="Q117" s="32"/>
       <c r="R117" s="23" t="s">
@@ -11557,10 +11339,10 @@
         <v>234</v>
       </c>
       <c r="O118" s="32">
-        <v>-31.1</v>
+        <v>-29.6</v>
       </c>
       <c r="P118" s="32">
-        <v>-17.100000000000001</v>
+        <v>-15.5</v>
       </c>
       <c r="Q118" s="32"/>
       <c r="R118" s="23" t="s">
@@ -11637,15 +11419,9 @@
         <v>348</v>
       </c>
       <c r="N119" s="2"/>
-      <c r="O119" s="32">
-        <v>-21.5</v>
-      </c>
-      <c r="P119" s="32">
-        <v>-8.8000000000000007</v>
-      </c>
-      <c r="Q119" s="32">
-        <v>-16.850000000000001</v>
-      </c>
+      <c r="O119" s="32"/>
+      <c r="P119" s="32"/>
+      <c r="Q119" s="32"/>
       <c r="R119" s="23" t="s">
         <v>38</v>
       </c>
@@ -11722,15 +11498,9 @@
         <v>353</v>
       </c>
       <c r="N120" s="2"/>
-      <c r="O120" s="32">
-        <v>-7.5</v>
-      </c>
-      <c r="P120" s="32">
-        <v>-0.2</v>
-      </c>
-      <c r="Q120" s="32">
-        <v>-4.3499999999999996</v>
-      </c>
+      <c r="O120" s="32"/>
+      <c r="P120" s="32"/>
+      <c r="Q120" s="32"/>
       <c r="R120" s="23" t="s">
         <v>38</v>
       </c>
@@ -11803,15 +11573,9 @@
         <v>358</v>
       </c>
       <c r="N121" s="2"/>
-      <c r="O121" s="32">
-        <v>-9.6999999999999993</v>
-      </c>
-      <c r="P121" s="32">
-        <v>-6</v>
-      </c>
-      <c r="Q121" s="32">
-        <v>-8.1300000000000008</v>
-      </c>
+      <c r="O121" s="32"/>
+      <c r="P121" s="32"/>
+      <c r="Q121" s="32"/>
       <c r="R121" s="23" t="s">
         <v>38</v>
       </c>
@@ -11888,12 +11652,8 @@
         <v>363</v>
       </c>
       <c r="N122" s="2"/>
-      <c r="O122" s="32">
-        <v>-25.7</v>
-      </c>
-      <c r="P122" s="32">
-        <v>-14.2</v>
-      </c>
+      <c r="O122" s="32"/>
+      <c r="P122" s="32"/>
       <c r="Q122" s="32"/>
       <c r="R122" s="23" t="s">
         <v>38</v>
@@ -12044,15 +11804,9 @@
         <v>371</v>
       </c>
       <c r="N124" s="2"/>
-      <c r="O124" s="32">
-        <v>-12</v>
-      </c>
-      <c r="P124" s="32">
-        <v>-0.7</v>
-      </c>
-      <c r="Q124" s="32">
-        <v>-6.02</v>
-      </c>
+      <c r="O124" s="32"/>
+      <c r="P124" s="32"/>
+      <c r="Q124" s="32"/>
       <c r="R124" s="23" t="s">
         <v>38</v>
       </c>
@@ -12129,15 +11883,9 @@
         <v>376</v>
       </c>
       <c r="N125" s="2"/>
-      <c r="O125" s="32">
-        <v>-1.9</v>
-      </c>
-      <c r="P125" s="32">
-        <v>6.7</v>
-      </c>
-      <c r="Q125" s="32">
-        <v>2.75</v>
-      </c>
+      <c r="O125" s="32"/>
+      <c r="P125" s="32"/>
+      <c r="Q125" s="32"/>
       <c r="R125" s="23" t="s">
         <v>38</v>
       </c>
@@ -12203,10 +11951,10 @@
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="32">
-        <v>1</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="P126" s="32">
-        <v>8.5</v>
+        <v>7.6</v>
       </c>
       <c r="Q126" s="32"/>
       <c r="R126" s="23" t="s">
@@ -12279,15 +12027,9 @@
         <v>384</v>
       </c>
       <c r="N127" s="2"/>
-      <c r="O127" s="32">
-        <v>-5.7</v>
-      </c>
-      <c r="P127" s="32">
-        <v>2.9</v>
-      </c>
-      <c r="Q127" s="32">
-        <v>-0.89</v>
-      </c>
+      <c r="O127" s="32"/>
+      <c r="P127" s="32"/>
+      <c r="Q127" s="32"/>
       <c r="R127" s="23" t="s">
         <v>38</v>
       </c>
@@ -12362,12 +12104,8 @@
         <v>390</v>
       </c>
       <c r="N128" s="2"/>
-      <c r="O128" s="32">
-        <v>-0.5</v>
-      </c>
-      <c r="P128" s="32">
-        <v>11</v>
-      </c>
+      <c r="O128" s="32"/>
+      <c r="P128" s="32"/>
       <c r="Q128" s="32"/>
       <c r="R128" s="23" t="s">
         <v>38</v>
@@ -12439,15 +12177,9 @@
         <v>394</v>
       </c>
       <c r="N129" s="2"/>
-      <c r="O129" s="32">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="P129" s="32">
-        <v>5.4</v>
-      </c>
-      <c r="Q129" s="32">
-        <v>2.21</v>
-      </c>
+      <c r="O129" s="32"/>
+      <c r="P129" s="32"/>
+      <c r="Q129" s="32"/>
       <c r="R129" s="23" t="s">
         <v>38</v>
       </c>
@@ -12522,15 +12254,9 @@
         <v>400</v>
       </c>
       <c r="N130" s="2"/>
-      <c r="O130" s="32">
-        <v>-7.4</v>
-      </c>
-      <c r="P130" s="32">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="Q130" s="32">
-        <v>-3.39</v>
-      </c>
+      <c r="O130" s="32"/>
+      <c r="P130" s="32"/>
+      <c r="Q130" s="32"/>
       <c r="R130" s="23" t="s">
         <v>38</v>
       </c>
@@ -12605,15 +12331,9 @@
         <v>405</v>
       </c>
       <c r="N131" s="2"/>
-      <c r="O131" s="32">
-        <v>-0.2</v>
-      </c>
-      <c r="P131" s="32">
-        <v>5.8</v>
-      </c>
-      <c r="Q131" s="32">
-        <v>2.77</v>
-      </c>
+      <c r="O131" s="32"/>
+      <c r="P131" s="32"/>
+      <c r="Q131" s="32"/>
       <c r="R131" s="23" t="s">
         <v>38</v>
       </c>
@@ -12686,15 +12406,9 @@
         <v>411</v>
       </c>
       <c r="N132" s="2"/>
-      <c r="O132" s="32">
-        <v>2.9</v>
-      </c>
-      <c r="P132" s="32">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="Q132" s="32">
-        <v>6.51</v>
-      </c>
+      <c r="O132" s="32"/>
+      <c r="P132" s="32"/>
+      <c r="Q132" s="32"/>
       <c r="R132" s="23" t="s">
         <v>38</v>
       </c>
@@ -12767,15 +12481,9 @@
         <v>417</v>
       </c>
       <c r="N133" s="2"/>
-      <c r="O133" s="32">
-        <v>3.3</v>
-      </c>
-      <c r="P133" s="32">
-        <v>10</v>
-      </c>
-      <c r="Q133" s="32">
-        <v>6.44</v>
-      </c>
+      <c r="O133" s="32"/>
+      <c r="P133" s="32"/>
+      <c r="Q133" s="32"/>
       <c r="R133" s="23" t="s">
         <v>38</v>
       </c>
@@ -12850,15 +12558,9 @@
         <v>424</v>
       </c>
       <c r="N134" s="2"/>
-      <c r="O134" s="32">
-        <v>5.5</v>
-      </c>
-      <c r="P134" s="32">
-        <v>8.4</v>
-      </c>
-      <c r="Q134" s="32">
-        <v>6.55</v>
-      </c>
+      <c r="O134" s="32"/>
+      <c r="P134" s="32"/>
+      <c r="Q134" s="32"/>
       <c r="R134" s="23" t="s">
         <v>38</v>
       </c>
@@ -12929,15 +12631,9 @@
         <v>429</v>
       </c>
       <c r="N135" s="2"/>
-      <c r="O135" s="32">
-        <v>7.3</v>
-      </c>
-      <c r="P135" s="32">
-        <v>11.8</v>
-      </c>
-      <c r="Q135" s="32">
-        <v>8.9</v>
-      </c>
+      <c r="O135" s="32"/>
+      <c r="P135" s="32"/>
+      <c r="Q135" s="32"/>
       <c r="R135" s="23" t="s">
         <v>38</v>
       </c>
@@ -13010,15 +12706,9 @@
         <v>435</v>
       </c>
       <c r="N136" s="2"/>
-      <c r="O136" s="32">
-        <v>10.4</v>
-      </c>
-      <c r="P136" s="32">
-        <v>14.2</v>
-      </c>
-      <c r="Q136" s="32">
-        <v>11.81</v>
-      </c>
+      <c r="O136" s="32"/>
+      <c r="P136" s="32"/>
+      <c r="Q136" s="32"/>
       <c r="R136" s="23" t="s">
         <v>38</v>
       </c>
@@ -13091,15 +12781,9 @@
         <v>441</v>
       </c>
       <c r="N137" s="2"/>
-      <c r="O137" s="32">
-        <v>6.7</v>
-      </c>
-      <c r="P137" s="32">
-        <v>10.6</v>
-      </c>
-      <c r="Q137" s="32">
-        <v>7.75</v>
-      </c>
+      <c r="O137" s="32"/>
+      <c r="P137" s="32"/>
+      <c r="Q137" s="32"/>
       <c r="R137" s="23" t="s">
         <v>38</v>
       </c>
@@ -13172,12 +12856,8 @@
         <v>447</v>
       </c>
       <c r="N138" s="2"/>
-      <c r="O138" s="32">
-        <v>5.7</v>
-      </c>
-      <c r="P138" s="32">
-        <v>8.9</v>
-      </c>
+      <c r="O138" s="32"/>
+      <c r="P138" s="32"/>
       <c r="Q138" s="32"/>
       <c r="R138" s="23" t="s">
         <v>38</v>
@@ -13251,15 +12931,9 @@
         <v>453</v>
       </c>
       <c r="N139" s="2"/>
-      <c r="O139" s="32">
-        <v>7</v>
-      </c>
-      <c r="P139" s="32">
-        <v>10.4</v>
-      </c>
-      <c r="Q139" s="32">
-        <v>8.65</v>
-      </c>
+      <c r="O139" s="32"/>
+      <c r="P139" s="32"/>
+      <c r="Q139" s="32"/>
       <c r="R139" s="23" t="s">
         <v>38</v>
       </c>
@@ -13332,15 +13006,9 @@
         <v>458</v>
       </c>
       <c r="N140" s="2"/>
-      <c r="O140" s="32">
-        <v>7</v>
-      </c>
-      <c r="P140" s="32">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="Q140" s="32">
-        <v>10.38</v>
-      </c>
+      <c r="O140" s="32"/>
+      <c r="P140" s="32"/>
+      <c r="Q140" s="32"/>
       <c r="R140" s="23" t="s">
         <v>38</v>
       </c>
@@ -13413,15 +13081,9 @@
         <v>464</v>
       </c>
       <c r="N141" s="2"/>
-      <c r="O141" s="32">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="P141" s="32">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="Q141" s="32">
-        <v>13.31</v>
-      </c>
+      <c r="O141" s="32"/>
+      <c r="P141" s="32"/>
+      <c r="Q141" s="32"/>
       <c r="R141" s="23" t="s">
         <v>38</v>
       </c>
@@ -13492,15 +13154,9 @@
         <v>469</v>
       </c>
       <c r="N142" s="2"/>
-      <c r="O142" s="32">
-        <v>13.5</v>
-      </c>
-      <c r="P142" s="32">
-        <v>22.9</v>
-      </c>
-      <c r="Q142" s="32">
-        <v>17.05</v>
-      </c>
+      <c r="O142" s="32"/>
+      <c r="P142" s="32"/>
+      <c r="Q142" s="32"/>
       <c r="R142" s="23" t="s">
         <v>38</v>
       </c>
@@ -13573,15 +13229,9 @@
         <v>475</v>
       </c>
       <c r="N143" s="2"/>
-      <c r="O143" s="32">
-        <v>15.5</v>
-      </c>
-      <c r="P143" s="32">
-        <v>25.3</v>
-      </c>
-      <c r="Q143" s="32">
-        <v>19.440000000000001</v>
-      </c>
+      <c r="O143" s="32"/>
+      <c r="P143" s="32"/>
+      <c r="Q143" s="32"/>
       <c r="R143" s="23" t="s">
         <v>38</v>
       </c>
@@ -13654,15 +13304,9 @@
         <v>481</v>
       </c>
       <c r="N144" s="2"/>
-      <c r="O144" s="32">
-        <v>21.1</v>
-      </c>
-      <c r="P144" s="32">
-        <v>26.3</v>
-      </c>
-      <c r="Q144" s="32">
-        <v>22.93</v>
-      </c>
+      <c r="O144" s="32"/>
+      <c r="P144" s="32"/>
+      <c r="Q144" s="32"/>
       <c r="R144" s="23" t="s">
         <v>38</v>
       </c>
@@ -13733,15 +13377,9 @@
         <v>486</v>
       </c>
       <c r="N145" s="2"/>
-      <c r="O145" s="32">
-        <v>19.3</v>
-      </c>
-      <c r="P145" s="32">
-        <v>24</v>
-      </c>
-      <c r="Q145" s="32">
-        <v>20.91</v>
-      </c>
+      <c r="O145" s="32"/>
+      <c r="P145" s="32"/>
+      <c r="Q145" s="32"/>
       <c r="R145" s="23" t="s">
         <v>38</v>
       </c>
@@ -13810,15 +13448,9 @@
         <v>490</v>
       </c>
       <c r="N146" s="2"/>
-      <c r="O146" s="32">
-        <v>21.8</v>
-      </c>
-      <c r="P146" s="32">
-        <v>26.2</v>
-      </c>
-      <c r="Q146" s="32">
-        <v>24.21</v>
-      </c>
+      <c r="O146" s="32"/>
+      <c r="P146" s="32"/>
+      <c r="Q146" s="32"/>
       <c r="R146" s="23" t="s">
         <v>38</v>
       </c>
@@ -13887,15 +13519,9 @@
         <v>493</v>
       </c>
       <c r="N147" s="2"/>
-      <c r="O147" s="32">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="P147" s="32">
-        <v>22.6</v>
-      </c>
-      <c r="Q147" s="32">
-        <v>19.64</v>
-      </c>
+      <c r="O147" s="32"/>
+      <c r="P147" s="32"/>
+      <c r="Q147" s="32"/>
       <c r="R147" s="23" t="s">
         <v>38</v>
       </c>
@@ -13968,12 +13594,8 @@
         <v>499</v>
       </c>
       <c r="N148" s="2"/>
-      <c r="O148" s="32">
-        <v>13.1</v>
-      </c>
-      <c r="P148" s="32">
-        <v>20.6</v>
-      </c>
+      <c r="O148" s="32"/>
+      <c r="P148" s="32"/>
       <c r="Q148" s="32"/>
       <c r="R148" s="23" t="s">
         <v>38</v>
@@ -14045,15 +13667,9 @@
         <v>504</v>
       </c>
       <c r="N149" s="2"/>
-      <c r="O149" s="32">
-        <v>5.3</v>
-      </c>
-      <c r="P149" s="32">
-        <v>12.4</v>
-      </c>
-      <c r="Q149" s="32">
-        <v>9.18</v>
-      </c>
+      <c r="O149" s="32"/>
+      <c r="P149" s="32"/>
+      <c r="Q149" s="32"/>
       <c r="R149" s="23" t="s">
         <v>38</v>
       </c>
@@ -14126,15 +13742,9 @@
         <v>509</v>
       </c>
       <c r="N150" s="2"/>
-      <c r="O150" s="32">
-        <v>6</v>
-      </c>
-      <c r="P150" s="32">
-        <v>13.9</v>
-      </c>
-      <c r="Q150" s="32">
-        <v>8</v>
-      </c>
+      <c r="O150" s="32"/>
+      <c r="P150" s="32"/>
+      <c r="Q150" s="32"/>
       <c r="R150" s="23" t="s">
         <v>38</v>
       </c>
@@ -14207,15 +13817,9 @@
         <v>515</v>
       </c>
       <c r="N151" s="2"/>
-      <c r="O151" s="32">
-        <v>10.1</v>
-      </c>
-      <c r="P151" s="32">
-        <v>13.1</v>
-      </c>
-      <c r="Q151" s="32">
-        <v>11.16</v>
-      </c>
+      <c r="O151" s="32"/>
+      <c r="P151" s="32"/>
+      <c r="Q151" s="32"/>
       <c r="R151" s="23" t="s">
         <v>38</v>
       </c>
@@ -14355,15 +13959,9 @@
         <v>524</v>
       </c>
       <c r="N153" s="2"/>
-      <c r="O153" s="32">
-        <v>3.5</v>
-      </c>
-      <c r="P153" s="32">
-        <v>15</v>
-      </c>
-      <c r="Q153" s="32">
-        <v>9.8000000000000007</v>
-      </c>
+      <c r="O153" s="32"/>
+      <c r="P153" s="32"/>
+      <c r="Q153" s="32"/>
       <c r="R153" s="23" t="s">
         <v>38</v>
       </c>
@@ -14438,15 +14036,9 @@
         <v>530</v>
       </c>
       <c r="N154" s="2"/>
-      <c r="O154" s="32">
-        <v>-3.9</v>
-      </c>
-      <c r="P154" s="32">
-        <v>15.4</v>
-      </c>
-      <c r="Q154" s="32">
-        <v>2.58</v>
-      </c>
+      <c r="O154" s="32"/>
+      <c r="P154" s="32"/>
+      <c r="Q154" s="32"/>
       <c r="R154" s="23" t="s">
         <v>38</v>
       </c>
@@ -14585,10 +14177,10 @@
       </c>
       <c r="N156" s="2"/>
       <c r="O156" s="32">
-        <v>-13.3</v>
+        <v>-21</v>
       </c>
       <c r="P156" s="32">
-        <v>-0.5</v>
+        <v>-4</v>
       </c>
       <c r="Q156" s="32"/>
       <c r="R156" s="23" t="s">
@@ -14660,10 +14252,10 @@
       </c>
       <c r="N157" s="2"/>
       <c r="O157" s="32">
-        <v>10.3</v>
+        <v>8.4</v>
       </c>
       <c r="P157" s="32">
-        <v>16.899999999999999</v>
+        <v>11.8</v>
       </c>
       <c r="Q157" s="32"/>
       <c r="R157" s="23" t="s">
@@ -14940,10 +14532,10 @@
       </c>
       <c r="N161" s="2"/>
       <c r="O161" s="32">
-        <v>-2.8</v>
+        <v>-4.9000000000000004</v>
       </c>
       <c r="P161" s="32">
-        <v>5.0999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="Q161" s="32"/>
       <c r="R161" s="23" t="s">
@@ -15238,10 +14830,10 @@
         <v>48</v>
       </c>
       <c r="O165" s="32">
-        <v>-38.200000000000003</v>
+        <v>-44.9</v>
       </c>
       <c r="P165" s="32">
-        <v>-23.6</v>
+        <v>-26.8</v>
       </c>
       <c r="Q165" s="32"/>
       <c r="R165" s="23" t="s">
@@ -15814,10 +15406,10 @@
       </c>
       <c r="N173" s="2"/>
       <c r="O173" s="32">
-        <v>-19</v>
+        <v>-24.7</v>
       </c>
       <c r="P173" s="32">
-        <v>-5.8</v>
+        <v>-10.3</v>
       </c>
       <c r="Q173" s="32"/>
       <c r="R173" s="23" t="s">
@@ -16032,12 +15624,8 @@
         <v>599</v>
       </c>
       <c r="N176" s="2"/>
-      <c r="O176" s="32">
-        <v>4.7</v>
-      </c>
-      <c r="P176" s="32">
-        <v>7.9</v>
-      </c>
+      <c r="O176" s="32"/>
+      <c r="P176" s="32"/>
       <c r="Q176" s="32"/>
       <c r="R176" s="23" t="s">
         <v>38</v>
@@ -16104,10 +15692,10 @@
       </c>
       <c r="N177" s="2"/>
       <c r="O177" s="32">
-        <v>-17.399999999999999</v>
+        <v>-20.6</v>
       </c>
       <c r="P177" s="32">
-        <v>-12.5</v>
+        <v>-15.3</v>
       </c>
       <c r="Q177" s="32"/>
       <c r="R177" s="23" t="s">
@@ -16724,15 +16312,9 @@
         <v>631</v>
       </c>
       <c r="N186" s="2"/>
-      <c r="O186" s="32">
-        <v>-54.6</v>
-      </c>
-      <c r="P186" s="32">
-        <v>-51.4</v>
-      </c>
-      <c r="Q186" s="32">
-        <v>-53.38</v>
-      </c>
+      <c r="O186" s="32"/>
+      <c r="P186" s="32"/>
+      <c r="Q186" s="32"/>
       <c r="R186" s="23" t="s">
         <v>38</v>
       </c>
@@ -16801,15 +16383,9 @@
         <v>634</v>
       </c>
       <c r="N187" s="2"/>
-      <c r="O187" s="32">
-        <v>-53.5</v>
-      </c>
-      <c r="P187" s="32">
-        <v>-48</v>
-      </c>
-      <c r="Q187" s="32">
-        <v>-52.36</v>
-      </c>
+      <c r="O187" s="32"/>
+      <c r="P187" s="32"/>
+      <c r="Q187" s="32"/>
       <c r="R187" s="23" t="s">
         <v>38</v>
       </c>
@@ -16876,15 +16452,9 @@
         <v>636</v>
       </c>
       <c r="N188" s="2"/>
-      <c r="O188" s="32">
-        <v>-51</v>
-      </c>
-      <c r="P188" s="32">
-        <v>-47.1</v>
-      </c>
-      <c r="Q188" s="32">
-        <v>-49.54</v>
-      </c>
+      <c r="O188" s="32"/>
+      <c r="P188" s="32"/>
+      <c r="Q188" s="32"/>
       <c r="R188" s="23" t="s">
         <v>38</v>
       </c>
@@ -16951,15 +16521,9 @@
         <v>637</v>
       </c>
       <c r="N189" s="2"/>
-      <c r="O189" s="32">
-        <v>-57</v>
-      </c>
-      <c r="P189" s="32">
-        <v>-52.4</v>
-      </c>
-      <c r="Q189" s="32">
-        <v>-54.85</v>
-      </c>
+      <c r="O189" s="32"/>
+      <c r="P189" s="32"/>
+      <c r="Q189" s="32"/>
       <c r="R189" s="23" t="s">
         <v>38</v>
       </c>
@@ -17026,15 +16590,9 @@
         <v>639</v>
       </c>
       <c r="N190" s="2"/>
-      <c r="O190" s="32">
-        <v>-53.8</v>
-      </c>
-      <c r="P190" s="32">
-        <v>-51.5</v>
-      </c>
-      <c r="Q190" s="32">
-        <v>-52.4</v>
-      </c>
+      <c r="O190" s="32"/>
+      <c r="P190" s="32"/>
+      <c r="Q190" s="32"/>
       <c r="R190" s="23" t="s">
         <v>38</v>
       </c>
@@ -17101,15 +16659,9 @@
         <v>642</v>
       </c>
       <c r="N191" s="2"/>
-      <c r="O191" s="32">
-        <v>-53.5</v>
-      </c>
-      <c r="P191" s="32">
-        <v>-49.6</v>
-      </c>
-      <c r="Q191" s="32">
-        <v>-51.85</v>
-      </c>
+      <c r="O191" s="32"/>
+      <c r="P191" s="32"/>
+      <c r="Q191" s="32"/>
       <c r="R191" s="23" t="s">
         <v>38</v>
       </c>
@@ -17174,15 +16726,9 @@
         <v>644</v>
       </c>
       <c r="N192" s="2"/>
-      <c r="O192" s="32">
-        <v>-50.4</v>
-      </c>
-      <c r="P192" s="32">
-        <v>-45.9</v>
-      </c>
-      <c r="Q192" s="32">
-        <v>-48.97</v>
-      </c>
+      <c r="O192" s="32"/>
+      <c r="P192" s="32"/>
+      <c r="Q192" s="32"/>
       <c r="R192" s="23" t="s">
         <v>38</v>
       </c>
@@ -17249,15 +16795,9 @@
         <v>647</v>
       </c>
       <c r="N193" s="2"/>
-      <c r="O193" s="32">
-        <v>-44.4</v>
-      </c>
-      <c r="P193" s="32">
-        <v>-42.4</v>
-      </c>
-      <c r="Q193" s="32">
-        <v>-43.5</v>
-      </c>
+      <c r="O193" s="32"/>
+      <c r="P193" s="32"/>
+      <c r="Q193" s="32"/>
       <c r="R193" s="23" t="s">
         <v>38</v>
       </c>
@@ -17326,12 +16866,8 @@
         <v>649</v>
       </c>
       <c r="N194" s="2"/>
-      <c r="O194" s="32">
-        <v>-55.6</v>
-      </c>
-      <c r="P194" s="32">
-        <v>-52.1</v>
-      </c>
+      <c r="O194" s="32"/>
+      <c r="P194" s="32"/>
       <c r="Q194" s="32"/>
       <c r="R194" s="23" t="s">
         <v>38</v>
@@ -17399,15 +16935,9 @@
         <v>652</v>
       </c>
       <c r="N195" s="2"/>
-      <c r="O195" s="32">
-        <v>-41.6</v>
-      </c>
-      <c r="P195" s="32">
-        <v>-33.4</v>
-      </c>
-      <c r="Q195" s="32">
-        <v>-36.53</v>
-      </c>
+      <c r="O195" s="32"/>
+      <c r="P195" s="32"/>
+      <c r="Q195" s="32"/>
       <c r="R195" s="23" t="s">
         <v>38</v>
       </c>
@@ -17476,15 +17006,9 @@
         <v>655</v>
       </c>
       <c r="N196" s="2"/>
-      <c r="O196" s="32">
-        <v>-44.7</v>
-      </c>
-      <c r="P196" s="32">
-        <v>-36</v>
-      </c>
-      <c r="Q196" s="32">
-        <v>-39.6</v>
-      </c>
+      <c r="O196" s="32"/>
+      <c r="P196" s="32"/>
+      <c r="Q196" s="32"/>
       <c r="R196" s="23" t="s">
         <v>38</v>
       </c>
@@ -17551,15 +17075,9 @@
         <v>660</v>
       </c>
       <c r="N197" s="24"/>
-      <c r="O197" s="32">
-        <v>-49.1</v>
-      </c>
-      <c r="P197" s="32">
-        <v>-46.7</v>
-      </c>
-      <c r="Q197" s="32">
-        <v>-48.61</v>
-      </c>
+      <c r="O197" s="32"/>
+      <c r="P197" s="32"/>
+      <c r="Q197" s="32"/>
       <c r="R197" s="23" t="s">
         <v>38</v>
       </c>
@@ -17691,8 +17209,12 @@
         <v>666</v>
       </c>
       <c r="N199" s="2"/>
-      <c r="O199" s="32"/>
-      <c r="P199" s="32"/>
+      <c r="O199" s="32">
+        <v>-40.299999999999997</v>
+      </c>
+      <c r="P199" s="32">
+        <v>-22.9</v>
+      </c>
       <c r="Q199" s="32"/>
       <c r="R199" s="23" t="s">
         <v>38</v>
@@ -17829,8 +17351,12 @@
         <v>669</v>
       </c>
       <c r="N201" s="2"/>
-      <c r="O201" s="32"/>
-      <c r="P201" s="32"/>
+      <c r="O201" s="32">
+        <v>-43</v>
+      </c>
+      <c r="P201" s="32">
+        <v>-22.8</v>
+      </c>
       <c r="Q201" s="32"/>
       <c r="R201" s="23" t="s">
         <v>38</v>
@@ -18584,12 +18110,8 @@
         <v>695</v>
       </c>
       <c r="N212" s="2"/>
-      <c r="O212" s="32">
-        <v>-37.1</v>
-      </c>
-      <c r="P212" s="32">
-        <v>-25.2</v>
-      </c>
+      <c r="O212" s="32"/>
+      <c r="P212" s="32"/>
       <c r="Q212" s="32"/>
       <c r="R212" s="23" t="s">
         <v>38</v>
@@ -18653,15 +18175,9 @@
         <v>698</v>
       </c>
       <c r="N213" s="2"/>
-      <c r="O213" s="32">
-        <v>-12.6</v>
-      </c>
-      <c r="P213" s="32">
-        <v>-1.3</v>
-      </c>
-      <c r="Q213" s="32">
-        <v>-4.99</v>
-      </c>
+      <c r="O213" s="32"/>
+      <c r="P213" s="32"/>
+      <c r="Q213" s="32"/>
       <c r="R213" s="23" t="s">
         <v>38</v>
       </c>
@@ -18732,15 +18248,9 @@
         <v>702</v>
       </c>
       <c r="N214" s="2"/>
-      <c r="O214" s="32">
-        <v>-22</v>
-      </c>
-      <c r="P214" s="32">
-        <v>-14.3</v>
-      </c>
-      <c r="Q214" s="32">
-        <v>-18.38</v>
-      </c>
+      <c r="O214" s="32"/>
+      <c r="P214" s="32"/>
+      <c r="Q214" s="32"/>
       <c r="R214" s="23" t="s">
         <v>38</v>
       </c>
@@ -18813,15 +18323,9 @@
         <v>705</v>
       </c>
       <c r="N215" s="2"/>
-      <c r="O215" s="32">
-        <v>-23.4</v>
-      </c>
-      <c r="P215" s="32">
-        <v>-13.7</v>
-      </c>
-      <c r="Q215" s="32">
-        <v>-19.75</v>
-      </c>
+      <c r="O215" s="32"/>
+      <c r="P215" s="32"/>
+      <c r="Q215" s="32"/>
       <c r="R215" s="23" t="s">
         <v>38</v>
       </c>
@@ -18894,15 +18398,9 @@
         <v>708</v>
       </c>
       <c r="N216" s="2"/>
-      <c r="O216" s="32">
-        <v>-26.4</v>
-      </c>
-      <c r="P216" s="32">
-        <v>-15.3</v>
-      </c>
-      <c r="Q216" s="32">
-        <v>-18.41</v>
-      </c>
+      <c r="O216" s="32"/>
+      <c r="P216" s="32"/>
+      <c r="Q216" s="32"/>
       <c r="R216" s="23" t="s">
         <v>38</v>
       </c>
@@ -18973,15 +18471,9 @@
         <v>711</v>
       </c>
       <c r="N217" s="2"/>
-      <c r="O217" s="32">
-        <v>-10.9</v>
-      </c>
-      <c r="P217" s="32">
-        <v>-8.1</v>
-      </c>
-      <c r="Q217" s="32">
-        <v>-9.19</v>
-      </c>
+      <c r="O217" s="32"/>
+      <c r="P217" s="32"/>
+      <c r="Q217" s="32"/>
       <c r="R217" s="23" t="s">
         <v>38</v>
       </c>
@@ -19052,15 +18544,9 @@
         <v>715</v>
       </c>
       <c r="N218" s="2"/>
-      <c r="O218" s="32">
-        <v>-19.600000000000001</v>
-      </c>
-      <c r="P218" s="32">
-        <v>-16.399999999999999</v>
-      </c>
-      <c r="Q218" s="32">
-        <v>-17.78</v>
-      </c>
+      <c r="O218" s="32"/>
+      <c r="P218" s="32"/>
+      <c r="Q218" s="32"/>
       <c r="R218" s="23" t="s">
         <v>38</v>
       </c>
@@ -19131,15 +18617,9 @@
         <v>718</v>
       </c>
       <c r="N219" s="2"/>
-      <c r="O219" s="32">
-        <v>-8.4</v>
-      </c>
-      <c r="P219" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="Q219" s="32">
-        <v>-3.46</v>
-      </c>
+      <c r="O219" s="32"/>
+      <c r="P219" s="32"/>
+      <c r="Q219" s="32"/>
       <c r="R219" s="23" t="s">
         <v>38</v>
       </c>
@@ -19204,8 +18684,12 @@
         <v>722</v>
       </c>
       <c r="N220" s="2"/>
-      <c r="O220" s="32"/>
-      <c r="P220" s="32"/>
+      <c r="O220" s="32">
+        <v>-44.1</v>
+      </c>
+      <c r="P220" s="32">
+        <v>-21.4</v>
+      </c>
       <c r="Q220" s="32"/>
       <c r="R220" s="23" t="s">
         <v>38</v>
@@ -19411,12 +18895,8 @@
         <v>729</v>
       </c>
       <c r="N223" s="2"/>
-      <c r="O223" s="32">
-        <v>-33.9</v>
-      </c>
-      <c r="P223" s="32">
-        <v>-26.3</v>
-      </c>
+      <c r="O223" s="32"/>
+      <c r="P223" s="32"/>
       <c r="Q223" s="32"/>
       <c r="R223" s="23" t="s">
         <v>38</v>
@@ -19484,8 +18964,12 @@
         <v>731</v>
       </c>
       <c r="N224" s="2"/>
-      <c r="O224" s="32"/>
-      <c r="P224" s="32"/>
+      <c r="O224" s="32">
+        <v>-43.3</v>
+      </c>
+      <c r="P224" s="32">
+        <v>-22.5</v>
+      </c>
       <c r="Q224" s="32"/>
       <c r="R224" s="23" t="s">
         <v>38</v>
@@ -19751,10 +19235,10 @@
       </c>
       <c r="N228" s="2"/>
       <c r="O228" s="32">
-        <v>-36.1</v>
+        <v>-40.9</v>
       </c>
       <c r="P228" s="32">
-        <v>-26.2</v>
+        <v>-27.7</v>
       </c>
       <c r="Q228" s="32"/>
       <c r="R228" s="23" t="s">
@@ -20025,10 +19509,10 @@
       </c>
       <c r="N232" s="2"/>
       <c r="O232" s="32">
-        <v>-38.5</v>
+        <v>-44.3</v>
       </c>
       <c r="P232" s="32">
-        <v>-24.9</v>
+        <v>-26.3</v>
       </c>
       <c r="Q232" s="32"/>
       <c r="R232" s="23" t="s">

--- a/气象/For_Python_站点信息和记录.xlsx
+++ b/气象/For_Python_站点信息和记录.xlsx
@@ -747,7 +747,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.59765625" defaultRowHeight="20.25"/>
@@ -773,8 +773,8 @@
     <col width="18.59765625" customWidth="1" style="8" min="24" max="24"/>
     <col width="12.59765625" customWidth="1" style="5" min="25" max="29"/>
     <col width="12.59765625" customWidth="1" style="8" min="30" max="31"/>
-    <col width="12.59765625" customWidth="1" style="5" min="32" max="114"/>
-    <col width="12.59765625" customWidth="1" style="5" min="115" max="16384"/>
+    <col width="12.59765625" customWidth="1" style="5" min="32" max="125"/>
+    <col width="12.59765625" customWidth="1" style="5" min="126" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.75" customFormat="1" customHeight="1" s="11">
@@ -996,20 +996,24 @@
         </is>
       </c>
       <c r="O2" s="32" t="n">
-        <v>-33.5</v>
+        <v>-36.6</v>
       </c>
       <c r="P2" s="32" t="n">
-        <v>-25.1</v>
+        <v>-28.5</v>
       </c>
       <c r="Q2" s="32" t="n">
-        <v>-28.79</v>
+        <v>-34.08</v>
       </c>
       <c r="R2" s="23" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="S2" s="37" t="n"/>
+      <c r="S2" s="37" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="T2" s="2" t="inlineStr">
         <is>
           <t>乌布苏省</t>
@@ -1097,18 +1101,14 @@
         </is>
       </c>
       <c r="O3" s="32" t="n">
-        <v>-35</v>
+        <v>-37.6</v>
       </c>
       <c r="P3" s="32" t="n">
-        <v>-24.2</v>
+        <v>-28.3</v>
       </c>
       <c r="Q3" s="32" t="n"/>
       <c r="R3" s="23" t="n"/>
-      <c r="S3" s="37" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="S3" s="37" t="n"/>
       <c r="T3" s="2" t="inlineStr">
         <is>
           <t>乌布苏省</t>
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="O4" s="32" t="n">
-        <v>-31.5</v>
+        <v>-37.5</v>
       </c>
       <c r="P4" s="32" t="n">
-        <v>-20.4</v>
+        <v>-27.6</v>
       </c>
       <c r="Q4" s="32" t="n"/>
       <c r="R4" s="23" t="n"/>
@@ -1283,10 +1283,10 @@
       </c>
       <c r="N5" s="2" t="n"/>
       <c r="O5" s="32" t="n">
-        <v>-31.8</v>
+        <v>-34.8</v>
       </c>
       <c r="P5" s="32" t="n">
-        <v>-23.9</v>
+        <v>-27.5</v>
       </c>
       <c r="Q5" s="32" t="n"/>
       <c r="R5" s="23" t="n"/>
@@ -1378,10 +1378,10 @@
         </is>
       </c>
       <c r="O6" s="32" t="n">
-        <v>-34.3</v>
+        <v>-38.2</v>
       </c>
       <c r="P6" s="32" t="n">
-        <v>-23.1</v>
+        <v>-26.9</v>
       </c>
       <c r="Q6" s="32" t="n"/>
       <c r="R6" s="23" t="n"/>
@@ -1481,11 +1481,9 @@
         </is>
       </c>
       <c r="O7" s="32" t="n">
-        <v>-28.6</v>
-      </c>
-      <c r="P7" s="32" t="n">
-        <v>-23.3</v>
-      </c>
+        <v>-29.4</v>
+      </c>
+      <c r="P7" s="32" t="n"/>
       <c r="Q7" s="32" t="n"/>
       <c r="R7" s="23" t="n"/>
       <c r="S7" s="37" t="n"/>
@@ -1580,13 +1578,13 @@
       </c>
       <c r="N8" s="2" t="n"/>
       <c r="O8" s="32" t="n">
-        <v>-31.7</v>
+        <v>-38.3</v>
       </c>
       <c r="P8" s="32" t="n">
-        <v>-23.5</v>
+        <v>-28.6</v>
       </c>
       <c r="Q8" s="32" t="n">
-        <v>-27.98</v>
+        <v>-33.89</v>
       </c>
       <c r="R8" s="23" t="inlineStr">
         <is>
@@ -1683,13 +1681,13 @@
       </c>
       <c r="N9" s="2" t="n"/>
       <c r="O9" s="32" t="n">
-        <v>-31</v>
+        <v>-34.1</v>
       </c>
       <c r="P9" s="32" t="n">
-        <v>-22.6</v>
+        <v>-22.4</v>
       </c>
       <c r="Q9" s="32" t="n">
-        <v>-25.2</v>
+        <v>-30.09</v>
       </c>
       <c r="R9" s="23" t="inlineStr">
         <is>
@@ -1790,13 +1788,13 @@
       </c>
       <c r="N10" s="3" t="n"/>
       <c r="O10" s="32" t="n">
-        <v>-32.6</v>
+        <v>-35.3</v>
       </c>
       <c r="P10" s="32" t="n">
-        <v>-20.7</v>
+        <v>-23.7</v>
       </c>
       <c r="Q10" s="32" t="n">
-        <v>-28.45</v>
+        <v>-31.14</v>
       </c>
       <c r="R10" s="23" t="inlineStr">
         <is>
@@ -1897,13 +1895,13 @@
         </is>
       </c>
       <c r="O11" s="32" t="n">
-        <v>-32.3</v>
+        <v>-34.6</v>
       </c>
       <c r="P11" s="32" t="n">
-        <v>-18.1</v>
+        <v>-19.6</v>
       </c>
       <c r="Q11" s="32" t="n">
-        <v>-26.73</v>
+        <v>-29.48</v>
       </c>
       <c r="R11" s="23" t="inlineStr">
         <is>
@@ -2004,13 +2002,13 @@
       </c>
       <c r="N12" s="2" t="n"/>
       <c r="O12" s="32" t="n">
-        <v>-33</v>
+        <v>-36.2</v>
       </c>
       <c r="P12" s="32" t="n">
-        <v>-22.6</v>
+        <v>-25.6</v>
       </c>
       <c r="Q12" s="32" t="n">
-        <v>-29.9</v>
+        <v>-32.75</v>
       </c>
       <c r="R12" s="23" t="inlineStr">
         <is>
@@ -2115,13 +2113,13 @@
         </is>
       </c>
       <c r="O13" s="32" t="n">
-        <v>-30.7</v>
+        <v>-32.4</v>
       </c>
       <c r="P13" s="32" t="n">
-        <v>-26</v>
+        <v>-22.1</v>
       </c>
       <c r="Q13" s="32" t="n">
-        <v>-28.55</v>
+        <v>-28.3</v>
       </c>
       <c r="R13" s="23" t="inlineStr">
         <is>
@@ -2222,13 +2220,13 @@
       </c>
       <c r="N14" s="2" t="n"/>
       <c r="O14" s="32" t="n">
-        <v>-20.1</v>
+        <v>-26.4</v>
       </c>
       <c r="P14" s="32" t="n">
-        <v>-11.8</v>
+        <v>-15.5</v>
       </c>
       <c r="Q14" s="32" t="n">
-        <v>-16.7</v>
+        <v>-22.01</v>
       </c>
       <c r="R14" s="23" t="inlineStr">
         <is>
@@ -2413,10 +2411,20 @@
         </is>
       </c>
       <c r="N16" s="2" t="n"/>
-      <c r="O16" s="32" t="n"/>
-      <c r="P16" s="32" t="n"/>
-      <c r="Q16" s="32" t="n"/>
-      <c r="R16" s="23" t="n"/>
+      <c r="O16" s="32" t="n">
+        <v>-36</v>
+      </c>
+      <c r="P16" s="32" t="n">
+        <v>-16.9</v>
+      </c>
+      <c r="Q16" s="32" t="n">
+        <v>-27.07</v>
+      </c>
+      <c r="R16" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S16" s="37" t="n"/>
       <c r="T16" s="2" t="inlineStr">
         <is>
@@ -2579,8 +2587,12 @@
         </is>
       </c>
       <c r="N18" s="2" t="n"/>
-      <c r="O18" s="32" t="n"/>
-      <c r="P18" s="32" t="n"/>
+      <c r="O18" s="32" t="n">
+        <v>-36.7</v>
+      </c>
+      <c r="P18" s="32" t="n">
+        <v>-21.7</v>
+      </c>
       <c r="Q18" s="32" t="n"/>
       <c r="R18" s="23" t="n"/>
       <c r="S18" s="37" t="n"/>
@@ -4496,8 +4508,12 @@
         </is>
       </c>
       <c r="N41" s="2" t="n"/>
-      <c r="O41" s="32" t="n"/>
-      <c r="P41" s="32" t="n"/>
+      <c r="O41" s="32" t="n">
+        <v>-38.2</v>
+      </c>
+      <c r="P41" s="32" t="n">
+        <v>-24.5</v>
+      </c>
       <c r="Q41" s="32" t="n"/>
       <c r="R41" s="23" t="n"/>
       <c r="S41" s="37" t="n"/>
@@ -7249,13 +7265,13 @@
       </c>
       <c r="N75" s="2" t="n"/>
       <c r="O75" s="32" t="n">
-        <v>-37.9</v>
+        <v>-30.4</v>
       </c>
       <c r="P75" s="32" t="n">
-        <v>-24.5</v>
+        <v>-16.1</v>
       </c>
       <c r="Q75" s="32" t="n">
-        <v>-32.26</v>
+        <v>-21.88</v>
       </c>
       <c r="R75" s="23" t="inlineStr">
         <is>
@@ -7356,24 +7372,20 @@
       </c>
       <c r="N76" s="2" t="n"/>
       <c r="O76" s="32" t="n">
-        <v>-42.7</v>
+        <v>-35.4</v>
       </c>
       <c r="P76" s="32" t="n">
-        <v>-32.7</v>
+        <v>-21.5</v>
       </c>
       <c r="Q76" s="32" t="n">
-        <v>-38.41</v>
+        <v>-27.51</v>
       </c>
       <c r="R76" s="23" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="S76" s="37" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="S76" s="37" t="n"/>
       <c r="T76" s="2" t="inlineStr">
         <is>
           <t>哈巴罗夫斯克边疆区</t>
@@ -7471,13 +7483,13 @@
         </is>
       </c>
       <c r="O77" s="32" t="n">
-        <v>-43.7</v>
+        <v>-34.2</v>
       </c>
       <c r="P77" s="32" t="n">
-        <v>-29</v>
+        <v>-18.3</v>
       </c>
       <c r="Q77" s="32" t="n">
-        <v>-37.95</v>
+        <v>-26.1</v>
       </c>
       <c r="R77" s="23" t="inlineStr">
         <is>
@@ -7578,13 +7590,13 @@
       </c>
       <c r="N78" s="2" t="n"/>
       <c r="O78" s="32" t="n">
-        <v>-40.8</v>
+        <v>-32.2</v>
       </c>
       <c r="P78" s="32" t="n">
-        <v>-28.9</v>
+        <v>-24.1</v>
       </c>
       <c r="Q78" s="32" t="n">
-        <v>-35.11</v>
+        <v>-28.06</v>
       </c>
       <c r="R78" s="23" t="inlineStr">
         <is>
@@ -7685,13 +7697,13 @@
         </is>
       </c>
       <c r="O79" s="32" t="n">
-        <v>-35.7</v>
+        <v>-24.3</v>
       </c>
       <c r="P79" s="32" t="n">
-        <v>-21.5</v>
+        <v>-15.1</v>
       </c>
       <c r="Q79" s="32" t="n">
-        <v>-30.24</v>
+        <v>-19.44</v>
       </c>
       <c r="R79" s="23" t="inlineStr">
         <is>
@@ -7788,13 +7800,13 @@
       </c>
       <c r="N80" s="2" t="n"/>
       <c r="O80" s="32" t="n">
-        <v>-38.8</v>
+        <v>-24.6</v>
       </c>
       <c r="P80" s="32" t="n">
-        <v>-28.1</v>
+        <v>-20.4</v>
       </c>
       <c r="Q80" s="32" t="n">
-        <v>-32.92</v>
+        <v>-22.45</v>
       </c>
       <c r="R80" s="23" t="inlineStr">
         <is>
@@ -7899,24 +7911,20 @@
         </is>
       </c>
       <c r="O81" s="32" t="n">
-        <v>-44.7</v>
+        <v>-40.1</v>
       </c>
       <c r="P81" s="32" t="n">
-        <v>-30.1</v>
+        <v>-22</v>
       </c>
       <c r="Q81" s="32" t="n">
-        <v>-39.24</v>
+        <v>-34.15</v>
       </c>
       <c r="R81" s="23" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="S81" s="37" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="S81" s="37" t="n"/>
       <c r="T81" s="2" t="inlineStr">
         <is>
           <t>外贝加尔边疆区</t>
@@ -8019,13 +8027,13 @@
         </is>
       </c>
       <c r="O82" s="32" t="n">
-        <v>-42.9</v>
+        <v>-42</v>
       </c>
       <c r="P82" s="32" t="n">
-        <v>-23.1</v>
+        <v>-23.5</v>
       </c>
       <c r="Q82" s="32" t="n">
-        <v>-35.66</v>
+        <v>-35.2</v>
       </c>
       <c r="R82" s="23" t="inlineStr">
         <is>
@@ -8126,13 +8134,13 @@
       </c>
       <c r="N83" s="2" t="n"/>
       <c r="O83" s="32" t="n">
-        <v>-31</v>
+        <v>-33.8</v>
       </c>
       <c r="P83" s="32" t="n">
-        <v>-25.8</v>
+        <v>-24.8</v>
       </c>
       <c r="Q83" s="32" t="n">
-        <v>-28.31</v>
+        <v>-29.95</v>
       </c>
       <c r="R83" s="23" t="inlineStr">
         <is>
@@ -8233,20 +8241,24 @@
         </is>
       </c>
       <c r="O84" s="32" t="n">
-        <v>-27.9</v>
+        <v>-41</v>
       </c>
       <c r="P84" s="32" t="n">
-        <v>-19.9</v>
+        <v>-32</v>
       </c>
       <c r="Q84" s="32" t="n">
-        <v>-24.1</v>
+        <v>-37.01</v>
       </c>
       <c r="R84" s="23" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="S84" s="37" t="n"/>
+      <c r="S84" s="37" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="T84" s="2" t="inlineStr">
         <is>
           <t>伊尔库茨克州</t>
@@ -8340,13 +8352,13 @@
         </is>
       </c>
       <c r="O85" s="32" t="n">
-        <v>-31.8</v>
+        <v>-36</v>
       </c>
       <c r="P85" s="32" t="n">
-        <v>-21.4</v>
+        <v>-24.5</v>
       </c>
       <c r="Q85" s="32" t="n">
-        <v>-27.11</v>
+        <v>-30.96</v>
       </c>
       <c r="R85" s="23" t="inlineStr">
         <is>
@@ -8443,20 +8455,24 @@
       </c>
       <c r="N86" s="2" t="n"/>
       <c r="O86" s="32" t="n">
-        <v>-27</v>
+        <v>-31.8</v>
       </c>
       <c r="P86" s="32" t="n">
-        <v>-20.5</v>
+        <v>-25.4</v>
       </c>
       <c r="Q86" s="32" t="n">
-        <v>-23.79</v>
+        <v>-28.59</v>
       </c>
       <c r="R86" s="23" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="S86" s="37" t="n"/>
+      <c r="S86" s="37" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="T86" s="2" t="inlineStr">
         <is>
           <t>图瓦共和国</t>
@@ -8558,13 +8574,13 @@
         </is>
       </c>
       <c r="O87" s="32" t="n">
-        <v>-32.6</v>
+        <v>-34.1</v>
       </c>
       <c r="P87" s="32" t="n">
-        <v>-20.9</v>
+        <v>-24</v>
       </c>
       <c r="Q87" s="32" t="n">
-        <v>-27.28</v>
+        <v>-30.03</v>
       </c>
       <c r="R87" s="23" t="inlineStr">
         <is>
@@ -8661,13 +8677,13 @@
       </c>
       <c r="N88" s="2" t="n"/>
       <c r="O88" s="32" t="n">
-        <v>-28.2</v>
+        <v>-37.1</v>
       </c>
       <c r="P88" s="32" t="n">
-        <v>-20.4</v>
+        <v>-24.1</v>
       </c>
       <c r="Q88" s="32" t="n">
-        <v>-24.55</v>
+        <v>-32.09</v>
       </c>
       <c r="R88" s="23" t="inlineStr">
         <is>
@@ -8861,13 +8877,13 @@
         </is>
       </c>
       <c r="O90" s="32" t="n">
-        <v>-21.5</v>
+        <v>-25.8</v>
       </c>
       <c r="P90" s="32" t="n">
-        <v>-8.800000000000001</v>
+        <v>-13.2</v>
       </c>
       <c r="Q90" s="32" t="n">
-        <v>-12.8</v>
+        <v>-20.64</v>
       </c>
       <c r="R90" s="23" t="inlineStr">
         <is>
@@ -8960,13 +8976,13 @@
       </c>
       <c r="N91" s="2" t="n"/>
       <c r="O91" s="32" t="n">
-        <v>-25.1</v>
+        <v>-31.7</v>
       </c>
       <c r="P91" s="32" t="n">
-        <v>-14.8</v>
+        <v>-24.7</v>
       </c>
       <c r="Q91" s="32" t="n">
-        <v>-20.29</v>
+        <v>-28.24</v>
       </c>
       <c r="R91" s="23" t="inlineStr">
         <is>
@@ -9059,13 +9075,13 @@
       </c>
       <c r="N92" s="2" t="n"/>
       <c r="O92" s="32" t="n">
-        <v>-29</v>
+        <v>-20.1</v>
       </c>
       <c r="P92" s="32" t="n">
-        <v>-21</v>
+        <v>-14.2</v>
       </c>
       <c r="Q92" s="32" t="n">
-        <v>-26.03</v>
+        <v>-17.49</v>
       </c>
       <c r="R92" s="23" t="inlineStr">
         <is>
@@ -9162,13 +9178,13 @@
       </c>
       <c r="N93" s="2" t="n"/>
       <c r="O93" s="32" t="n">
-        <v>-25.3</v>
+        <v>-18</v>
       </c>
       <c r="P93" s="32" t="n">
-        <v>-10.8</v>
+        <v>-3.7</v>
       </c>
       <c r="Q93" s="32" t="n">
-        <v>-19.01</v>
+        <v>-11.06</v>
       </c>
       <c r="R93" s="23" t="inlineStr">
         <is>
@@ -9273,10 +9289,10 @@
         </is>
       </c>
       <c r="O94" s="32" t="n">
-        <v>-32.7</v>
+        <v>-26.5</v>
       </c>
       <c r="P94" s="32" t="n">
-        <v>-14.3</v>
+        <v>-9.4</v>
       </c>
       <c r="Q94" s="32" t="n"/>
       <c r="R94" s="23" t="inlineStr">
@@ -9382,14 +9398,12 @@
       </c>
       <c r="N95" s="2" t="n"/>
       <c r="O95" s="32" t="n">
-        <v>-26.6</v>
+        <v>-17.4</v>
       </c>
       <c r="P95" s="32" t="n">
-        <v>-17</v>
-      </c>
-      <c r="Q95" s="32" t="n">
-        <v>-20.97</v>
-      </c>
+        <v>-10.8</v>
+      </c>
+      <c r="Q95" s="32" t="n"/>
       <c r="R95" s="23" t="inlineStr">
         <is>
           <t>Y</t>
@@ -9501,10 +9515,10 @@
         </is>
       </c>
       <c r="O96" s="32" t="n">
-        <v>-32.6</v>
+        <v>-24</v>
       </c>
       <c r="P96" s="32" t="n">
-        <v>-15.4</v>
+        <v>-11</v>
       </c>
       <c r="Q96" s="32" t="n"/>
       <c r="R96" s="23" t="inlineStr">
@@ -9610,13 +9624,13 @@
       </c>
       <c r="N97" s="2" t="n"/>
       <c r="O97" s="32" t="n">
-        <v>-26.9</v>
+        <v>-20.2</v>
       </c>
       <c r="P97" s="32" t="n">
-        <v>-18.8</v>
+        <v>-12.5</v>
       </c>
       <c r="Q97" s="32" t="n">
-        <v>-23.12</v>
+        <v>-17.27</v>
       </c>
       <c r="R97" s="23" t="inlineStr">
         <is>
@@ -9717,10 +9731,10 @@
       </c>
       <c r="N98" s="2" t="n"/>
       <c r="O98" s="32" t="n">
-        <v>-39.5</v>
+        <v>-29.9</v>
       </c>
       <c r="P98" s="32" t="n">
-        <v>-25.9</v>
+        <v>-12.3</v>
       </c>
       <c r="Q98" s="32" t="n"/>
       <c r="R98" s="23" t="inlineStr">
@@ -9826,13 +9840,13 @@
       </c>
       <c r="N99" s="2" t="n"/>
       <c r="O99" s="32" t="n">
-        <v>-35.4</v>
+        <v>-35.6</v>
       </c>
       <c r="P99" s="32" t="n">
-        <v>-19.9</v>
+        <v>-18</v>
       </c>
       <c r="Q99" s="32" t="n">
-        <v>-28.27</v>
+        <v>-26.2</v>
       </c>
       <c r="R99" s="23" t="inlineStr">
         <is>
@@ -10025,12 +10039,8 @@
         </is>
       </c>
       <c r="N101" s="2" t="n"/>
-      <c r="O101" s="32" t="n">
-        <v>-41.9</v>
-      </c>
-      <c r="P101" s="32" t="n">
-        <v>-24</v>
-      </c>
+      <c r="O101" s="32" t="n"/>
+      <c r="P101" s="32" t="n"/>
       <c r="Q101" s="32" t="n"/>
       <c r="R101" s="23" t="inlineStr">
         <is>
@@ -10139,13 +10149,13 @@
       </c>
       <c r="N102" s="2" t="n"/>
       <c r="O102" s="32" t="n">
-        <v>-41.7</v>
+        <v>-24.3</v>
       </c>
       <c r="P102" s="32" t="n">
-        <v>-23.4</v>
+        <v>-18.7</v>
       </c>
       <c r="Q102" s="32" t="n">
-        <v>-34.95</v>
+        <v>-22.06</v>
       </c>
       <c r="R102" s="23" t="inlineStr">
         <is>
@@ -10250,10 +10260,10 @@
       </c>
       <c r="N103" s="2" t="n"/>
       <c r="O103" s="32" t="n">
-        <v>-41.5</v>
+        <v>-26.9</v>
       </c>
       <c r="P103" s="32" t="n">
-        <v>-24.4</v>
+        <v>-18.3</v>
       </c>
       <c r="Q103" s="32" t="n"/>
       <c r="R103" s="23" t="inlineStr">
@@ -10351,10 +10361,10 @@
       </c>
       <c r="N104" s="2" t="n"/>
       <c r="O104" s="32" t="n">
-        <v>-42.1</v>
+        <v>-29.1</v>
       </c>
       <c r="P104" s="32" t="n">
-        <v>-26</v>
+        <v>-19.5</v>
       </c>
       <c r="Q104" s="32" t="n"/>
       <c r="R104" s="23" t="inlineStr">
@@ -10362,11 +10372,7 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S104" s="37" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="S104" s="37" t="n"/>
       <c r="T104" s="2" t="inlineStr">
         <is>
           <t>内蒙古</t>
@@ -10472,20 +10478,24 @@
         </is>
       </c>
       <c r="O105" s="32" t="n">
-        <v>-40.6</v>
+        <v>-24.3</v>
       </c>
       <c r="P105" s="32" t="n">
-        <v>-25</v>
+        <v>-19.8</v>
       </c>
       <c r="Q105" s="32" t="n">
-        <v>-34.85</v>
+        <v>-22.32</v>
       </c>
       <c r="R105" s="23" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="S105" s="37" t="n"/>
+      <c r="S105" s="37" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="T105" s="2" t="inlineStr">
         <is>
           <t>内蒙古</t>
@@ -10583,10 +10593,10 @@
         </is>
       </c>
       <c r="O106" s="32" t="n">
-        <v>-38.3</v>
+        <v>-26</v>
       </c>
       <c r="P106" s="32" t="n">
-        <v>-27.8</v>
+        <v>-18.3</v>
       </c>
       <c r="Q106" s="32" t="n"/>
       <c r="R106" s="23" t="inlineStr">
@@ -10594,7 +10604,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S106" s="37" t="n"/>
+      <c r="S106" s="37" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="T106" s="2" t="inlineStr">
         <is>
           <t>内蒙古</t>
@@ -10785,13 +10799,13 @@
       </c>
       <c r="N108" s="2" t="n"/>
       <c r="O108" s="32" t="n">
-        <v>-36.6</v>
+        <v>-29.4</v>
       </c>
       <c r="P108" s="32" t="n">
-        <v>-25.5</v>
+        <v>-21.7</v>
       </c>
       <c r="Q108" s="32" t="n">
-        <v>-31.11</v>
+        <v>-25.71</v>
       </c>
       <c r="R108" s="23" t="inlineStr">
         <is>
@@ -10980,12 +10994,8 @@
         </is>
       </c>
       <c r="N110" s="2" t="n"/>
-      <c r="O110" s="32" t="n">
-        <v>-39.5</v>
-      </c>
-      <c r="P110" s="32" t="n">
-        <v>-27.3</v>
-      </c>
+      <c r="O110" s="32" t="n"/>
+      <c r="P110" s="32" t="n"/>
       <c r="Q110" s="32" t="n"/>
       <c r="R110" s="23" t="inlineStr">
         <is>
@@ -11090,13 +11100,13 @@
       </c>
       <c r="N111" s="2" t="n"/>
       <c r="O111" s="32" t="n">
-        <v>-38.7</v>
+        <v>-32</v>
       </c>
       <c r="P111" s="32" t="n">
         <v>-22</v>
       </c>
       <c r="Q111" s="32" t="n">
-        <v>-31.07</v>
+        <v>-27.16</v>
       </c>
       <c r="R111" s="23" t="inlineStr">
         <is>
@@ -11193,10 +11203,10 @@
       </c>
       <c r="N112" s="2" t="n"/>
       <c r="O112" s="32" t="n">
-        <v>-21.5</v>
+        <v>-22.7</v>
       </c>
       <c r="P112" s="32" t="n">
-        <v>-2.8</v>
+        <v>-12.5</v>
       </c>
       <c r="Q112" s="32" t="n"/>
       <c r="R112" s="23" t="inlineStr">
@@ -11290,10 +11300,10 @@
       </c>
       <c r="N113" s="2" t="n"/>
       <c r="O113" s="32" t="n">
-        <v>-21.3</v>
+        <v>-18.2</v>
       </c>
       <c r="P113" s="32" t="n">
-        <v>-0.2</v>
+        <v>-5.1</v>
       </c>
       <c r="Q113" s="32" t="n"/>
       <c r="R113" s="23" t="inlineStr">
@@ -11395,10 +11405,10 @@
         </is>
       </c>
       <c r="O114" s="32" t="n">
-        <v>-26.8</v>
+        <v>-26.9</v>
       </c>
       <c r="P114" s="32" t="n">
-        <v>-0.7</v>
+        <v>-2.8</v>
       </c>
       <c r="Q114" s="32" t="n"/>
       <c r="R114" s="23" t="inlineStr">
@@ -11508,10 +11518,10 @@
         </is>
       </c>
       <c r="O115" s="32" t="n">
-        <v>-17.9</v>
+        <v>-18.7</v>
       </c>
       <c r="P115" s="32" t="n">
-        <v>-3.2</v>
+        <v>-6.8</v>
       </c>
       <c r="Q115" s="32" t="n"/>
       <c r="R115" s="23" t="inlineStr">
@@ -11617,13 +11627,13 @@
       </c>
       <c r="N116" s="2" t="n"/>
       <c r="O116" s="32" t="n">
-        <v>-12.5</v>
+        <v>-16.4</v>
       </c>
       <c r="P116" s="32" t="n">
-        <v>1.7</v>
+        <v>-6</v>
       </c>
       <c r="Q116" s="32" t="n">
-        <v>-6.44</v>
+        <v>-10.52</v>
       </c>
       <c r="R116" s="23" t="inlineStr">
         <is>
@@ -11720,10 +11730,10 @@
       </c>
       <c r="N117" s="2" t="n"/>
       <c r="O117" s="32" t="n">
-        <v>-17.6</v>
+        <v>-15.7</v>
       </c>
       <c r="P117" s="32" t="n">
-        <v>-0.9</v>
+        <v>-5.1</v>
       </c>
       <c r="Q117" s="32" t="n"/>
       <c r="R117" s="23" t="inlineStr">
@@ -11825,10 +11835,10 @@
         </is>
       </c>
       <c r="O118" s="32" t="n">
-        <v>-25.8</v>
+        <v>-27.3</v>
       </c>
       <c r="P118" s="32" t="n">
-        <v>-11.3</v>
+        <v>-12.3</v>
       </c>
       <c r="Q118" s="32" t="n"/>
       <c r="R118" s="23" t="inlineStr">
@@ -11934,13 +11944,13 @@
       </c>
       <c r="N119" s="2" t="n"/>
       <c r="O119" s="32" t="n">
-        <v>-18.5</v>
+        <v>-20.3</v>
       </c>
       <c r="P119" s="32" t="n">
-        <v>-2.6</v>
+        <v>-5.4</v>
       </c>
       <c r="Q119" s="32" t="n">
-        <v>-11.56</v>
+        <v>-14.86</v>
       </c>
       <c r="R119" s="23" t="inlineStr">
         <is>
@@ -12049,13 +12059,13 @@
       </c>
       <c r="N120" s="2" t="n"/>
       <c r="O120" s="32" t="n">
-        <v>-8.5</v>
+        <v>-5.2</v>
       </c>
       <c r="P120" s="32" t="n">
-        <v>-1.7</v>
+        <v>-0.1</v>
       </c>
       <c r="Q120" s="32" t="n">
-        <v>-5.42</v>
+        <v>-2.94</v>
       </c>
       <c r="R120" s="23" t="inlineStr">
         <is>
@@ -12156,13 +12166,13 @@
       </c>
       <c r="N121" s="2" t="n"/>
       <c r="O121" s="32" t="n">
-        <v>-16.2</v>
+        <v>-10.8</v>
       </c>
       <c r="P121" s="32" t="n">
-        <v>-6.3</v>
+        <v>-7.5</v>
       </c>
       <c r="Q121" s="32" t="n">
-        <v>-12.19</v>
+        <v>-9.76</v>
       </c>
       <c r="R121" s="23" t="inlineStr">
         <is>
@@ -12271,10 +12281,10 @@
       </c>
       <c r="N122" s="2" t="n"/>
       <c r="O122" s="32" t="n">
-        <v>-27.2</v>
+        <v>-24</v>
       </c>
       <c r="P122" s="32" t="n">
-        <v>-14.5</v>
+        <v>-12.6</v>
       </c>
       <c r="Q122" s="32" t="n"/>
       <c r="R122" s="23" t="inlineStr">
@@ -12282,7 +12292,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S122" s="37" t="n"/>
+      <c r="S122" s="37" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="T122" s="2" t="inlineStr">
         <is>
           <t>新疆</t>
@@ -12477,13 +12491,13 @@
       </c>
       <c r="N124" s="2" t="n"/>
       <c r="O124" s="32" t="n">
-        <v>-15</v>
+        <v>-12</v>
       </c>
       <c r="P124" s="32" t="n">
-        <v>-3.5</v>
+        <v>-4.9</v>
       </c>
       <c r="Q124" s="32" t="n">
-        <v>-10.29</v>
+        <v>-9.039999999999999</v>
       </c>
       <c r="R124" s="23" t="inlineStr">
         <is>
@@ -12592,13 +12606,13 @@
       </c>
       <c r="N125" s="2" t="n"/>
       <c r="O125" s="32" t="n">
-        <v>-7.5</v>
+        <v>-4.9</v>
       </c>
       <c r="P125" s="32" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q125" s="32" t="n">
-        <v>-3.34</v>
+        <v>-0.58</v>
       </c>
       <c r="R125" s="23" t="inlineStr">
         <is>
@@ -12683,10 +12697,10 @@
       </c>
       <c r="N126" s="2" t="n"/>
       <c r="O126" s="32" t="n">
-        <v>-4.6</v>
+        <v>-2.1</v>
       </c>
       <c r="P126" s="32" t="n">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="Q126" s="32" t="n"/>
       <c r="R126" s="23" t="inlineStr">
@@ -12784,13 +12798,13 @@
       </c>
       <c r="N127" s="2" t="n"/>
       <c r="O127" s="32" t="n">
-        <v>-7.4</v>
+        <v>-6.7</v>
       </c>
       <c r="P127" s="32" t="n">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q127" s="32" t="n">
-        <v>-2.41</v>
+        <v>-2.76</v>
       </c>
       <c r="R127" s="23" t="inlineStr">
         <is>
@@ -12895,10 +12909,10 @@
       </c>
       <c r="N128" s="2" t="n"/>
       <c r="O128" s="32" t="n">
-        <v>-6</v>
+        <v>-2.7</v>
       </c>
       <c r="P128" s="32" t="n">
-        <v>4.3</v>
+        <v>6</v>
       </c>
       <c r="Q128" s="32" t="n"/>
       <c r="R128" s="23" t="inlineStr">
@@ -12996,13 +13010,13 @@
       </c>
       <c r="N129" s="2" t="n"/>
       <c r="O129" s="32" t="n">
-        <v>-11.2</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="P129" s="32" t="n">
-        <v>1.7</v>
+        <v>6.5</v>
       </c>
       <c r="Q129" s="32" t="n">
-        <v>-5.01</v>
+        <v>-1.91</v>
       </c>
       <c r="R129" s="23" t="inlineStr">
         <is>
@@ -13107,13 +13121,13 @@
       </c>
       <c r="N130" s="2" t="n"/>
       <c r="O130" s="32" t="n">
-        <v>-10.4</v>
+        <v>-10.5</v>
       </c>
       <c r="P130" s="32" t="n">
-        <v>6.4</v>
+        <v>2.5</v>
       </c>
       <c r="Q130" s="32" t="n">
-        <v>-3.34</v>
+        <v>-4.15</v>
       </c>
       <c r="R130" s="23" t="inlineStr">
         <is>
@@ -13218,13 +13232,13 @@
       </c>
       <c r="N131" s="2" t="n"/>
       <c r="O131" s="32" t="n">
-        <v>-3.7</v>
+        <v>0.1</v>
       </c>
       <c r="P131" s="32" t="n">
-        <v>6.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="Q131" s="32" t="n">
-        <v>0.83</v>
+        <v>3.02</v>
       </c>
       <c r="R131" s="23" t="inlineStr">
         <is>
@@ -13325,13 +13339,13 @@
       </c>
       <c r="N132" s="2" t="n"/>
       <c r="O132" s="32" t="n">
-        <v>-3.9</v>
+        <v>-1.3</v>
       </c>
       <c r="P132" s="32" t="n">
-        <v>7.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="Q132" s="32" t="n">
-        <v>1.74</v>
+        <v>3.6</v>
       </c>
       <c r="R132" s="23" t="inlineStr">
         <is>
@@ -13432,13 +13446,13 @@
       </c>
       <c r="N133" s="2" t="n"/>
       <c r="O133" s="32" t="n">
-        <v>-2.8</v>
+        <v>-1.5</v>
       </c>
       <c r="P133" s="32" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="Q133" s="32" t="n">
-        <v>2.09</v>
+        <v>3.4</v>
       </c>
       <c r="R133" s="23" t="inlineStr">
         <is>
@@ -13543,13 +13557,13 @@
       </c>
       <c r="N134" s="2" t="n"/>
       <c r="O134" s="32" t="n">
-        <v>-0.3</v>
+        <v>4.1</v>
       </c>
       <c r="P134" s="32" t="n">
-        <v>5.3</v>
+        <v>12.2</v>
       </c>
       <c r="Q134" s="32" t="n">
-        <v>2.36</v>
+        <v>7.65</v>
       </c>
       <c r="R134" s="23" t="inlineStr">
         <is>
@@ -13646,13 +13660,13 @@
       </c>
       <c r="N135" s="2" t="n"/>
       <c r="O135" s="32" t="n">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="P135" s="32" t="n">
-        <v>12.2</v>
+        <v>15.7</v>
       </c>
       <c r="Q135" s="32" t="n">
-        <v>5.91</v>
+        <v>11.66</v>
       </c>
       <c r="R135" s="23" t="inlineStr">
         <is>
@@ -13753,13 +13767,13 @@
       </c>
       <c r="N136" s="2" t="n"/>
       <c r="O136" s="32" t="n">
-        <v>2.7</v>
+        <v>10.6</v>
       </c>
       <c r="P136" s="32" t="n">
-        <v>10.3</v>
+        <v>17.7</v>
       </c>
       <c r="Q136" s="32" t="n">
-        <v>6.14</v>
+        <v>13.41</v>
       </c>
       <c r="R136" s="23" t="inlineStr">
         <is>
@@ -13860,13 +13874,13 @@
       </c>
       <c r="N137" s="2" t="n"/>
       <c r="O137" s="32" t="n">
-        <v>-3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="P137" s="32" t="n">
-        <v>10.2</v>
+        <v>15.3</v>
       </c>
       <c r="Q137" s="32" t="n">
-        <v>3.01</v>
+        <v>12.07</v>
       </c>
       <c r="R137" s="23" t="inlineStr">
         <is>
@@ -13967,10 +13981,10 @@
       </c>
       <c r="N138" s="2" t="n"/>
       <c r="O138" s="32" t="n">
-        <v>-5.2</v>
+        <v>4.1</v>
       </c>
       <c r="P138" s="32" t="n">
-        <v>8</v>
+        <v>12.7</v>
       </c>
       <c r="Q138" s="32" t="n"/>
       <c r="R138" s="23" t="inlineStr">
@@ -14072,13 +14086,13 @@
       </c>
       <c r="N139" s="2" t="n"/>
       <c r="O139" s="32" t="n">
-        <v>-3.1</v>
+        <v>4.6</v>
       </c>
       <c r="P139" s="32" t="n">
-        <v>6.8</v>
+        <v>13.3</v>
       </c>
       <c r="Q139" s="32" t="n">
-        <v>1.66</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="R139" s="23" t="inlineStr">
         <is>
@@ -14179,13 +14193,13 @@
       </c>
       <c r="N140" s="2" t="n"/>
       <c r="O140" s="32" t="n">
-        <v>-0.5</v>
+        <v>6.4</v>
       </c>
       <c r="P140" s="32" t="n">
-        <v>8.199999999999999</v>
+        <v>12.8</v>
       </c>
       <c r="Q140" s="32" t="n">
-        <v>4.05</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="R140" s="23" t="inlineStr">
         <is>
@@ -14286,13 +14300,13 @@
       </c>
       <c r="N141" s="2" t="n"/>
       <c r="O141" s="32" t="n">
-        <v>-0.8</v>
+        <v>4.6</v>
       </c>
       <c r="P141" s="32" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="Q141" s="32" t="n">
         <v>10.3</v>
-      </c>
-      <c r="Q141" s="32" t="n">
-        <v>4.05</v>
       </c>
       <c r="R141" s="23" t="inlineStr">
         <is>
@@ -14389,13 +14403,13 @@
       </c>
       <c r="N142" s="2" t="n"/>
       <c r="O142" s="32" t="n">
-        <v>6.1</v>
+        <v>10.8</v>
       </c>
       <c r="P142" s="32" t="n">
-        <v>15.1</v>
+        <v>22</v>
       </c>
       <c r="Q142" s="32" t="n">
-        <v>9.68</v>
+        <v>15.19</v>
       </c>
       <c r="R142" s="23" t="inlineStr">
         <is>
@@ -14496,13 +14510,13 @@
       </c>
       <c r="N143" s="2" t="n"/>
       <c r="O143" s="32" t="n">
-        <v>8.800000000000001</v>
+        <v>11.2</v>
       </c>
       <c r="P143" s="32" t="n">
-        <v>12.1</v>
+        <v>24.2</v>
       </c>
       <c r="Q143" s="32" t="n">
-        <v>10.55</v>
+        <v>16.46</v>
       </c>
       <c r="R143" s="23" t="inlineStr">
         <is>
@@ -14603,13 +14617,13 @@
       </c>
       <c r="N144" s="2" t="n"/>
       <c r="O144" s="32" t="n">
-        <v>14</v>
+        <v>16.6</v>
       </c>
       <c r="P144" s="32" t="n">
-        <v>17.1</v>
+        <v>25.1</v>
       </c>
       <c r="Q144" s="32" t="n">
-        <v>16.16</v>
+        <v>20.34</v>
       </c>
       <c r="R144" s="23" t="inlineStr">
         <is>
@@ -14706,13 +14720,13 @@
       </c>
       <c r="N145" s="2" t="n"/>
       <c r="O145" s="32" t="n">
-        <v>14.9</v>
+        <v>17.5</v>
       </c>
       <c r="P145" s="32" t="n">
-        <v>21.1</v>
+        <v>23.3</v>
       </c>
       <c r="Q145" s="32" t="n">
-        <v>17.11</v>
+        <v>19.28</v>
       </c>
       <c r="R145" s="23" t="inlineStr">
         <is>
@@ -14805,13 +14819,13 @@
       </c>
       <c r="N146" s="2" t="n"/>
       <c r="O146" s="32" t="n">
-        <v>15.3</v>
+        <v>19.4</v>
       </c>
       <c r="P146" s="32" t="n">
-        <v>22</v>
+        <v>27.7</v>
       </c>
       <c r="Q146" s="32" t="n">
-        <v>18</v>
+        <v>22.86</v>
       </c>
       <c r="R146" s="23" t="inlineStr">
         <is>
@@ -14904,13 +14918,13 @@
       </c>
       <c r="N147" s="2" t="n"/>
       <c r="O147" s="32" t="n">
-        <v>10.2</v>
+        <v>15.2</v>
       </c>
       <c r="P147" s="32" t="n">
-        <v>17.3</v>
+        <v>23.1</v>
       </c>
       <c r="Q147" s="32" t="n">
-        <v>12.44</v>
+        <v>19.01</v>
       </c>
       <c r="R147" s="23" t="inlineStr">
         <is>
@@ -15011,10 +15025,10 @@
       </c>
       <c r="N148" s="2" t="n"/>
       <c r="O148" s="32" t="n">
-        <v>14.6</v>
+        <v>13.6</v>
       </c>
       <c r="P148" s="32" t="n">
-        <v>19.3</v>
+        <v>25.5</v>
       </c>
       <c r="Q148" s="32" t="n"/>
       <c r="R148" s="23" t="inlineStr">
@@ -15112,13 +15126,13 @@
       </c>
       <c r="N149" s="2" t="n"/>
       <c r="O149" s="32" t="n">
-        <v>6.1</v>
+        <v>4.1</v>
       </c>
       <c r="P149" s="32" t="n">
-        <v>14.9</v>
+        <v>17.8</v>
       </c>
       <c r="Q149" s="32" t="n">
-        <v>9.32</v>
+        <v>10.14</v>
       </c>
       <c r="R149" s="23" t="inlineStr">
         <is>
@@ -15219,13 +15233,13 @@
       </c>
       <c r="N150" s="2" t="n"/>
       <c r="O150" s="32" t="n">
-        <v>1.8</v>
+        <v>7.9</v>
       </c>
       <c r="P150" s="32" t="n">
-        <v>6.2</v>
+        <v>10.4</v>
       </c>
       <c r="Q150" s="32" t="n">
-        <v>3.66</v>
+        <v>8.82</v>
       </c>
       <c r="R150" s="23" t="inlineStr">
         <is>
@@ -15326,13 +15340,13 @@
       </c>
       <c r="N151" s="2" t="n"/>
       <c r="O151" s="32" t="n">
-        <v>9.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="P151" s="32" t="n">
-        <v>13.1</v>
+        <v>12.5</v>
       </c>
       <c r="Q151" s="32" t="n">
-        <v>10.89</v>
+        <v>11.01</v>
       </c>
       <c r="R151" s="23" t="inlineStr">
         <is>
@@ -15518,13 +15532,13 @@
       </c>
       <c r="N153" s="2" t="n"/>
       <c r="O153" s="32" t="n">
-        <v>6.8</v>
+        <v>4.4</v>
       </c>
       <c r="P153" s="32" t="n">
-        <v>11.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Q153" s="32" t="n">
-        <v>9.06</v>
+        <v>7.33</v>
       </c>
       <c r="R153" s="23" t="inlineStr">
         <is>
@@ -15629,13 +15643,13 @@
       </c>
       <c r="N154" s="2" t="n"/>
       <c r="O154" s="32" t="n">
-        <v>-6</v>
+        <v>-5.1</v>
       </c>
       <c r="P154" s="32" t="n">
-        <v>11.2</v>
+        <v>7.1</v>
       </c>
       <c r="Q154" s="32" t="n">
-        <v>0.72</v>
+        <v>1.04</v>
       </c>
       <c r="R154" s="23" t="inlineStr">
         <is>
@@ -15817,10 +15831,10 @@
       </c>
       <c r="N156" s="2" t="n"/>
       <c r="O156" s="32" t="n">
-        <v>-20.4</v>
+        <v>-21.7</v>
       </c>
       <c r="P156" s="32" t="n">
-        <v>-0.3</v>
+        <v>-3</v>
       </c>
       <c r="Q156" s="32" t="n"/>
       <c r="R156" s="23" t="inlineStr">
@@ -15914,10 +15928,10 @@
       </c>
       <c r="N157" s="2" t="n"/>
       <c r="O157" s="32" t="n">
-        <v>1.9</v>
+        <v>9</v>
       </c>
       <c r="P157" s="32" t="n">
-        <v>8</v>
+        <v>13.3</v>
       </c>
       <c r="Q157" s="32" t="n"/>
       <c r="R157" s="23" t="inlineStr">
@@ -16274,10 +16288,10 @@
       </c>
       <c r="N161" s="2" t="n"/>
       <c r="O161" s="32" t="n">
-        <v>-6.2</v>
+        <v>-7.5</v>
       </c>
       <c r="P161" s="32" t="n">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="Q161" s="32" t="n"/>
       <c r="R161" s="23" t="inlineStr">
@@ -16483,8 +16497,12 @@
           <t>▼</t>
         </is>
       </c>
-      <c r="O163" s="32" t="n"/>
-      <c r="P163" s="32" t="n"/>
+      <c r="O163" s="32" t="n">
+        <v>-35.1</v>
+      </c>
+      <c r="P163" s="32" t="n">
+        <v>-19.4</v>
+      </c>
       <c r="Q163" s="32" t="n"/>
       <c r="R163" s="23" t="inlineStr">
         <is>
@@ -16682,10 +16700,10 @@
         </is>
       </c>
       <c r="O165" s="32" t="n">
-        <v>-46.9</v>
+        <v>-36.3</v>
       </c>
       <c r="P165" s="32" t="n">
-        <v>-30.1</v>
+        <v>-18.6</v>
       </c>
       <c r="Q165" s="32" t="n"/>
       <c r="R165" s="23" t="inlineStr">
@@ -16693,11 +16711,7 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S165" s="37" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="S165" s="37" t="n"/>
       <c r="T165" s="2" t="inlineStr">
         <is>
           <t>内蒙古</t>
@@ -17085,8 +17099,12 @@
           <t>↓</t>
         </is>
       </c>
-      <c r="O169" s="32" t="n"/>
-      <c r="P169" s="32" t="n"/>
+      <c r="O169" s="32" t="n">
+        <v>-29.6</v>
+      </c>
+      <c r="P169" s="32" t="n">
+        <v>-10.1</v>
+      </c>
       <c r="Q169" s="32" t="n"/>
       <c r="R169" s="23" t="inlineStr">
         <is>
@@ -17474,10 +17492,10 @@
       </c>
       <c r="N173" s="2" t="n"/>
       <c r="O173" s="32" t="n">
-        <v>-29.7</v>
+        <v>-31.4</v>
       </c>
       <c r="P173" s="32" t="n">
-        <v>-6.9</v>
+        <v>-16.6</v>
       </c>
       <c r="Q173" s="32" t="n"/>
       <c r="R173" s="23" t="inlineStr">
@@ -17765,10 +17783,10 @@
       </c>
       <c r="N176" s="2" t="n"/>
       <c r="O176" s="32" t="n">
-        <v>-5.9</v>
+        <v>1.9</v>
       </c>
       <c r="P176" s="32" t="n">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="Q176" s="32" t="n"/>
       <c r="R176" s="23" t="inlineStr">
@@ -17854,10 +17872,10 @@
       </c>
       <c r="N177" s="2" t="n"/>
       <c r="O177" s="32" t="n">
-        <v>-35.8</v>
+        <v>-31.5</v>
       </c>
       <c r="P177" s="32" t="n">
-        <v>-24.6</v>
+        <v>-26</v>
       </c>
       <c r="Q177" s="32" t="n"/>
       <c r="R177" s="23" t="inlineStr">
@@ -18664,13 +18682,13 @@
       </c>
       <c r="N186" s="2" t="n"/>
       <c r="O186" s="32" t="n">
-        <v>-53.7</v>
+        <v>-50.3</v>
       </c>
       <c r="P186" s="32" t="n">
-        <v>-41.1</v>
+        <v>-44.5</v>
       </c>
       <c r="Q186" s="32" t="n">
-        <v>-45.76</v>
+        <v>-48.36</v>
       </c>
       <c r="R186" s="23" t="inlineStr">
         <is>
@@ -18764,13 +18782,13 @@
       </c>
       <c r="N187" s="2" t="n"/>
       <c r="O187" s="32" t="n">
-        <v>-56</v>
+        <v>-46.5</v>
       </c>
       <c r="P187" s="32" t="n">
-        <v>-43.9</v>
+        <v>-27.2</v>
       </c>
       <c r="Q187" s="32" t="n">
-        <v>-49.45</v>
+        <v>-36.61</v>
       </c>
       <c r="R187" s="23" t="inlineStr">
         <is>
@@ -18859,13 +18877,13 @@
       </c>
       <c r="N188" s="2" t="n"/>
       <c r="O188" s="32" t="n">
-        <v>-56.3</v>
+        <v>-40.8</v>
       </c>
       <c r="P188" s="32" t="n">
-        <v>-44</v>
+        <v>-28.5</v>
       </c>
       <c r="Q188" s="32" t="n">
-        <v>-48.12</v>
+        <v>-36.19</v>
       </c>
       <c r="R188" s="23" t="inlineStr">
         <is>
@@ -18953,15 +18971,9 @@
         </is>
       </c>
       <c r="N189" s="2" t="n"/>
-      <c r="O189" s="32" t="n">
-        <v>-58.4</v>
-      </c>
-      <c r="P189" s="32" t="n">
-        <v>-38.2</v>
-      </c>
-      <c r="Q189" s="32" t="n">
-        <v>-47.67</v>
-      </c>
+      <c r="O189" s="32" t="n"/>
+      <c r="P189" s="32" t="n"/>
+      <c r="Q189" s="32" t="n"/>
       <c r="R189" s="23" t="inlineStr">
         <is>
           <t>Y</t>
@@ -19049,13 +19061,13 @@
       </c>
       <c r="N190" s="2" t="n"/>
       <c r="O190" s="32" t="n">
-        <v>-51.2</v>
+        <v>-48.6</v>
       </c>
       <c r="P190" s="32" t="n">
-        <v>-48.9</v>
+        <v>-36.6</v>
       </c>
       <c r="Q190" s="32" t="n">
-        <v>-50.29</v>
+        <v>-44.26</v>
       </c>
       <c r="R190" s="23" t="inlineStr">
         <is>
@@ -19144,13 +19156,13 @@
       </c>
       <c r="N191" s="2" t="n"/>
       <c r="O191" s="32" t="n">
-        <v>-54</v>
+        <v>-47.8</v>
       </c>
       <c r="P191" s="32" t="n">
-        <v>-41.8</v>
+        <v>-39.3</v>
       </c>
       <c r="Q191" s="32" t="n">
-        <v>-46.37</v>
+        <v>-45.58</v>
       </c>
       <c r="R191" s="23" t="inlineStr">
         <is>
@@ -19235,13 +19247,13 @@
       </c>
       <c r="N192" s="2" t="n"/>
       <c r="O192" s="32" t="n">
-        <v>-49</v>
+        <v>-44.9</v>
       </c>
       <c r="P192" s="32" t="n">
-        <v>-36.5</v>
+        <v>-37</v>
       </c>
       <c r="Q192" s="32" t="n">
-        <v>-44.74</v>
+        <v>-41.76</v>
       </c>
       <c r="R192" s="23" t="inlineStr">
         <is>
@@ -19331,13 +19343,13 @@
       </c>
       <c r="N193" s="2" t="n"/>
       <c r="O193" s="32" t="n">
-        <v>-49.4</v>
+        <v>-41.2</v>
       </c>
       <c r="P193" s="32" t="n">
-        <v>-44.7</v>
+        <v>-38.9</v>
       </c>
       <c r="Q193" s="32" t="n">
-        <v>-47.18</v>
+        <v>-40.4</v>
       </c>
       <c r="R193" s="23" t="inlineStr">
         <is>
@@ -19430,10 +19442,10 @@
       </c>
       <c r="N194" s="2" t="n"/>
       <c r="O194" s="32" t="n">
-        <v>-56.1</v>
+        <v>-49.1</v>
       </c>
       <c r="P194" s="32" t="n">
-        <v>-50.2</v>
+        <v>-42.6</v>
       </c>
       <c r="Q194" s="32" t="n"/>
       <c r="R194" s="23" t="inlineStr">
@@ -19523,13 +19535,13 @@
       </c>
       <c r="N195" s="2" t="n"/>
       <c r="O195" s="32" t="n">
-        <v>-47.8</v>
+        <v>-23.9</v>
       </c>
       <c r="P195" s="32" t="n">
-        <v>-31.9</v>
+        <v>-9.1</v>
       </c>
       <c r="Q195" s="32" t="n">
-        <v>-43.09</v>
+        <v>-16.12</v>
       </c>
       <c r="R195" s="23" t="inlineStr">
         <is>
@@ -19622,13 +19634,13 @@
       </c>
       <c r="N196" s="2" t="n"/>
       <c r="O196" s="32" t="n">
-        <v>-48.1</v>
+        <v>-44.8</v>
       </c>
       <c r="P196" s="32" t="n">
-        <v>-32.5</v>
+        <v>-31</v>
       </c>
       <c r="Q196" s="32" t="n">
-        <v>-38.34</v>
+        <v>-39.66</v>
       </c>
       <c r="R196" s="23" t="inlineStr">
         <is>
@@ -19717,13 +19729,13 @@
       </c>
       <c r="N197" s="24" t="n"/>
       <c r="O197" s="32" t="n">
-        <v>-39.4</v>
+        <v>-38.8</v>
       </c>
       <c r="P197" s="32" t="n">
-        <v>-31.8</v>
+        <v>-25.9</v>
       </c>
       <c r="Q197" s="32" t="n">
-        <v>-37.15</v>
+        <v>-30.82</v>
       </c>
       <c r="R197" s="23" t="inlineStr">
         <is>
@@ -20078,12 +20090,8 @@
         </is>
       </c>
       <c r="N201" s="2" t="n"/>
-      <c r="O201" s="32" t="n">
-        <v>-45.5</v>
-      </c>
-      <c r="P201" s="32" t="n">
-        <v>-24.9</v>
-      </c>
+      <c r="O201" s="32" t="n"/>
+      <c r="P201" s="32" t="n"/>
       <c r="Q201" s="32" t="n"/>
       <c r="R201" s="23" t="inlineStr">
         <is>
@@ -20355,20 +20363,10 @@
         </is>
       </c>
       <c r="N204" s="2" t="n"/>
-      <c r="O204" s="32" t="n">
-        <v>-23.4</v>
-      </c>
-      <c r="P204" s="32" t="n">
-        <v>-10.9</v>
-      </c>
-      <c r="Q204" s="32" t="n">
-        <v>-15.19</v>
-      </c>
-      <c r="R204" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="O204" s="32" t="n"/>
+      <c r="P204" s="32" t="n"/>
+      <c r="Q204" s="32" t="n"/>
+      <c r="R204" s="23" t="n"/>
       <c r="S204" s="37" t="n"/>
       <c r="T204" s="2" t="inlineStr">
         <is>
@@ -20624,8 +20622,12 @@
         </is>
       </c>
       <c r="N207" s="2" t="n"/>
-      <c r="O207" s="32" t="n"/>
-      <c r="P207" s="32" t="n"/>
+      <c r="O207" s="32" t="n">
+        <v>-32.6</v>
+      </c>
+      <c r="P207" s="32" t="n">
+        <v>-17.3</v>
+      </c>
       <c r="Q207" s="32" t="n"/>
       <c r="R207" s="23" t="inlineStr">
         <is>
@@ -21070,10 +21072,10 @@
       </c>
       <c r="N212" s="2" t="n"/>
       <c r="O212" s="32" t="n">
-        <v>-25.4</v>
+        <v>-27.1</v>
       </c>
       <c r="P212" s="32" t="n">
-        <v>-18.6</v>
+        <v>-19.7</v>
       </c>
       <c r="Q212" s="32" t="n"/>
       <c r="R212" s="23" t="inlineStr">
@@ -21155,13 +21157,13 @@
       </c>
       <c r="N213" s="2" t="n"/>
       <c r="O213" s="32" t="n">
-        <v>-23.7</v>
+        <v>-2.5</v>
       </c>
       <c r="P213" s="32" t="n">
-        <v>-7.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q213" s="32" t="n">
-        <v>-16.09</v>
+        <v>0.55</v>
       </c>
       <c r="R213" s="23" t="inlineStr">
         <is>
@@ -21258,13 +21260,13 @@
       </c>
       <c r="N214" s="2" t="n"/>
       <c r="O214" s="32" t="n">
-        <v>-17.3</v>
+        <v>-26.6</v>
       </c>
       <c r="P214" s="32" t="n">
-        <v>-5</v>
+        <v>-18.3</v>
       </c>
       <c r="Q214" s="32" t="n">
-        <v>-11.61</v>
+        <v>-22.58</v>
       </c>
       <c r="R214" s="23" t="inlineStr">
         <is>
@@ -21365,13 +21367,13 @@
       </c>
       <c r="N215" s="2" t="n"/>
       <c r="O215" s="32" t="n">
-        <v>-30.3</v>
+        <v>-29</v>
       </c>
       <c r="P215" s="32" t="n">
-        <v>-21.5</v>
+        <v>-19.7</v>
       </c>
       <c r="Q215" s="32" t="n">
-        <v>-26.61</v>
+        <v>-19.11</v>
       </c>
       <c r="R215" s="23" t="inlineStr">
         <is>
@@ -21472,13 +21474,13 @@
       </c>
       <c r="N216" s="2" t="n"/>
       <c r="O216" s="32" t="n">
-        <v>-34.5</v>
+        <v>-33.7</v>
       </c>
       <c r="P216" s="32" t="n">
-        <v>-25.2</v>
+        <v>-19.4</v>
       </c>
       <c r="Q216" s="32" t="n">
-        <v>-30.68</v>
+        <v>-26.69</v>
       </c>
       <c r="R216" s="23" t="inlineStr">
         <is>
@@ -21575,13 +21577,13 @@
       </c>
       <c r="N217" s="2" t="n"/>
       <c r="O217" s="32" t="n">
-        <v>-10.9</v>
+        <v>-19.2</v>
       </c>
       <c r="P217" s="32" t="n">
-        <v>-3.9</v>
+        <v>-4.3</v>
       </c>
       <c r="Q217" s="32" t="n">
-        <v>-6.06</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="R217" s="23" t="inlineStr">
         <is>
@@ -21678,13 +21680,13 @@
       </c>
       <c r="N218" s="2" t="n"/>
       <c r="O218" s="32" t="n">
-        <v>-4</v>
+        <v>-22</v>
       </c>
       <c r="P218" s="32" t="n">
-        <v>-0.9</v>
+        <v>-5</v>
       </c>
       <c r="Q218" s="32" t="n">
-        <v>-2.29</v>
+        <v>-16.09</v>
       </c>
       <c r="R218" s="23" t="inlineStr">
         <is>
@@ -21781,13 +21783,13 @@
       </c>
       <c r="N219" s="2" t="n"/>
       <c r="O219" s="32" t="n">
-        <v>-21.3</v>
+        <v>-10.2</v>
       </c>
       <c r="P219" s="32" t="n">
-        <v>-13.3</v>
+        <v>-2</v>
       </c>
       <c r="Q219" s="32" t="n">
-        <v>-18.18</v>
+        <v>-7.91</v>
       </c>
       <c r="R219" s="23" t="inlineStr">
         <is>
@@ -21875,12 +21877,8 @@
         </is>
       </c>
       <c r="N220" s="2" t="n"/>
-      <c r="O220" s="32" t="n">
-        <v>-45.7</v>
-      </c>
-      <c r="P220" s="32" t="n">
-        <v>-25.9</v>
-      </c>
+      <c r="O220" s="32" t="n"/>
+      <c r="P220" s="32" t="n"/>
       <c r="Q220" s="32" t="n"/>
       <c r="R220" s="23" t="inlineStr">
         <is>
@@ -23149,10 +23147,20 @@
         </is>
       </c>
       <c r="N234" s="2" t="n"/>
-      <c r="O234" s="32" t="n"/>
-      <c r="P234" s="32" t="n"/>
-      <c r="Q234" s="32" t="n"/>
-      <c r="R234" s="23" t="n"/>
+      <c r="O234" s="32" t="n">
+        <v>-52.1</v>
+      </c>
+      <c r="P234" s="32" t="n">
+        <v>-50.4</v>
+      </c>
+      <c r="Q234" s="32" t="n">
+        <v>-51.26</v>
+      </c>
+      <c r="R234" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S234" s="37" t="n"/>
       <c r="T234" s="2" t="inlineStr">
         <is>
@@ -24231,20 +24239,10 @@
         </is>
       </c>
       <c r="N246" s="2" t="n"/>
-      <c r="O246" s="32" t="n">
-        <v>-23.3</v>
-      </c>
-      <c r="P246" s="32" t="n">
-        <v>-12.4</v>
-      </c>
-      <c r="Q246" s="32" t="n">
-        <v>-18.73</v>
-      </c>
-      <c r="R246" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="O246" s="32" t="n"/>
+      <c r="P246" s="32" t="n"/>
+      <c r="Q246" s="32" t="n"/>
+      <c r="R246" s="23" t="n"/>
       <c r="S246" s="37" t="n"/>
       <c r="T246" s="2" t="inlineStr">
         <is>
@@ -24413,18 +24411,10 @@
         </is>
       </c>
       <c r="N248" s="2" t="n"/>
-      <c r="O248" s="32" t="n">
-        <v>-39.8</v>
-      </c>
-      <c r="P248" s="32" t="n">
-        <v>-21.5</v>
-      </c>
+      <c r="O248" s="32" t="n"/>
+      <c r="P248" s="32" t="n"/>
       <c r="Q248" s="32" t="n"/>
-      <c r="R248" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="R248" s="23" t="n"/>
       <c r="S248" s="37" t="n"/>
       <c r="T248" s="2" t="inlineStr">
         <is>
@@ -24519,13 +24509,13 @@
       </c>
       <c r="N249" s="2" t="n"/>
       <c r="O249" s="32" t="n">
-        <v>-36</v>
+        <v>-29.9</v>
       </c>
       <c r="P249" s="32" t="n">
-        <v>-22.6</v>
+        <v>-23.3</v>
       </c>
       <c r="Q249" s="32" t="n">
-        <v>-30.2</v>
+        <v>-26.41</v>
       </c>
       <c r="R249" s="23" t="inlineStr">
         <is>
@@ -24599,23 +24589,15 @@
         </is>
       </c>
       <c r="N250" s="2" t="n"/>
-      <c r="O250" s="32" t="n">
-        <v>-41.8</v>
-      </c>
-      <c r="P250" s="32" t="n">
-        <v>-31.8</v>
-      </c>
+      <c r="O250" s="32" t="n"/>
+      <c r="P250" s="32" t="n"/>
       <c r="Q250" s="32" t="n"/>
       <c r="R250" s="23" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="S250" s="37" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="S250" s="37" t="n"/>
       <c r="T250" s="2" t="inlineStr">
         <is>
           <t>内蒙古</t>
@@ -24668,112 +24650,272 @@
       <c r="AG250" s="2" t="n"/>
     </row>
     <row r="251" ht="24" customHeight="1" s="41">
-      <c r="A251" s="2" t="n"/>
+      <c r="A251" s="2" t="n">
+        <v>250</v>
+      </c>
       <c r="B251" s="2" t="n"/>
-      <c r="C251" s="27" t="n"/>
+      <c r="C251" s="27" t="n">
+        <v>50962</v>
+      </c>
       <c r="D251" s="2" t="n"/>
-      <c r="E251" s="4" t="n"/>
+      <c r="E251" s="4" t="n">
+        <v>99999</v>
+      </c>
       <c r="F251" s="39" t="n"/>
-      <c r="G251" s="29" t="n"/>
-      <c r="H251" s="29" t="n"/>
-      <c r="I251" s="2" t="n"/>
-      <c r="J251" s="27" t="n"/>
+      <c r="G251" s="29" t="n">
+        <v>45.9756</v>
+      </c>
+      <c r="H251" s="29" t="n">
+        <v>128.0453</v>
+      </c>
+      <c r="I251" s="2" t="n">
+        <v>116.9</v>
+      </c>
+      <c r="J251" s="27" t="n">
+        <v>12</v>
+      </c>
       <c r="K251" s="4" t="n"/>
       <c r="L251" s="2" t="n"/>
-      <c r="M251" s="14" t="n"/>
+      <c r="M251" s="14" t="inlineStr">
+        <is>
+          <t>哈尔滨木兰</t>
+        </is>
+      </c>
       <c r="N251" s="2" t="n"/>
       <c r="O251" s="32" t="n"/>
       <c r="P251" s="32" t="n"/>
       <c r="Q251" s="32" t="n"/>
-      <c r="R251" s="23" t="n"/>
+      <c r="R251" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S251" s="37" t="n"/>
-      <c r="T251" s="2" t="n"/>
-      <c r="U251" s="4" t="n"/>
-      <c r="V251" s="4" t="n"/>
-      <c r="W251" s="4" t="n"/>
+      <c r="T251" s="2" t="inlineStr">
+        <is>
+          <t>黑龙江</t>
+        </is>
+      </c>
+      <c r="U251" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="V251" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="W251" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="X251" s="4" t="n"/>
-      <c r="Y251" s="2" t="n"/>
-      <c r="Z251" s="2" t="n"/>
+      <c r="Y251" s="2" t="inlineStr">
+        <is>
+          <t>哈尔滨市</t>
+        </is>
+      </c>
+      <c r="Z251" s="2" t="inlineStr">
+        <is>
+          <t>木兰县</t>
+        </is>
+      </c>
       <c r="AA251" s="2" t="n"/>
-      <c r="AB251" s="2" t="n"/>
-      <c r="AC251" s="2" t="n"/>
-      <c r="AD251" s="4" t="n"/>
+      <c r="AB251" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AC251" s="2" t="inlineStr">
+        <is>
+          <t>中国</t>
+        </is>
+      </c>
+      <c r="AD251" s="4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
       <c r="AE251" s="4" t="n"/>
       <c r="AF251" s="2" t="n"/>
       <c r="AG251" s="2" t="n"/>
     </row>
     <row r="252" ht="24" customHeight="1" s="41">
-      <c r="A252" s="2" t="n"/>
-      <c r="B252" s="2" t="n"/>
-      <c r="C252" s="27" t="n"/>
-      <c r="D252" s="2" t="n"/>
-      <c r="E252" s="4" t="n"/>
+      <c r="A252" s="2" t="n">
+        <v>251</v>
+      </c>
+      <c r="B252" s="2" t="inlineStr">
+        <is>
+          <t>ogimet</t>
+        </is>
+      </c>
+      <c r="C252" s="27" t="n">
+        <v>31005</v>
+      </c>
+      <c r="D252" s="2" t="inlineStr">
+        <is>
+          <t>Tommot</t>
+        </is>
+      </c>
+      <c r="E252" s="4" t="n">
+        <v>99999</v>
+      </c>
       <c r="F252" s="39" t="n"/>
-      <c r="G252" s="29" t="n"/>
-      <c r="H252" s="29" t="n"/>
-      <c r="I252" s="2" t="n"/>
-      <c r="J252" s="27" t="n"/>
+      <c r="G252" s="29" t="n">
+        <v>58.967</v>
+      </c>
+      <c r="H252" s="29" t="n">
+        <v>126.267</v>
+      </c>
+      <c r="I252" s="2" t="n">
+        <v>283.5</v>
+      </c>
+      <c r="J252" s="27" t="n">
+        <v>12</v>
+      </c>
       <c r="K252" s="4" t="n"/>
       <c r="L252" s="2" t="n"/>
-      <c r="M252" s="14" t="n"/>
+      <c r="M252" s="16" t="inlineStr">
+        <is>
+          <t>托莫特</t>
+        </is>
+      </c>
       <c r="N252" s="2" t="n"/>
       <c r="O252" s="32" t="n"/>
       <c r="P252" s="32" t="n"/>
       <c r="Q252" s="32" t="n"/>
       <c r="R252" s="23" t="n"/>
       <c r="S252" s="37" t="n"/>
-      <c r="T252" s="2" t="n"/>
-      <c r="U252" s="4" t="n"/>
+      <c r="T252" s="2" t="inlineStr">
+        <is>
+          <t>萨哈共和国</t>
+        </is>
+      </c>
+      <c r="U252" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="V252" s="4" t="n"/>
-      <c r="W252" s="4" t="n"/>
+      <c r="W252" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="X252" s="4" t="n"/>
       <c r="Y252" s="2" t="n"/>
       <c r="Z252" s="2" t="n"/>
       <c r="AA252" s="2" t="n"/>
       <c r="AB252" s="2" t="n"/>
-      <c r="AC252" s="2" t="n"/>
-      <c r="AD252" s="4" t="n"/>
+      <c r="AC252" s="2" t="inlineStr">
+        <is>
+          <t>俄罗斯</t>
+        </is>
+      </c>
+      <c r="AD252" s="4" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
       <c r="AE252" s="4" t="n"/>
       <c r="AF252" s="2" t="n"/>
       <c r="AG252" s="2" t="n"/>
     </row>
     <row r="253" ht="24" customHeight="1" s="41">
-      <c r="A253" s="2" t="n"/>
+      <c r="A253" s="2" t="n">
+        <v>252</v>
+      </c>
       <c r="B253" s="2" t="n"/>
-      <c r="C253" s="27" t="n"/>
+      <c r="C253" s="27" t="n">
+        <v>50442</v>
+      </c>
       <c r="D253" s="2" t="n"/>
-      <c r="E253" s="4" t="n"/>
+      <c r="E253" s="4" t="n">
+        <v>99999</v>
+      </c>
       <c r="F253" s="39" t="n"/>
-      <c r="G253" s="29" t="n"/>
-      <c r="H253" s="29" t="n"/>
-      <c r="I253" s="2" t="n"/>
-      <c r="J253" s="27" t="n"/>
+      <c r="G253" s="29" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="H253" s="29" t="n">
+        <v>124.12</v>
+      </c>
+      <c r="I253" s="2" t="n">
+        <v>371.7</v>
+      </c>
+      <c r="J253" s="27" t="n">
+        <v>12</v>
+      </c>
       <c r="K253" s="4" t="n"/>
       <c r="L253" s="2" t="n"/>
-      <c r="M253" s="14" t="n"/>
+      <c r="M253" s="14" t="inlineStr">
+        <is>
+          <t>加格达奇</t>
+        </is>
+      </c>
       <c r="N253" s="2" t="n"/>
       <c r="O253" s="32" t="n"/>
       <c r="P253" s="32" t="n"/>
       <c r="Q253" s="32" t="n"/>
-      <c r="R253" s="23" t="n"/>
+      <c r="R253" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S253" s="37" t="n"/>
-      <c r="T253" s="2" t="n"/>
-      <c r="U253" s="4" t="n"/>
-      <c r="V253" s="4" t="n"/>
-      <c r="W253" s="4" t="n"/>
+      <c r="T253" s="2" t="inlineStr">
+        <is>
+          <t>黑龙江</t>
+        </is>
+      </c>
+      <c r="U253" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="V253" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="W253" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="X253" s="4" t="n"/>
-      <c r="Y253" s="2" t="n"/>
+      <c r="Y253" s="2" t="inlineStr">
+        <is>
+          <t>大兴安岭地区</t>
+        </is>
+      </c>
       <c r="Z253" s="2" t="n"/>
       <c r="AA253" s="2" t="n"/>
       <c r="AB253" s="2" t="n"/>
-      <c r="AC253" s="2" t="n"/>
-      <c r="AD253" s="4" t="n"/>
+      <c r="AC253" s="2" t="inlineStr">
+        <is>
+          <t>中国</t>
+        </is>
+      </c>
+      <c r="AD253" s="4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
       <c r="AE253" s="4" t="n"/>
-      <c r="AF253" s="2" t="n"/>
+      <c r="AF253" s="2" t="inlineStr">
+        <is>
+          <t>大兴安岭</t>
+        </is>
+      </c>
       <c r="AG253" s="2" t="n"/>
     </row>
     <row r="254" ht="24" customHeight="1" s="41">
-      <c r="A254" s="2" t="n"/>
+      <c r="A254" s="2" t="n">
+        <v>253</v>
+      </c>
       <c r="B254" s="2" t="n"/>
       <c r="C254" s="27" t="n"/>
       <c r="D254" s="2" t="n"/>
@@ -24782,33 +24924,81 @@
       <c r="G254" s="29" t="n"/>
       <c r="H254" s="29" t="n"/>
       <c r="I254" s="2" t="n"/>
-      <c r="J254" s="27" t="n"/>
+      <c r="J254" s="27" t="n">
+        <v>12</v>
+      </c>
       <c r="K254" s="4" t="n"/>
       <c r="L254" s="2" t="n"/>
-      <c r="M254" s="14" t="n"/>
+      <c r="M254" s="14" t="inlineStr">
+        <is>
+          <t>根河敖乡</t>
+        </is>
+      </c>
       <c r="N254" s="2" t="n"/>
       <c r="O254" s="32" t="n"/>
       <c r="P254" s="32" t="n"/>
       <c r="Q254" s="32" t="n"/>
-      <c r="R254" s="23" t="n"/>
+      <c r="R254" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S254" s="37" t="n"/>
-      <c r="T254" s="2" t="n"/>
-      <c r="U254" s="4" t="n"/>
-      <c r="V254" s="4" t="n"/>
-      <c r="W254" s="4" t="n"/>
+      <c r="T254" s="2" t="inlineStr">
+        <is>
+          <t>内蒙古</t>
+        </is>
+      </c>
+      <c r="U254" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="V254" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="W254" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="X254" s="4" t="n"/>
-      <c r="Y254" s="2" t="n"/>
-      <c r="Z254" s="2" t="n"/>
+      <c r="Y254" s="2" t="inlineStr">
+        <is>
+          <t>呼伦贝尔市</t>
+        </is>
+      </c>
+      <c r="Z254" s="2" t="inlineStr">
+        <is>
+          <t>根河市</t>
+        </is>
+      </c>
       <c r="AA254" s="2" t="n"/>
       <c r="AB254" s="2" t="n"/>
-      <c r="AC254" s="2" t="n"/>
-      <c r="AD254" s="4" t="n"/>
+      <c r="AC254" s="2" t="inlineStr">
+        <is>
+          <t>中国</t>
+        </is>
+      </c>
+      <c r="AD254" s="4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
       <c r="AE254" s="4" t="n"/>
-      <c r="AF254" s="2" t="n"/>
+      <c r="AF254" s="2" t="inlineStr">
+        <is>
+          <t>大兴安岭</t>
+        </is>
+      </c>
       <c r="AG254" s="2" t="n"/>
     </row>
     <row r="255" ht="24" customHeight="1" s="41">
-      <c r="A255" s="2" t="n"/>
+      <c r="A255" s="2" t="n">
+        <v>254</v>
+      </c>
       <c r="B255" s="2" t="n"/>
       <c r="C255" s="27" t="n"/>
       <c r="D255" s="2" t="n"/>
@@ -24817,29 +25007,75 @@
       <c r="G255" s="29" t="n"/>
       <c r="H255" s="29" t="n"/>
       <c r="I255" s="2" t="n"/>
-      <c r="J255" s="27" t="n"/>
+      <c r="J255" s="27" t="n">
+        <v>12</v>
+      </c>
       <c r="K255" s="4" t="n"/>
       <c r="L255" s="2" t="n"/>
-      <c r="M255" s="14" t="n"/>
+      <c r="M255" s="14" t="inlineStr">
+        <is>
+          <t>辉河林场</t>
+        </is>
+      </c>
       <c r="N255" s="2" t="n"/>
-      <c r="O255" s="32" t="n"/>
-      <c r="P255" s="32" t="n"/>
+      <c r="O255" s="32" t="n">
+        <v>-37.6</v>
+      </c>
+      <c r="P255" s="32" t="n">
+        <v>-23.1</v>
+      </c>
       <c r="Q255" s="32" t="n"/>
-      <c r="R255" s="23" t="n"/>
+      <c r="R255" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S255" s="37" t="n"/>
-      <c r="T255" s="2" t="n"/>
-      <c r="U255" s="4" t="n"/>
-      <c r="V255" s="4" t="n"/>
-      <c r="W255" s="4" t="n"/>
+      <c r="T255" s="2" t="inlineStr">
+        <is>
+          <t>内蒙古</t>
+        </is>
+      </c>
+      <c r="U255" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="V255" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="W255" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="X255" s="4" t="n"/>
-      <c r="Y255" s="2" t="n"/>
+      <c r="Y255" s="2" t="inlineStr">
+        <is>
+          <t>呼伦贝尔市</t>
+        </is>
+      </c>
       <c r="Z255" s="2" t="n"/>
       <c r="AA255" s="2" t="n"/>
       <c r="AB255" s="2" t="n"/>
-      <c r="AC255" s="2" t="n"/>
-      <c r="AD255" s="4" t="n"/>
+      <c r="AC255" s="2" t="inlineStr">
+        <is>
+          <t>中国</t>
+        </is>
+      </c>
+      <c r="AD255" s="4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
       <c r="AE255" s="4" t="n"/>
-      <c r="AF255" s="2" t="n"/>
+      <c r="AF255" s="2" t="inlineStr">
+        <is>
+          <t>大兴安岭</t>
+        </is>
+      </c>
       <c r="AG255" s="2" t="n"/>
     </row>
     <row r="256" ht="24" customHeight="1" s="41">

--- a/气象/For_Python_站点信息和记录.xlsx
+++ b/气象/For_Python_站点信息和记录.xlsx
@@ -745,7 +745,7 @@
   </sheetPr>
   <dimension ref="A1:AG401"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
@@ -773,8 +773,8 @@
     <col width="18.59765625" customWidth="1" style="8" min="24" max="24"/>
     <col width="12.59765625" customWidth="1" style="5" min="25" max="29"/>
     <col width="12.59765625" customWidth="1" style="8" min="30" max="31"/>
-    <col width="12.59765625" customWidth="1" style="5" min="32" max="125"/>
-    <col width="12.59765625" customWidth="1" style="5" min="126" max="16384"/>
+    <col width="12.59765625" customWidth="1" style="5" min="32" max="130"/>
+    <col width="12.59765625" customWidth="1" style="5" min="131" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.75" customFormat="1" customHeight="1" s="11">
@@ -996,13 +996,13 @@
         </is>
       </c>
       <c r="O2" s="32" t="n">
-        <v>-36.6</v>
+        <v>-39.8</v>
       </c>
       <c r="P2" s="32" t="n">
-        <v>-28.5</v>
+        <v>-30.9</v>
       </c>
       <c r="Q2" s="32" t="n">
-        <v>-34.08</v>
+        <v>-35.95</v>
       </c>
       <c r="R2" s="23" t="inlineStr">
         <is>
@@ -1101,10 +1101,10 @@
         </is>
       </c>
       <c r="O3" s="32" t="n">
-        <v>-37.6</v>
+        <v>-41.5</v>
       </c>
       <c r="P3" s="32" t="n">
-        <v>-28.3</v>
+        <v>-28.8</v>
       </c>
       <c r="Q3" s="32" t="n"/>
       <c r="R3" s="23" t="n"/>
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="O4" s="32" t="n">
-        <v>-37.5</v>
+        <v>-37.2</v>
       </c>
       <c r="P4" s="32" t="n">
-        <v>-27.6</v>
+        <v>-27.1</v>
       </c>
       <c r="Q4" s="32" t="n"/>
       <c r="R4" s="23" t="n"/>
@@ -1283,10 +1283,10 @@
       </c>
       <c r="N5" s="2" t="n"/>
       <c r="O5" s="32" t="n">
-        <v>-34.8</v>
+        <v>-36.2</v>
       </c>
       <c r="P5" s="32" t="n">
-        <v>-27.5</v>
+        <v>-27.7</v>
       </c>
       <c r="Q5" s="32" t="n"/>
       <c r="R5" s="23" t="n"/>
@@ -1378,10 +1378,10 @@
         </is>
       </c>
       <c r="O6" s="32" t="n">
-        <v>-38.2</v>
+        <v>-39.2</v>
       </c>
       <c r="P6" s="32" t="n">
-        <v>-26.9</v>
+        <v>-25.4</v>
       </c>
       <c r="Q6" s="32" t="n"/>
       <c r="R6" s="23" t="n"/>
@@ -1481,9 +1481,11 @@
         </is>
       </c>
       <c r="O7" s="32" t="n">
-        <v>-29.4</v>
-      </c>
-      <c r="P7" s="32" t="n"/>
+        <v>-34.5</v>
+      </c>
+      <c r="P7" s="32" t="n">
+        <v>-27.5</v>
+      </c>
       <c r="Q7" s="32" t="n"/>
       <c r="R7" s="23" t="n"/>
       <c r="S7" s="37" t="n"/>
@@ -1578,13 +1580,13 @@
       </c>
       <c r="N8" s="2" t="n"/>
       <c r="O8" s="32" t="n">
-        <v>-38.3</v>
+        <v>-35</v>
       </c>
       <c r="P8" s="32" t="n">
-        <v>-28.6</v>
+        <v>-25.3</v>
       </c>
       <c r="Q8" s="32" t="n">
-        <v>-33.89</v>
+        <v>-30.89</v>
       </c>
       <c r="R8" s="23" t="inlineStr">
         <is>
@@ -1681,13 +1683,13 @@
       </c>
       <c r="N9" s="2" t="n"/>
       <c r="O9" s="32" t="n">
-        <v>-34.1</v>
+        <v>-35.8</v>
       </c>
       <c r="P9" s="32" t="n">
-        <v>-22.4</v>
+        <v>-23.2</v>
       </c>
       <c r="Q9" s="32" t="n">
-        <v>-30.09</v>
+        <v>-31.65</v>
       </c>
       <c r="R9" s="23" t="inlineStr">
         <is>
@@ -1788,13 +1790,13 @@
       </c>
       <c r="N10" s="3" t="n"/>
       <c r="O10" s="32" t="n">
-        <v>-35.3</v>
+        <v>-35.2</v>
       </c>
       <c r="P10" s="32" t="n">
-        <v>-23.7</v>
+        <v>-20.6</v>
       </c>
       <c r="Q10" s="32" t="n">
-        <v>-31.14</v>
+        <v>-29.51</v>
       </c>
       <c r="R10" s="23" t="inlineStr">
         <is>
@@ -1895,13 +1897,13 @@
         </is>
       </c>
       <c r="O11" s="32" t="n">
-        <v>-34.6</v>
+        <v>-34.1</v>
       </c>
       <c r="P11" s="32" t="n">
-        <v>-19.6</v>
+        <v>-20.2</v>
       </c>
       <c r="Q11" s="32" t="n">
-        <v>-29.48</v>
+        <v>-27.89</v>
       </c>
       <c r="R11" s="23" t="inlineStr">
         <is>
@@ -2002,13 +2004,13 @@
       </c>
       <c r="N12" s="2" t="n"/>
       <c r="O12" s="32" t="n">
-        <v>-36.2</v>
+        <v>-38.4</v>
       </c>
       <c r="P12" s="32" t="n">
-        <v>-25.6</v>
+        <v>-27.2</v>
       </c>
       <c r="Q12" s="32" t="n">
-        <v>-32.75</v>
+        <v>-34.25</v>
       </c>
       <c r="R12" s="23" t="inlineStr">
         <is>
@@ -2113,13 +2115,13 @@
         </is>
       </c>
       <c r="O13" s="32" t="n">
-        <v>-32.4</v>
+        <v>-37.7</v>
       </c>
       <c r="P13" s="32" t="n">
-        <v>-22.1</v>
+        <v>-27</v>
       </c>
       <c r="Q13" s="32" t="n">
-        <v>-28.3</v>
+        <v>-34.64</v>
       </c>
       <c r="R13" s="23" t="inlineStr">
         <is>
@@ -2220,13 +2222,13 @@
       </c>
       <c r="N14" s="2" t="n"/>
       <c r="O14" s="32" t="n">
-        <v>-26.4</v>
+        <v>-23.7</v>
       </c>
       <c r="P14" s="32" t="n">
-        <v>-15.5</v>
+        <v>-14.1</v>
       </c>
       <c r="Q14" s="32" t="n">
-        <v>-22.01</v>
+        <v>-19.57</v>
       </c>
       <c r="R14" s="23" t="inlineStr">
         <is>
@@ -2316,8 +2318,12 @@
         </is>
       </c>
       <c r="N15" s="2" t="n"/>
-      <c r="O15" s="32" t="n"/>
-      <c r="P15" s="32" t="n"/>
+      <c r="O15" s="32" t="n">
+        <v>-29.6</v>
+      </c>
+      <c r="P15" s="32" t="n">
+        <v>-15.1</v>
+      </c>
       <c r="Q15" s="32" t="n"/>
       <c r="R15" s="23" t="n"/>
       <c r="S15" s="37" t="n"/>
@@ -2412,13 +2418,13 @@
       </c>
       <c r="N16" s="2" t="n"/>
       <c r="O16" s="32" t="n">
-        <v>-36</v>
+        <v>-32.4</v>
       </c>
       <c r="P16" s="32" t="n">
-        <v>-16.9</v>
+        <v>-11</v>
       </c>
       <c r="Q16" s="32" t="n">
-        <v>-27.07</v>
+        <v>-26.16</v>
       </c>
       <c r="R16" s="23" t="inlineStr">
         <is>
@@ -2588,10 +2594,10 @@
       </c>
       <c r="N18" s="2" t="n"/>
       <c r="O18" s="32" t="n">
-        <v>-36.7</v>
+        <v>-37.3</v>
       </c>
       <c r="P18" s="32" t="n">
-        <v>-21.7</v>
+        <v>-23.8</v>
       </c>
       <c r="Q18" s="32" t="n"/>
       <c r="R18" s="23" t="n"/>
@@ -4509,10 +4515,10 @@
       </c>
       <c r="N41" s="2" t="n"/>
       <c r="O41" s="32" t="n">
-        <v>-38.2</v>
+        <v>-36.8</v>
       </c>
       <c r="P41" s="32" t="n">
-        <v>-24.5</v>
+        <v>-27.3</v>
       </c>
       <c r="Q41" s="32" t="n"/>
       <c r="R41" s="23" t="n"/>
@@ -5476,8 +5482,12 @@
         </is>
       </c>
       <c r="N53" s="2" t="n"/>
-      <c r="O53" s="32" t="n"/>
-      <c r="P53" s="32" t="n"/>
+      <c r="O53" s="32" t="n">
+        <v>-37.2</v>
+      </c>
+      <c r="P53" s="32" t="n">
+        <v>-26.9</v>
+      </c>
       <c r="Q53" s="32" t="n"/>
       <c r="R53" s="23" t="n"/>
       <c r="S53" s="37" t="n"/>
@@ -7265,13 +7275,13 @@
       </c>
       <c r="N75" s="2" t="n"/>
       <c r="O75" s="32" t="n">
-        <v>-30.4</v>
+        <v>-25.8</v>
       </c>
       <c r="P75" s="32" t="n">
-        <v>-16.1</v>
+        <v>-19.3</v>
       </c>
       <c r="Q75" s="32" t="n">
-        <v>-21.88</v>
+        <v>-22.82</v>
       </c>
       <c r="R75" s="23" t="inlineStr">
         <is>
@@ -7372,10 +7382,10 @@
       </c>
       <c r="N76" s="2" t="n"/>
       <c r="O76" s="32" t="n">
-        <v>-35.4</v>
+        <v>-31.1</v>
       </c>
       <c r="P76" s="32" t="n">
-        <v>-21.5</v>
+        <v>-23.8</v>
       </c>
       <c r="Q76" s="32" t="n">
         <v>-27.51</v>
@@ -7486,10 +7496,10 @@
         <v>-34.2</v>
       </c>
       <c r="P77" s="32" t="n">
-        <v>-18.3</v>
+        <v>-16.8</v>
       </c>
       <c r="Q77" s="32" t="n">
-        <v>-26.1</v>
+        <v>-28.09</v>
       </c>
       <c r="R77" s="23" t="inlineStr">
         <is>
@@ -7590,13 +7600,13 @@
       </c>
       <c r="N78" s="2" t="n"/>
       <c r="O78" s="32" t="n">
-        <v>-32.2</v>
+        <v>-27.1</v>
       </c>
       <c r="P78" s="32" t="n">
-        <v>-24.1</v>
+        <v>-19.4</v>
       </c>
       <c r="Q78" s="32" t="n">
-        <v>-28.06</v>
+        <v>-23.88</v>
       </c>
       <c r="R78" s="23" t="inlineStr">
         <is>
@@ -7697,13 +7707,13 @@
         </is>
       </c>
       <c r="O79" s="32" t="n">
-        <v>-24.3</v>
+        <v>-12.2</v>
       </c>
       <c r="P79" s="32" t="n">
-        <v>-15.1</v>
+        <v>-9.5</v>
       </c>
       <c r="Q79" s="32" t="n">
-        <v>-19.44</v>
+        <v>-10.43</v>
       </c>
       <c r="R79" s="23" t="inlineStr">
         <is>
@@ -7800,13 +7810,13 @@
       </c>
       <c r="N80" s="2" t="n"/>
       <c r="O80" s="32" t="n">
-        <v>-24.6</v>
+        <v>-33.8</v>
       </c>
       <c r="P80" s="32" t="n">
-        <v>-20.4</v>
+        <v>-22.3</v>
       </c>
       <c r="Q80" s="32" t="n">
-        <v>-22.45</v>
+        <v>-28.1</v>
       </c>
       <c r="R80" s="23" t="inlineStr">
         <is>
@@ -7902,7 +7912,7 @@
       <c r="L81" s="2" t="n"/>
       <c r="M81" s="16" t="inlineStr">
         <is>
-          <t>乌斯季卡连加</t>
+          <t>ust卡连加</t>
         </is>
       </c>
       <c r="N81" s="3" t="inlineStr">
@@ -7911,13 +7921,13 @@
         </is>
       </c>
       <c r="O81" s="32" t="n">
-        <v>-40.1</v>
+        <v>-39.3</v>
       </c>
       <c r="P81" s="32" t="n">
-        <v>-22</v>
+        <v>-26.5</v>
       </c>
       <c r="Q81" s="32" t="n">
-        <v>-34.15</v>
+        <v>-34.55</v>
       </c>
       <c r="R81" s="23" t="inlineStr">
         <is>
@@ -8027,13 +8037,13 @@
         </is>
       </c>
       <c r="O82" s="32" t="n">
-        <v>-42</v>
+        <v>-35.4</v>
       </c>
       <c r="P82" s="32" t="n">
-        <v>-23.5</v>
+        <v>-20.4</v>
       </c>
       <c r="Q82" s="32" t="n">
-        <v>-35.2</v>
+        <v>-28.25</v>
       </c>
       <c r="R82" s="23" t="inlineStr">
         <is>
@@ -8134,13 +8144,13 @@
       </c>
       <c r="N83" s="2" t="n"/>
       <c r="O83" s="32" t="n">
-        <v>-33.8</v>
+        <v>-33.4</v>
       </c>
       <c r="P83" s="32" t="n">
-        <v>-24.8</v>
+        <v>-24.7</v>
       </c>
       <c r="Q83" s="32" t="n">
-        <v>-29.95</v>
+        <v>-29.24</v>
       </c>
       <c r="R83" s="23" t="inlineStr">
         <is>
@@ -8241,13 +8251,13 @@
         </is>
       </c>
       <c r="O84" s="32" t="n">
-        <v>-41</v>
+        <v>-35.3</v>
       </c>
       <c r="P84" s="32" t="n">
-        <v>-32</v>
+        <v>-22.5</v>
       </c>
       <c r="Q84" s="32" t="n">
-        <v>-37.01</v>
+        <v>-30.46</v>
       </c>
       <c r="R84" s="23" t="inlineStr">
         <is>
@@ -8352,13 +8362,13 @@
         </is>
       </c>
       <c r="O85" s="32" t="n">
-        <v>-36</v>
+        <v>-39.1</v>
       </c>
       <c r="P85" s="32" t="n">
-        <v>-24.5</v>
+        <v>-27.1</v>
       </c>
       <c r="Q85" s="32" t="n">
-        <v>-30.96</v>
+        <v>-34.67</v>
       </c>
       <c r="R85" s="23" t="inlineStr">
         <is>
@@ -8455,13 +8465,13 @@
       </c>
       <c r="N86" s="2" t="n"/>
       <c r="O86" s="32" t="n">
-        <v>-31.8</v>
+        <v>-34.7</v>
       </c>
       <c r="P86" s="32" t="n">
-        <v>-25.4</v>
+        <v>-28.5</v>
       </c>
       <c r="Q86" s="32" t="n">
-        <v>-28.59</v>
+        <v>-32.18</v>
       </c>
       <c r="R86" s="23" t="inlineStr">
         <is>
@@ -8574,13 +8584,13 @@
         </is>
       </c>
       <c r="O87" s="32" t="n">
-        <v>-34.1</v>
+        <v>-37.9</v>
       </c>
       <c r="P87" s="32" t="n">
-        <v>-24</v>
+        <v>-25.9</v>
       </c>
       <c r="Q87" s="32" t="n">
-        <v>-30.03</v>
+        <v>-32.56</v>
       </c>
       <c r="R87" s="23" t="inlineStr">
         <is>
@@ -8677,13 +8687,13 @@
       </c>
       <c r="N88" s="2" t="n"/>
       <c r="O88" s="32" t="n">
-        <v>-37.1</v>
+        <v>-30.8</v>
       </c>
       <c r="P88" s="32" t="n">
-        <v>-24.1</v>
+        <v>-19.2</v>
       </c>
       <c r="Q88" s="32" t="n">
-        <v>-32.09</v>
+        <v>-26.06</v>
       </c>
       <c r="R88" s="23" t="inlineStr">
         <is>
@@ -8877,13 +8887,13 @@
         </is>
       </c>
       <c r="O90" s="32" t="n">
-        <v>-25.8</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="P90" s="32" t="n">
-        <v>-13.2</v>
+        <v>-1.5</v>
       </c>
       <c r="Q90" s="32" t="n">
-        <v>-20.64</v>
+        <v>-3.99</v>
       </c>
       <c r="R90" s="23" t="inlineStr">
         <is>
@@ -8976,13 +8986,13 @@
       </c>
       <c r="N91" s="2" t="n"/>
       <c r="O91" s="32" t="n">
-        <v>-31.7</v>
+        <v>-8.9</v>
       </c>
       <c r="P91" s="32" t="n">
-        <v>-24.7</v>
+        <v>-3.6</v>
       </c>
       <c r="Q91" s="32" t="n">
-        <v>-28.24</v>
+        <v>-6.43</v>
       </c>
       <c r="R91" s="23" t="inlineStr">
         <is>
@@ -9075,13 +9085,13 @@
       </c>
       <c r="N92" s="2" t="n"/>
       <c r="O92" s="32" t="n">
-        <v>-20.1</v>
+        <v>-29.6</v>
       </c>
       <c r="P92" s="32" t="n">
-        <v>-14.2</v>
+        <v>-18</v>
       </c>
       <c r="Q92" s="32" t="n">
-        <v>-17.49</v>
+        <v>-24.65</v>
       </c>
       <c r="R92" s="23" t="inlineStr">
         <is>
@@ -9178,13 +9188,13 @@
       </c>
       <c r="N93" s="2" t="n"/>
       <c r="O93" s="32" t="n">
-        <v>-18</v>
+        <v>-21.1</v>
       </c>
       <c r="P93" s="32" t="n">
-        <v>-3.7</v>
+        <v>-11</v>
       </c>
       <c r="Q93" s="32" t="n">
-        <v>-11.06</v>
+        <v>-16.42</v>
       </c>
       <c r="R93" s="23" t="inlineStr">
         <is>
@@ -9289,10 +9299,10 @@
         </is>
       </c>
       <c r="O94" s="32" t="n">
-        <v>-26.5</v>
+        <v>-30.9</v>
       </c>
       <c r="P94" s="32" t="n">
-        <v>-9.4</v>
+        <v>-12.7</v>
       </c>
       <c r="Q94" s="32" t="n"/>
       <c r="R94" s="23" t="inlineStr">
@@ -9398,10 +9408,10 @@
       </c>
       <c r="N95" s="2" t="n"/>
       <c r="O95" s="32" t="n">
-        <v>-17.4</v>
+        <v>-24.9</v>
       </c>
       <c r="P95" s="32" t="n">
-        <v>-10.8</v>
+        <v>-15.7</v>
       </c>
       <c r="Q95" s="32" t="n"/>
       <c r="R95" s="23" t="inlineStr">
@@ -9515,10 +9525,10 @@
         </is>
       </c>
       <c r="O96" s="32" t="n">
-        <v>-24</v>
+        <v>-31.3</v>
       </c>
       <c r="P96" s="32" t="n">
-        <v>-11</v>
+        <v>-16</v>
       </c>
       <c r="Q96" s="32" t="n"/>
       <c r="R96" s="23" t="inlineStr">
@@ -9624,13 +9634,13 @@
       </c>
       <c r="N97" s="2" t="n"/>
       <c r="O97" s="32" t="n">
-        <v>-20.2</v>
+        <v>-24.3</v>
       </c>
       <c r="P97" s="32" t="n">
-        <v>-12.5</v>
+        <v>-16.9</v>
       </c>
       <c r="Q97" s="32" t="n">
-        <v>-17.27</v>
+        <v>-21.27</v>
       </c>
       <c r="R97" s="23" t="inlineStr">
         <is>
@@ -9731,10 +9741,10 @@
       </c>
       <c r="N98" s="2" t="n"/>
       <c r="O98" s="32" t="n">
-        <v>-29.9</v>
+        <v>-26</v>
       </c>
       <c r="P98" s="32" t="n">
-        <v>-12.3</v>
+        <v>-18.6</v>
       </c>
       <c r="Q98" s="32" t="n"/>
       <c r="R98" s="23" t="inlineStr">
@@ -9840,13 +9850,13 @@
       </c>
       <c r="N99" s="2" t="n"/>
       <c r="O99" s="32" t="n">
-        <v>-35.6</v>
+        <v>-25.5</v>
       </c>
       <c r="P99" s="32" t="n">
-        <v>-18</v>
+        <v>-13.9</v>
       </c>
       <c r="Q99" s="32" t="n">
-        <v>-26.2</v>
+        <v>-20.14</v>
       </c>
       <c r="R99" s="23" t="inlineStr">
         <is>
@@ -10039,8 +10049,12 @@
         </is>
       </c>
       <c r="N101" s="2" t="n"/>
-      <c r="O101" s="32" t="n"/>
-      <c r="P101" s="32" t="n"/>
+      <c r="O101" s="32" t="n">
+        <v>-38.7</v>
+      </c>
+      <c r="P101" s="32" t="n">
+        <v>-21.9</v>
+      </c>
       <c r="Q101" s="32" t="n"/>
       <c r="R101" s="23" t="inlineStr">
         <is>
@@ -10149,13 +10163,13 @@
       </c>
       <c r="N102" s="2" t="n"/>
       <c r="O102" s="32" t="n">
-        <v>-24.3</v>
+        <v>-39</v>
       </c>
       <c r="P102" s="32" t="n">
-        <v>-18.7</v>
+        <v>-22.5</v>
       </c>
       <c r="Q102" s="32" t="n">
-        <v>-22.06</v>
+        <v>-32.56</v>
       </c>
       <c r="R102" s="23" t="inlineStr">
         <is>
@@ -10260,10 +10274,10 @@
       </c>
       <c r="N103" s="2" t="n"/>
       <c r="O103" s="32" t="n">
-        <v>-26.9</v>
+        <v>-38.8</v>
       </c>
       <c r="P103" s="32" t="n">
-        <v>-18.3</v>
+        <v>-20.8</v>
       </c>
       <c r="Q103" s="32" t="n"/>
       <c r="R103" s="23" t="inlineStr">
@@ -10361,10 +10375,10 @@
       </c>
       <c r="N104" s="2" t="n"/>
       <c r="O104" s="32" t="n">
-        <v>-29.1</v>
+        <v>-38.9</v>
       </c>
       <c r="P104" s="32" t="n">
-        <v>-19.5</v>
+        <v>-23</v>
       </c>
       <c r="Q104" s="32" t="n"/>
       <c r="R104" s="23" t="inlineStr">
@@ -10478,13 +10492,13 @@
         </is>
       </c>
       <c r="O105" s="32" t="n">
-        <v>-24.3</v>
+        <v>-38.9</v>
       </c>
       <c r="P105" s="32" t="n">
-        <v>-19.8</v>
+        <v>-22.4</v>
       </c>
       <c r="Q105" s="32" t="n">
-        <v>-22.32</v>
+        <v>-32.73</v>
       </c>
       <c r="R105" s="23" t="inlineStr">
         <is>
@@ -10593,10 +10607,10 @@
         </is>
       </c>
       <c r="O106" s="32" t="n">
-        <v>-26</v>
+        <v>-37.4</v>
       </c>
       <c r="P106" s="32" t="n">
-        <v>-18.3</v>
+        <v>-26.3</v>
       </c>
       <c r="Q106" s="32" t="n"/>
       <c r="R106" s="23" t="inlineStr">
@@ -10799,13 +10813,13 @@
       </c>
       <c r="N108" s="2" t="n"/>
       <c r="O108" s="32" t="n">
-        <v>-29.4</v>
+        <v>-35.1</v>
       </c>
       <c r="P108" s="32" t="n">
-        <v>-21.7</v>
+        <v>-24.5</v>
       </c>
       <c r="Q108" s="32" t="n">
-        <v>-25.71</v>
+        <v>-30.43</v>
       </c>
       <c r="R108" s="23" t="inlineStr">
         <is>
@@ -11100,13 +11114,13 @@
       </c>
       <c r="N111" s="2" t="n"/>
       <c r="O111" s="32" t="n">
-        <v>-32</v>
+        <v>-36.2</v>
       </c>
       <c r="P111" s="32" t="n">
-        <v>-22</v>
+        <v>-23.6</v>
       </c>
       <c r="Q111" s="32" t="n">
-        <v>-27.16</v>
+        <v>-31.77</v>
       </c>
       <c r="R111" s="23" t="inlineStr">
         <is>
@@ -11203,10 +11217,10 @@
       </c>
       <c r="N112" s="2" t="n"/>
       <c r="O112" s="32" t="n">
-        <v>-22.7</v>
+        <v>-23.4</v>
       </c>
       <c r="P112" s="32" t="n">
-        <v>-12.5</v>
+        <v>-10.9</v>
       </c>
       <c r="Q112" s="32" t="n"/>
       <c r="R112" s="23" t="inlineStr">
@@ -11300,10 +11314,10 @@
       </c>
       <c r="N113" s="2" t="n"/>
       <c r="O113" s="32" t="n">
-        <v>-18.2</v>
+        <v>-20.3</v>
       </c>
       <c r="P113" s="32" t="n">
-        <v>-5.1</v>
+        <v>-3.1</v>
       </c>
       <c r="Q113" s="32" t="n"/>
       <c r="R113" s="23" t="inlineStr">
@@ -11405,10 +11419,10 @@
         </is>
       </c>
       <c r="O114" s="32" t="n">
-        <v>-26.9</v>
+        <v>-28.8</v>
       </c>
       <c r="P114" s="32" t="n">
-        <v>-2.8</v>
+        <v>-1.7</v>
       </c>
       <c r="Q114" s="32" t="n"/>
       <c r="R114" s="23" t="inlineStr">
@@ -11518,10 +11532,10 @@
         </is>
       </c>
       <c r="O115" s="32" t="n">
-        <v>-18.7</v>
+        <v>-22.5</v>
       </c>
       <c r="P115" s="32" t="n">
-        <v>-6.8</v>
+        <v>-4.6</v>
       </c>
       <c r="Q115" s="32" t="n"/>
       <c r="R115" s="23" t="inlineStr">
@@ -11627,13 +11641,13 @@
       </c>
       <c r="N116" s="2" t="n"/>
       <c r="O116" s="32" t="n">
-        <v>-16.4</v>
+        <v>-21</v>
       </c>
       <c r="P116" s="32" t="n">
-        <v>-6</v>
+        <v>-9.6</v>
       </c>
       <c r="Q116" s="32" t="n">
-        <v>-10.52</v>
+        <v>-16.44</v>
       </c>
       <c r="R116" s="23" t="inlineStr">
         <is>
@@ -11730,10 +11744,10 @@
       </c>
       <c r="N117" s="2" t="n"/>
       <c r="O117" s="32" t="n">
-        <v>-15.7</v>
+        <v>-20.3</v>
       </c>
       <c r="P117" s="32" t="n">
-        <v>-5.1</v>
+        <v>-7.6</v>
       </c>
       <c r="Q117" s="32" t="n"/>
       <c r="R117" s="23" t="inlineStr">
@@ -11835,10 +11849,10 @@
         </is>
       </c>
       <c r="O118" s="32" t="n">
-        <v>-27.3</v>
+        <v>-26.9</v>
       </c>
       <c r="P118" s="32" t="n">
-        <v>-12.3</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="Q118" s="32" t="n"/>
       <c r="R118" s="23" t="inlineStr">
@@ -11944,13 +11958,13 @@
       </c>
       <c r="N119" s="2" t="n"/>
       <c r="O119" s="32" t="n">
-        <v>-20.3</v>
+        <v>-13.7</v>
       </c>
       <c r="P119" s="32" t="n">
-        <v>-5.4</v>
+        <v>-3</v>
       </c>
       <c r="Q119" s="32" t="n">
-        <v>-14.86</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="R119" s="23" t="inlineStr">
         <is>
@@ -12059,13 +12073,13 @@
       </c>
       <c r="N120" s="2" t="n"/>
       <c r="O120" s="32" t="n">
-        <v>-5.2</v>
+        <v>-5.9</v>
       </c>
       <c r="P120" s="32" t="n">
-        <v>-0.1</v>
+        <v>0.6</v>
       </c>
       <c r="Q120" s="32" t="n">
-        <v>-2.94</v>
+        <v>-3.16</v>
       </c>
       <c r="R120" s="23" t="inlineStr">
         <is>
@@ -12166,13 +12180,13 @@
       </c>
       <c r="N121" s="2" t="n"/>
       <c r="O121" s="32" t="n">
-        <v>-10.8</v>
+        <v>-12.5</v>
       </c>
       <c r="P121" s="32" t="n">
-        <v>-7.5</v>
+        <v>-6.4</v>
       </c>
       <c r="Q121" s="32" t="n">
-        <v>-9.76</v>
+        <v>-10.56</v>
       </c>
       <c r="R121" s="23" t="inlineStr">
         <is>
@@ -12281,10 +12295,10 @@
       </c>
       <c r="N122" s="2" t="n"/>
       <c r="O122" s="32" t="n">
-        <v>-24</v>
+        <v>-27.7</v>
       </c>
       <c r="P122" s="32" t="n">
-        <v>-12.6</v>
+        <v>-16</v>
       </c>
       <c r="Q122" s="32" t="n"/>
       <c r="R122" s="23" t="inlineStr">
@@ -12491,13 +12505,13 @@
       </c>
       <c r="N124" s="2" t="n"/>
       <c r="O124" s="32" t="n">
-        <v>-12</v>
+        <v>-17.3</v>
       </c>
       <c r="P124" s="32" t="n">
-        <v>-4.9</v>
+        <v>-5.7</v>
       </c>
       <c r="Q124" s="32" t="n">
-        <v>-9.039999999999999</v>
+        <v>-12.49</v>
       </c>
       <c r="R124" s="23" t="inlineStr">
         <is>
@@ -12606,13 +12620,13 @@
       </c>
       <c r="N125" s="2" t="n"/>
       <c r="O125" s="32" t="n">
-        <v>-4.9</v>
+        <v>-10.1</v>
       </c>
       <c r="P125" s="32" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="Q125" s="32" t="n">
-        <v>-0.58</v>
+        <v>-4.78</v>
       </c>
       <c r="R125" s="23" t="inlineStr">
         <is>
@@ -12697,10 +12711,10 @@
       </c>
       <c r="N126" s="2" t="n"/>
       <c r="O126" s="32" t="n">
-        <v>-2.1</v>
+        <v>-5.6</v>
       </c>
       <c r="P126" s="32" t="n">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="Q126" s="32" t="n"/>
       <c r="R126" s="23" t="inlineStr">
@@ -12798,13 +12812,13 @@
       </c>
       <c r="N127" s="2" t="n"/>
       <c r="O127" s="32" t="n">
-        <v>-6.7</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="P127" s="32" t="n">
-        <v>1.4</v>
+        <v>-0.8</v>
       </c>
       <c r="Q127" s="32" t="n">
-        <v>-2.76</v>
+        <v>-5.75</v>
       </c>
       <c r="R127" s="23" t="inlineStr">
         <is>
@@ -12909,10 +12923,10 @@
       </c>
       <c r="N128" s="2" t="n"/>
       <c r="O128" s="32" t="n">
-        <v>-2.7</v>
+        <v>-7.7</v>
       </c>
       <c r="P128" s="32" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q128" s="32" t="n"/>
       <c r="R128" s="23" t="inlineStr">
@@ -13010,13 +13024,13 @@
       </c>
       <c r="N129" s="2" t="n"/>
       <c r="O129" s="32" t="n">
-        <v>-9.199999999999999</v>
+        <v>-9.1</v>
       </c>
       <c r="P129" s="32" t="n">
-        <v>6.5</v>
+        <v>1.9</v>
       </c>
       <c r="Q129" s="32" t="n">
-        <v>-1.91</v>
+        <v>-4.42</v>
       </c>
       <c r="R129" s="23" t="inlineStr">
         <is>
@@ -13121,13 +13135,13 @@
       </c>
       <c r="N130" s="2" t="n"/>
       <c r="O130" s="32" t="n">
-        <v>-10.5</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="P130" s="32" t="n">
-        <v>2.5</v>
+        <v>-0.7</v>
       </c>
       <c r="Q130" s="32" t="n">
-        <v>-4.15</v>
+        <v>-6.59</v>
       </c>
       <c r="R130" s="23" t="inlineStr">
         <is>
@@ -13232,13 +13246,13 @@
       </c>
       <c r="N131" s="2" t="n"/>
       <c r="O131" s="32" t="n">
-        <v>0.1</v>
+        <v>-5.3</v>
       </c>
       <c r="P131" s="32" t="n">
-        <v>8.699999999999999</v>
+        <v>3</v>
       </c>
       <c r="Q131" s="32" t="n">
-        <v>3.02</v>
+        <v>-1.86</v>
       </c>
       <c r="R131" s="23" t="inlineStr">
         <is>
@@ -13339,13 +13353,13 @@
       </c>
       <c r="N132" s="2" t="n"/>
       <c r="O132" s="32" t="n">
-        <v>-1.3</v>
+        <v>-2.4</v>
       </c>
       <c r="P132" s="32" t="n">
-        <v>8.699999999999999</v>
+        <v>3.6</v>
       </c>
       <c r="Q132" s="32" t="n">
-        <v>3.6</v>
+        <v>-0.64</v>
       </c>
       <c r="R132" s="23" t="inlineStr">
         <is>
@@ -13446,13 +13460,13 @@
       </c>
       <c r="N133" s="2" t="n"/>
       <c r="O133" s="32" t="n">
-        <v>-1.5</v>
+        <v>-2.7</v>
       </c>
       <c r="P133" s="32" t="n">
-        <v>7.7</v>
+        <v>1.3</v>
       </c>
       <c r="Q133" s="32" t="n">
-        <v>3.4</v>
+        <v>-1.3</v>
       </c>
       <c r="R133" s="23" t="inlineStr">
         <is>
@@ -13557,13 +13571,13 @@
       </c>
       <c r="N134" s="2" t="n"/>
       <c r="O134" s="32" t="n">
-        <v>4.1</v>
+        <v>2.4</v>
       </c>
       <c r="P134" s="32" t="n">
-        <v>12.2</v>
+        <v>7.5</v>
       </c>
       <c r="Q134" s="32" t="n">
-        <v>7.65</v>
+        <v>4.26</v>
       </c>
       <c r="R134" s="23" t="inlineStr">
         <is>
@@ -13660,13 +13674,13 @@
       </c>
       <c r="N135" s="2" t="n"/>
       <c r="O135" s="32" t="n">
-        <v>9.9</v>
+        <v>1.8</v>
       </c>
       <c r="P135" s="32" t="n">
-        <v>15.7</v>
+        <v>6.8</v>
       </c>
       <c r="Q135" s="32" t="n">
-        <v>11.66</v>
+        <v>2.38</v>
       </c>
       <c r="R135" s="23" t="inlineStr">
         <is>
@@ -13767,13 +13781,13 @@
       </c>
       <c r="N136" s="2" t="n"/>
       <c r="O136" s="32" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="P136" s="32" t="n">
         <v>10.6</v>
       </c>
-      <c r="P136" s="32" t="n">
-        <v>17.7</v>
-      </c>
       <c r="Q136" s="32" t="n">
-        <v>13.41</v>
+        <v>5.65</v>
       </c>
       <c r="R136" s="23" t="inlineStr">
         <is>
@@ -13874,13 +13888,13 @@
       </c>
       <c r="N137" s="2" t="n"/>
       <c r="O137" s="32" t="n">
-        <v>8.699999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="P137" s="32" t="n">
-        <v>15.3</v>
+        <v>5.7</v>
       </c>
       <c r="Q137" s="32" t="n">
-        <v>12.07</v>
+        <v>2.46</v>
       </c>
       <c r="R137" s="23" t="inlineStr">
         <is>
@@ -13981,10 +13995,10 @@
       </c>
       <c r="N138" s="2" t="n"/>
       <c r="O138" s="32" t="n">
-        <v>4.1</v>
+        <v>0.2</v>
       </c>
       <c r="P138" s="32" t="n">
-        <v>12.7</v>
+        <v>4.3</v>
       </c>
       <c r="Q138" s="32" t="n"/>
       <c r="R138" s="23" t="inlineStr">
@@ -14086,13 +14100,13 @@
       </c>
       <c r="N139" s="2" t="n"/>
       <c r="O139" s="32" t="n">
-        <v>4.6</v>
+        <v>0.5</v>
       </c>
       <c r="P139" s="32" t="n">
-        <v>13.3</v>
+        <v>5.6</v>
       </c>
       <c r="Q139" s="32" t="n">
-        <v>9.029999999999999</v>
+        <v>2.47</v>
       </c>
       <c r="R139" s="23" t="inlineStr">
         <is>
@@ -14193,13 +14207,13 @@
       </c>
       <c r="N140" s="2" t="n"/>
       <c r="O140" s="32" t="n">
-        <v>6.4</v>
+        <v>2.9</v>
       </c>
       <c r="P140" s="32" t="n">
-        <v>12.8</v>
+        <v>9.4</v>
       </c>
       <c r="Q140" s="32" t="n">
-        <v>9.710000000000001</v>
+        <v>4.6</v>
       </c>
       <c r="R140" s="23" t="inlineStr">
         <is>
@@ -14300,13 +14314,13 @@
       </c>
       <c r="N141" s="2" t="n"/>
       <c r="O141" s="32" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="P141" s="32" t="n">
-        <v>18.4</v>
+        <v>10.6</v>
       </c>
       <c r="Q141" s="32" t="n">
-        <v>10.3</v>
+        <v>6.91</v>
       </c>
       <c r="R141" s="23" t="inlineStr">
         <is>
@@ -14403,13 +14417,13 @@
       </c>
       <c r="N142" s="2" t="n"/>
       <c r="O142" s="32" t="n">
-        <v>10.8</v>
+        <v>12.2</v>
       </c>
       <c r="P142" s="32" t="n">
-        <v>22</v>
+        <v>14.8</v>
       </c>
       <c r="Q142" s="32" t="n">
-        <v>15.19</v>
+        <v>12.96</v>
       </c>
       <c r="R142" s="23" t="inlineStr">
         <is>
@@ -14510,13 +14524,13 @@
       </c>
       <c r="N143" s="2" t="n"/>
       <c r="O143" s="32" t="n">
-        <v>11.2</v>
+        <v>12.6</v>
       </c>
       <c r="P143" s="32" t="n">
-        <v>24.2</v>
+        <v>21.3</v>
       </c>
       <c r="Q143" s="32" t="n">
-        <v>16.46</v>
+        <v>15.6</v>
       </c>
       <c r="R143" s="23" t="inlineStr">
         <is>
@@ -14617,13 +14631,13 @@
       </c>
       <c r="N144" s="2" t="n"/>
       <c r="O144" s="32" t="n">
-        <v>16.6</v>
+        <v>18.7</v>
       </c>
       <c r="P144" s="32" t="n">
-        <v>25.1</v>
+        <v>23.9</v>
       </c>
       <c r="Q144" s="32" t="n">
-        <v>20.34</v>
+        <v>20.76</v>
       </c>
       <c r="R144" s="23" t="inlineStr">
         <is>
@@ -14720,13 +14734,13 @@
       </c>
       <c r="N145" s="2" t="n"/>
       <c r="O145" s="32" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="P145" s="32" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="Q145" s="32" t="n">
-        <v>19.28</v>
+        <v>19.23</v>
       </c>
       <c r="R145" s="23" t="inlineStr">
         <is>
@@ -14819,13 +14833,13 @@
       </c>
       <c r="N146" s="2" t="n"/>
       <c r="O146" s="32" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="P146" s="32" t="n">
-        <v>27.7</v>
+        <v>25.6</v>
       </c>
       <c r="Q146" s="32" t="n">
-        <v>22.86</v>
+        <v>22.12</v>
       </c>
       <c r="R146" s="23" t="inlineStr">
         <is>
@@ -14918,13 +14932,13 @@
       </c>
       <c r="N147" s="2" t="n"/>
       <c r="O147" s="32" t="n">
-        <v>15.2</v>
+        <v>11.8</v>
       </c>
       <c r="P147" s="32" t="n">
-        <v>23.1</v>
+        <v>19</v>
       </c>
       <c r="Q147" s="32" t="n">
-        <v>19.01</v>
+        <v>14.81</v>
       </c>
       <c r="R147" s="23" t="inlineStr">
         <is>
@@ -15025,10 +15039,10 @@
       </c>
       <c r="N148" s="2" t="n"/>
       <c r="O148" s="32" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="P148" s="32" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="Q148" s="32" t="n"/>
       <c r="R148" s="23" t="inlineStr">
@@ -15126,13 +15140,13 @@
       </c>
       <c r="N149" s="2" t="n"/>
       <c r="O149" s="32" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="P149" s="32" t="n">
-        <v>17.8</v>
+        <v>16.4</v>
       </c>
       <c r="Q149" s="32" t="n">
-        <v>10.14</v>
+        <v>9.26</v>
       </c>
       <c r="R149" s="23" t="inlineStr">
         <is>
@@ -15233,13 +15247,13 @@
       </c>
       <c r="N150" s="2" t="n"/>
       <c r="O150" s="32" t="n">
-        <v>7.9</v>
+        <v>3.7</v>
       </c>
       <c r="P150" s="32" t="n">
-        <v>10.4</v>
+        <v>6.5</v>
       </c>
       <c r="Q150" s="32" t="n">
-        <v>8.82</v>
+        <v>4.7</v>
       </c>
       <c r="R150" s="23" t="inlineStr">
         <is>
@@ -15340,13 +15354,13 @@
       </c>
       <c r="N151" s="2" t="n"/>
       <c r="O151" s="32" t="n">
-        <v>9.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P151" s="32" t="n">
-        <v>12.5</v>
+        <v>10.8</v>
       </c>
       <c r="Q151" s="32" t="n">
-        <v>11.01</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="R151" s="23" t="inlineStr">
         <is>
@@ -15532,13 +15546,13 @@
       </c>
       <c r="N153" s="2" t="n"/>
       <c r="O153" s="32" t="n">
-        <v>4.4</v>
+        <v>6.7</v>
       </c>
       <c r="P153" s="32" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="Q153" s="32" t="n">
-        <v>7.33</v>
+        <v>7.96</v>
       </c>
       <c r="R153" s="23" t="inlineStr">
         <is>
@@ -15643,13 +15657,13 @@
       </c>
       <c r="N154" s="2" t="n"/>
       <c r="O154" s="32" t="n">
-        <v>-5.1</v>
+        <v>-7.2</v>
       </c>
       <c r="P154" s="32" t="n">
-        <v>7.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Q154" s="32" t="n">
-        <v>1.04</v>
+        <v>-1.01</v>
       </c>
       <c r="R154" s="23" t="inlineStr">
         <is>
@@ -15830,12 +15844,8 @@
         </is>
       </c>
       <c r="N156" s="2" t="n"/>
-      <c r="O156" s="32" t="n">
-        <v>-21.7</v>
-      </c>
-      <c r="P156" s="32" t="n">
-        <v>-3</v>
-      </c>
+      <c r="O156" s="32" t="n"/>
+      <c r="P156" s="32" t="n"/>
       <c r="Q156" s="32" t="n"/>
       <c r="R156" s="23" t="inlineStr">
         <is>
@@ -15927,12 +15937,8 @@
         </is>
       </c>
       <c r="N157" s="2" t="n"/>
-      <c r="O157" s="32" t="n">
-        <v>9</v>
-      </c>
-      <c r="P157" s="32" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="O157" s="32" t="n"/>
+      <c r="P157" s="32" t="n"/>
       <c r="Q157" s="32" t="n"/>
       <c r="R157" s="23" t="inlineStr">
         <is>
@@ -16287,12 +16293,8 @@
         </is>
       </c>
       <c r="N161" s="2" t="n"/>
-      <c r="O161" s="32" t="n">
-        <v>-7.5</v>
-      </c>
-      <c r="P161" s="32" t="n">
-        <v>5.4</v>
-      </c>
+      <c r="O161" s="32" t="n"/>
+      <c r="P161" s="32" t="n"/>
       <c r="Q161" s="32" t="n"/>
       <c r="R161" s="23" t="inlineStr">
         <is>
@@ -16392,8 +16394,12 @@
           <t>⚡</t>
         </is>
       </c>
-      <c r="O162" s="32" t="n"/>
-      <c r="P162" s="32" t="n"/>
+      <c r="O162" s="32" t="n">
+        <v>-41.8</v>
+      </c>
+      <c r="P162" s="32" t="n">
+        <v>-20.9</v>
+      </c>
       <c r="Q162" s="32" t="n"/>
       <c r="R162" s="23" t="inlineStr">
         <is>
@@ -16481,11 +16487,7 @@
       <c r="J163" s="27" t="n">
         <v>12</v>
       </c>
-      <c r="K163" s="31" t="inlineStr">
-        <is>
-          <t>👑</t>
-        </is>
-      </c>
+      <c r="K163" s="31" t="n"/>
       <c r="L163" s="2" t="n"/>
       <c r="M163" s="14" t="inlineStr">
         <is>
@@ -16498,10 +16500,10 @@
         </is>
       </c>
       <c r="O163" s="32" t="n">
-        <v>-35.1</v>
+        <v>-39.6</v>
       </c>
       <c r="P163" s="32" t="n">
-        <v>-19.4</v>
+        <v>-21.4</v>
       </c>
       <c r="Q163" s="32" t="n"/>
       <c r="R163" s="23" t="inlineStr">
@@ -16687,11 +16689,15 @@
       <c r="J165" s="27" t="n">
         <v>12</v>
       </c>
-      <c r="K165" s="31" t="n"/>
+      <c r="K165" s="31" t="inlineStr">
+        <is>
+          <t>👑</t>
+        </is>
+      </c>
       <c r="L165" s="2" t="n"/>
       <c r="M165" s="14" t="inlineStr">
         <is>
-          <t>特尼河试验站</t>
+          <t>特尼河一队</t>
         </is>
       </c>
       <c r="N165" s="3" t="inlineStr">
@@ -16700,10 +16706,10 @@
         </is>
       </c>
       <c r="O165" s="32" t="n">
-        <v>-36.3</v>
+        <v>-44.4</v>
       </c>
       <c r="P165" s="32" t="n">
-        <v>-18.6</v>
+        <v>-29.3</v>
       </c>
       <c r="Q165" s="32" t="n"/>
       <c r="R165" s="23" t="inlineStr">
@@ -16998,8 +17004,12 @@
           <t>❄️</t>
         </is>
       </c>
-      <c r="O168" s="32" t="n"/>
-      <c r="P168" s="32" t="n"/>
+      <c r="O168" s="32" t="n">
+        <v>-22.8</v>
+      </c>
+      <c r="P168" s="32" t="n">
+        <v>-7.7</v>
+      </c>
       <c r="Q168" s="32" t="n"/>
       <c r="R168" s="23" t="inlineStr">
         <is>
@@ -17100,10 +17110,10 @@
         </is>
       </c>
       <c r="O169" s="32" t="n">
-        <v>-29.6</v>
+        <v>-28.6</v>
       </c>
       <c r="P169" s="32" t="n">
-        <v>-10.1</v>
+        <v>-10.4</v>
       </c>
       <c r="Q169" s="32" t="n"/>
       <c r="R169" s="23" t="inlineStr">
@@ -17394,8 +17404,12 @@
         </is>
       </c>
       <c r="N172" s="3" t="n"/>
-      <c r="O172" s="32" t="n"/>
-      <c r="P172" s="32" t="n"/>
+      <c r="O172" s="32" t="n">
+        <v>-27.2</v>
+      </c>
+      <c r="P172" s="32" t="n">
+        <v>-10</v>
+      </c>
       <c r="Q172" s="32" t="n"/>
       <c r="R172" s="23" t="inlineStr">
         <is>
@@ -17492,10 +17506,10 @@
       </c>
       <c r="N173" s="2" t="n"/>
       <c r="O173" s="32" t="n">
-        <v>-31.4</v>
+        <v>-28</v>
       </c>
       <c r="P173" s="32" t="n">
-        <v>-16.6</v>
+        <v>-17.3</v>
       </c>
       <c r="Q173" s="32" t="n"/>
       <c r="R173" s="23" t="inlineStr">
@@ -17783,10 +17797,10 @@
       </c>
       <c r="N176" s="2" t="n"/>
       <c r="O176" s="32" t="n">
-        <v>1.9</v>
+        <v>-7.9</v>
       </c>
       <c r="P176" s="32" t="n">
-        <v>7.5</v>
+        <v>-3.7</v>
       </c>
       <c r="Q176" s="32" t="n"/>
       <c r="R176" s="23" t="inlineStr">
@@ -17872,10 +17886,10 @@
       </c>
       <c r="N177" s="2" t="n"/>
       <c r="O177" s="32" t="n">
-        <v>-31.5</v>
+        <v>-34.3</v>
       </c>
       <c r="P177" s="32" t="n">
-        <v>-26</v>
+        <v>-26.5</v>
       </c>
       <c r="Q177" s="32" t="n"/>
       <c r="R177" s="23" t="inlineStr">
@@ -18682,13 +18696,13 @@
       </c>
       <c r="N186" s="2" t="n"/>
       <c r="O186" s="32" t="n">
-        <v>-50.3</v>
+        <v>-50.6</v>
       </c>
       <c r="P186" s="32" t="n">
-        <v>-44.5</v>
+        <v>-48</v>
       </c>
       <c r="Q186" s="32" t="n">
-        <v>-48.36</v>
+        <v>-49.86</v>
       </c>
       <c r="R186" s="23" t="inlineStr">
         <is>
@@ -18782,13 +18796,13 @@
       </c>
       <c r="N187" s="2" t="n"/>
       <c r="O187" s="32" t="n">
-        <v>-46.5</v>
+        <v>-50.4</v>
       </c>
       <c r="P187" s="32" t="n">
-        <v>-27.2</v>
+        <v>-49.2</v>
       </c>
       <c r="Q187" s="32" t="n">
-        <v>-36.61</v>
+        <v>-50.01</v>
       </c>
       <c r="R187" s="23" t="inlineStr">
         <is>
@@ -18877,13 +18891,13 @@
       </c>
       <c r="N188" s="2" t="n"/>
       <c r="O188" s="32" t="n">
-        <v>-40.8</v>
+        <v>-49.9</v>
       </c>
       <c r="P188" s="32" t="n">
-        <v>-28.5</v>
+        <v>-47.3</v>
       </c>
       <c r="Q188" s="32" t="n">
-        <v>-36.19</v>
+        <v>-48.27</v>
       </c>
       <c r="R188" s="23" t="inlineStr">
         <is>
@@ -19061,13 +19075,13 @@
       </c>
       <c r="N190" s="2" t="n"/>
       <c r="O190" s="32" t="n">
-        <v>-48.6</v>
+        <v>-50.9</v>
       </c>
       <c r="P190" s="32" t="n">
-        <v>-36.6</v>
+        <v>-45.5</v>
       </c>
       <c r="Q190" s="32" t="n">
-        <v>-44.26</v>
+        <v>-49.4</v>
       </c>
       <c r="R190" s="23" t="inlineStr">
         <is>
@@ -19156,13 +19170,13 @@
       </c>
       <c r="N191" s="2" t="n"/>
       <c r="O191" s="32" t="n">
-        <v>-47.8</v>
+        <v>-50.6</v>
       </c>
       <c r="P191" s="32" t="n">
-        <v>-39.3</v>
+        <v>-47.5</v>
       </c>
       <c r="Q191" s="32" t="n">
-        <v>-45.58</v>
+        <v>-49.29</v>
       </c>
       <c r="R191" s="23" t="inlineStr">
         <is>
@@ -19247,13 +19261,13 @@
       </c>
       <c r="N192" s="2" t="n"/>
       <c r="O192" s="32" t="n">
-        <v>-44.9</v>
+        <v>-44.7</v>
       </c>
       <c r="P192" s="32" t="n">
-        <v>-37</v>
+        <v>-41.2</v>
       </c>
       <c r="Q192" s="32" t="n">
-        <v>-41.76</v>
+        <v>-43.86</v>
       </c>
       <c r="R192" s="23" t="inlineStr">
         <is>
@@ -19343,13 +19357,13 @@
       </c>
       <c r="N193" s="2" t="n"/>
       <c r="O193" s="32" t="n">
-        <v>-41.2</v>
+        <v>-42.1</v>
       </c>
       <c r="P193" s="32" t="n">
-        <v>-38.9</v>
+        <v>-24.3</v>
       </c>
       <c r="Q193" s="32" t="n">
-        <v>-40.4</v>
+        <v>-35.56</v>
       </c>
       <c r="R193" s="23" t="inlineStr">
         <is>
@@ -19442,10 +19456,10 @@
       </c>
       <c r="N194" s="2" t="n"/>
       <c r="O194" s="32" t="n">
-        <v>-49.1</v>
+        <v>-53.1</v>
       </c>
       <c r="P194" s="32" t="n">
-        <v>-42.6</v>
+        <v>-39.6</v>
       </c>
       <c r="Q194" s="32" t="n"/>
       <c r="R194" s="23" t="inlineStr">
@@ -19535,13 +19549,13 @@
       </c>
       <c r="N195" s="2" t="n"/>
       <c r="O195" s="32" t="n">
-        <v>-23.9</v>
+        <v>-44.7</v>
       </c>
       <c r="P195" s="32" t="n">
-        <v>-9.1</v>
+        <v>-42.3</v>
       </c>
       <c r="Q195" s="32" t="n">
-        <v>-16.12</v>
+        <v>-43.6</v>
       </c>
       <c r="R195" s="23" t="inlineStr">
         <is>
@@ -19634,13 +19648,13 @@
       </c>
       <c r="N196" s="2" t="n"/>
       <c r="O196" s="32" t="n">
-        <v>-44.8</v>
+        <v>-51</v>
       </c>
       <c r="P196" s="32" t="n">
-        <v>-31</v>
+        <v>-47.7</v>
       </c>
       <c r="Q196" s="32" t="n">
-        <v>-39.66</v>
+        <v>-49.65</v>
       </c>
       <c r="R196" s="23" t="inlineStr">
         <is>
@@ -19729,13 +19743,13 @@
       </c>
       <c r="N197" s="24" t="n"/>
       <c r="O197" s="32" t="n">
-        <v>-38.8</v>
+        <v>-35.3</v>
       </c>
       <c r="P197" s="32" t="n">
-        <v>-25.9</v>
+        <v>-21.9</v>
       </c>
       <c r="Q197" s="32" t="n">
-        <v>-30.82</v>
+        <v>-26.04</v>
       </c>
       <c r="R197" s="23" t="inlineStr">
         <is>
@@ -20622,12 +20636,8 @@
         </is>
       </c>
       <c r="N207" s="2" t="n"/>
-      <c r="O207" s="32" t="n">
-        <v>-32.6</v>
-      </c>
-      <c r="P207" s="32" t="n">
-        <v>-17.3</v>
-      </c>
+      <c r="O207" s="32" t="n"/>
+      <c r="P207" s="32" t="n"/>
       <c r="Q207" s="32" t="n"/>
       <c r="R207" s="23" t="inlineStr">
         <is>
@@ -21072,10 +21082,10 @@
       </c>
       <c r="N212" s="2" t="n"/>
       <c r="O212" s="32" t="n">
-        <v>-27.1</v>
+        <v>-34.8</v>
       </c>
       <c r="P212" s="32" t="n">
-        <v>-19.7</v>
+        <v>-25.3</v>
       </c>
       <c r="Q212" s="32" t="n"/>
       <c r="R212" s="23" t="inlineStr">
@@ -21157,13 +21167,13 @@
       </c>
       <c r="N213" s="2" t="n"/>
       <c r="O213" s="32" t="n">
-        <v>-2.5</v>
+        <v>-14.6</v>
       </c>
       <c r="P213" s="32" t="n">
-        <v>2.3</v>
+        <v>-1.9</v>
       </c>
       <c r="Q213" s="32" t="n">
-        <v>0.55</v>
+        <v>-9.44</v>
       </c>
       <c r="R213" s="23" t="inlineStr">
         <is>
@@ -21260,13 +21270,13 @@
       </c>
       <c r="N214" s="2" t="n"/>
       <c r="O214" s="32" t="n">
-        <v>-26.6</v>
+        <v>-10.1</v>
       </c>
       <c r="P214" s="32" t="n">
-        <v>-18.3</v>
+        <v>-5.4</v>
       </c>
       <c r="Q214" s="32" t="n">
-        <v>-22.58</v>
+        <v>-8.460000000000001</v>
       </c>
       <c r="R214" s="23" t="inlineStr">
         <is>
@@ -21367,13 +21377,13 @@
       </c>
       <c r="N215" s="2" t="n"/>
       <c r="O215" s="32" t="n">
+        <v>-33.3</v>
+      </c>
+      <c r="P215" s="32" t="n">
+        <v>-25</v>
+      </c>
+      <c r="Q215" s="32" t="n">
         <v>-29</v>
-      </c>
-      <c r="P215" s="32" t="n">
-        <v>-19.7</v>
-      </c>
-      <c r="Q215" s="32" t="n">
-        <v>-19.11</v>
       </c>
       <c r="R215" s="23" t="inlineStr">
         <is>
@@ -21474,13 +21484,13 @@
       </c>
       <c r="N216" s="2" t="n"/>
       <c r="O216" s="32" t="n">
-        <v>-33.7</v>
+        <v>-28.8</v>
       </c>
       <c r="P216" s="32" t="n">
-        <v>-19.4</v>
+        <v>-22</v>
       </c>
       <c r="Q216" s="32" t="n">
-        <v>-26.69</v>
+        <v>-26.09</v>
       </c>
       <c r="R216" s="23" t="inlineStr">
         <is>
@@ -21577,13 +21587,13 @@
       </c>
       <c r="N217" s="2" t="n"/>
       <c r="O217" s="32" t="n">
-        <v>-19.2</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="P217" s="32" t="n">
-        <v>-4.3</v>
+        <v>1.1</v>
       </c>
       <c r="Q217" s="32" t="n">
-        <v>-8.199999999999999</v>
+        <v>-2.96</v>
       </c>
       <c r="R217" s="23" t="inlineStr">
         <is>
@@ -21680,14 +21690,12 @@
       </c>
       <c r="N218" s="2" t="n"/>
       <c r="O218" s="32" t="n">
-        <v>-22</v>
+        <v>-3</v>
       </c>
       <c r="P218" s="32" t="n">
-        <v>-5</v>
-      </c>
-      <c r="Q218" s="32" t="n">
-        <v>-16.09</v>
-      </c>
+        <v>1.7</v>
+      </c>
+      <c r="Q218" s="32" t="n"/>
       <c r="R218" s="23" t="inlineStr">
         <is>
           <t>Y</t>
@@ -21783,13 +21791,13 @@
       </c>
       <c r="N219" s="2" t="n"/>
       <c r="O219" s="32" t="n">
-        <v>-10.2</v>
+        <v>-18.4</v>
       </c>
       <c r="P219" s="32" t="n">
-        <v>-2</v>
+        <v>-13.8</v>
       </c>
       <c r="Q219" s="32" t="n">
-        <v>-7.91</v>
+        <v>-16.15</v>
       </c>
       <c r="R219" s="23" t="inlineStr">
         <is>
@@ -21877,8 +21885,12 @@
         </is>
       </c>
       <c r="N220" s="2" t="n"/>
-      <c r="O220" s="32" t="n"/>
-      <c r="P220" s="32" t="n"/>
+      <c r="O220" s="32" t="n">
+        <v>-42.8</v>
+      </c>
+      <c r="P220" s="32" t="n">
+        <v>-23.5</v>
+      </c>
       <c r="Q220" s="32" t="n"/>
       <c r="R220" s="23" t="inlineStr">
         <is>
@@ -22607,8 +22619,12 @@
         </is>
       </c>
       <c r="N228" s="2" t="n"/>
-      <c r="O228" s="32" t="n"/>
-      <c r="P228" s="32" t="n"/>
+      <c r="O228" s="32" t="n">
+        <v>-40.9</v>
+      </c>
+      <c r="P228" s="32" t="n">
+        <v>-30.4</v>
+      </c>
       <c r="Q228" s="32" t="n"/>
       <c r="R228" s="23" t="inlineStr">
         <is>
@@ -23147,20 +23163,10 @@
         </is>
       </c>
       <c r="N234" s="2" t="n"/>
-      <c r="O234" s="32" t="n">
-        <v>-52.1</v>
-      </c>
-      <c r="P234" s="32" t="n">
-        <v>-50.4</v>
-      </c>
-      <c r="Q234" s="32" t="n">
-        <v>-51.26</v>
-      </c>
-      <c r="R234" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="O234" s="32" t="n"/>
+      <c r="P234" s="32" t="n"/>
+      <c r="Q234" s="32" t="n"/>
+      <c r="R234" s="23" t="n"/>
       <c r="S234" s="37" t="n"/>
       <c r="T234" s="2" t="inlineStr">
         <is>
@@ -24509,13 +24515,13 @@
       </c>
       <c r="N249" s="2" t="n"/>
       <c r="O249" s="32" t="n">
-        <v>-29.9</v>
+        <v>-39</v>
       </c>
       <c r="P249" s="32" t="n">
-        <v>-23.3</v>
+        <v>-26.3</v>
       </c>
       <c r="Q249" s="32" t="n">
-        <v>-26.41</v>
+        <v>-33.1</v>
       </c>
       <c r="R249" s="23" t="inlineStr">
         <is>
@@ -25018,12 +25024,8 @@
         </is>
       </c>
       <c r="N255" s="2" t="n"/>
-      <c r="O255" s="32" t="n">
-        <v>-37.6</v>
-      </c>
-      <c r="P255" s="32" t="n">
-        <v>-23.1</v>
-      </c>
+      <c r="O255" s="32" t="n"/>
+      <c r="P255" s="32" t="n"/>
       <c r="Q255" s="32" t="n"/>
       <c r="R255" s="23" t="inlineStr">
         <is>
@@ -25079,7 +25081,9 @@
       <c r="AG255" s="2" t="n"/>
     </row>
     <row r="256" ht="24" customHeight="1" s="41">
-      <c r="A256" s="2" t="n"/>
+      <c r="A256" s="2" t="n">
+        <v>255</v>
+      </c>
       <c r="B256" s="2" t="n"/>
       <c r="C256" s="27" t="n"/>
       <c r="D256" s="2" t="n"/>
@@ -25088,33 +25092,85 @@
       <c r="G256" s="29" t="n"/>
       <c r="H256" s="29" t="n"/>
       <c r="I256" s="2" t="n"/>
-      <c r="J256" s="27" t="n"/>
+      <c r="J256" s="27" t="n">
+        <v>12</v>
+      </c>
       <c r="K256" s="4" t="n"/>
       <c r="L256" s="2" t="n"/>
-      <c r="M256" s="14" t="n"/>
+      <c r="M256" s="14" t="inlineStr">
+        <is>
+          <t>三河</t>
+        </is>
+      </c>
       <c r="N256" s="2" t="n"/>
-      <c r="O256" s="32" t="n"/>
-      <c r="P256" s="32" t="n"/>
+      <c r="O256" s="32" t="n">
+        <v>-40</v>
+      </c>
+      <c r="P256" s="32" t="n">
+        <v>-30.5</v>
+      </c>
       <c r="Q256" s="32" t="n"/>
-      <c r="R256" s="23" t="n"/>
+      <c r="R256" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S256" s="37" t="n"/>
-      <c r="T256" s="2" t="n"/>
-      <c r="U256" s="4" t="n"/>
-      <c r="V256" s="4" t="n"/>
-      <c r="W256" s="4" t="n"/>
+      <c r="T256" s="2" t="inlineStr">
+        <is>
+          <t>内蒙古</t>
+        </is>
+      </c>
+      <c r="U256" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="V256" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="W256" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="X256" s="4" t="n"/>
-      <c r="Y256" s="2" t="n"/>
-      <c r="Z256" s="2" t="n"/>
+      <c r="Y256" s="2" t="inlineStr">
+        <is>
+          <t>呼伦贝尔市</t>
+        </is>
+      </c>
+      <c r="Z256" s="2" t="inlineStr">
+        <is>
+          <t>额尔古纳市</t>
+        </is>
+      </c>
       <c r="AA256" s="2" t="n"/>
       <c r="AB256" s="2" t="n"/>
-      <c r="AC256" s="2" t="n"/>
-      <c r="AD256" s="4" t="n"/>
+      <c r="AC256" s="2" t="inlineStr">
+        <is>
+          <t>中国</t>
+        </is>
+      </c>
+      <c r="AD256" s="4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
       <c r="AE256" s="4" t="n"/>
-      <c r="AF256" s="2" t="n"/>
+      <c r="AF256" s="2" t="inlineStr">
+        <is>
+          <t>大兴安岭</t>
+        </is>
+      </c>
       <c r="AG256" s="2" t="n"/>
     </row>
     <row r="257" ht="24" customHeight="1" s="41">
-      <c r="A257" s="2" t="n"/>
+      <c r="A257" s="2" t="n">
+        <v>256</v>
+      </c>
       <c r="B257" s="2" t="n"/>
       <c r="C257" s="27" t="n"/>
       <c r="D257" s="2" t="n"/>
@@ -25123,29 +25179,79 @@
       <c r="G257" s="29" t="n"/>
       <c r="H257" s="29" t="n"/>
       <c r="I257" s="2" t="n"/>
-      <c r="J257" s="27" t="n"/>
+      <c r="J257" s="27" t="n">
+        <v>12</v>
+      </c>
       <c r="K257" s="4" t="n"/>
       <c r="L257" s="2" t="n"/>
-      <c r="M257" s="14" t="n"/>
+      <c r="M257" s="14" t="inlineStr">
+        <is>
+          <t>特尼河十队</t>
+        </is>
+      </c>
       <c r="N257" s="2" t="n"/>
-      <c r="O257" s="32" t="n"/>
-      <c r="P257" s="32" t="n"/>
+      <c r="O257" s="32" t="n">
+        <v>-39.7</v>
+      </c>
+      <c r="P257" s="32" t="n">
+        <v>-30.8</v>
+      </c>
       <c r="Q257" s="32" t="n"/>
-      <c r="R257" s="23" t="n"/>
+      <c r="R257" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S257" s="37" t="n"/>
-      <c r="T257" s="2" t="n"/>
-      <c r="U257" s="4" t="n"/>
-      <c r="V257" s="4" t="n"/>
-      <c r="W257" s="4" t="n"/>
+      <c r="T257" s="2" t="inlineStr">
+        <is>
+          <t>内蒙古</t>
+        </is>
+      </c>
+      <c r="U257" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="V257" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="W257" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="X257" s="4" t="n"/>
-      <c r="Y257" s="2" t="n"/>
-      <c r="Z257" s="2" t="n"/>
+      <c r="Y257" s="2" t="inlineStr">
+        <is>
+          <t>呼伦贝尔市</t>
+        </is>
+      </c>
+      <c r="Z257" s="2" t="inlineStr">
+        <is>
+          <t>额尔古纳市</t>
+        </is>
+      </c>
       <c r="AA257" s="2" t="n"/>
       <c r="AB257" s="2" t="n"/>
-      <c r="AC257" s="2" t="n"/>
-      <c r="AD257" s="4" t="n"/>
+      <c r="AC257" s="2" t="inlineStr">
+        <is>
+          <t>中国</t>
+        </is>
+      </c>
+      <c r="AD257" s="4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
       <c r="AE257" s="4" t="n"/>
-      <c r="AF257" s="2" t="n"/>
+      <c r="AF257" s="2" t="inlineStr">
+        <is>
+          <t>大兴安岭</t>
+        </is>
+      </c>
       <c r="AG257" s="2" t="n"/>
     </row>
     <row r="258" ht="24" customHeight="1" s="41">

--- a/气象/For_Python_站点信息和记录.xlsx
+++ b/气象/For_Python_站点信息和记录.xlsx
@@ -773,8 +773,8 @@
     <col width="18.59765625" customWidth="1" style="8" min="24" max="24"/>
     <col width="12.59765625" customWidth="1" style="5" min="25" max="29"/>
     <col width="12.59765625" customWidth="1" style="8" min="30" max="31"/>
-    <col width="12.59765625" customWidth="1" style="5" min="32" max="130"/>
-    <col width="12.59765625" customWidth="1" style="5" min="131" max="16384"/>
+    <col width="12.59765625" customWidth="1" style="5" min="32" max="132"/>
+    <col width="12.59765625" customWidth="1" style="5" min="133" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.75" customFormat="1" customHeight="1" s="11">
@@ -996,13 +996,13 @@
         </is>
       </c>
       <c r="O2" s="32" t="n">
-        <v>-39.8</v>
+        <v>-35.8</v>
       </c>
       <c r="P2" s="32" t="n">
-        <v>-30.9</v>
+        <v>-27.7</v>
       </c>
       <c r="Q2" s="32" t="n">
-        <v>-35.95</v>
+        <v>-32.14</v>
       </c>
       <c r="R2" s="23" t="inlineStr">
         <is>
@@ -1101,10 +1101,10 @@
         </is>
       </c>
       <c r="O3" s="32" t="n">
-        <v>-41.5</v>
+        <v>-38.8</v>
       </c>
       <c r="P3" s="32" t="n">
-        <v>-28.8</v>
+        <v>-24.3</v>
       </c>
       <c r="Q3" s="32" t="n"/>
       <c r="R3" s="23" t="n"/>
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="O4" s="32" t="n">
-        <v>-37.2</v>
+        <v>-37.1</v>
       </c>
       <c r="P4" s="32" t="n">
-        <v>-27.1</v>
+        <v>-25.5</v>
       </c>
       <c r="Q4" s="32" t="n"/>
       <c r="R4" s="23" t="n"/>
@@ -1283,10 +1283,10 @@
       </c>
       <c r="N5" s="2" t="n"/>
       <c r="O5" s="32" t="n">
-        <v>-36.2</v>
+        <v>-36.9</v>
       </c>
       <c r="P5" s="32" t="n">
-        <v>-27.7</v>
+        <v>-26.7</v>
       </c>
       <c r="Q5" s="32" t="n"/>
       <c r="R5" s="23" t="n"/>
@@ -1378,10 +1378,10 @@
         </is>
       </c>
       <c r="O6" s="32" t="n">
-        <v>-39.2</v>
+        <v>-40.6</v>
       </c>
       <c r="P6" s="32" t="n">
-        <v>-25.4</v>
+        <v>-27.5</v>
       </c>
       <c r="Q6" s="32" t="n"/>
       <c r="R6" s="23" t="n"/>
@@ -1481,10 +1481,10 @@
         </is>
       </c>
       <c r="O7" s="32" t="n">
-        <v>-34.5</v>
+        <v>-34.8</v>
       </c>
       <c r="P7" s="32" t="n">
-        <v>-27.5</v>
+        <v>-27.2</v>
       </c>
       <c r="Q7" s="32" t="n"/>
       <c r="R7" s="23" t="n"/>
@@ -1580,13 +1580,13 @@
       </c>
       <c r="N8" s="2" t="n"/>
       <c r="O8" s="32" t="n">
-        <v>-35</v>
+        <v>-34.1</v>
       </c>
       <c r="P8" s="32" t="n">
-        <v>-25.3</v>
+        <v>-24.8</v>
       </c>
       <c r="Q8" s="32" t="n">
-        <v>-30.89</v>
+        <v>-30.48</v>
       </c>
       <c r="R8" s="23" t="inlineStr">
         <is>
@@ -1683,13 +1683,13 @@
       </c>
       <c r="N9" s="2" t="n"/>
       <c r="O9" s="32" t="n">
-        <v>-35.8</v>
+        <v>-33.6</v>
       </c>
       <c r="P9" s="32" t="n">
-        <v>-23.2</v>
+        <v>-21.9</v>
       </c>
       <c r="Q9" s="32" t="n">
-        <v>-31.65</v>
+        <v>-29.06</v>
       </c>
       <c r="R9" s="23" t="inlineStr">
         <is>
@@ -1790,13 +1790,13 @@
       </c>
       <c r="N10" s="3" t="n"/>
       <c r="O10" s="32" t="n">
-        <v>-35.2</v>
+        <v>-35.7</v>
       </c>
       <c r="P10" s="32" t="n">
-        <v>-20.6</v>
+        <v>-24.4</v>
       </c>
       <c r="Q10" s="32" t="n">
-        <v>-29.51</v>
+        <v>-30.85</v>
       </c>
       <c r="R10" s="23" t="inlineStr">
         <is>
@@ -1900,10 +1900,10 @@
         <v>-34.1</v>
       </c>
       <c r="P11" s="32" t="n">
-        <v>-20.2</v>
+        <v>-16.2</v>
       </c>
       <c r="Q11" s="32" t="n">
-        <v>-27.89</v>
+        <v>-27.67</v>
       </c>
       <c r="R11" s="23" t="inlineStr">
         <is>
@@ -2004,13 +2004,13 @@
       </c>
       <c r="N12" s="2" t="n"/>
       <c r="O12" s="32" t="n">
-        <v>-38.4</v>
+        <v>-39.5</v>
       </c>
       <c r="P12" s="32" t="n">
-        <v>-27.2</v>
+        <v>-27</v>
       </c>
       <c r="Q12" s="32" t="n">
-        <v>-34.25</v>
+        <v>-34.3</v>
       </c>
       <c r="R12" s="23" t="inlineStr">
         <is>
@@ -2115,13 +2115,13 @@
         </is>
       </c>
       <c r="O13" s="32" t="n">
-        <v>-37.7</v>
+        <v>-37.2</v>
       </c>
       <c r="P13" s="32" t="n">
-        <v>-27</v>
+        <v>-27.2</v>
       </c>
       <c r="Q13" s="32" t="n">
-        <v>-34.64</v>
+        <v>-33.36</v>
       </c>
       <c r="R13" s="23" t="inlineStr">
         <is>
@@ -2222,13 +2222,13 @@
       </c>
       <c r="N14" s="2" t="n"/>
       <c r="O14" s="32" t="n">
-        <v>-23.7</v>
+        <v>-23.8</v>
       </c>
       <c r="P14" s="32" t="n">
-        <v>-14.1</v>
+        <v>-12.2</v>
       </c>
       <c r="Q14" s="32" t="n">
-        <v>-19.57</v>
+        <v>-19.05</v>
       </c>
       <c r="R14" s="23" t="inlineStr">
         <is>
@@ -2318,12 +2318,8 @@
         </is>
       </c>
       <c r="N15" s="2" t="n"/>
-      <c r="O15" s="32" t="n">
-        <v>-29.6</v>
-      </c>
-      <c r="P15" s="32" t="n">
-        <v>-15.1</v>
-      </c>
+      <c r="O15" s="32" t="n"/>
+      <c r="P15" s="32" t="n"/>
       <c r="Q15" s="32" t="n"/>
       <c r="R15" s="23" t="n"/>
       <c r="S15" s="37" t="n"/>
@@ -2418,13 +2414,13 @@
       </c>
       <c r="N16" s="2" t="n"/>
       <c r="O16" s="32" t="n">
-        <v>-32.4</v>
+        <v>-31.6</v>
       </c>
       <c r="P16" s="32" t="n">
-        <v>-11</v>
+        <v>-10.6</v>
       </c>
       <c r="Q16" s="32" t="n">
-        <v>-26.16</v>
+        <v>-25.27</v>
       </c>
       <c r="R16" s="23" t="inlineStr">
         <is>
@@ -2594,10 +2590,10 @@
       </c>
       <c r="N18" s="2" t="n"/>
       <c r="O18" s="32" t="n">
-        <v>-37.3</v>
+        <v>-37</v>
       </c>
       <c r="P18" s="32" t="n">
-        <v>-23.8</v>
+        <v>-23.1</v>
       </c>
       <c r="Q18" s="32" t="n"/>
       <c r="R18" s="23" t="n"/>
@@ -4515,10 +4511,10 @@
       </c>
       <c r="N41" s="2" t="n"/>
       <c r="O41" s="32" t="n">
-        <v>-36.8</v>
+        <v>-37.4</v>
       </c>
       <c r="P41" s="32" t="n">
-        <v>-27.3</v>
+        <v>-23.2</v>
       </c>
       <c r="Q41" s="32" t="n"/>
       <c r="R41" s="23" t="n"/>
@@ -5483,10 +5479,10 @@
       </c>
       <c r="N53" s="2" t="n"/>
       <c r="O53" s="32" t="n">
-        <v>-37.2</v>
+        <v>-38.5</v>
       </c>
       <c r="P53" s="32" t="n">
-        <v>-26.9</v>
+        <v>-27.6</v>
       </c>
       <c r="Q53" s="32" t="n"/>
       <c r="R53" s="23" t="n"/>
@@ -7275,13 +7271,13 @@
       </c>
       <c r="N75" s="2" t="n"/>
       <c r="O75" s="32" t="n">
-        <v>-25.8</v>
+        <v>-30.1</v>
       </c>
       <c r="P75" s="32" t="n">
-        <v>-19.3</v>
+        <v>-16.6</v>
       </c>
       <c r="Q75" s="32" t="n">
-        <v>-22.82</v>
+        <v>-25.64</v>
       </c>
       <c r="R75" s="23" t="inlineStr">
         <is>
@@ -7382,13 +7378,13 @@
       </c>
       <c r="N76" s="2" t="n"/>
       <c r="O76" s="32" t="n">
-        <v>-31.1</v>
+        <v>-36.5</v>
       </c>
       <c r="P76" s="32" t="n">
-        <v>-23.8</v>
+        <v>-25.1</v>
       </c>
       <c r="Q76" s="32" t="n">
-        <v>-27.51</v>
+        <v>-31.56</v>
       </c>
       <c r="R76" s="23" t="inlineStr">
         <is>
@@ -7493,13 +7489,13 @@
         </is>
       </c>
       <c r="O77" s="32" t="n">
-        <v>-34.2</v>
+        <v>-36</v>
       </c>
       <c r="P77" s="32" t="n">
-        <v>-16.8</v>
+        <v>-18.5</v>
       </c>
       <c r="Q77" s="32" t="n">
-        <v>-28.09</v>
+        <v>-28.48</v>
       </c>
       <c r="R77" s="23" t="inlineStr">
         <is>
@@ -7600,13 +7596,13 @@
       </c>
       <c r="N78" s="2" t="n"/>
       <c r="O78" s="32" t="n">
-        <v>-27.1</v>
+        <v>-32.4</v>
       </c>
       <c r="P78" s="32" t="n">
-        <v>-19.4</v>
+        <v>-22.9</v>
       </c>
       <c r="Q78" s="32" t="n">
-        <v>-23.88</v>
+        <v>-28.41</v>
       </c>
       <c r="R78" s="23" t="inlineStr">
         <is>
@@ -7707,13 +7703,13 @@
         </is>
       </c>
       <c r="O79" s="32" t="n">
+        <v>-34.1</v>
+      </c>
+      <c r="P79" s="32" t="n">
         <v>-12.2</v>
       </c>
-      <c r="P79" s="32" t="n">
-        <v>-9.5</v>
-      </c>
       <c r="Q79" s="32" t="n">
-        <v>-10.43</v>
+        <v>-25.89</v>
       </c>
       <c r="R79" s="23" t="inlineStr">
         <is>
@@ -7810,13 +7806,13 @@
       </c>
       <c r="N80" s="2" t="n"/>
       <c r="O80" s="32" t="n">
-        <v>-33.8</v>
+        <v>-28</v>
       </c>
       <c r="P80" s="32" t="n">
-        <v>-22.3</v>
+        <v>-14.4</v>
       </c>
       <c r="Q80" s="32" t="n">
-        <v>-28.1</v>
+        <v>-22.69</v>
       </c>
       <c r="R80" s="23" t="inlineStr">
         <is>
@@ -7921,13 +7917,13 @@
         </is>
       </c>
       <c r="O81" s="32" t="n">
-        <v>-39.3</v>
+        <v>-38.3</v>
       </c>
       <c r="P81" s="32" t="n">
-        <v>-26.5</v>
+        <v>-24</v>
       </c>
       <c r="Q81" s="32" t="n">
-        <v>-34.55</v>
+        <v>-31.67</v>
       </c>
       <c r="R81" s="23" t="inlineStr">
         <is>
@@ -8037,13 +8033,13 @@
         </is>
       </c>
       <c r="O82" s="32" t="n">
-        <v>-35.4</v>
+        <v>-35.2</v>
       </c>
       <c r="P82" s="32" t="n">
-        <v>-20.4</v>
+        <v>-17.2</v>
       </c>
       <c r="Q82" s="32" t="n">
-        <v>-28.25</v>
+        <v>-28.62</v>
       </c>
       <c r="R82" s="23" t="inlineStr">
         <is>
@@ -8144,13 +8140,13 @@
       </c>
       <c r="N83" s="2" t="n"/>
       <c r="O83" s="32" t="n">
-        <v>-33.4</v>
+        <v>-26.6</v>
       </c>
       <c r="P83" s="32" t="n">
-        <v>-24.7</v>
+        <v>-19.8</v>
       </c>
       <c r="Q83" s="32" t="n">
-        <v>-29.24</v>
+        <v>-22.59</v>
       </c>
       <c r="R83" s="23" t="inlineStr">
         <is>
@@ -8251,13 +8247,13 @@
         </is>
       </c>
       <c r="O84" s="32" t="n">
-        <v>-35.3</v>
+        <v>-23.5</v>
       </c>
       <c r="P84" s="32" t="n">
-        <v>-22.5</v>
+        <v>-13.7</v>
       </c>
       <c r="Q84" s="32" t="n">
-        <v>-30.46</v>
+        <v>-18.85</v>
       </c>
       <c r="R84" s="23" t="inlineStr">
         <is>
@@ -8362,13 +8358,13 @@
         </is>
       </c>
       <c r="O85" s="32" t="n">
-        <v>-39.1</v>
+        <v>-34.4</v>
       </c>
       <c r="P85" s="32" t="n">
-        <v>-27.1</v>
+        <v>-20</v>
       </c>
       <c r="Q85" s="32" t="n">
-        <v>-34.67</v>
+        <v>-26.61</v>
       </c>
       <c r="R85" s="23" t="inlineStr">
         <is>
@@ -8465,13 +8461,13 @@
       </c>
       <c r="N86" s="2" t="n"/>
       <c r="O86" s="32" t="n">
-        <v>-34.7</v>
+        <v>-30.7</v>
       </c>
       <c r="P86" s="32" t="n">
-        <v>-28.5</v>
+        <v>-20.2</v>
       </c>
       <c r="Q86" s="32" t="n">
-        <v>-32.18</v>
+        <v>-25.75</v>
       </c>
       <c r="R86" s="23" t="inlineStr">
         <is>
@@ -8584,13 +8580,13 @@
         </is>
       </c>
       <c r="O87" s="32" t="n">
-        <v>-37.9</v>
+        <v>-34.3</v>
       </c>
       <c r="P87" s="32" t="n">
-        <v>-25.9</v>
+        <v>-23.7</v>
       </c>
       <c r="Q87" s="32" t="n">
-        <v>-32.56</v>
+        <v>-30.2</v>
       </c>
       <c r="R87" s="23" t="inlineStr">
         <is>
@@ -8687,13 +8683,13 @@
       </c>
       <c r="N88" s="2" t="n"/>
       <c r="O88" s="32" t="n">
-        <v>-30.8</v>
+        <v>-27.7</v>
       </c>
       <c r="P88" s="32" t="n">
-        <v>-19.2</v>
+        <v>-16</v>
       </c>
       <c r="Q88" s="32" t="n">
-        <v>-26.06</v>
+        <v>-22.56</v>
       </c>
       <c r="R88" s="23" t="inlineStr">
         <is>
@@ -8887,13 +8883,13 @@
         </is>
       </c>
       <c r="O90" s="32" t="n">
-        <v>-9.699999999999999</v>
+        <v>-16.5</v>
       </c>
       <c r="P90" s="32" t="n">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="Q90" s="32" t="n">
-        <v>-3.99</v>
+        <v>-8.51</v>
       </c>
       <c r="R90" s="23" t="inlineStr">
         <is>
@@ -8986,13 +8982,13 @@
       </c>
       <c r="N91" s="2" t="n"/>
       <c r="O91" s="32" t="n">
-        <v>-8.9</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="P91" s="32" t="n">
-        <v>-3.6</v>
+        <v>-6.1</v>
       </c>
       <c r="Q91" s="32" t="n">
-        <v>-6.43</v>
+        <v>-7.65</v>
       </c>
       <c r="R91" s="23" t="inlineStr">
         <is>
@@ -9085,13 +9081,13 @@
       </c>
       <c r="N92" s="2" t="n"/>
       <c r="O92" s="32" t="n">
-        <v>-29.6</v>
+        <v>-27.8</v>
       </c>
       <c r="P92" s="32" t="n">
-        <v>-18</v>
+        <v>-15.9</v>
       </c>
       <c r="Q92" s="32" t="n">
-        <v>-24.65</v>
+        <v>-23.46</v>
       </c>
       <c r="R92" s="23" t="inlineStr">
         <is>
@@ -9188,13 +9184,13 @@
       </c>
       <c r="N93" s="2" t="n"/>
       <c r="O93" s="32" t="n">
-        <v>-21.1</v>
+        <v>-23</v>
       </c>
       <c r="P93" s="32" t="n">
-        <v>-11</v>
+        <v>-9.6</v>
       </c>
       <c r="Q93" s="32" t="n">
-        <v>-16.42</v>
+        <v>-17.46</v>
       </c>
       <c r="R93" s="23" t="inlineStr">
         <is>
@@ -9299,10 +9295,10 @@
         </is>
       </c>
       <c r="O94" s="32" t="n">
-        <v>-30.9</v>
+        <v>-27</v>
       </c>
       <c r="P94" s="32" t="n">
-        <v>-12.7</v>
+        <v>-10</v>
       </c>
       <c r="Q94" s="32" t="n"/>
       <c r="R94" s="23" t="inlineStr">
@@ -9408,10 +9404,10 @@
       </c>
       <c r="N95" s="2" t="n"/>
       <c r="O95" s="32" t="n">
-        <v>-24.9</v>
+        <v>-21</v>
       </c>
       <c r="P95" s="32" t="n">
-        <v>-15.7</v>
+        <v>-12.2</v>
       </c>
       <c r="Q95" s="32" t="n"/>
       <c r="R95" s="23" t="inlineStr">
@@ -9525,10 +9521,10 @@
         </is>
       </c>
       <c r="O96" s="32" t="n">
-        <v>-31.3</v>
+        <v>-23.5</v>
       </c>
       <c r="P96" s="32" t="n">
-        <v>-16</v>
+        <v>-12.5</v>
       </c>
       <c r="Q96" s="32" t="n"/>
       <c r="R96" s="23" t="inlineStr">
@@ -9634,13 +9630,13 @@
       </c>
       <c r="N97" s="2" t="n"/>
       <c r="O97" s="32" t="n">
-        <v>-24.3</v>
+        <v>-22.6</v>
       </c>
       <c r="P97" s="32" t="n">
-        <v>-16.9</v>
+        <v>-12.2</v>
       </c>
       <c r="Q97" s="32" t="n">
-        <v>-21.27</v>
+        <v>-17.74</v>
       </c>
       <c r="R97" s="23" t="inlineStr">
         <is>
@@ -9741,10 +9737,10 @@
       </c>
       <c r="N98" s="2" t="n"/>
       <c r="O98" s="32" t="n">
-        <v>-26</v>
+        <v>-33</v>
       </c>
       <c r="P98" s="32" t="n">
-        <v>-18.6</v>
+        <v>-19.7</v>
       </c>
       <c r="Q98" s="32" t="n"/>
       <c r="R98" s="23" t="inlineStr">
@@ -9850,13 +9846,13 @@
       </c>
       <c r="N99" s="2" t="n"/>
       <c r="O99" s="32" t="n">
-        <v>-25.5</v>
+        <v>-34.1</v>
       </c>
       <c r="P99" s="32" t="n">
-        <v>-13.9</v>
+        <v>-20.1</v>
       </c>
       <c r="Q99" s="32" t="n">
-        <v>-20.14</v>
+        <v>-27.41</v>
       </c>
       <c r="R99" s="23" t="inlineStr">
         <is>
@@ -10050,10 +10046,10 @@
       </c>
       <c r="N101" s="2" t="n"/>
       <c r="O101" s="32" t="n">
-        <v>-38.7</v>
+        <v>-36.8</v>
       </c>
       <c r="P101" s="32" t="n">
-        <v>-21.9</v>
+        <v>-11.2</v>
       </c>
       <c r="Q101" s="32" t="n"/>
       <c r="R101" s="23" t="inlineStr">
@@ -10163,13 +10159,13 @@
       </c>
       <c r="N102" s="2" t="n"/>
       <c r="O102" s="32" t="n">
-        <v>-39</v>
+        <v>-29</v>
       </c>
       <c r="P102" s="32" t="n">
-        <v>-22.5</v>
+        <v>-12.4</v>
       </c>
       <c r="Q102" s="32" t="n">
-        <v>-32.56</v>
+        <v>-20.29</v>
       </c>
       <c r="R102" s="23" t="inlineStr">
         <is>
@@ -10274,10 +10270,10 @@
       </c>
       <c r="N103" s="2" t="n"/>
       <c r="O103" s="32" t="n">
-        <v>-38.8</v>
+        <v>-33</v>
       </c>
       <c r="P103" s="32" t="n">
-        <v>-20.8</v>
+        <v>-13.4</v>
       </c>
       <c r="Q103" s="32" t="n"/>
       <c r="R103" s="23" t="inlineStr">
@@ -10375,10 +10371,10 @@
       </c>
       <c r="N104" s="2" t="n"/>
       <c r="O104" s="32" t="n">
-        <v>-38.9</v>
+        <v>-36.9</v>
       </c>
       <c r="P104" s="32" t="n">
-        <v>-23</v>
+        <v>-19.4</v>
       </c>
       <c r="Q104" s="32" t="n"/>
       <c r="R104" s="23" t="inlineStr">
@@ -10492,13 +10488,13 @@
         </is>
       </c>
       <c r="O105" s="32" t="n">
-        <v>-38.9</v>
+        <v>-37.5</v>
       </c>
       <c r="P105" s="32" t="n">
-        <v>-22.4</v>
+        <v>-19.3</v>
       </c>
       <c r="Q105" s="32" t="n">
-        <v>-32.73</v>
+        <v>-28.69</v>
       </c>
       <c r="R105" s="23" t="inlineStr">
         <is>
@@ -10607,10 +10603,10 @@
         </is>
       </c>
       <c r="O106" s="32" t="n">
-        <v>-37.4</v>
+        <v>-34.5</v>
       </c>
       <c r="P106" s="32" t="n">
-        <v>-26.3</v>
+        <v>-22.5</v>
       </c>
       <c r="Q106" s="32" t="n"/>
       <c r="R106" s="23" t="inlineStr">
@@ -10813,13 +10809,13 @@
       </c>
       <c r="N108" s="2" t="n"/>
       <c r="O108" s="32" t="n">
-        <v>-35.1</v>
+        <v>-30.5</v>
       </c>
       <c r="P108" s="32" t="n">
-        <v>-24.5</v>
+        <v>-18.6</v>
       </c>
       <c r="Q108" s="32" t="n">
-        <v>-30.43</v>
+        <v>-24.64</v>
       </c>
       <c r="R108" s="23" t="inlineStr">
         <is>
@@ -11008,8 +11004,12 @@
         </is>
       </c>
       <c r="N110" s="2" t="n"/>
-      <c r="O110" s="32" t="n"/>
-      <c r="P110" s="32" t="n"/>
+      <c r="O110" s="32" t="n">
+        <v>-38.1</v>
+      </c>
+      <c r="P110" s="32" t="n">
+        <v>-19.7</v>
+      </c>
       <c r="Q110" s="32" t="n"/>
       <c r="R110" s="23" t="inlineStr">
         <is>
@@ -11114,13 +11114,13 @@
       </c>
       <c r="N111" s="2" t="n"/>
       <c r="O111" s="32" t="n">
-        <v>-36.2</v>
+        <v>-34.7</v>
       </c>
       <c r="P111" s="32" t="n">
-        <v>-23.6</v>
+        <v>-15.6</v>
       </c>
       <c r="Q111" s="32" t="n">
-        <v>-31.77</v>
+        <v>-27.94</v>
       </c>
       <c r="R111" s="23" t="inlineStr">
         <is>
@@ -11217,10 +11217,10 @@
       </c>
       <c r="N112" s="2" t="n"/>
       <c r="O112" s="32" t="n">
-        <v>-23.4</v>
+        <v>-26.9</v>
       </c>
       <c r="P112" s="32" t="n">
-        <v>-10.9</v>
+        <v>-1.9</v>
       </c>
       <c r="Q112" s="32" t="n"/>
       <c r="R112" s="23" t="inlineStr">
@@ -11314,10 +11314,10 @@
       </c>
       <c r="N113" s="2" t="n"/>
       <c r="O113" s="32" t="n">
-        <v>-20.3</v>
+        <v>-15.7</v>
       </c>
       <c r="P113" s="32" t="n">
-        <v>-3.1</v>
+        <v>-4.4</v>
       </c>
       <c r="Q113" s="32" t="n"/>
       <c r="R113" s="23" t="inlineStr">
@@ -11419,10 +11419,10 @@
         </is>
       </c>
       <c r="O114" s="32" t="n">
-        <v>-28.8</v>
+        <v>-28.4</v>
       </c>
       <c r="P114" s="32" t="n">
-        <v>-1.7</v>
+        <v>-1.4</v>
       </c>
       <c r="Q114" s="32" t="n"/>
       <c r="R114" s="23" t="inlineStr">
@@ -11532,10 +11532,10 @@
         </is>
       </c>
       <c r="O115" s="32" t="n">
-        <v>-22.5</v>
+        <v>-21.4</v>
       </c>
       <c r="P115" s="32" t="n">
-        <v>-4.6</v>
+        <v>-4</v>
       </c>
       <c r="Q115" s="32" t="n"/>
       <c r="R115" s="23" t="inlineStr">
@@ -11641,13 +11641,13 @@
       </c>
       <c r="N116" s="2" t="n"/>
       <c r="O116" s="32" t="n">
-        <v>-21</v>
+        <v>-24.3</v>
       </c>
       <c r="P116" s="32" t="n">
-        <v>-9.6</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="Q116" s="32" t="n">
-        <v>-16.44</v>
+        <v>-17.56</v>
       </c>
       <c r="R116" s="23" t="inlineStr">
         <is>
@@ -11744,10 +11744,10 @@
       </c>
       <c r="N117" s="2" t="n"/>
       <c r="O117" s="32" t="n">
-        <v>-20.3</v>
+        <v>-21.5</v>
       </c>
       <c r="P117" s="32" t="n">
-        <v>-7.6</v>
+        <v>-7.7</v>
       </c>
       <c r="Q117" s="32" t="n"/>
       <c r="R117" s="23" t="inlineStr">
@@ -11849,10 +11849,10 @@
         </is>
       </c>
       <c r="O118" s="32" t="n">
-        <v>-26.9</v>
+        <v>-26.2</v>
       </c>
       <c r="P118" s="32" t="n">
-        <v>-9.199999999999999</v>
+        <v>-10.3</v>
       </c>
       <c r="Q118" s="32" t="n"/>
       <c r="R118" s="23" t="inlineStr">
@@ -11958,13 +11958,13 @@
       </c>
       <c r="N119" s="2" t="n"/>
       <c r="O119" s="32" t="n">
-        <v>-13.7</v>
+        <v>-14</v>
       </c>
       <c r="P119" s="32" t="n">
-        <v>-3</v>
+        <v>-2.4</v>
       </c>
       <c r="Q119" s="32" t="n">
-        <v>-9.300000000000001</v>
+        <v>-10.07</v>
       </c>
       <c r="R119" s="23" t="inlineStr">
         <is>
@@ -12073,13 +12073,13 @@
       </c>
       <c r="N120" s="2" t="n"/>
       <c r="O120" s="32" t="n">
-        <v>-5.9</v>
+        <v>-8.1</v>
       </c>
       <c r="P120" s="32" t="n">
-        <v>0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="Q120" s="32" t="n">
-        <v>-3.16</v>
+        <v>-4.39</v>
       </c>
       <c r="R120" s="23" t="inlineStr">
         <is>
@@ -12183,10 +12183,10 @@
         <v>-12.5</v>
       </c>
       <c r="P121" s="32" t="n">
-        <v>-6.4</v>
+        <v>-7.6</v>
       </c>
       <c r="Q121" s="32" t="n">
-        <v>-10.56</v>
+        <v>-10.61</v>
       </c>
       <c r="R121" s="23" t="inlineStr">
         <is>
@@ -12295,10 +12295,10 @@
       </c>
       <c r="N122" s="2" t="n"/>
       <c r="O122" s="32" t="n">
-        <v>-27.7</v>
+        <v>-26.8</v>
       </c>
       <c r="P122" s="32" t="n">
-        <v>-16</v>
+        <v>-16.4</v>
       </c>
       <c r="Q122" s="32" t="n"/>
       <c r="R122" s="23" t="inlineStr">
@@ -12505,13 +12505,13 @@
       </c>
       <c r="N124" s="2" t="n"/>
       <c r="O124" s="32" t="n">
-        <v>-17.3</v>
+        <v>-17.9</v>
       </c>
       <c r="P124" s="32" t="n">
-        <v>-5.7</v>
+        <v>-4.7</v>
       </c>
       <c r="Q124" s="32" t="n">
-        <v>-12.49</v>
+        <v>-11.95</v>
       </c>
       <c r="R124" s="23" t="inlineStr">
         <is>
@@ -12620,13 +12620,13 @@
       </c>
       <c r="N125" s="2" t="n"/>
       <c r="O125" s="32" t="n">
-        <v>-10.1</v>
+        <v>-11.4</v>
       </c>
       <c r="P125" s="32" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="Q125" s="32" t="n">
-        <v>-4.78</v>
+        <v>-4.74</v>
       </c>
       <c r="R125" s="23" t="inlineStr">
         <is>
@@ -12711,10 +12711,10 @@
       </c>
       <c r="N126" s="2" t="n"/>
       <c r="O126" s="32" t="n">
-        <v>-5.6</v>
+        <v>-6.8</v>
       </c>
       <c r="P126" s="32" t="n">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q126" s="32" t="n"/>
       <c r="R126" s="23" t="inlineStr">
@@ -12812,13 +12812,13 @@
       </c>
       <c r="N127" s="2" t="n"/>
       <c r="O127" s="32" t="n">
-        <v>-8.199999999999999</v>
+        <v>-13</v>
       </c>
       <c r="P127" s="32" t="n">
-        <v>-0.8</v>
+        <v>0.6</v>
       </c>
       <c r="Q127" s="32" t="n">
-        <v>-5.75</v>
+        <v>-6.59</v>
       </c>
       <c r="R127" s="23" t="inlineStr">
         <is>
@@ -12923,10 +12923,10 @@
       </c>
       <c r="N128" s="2" t="n"/>
       <c r="O128" s="32" t="n">
-        <v>-7.7</v>
+        <v>-6.9</v>
       </c>
       <c r="P128" s="32" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q128" s="32" t="n"/>
       <c r="R128" s="23" t="inlineStr">
@@ -13024,13 +13024,13 @@
       </c>
       <c r="N129" s="2" t="n"/>
       <c r="O129" s="32" t="n">
-        <v>-9.1</v>
+        <v>-12.1</v>
       </c>
       <c r="P129" s="32" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="Q129" s="32" t="n">
-        <v>-4.42</v>
+        <v>-6.48</v>
       </c>
       <c r="R129" s="23" t="inlineStr">
         <is>
@@ -13135,13 +13135,13 @@
       </c>
       <c r="N130" s="2" t="n"/>
       <c r="O130" s="32" t="n">
-        <v>-9.199999999999999</v>
+        <v>-11.1</v>
       </c>
       <c r="P130" s="32" t="n">
-        <v>-0.7</v>
+        <v>-1.1</v>
       </c>
       <c r="Q130" s="32" t="n">
-        <v>-6.59</v>
+        <v>-6.85</v>
       </c>
       <c r="R130" s="23" t="inlineStr">
         <is>
@@ -13246,13 +13246,13 @@
       </c>
       <c r="N131" s="2" t="n"/>
       <c r="O131" s="32" t="n">
-        <v>-5.3</v>
+        <v>-6.5</v>
       </c>
       <c r="P131" s="32" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="Q131" s="32" t="n">
-        <v>-1.86</v>
+        <v>-1.41</v>
       </c>
       <c r="R131" s="23" t="inlineStr">
         <is>
@@ -13353,13 +13353,13 @@
       </c>
       <c r="N132" s="2" t="n"/>
       <c r="O132" s="32" t="n">
-        <v>-2.4</v>
+        <v>-4.8</v>
       </c>
       <c r="P132" s="32" t="n">
-        <v>3.6</v>
+        <v>5.4</v>
       </c>
       <c r="Q132" s="32" t="n">
-        <v>-0.64</v>
+        <v>-0.14</v>
       </c>
       <c r="R132" s="23" t="inlineStr">
         <is>
@@ -13460,13 +13460,13 @@
       </c>
       <c r="N133" s="2" t="n"/>
       <c r="O133" s="32" t="n">
-        <v>-2.7</v>
+        <v>-4.5</v>
       </c>
       <c r="P133" s="32" t="n">
-        <v>1.3</v>
+        <v>-0.8</v>
       </c>
       <c r="Q133" s="32" t="n">
-        <v>-1.3</v>
+        <v>-2.59</v>
       </c>
       <c r="R133" s="23" t="inlineStr">
         <is>
@@ -13571,13 +13571,13 @@
       </c>
       <c r="N134" s="2" t="n"/>
       <c r="O134" s="32" t="n">
-        <v>2.4</v>
+        <v>-1.3</v>
       </c>
       <c r="P134" s="32" t="n">
-        <v>7.5</v>
+        <v>5.1</v>
       </c>
       <c r="Q134" s="32" t="n">
-        <v>4.26</v>
+        <v>2</v>
       </c>
       <c r="R134" s="23" t="inlineStr">
         <is>
@@ -13674,13 +13674,13 @@
       </c>
       <c r="N135" s="2" t="n"/>
       <c r="O135" s="32" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="P135" s="32" t="n">
-        <v>6.8</v>
+        <v>4.6</v>
       </c>
       <c r="Q135" s="32" t="n">
-        <v>2.38</v>
+        <v>3.05</v>
       </c>
       <c r="R135" s="23" t="inlineStr">
         <is>
@@ -13781,13 +13781,13 @@
       </c>
       <c r="N136" s="2" t="n"/>
       <c r="O136" s="32" t="n">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="P136" s="32" t="n">
-        <v>10.6</v>
+        <v>7.3</v>
       </c>
       <c r="Q136" s="32" t="n">
-        <v>5.65</v>
+        <v>4.25</v>
       </c>
       <c r="R136" s="23" t="inlineStr">
         <is>
@@ -13888,13 +13888,13 @@
       </c>
       <c r="N137" s="2" t="n"/>
       <c r="O137" s="32" t="n">
-        <v>1.7</v>
+        <v>-2.7</v>
       </c>
       <c r="P137" s="32" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Q137" s="32" t="n">
-        <v>2.46</v>
+        <v>1.45</v>
       </c>
       <c r="R137" s="23" t="inlineStr">
         <is>
@@ -13995,10 +13995,10 @@
       </c>
       <c r="N138" s="2" t="n"/>
       <c r="O138" s="32" t="n">
-        <v>0.2</v>
+        <v>-1.8</v>
       </c>
       <c r="P138" s="32" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Q138" s="32" t="n"/>
       <c r="R138" s="23" t="inlineStr">
@@ -14100,13 +14100,13 @@
       </c>
       <c r="N139" s="2" t="n"/>
       <c r="O139" s="32" t="n">
-        <v>0.5</v>
+        <v>-1.1</v>
       </c>
       <c r="P139" s="32" t="n">
-        <v>5.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q139" s="32" t="n">
-        <v>2.47</v>
+        <v>1.41</v>
       </c>
       <c r="R139" s="23" t="inlineStr">
         <is>
@@ -14207,13 +14207,13 @@
       </c>
       <c r="N140" s="2" t="n"/>
       <c r="O140" s="32" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="P140" s="32" t="n">
-        <v>9.4</v>
+        <v>6.3</v>
       </c>
       <c r="Q140" s="32" t="n">
-        <v>4.6</v>
+        <v>3.17</v>
       </c>
       <c r="R140" s="23" t="inlineStr">
         <is>
@@ -14314,13 +14314,13 @@
       </c>
       <c r="N141" s="2" t="n"/>
       <c r="O141" s="32" t="n">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="P141" s="32" t="n">
-        <v>10.6</v>
+        <v>7.3</v>
       </c>
       <c r="Q141" s="32" t="n">
-        <v>6.91</v>
+        <v>4.47</v>
       </c>
       <c r="R141" s="23" t="inlineStr">
         <is>
@@ -14417,13 +14417,13 @@
       </c>
       <c r="N142" s="2" t="n"/>
       <c r="O142" s="32" t="n">
-        <v>12.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="P142" s="32" t="n">
-        <v>14.8</v>
+        <v>15.5</v>
       </c>
       <c r="Q142" s="32" t="n">
-        <v>12.96</v>
+        <v>11.2</v>
       </c>
       <c r="R142" s="23" t="inlineStr">
         <is>
@@ -14524,13 +14524,13 @@
       </c>
       <c r="N143" s="2" t="n"/>
       <c r="O143" s="32" t="n">
-        <v>12.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P143" s="32" t="n">
-        <v>21.3</v>
+        <v>17.3</v>
       </c>
       <c r="Q143" s="32" t="n">
-        <v>15.6</v>
+        <v>12.35</v>
       </c>
       <c r="R143" s="23" t="inlineStr">
         <is>
@@ -14631,13 +14631,13 @@
       </c>
       <c r="N144" s="2" t="n"/>
       <c r="O144" s="32" t="n">
-        <v>18.7</v>
+        <v>16.8</v>
       </c>
       <c r="P144" s="32" t="n">
-        <v>23.9</v>
+        <v>19.9</v>
       </c>
       <c r="Q144" s="32" t="n">
-        <v>20.76</v>
+        <v>18.09</v>
       </c>
       <c r="R144" s="23" t="inlineStr">
         <is>
@@ -14734,13 +14734,13 @@
       </c>
       <c r="N145" s="2" t="n"/>
       <c r="O145" s="32" t="n">
-        <v>16.5</v>
+        <v>16.2</v>
       </c>
       <c r="P145" s="32" t="n">
-        <v>23.2</v>
+        <v>21.2</v>
       </c>
       <c r="Q145" s="32" t="n">
-        <v>19.23</v>
+        <v>18.11</v>
       </c>
       <c r="R145" s="23" t="inlineStr">
         <is>
@@ -14833,13 +14833,13 @@
       </c>
       <c r="N146" s="2" t="n"/>
       <c r="O146" s="32" t="n">
-        <v>19.3</v>
+        <v>17.9</v>
       </c>
       <c r="P146" s="32" t="n">
-        <v>25.6</v>
+        <v>24.8</v>
       </c>
       <c r="Q146" s="32" t="n">
-        <v>22.12</v>
+        <v>20.91</v>
       </c>
       <c r="R146" s="23" t="inlineStr">
         <is>
@@ -14932,13 +14932,13 @@
       </c>
       <c r="N147" s="2" t="n"/>
       <c r="O147" s="32" t="n">
-        <v>11.8</v>
+        <v>9.4</v>
       </c>
       <c r="P147" s="32" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="Q147" s="32" t="n">
-        <v>14.81</v>
+        <v>10.64</v>
       </c>
       <c r="R147" s="23" t="inlineStr">
         <is>
@@ -15039,10 +15039,10 @@
       </c>
       <c r="N148" s="2" t="n"/>
       <c r="O148" s="32" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="P148" s="32" t="n">
-        <v>25.6</v>
+        <v>25</v>
       </c>
       <c r="Q148" s="32" t="n"/>
       <c r="R148" s="23" t="inlineStr">
@@ -15140,13 +15140,13 @@
       </c>
       <c r="N149" s="2" t="n"/>
       <c r="O149" s="32" t="n">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="P149" s="32" t="n">
-        <v>16.4</v>
+        <v>16.9</v>
       </c>
       <c r="Q149" s="32" t="n">
-        <v>9.26</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="R149" s="23" t="inlineStr">
         <is>
@@ -15247,13 +15247,13 @@
       </c>
       <c r="N150" s="2" t="n"/>
       <c r="O150" s="32" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="P150" s="32" t="n">
         <v>3.7</v>
       </c>
-      <c r="P150" s="32" t="n">
-        <v>6.5</v>
-      </c>
       <c r="Q150" s="32" t="n">
-        <v>4.7</v>
+        <v>0.45</v>
       </c>
       <c r="R150" s="23" t="inlineStr">
         <is>
@@ -15354,13 +15354,13 @@
       </c>
       <c r="N151" s="2" t="n"/>
       <c r="O151" s="32" t="n">
-        <v>8.199999999999999</v>
+        <v>7.3</v>
       </c>
       <c r="P151" s="32" t="n">
-        <v>10.8</v>
+        <v>8.5</v>
       </c>
       <c r="Q151" s="32" t="n">
-        <v>9.359999999999999</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="R151" s="23" t="inlineStr">
         <is>
@@ -15546,13 +15546,13 @@
       </c>
       <c r="N153" s="2" t="n"/>
       <c r="O153" s="32" t="n">
-        <v>6.7</v>
+        <v>4.8</v>
       </c>
       <c r="P153" s="32" t="n">
-        <v>9.699999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="Q153" s="32" t="n">
-        <v>7.96</v>
+        <v>5.7</v>
       </c>
       <c r="R153" s="23" t="inlineStr">
         <is>
@@ -15657,13 +15657,13 @@
       </c>
       <c r="N154" s="2" t="n"/>
       <c r="O154" s="32" t="n">
-        <v>-7.2</v>
+        <v>-6.5</v>
       </c>
       <c r="P154" s="32" t="n">
-        <v>8.199999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="Q154" s="32" t="n">
-        <v>-1.01</v>
+        <v>-0.84</v>
       </c>
       <c r="R154" s="23" t="inlineStr">
         <is>
@@ -15844,8 +15844,12 @@
         </is>
       </c>
       <c r="N156" s="2" t="n"/>
-      <c r="O156" s="32" t="n"/>
-      <c r="P156" s="32" t="n"/>
+      <c r="O156" s="32" t="n">
+        <v>-24.3</v>
+      </c>
+      <c r="P156" s="32" t="n">
+        <v>-1.6</v>
+      </c>
       <c r="Q156" s="32" t="n"/>
       <c r="R156" s="23" t="inlineStr">
         <is>
@@ -15937,8 +15941,12 @@
         </is>
       </c>
       <c r="N157" s="2" t="n"/>
-      <c r="O157" s="32" t="n"/>
-      <c r="P157" s="32" t="n"/>
+      <c r="O157" s="32" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="P157" s="32" t="n">
+        <v>4.9</v>
+      </c>
       <c r="Q157" s="32" t="n"/>
       <c r="R157" s="23" t="inlineStr">
         <is>
@@ -16293,8 +16301,12 @@
         </is>
       </c>
       <c r="N161" s="2" t="n"/>
-      <c r="O161" s="32" t="n"/>
-      <c r="P161" s="32" t="n"/>
+      <c r="O161" s="32" t="n">
+        <v>-4.3</v>
+      </c>
+      <c r="P161" s="32" t="n">
+        <v>1.3</v>
+      </c>
       <c r="Q161" s="32" t="n"/>
       <c r="R161" s="23" t="inlineStr">
         <is>
@@ -16395,10 +16407,10 @@
         </is>
       </c>
       <c r="O162" s="32" t="n">
-        <v>-41.8</v>
+        <v>-37.8</v>
       </c>
       <c r="P162" s="32" t="n">
-        <v>-20.9</v>
+        <v>-11.3</v>
       </c>
       <c r="Q162" s="32" t="n"/>
       <c r="R162" s="23" t="inlineStr">
@@ -16500,10 +16512,10 @@
         </is>
       </c>
       <c r="O163" s="32" t="n">
-        <v>-39.6</v>
+        <v>-28.1</v>
       </c>
       <c r="P163" s="32" t="n">
-        <v>-21.4</v>
+        <v>-14.5</v>
       </c>
       <c r="Q163" s="32" t="n"/>
       <c r="R163" s="23" t="inlineStr">
@@ -16706,10 +16718,10 @@
         </is>
       </c>
       <c r="O165" s="32" t="n">
-        <v>-44.4</v>
+        <v>-42</v>
       </c>
       <c r="P165" s="32" t="n">
-        <v>-29.3</v>
+        <v>-21.9</v>
       </c>
       <c r="Q165" s="32" t="n"/>
       <c r="R165" s="23" t="inlineStr">
@@ -17004,12 +17016,8 @@
           <t>❄️</t>
         </is>
       </c>
-      <c r="O168" s="32" t="n">
-        <v>-22.8</v>
-      </c>
-      <c r="P168" s="32" t="n">
-        <v>-7.7</v>
-      </c>
+      <c r="O168" s="32" t="n"/>
+      <c r="P168" s="32" t="n"/>
       <c r="Q168" s="32" t="n"/>
       <c r="R168" s="23" t="inlineStr">
         <is>
@@ -17109,12 +17117,8 @@
           <t>↓</t>
         </is>
       </c>
-      <c r="O169" s="32" t="n">
-        <v>-28.6</v>
-      </c>
-      <c r="P169" s="32" t="n">
-        <v>-10.4</v>
-      </c>
+      <c r="O169" s="32" t="n"/>
+      <c r="P169" s="32" t="n"/>
       <c r="Q169" s="32" t="n"/>
       <c r="R169" s="23" t="inlineStr">
         <is>
@@ -17404,12 +17408,8 @@
         </is>
       </c>
       <c r="N172" s="3" t="n"/>
-      <c r="O172" s="32" t="n">
-        <v>-27.2</v>
-      </c>
-      <c r="P172" s="32" t="n">
-        <v>-10</v>
-      </c>
+      <c r="O172" s="32" t="n"/>
+      <c r="P172" s="32" t="n"/>
       <c r="Q172" s="32" t="n"/>
       <c r="R172" s="23" t="inlineStr">
         <is>
@@ -17506,10 +17506,10 @@
       </c>
       <c r="N173" s="2" t="n"/>
       <c r="O173" s="32" t="n">
-        <v>-28</v>
+        <v>-33.7</v>
       </c>
       <c r="P173" s="32" t="n">
-        <v>-17.3</v>
+        <v>-8.6</v>
       </c>
       <c r="Q173" s="32" t="n"/>
       <c r="R173" s="23" t="inlineStr">
@@ -17797,10 +17797,10 @@
       </c>
       <c r="N176" s="2" t="n"/>
       <c r="O176" s="32" t="n">
-        <v>-7.9</v>
+        <v>-12.2</v>
       </c>
       <c r="P176" s="32" t="n">
-        <v>-3.7</v>
+        <v>-6</v>
       </c>
       <c r="Q176" s="32" t="n"/>
       <c r="R176" s="23" t="inlineStr">
@@ -17886,10 +17886,10 @@
       </c>
       <c r="N177" s="2" t="n"/>
       <c r="O177" s="32" t="n">
-        <v>-34.3</v>
+        <v>-26.8</v>
       </c>
       <c r="P177" s="32" t="n">
-        <v>-26.5</v>
+        <v>-22.3</v>
       </c>
       <c r="Q177" s="32" t="n"/>
       <c r="R177" s="23" t="inlineStr">
@@ -18696,13 +18696,13 @@
       </c>
       <c r="N186" s="2" t="n"/>
       <c r="O186" s="32" t="n">
-        <v>-50.6</v>
+        <v>-50.8</v>
       </c>
       <c r="P186" s="32" t="n">
-        <v>-48</v>
+        <v>-45.5</v>
       </c>
       <c r="Q186" s="32" t="n">
-        <v>-49.86</v>
+        <v>-47.52</v>
       </c>
       <c r="R186" s="23" t="inlineStr">
         <is>
@@ -18796,13 +18796,13 @@
       </c>
       <c r="N187" s="2" t="n"/>
       <c r="O187" s="32" t="n">
-        <v>-50.4</v>
+        <v>-50.2</v>
       </c>
       <c r="P187" s="32" t="n">
-        <v>-49.2</v>
+        <v>-44</v>
       </c>
       <c r="Q187" s="32" t="n">
-        <v>-50.01</v>
+        <v>-46.5</v>
       </c>
       <c r="R187" s="23" t="inlineStr">
         <is>
@@ -18891,13 +18891,13 @@
       </c>
       <c r="N188" s="2" t="n"/>
       <c r="O188" s="32" t="n">
-        <v>-49.9</v>
+        <v>-48.1</v>
       </c>
       <c r="P188" s="32" t="n">
-        <v>-47.3</v>
+        <v>-42.2</v>
       </c>
       <c r="Q188" s="32" t="n">
-        <v>-48.27</v>
+        <v>-45.49</v>
       </c>
       <c r="R188" s="23" t="inlineStr">
         <is>
@@ -19075,13 +19075,13 @@
       </c>
       <c r="N190" s="2" t="n"/>
       <c r="O190" s="32" t="n">
-        <v>-50.9</v>
+        <v>-45.5</v>
       </c>
       <c r="P190" s="32" t="n">
-        <v>-45.5</v>
+        <v>-36.2</v>
       </c>
       <c r="Q190" s="32" t="n">
-        <v>-49.4</v>
+        <v>-40.24</v>
       </c>
       <c r="R190" s="23" t="inlineStr">
         <is>
@@ -19170,13 +19170,13 @@
       </c>
       <c r="N191" s="2" t="n"/>
       <c r="O191" s="32" t="n">
-        <v>-50.6</v>
+        <v>-49.5</v>
       </c>
       <c r="P191" s="32" t="n">
-        <v>-47.5</v>
+        <v>-41.7</v>
       </c>
       <c r="Q191" s="32" t="n">
-        <v>-49.29</v>
+        <v>-44.6</v>
       </c>
       <c r="R191" s="23" t="inlineStr">
         <is>
@@ -19261,13 +19261,13 @@
       </c>
       <c r="N192" s="2" t="n"/>
       <c r="O192" s="32" t="n">
-        <v>-44.7</v>
+        <v>-43.8</v>
       </c>
       <c r="P192" s="32" t="n">
-        <v>-41.2</v>
+        <v>-34.8</v>
       </c>
       <c r="Q192" s="32" t="n">
-        <v>-43.86</v>
+        <v>-37</v>
       </c>
       <c r="R192" s="23" t="inlineStr">
         <is>
@@ -19357,13 +19357,13 @@
       </c>
       <c r="N193" s="2" t="n"/>
       <c r="O193" s="32" t="n">
-        <v>-42.1</v>
+        <v>-28.1</v>
       </c>
       <c r="P193" s="32" t="n">
         <v>-24.3</v>
       </c>
       <c r="Q193" s="32" t="n">
-        <v>-35.56</v>
+        <v>-26.2</v>
       </c>
       <c r="R193" s="23" t="inlineStr">
         <is>
@@ -19456,10 +19456,10 @@
       </c>
       <c r="N194" s="2" t="n"/>
       <c r="O194" s="32" t="n">
-        <v>-53.1</v>
+        <v>-39.7</v>
       </c>
       <c r="P194" s="32" t="n">
-        <v>-39.6</v>
+        <v>-16.6</v>
       </c>
       <c r="Q194" s="32" t="n"/>
       <c r="R194" s="23" t="inlineStr">
@@ -19549,13 +19549,13 @@
       </c>
       <c r="N195" s="2" t="n"/>
       <c r="O195" s="32" t="n">
-        <v>-44.7</v>
+        <v>-45.1</v>
       </c>
       <c r="P195" s="32" t="n">
-        <v>-42.3</v>
+        <v>-30.5</v>
       </c>
       <c r="Q195" s="32" t="n">
-        <v>-43.6</v>
+        <v>-37.59</v>
       </c>
       <c r="R195" s="23" t="inlineStr">
         <is>
@@ -19648,13 +19648,13 @@
       </c>
       <c r="N196" s="2" t="n"/>
       <c r="O196" s="32" t="n">
-        <v>-51</v>
+        <v>-51.4</v>
       </c>
       <c r="P196" s="32" t="n">
-        <v>-47.7</v>
+        <v>-46.8</v>
       </c>
       <c r="Q196" s="32" t="n">
-        <v>-49.65</v>
+        <v>-49.66</v>
       </c>
       <c r="R196" s="23" t="inlineStr">
         <is>
@@ -19743,13 +19743,13 @@
       </c>
       <c r="N197" s="24" t="n"/>
       <c r="O197" s="32" t="n">
+        <v>-39.9</v>
+      </c>
+      <c r="P197" s="32" t="n">
         <v>-35.3</v>
       </c>
-      <c r="P197" s="32" t="n">
-        <v>-21.9</v>
-      </c>
       <c r="Q197" s="32" t="n">
-        <v>-26.04</v>
+        <v>-38.32</v>
       </c>
       <c r="R197" s="23" t="inlineStr">
         <is>
@@ -20011,8 +20011,12 @@
         </is>
       </c>
       <c r="N200" s="2" t="n"/>
-      <c r="O200" s="32" t="n"/>
-      <c r="P200" s="32" t="n"/>
+      <c r="O200" s="32" t="n">
+        <v>-34.7</v>
+      </c>
+      <c r="P200" s="32" t="n">
+        <v>-14</v>
+      </c>
       <c r="Q200" s="32" t="n"/>
       <c r="R200" s="23" t="inlineStr">
         <is>
@@ -21082,10 +21086,10 @@
       </c>
       <c r="N212" s="2" t="n"/>
       <c r="O212" s="32" t="n">
-        <v>-34.8</v>
+        <v>-36.3</v>
       </c>
       <c r="P212" s="32" t="n">
-        <v>-25.3</v>
+        <v>-25.2</v>
       </c>
       <c r="Q212" s="32" t="n"/>
       <c r="R212" s="23" t="inlineStr">
@@ -21167,13 +21171,13 @@
       </c>
       <c r="N213" s="2" t="n"/>
       <c r="O213" s="32" t="n">
-        <v>-14.6</v>
+        <v>-13.9</v>
       </c>
       <c r="P213" s="32" t="n">
-        <v>-1.9</v>
+        <v>-6.5</v>
       </c>
       <c r="Q213" s="32" t="n">
-        <v>-9.44</v>
+        <v>-10.01</v>
       </c>
       <c r="R213" s="23" t="inlineStr">
         <is>
@@ -21270,13 +21274,13 @@
       </c>
       <c r="N214" s="2" t="n"/>
       <c r="O214" s="32" t="n">
-        <v>-10.1</v>
+        <v>-15.4</v>
       </c>
       <c r="P214" s="32" t="n">
-        <v>-5.4</v>
+        <v>-9</v>
       </c>
       <c r="Q214" s="32" t="n">
-        <v>-8.460000000000001</v>
+        <v>-13.25</v>
       </c>
       <c r="R214" s="23" t="inlineStr">
         <is>
@@ -21377,13 +21381,13 @@
       </c>
       <c r="N215" s="2" t="n"/>
       <c r="O215" s="32" t="n">
-        <v>-33.3</v>
+        <v>-27.5</v>
       </c>
       <c r="P215" s="32" t="n">
-        <v>-25</v>
+        <v>-16.6</v>
       </c>
       <c r="Q215" s="32" t="n">
-        <v>-29</v>
+        <v>-21.65</v>
       </c>
       <c r="R215" s="23" t="inlineStr">
         <is>
@@ -21484,13 +21488,13 @@
       </c>
       <c r="N216" s="2" t="n"/>
       <c r="O216" s="32" t="n">
-        <v>-28.8</v>
+        <v>-29</v>
       </c>
       <c r="P216" s="32" t="n">
-        <v>-22</v>
+        <v>-17.9</v>
       </c>
       <c r="Q216" s="32" t="n">
-        <v>-26.09</v>
+        <v>-24.39</v>
       </c>
       <c r="R216" s="23" t="inlineStr">
         <is>
@@ -21587,13 +21591,13 @@
       </c>
       <c r="N217" s="2" t="n"/>
       <c r="O217" s="32" t="n">
-        <v>-8.300000000000001</v>
+        <v>-17.8</v>
       </c>
       <c r="P217" s="32" t="n">
-        <v>1.1</v>
+        <v>-7</v>
       </c>
       <c r="Q217" s="32" t="n">
-        <v>-2.96</v>
+        <v>-11.59</v>
       </c>
       <c r="R217" s="23" t="inlineStr">
         <is>
@@ -21690,12 +21694,14 @@
       </c>
       <c r="N218" s="2" t="n"/>
       <c r="O218" s="32" t="n">
-        <v>-3</v>
+        <v>-10.6</v>
       </c>
       <c r="P218" s="32" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Q218" s="32" t="n"/>
+        <v>1.6</v>
+      </c>
+      <c r="Q218" s="32" t="n">
+        <v>-3.67</v>
+      </c>
       <c r="R218" s="23" t="inlineStr">
         <is>
           <t>Y</t>
@@ -21791,13 +21797,13 @@
       </c>
       <c r="N219" s="2" t="n"/>
       <c r="O219" s="32" t="n">
-        <v>-18.4</v>
+        <v>-16.4</v>
       </c>
       <c r="P219" s="32" t="n">
-        <v>-13.8</v>
+        <v>-11.7</v>
       </c>
       <c r="Q219" s="32" t="n">
-        <v>-16.15</v>
+        <v>-14.46</v>
       </c>
       <c r="R219" s="23" t="inlineStr">
         <is>
@@ -21885,12 +21891,8 @@
         </is>
       </c>
       <c r="N220" s="2" t="n"/>
-      <c r="O220" s="32" t="n">
-        <v>-42.8</v>
-      </c>
-      <c r="P220" s="32" t="n">
-        <v>-23.5</v>
-      </c>
+      <c r="O220" s="32" t="n"/>
+      <c r="P220" s="32" t="n"/>
       <c r="Q220" s="32" t="n"/>
       <c r="R220" s="23" t="inlineStr">
         <is>
@@ -22619,12 +22621,8 @@
         </is>
       </c>
       <c r="N228" s="2" t="n"/>
-      <c r="O228" s="32" t="n">
-        <v>-40.9</v>
-      </c>
-      <c r="P228" s="32" t="n">
-        <v>-30.4</v>
-      </c>
+      <c r="O228" s="32" t="n"/>
+      <c r="P228" s="32" t="n"/>
       <c r="Q228" s="32" t="n"/>
       <c r="R228" s="23" t="inlineStr">
         <is>
@@ -24515,13 +24513,13 @@
       </c>
       <c r="N249" s="2" t="n"/>
       <c r="O249" s="32" t="n">
-        <v>-39</v>
+        <v>-32.6</v>
       </c>
       <c r="P249" s="32" t="n">
-        <v>-26.3</v>
+        <v>-17.4</v>
       </c>
       <c r="Q249" s="32" t="n">
-        <v>-33.1</v>
+        <v>-25.66</v>
       </c>
       <c r="R249" s="23" t="inlineStr">
         <is>
@@ -25103,12 +25101,8 @@
         </is>
       </c>
       <c r="N256" s="2" t="n"/>
-      <c r="O256" s="32" t="n">
-        <v>-40</v>
-      </c>
-      <c r="P256" s="32" t="n">
-        <v>-30.5</v>
-      </c>
+      <c r="O256" s="32" t="n"/>
+      <c r="P256" s="32" t="n"/>
       <c r="Q256" s="32" t="n"/>
       <c r="R256" s="23" t="inlineStr">
         <is>
@@ -25190,12 +25184,8 @@
         </is>
       </c>
       <c r="N257" s="2" t="n"/>
-      <c r="O257" s="32" t="n">
-        <v>-39.7</v>
-      </c>
-      <c r="P257" s="32" t="n">
-        <v>-30.8</v>
-      </c>
+      <c r="O257" s="32" t="n"/>
+      <c r="P257" s="32" t="n"/>
       <c r="Q257" s="32" t="n"/>
       <c r="R257" s="23" t="inlineStr">
         <is>

--- a/气象/For_Python_站点信息和记录.xlsx
+++ b/气象/For_Python_站点信息和记录.xlsx
@@ -773,8 +773,8 @@
     <col width="18.59765625" customWidth="1" style="8" min="24" max="24"/>
     <col width="12.59765625" customWidth="1" style="5" min="25" max="29"/>
     <col width="12.59765625" customWidth="1" style="8" min="30" max="31"/>
-    <col width="12.59765625" customWidth="1" style="5" min="32" max="132"/>
-    <col width="12.59765625" customWidth="1" style="5" min="133" max="16384"/>
+    <col width="12.59765625" customWidth="1" style="5" min="32" max="134"/>
+    <col width="12.59765625" customWidth="1" style="5" min="135" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.75" customFormat="1" customHeight="1" s="11">
@@ -996,13 +996,13 @@
         </is>
       </c>
       <c r="O2" s="32" t="n">
-        <v>-35.8</v>
+        <v>-36</v>
       </c>
       <c r="P2" s="32" t="n">
-        <v>-27.7</v>
+        <v>-28.8</v>
       </c>
       <c r="Q2" s="32" t="n">
-        <v>-32.14</v>
+        <v>-32.11</v>
       </c>
       <c r="R2" s="23" t="inlineStr">
         <is>
@@ -1101,10 +1101,10 @@
         </is>
       </c>
       <c r="O3" s="32" t="n">
-        <v>-38.8</v>
+        <v>-38.7</v>
       </c>
       <c r="P3" s="32" t="n">
-        <v>-24.3</v>
+        <v>-26.8</v>
       </c>
       <c r="Q3" s="32" t="n"/>
       <c r="R3" s="23" t="n"/>
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="O4" s="32" t="n">
-        <v>-37.1</v>
+        <v>-35</v>
       </c>
       <c r="P4" s="32" t="n">
-        <v>-25.5</v>
+        <v>-26.2</v>
       </c>
       <c r="Q4" s="32" t="n"/>
       <c r="R4" s="23" t="n"/>
@@ -1283,10 +1283,10 @@
       </c>
       <c r="N5" s="2" t="n"/>
       <c r="O5" s="32" t="n">
-        <v>-36.9</v>
+        <v>-33.6</v>
       </c>
       <c r="P5" s="32" t="n">
-        <v>-26.7</v>
+        <v>-26</v>
       </c>
       <c r="Q5" s="32" t="n"/>
       <c r="R5" s="23" t="n"/>
@@ -1378,10 +1378,10 @@
         </is>
       </c>
       <c r="O6" s="32" t="n">
-        <v>-40.6</v>
+        <v>-38.8</v>
       </c>
       <c r="P6" s="32" t="n">
-        <v>-27.5</v>
+        <v>-25.5</v>
       </c>
       <c r="Q6" s="32" t="n"/>
       <c r="R6" s="23" t="n"/>
@@ -1481,10 +1481,10 @@
         </is>
       </c>
       <c r="O7" s="32" t="n">
-        <v>-34.8</v>
+        <v>-33.9</v>
       </c>
       <c r="P7" s="32" t="n">
-        <v>-27.2</v>
+        <v>-27.7</v>
       </c>
       <c r="Q7" s="32" t="n"/>
       <c r="R7" s="23" t="n"/>
@@ -1580,13 +1580,13 @@
       </c>
       <c r="N8" s="2" t="n"/>
       <c r="O8" s="32" t="n">
-        <v>-34.1</v>
+        <v>-33.2</v>
       </c>
       <c r="P8" s="32" t="n">
-        <v>-24.8</v>
+        <v>-19</v>
       </c>
       <c r="Q8" s="32" t="n">
-        <v>-30.48</v>
+        <v>-23.96</v>
       </c>
       <c r="R8" s="23" t="inlineStr">
         <is>
@@ -1683,13 +1683,13 @@
       </c>
       <c r="N9" s="2" t="n"/>
       <c r="O9" s="32" t="n">
-        <v>-33.6</v>
+        <v>-35.6</v>
       </c>
       <c r="P9" s="32" t="n">
-        <v>-21.9</v>
+        <v>-19.6</v>
       </c>
       <c r="Q9" s="32" t="n">
-        <v>-29.06</v>
+        <v>-29.84</v>
       </c>
       <c r="R9" s="23" t="inlineStr">
         <is>
@@ -1790,13 +1790,13 @@
       </c>
       <c r="N10" s="3" t="n"/>
       <c r="O10" s="32" t="n">
-        <v>-35.7</v>
+        <v>-37.2</v>
       </c>
       <c r="P10" s="32" t="n">
-        <v>-24.4</v>
+        <v>-23.7</v>
       </c>
       <c r="Q10" s="32" t="n">
-        <v>-30.85</v>
+        <v>-32.06</v>
       </c>
       <c r="R10" s="23" t="inlineStr">
         <is>
@@ -1897,13 +1897,13 @@
         </is>
       </c>
       <c r="O11" s="32" t="n">
-        <v>-34.1</v>
+        <v>-31.2</v>
       </c>
       <c r="P11" s="32" t="n">
-        <v>-16.2</v>
+        <v>-18.4</v>
       </c>
       <c r="Q11" s="32" t="n">
-        <v>-27.67</v>
+        <v>-26.2</v>
       </c>
       <c r="R11" s="23" t="inlineStr">
         <is>
@@ -2004,13 +2004,13 @@
       </c>
       <c r="N12" s="2" t="n"/>
       <c r="O12" s="32" t="n">
-        <v>-39.5</v>
+        <v>-35.6</v>
       </c>
       <c r="P12" s="32" t="n">
-        <v>-27</v>
+        <v>-23.6</v>
       </c>
       <c r="Q12" s="32" t="n">
-        <v>-34.3</v>
+        <v>-31.5</v>
       </c>
       <c r="R12" s="23" t="inlineStr">
         <is>
@@ -2115,13 +2115,13 @@
         </is>
       </c>
       <c r="O13" s="32" t="n">
-        <v>-37.2</v>
+        <v>-35.5</v>
       </c>
       <c r="P13" s="32" t="n">
-        <v>-27.2</v>
+        <v>-28.6</v>
       </c>
       <c r="Q13" s="32" t="n">
-        <v>-33.36</v>
+        <v>-32.66</v>
       </c>
       <c r="R13" s="23" t="inlineStr">
         <is>
@@ -2222,13 +2222,13 @@
       </c>
       <c r="N14" s="2" t="n"/>
       <c r="O14" s="32" t="n">
-        <v>-23.8</v>
+        <v>-23.7</v>
       </c>
       <c r="P14" s="32" t="n">
-        <v>-12.2</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="Q14" s="32" t="n">
-        <v>-19.05</v>
+        <v>-16.64</v>
       </c>
       <c r="R14" s="23" t="inlineStr">
         <is>
@@ -2318,8 +2318,12 @@
         </is>
       </c>
       <c r="N15" s="2" t="n"/>
-      <c r="O15" s="32" t="n"/>
-      <c r="P15" s="32" t="n"/>
+      <c r="O15" s="32" t="n">
+        <v>-28.8</v>
+      </c>
+      <c r="P15" s="32" t="n">
+        <v>-13.7</v>
+      </c>
       <c r="Q15" s="32" t="n"/>
       <c r="R15" s="23" t="n"/>
       <c r="S15" s="37" t="n"/>
@@ -2414,13 +2418,13 @@
       </c>
       <c r="N16" s="2" t="n"/>
       <c r="O16" s="32" t="n">
-        <v>-31.6</v>
+        <v>-31.4</v>
       </c>
       <c r="P16" s="32" t="n">
-        <v>-10.6</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="Q16" s="32" t="n">
-        <v>-25.27</v>
+        <v>-20.19</v>
       </c>
       <c r="R16" s="23" t="inlineStr">
         <is>
@@ -2590,10 +2594,10 @@
       </c>
       <c r="N18" s="2" t="n"/>
       <c r="O18" s="32" t="n">
-        <v>-37</v>
+        <v>-35</v>
       </c>
       <c r="P18" s="32" t="n">
-        <v>-23.1</v>
+        <v>-10</v>
       </c>
       <c r="Q18" s="32" t="n"/>
       <c r="R18" s="23" t="n"/>
@@ -4511,10 +4515,10 @@
       </c>
       <c r="N41" s="2" t="n"/>
       <c r="O41" s="32" t="n">
-        <v>-37.4</v>
+        <v>-34.5</v>
       </c>
       <c r="P41" s="32" t="n">
-        <v>-23.2</v>
+        <v>-16.5</v>
       </c>
       <c r="Q41" s="32" t="n"/>
       <c r="R41" s="23" t="n"/>
@@ -5478,12 +5482,8 @@
         </is>
       </c>
       <c r="N53" s="2" t="n"/>
-      <c r="O53" s="32" t="n">
-        <v>-38.5</v>
-      </c>
-      <c r="P53" s="32" t="n">
-        <v>-27.6</v>
-      </c>
+      <c r="O53" s="32" t="n"/>
+      <c r="P53" s="32" t="n"/>
       <c r="Q53" s="32" t="n"/>
       <c r="R53" s="23" t="n"/>
       <c r="S53" s="37" t="n"/>
@@ -7271,13 +7271,13 @@
       </c>
       <c r="N75" s="2" t="n"/>
       <c r="O75" s="32" t="n">
-        <v>-30.1</v>
+        <v>-28.4</v>
       </c>
       <c r="P75" s="32" t="n">
-        <v>-16.6</v>
+        <v>-14</v>
       </c>
       <c r="Q75" s="32" t="n">
-        <v>-25.64</v>
+        <v>-22.82</v>
       </c>
       <c r="R75" s="23" t="inlineStr">
         <is>
@@ -7378,13 +7378,13 @@
       </c>
       <c r="N76" s="2" t="n"/>
       <c r="O76" s="32" t="n">
-        <v>-36.5</v>
+        <v>-34.7</v>
       </c>
       <c r="P76" s="32" t="n">
-        <v>-25.1</v>
+        <v>-23.5</v>
       </c>
       <c r="Q76" s="32" t="n">
-        <v>-31.56</v>
+        <v>-30.31</v>
       </c>
       <c r="R76" s="23" t="inlineStr">
         <is>
@@ -7489,13 +7489,13 @@
         </is>
       </c>
       <c r="O77" s="32" t="n">
-        <v>-36</v>
+        <v>-32.8</v>
       </c>
       <c r="P77" s="32" t="n">
-        <v>-18.5</v>
+        <v>-21.2</v>
       </c>
       <c r="Q77" s="32" t="n">
-        <v>-28.48</v>
+        <v>-27.64</v>
       </c>
       <c r="R77" s="23" t="inlineStr">
         <is>
@@ -7596,13 +7596,13 @@
       </c>
       <c r="N78" s="2" t="n"/>
       <c r="O78" s="32" t="n">
-        <v>-32.4</v>
+        <v>-30</v>
       </c>
       <c r="P78" s="32" t="n">
-        <v>-22.9</v>
+        <v>-21.8</v>
       </c>
       <c r="Q78" s="32" t="n">
-        <v>-28.41</v>
+        <v>-26.4</v>
       </c>
       <c r="R78" s="23" t="inlineStr">
         <is>
@@ -7703,13 +7703,13 @@
         </is>
       </c>
       <c r="O79" s="32" t="n">
-        <v>-34.1</v>
+        <v>-34.2</v>
       </c>
       <c r="P79" s="32" t="n">
-        <v>-12.2</v>
+        <v>-20.2</v>
       </c>
       <c r="Q79" s="32" t="n">
-        <v>-25.89</v>
+        <v>-27.99</v>
       </c>
       <c r="R79" s="23" t="inlineStr">
         <is>
@@ -7806,13 +7806,13 @@
       </c>
       <c r="N80" s="2" t="n"/>
       <c r="O80" s="32" t="n">
-        <v>-28</v>
+        <v>-25.9</v>
       </c>
       <c r="P80" s="32" t="n">
-        <v>-14.4</v>
+        <v>-12.4</v>
       </c>
       <c r="Q80" s="32" t="n">
-        <v>-22.69</v>
+        <v>-20.76</v>
       </c>
       <c r="R80" s="23" t="inlineStr">
         <is>
@@ -7917,13 +7917,13 @@
         </is>
       </c>
       <c r="O81" s="32" t="n">
-        <v>-38.3</v>
+        <v>-32.8</v>
       </c>
       <c r="P81" s="32" t="n">
-        <v>-24</v>
+        <v>-17.2</v>
       </c>
       <c r="Q81" s="32" t="n">
-        <v>-31.67</v>
+        <v>-25.96</v>
       </c>
       <c r="R81" s="23" t="inlineStr">
         <is>
@@ -8033,13 +8033,13 @@
         </is>
       </c>
       <c r="O82" s="32" t="n">
-        <v>-35.2</v>
+        <v>-33.2</v>
       </c>
       <c r="P82" s="32" t="n">
-        <v>-17.2</v>
+        <v>-16.3</v>
       </c>
       <c r="Q82" s="32" t="n">
-        <v>-28.62</v>
+        <v>-27.31</v>
       </c>
       <c r="R82" s="23" t="inlineStr">
         <is>
@@ -8140,13 +8140,13 @@
       </c>
       <c r="N83" s="2" t="n"/>
       <c r="O83" s="32" t="n">
-        <v>-26.6</v>
+        <v>-24.5</v>
       </c>
       <c r="P83" s="32" t="n">
-        <v>-19.8</v>
+        <v>-17.1</v>
       </c>
       <c r="Q83" s="32" t="n">
-        <v>-22.59</v>
+        <v>-20.48</v>
       </c>
       <c r="R83" s="23" t="inlineStr">
         <is>
@@ -8247,13 +8247,13 @@
         </is>
       </c>
       <c r="O84" s="32" t="n">
-        <v>-23.5</v>
+        <v>-21.6</v>
       </c>
       <c r="P84" s="32" t="n">
-        <v>-13.7</v>
+        <v>-11.3</v>
       </c>
       <c r="Q84" s="32" t="n">
-        <v>-18.85</v>
+        <v>-16.02</v>
       </c>
       <c r="R84" s="23" t="inlineStr">
         <is>
@@ -8358,13 +8358,13 @@
         </is>
       </c>
       <c r="O85" s="32" t="n">
-        <v>-34.4</v>
+        <v>-35.1</v>
       </c>
       <c r="P85" s="32" t="n">
-        <v>-20</v>
+        <v>-23.4</v>
       </c>
       <c r="Q85" s="32" t="n">
-        <v>-26.61</v>
+        <v>-30.73</v>
       </c>
       <c r="R85" s="23" t="inlineStr">
         <is>
@@ -8461,13 +8461,13 @@
       </c>
       <c r="N86" s="2" t="n"/>
       <c r="O86" s="32" t="n">
-        <v>-30.7</v>
+        <v>-29.5</v>
       </c>
       <c r="P86" s="32" t="n">
-        <v>-20.2</v>
+        <v>-23.8</v>
       </c>
       <c r="Q86" s="32" t="n">
-        <v>-25.75</v>
+        <v>-26.53</v>
       </c>
       <c r="R86" s="23" t="inlineStr">
         <is>
@@ -8580,13 +8580,13 @@
         </is>
       </c>
       <c r="O87" s="32" t="n">
-        <v>-34.3</v>
+        <v>-35.6</v>
       </c>
       <c r="P87" s="32" t="n">
-        <v>-23.7</v>
+        <v>-25.4</v>
       </c>
       <c r="Q87" s="32" t="n">
-        <v>-30.2</v>
+        <v>-31.16</v>
       </c>
       <c r="R87" s="23" t="inlineStr">
         <is>
@@ -8683,13 +8683,13 @@
       </c>
       <c r="N88" s="2" t="n"/>
       <c r="O88" s="32" t="n">
-        <v>-27.7</v>
+        <v>-32</v>
       </c>
       <c r="P88" s="32" t="n">
-        <v>-16</v>
+        <v>-19.2</v>
       </c>
       <c r="Q88" s="32" t="n">
-        <v>-22.56</v>
+        <v>-26.9</v>
       </c>
       <c r="R88" s="23" t="inlineStr">
         <is>
@@ -8883,13 +8883,13 @@
         </is>
       </c>
       <c r="O90" s="32" t="n">
-        <v>-16.5</v>
+        <v>-20.3</v>
       </c>
       <c r="P90" s="32" t="n">
-        <v>-2</v>
+        <v>-3.4</v>
       </c>
       <c r="Q90" s="32" t="n">
-        <v>-8.51</v>
+        <v>-13.9</v>
       </c>
       <c r="R90" s="23" t="inlineStr">
         <is>
@@ -8982,13 +8982,13 @@
       </c>
       <c r="N91" s="2" t="n"/>
       <c r="O91" s="32" t="n">
-        <v>-9.699999999999999</v>
+        <v>-16.8</v>
       </c>
       <c r="P91" s="32" t="n">
-        <v>-6.1</v>
+        <v>-4.8</v>
       </c>
       <c r="Q91" s="32" t="n">
-        <v>-7.65</v>
+        <v>-9.66</v>
       </c>
       <c r="R91" s="23" t="inlineStr">
         <is>
@@ -9081,13 +9081,13 @@
       </c>
       <c r="N92" s="2" t="n"/>
       <c r="O92" s="32" t="n">
-        <v>-27.8</v>
+        <v>-25.5</v>
       </c>
       <c r="P92" s="32" t="n">
-        <v>-15.9</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="Q92" s="32" t="n">
-        <v>-23.46</v>
+        <v>-18.09</v>
       </c>
       <c r="R92" s="23" t="inlineStr">
         <is>
@@ -9184,13 +9184,13 @@
       </c>
       <c r="N93" s="2" t="n"/>
       <c r="O93" s="32" t="n">
-        <v>-23</v>
+        <v>-19.8</v>
       </c>
       <c r="P93" s="32" t="n">
-        <v>-9.6</v>
+        <v>-4.5</v>
       </c>
       <c r="Q93" s="32" t="n">
-        <v>-17.46</v>
+        <v>-13.7</v>
       </c>
       <c r="R93" s="23" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>-27</v>
       </c>
       <c r="P94" s="32" t="n">
-        <v>-10</v>
+        <v>-6.3</v>
       </c>
       <c r="Q94" s="32" t="n"/>
       <c r="R94" s="23" t="inlineStr">
@@ -9404,12 +9404,14 @@
       </c>
       <c r="N95" s="2" t="n"/>
       <c r="O95" s="32" t="n">
-        <v>-21</v>
+        <v>-15.4</v>
       </c>
       <c r="P95" s="32" t="n">
-        <v>-12.2</v>
-      </c>
-      <c r="Q95" s="32" t="n"/>
+        <v>-9.800000000000001</v>
+      </c>
+      <c r="Q95" s="32" t="n">
+        <v>-13.5</v>
+      </c>
       <c r="R95" s="23" t="inlineStr">
         <is>
           <t>Y</t>
@@ -9521,10 +9523,10 @@
         </is>
       </c>
       <c r="O96" s="32" t="n">
-        <v>-23.5</v>
+        <v>-27.7</v>
       </c>
       <c r="P96" s="32" t="n">
-        <v>-12.5</v>
+        <v>-8.5</v>
       </c>
       <c r="Q96" s="32" t="n"/>
       <c r="R96" s="23" t="inlineStr">
@@ -9630,13 +9632,13 @@
       </c>
       <c r="N97" s="2" t="n"/>
       <c r="O97" s="32" t="n">
-        <v>-22.6</v>
+        <v>-21.7</v>
       </c>
       <c r="P97" s="32" t="n">
-        <v>-12.2</v>
+        <v>-11.1</v>
       </c>
       <c r="Q97" s="32" t="n">
-        <v>-17.74</v>
+        <v>-15.5</v>
       </c>
       <c r="R97" s="23" t="inlineStr">
         <is>
@@ -9737,10 +9739,10 @@
       </c>
       <c r="N98" s="2" t="n"/>
       <c r="O98" s="32" t="n">
-        <v>-33</v>
+        <v>-30.9</v>
       </c>
       <c r="P98" s="32" t="n">
-        <v>-19.7</v>
+        <v>-13.8</v>
       </c>
       <c r="Q98" s="32" t="n"/>
       <c r="R98" s="23" t="inlineStr">
@@ -9846,13 +9848,13 @@
       </c>
       <c r="N99" s="2" t="n"/>
       <c r="O99" s="32" t="n">
-        <v>-34.1</v>
+        <v>-30.1</v>
       </c>
       <c r="P99" s="32" t="n">
-        <v>-20.1</v>
+        <v>-10.1</v>
       </c>
       <c r="Q99" s="32" t="n">
-        <v>-27.41</v>
+        <v>-14.51</v>
       </c>
       <c r="R99" s="23" t="inlineStr">
         <is>
@@ -10045,12 +10047,8 @@
         </is>
       </c>
       <c r="N101" s="2" t="n"/>
-      <c r="O101" s="32" t="n">
-        <v>-36.8</v>
-      </c>
-      <c r="P101" s="32" t="n">
-        <v>-11.2</v>
-      </c>
+      <c r="O101" s="32" t="n"/>
+      <c r="P101" s="32" t="n"/>
       <c r="Q101" s="32" t="n"/>
       <c r="R101" s="23" t="inlineStr">
         <is>
@@ -10159,13 +10157,13 @@
       </c>
       <c r="N102" s="2" t="n"/>
       <c r="O102" s="32" t="n">
-        <v>-29</v>
+        <v>-27.8</v>
       </c>
       <c r="P102" s="32" t="n">
-        <v>-12.4</v>
+        <v>-13.1</v>
       </c>
       <c r="Q102" s="32" t="n">
-        <v>-20.29</v>
+        <v>-20.14</v>
       </c>
       <c r="R102" s="23" t="inlineStr">
         <is>
@@ -10270,10 +10268,10 @@
       </c>
       <c r="N103" s="2" t="n"/>
       <c r="O103" s="32" t="n">
-        <v>-33</v>
+        <v>-28.9</v>
       </c>
       <c r="P103" s="32" t="n">
-        <v>-13.4</v>
+        <v>-13.7</v>
       </c>
       <c r="Q103" s="32" t="n"/>
       <c r="R103" s="23" t="inlineStr">
@@ -10371,10 +10369,10 @@
       </c>
       <c r="N104" s="2" t="n"/>
       <c r="O104" s="32" t="n">
-        <v>-36.9</v>
+        <v>-33.5</v>
       </c>
       <c r="P104" s="32" t="n">
-        <v>-19.4</v>
+        <v>-18.4</v>
       </c>
       <c r="Q104" s="32" t="n"/>
       <c r="R104" s="23" t="inlineStr">
@@ -10488,13 +10486,13 @@
         </is>
       </c>
       <c r="O105" s="32" t="n">
-        <v>-37.5</v>
+        <v>-35.3</v>
       </c>
       <c r="P105" s="32" t="n">
-        <v>-19.3</v>
+        <v>-18.1</v>
       </c>
       <c r="Q105" s="32" t="n">
-        <v>-28.69</v>
+        <v>-28.88</v>
       </c>
       <c r="R105" s="23" t="inlineStr">
         <is>
@@ -10603,10 +10601,10 @@
         </is>
       </c>
       <c r="O106" s="32" t="n">
-        <v>-34.5</v>
+        <v>-31.9</v>
       </c>
       <c r="P106" s="32" t="n">
-        <v>-22.5</v>
+        <v>-21.7</v>
       </c>
       <c r="Q106" s="32" t="n"/>
       <c r="R106" s="23" t="inlineStr">
@@ -10809,13 +10807,13 @@
       </c>
       <c r="N108" s="2" t="n"/>
       <c r="O108" s="32" t="n">
-        <v>-30.5</v>
+        <v>-29.3</v>
       </c>
       <c r="P108" s="32" t="n">
-        <v>-18.6</v>
+        <v>-19.2</v>
       </c>
       <c r="Q108" s="32" t="n">
-        <v>-24.64</v>
+        <v>-25.14</v>
       </c>
       <c r="R108" s="23" t="inlineStr">
         <is>
@@ -11005,10 +11003,10 @@
       </c>
       <c r="N110" s="2" t="n"/>
       <c r="O110" s="32" t="n">
-        <v>-38.1</v>
+        <v>-33.9</v>
       </c>
       <c r="P110" s="32" t="n">
-        <v>-19.7</v>
+        <v>-20.7</v>
       </c>
       <c r="Q110" s="32" t="n"/>
       <c r="R110" s="23" t="inlineStr">
@@ -11114,13 +11112,13 @@
       </c>
       <c r="N111" s="2" t="n"/>
       <c r="O111" s="32" t="n">
-        <v>-34.7</v>
+        <v>-29.7</v>
       </c>
       <c r="P111" s="32" t="n">
-        <v>-15.6</v>
+        <v>-13.7</v>
       </c>
       <c r="Q111" s="32" t="n">
-        <v>-27.94</v>
+        <v>-23.66</v>
       </c>
       <c r="R111" s="23" t="inlineStr">
         <is>
@@ -11217,10 +11215,10 @@
       </c>
       <c r="N112" s="2" t="n"/>
       <c r="O112" s="32" t="n">
-        <v>-26.9</v>
+        <v>-22.8</v>
       </c>
       <c r="P112" s="32" t="n">
-        <v>-1.9</v>
+        <v>2.1</v>
       </c>
       <c r="Q112" s="32" t="n"/>
       <c r="R112" s="23" t="inlineStr">
@@ -11314,10 +11312,10 @@
       </c>
       <c r="N113" s="2" t="n"/>
       <c r="O113" s="32" t="n">
-        <v>-15.7</v>
+        <v>-18.8</v>
       </c>
       <c r="P113" s="32" t="n">
-        <v>-4.4</v>
+        <v>-7.3</v>
       </c>
       <c r="Q113" s="32" t="n"/>
       <c r="R113" s="23" t="inlineStr">
@@ -11419,10 +11417,10 @@
         </is>
       </c>
       <c r="O114" s="32" t="n">
-        <v>-28.4</v>
+        <v>-22.6</v>
       </c>
       <c r="P114" s="32" t="n">
-        <v>-1.4</v>
+        <v>-4.4</v>
       </c>
       <c r="Q114" s="32" t="n"/>
       <c r="R114" s="23" t="inlineStr">
@@ -11532,10 +11530,10 @@
         </is>
       </c>
       <c r="O115" s="32" t="n">
-        <v>-21.4</v>
+        <v>-20.1</v>
       </c>
       <c r="P115" s="32" t="n">
-        <v>-4</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="Q115" s="32" t="n"/>
       <c r="R115" s="23" t="inlineStr">
@@ -11641,13 +11639,13 @@
       </c>
       <c r="N116" s="2" t="n"/>
       <c r="O116" s="32" t="n">
-        <v>-24.3</v>
+        <v>-22</v>
       </c>
       <c r="P116" s="32" t="n">
-        <v>-8.800000000000001</v>
+        <v>-5.7</v>
       </c>
       <c r="Q116" s="32" t="n">
-        <v>-17.56</v>
+        <v>-15.21</v>
       </c>
       <c r="R116" s="23" t="inlineStr">
         <is>
@@ -11744,10 +11742,10 @@
       </c>
       <c r="N117" s="2" t="n"/>
       <c r="O117" s="32" t="n">
-        <v>-21.5</v>
+        <v>-20.3</v>
       </c>
       <c r="P117" s="32" t="n">
-        <v>-7.7</v>
+        <v>-6.7</v>
       </c>
       <c r="Q117" s="32" t="n"/>
       <c r="R117" s="23" t="inlineStr">
@@ -11849,10 +11847,10 @@
         </is>
       </c>
       <c r="O118" s="32" t="n">
-        <v>-26.2</v>
+        <v>-24.4</v>
       </c>
       <c r="P118" s="32" t="n">
-        <v>-10.3</v>
+        <v>-7.7</v>
       </c>
       <c r="Q118" s="32" t="n"/>
       <c r="R118" s="23" t="inlineStr">
@@ -11958,13 +11956,13 @@
       </c>
       <c r="N119" s="2" t="n"/>
       <c r="O119" s="32" t="n">
-        <v>-14</v>
+        <v>-14.2</v>
       </c>
       <c r="P119" s="32" t="n">
-        <v>-2.4</v>
+        <v>-2.6</v>
       </c>
       <c r="Q119" s="32" t="n">
-        <v>-10.07</v>
+        <v>-9.859999999999999</v>
       </c>
       <c r="R119" s="23" t="inlineStr">
         <is>
@@ -12073,13 +12071,13 @@
       </c>
       <c r="N120" s="2" t="n"/>
       <c r="O120" s="32" t="n">
-        <v>-8.1</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="P120" s="32" t="n">
-        <v>-0.5</v>
+        <v>-1.7</v>
       </c>
       <c r="Q120" s="32" t="n">
-        <v>-4.39</v>
+        <v>-5.75</v>
       </c>
       <c r="R120" s="23" t="inlineStr">
         <is>
@@ -12180,13 +12178,13 @@
       </c>
       <c r="N121" s="2" t="n"/>
       <c r="O121" s="32" t="n">
-        <v>-12.5</v>
+        <v>-13.2</v>
       </c>
       <c r="P121" s="32" t="n">
-        <v>-7.6</v>
+        <v>-7</v>
       </c>
       <c r="Q121" s="32" t="n">
-        <v>-10.61</v>
+        <v>-10.72</v>
       </c>
       <c r="R121" s="23" t="inlineStr">
         <is>
@@ -12298,7 +12296,7 @@
         <v>-26.8</v>
       </c>
       <c r="P122" s="32" t="n">
-        <v>-16.4</v>
+        <v>-13.7</v>
       </c>
       <c r="Q122" s="32" t="n"/>
       <c r="R122" s="23" t="inlineStr">
@@ -12505,13 +12503,13 @@
       </c>
       <c r="N124" s="2" t="n"/>
       <c r="O124" s="32" t="n">
-        <v>-17.9</v>
+        <v>-15.5</v>
       </c>
       <c r="P124" s="32" t="n">
-        <v>-4.7</v>
+        <v>-3.1</v>
       </c>
       <c r="Q124" s="32" t="n">
-        <v>-11.95</v>
+        <v>-9.68</v>
       </c>
       <c r="R124" s="23" t="inlineStr">
         <is>
@@ -12620,13 +12618,13 @@
       </c>
       <c r="N125" s="2" t="n"/>
       <c r="O125" s="32" t="n">
-        <v>-11.4</v>
+        <v>-9</v>
       </c>
       <c r="P125" s="32" t="n">
-        <v>3.3</v>
+        <v>8.5</v>
       </c>
       <c r="Q125" s="32" t="n">
-        <v>-4.74</v>
+        <v>-1.75</v>
       </c>
       <c r="R125" s="23" t="inlineStr">
         <is>
@@ -12711,10 +12709,10 @@
       </c>
       <c r="N126" s="2" t="n"/>
       <c r="O126" s="32" t="n">
-        <v>-6.8</v>
+        <v>-3.4</v>
       </c>
       <c r="P126" s="32" t="n">
-        <v>3.8</v>
+        <v>6.8</v>
       </c>
       <c r="Q126" s="32" t="n"/>
       <c r="R126" s="23" t="inlineStr">
@@ -12812,13 +12810,13 @@
       </c>
       <c r="N127" s="2" t="n"/>
       <c r="O127" s="32" t="n">
-        <v>-13</v>
+        <v>-4.8</v>
       </c>
       <c r="P127" s="32" t="n">
-        <v>0.6</v>
+        <v>-0.7</v>
       </c>
       <c r="Q127" s="32" t="n">
-        <v>-6.59</v>
+        <v>-2.99</v>
       </c>
       <c r="R127" s="23" t="inlineStr">
         <is>
@@ -12923,10 +12921,10 @@
       </c>
       <c r="N128" s="2" t="n"/>
       <c r="O128" s="32" t="n">
-        <v>-6.9</v>
+        <v>-6.7</v>
       </c>
       <c r="P128" s="32" t="n">
-        <v>4.5</v>
+        <v>6.6</v>
       </c>
       <c r="Q128" s="32" t="n"/>
       <c r="R128" s="23" t="inlineStr">
@@ -13024,13 +13022,13 @@
       </c>
       <c r="N129" s="2" t="n"/>
       <c r="O129" s="32" t="n">
-        <v>-12.1</v>
+        <v>-12.3</v>
       </c>
       <c r="P129" s="32" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="Q129" s="32" t="n">
-        <v>-6.48</v>
+        <v>-5.81</v>
       </c>
       <c r="R129" s="23" t="inlineStr">
         <is>
@@ -13135,13 +13133,13 @@
       </c>
       <c r="N130" s="2" t="n"/>
       <c r="O130" s="32" t="n">
-        <v>-11.1</v>
+        <v>-9.5</v>
       </c>
       <c r="P130" s="32" t="n">
-        <v>-1.1</v>
+        <v>-2.1</v>
       </c>
       <c r="Q130" s="32" t="n">
-        <v>-6.85</v>
+        <v>-6.79</v>
       </c>
       <c r="R130" s="23" t="inlineStr">
         <is>
@@ -13246,13 +13244,13 @@
       </c>
       <c r="N131" s="2" t="n"/>
       <c r="O131" s="32" t="n">
-        <v>-6.5</v>
+        <v>-0.3</v>
       </c>
       <c r="P131" s="32" t="n">
-        <v>4.1</v>
+        <v>7.9</v>
       </c>
       <c r="Q131" s="32" t="n">
-        <v>-1.41</v>
+        <v>2.44</v>
       </c>
       <c r="R131" s="23" t="inlineStr">
         <is>
@@ -13353,13 +13351,13 @@
       </c>
       <c r="N132" s="2" t="n"/>
       <c r="O132" s="32" t="n">
-        <v>-4.8</v>
+        <v>-3.7</v>
       </c>
       <c r="P132" s="32" t="n">
-        <v>5.4</v>
+        <v>8</v>
       </c>
       <c r="Q132" s="32" t="n">
-        <v>-0.14</v>
+        <v>1.72</v>
       </c>
       <c r="R132" s="23" t="inlineStr">
         <is>
@@ -13460,13 +13458,13 @@
       </c>
       <c r="N133" s="2" t="n"/>
       <c r="O133" s="32" t="n">
-        <v>-4.5</v>
+        <v>-1.7</v>
       </c>
       <c r="P133" s="32" t="n">
-        <v>-0.8</v>
+        <v>1.2</v>
       </c>
       <c r="Q133" s="32" t="n">
-        <v>-2.59</v>
+        <v>-0.38</v>
       </c>
       <c r="R133" s="23" t="inlineStr">
         <is>
@@ -13571,13 +13569,13 @@
       </c>
       <c r="N134" s="2" t="n"/>
       <c r="O134" s="32" t="n">
-        <v>-1.3</v>
+        <v>2.7</v>
       </c>
       <c r="P134" s="32" t="n">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="Q134" s="32" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="R134" s="23" t="inlineStr">
         <is>
@@ -13674,13 +13672,13 @@
       </c>
       <c r="N135" s="2" t="n"/>
       <c r="O135" s="32" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="P135" s="32" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="Q135" s="32" t="n">
-        <v>3.05</v>
+        <v>3.43</v>
       </c>
       <c r="R135" s="23" t="inlineStr">
         <is>
@@ -13781,13 +13779,13 @@
       </c>
       <c r="N136" s="2" t="n"/>
       <c r="O136" s="32" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="P136" s="32" t="n">
-        <v>7.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Q136" s="32" t="n">
-        <v>4.25</v>
+        <v>4.54</v>
       </c>
       <c r="R136" s="23" t="inlineStr">
         <is>
@@ -13888,13 +13886,13 @@
       </c>
       <c r="N137" s="2" t="n"/>
       <c r="O137" s="32" t="n">
-        <v>-2.7</v>
+        <v>-2.2</v>
       </c>
       <c r="P137" s="32" t="n">
-        <v>5.6</v>
+        <v>7.7</v>
       </c>
       <c r="Q137" s="32" t="n">
-        <v>1.45</v>
+        <v>2.64</v>
       </c>
       <c r="R137" s="23" t="inlineStr">
         <is>
@@ -13995,10 +13993,10 @@
       </c>
       <c r="N138" s="2" t="n"/>
       <c r="O138" s="32" t="n">
-        <v>-1.8</v>
+        <v>-6</v>
       </c>
       <c r="P138" s="32" t="n">
-        <v>4.4</v>
+        <v>8</v>
       </c>
       <c r="Q138" s="32" t="n"/>
       <c r="R138" s="23" t="inlineStr">
@@ -14100,13 +14098,13 @@
       </c>
       <c r="N139" s="2" t="n"/>
       <c r="O139" s="32" t="n">
-        <v>-1.1</v>
+        <v>-5.3</v>
       </c>
       <c r="P139" s="32" t="n">
-        <v>4.2</v>
+        <v>7.6</v>
       </c>
       <c r="Q139" s="32" t="n">
-        <v>1.41</v>
+        <v>0.25</v>
       </c>
       <c r="R139" s="23" t="inlineStr">
         <is>
@@ -14207,13 +14205,13 @@
       </c>
       <c r="N140" s="2" t="n"/>
       <c r="O140" s="32" t="n">
-        <v>0.6</v>
+        <v>-2.4</v>
       </c>
       <c r="P140" s="32" t="n">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="Q140" s="32" t="n">
-        <v>3.17</v>
+        <v>1.95</v>
       </c>
       <c r="R140" s="23" t="inlineStr">
         <is>
@@ -14314,13 +14312,13 @@
       </c>
       <c r="N141" s="2" t="n"/>
       <c r="O141" s="32" t="n">
-        <v>3.3</v>
+        <v>-2.4</v>
       </c>
       <c r="P141" s="32" t="n">
-        <v>7.3</v>
+        <v>10.4</v>
       </c>
       <c r="Q141" s="32" t="n">
-        <v>4.47</v>
+        <v>2.98</v>
       </c>
       <c r="R141" s="23" t="inlineStr">
         <is>
@@ -14417,13 +14415,13 @@
       </c>
       <c r="N142" s="2" t="n"/>
       <c r="O142" s="32" t="n">
-        <v>8.800000000000001</v>
+        <v>5.4</v>
       </c>
       <c r="P142" s="32" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Q142" s="32" t="n">
-        <v>11.2</v>
+        <v>9.18</v>
       </c>
       <c r="R142" s="23" t="inlineStr">
         <is>
@@ -14524,13 +14522,13 @@
       </c>
       <c r="N143" s="2" t="n"/>
       <c r="O143" s="32" t="n">
-        <v>8.199999999999999</v>
+        <v>4.8</v>
       </c>
       <c r="P143" s="32" t="n">
-        <v>17.3</v>
+        <v>17.1</v>
       </c>
       <c r="Q143" s="32" t="n">
-        <v>12.35</v>
+        <v>9.81</v>
       </c>
       <c r="R143" s="23" t="inlineStr">
         <is>
@@ -14631,13 +14629,13 @@
       </c>
       <c r="N144" s="2" t="n"/>
       <c r="O144" s="32" t="n">
-        <v>16.8</v>
+        <v>16.4</v>
       </c>
       <c r="P144" s="32" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="Q144" s="32" t="n">
-        <v>18.09</v>
+        <v>17.88</v>
       </c>
       <c r="R144" s="23" t="inlineStr">
         <is>
@@ -14734,13 +14732,13 @@
       </c>
       <c r="N145" s="2" t="n"/>
       <c r="O145" s="32" t="n">
-        <v>16.2</v>
+        <v>14.9</v>
       </c>
       <c r="P145" s="32" t="n">
-        <v>21.2</v>
+        <v>20.4</v>
       </c>
       <c r="Q145" s="32" t="n">
-        <v>18.11</v>
+        <v>17.06</v>
       </c>
       <c r="R145" s="23" t="inlineStr">
         <is>
@@ -14833,13 +14831,13 @@
       </c>
       <c r="N146" s="2" t="n"/>
       <c r="O146" s="32" t="n">
-        <v>17.9</v>
+        <v>16.9</v>
       </c>
       <c r="P146" s="32" t="n">
-        <v>24.8</v>
+        <v>25.2</v>
       </c>
       <c r="Q146" s="32" t="n">
-        <v>20.91</v>
+        <v>20.25</v>
       </c>
       <c r="R146" s="23" t="inlineStr">
         <is>
@@ -14932,13 +14930,13 @@
       </c>
       <c r="N147" s="2" t="n"/>
       <c r="O147" s="32" t="n">
-        <v>9.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="P147" s="32" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q147" s="32" t="n">
-        <v>10.64</v>
+        <v>11.03</v>
       </c>
       <c r="R147" s="23" t="inlineStr">
         <is>
@@ -15039,10 +15037,10 @@
       </c>
       <c r="N148" s="2" t="n"/>
       <c r="O148" s="32" t="n">
-        <v>14.5</v>
+        <v>13.7</v>
       </c>
       <c r="P148" s="32" t="n">
-        <v>25</v>
+        <v>18.5</v>
       </c>
       <c r="Q148" s="32" t="n"/>
       <c r="R148" s="23" t="inlineStr">
@@ -15140,13 +15138,13 @@
       </c>
       <c r="N149" s="2" t="n"/>
       <c r="O149" s="32" t="n">
-        <v>4.3</v>
+        <v>6.9</v>
       </c>
       <c r="P149" s="32" t="n">
-        <v>16.9</v>
+        <v>15.5</v>
       </c>
       <c r="Q149" s="32" t="n">
-        <v>9.949999999999999</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="R149" s="23" t="inlineStr">
         <is>
@@ -15247,13 +15245,13 @@
       </c>
       <c r="N150" s="2" t="n"/>
       <c r="O150" s="32" t="n">
-        <v>-0.8</v>
+        <v>-1.5</v>
       </c>
       <c r="P150" s="32" t="n">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="Q150" s="32" t="n">
-        <v>0.45</v>
+        <v>0.23</v>
       </c>
       <c r="R150" s="23" t="inlineStr">
         <is>
@@ -15354,13 +15352,13 @@
       </c>
       <c r="N151" s="2" t="n"/>
       <c r="O151" s="32" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="P151" s="32" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="Q151" s="32" t="n">
-        <v>8.039999999999999</v>
+        <v>7.54</v>
       </c>
       <c r="R151" s="23" t="inlineStr">
         <is>
@@ -15546,13 +15544,13 @@
       </c>
       <c r="N153" s="2" t="n"/>
       <c r="O153" s="32" t="n">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="P153" s="32" t="n">
-        <v>7.2</v>
+        <v>5.1</v>
       </c>
       <c r="Q153" s="32" t="n">
-        <v>5.7</v>
+        <v>4.35</v>
       </c>
       <c r="R153" s="23" t="inlineStr">
         <is>
@@ -15660,10 +15658,10 @@
         <v>-6.5</v>
       </c>
       <c r="P154" s="32" t="n">
-        <v>6.9</v>
+        <v>4.8</v>
       </c>
       <c r="Q154" s="32" t="n">
-        <v>-0.84</v>
+        <v>-0.06</v>
       </c>
       <c r="R154" s="23" t="inlineStr">
         <is>
@@ -15845,10 +15843,10 @@
       </c>
       <c r="N156" s="2" t="n"/>
       <c r="O156" s="32" t="n">
-        <v>-24.3</v>
+        <v>-24</v>
       </c>
       <c r="P156" s="32" t="n">
-        <v>-1.6</v>
+        <v>1.1</v>
       </c>
       <c r="Q156" s="32" t="n"/>
       <c r="R156" s="23" t="inlineStr">
@@ -15942,10 +15940,10 @@
       </c>
       <c r="N157" s="2" t="n"/>
       <c r="O157" s="32" t="n">
-        <v>0.6</v>
+        <v>-0.9</v>
       </c>
       <c r="P157" s="32" t="n">
-        <v>4.9</v>
+        <v>7.6</v>
       </c>
       <c r="Q157" s="32" t="n"/>
       <c r="R157" s="23" t="inlineStr">
@@ -16302,10 +16300,10 @@
       </c>
       <c r="N161" s="2" t="n"/>
       <c r="O161" s="32" t="n">
-        <v>-4.3</v>
+        <v>-4.1</v>
       </c>
       <c r="P161" s="32" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="Q161" s="32" t="n"/>
       <c r="R161" s="23" t="inlineStr">
@@ -16406,12 +16404,8 @@
           <t>⚡</t>
         </is>
       </c>
-      <c r="O162" s="32" t="n">
-        <v>-37.8</v>
-      </c>
-      <c r="P162" s="32" t="n">
-        <v>-11.3</v>
-      </c>
+      <c r="O162" s="32" t="n"/>
+      <c r="P162" s="32" t="n"/>
       <c r="Q162" s="32" t="n"/>
       <c r="R162" s="23" t="inlineStr">
         <is>
@@ -16511,12 +16505,8 @@
           <t>▼</t>
         </is>
       </c>
-      <c r="O163" s="32" t="n">
-        <v>-28.1</v>
-      </c>
-      <c r="P163" s="32" t="n">
-        <v>-14.5</v>
-      </c>
+      <c r="O163" s="32" t="n"/>
+      <c r="P163" s="32" t="n"/>
       <c r="Q163" s="32" t="n"/>
       <c r="R163" s="23" t="inlineStr">
         <is>
@@ -16718,10 +16708,10 @@
         </is>
       </c>
       <c r="O165" s="32" t="n">
-        <v>-42</v>
+        <v>-36.8</v>
       </c>
       <c r="P165" s="32" t="n">
-        <v>-21.9</v>
+        <v>-21.7</v>
       </c>
       <c r="Q165" s="32" t="n"/>
       <c r="R165" s="23" t="inlineStr">
@@ -17506,10 +17496,10 @@
       </c>
       <c r="N173" s="2" t="n"/>
       <c r="O173" s="32" t="n">
-        <v>-33.7</v>
+        <v>-25.3</v>
       </c>
       <c r="P173" s="32" t="n">
-        <v>-8.6</v>
+        <v>-4.1</v>
       </c>
       <c r="Q173" s="32" t="n"/>
       <c r="R173" s="23" t="inlineStr">
@@ -17797,10 +17787,10 @@
       </c>
       <c r="N176" s="2" t="n"/>
       <c r="O176" s="32" t="n">
-        <v>-12.2</v>
+        <v>-6.1</v>
       </c>
       <c r="P176" s="32" t="n">
-        <v>-6</v>
+        <v>4.5</v>
       </c>
       <c r="Q176" s="32" t="n"/>
       <c r="R176" s="23" t="inlineStr">
@@ -17886,10 +17876,10 @@
       </c>
       <c r="N177" s="2" t="n"/>
       <c r="O177" s="32" t="n">
-        <v>-26.8</v>
+        <v>-22.6</v>
       </c>
       <c r="P177" s="32" t="n">
-        <v>-22.3</v>
+        <v>-13.9</v>
       </c>
       <c r="Q177" s="32" t="n"/>
       <c r="R177" s="23" t="inlineStr">
@@ -18699,10 +18689,10 @@
         <v>-50.8</v>
       </c>
       <c r="P186" s="32" t="n">
-        <v>-45.5</v>
+        <v>-46.9</v>
       </c>
       <c r="Q186" s="32" t="n">
-        <v>-47.52</v>
+        <v>-49.25</v>
       </c>
       <c r="R186" s="23" t="inlineStr">
         <is>
@@ -18796,13 +18786,13 @@
       </c>
       <c r="N187" s="2" t="n"/>
       <c r="O187" s="32" t="n">
-        <v>-50.2</v>
+        <v>-49.1</v>
       </c>
       <c r="P187" s="32" t="n">
         <v>-44</v>
       </c>
       <c r="Q187" s="32" t="n">
-        <v>-46.5</v>
+        <v>-46.79</v>
       </c>
       <c r="R187" s="23" t="inlineStr">
         <is>
@@ -18891,13 +18881,13 @@
       </c>
       <c r="N188" s="2" t="n"/>
       <c r="O188" s="32" t="n">
-        <v>-48.1</v>
+        <v>-45.1</v>
       </c>
       <c r="P188" s="32" t="n">
-        <v>-42.2</v>
+        <v>-43</v>
       </c>
       <c r="Q188" s="32" t="n">
-        <v>-45.49</v>
+        <v>-44.23</v>
       </c>
       <c r="R188" s="23" t="inlineStr">
         <is>
@@ -19075,13 +19065,13 @@
       </c>
       <c r="N190" s="2" t="n"/>
       <c r="O190" s="32" t="n">
-        <v>-45.5</v>
+        <v>-42.2</v>
       </c>
       <c r="P190" s="32" t="n">
-        <v>-36.2</v>
+        <v>-34.7</v>
       </c>
       <c r="Q190" s="32" t="n">
-        <v>-40.24</v>
+        <v>-38.41</v>
       </c>
       <c r="R190" s="23" t="inlineStr">
         <is>
@@ -19170,13 +19160,13 @@
       </c>
       <c r="N191" s="2" t="n"/>
       <c r="O191" s="32" t="n">
-        <v>-49.5</v>
+        <v>-48.7</v>
       </c>
       <c r="P191" s="32" t="n">
-        <v>-41.7</v>
+        <v>-43.3</v>
       </c>
       <c r="Q191" s="32" t="n">
-        <v>-44.6</v>
+        <v>-46.64</v>
       </c>
       <c r="R191" s="23" t="inlineStr">
         <is>
@@ -19261,13 +19251,13 @@
       </c>
       <c r="N192" s="2" t="n"/>
       <c r="O192" s="32" t="n">
-        <v>-43.8</v>
+        <v>-40.5</v>
       </c>
       <c r="P192" s="32" t="n">
-        <v>-34.8</v>
+        <v>-31.9</v>
       </c>
       <c r="Q192" s="32" t="n">
-        <v>-37</v>
+        <v>-34.98</v>
       </c>
       <c r="R192" s="23" t="inlineStr">
         <is>
@@ -19357,13 +19347,13 @@
       </c>
       <c r="N193" s="2" t="n"/>
       <c r="O193" s="32" t="n">
+        <v>-34.5</v>
+      </c>
+      <c r="P193" s="32" t="n">
         <v>-28.1</v>
       </c>
-      <c r="P193" s="32" t="n">
-        <v>-24.3</v>
-      </c>
       <c r="Q193" s="32" t="n">
-        <v>-26.2</v>
+        <v>-32.2</v>
       </c>
       <c r="R193" s="23" t="inlineStr">
         <is>
@@ -19456,10 +19446,10 @@
       </c>
       <c r="N194" s="2" t="n"/>
       <c r="O194" s="32" t="n">
-        <v>-39.7</v>
+        <v>-42.6</v>
       </c>
       <c r="P194" s="32" t="n">
-        <v>-16.6</v>
+        <v>-29.6</v>
       </c>
       <c r="Q194" s="32" t="n"/>
       <c r="R194" s="23" t="inlineStr">
@@ -19549,13 +19539,13 @@
       </c>
       <c r="N195" s="2" t="n"/>
       <c r="O195" s="32" t="n">
-        <v>-45.1</v>
+        <v>-35.2</v>
       </c>
       <c r="P195" s="32" t="n">
         <v>-30.5</v>
       </c>
       <c r="Q195" s="32" t="n">
-        <v>-37.59</v>
+        <v>-33.91</v>
       </c>
       <c r="R195" s="23" t="inlineStr">
         <is>
@@ -19648,13 +19638,13 @@
       </c>
       <c r="N196" s="2" t="n"/>
       <c r="O196" s="32" t="n">
-        <v>-51.4</v>
+        <v>-48.4</v>
       </c>
       <c r="P196" s="32" t="n">
-        <v>-46.8</v>
+        <v>-36.3</v>
       </c>
       <c r="Q196" s="32" t="n">
-        <v>-49.66</v>
+        <v>-43.18</v>
       </c>
       <c r="R196" s="23" t="inlineStr">
         <is>
@@ -19746,10 +19736,10 @@
         <v>-39.9</v>
       </c>
       <c r="P197" s="32" t="n">
-        <v>-35.3</v>
+        <v>-30.5</v>
       </c>
       <c r="Q197" s="32" t="n">
-        <v>-38.32</v>
+        <v>-32.61</v>
       </c>
       <c r="R197" s="23" t="inlineStr">
         <is>
@@ -20011,12 +20001,8 @@
         </is>
       </c>
       <c r="N200" s="2" t="n"/>
-      <c r="O200" s="32" t="n">
-        <v>-34.7</v>
-      </c>
-      <c r="P200" s="32" t="n">
-        <v>-14</v>
-      </c>
+      <c r="O200" s="32" t="n"/>
+      <c r="P200" s="32" t="n"/>
       <c r="Q200" s="32" t="n"/>
       <c r="R200" s="23" t="inlineStr">
         <is>
@@ -20108,8 +20094,12 @@
         </is>
       </c>
       <c r="N201" s="2" t="n"/>
-      <c r="O201" s="32" t="n"/>
-      <c r="P201" s="32" t="n"/>
+      <c r="O201" s="32" t="n">
+        <v>-36.8</v>
+      </c>
+      <c r="P201" s="32" t="n">
+        <v>-18.7</v>
+      </c>
       <c r="Q201" s="32" t="n"/>
       <c r="R201" s="23" t="inlineStr">
         <is>
@@ -21086,10 +21076,10 @@
       </c>
       <c r="N212" s="2" t="n"/>
       <c r="O212" s="32" t="n">
-        <v>-36.3</v>
+        <v>-35.2</v>
       </c>
       <c r="P212" s="32" t="n">
-        <v>-25.2</v>
+        <v>-25.1</v>
       </c>
       <c r="Q212" s="32" t="n"/>
       <c r="R212" s="23" t="inlineStr">
@@ -21171,13 +21161,13 @@
       </c>
       <c r="N213" s="2" t="n"/>
       <c r="O213" s="32" t="n">
-        <v>-13.9</v>
+        <v>-6.9</v>
       </c>
       <c r="P213" s="32" t="n">
-        <v>-6.5</v>
+        <v>-1.1</v>
       </c>
       <c r="Q213" s="32" t="n">
-        <v>-10.01</v>
+        <v>-3.41</v>
       </c>
       <c r="R213" s="23" t="inlineStr">
         <is>
@@ -21274,13 +21264,13 @@
       </c>
       <c r="N214" s="2" t="n"/>
       <c r="O214" s="32" t="n">
-        <v>-15.4</v>
+        <v>-11.1</v>
       </c>
       <c r="P214" s="32" t="n">
-        <v>-9</v>
+        <v>-6.5</v>
       </c>
       <c r="Q214" s="32" t="n">
-        <v>-13.25</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="R214" s="23" t="inlineStr">
         <is>
@@ -21381,13 +21371,13 @@
       </c>
       <c r="N215" s="2" t="n"/>
       <c r="O215" s="32" t="n">
-        <v>-27.5</v>
+        <v>-16.7</v>
       </c>
       <c r="P215" s="32" t="n">
-        <v>-16.6</v>
+        <v>-4.9</v>
       </c>
       <c r="Q215" s="32" t="n">
-        <v>-21.65</v>
+        <v>-12.1</v>
       </c>
       <c r="R215" s="23" t="inlineStr">
         <is>
@@ -21488,13 +21478,13 @@
       </c>
       <c r="N216" s="2" t="n"/>
       <c r="O216" s="32" t="n">
-        <v>-29</v>
+        <v>-23.4</v>
       </c>
       <c r="P216" s="32" t="n">
-        <v>-17.9</v>
+        <v>-12.4</v>
       </c>
       <c r="Q216" s="32" t="n">
-        <v>-24.39</v>
+        <v>-19.35</v>
       </c>
       <c r="R216" s="23" t="inlineStr">
         <is>
@@ -21591,13 +21581,13 @@
       </c>
       <c r="N217" s="2" t="n"/>
       <c r="O217" s="32" t="n">
-        <v>-17.8</v>
+        <v>-18.2</v>
       </c>
       <c r="P217" s="32" t="n">
-        <v>-7</v>
+        <v>-11.2</v>
       </c>
       <c r="Q217" s="32" t="n">
-        <v>-11.59</v>
+        <v>-14.11</v>
       </c>
       <c r="R217" s="23" t="inlineStr">
         <is>
@@ -21694,13 +21684,13 @@
       </c>
       <c r="N218" s="2" t="n"/>
       <c r="O218" s="32" t="n">
+        <v>-19.1</v>
+      </c>
+      <c r="P218" s="32" t="n">
         <v>-10.6</v>
       </c>
-      <c r="P218" s="32" t="n">
-        <v>1.6</v>
-      </c>
       <c r="Q218" s="32" t="n">
-        <v>-3.67</v>
+        <v>-14.99</v>
       </c>
       <c r="R218" s="23" t="inlineStr">
         <is>
@@ -21797,13 +21787,13 @@
       </c>
       <c r="N219" s="2" t="n"/>
       <c r="O219" s="32" t="n">
-        <v>-16.4</v>
+        <v>-13.4</v>
       </c>
       <c r="P219" s="32" t="n">
-        <v>-11.7</v>
+        <v>-5.9</v>
       </c>
       <c r="Q219" s="32" t="n">
-        <v>-14.46</v>
+        <v>-10.72</v>
       </c>
       <c r="R219" s="23" t="inlineStr">
         <is>
@@ -24513,13 +24503,13 @@
       </c>
       <c r="N249" s="2" t="n"/>
       <c r="O249" s="32" t="n">
-        <v>-32.6</v>
+        <v>-30.3</v>
       </c>
       <c r="P249" s="32" t="n">
-        <v>-17.4</v>
+        <v>-16.1</v>
       </c>
       <c r="Q249" s="32" t="n">
-        <v>-25.66</v>
+        <v>-23.21</v>
       </c>
       <c r="R249" s="23" t="inlineStr">
         <is>

--- a/气象/For_Python_站点信息和记录.xlsx
+++ b/气象/For_Python_站点信息和记录.xlsx
@@ -773,8 +773,8 @@
     <col width="18.59765625" customWidth="1" style="8" min="24" max="24"/>
     <col width="12.59765625" customWidth="1" style="5" min="25" max="29"/>
     <col width="12.59765625" customWidth="1" style="8" min="30" max="31"/>
-    <col width="12.59765625" customWidth="1" style="5" min="32" max="134"/>
-    <col width="12.59765625" customWidth="1" style="5" min="135" max="16384"/>
+    <col width="12.59765625" customWidth="1" style="5" min="32" max="136"/>
+    <col width="12.59765625" customWidth="1" style="5" min="137" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.75" customFormat="1" customHeight="1" s="11">
@@ -996,13 +996,13 @@
         </is>
       </c>
       <c r="O2" s="32" t="n">
-        <v>-36</v>
+        <v>-36.5</v>
       </c>
       <c r="P2" s="32" t="n">
-        <v>-28.8</v>
+        <v>-30.8</v>
       </c>
       <c r="Q2" s="32" t="n">
-        <v>-32.11</v>
+        <v>-33.65</v>
       </c>
       <c r="R2" s="23" t="inlineStr">
         <is>
@@ -1101,10 +1101,10 @@
         </is>
       </c>
       <c r="O3" s="32" t="n">
-        <v>-38.7</v>
+        <v>-40.5</v>
       </c>
       <c r="P3" s="32" t="n">
-        <v>-26.8</v>
+        <v>-27.9</v>
       </c>
       <c r="Q3" s="32" t="n"/>
       <c r="R3" s="23" t="n"/>
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="O4" s="32" t="n">
-        <v>-35</v>
+        <v>-32</v>
       </c>
       <c r="P4" s="32" t="n">
-        <v>-26.2</v>
+        <v>-25.6</v>
       </c>
       <c r="Q4" s="32" t="n"/>
       <c r="R4" s="23" t="n"/>
@@ -1283,10 +1283,10 @@
       </c>
       <c r="N5" s="2" t="n"/>
       <c r="O5" s="32" t="n">
-        <v>-33.6</v>
+        <v>-35.8</v>
       </c>
       <c r="P5" s="32" t="n">
-        <v>-26</v>
+        <v>-27.6</v>
       </c>
       <c r="Q5" s="32" t="n"/>
       <c r="R5" s="23" t="n"/>
@@ -1378,10 +1378,10 @@
         </is>
       </c>
       <c r="O6" s="32" t="n">
-        <v>-38.8</v>
+        <v>-39</v>
       </c>
       <c r="P6" s="32" t="n">
-        <v>-25.5</v>
+        <v>-25.1</v>
       </c>
       <c r="Q6" s="32" t="n"/>
       <c r="R6" s="23" t="n"/>
@@ -1465,11 +1465,7 @@
           <t>💎</t>
         </is>
       </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>kvg</t>
-        </is>
-      </c>
+      <c r="L7" s="2" t="n"/>
       <c r="M7" s="15" t="inlineStr">
         <is>
           <t>查干诺尔</t>
@@ -1481,11 +1477,9 @@
         </is>
       </c>
       <c r="O7" s="32" t="n">
-        <v>-33.9</v>
-      </c>
-      <c r="P7" s="32" t="n">
-        <v>-27.7</v>
-      </c>
+        <v>-33.7</v>
+      </c>
+      <c r="P7" s="32" t="n"/>
       <c r="Q7" s="32" t="n"/>
       <c r="R7" s="23" t="n"/>
       <c r="S7" s="37" t="n"/>
@@ -1580,13 +1574,13 @@
       </c>
       <c r="N8" s="2" t="n"/>
       <c r="O8" s="32" t="n">
-        <v>-33.2</v>
+        <v>-31.8</v>
       </c>
       <c r="P8" s="32" t="n">
-        <v>-19</v>
+        <v>-21.5</v>
       </c>
       <c r="Q8" s="32" t="n">
-        <v>-23.96</v>
+        <v>-27.35</v>
       </c>
       <c r="R8" s="23" t="inlineStr">
         <is>
@@ -1683,13 +1677,13 @@
       </c>
       <c r="N9" s="2" t="n"/>
       <c r="O9" s="32" t="n">
-        <v>-35.6</v>
+        <v>-34.4</v>
       </c>
       <c r="P9" s="32" t="n">
-        <v>-19.6</v>
+        <v>-24.3</v>
       </c>
       <c r="Q9" s="32" t="n">
-        <v>-29.84</v>
+        <v>-30.92</v>
       </c>
       <c r="R9" s="23" t="inlineStr">
         <is>
@@ -1790,13 +1784,13 @@
       </c>
       <c r="N10" s="3" t="n"/>
       <c r="O10" s="32" t="n">
-        <v>-37.2</v>
+        <v>-33.2</v>
       </c>
       <c r="P10" s="32" t="n">
-        <v>-23.7</v>
+        <v>-21.4</v>
       </c>
       <c r="Q10" s="32" t="n">
-        <v>-32.06</v>
+        <v>-28.11</v>
       </c>
       <c r="R10" s="23" t="inlineStr">
         <is>
@@ -1897,13 +1891,13 @@
         </is>
       </c>
       <c r="O11" s="32" t="n">
-        <v>-31.2</v>
+        <v>-34.2</v>
       </c>
       <c r="P11" s="32" t="n">
-        <v>-18.4</v>
+        <v>-19.8</v>
       </c>
       <c r="Q11" s="32" t="n">
-        <v>-26.2</v>
+        <v>-29.69</v>
       </c>
       <c r="R11" s="23" t="inlineStr">
         <is>
@@ -2004,13 +1998,13 @@
       </c>
       <c r="N12" s="2" t="n"/>
       <c r="O12" s="32" t="n">
-        <v>-35.6</v>
+        <v>-37.7</v>
       </c>
       <c r="P12" s="32" t="n">
-        <v>-23.6</v>
+        <v>-27</v>
       </c>
       <c r="Q12" s="32" t="n">
-        <v>-31.5</v>
+        <v>-33.62</v>
       </c>
       <c r="R12" s="23" t="inlineStr">
         <is>
@@ -2115,13 +2109,13 @@
         </is>
       </c>
       <c r="O13" s="32" t="n">
-        <v>-35.5</v>
+        <v>-36.7</v>
       </c>
       <c r="P13" s="32" t="n">
-        <v>-28.6</v>
+        <v>-25.7</v>
       </c>
       <c r="Q13" s="32" t="n">
-        <v>-32.66</v>
+        <v>-33.29</v>
       </c>
       <c r="R13" s="23" t="inlineStr">
         <is>
@@ -2222,13 +2216,13 @@
       </c>
       <c r="N14" s="2" t="n"/>
       <c r="O14" s="32" t="n">
-        <v>-23.7</v>
+        <v>-21.3</v>
       </c>
       <c r="P14" s="32" t="n">
-        <v>-8.199999999999999</v>
+        <v>-11.3</v>
       </c>
       <c r="Q14" s="32" t="n">
-        <v>-16.64</v>
+        <v>-16.31</v>
       </c>
       <c r="R14" s="23" t="inlineStr">
         <is>
@@ -2318,12 +2312,8 @@
         </is>
       </c>
       <c r="N15" s="2" t="n"/>
-      <c r="O15" s="32" t="n">
-        <v>-28.8</v>
-      </c>
-      <c r="P15" s="32" t="n">
-        <v>-13.7</v>
-      </c>
+      <c r="O15" s="32" t="n"/>
+      <c r="P15" s="32" t="n"/>
       <c r="Q15" s="32" t="n"/>
       <c r="R15" s="23" t="n"/>
       <c r="S15" s="37" t="n"/>
@@ -2418,13 +2408,13 @@
       </c>
       <c r="N16" s="2" t="n"/>
       <c r="O16" s="32" t="n">
-        <v>-31.4</v>
+        <v>-28.4</v>
       </c>
       <c r="P16" s="32" t="n">
-        <v>-9.300000000000001</v>
+        <v>-11.5</v>
       </c>
       <c r="Q16" s="32" t="n">
-        <v>-20.19</v>
+        <v>-20.26</v>
       </c>
       <c r="R16" s="23" t="inlineStr">
         <is>
@@ -2593,12 +2583,8 @@
         </is>
       </c>
       <c r="N18" s="2" t="n"/>
-      <c r="O18" s="32" t="n">
-        <v>-35</v>
-      </c>
-      <c r="P18" s="32" t="n">
-        <v>-10</v>
-      </c>
+      <c r="O18" s="32" t="n"/>
+      <c r="P18" s="32" t="n"/>
       <c r="Q18" s="32" t="n"/>
       <c r="R18" s="23" t="n"/>
       <c r="S18" s="37" t="n"/>
@@ -4514,12 +4500,8 @@
         </is>
       </c>
       <c r="N41" s="2" t="n"/>
-      <c r="O41" s="32" t="n">
-        <v>-34.5</v>
-      </c>
-      <c r="P41" s="32" t="n">
-        <v>-16.5</v>
-      </c>
+      <c r="O41" s="32" t="n"/>
+      <c r="P41" s="32" t="n"/>
       <c r="Q41" s="32" t="n"/>
       <c r="R41" s="23" t="n"/>
       <c r="S41" s="37" t="n"/>
@@ -7271,13 +7253,13 @@
       </c>
       <c r="N75" s="2" t="n"/>
       <c r="O75" s="32" t="n">
-        <v>-28.4</v>
+        <v>-32.3</v>
       </c>
       <c r="P75" s="32" t="n">
-        <v>-14</v>
+        <v>-16.4</v>
       </c>
       <c r="Q75" s="32" t="n">
-        <v>-22.82</v>
+        <v>-25.51</v>
       </c>
       <c r="R75" s="23" t="inlineStr">
         <is>
@@ -7378,13 +7360,13 @@
       </c>
       <c r="N76" s="2" t="n"/>
       <c r="O76" s="32" t="n">
-        <v>-34.7</v>
+        <v>-38.5</v>
       </c>
       <c r="P76" s="32" t="n">
-        <v>-23.5</v>
+        <v>-27.7</v>
       </c>
       <c r="Q76" s="32" t="n">
-        <v>-30.31</v>
+        <v>-34.05</v>
       </c>
       <c r="R76" s="23" t="inlineStr">
         <is>
@@ -7489,13 +7471,13 @@
         </is>
       </c>
       <c r="O77" s="32" t="n">
-        <v>-32.8</v>
+        <v>-39</v>
       </c>
       <c r="P77" s="32" t="n">
-        <v>-21.2</v>
+        <v>-24.2</v>
       </c>
       <c r="Q77" s="32" t="n">
-        <v>-27.64</v>
+        <v>-32.81</v>
       </c>
       <c r="R77" s="23" t="inlineStr">
         <is>
@@ -7596,13 +7578,13 @@
       </c>
       <c r="N78" s="2" t="n"/>
       <c r="O78" s="32" t="n">
-        <v>-30</v>
+        <v>-36</v>
       </c>
       <c r="P78" s="32" t="n">
-        <v>-21.8</v>
+        <v>-25.9</v>
       </c>
       <c r="Q78" s="32" t="n">
-        <v>-26.4</v>
+        <v>-31.12</v>
       </c>
       <c r="R78" s="23" t="inlineStr">
         <is>
@@ -7703,13 +7685,13 @@
         </is>
       </c>
       <c r="O79" s="32" t="n">
-        <v>-34.2</v>
+        <v>-33.9</v>
       </c>
       <c r="P79" s="32" t="n">
-        <v>-20.2</v>
+        <v>-19.9</v>
       </c>
       <c r="Q79" s="32" t="n">
-        <v>-27.99</v>
+        <v>-28.3</v>
       </c>
       <c r="R79" s="23" t="inlineStr">
         <is>
@@ -7806,13 +7788,13 @@
       </c>
       <c r="N80" s="2" t="n"/>
       <c r="O80" s="32" t="n">
-        <v>-25.9</v>
+        <v>-19.8</v>
       </c>
       <c r="P80" s="32" t="n">
-        <v>-12.4</v>
+        <v>-10.2</v>
       </c>
       <c r="Q80" s="32" t="n">
-        <v>-20.76</v>
+        <v>-13.49</v>
       </c>
       <c r="R80" s="23" t="inlineStr">
         <is>
@@ -7917,13 +7899,13 @@
         </is>
       </c>
       <c r="O81" s="32" t="n">
-        <v>-32.8</v>
+        <v>-37.5</v>
       </c>
       <c r="P81" s="32" t="n">
-        <v>-17.2</v>
+        <v>-21.6</v>
       </c>
       <c r="Q81" s="32" t="n">
-        <v>-25.96</v>
+        <v>-29.52</v>
       </c>
       <c r="R81" s="23" t="inlineStr">
         <is>
@@ -8033,13 +8015,13 @@
         </is>
       </c>
       <c r="O82" s="32" t="n">
-        <v>-33.2</v>
+        <v>-33.5</v>
       </c>
       <c r="P82" s="32" t="n">
-        <v>-16.3</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="Q82" s="32" t="n">
-        <v>-27.31</v>
+        <v>-23.77</v>
       </c>
       <c r="R82" s="23" t="inlineStr">
         <is>
@@ -8140,13 +8122,13 @@
       </c>
       <c r="N83" s="2" t="n"/>
       <c r="O83" s="32" t="n">
-        <v>-24.5</v>
+        <v>-25.8</v>
       </c>
       <c r="P83" s="32" t="n">
-        <v>-17.1</v>
+        <v>-16.2</v>
       </c>
       <c r="Q83" s="32" t="n">
-        <v>-20.48</v>
+        <v>-22.21</v>
       </c>
       <c r="R83" s="23" t="inlineStr">
         <is>
@@ -8247,13 +8229,13 @@
         </is>
       </c>
       <c r="O84" s="32" t="n">
-        <v>-21.6</v>
+        <v>-26.5</v>
       </c>
       <c r="P84" s="32" t="n">
-        <v>-11.3</v>
+        <v>-16.7</v>
       </c>
       <c r="Q84" s="32" t="n">
-        <v>-16.02</v>
+        <v>-20.5</v>
       </c>
       <c r="R84" s="23" t="inlineStr">
         <is>
@@ -8358,13 +8340,13 @@
         </is>
       </c>
       <c r="O85" s="32" t="n">
-        <v>-35.1</v>
+        <v>-36.5</v>
       </c>
       <c r="P85" s="32" t="n">
-        <v>-23.4</v>
+        <v>-24.6</v>
       </c>
       <c r="Q85" s="32" t="n">
-        <v>-30.73</v>
+        <v>-31.15</v>
       </c>
       <c r="R85" s="23" t="inlineStr">
         <is>
@@ -8461,13 +8443,13 @@
       </c>
       <c r="N86" s="2" t="n"/>
       <c r="O86" s="32" t="n">
-        <v>-29.5</v>
+        <v>-32.8</v>
       </c>
       <c r="P86" s="32" t="n">
-        <v>-23.8</v>
+        <v>-26.8</v>
       </c>
       <c r="Q86" s="32" t="n">
-        <v>-26.53</v>
+        <v>-29.86</v>
       </c>
       <c r="R86" s="23" t="inlineStr">
         <is>
@@ -8580,13 +8562,13 @@
         </is>
       </c>
       <c r="O87" s="32" t="n">
-        <v>-35.6</v>
+        <v>-35.8</v>
       </c>
       <c r="P87" s="32" t="n">
-        <v>-25.4</v>
+        <v>-25.6</v>
       </c>
       <c r="Q87" s="32" t="n">
-        <v>-31.16</v>
+        <v>-32</v>
       </c>
       <c r="R87" s="23" t="inlineStr">
         <is>
@@ -8683,13 +8665,13 @@
       </c>
       <c r="N88" s="2" t="n"/>
       <c r="O88" s="32" t="n">
-        <v>-32</v>
+        <v>-27.8</v>
       </c>
       <c r="P88" s="32" t="n">
-        <v>-19.2</v>
+        <v>-17.5</v>
       </c>
       <c r="Q88" s="32" t="n">
-        <v>-26.9</v>
+        <v>-23.05</v>
       </c>
       <c r="R88" s="23" t="inlineStr">
         <is>
@@ -8883,13 +8865,13 @@
         </is>
       </c>
       <c r="O90" s="32" t="n">
-        <v>-20.3</v>
+        <v>-18.1</v>
       </c>
       <c r="P90" s="32" t="n">
-        <v>-3.4</v>
+        <v>-6.3</v>
       </c>
       <c r="Q90" s="32" t="n">
-        <v>-13.9</v>
+        <v>-13.56</v>
       </c>
       <c r="R90" s="23" t="inlineStr">
         <is>
@@ -8982,13 +8964,13 @@
       </c>
       <c r="N91" s="2" t="n"/>
       <c r="O91" s="32" t="n">
-        <v>-16.8</v>
+        <v>-17</v>
       </c>
       <c r="P91" s="32" t="n">
-        <v>-4.8</v>
+        <v>-8.9</v>
       </c>
       <c r="Q91" s="32" t="n">
-        <v>-9.66</v>
+        <v>-12.78</v>
       </c>
       <c r="R91" s="23" t="inlineStr">
         <is>
@@ -9081,13 +9063,13 @@
       </c>
       <c r="N92" s="2" t="n"/>
       <c r="O92" s="32" t="n">
-        <v>-25.5</v>
+        <v>-19.2</v>
       </c>
       <c r="P92" s="32" t="n">
-        <v>-9.300000000000001</v>
+        <v>-9</v>
       </c>
       <c r="Q92" s="32" t="n">
-        <v>-18.09</v>
+        <v>-14.72</v>
       </c>
       <c r="R92" s="23" t="inlineStr">
         <is>
@@ -9184,13 +9166,13 @@
       </c>
       <c r="N93" s="2" t="n"/>
       <c r="O93" s="32" t="n">
-        <v>-19.8</v>
+        <v>-17.9</v>
       </c>
       <c r="P93" s="32" t="n">
-        <v>-4.5</v>
+        <v>-3</v>
       </c>
       <c r="Q93" s="32" t="n">
-        <v>-13.7</v>
+        <v>-12.31</v>
       </c>
       <c r="R93" s="23" t="inlineStr">
         <is>
@@ -9295,10 +9277,10 @@
         </is>
       </c>
       <c r="O94" s="32" t="n">
-        <v>-27</v>
+        <v>-24.6</v>
       </c>
       <c r="P94" s="32" t="n">
-        <v>-6.3</v>
+        <v>-5.8</v>
       </c>
       <c r="Q94" s="32" t="n"/>
       <c r="R94" s="23" t="inlineStr">
@@ -9404,13 +9386,13 @@
       </c>
       <c r="N95" s="2" t="n"/>
       <c r="O95" s="32" t="n">
-        <v>-15.4</v>
+        <v>-17.5</v>
       </c>
       <c r="P95" s="32" t="n">
-        <v>-9.800000000000001</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="Q95" s="32" t="n">
-        <v>-13.5</v>
+        <v>-13.05</v>
       </c>
       <c r="R95" s="23" t="inlineStr">
         <is>
@@ -9523,10 +9505,10 @@
         </is>
       </c>
       <c r="O96" s="32" t="n">
-        <v>-27.7</v>
+        <v>-25.1</v>
       </c>
       <c r="P96" s="32" t="n">
-        <v>-8.5</v>
+        <v>-6.7</v>
       </c>
       <c r="Q96" s="32" t="n"/>
       <c r="R96" s="23" t="inlineStr">
@@ -9632,13 +9614,13 @@
       </c>
       <c r="N97" s="2" t="n"/>
       <c r="O97" s="32" t="n">
-        <v>-21.7</v>
+        <v>-17.7</v>
       </c>
       <c r="P97" s="32" t="n">
-        <v>-11.1</v>
+        <v>-9</v>
       </c>
       <c r="Q97" s="32" t="n">
-        <v>-15.5</v>
+        <v>-13.71</v>
       </c>
       <c r="R97" s="23" t="inlineStr">
         <is>
@@ -9739,10 +9721,10 @@
       </c>
       <c r="N98" s="2" t="n"/>
       <c r="O98" s="32" t="n">
-        <v>-30.9</v>
+        <v>-24.9</v>
       </c>
       <c r="P98" s="32" t="n">
-        <v>-13.8</v>
+        <v>-14.5</v>
       </c>
       <c r="Q98" s="32" t="n"/>
       <c r="R98" s="23" t="inlineStr">
@@ -9848,13 +9830,13 @@
       </c>
       <c r="N99" s="2" t="n"/>
       <c r="O99" s="32" t="n">
-        <v>-30.1</v>
+        <v>-19.5</v>
       </c>
       <c r="P99" s="32" t="n">
-        <v>-10.1</v>
+        <v>-12.2</v>
       </c>
       <c r="Q99" s="32" t="n">
-        <v>-14.51</v>
+        <v>-15.86</v>
       </c>
       <c r="R99" s="23" t="inlineStr">
         <is>
@@ -10157,13 +10139,13 @@
       </c>
       <c r="N102" s="2" t="n"/>
       <c r="O102" s="32" t="n">
-        <v>-27.8</v>
+        <v>-29.2</v>
       </c>
       <c r="P102" s="32" t="n">
-        <v>-13.1</v>
+        <v>-12.9</v>
       </c>
       <c r="Q102" s="32" t="n">
-        <v>-20.14</v>
+        <v>-21.46</v>
       </c>
       <c r="R102" s="23" t="inlineStr">
         <is>
@@ -10268,10 +10250,10 @@
       </c>
       <c r="N103" s="2" t="n"/>
       <c r="O103" s="32" t="n">
-        <v>-28.9</v>
+        <v>-28.8</v>
       </c>
       <c r="P103" s="32" t="n">
-        <v>-13.7</v>
+        <v>-13.2</v>
       </c>
       <c r="Q103" s="32" t="n"/>
       <c r="R103" s="23" t="inlineStr">
@@ -10369,10 +10351,10 @@
       </c>
       <c r="N104" s="2" t="n"/>
       <c r="O104" s="32" t="n">
-        <v>-33.5</v>
+        <v>-33.9</v>
       </c>
       <c r="P104" s="32" t="n">
-        <v>-18.4</v>
+        <v>-12.2</v>
       </c>
       <c r="Q104" s="32" t="n"/>
       <c r="R104" s="23" t="inlineStr">
@@ -10486,13 +10468,13 @@
         </is>
       </c>
       <c r="O105" s="32" t="n">
-        <v>-35.3</v>
+        <v>-31.9</v>
       </c>
       <c r="P105" s="32" t="n">
-        <v>-18.1</v>
+        <v>-14.4</v>
       </c>
       <c r="Q105" s="32" t="n">
-        <v>-28.88</v>
+        <v>-23.35</v>
       </c>
       <c r="R105" s="23" t="inlineStr">
         <is>
@@ -10601,10 +10583,10 @@
         </is>
       </c>
       <c r="O106" s="32" t="n">
-        <v>-31.9</v>
+        <v>-30.9</v>
       </c>
       <c r="P106" s="32" t="n">
-        <v>-21.7</v>
+        <v>-17.6</v>
       </c>
       <c r="Q106" s="32" t="n"/>
       <c r="R106" s="23" t="inlineStr">
@@ -10807,13 +10789,13 @@
       </c>
       <c r="N108" s="2" t="n"/>
       <c r="O108" s="32" t="n">
-        <v>-29.3</v>
+        <v>-28.8</v>
       </c>
       <c r="P108" s="32" t="n">
-        <v>-19.2</v>
+        <v>-15.5</v>
       </c>
       <c r="Q108" s="32" t="n">
-        <v>-25.14</v>
+        <v>-22.56</v>
       </c>
       <c r="R108" s="23" t="inlineStr">
         <is>
@@ -11002,12 +10984,8 @@
         </is>
       </c>
       <c r="N110" s="2" t="n"/>
-      <c r="O110" s="32" t="n">
-        <v>-33.9</v>
-      </c>
-      <c r="P110" s="32" t="n">
-        <v>-20.7</v>
-      </c>
+      <c r="O110" s="32" t="n"/>
+      <c r="P110" s="32" t="n"/>
       <c r="Q110" s="32" t="n"/>
       <c r="R110" s="23" t="inlineStr">
         <is>
@@ -11112,13 +11090,13 @@
       </c>
       <c r="N111" s="2" t="n"/>
       <c r="O111" s="32" t="n">
-        <v>-29.7</v>
+        <v>-25.6</v>
       </c>
       <c r="P111" s="32" t="n">
-        <v>-13.7</v>
+        <v>-16.4</v>
       </c>
       <c r="Q111" s="32" t="n">
-        <v>-23.66</v>
+        <v>-21.23</v>
       </c>
       <c r="R111" s="23" t="inlineStr">
         <is>
@@ -11215,10 +11193,10 @@
       </c>
       <c r="N112" s="2" t="n"/>
       <c r="O112" s="32" t="n">
-        <v>-22.8</v>
+        <v>-19.6</v>
       </c>
       <c r="P112" s="32" t="n">
-        <v>2.1</v>
+        <v>-6.3</v>
       </c>
       <c r="Q112" s="32" t="n"/>
       <c r="R112" s="23" t="inlineStr">
@@ -11312,10 +11290,10 @@
       </c>
       <c r="N113" s="2" t="n"/>
       <c r="O113" s="32" t="n">
-        <v>-18.8</v>
+        <v>-23.4</v>
       </c>
       <c r="P113" s="32" t="n">
-        <v>-7.3</v>
+        <v>-7.4</v>
       </c>
       <c r="Q113" s="32" t="n"/>
       <c r="R113" s="23" t="inlineStr">
@@ -11417,10 +11395,10 @@
         </is>
       </c>
       <c r="O114" s="32" t="n">
-        <v>-22.6</v>
+        <v>-25.4</v>
       </c>
       <c r="P114" s="32" t="n">
-        <v>-4.4</v>
+        <v>-9.5</v>
       </c>
       <c r="Q114" s="32" t="n"/>
       <c r="R114" s="23" t="inlineStr">
@@ -11530,10 +11508,10 @@
         </is>
       </c>
       <c r="O115" s="32" t="n">
-        <v>-20.1</v>
+        <v>-23.6</v>
       </c>
       <c r="P115" s="32" t="n">
-        <v>-9.300000000000001</v>
+        <v>-10.1</v>
       </c>
       <c r="Q115" s="32" t="n"/>
       <c r="R115" s="23" t="inlineStr">
@@ -11639,13 +11617,13 @@
       </c>
       <c r="N116" s="2" t="n"/>
       <c r="O116" s="32" t="n">
-        <v>-22</v>
+        <v>-20.2</v>
       </c>
       <c r="P116" s="32" t="n">
-        <v>-5.7</v>
+        <v>-7.7</v>
       </c>
       <c r="Q116" s="32" t="n">
-        <v>-15.21</v>
+        <v>-15.72</v>
       </c>
       <c r="R116" s="23" t="inlineStr">
         <is>
@@ -11742,10 +11720,10 @@
       </c>
       <c r="N117" s="2" t="n"/>
       <c r="O117" s="32" t="n">
-        <v>-20.3</v>
+        <v>-21.1</v>
       </c>
       <c r="P117" s="32" t="n">
-        <v>-6.7</v>
+        <v>-7.7</v>
       </c>
       <c r="Q117" s="32" t="n"/>
       <c r="R117" s="23" t="inlineStr">
@@ -11850,7 +11828,7 @@
         <v>-24.4</v>
       </c>
       <c r="P118" s="32" t="n">
-        <v>-7.7</v>
+        <v>-8.6</v>
       </c>
       <c r="Q118" s="32" t="n"/>
       <c r="R118" s="23" t="inlineStr">
@@ -11956,13 +11934,13 @@
       </c>
       <c r="N119" s="2" t="n"/>
       <c r="O119" s="32" t="n">
-        <v>-14.2</v>
+        <v>-13.3</v>
       </c>
       <c r="P119" s="32" t="n">
-        <v>-2.6</v>
+        <v>-1.6</v>
       </c>
       <c r="Q119" s="32" t="n">
-        <v>-9.859999999999999</v>
+        <v>-10.43</v>
       </c>
       <c r="R119" s="23" t="inlineStr">
         <is>
@@ -12071,13 +12049,13 @@
       </c>
       <c r="N120" s="2" t="n"/>
       <c r="O120" s="32" t="n">
-        <v>-9.199999999999999</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="P120" s="32" t="n">
-        <v>-1.7</v>
+        <v>-1.5</v>
       </c>
       <c r="Q120" s="32" t="n">
-        <v>-5.75</v>
+        <v>-5.9</v>
       </c>
       <c r="R120" s="23" t="inlineStr">
         <is>
@@ -12178,13 +12156,13 @@
       </c>
       <c r="N121" s="2" t="n"/>
       <c r="O121" s="32" t="n">
-        <v>-13.2</v>
+        <v>-10.5</v>
       </c>
       <c r="P121" s="32" t="n">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="Q121" s="32" t="n">
-        <v>-10.72</v>
+        <v>-8.279999999999999</v>
       </c>
       <c r="R121" s="23" t="inlineStr">
         <is>
@@ -12293,10 +12271,10 @@
       </c>
       <c r="N122" s="2" t="n"/>
       <c r="O122" s="32" t="n">
-        <v>-26.8</v>
+        <v>-28.4</v>
       </c>
       <c r="P122" s="32" t="n">
-        <v>-13.7</v>
+        <v>-15.7</v>
       </c>
       <c r="Q122" s="32" t="n"/>
       <c r="R122" s="23" t="inlineStr">
@@ -12503,13 +12481,13 @@
       </c>
       <c r="N124" s="2" t="n"/>
       <c r="O124" s="32" t="n">
-        <v>-15.5</v>
+        <v>-10.8</v>
       </c>
       <c r="P124" s="32" t="n">
-        <v>-3.1</v>
+        <v>-0.8</v>
       </c>
       <c r="Q124" s="32" t="n">
-        <v>-9.68</v>
+        <v>-5.7</v>
       </c>
       <c r="R124" s="23" t="inlineStr">
         <is>
@@ -12618,13 +12596,13 @@
       </c>
       <c r="N125" s="2" t="n"/>
       <c r="O125" s="32" t="n">
-        <v>-9</v>
+        <v>-4.6</v>
       </c>
       <c r="P125" s="32" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q125" s="32" t="n">
-        <v>-1.75</v>
+        <v>-0.31</v>
       </c>
       <c r="R125" s="23" t="inlineStr">
         <is>
@@ -12709,10 +12687,10 @@
       </c>
       <c r="N126" s="2" t="n"/>
       <c r="O126" s="32" t="n">
-        <v>-3.4</v>
+        <v>-2.4</v>
       </c>
       <c r="P126" s="32" t="n">
-        <v>6.8</v>
+        <v>5.4</v>
       </c>
       <c r="Q126" s="32" t="n"/>
       <c r="R126" s="23" t="inlineStr">
@@ -12810,13 +12788,13 @@
       </c>
       <c r="N127" s="2" t="n"/>
       <c r="O127" s="32" t="n">
-        <v>-4.8</v>
+        <v>-10.4</v>
       </c>
       <c r="P127" s="32" t="n">
-        <v>-0.7</v>
+        <v>0.5</v>
       </c>
       <c r="Q127" s="32" t="n">
-        <v>-2.99</v>
+        <v>-5.5</v>
       </c>
       <c r="R127" s="23" t="inlineStr">
         <is>
@@ -12921,10 +12899,10 @@
       </c>
       <c r="N128" s="2" t="n"/>
       <c r="O128" s="32" t="n">
-        <v>-6.7</v>
+        <v>-0.4</v>
       </c>
       <c r="P128" s="32" t="n">
-        <v>6.6</v>
+        <v>5.3</v>
       </c>
       <c r="Q128" s="32" t="n"/>
       <c r="R128" s="23" t="inlineStr">
@@ -13022,13 +13000,13 @@
       </c>
       <c r="N129" s="2" t="n"/>
       <c r="O129" s="32" t="n">
-        <v>-12.3</v>
+        <v>-2.9</v>
       </c>
       <c r="P129" s="32" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="Q129" s="32" t="n">
-        <v>-5.81</v>
+        <v>-0.89</v>
       </c>
       <c r="R129" s="23" t="inlineStr">
         <is>
@@ -13133,13 +13111,13 @@
       </c>
       <c r="N130" s="2" t="n"/>
       <c r="O130" s="32" t="n">
-        <v>-9.5</v>
+        <v>-10.9</v>
       </c>
       <c r="P130" s="32" t="n">
-        <v>-2.1</v>
+        <v>-1</v>
       </c>
       <c r="Q130" s="32" t="n">
-        <v>-6.79</v>
+        <v>-7.05</v>
       </c>
       <c r="R130" s="23" t="inlineStr">
         <is>
@@ -13244,13 +13222,13 @@
       </c>
       <c r="N131" s="2" t="n"/>
       <c r="O131" s="32" t="n">
-        <v>-0.3</v>
+        <v>0.6</v>
       </c>
       <c r="P131" s="32" t="n">
-        <v>7.9</v>
+        <v>6.4</v>
       </c>
       <c r="Q131" s="32" t="n">
-        <v>2.44</v>
+        <v>3.33</v>
       </c>
       <c r="R131" s="23" t="inlineStr">
         <is>
@@ -13351,13 +13329,13 @@
       </c>
       <c r="N132" s="2" t="n"/>
       <c r="O132" s="32" t="n">
-        <v>-3.7</v>
+        <v>2.6</v>
       </c>
       <c r="P132" s="32" t="n">
-        <v>8</v>
+        <v>6.2</v>
       </c>
       <c r="Q132" s="32" t="n">
-        <v>1.72</v>
+        <v>4.54</v>
       </c>
       <c r="R132" s="23" t="inlineStr">
         <is>
@@ -13458,13 +13436,13 @@
       </c>
       <c r="N133" s="2" t="n"/>
       <c r="O133" s="32" t="n">
-        <v>-1.7</v>
+        <v>0.4</v>
       </c>
       <c r="P133" s="32" t="n">
-        <v>1.2</v>
+        <v>4.1</v>
       </c>
       <c r="Q133" s="32" t="n">
-        <v>-0.38</v>
+        <v>1.91</v>
       </c>
       <c r="R133" s="23" t="inlineStr">
         <is>
@@ -13569,13 +13547,13 @@
       </c>
       <c r="N134" s="2" t="n"/>
       <c r="O134" s="32" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="P134" s="32" t="n">
-        <v>4.4</v>
+        <v>7.4</v>
       </c>
       <c r="Q134" s="32" t="n">
-        <v>3.5</v>
+        <v>4.86</v>
       </c>
       <c r="R134" s="23" t="inlineStr">
         <is>
@@ -13672,13 +13650,13 @@
       </c>
       <c r="N135" s="2" t="n"/>
       <c r="O135" s="32" t="n">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
       <c r="P135" s="32" t="n">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="Q135" s="32" t="n">
-        <v>3.43</v>
+        <v>4.24</v>
       </c>
       <c r="R135" s="23" t="inlineStr">
         <is>
@@ -13779,13 +13757,13 @@
       </c>
       <c r="N136" s="2" t="n"/>
       <c r="O136" s="32" t="n">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="P136" s="32" t="n">
-        <v>8.800000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="Q136" s="32" t="n">
-        <v>4.54</v>
+        <v>6.29</v>
       </c>
       <c r="R136" s="23" t="inlineStr">
         <is>
@@ -13886,13 +13864,13 @@
       </c>
       <c r="N137" s="2" t="n"/>
       <c r="O137" s="32" t="n">
-        <v>-2.2</v>
+        <v>3.5</v>
       </c>
       <c r="P137" s="32" t="n">
-        <v>7.7</v>
+        <v>6</v>
       </c>
       <c r="Q137" s="32" t="n">
-        <v>2.64</v>
+        <v>4.29</v>
       </c>
       <c r="R137" s="23" t="inlineStr">
         <is>
@@ -13993,10 +13971,10 @@
       </c>
       <c r="N138" s="2" t="n"/>
       <c r="O138" s="32" t="n">
-        <v>-6</v>
+        <v>0.1</v>
       </c>
       <c r="P138" s="32" t="n">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="Q138" s="32" t="n"/>
       <c r="R138" s="23" t="inlineStr">
@@ -14098,13 +14076,13 @@
       </c>
       <c r="N139" s="2" t="n"/>
       <c r="O139" s="32" t="n">
-        <v>-5.3</v>
+        <v>-0.4</v>
       </c>
       <c r="P139" s="32" t="n">
-        <v>7.6</v>
+        <v>4.8</v>
       </c>
       <c r="Q139" s="32" t="n">
-        <v>0.25</v>
+        <v>2.14</v>
       </c>
       <c r="R139" s="23" t="inlineStr">
         <is>
@@ -14205,13 +14183,13 @@
       </c>
       <c r="N140" s="2" t="n"/>
       <c r="O140" s="32" t="n">
-        <v>-2.4</v>
+        <v>0</v>
       </c>
       <c r="P140" s="32" t="n">
-        <v>8.1</v>
+        <v>7.1</v>
       </c>
       <c r="Q140" s="32" t="n">
-        <v>1.95</v>
+        <v>3.87</v>
       </c>
       <c r="R140" s="23" t="inlineStr">
         <is>
@@ -14312,13 +14290,13 @@
       </c>
       <c r="N141" s="2" t="n"/>
       <c r="O141" s="32" t="n">
-        <v>-2.4</v>
+        <v>0.9</v>
       </c>
       <c r="P141" s="32" t="n">
-        <v>10.4</v>
+        <v>11.8</v>
       </c>
       <c r="Q141" s="32" t="n">
-        <v>2.98</v>
+        <v>5.89</v>
       </c>
       <c r="R141" s="23" t="inlineStr">
         <is>
@@ -14415,13 +14393,13 @@
       </c>
       <c r="N142" s="2" t="n"/>
       <c r="O142" s="32" t="n">
-        <v>5.4</v>
+        <v>7.8</v>
       </c>
       <c r="P142" s="32" t="n">
-        <v>15</v>
+        <v>19.8</v>
       </c>
       <c r="Q142" s="32" t="n">
-        <v>9.18</v>
+        <v>12.41</v>
       </c>
       <c r="R142" s="23" t="inlineStr">
         <is>
@@ -14522,13 +14500,13 @@
       </c>
       <c r="N143" s="2" t="n"/>
       <c r="O143" s="32" t="n">
-        <v>4.8</v>
+        <v>6.3</v>
       </c>
       <c r="P143" s="32" t="n">
-        <v>17.1</v>
+        <v>21</v>
       </c>
       <c r="Q143" s="32" t="n">
-        <v>9.81</v>
+        <v>12.09</v>
       </c>
       <c r="R143" s="23" t="inlineStr">
         <is>
@@ -14629,13 +14607,13 @@
       </c>
       <c r="N144" s="2" t="n"/>
       <c r="O144" s="32" t="n">
-        <v>16.4</v>
+        <v>17</v>
       </c>
       <c r="P144" s="32" t="n">
-        <v>20</v>
+        <v>21.8</v>
       </c>
       <c r="Q144" s="32" t="n">
-        <v>17.88</v>
+        <v>18.91</v>
       </c>
       <c r="R144" s="23" t="inlineStr">
         <is>
@@ -14732,13 +14710,13 @@
       </c>
       <c r="N145" s="2" t="n"/>
       <c r="O145" s="32" t="n">
-        <v>14.9</v>
+        <v>15.5</v>
       </c>
       <c r="P145" s="32" t="n">
-        <v>20.4</v>
+        <v>22.1</v>
       </c>
       <c r="Q145" s="32" t="n">
-        <v>17.06</v>
+        <v>17.95</v>
       </c>
       <c r="R145" s="23" t="inlineStr">
         <is>
@@ -14831,13 +14809,13 @@
       </c>
       <c r="N146" s="2" t="n"/>
       <c r="O146" s="32" t="n">
-        <v>16.9</v>
+        <v>16.4</v>
       </c>
       <c r="P146" s="32" t="n">
-        <v>25.2</v>
+        <v>26</v>
       </c>
       <c r="Q146" s="32" t="n">
-        <v>20.25</v>
+        <v>21.44</v>
       </c>
       <c r="R146" s="23" t="inlineStr">
         <is>
@@ -14930,13 +14908,13 @@
       </c>
       <c r="N147" s="2" t="n"/>
       <c r="O147" s="32" t="n">
-        <v>8.699999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="P147" s="32" t="n">
-        <v>15</v>
+        <v>16.4</v>
       </c>
       <c r="Q147" s="32" t="n">
-        <v>11.03</v>
+        <v>12.39</v>
       </c>
       <c r="R147" s="23" t="inlineStr">
         <is>
@@ -15037,10 +15015,10 @@
       </c>
       <c r="N148" s="2" t="n"/>
       <c r="O148" s="32" t="n">
-        <v>13.7</v>
+        <v>13.1</v>
       </c>
       <c r="P148" s="32" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="Q148" s="32" t="n"/>
       <c r="R148" s="23" t="inlineStr">
@@ -15138,13 +15116,13 @@
       </c>
       <c r="N149" s="2" t="n"/>
       <c r="O149" s="32" t="n">
-        <v>6.9</v>
+        <v>4.4</v>
       </c>
       <c r="P149" s="32" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="Q149" s="32" t="n">
-        <v>9.960000000000001</v>
+        <v>9.81</v>
       </c>
       <c r="R149" s="23" t="inlineStr">
         <is>
@@ -15245,13 +15223,13 @@
       </c>
       <c r="N150" s="2" t="n"/>
       <c r="O150" s="32" t="n">
-        <v>-1.5</v>
+        <v>0.4</v>
       </c>
       <c r="P150" s="32" t="n">
-        <v>2.4</v>
+        <v>4.4</v>
       </c>
       <c r="Q150" s="32" t="n">
-        <v>0.23</v>
+        <v>2.05</v>
       </c>
       <c r="R150" s="23" t="inlineStr">
         <is>
@@ -15352,13 +15330,13 @@
       </c>
       <c r="N151" s="2" t="n"/>
       <c r="O151" s="32" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="P151" s="32" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="Q151" s="32" t="n">
-        <v>7.54</v>
+        <v>8.01</v>
       </c>
       <c r="R151" s="23" t="inlineStr">
         <is>
@@ -15544,13 +15522,13 @@
       </c>
       <c r="N153" s="2" t="n"/>
       <c r="O153" s="32" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="P153" s="32" t="n">
-        <v>5.1</v>
+        <v>11.6</v>
       </c>
       <c r="Q153" s="32" t="n">
-        <v>4.35</v>
+        <v>6.54</v>
       </c>
       <c r="R153" s="23" t="inlineStr">
         <is>
@@ -15655,13 +15633,13 @@
       </c>
       <c r="N154" s="2" t="n"/>
       <c r="O154" s="32" t="n">
-        <v>-6.5</v>
+        <v>-4.4</v>
       </c>
       <c r="P154" s="32" t="n">
-        <v>4.8</v>
+        <v>6.3</v>
       </c>
       <c r="Q154" s="32" t="n">
-        <v>-0.06</v>
+        <v>0.01</v>
       </c>
       <c r="R154" s="23" t="inlineStr">
         <is>
@@ -15843,10 +15821,10 @@
       </c>
       <c r="N156" s="2" t="n"/>
       <c r="O156" s="32" t="n">
-        <v>-24</v>
+        <v>-15.4</v>
       </c>
       <c r="P156" s="32" t="n">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="Q156" s="32" t="n"/>
       <c r="R156" s="23" t="inlineStr">
@@ -15940,10 +15918,10 @@
       </c>
       <c r="N157" s="2" t="n"/>
       <c r="O157" s="32" t="n">
-        <v>-0.9</v>
+        <v>1.5</v>
       </c>
       <c r="P157" s="32" t="n">
-        <v>7.6</v>
+        <v>10</v>
       </c>
       <c r="Q157" s="32" t="n"/>
       <c r="R157" s="23" t="inlineStr">
@@ -16300,7 +16278,7 @@
       </c>
       <c r="N161" s="2" t="n"/>
       <c r="O161" s="32" t="n">
-        <v>-4.1</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="P161" s="32" t="n">
         <v>0.7</v>
@@ -16404,8 +16382,12 @@
           <t>⚡</t>
         </is>
       </c>
-      <c r="O162" s="32" t="n"/>
-      <c r="P162" s="32" t="n"/>
+      <c r="O162" s="32" t="n">
+        <v>-32</v>
+      </c>
+      <c r="P162" s="32" t="n">
+        <v>-12.9</v>
+      </c>
       <c r="Q162" s="32" t="n"/>
       <c r="R162" s="23" t="inlineStr">
         <is>
@@ -16505,8 +16487,12 @@
           <t>▼</t>
         </is>
       </c>
-      <c r="O163" s="32" t="n"/>
-      <c r="P163" s="32" t="n"/>
+      <c r="O163" s="32" t="n">
+        <v>-29.4</v>
+      </c>
+      <c r="P163" s="32" t="n">
+        <v>-13.1</v>
+      </c>
       <c r="Q163" s="32" t="n"/>
       <c r="R163" s="23" t="inlineStr">
         <is>
@@ -16708,10 +16694,10 @@
         </is>
       </c>
       <c r="O165" s="32" t="n">
-        <v>-36.8</v>
+        <v>-37.8</v>
       </c>
       <c r="P165" s="32" t="n">
-        <v>-21.7</v>
+        <v>-22.8</v>
       </c>
       <c r="Q165" s="32" t="n"/>
       <c r="R165" s="23" t="inlineStr">
@@ -17006,8 +16992,12 @@
           <t>❄️</t>
         </is>
       </c>
-      <c r="O168" s="32" t="n"/>
-      <c r="P168" s="32" t="n"/>
+      <c r="O168" s="32" t="n">
+        <v>-23.4</v>
+      </c>
+      <c r="P168" s="32" t="n">
+        <v>-9.800000000000001</v>
+      </c>
       <c r="Q168" s="32" t="n"/>
       <c r="R168" s="23" t="inlineStr">
         <is>
@@ -17107,8 +17097,12 @@
           <t>↓</t>
         </is>
       </c>
-      <c r="O169" s="32" t="n"/>
-      <c r="P169" s="32" t="n"/>
+      <c r="O169" s="32" t="n">
+        <v>-26.6</v>
+      </c>
+      <c r="P169" s="32" t="n">
+        <v>-8.800000000000001</v>
+      </c>
       <c r="Q169" s="32" t="n"/>
       <c r="R169" s="23" t="inlineStr">
         <is>
@@ -17398,8 +17392,12 @@
         </is>
       </c>
       <c r="N172" s="3" t="n"/>
-      <c r="O172" s="32" t="n"/>
-      <c r="P172" s="32" t="n"/>
+      <c r="O172" s="32" t="n">
+        <v>-28</v>
+      </c>
+      <c r="P172" s="32" t="n">
+        <v>-10.1</v>
+      </c>
       <c r="Q172" s="32" t="n"/>
       <c r="R172" s="23" t="inlineStr">
         <is>
@@ -17496,10 +17494,10 @@
       </c>
       <c r="N173" s="2" t="n"/>
       <c r="O173" s="32" t="n">
-        <v>-25.3</v>
+        <v>-23.8</v>
       </c>
       <c r="P173" s="32" t="n">
-        <v>-4.1</v>
+        <v>-9.5</v>
       </c>
       <c r="Q173" s="32" t="n"/>
       <c r="R173" s="23" t="inlineStr">
@@ -17787,10 +17785,10 @@
       </c>
       <c r="N176" s="2" t="n"/>
       <c r="O176" s="32" t="n">
-        <v>-6.1</v>
+        <v>-3.3</v>
       </c>
       <c r="P176" s="32" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q176" s="32" t="n"/>
       <c r="R176" s="23" t="inlineStr">
@@ -17876,10 +17874,10 @@
       </c>
       <c r="N177" s="2" t="n"/>
       <c r="O177" s="32" t="n">
-        <v>-22.6</v>
+        <v>-24.2</v>
       </c>
       <c r="P177" s="32" t="n">
-        <v>-13.9</v>
+        <v>-15.3</v>
       </c>
       <c r="Q177" s="32" t="n"/>
       <c r="R177" s="23" t="inlineStr">
@@ -18686,13 +18684,13 @@
       </c>
       <c r="N186" s="2" t="n"/>
       <c r="O186" s="32" t="n">
-        <v>-50.8</v>
+        <v>-50.6</v>
       </c>
       <c r="P186" s="32" t="n">
-        <v>-46.9</v>
+        <v>-43.7</v>
       </c>
       <c r="Q186" s="32" t="n">
-        <v>-49.25</v>
+        <v>-46.14</v>
       </c>
       <c r="R186" s="23" t="inlineStr">
         <is>
@@ -18786,13 +18784,13 @@
       </c>
       <c r="N187" s="2" t="n"/>
       <c r="O187" s="32" t="n">
-        <v>-49.1</v>
+        <v>-49.5</v>
       </c>
       <c r="P187" s="32" t="n">
-        <v>-44</v>
+        <v>-46.7</v>
       </c>
       <c r="Q187" s="32" t="n">
-        <v>-46.79</v>
+        <v>-48.36</v>
       </c>
       <c r="R187" s="23" t="inlineStr">
         <is>
@@ -18881,13 +18879,13 @@
       </c>
       <c r="N188" s="2" t="n"/>
       <c r="O188" s="32" t="n">
+        <v>-47.4</v>
+      </c>
+      <c r="P188" s="32" t="n">
         <v>-45.1</v>
       </c>
-      <c r="P188" s="32" t="n">
-        <v>-43</v>
-      </c>
       <c r="Q188" s="32" t="n">
-        <v>-44.23</v>
+        <v>-46.7</v>
       </c>
       <c r="R188" s="23" t="inlineStr">
         <is>
@@ -19065,13 +19063,13 @@
       </c>
       <c r="N190" s="2" t="n"/>
       <c r="O190" s="32" t="n">
-        <v>-42.2</v>
+        <v>-46</v>
       </c>
       <c r="P190" s="32" t="n">
-        <v>-34.7</v>
+        <v>-41.7</v>
       </c>
       <c r="Q190" s="32" t="n">
-        <v>-38.41</v>
+        <v>-43.5</v>
       </c>
       <c r="R190" s="23" t="inlineStr">
         <is>
@@ -19160,13 +19158,13 @@
       </c>
       <c r="N191" s="2" t="n"/>
       <c r="O191" s="32" t="n">
-        <v>-48.7</v>
+        <v>-49.5</v>
       </c>
       <c r="P191" s="32" t="n">
-        <v>-43.3</v>
+        <v>-40.8</v>
       </c>
       <c r="Q191" s="32" t="n">
-        <v>-46.64</v>
+        <v>-44.77</v>
       </c>
       <c r="R191" s="23" t="inlineStr">
         <is>
@@ -19251,13 +19249,13 @@
       </c>
       <c r="N192" s="2" t="n"/>
       <c r="O192" s="32" t="n">
-        <v>-40.5</v>
+        <v>-42.6</v>
       </c>
       <c r="P192" s="32" t="n">
-        <v>-31.9</v>
+        <v>-39</v>
       </c>
       <c r="Q192" s="32" t="n">
-        <v>-34.98</v>
+        <v>-40.83</v>
       </c>
       <c r="R192" s="23" t="inlineStr">
         <is>
@@ -19347,13 +19345,13 @@
       </c>
       <c r="N193" s="2" t="n"/>
       <c r="O193" s="32" t="n">
+        <v>-40.1</v>
+      </c>
+      <c r="P193" s="32" t="n">
         <v>-34.5</v>
       </c>
-      <c r="P193" s="32" t="n">
-        <v>-28.1</v>
-      </c>
       <c r="Q193" s="32" t="n">
-        <v>-32.2</v>
+        <v>-38.69</v>
       </c>
       <c r="R193" s="23" t="inlineStr">
         <is>
@@ -19446,10 +19444,10 @@
       </c>
       <c r="N194" s="2" t="n"/>
       <c r="O194" s="32" t="n">
-        <v>-42.6</v>
+        <v>-46.6</v>
       </c>
       <c r="P194" s="32" t="n">
-        <v>-29.6</v>
+        <v>-39.8</v>
       </c>
       <c r="Q194" s="32" t="n"/>
       <c r="R194" s="23" t="inlineStr">
@@ -19539,13 +19537,13 @@
       </c>
       <c r="N195" s="2" t="n"/>
       <c r="O195" s="32" t="n">
-        <v>-35.2</v>
+        <v>-34.8</v>
       </c>
       <c r="P195" s="32" t="n">
-        <v>-30.5</v>
+        <v>-26.4</v>
       </c>
       <c r="Q195" s="32" t="n">
-        <v>-33.91</v>
+        <v>-28.38</v>
       </c>
       <c r="R195" s="23" t="inlineStr">
         <is>
@@ -19638,13 +19636,13 @@
       </c>
       <c r="N196" s="2" t="n"/>
       <c r="O196" s="32" t="n">
-        <v>-48.4</v>
+        <v>-40.2</v>
       </c>
       <c r="P196" s="32" t="n">
-        <v>-36.3</v>
+        <v>-29.4</v>
       </c>
       <c r="Q196" s="32" t="n">
-        <v>-43.18</v>
+        <v>-35.96</v>
       </c>
       <c r="R196" s="23" t="inlineStr">
         <is>
@@ -19733,13 +19731,13 @@
       </c>
       <c r="N197" s="24" t="n"/>
       <c r="O197" s="32" t="n">
-        <v>-39.9</v>
+        <v>-34.6</v>
       </c>
       <c r="P197" s="32" t="n">
-        <v>-30.5</v>
+        <v>-24.1</v>
       </c>
       <c r="Q197" s="32" t="n">
-        <v>-32.61</v>
+        <v>-29.7</v>
       </c>
       <c r="R197" s="23" t="inlineStr">
         <is>
@@ -20094,12 +20092,8 @@
         </is>
       </c>
       <c r="N201" s="2" t="n"/>
-      <c r="O201" s="32" t="n">
-        <v>-36.8</v>
-      </c>
-      <c r="P201" s="32" t="n">
-        <v>-18.7</v>
-      </c>
+      <c r="O201" s="32" t="n"/>
+      <c r="P201" s="32" t="n"/>
       <c r="Q201" s="32" t="n"/>
       <c r="R201" s="23" t="inlineStr">
         <is>
@@ -21076,7 +21070,7 @@
       </c>
       <c r="N212" s="2" t="n"/>
       <c r="O212" s="32" t="n">
-        <v>-35.2</v>
+        <v>-34.6</v>
       </c>
       <c r="P212" s="32" t="n">
         <v>-25.1</v>
@@ -21161,13 +21155,13 @@
       </c>
       <c r="N213" s="2" t="n"/>
       <c r="O213" s="32" t="n">
-        <v>-6.9</v>
+        <v>-8</v>
       </c>
       <c r="P213" s="32" t="n">
-        <v>-1.1</v>
+        <v>-1.4</v>
       </c>
       <c r="Q213" s="32" t="n">
-        <v>-3.41</v>
+        <v>-4.76</v>
       </c>
       <c r="R213" s="23" t="inlineStr">
         <is>
@@ -21264,13 +21258,13 @@
       </c>
       <c r="N214" s="2" t="n"/>
       <c r="O214" s="32" t="n">
-        <v>-11.1</v>
+        <v>-15.2</v>
       </c>
       <c r="P214" s="32" t="n">
-        <v>-6.5</v>
+        <v>-3.1</v>
       </c>
       <c r="Q214" s="32" t="n">
-        <v>-8.300000000000001</v>
+        <v>-10.52</v>
       </c>
       <c r="R214" s="23" t="inlineStr">
         <is>
@@ -21371,13 +21365,13 @@
       </c>
       <c r="N215" s="2" t="n"/>
       <c r="O215" s="32" t="n">
-        <v>-16.7</v>
+        <v>-20.4</v>
       </c>
       <c r="P215" s="32" t="n">
-        <v>-4.9</v>
+        <v>-9.9</v>
       </c>
       <c r="Q215" s="32" t="n">
-        <v>-12.1</v>
+        <v>-16.53</v>
       </c>
       <c r="R215" s="23" t="inlineStr">
         <is>
@@ -21478,13 +21472,13 @@
       </c>
       <c r="N216" s="2" t="n"/>
       <c r="O216" s="32" t="n">
-        <v>-23.4</v>
+        <v>-25.9</v>
       </c>
       <c r="P216" s="32" t="n">
-        <v>-12.4</v>
+        <v>-10.9</v>
       </c>
       <c r="Q216" s="32" t="n">
-        <v>-19.35</v>
+        <v>-19.51</v>
       </c>
       <c r="R216" s="23" t="inlineStr">
         <is>
@@ -21581,13 +21575,13 @@
       </c>
       <c r="N217" s="2" t="n"/>
       <c r="O217" s="32" t="n">
-        <v>-18.2</v>
+        <v>-16.6</v>
       </c>
       <c r="P217" s="32" t="n">
-        <v>-11.2</v>
+        <v>-11.9</v>
       </c>
       <c r="Q217" s="32" t="n">
-        <v>-14.11</v>
+        <v>-13.9</v>
       </c>
       <c r="R217" s="23" t="inlineStr">
         <is>
@@ -21684,13 +21678,13 @@
       </c>
       <c r="N218" s="2" t="n"/>
       <c r="O218" s="32" t="n">
-        <v>-19.1</v>
+        <v>-16.2</v>
       </c>
       <c r="P218" s="32" t="n">
-        <v>-10.6</v>
+        <v>-1.8</v>
       </c>
       <c r="Q218" s="32" t="n">
-        <v>-14.99</v>
+        <v>-5.28</v>
       </c>
       <c r="R218" s="23" t="inlineStr">
         <is>
@@ -21787,13 +21781,13 @@
       </c>
       <c r="N219" s="2" t="n"/>
       <c r="O219" s="32" t="n">
-        <v>-13.4</v>
+        <v>-9.5</v>
       </c>
       <c r="P219" s="32" t="n">
-        <v>-5.9</v>
+        <v>-5</v>
       </c>
       <c r="Q219" s="32" t="n">
-        <v>-10.72</v>
+        <v>-7.61</v>
       </c>
       <c r="R219" s="23" t="inlineStr">
         <is>
@@ -24503,13 +24497,13 @@
       </c>
       <c r="N249" s="2" t="n"/>
       <c r="O249" s="32" t="n">
-        <v>-30.3</v>
+        <v>-23.9</v>
       </c>
       <c r="P249" s="32" t="n">
-        <v>-16.1</v>
+        <v>-17.3</v>
       </c>
       <c r="Q249" s="32" t="n">
-        <v>-23.21</v>
+        <v>-20.85</v>
       </c>
       <c r="R249" s="23" t="inlineStr">
         <is>
@@ -25091,8 +25085,12 @@
         </is>
       </c>
       <c r="N256" s="2" t="n"/>
-      <c r="O256" s="32" t="n"/>
-      <c r="P256" s="32" t="n"/>
+      <c r="O256" s="32" t="n">
+        <v>-33.8</v>
+      </c>
+      <c r="P256" s="32" t="n">
+        <v>-24.6</v>
+      </c>
       <c r="Q256" s="32" t="n"/>
       <c r="R256" s="23" t="inlineStr">
         <is>
@@ -25235,38 +25233,100 @@
       <c r="AG257" s="2" t="n"/>
     </row>
     <row r="258" ht="24" customHeight="1" s="41">
-      <c r="A258" s="2" t="n"/>
+      <c r="A258" s="2" t="n">
+        <v>257</v>
+      </c>
       <c r="B258" s="2" t="n"/>
-      <c r="C258" s="27" t="n"/>
+      <c r="C258" s="27" t="n">
+        <v>52645</v>
+      </c>
       <c r="D258" s="2" t="n"/>
-      <c r="E258" s="4" t="n"/>
+      <c r="E258" s="4" t="n">
+        <v>99999</v>
+      </c>
       <c r="F258" s="39" t="n"/>
-      <c r="G258" s="29" t="n"/>
-      <c r="H258" s="29" t="n"/>
-      <c r="I258" s="2" t="n"/>
-      <c r="J258" s="27" t="n"/>
+      <c r="G258" s="29" t="n">
+        <v>38.43</v>
+      </c>
+      <c r="H258" s="29" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="I258" s="2" t="n">
+        <v>3314</v>
+      </c>
+      <c r="J258" s="27" t="n">
+        <v>12</v>
+      </c>
       <c r="K258" s="4" t="n"/>
       <c r="L258" s="2" t="n"/>
-      <c r="M258" s="14" t="n"/>
+      <c r="M258" s="14" t="inlineStr">
+        <is>
+          <t>野牛沟</t>
+        </is>
+      </c>
       <c r="N258" s="2" t="n"/>
-      <c r="O258" s="32" t="n"/>
-      <c r="P258" s="32" t="n"/>
+      <c r="O258" s="32" t="n">
+        <v>-32</v>
+      </c>
+      <c r="P258" s="32" t="n">
+        <v>-11.3</v>
+      </c>
       <c r="Q258" s="32" t="n"/>
-      <c r="R258" s="23" t="n"/>
+      <c r="R258" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S258" s="37" t="n"/>
-      <c r="T258" s="2" t="n"/>
-      <c r="U258" s="4" t="n"/>
-      <c r="V258" s="4" t="n"/>
-      <c r="W258" s="4" t="n"/>
+      <c r="T258" s="2" t="inlineStr">
+        <is>
+          <t>青海</t>
+        </is>
+      </c>
+      <c r="U258" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="V258" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="W258" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="X258" s="4" t="n"/>
-      <c r="Y258" s="2" t="n"/>
-      <c r="Z258" s="2" t="n"/>
+      <c r="Y258" s="2" t="inlineStr">
+        <is>
+          <t>海北藏族自治州</t>
+        </is>
+      </c>
+      <c r="Z258" s="2" t="inlineStr">
+        <is>
+          <t>祁连县</t>
+        </is>
+      </c>
       <c r="AA258" s="2" t="n"/>
       <c r="AB258" s="2" t="n"/>
-      <c r="AC258" s="2" t="n"/>
-      <c r="AD258" s="4" t="n"/>
+      <c r="AC258" s="2" t="inlineStr">
+        <is>
+          <t>中国</t>
+        </is>
+      </c>
+      <c r="AD258" s="4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
       <c r="AE258" s="4" t="n"/>
-      <c r="AF258" s="2" t="n"/>
+      <c r="AF258" s="2" t="inlineStr">
+        <is>
+          <t>青藏高原</t>
+        </is>
+      </c>
       <c r="AG258" s="2" t="n"/>
     </row>
     <row r="259" ht="24" customHeight="1" s="41">

--- a/气象/For_Python_站点信息和记录.xlsx
+++ b/气象/For_Python_站点信息和记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D57AF00-FD6F-40B3-9C92-331E8AA1573F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDFD464-F996-459F-BB80-9FC862993924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3533" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3534" uniqueCount="895">
   <si>
     <t>id</t>
   </si>
@@ -1651,7 +1651,7 @@
     <t>东方</t>
   </si>
   <si>
-    <t>国家站热夜温强站</t>
+    <t>国家站热夜温强站&lt;br&gt;海南岛西岸</t>
   </si>
   <si>
     <t>东方市</t>
@@ -2334,6 +2334,9 @@
     <t>东方站</t>
   </si>
   <si>
+    <t>明星站 极端低温王&lt;br&gt;七均八均冬均王</t>
+  </si>
+  <si>
     <t>南极高原</t>
   </si>
   <si>
@@ -2691,6 +2694,9 @@
     <t>一八一吊桥</t>
   </si>
   <si>
+    <t>上库力科技站</t>
+  </si>
+  <si>
     <t>END</t>
   </si>
   <si>
@@ -2706,7 +2712,7 @@
     <t>date</t>
   </si>
   <si>
-    <t>明星站 极端低温王&lt;br&gt;七均八均冬均王</t>
+    <t>巴彦洪戈尔&lt;br&gt;杭爱山</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3390,7 +3396,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="20.25" x14ac:dyDescent="0.4"/>
@@ -3417,8 +3423,8 @@
     <col min="25" max="25" width="18.59765625" style="8" customWidth="1"/>
     <col min="26" max="30" width="12.59765625" style="5" customWidth="1"/>
     <col min="31" max="32" width="12.59765625" style="8" customWidth="1"/>
-    <col min="33" max="170" width="12.59765625" style="5" customWidth="1"/>
-    <col min="171" max="16384" width="12.59765625" style="5"/>
+    <col min="33" max="173" width="12.59765625" style="5" customWidth="1"/>
+    <col min="174" max="16384" width="12.59765625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -3565,13 +3571,13 @@
         <v>37</v>
       </c>
       <c r="O2" s="32">
-        <v>-37.799999999999997</v>
+        <v>-38.9</v>
       </c>
       <c r="P2" s="32">
-        <v>-28.7</v>
+        <v>-26.6</v>
       </c>
       <c r="Q2" s="32">
-        <v>-32.72</v>
+        <v>-32.21</v>
       </c>
       <c r="R2" s="23" t="s">
         <v>38</v>
@@ -3647,10 +3653,10 @@
         <v>45</v>
       </c>
       <c r="O3" s="32">
-        <v>-37.6</v>
+        <v>-39.6</v>
       </c>
       <c r="P3" s="32">
-        <v>-24.9</v>
+        <v>-24.1</v>
       </c>
       <c r="Q3" s="32"/>
       <c r="R3" s="23"/>
@@ -3726,7 +3732,7 @@
         <v>-36.9</v>
       </c>
       <c r="P4" s="32">
-        <v>-22.9</v>
+        <v>-19.3</v>
       </c>
       <c r="Q4" s="32"/>
       <c r="R4" s="23"/>
@@ -3797,10 +3803,10 @@
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="32">
-        <v>-28.1</v>
+        <v>-34.6</v>
       </c>
       <c r="P5" s="32">
-        <v>-16.399999999999999</v>
+        <v>-21.6</v>
       </c>
       <c r="Q5" s="32"/>
       <c r="R5" s="23"/>
@@ -3873,10 +3879,10 @@
         <v>56</v>
       </c>
       <c r="O6" s="32">
-        <v>-29.2</v>
+        <v>-35.4</v>
       </c>
       <c r="P6" s="32">
-        <v>-16.100000000000001</v>
+        <v>-10.3</v>
       </c>
       <c r="Q6" s="32"/>
       <c r="R6" s="23"/>
@@ -3951,10 +3957,10 @@
         <v>60</v>
       </c>
       <c r="O7" s="32">
-        <v>-30.8</v>
+        <v>-29.2</v>
       </c>
       <c r="P7" s="32">
-        <v>-20.7</v>
+        <v>-22.2</v>
       </c>
       <c r="Q7" s="32"/>
       <c r="R7" s="23"/>
@@ -4033,13 +4039,13 @@
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="32">
-        <v>-29.2</v>
+        <v>-31</v>
       </c>
       <c r="P8" s="32">
-        <v>-19.3</v>
+        <v>-20.7</v>
       </c>
       <c r="Q8" s="32">
-        <v>-23.04</v>
+        <v>-26.74</v>
       </c>
       <c r="R8" s="23" t="s">
         <v>38</v>
@@ -4117,13 +4123,13 @@
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="32">
-        <v>-37.799999999999997</v>
+        <v>-34.799999999999997</v>
       </c>
       <c r="P9" s="32">
-        <v>-22.4</v>
+        <v>-23.4</v>
       </c>
       <c r="Q9" s="32">
-        <v>-32.24</v>
+        <v>-29.72</v>
       </c>
       <c r="R9" s="23" t="s">
         <v>38</v>
@@ -4203,13 +4209,13 @@
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="32">
-        <v>-36</v>
+        <v>-38</v>
       </c>
       <c r="P10" s="32">
         <v>-24.9</v>
       </c>
       <c r="Q10" s="32">
-        <v>-31.49</v>
+        <v>-31.44</v>
       </c>
       <c r="R10" s="23" t="s">
         <v>38</v>
@@ -4289,13 +4295,13 @@
         <v>48</v>
       </c>
       <c r="O11" s="32">
-        <v>-33.9</v>
+        <v>-37.700000000000003</v>
       </c>
       <c r="P11" s="32">
-        <v>-16.600000000000001</v>
+        <v>-12.2</v>
       </c>
       <c r="Q11" s="32">
-        <v>-26.79</v>
+        <v>-24.51</v>
       </c>
       <c r="R11" s="23" t="s">
         <v>38</v>
@@ -4373,13 +4379,13 @@
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="32">
-        <v>-30.9</v>
+        <v>-34.9</v>
       </c>
       <c r="P12" s="32">
-        <v>-19.600000000000001</v>
+        <v>-24.3</v>
       </c>
       <c r="Q12" s="32">
-        <v>-24.95</v>
+        <v>-29.92</v>
       </c>
       <c r="R12" s="23" t="s">
         <v>38</v>
@@ -4459,13 +4465,13 @@
         <v>60</v>
       </c>
       <c r="O13" s="32">
-        <v>-38.299999999999997</v>
+        <v>-31.8</v>
       </c>
       <c r="P13" s="32">
-        <v>-22.5</v>
+        <v>-22.6</v>
       </c>
       <c r="Q13" s="32">
-        <v>-27.38</v>
+        <v>-28.32</v>
       </c>
       <c r="R13" s="23" t="s">
         <v>38</v>
@@ -4545,13 +4551,13 @@
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="32">
+        <v>-23.2</v>
+      </c>
+      <c r="P14" s="32">
         <v>-19</v>
       </c>
-      <c r="P14" s="32">
-        <v>-13.7</v>
-      </c>
       <c r="Q14" s="32">
-        <v>-16.41</v>
+        <v>-21.45</v>
       </c>
       <c r="R14" s="23" t="s">
         <v>38</v>
@@ -4622,8 +4628,12 @@
         <v>85</v>
       </c>
       <c r="N15" s="2"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
+      <c r="O15" s="32">
+        <v>-31.1</v>
+      </c>
+      <c r="P15" s="32">
+        <v>-21.2</v>
+      </c>
       <c r="Q15" s="32"/>
       <c r="R15" s="23"/>
       <c r="S15" s="37"/>
@@ -4699,13 +4709,13 @@
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="32">
-        <v>-26.8</v>
+        <v>-28.2</v>
       </c>
       <c r="P16" s="32">
-        <v>-14.9</v>
+        <v>-19.5</v>
       </c>
       <c r="Q16" s="32">
-        <v>-18.649999999999999</v>
+        <v>-24.49</v>
       </c>
       <c r="R16" s="23" t="s">
         <v>38</v>
@@ -4844,13 +4854,17 @@
         <v>93</v>
       </c>
       <c r="N18" s="2"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
+      <c r="O18" s="32">
+        <v>-39.700000000000003</v>
+      </c>
+      <c r="P18" s="32">
+        <v>-22.1</v>
+      </c>
       <c r="Q18" s="32"/>
       <c r="R18" s="23"/>
       <c r="S18" s="37"/>
       <c r="T18" s="41" t="s">
-        <v>53</v>
+        <v>894</v>
       </c>
       <c r="U18" s="2" t="s">
         <v>92</v>
@@ -8793,13 +8807,13 @@
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="32">
-        <v>-29.7</v>
+        <v>-30.6</v>
       </c>
       <c r="P75" s="32">
-        <v>-12.3</v>
+        <v>-21.2</v>
       </c>
       <c r="Q75" s="32">
-        <v>-22.14</v>
+        <v>-27.74</v>
       </c>
       <c r="R75" s="23" t="s">
         <v>38</v>
@@ -8877,13 +8891,13 @@
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="32">
-        <v>-40.299999999999997</v>
+        <v>-41</v>
       </c>
       <c r="P76" s="32">
-        <v>-29.8</v>
+        <v>-30.9</v>
       </c>
       <c r="Q76" s="32">
-        <v>-36.06</v>
+        <v>-37.06</v>
       </c>
       <c r="R76" s="23" t="s">
         <v>38</v>
@@ -8963,13 +8977,13 @@
         <v>90</v>
       </c>
       <c r="O77" s="32">
-        <v>-40.700000000000003</v>
+        <v>-43.1</v>
       </c>
       <c r="P77" s="32">
-        <v>-25.6</v>
+        <v>-26</v>
       </c>
       <c r="Q77" s="32">
-        <v>-35.74</v>
+        <v>-37.24</v>
       </c>
       <c r="R77" s="23" t="s">
         <v>38</v>
@@ -9049,13 +9063,13 @@
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="32">
-        <v>-39.5</v>
+        <v>-40.9</v>
       </c>
       <c r="P78" s="32">
-        <v>-28.9</v>
+        <v>-29.9</v>
       </c>
       <c r="Q78" s="32">
-        <v>-35.19</v>
+        <v>-36.51</v>
       </c>
       <c r="R78" s="23" t="s">
         <v>38</v>
@@ -9135,13 +9149,13 @@
         <v>48</v>
       </c>
       <c r="O79" s="32">
-        <v>-40.6</v>
+        <v>-41.3</v>
       </c>
       <c r="P79" s="32">
-        <v>-25.6</v>
+        <v>-24</v>
       </c>
       <c r="Q79" s="32">
-        <v>-35.35</v>
+        <v>-35.26</v>
       </c>
       <c r="R79" s="23" t="s">
         <v>38</v>
@@ -9219,13 +9233,13 @@
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="32">
-        <v>-35.4</v>
+        <v>-29.1</v>
       </c>
       <c r="P80" s="32">
-        <v>-22.7</v>
+        <v>-19.7</v>
       </c>
       <c r="Q80" s="32">
-        <v>-28.89</v>
+        <v>-25.71</v>
       </c>
       <c r="R80" s="23" t="s">
         <v>38</v>
@@ -9305,12 +9319,14 @@
         <v>222</v>
       </c>
       <c r="O81" s="32">
-        <v>-40.6</v>
+        <v>-44.2</v>
       </c>
       <c r="P81" s="32">
-        <v>-26.3</v>
-      </c>
-      <c r="Q81" s="32"/>
+        <v>-27.4</v>
+      </c>
+      <c r="Q81" s="32">
+        <v>-37.39</v>
+      </c>
       <c r="R81" s="23" t="s">
         <v>38</v>
       </c>
@@ -9391,13 +9407,13 @@
         <v>48</v>
       </c>
       <c r="O82" s="32">
-        <v>-36.799999999999997</v>
+        <v>-38</v>
       </c>
       <c r="P82" s="32">
-        <v>-21.6</v>
+        <v>-20.8</v>
       </c>
       <c r="Q82" s="32">
-        <v>-30.39</v>
+        <v>-31.04</v>
       </c>
       <c r="R82" s="23" t="s">
         <v>38</v>
@@ -9477,13 +9493,13 @@
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="32">
-        <v>-22.5</v>
+        <v>-24.2</v>
       </c>
       <c r="P83" s="32">
-        <v>-11.4</v>
+        <v>-14.3</v>
       </c>
       <c r="Q83" s="32">
-        <v>-14.93</v>
+        <v>-19.62</v>
       </c>
       <c r="R83" s="23" t="s">
         <v>38</v>
@@ -9563,13 +9579,13 @@
         <v>236</v>
       </c>
       <c r="O84" s="32">
-        <v>-31.1</v>
+        <v>-36.299999999999997</v>
       </c>
       <c r="P84" s="32">
-        <v>-16.3</v>
+        <v>-19.100000000000001</v>
       </c>
       <c r="Q84" s="32">
-        <v>-24.66</v>
+        <v>-29.88</v>
       </c>
       <c r="R84" s="23" t="s">
         <v>38</v>
@@ -9651,13 +9667,13 @@
         <v>48</v>
       </c>
       <c r="O85" s="32">
-        <v>-33.9</v>
+        <v>-34.9</v>
       </c>
       <c r="P85" s="32">
-        <v>-21.6</v>
+        <v>-15.8</v>
       </c>
       <c r="Q85" s="32">
-        <v>-27.89</v>
+        <v>-22.76</v>
       </c>
       <c r="R85" s="23" t="s">
         <v>38</v>
@@ -9735,13 +9751,13 @@
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="32">
-        <v>-27.5</v>
+        <v>-28.9</v>
       </c>
       <c r="P86" s="32">
-        <v>-20.100000000000001</v>
+        <v>-19.2</v>
       </c>
       <c r="Q86" s="32">
-        <v>-24.26</v>
+        <v>-23.75</v>
       </c>
       <c r="R86" s="23" t="s">
         <v>38</v>
@@ -9825,13 +9841,13 @@
         <v>37</v>
       </c>
       <c r="O87" s="32">
-        <v>-31.9</v>
+        <v>-29.4</v>
       </c>
       <c r="P87" s="32">
-        <v>-21.5</v>
+        <v>-24.8</v>
       </c>
       <c r="Q87" s="32">
-        <v>-28.1</v>
+        <v>-26.49</v>
       </c>
       <c r="R87" s="23" t="s">
         <v>38</v>
@@ -9909,13 +9925,13 @@
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="32">
-        <v>-31</v>
+        <v>-29.1</v>
       </c>
       <c r="P88" s="32">
-        <v>-16.5</v>
+        <v>-16.899999999999999</v>
       </c>
       <c r="Q88" s="32">
-        <v>-25.02</v>
+        <v>-22.68</v>
       </c>
       <c r="R88" s="23" t="s">
         <v>38</v>
@@ -10071,13 +10087,13 @@
         <v>264</v>
       </c>
       <c r="O90" s="32">
-        <v>-28.3</v>
+        <v>-26.7</v>
       </c>
       <c r="P90" s="32">
-        <v>-17.3</v>
+        <v>-15.3</v>
       </c>
       <c r="Q90" s="32">
-        <v>-24.88</v>
+        <v>-22.41</v>
       </c>
       <c r="R90" s="23" t="s">
         <v>38</v>
@@ -10153,13 +10169,13 @@
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="32">
-        <v>-27.9</v>
+        <v>-27</v>
       </c>
       <c r="P91" s="32">
-        <v>-19.399999999999999</v>
+        <v>-18.399999999999999</v>
       </c>
       <c r="Q91" s="32">
-        <v>-23.57</v>
+        <v>-23.82</v>
       </c>
       <c r="R91" s="23" t="s">
         <v>38</v>
@@ -10235,13 +10251,13 @@
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="32">
-        <v>-22.5</v>
+        <v>-17.100000000000001</v>
       </c>
       <c r="P92" s="32">
-        <v>-6.8</v>
+        <v>-7.3</v>
       </c>
       <c r="Q92" s="32">
-        <v>-12.21</v>
+        <v>-10.86</v>
       </c>
       <c r="R92" s="23" t="s">
         <v>38</v>
@@ -10319,13 +10335,13 @@
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="32">
-        <v>-8.8000000000000007</v>
+        <v>-12.6</v>
       </c>
       <c r="P93" s="32">
-        <v>2.1</v>
+        <v>-0.8</v>
       </c>
       <c r="Q93" s="32">
-        <v>-2.71</v>
+        <v>-8.93</v>
       </c>
       <c r="R93" s="23" t="s">
         <v>38</v>
@@ -10407,10 +10423,10 @@
         <v>264</v>
       </c>
       <c r="O94" s="32">
-        <v>-14.8</v>
+        <v>-23.2</v>
       </c>
       <c r="P94" s="32">
-        <v>-0.3</v>
+        <v>-3.6</v>
       </c>
       <c r="Q94" s="32"/>
       <c r="R94" s="23" t="s">
@@ -10493,13 +10509,13 @@
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="32">
+        <v>-18.7</v>
+      </c>
+      <c r="P95" s="32">
         <v>-10.199999999999999</v>
       </c>
-      <c r="P95" s="32">
-        <v>-5.2</v>
-      </c>
       <c r="Q95" s="32">
-        <v>-8.0399999999999991</v>
+        <v>-15.09</v>
       </c>
       <c r="R95" s="23" t="s">
         <v>38</v>
@@ -10585,10 +10601,10 @@
         <v>264</v>
       </c>
       <c r="O96" s="32">
-        <v>-19.8</v>
+        <v>-16.399999999999999</v>
       </c>
       <c r="P96" s="32">
-        <v>-3.3</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="Q96" s="32"/>
       <c r="R96" s="23" t="s">
@@ -10671,13 +10687,13 @@
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="32">
-        <v>-16.600000000000001</v>
+        <v>-21.9</v>
       </c>
       <c r="P97" s="32">
-        <v>-9.6999999999999993</v>
+        <v>-16</v>
       </c>
       <c r="Q97" s="32">
-        <v>-13.54</v>
+        <v>-19.100000000000001</v>
       </c>
       <c r="R97" s="23" t="s">
         <v>38</v>
@@ -10757,10 +10773,10 @@
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="32">
-        <v>-30.3</v>
+        <v>-34.1</v>
       </c>
       <c r="P98" s="32">
-        <v>-17.600000000000001</v>
+        <v>-23.4</v>
       </c>
       <c r="Q98" s="32"/>
       <c r="R98" s="23" t="s">
@@ -10843,13 +10859,13 @@
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="32">
-        <v>-32.700000000000003</v>
+        <v>-38.4</v>
       </c>
       <c r="P99" s="32">
-        <v>-23</v>
+        <v>-29.2</v>
       </c>
       <c r="Q99" s="32">
-        <v>-26.94</v>
+        <v>-34.56</v>
       </c>
       <c r="R99" s="23" t="s">
         <v>38</v>
@@ -11004,12 +11020,8 @@
         <v>324</v>
       </c>
       <c r="N101" s="2"/>
-      <c r="O101" s="32">
-        <v>-35.6</v>
-      </c>
-      <c r="P101" s="32">
-        <v>-21.3</v>
-      </c>
+      <c r="O101" s="32"/>
+      <c r="P101" s="32"/>
       <c r="Q101" s="32"/>
       <c r="R101" s="23" t="s">
         <v>38</v>
@@ -11091,13 +11103,13 @@
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="32">
-        <v>-37.299999999999997</v>
+        <v>-38.799999999999997</v>
       </c>
       <c r="P102" s="32">
-        <v>-22.8</v>
+        <v>-23.8</v>
       </c>
       <c r="Q102" s="32">
-        <v>-32.119999999999997</v>
+        <v>-34.25</v>
       </c>
       <c r="R102" s="23" t="s">
         <v>38</v>
@@ -11177,10 +11189,10 @@
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="32">
-        <v>-35.4</v>
+        <v>-38.5</v>
       </c>
       <c r="P103" s="32">
-        <v>-23.8</v>
+        <v>-26.1</v>
       </c>
       <c r="Q103" s="32"/>
       <c r="R103" s="23" t="s">
@@ -11259,10 +11271,10 @@
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="32">
-        <v>-34.700000000000003</v>
+        <v>-36.299999999999997</v>
       </c>
       <c r="P104" s="32">
-        <v>-19.3</v>
+        <v>-21</v>
       </c>
       <c r="Q104" s="32"/>
       <c r="R104" s="23" t="s">
@@ -11347,13 +11359,13 @@
         <v>222</v>
       </c>
       <c r="O105" s="32">
-        <v>-36.5</v>
+        <v>-37.5</v>
       </c>
       <c r="P105" s="32">
-        <v>-17.8</v>
+        <v>-22.3</v>
       </c>
       <c r="Q105" s="32">
-        <v>-28.67</v>
+        <v>-32.4</v>
       </c>
       <c r="R105" s="23" t="s">
         <v>38</v>
@@ -11435,10 +11447,10 @@
         <v>37</v>
       </c>
       <c r="O106" s="32">
-        <v>-33.799999999999997</v>
+        <v>-34.700000000000003</v>
       </c>
       <c r="P106" s="32">
-        <v>-22.2</v>
+        <v>-27.2</v>
       </c>
       <c r="Q106" s="32"/>
       <c r="R106" s="23" t="s">
@@ -11599,13 +11611,13 @@
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="32">
-        <v>-28.8</v>
+        <v>-29.9</v>
       </c>
       <c r="P108" s="32">
-        <v>-20.5</v>
+        <v>-24.5</v>
       </c>
       <c r="Q108" s="32">
-        <v>-25.56</v>
+        <v>-27.5</v>
       </c>
       <c r="R108" s="23" t="s">
         <v>38</v>
@@ -11841,13 +11853,13 @@
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="32">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="P111" s="32">
-        <v>-16.100000000000001</v>
+        <v>-20.8</v>
       </c>
       <c r="Q111" s="32">
-        <v>-19.600000000000001</v>
+        <v>-23.25</v>
       </c>
       <c r="R111" s="23" t="s">
         <v>38</v>
@@ -11925,10 +11937,10 @@
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="32">
-        <v>-14.6</v>
+        <v>-19.7</v>
       </c>
       <c r="P112" s="32">
-        <v>-4.5999999999999996</v>
+        <v>-14.7</v>
       </c>
       <c r="Q112" s="32"/>
       <c r="R112" s="23" t="s">
@@ -12005,10 +12017,10 @@
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="32">
-        <v>-22.4</v>
+        <v>-22.1</v>
       </c>
       <c r="P113" s="32">
-        <v>-0.3</v>
+        <v>-2.7</v>
       </c>
       <c r="Q113" s="32"/>
       <c r="R113" s="23" t="s">
@@ -12089,10 +12101,10 @@
         <v>90</v>
       </c>
       <c r="O114" s="32">
-        <v>-30.5</v>
+        <v>-29.5</v>
       </c>
       <c r="P114" s="32">
-        <v>-4.9000000000000004</v>
+        <v>-4.3</v>
       </c>
       <c r="Q114" s="32"/>
       <c r="R114" s="23" t="s">
@@ -12177,10 +12189,10 @@
         <v>90</v>
       </c>
       <c r="O115" s="32">
-        <v>-27.3</v>
+        <v>-26.3</v>
       </c>
       <c r="P115" s="32">
-        <v>-7.8</v>
+        <v>-6.9</v>
       </c>
       <c r="Q115" s="32"/>
       <c r="R115" s="23" t="s">
@@ -12263,13 +12275,13 @@
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="32">
-        <v>-15.4</v>
+        <v>-20</v>
       </c>
       <c r="P116" s="32">
-        <v>-5.9</v>
+        <v>1.7</v>
       </c>
       <c r="Q116" s="32">
-        <v>-10.65</v>
+        <v>-11.27</v>
       </c>
       <c r="R116" s="23" t="s">
         <v>38</v>
@@ -12347,10 +12359,10 @@
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="32">
-        <v>-13.9</v>
+        <v>-19.2</v>
       </c>
       <c r="P117" s="32">
-        <v>-3.8</v>
+        <v>-4.2</v>
       </c>
       <c r="Q117" s="32"/>
       <c r="R117" s="23" t="s">
@@ -12431,10 +12443,10 @@
         <v>264</v>
       </c>
       <c r="O118" s="32">
-        <v>-30.9</v>
+        <v>-31</v>
       </c>
       <c r="P118" s="32">
-        <v>-15.1</v>
+        <v>-16.8</v>
       </c>
       <c r="Q118" s="32"/>
       <c r="R118" s="23" t="s">
@@ -12517,13 +12529,13 @@
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="32">
-        <v>-25</v>
+        <v>-24.1</v>
       </c>
       <c r="P119" s="32">
-        <v>-14.5</v>
+        <v>-6</v>
       </c>
       <c r="Q119" s="32">
-        <v>-20.81</v>
+        <v>-17.23</v>
       </c>
       <c r="R119" s="23" t="s">
         <v>38</v>
@@ -12606,18 +12618,10 @@
         <v>399</v>
       </c>
       <c r="N120" s="2"/>
-      <c r="O120" s="32">
-        <v>-10.199999999999999</v>
-      </c>
-      <c r="P120" s="32">
-        <v>-5</v>
-      </c>
-      <c r="Q120" s="32">
-        <v>-7.67</v>
-      </c>
-      <c r="R120" s="23" t="s">
-        <v>38</v>
-      </c>
+      <c r="O120" s="32"/>
+      <c r="P120" s="32"/>
+      <c r="Q120" s="32"/>
+      <c r="R120" s="23"/>
       <c r="S120" s="37"/>
       <c r="T120" s="41" t="s">
         <v>384</v>
@@ -12693,13 +12697,13 @@
       </c>
       <c r="N121" s="2"/>
       <c r="O121" s="32">
-        <v>-12</v>
+        <v>-15.7</v>
       </c>
       <c r="P121" s="32">
-        <v>-7.9</v>
+        <v>-11.6</v>
       </c>
       <c r="Q121" s="32">
-        <v>-10.38</v>
+        <v>-13.58</v>
       </c>
       <c r="R121" s="23" t="s">
         <v>38</v>
@@ -12783,10 +12787,10 @@
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="32">
-        <v>-32.700000000000003</v>
+        <v>-35</v>
       </c>
       <c r="P122" s="32">
-        <v>-20</v>
+        <v>-20.9</v>
       </c>
       <c r="Q122" s="32"/>
       <c r="R122" s="23" t="s">
@@ -12949,13 +12953,13 @@
       </c>
       <c r="N124" s="2"/>
       <c r="O124" s="32">
-        <v>-12.8</v>
+        <v>-14.3</v>
       </c>
       <c r="P124" s="32">
-        <v>-1.9</v>
+        <v>-8.1</v>
       </c>
       <c r="Q124" s="32">
-        <v>-8.69</v>
+        <v>-12.25</v>
       </c>
       <c r="R124" s="23" t="s">
         <v>38</v>
@@ -13039,13 +13043,13 @@
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="32">
-        <v>-4.9000000000000004</v>
+        <v>-3.1</v>
       </c>
       <c r="P125" s="32">
-        <v>6.6</v>
+        <v>4.7</v>
       </c>
       <c r="Q125" s="32">
-        <v>0.24</v>
+        <v>-0.61</v>
       </c>
       <c r="R125" s="23" t="s">
         <v>38</v>
@@ -13117,10 +13121,10 @@
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="32">
-        <v>-1.3</v>
+        <v>-1.5</v>
       </c>
       <c r="P126" s="32">
-        <v>6.7</v>
+        <v>5.2</v>
       </c>
       <c r="Q126" s="32"/>
       <c r="R126" s="23" t="s">
@@ -13199,13 +13203,13 @@
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="32">
-        <v>-2.7</v>
+        <v>-7.7</v>
       </c>
       <c r="P127" s="32">
-        <v>4.0999999999999996</v>
+        <v>0.6</v>
       </c>
       <c r="Q127" s="32">
-        <v>0.73</v>
+        <v>-3.49</v>
       </c>
       <c r="R127" s="23" t="s">
         <v>38</v>
@@ -13287,10 +13291,10 @@
       </c>
       <c r="N128" s="2"/>
       <c r="O128" s="32">
-        <v>1.1000000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="P128" s="32">
-        <v>14.6</v>
+        <v>7.2</v>
       </c>
       <c r="Q128" s="32"/>
       <c r="R128" s="23" t="s">
@@ -13369,13 +13373,13 @@
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="32">
-        <v>-8.4</v>
+        <v>-6.4</v>
       </c>
       <c r="P129" s="32">
-        <v>8.1</v>
+        <v>1.3</v>
       </c>
       <c r="Q129" s="32">
-        <v>-0.03</v>
+        <v>-3.46</v>
       </c>
       <c r="R129" s="23" t="s">
         <v>38</v>
@@ -13457,13 +13461,13 @@
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="32">
-        <v>-11.5</v>
+        <v>-12.8</v>
       </c>
       <c r="P130" s="32">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="Q130" s="32">
-        <v>-3.4</v>
+        <v>-3.56</v>
       </c>
       <c r="R130" s="23" t="s">
         <v>38</v>
@@ -13545,13 +13549,13 @@
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="32">
-        <v>3.8</v>
+        <v>-0.6</v>
       </c>
       <c r="P131" s="32">
-        <v>10.8</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="Q131" s="32">
-        <v>6.88</v>
+        <v>2.27</v>
       </c>
       <c r="R131" s="23" t="s">
         <v>38</v>
@@ -13631,13 +13635,13 @@
       </c>
       <c r="N132" s="2"/>
       <c r="O132" s="32">
-        <v>-0.6</v>
+        <v>5.2</v>
       </c>
       <c r="P132" s="32">
-        <v>16.399999999999999</v>
+        <v>12</v>
       </c>
       <c r="Q132" s="32">
-        <v>7.77</v>
+        <v>7.92</v>
       </c>
       <c r="R132" s="23" t="s">
         <v>38</v>
@@ -13717,13 +13721,13 @@
       </c>
       <c r="N133" s="2"/>
       <c r="O133" s="32">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="P133" s="32">
-        <v>13.9</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="Q133" s="32">
-        <v>6.01</v>
+        <v>5.85</v>
       </c>
       <c r="R133" s="23" t="s">
         <v>38</v>
@@ -13804,18 +13808,10 @@
         <v>473</v>
       </c>
       <c r="N134" s="2"/>
-      <c r="O134" s="32">
-        <v>-1.6</v>
-      </c>
-      <c r="P134" s="32">
-        <v>12.6</v>
-      </c>
-      <c r="Q134" s="32">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="R134" s="23" t="s">
-        <v>38</v>
-      </c>
+      <c r="O134" s="32"/>
+      <c r="P134" s="32"/>
+      <c r="Q134" s="32"/>
+      <c r="R134" s="23"/>
       <c r="S134" s="37"/>
       <c r="T134" s="41" t="s">
         <v>467</v>
@@ -13889,13 +13885,13 @@
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="32">
-        <v>1.5</v>
+        <v>5.6</v>
       </c>
       <c r="P135" s="32">
-        <v>17.600000000000001</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="Q135" s="32">
-        <v>8.67</v>
+        <v>11.03</v>
       </c>
       <c r="R135" s="23" t="s">
         <v>38</v>
@@ -13975,13 +13971,13 @@
       </c>
       <c r="N136" s="2"/>
       <c r="O136" s="32">
-        <v>2.2999999999999998</v>
+        <v>3.5</v>
       </c>
       <c r="P136" s="32">
-        <v>15.1</v>
+        <v>18</v>
       </c>
       <c r="Q136" s="32">
-        <v>8.14</v>
+        <v>10.36</v>
       </c>
       <c r="R136" s="23" t="s">
         <v>38</v>
@@ -14061,10 +14057,10 @@
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="32">
-        <v>3.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="P137" s="32">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="Q137" s="32"/>
       <c r="R137" s="23"/>
@@ -14143,10 +14139,10 @@
       </c>
       <c r="N138" s="2"/>
       <c r="O138" s="32">
-        <v>-3.9</v>
+        <v>-1</v>
       </c>
       <c r="P138" s="32">
-        <v>16.399999999999999</v>
+        <v>10.4</v>
       </c>
       <c r="Q138" s="32"/>
       <c r="R138" s="23" t="s">
@@ -14227,13 +14223,13 @@
       </c>
       <c r="N139" s="2"/>
       <c r="O139" s="32">
-        <v>-1.7</v>
+        <v>3.2</v>
       </c>
       <c r="P139" s="32">
-        <v>13.7</v>
+        <v>11</v>
       </c>
       <c r="Q139" s="32">
-        <v>5.17</v>
+        <v>7.65</v>
       </c>
       <c r="R139" s="23" t="s">
         <v>38</v>
@@ -14313,13 +14309,13 @@
       </c>
       <c r="N140" s="2"/>
       <c r="O140" s="32">
-        <v>-0.4</v>
+        <v>3.2</v>
       </c>
       <c r="P140" s="32">
-        <v>13.8</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="Q140" s="32">
-        <v>5.91</v>
+        <v>9.19</v>
       </c>
       <c r="R140" s="23" t="s">
         <v>38</v>
@@ -14398,18 +14394,10 @@
         <v>514</v>
       </c>
       <c r="N141" s="2"/>
-      <c r="O141" s="32">
-        <v>-1.5</v>
-      </c>
-      <c r="P141" s="32">
-        <v>14.6</v>
-      </c>
-      <c r="Q141" s="32">
-        <v>5.2</v>
-      </c>
-      <c r="R141" s="23" t="s">
-        <v>38</v>
-      </c>
+      <c r="O141" s="32"/>
+      <c r="P141" s="32"/>
+      <c r="Q141" s="32"/>
+      <c r="R141" s="23"/>
       <c r="S141" s="37"/>
       <c r="T141" s="41" t="s">
         <v>509</v>
@@ -14483,13 +14471,13 @@
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="32">
-        <v>4.5999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="P142" s="32">
-        <v>16.2</v>
+        <v>19.7</v>
       </c>
       <c r="Q142" s="32">
-        <v>9.5500000000000007</v>
+        <v>10.66</v>
       </c>
       <c r="R142" s="23" t="s">
         <v>38</v>
@@ -14569,13 +14557,13 @@
       </c>
       <c r="N143" s="2"/>
       <c r="O143" s="32">
-        <v>5.8</v>
+        <v>4.7</v>
       </c>
       <c r="P143" s="32">
-        <v>20.100000000000001</v>
+        <v>22.4</v>
       </c>
       <c r="Q143" s="32">
-        <v>11.34</v>
+        <v>12.07</v>
       </c>
       <c r="R143" s="23" t="s">
         <v>38</v>
@@ -14654,18 +14642,10 @@
         <v>531</v>
       </c>
       <c r="N144" s="2"/>
-      <c r="O144" s="32">
-        <v>10.7</v>
-      </c>
-      <c r="P144" s="32">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="Q144" s="32">
-        <v>15.29</v>
-      </c>
-      <c r="R144" s="23" t="s">
-        <v>38</v>
-      </c>
+      <c r="O144" s="32"/>
+      <c r="P144" s="32"/>
+      <c r="Q144" s="32"/>
+      <c r="R144" s="23"/>
       <c r="S144" s="37"/>
       <c r="T144" s="41" t="s">
         <v>532</v>
@@ -14738,18 +14718,10 @@
         <v>536</v>
       </c>
       <c r="N145" s="2"/>
-      <c r="O145" s="32">
-        <v>11</v>
-      </c>
-      <c r="P145" s="32">
-        <v>19.8</v>
-      </c>
-      <c r="Q145" s="32">
-        <v>14.85</v>
-      </c>
-      <c r="R145" s="23" t="s">
-        <v>38</v>
-      </c>
+      <c r="O145" s="32"/>
+      <c r="P145" s="32"/>
+      <c r="Q145" s="32"/>
+      <c r="R145" s="23"/>
       <c r="S145" s="37"/>
       <c r="T145" s="41" t="s">
         <v>532</v>
@@ -14821,13 +14793,13 @@
       </c>
       <c r="N146" s="2"/>
       <c r="O146" s="32">
-        <v>12.7</v>
+        <v>12.3</v>
       </c>
       <c r="P146" s="32">
-        <v>22.2</v>
+        <v>22.8</v>
       </c>
       <c r="Q146" s="32">
-        <v>17.16</v>
+        <v>17.440000000000001</v>
       </c>
       <c r="R146" s="23" t="s">
         <v>38</v>
@@ -14903,13 +14875,13 @@
       </c>
       <c r="N147" s="2"/>
       <c r="O147" s="32">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="P147" s="32">
-        <v>19.600000000000001</v>
+        <v>21.9</v>
       </c>
       <c r="Q147" s="32">
-        <v>12.4</v>
+        <v>13.43</v>
       </c>
       <c r="R147" s="23" t="s">
         <v>38</v>
@@ -14988,16 +14960,10 @@
         <v>550</v>
       </c>
       <c r="N148" s="2"/>
-      <c r="O148" s="32">
-        <v>12</v>
-      </c>
-      <c r="P148" s="32">
-        <v>21.7</v>
-      </c>
+      <c r="O148" s="32"/>
+      <c r="P148" s="32"/>
       <c r="Q148" s="32"/>
-      <c r="R148" s="23" t="s">
-        <v>38</v>
-      </c>
+      <c r="R148" s="23"/>
       <c r="S148" s="37"/>
       <c r="T148" s="41" t="s">
         <v>551</v>
@@ -15071,13 +15037,13 @@
       </c>
       <c r="N149" s="2"/>
       <c r="O149" s="32">
-        <v>5.9</v>
+        <v>4.8</v>
       </c>
       <c r="P149" s="32">
-        <v>15.3</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="Q149" s="32">
-        <v>9.39</v>
+        <v>9.89</v>
       </c>
       <c r="R149" s="23" t="s">
         <v>38</v>
@@ -15157,13 +15123,13 @@
       </c>
       <c r="N150" s="2"/>
       <c r="O150" s="32">
-        <v>3.9</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="P150" s="32">
-        <v>9.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="Q150" s="32">
-        <v>6.49</v>
+        <v>6.3</v>
       </c>
       <c r="R150" s="23" t="s">
         <v>38</v>
@@ -15243,13 +15209,13 @@
       </c>
       <c r="N151" s="2"/>
       <c r="O151" s="32">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="P151" s="32">
-        <v>14.4</v>
+        <v>13.1</v>
       </c>
       <c r="Q151" s="32">
-        <v>9.0399999999999991</v>
+        <v>8.61</v>
       </c>
       <c r="R151" s="23" t="s">
         <v>38</v>
@@ -15325,9 +15291,7 @@
       <c r="O152" s="32"/>
       <c r="P152" s="32"/>
       <c r="Q152" s="32"/>
-      <c r="R152" s="23" t="s">
-        <v>38</v>
-      </c>
+      <c r="R152" s="23"/>
       <c r="S152" s="37"/>
       <c r="T152" s="41" t="s">
         <v>572</v>
@@ -15401,13 +15365,13 @@
       </c>
       <c r="N153" s="2"/>
       <c r="O153" s="32">
-        <v>-1.1000000000000001</v>
+        <v>-0.7</v>
       </c>
       <c r="P153" s="32">
-        <v>13.6</v>
+        <v>14.1</v>
       </c>
       <c r="Q153" s="32">
-        <v>5.18</v>
+        <v>5.39</v>
       </c>
       <c r="R153" s="23" t="s">
         <v>38</v>
@@ -15489,13 +15453,13 @@
       </c>
       <c r="N154" s="2"/>
       <c r="O154" s="32">
-        <v>-6</v>
+        <v>-6.6</v>
       </c>
       <c r="P154" s="32">
-        <v>11.2</v>
+        <v>15.1</v>
       </c>
       <c r="Q154" s="32">
-        <v>0.66</v>
+        <v>0.86</v>
       </c>
       <c r="R154" s="23" t="s">
         <v>38</v>
@@ -15573,9 +15537,7 @@
       <c r="O155" s="32"/>
       <c r="P155" s="32"/>
       <c r="Q155" s="32"/>
-      <c r="R155" s="23" t="s">
-        <v>38</v>
-      </c>
+      <c r="R155" s="23"/>
       <c r="S155" s="37"/>
       <c r="T155" s="41" t="s">
         <v>334</v>
@@ -15645,10 +15607,10 @@
       </c>
       <c r="N156" s="2"/>
       <c r="O156" s="32">
-        <v>-15.7</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="P156" s="32">
-        <v>-2.6</v>
+        <v>-8.1</v>
       </c>
       <c r="Q156" s="32"/>
       <c r="R156" s="23" t="s">
@@ -15725,10 +15687,10 @@
       </c>
       <c r="N157" s="2"/>
       <c r="O157" s="32">
-        <v>2.1</v>
+        <v>5.3</v>
       </c>
       <c r="P157" s="32">
-        <v>12.4</v>
+        <v>13</v>
       </c>
       <c r="Q157" s="32"/>
       <c r="R157" s="23" t="s">
@@ -15805,9 +15767,7 @@
       <c r="O158" s="32"/>
       <c r="P158" s="32"/>
       <c r="Q158" s="32"/>
-      <c r="R158" s="23" t="s">
-        <v>38</v>
-      </c>
+      <c r="R158" s="23"/>
       <c r="S158" s="37"/>
       <c r="T158" s="41" t="s">
         <v>520</v>
@@ -15879,9 +15839,7 @@
       <c r="O159" s="32"/>
       <c r="P159" s="32"/>
       <c r="Q159" s="32"/>
-      <c r="R159" s="23" t="s">
-        <v>38</v>
-      </c>
+      <c r="R159" s="23"/>
       <c r="S159" s="37"/>
       <c r="T159" s="41" t="s">
         <v>485</v>
@@ -15953,9 +15911,7 @@
       <c r="O160" s="32"/>
       <c r="P160" s="32"/>
       <c r="Q160" s="32"/>
-      <c r="R160" s="23" t="s">
-        <v>38</v>
-      </c>
+      <c r="R160" s="23"/>
       <c r="S160" s="37"/>
       <c r="T160" s="41" t="s">
         <v>479</v>
@@ -16025,10 +15981,10 @@
       </c>
       <c r="N161" s="2"/>
       <c r="O161" s="32">
-        <v>-9.4</v>
+        <v>-9.1</v>
       </c>
       <c r="P161" s="32">
-        <v>5.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q161" s="32"/>
       <c r="R161" s="23" t="s">
@@ -16108,12 +16064,8 @@
       <c r="N162" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="O162" s="32">
-        <v>-36.700000000000003</v>
-      </c>
-      <c r="P162" s="32">
-        <v>-17.7</v>
-      </c>
+      <c r="O162" s="32"/>
+      <c r="P162" s="32"/>
       <c r="Q162" s="32"/>
       <c r="R162" s="23" t="s">
         <v>38</v>
@@ -16191,10 +16143,10 @@
         <v>222</v>
       </c>
       <c r="O163" s="32">
-        <v>-37.5</v>
+        <v>-39.799999999999997</v>
       </c>
       <c r="P163" s="32">
-        <v>-22.7</v>
+        <v>-23.4</v>
       </c>
       <c r="Q163" s="32"/>
       <c r="R163" s="23" t="s">
@@ -16352,7 +16304,7 @@
         <v>-37.9</v>
       </c>
       <c r="P165" s="32">
-        <v>-19</v>
+        <v>-24.3</v>
       </c>
       <c r="Q165" s="32"/>
       <c r="R165" s="23" t="s">
@@ -16581,10 +16533,10 @@
         <v>632</v>
       </c>
       <c r="O168" s="32">
-        <v>-32</v>
+        <v>-29.9</v>
       </c>
       <c r="P168" s="32">
-        <v>-15.9</v>
+        <v>-13.5</v>
       </c>
       <c r="Q168" s="32"/>
       <c r="R168" s="23" t="s">
@@ -16663,10 +16615,10 @@
         <v>264</v>
       </c>
       <c r="O169" s="32">
-        <v>-38</v>
+        <v>-34.6</v>
       </c>
       <c r="P169" s="32">
-        <v>-18.899999999999999</v>
+        <v>-15</v>
       </c>
       <c r="Q169" s="32"/>
       <c r="R169" s="23" t="s">
@@ -16892,8 +16844,12 @@
         <v>646</v>
       </c>
       <c r="N172" s="3"/>
-      <c r="O172" s="32"/>
-      <c r="P172" s="32"/>
+      <c r="O172" s="32">
+        <v>-32.200000000000003</v>
+      </c>
+      <c r="P172" s="32">
+        <v>-13.8</v>
+      </c>
       <c r="Q172" s="32"/>
       <c r="R172" s="23" t="s">
         <v>38</v>
@@ -16969,10 +16925,10 @@
       </c>
       <c r="N173" s="2"/>
       <c r="O173" s="32">
-        <v>-20.2</v>
+        <v>-22.6</v>
       </c>
       <c r="P173" s="32">
-        <v>-6.8</v>
+        <v>-12.8</v>
       </c>
       <c r="Q173" s="32"/>
       <c r="R173" s="23" t="s">
@@ -17203,10 +17159,10 @@
       </c>
       <c r="N176" s="2"/>
       <c r="O176" s="32">
-        <v>-5.7</v>
+        <v>-3.7</v>
       </c>
       <c r="P176" s="32">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="Q176" s="32"/>
       <c r="R176" s="23" t="s">
@@ -17279,10 +17235,10 @@
       </c>
       <c r="N177" s="2"/>
       <c r="O177" s="32">
-        <v>-21.2</v>
+        <v>-29.4</v>
       </c>
       <c r="P177" s="32">
-        <v>-16.5</v>
+        <v>-16.2</v>
       </c>
       <c r="Q177" s="32"/>
       <c r="R177" s="23" t="s">
@@ -17939,13 +17895,13 @@
       </c>
       <c r="N186" s="2"/>
       <c r="O186" s="32">
-        <v>-47.2</v>
+        <v>-45.8</v>
       </c>
       <c r="P186" s="32">
-        <v>-41.4</v>
+        <v>-34.200000000000003</v>
       </c>
       <c r="Q186" s="32">
-        <v>-44.87</v>
+        <v>-37.25</v>
       </c>
       <c r="R186" s="23" t="s">
         <v>38</v>
@@ -18021,13 +17977,13 @@
       </c>
       <c r="N187" s="2"/>
       <c r="O187" s="32">
-        <v>-45.6</v>
+        <v>-46.5</v>
       </c>
       <c r="P187" s="32">
-        <v>-38</v>
+        <v>-33.9</v>
       </c>
       <c r="Q187" s="32">
-        <v>-41.3</v>
+        <v>-40.729999999999997</v>
       </c>
       <c r="R187" s="23" t="s">
         <v>38</v>
@@ -18101,12 +18057,14 @@
       </c>
       <c r="N188" s="2"/>
       <c r="O188" s="32">
-        <v>-42.2</v>
+        <v>-42.3</v>
       </c>
       <c r="P188" s="32">
-        <v>-40</v>
-      </c>
-      <c r="Q188" s="32"/>
+        <v>-36.4</v>
+      </c>
+      <c r="Q188" s="32">
+        <v>-39.21</v>
+      </c>
       <c r="R188" s="23" t="s">
         <v>38</v>
       </c>
@@ -18253,13 +18211,13 @@
       </c>
       <c r="N190" s="2"/>
       <c r="O190" s="32">
-        <v>-55.3</v>
+        <v>-55.9</v>
       </c>
       <c r="P190" s="32">
-        <v>-52.4</v>
+        <v>-52.8</v>
       </c>
       <c r="Q190" s="32">
-        <v>-54.49</v>
+        <v>-54.71</v>
       </c>
       <c r="R190" s="23" t="s">
         <v>38</v>
@@ -18333,14 +18291,12 @@
       </c>
       <c r="N191" s="2"/>
       <c r="O191" s="32">
-        <v>-49</v>
+        <v>-47.9</v>
       </c>
       <c r="P191" s="32">
-        <v>-44.8</v>
-      </c>
-      <c r="Q191" s="32">
-        <v>-47</v>
-      </c>
+        <v>-34.6</v>
+      </c>
+      <c r="Q191" s="32"/>
       <c r="R191" s="23" t="s">
         <v>38</v>
       </c>
@@ -18411,13 +18367,13 @@
       </c>
       <c r="N192" s="2"/>
       <c r="O192" s="32">
-        <v>-45.7</v>
+        <v>-45.2</v>
       </c>
       <c r="P192" s="32">
-        <v>-41.9</v>
+        <v>-40.299999999999997</v>
       </c>
       <c r="Q192" s="32">
-        <v>-43.99</v>
+        <v>-43.01</v>
       </c>
       <c r="R192" s="23" t="s">
         <v>38</v>
@@ -18491,13 +18447,13 @@
       </c>
       <c r="N193" s="2"/>
       <c r="O193" s="32">
-        <v>-40</v>
+        <v>-44.6</v>
       </c>
       <c r="P193" s="32">
-        <v>-38.200000000000003</v>
+        <v>-39.6</v>
       </c>
       <c r="Q193" s="32">
-        <v>-39.07</v>
+        <v>-41.61</v>
       </c>
       <c r="R193" s="23" t="s">
         <v>38</v>
@@ -18573,10 +18529,10 @@
       </c>
       <c r="N194" s="2"/>
       <c r="O194" s="32">
-        <v>-55.5</v>
+        <v>-52.7</v>
       </c>
       <c r="P194" s="32">
-        <v>-48.9</v>
+        <v>-44.1</v>
       </c>
       <c r="Q194" s="32"/>
       <c r="R194" s="23" t="s">
@@ -18649,13 +18605,13 @@
       </c>
       <c r="N195" s="2"/>
       <c r="O195" s="32">
-        <v>-36.6</v>
+        <v>-37</v>
       </c>
       <c r="P195" s="32">
-        <v>-31</v>
+        <v>-32.6</v>
       </c>
       <c r="Q195" s="32">
-        <v>-34.729999999999997</v>
+        <v>-35.46</v>
       </c>
       <c r="R195" s="23" t="s">
         <v>38</v>
@@ -18729,13 +18685,13 @@
       </c>
       <c r="N196" s="2"/>
       <c r="O196" s="32">
-        <v>-38.200000000000003</v>
+        <v>-35.6</v>
       </c>
       <c r="P196" s="32">
-        <v>-34.1</v>
+        <v>-28.1</v>
       </c>
       <c r="Q196" s="32">
-        <v>-35.71</v>
+        <v>-30.95</v>
       </c>
       <c r="R196" s="23" t="s">
         <v>38</v>
@@ -18809,13 +18765,13 @@
       </c>
       <c r="N197" s="24"/>
       <c r="O197" s="32">
+        <v>-48</v>
+      </c>
+      <c r="P197" s="32">
         <v>-43.6</v>
       </c>
-      <c r="P197" s="32">
-        <v>-32.4</v>
-      </c>
       <c r="Q197" s="32">
-        <v>-40.020000000000003</v>
+        <v>-46.45</v>
       </c>
       <c r="R197" s="23" t="s">
         <v>38</v>
@@ -19032,12 +18988,8 @@
         <v>738</v>
       </c>
       <c r="N200" s="2"/>
-      <c r="O200" s="32">
-        <v>-40</v>
-      </c>
-      <c r="P200" s="32">
-        <v>-24.7</v>
-      </c>
+      <c r="O200" s="32"/>
+      <c r="P200" s="32"/>
       <c r="Q200" s="32"/>
       <c r="R200" s="23" t="s">
         <v>38</v>
@@ -19110,12 +19062,8 @@
         <v>740</v>
       </c>
       <c r="N201" s="2"/>
-      <c r="O201" s="32">
-        <v>-39.299999999999997</v>
-      </c>
-      <c r="P201" s="32">
-        <v>-17.899999999999999</v>
-      </c>
+      <c r="O201" s="32"/>
+      <c r="P201" s="32"/>
       <c r="Q201" s="32"/>
       <c r="R201" s="23" t="s">
         <v>38</v>
@@ -19478,12 +19426,8 @@
         <v>753</v>
       </c>
       <c r="N206" s="2"/>
-      <c r="O206" s="32">
-        <v>-39.200000000000003</v>
-      </c>
-      <c r="P206" s="32">
-        <v>-20.5</v>
-      </c>
+      <c r="O206" s="32"/>
+      <c r="P206" s="32"/>
       <c r="Q206" s="32"/>
       <c r="R206" s="23" t="s">
         <v>38</v>
@@ -19923,10 +19867,10 @@
       </c>
       <c r="N212" s="2"/>
       <c r="O212" s="32">
-        <v>-38</v>
+        <v>-37.200000000000003</v>
       </c>
       <c r="P212" s="32">
-        <v>-27.7</v>
+        <v>-26.9</v>
       </c>
       <c r="Q212" s="32"/>
       <c r="R212" s="23" t="s">
@@ -19934,7 +19878,7 @@
       </c>
       <c r="S212" s="37"/>
       <c r="T212" s="41" t="s">
-        <v>892</v>
+        <v>768</v>
       </c>
       <c r="U212" s="2"/>
       <c r="V212" s="4" t="s">
@@ -19955,7 +19899,7 @@
       </c>
       <c r="AF212" s="4"/>
       <c r="AG212" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="AH212" s="2"/>
     </row>
@@ -19970,7 +19914,7 @@
         <v>35188</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="E213" s="4">
         <v>99999</v>
@@ -19993,27 +19937,27 @@
       </c>
       <c r="L213" s="3"/>
       <c r="M213" s="17" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="N213" s="2"/>
       <c r="O213" s="32">
-        <v>-12</v>
+        <v>-10.8</v>
       </c>
       <c r="P213" s="32">
-        <v>-5.6</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="Q213" s="32">
-        <v>-8.85</v>
+        <v>-7.92</v>
       </c>
       <c r="R213" s="23" t="s">
         <v>38</v>
       </c>
       <c r="S213" s="37"/>
       <c r="T213" s="41" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="U213" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="V213" s="4" t="s">
         <v>38</v>
@@ -20031,7 +19975,7 @@
       <c r="AA213" s="2"/>
       <c r="AB213" s="2"/>
       <c r="AC213" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="AD213" s="2" t="s">
         <v>265</v>
@@ -20054,7 +19998,7 @@
         <v>30710</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E214" s="4">
         <v>99999</v>
@@ -20077,24 +20021,24 @@
       </c>
       <c r="L214" s="3"/>
       <c r="M214" s="16" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="N214" s="2"/>
       <c r="O214" s="32">
-        <v>-15.8</v>
+        <v>-21.9</v>
       </c>
       <c r="P214" s="32">
-        <v>-10.8</v>
+        <v>-13.2</v>
       </c>
       <c r="Q214" s="32">
-        <v>-14.24</v>
+        <v>-17.309999999999999</v>
       </c>
       <c r="R214" s="23" t="s">
         <v>38</v>
       </c>
       <c r="S214" s="37"/>
       <c r="T214" s="41" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="U214" s="2" t="s">
         <v>238</v>
@@ -20115,7 +20059,7 @@
       <c r="AA214" s="2"/>
       <c r="AB214" s="2"/>
       <c r="AC214" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="AD214" s="2" t="s">
         <v>195</v>
@@ -20140,7 +20084,7 @@
         <v>30823</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E215" s="4">
         <v>99999</v>
@@ -20163,24 +20107,24 @@
       </c>
       <c r="L215" s="3"/>
       <c r="M215" s="16" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="N215" s="2"/>
       <c r="O215" s="32">
-        <v>-21.5</v>
+        <v>-21.4</v>
       </c>
       <c r="P215" s="32">
-        <v>-12.9</v>
+        <v>-15.2</v>
       </c>
       <c r="Q215" s="32">
-        <v>-17.46</v>
+        <v>-18.350000000000001</v>
       </c>
       <c r="R215" s="23" t="s">
         <v>38</v>
       </c>
       <c r="S215" s="37"/>
       <c r="T215" s="41" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="U215" s="2" t="s">
         <v>232</v>
@@ -20201,7 +20145,7 @@
       <c r="AA215" s="2"/>
       <c r="AB215" s="2"/>
       <c r="AC215" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="AD215" s="2" t="s">
         <v>195</v>
@@ -20226,7 +20170,7 @@
         <v>30758</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="E216" s="4">
         <v>99999</v>
@@ -20249,24 +20193,24 @@
       </c>
       <c r="L216" s="3"/>
       <c r="M216" s="16" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="N216" s="2"/>
       <c r="O216" s="32">
-        <v>-26.3</v>
+        <v>-22.7</v>
       </c>
       <c r="P216" s="32">
-        <v>-10.9</v>
+        <v>-15.9</v>
       </c>
       <c r="Q216" s="32">
-        <v>-19.239999999999998</v>
+        <v>-19.21</v>
       </c>
       <c r="R216" s="23" t="s">
         <v>38</v>
       </c>
       <c r="S216" s="37"/>
       <c r="T216" s="41" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="U216" s="2" t="s">
         <v>218</v>
@@ -20287,7 +20231,7 @@
       <c r="AA216" s="2"/>
       <c r="AB216" s="2"/>
       <c r="AC216" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="AD216" s="2" t="s">
         <v>195</v>
@@ -20310,7 +20254,7 @@
         <v>29638</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="E217" s="4">
         <v>99999</v>
@@ -20333,27 +20277,27 @@
       </c>
       <c r="L217" s="3"/>
       <c r="M217" s="16" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="N217" s="2"/>
       <c r="O217" s="32">
-        <v>-30</v>
+        <v>-18.2</v>
       </c>
       <c r="P217" s="32">
-        <v>-18.2</v>
+        <v>-6.4</v>
       </c>
       <c r="Q217" s="32">
-        <v>-23.54</v>
+        <v>-9.6199999999999992</v>
       </c>
       <c r="R217" s="23" t="s">
         <v>38</v>
       </c>
       <c r="S217" s="37"/>
       <c r="T217" s="41" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="U217" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="V217" s="4" t="s">
         <v>38</v>
@@ -20371,7 +20315,7 @@
       <c r="AA217" s="2"/>
       <c r="AB217" s="2"/>
       <c r="AC217" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="AD217" s="2" t="s">
         <v>195</v>
@@ -20394,7 +20338,7 @@
         <v>29570</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="E218" s="4">
         <v>99999</v>
@@ -20421,20 +20365,20 @@
       </c>
       <c r="N218" s="2"/>
       <c r="O218" s="32">
-        <v>-22.9</v>
+        <v>-23.9</v>
       </c>
       <c r="P218" s="32">
-        <v>-14.6</v>
+        <v>-6.9</v>
       </c>
       <c r="Q218" s="32">
-        <v>-19.61</v>
+        <v>-13.25</v>
       </c>
       <c r="R218" s="23" t="s">
         <v>38</v>
       </c>
       <c r="S218" s="37"/>
       <c r="T218" s="41" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="U218" s="2" t="s">
         <v>732</v>
@@ -20455,7 +20399,7 @@
       <c r="AA218" s="2"/>
       <c r="AB218" s="2"/>
       <c r="AC218" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="AD218" s="2" t="s">
         <v>195</v>
@@ -20478,7 +20422,7 @@
         <v>31960</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="E219" s="4">
         <v>99999</v>
@@ -20501,27 +20445,27 @@
       </c>
       <c r="L219" s="3"/>
       <c r="M219" s="16" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="N219" s="2"/>
       <c r="O219" s="32">
-        <v>-14.1</v>
+        <v>-12.5</v>
       </c>
       <c r="P219" s="32">
-        <v>-3.4</v>
+        <v>-3.8</v>
       </c>
       <c r="Q219" s="32">
-        <v>-9.6999999999999993</v>
+        <v>-8.5500000000000007</v>
       </c>
       <c r="R219" s="23" t="s">
         <v>38</v>
       </c>
       <c r="S219" s="37"/>
       <c r="T219" s="41" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="U219" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="V219" s="4" t="s">
         <v>38</v>
@@ -20539,7 +20483,7 @@
       <c r="AA219" s="2"/>
       <c r="AB219" s="2"/>
       <c r="AC219" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="AD219" s="2" t="s">
         <v>195</v>
@@ -20560,7 +20504,7 @@
       <c r="D220" s="2"/>
       <c r="E220" s="4"/>
       <c r="F220" s="39" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="G220" s="29">
         <v>50.698099999999997</v>
@@ -20579,7 +20523,7 @@
       </c>
       <c r="L220" s="3"/>
       <c r="M220" s="14" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="N220" s="2"/>
       <c r="O220" s="32"/>
@@ -20634,7 +20578,7 @@
       <c r="D221" s="2"/>
       <c r="E221" s="4"/>
       <c r="F221" s="39" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G221" s="29">
         <v>51.150799999999997</v>
@@ -20653,7 +20597,7 @@
       </c>
       <c r="L221" s="3"/>
       <c r="M221" s="14" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="N221" s="2"/>
       <c r="O221" s="32"/>
@@ -20708,7 +20652,7 @@
       <c r="D222" s="2"/>
       <c r="E222" s="4"/>
       <c r="F222" s="39" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="G222" s="29">
         <v>51.7881</v>
@@ -20727,7 +20671,7 @@
       </c>
       <c r="L222" s="3"/>
       <c r="M222" s="14" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="N222" s="2"/>
       <c r="O222" s="32"/>
@@ -20757,7 +20701,7 @@
         <v>318</v>
       </c>
       <c r="AA222" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="AB222" s="2"/>
       <c r="AC222" s="2"/>
@@ -20782,7 +20726,7 @@
       <c r="D223" s="2"/>
       <c r="E223" s="4"/>
       <c r="F223" s="39" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="G223" s="29">
         <v>50.44</v>
@@ -20801,7 +20745,7 @@
       </c>
       <c r="L223" s="3"/>
       <c r="M223" s="14" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="N223" s="2"/>
       <c r="O223" s="32"/>
@@ -20856,7 +20800,7 @@
       <c r="D224" s="2"/>
       <c r="E224" s="4"/>
       <c r="F224" s="39" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="G224" s="29">
         <v>50.637799999999999</v>
@@ -20875,14 +20819,14 @@
       </c>
       <c r="L224" s="3"/>
       <c r="M224" s="14" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="N224" s="2"/>
       <c r="O224" s="32">
-        <v>-39.1</v>
+        <v>-40.9</v>
       </c>
       <c r="P224" s="32">
-        <v>-17.100000000000001</v>
+        <v>-20.7</v>
       </c>
       <c r="Q224" s="32"/>
       <c r="R224" s="23" t="s">
@@ -20934,7 +20878,7 @@
       <c r="D225" s="2"/>
       <c r="E225" s="4"/>
       <c r="F225" s="39" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="G225" s="29">
         <v>50.581899999999997</v>
@@ -20953,7 +20897,7 @@
       </c>
       <c r="L225" s="3"/>
       <c r="M225" s="14" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="N225" s="2"/>
       <c r="O225" s="32"/>
@@ -21019,7 +20963,7 @@
       </c>
       <c r="L226" s="3"/>
       <c r="M226" s="14" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="N226" s="2"/>
       <c r="O226" s="32"/>
@@ -21072,7 +21016,7 @@
       <c r="D227" s="2"/>
       <c r="E227" s="4"/>
       <c r="F227" s="39" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="G227" s="29">
         <v>52.875599999999999</v>
@@ -21091,7 +21035,7 @@
       </c>
       <c r="L227" s="3"/>
       <c r="M227" s="14" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="N227" s="2"/>
       <c r="O227" s="32"/>
@@ -21146,7 +21090,7 @@
       <c r="D228" s="2"/>
       <c r="E228" s="4"/>
       <c r="F228" s="39" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="G228" s="29">
         <v>50.467199999999998</v>
@@ -21165,7 +21109,7 @@
       </c>
       <c r="L228" s="3"/>
       <c r="M228" s="14" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="N228" s="2"/>
       <c r="O228" s="32"/>
@@ -21220,7 +21164,7 @@
       <c r="D229" s="2"/>
       <c r="E229" s="4"/>
       <c r="F229" s="39" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="G229" s="29">
         <v>50.928600000000003</v>
@@ -21239,7 +21183,7 @@
       </c>
       <c r="L229" s="3"/>
       <c r="M229" s="14" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="N229" s="2"/>
       <c r="O229" s="32"/>
@@ -21269,7 +21213,7 @@
         <v>318</v>
       </c>
       <c r="AA229" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="AB229" s="2"/>
       <c r="AC229" s="2"/>
@@ -21315,7 +21259,7 @@
       </c>
       <c r="L230" s="3"/>
       <c r="M230" s="14" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="N230" s="2"/>
       <c r="O230" s="32"/>
@@ -21345,7 +21289,7 @@
         <v>335</v>
       </c>
       <c r="AA230" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="AB230" s="2"/>
       <c r="AC230" s="2"/>
@@ -21370,7 +21314,7 @@
       <c r="D231" s="2"/>
       <c r="E231" s="4"/>
       <c r="F231" s="39" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="G231" s="29">
         <v>50.46</v>
@@ -21389,7 +21333,7 @@
       </c>
       <c r="L231" s="3"/>
       <c r="M231" s="14" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="N231" s="2"/>
       <c r="O231" s="32"/>
@@ -21455,7 +21399,7 @@
       </c>
       <c r="L232" s="3"/>
       <c r="M232" s="14" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="N232" s="2"/>
       <c r="O232" s="32"/>
@@ -21531,7 +21475,7 @@
       </c>
       <c r="L233" s="3"/>
       <c r="M233" s="16" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="N233" s="2"/>
       <c r="O233" s="32"/>
@@ -21557,7 +21501,7 @@
       <c r="AA233" s="2"/>
       <c r="AB233" s="2"/>
       <c r="AC233" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="AD233" s="2" t="s">
         <v>195</v>
@@ -21580,7 +21524,7 @@
         <v>24136</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="E234" s="4">
         <v>99999</v>
@@ -21603,17 +21547,17 @@
       </c>
       <c r="L234" s="3"/>
       <c r="M234" s="16" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="N234" s="2"/>
       <c r="O234" s="32">
-        <v>-52.5</v>
+        <v>-53.4</v>
       </c>
       <c r="P234" s="32">
-        <v>-49.7</v>
+        <v>-51.5</v>
       </c>
       <c r="Q234" s="32">
-        <v>-51.7</v>
+        <v>-52.85</v>
       </c>
       <c r="R234" s="23" t="s">
         <v>38</v>
@@ -21637,7 +21581,7 @@
       <c r="AA234" s="2"/>
       <c r="AB234" s="2"/>
       <c r="AC234" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="AD234" s="2" t="s">
         <v>195</v>
@@ -21658,7 +21602,7 @@
       <c r="D235" s="2"/>
       <c r="E235" s="4"/>
       <c r="F235" s="39" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="G235" s="29">
         <v>49.32</v>
@@ -21675,7 +21619,7 @@
       </c>
       <c r="L235" s="3"/>
       <c r="M235" s="14" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="N235" s="2"/>
       <c r="O235" s="32"/>
@@ -21705,7 +21649,7 @@
         <v>335</v>
       </c>
       <c r="AA235" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="AB235" s="2"/>
       <c r="AC235" s="2"/>
@@ -21732,7 +21676,7 @@
         <v>24525</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="E236" s="4">
         <v>99999</v>
@@ -21755,7 +21699,7 @@
       </c>
       <c r="L236" s="3"/>
       <c r="M236" s="16" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="N236" s="2"/>
       <c r="O236" s="32"/>
@@ -21781,7 +21725,7 @@
       <c r="AA236" s="2"/>
       <c r="AB236" s="2"/>
       <c r="AC236" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="AD236" s="2" t="s">
         <v>195</v>
@@ -21804,7 +21748,7 @@
         <v>24856</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E237" s="4">
         <v>99999</v>
@@ -21827,7 +21771,7 @@
       </c>
       <c r="L237" s="3"/>
       <c r="M237" s="16" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="N237" s="2"/>
       <c r="O237" s="32"/>
@@ -21853,7 +21797,7 @@
       <c r="AA237" s="2"/>
       <c r="AB237" s="2"/>
       <c r="AC237" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="AD237" s="2" t="s">
         <v>195</v>
@@ -21876,7 +21820,7 @@
       <c r="D238" s="2"/>
       <c r="E238" s="4"/>
       <c r="F238" s="39" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="G238" s="29">
         <v>52.041899999999998</v>
@@ -21895,7 +21839,7 @@
       </c>
       <c r="L238" s="3"/>
       <c r="M238" s="14" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="N238" s="2"/>
       <c r="O238" s="32"/>
@@ -21950,7 +21894,7 @@
       <c r="D239" s="2"/>
       <c r="E239" s="4"/>
       <c r="F239" s="39" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="G239" s="29">
         <v>52.22</v>
@@ -21969,7 +21913,7 @@
       </c>
       <c r="L239" s="3"/>
       <c r="M239" s="14" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="N239" s="2"/>
       <c r="O239" s="32"/>
@@ -22045,7 +21989,7 @@
       </c>
       <c r="L240" s="3"/>
       <c r="M240" s="14" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="N240" s="2"/>
       <c r="O240" s="32"/>
@@ -22075,7 +22019,7 @@
         <v>335</v>
       </c>
       <c r="AA240" s="2" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="AB240" s="2"/>
       <c r="AC240" s="2"/>
@@ -22102,7 +22046,7 @@
         <v>53083</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="E241" s="4">
         <v>99999</v>
@@ -22125,7 +22069,7 @@
       </c>
       <c r="L241" s="3"/>
       <c r="M241" s="14" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="N241" s="2"/>
       <c r="O241" s="32"/>
@@ -22134,7 +22078,7 @@
       <c r="R241" s="23"/>
       <c r="S241" s="37"/>
       <c r="T241" s="41" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="U241" s="2" t="s">
         <v>334</v>
@@ -22150,10 +22094,10 @@
       </c>
       <c r="Y241" s="4"/>
       <c r="Z241" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="AA241" s="2" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="AB241" s="2"/>
       <c r="AC241" s="2"/>
@@ -22178,7 +22122,7 @@
         <v>24668</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="E242" s="4">
         <v>99999</v>
@@ -22201,7 +22145,7 @@
       </c>
       <c r="L242" s="3"/>
       <c r="M242" s="16" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="N242" s="2"/>
       <c r="O242" s="32"/>
@@ -22227,7 +22171,7 @@
       <c r="AA242" s="2"/>
       <c r="AB242" s="2"/>
       <c r="AC242" s="2" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="AD242" s="2" t="s">
         <v>195</v>
@@ -22237,7 +22181,7 @@
       </c>
       <c r="AF242" s="4"/>
       <c r="AG242" s="2" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="AH242" s="2"/>
     </row>
@@ -22250,7 +22194,7 @@
       <c r="D243" s="2"/>
       <c r="E243" s="4"/>
       <c r="F243" s="39" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="G243" s="29">
         <v>50.508600000000001</v>
@@ -22269,7 +22213,7 @@
       </c>
       <c r="L243" s="3"/>
       <c r="M243" s="14" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="N243" s="2"/>
       <c r="O243" s="32"/>
@@ -22280,7 +22224,7 @@
       </c>
       <c r="S243" s="37"/>
       <c r="T243" s="41" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="U243" s="2" t="s">
         <v>307</v>
@@ -22299,7 +22243,7 @@
         <v>762</v>
       </c>
       <c r="AA243" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="AB243" s="2"/>
       <c r="AC243" s="2"/>
@@ -22322,7 +22266,7 @@
       <c r="D244" s="2"/>
       <c r="E244" s="4"/>
       <c r="F244" s="39" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="G244" s="29">
         <v>39.788600000000002</v>
@@ -22341,7 +22285,7 @@
       </c>
       <c r="L244" s="3"/>
       <c r="M244" s="14" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="N244" s="2"/>
       <c r="O244" s="32"/>
@@ -22371,7 +22315,7 @@
         <v>591</v>
       </c>
       <c r="AA244" s="2" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="AB244" s="2"/>
       <c r="AC244" s="2"/>
@@ -22394,7 +22338,7 @@
       <c r="D245" s="2"/>
       <c r="E245" s="4"/>
       <c r="F245" s="39" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="G245" s="29">
         <v>49.888100000000001</v>
@@ -22413,7 +22357,7 @@
       </c>
       <c r="L245" s="3"/>
       <c r="M245" s="14" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="N245" s="2"/>
       <c r="O245" s="32"/>
@@ -22470,7 +22414,7 @@
         <v>36421</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E246" s="4">
         <v>99999</v>
@@ -22493,17 +22437,17 @@
       </c>
       <c r="L246" s="3"/>
       <c r="M246" s="17" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="N246" s="2"/>
       <c r="O246" s="32">
-        <v>-33.799999999999997</v>
+        <v>-30</v>
       </c>
       <c r="P246" s="32">
-        <v>-19.3</v>
+        <v>-18.5</v>
       </c>
       <c r="Q246" s="32">
-        <v>-28.44</v>
+        <v>-25.27</v>
       </c>
       <c r="R246" s="23" t="s">
         <v>38</v>
@@ -22561,7 +22505,7 @@
       </c>
       <c r="L247" s="3"/>
       <c r="M247" s="14" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="N247" s="2"/>
       <c r="O247" s="32"/>
@@ -22572,7 +22516,7 @@
       </c>
       <c r="S247" s="37"/>
       <c r="T247" s="41" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="U247" s="2" t="s">
         <v>307</v>
@@ -22591,7 +22535,7 @@
         <v>762</v>
       </c>
       <c r="AA247" s="2" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="AB247" s="2"/>
       <c r="AC247" s="2"/>
@@ -22618,7 +22562,7 @@
         <v>50548</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="E248" s="4">
         <v>99999</v>
@@ -22641,7 +22585,7 @@
       </c>
       <c r="L248" s="3"/>
       <c r="M248" s="14" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="N248" s="2"/>
       <c r="O248" s="32"/>
@@ -22669,7 +22613,7 @@
         <v>335</v>
       </c>
       <c r="AA248" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="AB248" s="2"/>
       <c r="AC248" s="2"/>
@@ -22696,7 +22640,7 @@
         <v>44313</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="E249" s="4">
         <v>99999</v>
@@ -22719,27 +22663,27 @@
       </c>
       <c r="L249" s="3"/>
       <c r="M249" s="15" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="N249" s="2"/>
       <c r="O249" s="32">
-        <v>-25.7</v>
+        <v>-27.5</v>
       </c>
       <c r="P249" s="32">
-        <v>-16.600000000000001</v>
+        <v>-19.100000000000001</v>
       </c>
       <c r="Q249" s="32">
-        <v>-21.93</v>
+        <v>-24.01</v>
       </c>
       <c r="R249" s="23" t="s">
         <v>38</v>
       </c>
       <c r="S249" s="37"/>
       <c r="T249" s="41" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="U249" s="2" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="V249" s="4" t="s">
         <v>38</v>
@@ -22755,7 +22699,7 @@
       <c r="AA249" s="2"/>
       <c r="AB249" s="2"/>
       <c r="AC249" s="2" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="AD249" s="2" t="s">
         <v>41</v>
@@ -22787,7 +22731,7 @@
       </c>
       <c r="L250" s="3"/>
       <c r="M250" s="14" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="N250" s="2"/>
       <c r="O250" s="32"/>
@@ -22863,7 +22807,7 @@
       </c>
       <c r="L251" s="3"/>
       <c r="M251" s="14" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="N251" s="2"/>
       <c r="O251" s="32"/>
@@ -22893,11 +22837,11 @@
         <v>308</v>
       </c>
       <c r="AA251" s="2" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="AB251" s="2"/>
       <c r="AC251" s="2" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="AD251" s="2" t="s">
         <v>284</v>
@@ -22920,7 +22864,7 @@
         <v>31005</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="E252" s="4">
         <v>99999</v>
@@ -22943,7 +22887,7 @@
       </c>
       <c r="L252" s="3"/>
       <c r="M252" s="16" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="N252" s="2"/>
       <c r="O252" s="32"/>
@@ -23009,7 +22953,7 @@
       </c>
       <c r="L253" s="3"/>
       <c r="M253" s="14" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="N253" s="2"/>
       <c r="O253" s="32"/>
@@ -23073,15 +23017,11 @@
       </c>
       <c r="L254" s="3"/>
       <c r="M254" s="14" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="N254" s="2"/>
-      <c r="O254" s="32">
-        <v>-39</v>
-      </c>
-      <c r="P254" s="32">
-        <v>-19</v>
-      </c>
+      <c r="O254" s="32"/>
+      <c r="P254" s="32"/>
       <c r="Q254" s="32"/>
       <c r="R254" s="23" t="s">
         <v>38</v>
@@ -23143,7 +23083,7 @@
       </c>
       <c r="L255" s="3"/>
       <c r="M255" s="14" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="N255" s="2"/>
       <c r="O255" s="32"/>
@@ -23207,7 +23147,7 @@
       </c>
       <c r="L256" s="3"/>
       <c r="M256" s="14" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="N256" s="2"/>
       <c r="O256" s="32"/>
@@ -23273,7 +23213,7 @@
       </c>
       <c r="L257" s="3"/>
       <c r="M257" s="14" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="N257" s="2"/>
       <c r="O257" s="32"/>
@@ -23349,7 +23289,7 @@
       </c>
       <c r="L258" s="3"/>
       <c r="M258" s="14" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="N258" s="2"/>
       <c r="O258" s="32"/>
@@ -23376,10 +23316,10 @@
       </c>
       <c r="Y258" s="4"/>
       <c r="Z258" s="2" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="AA258" s="2" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="AB258" s="2"/>
       <c r="AC258" s="2"/>
@@ -23415,7 +23355,7 @@
       </c>
       <c r="L259" s="3"/>
       <c r="M259" s="14" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="N259" s="2"/>
       <c r="O259" s="32"/>
@@ -23442,10 +23382,10 @@
       </c>
       <c r="Y259" s="4"/>
       <c r="Z259" s="2" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="AA259" s="2" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="AB259" s="2"/>
       <c r="AC259" s="2"/>
@@ -23481,15 +23421,11 @@
       </c>
       <c r="L260" s="2"/>
       <c r="M260" s="14" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="N260" s="2"/>
-      <c r="O260" s="32">
-        <v>-36.4</v>
-      </c>
-      <c r="P260" s="32">
-        <v>-26.2</v>
-      </c>
+      <c r="O260" s="32"/>
+      <c r="P260" s="32"/>
       <c r="Q260" s="32"/>
       <c r="R260" s="23" t="s">
         <v>38</v>
@@ -23549,12 +23485,10 @@
       </c>
       <c r="L261" s="2"/>
       <c r="M261" s="14" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="N261" s="2"/>
-      <c r="O261" s="32">
-        <v>-40.200000000000003</v>
-      </c>
+      <c r="O261" s="32"/>
       <c r="P261" s="32"/>
       <c r="Q261" s="32"/>
       <c r="R261" s="23" t="s">
@@ -23594,7 +23528,9 @@
       <c r="AH261" s="2"/>
     </row>
     <row r="262" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A262" s="2"/>
+      <c r="A262" s="2">
+        <v>261</v>
+      </c>
       <c r="B262" s="2"/>
       <c r="C262" s="27"/>
       <c r="D262" s="2"/>
@@ -23603,30 +23539,60 @@
       <c r="G262" s="29"/>
       <c r="H262" s="29"/>
       <c r="I262" s="2"/>
-      <c r="J262" s="27"/>
-      <c r="K262" s="4"/>
+      <c r="J262" s="27">
+        <v>12</v>
+      </c>
+      <c r="K262" s="31" t="s">
+        <v>279</v>
+      </c>
       <c r="L262" s="2"/>
-      <c r="M262" s="14"/>
+      <c r="M262" s="14" t="s">
+        <v>888</v>
+      </c>
       <c r="N262" s="2"/>
-      <c r="O262" s="32"/>
-      <c r="P262" s="32"/>
+      <c r="O262" s="32">
+        <v>-38.1</v>
+      </c>
+      <c r="P262" s="32">
+        <v>-28.5</v>
+      </c>
       <c r="Q262" s="32"/>
-      <c r="R262" s="23"/>
+      <c r="R262" s="23" t="s">
+        <v>38</v>
+      </c>
       <c r="S262" s="37"/>
-      <c r="T262" s="41"/>
-      <c r="U262" s="2"/>
-      <c r="V262" s="4"/>
-      <c r="W262" s="4"/>
-      <c r="X262" s="4"/>
+      <c r="T262" s="41" t="s">
+        <v>346</v>
+      </c>
+      <c r="U262" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="V262" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="W262" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="X262" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="Y262" s="4"/>
-      <c r="Z262" s="2"/>
+      <c r="Z262" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="AA262" s="2"/>
       <c r="AB262" s="2"/>
       <c r="AC262" s="2"/>
-      <c r="AD262" s="2"/>
-      <c r="AE262" s="4"/>
+      <c r="AD262" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="AE262" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="AF262" s="4"/>
-      <c r="AG262" s="2"/>
+      <c r="AG262" s="2" t="s">
+        <v>317</v>
+      </c>
       <c r="AH262" s="2"/>
     </row>
     <row r="263" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -28615,7 +28581,7 @@
       <c r="M401" s="14"/>
       <c r="N401" s="2"/>
       <c r="O401" s="33" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="P401" s="33"/>
       <c r="Q401" s="33"/>
@@ -28796,7 +28762,7 @@
         <v>12</v>
       </c>
       <c r="M2" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="R2" t="s">
         <v>38</v>
@@ -28852,7 +28818,7 @@
         <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="M3" t="s">
         <v>696</v>
@@ -29029,7 +28995,7 @@
         <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="M6" t="s">
         <v>204</v>
@@ -29174,7 +29140,7 @@
         <v>25</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">

--- a/气象/For_Python_站点信息和记录.xlsx
+++ b/气象/For_Python_站点信息和记录.xlsx
@@ -761,9 +761,9 @@
   </sheetPr>
   <dimension ref="A1:AH401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q250" sqref="Q250"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.59765625" defaultRowHeight="20.25"/>
@@ -790,8 +790,8 @@
     <col width="18.59765625" customWidth="1" style="8" min="25" max="25"/>
     <col width="12.59765625" customWidth="1" style="5" min="26" max="30"/>
     <col width="12.59765625" customWidth="1" style="8" min="31" max="32"/>
-    <col width="12.59765625" customWidth="1" style="5" min="33" max="203"/>
-    <col width="12.59765625" customWidth="1" style="5" min="204" max="16384"/>
+    <col width="12.59765625" customWidth="1" style="5" min="33" max="207"/>
+    <col width="12.59765625" customWidth="1" style="5" min="208" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.75" customFormat="1" customHeight="1" s="11">
@@ -1014,13 +1014,13 @@
         </is>
       </c>
       <c r="O2" s="32" t="n">
-        <v>-42.7</v>
+        <v>-36.1</v>
       </c>
       <c r="P2" s="32" t="n">
-        <v>-33</v>
+        <v>-27.2</v>
       </c>
       <c r="Q2" s="32" t="n">
-        <v>-37.34</v>
+        <v>-29.65</v>
       </c>
       <c r="R2" s="23" t="inlineStr">
         <is>
@@ -1124,10 +1124,10 @@
         </is>
       </c>
       <c r="O3" s="32" t="n">
-        <v>-44.2</v>
+        <v>-36.8</v>
       </c>
       <c r="P3" s="32" t="n">
-        <v>-30.2</v>
+        <v>-28.4</v>
       </c>
       <c r="Q3" s="32" t="n"/>
       <c r="R3" s="23" t="n"/>
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="O4" s="32" t="n">
-        <v>-42.4</v>
+        <v>-32</v>
       </c>
       <c r="P4" s="32" t="n">
-        <v>-26.5</v>
+        <v>-23.2</v>
       </c>
       <c r="Q4" s="32" t="n"/>
       <c r="R4" s="23" t="n"/>
@@ -1320,10 +1320,10 @@
       </c>
       <c r="N5" s="2" t="n"/>
       <c r="O5" s="32" t="n">
-        <v>-39.5</v>
+        <v>-29.8</v>
       </c>
       <c r="P5" s="32" t="n">
-        <v>-30.5</v>
+        <v>-16.8</v>
       </c>
       <c r="Q5" s="32" t="n"/>
       <c r="R5" s="23" t="n"/>
@@ -1420,10 +1420,10 @@
         </is>
       </c>
       <c r="O6" s="32" t="n">
-        <v>-40.6</v>
+        <v>-26.1</v>
       </c>
       <c r="P6" s="32" t="n">
-        <v>-27.4</v>
+        <v>-14.1</v>
       </c>
       <c r="Q6" s="32" t="n"/>
       <c r="R6" s="23" t="n"/>
@@ -1524,10 +1524,10 @@
         </is>
       </c>
       <c r="O7" s="32" t="n">
-        <v>-40.2</v>
+        <v>-29.6</v>
       </c>
       <c r="P7" s="32" t="n">
-        <v>-31.4</v>
+        <v>-25</v>
       </c>
       <c r="Q7" s="32" t="n"/>
       <c r="R7" s="23" t="n"/>
@@ -1632,13 +1632,13 @@
       </c>
       <c r="N8" s="2" t="n"/>
       <c r="O8" s="32" t="n">
-        <v>-42.4</v>
+        <v>-34.3</v>
       </c>
       <c r="P8" s="32" t="n">
-        <v>-31.1</v>
+        <v>-20.5</v>
       </c>
       <c r="Q8" s="32" t="n">
-        <v>-37.59</v>
+        <v>-26.59</v>
       </c>
       <c r="R8" s="23" t="inlineStr">
         <is>
@@ -1744,13 +1744,13 @@
       </c>
       <c r="N9" s="2" t="n"/>
       <c r="O9" s="32" t="n">
-        <v>-39.5</v>
+        <v>-35.7</v>
       </c>
       <c r="P9" s="32" t="n">
-        <v>-29.1</v>
+        <v>-22.5</v>
       </c>
       <c r="Q9" s="32" t="n">
-        <v>-33.12</v>
+        <v>-31.44</v>
       </c>
       <c r="R9" s="23" t="inlineStr">
         <is>
@@ -1860,14 +1860,12 @@
       </c>
       <c r="N10" s="3" t="n"/>
       <c r="O10" s="32" t="n">
-        <v>-42.1</v>
+        <v>-30.8</v>
       </c>
       <c r="P10" s="32" t="n">
-        <v>-28.8</v>
-      </c>
-      <c r="Q10" s="32" t="n">
-        <v>-36.14</v>
-      </c>
+        <v>-24.6</v>
+      </c>
+      <c r="Q10" s="32" t="n"/>
       <c r="R10" s="23" t="inlineStr">
         <is>
           <t>Y</t>
@@ -1976,13 +1974,13 @@
         </is>
       </c>
       <c r="O11" s="32" t="n">
-        <v>-37</v>
+        <v>-30.3</v>
       </c>
       <c r="P11" s="32" t="n">
-        <v>-20.9</v>
+        <v>-12.5</v>
       </c>
       <c r="Q11" s="32" t="n">
-        <v>-29.96</v>
+        <v>-21.94</v>
       </c>
       <c r="R11" s="23" t="inlineStr">
         <is>
@@ -2088,13 +2086,13 @@
       </c>
       <c r="N12" s="2" t="n"/>
       <c r="O12" s="32" t="n">
-        <v>-40.8</v>
+        <v>-26</v>
       </c>
       <c r="P12" s="32" t="n">
-        <v>-29.4</v>
+        <v>-13.5</v>
       </c>
       <c r="Q12" s="32" t="n">
-        <v>-36.16</v>
+        <v>-20.82</v>
       </c>
       <c r="R12" s="23" t="inlineStr">
         <is>
@@ -2204,13 +2202,13 @@
         </is>
       </c>
       <c r="O13" s="32" t="n">
-        <v>-42</v>
+        <v>-31.1</v>
       </c>
       <c r="P13" s="32" t="n">
-        <v>-33.5</v>
+        <v>-22</v>
       </c>
       <c r="Q13" s="32" t="n">
-        <v>-38.8</v>
+        <v>-28.36</v>
       </c>
       <c r="R13" s="23" t="inlineStr">
         <is>
@@ -2320,13 +2318,13 @@
       </c>
       <c r="N14" s="2" t="n"/>
       <c r="O14" s="32" t="n">
-        <v>-29.9</v>
+        <v>-20.6</v>
       </c>
       <c r="P14" s="32" t="n">
-        <v>-18.9</v>
+        <v>-13.1</v>
       </c>
       <c r="Q14" s="32" t="n">
-        <v>-25.21</v>
+        <v>-15.73</v>
       </c>
       <c r="R14" s="23" t="inlineStr">
         <is>
@@ -2522,13 +2520,13 @@
       </c>
       <c r="N16" s="2" t="n"/>
       <c r="O16" s="32" t="n">
-        <v>-38.4</v>
+        <v>-25.4</v>
       </c>
       <c r="P16" s="32" t="n">
-        <v>-16.4</v>
+        <v>-14.1</v>
       </c>
       <c r="Q16" s="32" t="n">
-        <v>-30.33</v>
+        <v>-16.74</v>
       </c>
       <c r="R16" s="23" t="inlineStr">
         <is>
@@ -4711,12 +4709,8 @@
         </is>
       </c>
       <c r="N40" s="3" t="n"/>
-      <c r="O40" s="32" t="n">
-        <v>-42.5</v>
-      </c>
-      <c r="P40" s="32" t="n">
-        <v>-30.2</v>
-      </c>
+      <c r="O40" s="32" t="n"/>
+      <c r="P40" s="32" t="n"/>
       <c r="Q40" s="32" t="n"/>
       <c r="R40" s="23" t="n"/>
       <c r="S40" s="37" t="n"/>
@@ -7834,13 +7828,13 @@
       </c>
       <c r="N75" s="2" t="n"/>
       <c r="O75" s="32" t="n">
-        <v>-30.9</v>
+        <v>-33.7</v>
       </c>
       <c r="P75" s="32" t="n">
-        <v>-18.7</v>
+        <v>-19.4</v>
       </c>
       <c r="Q75" s="32" t="n">
-        <v>-26.86</v>
+        <v>-28.32</v>
       </c>
       <c r="R75" s="23" t="inlineStr">
         <is>
@@ -7946,13 +7940,13 @@
       </c>
       <c r="N76" s="2" t="n"/>
       <c r="O76" s="32" t="n">
-        <v>-31.5</v>
+        <v>-40.1</v>
       </c>
       <c r="P76" s="32" t="n">
-        <v>-22.2</v>
+        <v>-27.2</v>
       </c>
       <c r="Q76" s="32" t="n">
-        <v>-28.19</v>
+        <v>-35.29</v>
       </c>
       <c r="R76" s="23" t="inlineStr">
         <is>
@@ -8062,13 +8056,13 @@
         </is>
       </c>
       <c r="O77" s="32" t="n">
-        <v>-38.2</v>
+        <v>-41.6</v>
       </c>
       <c r="P77" s="32" t="n">
-        <v>-21.6</v>
+        <v>-22.5</v>
       </c>
       <c r="Q77" s="32" t="n">
-        <v>-31.01</v>
+        <v>-33.36</v>
       </c>
       <c r="R77" s="23" t="inlineStr">
         <is>
@@ -8178,13 +8172,13 @@
       </c>
       <c r="N78" s="2" t="n"/>
       <c r="O78" s="32" t="n">
-        <v>-34</v>
+        <v>-39</v>
       </c>
       <c r="P78" s="32" t="n">
-        <v>-21.7</v>
+        <v>-24.1</v>
       </c>
       <c r="Q78" s="32" t="n">
-        <v>-28.59</v>
+        <v>-32.65</v>
       </c>
       <c r="R78" s="23" t="inlineStr">
         <is>
@@ -8294,13 +8288,13 @@
         </is>
       </c>
       <c r="O79" s="32" t="n">
-        <v>-39.1</v>
+        <v>-39.6</v>
       </c>
       <c r="P79" s="32" t="n">
-        <v>-19.9</v>
+        <v>-20</v>
       </c>
       <c r="Q79" s="32" t="n">
-        <v>-30.71</v>
+        <v>-32.74</v>
       </c>
       <c r="R79" s="23" t="inlineStr">
         <is>
@@ -8406,13 +8400,13 @@
       </c>
       <c r="N80" s="2" t="n"/>
       <c r="O80" s="32" t="n">
-        <v>-25.7</v>
+        <v>-27.1</v>
       </c>
       <c r="P80" s="32" t="n">
-        <v>-19</v>
+        <v>-16</v>
       </c>
       <c r="Q80" s="32" t="n">
-        <v>-22.92</v>
+        <v>-22.61</v>
       </c>
       <c r="R80" s="23" t="inlineStr">
         <is>
@@ -8522,12 +8516,14 @@
         </is>
       </c>
       <c r="O81" s="32" t="n">
-        <v>-47.4</v>
+        <v>-47.3</v>
       </c>
       <c r="P81" s="32" t="n">
-        <v>-32.2</v>
-      </c>
-      <c r="Q81" s="32" t="n"/>
+        <v>-32.8</v>
+      </c>
+      <c r="Q81" s="32" t="n">
+        <v>-39.6</v>
+      </c>
       <c r="R81" s="23" t="inlineStr">
         <is>
           <t>Y</t>
@@ -8644,10 +8640,10 @@
         <v>-45.5</v>
       </c>
       <c r="P82" s="32" t="n">
-        <v>-21.1</v>
+        <v>-27.8</v>
       </c>
       <c r="Q82" s="32" t="n">
-        <v>-38.73</v>
+        <v>-37.01</v>
       </c>
       <c r="R82" s="23" t="inlineStr">
         <is>
@@ -8757,13 +8753,13 @@
       </c>
       <c r="N83" s="2" t="n"/>
       <c r="O83" s="32" t="n">
-        <v>-44.5</v>
+        <v>-41.2</v>
       </c>
       <c r="P83" s="32" t="n">
-        <v>-34.1</v>
+        <v>-26.9</v>
       </c>
       <c r="Q83" s="32" t="n">
-        <v>-40.35</v>
+        <v>-33.97</v>
       </c>
       <c r="R83" s="23" t="inlineStr">
         <is>
@@ -8873,13 +8869,13 @@
         </is>
       </c>
       <c r="O84" s="32" t="n">
-        <v>-44.3</v>
+        <v>-35.4</v>
       </c>
       <c r="P84" s="32" t="n">
-        <v>-33.8</v>
+        <v>-19.7</v>
       </c>
       <c r="Q84" s="32" t="n">
-        <v>-39.96</v>
+        <v>-25.16</v>
       </c>
       <c r="R84" s="23" t="inlineStr">
         <is>
@@ -8993,13 +8989,13 @@
         </is>
       </c>
       <c r="O85" s="32" t="n">
-        <v>-41.9</v>
+        <v>-31.3</v>
       </c>
       <c r="P85" s="32" t="n">
-        <v>-29.1</v>
+        <v>-22.2</v>
       </c>
       <c r="Q85" s="32" t="n">
-        <v>-36.27</v>
+        <v>-27.16</v>
       </c>
       <c r="R85" s="23" t="inlineStr">
         <is>
@@ -9105,13 +9101,13 @@
       </c>
       <c r="N86" s="2" t="n"/>
       <c r="O86" s="32" t="n">
-        <v>-37.5</v>
+        <v>-31.9</v>
       </c>
       <c r="P86" s="32" t="n">
-        <v>-29.2</v>
+        <v>-22.8</v>
       </c>
       <c r="Q86" s="32" t="n">
-        <v>-33.62</v>
+        <v>-27.04</v>
       </c>
       <c r="R86" s="23" t="inlineStr">
         <is>
@@ -9229,13 +9225,13 @@
         </is>
       </c>
       <c r="O87" s="32" t="n">
-        <v>-40.2</v>
+        <v>-32.4</v>
       </c>
       <c r="P87" s="32" t="n">
-        <v>-30.4</v>
+        <v>-25.3</v>
       </c>
       <c r="Q87" s="32" t="n">
-        <v>-35.96</v>
+        <v>-29.05</v>
       </c>
       <c r="R87" s="23" t="inlineStr">
         <is>
@@ -9341,13 +9337,13 @@
       </c>
       <c r="N88" s="2" t="n"/>
       <c r="O88" s="32" t="n">
-        <v>-30.8</v>
+        <v>-31.7</v>
       </c>
       <c r="P88" s="32" t="n">
-        <v>-20</v>
+        <v>-19.5</v>
       </c>
       <c r="Q88" s="32" t="n">
-        <v>-26.21</v>
+        <v>-25.7</v>
       </c>
       <c r="R88" s="23" t="inlineStr">
         <is>
@@ -9559,13 +9555,13 @@
         </is>
       </c>
       <c r="O90" s="32" t="n">
-        <v>-21.8</v>
+        <v>-25.8</v>
       </c>
       <c r="P90" s="32" t="n">
-        <v>-9.800000000000001</v>
+        <v>-13.5</v>
       </c>
       <c r="Q90" s="32" t="n">
-        <v>-16.79</v>
+        <v>-19.3</v>
       </c>
       <c r="R90" s="23" t="inlineStr">
         <is>
@@ -9667,13 +9663,13 @@
       </c>
       <c r="N91" s="2" t="n"/>
       <c r="O91" s="32" t="n">
-        <v>-24.8</v>
+        <v>-26</v>
       </c>
       <c r="P91" s="32" t="n">
-        <v>-14.3</v>
+        <v>-16.3</v>
       </c>
       <c r="Q91" s="32" t="n">
-        <v>-20.11</v>
+        <v>-20.5</v>
       </c>
       <c r="R91" s="23" t="inlineStr">
         <is>
@@ -9775,13 +9771,13 @@
       </c>
       <c r="N92" s="2" t="n"/>
       <c r="O92" s="32" t="n">
-        <v>-28.3</v>
+        <v>-27</v>
       </c>
       <c r="P92" s="32" t="n">
-        <v>-14.7</v>
+        <v>-16</v>
       </c>
       <c r="Q92" s="32" t="n">
-        <v>-22.67</v>
+        <v>-22.56</v>
       </c>
       <c r="R92" s="23" t="inlineStr">
         <is>
@@ -9887,13 +9883,13 @@
       </c>
       <c r="N93" s="2" t="n"/>
       <c r="O93" s="32" t="n">
-        <v>-24</v>
+        <v>-23</v>
       </c>
       <c r="P93" s="32" t="n">
-        <v>-7.4</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="Q93" s="32" t="n">
-        <v>-16.34</v>
+        <v>-14.75</v>
       </c>
       <c r="R93" s="23" t="inlineStr">
         <is>
@@ -10007,10 +10003,10 @@
         </is>
       </c>
       <c r="O94" s="32" t="n">
-        <v>-33.5</v>
+        <v>-32</v>
       </c>
       <c r="P94" s="32" t="n">
-        <v>-12.3</v>
+        <v>-10</v>
       </c>
       <c r="Q94" s="32" t="n"/>
       <c r="R94" s="23" t="inlineStr">
@@ -10125,12 +10121,14 @@
       </c>
       <c r="N95" s="2" t="n"/>
       <c r="O95" s="32" t="n">
-        <v>-21.1</v>
+        <v>-24.5</v>
       </c>
       <c r="P95" s="32" t="n">
-        <v>-14.7</v>
-      </c>
-      <c r="Q95" s="32" t="n"/>
+        <v>-13.7</v>
+      </c>
+      <c r="Q95" s="32" t="n">
+        <v>-18.99</v>
+      </c>
       <c r="R95" s="23" t="inlineStr">
         <is>
           <t>Y</t>
@@ -10251,10 +10249,10 @@
         </is>
       </c>
       <c r="O96" s="32" t="n">
-        <v>-34.1</v>
+        <v>-31.5</v>
       </c>
       <c r="P96" s="32" t="n">
-        <v>-13</v>
+        <v>-14.2</v>
       </c>
       <c r="Q96" s="32" t="n"/>
       <c r="R96" s="23" t="inlineStr">
@@ -10369,13 +10367,13 @@
       </c>
       <c r="N97" s="2" t="n"/>
       <c r="O97" s="32" t="n">
-        <v>-28.8</v>
+        <v>-24.1</v>
       </c>
       <c r="P97" s="32" t="n">
-        <v>-16.8</v>
+        <v>-15.2</v>
       </c>
       <c r="Q97" s="32" t="n">
-        <v>-20.98</v>
+        <v>-19.94</v>
       </c>
       <c r="R97" s="23" t="inlineStr">
         <is>
@@ -10485,10 +10483,10 @@
       </c>
       <c r="N98" s="2" t="n"/>
       <c r="O98" s="32" t="n">
-        <v>-34.1</v>
+        <v>-35.1</v>
       </c>
       <c r="P98" s="32" t="n">
-        <v>-20.5</v>
+        <v>-19.5</v>
       </c>
       <c r="Q98" s="32" t="n"/>
       <c r="R98" s="23" t="inlineStr">
@@ -10603,13 +10601,13 @@
       </c>
       <c r="N99" s="2" t="n"/>
       <c r="O99" s="32" t="n">
-        <v>-26.4</v>
+        <v>-24.5</v>
       </c>
       <c r="P99" s="32" t="n">
-        <v>-16.8</v>
+        <v>-15.7</v>
       </c>
       <c r="Q99" s="32" t="n">
-        <v>-21.41</v>
+        <v>-20.61</v>
       </c>
       <c r="R99" s="23" t="inlineStr">
         <is>
@@ -10935,13 +10933,13 @@
       </c>
       <c r="N102" s="2" t="n"/>
       <c r="O102" s="32" t="n">
-        <v>-33.8</v>
+        <v>-32.8</v>
       </c>
       <c r="P102" s="32" t="n">
-        <v>-17</v>
+        <v>-16.2</v>
       </c>
       <c r="Q102" s="32" t="n">
-        <v>-24.9</v>
+        <v>-24.16</v>
       </c>
       <c r="R102" s="23" t="inlineStr">
         <is>
@@ -11051,10 +11049,10 @@
       </c>
       <c r="N103" s="2" t="n"/>
       <c r="O103" s="32" t="n">
-        <v>-29.7</v>
+        <v>-29.3</v>
       </c>
       <c r="P103" s="32" t="n">
-        <v>-16.8</v>
+        <v>-15.6</v>
       </c>
       <c r="Q103" s="32" t="n"/>
       <c r="R103" s="23" t="inlineStr">
@@ -11161,10 +11159,10 @@
       </c>
       <c r="N104" s="2" t="n"/>
       <c r="O104" s="32" t="n">
-        <v>-41</v>
+        <v>-37.7</v>
       </c>
       <c r="P104" s="32" t="n">
-        <v>-17.6</v>
+        <v>-18.9</v>
       </c>
       <c r="Q104" s="32" t="n"/>
       <c r="R104" s="23" t="inlineStr">
@@ -11283,13 +11281,13 @@
         </is>
       </c>
       <c r="O105" s="32" t="n">
-        <v>-40.3</v>
+        <v>-37.4</v>
       </c>
       <c r="P105" s="32" t="n">
-        <v>-20.7</v>
+        <v>-19.3</v>
       </c>
       <c r="Q105" s="32" t="n">
-        <v>-31.92</v>
+        <v>-29.76</v>
       </c>
       <c r="R105" s="23" t="inlineStr">
         <is>
@@ -11403,10 +11401,10 @@
         </is>
       </c>
       <c r="O106" s="32" t="n">
-        <v>-39.5</v>
+        <v>-33.9</v>
       </c>
       <c r="P106" s="32" t="n">
-        <v>-26.2</v>
+        <v>-23</v>
       </c>
       <c r="Q106" s="32" t="n"/>
       <c r="R106" s="23" t="inlineStr">
@@ -11516,12 +11514,8 @@
         </is>
       </c>
       <c r="N107" s="2" t="n"/>
-      <c r="O107" s="32" t="n">
-        <v>-41.4</v>
-      </c>
-      <c r="P107" s="32" t="n">
-        <v>-25.9</v>
-      </c>
+      <c r="O107" s="32" t="n"/>
+      <c r="P107" s="32" t="n"/>
       <c r="Q107" s="32" t="n"/>
       <c r="R107" s="23" t="inlineStr">
         <is>
@@ -11631,13 +11625,13 @@
       </c>
       <c r="N108" s="2" t="n"/>
       <c r="O108" s="32" t="n">
-        <v>-37.1</v>
+        <v>-35.1</v>
       </c>
       <c r="P108" s="32" t="n">
-        <v>-24.2</v>
+        <v>-22.7</v>
       </c>
       <c r="Q108" s="32" t="n">
-        <v>-31.88</v>
+        <v>-29.76</v>
       </c>
       <c r="R108" s="23" t="inlineStr">
         <is>
@@ -11959,13 +11953,13 @@
       </c>
       <c r="N111" s="2" t="n"/>
       <c r="O111" s="32" t="n">
-        <v>-37</v>
+        <v>-36.6</v>
       </c>
       <c r="P111" s="32" t="n">
-        <v>-24.9</v>
+        <v>-22.3</v>
       </c>
       <c r="Q111" s="32" t="n">
-        <v>-32.11</v>
+        <v>-30.29</v>
       </c>
       <c r="R111" s="23" t="inlineStr">
         <is>
@@ -12071,10 +12065,10 @@
       </c>
       <c r="N112" s="2" t="n"/>
       <c r="O112" s="32" t="n">
-        <v>-27.1</v>
+        <v>-25</v>
       </c>
       <c r="P112" s="32" t="n">
-        <v>-9.6</v>
+        <v>-4.7</v>
       </c>
       <c r="Q112" s="32" t="n"/>
       <c r="R112" s="23" t="inlineStr">
@@ -12177,10 +12171,10 @@
       </c>
       <c r="N113" s="2" t="n"/>
       <c r="O113" s="32" t="n">
-        <v>-21.6</v>
+        <v>-15.7</v>
       </c>
       <c r="P113" s="32" t="n">
-        <v>0.9</v>
+        <v>-3.7</v>
       </c>
       <c r="Q113" s="32" t="n"/>
       <c r="R113" s="23" t="inlineStr">
@@ -12291,10 +12285,10 @@
         </is>
       </c>
       <c r="O114" s="32" t="n">
-        <v>-27.7</v>
+        <v>-12.2</v>
       </c>
       <c r="P114" s="32" t="n">
-        <v>2.3</v>
+        <v>-0.4</v>
       </c>
       <c r="Q114" s="32" t="n"/>
       <c r="R114" s="23" t="inlineStr">
@@ -12413,10 +12407,10 @@
         </is>
       </c>
       <c r="O115" s="32" t="n">
-        <v>-18.8</v>
+        <v>-15.3</v>
       </c>
       <c r="P115" s="32" t="n">
-        <v>-0.1</v>
+        <v>-6.5</v>
       </c>
       <c r="Q115" s="32" t="n"/>
       <c r="R115" s="23" t="inlineStr">
@@ -12531,13 +12525,13 @@
       </c>
       <c r="N116" s="2" t="n"/>
       <c r="O116" s="32" t="n">
-        <v>-16.5</v>
+        <v>-13.8</v>
       </c>
       <c r="P116" s="32" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q116" s="32" t="n">
-        <v>-9.640000000000001</v>
+        <v>-7.79</v>
       </c>
       <c r="R116" s="23" t="inlineStr">
         <is>
@@ -12643,10 +12637,10 @@
       </c>
       <c r="N117" s="2" t="n"/>
       <c r="O117" s="32" t="n">
-        <v>-19.7</v>
+        <v>-22.5</v>
       </c>
       <c r="P117" s="32" t="n">
-        <v>-5.2</v>
+        <v>-4</v>
       </c>
       <c r="Q117" s="32" t="n"/>
       <c r="R117" s="23" t="inlineStr">
@@ -12757,10 +12751,10 @@
         </is>
       </c>
       <c r="O118" s="32" t="n">
-        <v>-26.6</v>
+        <v>-30.5</v>
       </c>
       <c r="P118" s="32" t="n">
-        <v>-9.9</v>
+        <v>-12.9</v>
       </c>
       <c r="Q118" s="32" t="n"/>
       <c r="R118" s="23" t="inlineStr">
@@ -12875,13 +12869,13 @@
       </c>
       <c r="N119" s="2" t="n"/>
       <c r="O119" s="32" t="n">
-        <v>-17.6</v>
+        <v>-23</v>
       </c>
       <c r="P119" s="32" t="n">
-        <v>-7.9</v>
+        <v>-7.4</v>
       </c>
       <c r="Q119" s="32" t="n">
-        <v>-13.93</v>
+        <v>-16.46</v>
       </c>
       <c r="R119" s="23" t="inlineStr">
         <is>
@@ -13105,13 +13099,13 @@
       </c>
       <c r="N121" s="2" t="n"/>
       <c r="O121" s="32" t="n">
-        <v>-20.2</v>
+        <v>-16.8</v>
       </c>
       <c r="P121" s="32" t="n">
-        <v>-12.8</v>
+        <v>-8.9</v>
       </c>
       <c r="Q121" s="32" t="n">
-        <v>-16.7</v>
+        <v>-12.24</v>
       </c>
       <c r="R121" s="23" t="inlineStr">
         <is>
@@ -13229,10 +13223,10 @@
       </c>
       <c r="N122" s="2" t="n"/>
       <c r="O122" s="32" t="n">
-        <v>-25.9</v>
+        <v>-27.3</v>
       </c>
       <c r="P122" s="32" t="n">
-        <v>-11.4</v>
+        <v>-12.3</v>
       </c>
       <c r="Q122" s="32" t="n"/>
       <c r="R122" s="23" t="inlineStr">
@@ -13457,13 +13451,13 @@
       </c>
       <c r="N124" s="2" t="n"/>
       <c r="O124" s="32" t="n">
-        <v>-18.2</v>
+        <v>-11</v>
       </c>
       <c r="P124" s="32" t="n">
-        <v>-4.5</v>
+        <v>-1.6</v>
       </c>
       <c r="Q124" s="32" t="n">
-        <v>-10.45</v>
+        <v>-6.44</v>
       </c>
       <c r="R124" s="23" t="inlineStr">
         <is>
@@ -13581,13 +13575,13 @@
       </c>
       <c r="N125" s="2" t="n"/>
       <c r="O125" s="32" t="n">
-        <v>-11.2</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="P125" s="32" t="n">
-        <v>4.6</v>
+        <v>0.3</v>
       </c>
       <c r="Q125" s="32" t="n">
-        <v>-4.39</v>
+        <v>-3.29</v>
       </c>
       <c r="R125" s="23" t="inlineStr">
         <is>
@@ -13681,10 +13675,10 @@
       </c>
       <c r="N126" s="2" t="n"/>
       <c r="O126" s="32" t="n">
-        <v>-6.9</v>
+        <v>-3.9</v>
       </c>
       <c r="P126" s="32" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="Q126" s="32" t="n"/>
       <c r="R126" s="23" t="inlineStr">
@@ -13791,13 +13785,13 @@
       </c>
       <c r="N127" s="2" t="n"/>
       <c r="O127" s="32" t="n">
-        <v>-12.9</v>
+        <v>-2.9</v>
       </c>
       <c r="P127" s="32" t="n">
-        <v>2.1</v>
+        <v>5.2</v>
       </c>
       <c r="Q127" s="32" t="n">
-        <v>-5.75</v>
+        <v>-0.17</v>
       </c>
       <c r="R127" s="23" t="inlineStr">
         <is>
@@ -13911,10 +13905,10 @@
       </c>
       <c r="N128" s="2" t="n"/>
       <c r="O128" s="32" t="n">
-        <v>-7.9</v>
+        <v>-2.8</v>
       </c>
       <c r="P128" s="32" t="n">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="Q128" s="32" t="n"/>
       <c r="R128" s="23" t="inlineStr">
@@ -14021,13 +14015,13 @@
       </c>
       <c r="N129" s="2" t="n"/>
       <c r="O129" s="32" t="n">
-        <v>-12.5</v>
+        <v>-4.4</v>
       </c>
       <c r="P129" s="32" t="n">
-        <v>6.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q129" s="32" t="n">
-        <v>-4.59</v>
+        <v>-3.49</v>
       </c>
       <c r="R129" s="23" t="inlineStr">
         <is>
@@ -14141,13 +14135,13 @@
       </c>
       <c r="N130" s="2" t="n"/>
       <c r="O130" s="32" t="n">
-        <v>-8.9</v>
+        <v>-6.8</v>
       </c>
       <c r="P130" s="32" t="n">
-        <v>7.6</v>
+        <v>5.1</v>
       </c>
       <c r="Q130" s="32" t="n">
-        <v>-1.1</v>
+        <v>-3.59</v>
       </c>
       <c r="R130" s="23" t="inlineStr">
         <is>
@@ -14261,13 +14255,13 @@
       </c>
       <c r="N131" s="2" t="n"/>
       <c r="O131" s="32" t="n">
-        <v>-4.1</v>
+        <v>-1.5</v>
       </c>
       <c r="P131" s="32" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="Q131" s="32" t="n">
-        <v>-1.3</v>
+        <v>0.88</v>
       </c>
       <c r="R131" s="23" t="inlineStr">
         <is>
@@ -14377,13 +14371,13 @@
       </c>
       <c r="N132" s="2" t="n"/>
       <c r="O132" s="32" t="n">
-        <v>-6.7</v>
+        <v>0.4</v>
       </c>
       <c r="P132" s="32" t="n">
-        <v>6.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q132" s="32" t="n">
-        <v>-1.07</v>
+        <v>1.88</v>
       </c>
       <c r="R132" s="23" t="inlineStr">
         <is>
@@ -14493,13 +14487,13 @@
       </c>
       <c r="N133" s="2" t="n"/>
       <c r="O133" s="32" t="n">
-        <v>-3.6</v>
+        <v>1.3</v>
       </c>
       <c r="P133" s="32" t="n">
-        <v>6.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q133" s="32" t="n">
-        <v>0.6899999999999999</v>
+        <v>2.14</v>
       </c>
       <c r="R133" s="23" t="inlineStr">
         <is>
@@ -14715,13 +14709,13 @@
       </c>
       <c r="N135" s="2" t="n"/>
       <c r="O135" s="32" t="n">
-        <v>-3.5</v>
+        <v>7.5</v>
       </c>
       <c r="P135" s="32" t="n">
-        <v>8.4</v>
+        <v>10.7</v>
       </c>
       <c r="Q135" s="32" t="n">
-        <v>1.44</v>
+        <v>8.98</v>
       </c>
       <c r="R135" s="23" t="inlineStr">
         <is>
@@ -14831,13 +14825,13 @@
       </c>
       <c r="N136" s="2" t="n"/>
       <c r="O136" s="32" t="n">
-        <v>-0.7</v>
+        <v>6.3</v>
       </c>
       <c r="P136" s="32" t="n">
-        <v>9.1</v>
+        <v>15.9</v>
       </c>
       <c r="Q136" s="32" t="n">
-        <v>3.31</v>
+        <v>10.54</v>
       </c>
       <c r="R136" s="23" t="inlineStr">
         <is>
@@ -14947,17 +14941,23 @@
       </c>
       <c r="N137" s="2" t="n"/>
       <c r="O137" s="32" t="n">
-        <v>-2.1</v>
+        <v>4.2</v>
       </c>
       <c r="P137" s="32" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="Q137" s="32" t="n"/>
-      <c r="R137" s="23" t="n"/>
+      <c r="Q137" s="32" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="R137" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S137" s="37" t="n"/>
       <c r="T137" s="41" t="inlineStr">
         <is>
-          <t>武汉江夏</t>
+          <t>武汉农场</t>
         </is>
       </c>
       <c r="U137" s="2" t="inlineStr">
@@ -15057,10 +15057,10 @@
       </c>
       <c r="N138" s="2" t="n"/>
       <c r="O138" s="32" t="n">
-        <v>-6.2</v>
+        <v>0.1</v>
       </c>
       <c r="P138" s="32" t="n">
-        <v>8.9</v>
+        <v>5.8</v>
       </c>
       <c r="Q138" s="32" t="n"/>
       <c r="R138" s="23" t="inlineStr">
@@ -15171,13 +15171,13 @@
       </c>
       <c r="N139" s="2" t="n"/>
       <c r="O139" s="32" t="n">
-        <v>-4.4</v>
+        <v>2.6</v>
       </c>
       <c r="P139" s="32" t="n">
-        <v>8.699999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="Q139" s="32" t="n">
-        <v>1.31</v>
+        <v>5.76</v>
       </c>
       <c r="R139" s="23" t="inlineStr">
         <is>
@@ -15287,13 +15287,13 @@
       </c>
       <c r="N140" s="2" t="n"/>
       <c r="O140" s="32" t="n">
-        <v>-2.4</v>
+        <v>6.1</v>
       </c>
       <c r="P140" s="32" t="n">
-        <v>10.2</v>
+        <v>13.6</v>
       </c>
       <c r="Q140" s="32" t="n">
-        <v>3.26</v>
+        <v>8.84</v>
       </c>
       <c r="R140" s="23" t="inlineStr">
         <is>
@@ -15505,13 +15505,13 @@
       </c>
       <c r="N142" s="2" t="n"/>
       <c r="O142" s="32" t="n">
-        <v>6.8</v>
+        <v>11.6</v>
       </c>
       <c r="P142" s="32" t="n">
-        <v>11.3</v>
+        <v>15.3</v>
       </c>
       <c r="Q142" s="32" t="n">
-        <v>8.59</v>
+        <v>13.25</v>
       </c>
       <c r="R142" s="23" t="inlineStr">
         <is>
@@ -15621,13 +15621,13 @@
       </c>
       <c r="N143" s="2" t="n"/>
       <c r="O143" s="32" t="n">
-        <v>6.8</v>
+        <v>8.9</v>
       </c>
       <c r="P143" s="32" t="n">
-        <v>10.3</v>
+        <v>23.4</v>
       </c>
       <c r="Q143" s="32" t="n">
-        <v>8.119999999999999</v>
+        <v>15.09</v>
       </c>
       <c r="R143" s="23" t="inlineStr">
         <is>
@@ -15937,13 +15937,13 @@
       </c>
       <c r="N146" s="2" t="n"/>
       <c r="O146" s="32" t="n">
-        <v>15.8</v>
+        <v>17.8</v>
       </c>
       <c r="P146" s="32" t="n">
-        <v>22.7</v>
+        <v>25.9</v>
       </c>
       <c r="Q146" s="32" t="n">
-        <v>17.84</v>
+        <v>21.45</v>
       </c>
       <c r="R146" s="23" t="inlineStr">
         <is>
@@ -16045,13 +16045,13 @@
       </c>
       <c r="N147" s="2" t="n"/>
       <c r="O147" s="32" t="n">
-        <v>5.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="P147" s="32" t="n">
-        <v>10.1</v>
+        <v>15.3</v>
       </c>
       <c r="Q147" s="32" t="n">
-        <v>7.28</v>
+        <v>11.48</v>
       </c>
       <c r="R147" s="23" t="inlineStr">
         <is>
@@ -16263,13 +16263,13 @@
       </c>
       <c r="N149" s="2" t="n"/>
       <c r="O149" s="32" t="n">
-        <v>5.1</v>
+        <v>4.1</v>
       </c>
       <c r="P149" s="32" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="Q149" s="32" t="n">
-        <v>11.15</v>
+        <v>11.69</v>
       </c>
       <c r="R149" s="23" t="inlineStr">
         <is>
@@ -16379,13 +16379,13 @@
       </c>
       <c r="N150" s="2" t="n"/>
       <c r="O150" s="32" t="n">
-        <v>0.6</v>
+        <v>5.1</v>
       </c>
       <c r="P150" s="32" t="n">
-        <v>4.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Q150" s="32" t="n">
-        <v>2.33</v>
+        <v>6.5</v>
       </c>
       <c r="R150" s="23" t="inlineStr">
         <is>
@@ -16495,13 +16495,13 @@
       </c>
       <c r="N151" s="2" t="n"/>
       <c r="O151" s="32" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="P151" s="32" t="n">
-        <v>10.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Q151" s="32" t="n">
-        <v>8.09</v>
+        <v>7.95</v>
       </c>
       <c r="R151" s="23" t="inlineStr">
         <is>
@@ -16701,13 +16701,13 @@
       </c>
       <c r="N153" s="2" t="n"/>
       <c r="O153" s="32" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="P153" s="32" t="n">
-        <v>6.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Q153" s="32" t="n">
-        <v>4.91</v>
+        <v>5.89</v>
       </c>
       <c r="R153" s="23" t="inlineStr">
         <is>
@@ -16821,13 +16821,13 @@
       </c>
       <c r="N154" s="2" t="n"/>
       <c r="O154" s="32" t="n">
-        <v>-6.7</v>
+        <v>-4.1</v>
       </c>
       <c r="P154" s="32" t="n">
-        <v>11.7</v>
+        <v>8.9</v>
       </c>
       <c r="Q154" s="32" t="n">
-        <v>0.06</v>
+        <v>3.84</v>
       </c>
       <c r="R154" s="23" t="inlineStr">
         <is>
@@ -17023,10 +17023,10 @@
       </c>
       <c r="N156" s="2" t="n"/>
       <c r="O156" s="32" t="n">
-        <v>-24.1</v>
+        <v>-14.8</v>
       </c>
       <c r="P156" s="32" t="n">
-        <v>-2.5</v>
+        <v>-4.5</v>
       </c>
       <c r="Q156" s="32" t="n"/>
       <c r="R156" s="23" t="inlineStr">
@@ -17129,10 +17129,10 @@
       </c>
       <c r="N157" s="2" t="n"/>
       <c r="O157" s="32" t="n">
-        <v>-0.5</v>
+        <v>4.5</v>
       </c>
       <c r="P157" s="32" t="n">
-        <v>9.699999999999999</v>
+        <v>12</v>
       </c>
       <c r="Q157" s="32" t="n"/>
       <c r="R157" s="23" t="inlineStr">
@@ -17513,10 +17513,10 @@
       </c>
       <c r="N161" s="2" t="n"/>
       <c r="O161" s="32" t="n">
-        <v>-6</v>
+        <v>-2.5</v>
       </c>
       <c r="P161" s="32" t="n">
-        <v>9.199999999999999</v>
+        <v>5.4</v>
       </c>
       <c r="Q161" s="32" t="n"/>
       <c r="R161" s="23" t="inlineStr">
@@ -17953,10 +17953,10 @@
         </is>
       </c>
       <c r="O165" s="32" t="n">
-        <v>-44.4</v>
+        <v>-41.9</v>
       </c>
       <c r="P165" s="32" t="n">
-        <v>-29.4</v>
+        <v>-27.8</v>
       </c>
       <c r="Q165" s="32" t="n"/>
       <c r="R165" s="23" t="inlineStr">
@@ -18274,8 +18274,12 @@
           <t>❄️</t>
         </is>
       </c>
-      <c r="O168" s="32" t="n"/>
-      <c r="P168" s="32" t="n"/>
+      <c r="O168" s="32" t="n">
+        <v>-28.5</v>
+      </c>
+      <c r="P168" s="32" t="n">
+        <v>-12.2</v>
+      </c>
       <c r="Q168" s="32" t="n"/>
       <c r="R168" s="23" t="inlineStr">
         <is>
@@ -18384,8 +18388,12 @@
           <t>↓</t>
         </is>
       </c>
-      <c r="O169" s="32" t="n"/>
-      <c r="P169" s="32" t="n"/>
+      <c r="O169" s="32" t="n">
+        <v>-34.1</v>
+      </c>
+      <c r="P169" s="32" t="n">
+        <v>-9.9</v>
+      </c>
       <c r="Q169" s="32" t="n"/>
       <c r="R169" s="23" t="inlineStr">
         <is>
@@ -18698,8 +18706,12 @@
         </is>
       </c>
       <c r="N172" s="3" t="n"/>
-      <c r="O172" s="32" t="n"/>
-      <c r="P172" s="32" t="n"/>
+      <c r="O172" s="32" t="n">
+        <v>-27.6</v>
+      </c>
+      <c r="P172" s="32" t="n">
+        <v>-12</v>
+      </c>
       <c r="Q172" s="32" t="n"/>
       <c r="R172" s="23" t="inlineStr">
         <is>
@@ -18805,10 +18817,10 @@
       </c>
       <c r="N173" s="2" t="n"/>
       <c r="O173" s="32" t="n">
-        <v>-35.2</v>
+        <v>-30.9</v>
       </c>
       <c r="P173" s="32" t="n">
-        <v>-16.6</v>
+        <v>-7</v>
       </c>
       <c r="Q173" s="32" t="n"/>
       <c r="R173" s="23" t="inlineStr">
@@ -19123,10 +19135,10 @@
       </c>
       <c r="N176" s="2" t="n"/>
       <c r="O176" s="32" t="n">
-        <v>-4.9</v>
+        <v>-0.7</v>
       </c>
       <c r="P176" s="32" t="n">
-        <v>1.1</v>
+        <v>5</v>
       </c>
       <c r="Q176" s="32" t="n"/>
       <c r="R176" s="23" t="inlineStr">
@@ -19220,12 +19232,8 @@
         </is>
       </c>
       <c r="N177" s="2" t="n"/>
-      <c r="O177" s="32" t="n">
-        <v>-30.5</v>
-      </c>
-      <c r="P177" s="32" t="n">
-        <v>-23.9</v>
-      </c>
+      <c r="O177" s="32" t="n"/>
+      <c r="P177" s="32" t="n"/>
       <c r="Q177" s="32" t="n"/>
       <c r="R177" s="23" t="inlineStr">
         <is>
@@ -20100,13 +20108,13 @@
       </c>
       <c r="N186" s="2" t="n"/>
       <c r="O186" s="32" t="n">
-        <v>-37.3</v>
+        <v>-37.2</v>
       </c>
       <c r="P186" s="32" t="n">
-        <v>-31.5</v>
+        <v>-28.1</v>
       </c>
       <c r="Q186" s="32" t="n">
-        <v>-34.38</v>
+        <v>-31.11</v>
       </c>
       <c r="R186" s="23" t="inlineStr">
         <is>
@@ -20209,13 +20217,13 @@
       </c>
       <c r="N187" s="2" t="n"/>
       <c r="O187" s="32" t="n">
-        <v>-38.1</v>
+        <v>-43.3</v>
       </c>
       <c r="P187" s="32" t="n">
-        <v>-32.4</v>
+        <v>-29.8</v>
       </c>
       <c r="Q187" s="32" t="n">
-        <v>-34.89</v>
+        <v>-36.17</v>
       </c>
       <c r="R187" s="23" t="inlineStr">
         <is>
@@ -20313,13 +20321,13 @@
       </c>
       <c r="N188" s="2" t="n"/>
       <c r="O188" s="32" t="n">
-        <v>-33</v>
+        <v>-44</v>
       </c>
       <c r="P188" s="32" t="n">
-        <v>-29.9</v>
+        <v>-29.8</v>
       </c>
       <c r="Q188" s="32" t="n">
-        <v>-30.91</v>
+        <v>-36.71</v>
       </c>
       <c r="R188" s="23" t="inlineStr">
         <is>
@@ -20417,13 +20425,13 @@
       </c>
       <c r="N189" s="2" t="n"/>
       <c r="O189" s="32" t="n">
-        <v>-22.9</v>
+        <v>-42.8</v>
       </c>
       <c r="P189" s="32" t="n">
-        <v>-19.2</v>
+        <v>-17.4</v>
       </c>
       <c r="Q189" s="32" t="n">
-        <v>-20.14</v>
+        <v>-25.76</v>
       </c>
       <c r="R189" s="23" t="inlineStr">
         <is>
@@ -20521,13 +20529,13 @@
       </c>
       <c r="N190" s="2" t="n"/>
       <c r="O190" s="32" t="n">
-        <v>-45.1</v>
+        <v>-46.3</v>
       </c>
       <c r="P190" s="32" t="n">
-        <v>-38.5</v>
+        <v>-40.6</v>
       </c>
       <c r="Q190" s="32" t="n">
-        <v>-41.56</v>
+        <v>-44.11</v>
       </c>
       <c r="R190" s="23" t="inlineStr">
         <is>
@@ -20625,13 +20633,13 @@
       </c>
       <c r="N191" s="2" t="n"/>
       <c r="O191" s="32" t="n">
-        <v>-33.4</v>
+        <v>-39.7</v>
       </c>
       <c r="P191" s="32" t="n">
-        <v>-27.6</v>
+        <v>-23.3</v>
       </c>
       <c r="Q191" s="32" t="n">
-        <v>-30.53</v>
+        <v>-30.55</v>
       </c>
       <c r="R191" s="23" t="inlineStr">
         <is>
@@ -20725,13 +20733,13 @@
       </c>
       <c r="N192" s="2" t="n"/>
       <c r="O192" s="32" t="n">
-        <v>-39.5</v>
+        <v>-32.5</v>
       </c>
       <c r="P192" s="32" t="n">
-        <v>-31.8</v>
+        <v>-25.9</v>
       </c>
       <c r="Q192" s="32" t="n">
-        <v>-34.41</v>
+        <v>-28.3</v>
       </c>
       <c r="R192" s="23" t="inlineStr">
         <is>
@@ -20830,13 +20838,13 @@
       </c>
       <c r="N193" s="2" t="n"/>
       <c r="O193" s="32" t="n">
-        <v>-31.4</v>
+        <v>-35.2</v>
       </c>
       <c r="P193" s="32" t="n">
-        <v>-27</v>
+        <v>-28.8</v>
       </c>
       <c r="Q193" s="32" t="n">
-        <v>-28.53</v>
+        <v>-32.14</v>
       </c>
       <c r="R193" s="23" t="inlineStr">
         <is>
@@ -20938,10 +20946,10 @@
       </c>
       <c r="N194" s="2" t="n"/>
       <c r="O194" s="32" t="n">
-        <v>-43.5</v>
+        <v>-46</v>
       </c>
       <c r="P194" s="32" t="n">
-        <v>-34</v>
+        <v>-37.1</v>
       </c>
       <c r="Q194" s="32" t="n"/>
       <c r="R194" s="23" t="inlineStr">
@@ -21036,13 +21044,13 @@
       </c>
       <c r="N195" s="2" t="n"/>
       <c r="O195" s="32" t="n">
-        <v>-22.2</v>
+        <v>-25.2</v>
       </c>
       <c r="P195" s="32" t="n">
-        <v>-19.7</v>
+        <v>-17.4</v>
       </c>
       <c r="Q195" s="32" t="n">
-        <v>-20.91</v>
+        <v>-21.96</v>
       </c>
       <c r="R195" s="23" t="inlineStr">
         <is>
@@ -21140,13 +21148,13 @@
       </c>
       <c r="N196" s="2" t="n"/>
       <c r="O196" s="32" t="n">
-        <v>-20.5</v>
+        <v>-19.9</v>
       </c>
       <c r="P196" s="32" t="n">
-        <v>-16.9</v>
+        <v>-17.9</v>
       </c>
       <c r="Q196" s="32" t="n">
-        <v>-18</v>
+        <v>-18.47</v>
       </c>
       <c r="R196" s="23" t="inlineStr">
         <is>
@@ -21244,13 +21252,13 @@
       </c>
       <c r="N197" s="24" t="n"/>
       <c r="O197" s="32" t="n">
-        <v>-40</v>
+        <v>-45.5</v>
       </c>
       <c r="P197" s="32" t="n">
-        <v>-34.6</v>
+        <v>-39.6</v>
       </c>
       <c r="Q197" s="32" t="n">
-        <v>-37.51</v>
+        <v>-43.92</v>
       </c>
       <c r="R197" s="23" t="inlineStr">
         <is>
@@ -21539,8 +21547,12 @@
         </is>
       </c>
       <c r="N200" s="2" t="n"/>
-      <c r="O200" s="32" t="n"/>
-      <c r="P200" s="32" t="n"/>
+      <c r="O200" s="32" t="n">
+        <v>-39.8</v>
+      </c>
+      <c r="P200" s="32" t="n">
+        <v>-15.9</v>
+      </c>
       <c r="Q200" s="32" t="n"/>
       <c r="R200" s="23" t="inlineStr">
         <is>
@@ -22643,8 +22655,12 @@
         </is>
       </c>
       <c r="N211" s="2" t="n"/>
-      <c r="O211" s="32" t="n"/>
-      <c r="P211" s="32" t="n"/>
+      <c r="O211" s="32" t="n">
+        <v>-42.2</v>
+      </c>
+      <c r="P211" s="32" t="n">
+        <v>-17.7</v>
+      </c>
       <c r="Q211" s="32" t="n"/>
       <c r="R211" s="23" t="inlineStr">
         <is>
@@ -23639,12 +23655,8 @@
         </is>
       </c>
       <c r="N221" s="2" t="n"/>
-      <c r="O221" s="32" t="n">
-        <v>-44.5</v>
-      </c>
-      <c r="P221" s="32" t="n">
-        <v>-30.1</v>
-      </c>
+      <c r="O221" s="32" t="n"/>
+      <c r="P221" s="32" t="n"/>
       <c r="Q221" s="32" t="n"/>
       <c r="R221" s="23" t="inlineStr">
         <is>
@@ -24823,8 +24835,12 @@
         </is>
       </c>
       <c r="N233" s="2" t="n"/>
-      <c r="O233" s="32" t="n"/>
-      <c r="P233" s="32" t="n"/>
+      <c r="O233" s="32" t="n">
+        <v>-38.6</v>
+      </c>
+      <c r="P233" s="32" t="n">
+        <v>-29.7</v>
+      </c>
       <c r="Q233" s="32" t="n"/>
       <c r="R233" s="23" t="inlineStr">
         <is>
@@ -26174,13 +26190,13 @@
       </c>
       <c r="N247" s="2" t="n"/>
       <c r="O247" s="32" t="n">
-        <v>-26.1</v>
+        <v>-17.7</v>
       </c>
       <c r="P247" s="32" t="n">
-        <v>-18.2</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="Q247" s="32" t="n">
-        <v>-23.73</v>
+        <v>-14.45</v>
       </c>
       <c r="R247" s="23" t="inlineStr">
         <is>
@@ -26286,13 +26302,13 @@
       </c>
       <c r="N248" s="2" t="n"/>
       <c r="O248" s="32" t="n">
-        <v>-26.9</v>
+        <v>-19</v>
       </c>
       <c r="P248" s="32" t="n">
-        <v>-15.7</v>
+        <v>-11.2</v>
       </c>
       <c r="Q248" s="32" t="n">
-        <v>-22.68</v>
+        <v>-16.93</v>
       </c>
       <c r="R248" s="23" t="inlineStr">
         <is>
@@ -26394,13 +26410,13 @@
       </c>
       <c r="N249" s="2" t="n"/>
       <c r="O249" s="32" t="n">
-        <v>-18.9</v>
+        <v>-18.2</v>
       </c>
       <c r="P249" s="32" t="n">
-        <v>-12</v>
+        <v>-12.6</v>
       </c>
       <c r="Q249" s="32" t="n">
-        <v>-15.62</v>
+        <v>-16.15</v>
       </c>
       <c r="R249" s="23" t="inlineStr">
         <is>
@@ -26506,12 +26522,14 @@
       </c>
       <c r="N250" s="2" t="n"/>
       <c r="O250" s="32" t="n">
-        <v>-39.5</v>
+        <v>-31.5</v>
       </c>
       <c r="P250" s="32" t="n">
-        <v>-29.3</v>
-      </c>
-      <c r="Q250" s="32" t="n"/>
+        <v>-17.7</v>
+      </c>
+      <c r="Q250" s="32" t="n">
+        <v>-22.81</v>
+      </c>
       <c r="R250" s="23" t="inlineStr">
         <is>
           <t>Y</t>
@@ -26714,13 +26732,13 @@
       </c>
       <c r="N252" s="2" t="n"/>
       <c r="O252" s="32" t="n">
-        <v>-33.3</v>
+        <v>-26</v>
       </c>
       <c r="P252" s="32" t="n">
-        <v>-27.2</v>
+        <v>-19.6</v>
       </c>
       <c r="Q252" s="32" t="n">
-        <v>-30.29</v>
+        <v>-23.49</v>
       </c>
       <c r="R252" s="23" t="inlineStr">
         <is>
@@ -26912,13 +26930,13 @@
       </c>
       <c r="N254" s="2" t="n"/>
       <c r="O254" s="32" t="n">
-        <v>-48.7</v>
+        <v>-51.5</v>
       </c>
       <c r="P254" s="32" t="n">
-        <v>-45.7</v>
+        <v>-47.7</v>
       </c>
       <c r="Q254" s="32" t="n">
-        <v>-47.14</v>
+        <v>-49.79</v>
       </c>
       <c r="R254" s="23" t="inlineStr">
         <is>
@@ -27486,13 +27504,13 @@
       </c>
       <c r="N260" s="2" t="n"/>
       <c r="O260" s="32" t="n">
-        <v>-34.6</v>
+        <v>-24.3</v>
       </c>
       <c r="P260" s="32" t="n">
-        <v>-17</v>
+        <v>-11.9</v>
       </c>
       <c r="Q260" s="32" t="n">
-        <v>-27.4</v>
+        <v>-18.91</v>
       </c>
       <c r="R260" s="23" t="inlineStr">
         <is>
@@ -27594,13 +27612,13 @@
       </c>
       <c r="N261" s="2" t="n"/>
       <c r="O261" s="32" t="n">
-        <v>-40.6</v>
+        <v>-37.2</v>
       </c>
       <c r="P261" s="32" t="n">
-        <v>-26.2</v>
+        <v>-21.5</v>
       </c>
       <c r="Q261" s="32" t="n">
-        <v>-34.84</v>
+        <v>-29.56</v>
       </c>
       <c r="R261" s="23" t="inlineStr">
         <is>
@@ -27706,13 +27724,13 @@
       </c>
       <c r="N262" s="2" t="n"/>
       <c r="O262" s="32" t="n">
-        <v>-29.6</v>
+        <v>-30.8</v>
       </c>
       <c r="P262" s="32" t="n">
-        <v>-22.3</v>
+        <v>-17.7</v>
       </c>
       <c r="Q262" s="32" t="n">
-        <v>-26.51</v>
+        <v>-25.66</v>
       </c>
       <c r="R262" s="23" t="inlineStr">
         <is>
@@ -27912,13 +27930,13 @@
       </c>
       <c r="N264" s="2" t="n"/>
       <c r="O264" s="32" t="n">
-        <v>-26</v>
+        <v>-20.2</v>
       </c>
       <c r="P264" s="32" t="n">
-        <v>-18.8</v>
+        <v>-16.1</v>
       </c>
       <c r="Q264" s="32" t="n">
-        <v>-23.07</v>
+        <v>-18.02</v>
       </c>
       <c r="R264" s="23" t="inlineStr">
         <is>
@@ -28032,10 +28050,10 @@
       </c>
       <c r="N265" s="2" t="n"/>
       <c r="O265" s="32" t="n">
-        <v>-37.6</v>
+        <v>-35.6</v>
       </c>
       <c r="P265" s="32" t="n">
-        <v>-27.1</v>
+        <v>-26.2</v>
       </c>
       <c r="Q265" s="32" t="n"/>
       <c r="R265" s="23" t="inlineStr">
@@ -29072,13 +29090,13 @@
       </c>
       <c r="N276" s="2" t="n"/>
       <c r="O276" s="32" t="n">
-        <v>-16.1</v>
+        <v>-18.1</v>
       </c>
       <c r="P276" s="32" t="n">
-        <v>-10.2</v>
+        <v>-1.4</v>
       </c>
       <c r="Q276" s="32" t="n">
-        <v>-13.06</v>
+        <v>-8.380000000000001</v>
       </c>
       <c r="R276" s="23" t="inlineStr">
         <is>

--- a/气象/For_Python_站点信息和记录.xlsx
+++ b/气象/For_Python_站点信息和记录.xlsx
@@ -763,7 +763,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.59765625" defaultRowHeight="20.25"/>
@@ -790,8 +790,8 @@
     <col width="18.59765625" customWidth="1" style="8" min="25" max="25"/>
     <col width="12.59765625" customWidth="1" style="5" min="26" max="30"/>
     <col width="12.59765625" customWidth="1" style="8" min="31" max="32"/>
-    <col width="12.59765625" customWidth="1" style="5" min="33" max="207"/>
-    <col width="12.59765625" customWidth="1" style="5" min="208" max="16384"/>
+    <col width="12.59765625" customWidth="1" style="5" min="33" max="211"/>
+    <col width="12.59765625" customWidth="1" style="5" min="212" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.75" customFormat="1" customHeight="1" s="11">
@@ -1014,13 +1014,13 @@
         </is>
       </c>
       <c r="O2" s="32" t="n">
-        <v>-36.1</v>
+        <v>-39.5</v>
       </c>
       <c r="P2" s="32" t="n">
-        <v>-27.2</v>
+        <v>-29.7</v>
       </c>
       <c r="Q2" s="32" t="n">
-        <v>-29.65</v>
+        <v>-35.35</v>
       </c>
       <c r="R2" s="23" t="inlineStr">
         <is>
@@ -1124,10 +1124,10 @@
         </is>
       </c>
       <c r="O3" s="32" t="n">
-        <v>-36.8</v>
+        <v>-38.7</v>
       </c>
       <c r="P3" s="32" t="n">
-        <v>-28.4</v>
+        <v>-26.1</v>
       </c>
       <c r="Q3" s="32" t="n"/>
       <c r="R3" s="23" t="n"/>
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="O4" s="32" t="n">
-        <v>-32</v>
+        <v>-36.9</v>
       </c>
       <c r="P4" s="32" t="n">
-        <v>-23.2</v>
+        <v>-27.2</v>
       </c>
       <c r="Q4" s="32" t="n"/>
       <c r="R4" s="23" t="n"/>
@@ -1320,10 +1320,10 @@
       </c>
       <c r="N5" s="2" t="n"/>
       <c r="O5" s="32" t="n">
-        <v>-29.8</v>
+        <v>-32.8</v>
       </c>
       <c r="P5" s="32" t="n">
-        <v>-16.8</v>
+        <v>-23.6</v>
       </c>
       <c r="Q5" s="32" t="n"/>
       <c r="R5" s="23" t="n"/>
@@ -1420,11 +1420,9 @@
         </is>
       </c>
       <c r="O6" s="32" t="n">
-        <v>-26.1</v>
-      </c>
-      <c r="P6" s="32" t="n">
-        <v>-14.1</v>
-      </c>
+        <v>-34.7</v>
+      </c>
+      <c r="P6" s="32" t="n"/>
       <c r="Q6" s="32" t="n"/>
       <c r="R6" s="23" t="n"/>
       <c r="S6" s="37" t="inlineStr">
@@ -1524,10 +1522,10 @@
         </is>
       </c>
       <c r="O7" s="32" t="n">
-        <v>-29.6</v>
+        <v>-38.3</v>
       </c>
       <c r="P7" s="32" t="n">
-        <v>-25</v>
+        <v>-28.3</v>
       </c>
       <c r="Q7" s="32" t="n"/>
       <c r="R7" s="23" t="n"/>
@@ -1632,13 +1630,13 @@
       </c>
       <c r="N8" s="2" t="n"/>
       <c r="O8" s="32" t="n">
-        <v>-34.3</v>
+        <v>-38.4</v>
       </c>
       <c r="P8" s="32" t="n">
-        <v>-20.5</v>
+        <v>-26.1</v>
       </c>
       <c r="Q8" s="32" t="n">
-        <v>-26.59</v>
+        <v>-33.61</v>
       </c>
       <c r="R8" s="23" t="inlineStr">
         <is>
@@ -1744,13 +1742,13 @@
       </c>
       <c r="N9" s="2" t="n"/>
       <c r="O9" s="32" t="n">
-        <v>-35.7</v>
+        <v>-35.6</v>
       </c>
       <c r="P9" s="32" t="n">
-        <v>-22.5</v>
+        <v>-24.3</v>
       </c>
       <c r="Q9" s="32" t="n">
-        <v>-31.44</v>
+        <v>-31.36</v>
       </c>
       <c r="R9" s="23" t="inlineStr">
         <is>
@@ -1860,12 +1858,14 @@
       </c>
       <c r="N10" s="3" t="n"/>
       <c r="O10" s="32" t="n">
-        <v>-30.8</v>
+        <v>-36.8</v>
       </c>
       <c r="P10" s="32" t="n">
-        <v>-24.6</v>
-      </c>
-      <c r="Q10" s="32" t="n"/>
+        <v>-26.2</v>
+      </c>
+      <c r="Q10" s="32" t="n">
+        <v>-31.22</v>
+      </c>
       <c r="R10" s="23" t="inlineStr">
         <is>
           <t>Y</t>
@@ -1974,13 +1974,13 @@
         </is>
       </c>
       <c r="O11" s="32" t="n">
-        <v>-30.3</v>
+        <v>-29.5</v>
       </c>
       <c r="P11" s="32" t="n">
-        <v>-12.5</v>
+        <v>-15.1</v>
       </c>
       <c r="Q11" s="32" t="n">
-        <v>-21.94</v>
+        <v>-24.07</v>
       </c>
       <c r="R11" s="23" t="inlineStr">
         <is>
@@ -2086,13 +2086,13 @@
       </c>
       <c r="N12" s="2" t="n"/>
       <c r="O12" s="32" t="n">
-        <v>-26</v>
+        <v>-35</v>
       </c>
       <c r="P12" s="32" t="n">
-        <v>-13.5</v>
+        <v>-20.1</v>
       </c>
       <c r="Q12" s="32" t="n">
-        <v>-20.82</v>
+        <v>-30.33</v>
       </c>
       <c r="R12" s="23" t="inlineStr">
         <is>
@@ -2202,13 +2202,13 @@
         </is>
       </c>
       <c r="O13" s="32" t="n">
-        <v>-31.1</v>
+        <v>-38.5</v>
       </c>
       <c r="P13" s="32" t="n">
-        <v>-22</v>
+        <v>-29.2</v>
       </c>
       <c r="Q13" s="32" t="n">
-        <v>-28.36</v>
+        <v>-34.7</v>
       </c>
       <c r="R13" s="23" t="inlineStr">
         <is>
@@ -2318,13 +2318,13 @@
       </c>
       <c r="N14" s="2" t="n"/>
       <c r="O14" s="32" t="n">
-        <v>-20.6</v>
+        <v>-25.2</v>
       </c>
       <c r="P14" s="32" t="n">
-        <v>-13.1</v>
+        <v>-16.4</v>
       </c>
       <c r="Q14" s="32" t="n">
-        <v>-15.73</v>
+        <v>-21.59</v>
       </c>
       <c r="R14" s="23" t="inlineStr">
         <is>
@@ -2419,7 +2419,9 @@
         </is>
       </c>
       <c r="N15" s="2" t="n"/>
-      <c r="O15" s="32" t="n"/>
+      <c r="O15" s="32" t="n">
+        <v>-34.6</v>
+      </c>
       <c r="P15" s="32" t="n"/>
       <c r="Q15" s="32" t="n"/>
       <c r="R15" s="23" t="n"/>
@@ -2520,13 +2522,13 @@
       </c>
       <c r="N16" s="2" t="n"/>
       <c r="O16" s="32" t="n">
-        <v>-25.4</v>
+        <v>-34.8</v>
       </c>
       <c r="P16" s="32" t="n">
-        <v>-14.1</v>
+        <v>-19.6</v>
       </c>
       <c r="Q16" s="32" t="n">
-        <v>-16.74</v>
+        <v>-27.46</v>
       </c>
       <c r="R16" s="23" t="inlineStr">
         <is>
@@ -7828,13 +7830,13 @@
       </c>
       <c r="N75" s="2" t="n"/>
       <c r="O75" s="32" t="n">
-        <v>-33.7</v>
+        <v>-33.2</v>
       </c>
       <c r="P75" s="32" t="n">
-        <v>-19.4</v>
+        <v>-16.3</v>
       </c>
       <c r="Q75" s="32" t="n">
-        <v>-28.32</v>
+        <v>-27.32</v>
       </c>
       <c r="R75" s="23" t="inlineStr">
         <is>
@@ -7940,14 +7942,12 @@
       </c>
       <c r="N76" s="2" t="n"/>
       <c r="O76" s="32" t="n">
-        <v>-40.1</v>
+        <v>-41.7</v>
       </c>
       <c r="P76" s="32" t="n">
-        <v>-27.2</v>
-      </c>
-      <c r="Q76" s="32" t="n">
-        <v>-35.29</v>
-      </c>
+        <v>-24.6</v>
+      </c>
+      <c r="Q76" s="32" t="n"/>
       <c r="R76" s="23" t="inlineStr">
         <is>
           <t>Y</t>
@@ -8056,13 +8056,13 @@
         </is>
       </c>
       <c r="O77" s="32" t="n">
-        <v>-41.6</v>
+        <v>-34.1</v>
       </c>
       <c r="P77" s="32" t="n">
-        <v>-22.5</v>
+        <v>-18.5</v>
       </c>
       <c r="Q77" s="32" t="n">
-        <v>-33.36</v>
+        <v>-26.85</v>
       </c>
       <c r="R77" s="23" t="inlineStr">
         <is>
@@ -8172,13 +8172,13 @@
       </c>
       <c r="N78" s="2" t="n"/>
       <c r="O78" s="32" t="n">
-        <v>-39</v>
+        <v>-32.1</v>
       </c>
       <c r="P78" s="32" t="n">
-        <v>-24.1</v>
+        <v>-18.2</v>
       </c>
       <c r="Q78" s="32" t="n">
-        <v>-32.65</v>
+        <v>-26.72</v>
       </c>
       <c r="R78" s="23" t="inlineStr">
         <is>
@@ -8288,13 +8288,13 @@
         </is>
       </c>
       <c r="O79" s="32" t="n">
-        <v>-39.6</v>
+        <v>-29.1</v>
       </c>
       <c r="P79" s="32" t="n">
-        <v>-20</v>
+        <v>-16.5</v>
       </c>
       <c r="Q79" s="32" t="n">
-        <v>-32.74</v>
+        <v>-23.71</v>
       </c>
       <c r="R79" s="23" t="inlineStr">
         <is>
@@ -8400,13 +8400,13 @@
       </c>
       <c r="N80" s="2" t="n"/>
       <c r="O80" s="32" t="n">
-        <v>-27.1</v>
+        <v>-24.5</v>
       </c>
       <c r="P80" s="32" t="n">
-        <v>-16</v>
+        <v>-18.6</v>
       </c>
       <c r="Q80" s="32" t="n">
-        <v>-22.61</v>
+        <v>-21.99</v>
       </c>
       <c r="R80" s="23" t="inlineStr">
         <is>
@@ -8516,13 +8516,13 @@
         </is>
       </c>
       <c r="O81" s="32" t="n">
-        <v>-47.3</v>
+        <v>-43.6</v>
       </c>
       <c r="P81" s="32" t="n">
-        <v>-32.8</v>
+        <v>-26.3</v>
       </c>
       <c r="Q81" s="32" t="n">
-        <v>-39.6</v>
+        <v>-35.81</v>
       </c>
       <c r="R81" s="23" t="inlineStr">
         <is>
@@ -8637,13 +8637,13 @@
         </is>
       </c>
       <c r="O82" s="32" t="n">
-        <v>-45.5</v>
+        <v>-40.9</v>
       </c>
       <c r="P82" s="32" t="n">
-        <v>-27.8</v>
+        <v>-20.6</v>
       </c>
       <c r="Q82" s="32" t="n">
-        <v>-37.01</v>
+        <v>-33.65</v>
       </c>
       <c r="R82" s="23" t="inlineStr">
         <is>
@@ -8753,13 +8753,13 @@
       </c>
       <c r="N83" s="2" t="n"/>
       <c r="O83" s="32" t="n">
-        <v>-41.2</v>
+        <v>-36.2</v>
       </c>
       <c r="P83" s="32" t="n">
-        <v>-26.9</v>
+        <v>-25.8</v>
       </c>
       <c r="Q83" s="32" t="n">
-        <v>-33.97</v>
+        <v>-32.16</v>
       </c>
       <c r="R83" s="23" t="inlineStr">
         <is>
@@ -8869,13 +8869,13 @@
         </is>
       </c>
       <c r="O84" s="32" t="n">
-        <v>-35.4</v>
+        <v>-42.3</v>
       </c>
       <c r="P84" s="32" t="n">
-        <v>-19.7</v>
+        <v>-31.5</v>
       </c>
       <c r="Q84" s="32" t="n">
-        <v>-25.16</v>
+        <v>-37.06</v>
       </c>
       <c r="R84" s="23" t="inlineStr">
         <is>
@@ -8989,13 +8989,13 @@
         </is>
       </c>
       <c r="O85" s="32" t="n">
-        <v>-31.3</v>
+        <v>-39.5</v>
       </c>
       <c r="P85" s="32" t="n">
-        <v>-22.2</v>
+        <v>-24.2</v>
       </c>
       <c r="Q85" s="32" t="n">
-        <v>-27.16</v>
+        <v>-33.22</v>
       </c>
       <c r="R85" s="23" t="inlineStr">
         <is>
@@ -9101,13 +9101,13 @@
       </c>
       <c r="N86" s="2" t="n"/>
       <c r="O86" s="32" t="n">
-        <v>-31.9</v>
+        <v>-35.3</v>
       </c>
       <c r="P86" s="32" t="n">
-        <v>-22.8</v>
+        <v>-25.5</v>
       </c>
       <c r="Q86" s="32" t="n">
-        <v>-27.04</v>
+        <v>-31.39</v>
       </c>
       <c r="R86" s="23" t="inlineStr">
         <is>
@@ -9225,13 +9225,13 @@
         </is>
       </c>
       <c r="O87" s="32" t="n">
-        <v>-32.4</v>
+        <v>-36</v>
       </c>
       <c r="P87" s="32" t="n">
-        <v>-25.3</v>
+        <v>-25.1</v>
       </c>
       <c r="Q87" s="32" t="n">
-        <v>-29.05</v>
+        <v>-31.4</v>
       </c>
       <c r="R87" s="23" t="inlineStr">
         <is>
@@ -9337,13 +9337,13 @@
       </c>
       <c r="N88" s="2" t="n"/>
       <c r="O88" s="32" t="n">
-        <v>-31.7</v>
+        <v>-29</v>
       </c>
       <c r="P88" s="32" t="n">
-        <v>-19.5</v>
+        <v>-16.2</v>
       </c>
       <c r="Q88" s="32" t="n">
-        <v>-25.7</v>
+        <v>-24.04</v>
       </c>
       <c r="R88" s="23" t="inlineStr">
         <is>
@@ -9555,13 +9555,13 @@
         </is>
       </c>
       <c r="O90" s="32" t="n">
-        <v>-25.8</v>
+        <v>-8.4</v>
       </c>
       <c r="P90" s="32" t="n">
-        <v>-13.5</v>
+        <v>-5.4</v>
       </c>
       <c r="Q90" s="32" t="n">
-        <v>-19.3</v>
+        <v>-7.05</v>
       </c>
       <c r="R90" s="23" t="inlineStr">
         <is>
@@ -9663,13 +9663,13 @@
       </c>
       <c r="N91" s="2" t="n"/>
       <c r="O91" s="32" t="n">
-        <v>-26</v>
+        <v>-14.6</v>
       </c>
       <c r="P91" s="32" t="n">
-        <v>-16.3</v>
+        <v>-10.1</v>
       </c>
       <c r="Q91" s="32" t="n">
-        <v>-20.5</v>
+        <v>-12.4</v>
       </c>
       <c r="R91" s="23" t="inlineStr">
         <is>
@@ -9771,13 +9771,13 @@
       </c>
       <c r="N92" s="2" t="n"/>
       <c r="O92" s="32" t="n">
-        <v>-27</v>
+        <v>-23.3</v>
       </c>
       <c r="P92" s="32" t="n">
-        <v>-16</v>
+        <v>-14.8</v>
       </c>
       <c r="Q92" s="32" t="n">
-        <v>-22.56</v>
+        <v>-20</v>
       </c>
       <c r="R92" s="23" t="inlineStr">
         <is>
@@ -9883,13 +9883,13 @@
       </c>
       <c r="N93" s="2" t="n"/>
       <c r="O93" s="32" t="n">
-        <v>-23</v>
+        <v>-17.5</v>
       </c>
       <c r="P93" s="32" t="n">
-        <v>-9.699999999999999</v>
+        <v>-7</v>
       </c>
       <c r="Q93" s="32" t="n">
-        <v>-14.75</v>
+        <v>-11.34</v>
       </c>
       <c r="R93" s="23" t="inlineStr">
         <is>
@@ -10003,10 +10003,10 @@
         </is>
       </c>
       <c r="O94" s="32" t="n">
-        <v>-32</v>
+        <v>-28.3</v>
       </c>
       <c r="P94" s="32" t="n">
-        <v>-10</v>
+        <v>-11.8</v>
       </c>
       <c r="Q94" s="32" t="n"/>
       <c r="R94" s="23" t="inlineStr">
@@ -10121,13 +10121,13 @@
       </c>
       <c r="N95" s="2" t="n"/>
       <c r="O95" s="32" t="n">
-        <v>-24.5</v>
+        <v>-20</v>
       </c>
       <c r="P95" s="32" t="n">
-        <v>-13.7</v>
+        <v>-13</v>
       </c>
       <c r="Q95" s="32" t="n">
-        <v>-18.99</v>
+        <v>-16.45</v>
       </c>
       <c r="R95" s="23" t="inlineStr">
         <is>
@@ -10249,10 +10249,10 @@
         </is>
       </c>
       <c r="O96" s="32" t="n">
-        <v>-31.5</v>
+        <v>-21.6</v>
       </c>
       <c r="P96" s="32" t="n">
-        <v>-14.2</v>
+        <v>-12.9</v>
       </c>
       <c r="Q96" s="32" t="n"/>
       <c r="R96" s="23" t="inlineStr">
@@ -10367,13 +10367,13 @@
       </c>
       <c r="N97" s="2" t="n"/>
       <c r="O97" s="32" t="n">
-        <v>-24.1</v>
+        <v>-19.3</v>
       </c>
       <c r="P97" s="32" t="n">
-        <v>-15.2</v>
+        <v>-13.2</v>
       </c>
       <c r="Q97" s="32" t="n">
-        <v>-19.94</v>
+        <v>-16.77</v>
       </c>
       <c r="R97" s="23" t="inlineStr">
         <is>
@@ -10483,10 +10483,10 @@
       </c>
       <c r="N98" s="2" t="n"/>
       <c r="O98" s="32" t="n">
-        <v>-35.1</v>
+        <v>-34.2</v>
       </c>
       <c r="P98" s="32" t="n">
-        <v>-19.5</v>
+        <v>-19.6</v>
       </c>
       <c r="Q98" s="32" t="n"/>
       <c r="R98" s="23" t="inlineStr">
@@ -10601,13 +10601,13 @@
       </c>
       <c r="N99" s="2" t="n"/>
       <c r="O99" s="32" t="n">
-        <v>-24.5</v>
+        <v>-28.2</v>
       </c>
       <c r="P99" s="32" t="n">
-        <v>-15.7</v>
+        <v>-16.3</v>
       </c>
       <c r="Q99" s="32" t="n">
-        <v>-20.61</v>
+        <v>-21.16</v>
       </c>
       <c r="R99" s="23" t="inlineStr">
         <is>
@@ -10818,8 +10818,12 @@
         </is>
       </c>
       <c r="N101" s="2" t="n"/>
-      <c r="O101" s="32" t="n"/>
-      <c r="P101" s="32" t="n"/>
+      <c r="O101" s="32" t="n">
+        <v>-36.8</v>
+      </c>
+      <c r="P101" s="32" t="n">
+        <v>-17.5</v>
+      </c>
       <c r="Q101" s="32" t="n"/>
       <c r="R101" s="23" t="inlineStr">
         <is>
@@ -10933,13 +10937,13 @@
       </c>
       <c r="N102" s="2" t="n"/>
       <c r="O102" s="32" t="n">
-        <v>-32.8</v>
+        <v>-33.7</v>
       </c>
       <c r="P102" s="32" t="n">
-        <v>-16.2</v>
+        <v>-17.6</v>
       </c>
       <c r="Q102" s="32" t="n">
-        <v>-24.16</v>
+        <v>-27.47</v>
       </c>
       <c r="R102" s="23" t="inlineStr">
         <is>
@@ -11049,10 +11053,10 @@
       </c>
       <c r="N103" s="2" t="n"/>
       <c r="O103" s="32" t="n">
-        <v>-29.3</v>
+        <v>-31</v>
       </c>
       <c r="P103" s="32" t="n">
-        <v>-15.6</v>
+        <v>-16.6</v>
       </c>
       <c r="Q103" s="32" t="n"/>
       <c r="R103" s="23" t="inlineStr">
@@ -11159,10 +11163,10 @@
       </c>
       <c r="N104" s="2" t="n"/>
       <c r="O104" s="32" t="n">
-        <v>-37.7</v>
+        <v>-34.9</v>
       </c>
       <c r="P104" s="32" t="n">
-        <v>-18.9</v>
+        <v>-17.3</v>
       </c>
       <c r="Q104" s="32" t="n"/>
       <c r="R104" s="23" t="inlineStr">
@@ -11281,13 +11285,13 @@
         </is>
       </c>
       <c r="O105" s="32" t="n">
-        <v>-37.4</v>
+        <v>-33.5</v>
       </c>
       <c r="P105" s="32" t="n">
-        <v>-19.3</v>
+        <v>-18.4</v>
       </c>
       <c r="Q105" s="32" t="n">
-        <v>-29.76</v>
+        <v>-27.36</v>
       </c>
       <c r="R105" s="23" t="inlineStr">
         <is>
@@ -11401,10 +11405,10 @@
         </is>
       </c>
       <c r="O106" s="32" t="n">
-        <v>-33.9</v>
+        <v>-29.7</v>
       </c>
       <c r="P106" s="32" t="n">
-        <v>-23</v>
+        <v>-21.9</v>
       </c>
       <c r="Q106" s="32" t="n"/>
       <c r="R106" s="23" t="inlineStr">
@@ -11625,13 +11629,13 @@
       </c>
       <c r="N108" s="2" t="n"/>
       <c r="O108" s="32" t="n">
-        <v>-35.1</v>
+        <v>-31.7</v>
       </c>
       <c r="P108" s="32" t="n">
-        <v>-22.7</v>
+        <v>-23.2</v>
       </c>
       <c r="Q108" s="32" t="n">
-        <v>-29.76</v>
+        <v>-28.45</v>
       </c>
       <c r="R108" s="23" t="inlineStr">
         <is>
@@ -11953,13 +11957,13 @@
       </c>
       <c r="N111" s="2" t="n"/>
       <c r="O111" s="32" t="n">
-        <v>-36.6</v>
+        <v>-31.8</v>
       </c>
       <c r="P111" s="32" t="n">
-        <v>-22.3</v>
+        <v>-22.8</v>
       </c>
       <c r="Q111" s="32" t="n">
-        <v>-30.29</v>
+        <v>-27.94</v>
       </c>
       <c r="R111" s="23" t="inlineStr">
         <is>
@@ -12065,10 +12069,10 @@
       </c>
       <c r="N112" s="2" t="n"/>
       <c r="O112" s="32" t="n">
-        <v>-25</v>
+        <v>-25.5</v>
       </c>
       <c r="P112" s="32" t="n">
-        <v>-4.7</v>
+        <v>-5.9</v>
       </c>
       <c r="Q112" s="32" t="n"/>
       <c r="R112" s="23" t="inlineStr">
@@ -12171,10 +12175,10 @@
       </c>
       <c r="N113" s="2" t="n"/>
       <c r="O113" s="32" t="n">
-        <v>-15.7</v>
+        <v>-19.9</v>
       </c>
       <c r="P113" s="32" t="n">
-        <v>-3.7</v>
+        <v>0.1</v>
       </c>
       <c r="Q113" s="32" t="n"/>
       <c r="R113" s="23" t="inlineStr">
@@ -12285,10 +12289,10 @@
         </is>
       </c>
       <c r="O114" s="32" t="n">
-        <v>-12.2</v>
+        <v>-26.9</v>
       </c>
       <c r="P114" s="32" t="n">
-        <v>-0.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q114" s="32" t="n"/>
       <c r="R114" s="23" t="inlineStr">
@@ -12407,10 +12411,10 @@
         </is>
       </c>
       <c r="O115" s="32" t="n">
-        <v>-15.3</v>
+        <v>-19.5</v>
       </c>
       <c r="P115" s="32" t="n">
-        <v>-6.5</v>
+        <v>-1</v>
       </c>
       <c r="Q115" s="32" t="n"/>
       <c r="R115" s="23" t="inlineStr">
@@ -12525,13 +12529,13 @@
       </c>
       <c r="N116" s="2" t="n"/>
       <c r="O116" s="32" t="n">
-        <v>-13.8</v>
+        <v>-16</v>
       </c>
       <c r="P116" s="32" t="n">
-        <v>2.9</v>
+        <v>4.4</v>
       </c>
       <c r="Q116" s="32" t="n">
-        <v>-7.79</v>
+        <v>-6.44</v>
       </c>
       <c r="R116" s="23" t="inlineStr">
         <is>
@@ -12637,10 +12641,10 @@
       </c>
       <c r="N117" s="2" t="n"/>
       <c r="O117" s="32" t="n">
-        <v>-22.5</v>
+        <v>-17.4</v>
       </c>
       <c r="P117" s="32" t="n">
-        <v>-4</v>
+        <v>0.4</v>
       </c>
       <c r="Q117" s="32" t="n"/>
       <c r="R117" s="23" t="inlineStr">
@@ -12751,10 +12755,10 @@
         </is>
       </c>
       <c r="O118" s="32" t="n">
-        <v>-30.5</v>
+        <v>-21.3</v>
       </c>
       <c r="P118" s="32" t="n">
-        <v>-12.9</v>
+        <v>-5.3</v>
       </c>
       <c r="Q118" s="32" t="n"/>
       <c r="R118" s="23" t="inlineStr">
@@ -12869,13 +12873,13 @@
       </c>
       <c r="N119" s="2" t="n"/>
       <c r="O119" s="32" t="n">
-        <v>-23</v>
+        <v>-12.7</v>
       </c>
       <c r="P119" s="32" t="n">
-        <v>-7.4</v>
+        <v>-2.8</v>
       </c>
       <c r="Q119" s="32" t="n">
-        <v>-16.46</v>
+        <v>-8.77</v>
       </c>
       <c r="R119" s="23" t="inlineStr">
         <is>
@@ -13099,13 +13103,13 @@
       </c>
       <c r="N121" s="2" t="n"/>
       <c r="O121" s="32" t="n">
-        <v>-16.8</v>
+        <v>-11.6</v>
       </c>
       <c r="P121" s="32" t="n">
-        <v>-8.9</v>
+        <v>-7</v>
       </c>
       <c r="Q121" s="32" t="n">
-        <v>-12.24</v>
+        <v>-10.18</v>
       </c>
       <c r="R121" s="23" t="inlineStr">
         <is>
@@ -13223,10 +13227,10 @@
       </c>
       <c r="N122" s="2" t="n"/>
       <c r="O122" s="32" t="n">
-        <v>-27.3</v>
+        <v>-28.2</v>
       </c>
       <c r="P122" s="32" t="n">
-        <v>-12.3</v>
+        <v>-12.8</v>
       </c>
       <c r="Q122" s="32" t="n"/>
       <c r="R122" s="23" t="inlineStr">
@@ -13451,13 +13455,13 @@
       </c>
       <c r="N124" s="2" t="n"/>
       <c r="O124" s="32" t="n">
-        <v>-11</v>
+        <v>-13.7</v>
       </c>
       <c r="P124" s="32" t="n">
-        <v>-1.6</v>
+        <v>-2.2</v>
       </c>
       <c r="Q124" s="32" t="n">
-        <v>-6.44</v>
+        <v>-8.359999999999999</v>
       </c>
       <c r="R124" s="23" t="inlineStr">
         <is>
@@ -13575,13 +13579,13 @@
       </c>
       <c r="N125" s="2" t="n"/>
       <c r="O125" s="32" t="n">
-        <v>-8.800000000000001</v>
+        <v>-6.2</v>
       </c>
       <c r="P125" s="32" t="n">
-        <v>0.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q125" s="32" t="n">
-        <v>-3.29</v>
+        <v>-1.25</v>
       </c>
       <c r="R125" s="23" t="inlineStr">
         <is>
@@ -13678,7 +13682,7 @@
         <v>-3.9</v>
       </c>
       <c r="P126" s="32" t="n">
-        <v>1.3</v>
+        <v>4.4</v>
       </c>
       <c r="Q126" s="32" t="n"/>
       <c r="R126" s="23" t="inlineStr">
@@ -13785,13 +13789,13 @@
       </c>
       <c r="N127" s="2" t="n"/>
       <c r="O127" s="32" t="n">
-        <v>-2.9</v>
+        <v>-6.9</v>
       </c>
       <c r="P127" s="32" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="Q127" s="32" t="n">
-        <v>-0.17</v>
+        <v>-2.08</v>
       </c>
       <c r="R127" s="23" t="inlineStr">
         <is>
@@ -13905,10 +13909,10 @@
       </c>
       <c r="N128" s="2" t="n"/>
       <c r="O128" s="32" t="n">
-        <v>-2.8</v>
+        <v>-5.4</v>
       </c>
       <c r="P128" s="32" t="n">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q128" s="32" t="n"/>
       <c r="R128" s="23" t="inlineStr">
@@ -14015,13 +14019,13 @@
       </c>
       <c r="N129" s="2" t="n"/>
       <c r="O129" s="32" t="n">
-        <v>-4.4</v>
+        <v>-11</v>
       </c>
       <c r="P129" s="32" t="n">
-        <v>1.4</v>
+        <v>3.7</v>
       </c>
       <c r="Q129" s="32" t="n">
-        <v>-3.49</v>
+        <v>-4.38</v>
       </c>
       <c r="R129" s="23" t="inlineStr">
         <is>
@@ -14135,13 +14139,13 @@
       </c>
       <c r="N130" s="2" t="n"/>
       <c r="O130" s="32" t="n">
-        <v>-6.8</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="P130" s="32" t="n">
-        <v>5.1</v>
+        <v>8.6</v>
       </c>
       <c r="Q130" s="32" t="n">
-        <v>-3.59</v>
+        <v>-0.93</v>
       </c>
       <c r="R130" s="23" t="inlineStr">
         <is>
@@ -14255,13 +14259,13 @@
       </c>
       <c r="N131" s="2" t="n"/>
       <c r="O131" s="32" t="n">
-        <v>-1.5</v>
+        <v>-3.9</v>
       </c>
       <c r="P131" s="32" t="n">
-        <v>3.1</v>
+        <v>7.9</v>
       </c>
       <c r="Q131" s="32" t="n">
-        <v>0.88</v>
+        <v>0.71</v>
       </c>
       <c r="R131" s="23" t="inlineStr">
         <is>
@@ -14371,13 +14375,13 @@
       </c>
       <c r="N132" s="2" t="n"/>
       <c r="O132" s="32" t="n">
-        <v>0.4</v>
+        <v>-3.7</v>
       </c>
       <c r="P132" s="32" t="n">
-        <v>3.1</v>
+        <v>7.7</v>
       </c>
       <c r="Q132" s="32" t="n">
-        <v>1.88</v>
+        <v>1.65</v>
       </c>
       <c r="R132" s="23" t="inlineStr">
         <is>
@@ -14487,13 +14491,13 @@
       </c>
       <c r="N133" s="2" t="n"/>
       <c r="O133" s="32" t="n">
-        <v>1.3</v>
+        <v>-1.8</v>
       </c>
       <c r="P133" s="32" t="n">
-        <v>3.1</v>
+        <v>7.4</v>
       </c>
       <c r="Q133" s="32" t="n">
-        <v>2.14</v>
+        <v>2.17</v>
       </c>
       <c r="R133" s="23" t="inlineStr">
         <is>
@@ -14709,13 +14713,13 @@
       </c>
       <c r="N135" s="2" t="n"/>
       <c r="O135" s="32" t="n">
-        <v>7.5</v>
+        <v>3.9</v>
       </c>
       <c r="P135" s="32" t="n">
-        <v>10.7</v>
+        <v>6.2</v>
       </c>
       <c r="Q135" s="32" t="n">
-        <v>8.98</v>
+        <v>4.94</v>
       </c>
       <c r="R135" s="23" t="inlineStr">
         <is>
@@ -14825,13 +14829,13 @@
       </c>
       <c r="N136" s="2" t="n"/>
       <c r="O136" s="32" t="n">
-        <v>6.3</v>
+        <v>5.5</v>
       </c>
       <c r="P136" s="32" t="n">
-        <v>15.9</v>
+        <v>8</v>
       </c>
       <c r="Q136" s="32" t="n">
-        <v>10.54</v>
+        <v>6.46</v>
       </c>
       <c r="R136" s="23" t="inlineStr">
         <is>
@@ -14941,13 +14945,13 @@
       </c>
       <c r="N137" s="2" t="n"/>
       <c r="O137" s="32" t="n">
-        <v>4.2</v>
+        <v>-1.9</v>
       </c>
       <c r="P137" s="32" t="n">
-        <v>8.800000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="Q137" s="32" t="n">
-        <v>7.11</v>
+        <v>2.16</v>
       </c>
       <c r="R137" s="23" t="inlineStr">
         <is>
@@ -15057,10 +15061,10 @@
       </c>
       <c r="N138" s="2" t="n"/>
       <c r="O138" s="32" t="n">
-        <v>0.1</v>
+        <v>3.6</v>
       </c>
       <c r="P138" s="32" t="n">
-        <v>5.8</v>
+        <v>7.6</v>
       </c>
       <c r="Q138" s="32" t="n"/>
       <c r="R138" s="23" t="inlineStr">
@@ -15171,13 +15175,13 @@
       </c>
       <c r="N139" s="2" t="n"/>
       <c r="O139" s="32" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="P139" s="32" t="n">
-        <v>8.9</v>
+        <v>7.5</v>
       </c>
       <c r="Q139" s="32" t="n">
-        <v>5.76</v>
+        <v>4.6</v>
       </c>
       <c r="R139" s="23" t="inlineStr">
         <is>
@@ -15287,13 +15291,13 @@
       </c>
       <c r="N140" s="2" t="n"/>
       <c r="O140" s="32" t="n">
-        <v>6.1</v>
+        <v>4.9</v>
       </c>
       <c r="P140" s="32" t="n">
-        <v>13.6</v>
+        <v>7.2</v>
       </c>
       <c r="Q140" s="32" t="n">
-        <v>8.84</v>
+        <v>5.95</v>
       </c>
       <c r="R140" s="23" t="inlineStr">
         <is>
@@ -15505,13 +15509,13 @@
       </c>
       <c r="N142" s="2" t="n"/>
       <c r="O142" s="32" t="n">
-        <v>11.6</v>
+        <v>11.2</v>
       </c>
       <c r="P142" s="32" t="n">
-        <v>15.3</v>
+        <v>17.5</v>
       </c>
       <c r="Q142" s="32" t="n">
-        <v>13.25</v>
+        <v>13.2</v>
       </c>
       <c r="R142" s="23" t="inlineStr">
         <is>
@@ -15621,13 +15625,13 @@
       </c>
       <c r="N143" s="2" t="n"/>
       <c r="O143" s="32" t="n">
-        <v>8.9</v>
+        <v>12.8</v>
       </c>
       <c r="P143" s="32" t="n">
-        <v>23.4</v>
+        <v>25.6</v>
       </c>
       <c r="Q143" s="32" t="n">
-        <v>15.09</v>
+        <v>17.74</v>
       </c>
       <c r="R143" s="23" t="inlineStr">
         <is>
@@ -15937,13 +15941,13 @@
       </c>
       <c r="N146" s="2" t="n"/>
       <c r="O146" s="32" t="n">
-        <v>17.8</v>
+        <v>18.9</v>
       </c>
       <c r="P146" s="32" t="n">
-        <v>25.9</v>
+        <v>28.9</v>
       </c>
       <c r="Q146" s="32" t="n">
-        <v>21.45</v>
+        <v>22.51</v>
       </c>
       <c r="R146" s="23" t="inlineStr">
         <is>
@@ -16045,13 +16049,13 @@
       </c>
       <c r="N147" s="2" t="n"/>
       <c r="O147" s="32" t="n">
-        <v>9.300000000000001</v>
+        <v>11.9</v>
       </c>
       <c r="P147" s="32" t="n">
-        <v>15.3</v>
+        <v>21.2</v>
       </c>
       <c r="Q147" s="32" t="n">
-        <v>11.48</v>
+        <v>15.08</v>
       </c>
       <c r="R147" s="23" t="inlineStr">
         <is>
@@ -16263,13 +16267,13 @@
       </c>
       <c r="N149" s="2" t="n"/>
       <c r="O149" s="32" t="n">
-        <v>4.1</v>
+        <v>5.8</v>
       </c>
       <c r="P149" s="32" t="n">
-        <v>20.3</v>
+        <v>18.5</v>
       </c>
       <c r="Q149" s="32" t="n">
-        <v>11.69</v>
+        <v>11.35</v>
       </c>
       <c r="R149" s="23" t="inlineStr">
         <is>
@@ -16379,13 +16383,13 @@
       </c>
       <c r="N150" s="2" t="n"/>
       <c r="O150" s="32" t="n">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="P150" s="32" t="n">
-        <v>9.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="Q150" s="32" t="n">
-        <v>6.5</v>
+        <v>5.24</v>
       </c>
       <c r="R150" s="23" t="inlineStr">
         <is>
@@ -16495,13 +16499,13 @@
       </c>
       <c r="N151" s="2" t="n"/>
       <c r="O151" s="32" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="P151" s="32" t="n">
-        <v>9.199999999999999</v>
+        <v>14.7</v>
       </c>
       <c r="Q151" s="32" t="n">
-        <v>7.95</v>
+        <v>9.83</v>
       </c>
       <c r="R151" s="23" t="inlineStr">
         <is>
@@ -16701,13 +16705,13 @@
       </c>
       <c r="N153" s="2" t="n"/>
       <c r="O153" s="32" t="n">
-        <v>4.3</v>
+        <v>0.9</v>
       </c>
       <c r="P153" s="32" t="n">
-        <v>9.800000000000001</v>
+        <v>12.4</v>
       </c>
       <c r="Q153" s="32" t="n">
-        <v>5.89</v>
+        <v>6.46</v>
       </c>
       <c r="R153" s="23" t="inlineStr">
         <is>
@@ -16821,13 +16825,13 @@
       </c>
       <c r="N154" s="2" t="n"/>
       <c r="O154" s="32" t="n">
-        <v>-4.1</v>
+        <v>-6.9</v>
       </c>
       <c r="P154" s="32" t="n">
-        <v>8.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Q154" s="32" t="n">
-        <v>3.84</v>
+        <v>-0.01</v>
       </c>
       <c r="R154" s="23" t="inlineStr">
         <is>
@@ -17023,10 +17027,10 @@
       </c>
       <c r="N156" s="2" t="n"/>
       <c r="O156" s="32" t="n">
-        <v>-14.8</v>
+        <v>-20.6</v>
       </c>
       <c r="P156" s="32" t="n">
-        <v>-4.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q156" s="32" t="n"/>
       <c r="R156" s="23" t="inlineStr">
@@ -17129,10 +17133,10 @@
       </c>
       <c r="N157" s="2" t="n"/>
       <c r="O157" s="32" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="P157" s="32" t="n">
-        <v>12</v>
+        <v>7.9</v>
       </c>
       <c r="Q157" s="32" t="n"/>
       <c r="R157" s="23" t="inlineStr">
@@ -17513,10 +17517,10 @@
       </c>
       <c r="N161" s="2" t="n"/>
       <c r="O161" s="32" t="n">
-        <v>-2.5</v>
+        <v>-4.8</v>
       </c>
       <c r="P161" s="32" t="n">
-        <v>5.4</v>
+        <v>7.6</v>
       </c>
       <c r="Q161" s="32" t="n"/>
       <c r="R161" s="23" t="inlineStr">
@@ -17953,10 +17957,10 @@
         </is>
       </c>
       <c r="O165" s="32" t="n">
-        <v>-41.9</v>
+        <v>-37.6</v>
       </c>
       <c r="P165" s="32" t="n">
-        <v>-27.8</v>
+        <v>-25.2</v>
       </c>
       <c r="Q165" s="32" t="n"/>
       <c r="R165" s="23" t="inlineStr">
@@ -18275,10 +18279,10 @@
         </is>
       </c>
       <c r="O168" s="32" t="n">
-        <v>-28.5</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="P168" s="32" t="n">
-        <v>-12.2</v>
+        <v>-3.7</v>
       </c>
       <c r="Q168" s="32" t="n"/>
       <c r="R168" s="23" t="inlineStr">
@@ -18389,10 +18393,10 @@
         </is>
       </c>
       <c r="O169" s="32" t="n">
-        <v>-34.1</v>
+        <v>-18.6</v>
       </c>
       <c r="P169" s="32" t="n">
-        <v>-9.9</v>
+        <v>-5.2</v>
       </c>
       <c r="Q169" s="32" t="n"/>
       <c r="R169" s="23" t="inlineStr">
@@ -18707,10 +18711,10 @@
       </c>
       <c r="N172" s="3" t="n"/>
       <c r="O172" s="32" t="n">
-        <v>-27.6</v>
+        <v>-27.8</v>
       </c>
       <c r="P172" s="32" t="n">
-        <v>-12</v>
+        <v>-9.4</v>
       </c>
       <c r="Q172" s="32" t="n"/>
       <c r="R172" s="23" t="inlineStr">
@@ -18817,10 +18821,10 @@
       </c>
       <c r="N173" s="2" t="n"/>
       <c r="O173" s="32" t="n">
-        <v>-30.9</v>
+        <v>-30.7</v>
       </c>
       <c r="P173" s="32" t="n">
-        <v>-7</v>
+        <v>-13</v>
       </c>
       <c r="Q173" s="32" t="n"/>
       <c r="R173" s="23" t="inlineStr">
@@ -19135,10 +19139,10 @@
       </c>
       <c r="N176" s="2" t="n"/>
       <c r="O176" s="32" t="n">
-        <v>-0.7</v>
+        <v>-3.6</v>
       </c>
       <c r="P176" s="32" t="n">
-        <v>5</v>
+        <v>0.9</v>
       </c>
       <c r="Q176" s="32" t="n"/>
       <c r="R176" s="23" t="inlineStr">
@@ -19232,8 +19236,12 @@
         </is>
       </c>
       <c r="N177" s="2" t="n"/>
-      <c r="O177" s="32" t="n"/>
-      <c r="P177" s="32" t="n"/>
+      <c r="O177" s="32" t="n">
+        <v>-28.1</v>
+      </c>
+      <c r="P177" s="32" t="n">
+        <v>-23.3</v>
+      </c>
       <c r="Q177" s="32" t="n"/>
       <c r="R177" s="23" t="inlineStr">
         <is>
@@ -20108,13 +20116,13 @@
       </c>
       <c r="N186" s="2" t="n"/>
       <c r="O186" s="32" t="n">
-        <v>-37.2</v>
+        <v>-35.8</v>
       </c>
       <c r="P186" s="32" t="n">
-        <v>-28.1</v>
+        <v>-26.7</v>
       </c>
       <c r="Q186" s="32" t="n">
-        <v>-31.11</v>
+        <v>-30.29</v>
       </c>
       <c r="R186" s="23" t="inlineStr">
         <is>
@@ -20217,13 +20225,13 @@
       </c>
       <c r="N187" s="2" t="n"/>
       <c r="O187" s="32" t="n">
-        <v>-43.3</v>
+        <v>-32.8</v>
       </c>
       <c r="P187" s="32" t="n">
-        <v>-29.8</v>
+        <v>-27.4</v>
       </c>
       <c r="Q187" s="32" t="n">
-        <v>-36.17</v>
+        <v>-30.21</v>
       </c>
       <c r="R187" s="23" t="inlineStr">
         <is>
@@ -20321,13 +20329,13 @@
       </c>
       <c r="N188" s="2" t="n"/>
       <c r="O188" s="32" t="n">
-        <v>-44</v>
+        <v>-32.6</v>
       </c>
       <c r="P188" s="32" t="n">
-        <v>-29.8</v>
+        <v>-25.4</v>
       </c>
       <c r="Q188" s="32" t="n">
-        <v>-36.71</v>
+        <v>-28.26</v>
       </c>
       <c r="R188" s="23" t="inlineStr">
         <is>
@@ -20425,13 +20433,13 @@
       </c>
       <c r="N189" s="2" t="n"/>
       <c r="O189" s="32" t="n">
-        <v>-42.8</v>
+        <v>-34.6</v>
       </c>
       <c r="P189" s="32" t="n">
-        <v>-17.4</v>
+        <v>-18.4</v>
       </c>
       <c r="Q189" s="32" t="n">
-        <v>-25.76</v>
+        <v>-25.29</v>
       </c>
       <c r="R189" s="23" t="inlineStr">
         <is>
@@ -20529,13 +20537,13 @@
       </c>
       <c r="N190" s="2" t="n"/>
       <c r="O190" s="32" t="n">
-        <v>-46.3</v>
+        <v>-38.2</v>
       </c>
       <c r="P190" s="32" t="n">
-        <v>-40.6</v>
+        <v>-30.5</v>
       </c>
       <c r="Q190" s="32" t="n">
-        <v>-44.11</v>
+        <v>-35.65</v>
       </c>
       <c r="R190" s="23" t="inlineStr">
         <is>
@@ -20633,13 +20641,13 @@
       </c>
       <c r="N191" s="2" t="n"/>
       <c r="O191" s="32" t="n">
-        <v>-39.7</v>
+        <v>-32.1</v>
       </c>
       <c r="P191" s="32" t="n">
-        <v>-23.3</v>
+        <v>-24.8</v>
       </c>
       <c r="Q191" s="32" t="n">
-        <v>-30.55</v>
+        <v>-27.91</v>
       </c>
       <c r="R191" s="23" t="inlineStr">
         <is>
@@ -20733,13 +20741,13 @@
       </c>
       <c r="N192" s="2" t="n"/>
       <c r="O192" s="32" t="n">
-        <v>-32.5</v>
+        <v>-30.5</v>
       </c>
       <c r="P192" s="32" t="n">
-        <v>-25.9</v>
+        <v>-21.3</v>
       </c>
       <c r="Q192" s="32" t="n">
-        <v>-28.3</v>
+        <v>-26.6</v>
       </c>
       <c r="R192" s="23" t="inlineStr">
         <is>
@@ -20838,13 +20846,13 @@
       </c>
       <c r="N193" s="2" t="n"/>
       <c r="O193" s="32" t="n">
-        <v>-35.2</v>
+        <v>-33.8</v>
       </c>
       <c r="P193" s="32" t="n">
-        <v>-28.8</v>
+        <v>-30.6</v>
       </c>
       <c r="Q193" s="32" t="n">
-        <v>-32.14</v>
+        <v>-32.49</v>
       </c>
       <c r="R193" s="23" t="inlineStr">
         <is>
@@ -20946,10 +20954,10 @@
       </c>
       <c r="N194" s="2" t="n"/>
       <c r="O194" s="32" t="n">
-        <v>-46</v>
+        <v>-35.2</v>
       </c>
       <c r="P194" s="32" t="n">
-        <v>-37.1</v>
+        <v>-27.2</v>
       </c>
       <c r="Q194" s="32" t="n"/>
       <c r="R194" s="23" t="inlineStr">
@@ -21044,13 +21052,13 @@
       </c>
       <c r="N195" s="2" t="n"/>
       <c r="O195" s="32" t="n">
-        <v>-25.2</v>
+        <v>-21.9</v>
       </c>
       <c r="P195" s="32" t="n">
-        <v>-17.4</v>
+        <v>-14.8</v>
       </c>
       <c r="Q195" s="32" t="n">
-        <v>-21.96</v>
+        <v>-19.03</v>
       </c>
       <c r="R195" s="23" t="inlineStr">
         <is>
@@ -21148,13 +21156,13 @@
       </c>
       <c r="N196" s="2" t="n"/>
       <c r="O196" s="32" t="n">
-        <v>-19.9</v>
+        <v>-20</v>
       </c>
       <c r="P196" s="32" t="n">
-        <v>-17.9</v>
+        <v>-11.6</v>
       </c>
       <c r="Q196" s="32" t="n">
-        <v>-18.47</v>
+        <v>-16.25</v>
       </c>
       <c r="R196" s="23" t="inlineStr">
         <is>
@@ -21252,13 +21260,13 @@
       </c>
       <c r="N197" s="24" t="n"/>
       <c r="O197" s="32" t="n">
+        <v>-46.8</v>
+      </c>
+      <c r="P197" s="32" t="n">
+        <v>-43.3</v>
+      </c>
+      <c r="Q197" s="32" t="n">
         <v>-45.5</v>
-      </c>
-      <c r="P197" s="32" t="n">
-        <v>-39.6</v>
-      </c>
-      <c r="Q197" s="32" t="n">
-        <v>-43.92</v>
       </c>
       <c r="R197" s="23" t="inlineStr">
         <is>
@@ -21548,10 +21556,10 @@
       </c>
       <c r="N200" s="2" t="n"/>
       <c r="O200" s="32" t="n">
-        <v>-39.8</v>
+        <v>-38.5</v>
       </c>
       <c r="P200" s="32" t="n">
-        <v>-15.9</v>
+        <v>-17.6</v>
       </c>
       <c r="Q200" s="32" t="n"/>
       <c r="R200" s="23" t="inlineStr">
@@ -22655,12 +22663,8 @@
         </is>
       </c>
       <c r="N211" s="2" t="n"/>
-      <c r="O211" s="32" t="n">
-        <v>-42.2</v>
-      </c>
-      <c r="P211" s="32" t="n">
-        <v>-17.7</v>
-      </c>
+      <c r="O211" s="32" t="n"/>
+      <c r="P211" s="32" t="n"/>
       <c r="Q211" s="32" t="n"/>
       <c r="R211" s="23" t="inlineStr">
         <is>
@@ -24563,8 +24567,12 @@
         </is>
       </c>
       <c r="N230" s="2" t="n"/>
-      <c r="O230" s="32" t="n"/>
-      <c r="P230" s="32" t="n"/>
+      <c r="O230" s="32" t="n">
+        <v>-38.3</v>
+      </c>
+      <c r="P230" s="32" t="n">
+        <v>-16.8</v>
+      </c>
       <c r="Q230" s="32" t="n"/>
       <c r="R230" s="23" t="inlineStr">
         <is>
@@ -24835,12 +24843,8 @@
         </is>
       </c>
       <c r="N233" s="2" t="n"/>
-      <c r="O233" s="32" t="n">
-        <v>-38.6</v>
-      </c>
-      <c r="P233" s="32" t="n">
-        <v>-29.7</v>
-      </c>
+      <c r="O233" s="32" t="n"/>
+      <c r="P233" s="32" t="n"/>
       <c r="Q233" s="32" t="n"/>
       <c r="R233" s="23" t="inlineStr">
         <is>
@@ -26190,13 +26194,13 @@
       </c>
       <c r="N247" s="2" t="n"/>
       <c r="O247" s="32" t="n">
-        <v>-17.7</v>
+        <v>-26.2</v>
       </c>
       <c r="P247" s="32" t="n">
-        <v>-9.699999999999999</v>
+        <v>-16.6</v>
       </c>
       <c r="Q247" s="32" t="n">
-        <v>-14.45</v>
+        <v>-22.39</v>
       </c>
       <c r="R247" s="23" t="inlineStr">
         <is>
@@ -26302,13 +26306,13 @@
       </c>
       <c r="N248" s="2" t="n"/>
       <c r="O248" s="32" t="n">
-        <v>-19</v>
+        <v>-11.6</v>
       </c>
       <c r="P248" s="32" t="n">
-        <v>-11.2</v>
+        <v>-6.1</v>
       </c>
       <c r="Q248" s="32" t="n">
-        <v>-16.93</v>
+        <v>-9.41</v>
       </c>
       <c r="R248" s="23" t="inlineStr">
         <is>
@@ -26410,13 +26414,13 @@
       </c>
       <c r="N249" s="2" t="n"/>
       <c r="O249" s="32" t="n">
-        <v>-18.2</v>
+        <v>-18</v>
       </c>
       <c r="P249" s="32" t="n">
-        <v>-12.6</v>
+        <v>-11.4</v>
       </c>
       <c r="Q249" s="32" t="n">
-        <v>-16.15</v>
+        <v>-15.22</v>
       </c>
       <c r="R249" s="23" t="inlineStr">
         <is>
@@ -26522,13 +26526,13 @@
       </c>
       <c r="N250" s="2" t="n"/>
       <c r="O250" s="32" t="n">
-        <v>-31.5</v>
+        <v>-31.2</v>
       </c>
       <c r="P250" s="32" t="n">
-        <v>-17.7</v>
+        <v>-22.2</v>
       </c>
       <c r="Q250" s="32" t="n">
-        <v>-22.81</v>
+        <v>-26.61</v>
       </c>
       <c r="R250" s="23" t="inlineStr">
         <is>
@@ -26732,13 +26736,13 @@
       </c>
       <c r="N252" s="2" t="n"/>
       <c r="O252" s="32" t="n">
-        <v>-26</v>
+        <v>-27</v>
       </c>
       <c r="P252" s="32" t="n">
-        <v>-19.6</v>
+        <v>-20.4</v>
       </c>
       <c r="Q252" s="32" t="n">
-        <v>-23.49</v>
+        <v>-24.64</v>
       </c>
       <c r="R252" s="23" t="inlineStr">
         <is>
@@ -26930,13 +26934,13 @@
       </c>
       <c r="N254" s="2" t="n"/>
       <c r="O254" s="32" t="n">
-        <v>-51.5</v>
+        <v>-52.4</v>
       </c>
       <c r="P254" s="32" t="n">
-        <v>-47.7</v>
+        <v>-46.7</v>
       </c>
       <c r="Q254" s="32" t="n">
-        <v>-49.79</v>
+        <v>-50.5</v>
       </c>
       <c r="R254" s="23" t="inlineStr">
         <is>
@@ -27504,13 +27508,13 @@
       </c>
       <c r="N260" s="2" t="n"/>
       <c r="O260" s="32" t="n">
-        <v>-24.3</v>
+        <v>-31.4</v>
       </c>
       <c r="P260" s="32" t="n">
-        <v>-11.9</v>
+        <v>-15.1</v>
       </c>
       <c r="Q260" s="32" t="n">
-        <v>-18.91</v>
+        <v>-25.26</v>
       </c>
       <c r="R260" s="23" t="inlineStr">
         <is>
@@ -27612,13 +27616,13 @@
       </c>
       <c r="N261" s="2" t="n"/>
       <c r="O261" s="32" t="n">
-        <v>-37.2</v>
+        <v>-34.1</v>
       </c>
       <c r="P261" s="32" t="n">
-        <v>-21.5</v>
+        <v>-20</v>
       </c>
       <c r="Q261" s="32" t="n">
-        <v>-29.56</v>
+        <v>-28.38</v>
       </c>
       <c r="R261" s="23" t="inlineStr">
         <is>
@@ -27724,13 +27728,13 @@
       </c>
       <c r="N262" s="2" t="n"/>
       <c r="O262" s="32" t="n">
-        <v>-30.8</v>
+        <v>-24.3</v>
       </c>
       <c r="P262" s="32" t="n">
-        <v>-17.7</v>
+        <v>-15.7</v>
       </c>
       <c r="Q262" s="32" t="n">
-        <v>-25.66</v>
+        <v>-19.89</v>
       </c>
       <c r="R262" s="23" t="inlineStr">
         <is>
@@ -27930,13 +27934,13 @@
       </c>
       <c r="N264" s="2" t="n"/>
       <c r="O264" s="32" t="n">
-        <v>-20.2</v>
+        <v>-27.2</v>
       </c>
       <c r="P264" s="32" t="n">
-        <v>-16.1</v>
+        <v>-14.1</v>
       </c>
       <c r="Q264" s="32" t="n">
-        <v>-18.02</v>
+        <v>-21.67</v>
       </c>
       <c r="R264" s="23" t="inlineStr">
         <is>
@@ -28050,10 +28054,10 @@
       </c>
       <c r="N265" s="2" t="n"/>
       <c r="O265" s="32" t="n">
-        <v>-35.6</v>
+        <v>-39.2</v>
       </c>
       <c r="P265" s="32" t="n">
-        <v>-26.2</v>
+        <v>-28.2</v>
       </c>
       <c r="Q265" s="32" t="n"/>
       <c r="R265" s="23" t="inlineStr">
@@ -29090,13 +29094,13 @@
       </c>
       <c r="N276" s="2" t="n"/>
       <c r="O276" s="32" t="n">
-        <v>-18.1</v>
+        <v>-31.1</v>
       </c>
       <c r="P276" s="32" t="n">
-        <v>-1.4</v>
+        <v>-7.4</v>
       </c>
       <c r="Q276" s="32" t="n">
-        <v>-8.380000000000001</v>
+        <v>-16.21</v>
       </c>
       <c r="R276" s="23" t="inlineStr">
         <is>

--- a/气象/For_Python_站点信息和记录.xlsx
+++ b/气象/For_Python_站点信息和记录.xlsx
@@ -790,8 +790,8 @@
     <col width="18.59765625" customWidth="1" style="8" min="25" max="25"/>
     <col width="12.59765625" customWidth="1" style="5" min="26" max="30"/>
     <col width="12.59765625" customWidth="1" style="8" min="31" max="32"/>
-    <col width="12.59765625" customWidth="1" style="5" min="33" max="211"/>
-    <col width="12.59765625" customWidth="1" style="5" min="212" max="16384"/>
+    <col width="12.59765625" customWidth="1" style="5" min="33" max="217"/>
+    <col width="12.59765625" customWidth="1" style="5" min="218" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.75" customFormat="1" customHeight="1" s="11">
@@ -1014,13 +1014,13 @@
         </is>
       </c>
       <c r="O2" s="32" t="n">
-        <v>-39.5</v>
+        <v>-34.7</v>
       </c>
       <c r="P2" s="32" t="n">
-        <v>-29.7</v>
+        <v>-23.5</v>
       </c>
       <c r="Q2" s="32" t="n">
-        <v>-35.35</v>
+        <v>-26.91</v>
       </c>
       <c r="R2" s="23" t="inlineStr">
         <is>
@@ -1123,12 +1123,8 @@
           <t>▼▲</t>
         </is>
       </c>
-      <c r="O3" s="32" t="n">
-        <v>-38.7</v>
-      </c>
-      <c r="P3" s="32" t="n">
-        <v>-26.1</v>
-      </c>
+      <c r="O3" s="32" t="n"/>
+      <c r="P3" s="32" t="n"/>
       <c r="Q3" s="32" t="n"/>
       <c r="R3" s="23" t="n"/>
       <c r="S3" s="37" t="n"/>
@@ -1223,12 +1219,8 @@
           <t>⚡</t>
         </is>
       </c>
-      <c r="O4" s="32" t="n">
-        <v>-36.9</v>
-      </c>
-      <c r="P4" s="32" t="n">
-        <v>-27.2</v>
-      </c>
+      <c r="O4" s="32" t="n"/>
+      <c r="P4" s="32" t="n"/>
       <c r="Q4" s="32" t="n"/>
       <c r="R4" s="23" t="n"/>
       <c r="S4" s="37" t="n"/>
@@ -1319,12 +1311,8 @@
         </is>
       </c>
       <c r="N5" s="2" t="n"/>
-      <c r="O5" s="32" t="n">
-        <v>-32.8</v>
-      </c>
-      <c r="P5" s="32" t="n">
-        <v>-23.6</v>
-      </c>
+      <c r="O5" s="32" t="n"/>
+      <c r="P5" s="32" t="n"/>
       <c r="Q5" s="32" t="n"/>
       <c r="R5" s="23" t="n"/>
       <c r="S5" s="37" t="n"/>
@@ -1419,17 +1407,11 @@
           <t>▼🔵</t>
         </is>
       </c>
-      <c r="O6" s="32" t="n">
-        <v>-34.7</v>
-      </c>
+      <c r="O6" s="32" t="n"/>
       <c r="P6" s="32" t="n"/>
       <c r="Q6" s="32" t="n"/>
       <c r="R6" s="23" t="n"/>
-      <c r="S6" s="37" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="S6" s="37" t="n"/>
       <c r="T6" s="41" t="inlineStr">
         <is>
           <t>蒙古年均王&lt;br&gt;杭爱山</t>
@@ -1521,12 +1503,8 @@
           <t>▲🧊</t>
         </is>
       </c>
-      <c r="O7" s="32" t="n">
-        <v>-38.3</v>
-      </c>
-      <c r="P7" s="32" t="n">
-        <v>-28.3</v>
-      </c>
+      <c r="O7" s="32" t="n"/>
+      <c r="P7" s="32" t="n"/>
       <c r="Q7" s="32" t="n"/>
       <c r="R7" s="23" t="n"/>
       <c r="S7" s="37" t="n"/>
@@ -1630,13 +1608,13 @@
       </c>
       <c r="N8" s="2" t="n"/>
       <c r="O8" s="32" t="n">
-        <v>-38.4</v>
+        <v>-37.8</v>
       </c>
       <c r="P8" s="32" t="n">
-        <v>-26.1</v>
+        <v>-25.2</v>
       </c>
       <c r="Q8" s="32" t="n">
-        <v>-33.61</v>
+        <v>-31.9</v>
       </c>
       <c r="R8" s="23" t="inlineStr">
         <is>
@@ -1742,13 +1720,13 @@
       </c>
       <c r="N9" s="2" t="n"/>
       <c r="O9" s="32" t="n">
-        <v>-35.6</v>
+        <v>-29.4</v>
       </c>
       <c r="P9" s="32" t="n">
-        <v>-24.3</v>
+        <v>-22.2</v>
       </c>
       <c r="Q9" s="32" t="n">
-        <v>-31.36</v>
+        <v>-26.69</v>
       </c>
       <c r="R9" s="23" t="inlineStr">
         <is>
@@ -1858,13 +1836,13 @@
       </c>
       <c r="N10" s="3" t="n"/>
       <c r="O10" s="32" t="n">
-        <v>-36.8</v>
+        <v>-36.3</v>
       </c>
       <c r="P10" s="32" t="n">
-        <v>-26.2</v>
+        <v>-23.3</v>
       </c>
       <c r="Q10" s="32" t="n">
-        <v>-31.22</v>
+        <v>-30.19</v>
       </c>
       <c r="R10" s="23" t="inlineStr">
         <is>
@@ -1974,13 +1952,13 @@
         </is>
       </c>
       <c r="O11" s="32" t="n">
-        <v>-29.5</v>
+        <v>-33</v>
       </c>
       <c r="P11" s="32" t="n">
-        <v>-15.1</v>
+        <v>-15.6</v>
       </c>
       <c r="Q11" s="32" t="n">
-        <v>-24.07</v>
+        <v>-26.15</v>
       </c>
       <c r="R11" s="23" t="inlineStr">
         <is>
@@ -2086,13 +2064,13 @@
       </c>
       <c r="N12" s="2" t="n"/>
       <c r="O12" s="32" t="n">
-        <v>-35</v>
+        <v>-34.3</v>
       </c>
       <c r="P12" s="32" t="n">
-        <v>-20.1</v>
+        <v>-19.2</v>
       </c>
       <c r="Q12" s="32" t="n">
-        <v>-30.33</v>
+        <v>-29.06</v>
       </c>
       <c r="R12" s="23" t="inlineStr">
         <is>
@@ -2202,13 +2180,13 @@
         </is>
       </c>
       <c r="O13" s="32" t="n">
-        <v>-38.5</v>
+        <v>-37.7</v>
       </c>
       <c r="P13" s="32" t="n">
-        <v>-29.2</v>
+        <v>-27.4</v>
       </c>
       <c r="Q13" s="32" t="n">
-        <v>-34.7</v>
+        <v>-32.7</v>
       </c>
       <c r="R13" s="23" t="inlineStr">
         <is>
@@ -2318,13 +2296,13 @@
       </c>
       <c r="N14" s="2" t="n"/>
       <c r="O14" s="32" t="n">
-        <v>-25.2</v>
+        <v>-24.3</v>
       </c>
       <c r="P14" s="32" t="n">
-        <v>-16.4</v>
+        <v>-12.8</v>
       </c>
       <c r="Q14" s="32" t="n">
-        <v>-21.59</v>
+        <v>-19.49</v>
       </c>
       <c r="R14" s="23" t="inlineStr">
         <is>
@@ -2419,9 +2397,7 @@
         </is>
       </c>
       <c r="N15" s="2" t="n"/>
-      <c r="O15" s="32" t="n">
-        <v>-34.6</v>
-      </c>
+      <c r="O15" s="32" t="n"/>
       <c r="P15" s="32" t="n"/>
       <c r="Q15" s="32" t="n"/>
       <c r="R15" s="23" t="n"/>
@@ -2521,20 +2497,10 @@
         </is>
       </c>
       <c r="N16" s="2" t="n"/>
-      <c r="O16" s="32" t="n">
-        <v>-34.8</v>
-      </c>
-      <c r="P16" s="32" t="n">
-        <v>-19.6</v>
-      </c>
-      <c r="Q16" s="32" t="n">
-        <v>-27.46</v>
-      </c>
-      <c r="R16" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="O16" s="32" t="n"/>
+      <c r="P16" s="32" t="n"/>
+      <c r="Q16" s="32" t="n"/>
+      <c r="R16" s="23" t="n"/>
       <c r="S16" s="37" t="n"/>
       <c r="T16" s="41" t="inlineStr">
         <is>
@@ -7830,13 +7796,13 @@
       </c>
       <c r="N75" s="2" t="n"/>
       <c r="O75" s="32" t="n">
-        <v>-33.2</v>
+        <v>-21.4</v>
       </c>
       <c r="P75" s="32" t="n">
-        <v>-16.3</v>
+        <v>-13</v>
       </c>
       <c r="Q75" s="32" t="n">
-        <v>-27.32</v>
+        <v>-17.04</v>
       </c>
       <c r="R75" s="23" t="inlineStr">
         <is>
@@ -7942,12 +7908,14 @@
       </c>
       <c r="N76" s="2" t="n"/>
       <c r="O76" s="32" t="n">
-        <v>-41.7</v>
+        <v>-26.5</v>
       </c>
       <c r="P76" s="32" t="n">
-        <v>-24.6</v>
-      </c>
-      <c r="Q76" s="32" t="n"/>
+        <v>-14.6</v>
+      </c>
+      <c r="Q76" s="32" t="n">
+        <v>-20.88</v>
+      </c>
       <c r="R76" s="23" t="inlineStr">
         <is>
           <t>Y</t>
@@ -8056,13 +8024,13 @@
         </is>
       </c>
       <c r="O77" s="32" t="n">
-        <v>-34.1</v>
+        <v>-26.4</v>
       </c>
       <c r="P77" s="32" t="n">
-        <v>-18.5</v>
+        <v>-9</v>
       </c>
       <c r="Q77" s="32" t="n">
-        <v>-26.85</v>
+        <v>-18.49</v>
       </c>
       <c r="R77" s="23" t="inlineStr">
         <is>
@@ -8172,13 +8140,13 @@
       </c>
       <c r="N78" s="2" t="n"/>
       <c r="O78" s="32" t="n">
-        <v>-32.1</v>
+        <v>-24.3</v>
       </c>
       <c r="P78" s="32" t="n">
-        <v>-18.2</v>
+        <v>-10.7</v>
       </c>
       <c r="Q78" s="32" t="n">
-        <v>-26.72</v>
+        <v>-18.05</v>
       </c>
       <c r="R78" s="23" t="inlineStr">
         <is>
@@ -8288,13 +8256,13 @@
         </is>
       </c>
       <c r="O79" s="32" t="n">
-        <v>-29.1</v>
+        <v>-19.5</v>
       </c>
       <c r="P79" s="32" t="n">
-        <v>-16.5</v>
+        <v>-8.5</v>
       </c>
       <c r="Q79" s="32" t="n">
-        <v>-23.71</v>
+        <v>-11.49</v>
       </c>
       <c r="R79" s="23" t="inlineStr">
         <is>
@@ -8400,13 +8368,13 @@
       </c>
       <c r="N80" s="2" t="n"/>
       <c r="O80" s="32" t="n">
-        <v>-24.5</v>
+        <v>-27.1</v>
       </c>
       <c r="P80" s="32" t="n">
-        <v>-18.6</v>
+        <v>-15.8</v>
       </c>
       <c r="Q80" s="32" t="n">
-        <v>-21.99</v>
+        <v>-22.61</v>
       </c>
       <c r="R80" s="23" t="inlineStr">
         <is>
@@ -8516,13 +8484,13 @@
         </is>
       </c>
       <c r="O81" s="32" t="n">
-        <v>-43.6</v>
+        <v>-44.9</v>
       </c>
       <c r="P81" s="32" t="n">
-        <v>-26.3</v>
+        <v>-25.3</v>
       </c>
       <c r="Q81" s="32" t="n">
-        <v>-35.81</v>
+        <v>-37.58</v>
       </c>
       <c r="R81" s="23" t="inlineStr">
         <is>
@@ -8637,13 +8605,13 @@
         </is>
       </c>
       <c r="O82" s="32" t="n">
-        <v>-40.9</v>
+        <v>-45.6</v>
       </c>
       <c r="P82" s="32" t="n">
-        <v>-20.6</v>
+        <v>-19.3</v>
       </c>
       <c r="Q82" s="32" t="n">
-        <v>-33.65</v>
+        <v>-37.92</v>
       </c>
       <c r="R82" s="23" t="inlineStr">
         <is>
@@ -8753,20 +8721,24 @@
       </c>
       <c r="N83" s="2" t="n"/>
       <c r="O83" s="32" t="n">
-        <v>-36.2</v>
+        <v>-41.1</v>
       </c>
       <c r="P83" s="32" t="n">
-        <v>-25.8</v>
+        <v>-29.6</v>
       </c>
       <c r="Q83" s="32" t="n">
-        <v>-32.16</v>
+        <v>-35.81</v>
       </c>
       <c r="R83" s="23" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="S83" s="37" t="n"/>
+      <c r="S83" s="37" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="T83" s="41" t="inlineStr">
         <is>
           <t>布里亚特&lt;br&gt;贝加尔湖东岸</t>
@@ -8869,13 +8841,13 @@
         </is>
       </c>
       <c r="O84" s="32" t="n">
-        <v>-42.3</v>
+        <v>-40</v>
       </c>
       <c r="P84" s="32" t="n">
-        <v>-31.5</v>
+        <v>-26.4</v>
       </c>
       <c r="Q84" s="32" t="n">
-        <v>-37.06</v>
+        <v>-33.96</v>
       </c>
       <c r="R84" s="23" t="inlineStr">
         <is>
@@ -8989,14 +8961,12 @@
         </is>
       </c>
       <c r="O85" s="32" t="n">
-        <v>-39.5</v>
+        <v>-28.2</v>
       </c>
       <c r="P85" s="32" t="n">
-        <v>-24.2</v>
-      </c>
-      <c r="Q85" s="32" t="n">
-        <v>-33.22</v>
-      </c>
+        <v>-19.2</v>
+      </c>
+      <c r="Q85" s="32" t="n"/>
       <c r="R85" s="23" t="inlineStr">
         <is>
           <t>Y</t>
@@ -9101,13 +9071,13 @@
       </c>
       <c r="N86" s="2" t="n"/>
       <c r="O86" s="32" t="n">
-        <v>-35.3</v>
+        <v>-25.9</v>
       </c>
       <c r="P86" s="32" t="n">
-        <v>-25.5</v>
+        <v>-19</v>
       </c>
       <c r="Q86" s="32" t="n">
-        <v>-31.39</v>
+        <v>-23.15</v>
       </c>
       <c r="R86" s="23" t="inlineStr">
         <is>
@@ -9225,13 +9195,13 @@
         </is>
       </c>
       <c r="O87" s="32" t="n">
-        <v>-36</v>
+        <v>-33.8</v>
       </c>
       <c r="P87" s="32" t="n">
-        <v>-25.1</v>
+        <v>-23</v>
       </c>
       <c r="Q87" s="32" t="n">
-        <v>-31.4</v>
+        <v>-28.96</v>
       </c>
       <c r="R87" s="23" t="inlineStr">
         <is>
@@ -9337,13 +9307,13 @@
       </c>
       <c r="N88" s="2" t="n"/>
       <c r="O88" s="32" t="n">
-        <v>-29</v>
+        <v>-28.8</v>
       </c>
       <c r="P88" s="32" t="n">
-        <v>-16.2</v>
+        <v>-15.8</v>
       </c>
       <c r="Q88" s="32" t="n">
-        <v>-24.04</v>
+        <v>-24.15</v>
       </c>
       <c r="R88" s="23" t="inlineStr">
         <is>
@@ -9555,13 +9525,13 @@
         </is>
       </c>
       <c r="O90" s="32" t="n">
-        <v>-8.4</v>
+        <v>-20.3</v>
       </c>
       <c r="P90" s="32" t="n">
-        <v>-5.4</v>
+        <v>-8</v>
       </c>
       <c r="Q90" s="32" t="n">
-        <v>-7.05</v>
+        <v>-15.3</v>
       </c>
       <c r="R90" s="23" t="inlineStr">
         <is>
@@ -9663,13 +9633,13 @@
       </c>
       <c r="N91" s="2" t="n"/>
       <c r="O91" s="32" t="n">
-        <v>-14.6</v>
+        <v>-22.9</v>
       </c>
       <c r="P91" s="32" t="n">
-        <v>-10.1</v>
+        <v>-13.3</v>
       </c>
       <c r="Q91" s="32" t="n">
-        <v>-12.4</v>
+        <v>-20.34</v>
       </c>
       <c r="R91" s="23" t="inlineStr">
         <is>
@@ -9771,13 +9741,13 @@
       </c>
       <c r="N92" s="2" t="n"/>
       <c r="O92" s="32" t="n">
-        <v>-23.3</v>
+        <v>-36</v>
       </c>
       <c r="P92" s="32" t="n">
-        <v>-14.8</v>
+        <v>-13.8</v>
       </c>
       <c r="Q92" s="32" t="n">
-        <v>-20</v>
+        <v>-25.56</v>
       </c>
       <c r="R92" s="23" t="inlineStr">
         <is>
@@ -9883,13 +9853,13 @@
       </c>
       <c r="N93" s="2" t="n"/>
       <c r="O93" s="32" t="n">
-        <v>-17.5</v>
+        <v>-24.2</v>
       </c>
       <c r="P93" s="32" t="n">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="Q93" s="32" t="n">
-        <v>-11.34</v>
+        <v>-17.29</v>
       </c>
       <c r="R93" s="23" t="inlineStr">
         <is>
@@ -10003,10 +9973,10 @@
         </is>
       </c>
       <c r="O94" s="32" t="n">
-        <v>-28.3</v>
+        <v>-31.7</v>
       </c>
       <c r="P94" s="32" t="n">
-        <v>-11.8</v>
+        <v>-9.4</v>
       </c>
       <c r="Q94" s="32" t="n"/>
       <c r="R94" s="23" t="inlineStr">
@@ -10121,13 +10091,13 @@
       </c>
       <c r="N95" s="2" t="n"/>
       <c r="O95" s="32" t="n">
-        <v>-20</v>
+        <v>-22.9</v>
       </c>
       <c r="P95" s="32" t="n">
-        <v>-13</v>
+        <v>-12.5</v>
       </c>
       <c r="Q95" s="32" t="n">
-        <v>-16.45</v>
+        <v>-17.89</v>
       </c>
       <c r="R95" s="23" t="inlineStr">
         <is>
@@ -10249,10 +10219,10 @@
         </is>
       </c>
       <c r="O96" s="32" t="n">
-        <v>-21.6</v>
+        <v>-30.7</v>
       </c>
       <c r="P96" s="32" t="n">
-        <v>-12.9</v>
+        <v>-12.5</v>
       </c>
       <c r="Q96" s="32" t="n"/>
       <c r="R96" s="23" t="inlineStr">
@@ -10367,13 +10337,13 @@
       </c>
       <c r="N97" s="2" t="n"/>
       <c r="O97" s="32" t="n">
-        <v>-19.3</v>
+        <v>-18.1</v>
       </c>
       <c r="P97" s="32" t="n">
-        <v>-13.2</v>
+        <v>-12.3</v>
       </c>
       <c r="Q97" s="32" t="n">
-        <v>-16.77</v>
+        <v>-15.51</v>
       </c>
       <c r="R97" s="23" t="inlineStr">
         <is>
@@ -10483,10 +10453,10 @@
       </c>
       <c r="N98" s="2" t="n"/>
       <c r="O98" s="32" t="n">
-        <v>-34.2</v>
+        <v>-17.3</v>
       </c>
       <c r="P98" s="32" t="n">
-        <v>-19.6</v>
+        <v>-12.5</v>
       </c>
       <c r="Q98" s="32" t="n"/>
       <c r="R98" s="23" t="inlineStr">
@@ -10601,13 +10571,13 @@
       </c>
       <c r="N99" s="2" t="n"/>
       <c r="O99" s="32" t="n">
-        <v>-28.2</v>
+        <v>-22.2</v>
       </c>
       <c r="P99" s="32" t="n">
-        <v>-16.3</v>
+        <v>-11.6</v>
       </c>
       <c r="Q99" s="32" t="n">
-        <v>-21.16</v>
+        <v>-15.89</v>
       </c>
       <c r="R99" s="23" t="inlineStr">
         <is>
@@ -10818,12 +10788,8 @@
         </is>
       </c>
       <c r="N101" s="2" t="n"/>
-      <c r="O101" s="32" t="n">
-        <v>-36.8</v>
-      </c>
-      <c r="P101" s="32" t="n">
-        <v>-17.5</v>
-      </c>
+      <c r="O101" s="32" t="n"/>
+      <c r="P101" s="32" t="n"/>
       <c r="Q101" s="32" t="n"/>
       <c r="R101" s="23" t="inlineStr">
         <is>
@@ -10937,13 +10903,13 @@
       </c>
       <c r="N102" s="2" t="n"/>
       <c r="O102" s="32" t="n">
-        <v>-33.7</v>
+        <v>-29.6</v>
       </c>
       <c r="P102" s="32" t="n">
-        <v>-17.6</v>
+        <v>-14.8</v>
       </c>
       <c r="Q102" s="32" t="n">
-        <v>-27.47</v>
+        <v>-23.59</v>
       </c>
       <c r="R102" s="23" t="inlineStr">
         <is>
@@ -11053,10 +11019,10 @@
       </c>
       <c r="N103" s="2" t="n"/>
       <c r="O103" s="32" t="n">
-        <v>-31</v>
+        <v>-24</v>
       </c>
       <c r="P103" s="32" t="n">
-        <v>-16.6</v>
+        <v>-15.9</v>
       </c>
       <c r="Q103" s="32" t="n"/>
       <c r="R103" s="23" t="inlineStr">
@@ -11163,10 +11129,10 @@
       </c>
       <c r="N104" s="2" t="n"/>
       <c r="O104" s="32" t="n">
-        <v>-34.9</v>
+        <v>-31</v>
       </c>
       <c r="P104" s="32" t="n">
-        <v>-17.3</v>
+        <v>-20.4</v>
       </c>
       <c r="Q104" s="32" t="n"/>
       <c r="R104" s="23" t="inlineStr">
@@ -11285,13 +11251,13 @@
         </is>
       </c>
       <c r="O105" s="32" t="n">
-        <v>-33.5</v>
+        <v>-34.4</v>
       </c>
       <c r="P105" s="32" t="n">
-        <v>-18.4</v>
+        <v>-20.2</v>
       </c>
       <c r="Q105" s="32" t="n">
-        <v>-27.36</v>
+        <v>-26.54</v>
       </c>
       <c r="R105" s="23" t="inlineStr">
         <is>
@@ -11405,10 +11371,10 @@
         </is>
       </c>
       <c r="O106" s="32" t="n">
-        <v>-29.7</v>
+        <v>-34.9</v>
       </c>
       <c r="P106" s="32" t="n">
-        <v>-21.9</v>
+        <v>-26.5</v>
       </c>
       <c r="Q106" s="32" t="n"/>
       <c r="R106" s="23" t="inlineStr">
@@ -11518,8 +11484,12 @@
         </is>
       </c>
       <c r="N107" s="2" t="n"/>
-      <c r="O107" s="32" t="n"/>
-      <c r="P107" s="32" t="n"/>
+      <c r="O107" s="32" t="n">
+        <v>-37.7</v>
+      </c>
+      <c r="P107" s="32" t="n">
+        <v>-26.6</v>
+      </c>
       <c r="Q107" s="32" t="n"/>
       <c r="R107" s="23" t="inlineStr">
         <is>
@@ -11629,13 +11599,13 @@
       </c>
       <c r="N108" s="2" t="n"/>
       <c r="O108" s="32" t="n">
-        <v>-31.7</v>
+        <v>-35.3</v>
       </c>
       <c r="P108" s="32" t="n">
-        <v>-23.2</v>
+        <v>-24.8</v>
       </c>
       <c r="Q108" s="32" t="n">
-        <v>-28.45</v>
+        <v>-30.95</v>
       </c>
       <c r="R108" s="23" t="inlineStr">
         <is>
@@ -11842,8 +11812,12 @@
         </is>
       </c>
       <c r="N110" s="2" t="n"/>
-      <c r="O110" s="32" t="n"/>
-      <c r="P110" s="32" t="n"/>
+      <c r="O110" s="32" t="n">
+        <v>-36.9</v>
+      </c>
+      <c r="P110" s="32" t="n">
+        <v>-25</v>
+      </c>
       <c r="Q110" s="32" t="n"/>
       <c r="R110" s="23" t="inlineStr">
         <is>
@@ -11957,13 +11931,13 @@
       </c>
       <c r="N111" s="2" t="n"/>
       <c r="O111" s="32" t="n">
-        <v>-31.8</v>
+        <v>-36.9</v>
       </c>
       <c r="P111" s="32" t="n">
-        <v>-22.8</v>
+        <v>-19.8</v>
       </c>
       <c r="Q111" s="32" t="n">
-        <v>-27.94</v>
+        <v>-30.62</v>
       </c>
       <c r="R111" s="23" t="inlineStr">
         <is>
@@ -12069,10 +12043,10 @@
       </c>
       <c r="N112" s="2" t="n"/>
       <c r="O112" s="32" t="n">
-        <v>-25.5</v>
+        <v>-18.7</v>
       </c>
       <c r="P112" s="32" t="n">
-        <v>-5.9</v>
+        <v>-3.4</v>
       </c>
       <c r="Q112" s="32" t="n"/>
       <c r="R112" s="23" t="inlineStr">
@@ -12175,10 +12149,10 @@
       </c>
       <c r="N113" s="2" t="n"/>
       <c r="O113" s="32" t="n">
-        <v>-19.9</v>
+        <v>-14.7</v>
       </c>
       <c r="P113" s="32" t="n">
-        <v>0.1</v>
+        <v>-5.3</v>
       </c>
       <c r="Q113" s="32" t="n"/>
       <c r="R113" s="23" t="inlineStr">
@@ -12289,10 +12263,10 @@
         </is>
       </c>
       <c r="O114" s="32" t="n">
-        <v>-26.9</v>
+        <v>-20.9</v>
       </c>
       <c r="P114" s="32" t="n">
-        <v>1.5</v>
+        <v>-7</v>
       </c>
       <c r="Q114" s="32" t="n"/>
       <c r="R114" s="23" t="inlineStr">
@@ -12411,10 +12385,10 @@
         </is>
       </c>
       <c r="O115" s="32" t="n">
-        <v>-19.5</v>
+        <v>-21</v>
       </c>
       <c r="P115" s="32" t="n">
-        <v>-1</v>
+        <v>-9</v>
       </c>
       <c r="Q115" s="32" t="n"/>
       <c r="R115" s="23" t="inlineStr">
@@ -12529,13 +12503,13 @@
       </c>
       <c r="N116" s="2" t="n"/>
       <c r="O116" s="32" t="n">
-        <v>-16</v>
+        <v>-17.8</v>
       </c>
       <c r="P116" s="32" t="n">
-        <v>4.4</v>
+        <v>1</v>
       </c>
       <c r="Q116" s="32" t="n">
-        <v>-6.44</v>
+        <v>-9.6</v>
       </c>
       <c r="R116" s="23" t="inlineStr">
         <is>
@@ -12641,10 +12615,10 @@
       </c>
       <c r="N117" s="2" t="n"/>
       <c r="O117" s="32" t="n">
-        <v>-17.4</v>
+        <v>-20.2</v>
       </c>
       <c r="P117" s="32" t="n">
-        <v>0.4</v>
+        <v>-4.4</v>
       </c>
       <c r="Q117" s="32" t="n"/>
       <c r="R117" s="23" t="inlineStr">
@@ -12755,10 +12729,10 @@
         </is>
       </c>
       <c r="O118" s="32" t="n">
-        <v>-21.3</v>
+        <v>-24.5</v>
       </c>
       <c r="P118" s="32" t="n">
-        <v>-5.3</v>
+        <v>-9.4</v>
       </c>
       <c r="Q118" s="32" t="n"/>
       <c r="R118" s="23" t="inlineStr">
@@ -12873,13 +12847,13 @@
       </c>
       <c r="N119" s="2" t="n"/>
       <c r="O119" s="32" t="n">
-        <v>-12.7</v>
+        <v>-19.4</v>
       </c>
       <c r="P119" s="32" t="n">
-        <v>-2.8</v>
+        <v>-3.9</v>
       </c>
       <c r="Q119" s="32" t="n">
-        <v>-8.77</v>
+        <v>-13.46</v>
       </c>
       <c r="R119" s="23" t="inlineStr">
         <is>
@@ -13103,13 +13077,13 @@
       </c>
       <c r="N121" s="2" t="n"/>
       <c r="O121" s="32" t="n">
-        <v>-11.6</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="P121" s="32" t="n">
-        <v>-7</v>
+        <v>-2.3</v>
       </c>
       <c r="Q121" s="32" t="n">
-        <v>-10.18</v>
+        <v>-6.82</v>
       </c>
       <c r="R121" s="23" t="inlineStr">
         <is>
@@ -13227,10 +13201,10 @@
       </c>
       <c r="N122" s="2" t="n"/>
       <c r="O122" s="32" t="n">
-        <v>-28.2</v>
+        <v>-26.3</v>
       </c>
       <c r="P122" s="32" t="n">
-        <v>-12.8</v>
+        <v>-14</v>
       </c>
       <c r="Q122" s="32" t="n"/>
       <c r="R122" s="23" t="inlineStr">
@@ -13455,14 +13429,12 @@
       </c>
       <c r="N124" s="2" t="n"/>
       <c r="O124" s="32" t="n">
-        <v>-13.7</v>
+        <v>-7.4</v>
       </c>
       <c r="P124" s="32" t="n">
-        <v>-2.2</v>
-      </c>
-      <c r="Q124" s="32" t="n">
-        <v>-8.359999999999999</v>
-      </c>
+        <v>-1.9</v>
+      </c>
+      <c r="Q124" s="32" t="n"/>
       <c r="R124" s="23" t="inlineStr">
         <is>
           <t>Y</t>
@@ -13579,13 +13551,13 @@
       </c>
       <c r="N125" s="2" t="n"/>
       <c r="O125" s="32" t="n">
-        <v>-6.2</v>
+        <v>-3.9</v>
       </c>
       <c r="P125" s="32" t="n">
-        <v>4.2</v>
+        <v>1.6</v>
       </c>
       <c r="Q125" s="32" t="n">
-        <v>-1.25</v>
+        <v>-1.4</v>
       </c>
       <c r="R125" s="23" t="inlineStr">
         <is>
@@ -13679,10 +13651,10 @@
       </c>
       <c r="N126" s="2" t="n"/>
       <c r="O126" s="32" t="n">
-        <v>-3.9</v>
+        <v>-2.7</v>
       </c>
       <c r="P126" s="32" t="n">
-        <v>4.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q126" s="32" t="n"/>
       <c r="R126" s="23" t="inlineStr">
@@ -13693,7 +13665,7 @@
       <c r="S126" s="37" t="n"/>
       <c r="T126" s="41" t="inlineStr">
         <is>
-          <t>天津黑牛城</t>
+          <t>天津东丽</t>
         </is>
       </c>
       <c r="U126" s="2" t="inlineStr">
@@ -13789,13 +13761,13 @@
       </c>
       <c r="N127" s="2" t="n"/>
       <c r="O127" s="32" t="n">
-        <v>-6.9</v>
+        <v>-7</v>
       </c>
       <c r="P127" s="32" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Q127" s="32" t="n">
-        <v>-2.08</v>
+        <v>-1.35</v>
       </c>
       <c r="R127" s="23" t="inlineStr">
         <is>
@@ -13909,10 +13881,10 @@
       </c>
       <c r="N128" s="2" t="n"/>
       <c r="O128" s="32" t="n">
-        <v>-5.4</v>
+        <v>-1.1</v>
       </c>
       <c r="P128" s="32" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q128" s="32" t="n"/>
       <c r="R128" s="23" t="inlineStr">
@@ -14019,13 +13991,13 @@
       </c>
       <c r="N129" s="2" t="n"/>
       <c r="O129" s="32" t="n">
-        <v>-11</v>
+        <v>-4.8</v>
       </c>
       <c r="P129" s="32" t="n">
-        <v>3.7</v>
+        <v>1.8</v>
       </c>
       <c r="Q129" s="32" t="n">
-        <v>-4.38</v>
+        <v>-2.55</v>
       </c>
       <c r="R129" s="23" t="inlineStr">
         <is>
@@ -14139,13 +14111,13 @@
       </c>
       <c r="N130" s="2" t="n"/>
       <c r="O130" s="32" t="n">
-        <v>-8.800000000000001</v>
+        <v>-7.7</v>
       </c>
       <c r="P130" s="32" t="n">
-        <v>8.6</v>
+        <v>-0.2</v>
       </c>
       <c r="Q130" s="32" t="n">
-        <v>-0.93</v>
+        <v>-5.04</v>
       </c>
       <c r="R130" s="23" t="inlineStr">
         <is>
@@ -14259,13 +14231,13 @@
       </c>
       <c r="N131" s="2" t="n"/>
       <c r="O131" s="32" t="n">
-        <v>-3.9</v>
+        <v>-1.3</v>
       </c>
       <c r="P131" s="32" t="n">
-        <v>7.9</v>
+        <v>3.6</v>
       </c>
       <c r="Q131" s="32" t="n">
-        <v>0.71</v>
+        <v>0.45</v>
       </c>
       <c r="R131" s="23" t="inlineStr">
         <is>
@@ -14375,13 +14347,13 @@
       </c>
       <c r="N132" s="2" t="n"/>
       <c r="O132" s="32" t="n">
-        <v>-3.7</v>
+        <v>-0.8</v>
       </c>
       <c r="P132" s="32" t="n">
-        <v>7.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q132" s="32" t="n">
-        <v>1.65</v>
+        <v>0.31</v>
       </c>
       <c r="R132" s="23" t="inlineStr">
         <is>
@@ -14491,13 +14463,13 @@
       </c>
       <c r="N133" s="2" t="n"/>
       <c r="O133" s="32" t="n">
-        <v>-1.8</v>
+        <v>0.2</v>
       </c>
       <c r="P133" s="32" t="n">
-        <v>7.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q133" s="32" t="n">
-        <v>2.17</v>
+        <v>1.49</v>
       </c>
       <c r="R133" s="23" t="inlineStr">
         <is>
@@ -14713,13 +14685,13 @@
       </c>
       <c r="N135" s="2" t="n"/>
       <c r="O135" s="32" t="n">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="P135" s="32" t="n">
         <v>6.2</v>
       </c>
       <c r="Q135" s="32" t="n">
-        <v>4.94</v>
+        <v>3.65</v>
       </c>
       <c r="R135" s="23" t="inlineStr">
         <is>
@@ -14829,13 +14801,13 @@
       </c>
       <c r="N136" s="2" t="n"/>
       <c r="O136" s="32" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="P136" s="32" t="n">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="Q136" s="32" t="n">
-        <v>6.46</v>
+        <v>7.39</v>
       </c>
       <c r="R136" s="23" t="inlineStr">
         <is>
@@ -14945,13 +14917,13 @@
       </c>
       <c r="N137" s="2" t="n"/>
       <c r="O137" s="32" t="n">
-        <v>-1.9</v>
+        <v>2.1</v>
       </c>
       <c r="P137" s="32" t="n">
-        <v>7.3</v>
+        <v>4.4</v>
       </c>
       <c r="Q137" s="32" t="n">
-        <v>2.16</v>
+        <v>3.34</v>
       </c>
       <c r="R137" s="23" t="inlineStr">
         <is>
@@ -15061,10 +15033,10 @@
       </c>
       <c r="N138" s="2" t="n"/>
       <c r="O138" s="32" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="P138" s="32" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="Q138" s="32" t="n"/>
       <c r="R138" s="23" t="inlineStr">
@@ -15175,13 +15147,13 @@
       </c>
       <c r="N139" s="2" t="n"/>
       <c r="O139" s="32" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="P139" s="32" t="n">
-        <v>7.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Q139" s="32" t="n">
-        <v>4.6</v>
+        <v>3.24</v>
       </c>
       <c r="R139" s="23" t="inlineStr">
         <is>
@@ -15291,14 +15263,12 @@
       </c>
       <c r="N140" s="2" t="n"/>
       <c r="O140" s="32" t="n">
-        <v>4.9</v>
+        <v>3.7</v>
       </c>
       <c r="P140" s="32" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="Q140" s="32" t="n">
-        <v>5.95</v>
-      </c>
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Q140" s="32" t="n"/>
       <c r="R140" s="23" t="inlineStr">
         <is>
           <t>Y</t>
@@ -15509,13 +15479,13 @@
       </c>
       <c r="N142" s="2" t="n"/>
       <c r="O142" s="32" t="n">
-        <v>11.2</v>
+        <v>10.5</v>
       </c>
       <c r="P142" s="32" t="n">
-        <v>17.5</v>
+        <v>15.4</v>
       </c>
       <c r="Q142" s="32" t="n">
-        <v>13.2</v>
+        <v>12.61</v>
       </c>
       <c r="R142" s="23" t="inlineStr">
         <is>
@@ -15625,13 +15595,13 @@
       </c>
       <c r="N143" s="2" t="n"/>
       <c r="O143" s="32" t="n">
-        <v>12.8</v>
+        <v>15.5</v>
       </c>
       <c r="P143" s="32" t="n">
-        <v>25.6</v>
+        <v>20.1</v>
       </c>
       <c r="Q143" s="32" t="n">
-        <v>17.74</v>
+        <v>17.54</v>
       </c>
       <c r="R143" s="23" t="inlineStr">
         <is>
@@ -15941,13 +15911,13 @@
       </c>
       <c r="N146" s="2" t="n"/>
       <c r="O146" s="32" t="n">
-        <v>18.9</v>
+        <v>17.3</v>
       </c>
       <c r="P146" s="32" t="n">
-        <v>28.9</v>
+        <v>26.4</v>
       </c>
       <c r="Q146" s="32" t="n">
-        <v>22.51</v>
+        <v>21.66</v>
       </c>
       <c r="R146" s="23" t="inlineStr">
         <is>
@@ -16049,13 +16019,13 @@
       </c>
       <c r="N147" s="2" t="n"/>
       <c r="O147" s="32" t="n">
-        <v>11.9</v>
+        <v>17.3</v>
       </c>
       <c r="P147" s="32" t="n">
-        <v>21.2</v>
+        <v>24.5</v>
       </c>
       <c r="Q147" s="32" t="n">
-        <v>15.08</v>
+        <v>19.94</v>
       </c>
       <c r="R147" s="23" t="inlineStr">
         <is>
@@ -16267,13 +16237,13 @@
       </c>
       <c r="N149" s="2" t="n"/>
       <c r="O149" s="32" t="n">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="P149" s="32" t="n">
-        <v>18.5</v>
+        <v>19.1</v>
       </c>
       <c r="Q149" s="32" t="n">
-        <v>11.35</v>
+        <v>12.89</v>
       </c>
       <c r="R149" s="23" t="inlineStr">
         <is>
@@ -16383,13 +16353,13 @@
       </c>
       <c r="N150" s="2" t="n"/>
       <c r="O150" s="32" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="P150" s="32" t="n">
-        <v>7.6</v>
+        <v>15.2</v>
       </c>
       <c r="Q150" s="32" t="n">
-        <v>5.24</v>
+        <v>5.75</v>
       </c>
       <c r="R150" s="23" t="inlineStr">
         <is>
@@ -16499,13 +16469,13 @@
       </c>
       <c r="N151" s="2" t="n"/>
       <c r="O151" s="32" t="n">
-        <v>6.5</v>
+        <v>7.9</v>
       </c>
       <c r="P151" s="32" t="n">
-        <v>14.7</v>
+        <v>10.1</v>
       </c>
       <c r="Q151" s="32" t="n">
-        <v>9.83</v>
+        <v>9.44</v>
       </c>
       <c r="R151" s="23" t="inlineStr">
         <is>
@@ -16705,13 +16675,13 @@
       </c>
       <c r="N153" s="2" t="n"/>
       <c r="O153" s="32" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="P153" s="32" t="n">
-        <v>12.4</v>
+        <v>9.9</v>
       </c>
       <c r="Q153" s="32" t="n">
-        <v>6.46</v>
+        <v>5.77</v>
       </c>
       <c r="R153" s="23" t="inlineStr">
         <is>
@@ -16825,13 +16795,13 @@
       </c>
       <c r="N154" s="2" t="n"/>
       <c r="O154" s="32" t="n">
-        <v>-6.9</v>
+        <v>-2</v>
       </c>
       <c r="P154" s="32" t="n">
-        <v>9.800000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="Q154" s="32" t="n">
-        <v>-0.01</v>
+        <v>4.54</v>
       </c>
       <c r="R154" s="23" t="inlineStr">
         <is>
@@ -17027,10 +16997,10 @@
       </c>
       <c r="N156" s="2" t="n"/>
       <c r="O156" s="32" t="n">
-        <v>-20.6</v>
+        <v>-11</v>
       </c>
       <c r="P156" s="32" t="n">
-        <v>1.8</v>
+        <v>-1.1</v>
       </c>
       <c r="Q156" s="32" t="n"/>
       <c r="R156" s="23" t="inlineStr">
@@ -17133,10 +17103,10 @@
       </c>
       <c r="N157" s="2" t="n"/>
       <c r="O157" s="32" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="P157" s="32" t="n">
-        <v>7.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Q157" s="32" t="n"/>
       <c r="R157" s="23" t="inlineStr">
@@ -17517,10 +17487,10 @@
       </c>
       <c r="N161" s="2" t="n"/>
       <c r="O161" s="32" t="n">
-        <v>-4.8</v>
+        <v>-6</v>
       </c>
       <c r="P161" s="32" t="n">
-        <v>7.6</v>
+        <v>2.4</v>
       </c>
       <c r="Q161" s="32" t="n"/>
       <c r="R161" s="23" t="inlineStr">
@@ -17957,10 +17927,10 @@
         </is>
       </c>
       <c r="O165" s="32" t="n">
-        <v>-37.6</v>
+        <v>-41</v>
       </c>
       <c r="P165" s="32" t="n">
-        <v>-25.2</v>
+        <v>-27.4</v>
       </c>
       <c r="Q165" s="32" t="n"/>
       <c r="R165" s="23" t="inlineStr">
@@ -18279,10 +18249,10 @@
         </is>
       </c>
       <c r="O168" s="32" t="n">
-        <v>-9.699999999999999</v>
+        <v>-23.2</v>
       </c>
       <c r="P168" s="32" t="n">
-        <v>-3.7</v>
+        <v>-6.1</v>
       </c>
       <c r="Q168" s="32" t="n"/>
       <c r="R168" s="23" t="inlineStr">
@@ -18393,10 +18363,10 @@
         </is>
       </c>
       <c r="O169" s="32" t="n">
-        <v>-18.6</v>
+        <v>-26.2</v>
       </c>
       <c r="P169" s="32" t="n">
-        <v>-5.2</v>
+        <v>-7.7</v>
       </c>
       <c r="Q169" s="32" t="n"/>
       <c r="R169" s="23" t="inlineStr">
@@ -18711,10 +18681,10 @@
       </c>
       <c r="N172" s="3" t="n"/>
       <c r="O172" s="32" t="n">
-        <v>-27.8</v>
+        <v>-24.6</v>
       </c>
       <c r="P172" s="32" t="n">
-        <v>-9.4</v>
+        <v>-9.5</v>
       </c>
       <c r="Q172" s="32" t="n"/>
       <c r="R172" s="23" t="inlineStr">
@@ -18821,10 +18791,10 @@
       </c>
       <c r="N173" s="2" t="n"/>
       <c r="O173" s="32" t="n">
-        <v>-30.7</v>
+        <v>-28.8</v>
       </c>
       <c r="P173" s="32" t="n">
-        <v>-13</v>
+        <v>-6.8</v>
       </c>
       <c r="Q173" s="32" t="n"/>
       <c r="R173" s="23" t="inlineStr">
@@ -19139,10 +19109,10 @@
       </c>
       <c r="N176" s="2" t="n"/>
       <c r="O176" s="32" t="n">
-        <v>-3.6</v>
+        <v>-1.7</v>
       </c>
       <c r="P176" s="32" t="n">
-        <v>0.9</v>
+        <v>3.6</v>
       </c>
       <c r="Q176" s="32" t="n"/>
       <c r="R176" s="23" t="inlineStr">
@@ -19237,10 +19207,10 @@
       </c>
       <c r="N177" s="2" t="n"/>
       <c r="O177" s="32" t="n">
-        <v>-28.1</v>
+        <v>-30.7</v>
       </c>
       <c r="P177" s="32" t="n">
-        <v>-23.3</v>
+        <v>-24.3</v>
       </c>
       <c r="Q177" s="32" t="n"/>
       <c r="R177" s="23" t="inlineStr">
@@ -20116,13 +20086,13 @@
       </c>
       <c r="N186" s="2" t="n"/>
       <c r="O186" s="32" t="n">
-        <v>-35.8</v>
+        <v>-25.3</v>
       </c>
       <c r="P186" s="32" t="n">
-        <v>-26.7</v>
+        <v>-23</v>
       </c>
       <c r="Q186" s="32" t="n">
-        <v>-30.29</v>
+        <v>-24.24</v>
       </c>
       <c r="R186" s="23" t="inlineStr">
         <is>
@@ -20225,13 +20195,13 @@
       </c>
       <c r="N187" s="2" t="n"/>
       <c r="O187" s="32" t="n">
-        <v>-32.8</v>
+        <v>-38.7</v>
       </c>
       <c r="P187" s="32" t="n">
-        <v>-27.4</v>
+        <v>-31.3</v>
       </c>
       <c r="Q187" s="32" t="n">
-        <v>-30.21</v>
+        <v>-33.41</v>
       </c>
       <c r="R187" s="23" t="inlineStr">
         <is>
@@ -20329,13 +20299,13 @@
       </c>
       <c r="N188" s="2" t="n"/>
       <c r="O188" s="32" t="n">
-        <v>-32.6</v>
+        <v>-30</v>
       </c>
       <c r="P188" s="32" t="n">
-        <v>-25.4</v>
+        <v>-25.7</v>
       </c>
       <c r="Q188" s="32" t="n">
-        <v>-28.26</v>
+        <v>-27.74</v>
       </c>
       <c r="R188" s="23" t="inlineStr">
         <is>
@@ -20433,13 +20403,13 @@
       </c>
       <c r="N189" s="2" t="n"/>
       <c r="O189" s="32" t="n">
-        <v>-34.6</v>
+        <v>-40</v>
       </c>
       <c r="P189" s="32" t="n">
-        <v>-18.4</v>
+        <v>-26.7</v>
       </c>
       <c r="Q189" s="32" t="n">
-        <v>-25.29</v>
+        <v>-33.33</v>
       </c>
       <c r="R189" s="23" t="inlineStr">
         <is>
@@ -20537,13 +20507,13 @@
       </c>
       <c r="N190" s="2" t="n"/>
       <c r="O190" s="32" t="n">
-        <v>-38.2</v>
+        <v>-39.8</v>
       </c>
       <c r="P190" s="32" t="n">
-        <v>-30.5</v>
+        <v>-37.2</v>
       </c>
       <c r="Q190" s="32" t="n">
-        <v>-35.65</v>
+        <v>-38.38</v>
       </c>
       <c r="R190" s="23" t="inlineStr">
         <is>
@@ -20641,13 +20611,13 @@
       </c>
       <c r="N191" s="2" t="n"/>
       <c r="O191" s="32" t="n">
-        <v>-32.1</v>
+        <v>-26</v>
       </c>
       <c r="P191" s="32" t="n">
-        <v>-24.8</v>
+        <v>-23.2</v>
       </c>
       <c r="Q191" s="32" t="n">
-        <v>-27.91</v>
+        <v>-24.65</v>
       </c>
       <c r="R191" s="23" t="inlineStr">
         <is>
@@ -20741,13 +20711,13 @@
       </c>
       <c r="N192" s="2" t="n"/>
       <c r="O192" s="32" t="n">
-        <v>-30.5</v>
+        <v>-25.5</v>
       </c>
       <c r="P192" s="32" t="n">
-        <v>-21.3</v>
+        <v>-20.7</v>
       </c>
       <c r="Q192" s="32" t="n">
-        <v>-26.6</v>
+        <v>-22.29</v>
       </c>
       <c r="R192" s="23" t="inlineStr">
         <is>
@@ -20846,13 +20816,13 @@
       </c>
       <c r="N193" s="2" t="n"/>
       <c r="O193" s="32" t="n">
-        <v>-33.8</v>
+        <v>-32.9</v>
       </c>
       <c r="P193" s="32" t="n">
-        <v>-30.6</v>
+        <v>-28.9</v>
       </c>
       <c r="Q193" s="32" t="n">
-        <v>-32.49</v>
+        <v>-30.69</v>
       </c>
       <c r="R193" s="23" t="inlineStr">
         <is>
@@ -20954,10 +20924,10 @@
       </c>
       <c r="N194" s="2" t="n"/>
       <c r="O194" s="32" t="n">
-        <v>-35.2</v>
+        <v>-38.5</v>
       </c>
       <c r="P194" s="32" t="n">
-        <v>-27.2</v>
+        <v>-24.5</v>
       </c>
       <c r="Q194" s="32" t="n"/>
       <c r="R194" s="23" t="inlineStr">
@@ -21052,13 +21022,13 @@
       </c>
       <c r="N195" s="2" t="n"/>
       <c r="O195" s="32" t="n">
-        <v>-21.9</v>
+        <v>-25.5</v>
       </c>
       <c r="P195" s="32" t="n">
-        <v>-14.8</v>
+        <v>-18.4</v>
       </c>
       <c r="Q195" s="32" t="n">
-        <v>-19.03</v>
+        <v>-21.11</v>
       </c>
       <c r="R195" s="23" t="inlineStr">
         <is>
@@ -21156,13 +21126,13 @@
       </c>
       <c r="N196" s="2" t="n"/>
       <c r="O196" s="32" t="n">
-        <v>-20</v>
+        <v>-38.2</v>
       </c>
       <c r="P196" s="32" t="n">
-        <v>-11.6</v>
+        <v>-16.6</v>
       </c>
       <c r="Q196" s="32" t="n">
-        <v>-16.25</v>
+        <v>-26.27</v>
       </c>
       <c r="R196" s="23" t="inlineStr">
         <is>
@@ -21260,13 +21230,13 @@
       </c>
       <c r="N197" s="24" t="n"/>
       <c r="O197" s="32" t="n">
-        <v>-46.8</v>
+        <v>-47.8</v>
       </c>
       <c r="P197" s="32" t="n">
-        <v>-43.3</v>
+        <v>-43.2</v>
       </c>
       <c r="Q197" s="32" t="n">
-        <v>-45.5</v>
+        <v>-45.8</v>
       </c>
       <c r="R197" s="23" t="inlineStr">
         <is>
@@ -21556,10 +21526,10 @@
       </c>
       <c r="N200" s="2" t="n"/>
       <c r="O200" s="32" t="n">
-        <v>-38.5</v>
+        <v>-33.6</v>
       </c>
       <c r="P200" s="32" t="n">
-        <v>-17.6</v>
+        <v>-16.4</v>
       </c>
       <c r="Q200" s="32" t="n"/>
       <c r="R200" s="23" t="inlineStr">
@@ -24567,12 +24537,8 @@
         </is>
       </c>
       <c r="N230" s="2" t="n"/>
-      <c r="O230" s="32" t="n">
-        <v>-38.3</v>
-      </c>
-      <c r="P230" s="32" t="n">
-        <v>-16.8</v>
-      </c>
+      <c r="O230" s="32" t="n"/>
+      <c r="P230" s="32" t="n"/>
       <c r="Q230" s="32" t="n"/>
       <c r="R230" s="23" t="inlineStr">
         <is>
@@ -26194,13 +26160,13 @@
       </c>
       <c r="N247" s="2" t="n"/>
       <c r="O247" s="32" t="n">
-        <v>-26.2</v>
+        <v>-17.5</v>
       </c>
       <c r="P247" s="32" t="n">
-        <v>-16.6</v>
+        <v>-6.6</v>
       </c>
       <c r="Q247" s="32" t="n">
-        <v>-22.39</v>
+        <v>-13.2</v>
       </c>
       <c r="R247" s="23" t="inlineStr">
         <is>
@@ -26306,13 +26272,13 @@
       </c>
       <c r="N248" s="2" t="n"/>
       <c r="O248" s="32" t="n">
-        <v>-11.6</v>
+        <v>-15.1</v>
       </c>
       <c r="P248" s="32" t="n">
-        <v>-6.1</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="Q248" s="32" t="n">
-        <v>-9.41</v>
+        <v>-11.1</v>
       </c>
       <c r="R248" s="23" t="inlineStr">
         <is>
@@ -26414,13 +26380,13 @@
       </c>
       <c r="N249" s="2" t="n"/>
       <c r="O249" s="32" t="n">
-        <v>-18</v>
+        <v>-16.2</v>
       </c>
       <c r="P249" s="32" t="n">
-        <v>-11.4</v>
+        <v>-10</v>
       </c>
       <c r="Q249" s="32" t="n">
-        <v>-15.22</v>
+        <v>-13.68</v>
       </c>
       <c r="R249" s="23" t="inlineStr">
         <is>
@@ -26526,13 +26492,13 @@
       </c>
       <c r="N250" s="2" t="n"/>
       <c r="O250" s="32" t="n">
-        <v>-31.2</v>
+        <v>-34.2</v>
       </c>
       <c r="P250" s="32" t="n">
-        <v>-22.2</v>
+        <v>-24.4</v>
       </c>
       <c r="Q250" s="32" t="n">
-        <v>-26.61</v>
+        <v>-29.74</v>
       </c>
       <c r="R250" s="23" t="inlineStr">
         <is>
@@ -26645,14 +26611,22 @@
           <t>♦️</t>
         </is>
       </c>
-      <c r="O251" s="32" t="n"/>
-      <c r="P251" s="32" t="n"/>
+      <c r="O251" s="32" t="n">
+        <v>-48.5</v>
+      </c>
+      <c r="P251" s="32" t="n">
+        <v>-35.6</v>
+      </c>
       <c r="Q251" s="32" t="n"/>
-      <c r="R251" s="23" t="n"/>
+      <c r="R251" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S251" s="37" t="n"/>
       <c r="T251" s="41" t="inlineStr">
         <is>
-          <t>克拉斯诺亚尔斯克</t>
+          <t>爆发王&lt;br&gt;克拉斯诺亚尔斯克</t>
         </is>
       </c>
       <c r="U251" s="2" t="inlineStr">
@@ -26735,15 +26709,9 @@
         </is>
       </c>
       <c r="N252" s="2" t="n"/>
-      <c r="O252" s="32" t="n">
-        <v>-27</v>
-      </c>
-      <c r="P252" s="32" t="n">
-        <v>-20.4</v>
-      </c>
-      <c r="Q252" s="32" t="n">
-        <v>-24.64</v>
-      </c>
+      <c r="O252" s="32" t="n"/>
+      <c r="P252" s="32" t="n"/>
+      <c r="Q252" s="32" t="n"/>
       <c r="R252" s="23" t="inlineStr">
         <is>
           <t>Y</t>
@@ -26934,13 +26902,13 @@
       </c>
       <c r="N254" s="2" t="n"/>
       <c r="O254" s="32" t="n">
-        <v>-52.4</v>
+        <v>-47</v>
       </c>
       <c r="P254" s="32" t="n">
-        <v>-46.7</v>
+        <v>-44.2</v>
       </c>
       <c r="Q254" s="32" t="n">
-        <v>-50.5</v>
+        <v>-45.74</v>
       </c>
       <c r="R254" s="23" t="inlineStr">
         <is>
@@ -27508,13 +27476,13 @@
       </c>
       <c r="N260" s="2" t="n"/>
       <c r="O260" s="32" t="n">
-        <v>-31.4</v>
+        <v>-25.2</v>
       </c>
       <c r="P260" s="32" t="n">
-        <v>-15.1</v>
+        <v>-10.9</v>
       </c>
       <c r="Q260" s="32" t="n">
-        <v>-25.26</v>
+        <v>-20.02</v>
       </c>
       <c r="R260" s="23" t="inlineStr">
         <is>
@@ -27616,13 +27584,13 @@
       </c>
       <c r="N261" s="2" t="n"/>
       <c r="O261" s="32" t="n">
-        <v>-34.1</v>
+        <v>-39.3</v>
       </c>
       <c r="P261" s="32" t="n">
-        <v>-20</v>
+        <v>-24.8</v>
       </c>
       <c r="Q261" s="32" t="n">
-        <v>-28.38</v>
+        <v>-33.48</v>
       </c>
       <c r="R261" s="23" t="inlineStr">
         <is>
@@ -27728,13 +27696,13 @@
       </c>
       <c r="N262" s="2" t="n"/>
       <c r="O262" s="32" t="n">
-        <v>-24.3</v>
+        <v>-15.4</v>
       </c>
       <c r="P262" s="32" t="n">
-        <v>-15.7</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="Q262" s="32" t="n">
-        <v>-19.89</v>
+        <v>-12.4</v>
       </c>
       <c r="R262" s="23" t="inlineStr">
         <is>
@@ -27934,13 +27902,13 @@
       </c>
       <c r="N264" s="2" t="n"/>
       <c r="O264" s="32" t="n">
-        <v>-27.2</v>
+        <v>-21.3</v>
       </c>
       <c r="P264" s="32" t="n">
-        <v>-14.1</v>
+        <v>-15.4</v>
       </c>
       <c r="Q264" s="32" t="n">
-        <v>-21.67</v>
+        <v>-19</v>
       </c>
       <c r="R264" s="23" t="inlineStr">
         <is>
@@ -28054,10 +28022,10 @@
       </c>
       <c r="N265" s="2" t="n"/>
       <c r="O265" s="32" t="n">
-        <v>-39.2</v>
+        <v>-44.9</v>
       </c>
       <c r="P265" s="32" t="n">
-        <v>-28.2</v>
+        <v>-34.2</v>
       </c>
       <c r="Q265" s="32" t="n"/>
       <c r="R265" s="23" t="inlineStr">
@@ -29094,13 +29062,13 @@
       </c>
       <c r="N276" s="2" t="n"/>
       <c r="O276" s="32" t="n">
-        <v>-31.1</v>
+        <v>-15.9</v>
       </c>
       <c r="P276" s="32" t="n">
-        <v>-7.4</v>
+        <v>-12.6</v>
       </c>
       <c r="Q276" s="32" t="n">
-        <v>-16.21</v>
+        <v>-14.21</v>
       </c>
       <c r="R276" s="23" t="inlineStr">
         <is>
@@ -29431,7 +29399,9 @@
       <c r="AH279" s="2" t="n"/>
     </row>
     <row r="280" ht="24" customHeight="1" s="44">
-      <c r="A280" s="2" t="n"/>
+      <c r="A280" s="2" t="n">
+        <v>279</v>
+      </c>
       <c r="B280" s="2" t="n"/>
       <c r="C280" s="27" t="n"/>
       <c r="D280" s="2" t="n"/>
@@ -29440,28 +29410,78 @@
       <c r="G280" s="29" t="n"/>
       <c r="H280" s="29" t="n"/>
       <c r="I280" s="2" t="n"/>
-      <c r="J280" s="27" t="n"/>
-      <c r="K280" s="4" t="n"/>
+      <c r="J280" s="27" t="n">
+        <v>12</v>
+      </c>
+      <c r="K280" s="31" t="inlineStr">
+        <is>
+          <t>🇨🇳</t>
+        </is>
+      </c>
       <c r="L280" s="2" t="n"/>
-      <c r="M280" s="14" t="n"/>
+      <c r="M280" s="14" t="inlineStr">
+        <is>
+          <t>西乌珠尔</t>
+        </is>
+      </c>
       <c r="N280" s="2" t="n"/>
-      <c r="O280" s="32" t="n"/>
-      <c r="P280" s="32" t="n"/>
+      <c r="O280" s="32" t="n">
+        <v>-41.7</v>
+      </c>
+      <c r="P280" s="32" t="n">
+        <v>-30.1</v>
+      </c>
       <c r="Q280" s="32" t="n"/>
-      <c r="R280" s="23" t="n"/>
+      <c r="R280" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S280" s="37" t="n"/>
-      <c r="T280" s="41" t="n"/>
-      <c r="U280" s="2" t="n"/>
-      <c r="V280" s="4" t="n"/>
-      <c r="W280" s="4" t="n"/>
-      <c r="X280" s="4" t="n"/>
+      <c r="T280" s="41" t="inlineStr">
+        <is>
+          <t>呼伦贝尔</t>
+        </is>
+      </c>
+      <c r="U280" s="2" t="inlineStr">
+        <is>
+          <t>内蒙古</t>
+        </is>
+      </c>
+      <c r="V280" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="W280" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="X280" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="Y280" s="4" t="n"/>
-      <c r="Z280" s="2" t="n"/>
+      <c r="Z280" s="2" t="inlineStr">
+        <is>
+          <t>呼伦贝尔市</t>
+        </is>
+      </c>
       <c r="AA280" s="2" t="n"/>
       <c r="AB280" s="2" t="n"/>
       <c r="AC280" s="2" t="n"/>
-      <c r="AD280" s="2" t="n"/>
-      <c r="AE280" s="4" t="n"/>
+      <c r="AD280" s="2" t="inlineStr">
+        <is>
+          <t>中国</t>
+        </is>
+      </c>
+      <c r="AE280" s="4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
       <c r="AF280" s="4" t="n"/>
       <c r="AG280" s="2" t="n"/>
       <c r="AH280" s="2" t="n"/>

--- a/气象/For_Python_站点信息和记录.xlsx
+++ b/气象/For_Python_站点信息和记录.xlsx
@@ -790,8 +790,8 @@
     <col width="18.59765625" customWidth="1" style="8" min="25" max="25"/>
     <col width="12.59765625" customWidth="1" style="5" min="26" max="30"/>
     <col width="12.59765625" customWidth="1" style="8" min="31" max="32"/>
-    <col width="12.59765625" customWidth="1" style="5" min="33" max="221"/>
-    <col width="12.59765625" customWidth="1" style="5" min="222" max="16384"/>
+    <col width="12.59765625" customWidth="1" style="5" min="33" max="224"/>
+    <col width="12.59765625" customWidth="1" style="5" min="225" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.75" customFormat="1" customHeight="1" s="11">
@@ -1014,13 +1014,13 @@
         </is>
       </c>
       <c r="O2" s="32" t="n">
-        <v>-36.6</v>
+        <v>-37.3</v>
       </c>
       <c r="P2" s="32" t="n">
-        <v>-27.5</v>
+        <v>-27.8</v>
       </c>
       <c r="Q2" s="32" t="n">
-        <v>-33.08</v>
+        <v>-33.35</v>
       </c>
       <c r="R2" s="23" t="inlineStr">
         <is>
@@ -1124,10 +1124,10 @@
         </is>
       </c>
       <c r="O3" s="32" t="n">
-        <v>-38.8</v>
+        <v>-38.4</v>
       </c>
       <c r="P3" s="32" t="n">
-        <v>-24.8</v>
+        <v>-21.1</v>
       </c>
       <c r="Q3" s="32" t="n"/>
       <c r="R3" s="23" t="n"/>
@@ -1224,17 +1224,17 @@
         </is>
       </c>
       <c r="O4" s="32" t="n">
-        <v>-35.3</v>
+        <v>-37.6</v>
       </c>
       <c r="P4" s="32" t="n">
-        <v>-24</v>
+        <v>-25</v>
       </c>
       <c r="Q4" s="32" t="n"/>
       <c r="R4" s="23" t="n"/>
       <c r="S4" s="37" t="n"/>
       <c r="T4" s="41" t="inlineStr">
         <is>
-          <t>扎布汗省&lt;br&gt;特斯河</t>
+          <t>蒙古爆发王&lt;br&gt;特斯河 扎布汗省</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -1320,10 +1320,10 @@
       </c>
       <c r="N5" s="2" t="n"/>
       <c r="O5" s="32" t="n">
-        <v>-32.4</v>
+        <v>-33.9</v>
       </c>
       <c r="P5" s="32" t="n">
-        <v>-22.6</v>
+        <v>-22.7</v>
       </c>
       <c r="Q5" s="32" t="n"/>
       <c r="R5" s="23" t="n"/>
@@ -1420,9 +1420,11 @@
         </is>
       </c>
       <c r="O6" s="32" t="n">
-        <v>-35.2</v>
-      </c>
-      <c r="P6" s="32" t="n"/>
+        <v>-36.2</v>
+      </c>
+      <c r="P6" s="32" t="n">
+        <v>-22.1</v>
+      </c>
       <c r="Q6" s="32" t="n"/>
       <c r="R6" s="23" t="n"/>
       <c r="S6" s="37" t="n"/>
@@ -1518,10 +1520,10 @@
         </is>
       </c>
       <c r="O7" s="32" t="n">
-        <v>-32.4</v>
+        <v>-33.5</v>
       </c>
       <c r="P7" s="32" t="n">
-        <v>-23.8</v>
+        <v>-24.1</v>
       </c>
       <c r="Q7" s="32" t="n"/>
       <c r="R7" s="23" t="n"/>
@@ -1626,13 +1628,13 @@
       </c>
       <c r="N8" s="2" t="n"/>
       <c r="O8" s="32" t="n">
-        <v>-30.5</v>
+        <v>-31.7</v>
       </c>
       <c r="P8" s="32" t="n">
-        <v>-19.3</v>
+        <v>-16.9</v>
       </c>
       <c r="Q8" s="32" t="n">
-        <v>-25.85</v>
+        <v>-26.5</v>
       </c>
       <c r="R8" s="23" t="inlineStr">
         <is>
@@ -1741,10 +1743,10 @@
         <v>-34.6</v>
       </c>
       <c r="P9" s="32" t="n">
-        <v>-23</v>
+        <v>-23.6</v>
       </c>
       <c r="Q9" s="32" t="n">
-        <v>-29.59</v>
+        <v>-29.81</v>
       </c>
       <c r="R9" s="23" t="inlineStr">
         <is>
@@ -1854,13 +1856,13 @@
       </c>
       <c r="N10" s="3" t="n"/>
       <c r="O10" s="32" t="n">
-        <v>-35.3</v>
+        <v>-34.6</v>
       </c>
       <c r="P10" s="32" t="n">
-        <v>-22</v>
+        <v>-23.3</v>
       </c>
       <c r="Q10" s="32" t="n">
-        <v>-29.73</v>
+        <v>-30.34</v>
       </c>
       <c r="R10" s="23" t="inlineStr">
         <is>
@@ -1970,13 +1972,13 @@
         </is>
       </c>
       <c r="O11" s="32" t="n">
-        <v>-31.8</v>
+        <v>-32.2</v>
       </c>
       <c r="P11" s="32" t="n">
-        <v>-12.6</v>
+        <v>-12.5</v>
       </c>
       <c r="Q11" s="32" t="n">
-        <v>-25.33</v>
+        <v>-24.9</v>
       </c>
       <c r="R11" s="23" t="inlineStr">
         <is>
@@ -1986,7 +1988,7 @@
       <c r="S11" s="37" t="n"/>
       <c r="T11" s="41" t="inlineStr">
         <is>
-          <t>蒙古爆发王</t>
+          <t>蒙古低温爆发强站</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -2082,13 +2084,13 @@
       </c>
       <c r="N12" s="2" t="n"/>
       <c r="O12" s="32" t="n">
-        <v>-32.2</v>
+        <v>-34.6</v>
       </c>
       <c r="P12" s="32" t="n">
-        <v>-20.2</v>
+        <v>-21.2</v>
       </c>
       <c r="Q12" s="32" t="n">
-        <v>-27.43</v>
+        <v>-29.25</v>
       </c>
       <c r="R12" s="23" t="inlineStr">
         <is>
@@ -2198,13 +2200,13 @@
         </is>
       </c>
       <c r="O13" s="32" t="n">
-        <v>-33</v>
+        <v>-33.7</v>
       </c>
       <c r="P13" s="32" t="n">
-        <v>-21.8</v>
+        <v>-24.7</v>
       </c>
       <c r="Q13" s="32" t="n">
-        <v>-28.49</v>
+        <v>-29.56</v>
       </c>
       <c r="R13" s="23" t="inlineStr">
         <is>
@@ -2314,13 +2316,13 @@
       </c>
       <c r="N14" s="2" t="n"/>
       <c r="O14" s="32" t="n">
-        <v>-22.7</v>
+        <v>-20.2</v>
       </c>
       <c r="P14" s="32" t="n">
-        <v>-8.800000000000001</v>
+        <v>-4.8</v>
       </c>
       <c r="Q14" s="32" t="n">
-        <v>-17.2</v>
+        <v>-14.4</v>
       </c>
       <c r="R14" s="23" t="inlineStr">
         <is>
@@ -2515,8 +2517,12 @@
         </is>
       </c>
       <c r="N16" s="2" t="n"/>
-      <c r="O16" s="32" t="n"/>
-      <c r="P16" s="32" t="n"/>
+      <c r="O16" s="32" t="n">
+        <v>-28.5</v>
+      </c>
+      <c r="P16" s="32" t="n">
+        <v>-5.2</v>
+      </c>
       <c r="Q16" s="32" t="n"/>
       <c r="R16" s="23" t="n"/>
       <c r="S16" s="37" t="n"/>
@@ -7814,13 +7820,13 @@
       </c>
       <c r="N75" s="2" t="n"/>
       <c r="O75" s="32" t="n">
-        <v>-29</v>
+        <v>-27.2</v>
       </c>
       <c r="P75" s="32" t="n">
-        <v>-12</v>
+        <v>-9.4</v>
       </c>
       <c r="Q75" s="32" t="n">
-        <v>-21.82</v>
+        <v>-21.39</v>
       </c>
       <c r="R75" s="23" t="inlineStr">
         <is>
@@ -7926,13 +7932,13 @@
       </c>
       <c r="N76" s="2" t="n"/>
       <c r="O76" s="32" t="n">
-        <v>-33.3</v>
+        <v>-34.5</v>
       </c>
       <c r="P76" s="32" t="n">
-        <v>-17</v>
+        <v>-19.9</v>
       </c>
       <c r="Q76" s="32" t="n">
-        <v>-26.9</v>
+        <v>-27.59</v>
       </c>
       <c r="R76" s="23" t="inlineStr">
         <is>
@@ -8042,13 +8048,13 @@
         </is>
       </c>
       <c r="O77" s="32" t="n">
-        <v>-33.8</v>
+        <v>-31.9</v>
       </c>
       <c r="P77" s="32" t="n">
-        <v>-12.4</v>
+        <v>-18.1</v>
       </c>
       <c r="Q77" s="32" t="n">
-        <v>-24.75</v>
+        <v>-24.96</v>
       </c>
       <c r="R77" s="23" t="inlineStr">
         <is>
@@ -8158,13 +8164,13 @@
       </c>
       <c r="N78" s="2" t="n"/>
       <c r="O78" s="32" t="n">
-        <v>-30</v>
+        <v>-28.6</v>
       </c>
       <c r="P78" s="32" t="n">
-        <v>-14.5</v>
+        <v>-16</v>
       </c>
       <c r="Q78" s="32" t="n">
-        <v>-23.5</v>
+        <v>-23.05</v>
       </c>
       <c r="R78" s="23" t="inlineStr">
         <is>
@@ -8274,13 +8280,13 @@
         </is>
       </c>
       <c r="O79" s="32" t="n">
-        <v>-30.6</v>
+        <v>-36.9</v>
       </c>
       <c r="P79" s="32" t="n">
-        <v>-9.9</v>
+        <v>-15</v>
       </c>
       <c r="Q79" s="32" t="n">
-        <v>-20.3</v>
+        <v>-27.91</v>
       </c>
       <c r="R79" s="23" t="inlineStr">
         <is>
@@ -8386,13 +8392,13 @@
       </c>
       <c r="N80" s="2" t="n"/>
       <c r="O80" s="32" t="n">
-        <v>-21</v>
+        <v>-24.1</v>
       </c>
       <c r="P80" s="32" t="n">
-        <v>-11.8</v>
+        <v>-14.6</v>
       </c>
       <c r="Q80" s="32" t="n">
-        <v>-17.16</v>
+        <v>-19.73</v>
       </c>
       <c r="R80" s="23" t="inlineStr">
         <is>
@@ -8502,13 +8508,13 @@
         </is>
       </c>
       <c r="O81" s="32" t="n">
-        <v>-42.8</v>
+        <v>-35.7</v>
       </c>
       <c r="P81" s="32" t="n">
-        <v>-21.2</v>
+        <v>-20.8</v>
       </c>
       <c r="Q81" s="32" t="n">
-        <v>-33.46</v>
+        <v>-28.99</v>
       </c>
       <c r="R81" s="23" t="inlineStr">
         <is>
@@ -8623,13 +8629,13 @@
         </is>
       </c>
       <c r="O82" s="32" t="n">
-        <v>-42.1</v>
+        <v>-27.7</v>
       </c>
       <c r="P82" s="32" t="n">
-        <v>-16.9</v>
+        <v>-3.6</v>
       </c>
       <c r="Q82" s="32" t="n">
-        <v>-31.94</v>
+        <v>-17.92</v>
       </c>
       <c r="R82" s="23" t="inlineStr">
         <is>
@@ -8739,13 +8745,13 @@
       </c>
       <c r="N83" s="2" t="n"/>
       <c r="O83" s="32" t="n">
-        <v>-33.8</v>
+        <v>-28.3</v>
       </c>
       <c r="P83" s="32" t="n">
-        <v>-24.8</v>
+        <v>-7.2</v>
       </c>
       <c r="Q83" s="32" t="n">
-        <v>-29.42</v>
+        <v>-17.85</v>
       </c>
       <c r="R83" s="23" t="inlineStr">
         <is>
@@ -8859,13 +8865,13 @@
         </is>
       </c>
       <c r="O84" s="32" t="n">
-        <v>-27.8</v>
+        <v>-26.6</v>
       </c>
       <c r="P84" s="32" t="n">
-        <v>-15.6</v>
+        <v>-9.4</v>
       </c>
       <c r="Q84" s="32" t="n">
-        <v>-23.06</v>
+        <v>-21.22</v>
       </c>
       <c r="R84" s="23" t="inlineStr">
         <is>
@@ -8979,13 +8985,13 @@
         </is>
       </c>
       <c r="O85" s="32" t="n">
-        <v>-35.3</v>
+        <v>-36.2</v>
       </c>
       <c r="P85" s="32" t="n">
-        <v>-20.7</v>
+        <v>-20.5</v>
       </c>
       <c r="Q85" s="32" t="n">
-        <v>-29.4</v>
+        <v>-29.51</v>
       </c>
       <c r="R85" s="23" t="inlineStr">
         <is>
@@ -9091,13 +9097,13 @@
       </c>
       <c r="N86" s="2" t="n"/>
       <c r="O86" s="32" t="n">
-        <v>-32.4</v>
+        <v>-32.5</v>
       </c>
       <c r="P86" s="32" t="n">
-        <v>-21.8</v>
+        <v>-22</v>
       </c>
       <c r="Q86" s="32" t="n">
-        <v>-27.79</v>
+        <v>-27.94</v>
       </c>
       <c r="R86" s="23" t="inlineStr">
         <is>
@@ -9215,13 +9221,13 @@
         </is>
       </c>
       <c r="O87" s="32" t="n">
-        <v>-34.8</v>
+        <v>-35</v>
       </c>
       <c r="P87" s="32" t="n">
-        <v>-22.5</v>
+        <v>-22.3</v>
       </c>
       <c r="Q87" s="32" t="n">
-        <v>-29.62</v>
+        <v>-30.09</v>
       </c>
       <c r="R87" s="23" t="inlineStr">
         <is>
@@ -9327,13 +9333,13 @@
       </c>
       <c r="N88" s="2" t="n"/>
       <c r="O88" s="32" t="n">
-        <v>-31.2</v>
+        <v>-32.4</v>
       </c>
       <c r="P88" s="32" t="n">
-        <v>-17.4</v>
+        <v>-18.8</v>
       </c>
       <c r="Q88" s="32" t="n">
-        <v>-26.2</v>
+        <v>-26.64</v>
       </c>
       <c r="R88" s="23" t="inlineStr">
         <is>
@@ -9545,13 +9551,13 @@
         </is>
       </c>
       <c r="O90" s="32" t="n">
-        <v>-24.3</v>
+        <v>-24</v>
       </c>
       <c r="P90" s="32" t="n">
-        <v>-5.2</v>
+        <v>-6.2</v>
       </c>
       <c r="Q90" s="32" t="n">
-        <v>-17.69</v>
+        <v>-17.49</v>
       </c>
       <c r="R90" s="23" t="inlineStr">
         <is>
@@ -9653,13 +9659,13 @@
       </c>
       <c r="N91" s="2" t="n"/>
       <c r="O91" s="32" t="n">
-        <v>-27</v>
+        <v>-26.3</v>
       </c>
       <c r="P91" s="32" t="n">
-        <v>-18.2</v>
+        <v>-16.4</v>
       </c>
       <c r="Q91" s="32" t="n">
-        <v>-22.5</v>
+        <v>-22.61</v>
       </c>
       <c r="R91" s="23" t="inlineStr">
         <is>
@@ -9761,13 +9767,13 @@
       </c>
       <c r="N92" s="2" t="n"/>
       <c r="O92" s="32" t="n">
-        <v>-22</v>
+        <v>-21.6</v>
       </c>
       <c r="P92" s="32" t="n">
-        <v>-13</v>
+        <v>-11.5</v>
       </c>
       <c r="Q92" s="32" t="n">
-        <v>-18.03</v>
+        <v>-16.89</v>
       </c>
       <c r="R92" s="23" t="inlineStr">
         <is>
@@ -9873,13 +9879,13 @@
       </c>
       <c r="N93" s="2" t="n"/>
       <c r="O93" s="32" t="n">
-        <v>-19.2</v>
+        <v>-19.3</v>
       </c>
       <c r="P93" s="32" t="n">
-        <v>-2.2</v>
+        <v>-3.7</v>
       </c>
       <c r="Q93" s="32" t="n">
-        <v>-11.51</v>
+        <v>-10.74</v>
       </c>
       <c r="R93" s="23" t="inlineStr">
         <is>
@@ -9993,10 +9999,10 @@
         </is>
       </c>
       <c r="O94" s="32" t="n">
-        <v>-28.4</v>
+        <v>-28</v>
       </c>
       <c r="P94" s="32" t="n">
-        <v>-7</v>
+        <v>-6.6</v>
       </c>
       <c r="Q94" s="32" t="n"/>
       <c r="R94" s="23" t="inlineStr">
@@ -10111,13 +10117,13 @@
       </c>
       <c r="N95" s="2" t="n"/>
       <c r="O95" s="32" t="n">
-        <v>-16.3</v>
+        <v>-16.5</v>
       </c>
       <c r="P95" s="32" t="n">
-        <v>-9</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="Q95" s="32" t="n">
-        <v>-12.96</v>
+        <v>-12.6</v>
       </c>
       <c r="R95" s="23" t="inlineStr">
         <is>
@@ -10239,10 +10245,10 @@
         </is>
       </c>
       <c r="O96" s="32" t="n">
-        <v>-27.2</v>
+        <v>-27.4</v>
       </c>
       <c r="P96" s="32" t="n">
-        <v>-8.199999999999999</v>
+        <v>-7</v>
       </c>
       <c r="Q96" s="32" t="n"/>
       <c r="R96" s="23" t="inlineStr">
@@ -10357,13 +10363,13 @@
       </c>
       <c r="N97" s="2" t="n"/>
       <c r="O97" s="32" t="n">
-        <v>-21.9</v>
+        <v>-21.4</v>
       </c>
       <c r="P97" s="32" t="n">
-        <v>-11.1</v>
+        <v>-7.1</v>
       </c>
       <c r="Q97" s="32" t="n">
-        <v>-15.67</v>
+        <v>-12.47</v>
       </c>
       <c r="R97" s="23" t="inlineStr">
         <is>
@@ -10473,10 +10479,10 @@
       </c>
       <c r="N98" s="2" t="n"/>
       <c r="O98" s="32" t="n">
-        <v>-29.7</v>
+        <v>-31.8</v>
       </c>
       <c r="P98" s="32" t="n">
-        <v>-13.7</v>
+        <v>-11.3</v>
       </c>
       <c r="Q98" s="32" t="n"/>
       <c r="R98" s="23" t="inlineStr">
@@ -10591,13 +10597,13 @@
       </c>
       <c r="N99" s="2" t="n"/>
       <c r="O99" s="32" t="n">
-        <v>-31</v>
+        <v>-32.2</v>
       </c>
       <c r="P99" s="32" t="n">
-        <v>-13.1</v>
+        <v>-16.5</v>
       </c>
       <c r="Q99" s="32" t="n">
-        <v>-24.34</v>
+        <v>-25.41</v>
       </c>
       <c r="R99" s="23" t="inlineStr">
         <is>
@@ -10923,13 +10929,13 @@
       </c>
       <c r="N102" s="2" t="n"/>
       <c r="O102" s="32" t="n">
-        <v>-32.1</v>
+        <v>-30</v>
       </c>
       <c r="P102" s="32" t="n">
-        <v>-12.1</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="Q102" s="32" t="n">
-        <v>-23.41</v>
+        <v>-20.41</v>
       </c>
       <c r="R102" s="23" t="inlineStr">
         <is>
@@ -11039,10 +11045,10 @@
       </c>
       <c r="N103" s="2" t="n"/>
       <c r="O103" s="32" t="n">
-        <v>-31.1</v>
+        <v>-28.7</v>
       </c>
       <c r="P103" s="32" t="n">
-        <v>-12.3</v>
+        <v>-12.4</v>
       </c>
       <c r="Q103" s="32" t="n"/>
       <c r="R103" s="23" t="inlineStr">
@@ -11149,10 +11155,10 @@
       </c>
       <c r="N104" s="2" t="n"/>
       <c r="O104" s="32" t="n">
-        <v>-34.4</v>
+        <v>-32.4</v>
       </c>
       <c r="P104" s="32" t="n">
-        <v>-17.1</v>
+        <v>-15.3</v>
       </c>
       <c r="Q104" s="32" t="n"/>
       <c r="R104" s="23" t="inlineStr">
@@ -11271,13 +11277,13 @@
         </is>
       </c>
       <c r="O105" s="32" t="n">
-        <v>-34.5</v>
+        <v>-32.7</v>
       </c>
       <c r="P105" s="32" t="n">
-        <v>-16.8</v>
+        <v>-14.3</v>
       </c>
       <c r="Q105" s="32" t="n">
-        <v>-26.5</v>
+        <v>-26.15</v>
       </c>
       <c r="R105" s="23" t="inlineStr">
         <is>
@@ -11391,10 +11397,10 @@
         </is>
       </c>
       <c r="O106" s="32" t="n">
-        <v>-37.5</v>
+        <v>-32.2</v>
       </c>
       <c r="P106" s="32" t="n">
-        <v>-24.1</v>
+        <v>-17.3</v>
       </c>
       <c r="Q106" s="32" t="n"/>
       <c r="R106" s="23" t="inlineStr">
@@ -11504,12 +11510,8 @@
         </is>
       </c>
       <c r="N107" s="2" t="n"/>
-      <c r="O107" s="32" t="n">
-        <v>-37.8</v>
-      </c>
-      <c r="P107" s="32" t="n">
-        <v>-22.3</v>
-      </c>
+      <c r="O107" s="32" t="n"/>
+      <c r="P107" s="32" t="n"/>
       <c r="Q107" s="32" t="n"/>
       <c r="R107" s="23" t="inlineStr">
         <is>
@@ -11619,14 +11621,12 @@
       </c>
       <c r="N108" s="2" t="n"/>
       <c r="O108" s="32" t="n">
-        <v>-34</v>
+        <v>-27.7</v>
       </c>
       <c r="P108" s="32" t="n">
-        <v>-21.8</v>
-      </c>
-      <c r="Q108" s="32" t="n">
-        <v>-28.39</v>
-      </c>
+        <v>-12.9</v>
+      </c>
+      <c r="Q108" s="32" t="n"/>
       <c r="R108" s="23" t="inlineStr">
         <is>
           <t>Y</t>
@@ -11833,10 +11833,10 @@
       </c>
       <c r="N110" s="2" t="n"/>
       <c r="O110" s="32" t="n">
-        <v>-36.2</v>
+        <v>-32.2</v>
       </c>
       <c r="P110" s="32" t="n">
-        <v>-21.7</v>
+        <v>-11.3</v>
       </c>
       <c r="Q110" s="32" t="n"/>
       <c r="R110" s="23" t="inlineStr">
@@ -11951,13 +11951,13 @@
       </c>
       <c r="N111" s="2" t="n"/>
       <c r="O111" s="32" t="n">
-        <v>-27.8</v>
+        <v>-30.6</v>
       </c>
       <c r="P111" s="32" t="n">
-        <v>-18.3</v>
+        <v>-8.9</v>
       </c>
       <c r="Q111" s="32" t="n">
-        <v>-23.29</v>
+        <v>-22.48</v>
       </c>
       <c r="R111" s="23" t="inlineStr">
         <is>
@@ -12063,10 +12063,10 @@
       </c>
       <c r="N112" s="2" t="n"/>
       <c r="O112" s="32" t="n">
-        <v>-20.5</v>
+        <v>-23.9</v>
       </c>
       <c r="P112" s="32" t="n">
-        <v>-6.9</v>
+        <v>-0.2</v>
       </c>
       <c r="Q112" s="32" t="n"/>
       <c r="R112" s="23" t="inlineStr">
@@ -12169,10 +12169,10 @@
       </c>
       <c r="N113" s="2" t="n"/>
       <c r="O113" s="32" t="n">
-        <v>-17.9</v>
+        <v>-15.8</v>
       </c>
       <c r="P113" s="32" t="n">
-        <v>-1.4</v>
+        <v>-2.5</v>
       </c>
       <c r="Q113" s="32" t="n"/>
       <c r="R113" s="23" t="inlineStr">
@@ -12283,10 +12283,10 @@
         </is>
       </c>
       <c r="O114" s="32" t="n">
-        <v>-22.3</v>
+        <v>-19.8</v>
       </c>
       <c r="P114" s="32" t="n">
-        <v>-2.2</v>
+        <v>-1</v>
       </c>
       <c r="Q114" s="32" t="n"/>
       <c r="R114" s="23" t="inlineStr">
@@ -12405,10 +12405,10 @@
         </is>
       </c>
       <c r="O115" s="32" t="n">
-        <v>-17.4</v>
+        <v>-17.6</v>
       </c>
       <c r="P115" s="32" t="n">
-        <v>-3.9</v>
+        <v>-5.8</v>
       </c>
       <c r="Q115" s="32" t="n"/>
       <c r="R115" s="23" t="inlineStr">
@@ -12523,13 +12523,13 @@
       </c>
       <c r="N116" s="2" t="n"/>
       <c r="O116" s="32" t="n">
-        <v>-16.7</v>
+        <v>-17</v>
       </c>
       <c r="P116" s="32" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="Q116" s="32" t="n">
-        <v>-8.300000000000001</v>
+        <v>-7.77</v>
       </c>
       <c r="R116" s="23" t="inlineStr">
         <is>
@@ -12635,10 +12635,10 @@
       </c>
       <c r="N117" s="2" t="n"/>
       <c r="O117" s="32" t="n">
-        <v>-20.9</v>
+        <v>-19.1</v>
       </c>
       <c r="P117" s="32" t="n">
-        <v>-5.6</v>
+        <v>-2.8</v>
       </c>
       <c r="Q117" s="32" t="n"/>
       <c r="R117" s="23" t="inlineStr">
@@ -12749,10 +12749,10 @@
         </is>
       </c>
       <c r="O118" s="32" t="n">
-        <v>-23.3</v>
+        <v>-22.6</v>
       </c>
       <c r="P118" s="32" t="n">
-        <v>-3.6</v>
+        <v>-3.8</v>
       </c>
       <c r="Q118" s="32" t="n"/>
       <c r="R118" s="23" t="inlineStr">
@@ -12867,13 +12867,13 @@
       </c>
       <c r="N119" s="2" t="n"/>
       <c r="O119" s="32" t="n">
-        <v>-12.7</v>
+        <v>-14.8</v>
       </c>
       <c r="P119" s="32" t="n">
-        <v>0</v>
+        <v>-2.9</v>
       </c>
       <c r="Q119" s="32" t="n">
-        <v>-7.83</v>
+        <v>-10.2</v>
       </c>
       <c r="R119" s="23" t="inlineStr">
         <is>
@@ -13097,13 +13097,13 @@
       </c>
       <c r="N121" s="2" t="n"/>
       <c r="O121" s="32" t="n">
-        <v>-11.7</v>
+        <v>-9.4</v>
       </c>
       <c r="P121" s="32" t="n">
-        <v>-4.9</v>
+        <v>-2.8</v>
       </c>
       <c r="Q121" s="32" t="n">
-        <v>-9.09</v>
+        <v>-7.06</v>
       </c>
       <c r="R121" s="23" t="inlineStr">
         <is>
@@ -13221,10 +13221,10 @@
       </c>
       <c r="N122" s="2" t="n"/>
       <c r="O122" s="32" t="n">
-        <v>-30.6</v>
+        <v>-29.6</v>
       </c>
       <c r="P122" s="32" t="n">
-        <v>-18</v>
+        <v>-16.9</v>
       </c>
       <c r="Q122" s="32" t="n"/>
       <c r="R122" s="23" t="inlineStr">
@@ -13449,13 +13449,13 @@
       </c>
       <c r="N124" s="2" t="n"/>
       <c r="O124" s="32" t="n">
-        <v>-13.2</v>
+        <v>-12.3</v>
       </c>
       <c r="P124" s="32" t="n">
         <v>1.2</v>
       </c>
       <c r="Q124" s="32" t="n">
-        <v>-5.44</v>
+        <v>-5.48</v>
       </c>
       <c r="R124" s="23" t="inlineStr">
         <is>
@@ -13573,13 +13573,13 @@
       </c>
       <c r="N125" s="2" t="n"/>
       <c r="O125" s="32" t="n">
-        <v>-4.9</v>
+        <v>-6.1</v>
       </c>
       <c r="P125" s="32" t="n">
-        <v>9.1</v>
+        <v>6.7</v>
       </c>
       <c r="Q125" s="32" t="n">
-        <v>1.49</v>
+        <v>0.67</v>
       </c>
       <c r="R125" s="23" t="inlineStr">
         <is>
@@ -13673,10 +13673,10 @@
       </c>
       <c r="N126" s="2" t="n"/>
       <c r="O126" s="32" t="n">
-        <v>-3.7</v>
+        <v>-6.3</v>
       </c>
       <c r="P126" s="32" t="n">
-        <v>8.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q126" s="32" t="n"/>
       <c r="R126" s="23" t="inlineStr">
@@ -13783,13 +13783,13 @@
       </c>
       <c r="N127" s="2" t="n"/>
       <c r="O127" s="32" t="n">
-        <v>-10.1</v>
+        <v>-10</v>
       </c>
       <c r="P127" s="32" t="n">
-        <v>5.2</v>
+        <v>6.1</v>
       </c>
       <c r="Q127" s="32" t="n">
-        <v>-3.58</v>
+        <v>-2.79</v>
       </c>
       <c r="R127" s="23" t="inlineStr">
         <is>
@@ -13903,10 +13903,10 @@
       </c>
       <c r="N128" s="2" t="n"/>
       <c r="O128" s="32" t="n">
-        <v>-5</v>
+        <v>-4.1</v>
       </c>
       <c r="P128" s="32" t="n">
-        <v>10.9</v>
+        <v>8.4</v>
       </c>
       <c r="Q128" s="32" t="n"/>
       <c r="R128" s="23" t="inlineStr">
@@ -14013,13 +14013,13 @@
       </c>
       <c r="N129" s="2" t="n"/>
       <c r="O129" s="32" t="n">
-        <v>-10.4</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="P129" s="32" t="n">
-        <v>8.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="Q129" s="32" t="n">
-        <v>-1.15</v>
+        <v>-1.6</v>
       </c>
       <c r="R129" s="23" t="inlineStr">
         <is>
@@ -14133,13 +14133,13 @@
       </c>
       <c r="N130" s="2" t="n"/>
       <c r="O130" s="32" t="n">
-        <v>-11.3</v>
+        <v>-11</v>
       </c>
       <c r="P130" s="32" t="n">
-        <v>2.1</v>
+        <v>4.4</v>
       </c>
       <c r="Q130" s="32" t="n">
-        <v>-5.09</v>
+        <v>-4.34</v>
       </c>
       <c r="R130" s="23" t="inlineStr">
         <is>
@@ -14253,13 +14253,13 @@
       </c>
       <c r="N131" s="2" t="n"/>
       <c r="O131" s="32" t="n">
-        <v>-1.5</v>
+        <v>-2.1</v>
       </c>
       <c r="P131" s="32" t="n">
-        <v>8.6</v>
+        <v>8.9</v>
       </c>
       <c r="Q131" s="32" t="n">
-        <v>2.86</v>
+        <v>2.44</v>
       </c>
       <c r="R131" s="23" t="inlineStr">
         <is>
@@ -14369,13 +14369,13 @@
       </c>
       <c r="N132" s="2" t="n"/>
       <c r="O132" s="32" t="n">
-        <v>-3.2</v>
+        <v>-0.1</v>
       </c>
       <c r="P132" s="32" t="n">
-        <v>11.7</v>
+        <v>12.3</v>
       </c>
       <c r="Q132" s="32" t="n">
-        <v>4.09</v>
+        <v>6.77</v>
       </c>
       <c r="R132" s="23" t="inlineStr">
         <is>
@@ -14485,13 +14485,13 @@
       </c>
       <c r="N133" s="2" t="n"/>
       <c r="O133" s="32" t="n">
-        <v>-1.1</v>
+        <v>-2</v>
       </c>
       <c r="P133" s="32" t="n">
-        <v>9.300000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="Q133" s="32" t="n">
-        <v>2.87</v>
+        <v>3.34</v>
       </c>
       <c r="R133" s="23" t="inlineStr">
         <is>
@@ -14707,13 +14707,13 @@
       </c>
       <c r="N135" s="2" t="n"/>
       <c r="O135" s="32" t="n">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="P135" s="32" t="n">
-        <v>10</v>
+        <v>13.9</v>
       </c>
       <c r="Q135" s="32" t="n">
-        <v>5.25</v>
+        <v>8.41</v>
       </c>
       <c r="R135" s="23" t="inlineStr">
         <is>
@@ -14823,13 +14823,13 @@
       </c>
       <c r="N136" s="2" t="n"/>
       <c r="O136" s="32" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P136" s="32" t="n">
-        <v>9</v>
+        <v>12.9</v>
       </c>
       <c r="Q136" s="32" t="n">
-        <v>6.14</v>
+        <v>7.84</v>
       </c>
       <c r="R136" s="23" t="inlineStr">
         <is>
@@ -14939,13 +14939,13 @@
       </c>
       <c r="N137" s="2" t="n"/>
       <c r="O137" s="32" t="n">
-        <v>-0.4</v>
+        <v>-1.6</v>
       </c>
       <c r="P137" s="32" t="n">
-        <v>9.800000000000001</v>
+        <v>12.9</v>
       </c>
       <c r="Q137" s="32" t="n">
-        <v>4.19</v>
+        <v>4.6</v>
       </c>
       <c r="R137" s="23" t="inlineStr">
         <is>
@@ -15055,10 +15055,10 @@
       </c>
       <c r="N138" s="2" t="n"/>
       <c r="O138" s="32" t="n">
-        <v>2.1</v>
+        <v>-2.1</v>
       </c>
       <c r="P138" s="32" t="n">
-        <v>7.3</v>
+        <v>13</v>
       </c>
       <c r="Q138" s="32" t="n"/>
       <c r="R138" s="23" t="inlineStr">
@@ -15169,13 +15169,13 @@
       </c>
       <c r="N139" s="2" t="n"/>
       <c r="O139" s="32" t="n">
-        <v>-1.4</v>
+        <v>1.2</v>
       </c>
       <c r="P139" s="32" t="n">
-        <v>7.5</v>
+        <v>12.6</v>
       </c>
       <c r="Q139" s="32" t="n">
-        <v>2.9</v>
+        <v>6.03</v>
       </c>
       <c r="R139" s="23" t="inlineStr">
         <is>
@@ -15285,13 +15285,13 @@
       </c>
       <c r="N140" s="2" t="n"/>
       <c r="O140" s="32" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="P140" s="32" t="n">
-        <v>7.6</v>
+        <v>11</v>
       </c>
       <c r="Q140" s="32" t="n">
-        <v>4.23</v>
+        <v>5.75</v>
       </c>
       <c r="R140" s="23" t="inlineStr">
         <is>
@@ -15503,13 +15503,13 @@
       </c>
       <c r="N142" s="2" t="n"/>
       <c r="O142" s="32" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="P142" s="32" t="n">
-        <v>13</v>
+        <v>15.1</v>
       </c>
       <c r="Q142" s="32" t="n">
-        <v>10.56</v>
+        <v>11.1</v>
       </c>
       <c r="R142" s="23" t="inlineStr">
         <is>
@@ -15619,13 +15619,13 @@
       </c>
       <c r="N143" s="2" t="n"/>
       <c r="O143" s="32" t="n">
-        <v>9.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P143" s="32" t="n">
-        <v>18.9</v>
+        <v>20.8</v>
       </c>
       <c r="Q143" s="32" t="n">
-        <v>13.31</v>
+        <v>13.14</v>
       </c>
       <c r="R143" s="23" t="inlineStr">
         <is>
@@ -15935,13 +15935,13 @@
       </c>
       <c r="N146" s="2" t="n"/>
       <c r="O146" s="32" t="n">
-        <v>18.9</v>
+        <v>17.8</v>
       </c>
       <c r="P146" s="32" t="n">
-        <v>26.8</v>
+        <v>26.6</v>
       </c>
       <c r="Q146" s="32" t="n">
-        <v>21.6</v>
+        <v>20.66</v>
       </c>
       <c r="R146" s="23" t="inlineStr">
         <is>
@@ -16043,13 +16043,13 @@
       </c>
       <c r="N147" s="2" t="n"/>
       <c r="O147" s="32" t="n">
-        <v>8.699999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="P147" s="32" t="n">
-        <v>17.1</v>
+        <v>18.1</v>
       </c>
       <c r="Q147" s="32" t="n">
-        <v>12.58</v>
+        <v>13.71</v>
       </c>
       <c r="R147" s="23" t="inlineStr">
         <is>
@@ -16261,13 +16261,13 @@
       </c>
       <c r="N149" s="2" t="n"/>
       <c r="O149" s="32" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="P149" s="32" t="n">
         <v>19.8</v>
       </c>
       <c r="Q149" s="32" t="n">
-        <v>11.64</v>
+        <v>11.3</v>
       </c>
       <c r="R149" s="23" t="inlineStr">
         <is>
@@ -16377,13 +16377,13 @@
       </c>
       <c r="N150" s="2" t="n"/>
       <c r="O150" s="32" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="P150" s="32" t="n">
-        <v>6.1</v>
+        <v>8.5</v>
       </c>
       <c r="Q150" s="32" t="n">
-        <v>3.66</v>
+        <v>5.31</v>
       </c>
       <c r="R150" s="23" t="inlineStr">
         <is>
@@ -16493,13 +16493,13 @@
       </c>
       <c r="N151" s="2" t="n"/>
       <c r="O151" s="32" t="n">
-        <v>8.9</v>
+        <v>9.1</v>
       </c>
       <c r="P151" s="32" t="n">
-        <v>12</v>
+        <v>11.4</v>
       </c>
       <c r="Q151" s="32" t="n">
-        <v>10.43</v>
+        <v>10.08</v>
       </c>
       <c r="R151" s="23" t="inlineStr">
         <is>
@@ -16699,13 +16699,13 @@
       </c>
       <c r="N153" s="2" t="n"/>
       <c r="O153" s="32" t="n">
-        <v>-0.4</v>
+        <v>0.6</v>
       </c>
       <c r="P153" s="32" t="n">
-        <v>13.3</v>
+        <v>12.7</v>
       </c>
       <c r="Q153" s="32" t="n">
-        <v>6.9</v>
+        <v>7.16</v>
       </c>
       <c r="R153" s="23" t="inlineStr">
         <is>
@@ -16819,13 +16819,13 @@
       </c>
       <c r="N154" s="2" t="n"/>
       <c r="O154" s="32" t="n">
-        <v>-5.9</v>
+        <v>-5.4</v>
       </c>
       <c r="P154" s="32" t="n">
-        <v>13</v>
+        <v>12.3</v>
       </c>
       <c r="Q154" s="32" t="n">
-        <v>3.88</v>
+        <v>3.39</v>
       </c>
       <c r="R154" s="23" t="inlineStr">
         <is>
@@ -17021,10 +17021,10 @@
       </c>
       <c r="N156" s="2" t="n"/>
       <c r="O156" s="32" t="n">
-        <v>-19.1</v>
+        <v>-19.7</v>
       </c>
       <c r="P156" s="32" t="n">
-        <v>-1.1</v>
+        <v>1.9</v>
       </c>
       <c r="Q156" s="32" t="n"/>
       <c r="R156" s="23" t="inlineStr">
@@ -17127,10 +17127,10 @@
       </c>
       <c r="N157" s="2" t="n"/>
       <c r="O157" s="32" t="n">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="P157" s="32" t="n">
-        <v>8.4</v>
+        <v>10.2</v>
       </c>
       <c r="Q157" s="32" t="n"/>
       <c r="R157" s="23" t="inlineStr">
@@ -17511,10 +17511,10 @@
       </c>
       <c r="N161" s="2" t="n"/>
       <c r="O161" s="32" t="n">
-        <v>-6.6</v>
+        <v>-6.7</v>
       </c>
       <c r="P161" s="32" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="Q161" s="32" t="n"/>
       <c r="R161" s="23" t="inlineStr">
@@ -17951,10 +17951,10 @@
         </is>
       </c>
       <c r="O165" s="32" t="n">
-        <v>-41.7</v>
+        <v>-37.3</v>
       </c>
       <c r="P165" s="32" t="n">
-        <v>-25.1</v>
+        <v>-15.3</v>
       </c>
       <c r="Q165" s="32" t="n"/>
       <c r="R165" s="23" t="inlineStr">
@@ -18273,10 +18273,10 @@
         </is>
       </c>
       <c r="O168" s="32" t="n">
-        <v>-26.3</v>
+        <v>-26.8</v>
       </c>
       <c r="P168" s="32" t="n">
-        <v>-6.6</v>
+        <v>-6.7</v>
       </c>
       <c r="Q168" s="32" t="n"/>
       <c r="R168" s="23" t="inlineStr">
@@ -18387,10 +18387,10 @@
         </is>
       </c>
       <c r="O169" s="32" t="n">
-        <v>-26.4</v>
+        <v>-26.8</v>
       </c>
       <c r="P169" s="32" t="n">
-        <v>-6.1</v>
+        <v>-7.2</v>
       </c>
       <c r="Q169" s="32" t="n"/>
       <c r="R169" s="23" t="inlineStr">
@@ -18705,10 +18705,10 @@
       </c>
       <c r="N172" s="3" t="n"/>
       <c r="O172" s="32" t="n">
-        <v>-27</v>
+        <v>-27.3</v>
       </c>
       <c r="P172" s="32" t="n">
-        <v>-9.699999999999999</v>
+        <v>-8.5</v>
       </c>
       <c r="Q172" s="32" t="n"/>
       <c r="R172" s="23" t="inlineStr">
@@ -18815,10 +18815,10 @@
       </c>
       <c r="N173" s="2" t="n"/>
       <c r="O173" s="32" t="n">
-        <v>-28.7</v>
+        <v>-28.1</v>
       </c>
       <c r="P173" s="32" t="n">
-        <v>-13.5</v>
+        <v>-6.4</v>
       </c>
       <c r="Q173" s="32" t="n"/>
       <c r="R173" s="23" t="inlineStr">
@@ -19133,10 +19133,10 @@
       </c>
       <c r="N176" s="2" t="n"/>
       <c r="O176" s="32" t="n">
-        <v>-6.2</v>
+        <v>-7.4</v>
       </c>
       <c r="P176" s="32" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="Q176" s="32" t="n"/>
       <c r="R176" s="23" t="inlineStr">
@@ -19231,10 +19231,10 @@
       </c>
       <c r="N177" s="2" t="n"/>
       <c r="O177" s="32" t="n">
-        <v>-27.2</v>
+        <v>-27</v>
       </c>
       <c r="P177" s="32" t="n">
-        <v>-23.4</v>
+        <v>-18</v>
       </c>
       <c r="Q177" s="32" t="n"/>
       <c r="R177" s="23" t="inlineStr">
@@ -20110,13 +20110,13 @@
       </c>
       <c r="N186" s="2" t="n"/>
       <c r="O186" s="32" t="n">
-        <v>-40.7</v>
+        <v>-48</v>
       </c>
       <c r="P186" s="32" t="n">
-        <v>-29</v>
+        <v>-36</v>
       </c>
       <c r="Q186" s="32" t="n">
-        <v>-36.99</v>
+        <v>-43.93</v>
       </c>
       <c r="R186" s="23" t="inlineStr">
         <is>
@@ -20219,13 +20219,13 @@
       </c>
       <c r="N187" s="2" t="n"/>
       <c r="O187" s="32" t="n">
-        <v>-45.3</v>
+        <v>-45</v>
       </c>
       <c r="P187" s="32" t="n">
-        <v>-35.1</v>
+        <v>-34.4</v>
       </c>
       <c r="Q187" s="32" t="n">
-        <v>-40.42</v>
+        <v>-41.14</v>
       </c>
       <c r="R187" s="23" t="inlineStr">
         <is>
@@ -20323,13 +20323,13 @@
       </c>
       <c r="N188" s="2" t="n"/>
       <c r="O188" s="32" t="n">
-        <v>-44.9</v>
+        <v>-43.4</v>
       </c>
       <c r="P188" s="32" t="n">
-        <v>-36.8</v>
+        <v>-36</v>
       </c>
       <c r="Q188" s="32" t="n">
-        <v>-40.95</v>
+        <v>-40.01</v>
       </c>
       <c r="R188" s="23" t="inlineStr">
         <is>
@@ -20427,13 +20427,13 @@
       </c>
       <c r="N189" s="2" t="n"/>
       <c r="O189" s="32" t="n">
-        <v>-43</v>
+        <v>-45.8</v>
       </c>
       <c r="P189" s="32" t="n">
-        <v>-30.5</v>
+        <v>-34.4</v>
       </c>
       <c r="Q189" s="32" t="n">
-        <v>-34.15</v>
+        <v>-39.98</v>
       </c>
       <c r="R189" s="23" t="inlineStr">
         <is>
@@ -20531,13 +20531,13 @@
       </c>
       <c r="N190" s="2" t="n"/>
       <c r="O190" s="32" t="n">
-        <v>-37.8</v>
+        <v>-43.5</v>
       </c>
       <c r="P190" s="32" t="n">
-        <v>-31.5</v>
+        <v>-37</v>
       </c>
       <c r="Q190" s="32" t="n">
-        <v>-32.54</v>
+        <v>-40.5</v>
       </c>
       <c r="R190" s="23" t="inlineStr">
         <is>
@@ -20635,13 +20635,13 @@
       </c>
       <c r="N191" s="2" t="n"/>
       <c r="O191" s="32" t="n">
-        <v>-44</v>
+        <v>-45</v>
       </c>
       <c r="P191" s="32" t="n">
-        <v>-35.2</v>
+        <v>-37.3</v>
       </c>
       <c r="Q191" s="32" t="n">
-        <v>-40.76</v>
+        <v>-41.05</v>
       </c>
       <c r="R191" s="23" t="inlineStr">
         <is>
@@ -20735,13 +20735,13 @@
       </c>
       <c r="N192" s="2" t="n"/>
       <c r="O192" s="32" t="n">
-        <v>-39.1</v>
+        <v>-38.5</v>
       </c>
       <c r="P192" s="32" t="n">
-        <v>-25.9</v>
+        <v>-30.8</v>
       </c>
       <c r="Q192" s="32" t="n">
-        <v>-34.78</v>
+        <v>-33.55</v>
       </c>
       <c r="R192" s="23" t="inlineStr">
         <is>
@@ -20840,13 +20840,13 @@
       </c>
       <c r="N193" s="2" t="n"/>
       <c r="O193" s="32" t="n">
-        <v>-34.4</v>
+        <v>-37.4</v>
       </c>
       <c r="P193" s="32" t="n">
-        <v>-31.1</v>
+        <v>-33.6</v>
       </c>
       <c r="Q193" s="32" t="n">
-        <v>-33.3</v>
+        <v>-35.55</v>
       </c>
       <c r="R193" s="23" t="inlineStr">
         <is>
@@ -20948,10 +20948,10 @@
       </c>
       <c r="N194" s="2" t="n"/>
       <c r="O194" s="32" t="n">
+        <v>-45.6</v>
+      </c>
+      <c r="P194" s="32" t="n">
         <v>-40.2</v>
-      </c>
-      <c r="P194" s="32" t="n">
-        <v>-31.3</v>
       </c>
       <c r="Q194" s="32" t="n"/>
       <c r="R194" s="23" t="inlineStr">
@@ -21046,13 +21046,13 @@
       </c>
       <c r="N195" s="2" t="n"/>
       <c r="O195" s="32" t="n">
-        <v>-38.2</v>
+        <v>-37</v>
       </c>
       <c r="P195" s="32" t="n">
-        <v>-31.1</v>
+        <v>-25.5</v>
       </c>
       <c r="Q195" s="32" t="n">
-        <v>-34.66</v>
+        <v>-29.61</v>
       </c>
       <c r="R195" s="23" t="inlineStr">
         <is>
@@ -21150,12 +21150,14 @@
       </c>
       <c r="N196" s="2" t="n"/>
       <c r="O196" s="32" t="n">
-        <v>-39.3</v>
+        <v>-44.2</v>
       </c>
       <c r="P196" s="32" t="n">
-        <v>-19.9</v>
-      </c>
-      <c r="Q196" s="32" t="n"/>
+        <v>-28.9</v>
+      </c>
+      <c r="Q196" s="32" t="n">
+        <v>-37.09</v>
+      </c>
       <c r="R196" s="23" t="inlineStr">
         <is>
           <t>Y</t>
@@ -21252,13 +21254,13 @@
       </c>
       <c r="N197" s="24" t="n"/>
       <c r="O197" s="32" t="n">
-        <v>-42.5</v>
+        <v>-41.8</v>
       </c>
       <c r="P197" s="32" t="n">
-        <v>-38</v>
+        <v>-30.4</v>
       </c>
       <c r="Q197" s="32" t="n">
-        <v>-40.24</v>
+        <v>-36.16</v>
       </c>
       <c r="R197" s="23" t="inlineStr">
         <is>
@@ -21649,12 +21651,8 @@
         </is>
       </c>
       <c r="N201" s="2" t="n"/>
-      <c r="O201" s="32" t="n">
-        <v>-33.8</v>
-      </c>
-      <c r="P201" s="32" t="n">
-        <v>-12.2</v>
-      </c>
+      <c r="O201" s="32" t="n"/>
+      <c r="P201" s="32" t="n"/>
       <c r="Q201" s="32" t="n"/>
       <c r="R201" s="23" t="inlineStr">
         <is>
@@ -21959,8 +21957,12 @@
         </is>
       </c>
       <c r="N204" s="2" t="n"/>
-      <c r="O204" s="32" t="n"/>
-      <c r="P204" s="32" t="n"/>
+      <c r="O204" s="32" t="n">
+        <v>-33.7</v>
+      </c>
+      <c r="P204" s="32" t="n">
+        <v>-6.5</v>
+      </c>
       <c r="Q204" s="32" t="n"/>
       <c r="R204" s="23" t="inlineStr">
         <is>
@@ -23355,8 +23357,12 @@
         </is>
       </c>
       <c r="N218" s="2" t="n"/>
-      <c r="O218" s="32" t="n"/>
-      <c r="P218" s="32" t="n"/>
+      <c r="O218" s="32" t="n">
+        <v>-36.4</v>
+      </c>
+      <c r="P218" s="32" t="n">
+        <v>-20.7</v>
+      </c>
       <c r="Q218" s="32" t="n"/>
       <c r="R218" s="23" t="inlineStr">
         <is>
@@ -24463,12 +24469,8 @@
         </is>
       </c>
       <c r="N229" s="2" t="n"/>
-      <c r="O229" s="32" t="n">
-        <v>-37.4</v>
-      </c>
-      <c r="P229" s="32" t="n">
-        <v>-26.9</v>
-      </c>
+      <c r="O229" s="32" t="n"/>
+      <c r="P229" s="32" t="n"/>
       <c r="Q229" s="32" t="n"/>
       <c r="R229" s="23" t="inlineStr">
         <is>
@@ -26186,13 +26188,13 @@
       </c>
       <c r="N247" s="2" t="n"/>
       <c r="O247" s="32" t="n">
-        <v>-10.8</v>
+        <v>-14</v>
       </c>
       <c r="P247" s="32" t="n">
-        <v>-2.6</v>
+        <v>-4.5</v>
       </c>
       <c r="Q247" s="32" t="n">
-        <v>-7.84</v>
+        <v>-10.51</v>
       </c>
       <c r="R247" s="23" t="inlineStr">
         <is>
@@ -26298,13 +26300,13 @@
       </c>
       <c r="N248" s="2" t="n"/>
       <c r="O248" s="32" t="n">
-        <v>-28.5</v>
+        <v>-28.6</v>
       </c>
       <c r="P248" s="32" t="n">
-        <v>-14.9</v>
+        <v>-14.2</v>
       </c>
       <c r="Q248" s="32" t="n">
-        <v>-22.88</v>
+        <v>-22.72</v>
       </c>
       <c r="R248" s="23" t="inlineStr">
         <is>
@@ -26406,13 +26408,13 @@
       </c>
       <c r="N249" s="2" t="n"/>
       <c r="O249" s="32" t="n">
-        <v>-13.9</v>
+        <v>-12.6</v>
       </c>
       <c r="P249" s="32" t="n">
-        <v>-7.7</v>
+        <v>-6.9</v>
       </c>
       <c r="Q249" s="32" t="n">
-        <v>-10.86</v>
+        <v>-9.74</v>
       </c>
       <c r="R249" s="23" t="inlineStr">
         <is>
@@ -26518,13 +26520,13 @@
       </c>
       <c r="N250" s="2" t="n"/>
       <c r="O250" s="32" t="n">
-        <v>-23.8</v>
+        <v>-24.2</v>
       </c>
       <c r="P250" s="32" t="n">
-        <v>-15</v>
+        <v>-11.8</v>
       </c>
       <c r="Q250" s="32" t="n">
-        <v>-19.8</v>
+        <v>-18.61</v>
       </c>
       <c r="R250" s="23" t="inlineStr">
         <is>
@@ -26638,10 +26640,10 @@
         </is>
       </c>
       <c r="O251" s="32" t="n">
-        <v>-46</v>
+        <v>-45.2</v>
       </c>
       <c r="P251" s="32" t="n">
-        <v>-31.2</v>
+        <v>-30</v>
       </c>
       <c r="Q251" s="32" t="n"/>
       <c r="R251" s="23" t="inlineStr">
@@ -26736,13 +26738,13 @@
       </c>
       <c r="N252" s="2" t="n"/>
       <c r="O252" s="32" t="n">
+        <v>-24.1</v>
+      </c>
+      <c r="P252" s="32" t="n">
         <v>-6</v>
       </c>
-      <c r="P252" s="32" t="n">
-        <v>-0.4</v>
-      </c>
       <c r="Q252" s="32" t="n">
-        <v>-3.26</v>
+        <v>-17.36</v>
       </c>
       <c r="R252" s="23" t="inlineStr">
         <is>
@@ -26934,13 +26936,13 @@
       </c>
       <c r="N254" s="2" t="n"/>
       <c r="O254" s="32" t="n">
-        <v>-42.4</v>
+        <v>-32.3</v>
       </c>
       <c r="P254" s="32" t="n">
-        <v>-32.3</v>
+        <v>-23.8</v>
       </c>
       <c r="Q254" s="32" t="n">
-        <v>-36.99</v>
+        <v>-25.96</v>
       </c>
       <c r="R254" s="23" t="inlineStr">
         <is>
@@ -27508,13 +27510,13 @@
       </c>
       <c r="N260" s="2" t="n"/>
       <c r="O260" s="32" t="n">
-        <v>-28.4</v>
+        <v>-29.4</v>
       </c>
       <c r="P260" s="32" t="n">
-        <v>-6.8</v>
+        <v>-12.1</v>
       </c>
       <c r="Q260" s="32" t="n">
-        <v>-21</v>
+        <v>-23.07</v>
       </c>
       <c r="R260" s="23" t="inlineStr">
         <is>
@@ -27616,13 +27618,13 @@
       </c>
       <c r="N261" s="2" t="n"/>
       <c r="O261" s="32" t="n">
-        <v>-36.1</v>
+        <v>-20.7</v>
       </c>
       <c r="P261" s="32" t="n">
-        <v>-18.7</v>
+        <v>-2.3</v>
       </c>
       <c r="Q261" s="32" t="n">
-        <v>-27.97</v>
+        <v>-10.59</v>
       </c>
       <c r="R261" s="23" t="inlineStr">
         <is>
@@ -27728,13 +27730,13 @@
       </c>
       <c r="N262" s="2" t="n"/>
       <c r="O262" s="32" t="n">
-        <v>-14.3</v>
+        <v>-17</v>
       </c>
       <c r="P262" s="32" t="n">
-        <v>-6.5</v>
+        <v>-7.7</v>
       </c>
       <c r="Q262" s="32" t="n">
-        <v>-9.93</v>
+        <v>-13.4</v>
       </c>
       <c r="R262" s="23" t="inlineStr">
         <is>
@@ -27934,13 +27936,13 @@
       </c>
       <c r="N264" s="2" t="n"/>
       <c r="O264" s="32" t="n">
-        <v>-15.9</v>
+        <v>-18.7</v>
       </c>
       <c r="P264" s="32" t="n">
-        <v>-6.8</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="Q264" s="32" t="n">
-        <v>-12.58</v>
+        <v>-13.75</v>
       </c>
       <c r="R264" s="23" t="inlineStr">
         <is>
@@ -28054,10 +28056,10 @@
       </c>
       <c r="N265" s="2" t="n"/>
       <c r="O265" s="32" t="n">
-        <v>-43.6</v>
+        <v>-49.8</v>
       </c>
       <c r="P265" s="32" t="n">
-        <v>-34.2</v>
+        <v>-37.2</v>
       </c>
       <c r="Q265" s="32" t="n"/>
       <c r="R265" s="23" t="inlineStr">
@@ -29094,13 +29096,13 @@
       </c>
       <c r="N276" s="2" t="n"/>
       <c r="O276" s="32" t="n">
-        <v>-39.4</v>
+        <v>-41.4</v>
       </c>
       <c r="P276" s="32" t="n">
-        <v>-17.4</v>
+        <v>-35</v>
       </c>
       <c r="Q276" s="32" t="n">
-        <v>-30.72</v>
+        <v>-38.99</v>
       </c>
       <c r="R276" s="23" t="inlineStr">
         <is>

--- a/气象/For_Python_站点信息和记录.xlsx
+++ b/气象/For_Python_站点信息和记录.xlsx
@@ -761,9 +761,9 @@
   </sheetPr>
   <dimension ref="A1:AH401"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N267" sqref="N267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.59765625" defaultRowHeight="20.25"/>
@@ -790,8 +790,8 @@
     <col width="18.59765625" customWidth="1" style="8" min="25" max="25"/>
     <col width="12.59765625" customWidth="1" style="5" min="26" max="30"/>
     <col width="12.59765625" customWidth="1" style="8" min="31" max="32"/>
-    <col width="12.59765625" customWidth="1" style="5" min="33" max="224"/>
-    <col width="12.59765625" customWidth="1" style="5" min="225" max="16384"/>
+    <col width="12.59765625" customWidth="1" style="5" min="33" max="226"/>
+    <col width="12.59765625" customWidth="1" style="5" min="227" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.75" customFormat="1" customHeight="1" s="11">
@@ -1014,13 +1014,13 @@
         </is>
       </c>
       <c r="O2" s="32" t="n">
-        <v>-37.3</v>
+        <v>-37.4</v>
       </c>
       <c r="P2" s="32" t="n">
-        <v>-27.8</v>
+        <v>-28</v>
       </c>
       <c r="Q2" s="32" t="n">
-        <v>-33.35</v>
+        <v>-33.71</v>
       </c>
       <c r="R2" s="23" t="inlineStr">
         <is>
@@ -1124,10 +1124,10 @@
         </is>
       </c>
       <c r="O3" s="32" t="n">
-        <v>-38.4</v>
+        <v>-36.4</v>
       </c>
       <c r="P3" s="32" t="n">
-        <v>-21.1</v>
+        <v>-24.3</v>
       </c>
       <c r="Q3" s="32" t="n"/>
       <c r="R3" s="23" t="n"/>
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="O4" s="32" t="n">
-        <v>-37.6</v>
+        <v>-38</v>
       </c>
       <c r="P4" s="32" t="n">
-        <v>-25</v>
+        <v>-24.6</v>
       </c>
       <c r="Q4" s="32" t="n"/>
       <c r="R4" s="23" t="n"/>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="N5" s="2" t="n"/>
       <c r="O5" s="32" t="n">
-        <v>-33.9</v>
+        <v>-33.7</v>
       </c>
       <c r="P5" s="32" t="n">
         <v>-22.7</v>
@@ -1420,10 +1420,10 @@
         </is>
       </c>
       <c r="O6" s="32" t="n">
-        <v>-36.2</v>
+        <v>-36.5</v>
       </c>
       <c r="P6" s="32" t="n">
-        <v>-22.1</v>
+        <v>-21.8</v>
       </c>
       <c r="Q6" s="32" t="n"/>
       <c r="R6" s="23" t="n"/>
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="O7" s="32" t="n">
-        <v>-33.5</v>
+        <v>-33.8</v>
       </c>
       <c r="P7" s="32" t="n">
-        <v>-24.1</v>
+        <v>-21.1</v>
       </c>
       <c r="Q7" s="32" t="n"/>
       <c r="R7" s="23" t="n"/>
@@ -1628,13 +1628,13 @@
       </c>
       <c r="N8" s="2" t="n"/>
       <c r="O8" s="32" t="n">
-        <v>-31.7</v>
+        <v>-27.7</v>
       </c>
       <c r="P8" s="32" t="n">
-        <v>-16.9</v>
+        <v>-16</v>
       </c>
       <c r="Q8" s="32" t="n">
-        <v>-26.5</v>
+        <v>-22.34</v>
       </c>
       <c r="R8" s="23" t="inlineStr">
         <is>
@@ -1740,13 +1740,13 @@
       </c>
       <c r="N9" s="2" t="n"/>
       <c r="O9" s="32" t="n">
-        <v>-34.6</v>
+        <v>-34.9</v>
       </c>
       <c r="P9" s="32" t="n">
-        <v>-23.6</v>
+        <v>-23.9</v>
       </c>
       <c r="Q9" s="32" t="n">
-        <v>-29.81</v>
+        <v>-29.54</v>
       </c>
       <c r="R9" s="23" t="inlineStr">
         <is>
@@ -1856,13 +1856,13 @@
       </c>
       <c r="N10" s="3" t="n"/>
       <c r="O10" s="32" t="n">
-        <v>-34.6</v>
+        <v>-36.6</v>
       </c>
       <c r="P10" s="32" t="n">
-        <v>-23.3</v>
+        <v>-24.3</v>
       </c>
       <c r="Q10" s="32" t="n">
-        <v>-30.34</v>
+        <v>-31.46</v>
       </c>
       <c r="R10" s="23" t="inlineStr">
         <is>
@@ -1972,13 +1972,13 @@
         </is>
       </c>
       <c r="O11" s="32" t="n">
-        <v>-32.2</v>
+        <v>-32</v>
       </c>
       <c r="P11" s="32" t="n">
-        <v>-12.5</v>
+        <v>-12.3</v>
       </c>
       <c r="Q11" s="32" t="n">
-        <v>-24.9</v>
+        <v>-24.86</v>
       </c>
       <c r="R11" s="23" t="inlineStr">
         <is>
@@ -2079,18 +2079,18 @@
       <c r="L12" s="3" t="n"/>
       <c r="M12" s="15" t="inlineStr">
         <is>
-          <t>陶松臣格勒</t>
+          <t>托孙臣格勒</t>
         </is>
       </c>
       <c r="N12" s="2" t="n"/>
       <c r="O12" s="32" t="n">
-        <v>-34.6</v>
+        <v>-33.9</v>
       </c>
       <c r="P12" s="32" t="n">
-        <v>-21.2</v>
+        <v>-20.7</v>
       </c>
       <c r="Q12" s="32" t="n">
-        <v>-29.25</v>
+        <v>-28.82</v>
       </c>
       <c r="R12" s="23" t="inlineStr">
         <is>
@@ -2200,13 +2200,13 @@
         </is>
       </c>
       <c r="O13" s="32" t="n">
-        <v>-33.7</v>
+        <v>-33.3</v>
       </c>
       <c r="P13" s="32" t="n">
-        <v>-24.7</v>
+        <v>-21.5</v>
       </c>
       <c r="Q13" s="32" t="n">
-        <v>-29.56</v>
+        <v>-28.06</v>
       </c>
       <c r="R13" s="23" t="inlineStr">
         <is>
@@ -2316,13 +2316,13 @@
       </c>
       <c r="N14" s="2" t="n"/>
       <c r="O14" s="32" t="n">
-        <v>-20.2</v>
+        <v>-19.8</v>
       </c>
       <c r="P14" s="32" t="n">
-        <v>-4.8</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="Q14" s="32" t="n">
-        <v>-14.4</v>
+        <v>-14.49</v>
       </c>
       <c r="R14" s="23" t="inlineStr">
         <is>
@@ -2517,14 +2517,14 @@
         </is>
       </c>
       <c r="N16" s="2" t="n"/>
-      <c r="O16" s="32" t="n">
-        <v>-28.5</v>
-      </c>
-      <c r="P16" s="32" t="n">
-        <v>-5.2</v>
-      </c>
+      <c r="O16" s="32" t="n"/>
+      <c r="P16" s="32" t="n"/>
       <c r="Q16" s="32" t="n"/>
-      <c r="R16" s="23" t="n"/>
+      <c r="R16" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S16" s="37" t="n"/>
       <c r="T16" s="41" t="inlineStr">
         <is>
@@ -7820,13 +7820,13 @@
       </c>
       <c r="N75" s="2" t="n"/>
       <c r="O75" s="32" t="n">
-        <v>-27.2</v>
+        <v>-24.8</v>
       </c>
       <c r="P75" s="32" t="n">
-        <v>-9.4</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="Q75" s="32" t="n">
-        <v>-21.39</v>
+        <v>-17.75</v>
       </c>
       <c r="R75" s="23" t="inlineStr">
         <is>
@@ -7932,13 +7932,13 @@
       </c>
       <c r="N76" s="2" t="n"/>
       <c r="O76" s="32" t="n">
-        <v>-34.5</v>
+        <v>-30.6</v>
       </c>
       <c r="P76" s="32" t="n">
-        <v>-19.9</v>
+        <v>-16.7</v>
       </c>
       <c r="Q76" s="32" t="n">
-        <v>-27.59</v>
+        <v>-25.36</v>
       </c>
       <c r="R76" s="23" t="inlineStr">
         <is>
@@ -8048,13 +8048,13 @@
         </is>
       </c>
       <c r="O77" s="32" t="n">
-        <v>-31.9</v>
+        <v>-30.9</v>
       </c>
       <c r="P77" s="32" t="n">
-        <v>-18.1</v>
+        <v>-18.6</v>
       </c>
       <c r="Q77" s="32" t="n">
-        <v>-24.96</v>
+        <v>-25.47</v>
       </c>
       <c r="R77" s="23" t="inlineStr">
         <is>
@@ -8164,13 +8164,13 @@
       </c>
       <c r="N78" s="2" t="n"/>
       <c r="O78" s="32" t="n">
-        <v>-28.6</v>
+        <v>-28.1</v>
       </c>
       <c r="P78" s="32" t="n">
-        <v>-16</v>
+        <v>-16.7</v>
       </c>
       <c r="Q78" s="32" t="n">
-        <v>-23.05</v>
+        <v>-22.94</v>
       </c>
       <c r="R78" s="23" t="inlineStr">
         <is>
@@ -8280,13 +8280,13 @@
         </is>
       </c>
       <c r="O79" s="32" t="n">
-        <v>-36.9</v>
+        <v>-35.2</v>
       </c>
       <c r="P79" s="32" t="n">
-        <v>-15</v>
+        <v>-14.1</v>
       </c>
       <c r="Q79" s="32" t="n">
-        <v>-27.91</v>
+        <v>-25.97</v>
       </c>
       <c r="R79" s="23" t="inlineStr">
         <is>
@@ -8392,13 +8392,13 @@
       </c>
       <c r="N80" s="2" t="n"/>
       <c r="O80" s="32" t="n">
-        <v>-24.1</v>
+        <v>-23.6</v>
       </c>
       <c r="P80" s="32" t="n">
-        <v>-14.6</v>
+        <v>-15</v>
       </c>
       <c r="Q80" s="32" t="n">
-        <v>-19.73</v>
+        <v>-19.56</v>
       </c>
       <c r="R80" s="23" t="inlineStr">
         <is>
@@ -8508,14 +8508,12 @@
         </is>
       </c>
       <c r="O81" s="32" t="n">
-        <v>-35.7</v>
+        <v>-35.9</v>
       </c>
       <c r="P81" s="32" t="n">
-        <v>-20.8</v>
-      </c>
-      <c r="Q81" s="32" t="n">
-        <v>-28.99</v>
-      </c>
+        <v>-16.2</v>
+      </c>
+      <c r="Q81" s="32" t="n"/>
       <c r="R81" s="23" t="inlineStr">
         <is>
           <t>Y</t>
@@ -8629,13 +8627,13 @@
         </is>
       </c>
       <c r="O82" s="32" t="n">
-        <v>-27.7</v>
+        <v>-34.8</v>
       </c>
       <c r="P82" s="32" t="n">
-        <v>-3.6</v>
+        <v>-11.3</v>
       </c>
       <c r="Q82" s="32" t="n">
-        <v>-17.92</v>
+        <v>-25.31</v>
       </c>
       <c r="R82" s="23" t="inlineStr">
         <is>
@@ -8745,13 +8743,13 @@
       </c>
       <c r="N83" s="2" t="n"/>
       <c r="O83" s="32" t="n">
-        <v>-28.3</v>
+        <v>-20.3</v>
       </c>
       <c r="P83" s="32" t="n">
-        <v>-7.2</v>
+        <v>-10.9</v>
       </c>
       <c r="Q83" s="32" t="n">
-        <v>-17.85</v>
+        <v>-16.8</v>
       </c>
       <c r="R83" s="23" t="inlineStr">
         <is>
@@ -8865,13 +8863,13 @@
         </is>
       </c>
       <c r="O84" s="32" t="n">
-        <v>-26.6</v>
+        <v>-37.6</v>
       </c>
       <c r="P84" s="32" t="n">
-        <v>-9.4</v>
+        <v>-18.5</v>
       </c>
       <c r="Q84" s="32" t="n">
-        <v>-21.22</v>
+        <v>-29.69</v>
       </c>
       <c r="R84" s="23" t="inlineStr">
         <is>
@@ -8985,13 +8983,13 @@
         </is>
       </c>
       <c r="O85" s="32" t="n">
-        <v>-36.2</v>
+        <v>-34.3</v>
       </c>
       <c r="P85" s="32" t="n">
-        <v>-20.5</v>
+        <v>-19.8</v>
       </c>
       <c r="Q85" s="32" t="n">
-        <v>-29.51</v>
+        <v>-27.5</v>
       </c>
       <c r="R85" s="23" t="inlineStr">
         <is>
@@ -9097,13 +9095,13 @@
       </c>
       <c r="N86" s="2" t="n"/>
       <c r="O86" s="32" t="n">
-        <v>-32.5</v>
+        <v>-30.5</v>
       </c>
       <c r="P86" s="32" t="n">
-        <v>-22</v>
+        <v>-20.6</v>
       </c>
       <c r="Q86" s="32" t="n">
-        <v>-27.94</v>
+        <v>-25.96</v>
       </c>
       <c r="R86" s="23" t="inlineStr">
         <is>
@@ -9221,10 +9219,10 @@
         </is>
       </c>
       <c r="O87" s="32" t="n">
-        <v>-35</v>
+        <v>-35.1</v>
       </c>
       <c r="P87" s="32" t="n">
-        <v>-22.3</v>
+        <v>-23.1</v>
       </c>
       <c r="Q87" s="32" t="n">
         <v>-30.09</v>
@@ -9333,13 +9331,13 @@
       </c>
       <c r="N88" s="2" t="n"/>
       <c r="O88" s="32" t="n">
-        <v>-32.4</v>
+        <v>-33.3</v>
       </c>
       <c r="P88" s="32" t="n">
-        <v>-18.8</v>
+        <v>-18.3</v>
       </c>
       <c r="Q88" s="32" t="n">
-        <v>-26.64</v>
+        <v>-27.01</v>
       </c>
       <c r="R88" s="23" t="inlineStr">
         <is>
@@ -9551,13 +9549,13 @@
         </is>
       </c>
       <c r="O90" s="32" t="n">
-        <v>-24</v>
+        <v>-22.8</v>
       </c>
       <c r="P90" s="32" t="n">
-        <v>-6.2</v>
+        <v>-6.7</v>
       </c>
       <c r="Q90" s="32" t="n">
-        <v>-17.49</v>
+        <v>-13.06</v>
       </c>
       <c r="R90" s="23" t="inlineStr">
         <is>
@@ -9659,13 +9657,13 @@
       </c>
       <c r="N91" s="2" t="n"/>
       <c r="O91" s="32" t="n">
-        <v>-26.3</v>
+        <v>-26.4</v>
       </c>
       <c r="P91" s="32" t="n">
         <v>-16.4</v>
       </c>
       <c r="Q91" s="32" t="n">
-        <v>-22.61</v>
+        <v>-20.59</v>
       </c>
       <c r="R91" s="23" t="inlineStr">
         <is>
@@ -9767,13 +9765,13 @@
       </c>
       <c r="N92" s="2" t="n"/>
       <c r="O92" s="32" t="n">
-        <v>-21.6</v>
+        <v>-20.5</v>
       </c>
       <c r="P92" s="32" t="n">
-        <v>-11.5</v>
+        <v>-1.8</v>
       </c>
       <c r="Q92" s="32" t="n">
-        <v>-16.89</v>
+        <v>-12.01</v>
       </c>
       <c r="R92" s="23" t="inlineStr">
         <is>
@@ -9879,13 +9877,13 @@
       </c>
       <c r="N93" s="2" t="n"/>
       <c r="O93" s="32" t="n">
-        <v>-19.3</v>
+        <v>-14.9</v>
       </c>
       <c r="P93" s="32" t="n">
-        <v>-3.7</v>
+        <v>5.6</v>
       </c>
       <c r="Q93" s="32" t="n">
-        <v>-10.74</v>
+        <v>-5.04</v>
       </c>
       <c r="R93" s="23" t="inlineStr">
         <is>
@@ -9999,10 +9997,10 @@
         </is>
       </c>
       <c r="O94" s="32" t="n">
-        <v>-28</v>
+        <v>-23.4</v>
       </c>
       <c r="P94" s="32" t="n">
-        <v>-6.6</v>
+        <v>4</v>
       </c>
       <c r="Q94" s="32" t="n"/>
       <c r="R94" s="23" t="inlineStr">
@@ -10117,13 +10115,13 @@
       </c>
       <c r="N95" s="2" t="n"/>
       <c r="O95" s="32" t="n">
-        <v>-16.5</v>
+        <v>-10.6</v>
       </c>
       <c r="P95" s="32" t="n">
-        <v>-8.699999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="Q95" s="32" t="n">
-        <v>-12.6</v>
+        <v>-5.12</v>
       </c>
       <c r="R95" s="23" t="inlineStr">
         <is>
@@ -10245,10 +10243,10 @@
         </is>
       </c>
       <c r="O96" s="32" t="n">
-        <v>-27.4</v>
+        <v>-24.9</v>
       </c>
       <c r="P96" s="32" t="n">
-        <v>-7</v>
+        <v>2.4</v>
       </c>
       <c r="Q96" s="32" t="n"/>
       <c r="R96" s="23" t="inlineStr">
@@ -10363,13 +10361,13 @@
       </c>
       <c r="N97" s="2" t="n"/>
       <c r="O97" s="32" t="n">
-        <v>-21.4</v>
+        <v>-12.9</v>
       </c>
       <c r="P97" s="32" t="n">
-        <v>-7.1</v>
+        <v>-1.7</v>
       </c>
       <c r="Q97" s="32" t="n">
-        <v>-12.47</v>
+        <v>-8</v>
       </c>
       <c r="R97" s="23" t="inlineStr">
         <is>
@@ -10479,10 +10477,10 @@
       </c>
       <c r="N98" s="2" t="n"/>
       <c r="O98" s="32" t="n">
-        <v>-31.8</v>
+        <v>-27.1</v>
       </c>
       <c r="P98" s="32" t="n">
-        <v>-11.3</v>
+        <v>-7.9</v>
       </c>
       <c r="Q98" s="32" t="n"/>
       <c r="R98" s="23" t="inlineStr">
@@ -10597,13 +10595,13 @@
       </c>
       <c r="N99" s="2" t="n"/>
       <c r="O99" s="32" t="n">
-        <v>-32.2</v>
+        <v>-24.5</v>
       </c>
       <c r="P99" s="32" t="n">
-        <v>-16.5</v>
+        <v>-11.6</v>
       </c>
       <c r="Q99" s="32" t="n">
-        <v>-25.41</v>
+        <v>-18.6</v>
       </c>
       <c r="R99" s="23" t="inlineStr">
         <is>
@@ -10929,13 +10927,13 @@
       </c>
       <c r="N102" s="2" t="n"/>
       <c r="O102" s="32" t="n">
-        <v>-30</v>
+        <v>-23</v>
       </c>
       <c r="P102" s="32" t="n">
-        <v>-9.699999999999999</v>
+        <v>-12.4</v>
       </c>
       <c r="Q102" s="32" t="n">
-        <v>-20.41</v>
+        <v>-16.88</v>
       </c>
       <c r="R102" s="23" t="inlineStr">
         <is>
@@ -11045,10 +11043,10 @@
       </c>
       <c r="N103" s="2" t="n"/>
       <c r="O103" s="32" t="n">
-        <v>-28.7</v>
+        <v>-25.4</v>
       </c>
       <c r="P103" s="32" t="n">
-        <v>-12.4</v>
+        <v>-11.5</v>
       </c>
       <c r="Q103" s="32" t="n"/>
       <c r="R103" s="23" t="inlineStr">
@@ -11155,10 +11153,10 @@
       </c>
       <c r="N104" s="2" t="n"/>
       <c r="O104" s="32" t="n">
-        <v>-32.4</v>
+        <v>-27.8</v>
       </c>
       <c r="P104" s="32" t="n">
-        <v>-15.3</v>
+        <v>-10.9</v>
       </c>
       <c r="Q104" s="32" t="n"/>
       <c r="R104" s="23" t="inlineStr">
@@ -11277,13 +11275,13 @@
         </is>
       </c>
       <c r="O105" s="32" t="n">
-        <v>-32.7</v>
+        <v>-30.5</v>
       </c>
       <c r="P105" s="32" t="n">
-        <v>-14.3</v>
+        <v>-11</v>
       </c>
       <c r="Q105" s="32" t="n">
-        <v>-26.15</v>
+        <v>-20.27</v>
       </c>
       <c r="R105" s="23" t="inlineStr">
         <is>
@@ -11397,10 +11395,10 @@
         </is>
       </c>
       <c r="O106" s="32" t="n">
-        <v>-32.2</v>
+        <v>-25.5</v>
       </c>
       <c r="P106" s="32" t="n">
-        <v>-17.3</v>
+        <v>-12.3</v>
       </c>
       <c r="Q106" s="32" t="n"/>
       <c r="R106" s="23" t="inlineStr">
@@ -11621,12 +11619,14 @@
       </c>
       <c r="N108" s="2" t="n"/>
       <c r="O108" s="32" t="n">
-        <v>-27.7</v>
+        <v>-23</v>
       </c>
       <c r="P108" s="32" t="n">
-        <v>-12.9</v>
-      </c>
-      <c r="Q108" s="32" t="n"/>
+        <v>-12</v>
+      </c>
+      <c r="Q108" s="32" t="n">
+        <v>-16.36</v>
+      </c>
       <c r="R108" s="23" t="inlineStr">
         <is>
           <t>Y</t>
@@ -11832,12 +11832,8 @@
         </is>
       </c>
       <c r="N110" s="2" t="n"/>
-      <c r="O110" s="32" t="n">
-        <v>-32.2</v>
-      </c>
-      <c r="P110" s="32" t="n">
-        <v>-11.3</v>
-      </c>
+      <c r="O110" s="32" t="n"/>
+      <c r="P110" s="32" t="n"/>
       <c r="Q110" s="32" t="n"/>
       <c r="R110" s="23" t="inlineStr">
         <is>
@@ -11951,13 +11947,13 @@
       </c>
       <c r="N111" s="2" t="n"/>
       <c r="O111" s="32" t="n">
-        <v>-30.6</v>
+        <v>-21.3</v>
       </c>
       <c r="P111" s="32" t="n">
-        <v>-8.9</v>
+        <v>-8.5</v>
       </c>
       <c r="Q111" s="32" t="n">
-        <v>-22.48</v>
+        <v>-15.42</v>
       </c>
       <c r="R111" s="23" t="inlineStr">
         <is>
@@ -12063,10 +12059,10 @@
       </c>
       <c r="N112" s="2" t="n"/>
       <c r="O112" s="32" t="n">
-        <v>-23.9</v>
+        <v>-17.7</v>
       </c>
       <c r="P112" s="32" t="n">
-        <v>-0.2</v>
+        <v>4.1</v>
       </c>
       <c r="Q112" s="32" t="n"/>
       <c r="R112" s="23" t="inlineStr">
@@ -12169,10 +12165,10 @@
       </c>
       <c r="N113" s="2" t="n"/>
       <c r="O113" s="32" t="n">
-        <v>-15.8</v>
+        <v>-18.9</v>
       </c>
       <c r="P113" s="32" t="n">
-        <v>-2.5</v>
+        <v>-0.8</v>
       </c>
       <c r="Q113" s="32" t="n"/>
       <c r="R113" s="23" t="inlineStr">
@@ -12283,10 +12279,10 @@
         </is>
       </c>
       <c r="O114" s="32" t="n">
-        <v>-19.8</v>
+        <v>-21.9</v>
       </c>
       <c r="P114" s="32" t="n">
-        <v>-1</v>
+        <v>-1.1</v>
       </c>
       <c r="Q114" s="32" t="n"/>
       <c r="R114" s="23" t="inlineStr">
@@ -12405,10 +12401,10 @@
         </is>
       </c>
       <c r="O115" s="32" t="n">
-        <v>-17.6</v>
+        <v>-20.5</v>
       </c>
       <c r="P115" s="32" t="n">
-        <v>-5.8</v>
+        <v>-3.9</v>
       </c>
       <c r="Q115" s="32" t="n"/>
       <c r="R115" s="23" t="inlineStr">
@@ -12523,13 +12519,13 @@
       </c>
       <c r="N116" s="2" t="n"/>
       <c r="O116" s="32" t="n">
-        <v>-17</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="P116" s="32" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="Q116" s="32" t="n">
-        <v>-7.77</v>
+        <v>-4.15</v>
       </c>
       <c r="R116" s="23" t="inlineStr">
         <is>
@@ -12635,10 +12631,10 @@
       </c>
       <c r="N117" s="2" t="n"/>
       <c r="O117" s="32" t="n">
-        <v>-19.1</v>
+        <v>-16.3</v>
       </c>
       <c r="P117" s="32" t="n">
-        <v>-2.8</v>
+        <v>2.8</v>
       </c>
       <c r="Q117" s="32" t="n"/>
       <c r="R117" s="23" t="inlineStr">
@@ -12749,10 +12745,10 @@
         </is>
       </c>
       <c r="O118" s="32" t="n">
-        <v>-22.6</v>
+        <v>-23.9</v>
       </c>
       <c r="P118" s="32" t="n">
-        <v>-3.8</v>
+        <v>-6.7</v>
       </c>
       <c r="Q118" s="32" t="n"/>
       <c r="R118" s="23" t="inlineStr">
@@ -12867,13 +12863,13 @@
       </c>
       <c r="N119" s="2" t="n"/>
       <c r="O119" s="32" t="n">
-        <v>-14.8</v>
+        <v>-17.4</v>
       </c>
       <c r="P119" s="32" t="n">
-        <v>-2.9</v>
+        <v>-3.8</v>
       </c>
       <c r="Q119" s="32" t="n">
-        <v>-10.2</v>
+        <v>-11.96</v>
       </c>
       <c r="R119" s="23" t="inlineStr">
         <is>
@@ -13097,13 +13093,13 @@
       </c>
       <c r="N121" s="2" t="n"/>
       <c r="O121" s="32" t="n">
-        <v>-9.4</v>
+        <v>-9.1</v>
       </c>
       <c r="P121" s="32" t="n">
-        <v>-2.8</v>
+        <v>0</v>
       </c>
       <c r="Q121" s="32" t="n">
-        <v>-7.06</v>
+        <v>-5.96</v>
       </c>
       <c r="R121" s="23" t="inlineStr">
         <is>
@@ -13221,7 +13217,7 @@
       </c>
       <c r="N122" s="2" t="n"/>
       <c r="O122" s="32" t="n">
-        <v>-29.6</v>
+        <v>-30.1</v>
       </c>
       <c r="P122" s="32" t="n">
         <v>-16.9</v>
@@ -13449,13 +13445,13 @@
       </c>
       <c r="N124" s="2" t="n"/>
       <c r="O124" s="32" t="n">
-        <v>-12.3</v>
+        <v>-11.2</v>
       </c>
       <c r="P124" s="32" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="Q124" s="32" t="n">
-        <v>-5.48</v>
+        <v>-5.5</v>
       </c>
       <c r="R124" s="23" t="inlineStr">
         <is>
@@ -13573,13 +13569,13 @@
       </c>
       <c r="N125" s="2" t="n"/>
       <c r="O125" s="32" t="n">
-        <v>-6.1</v>
+        <v>-6.6</v>
       </c>
       <c r="P125" s="32" t="n">
-        <v>6.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Q125" s="32" t="n">
-        <v>0.67</v>
+        <v>0.55</v>
       </c>
       <c r="R125" s="23" t="inlineStr">
         <is>
@@ -13673,10 +13669,10 @@
       </c>
       <c r="N126" s="2" t="n"/>
       <c r="O126" s="32" t="n">
-        <v>-6.3</v>
+        <v>-2.4</v>
       </c>
       <c r="P126" s="32" t="n">
-        <v>6.5</v>
+        <v>11.1</v>
       </c>
       <c r="Q126" s="32" t="n"/>
       <c r="R126" s="23" t="inlineStr">
@@ -13783,13 +13779,13 @@
       </c>
       <c r="N127" s="2" t="n"/>
       <c r="O127" s="32" t="n">
-        <v>-10</v>
+        <v>-8.4</v>
       </c>
       <c r="P127" s="32" t="n">
-        <v>6.1</v>
+        <v>7</v>
       </c>
       <c r="Q127" s="32" t="n">
-        <v>-2.79</v>
+        <v>-1.69</v>
       </c>
       <c r="R127" s="23" t="inlineStr">
         <is>
@@ -13903,10 +13899,10 @@
       </c>
       <c r="N128" s="2" t="n"/>
       <c r="O128" s="32" t="n">
-        <v>-4.1</v>
+        <v>-3.8</v>
       </c>
       <c r="P128" s="32" t="n">
-        <v>8.4</v>
+        <v>10.8</v>
       </c>
       <c r="Q128" s="32" t="n"/>
       <c r="R128" s="23" t="inlineStr">
@@ -14013,13 +14009,13 @@
       </c>
       <c r="N129" s="2" t="n"/>
       <c r="O129" s="32" t="n">
-        <v>-9.800000000000001</v>
+        <v>-9.1</v>
       </c>
       <c r="P129" s="32" t="n">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="Q129" s="32" t="n">
-        <v>-1.6</v>
+        <v>-1.04</v>
       </c>
       <c r="R129" s="23" t="inlineStr">
         <is>
@@ -14133,13 +14129,13 @@
       </c>
       <c r="N130" s="2" t="n"/>
       <c r="O130" s="32" t="n">
-        <v>-11</v>
+        <v>-9.5</v>
       </c>
       <c r="P130" s="32" t="n">
-        <v>4.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Q130" s="32" t="n">
-        <v>-4.34</v>
+        <v>-1.73</v>
       </c>
       <c r="R130" s="23" t="inlineStr">
         <is>
@@ -14253,13 +14249,13 @@
       </c>
       <c r="N131" s="2" t="n"/>
       <c r="O131" s="32" t="n">
-        <v>-2.1</v>
+        <v>0</v>
       </c>
       <c r="P131" s="32" t="n">
-        <v>8.9</v>
+        <v>9.5</v>
       </c>
       <c r="Q131" s="32" t="n">
-        <v>2.44</v>
+        <v>5.35</v>
       </c>
       <c r="R131" s="23" t="inlineStr">
         <is>
@@ -14369,13 +14365,13 @@
       </c>
       <c r="N132" s="2" t="n"/>
       <c r="O132" s="32" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="P132" s="32" t="n">
-        <v>12.3</v>
+        <v>13</v>
       </c>
       <c r="Q132" s="32" t="n">
-        <v>6.77</v>
+        <v>5.91</v>
       </c>
       <c r="R132" s="23" t="inlineStr">
         <is>
@@ -14485,13 +14481,13 @@
       </c>
       <c r="N133" s="2" t="n"/>
       <c r="O133" s="32" t="n">
-        <v>-2</v>
+        <v>2.8</v>
       </c>
       <c r="P133" s="32" t="n">
-        <v>8.9</v>
+        <v>11.4</v>
       </c>
       <c r="Q133" s="32" t="n">
-        <v>3.34</v>
+        <v>5.69</v>
       </c>
       <c r="R133" s="23" t="inlineStr">
         <is>
@@ -14707,13 +14703,13 @@
       </c>
       <c r="N135" s="2" t="n"/>
       <c r="O135" s="32" t="n">
-        <v>3.2</v>
+        <v>7.7</v>
       </c>
       <c r="P135" s="32" t="n">
         <v>13.9</v>
       </c>
       <c r="Q135" s="32" t="n">
-        <v>8.41</v>
+        <v>10.47</v>
       </c>
       <c r="R135" s="23" t="inlineStr">
         <is>
@@ -14823,13 +14819,13 @@
       </c>
       <c r="N136" s="2" t="n"/>
       <c r="O136" s="32" t="n">
-        <v>3.2</v>
+        <v>5.7</v>
       </c>
       <c r="P136" s="32" t="n">
-        <v>12.9</v>
+        <v>12.3</v>
       </c>
       <c r="Q136" s="32" t="n">
-        <v>7.84</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="R136" s="23" t="inlineStr">
         <is>
@@ -14939,13 +14935,13 @@
       </c>
       <c r="N137" s="2" t="n"/>
       <c r="O137" s="32" t="n">
-        <v>-1.6</v>
+        <v>0.8</v>
       </c>
       <c r="P137" s="32" t="n">
-        <v>12.9</v>
+        <v>11.1</v>
       </c>
       <c r="Q137" s="32" t="n">
-        <v>4.6</v>
+        <v>6.52</v>
       </c>
       <c r="R137" s="23" t="inlineStr">
         <is>
@@ -15058,7 +15054,7 @@
         <v>-2.1</v>
       </c>
       <c r="P138" s="32" t="n">
-        <v>13</v>
+        <v>11.9</v>
       </c>
       <c r="Q138" s="32" t="n"/>
       <c r="R138" s="23" t="inlineStr">
@@ -15169,13 +15165,13 @@
       </c>
       <c r="N139" s="2" t="n"/>
       <c r="O139" s="32" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="P139" s="32" t="n">
-        <v>12.6</v>
+        <v>12</v>
       </c>
       <c r="Q139" s="32" t="n">
-        <v>6.03</v>
+        <v>6.46</v>
       </c>
       <c r="R139" s="23" t="inlineStr">
         <is>
@@ -15285,13 +15281,13 @@
       </c>
       <c r="N140" s="2" t="n"/>
       <c r="O140" s="32" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="P140" s="32" t="n">
-        <v>11</v>
+        <v>12.4</v>
       </c>
       <c r="Q140" s="32" t="n">
-        <v>5.75</v>
+        <v>6.17</v>
       </c>
       <c r="R140" s="23" t="inlineStr">
         <is>
@@ -15503,13 +15499,13 @@
       </c>
       <c r="N142" s="2" t="n"/>
       <c r="O142" s="32" t="n">
-        <v>9.800000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="P142" s="32" t="n">
-        <v>15.1</v>
+        <v>15.5</v>
       </c>
       <c r="Q142" s="32" t="n">
-        <v>11.1</v>
+        <v>11.4</v>
       </c>
       <c r="R142" s="23" t="inlineStr">
         <is>
@@ -15622,10 +15618,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="P143" s="32" t="n">
-        <v>20.8</v>
+        <v>23</v>
       </c>
       <c r="Q143" s="32" t="n">
-        <v>13.14</v>
+        <v>14.58</v>
       </c>
       <c r="R143" s="23" t="inlineStr">
         <is>
@@ -15935,13 +15931,13 @@
       </c>
       <c r="N146" s="2" t="n"/>
       <c r="O146" s="32" t="n">
-        <v>17.8</v>
+        <v>16.2</v>
       </c>
       <c r="P146" s="32" t="n">
-        <v>26.6</v>
+        <v>24.8</v>
       </c>
       <c r="Q146" s="32" t="n">
-        <v>20.66</v>
+        <v>20.55</v>
       </c>
       <c r="R146" s="23" t="inlineStr">
         <is>
@@ -16043,13 +16039,13 @@
       </c>
       <c r="N147" s="2" t="n"/>
       <c r="O147" s="32" t="n">
-        <v>11.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="P147" s="32" t="n">
-        <v>18.1</v>
+        <v>21.8</v>
       </c>
       <c r="Q147" s="32" t="n">
-        <v>13.71</v>
+        <v>14.44</v>
       </c>
       <c r="R147" s="23" t="inlineStr">
         <is>
@@ -16261,13 +16257,13 @@
       </c>
       <c r="N149" s="2" t="n"/>
       <c r="O149" s="32" t="n">
-        <v>4.9</v>
+        <v>5.9</v>
       </c>
       <c r="P149" s="32" t="n">
-        <v>19.8</v>
+        <v>20.4</v>
       </c>
       <c r="Q149" s="32" t="n">
-        <v>11.3</v>
+        <v>12.81</v>
       </c>
       <c r="R149" s="23" t="inlineStr">
         <is>
@@ -16377,13 +16373,13 @@
       </c>
       <c r="N150" s="2" t="n"/>
       <c r="O150" s="32" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P150" s="32" t="n">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
       <c r="Q150" s="32" t="n">
-        <v>5.31</v>
+        <v>4.75</v>
       </c>
       <c r="R150" s="23" t="inlineStr">
         <is>
@@ -16493,13 +16489,13 @@
       </c>
       <c r="N151" s="2" t="n"/>
       <c r="O151" s="32" t="n">
-        <v>9.1</v>
+        <v>9.5</v>
       </c>
       <c r="P151" s="32" t="n">
-        <v>11.4</v>
+        <v>14.2</v>
       </c>
       <c r="Q151" s="32" t="n">
-        <v>10.08</v>
+        <v>11.19</v>
       </c>
       <c r="R151" s="23" t="inlineStr">
         <is>
@@ -16699,13 +16695,13 @@
       </c>
       <c r="N153" s="2" t="n"/>
       <c r="O153" s="32" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="P153" s="32" t="n">
-        <v>12.7</v>
+        <v>10.9</v>
       </c>
       <c r="Q153" s="32" t="n">
-        <v>7.16</v>
+        <v>8.32</v>
       </c>
       <c r="R153" s="23" t="inlineStr">
         <is>
@@ -16819,13 +16815,13 @@
       </c>
       <c r="N154" s="2" t="n"/>
       <c r="O154" s="32" t="n">
-        <v>-5.4</v>
+        <v>-4.8</v>
       </c>
       <c r="P154" s="32" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="Q154" s="32" t="n">
-        <v>3.39</v>
+        <v>3.48</v>
       </c>
       <c r="R154" s="23" t="inlineStr">
         <is>
@@ -17021,10 +17017,10 @@
       </c>
       <c r="N156" s="2" t="n"/>
       <c r="O156" s="32" t="n">
-        <v>-19.7</v>
+        <v>-19.3</v>
       </c>
       <c r="P156" s="32" t="n">
-        <v>1.9</v>
+        <v>4.8</v>
       </c>
       <c r="Q156" s="32" t="n"/>
       <c r="R156" s="23" t="inlineStr">
@@ -17127,10 +17123,10 @@
       </c>
       <c r="N157" s="2" t="n"/>
       <c r="O157" s="32" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="P157" s="32" t="n">
-        <v>10.2</v>
+        <v>12.2</v>
       </c>
       <c r="Q157" s="32" t="n"/>
       <c r="R157" s="23" t="inlineStr">
@@ -17511,10 +17507,10 @@
       </c>
       <c r="N161" s="2" t="n"/>
       <c r="O161" s="32" t="n">
-        <v>-6.7</v>
+        <v>-3.7</v>
       </c>
       <c r="P161" s="32" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="Q161" s="32" t="n"/>
       <c r="R161" s="23" t="inlineStr">
@@ -17951,10 +17947,10 @@
         </is>
       </c>
       <c r="O165" s="32" t="n">
-        <v>-37.3</v>
+        <v>-31.4</v>
       </c>
       <c r="P165" s="32" t="n">
-        <v>-15.3</v>
+        <v>-12.5</v>
       </c>
       <c r="Q165" s="32" t="n"/>
       <c r="R165" s="23" t="inlineStr">
@@ -18166,8 +18162,12 @@
         </is>
       </c>
       <c r="N167" s="2" t="n"/>
-      <c r="O167" s="32" t="n"/>
-      <c r="P167" s="32" t="n"/>
+      <c r="O167" s="32" t="n">
+        <v>-33.5</v>
+      </c>
+      <c r="P167" s="32" t="n">
+        <v>-12.2</v>
+      </c>
       <c r="Q167" s="32" t="n"/>
       <c r="R167" s="23" t="inlineStr">
         <is>
@@ -18276,7 +18276,7 @@
         <v>-26.8</v>
       </c>
       <c r="P168" s="32" t="n">
-        <v>-6.7</v>
+        <v>-6.4</v>
       </c>
       <c r="Q168" s="32" t="n"/>
       <c r="R168" s="23" t="inlineStr">
@@ -18387,10 +18387,10 @@
         </is>
       </c>
       <c r="O169" s="32" t="n">
-        <v>-26.8</v>
+        <v>-27.3</v>
       </c>
       <c r="P169" s="32" t="n">
-        <v>-7.2</v>
+        <v>-7.7</v>
       </c>
       <c r="Q169" s="32" t="n"/>
       <c r="R169" s="23" t="inlineStr">
@@ -18500,7 +18500,9 @@
           <t>⚡</t>
         </is>
       </c>
-      <c r="O170" s="32" t="n"/>
+      <c r="O170" s="32" t="n">
+        <v>-38.6</v>
+      </c>
       <c r="P170" s="32" t="n"/>
       <c r="Q170" s="32" t="n"/>
       <c r="R170" s="23" t="inlineStr">
@@ -18705,10 +18707,10 @@
       </c>
       <c r="N172" s="3" t="n"/>
       <c r="O172" s="32" t="n">
-        <v>-27.3</v>
+        <v>-28.5</v>
       </c>
       <c r="P172" s="32" t="n">
-        <v>-8.5</v>
+        <v>-8.1</v>
       </c>
       <c r="Q172" s="32" t="n"/>
       <c r="R172" s="23" t="inlineStr">
@@ -18815,10 +18817,10 @@
       </c>
       <c r="N173" s="2" t="n"/>
       <c r="O173" s="32" t="n">
-        <v>-28.1</v>
+        <v>-23.3</v>
       </c>
       <c r="P173" s="32" t="n">
-        <v>-6.4</v>
+        <v>1.2</v>
       </c>
       <c r="Q173" s="32" t="n"/>
       <c r="R173" s="23" t="inlineStr">
@@ -19133,10 +19135,10 @@
       </c>
       <c r="N176" s="2" t="n"/>
       <c r="O176" s="32" t="n">
-        <v>-7.4</v>
+        <v>-3.2</v>
       </c>
       <c r="P176" s="32" t="n">
-        <v>0.1</v>
+        <v>5.3</v>
       </c>
       <c r="Q176" s="32" t="n"/>
       <c r="R176" s="23" t="inlineStr">
@@ -19231,10 +19233,10 @@
       </c>
       <c r="N177" s="2" t="n"/>
       <c r="O177" s="32" t="n">
-        <v>-27</v>
+        <v>-19</v>
       </c>
       <c r="P177" s="32" t="n">
-        <v>-18</v>
+        <v>-11.6</v>
       </c>
       <c r="Q177" s="32" t="n"/>
       <c r="R177" s="23" t="inlineStr">
@@ -20110,13 +20112,13 @@
       </c>
       <c r="N186" s="2" t="n"/>
       <c r="O186" s="32" t="n">
-        <v>-48</v>
+        <v>-48.6</v>
       </c>
       <c r="P186" s="32" t="n">
-        <v>-36</v>
+        <v>-37.9</v>
       </c>
       <c r="Q186" s="32" t="n">
-        <v>-43.93</v>
+        <v>-45</v>
       </c>
       <c r="R186" s="23" t="inlineStr">
         <is>
@@ -20219,13 +20221,13 @@
       </c>
       <c r="N187" s="2" t="n"/>
       <c r="O187" s="32" t="n">
-        <v>-45</v>
+        <v>-46.6</v>
       </c>
       <c r="P187" s="32" t="n">
-        <v>-34.4</v>
+        <v>-42.4</v>
       </c>
       <c r="Q187" s="32" t="n">
-        <v>-41.14</v>
+        <v>-44.99</v>
       </c>
       <c r="R187" s="23" t="inlineStr">
         <is>
@@ -20323,13 +20325,13 @@
       </c>
       <c r="N188" s="2" t="n"/>
       <c r="O188" s="32" t="n">
-        <v>-43.4</v>
+        <v>-47</v>
       </c>
       <c r="P188" s="32" t="n">
-        <v>-36</v>
+        <v>-39.2</v>
       </c>
       <c r="Q188" s="32" t="n">
-        <v>-40.01</v>
+        <v>-43.45</v>
       </c>
       <c r="R188" s="23" t="inlineStr">
         <is>
@@ -20430,10 +20432,10 @@
         <v>-45.8</v>
       </c>
       <c r="P189" s="32" t="n">
-        <v>-34.4</v>
+        <v>-37</v>
       </c>
       <c r="Q189" s="32" t="n">
-        <v>-39.98</v>
+        <v>-42.2</v>
       </c>
       <c r="R189" s="23" t="inlineStr">
         <is>
@@ -20531,13 +20533,13 @@
       </c>
       <c r="N190" s="2" t="n"/>
       <c r="O190" s="32" t="n">
-        <v>-43.5</v>
+        <v>-44.8</v>
       </c>
       <c r="P190" s="32" t="n">
-        <v>-37</v>
+        <v>-37.2</v>
       </c>
       <c r="Q190" s="32" t="n">
-        <v>-40.5</v>
+        <v>-41.84</v>
       </c>
       <c r="R190" s="23" t="inlineStr">
         <is>
@@ -20635,13 +20637,13 @@
       </c>
       <c r="N191" s="2" t="n"/>
       <c r="O191" s="32" t="n">
-        <v>-45</v>
+        <v>-48</v>
       </c>
       <c r="P191" s="32" t="n">
-        <v>-37.3</v>
+        <v>-37.5</v>
       </c>
       <c r="Q191" s="32" t="n">
-        <v>-41.05</v>
+        <v>-43.77</v>
       </c>
       <c r="R191" s="23" t="inlineStr">
         <is>
@@ -20735,13 +20737,13 @@
       </c>
       <c r="N192" s="2" t="n"/>
       <c r="O192" s="32" t="n">
-        <v>-38.5</v>
+        <v>-42</v>
       </c>
       <c r="P192" s="32" t="n">
-        <v>-30.8</v>
+        <v>-37.2</v>
       </c>
       <c r="Q192" s="32" t="n">
-        <v>-33.55</v>
+        <v>-40.41</v>
       </c>
       <c r="R192" s="23" t="inlineStr">
         <is>
@@ -20840,13 +20842,13 @@
       </c>
       <c r="N193" s="2" t="n"/>
       <c r="O193" s="32" t="n">
-        <v>-37.4</v>
+        <v>-34.9</v>
       </c>
       <c r="P193" s="32" t="n">
-        <v>-33.6</v>
+        <v>-29.1</v>
       </c>
       <c r="Q193" s="32" t="n">
-        <v>-35.55</v>
+        <v>-32.99</v>
       </c>
       <c r="R193" s="23" t="inlineStr">
         <is>
@@ -20948,10 +20950,10 @@
       </c>
       <c r="N194" s="2" t="n"/>
       <c r="O194" s="32" t="n">
-        <v>-45.6</v>
+        <v>-48.1</v>
       </c>
       <c r="P194" s="32" t="n">
-        <v>-40.2</v>
+        <v>-39.7</v>
       </c>
       <c r="Q194" s="32" t="n"/>
       <c r="R194" s="23" t="inlineStr">
@@ -21046,13 +21048,13 @@
       </c>
       <c r="N195" s="2" t="n"/>
       <c r="O195" s="32" t="n">
-        <v>-37</v>
+        <v>-29.2</v>
       </c>
       <c r="P195" s="32" t="n">
-        <v>-25.5</v>
+        <v>-13.5</v>
       </c>
       <c r="Q195" s="32" t="n">
-        <v>-29.61</v>
+        <v>-23.14</v>
       </c>
       <c r="R195" s="23" t="inlineStr">
         <is>
@@ -21150,13 +21152,13 @@
       </c>
       <c r="N196" s="2" t="n"/>
       <c r="O196" s="32" t="n">
-        <v>-44.2</v>
+        <v>-43.5</v>
       </c>
       <c r="P196" s="32" t="n">
-        <v>-28.9</v>
+        <v>-30.7</v>
       </c>
       <c r="Q196" s="32" t="n">
-        <v>-37.09</v>
+        <v>-38.06</v>
       </c>
       <c r="R196" s="23" t="inlineStr">
         <is>
@@ -21254,13 +21256,13 @@
       </c>
       <c r="N197" s="24" t="n"/>
       <c r="O197" s="32" t="n">
-        <v>-41.8</v>
+        <v>-33.5</v>
       </c>
       <c r="P197" s="32" t="n">
-        <v>-30.4</v>
+        <v>-30.3</v>
       </c>
       <c r="Q197" s="32" t="n">
-        <v>-36.16</v>
+        <v>-31.98</v>
       </c>
       <c r="R197" s="23" t="inlineStr">
         <is>
@@ -21958,10 +21960,10 @@
       </c>
       <c r="N204" s="2" t="n"/>
       <c r="O204" s="32" t="n">
-        <v>-33.7</v>
+        <v>-30.4</v>
       </c>
       <c r="P204" s="32" t="n">
-        <v>-6.5</v>
+        <v>-10.8</v>
       </c>
       <c r="Q204" s="32" t="n"/>
       <c r="R204" s="23" t="inlineStr">
@@ -23357,12 +23359,8 @@
         </is>
       </c>
       <c r="N218" s="2" t="n"/>
-      <c r="O218" s="32" t="n">
-        <v>-36.4</v>
-      </c>
-      <c r="P218" s="32" t="n">
-        <v>-20.7</v>
-      </c>
+      <c r="O218" s="32" t="n"/>
+      <c r="P218" s="32" t="n"/>
       <c r="Q218" s="32" t="n"/>
       <c r="R218" s="23" t="inlineStr">
         <is>
@@ -26188,13 +26186,13 @@
       </c>
       <c r="N247" s="2" t="n"/>
       <c r="O247" s="32" t="n">
-        <v>-14</v>
+        <v>-15.8</v>
       </c>
       <c r="P247" s="32" t="n">
-        <v>-4.5</v>
+        <v>-13</v>
       </c>
       <c r="Q247" s="32" t="n">
-        <v>-10.51</v>
+        <v>-13.89</v>
       </c>
       <c r="R247" s="23" t="inlineStr">
         <is>
@@ -26300,13 +26298,13 @@
       </c>
       <c r="N248" s="2" t="n"/>
       <c r="O248" s="32" t="n">
-        <v>-28.6</v>
+        <v>-26.5</v>
       </c>
       <c r="P248" s="32" t="n">
-        <v>-14.2</v>
+        <v>-11</v>
       </c>
       <c r="Q248" s="32" t="n">
-        <v>-22.72</v>
+        <v>-19.66</v>
       </c>
       <c r="R248" s="23" t="inlineStr">
         <is>
@@ -26408,13 +26406,13 @@
       </c>
       <c r="N249" s="2" t="n"/>
       <c r="O249" s="32" t="n">
-        <v>-12.6</v>
+        <v>-9.9</v>
       </c>
       <c r="P249" s="32" t="n">
-        <v>-6.9</v>
+        <v>-0.1</v>
       </c>
       <c r="Q249" s="32" t="n">
-        <v>-9.74</v>
+        <v>-6.29</v>
       </c>
       <c r="R249" s="23" t="inlineStr">
         <is>
@@ -26520,13 +26518,13 @@
       </c>
       <c r="N250" s="2" t="n"/>
       <c r="O250" s="32" t="n">
-        <v>-24.2</v>
+        <v>-20.9</v>
       </c>
       <c r="P250" s="32" t="n">
-        <v>-11.8</v>
+        <v>-10.6</v>
       </c>
       <c r="Q250" s="32" t="n">
-        <v>-18.61</v>
+        <v>-14.42</v>
       </c>
       <c r="R250" s="23" t="inlineStr">
         <is>
@@ -26640,10 +26638,10 @@
         </is>
       </c>
       <c r="O251" s="32" t="n">
-        <v>-45.2</v>
+        <v>-34.6</v>
       </c>
       <c r="P251" s="32" t="n">
-        <v>-30</v>
+        <v>-30.2</v>
       </c>
       <c r="Q251" s="32" t="n"/>
       <c r="R251" s="23" t="inlineStr">
@@ -26738,13 +26736,13 @@
       </c>
       <c r="N252" s="2" t="n"/>
       <c r="O252" s="32" t="n">
-        <v>-24.1</v>
+        <v>-30.7</v>
       </c>
       <c r="P252" s="32" t="n">
-        <v>-6</v>
+        <v>-22.3</v>
       </c>
       <c r="Q252" s="32" t="n">
-        <v>-17.36</v>
+        <v>-26.64</v>
       </c>
       <c r="R252" s="23" t="inlineStr">
         <is>
@@ -26936,13 +26934,13 @@
       </c>
       <c r="N254" s="2" t="n"/>
       <c r="O254" s="32" t="n">
-        <v>-32.3</v>
+        <v>-37.3</v>
       </c>
       <c r="P254" s="32" t="n">
-        <v>-23.8</v>
+        <v>-25.2</v>
       </c>
       <c r="Q254" s="32" t="n">
-        <v>-25.96</v>
+        <v>-31.6</v>
       </c>
       <c r="R254" s="23" t="inlineStr">
         <is>
@@ -27510,13 +27508,13 @@
       </c>
       <c r="N260" s="2" t="n"/>
       <c r="O260" s="32" t="n">
-        <v>-29.4</v>
+        <v>-26.8</v>
       </c>
       <c r="P260" s="32" t="n">
-        <v>-12.1</v>
+        <v>-9.4</v>
       </c>
       <c r="Q260" s="32" t="n">
-        <v>-23.07</v>
+        <v>-20.11</v>
       </c>
       <c r="R260" s="23" t="inlineStr">
         <is>
@@ -27618,13 +27616,13 @@
       </c>
       <c r="N261" s="2" t="n"/>
       <c r="O261" s="32" t="n">
-        <v>-20.7</v>
+        <v>-20.4</v>
       </c>
       <c r="P261" s="32" t="n">
-        <v>-2.3</v>
+        <v>-7</v>
       </c>
       <c r="Q261" s="32" t="n">
-        <v>-10.59</v>
+        <v>-15.39</v>
       </c>
       <c r="R261" s="23" t="inlineStr">
         <is>
@@ -27730,13 +27728,13 @@
       </c>
       <c r="N262" s="2" t="n"/>
       <c r="O262" s="32" t="n">
-        <v>-17</v>
+        <v>-22.5</v>
       </c>
       <c r="P262" s="32" t="n">
-        <v>-7.7</v>
+        <v>-15.6</v>
       </c>
       <c r="Q262" s="32" t="n">
-        <v>-13.4</v>
+        <v>-19.71</v>
       </c>
       <c r="R262" s="23" t="inlineStr">
         <is>
@@ -27936,13 +27934,13 @@
       </c>
       <c r="N264" s="2" t="n"/>
       <c r="O264" s="32" t="n">
-        <v>-18.7</v>
+        <v>-19.3</v>
       </c>
       <c r="P264" s="32" t="n">
-        <v>-8.699999999999999</v>
+        <v>-11.5</v>
       </c>
       <c r="Q264" s="32" t="n">
-        <v>-13.75</v>
+        <v>-16.38</v>
       </c>
       <c r="R264" s="23" t="inlineStr">
         <is>
@@ -28056,10 +28054,10 @@
       </c>
       <c r="N265" s="2" t="n"/>
       <c r="O265" s="32" t="n">
-        <v>-49.8</v>
+        <v>-49.7</v>
       </c>
       <c r="P265" s="32" t="n">
-        <v>-37.2</v>
+        <v>-36.8</v>
       </c>
       <c r="Q265" s="32" t="n"/>
       <c r="R265" s="23" t="inlineStr">
@@ -29096,13 +29094,13 @@
       </c>
       <c r="N276" s="2" t="n"/>
       <c r="O276" s="32" t="n">
-        <v>-41.4</v>
+        <v>-39.8</v>
       </c>
       <c r="P276" s="32" t="n">
-        <v>-35</v>
+        <v>-32.5</v>
       </c>
       <c r="Q276" s="32" t="n">
-        <v>-38.99</v>
+        <v>-37.01</v>
       </c>
       <c r="R276" s="23" t="inlineStr">
         <is>

--- a/气象/For_Python_站点信息和记录.xlsx
+++ b/气象/For_Python_站点信息和记录.xlsx
@@ -790,8 +790,8 @@
     <col width="18.59765625" customWidth="1" style="8" min="25" max="25"/>
     <col width="12.59765625" customWidth="1" style="5" min="26" max="30"/>
     <col width="12.59765625" customWidth="1" style="8" min="31" max="32"/>
-    <col width="12.59765625" customWidth="1" style="5" min="33" max="231"/>
-    <col width="12.59765625" customWidth="1" style="5" min="232" max="16384"/>
+    <col width="12.59765625" customWidth="1" style="5" min="33" max="234"/>
+    <col width="12.59765625" customWidth="1" style="5" min="235" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.75" customFormat="1" customHeight="1" s="11">
@@ -1014,13 +1014,13 @@
         </is>
       </c>
       <c r="O2" s="32" t="n">
-        <v>-42.6</v>
+        <v>-42.4</v>
       </c>
       <c r="P2" s="32" t="n">
-        <v>-28.5</v>
+        <v>-30.6</v>
       </c>
       <c r="Q2" s="32" t="n">
-        <v>-37.36</v>
+        <v>-38.04</v>
       </c>
       <c r="R2" s="23" t="inlineStr">
         <is>
@@ -1124,10 +1124,10 @@
         </is>
       </c>
       <c r="O3" s="32" t="n">
-        <v>-45.8</v>
+        <v>-44.8</v>
       </c>
       <c r="P3" s="32" t="n">
-        <v>-28.1</v>
+        <v>-27.1</v>
       </c>
       <c r="Q3" s="32" t="n"/>
       <c r="R3" s="23" t="n"/>
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="O4" s="32" t="n">
-        <v>-43</v>
+        <v>-44</v>
       </c>
       <c r="P4" s="32" t="n">
-        <v>-29.2</v>
+        <v>-24</v>
       </c>
       <c r="Q4" s="32" t="n"/>
       <c r="R4" s="23" t="n"/>
@@ -1320,10 +1320,10 @@
       </c>
       <c r="N5" s="2" t="n"/>
       <c r="O5" s="32" t="n">
-        <v>-35</v>
+        <v>-39.4</v>
       </c>
       <c r="P5" s="32" t="n">
-        <v>-24.2</v>
+        <v>-27.4</v>
       </c>
       <c r="Q5" s="32" t="n"/>
       <c r="R5" s="23" t="n"/>
@@ -1420,10 +1420,10 @@
         </is>
       </c>
       <c r="O6" s="32" t="n">
-        <v>-31</v>
+        <v>-40.3</v>
       </c>
       <c r="P6" s="32" t="n">
-        <v>-15.6</v>
+        <v>-28.2</v>
       </c>
       <c r="Q6" s="32" t="n"/>
       <c r="R6" s="23" t="n"/>
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="O7" s="32" t="n">
-        <v>-38.1</v>
+        <v>-38.7</v>
       </c>
       <c r="P7" s="32" t="n">
-        <v>-27.8</v>
+        <v>-28.6</v>
       </c>
       <c r="Q7" s="32" t="n"/>
       <c r="R7" s="23" t="n"/>
@@ -1628,13 +1628,13 @@
       </c>
       <c r="N8" s="2" t="n"/>
       <c r="O8" s="32" t="n">
-        <v>-38.5</v>
+        <v>-39</v>
       </c>
       <c r="P8" s="32" t="n">
-        <v>-23.7</v>
+        <v>-25.7</v>
       </c>
       <c r="Q8" s="32" t="n">
-        <v>-32.42</v>
+        <v>-33.54</v>
       </c>
       <c r="R8" s="23" t="inlineStr">
         <is>
@@ -1740,13 +1740,13 @@
       </c>
       <c r="N9" s="2" t="n"/>
       <c r="O9" s="32" t="n">
-        <v>-37.5</v>
+        <v>-37.9</v>
       </c>
       <c r="P9" s="32" t="n">
-        <v>-21.4</v>
+        <v>-23.5</v>
       </c>
       <c r="Q9" s="32" t="n">
-        <v>-32.27</v>
+        <v>-32.3</v>
       </c>
       <c r="R9" s="23" t="inlineStr">
         <is>
@@ -1856,13 +1856,13 @@
       </c>
       <c r="N10" s="3" t="n"/>
       <c r="O10" s="32" t="n">
-        <v>-44.2</v>
+        <v>-42.9</v>
       </c>
       <c r="P10" s="32" t="n">
-        <v>-26.6</v>
+        <v>-26.9</v>
       </c>
       <c r="Q10" s="32" t="n">
-        <v>-36.52</v>
+        <v>-36.2</v>
       </c>
       <c r="R10" s="23" t="inlineStr">
         <is>
@@ -1972,13 +1972,13 @@
         </is>
       </c>
       <c r="O11" s="32" t="n">
-        <v>-30.9</v>
+        <v>-40</v>
       </c>
       <c r="P11" s="32" t="n">
-        <v>-18.1</v>
+        <v>-19.3</v>
       </c>
       <c r="Q11" s="32" t="n">
-        <v>-25.86</v>
+        <v>-32.1</v>
       </c>
       <c r="R11" s="23" t="inlineStr">
         <is>
@@ -2084,13 +2084,13 @@
       </c>
       <c r="N12" s="2" t="n"/>
       <c r="O12" s="32" t="n">
-        <v>-39.4</v>
+        <v>-40.1</v>
       </c>
       <c r="P12" s="32" t="n">
-        <v>-24.1</v>
+        <v>-25.5</v>
       </c>
       <c r="Q12" s="32" t="n">
-        <v>-31.55</v>
+        <v>-34.4</v>
       </c>
       <c r="R12" s="23" t="inlineStr">
         <is>
@@ -2200,13 +2200,13 @@
         </is>
       </c>
       <c r="O13" s="32" t="n">
-        <v>-39.5</v>
+        <v>-39.9</v>
       </c>
       <c r="P13" s="32" t="n">
-        <v>-27.4</v>
+        <v>-28.7</v>
       </c>
       <c r="Q13" s="32" t="n">
-        <v>-34.46</v>
+        <v>-35.5</v>
       </c>
       <c r="R13" s="23" t="inlineStr">
         <is>
@@ -2316,13 +2316,13 @@
       </c>
       <c r="N14" s="2" t="n"/>
       <c r="O14" s="32" t="n">
-        <v>-27</v>
+        <v>-27.4</v>
       </c>
       <c r="P14" s="32" t="n">
-        <v>-18.6</v>
+        <v>-16.4</v>
       </c>
       <c r="Q14" s="32" t="n">
-        <v>-23.12</v>
+        <v>-22.59</v>
       </c>
       <c r="R14" s="23" t="inlineStr">
         <is>
@@ -2518,13 +2518,13 @@
       </c>
       <c r="N16" s="2" t="n"/>
       <c r="O16" s="32" t="n">
-        <v>-36.5</v>
+        <v>-35.4</v>
       </c>
       <c r="P16" s="32" t="n">
-        <v>-19</v>
+        <v>-14.5</v>
       </c>
       <c r="Q16" s="32" t="n">
-        <v>-25.95</v>
+        <v>-26.66</v>
       </c>
       <c r="R16" s="23" t="inlineStr">
         <is>
@@ -7826,13 +7826,13 @@
       </c>
       <c r="N75" s="2" t="n"/>
       <c r="O75" s="32" t="n">
-        <v>-30.5</v>
+        <v>-36.3</v>
       </c>
       <c r="P75" s="32" t="n">
-        <v>-15</v>
+        <v>-21.6</v>
       </c>
       <c r="Q75" s="32" t="n">
-        <v>-24.74</v>
+        <v>-28.61</v>
       </c>
       <c r="R75" s="23" t="inlineStr">
         <is>
@@ -7938,13 +7938,13 @@
       </c>
       <c r="N76" s="2" t="n"/>
       <c r="O76" s="32" t="n">
-        <v>-37.7</v>
+        <v>-38.5</v>
       </c>
       <c r="P76" s="32" t="n">
-        <v>-22.6</v>
+        <v>-24.8</v>
       </c>
       <c r="Q76" s="32" t="n">
-        <v>-32.04</v>
+        <v>-32.25</v>
       </c>
       <c r="R76" s="23" t="inlineStr">
         <is>
@@ -8054,13 +8054,13 @@
         </is>
       </c>
       <c r="O77" s="32" t="n">
-        <v>-37.7</v>
+        <v>-33.3</v>
       </c>
       <c r="P77" s="32" t="n">
-        <v>-21.8</v>
+        <v>-20.9</v>
       </c>
       <c r="Q77" s="32" t="n">
-        <v>-30.7</v>
+        <v>-28.62</v>
       </c>
       <c r="R77" s="23" t="inlineStr">
         <is>
@@ -8170,13 +8170,13 @@
       </c>
       <c r="N78" s="2" t="n"/>
       <c r="O78" s="32" t="n">
-        <v>-36.3</v>
+        <v>-29.6</v>
       </c>
       <c r="P78" s="32" t="n">
-        <v>-20.8</v>
+        <v>-19.2</v>
       </c>
       <c r="Q78" s="32" t="n">
-        <v>-28.71</v>
+        <v>-24.5</v>
       </c>
       <c r="R78" s="23" t="inlineStr">
         <is>
@@ -8286,13 +8286,13 @@
         </is>
       </c>
       <c r="O79" s="32" t="n">
-        <v>-34.9</v>
+        <v>-25</v>
       </c>
       <c r="P79" s="32" t="n">
-        <v>-17.1</v>
+        <v>-17.4</v>
       </c>
       <c r="Q79" s="32" t="n">
-        <v>-26.05</v>
+        <v>-20.59</v>
       </c>
       <c r="R79" s="23" t="inlineStr">
         <is>
@@ -8401,10 +8401,10 @@
         <v>-29.9</v>
       </c>
       <c r="P80" s="32" t="n">
-        <v>-24.2</v>
+        <v>-18.4</v>
       </c>
       <c r="Q80" s="32" t="n">
-        <v>-27.14</v>
+        <v>-24.96</v>
       </c>
       <c r="R80" s="23" t="inlineStr">
         <is>
@@ -8514,13 +8514,13 @@
         </is>
       </c>
       <c r="O81" s="32" t="n">
-        <v>-44.4</v>
+        <v>-45</v>
       </c>
       <c r="P81" s="32" t="n">
-        <v>-25.1</v>
+        <v>-22.4</v>
       </c>
       <c r="Q81" s="32" t="n">
-        <v>-34.15</v>
+        <v>-35.16</v>
       </c>
       <c r="R81" s="23" t="inlineStr">
         <is>
@@ -8635,13 +8635,13 @@
         </is>
       </c>
       <c r="O82" s="32" t="n">
-        <v>-43.9</v>
+        <v>-44.9</v>
       </c>
       <c r="P82" s="32" t="n">
-        <v>-26.2</v>
+        <v>-21</v>
       </c>
       <c r="Q82" s="32" t="n">
-        <v>-34.1</v>
+        <v>-36.29</v>
       </c>
       <c r="R82" s="23" t="inlineStr">
         <is>
@@ -8751,13 +8751,13 @@
       </c>
       <c r="N83" s="2" t="n"/>
       <c r="O83" s="32" t="n">
-        <v>-31.3</v>
+        <v>-35.6</v>
       </c>
       <c r="P83" s="32" t="n">
-        <v>-22.5</v>
+        <v>-25.7</v>
       </c>
       <c r="Q83" s="32" t="n">
-        <v>-25.44</v>
+        <v>-31.36</v>
       </c>
       <c r="R83" s="23" t="inlineStr">
         <is>
@@ -8871,13 +8871,13 @@
         </is>
       </c>
       <c r="O84" s="32" t="n">
-        <v>-41.4</v>
+        <v>-40.2</v>
       </c>
       <c r="P84" s="32" t="n">
-        <v>-26.2</v>
+        <v>-27.5</v>
       </c>
       <c r="Q84" s="32" t="n">
-        <v>-34.6</v>
+        <v>-34.86</v>
       </c>
       <c r="R84" s="23" t="inlineStr">
         <is>
@@ -8991,13 +8991,13 @@
         </is>
       </c>
       <c r="O85" s="32" t="n">
-        <v>-41.3</v>
+        <v>-41.5</v>
       </c>
       <c r="P85" s="32" t="n">
-        <v>-23.4</v>
+        <v>-25.9</v>
       </c>
       <c r="Q85" s="32" t="n">
-        <v>-33.55</v>
+        <v>-34.74</v>
       </c>
       <c r="R85" s="23" t="inlineStr">
         <is>
@@ -9103,13 +9103,13 @@
       </c>
       <c r="N86" s="2" t="n"/>
       <c r="O86" s="32" t="n">
-        <v>-37.2</v>
+        <v>-38</v>
       </c>
       <c r="P86" s="32" t="n">
-        <v>-24.7</v>
+        <v>-25.9</v>
       </c>
       <c r="Q86" s="32" t="n">
-        <v>-31.62</v>
+        <v>-32.92</v>
       </c>
       <c r="R86" s="23" t="inlineStr">
         <is>
@@ -9227,13 +9227,13 @@
         </is>
       </c>
       <c r="O87" s="32" t="n">
-        <v>-38.7</v>
+        <v>-40.1</v>
       </c>
       <c r="P87" s="32" t="n">
-        <v>-23.5</v>
+        <v>-25.6</v>
       </c>
       <c r="Q87" s="32" t="n">
-        <v>-32.34</v>
+        <v>-33.59</v>
       </c>
       <c r="R87" s="23" t="inlineStr">
         <is>
@@ -9339,13 +9339,13 @@
       </c>
       <c r="N88" s="2" t="n"/>
       <c r="O88" s="32" t="n">
-        <v>-28.9</v>
+        <v>-36.1</v>
       </c>
       <c r="P88" s="32" t="n">
-        <v>-19.1</v>
+        <v>-22.1</v>
       </c>
       <c r="Q88" s="32" t="n">
-        <v>-24.51</v>
+        <v>-30.53</v>
       </c>
       <c r="R88" s="23" t="inlineStr">
         <is>
@@ -9557,13 +9557,13 @@
         </is>
       </c>
       <c r="O90" s="32" t="n">
-        <v>-22.4</v>
+        <v>-17.8</v>
       </c>
       <c r="P90" s="32" t="n">
-        <v>-9.5</v>
+        <v>-3.8</v>
       </c>
       <c r="Q90" s="32" t="n">
-        <v>-15.15</v>
+        <v>-10.51</v>
       </c>
       <c r="R90" s="23" t="inlineStr">
         <is>
@@ -9665,13 +9665,13 @@
       </c>
       <c r="N91" s="2" t="n"/>
       <c r="O91" s="32" t="n">
-        <v>-22.7</v>
+        <v>-33.5</v>
       </c>
       <c r="P91" s="32" t="n">
-        <v>-10.4</v>
+        <v>-6.9</v>
       </c>
       <c r="Q91" s="32" t="n">
-        <v>-19.24</v>
+        <v>-20.96</v>
       </c>
       <c r="R91" s="23" t="inlineStr">
         <is>
@@ -9773,13 +9773,13 @@
       </c>
       <c r="N92" s="2" t="n"/>
       <c r="O92" s="32" t="n">
-        <v>-20.7</v>
+        <v>-29.2</v>
       </c>
       <c r="P92" s="32" t="n">
-        <v>-5</v>
+        <v>-20</v>
       </c>
       <c r="Q92" s="32" t="n">
-        <v>-9.720000000000001</v>
+        <v>-25.49</v>
       </c>
       <c r="R92" s="23" t="inlineStr">
         <is>
@@ -9885,13 +9885,13 @@
       </c>
       <c r="N93" s="2" t="n"/>
       <c r="O93" s="32" t="n">
+        <v>-18.7</v>
+      </c>
+      <c r="P93" s="32" t="n">
         <v>-12.9</v>
       </c>
-      <c r="P93" s="32" t="n">
-        <v>-1.5</v>
-      </c>
       <c r="Q93" s="32" t="n">
-        <v>-6.85</v>
+        <v>-16.21</v>
       </c>
       <c r="R93" s="23" t="inlineStr">
         <is>
@@ -10005,10 +10005,10 @@
         </is>
       </c>
       <c r="O94" s="32" t="n">
-        <v>-16</v>
+        <v>-29.6</v>
       </c>
       <c r="P94" s="32" t="n">
-        <v>-5.8</v>
+        <v>-15.9</v>
       </c>
       <c r="Q94" s="32" t="n"/>
       <c r="R94" s="23" t="inlineStr">
@@ -10123,13 +10123,13 @@
       </c>
       <c r="N95" s="2" t="n"/>
       <c r="O95" s="32" t="n">
+        <v>-23.2</v>
+      </c>
+      <c r="P95" s="32" t="n">
         <v>-16.5</v>
       </c>
-      <c r="P95" s="32" t="n">
-        <v>-7.7</v>
-      </c>
       <c r="Q95" s="32" t="n">
-        <v>-12.26</v>
+        <v>-19.91</v>
       </c>
       <c r="R95" s="23" t="inlineStr">
         <is>
@@ -10251,10 +10251,10 @@
         </is>
       </c>
       <c r="O96" s="32" t="n">
+        <v>-24.2</v>
+      </c>
+      <c r="P96" s="32" t="n">
         <v>-15.7</v>
-      </c>
-      <c r="P96" s="32" t="n">
-        <v>-2.6</v>
       </c>
       <c r="Q96" s="32" t="n"/>
       <c r="R96" s="23" t="inlineStr">
@@ -10369,13 +10369,13 @@
       </c>
       <c r="N97" s="2" t="n"/>
       <c r="O97" s="32" t="n">
-        <v>-19.4</v>
+        <v>-25.8</v>
       </c>
       <c r="P97" s="32" t="n">
-        <v>-12</v>
+        <v>-18.5</v>
       </c>
       <c r="Q97" s="32" t="n">
-        <v>-14.37</v>
+        <v>-21.7</v>
       </c>
       <c r="R97" s="23" t="inlineStr">
         <is>
@@ -10485,10 +10485,10 @@
       </c>
       <c r="N98" s="2" t="n"/>
       <c r="O98" s="32" t="n">
-        <v>-35</v>
+        <v>-31.4</v>
       </c>
       <c r="P98" s="32" t="n">
-        <v>-19.7</v>
+        <v>-21.2</v>
       </c>
       <c r="Q98" s="32" t="n"/>
       <c r="R98" s="23" t="inlineStr">
@@ -10603,13 +10603,13 @@
       </c>
       <c r="N99" s="2" t="n"/>
       <c r="O99" s="32" t="n">
-        <v>-37.1</v>
+        <v>-26.1</v>
       </c>
       <c r="P99" s="32" t="n">
-        <v>-20.2</v>
+        <v>-19.3</v>
       </c>
       <c r="Q99" s="32" t="n">
-        <v>-28.08</v>
+        <v>-23.29</v>
       </c>
       <c r="R99" s="23" t="inlineStr">
         <is>
@@ -10820,12 +10820,8 @@
         </is>
       </c>
       <c r="N101" s="2" t="n"/>
-      <c r="O101" s="32" t="n">
-        <v>-38.3</v>
-      </c>
-      <c r="P101" s="32" t="n">
-        <v>-23.6</v>
-      </c>
+      <c r="O101" s="32" t="n"/>
+      <c r="P101" s="32" t="n"/>
       <c r="Q101" s="32" t="n"/>
       <c r="R101" s="23" t="inlineStr">
         <is>
@@ -10939,13 +10935,13 @@
       </c>
       <c r="N102" s="2" t="n"/>
       <c r="O102" s="32" t="n">
-        <v>-39.5</v>
+        <v>-37.8</v>
       </c>
       <c r="P102" s="32" t="n">
-        <v>-23.4</v>
+        <v>-17.7</v>
       </c>
       <c r="Q102" s="32" t="n">
-        <v>-31.41</v>
+        <v>-27.34</v>
       </c>
       <c r="R102" s="23" t="inlineStr">
         <is>
@@ -11055,10 +11051,10 @@
       </c>
       <c r="N103" s="2" t="n"/>
       <c r="O103" s="32" t="n">
-        <v>-36.5</v>
+        <v>-31.3</v>
       </c>
       <c r="P103" s="32" t="n">
-        <v>-22.4</v>
+        <v>-16</v>
       </c>
       <c r="Q103" s="32" t="n"/>
       <c r="R103" s="23" t="inlineStr">
@@ -11165,10 +11161,10 @@
       </c>
       <c r="N104" s="2" t="n"/>
       <c r="O104" s="32" t="n">
-        <v>-28.9</v>
+        <v>-36.9</v>
       </c>
       <c r="P104" s="32" t="n">
-        <v>-21.7</v>
+        <v>-20.1</v>
       </c>
       <c r="Q104" s="32" t="n"/>
       <c r="R104" s="23" t="inlineStr">
@@ -11287,13 +11283,13 @@
         </is>
       </c>
       <c r="O105" s="32" t="n">
-        <v>-33.8</v>
+        <v>-35.2</v>
       </c>
       <c r="P105" s="32" t="n">
         <v>-21.2</v>
       </c>
       <c r="Q105" s="32" t="n">
-        <v>-26.27</v>
+        <v>-28.35</v>
       </c>
       <c r="R105" s="23" t="inlineStr">
         <is>
@@ -11407,10 +11403,10 @@
         </is>
       </c>
       <c r="O106" s="32" t="n">
-        <v>-30</v>
+        <v>-30.2</v>
       </c>
       <c r="P106" s="32" t="n">
-        <v>-22.1</v>
+        <v>-24.2</v>
       </c>
       <c r="Q106" s="32" t="n"/>
       <c r="R106" s="23" t="inlineStr">
@@ -11631,13 +11627,13 @@
       </c>
       <c r="N108" s="2" t="n"/>
       <c r="O108" s="32" t="n">
-        <v>-30.7</v>
+        <v>-34.8</v>
       </c>
       <c r="P108" s="32" t="n">
-        <v>-22.6</v>
+        <v>-25.8</v>
       </c>
       <c r="Q108" s="32" t="n">
-        <v>-26.84</v>
+        <v>-30.79</v>
       </c>
       <c r="R108" s="23" t="inlineStr">
         <is>
@@ -11844,8 +11840,12 @@
         </is>
       </c>
       <c r="N110" s="2" t="n"/>
-      <c r="O110" s="32" t="n"/>
-      <c r="P110" s="32" t="n"/>
+      <c r="O110" s="32" t="n">
+        <v>-33</v>
+      </c>
+      <c r="P110" s="32" t="n">
+        <v>-25.9</v>
+      </c>
       <c r="Q110" s="32" t="n"/>
       <c r="R110" s="23" t="inlineStr">
         <is>
@@ -11959,13 +11959,13 @@
       </c>
       <c r="N111" s="2" t="n"/>
       <c r="O111" s="32" t="n">
-        <v>-29.5</v>
+        <v>-38.4</v>
       </c>
       <c r="P111" s="32" t="n">
-        <v>-19</v>
+        <v>-25.7</v>
       </c>
       <c r="Q111" s="32" t="n">
-        <v>-27.19</v>
+        <v>-31.62</v>
       </c>
       <c r="R111" s="23" t="inlineStr">
         <is>
@@ -12071,10 +12071,10 @@
       </c>
       <c r="N112" s="2" t="n"/>
       <c r="O112" s="32" t="n">
-        <v>-22.2</v>
+        <v>-26.3</v>
       </c>
       <c r="P112" s="32" t="n">
-        <v>-5.1</v>
+        <v>-14.6</v>
       </c>
       <c r="Q112" s="32" t="n"/>
       <c r="R112" s="23" t="inlineStr">
@@ -12177,10 +12177,10 @@
       </c>
       <c r="N113" s="2" t="n"/>
       <c r="O113" s="32" t="n">
-        <v>-18.1</v>
+        <v>-24</v>
       </c>
       <c r="P113" s="32" t="n">
-        <v>-6.8</v>
+        <v>-2.2</v>
       </c>
       <c r="Q113" s="32" t="n"/>
       <c r="R113" s="23" t="inlineStr">
@@ -12291,10 +12291,10 @@
         </is>
       </c>
       <c r="O114" s="32" t="n">
-        <v>-17.7</v>
+        <v>-26.2</v>
       </c>
       <c r="P114" s="32" t="n">
-        <v>-5</v>
+        <v>-2.7</v>
       </c>
       <c r="Q114" s="32" t="n"/>
       <c r="R114" s="23" t="inlineStr">
@@ -12413,10 +12413,10 @@
         </is>
       </c>
       <c r="O115" s="32" t="n">
-        <v>-22.1</v>
+        <v>-22.2</v>
       </c>
       <c r="P115" s="32" t="n">
-        <v>-10.9</v>
+        <v>-5.2</v>
       </c>
       <c r="Q115" s="32" t="n"/>
       <c r="R115" s="23" t="inlineStr">
@@ -12531,13 +12531,13 @@
       </c>
       <c r="N116" s="2" t="n"/>
       <c r="O116" s="32" t="n">
-        <v>-10.3</v>
+        <v>-15.1</v>
       </c>
       <c r="P116" s="32" t="n">
-        <v>-1.5</v>
+        <v>-6.3</v>
       </c>
       <c r="Q116" s="32" t="n">
-        <v>-6.44</v>
+        <v>-12.19</v>
       </c>
       <c r="R116" s="23" t="inlineStr">
         <is>
@@ -12643,10 +12643,10 @@
       </c>
       <c r="N117" s="2" t="n"/>
       <c r="O117" s="32" t="n">
-        <v>-14.1</v>
+        <v>-18.3</v>
       </c>
       <c r="P117" s="32" t="n">
-        <v>-3.9</v>
+        <v>-9.6</v>
       </c>
       <c r="Q117" s="32" t="n"/>
       <c r="R117" s="23" t="inlineStr">
@@ -12757,10 +12757,10 @@
         </is>
       </c>
       <c r="O118" s="32" t="n">
-        <v>-21.7</v>
+        <v>-28.8</v>
       </c>
       <c r="P118" s="32" t="n">
-        <v>-5.8</v>
+        <v>-10</v>
       </c>
       <c r="Q118" s="32" t="n"/>
       <c r="R118" s="23" t="inlineStr">
@@ -12875,10 +12875,10 @@
       </c>
       <c r="N119" s="2" t="n"/>
       <c r="O119" s="32" t="n">
-        <v>-14.2</v>
+        <v>-17.6</v>
       </c>
       <c r="P119" s="32" t="n">
-        <v>-7</v>
+        <v>1.1</v>
       </c>
       <c r="Q119" s="32" t="n">
         <v>-9.56</v>
@@ -13105,13 +13105,13 @@
       </c>
       <c r="N121" s="2" t="n"/>
       <c r="O121" s="32" t="n">
-        <v>-6.2</v>
+        <v>-9.6</v>
       </c>
       <c r="P121" s="32" t="n">
-        <v>-0.6</v>
+        <v>-4.8</v>
       </c>
       <c r="Q121" s="32" t="n">
-        <v>-4.42</v>
+        <v>-7.99</v>
       </c>
       <c r="R121" s="23" t="inlineStr">
         <is>
@@ -13229,10 +13229,10 @@
       </c>
       <c r="N122" s="2" t="n"/>
       <c r="O122" s="32" t="n">
-        <v>-27.2</v>
+        <v>-24.9</v>
       </c>
       <c r="P122" s="32" t="n">
-        <v>-6.5</v>
+        <v>-17.1</v>
       </c>
       <c r="Q122" s="32" t="n"/>
       <c r="R122" s="23" t="inlineStr">
@@ -13457,13 +13457,13 @@
       </c>
       <c r="N124" s="2" t="n"/>
       <c r="O124" s="32" t="n">
-        <v>-12.6</v>
+        <v>-14.6</v>
       </c>
       <c r="P124" s="32" t="n">
-        <v>1.1</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="Q124" s="32" t="n">
-        <v>-8.51</v>
+        <v>-12.12</v>
       </c>
       <c r="R124" s="23" t="inlineStr">
         <is>
@@ -13581,13 +13581,13 @@
       </c>
       <c r="N125" s="2" t="n"/>
       <c r="O125" s="32" t="n">
+        <v>-9</v>
+      </c>
+      <c r="P125" s="32" t="n">
         <v>-1.4</v>
       </c>
-      <c r="P125" s="32" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="Q125" s="32" t="n">
-        <v>2.31</v>
+        <v>-6.27</v>
       </c>
       <c r="R125" s="23" t="inlineStr">
         <is>
@@ -13681,10 +13681,10 @@
       </c>
       <c r="N126" s="2" t="n"/>
       <c r="O126" s="32" t="n">
-        <v>-2.8</v>
+        <v>-7</v>
       </c>
       <c r="P126" s="32" t="n">
-        <v>6.1</v>
+        <v>-1.7</v>
       </c>
       <c r="Q126" s="32" t="n"/>
       <c r="R126" s="23" t="inlineStr">
@@ -13791,13 +13791,13 @@
       </c>
       <c r="N127" s="2" t="n"/>
       <c r="O127" s="32" t="n">
-        <v>-4.1</v>
+        <v>-5.6</v>
       </c>
       <c r="P127" s="32" t="n">
-        <v>4.1</v>
+        <v>-0.3</v>
       </c>
       <c r="Q127" s="32" t="n">
-        <v>-0.99</v>
+        <v>-3.31</v>
       </c>
       <c r="R127" s="23" t="inlineStr">
         <is>
@@ -13911,10 +13911,10 @@
       </c>
       <c r="N128" s="2" t="n"/>
       <c r="O128" s="32" t="n">
-        <v>1.9</v>
+        <v>-4.2</v>
       </c>
       <c r="P128" s="32" t="n">
-        <v>11.8</v>
+        <v>1.8</v>
       </c>
       <c r="Q128" s="32" t="n"/>
       <c r="R128" s="23" t="inlineStr">
@@ -14021,13 +14021,13 @@
       </c>
       <c r="N129" s="2" t="n"/>
       <c r="O129" s="32" t="n">
-        <v>-5.9</v>
+        <v>-6.7</v>
       </c>
       <c r="P129" s="32" t="n">
-        <v>8</v>
+        <v>2.9</v>
       </c>
       <c r="Q129" s="32" t="n">
-        <v>0.9</v>
+        <v>-4.85</v>
       </c>
       <c r="R129" s="23" t="inlineStr">
         <is>
@@ -14141,13 +14141,13 @@
       </c>
       <c r="N130" s="2" t="n"/>
       <c r="O130" s="32" t="n">
-        <v>-5.5</v>
+        <v>-7.1</v>
       </c>
       <c r="P130" s="32" t="n">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="Q130" s="32" t="n">
-        <v>-0.25</v>
+        <v>-1.26</v>
       </c>
       <c r="R130" s="23" t="inlineStr">
         <is>
@@ -14261,13 +14261,13 @@
       </c>
       <c r="N131" s="2" t="n"/>
       <c r="O131" s="32" t="n">
+        <v>-5.3</v>
+      </c>
+      <c r="P131" s="32" t="n">
         <v>-0.6</v>
       </c>
-      <c r="P131" s="32" t="n">
-        <v>10.8</v>
-      </c>
       <c r="Q131" s="32" t="n">
-        <v>5.4</v>
+        <v>-3.14</v>
       </c>
       <c r="R131" s="23" t="inlineStr">
         <is>
@@ -14377,13 +14377,13 @@
       </c>
       <c r="N132" s="2" t="n"/>
       <c r="O132" s="32" t="n">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="P132" s="32" t="n">
-        <v>14.3</v>
+        <v>10.1</v>
       </c>
       <c r="Q132" s="32" t="n">
-        <v>8.51</v>
+        <v>1.14</v>
       </c>
       <c r="R132" s="23" t="inlineStr">
         <is>
@@ -14493,13 +14493,13 @@
       </c>
       <c r="N133" s="2" t="n"/>
       <c r="O133" s="32" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="P133" s="32" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="Q133" s="32" t="n">
-        <v>6.27</v>
+        <v>6.04</v>
       </c>
       <c r="R133" s="23" t="inlineStr">
         <is>
@@ -14715,13 +14715,13 @@
       </c>
       <c r="N135" s="2" t="n"/>
       <c r="O135" s="32" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="P135" s="32" t="n">
-        <v>11.5</v>
+        <v>8.9</v>
       </c>
       <c r="Q135" s="32" t="n">
-        <v>9.73</v>
+        <v>8.5</v>
       </c>
       <c r="R135" s="23" t="inlineStr">
         <is>
@@ -14831,13 +14831,13 @@
       </c>
       <c r="N136" s="2" t="n"/>
       <c r="O136" s="32" t="n">
-        <v>11.5</v>
+        <v>5.8</v>
       </c>
       <c r="P136" s="32" t="n">
-        <v>14.7</v>
+        <v>12</v>
       </c>
       <c r="Q136" s="32" t="n">
-        <v>12.56</v>
+        <v>9.68</v>
       </c>
       <c r="R136" s="23" t="inlineStr">
         <is>
@@ -14947,13 +14947,13 @@
       </c>
       <c r="N137" s="2" t="n"/>
       <c r="O137" s="32" t="n">
-        <v>6.2</v>
+        <v>4.5</v>
       </c>
       <c r="P137" s="32" t="n">
-        <v>11.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Q137" s="32" t="n">
-        <v>8.960000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="R137" s="23" t="inlineStr">
         <is>
@@ -15063,10 +15063,10 @@
       </c>
       <c r="N138" s="2" t="n"/>
       <c r="O138" s="32" t="n">
-        <v>8.6</v>
+        <v>0.4</v>
       </c>
       <c r="P138" s="32" t="n">
-        <v>16.2</v>
+        <v>12.4</v>
       </c>
       <c r="Q138" s="32" t="n"/>
       <c r="R138" s="23" t="inlineStr">
@@ -15177,13 +15177,13 @@
       </c>
       <c r="N139" s="2" t="n"/>
       <c r="O139" s="32" t="n">
-        <v>8.300000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="P139" s="32" t="n">
-        <v>16</v>
+        <v>12.8</v>
       </c>
       <c r="Q139" s="32" t="n">
-        <v>12</v>
+        <v>4.79</v>
       </c>
       <c r="R139" s="23" t="inlineStr">
         <is>
@@ -15293,13 +15293,13 @@
       </c>
       <c r="N140" s="2" t="n"/>
       <c r="O140" s="32" t="n">
-        <v>9.4</v>
+        <v>2.1</v>
       </c>
       <c r="P140" s="32" t="n">
-        <v>14</v>
+        <v>10.4</v>
       </c>
       <c r="Q140" s="32" t="n">
-        <v>11.2</v>
+        <v>6.84</v>
       </c>
       <c r="R140" s="23" t="inlineStr">
         <is>
@@ -15511,13 +15511,13 @@
       </c>
       <c r="N142" s="2" t="n"/>
       <c r="O142" s="32" t="n">
-        <v>13.9</v>
+        <v>12.8</v>
       </c>
       <c r="P142" s="32" t="n">
-        <v>26.8</v>
+        <v>20.5</v>
       </c>
       <c r="Q142" s="32" t="n">
-        <v>18.6</v>
+        <v>15.69</v>
       </c>
       <c r="R142" s="23" t="inlineStr">
         <is>
@@ -15627,13 +15627,13 @@
       </c>
       <c r="N143" s="2" t="n"/>
       <c r="O143" s="32" t="n">
-        <v>13.6</v>
+        <v>15.3</v>
       </c>
       <c r="P143" s="32" t="n">
-        <v>27</v>
+        <v>28.8</v>
       </c>
       <c r="Q143" s="32" t="n">
-        <v>18.89</v>
+        <v>20.39</v>
       </c>
       <c r="R143" s="23" t="inlineStr">
         <is>
@@ -15943,13 +15943,13 @@
       </c>
       <c r="N146" s="2" t="n"/>
       <c r="O146" s="32" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="P146" s="32" t="n">
-        <v>25.7</v>
+        <v>27.1</v>
       </c>
       <c r="Q146" s="32" t="n">
-        <v>22.42</v>
+        <v>22.99</v>
       </c>
       <c r="R146" s="23" t="inlineStr">
         <is>
@@ -16051,13 +16051,13 @@
       </c>
       <c r="N147" s="2" t="n"/>
       <c r="O147" s="32" t="n">
-        <v>16.3</v>
+        <v>17.6</v>
       </c>
       <c r="P147" s="32" t="n">
-        <v>22.5</v>
+        <v>27.2</v>
       </c>
       <c r="Q147" s="32" t="n">
-        <v>19.06</v>
+        <v>21.4</v>
       </c>
       <c r="R147" s="23" t="inlineStr">
         <is>
@@ -16269,13 +16269,13 @@
       </c>
       <c r="N149" s="2" t="n"/>
       <c r="O149" s="32" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="P149" s="32" t="n">
-        <v>19.8</v>
+        <v>19.5</v>
       </c>
       <c r="Q149" s="32" t="n">
-        <v>13.99</v>
+        <v>12.87</v>
       </c>
       <c r="R149" s="23" t="inlineStr">
         <is>
@@ -16385,13 +16385,13 @@
       </c>
       <c r="N150" s="2" t="n"/>
       <c r="O150" s="32" t="n">
-        <v>6.2</v>
+        <v>6.9</v>
       </c>
       <c r="P150" s="32" t="n">
-        <v>9.699999999999999</v>
+        <v>14.7</v>
       </c>
       <c r="Q150" s="32" t="n">
-        <v>7.46</v>
+        <v>9.44</v>
       </c>
       <c r="R150" s="23" t="inlineStr">
         <is>
@@ -16501,13 +16501,13 @@
       </c>
       <c r="N151" s="2" t="n"/>
       <c r="O151" s="32" t="n">
-        <v>9.699999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="P151" s="32" t="n">
-        <v>15.2</v>
+        <v>18.3</v>
       </c>
       <c r="Q151" s="32" t="n">
-        <v>12</v>
+        <v>13.71</v>
       </c>
       <c r="R151" s="23" t="inlineStr">
         <is>
@@ -16707,13 +16707,13 @@
       </c>
       <c r="N153" s="2" t="n"/>
       <c r="O153" s="32" t="n">
-        <v>0.9</v>
+        <v>4.5</v>
       </c>
       <c r="P153" s="32" t="n">
-        <v>15.6</v>
+        <v>17.2</v>
       </c>
       <c r="Q153" s="32" t="n">
-        <v>8</v>
+        <v>11.36</v>
       </c>
       <c r="R153" s="23" t="inlineStr">
         <is>
@@ -16827,13 +16827,13 @@
       </c>
       <c r="N154" s="2" t="n"/>
       <c r="O154" s="32" t="n">
-        <v>1.4</v>
+        <v>-6.3</v>
       </c>
       <c r="P154" s="32" t="n">
-        <v>8.9</v>
+        <v>10</v>
       </c>
       <c r="Q154" s="32" t="n">
-        <v>5.17</v>
+        <v>0.86</v>
       </c>
       <c r="R154" s="23" t="inlineStr">
         <is>
@@ -17029,10 +17029,10 @@
       </c>
       <c r="N156" s="2" t="n"/>
       <c r="O156" s="32" t="n">
-        <v>-14.9</v>
+        <v>-16.8</v>
       </c>
       <c r="P156" s="32" t="n">
-        <v>0</v>
+        <v>-10.5</v>
       </c>
       <c r="Q156" s="32" t="n"/>
       <c r="R156" s="23" t="inlineStr">
@@ -17135,10 +17135,10 @@
       </c>
       <c r="N157" s="2" t="n"/>
       <c r="O157" s="32" t="n">
-        <v>9.800000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="P157" s="32" t="n">
-        <v>14.5</v>
+        <v>12.7</v>
       </c>
       <c r="Q157" s="32" t="n"/>
       <c r="R157" s="23" t="inlineStr">
@@ -17519,10 +17519,10 @@
       </c>
       <c r="N161" s="2" t="n"/>
       <c r="O161" s="32" t="n">
-        <v>-4.3</v>
+        <v>-3</v>
       </c>
       <c r="P161" s="32" t="n">
-        <v>9.199999999999999</v>
+        <v>7.1</v>
       </c>
       <c r="Q161" s="32" t="n"/>
       <c r="R161" s="23" t="inlineStr">
@@ -17742,12 +17742,8 @@
           <t>▼</t>
         </is>
       </c>
-      <c r="O163" s="32" t="n">
-        <v>-44</v>
-      </c>
-      <c r="P163" s="32" t="n">
-        <v>-24</v>
-      </c>
+      <c r="O163" s="32" t="n"/>
+      <c r="P163" s="32" t="n"/>
       <c r="Q163" s="32" t="n"/>
       <c r="R163" s="23" t="inlineStr">
         <is>
@@ -17963,10 +17959,10 @@
         </is>
       </c>
       <c r="O165" s="32" t="n">
-        <v>-41.9</v>
+        <v>-35.6</v>
       </c>
       <c r="P165" s="32" t="n">
-        <v>-21.6</v>
+        <v>-25.5</v>
       </c>
       <c r="Q165" s="32" t="n"/>
       <c r="R165" s="23" t="inlineStr">
@@ -18284,8 +18280,12 @@
           <t>❄️</t>
         </is>
       </c>
-      <c r="O168" s="32" t="n"/>
-      <c r="P168" s="32" t="n"/>
+      <c r="O168" s="32" t="n">
+        <v>-29.4</v>
+      </c>
+      <c r="P168" s="32" t="n">
+        <v>-7.4</v>
+      </c>
       <c r="Q168" s="32" t="n"/>
       <c r="R168" s="23" t="inlineStr">
         <is>
@@ -18394,8 +18394,12 @@
           <t>↓</t>
         </is>
       </c>
-      <c r="O169" s="32" t="n"/>
-      <c r="P169" s="32" t="n"/>
+      <c r="O169" s="32" t="n">
+        <v>-33.3</v>
+      </c>
+      <c r="P169" s="32" t="n">
+        <v>-10.6</v>
+      </c>
       <c r="Q169" s="32" t="n"/>
       <c r="R169" s="23" t="inlineStr">
         <is>
@@ -18708,8 +18712,12 @@
         </is>
       </c>
       <c r="N172" s="3" t="n"/>
-      <c r="O172" s="32" t="n"/>
-      <c r="P172" s="32" t="n"/>
+      <c r="O172" s="32" t="n">
+        <v>-28.7</v>
+      </c>
+      <c r="P172" s="32" t="n">
+        <v>-6.9</v>
+      </c>
       <c r="Q172" s="32" t="n"/>
       <c r="R172" s="23" t="inlineStr">
         <is>
@@ -18815,10 +18823,10 @@
       </c>
       <c r="N173" s="2" t="n"/>
       <c r="O173" s="32" t="n">
-        <v>-26.6</v>
+        <v>-30.4</v>
       </c>
       <c r="P173" s="32" t="n">
-        <v>-10.8</v>
+        <v>-19.9</v>
       </c>
       <c r="Q173" s="32" t="n"/>
       <c r="R173" s="23" t="inlineStr">
@@ -19133,7 +19141,7 @@
       </c>
       <c r="N176" s="2" t="n"/>
       <c r="O176" s="32" t="n">
-        <v>3</v>
+        <v>-2.9</v>
       </c>
       <c r="P176" s="32" t="n">
         <v>5</v>
@@ -19231,10 +19239,10 @@
       </c>
       <c r="N177" s="2" t="n"/>
       <c r="O177" s="32" t="n">
-        <v>-32.3</v>
+        <v>-38.3</v>
       </c>
       <c r="P177" s="32" t="n">
-        <v>-14.8</v>
+        <v>-28.3</v>
       </c>
       <c r="Q177" s="32" t="n"/>
       <c r="R177" s="23" t="inlineStr">
@@ -20110,13 +20118,13 @@
       </c>
       <c r="N186" s="2" t="n"/>
       <c r="O186" s="32" t="n">
-        <v>-36.8</v>
+        <v>-44</v>
       </c>
       <c r="P186" s="32" t="n">
-        <v>-28.6</v>
+        <v>-32.7</v>
       </c>
       <c r="Q186" s="32" t="n">
-        <v>-33.36</v>
+        <v>-39.52</v>
       </c>
       <c r="R186" s="23" t="inlineStr">
         <is>
@@ -20219,13 +20227,13 @@
       </c>
       <c r="N187" s="2" t="n"/>
       <c r="O187" s="32" t="n">
-        <v>-42</v>
+        <v>-44.2</v>
       </c>
       <c r="P187" s="32" t="n">
-        <v>-35.8</v>
+        <v>-35.7</v>
       </c>
       <c r="Q187" s="32" t="n">
-        <v>-39.49</v>
+        <v>-40.88</v>
       </c>
       <c r="R187" s="23" t="inlineStr">
         <is>
@@ -20326,10 +20334,10 @@
         <v>-40.3</v>
       </c>
       <c r="P188" s="32" t="n">
-        <v>-31.6</v>
+        <v>-34</v>
       </c>
       <c r="Q188" s="32" t="n">
-        <v>-37.27</v>
+        <v>-38.29</v>
       </c>
       <c r="R188" s="23" t="inlineStr">
         <is>
@@ -20427,13 +20435,13 @@
       </c>
       <c r="N189" s="2" t="n"/>
       <c r="O189" s="32" t="n">
-        <v>-41</v>
+        <v>-47.4</v>
       </c>
       <c r="P189" s="32" t="n">
-        <v>-27.7</v>
+        <v>-34.8</v>
       </c>
       <c r="Q189" s="32" t="n">
-        <v>-32.12</v>
+        <v>-43.2</v>
       </c>
       <c r="R189" s="23" t="inlineStr">
         <is>
@@ -20531,13 +20539,13 @@
       </c>
       <c r="N190" s="2" t="n"/>
       <c r="O190" s="32" t="n">
-        <v>-47.2</v>
+        <v>-38.2</v>
       </c>
       <c r="P190" s="32" t="n">
-        <v>-36.7</v>
+        <v>-33.1</v>
       </c>
       <c r="Q190" s="32" t="n">
-        <v>-41.73</v>
+        <v>-35.66</v>
       </c>
       <c r="R190" s="23" t="inlineStr">
         <is>
@@ -20635,13 +20643,13 @@
       </c>
       <c r="N191" s="2" t="n"/>
       <c r="O191" s="32" t="n">
-        <v>-37.3</v>
+        <v>-45.2</v>
       </c>
       <c r="P191" s="32" t="n">
-        <v>-30.9</v>
+        <v>-35</v>
       </c>
       <c r="Q191" s="32" t="n">
-        <v>-34.27</v>
+        <v>-40.78</v>
       </c>
       <c r="R191" s="23" t="inlineStr">
         <is>
@@ -20735,13 +20743,13 @@
       </c>
       <c r="N192" s="2" t="n"/>
       <c r="O192" s="32" t="n">
-        <v>-34.9</v>
+        <v>-37.8</v>
       </c>
       <c r="P192" s="32" t="n">
-        <v>-29.1</v>
+        <v>-23.8</v>
       </c>
       <c r="Q192" s="32" t="n">
-        <v>-32.27</v>
+        <v>-30.92</v>
       </c>
       <c r="R192" s="23" t="inlineStr">
         <is>
@@ -20840,13 +20848,13 @@
       </c>
       <c r="N193" s="2" t="n"/>
       <c r="O193" s="32" t="n">
-        <v>-34.3</v>
+        <v>-38.5</v>
       </c>
       <c r="P193" s="32" t="n">
-        <v>-30.3</v>
+        <v>-33.9</v>
       </c>
       <c r="Q193" s="32" t="n">
-        <v>-32.4</v>
+        <v>-36.58</v>
       </c>
       <c r="R193" s="23" t="inlineStr">
         <is>
@@ -20948,10 +20956,10 @@
       </c>
       <c r="N194" s="2" t="n"/>
       <c r="O194" s="32" t="n">
-        <v>-42</v>
+        <v>-37.5</v>
       </c>
       <c r="P194" s="32" t="n">
-        <v>-27.5</v>
+        <v>-29.5</v>
       </c>
       <c r="Q194" s="32" t="n"/>
       <c r="R194" s="23" t="inlineStr">
@@ -21046,13 +21054,13 @@
       </c>
       <c r="N195" s="2" t="n"/>
       <c r="O195" s="32" t="n">
-        <v>-39.5</v>
+        <v>-43</v>
       </c>
       <c r="P195" s="32" t="n">
-        <v>-23</v>
+        <v>-34.7</v>
       </c>
       <c r="Q195" s="32" t="n">
-        <v>-30.35</v>
+        <v>-39.1</v>
       </c>
       <c r="R195" s="23" t="inlineStr">
         <is>
@@ -21150,13 +21158,13 @@
       </c>
       <c r="N196" s="2" t="n"/>
       <c r="O196" s="32" t="n">
-        <v>-34.5</v>
+        <v>-44.6</v>
       </c>
       <c r="P196" s="32" t="n">
-        <v>-19.3</v>
+        <v>-23.3</v>
       </c>
       <c r="Q196" s="32" t="n">
-        <v>-24.75</v>
+        <v>-36.2</v>
       </c>
       <c r="R196" s="23" t="inlineStr">
         <is>
@@ -21254,13 +21262,13 @@
       </c>
       <c r="N197" s="24" t="n"/>
       <c r="O197" s="32" t="n">
-        <v>-34.2</v>
+        <v>-25.1</v>
       </c>
       <c r="P197" s="32" t="n">
-        <v>-15.2</v>
+        <v>-15</v>
       </c>
       <c r="Q197" s="32" t="n">
-        <v>-21.7</v>
+        <v>-20.14</v>
       </c>
       <c r="R197" s="23" t="inlineStr">
         <is>
@@ -21651,8 +21659,12 @@
         </is>
       </c>
       <c r="N201" s="2" t="n"/>
-      <c r="O201" s="32" t="n"/>
-      <c r="P201" s="32" t="n"/>
+      <c r="O201" s="32" t="n">
+        <v>-39.6</v>
+      </c>
+      <c r="P201" s="32" t="n">
+        <v>-18.9</v>
+      </c>
       <c r="Q201" s="32" t="n"/>
       <c r="R201" s="23" t="inlineStr">
         <is>
@@ -22653,8 +22665,12 @@
         </is>
       </c>
       <c r="N211" s="2" t="n"/>
-      <c r="O211" s="32" t="n"/>
-      <c r="P211" s="32" t="n"/>
+      <c r="O211" s="32" t="n">
+        <v>-42.5</v>
+      </c>
+      <c r="P211" s="32" t="n">
+        <v>-20.5</v>
+      </c>
       <c r="Q211" s="32" t="n"/>
       <c r="R211" s="23" t="inlineStr">
         <is>
@@ -26180,13 +26196,13 @@
       </c>
       <c r="N247" s="2" t="n"/>
       <c r="O247" s="32" t="n">
-        <v>-7.6</v>
+        <v>-10.5</v>
       </c>
       <c r="P247" s="32" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q247" s="32" t="n">
-        <v>-1.88</v>
+        <v>-3.81</v>
       </c>
       <c r="R247" s="23" t="inlineStr">
         <is>
@@ -26292,13 +26308,13 @@
       </c>
       <c r="N248" s="2" t="n"/>
       <c r="O248" s="32" t="n">
-        <v>-14.1</v>
+        <v>-22.5</v>
       </c>
       <c r="P248" s="32" t="n">
-        <v>-6.1</v>
+        <v>-13.2</v>
       </c>
       <c r="Q248" s="32" t="n">
-        <v>-9.99</v>
+        <v>-19.49</v>
       </c>
       <c r="R248" s="23" t="inlineStr">
         <is>
@@ -26400,13 +26416,13 @@
       </c>
       <c r="N249" s="2" t="n"/>
       <c r="O249" s="32" t="n">
-        <v>-10.7</v>
+        <v>-16.7</v>
       </c>
       <c r="P249" s="32" t="n">
-        <v>-2.6</v>
+        <v>-10.5</v>
       </c>
       <c r="Q249" s="32" t="n">
-        <v>-7.87</v>
+        <v>-14.89</v>
       </c>
       <c r="R249" s="23" t="inlineStr">
         <is>
@@ -26512,13 +26528,13 @@
       </c>
       <c r="N250" s="2" t="n"/>
       <c r="O250" s="32" t="n">
-        <v>-28.7</v>
+        <v>-31</v>
       </c>
       <c r="P250" s="32" t="n">
-        <v>0</v>
+        <v>-18.9</v>
       </c>
       <c r="Q250" s="32" t="n">
-        <v>-16.88</v>
+        <v>-25.11</v>
       </c>
       <c r="R250" s="23" t="inlineStr">
         <is>
@@ -26632,10 +26648,10 @@
         </is>
       </c>
       <c r="O251" s="32" t="n">
-        <v>-28.4</v>
+        <v>-34.9</v>
       </c>
       <c r="P251" s="32" t="n">
-        <v>-17.5</v>
+        <v>-16.8</v>
       </c>
       <c r="Q251" s="32" t="n"/>
       <c r="R251" s="23" t="inlineStr">
@@ -26730,13 +26746,13 @@
       </c>
       <c r="N252" s="2" t="n"/>
       <c r="O252" s="32" t="n">
-        <v>-32.2</v>
+        <v>-28.5</v>
       </c>
       <c r="P252" s="32" t="n">
-        <v>-20</v>
+        <v>-2.7</v>
       </c>
       <c r="Q252" s="32" t="n">
-        <v>-27.42</v>
+        <v>-19.65</v>
       </c>
       <c r="R252" s="23" t="inlineStr">
         <is>
@@ -26928,13 +26944,13 @@
       </c>
       <c r="N254" s="2" t="n"/>
       <c r="O254" s="32" t="n">
-        <v>-39.8</v>
+        <v>-44.9</v>
       </c>
       <c r="P254" s="32" t="n">
-        <v>-30.7</v>
+        <v>-33.6</v>
       </c>
       <c r="Q254" s="32" t="n">
-        <v>-33.15</v>
+        <v>-40.52</v>
       </c>
       <c r="R254" s="23" t="inlineStr">
         <is>
@@ -27502,13 +27518,13 @@
       </c>
       <c r="N260" s="2" t="n"/>
       <c r="O260" s="32" t="n">
-        <v>-41.3</v>
+        <v>-40.3</v>
       </c>
       <c r="P260" s="32" t="n">
-        <v>-15.4</v>
+        <v>-15.3</v>
       </c>
       <c r="Q260" s="32" t="n">
-        <v>-30.61</v>
+        <v>-30.62</v>
       </c>
       <c r="R260" s="23" t="inlineStr">
         <is>
@@ -27610,13 +27626,13 @@
       </c>
       <c r="N261" s="2" t="n"/>
       <c r="O261" s="32" t="n">
-        <v>-33.7</v>
+        <v>-38.3</v>
       </c>
       <c r="P261" s="32" t="n">
-        <v>-22.2</v>
+        <v>-19.2</v>
       </c>
       <c r="Q261" s="32" t="n">
-        <v>-27.36</v>
+        <v>-30.21</v>
       </c>
       <c r="R261" s="23" t="inlineStr">
         <is>
@@ -27722,13 +27738,13 @@
       </c>
       <c r="N262" s="2" t="n"/>
       <c r="O262" s="32" t="n">
-        <v>-27.5</v>
+        <v>-12.7</v>
       </c>
       <c r="P262" s="32" t="n">
-        <v>-10.6</v>
+        <v>-2</v>
       </c>
       <c r="Q262" s="32" t="n">
-        <v>-19.14</v>
+        <v>-8.24</v>
       </c>
       <c r="R262" s="23" t="inlineStr">
         <is>
@@ -27928,13 +27944,13 @@
       </c>
       <c r="N264" s="2" t="n"/>
       <c r="O264" s="32" t="n">
-        <v>-29.9</v>
+        <v>-26.2</v>
       </c>
       <c r="P264" s="32" t="n">
-        <v>-16.3</v>
+        <v>-13.8</v>
       </c>
       <c r="Q264" s="32" t="n">
-        <v>-23.85</v>
+        <v>-21.3</v>
       </c>
       <c r="R264" s="23" t="inlineStr">
         <is>
@@ -28048,10 +28064,10 @@
       </c>
       <c r="N265" s="2" t="n"/>
       <c r="O265" s="32" t="n">
-        <v>-50.4</v>
+        <v>-49.5</v>
       </c>
       <c r="P265" s="32" t="n">
-        <v>-38.1</v>
+        <v>-37.4</v>
       </c>
       <c r="Q265" s="32" t="n"/>
       <c r="R265" s="23" t="inlineStr">
@@ -28411,8 +28427,12 @@
         </is>
       </c>
       <c r="N269" s="2" t="n"/>
-      <c r="O269" s="32" t="n"/>
-      <c r="P269" s="32" t="n"/>
+      <c r="O269" s="32" t="n">
+        <v>-38.6</v>
+      </c>
+      <c r="P269" s="32" t="n">
+        <v>-21.1</v>
+      </c>
       <c r="Q269" s="32" t="n"/>
       <c r="R269" s="23" t="n"/>
       <c r="S269" s="37" t="n"/>
@@ -28981,8 +29001,12 @@
         </is>
       </c>
       <c r="N275" s="2" t="n"/>
-      <c r="O275" s="32" t="n"/>
-      <c r="P275" s="32" t="n"/>
+      <c r="O275" s="32" t="n">
+        <v>-39</v>
+      </c>
+      <c r="P275" s="32" t="n">
+        <v>-28.1</v>
+      </c>
       <c r="Q275" s="32" t="n"/>
       <c r="R275" s="23" t="inlineStr">
         <is>
@@ -29088,13 +29112,13 @@
       </c>
       <c r="N276" s="2" t="n"/>
       <c r="O276" s="32" t="n">
-        <v>-38.3</v>
+        <v>-44</v>
       </c>
       <c r="P276" s="32" t="n">
-        <v>-27.2</v>
+        <v>-31.9</v>
       </c>
       <c r="Q276" s="32" t="n">
-        <v>-31.21</v>
+        <v>-38.56</v>
       </c>
       <c r="R276" s="23" t="inlineStr">
         <is>

--- a/气象/For_Python_站点信息和记录.xlsx
+++ b/气象/For_Python_站点信息和记录.xlsx
@@ -790,8 +790,8 @@
     <col width="18.59765625" customWidth="1" style="8" min="25" max="25"/>
     <col width="12.59765625" customWidth="1" style="5" min="26" max="30"/>
     <col width="12.59765625" customWidth="1" style="8" min="31" max="32"/>
-    <col width="12.59765625" customWidth="1" style="5" min="33" max="234"/>
-    <col width="12.59765625" customWidth="1" style="5" min="235" max="16384"/>
+    <col width="12.59765625" customWidth="1" style="5" min="33" max="236"/>
+    <col width="12.59765625" customWidth="1" style="5" min="237" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.75" customFormat="1" customHeight="1" s="11">
@@ -1014,13 +1014,13 @@
         </is>
       </c>
       <c r="O2" s="32" t="n">
-        <v>-42.4</v>
+        <v>-42.3</v>
       </c>
       <c r="P2" s="32" t="n">
-        <v>-30.6</v>
+        <v>-31.1</v>
       </c>
       <c r="Q2" s="32" t="n">
-        <v>-38.04</v>
+        <v>-37.84</v>
       </c>
       <c r="R2" s="23" t="inlineStr">
         <is>
@@ -1124,10 +1124,10 @@
         </is>
       </c>
       <c r="O3" s="32" t="n">
-        <v>-44.8</v>
+        <v>-42.5</v>
       </c>
       <c r="P3" s="32" t="n">
-        <v>-27.1</v>
+        <v>-29.1</v>
       </c>
       <c r="Q3" s="32" t="n"/>
       <c r="R3" s="23" t="n"/>
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="O4" s="32" t="n">
-        <v>-44</v>
+        <v>-41.4</v>
       </c>
       <c r="P4" s="32" t="n">
-        <v>-24</v>
+        <v>-25.1</v>
       </c>
       <c r="Q4" s="32" t="n"/>
       <c r="R4" s="23" t="n"/>
@@ -1320,10 +1320,10 @@
       </c>
       <c r="N5" s="2" t="n"/>
       <c r="O5" s="32" t="n">
-        <v>-39.4</v>
+        <v>-38.4</v>
       </c>
       <c r="P5" s="32" t="n">
-        <v>-27.4</v>
+        <v>-26</v>
       </c>
       <c r="Q5" s="32" t="n"/>
       <c r="R5" s="23" t="n"/>
@@ -1420,10 +1420,10 @@
         </is>
       </c>
       <c r="O6" s="32" t="n">
-        <v>-40.3</v>
+        <v>-40.5</v>
       </c>
       <c r="P6" s="32" t="n">
-        <v>-28.2</v>
+        <v>-24.8</v>
       </c>
       <c r="Q6" s="32" t="n"/>
       <c r="R6" s="23" t="n"/>
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="O7" s="32" t="n">
-        <v>-38.7</v>
+        <v>-40.4</v>
       </c>
       <c r="P7" s="32" t="n">
-        <v>-28.6</v>
+        <v>-27.4</v>
       </c>
       <c r="Q7" s="32" t="n"/>
       <c r="R7" s="23" t="n"/>
@@ -1628,13 +1628,13 @@
       </c>
       <c r="N8" s="2" t="n"/>
       <c r="O8" s="32" t="n">
-        <v>-39</v>
+        <v>-36.4</v>
       </c>
       <c r="P8" s="32" t="n">
-        <v>-25.7</v>
+        <v>-21.6</v>
       </c>
       <c r="Q8" s="32" t="n">
-        <v>-33.54</v>
+        <v>-30.15</v>
       </c>
       <c r="R8" s="23" t="inlineStr">
         <is>
@@ -1740,13 +1740,13 @@
       </c>
       <c r="N9" s="2" t="n"/>
       <c r="O9" s="32" t="n">
-        <v>-37.9</v>
+        <v>-37.6</v>
       </c>
       <c r="P9" s="32" t="n">
-        <v>-23.5</v>
+        <v>-24.7</v>
       </c>
       <c r="Q9" s="32" t="n">
-        <v>-32.3</v>
+        <v>-32.05</v>
       </c>
       <c r="R9" s="23" t="inlineStr">
         <is>
@@ -1856,13 +1856,13 @@
       </c>
       <c r="N10" s="3" t="n"/>
       <c r="O10" s="32" t="n">
-        <v>-42.9</v>
+        <v>-40.9</v>
       </c>
       <c r="P10" s="32" t="n">
-        <v>-26.9</v>
+        <v>-23.5</v>
       </c>
       <c r="Q10" s="32" t="n">
-        <v>-36.2</v>
+        <v>-33.65</v>
       </c>
       <c r="R10" s="23" t="inlineStr">
         <is>
@@ -1972,13 +1972,13 @@
         </is>
       </c>
       <c r="O11" s="32" t="n">
-        <v>-40</v>
+        <v>-37.6</v>
       </c>
       <c r="P11" s="32" t="n">
-        <v>-19.3</v>
+        <v>-14</v>
       </c>
       <c r="Q11" s="32" t="n">
-        <v>-32.1</v>
+        <v>-28.22</v>
       </c>
       <c r="R11" s="23" t="inlineStr">
         <is>
@@ -2084,13 +2084,13 @@
       </c>
       <c r="N12" s="2" t="n"/>
       <c r="O12" s="32" t="n">
-        <v>-40.1</v>
+        <v>-39.5</v>
       </c>
       <c r="P12" s="32" t="n">
-        <v>-25.5</v>
+        <v>-24.6</v>
       </c>
       <c r="Q12" s="32" t="n">
-        <v>-34.4</v>
+        <v>-33.76</v>
       </c>
       <c r="R12" s="23" t="inlineStr">
         <is>
@@ -2200,13 +2200,13 @@
         </is>
       </c>
       <c r="O13" s="32" t="n">
-        <v>-39.9</v>
+        <v>-40.5</v>
       </c>
       <c r="P13" s="32" t="n">
-        <v>-28.7</v>
+        <v>-28.4</v>
       </c>
       <c r="Q13" s="32" t="n">
-        <v>-35.5</v>
+        <v>-35.51</v>
       </c>
       <c r="R13" s="23" t="inlineStr">
         <is>
@@ -2316,13 +2316,13 @@
       </c>
       <c r="N14" s="2" t="n"/>
       <c r="O14" s="32" t="n">
-        <v>-27.4</v>
+        <v>-23.8</v>
       </c>
       <c r="P14" s="32" t="n">
-        <v>-16.4</v>
+        <v>-11.1</v>
       </c>
       <c r="Q14" s="32" t="n">
-        <v>-22.59</v>
+        <v>-18.93</v>
       </c>
       <c r="R14" s="23" t="inlineStr">
         <is>
@@ -2518,13 +2518,13 @@
       </c>
       <c r="N16" s="2" t="n"/>
       <c r="O16" s="32" t="n">
-        <v>-35.4</v>
+        <v>-33.2</v>
       </c>
       <c r="P16" s="32" t="n">
-        <v>-14.5</v>
+        <v>-11.2</v>
       </c>
       <c r="Q16" s="32" t="n">
-        <v>-26.66</v>
+        <v>-24.46</v>
       </c>
       <c r="R16" s="23" t="inlineStr">
         <is>
@@ -4707,8 +4707,12 @@
         </is>
       </c>
       <c r="N40" s="3" t="n"/>
-      <c r="O40" s="32" t="n"/>
-      <c r="P40" s="32" t="n"/>
+      <c r="O40" s="32" t="n">
+        <v>-35.1</v>
+      </c>
+      <c r="P40" s="32" t="n">
+        <v>-20.1</v>
+      </c>
       <c r="Q40" s="32" t="n"/>
       <c r="R40" s="23" t="n"/>
       <c r="S40" s="37" t="n"/>
@@ -4967,8 +4971,12 @@
         </is>
       </c>
       <c r="N43" s="2" t="n"/>
-      <c r="O43" s="32" t="n"/>
-      <c r="P43" s="32" t="n"/>
+      <c r="O43" s="32" t="n">
+        <v>-34.6</v>
+      </c>
+      <c r="P43" s="32" t="n">
+        <v>-29.4</v>
+      </c>
       <c r="Q43" s="32" t="n"/>
       <c r="R43" s="23" t="n"/>
       <c r="S43" s="37" t="n"/>
@@ -6563,8 +6571,12 @@
         </is>
       </c>
       <c r="N61" s="2" t="n"/>
-      <c r="O61" s="32" t="n"/>
-      <c r="P61" s="32" t="n"/>
+      <c r="O61" s="32" t="n">
+        <v>-36.9</v>
+      </c>
+      <c r="P61" s="32" t="n">
+        <v>-20.2</v>
+      </c>
       <c r="Q61" s="32" t="n"/>
       <c r="R61" s="23" t="n"/>
       <c r="S61" s="37" t="n"/>
@@ -7826,13 +7838,13 @@
       </c>
       <c r="N75" s="2" t="n"/>
       <c r="O75" s="32" t="n">
-        <v>-36.3</v>
+        <v>-31.5</v>
       </c>
       <c r="P75" s="32" t="n">
-        <v>-21.6</v>
+        <v>-19.9</v>
       </c>
       <c r="Q75" s="32" t="n">
-        <v>-28.61</v>
+        <v>-25.96</v>
       </c>
       <c r="R75" s="23" t="inlineStr">
         <is>
@@ -7938,13 +7950,13 @@
       </c>
       <c r="N76" s="2" t="n"/>
       <c r="O76" s="32" t="n">
-        <v>-38.5</v>
+        <v>-37.6</v>
       </c>
       <c r="P76" s="32" t="n">
-        <v>-24.8</v>
+        <v>-23</v>
       </c>
       <c r="Q76" s="32" t="n">
-        <v>-32.25</v>
+        <v>-31</v>
       </c>
       <c r="R76" s="23" t="inlineStr">
         <is>
@@ -8054,13 +8066,13 @@
         </is>
       </c>
       <c r="O77" s="32" t="n">
-        <v>-33.3</v>
+        <v>-38.3</v>
       </c>
       <c r="P77" s="32" t="n">
-        <v>-20.9</v>
+        <v>-19.6</v>
       </c>
       <c r="Q77" s="32" t="n">
-        <v>-28.62</v>
+        <v>-30.84</v>
       </c>
       <c r="R77" s="23" t="inlineStr">
         <is>
@@ -8170,13 +8182,13 @@
       </c>
       <c r="N78" s="2" t="n"/>
       <c r="O78" s="32" t="n">
-        <v>-29.6</v>
+        <v>-32.4</v>
       </c>
       <c r="P78" s="32" t="n">
-        <v>-19.2</v>
+        <v>-18.1</v>
       </c>
       <c r="Q78" s="32" t="n">
-        <v>-24.5</v>
+        <v>-27.52</v>
       </c>
       <c r="R78" s="23" t="inlineStr">
         <is>
@@ -8286,13 +8298,13 @@
         </is>
       </c>
       <c r="O79" s="32" t="n">
-        <v>-25</v>
+        <v>-36</v>
       </c>
       <c r="P79" s="32" t="n">
-        <v>-17.4</v>
+        <v>-15</v>
       </c>
       <c r="Q79" s="32" t="n">
-        <v>-20.59</v>
+        <v>-28.09</v>
       </c>
       <c r="R79" s="23" t="inlineStr">
         <is>
@@ -8398,13 +8410,13 @@
       </c>
       <c r="N80" s="2" t="n"/>
       <c r="O80" s="32" t="n">
-        <v>-29.9</v>
+        <v>-33.5</v>
       </c>
       <c r="P80" s="32" t="n">
-        <v>-18.4</v>
+        <v>-18.8</v>
       </c>
       <c r="Q80" s="32" t="n">
-        <v>-24.96</v>
+        <v>-26.36</v>
       </c>
       <c r="R80" s="23" t="inlineStr">
         <is>
@@ -8514,13 +8526,13 @@
         </is>
       </c>
       <c r="O81" s="32" t="n">
-        <v>-45</v>
+        <v>-39.8</v>
       </c>
       <c r="P81" s="32" t="n">
-        <v>-22.4</v>
+        <v>-19.7</v>
       </c>
       <c r="Q81" s="32" t="n">
-        <v>-35.16</v>
+        <v>-31.01</v>
       </c>
       <c r="R81" s="23" t="inlineStr">
         <is>
@@ -8635,13 +8647,13 @@
         </is>
       </c>
       <c r="O82" s="32" t="n">
-        <v>-44.9</v>
+        <v>-40</v>
       </c>
       <c r="P82" s="32" t="n">
-        <v>-21</v>
+        <v>-13.6</v>
       </c>
       <c r="Q82" s="32" t="n">
-        <v>-36.29</v>
+        <v>-29.91</v>
       </c>
       <c r="R82" s="23" t="inlineStr">
         <is>
@@ -8751,13 +8763,13 @@
       </c>
       <c r="N83" s="2" t="n"/>
       <c r="O83" s="32" t="n">
-        <v>-35.6</v>
+        <v>-35.3</v>
       </c>
       <c r="P83" s="32" t="n">
-        <v>-25.7</v>
+        <v>-24.7</v>
       </c>
       <c r="Q83" s="32" t="n">
-        <v>-31.36</v>
+        <v>-30.65</v>
       </c>
       <c r="R83" s="23" t="inlineStr">
         <is>
@@ -8871,13 +8883,13 @@
         </is>
       </c>
       <c r="O84" s="32" t="n">
-        <v>-40.2</v>
+        <v>-35.7</v>
       </c>
       <c r="P84" s="32" t="n">
-        <v>-27.5</v>
+        <v>-23.1</v>
       </c>
       <c r="Q84" s="32" t="n">
-        <v>-34.86</v>
+        <v>-30.48</v>
       </c>
       <c r="R84" s="23" t="inlineStr">
         <is>
@@ -8991,13 +9003,13 @@
         </is>
       </c>
       <c r="O85" s="32" t="n">
-        <v>-41.5</v>
+        <v>-41.9</v>
       </c>
       <c r="P85" s="32" t="n">
-        <v>-25.9</v>
+        <v>-23.8</v>
       </c>
       <c r="Q85" s="32" t="n">
-        <v>-34.74</v>
+        <v>-34.35</v>
       </c>
       <c r="R85" s="23" t="inlineStr">
         <is>
@@ -9103,13 +9115,13 @@
       </c>
       <c r="N86" s="2" t="n"/>
       <c r="O86" s="32" t="n">
-        <v>-38</v>
+        <v>-37.3</v>
       </c>
       <c r="P86" s="32" t="n">
-        <v>-25.9</v>
+        <v>-24.2</v>
       </c>
       <c r="Q86" s="32" t="n">
-        <v>-32.92</v>
+        <v>-32.1</v>
       </c>
       <c r="R86" s="23" t="inlineStr">
         <is>
@@ -9227,13 +9239,13 @@
         </is>
       </c>
       <c r="O87" s="32" t="n">
-        <v>-40.1</v>
+        <v>-39.7</v>
       </c>
       <c r="P87" s="32" t="n">
-        <v>-25.6</v>
+        <v>-25.7</v>
       </c>
       <c r="Q87" s="32" t="n">
-        <v>-33.59</v>
+        <v>-33.82</v>
       </c>
       <c r="R87" s="23" t="inlineStr">
         <is>
@@ -9339,13 +9351,13 @@
       </c>
       <c r="N88" s="2" t="n"/>
       <c r="O88" s="32" t="n">
-        <v>-36.1</v>
+        <v>-34.3</v>
       </c>
       <c r="P88" s="32" t="n">
-        <v>-22.1</v>
+        <v>-21.6</v>
       </c>
       <c r="Q88" s="32" t="n">
-        <v>-30.53</v>
+        <v>-30.18</v>
       </c>
       <c r="R88" s="23" t="inlineStr">
         <is>
@@ -9557,13 +9569,13 @@
         </is>
       </c>
       <c r="O90" s="32" t="n">
-        <v>-17.8</v>
+        <v>-6.2</v>
       </c>
       <c r="P90" s="32" t="n">
-        <v>-3.8</v>
+        <v>-4</v>
       </c>
       <c r="Q90" s="32" t="n">
-        <v>-10.51</v>
+        <v>-5.69</v>
       </c>
       <c r="R90" s="23" t="inlineStr">
         <is>
@@ -9665,13 +9677,13 @@
       </c>
       <c r="N91" s="2" t="n"/>
       <c r="O91" s="32" t="n">
-        <v>-33.5</v>
+        <v>-19.2</v>
       </c>
       <c r="P91" s="32" t="n">
-        <v>-6.9</v>
+        <v>-8.5</v>
       </c>
       <c r="Q91" s="32" t="n">
-        <v>-20.96</v>
+        <v>-12.11</v>
       </c>
       <c r="R91" s="23" t="inlineStr">
         <is>
@@ -9773,10 +9785,10 @@
       </c>
       <c r="N92" s="2" t="n"/>
       <c r="O92" s="32" t="n">
-        <v>-29.2</v>
+        <v>-30.5</v>
       </c>
       <c r="P92" s="32" t="n">
-        <v>-20</v>
+        <v>-18.4</v>
       </c>
       <c r="Q92" s="32" t="n">
         <v>-25.49</v>
@@ -9885,13 +9897,13 @@
       </c>
       <c r="N93" s="2" t="n"/>
       <c r="O93" s="32" t="n">
-        <v>-18.7</v>
+        <v>-23.4</v>
       </c>
       <c r="P93" s="32" t="n">
-        <v>-12.9</v>
+        <v>-11.5</v>
       </c>
       <c r="Q93" s="32" t="n">
-        <v>-16.21</v>
+        <v>-17.24</v>
       </c>
       <c r="R93" s="23" t="inlineStr">
         <is>
@@ -10005,10 +10017,10 @@
         </is>
       </c>
       <c r="O94" s="32" t="n">
-        <v>-29.6</v>
+        <v>-32.2</v>
       </c>
       <c r="P94" s="32" t="n">
-        <v>-15.9</v>
+        <v>-13.8</v>
       </c>
       <c r="Q94" s="32" t="n"/>
       <c r="R94" s="23" t="inlineStr">
@@ -10123,14 +10135,12 @@
       </c>
       <c r="N95" s="2" t="n"/>
       <c r="O95" s="32" t="n">
-        <v>-23.2</v>
+        <v>-23.7</v>
       </c>
       <c r="P95" s="32" t="n">
-        <v>-16.5</v>
-      </c>
-      <c r="Q95" s="32" t="n">
-        <v>-19.91</v>
-      </c>
+        <v>-15.2</v>
+      </c>
+      <c r="Q95" s="32" t="n"/>
       <c r="R95" s="23" t="inlineStr">
         <is>
           <t>Y</t>
@@ -10251,10 +10261,10 @@
         </is>
       </c>
       <c r="O96" s="32" t="n">
-        <v>-24.2</v>
+        <v>-34.5</v>
       </c>
       <c r="P96" s="32" t="n">
-        <v>-15.7</v>
+        <v>-15.5</v>
       </c>
       <c r="Q96" s="32" t="n"/>
       <c r="R96" s="23" t="inlineStr">
@@ -10369,13 +10379,13 @@
       </c>
       <c r="N97" s="2" t="n"/>
       <c r="O97" s="32" t="n">
-        <v>-25.8</v>
+        <v>-32.8</v>
       </c>
       <c r="P97" s="32" t="n">
-        <v>-18.5</v>
+        <v>-16.4</v>
       </c>
       <c r="Q97" s="32" t="n">
-        <v>-21.7</v>
+        <v>-23.24</v>
       </c>
       <c r="R97" s="23" t="inlineStr">
         <is>
@@ -10485,10 +10495,10 @@
       </c>
       <c r="N98" s="2" t="n"/>
       <c r="O98" s="32" t="n">
-        <v>-31.4</v>
+        <v>-34.8</v>
       </c>
       <c r="P98" s="32" t="n">
-        <v>-21.2</v>
+        <v>-19</v>
       </c>
       <c r="Q98" s="32" t="n"/>
       <c r="R98" s="23" t="inlineStr">
@@ -10603,13 +10613,13 @@
       </c>
       <c r="N99" s="2" t="n"/>
       <c r="O99" s="32" t="n">
-        <v>-26.1</v>
+        <v>-32.7</v>
       </c>
       <c r="P99" s="32" t="n">
-        <v>-19.3</v>
+        <v>-15.8</v>
       </c>
       <c r="Q99" s="32" t="n">
-        <v>-23.29</v>
+        <v>-25.1</v>
       </c>
       <c r="R99" s="23" t="inlineStr">
         <is>
@@ -10820,8 +10830,12 @@
         </is>
       </c>
       <c r="N101" s="2" t="n"/>
-      <c r="O101" s="32" t="n"/>
-      <c r="P101" s="32" t="n"/>
+      <c r="O101" s="32" t="n">
+        <v>-39.2</v>
+      </c>
+      <c r="P101" s="32" t="n">
+        <v>-13.2</v>
+      </c>
       <c r="Q101" s="32" t="n"/>
       <c r="R101" s="23" t="inlineStr">
         <is>
@@ -10935,13 +10949,13 @@
       </c>
       <c r="N102" s="2" t="n"/>
       <c r="O102" s="32" t="n">
-        <v>-37.8</v>
+        <v>-38.3</v>
       </c>
       <c r="P102" s="32" t="n">
-        <v>-17.7</v>
+        <v>-14.7</v>
       </c>
       <c r="Q102" s="32" t="n">
-        <v>-27.34</v>
+        <v>-27.66</v>
       </c>
       <c r="R102" s="23" t="inlineStr">
         <is>
@@ -11051,10 +11065,10 @@
       </c>
       <c r="N103" s="2" t="n"/>
       <c r="O103" s="32" t="n">
-        <v>-31.3</v>
+        <v>-35</v>
       </c>
       <c r="P103" s="32" t="n">
-        <v>-16</v>
+        <v>-17.1</v>
       </c>
       <c r="Q103" s="32" t="n"/>
       <c r="R103" s="23" t="inlineStr">
@@ -11161,10 +11175,10 @@
       </c>
       <c r="N104" s="2" t="n"/>
       <c r="O104" s="32" t="n">
-        <v>-36.9</v>
+        <v>-36.2</v>
       </c>
       <c r="P104" s="32" t="n">
-        <v>-20.1</v>
+        <v>-17.5</v>
       </c>
       <c r="Q104" s="32" t="n"/>
       <c r="R104" s="23" t="inlineStr">
@@ -11283,13 +11297,13 @@
         </is>
       </c>
       <c r="O105" s="32" t="n">
-        <v>-35.2</v>
+        <v>-34.8</v>
       </c>
       <c r="P105" s="32" t="n">
-        <v>-21.2</v>
+        <v>-17.7</v>
       </c>
       <c r="Q105" s="32" t="n">
-        <v>-28.35</v>
+        <v>-27.05</v>
       </c>
       <c r="R105" s="23" t="inlineStr">
         <is>
@@ -11403,10 +11417,10 @@
         </is>
       </c>
       <c r="O106" s="32" t="n">
-        <v>-30.2</v>
+        <v>-34.4</v>
       </c>
       <c r="P106" s="32" t="n">
-        <v>-24.2</v>
+        <v>-22</v>
       </c>
       <c r="Q106" s="32" t="n"/>
       <c r="R106" s="23" t="inlineStr">
@@ -11627,13 +11641,13 @@
       </c>
       <c r="N108" s="2" t="n"/>
       <c r="O108" s="32" t="n">
-        <v>-34.8</v>
+        <v>-35.3</v>
       </c>
       <c r="P108" s="32" t="n">
-        <v>-25.8</v>
+        <v>-23.4</v>
       </c>
       <c r="Q108" s="32" t="n">
-        <v>-30.79</v>
+        <v>-29.55</v>
       </c>
       <c r="R108" s="23" t="inlineStr">
         <is>
@@ -11841,10 +11855,10 @@
       </c>
       <c r="N110" s="2" t="n"/>
       <c r="O110" s="32" t="n">
-        <v>-33</v>
+        <v>-36</v>
       </c>
       <c r="P110" s="32" t="n">
-        <v>-25.9</v>
+        <v>-23.8</v>
       </c>
       <c r="Q110" s="32" t="n"/>
       <c r="R110" s="23" t="inlineStr">
@@ -11959,13 +11973,13 @@
       </c>
       <c r="N111" s="2" t="n"/>
       <c r="O111" s="32" t="n">
-        <v>-38.4</v>
+        <v>-38</v>
       </c>
       <c r="P111" s="32" t="n">
-        <v>-25.7</v>
+        <v>-22.6</v>
       </c>
       <c r="Q111" s="32" t="n">
-        <v>-31.62</v>
+        <v>-31.68</v>
       </c>
       <c r="R111" s="23" t="inlineStr">
         <is>
@@ -12071,10 +12085,10 @@
       </c>
       <c r="N112" s="2" t="n"/>
       <c r="O112" s="32" t="n">
-        <v>-26.3</v>
+        <v>-26.1</v>
       </c>
       <c r="P112" s="32" t="n">
-        <v>-14.6</v>
+        <v>-14.1</v>
       </c>
       <c r="Q112" s="32" t="n"/>
       <c r="R112" s="23" t="inlineStr">
@@ -12177,10 +12191,10 @@
       </c>
       <c r="N113" s="2" t="n"/>
       <c r="O113" s="32" t="n">
-        <v>-24</v>
+        <v>-20.3</v>
       </c>
       <c r="P113" s="32" t="n">
-        <v>-2.2</v>
+        <v>-1.5</v>
       </c>
       <c r="Q113" s="32" t="n"/>
       <c r="R113" s="23" t="inlineStr">
@@ -12291,10 +12305,10 @@
         </is>
       </c>
       <c r="O114" s="32" t="n">
-        <v>-26.2</v>
+        <v>-26.3</v>
       </c>
       <c r="P114" s="32" t="n">
-        <v>-2.7</v>
+        <v>-1.4</v>
       </c>
       <c r="Q114" s="32" t="n"/>
       <c r="R114" s="23" t="inlineStr">
@@ -12413,10 +12427,10 @@
         </is>
       </c>
       <c r="O115" s="32" t="n">
-        <v>-22.2</v>
+        <v>-22.3</v>
       </c>
       <c r="P115" s="32" t="n">
-        <v>-5.2</v>
+        <v>-4.8</v>
       </c>
       <c r="Q115" s="32" t="n"/>
       <c r="R115" s="23" t="inlineStr">
@@ -12531,13 +12545,13 @@
       </c>
       <c r="N116" s="2" t="n"/>
       <c r="O116" s="32" t="n">
-        <v>-15.1</v>
+        <v>-24.8</v>
       </c>
       <c r="P116" s="32" t="n">
-        <v>-6.3</v>
+        <v>-3.7</v>
       </c>
       <c r="Q116" s="32" t="n">
-        <v>-12.19</v>
+        <v>-15.83</v>
       </c>
       <c r="R116" s="23" t="inlineStr">
         <is>
@@ -12643,10 +12657,10 @@
       </c>
       <c r="N117" s="2" t="n"/>
       <c r="O117" s="32" t="n">
-        <v>-18.3</v>
+        <v>-23</v>
       </c>
       <c r="P117" s="32" t="n">
-        <v>-9.6</v>
+        <v>-8</v>
       </c>
       <c r="Q117" s="32" t="n"/>
       <c r="R117" s="23" t="inlineStr">
@@ -12757,10 +12771,10 @@
         </is>
       </c>
       <c r="O118" s="32" t="n">
-        <v>-28.8</v>
+        <v>-31.6</v>
       </c>
       <c r="P118" s="32" t="n">
-        <v>-10</v>
+        <v>-11.4</v>
       </c>
       <c r="Q118" s="32" t="n"/>
       <c r="R118" s="23" t="inlineStr">
@@ -12875,13 +12889,13 @@
       </c>
       <c r="N119" s="2" t="n"/>
       <c r="O119" s="32" t="n">
-        <v>-17.6</v>
+        <v>-18.5</v>
       </c>
       <c r="P119" s="32" t="n">
-        <v>1.1</v>
+        <v>-4.6</v>
       </c>
       <c r="Q119" s="32" t="n">
-        <v>-9.56</v>
+        <v>-12.19</v>
       </c>
       <c r="R119" s="23" t="inlineStr">
         <is>
@@ -13105,13 +13119,13 @@
       </c>
       <c r="N121" s="2" t="n"/>
       <c r="O121" s="32" t="n">
-        <v>-9.6</v>
+        <v>-9.9</v>
       </c>
       <c r="P121" s="32" t="n">
-        <v>-4.8</v>
+        <v>-5.1</v>
       </c>
       <c r="Q121" s="32" t="n">
-        <v>-7.99</v>
+        <v>-8.32</v>
       </c>
       <c r="R121" s="23" t="inlineStr">
         <is>
@@ -13229,10 +13243,10 @@
       </c>
       <c r="N122" s="2" t="n"/>
       <c r="O122" s="32" t="n">
-        <v>-24.9</v>
+        <v>-23.3</v>
       </c>
       <c r="P122" s="32" t="n">
-        <v>-17.1</v>
+        <v>-10.2</v>
       </c>
       <c r="Q122" s="32" t="n"/>
       <c r="R122" s="23" t="inlineStr">
@@ -13457,13 +13471,13 @@
       </c>
       <c r="N124" s="2" t="n"/>
       <c r="O124" s="32" t="n">
-        <v>-14.6</v>
+        <v>-18.7</v>
       </c>
       <c r="P124" s="32" t="n">
-        <v>-8.199999999999999</v>
+        <v>-2.8</v>
       </c>
       <c r="Q124" s="32" t="n">
-        <v>-12.12</v>
+        <v>-11.24</v>
       </c>
       <c r="R124" s="23" t="inlineStr">
         <is>
@@ -13581,13 +13595,13 @@
       </c>
       <c r="N125" s="2" t="n"/>
       <c r="O125" s="32" t="n">
-        <v>-9</v>
+        <v>-10.5</v>
       </c>
       <c r="P125" s="32" t="n">
-        <v>-1.4</v>
+        <v>0.8</v>
       </c>
       <c r="Q125" s="32" t="n">
-        <v>-6.27</v>
+        <v>-4.4</v>
       </c>
       <c r="R125" s="23" t="inlineStr">
         <is>
@@ -13681,10 +13695,10 @@
       </c>
       <c r="N126" s="2" t="n"/>
       <c r="O126" s="32" t="n">
-        <v>-7</v>
+        <v>-7.1</v>
       </c>
       <c r="P126" s="32" t="n">
-        <v>-1.7</v>
+        <v>0.2</v>
       </c>
       <c r="Q126" s="32" t="n"/>
       <c r="R126" s="23" t="inlineStr">
@@ -13791,13 +13805,13 @@
       </c>
       <c r="N127" s="2" t="n"/>
       <c r="O127" s="32" t="n">
-        <v>-5.6</v>
+        <v>-12</v>
       </c>
       <c r="P127" s="32" t="n">
-        <v>-0.3</v>
+        <v>1</v>
       </c>
       <c r="Q127" s="32" t="n">
-        <v>-3.31</v>
+        <v>-6.54</v>
       </c>
       <c r="R127" s="23" t="inlineStr">
         <is>
@@ -13911,10 +13925,10 @@
       </c>
       <c r="N128" s="2" t="n"/>
       <c r="O128" s="32" t="n">
-        <v>-4.2</v>
+        <v>-8.5</v>
       </c>
       <c r="P128" s="32" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q128" s="32" t="n"/>
       <c r="R128" s="23" t="inlineStr">
@@ -14021,13 +14035,13 @@
       </c>
       <c r="N129" s="2" t="n"/>
       <c r="O129" s="32" t="n">
-        <v>-6.7</v>
+        <v>-14.5</v>
       </c>
       <c r="P129" s="32" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="Q129" s="32" t="n">
-        <v>-4.85</v>
+        <v>-6.34</v>
       </c>
       <c r="R129" s="23" t="inlineStr">
         <is>
@@ -14141,13 +14155,13 @@
       </c>
       <c r="N130" s="2" t="n"/>
       <c r="O130" s="32" t="n">
-        <v>-7.1</v>
+        <v>-11.6</v>
       </c>
       <c r="P130" s="32" t="n">
-        <v>6.6</v>
+        <v>1.2</v>
       </c>
       <c r="Q130" s="32" t="n">
-        <v>-1.26</v>
+        <v>-6.26</v>
       </c>
       <c r="R130" s="23" t="inlineStr">
         <is>
@@ -14261,13 +14275,13 @@
       </c>
       <c r="N131" s="2" t="n"/>
       <c r="O131" s="32" t="n">
-        <v>-5.3</v>
+        <v>-7.4</v>
       </c>
       <c r="P131" s="32" t="n">
-        <v>-0.6</v>
+        <v>0.9</v>
       </c>
       <c r="Q131" s="32" t="n">
-        <v>-3.14</v>
+        <v>-3.81</v>
       </c>
       <c r="R131" s="23" t="inlineStr">
         <is>
@@ -14377,13 +14391,13 @@
       </c>
       <c r="N132" s="2" t="n"/>
       <c r="O132" s="32" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="P132" s="32" t="n">
-        <v>10.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Q132" s="32" t="n">
-        <v>1.14</v>
+        <v>1.24</v>
       </c>
       <c r="R132" s="23" t="inlineStr">
         <is>
@@ -14493,13 +14507,13 @@
       </c>
       <c r="N133" s="2" t="n"/>
       <c r="O133" s="32" t="n">
-        <v>2.6</v>
+        <v>0.3</v>
       </c>
       <c r="P133" s="32" t="n">
-        <v>10.1</v>
+        <v>8.1</v>
       </c>
       <c r="Q133" s="32" t="n">
-        <v>6.04</v>
+        <v>4.1</v>
       </c>
       <c r="R133" s="23" t="inlineStr">
         <is>
@@ -14715,13 +14729,13 @@
       </c>
       <c r="N135" s="2" t="n"/>
       <c r="O135" s="32" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="P135" s="32" t="n">
         <v>8</v>
       </c>
-      <c r="P135" s="32" t="n">
-        <v>8.9</v>
-      </c>
       <c r="Q135" s="32" t="n">
-        <v>8.5</v>
+        <v>5.2</v>
       </c>
       <c r="R135" s="23" t="inlineStr">
         <is>
@@ -14831,13 +14845,13 @@
       </c>
       <c r="N136" s="2" t="n"/>
       <c r="O136" s="32" t="n">
-        <v>5.8</v>
+        <v>4.1</v>
       </c>
       <c r="P136" s="32" t="n">
-        <v>12</v>
+        <v>6.2</v>
       </c>
       <c r="Q136" s="32" t="n">
-        <v>9.68</v>
+        <v>4.97</v>
       </c>
       <c r="R136" s="23" t="inlineStr">
         <is>
@@ -14947,13 +14961,13 @@
       </c>
       <c r="N137" s="2" t="n"/>
       <c r="O137" s="32" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P137" s="32" t="n">
-        <v>9.199999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="Q137" s="32" t="n">
-        <v>7.6</v>
+        <v>4.76</v>
       </c>
       <c r="R137" s="23" t="inlineStr">
         <is>
@@ -15063,10 +15077,10 @@
       </c>
       <c r="N138" s="2" t="n"/>
       <c r="O138" s="32" t="n">
-        <v>0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="P138" s="32" t="n">
-        <v>12.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q138" s="32" t="n"/>
       <c r="R138" s="23" t="inlineStr">
@@ -15177,13 +15191,13 @@
       </c>
       <c r="N139" s="2" t="n"/>
       <c r="O139" s="32" t="n">
-        <v>0.4</v>
+        <v>-1.2</v>
       </c>
       <c r="P139" s="32" t="n">
-        <v>12.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q139" s="32" t="n">
-        <v>4.79</v>
+        <v>0.52</v>
       </c>
       <c r="R139" s="23" t="inlineStr">
         <is>
@@ -15293,13 +15307,13 @@
       </c>
       <c r="N140" s="2" t="n"/>
       <c r="O140" s="32" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="P140" s="32" t="n">
-        <v>10.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q140" s="32" t="n">
-        <v>6.84</v>
+        <v>2.31</v>
       </c>
       <c r="R140" s="23" t="inlineStr">
         <is>
@@ -15511,13 +15525,13 @@
       </c>
       <c r="N142" s="2" t="n"/>
       <c r="O142" s="32" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="P142" s="32" t="n">
         <v>12.8</v>
       </c>
-      <c r="P142" s="32" t="n">
-        <v>20.5</v>
-      </c>
       <c r="Q142" s="32" t="n">
-        <v>15.69</v>
+        <v>10.5</v>
       </c>
       <c r="R142" s="23" t="inlineStr">
         <is>
@@ -15627,13 +15641,13 @@
       </c>
       <c r="N143" s="2" t="n"/>
       <c r="O143" s="32" t="n">
-        <v>15.3</v>
+        <v>16.6</v>
       </c>
       <c r="P143" s="32" t="n">
-        <v>28.8</v>
+        <v>23.1</v>
       </c>
       <c r="Q143" s="32" t="n">
-        <v>20.39</v>
+        <v>18.94</v>
       </c>
       <c r="R143" s="23" t="inlineStr">
         <is>
@@ -15943,13 +15957,13 @@
       </c>
       <c r="N146" s="2" t="n"/>
       <c r="O146" s="32" t="n">
-        <v>19.5</v>
+        <v>21.8</v>
       </c>
       <c r="P146" s="32" t="n">
-        <v>27.1</v>
+        <v>26.3</v>
       </c>
       <c r="Q146" s="32" t="n">
-        <v>22.99</v>
+        <v>23.56</v>
       </c>
       <c r="R146" s="23" t="inlineStr">
         <is>
@@ -16051,13 +16065,13 @@
       </c>
       <c r="N147" s="2" t="n"/>
       <c r="O147" s="32" t="n">
-        <v>17.6</v>
+        <v>14.4</v>
       </c>
       <c r="P147" s="32" t="n">
-        <v>27.2</v>
+        <v>21.6</v>
       </c>
       <c r="Q147" s="32" t="n">
-        <v>21.4</v>
+        <v>16.76</v>
       </c>
       <c r="R147" s="23" t="inlineStr">
         <is>
@@ -16269,13 +16283,13 @@
       </c>
       <c r="N149" s="2" t="n"/>
       <c r="O149" s="32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P149" s="32" t="n">
-        <v>19.5</v>
+        <v>20.5</v>
       </c>
       <c r="Q149" s="32" t="n">
-        <v>12.87</v>
+        <v>12.39</v>
       </c>
       <c r="R149" s="23" t="inlineStr">
         <is>
@@ -16385,13 +16399,13 @@
       </c>
       <c r="N150" s="2" t="n"/>
       <c r="O150" s="32" t="n">
-        <v>6.9</v>
+        <v>3.4</v>
       </c>
       <c r="P150" s="32" t="n">
-        <v>14.7</v>
+        <v>9.9</v>
       </c>
       <c r="Q150" s="32" t="n">
-        <v>9.44</v>
+        <v>5.54</v>
       </c>
       <c r="R150" s="23" t="inlineStr">
         <is>
@@ -16501,13 +16515,13 @@
       </c>
       <c r="N151" s="2" t="n"/>
       <c r="O151" s="32" t="n">
-        <v>9.9</v>
+        <v>10.5</v>
       </c>
       <c r="P151" s="32" t="n">
-        <v>18.3</v>
+        <v>14.4</v>
       </c>
       <c r="Q151" s="32" t="n">
-        <v>13.71</v>
+        <v>11.8</v>
       </c>
       <c r="R151" s="23" t="inlineStr">
         <is>
@@ -16707,13 +16721,13 @@
       </c>
       <c r="N153" s="2" t="n"/>
       <c r="O153" s="32" t="n">
-        <v>4.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="P153" s="32" t="n">
-        <v>17.2</v>
+        <v>12.8</v>
       </c>
       <c r="Q153" s="32" t="n">
-        <v>11.36</v>
+        <v>10.15</v>
       </c>
       <c r="R153" s="23" t="inlineStr">
         <is>
@@ -16827,13 +16841,13 @@
       </c>
       <c r="N154" s="2" t="n"/>
       <c r="O154" s="32" t="n">
-        <v>-6.3</v>
+        <v>-5.2</v>
       </c>
       <c r="P154" s="32" t="n">
-        <v>10</v>
+        <v>11.1</v>
       </c>
       <c r="Q154" s="32" t="n">
-        <v>0.86</v>
+        <v>1.88</v>
       </c>
       <c r="R154" s="23" t="inlineStr">
         <is>
@@ -17029,10 +17043,10 @@
       </c>
       <c r="N156" s="2" t="n"/>
       <c r="O156" s="32" t="n">
-        <v>-16.8</v>
+        <v>-25.5</v>
       </c>
       <c r="P156" s="32" t="n">
-        <v>-10.5</v>
+        <v>-6.4</v>
       </c>
       <c r="Q156" s="32" t="n"/>
       <c r="R156" s="23" t="inlineStr">
@@ -17135,10 +17149,10 @@
       </c>
       <c r="N157" s="2" t="n"/>
       <c r="O157" s="32" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="P157" s="32" t="n">
-        <v>12.7</v>
+        <v>4.6</v>
       </c>
       <c r="Q157" s="32" t="n"/>
       <c r="R157" s="23" t="inlineStr">
@@ -17519,10 +17533,10 @@
       </c>
       <c r="N161" s="2" t="n"/>
       <c r="O161" s="32" t="n">
-        <v>-3</v>
+        <v>-6.4</v>
       </c>
       <c r="P161" s="32" t="n">
-        <v>7.1</v>
+        <v>4.9</v>
       </c>
       <c r="Q161" s="32" t="n"/>
       <c r="R161" s="23" t="inlineStr">
@@ -17632,8 +17646,12 @@
           <t>⚡</t>
         </is>
       </c>
-      <c r="O162" s="32" t="n"/>
-      <c r="P162" s="32" t="n"/>
+      <c r="O162" s="32" t="n">
+        <v>-41.6</v>
+      </c>
+      <c r="P162" s="32" t="n">
+        <v>-13.9</v>
+      </c>
       <c r="Q162" s="32" t="n"/>
       <c r="R162" s="23" t="inlineStr">
         <is>
@@ -17959,10 +17977,10 @@
         </is>
       </c>
       <c r="O165" s="32" t="n">
-        <v>-35.6</v>
+        <v>-42.9</v>
       </c>
       <c r="P165" s="32" t="n">
-        <v>-25.5</v>
+        <v>-27.1</v>
       </c>
       <c r="Q165" s="32" t="n"/>
       <c r="R165" s="23" t="inlineStr">
@@ -18281,10 +18299,10 @@
         </is>
       </c>
       <c r="O168" s="32" t="n">
-        <v>-29.4</v>
+        <v>-28.3</v>
       </c>
       <c r="P168" s="32" t="n">
-        <v>-7.4</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="Q168" s="32" t="n"/>
       <c r="R168" s="23" t="inlineStr">
@@ -18395,10 +18413,10 @@
         </is>
       </c>
       <c r="O169" s="32" t="n">
-        <v>-33.3</v>
+        <v>-33.2</v>
       </c>
       <c r="P169" s="32" t="n">
-        <v>-10.6</v>
+        <v>-12</v>
       </c>
       <c r="Q169" s="32" t="n"/>
       <c r="R169" s="23" t="inlineStr">
@@ -18713,10 +18731,10 @@
       </c>
       <c r="N172" s="3" t="n"/>
       <c r="O172" s="32" t="n">
-        <v>-28.7</v>
+        <v>-22.4</v>
       </c>
       <c r="P172" s="32" t="n">
-        <v>-6.9</v>
+        <v>-6.4</v>
       </c>
       <c r="Q172" s="32" t="n"/>
       <c r="R172" s="23" t="inlineStr">
@@ -18823,7 +18841,7 @@
       </c>
       <c r="N173" s="2" t="n"/>
       <c r="O173" s="32" t="n">
-        <v>-30.4</v>
+        <v>-32.2</v>
       </c>
       <c r="P173" s="32" t="n">
         <v>-19.9</v>
@@ -19141,10 +19159,10 @@
       </c>
       <c r="N176" s="2" t="n"/>
       <c r="O176" s="32" t="n">
-        <v>-2.9</v>
+        <v>-10</v>
       </c>
       <c r="P176" s="32" t="n">
-        <v>5</v>
+        <v>-2.2</v>
       </c>
       <c r="Q176" s="32" t="n"/>
       <c r="R176" s="23" t="inlineStr">
@@ -19239,10 +19257,10 @@
       </c>
       <c r="N177" s="2" t="n"/>
       <c r="O177" s="32" t="n">
-        <v>-38.3</v>
+        <v>-33.9</v>
       </c>
       <c r="P177" s="32" t="n">
-        <v>-28.3</v>
+        <v>-28.6</v>
       </c>
       <c r="Q177" s="32" t="n"/>
       <c r="R177" s="23" t="inlineStr">
@@ -20118,13 +20136,13 @@
       </c>
       <c r="N186" s="2" t="n"/>
       <c r="O186" s="32" t="n">
-        <v>-44</v>
+        <v>-49.9</v>
       </c>
       <c r="P186" s="32" t="n">
-        <v>-32.7</v>
+        <v>-37.7</v>
       </c>
       <c r="Q186" s="32" t="n">
-        <v>-39.52</v>
+        <v>-45.14</v>
       </c>
       <c r="R186" s="23" t="inlineStr">
         <is>
@@ -20227,13 +20245,13 @@
       </c>
       <c r="N187" s="2" t="n"/>
       <c r="O187" s="32" t="n">
-        <v>-44.2</v>
+        <v>-49.1</v>
       </c>
       <c r="P187" s="32" t="n">
-        <v>-35.7</v>
+        <v>-42.7</v>
       </c>
       <c r="Q187" s="32" t="n">
-        <v>-40.88</v>
+        <v>-46.67</v>
       </c>
       <c r="R187" s="23" t="inlineStr">
         <is>
@@ -20331,13 +20349,13 @@
       </c>
       <c r="N188" s="2" t="n"/>
       <c r="O188" s="32" t="n">
-        <v>-40.3</v>
+        <v>-48.4</v>
       </c>
       <c r="P188" s="32" t="n">
-        <v>-34</v>
+        <v>-40.2</v>
       </c>
       <c r="Q188" s="32" t="n">
-        <v>-38.29</v>
+        <v>-45.15</v>
       </c>
       <c r="R188" s="23" t="inlineStr">
         <is>
@@ -20435,13 +20453,13 @@
       </c>
       <c r="N189" s="2" t="n"/>
       <c r="O189" s="32" t="n">
-        <v>-47.4</v>
+        <v>-53.1</v>
       </c>
       <c r="P189" s="32" t="n">
-        <v>-34.8</v>
+        <v>-41.2</v>
       </c>
       <c r="Q189" s="32" t="n">
-        <v>-43.2</v>
+        <v>-48.28</v>
       </c>
       <c r="R189" s="23" t="inlineStr">
         <is>
@@ -20539,13 +20557,13 @@
       </c>
       <c r="N190" s="2" t="n"/>
       <c r="O190" s="32" t="n">
-        <v>-38.2</v>
+        <v>-43.2</v>
       </c>
       <c r="P190" s="32" t="n">
-        <v>-33.1</v>
+        <v>-36.1</v>
       </c>
       <c r="Q190" s="32" t="n">
-        <v>-35.66</v>
+        <v>-38.88</v>
       </c>
       <c r="R190" s="23" t="inlineStr">
         <is>
@@ -20643,13 +20661,13 @@
       </c>
       <c r="N191" s="2" t="n"/>
       <c r="O191" s="32" t="n">
-        <v>-45.2</v>
+        <v>-48.8</v>
       </c>
       <c r="P191" s="32" t="n">
-        <v>-35</v>
+        <v>-38.8</v>
       </c>
       <c r="Q191" s="32" t="n">
-        <v>-40.78</v>
+        <v>-44.15</v>
       </c>
       <c r="R191" s="23" t="inlineStr">
         <is>
@@ -20743,13 +20761,13 @@
       </c>
       <c r="N192" s="2" t="n"/>
       <c r="O192" s="32" t="n">
-        <v>-37.8</v>
+        <v>-45.6</v>
       </c>
       <c r="P192" s="32" t="n">
-        <v>-23.8</v>
+        <v>-35.3</v>
       </c>
       <c r="Q192" s="32" t="n">
-        <v>-30.92</v>
+        <v>-42.41</v>
       </c>
       <c r="R192" s="23" t="inlineStr">
         <is>
@@ -20848,13 +20866,13 @@
       </c>
       <c r="N193" s="2" t="n"/>
       <c r="O193" s="32" t="n">
-        <v>-38.5</v>
+        <v>-40.4</v>
       </c>
       <c r="P193" s="32" t="n">
-        <v>-33.9</v>
+        <v>-36.9</v>
       </c>
       <c r="Q193" s="32" t="n">
-        <v>-36.58</v>
+        <v>-38.8</v>
       </c>
       <c r="R193" s="23" t="inlineStr">
         <is>
@@ -20956,10 +20974,10 @@
       </c>
       <c r="N194" s="2" t="n"/>
       <c r="O194" s="32" t="n">
-        <v>-37.5</v>
+        <v>-44.1</v>
       </c>
       <c r="P194" s="32" t="n">
-        <v>-29.5</v>
+        <v>-30.8</v>
       </c>
       <c r="Q194" s="32" t="n"/>
       <c r="R194" s="23" t="inlineStr">
@@ -21054,13 +21072,13 @@
       </c>
       <c r="N195" s="2" t="n"/>
       <c r="O195" s="32" t="n">
-        <v>-43</v>
+        <v>-46.5</v>
       </c>
       <c r="P195" s="32" t="n">
-        <v>-34.7</v>
+        <v>-34.8</v>
       </c>
       <c r="Q195" s="32" t="n">
-        <v>-39.1</v>
+        <v>-41.1</v>
       </c>
       <c r="R195" s="23" t="inlineStr">
         <is>
@@ -21158,13 +21176,13 @@
       </c>
       <c r="N196" s="2" t="n"/>
       <c r="O196" s="32" t="n">
-        <v>-44.6</v>
+        <v>-42.8</v>
       </c>
       <c r="P196" s="32" t="n">
-        <v>-23.3</v>
+        <v>-29.7</v>
       </c>
       <c r="Q196" s="32" t="n">
-        <v>-36.2</v>
+        <v>-35.52</v>
       </c>
       <c r="R196" s="23" t="inlineStr">
         <is>
@@ -21262,13 +21280,13 @@
       </c>
       <c r="N197" s="24" t="n"/>
       <c r="O197" s="32" t="n">
-        <v>-25.1</v>
+        <v>-19.6</v>
       </c>
       <c r="P197" s="32" t="n">
-        <v>-15</v>
+        <v>-14.6</v>
       </c>
       <c r="Q197" s="32" t="n">
-        <v>-20.14</v>
+        <v>-16.39</v>
       </c>
       <c r="R197" s="23" t="inlineStr">
         <is>
@@ -21659,12 +21677,8 @@
         </is>
       </c>
       <c r="N201" s="2" t="n"/>
-      <c r="O201" s="32" t="n">
-        <v>-39.6</v>
-      </c>
-      <c r="P201" s="32" t="n">
-        <v>-18.9</v>
-      </c>
+      <c r="O201" s="32" t="n"/>
+      <c r="P201" s="32" t="n"/>
       <c r="Q201" s="32" t="n"/>
       <c r="R201" s="23" t="inlineStr">
         <is>
@@ -22465,8 +22479,12 @@
         </is>
       </c>
       <c r="N209" s="2" t="n"/>
-      <c r="O209" s="32" t="n"/>
-      <c r="P209" s="32" t="n"/>
+      <c r="O209" s="32" t="n">
+        <v>-38.5</v>
+      </c>
+      <c r="P209" s="32" t="n">
+        <v>-18.3</v>
+      </c>
       <c r="Q209" s="32" t="n"/>
       <c r="R209" s="23" t="inlineStr">
         <is>
@@ -22665,12 +22683,8 @@
         </is>
       </c>
       <c r="N211" s="2" t="n"/>
-      <c r="O211" s="32" t="n">
-        <v>-42.5</v>
-      </c>
-      <c r="P211" s="32" t="n">
-        <v>-20.5</v>
-      </c>
+      <c r="O211" s="32" t="n"/>
+      <c r="P211" s="32" t="n"/>
       <c r="Q211" s="32" t="n"/>
       <c r="R211" s="23" t="inlineStr">
         <is>
@@ -24845,8 +24859,12 @@
         </is>
       </c>
       <c r="N233" s="2" t="n"/>
-      <c r="O233" s="32" t="n"/>
-      <c r="P233" s="32" t="n"/>
+      <c r="O233" s="32" t="n">
+        <v>-38.3</v>
+      </c>
+      <c r="P233" s="32" t="n">
+        <v>-27.9</v>
+      </c>
       <c r="Q233" s="32" t="n"/>
       <c r="R233" s="23" t="inlineStr">
         <is>
@@ -26196,13 +26214,13 @@
       </c>
       <c r="N247" s="2" t="n"/>
       <c r="O247" s="32" t="n">
+        <v>-14.3</v>
+      </c>
+      <c r="P247" s="32" t="n">
         <v>-10.5</v>
       </c>
-      <c r="P247" s="32" t="n">
-        <v>0.5</v>
-      </c>
       <c r="Q247" s="32" t="n">
-        <v>-3.81</v>
+        <v>-12.43</v>
       </c>
       <c r="R247" s="23" t="inlineStr">
         <is>
@@ -26308,13 +26326,13 @@
       </c>
       <c r="N248" s="2" t="n"/>
       <c r="O248" s="32" t="n">
-        <v>-22.5</v>
+        <v>-20.1</v>
       </c>
       <c r="P248" s="32" t="n">
-        <v>-13.2</v>
+        <v>-5.1</v>
       </c>
       <c r="Q248" s="32" t="n">
-        <v>-19.49</v>
+        <v>-10.96</v>
       </c>
       <c r="R248" s="23" t="inlineStr">
         <is>
@@ -26416,13 +26434,13 @@
       </c>
       <c r="N249" s="2" t="n"/>
       <c r="O249" s="32" t="n">
-        <v>-16.7</v>
+        <v>-22.3</v>
       </c>
       <c r="P249" s="32" t="n">
-        <v>-10.5</v>
+        <v>-15.8</v>
       </c>
       <c r="Q249" s="32" t="n">
-        <v>-14.89</v>
+        <v>-19.62</v>
       </c>
       <c r="R249" s="23" t="inlineStr">
         <is>
@@ -26528,13 +26546,13 @@
       </c>
       <c r="N250" s="2" t="n"/>
       <c r="O250" s="32" t="n">
-        <v>-31</v>
+        <v>-30.2</v>
       </c>
       <c r="P250" s="32" t="n">
-        <v>-18.9</v>
+        <v>-19.5</v>
       </c>
       <c r="Q250" s="32" t="n">
-        <v>-25.11</v>
+        <v>-25.04</v>
       </c>
       <c r="R250" s="23" t="inlineStr">
         <is>
@@ -26648,10 +26666,10 @@
         </is>
       </c>
       <c r="O251" s="32" t="n">
-        <v>-34.9</v>
+        <v>-20.2</v>
       </c>
       <c r="P251" s="32" t="n">
-        <v>-16.8</v>
+        <v>-12.2</v>
       </c>
       <c r="Q251" s="32" t="n"/>
       <c r="R251" s="23" t="inlineStr">
@@ -26746,13 +26764,13 @@
       </c>
       <c r="N252" s="2" t="n"/>
       <c r="O252" s="32" t="n">
-        <v>-28.5</v>
+        <v>-3.2</v>
       </c>
       <c r="P252" s="32" t="n">
-        <v>-2.7</v>
+        <v>-0.4</v>
       </c>
       <c r="Q252" s="32" t="n">
-        <v>-19.65</v>
+        <v>-1.9</v>
       </c>
       <c r="R252" s="23" t="inlineStr">
         <is>
@@ -26944,13 +26962,13 @@
       </c>
       <c r="N254" s="2" t="n"/>
       <c r="O254" s="32" t="n">
-        <v>-44.9</v>
+        <v>-40.1</v>
       </c>
       <c r="P254" s="32" t="n">
-        <v>-33.6</v>
+        <v>-24.5</v>
       </c>
       <c r="Q254" s="32" t="n">
-        <v>-40.52</v>
+        <v>-28.11</v>
       </c>
       <c r="R254" s="23" t="inlineStr">
         <is>
@@ -27518,13 +27536,13 @@
       </c>
       <c r="N260" s="2" t="n"/>
       <c r="O260" s="32" t="n">
-        <v>-40.3</v>
+        <v>-38.6</v>
       </c>
       <c r="P260" s="32" t="n">
-        <v>-15.3</v>
+        <v>-11.2</v>
       </c>
       <c r="Q260" s="32" t="n">
-        <v>-30.62</v>
+        <v>-27.79</v>
       </c>
       <c r="R260" s="23" t="inlineStr">
         <is>
@@ -27626,13 +27644,13 @@
       </c>
       <c r="N261" s="2" t="n"/>
       <c r="O261" s="32" t="n">
-        <v>-38.3</v>
+        <v>-35.5</v>
       </c>
       <c r="P261" s="32" t="n">
-        <v>-19.2</v>
+        <v>-17.2</v>
       </c>
       <c r="Q261" s="32" t="n">
-        <v>-30.21</v>
+        <v>-27.99</v>
       </c>
       <c r="R261" s="23" t="inlineStr">
         <is>
@@ -27738,13 +27756,13 @@
       </c>
       <c r="N262" s="2" t="n"/>
       <c r="O262" s="32" t="n">
-        <v>-12.7</v>
+        <v>-8.5</v>
       </c>
       <c r="P262" s="32" t="n">
-        <v>-2</v>
+        <v>0.1</v>
       </c>
       <c r="Q262" s="32" t="n">
-        <v>-8.24</v>
+        <v>-4.95</v>
       </c>
       <c r="R262" s="23" t="inlineStr">
         <is>
@@ -27944,13 +27962,13 @@
       </c>
       <c r="N264" s="2" t="n"/>
       <c r="O264" s="32" t="n">
-        <v>-26.2</v>
+        <v>-20.8</v>
       </c>
       <c r="P264" s="32" t="n">
-        <v>-13.8</v>
+        <v>-14.7</v>
       </c>
       <c r="Q264" s="32" t="n">
-        <v>-21.3</v>
+        <v>-18.85</v>
       </c>
       <c r="R264" s="23" t="inlineStr">
         <is>
@@ -28064,10 +28082,10 @@
       </c>
       <c r="N265" s="2" t="n"/>
       <c r="O265" s="32" t="n">
-        <v>-49.5</v>
+        <v>-43.6</v>
       </c>
       <c r="P265" s="32" t="n">
-        <v>-37.4</v>
+        <v>-37.8</v>
       </c>
       <c r="Q265" s="32" t="n"/>
       <c r="R265" s="23" t="inlineStr">
@@ -28427,12 +28445,8 @@
         </is>
       </c>
       <c r="N269" s="2" t="n"/>
-      <c r="O269" s="32" t="n">
-        <v>-38.6</v>
-      </c>
-      <c r="P269" s="32" t="n">
-        <v>-21.1</v>
-      </c>
+      <c r="O269" s="32" t="n"/>
+      <c r="P269" s="32" t="n"/>
       <c r="Q269" s="32" t="n"/>
       <c r="R269" s="23" t="n"/>
       <c r="S269" s="37" t="n"/>
@@ -29001,12 +29015,8 @@
         </is>
       </c>
       <c r="N275" s="2" t="n"/>
-      <c r="O275" s="32" t="n">
-        <v>-39</v>
-      </c>
-      <c r="P275" s="32" t="n">
-        <v>-28.1</v>
-      </c>
+      <c r="O275" s="32" t="n"/>
+      <c r="P275" s="32" t="n"/>
       <c r="Q275" s="32" t="n"/>
       <c r="R275" s="23" t="inlineStr">
         <is>
@@ -29112,13 +29122,13 @@
       </c>
       <c r="N276" s="2" t="n"/>
       <c r="O276" s="32" t="n">
-        <v>-44</v>
+        <v>-42.6</v>
       </c>
       <c r="P276" s="32" t="n">
-        <v>-31.9</v>
+        <v>-28.2</v>
       </c>
       <c r="Q276" s="32" t="n">
-        <v>-38.56</v>
+        <v>-35.44</v>
       </c>
       <c r="R276" s="23" t="inlineStr">
         <is>
@@ -29295,8 +29305,12 @@
         </is>
       </c>
       <c r="N278" s="2" t="n"/>
-      <c r="O278" s="32" t="n"/>
-      <c r="P278" s="32" t="n"/>
+      <c r="O278" s="32" t="n">
+        <v>-37.9</v>
+      </c>
+      <c r="P278" s="32" t="n">
+        <v>-16</v>
+      </c>
       <c r="Q278" s="32" t="n"/>
       <c r="R278" s="23" t="inlineStr">
         <is>
@@ -29533,37 +29547,97 @@
       <c r="AH280" s="2" t="n"/>
     </row>
     <row r="281" ht="24" customHeight="1" s="44">
-      <c r="A281" s="2" t="n"/>
+      <c r="A281" s="2" t="n">
+        <v>280</v>
+      </c>
       <c r="B281" s="2" t="n"/>
       <c r="C281" s="27" t="n"/>
       <c r="D281" s="2" t="n"/>
       <c r="E281" s="4" t="n"/>
-      <c r="F281" s="39" t="n"/>
+      <c r="F281" s="39" t="inlineStr">
+        <is>
+          <t>E9490</t>
+        </is>
+      </c>
       <c r="G281" s="29" t="n"/>
       <c r="H281" s="29" t="n"/>
       <c r="I281" s="2" t="n"/>
-      <c r="J281" s="27" t="n"/>
-      <c r="K281" s="4" t="n"/>
+      <c r="J281" s="27" t="n">
+        <v>12</v>
+      </c>
+      <c r="K281" s="31" t="inlineStr">
+        <is>
+          <t>🇨🇳</t>
+        </is>
+      </c>
       <c r="L281" s="2" t="n"/>
-      <c r="M281" s="14" t="n"/>
+      <c r="M281" s="14" t="inlineStr">
+        <is>
+          <t>靖宇板石林场</t>
+        </is>
+      </c>
       <c r="N281" s="2" t="n"/>
-      <c r="O281" s="32" t="n"/>
-      <c r="P281" s="32" t="n"/>
+      <c r="O281" s="32" t="n">
+        <v>-40.6</v>
+      </c>
+      <c r="P281" s="32" t="n">
+        <v>-16</v>
+      </c>
       <c r="Q281" s="32" t="n"/>
-      <c r="R281" s="23" t="n"/>
+      <c r="R281" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S281" s="37" t="n"/>
-      <c r="T281" s="41" t="n"/>
-      <c r="U281" s="2" t="n"/>
-      <c r="V281" s="4" t="n"/>
-      <c r="W281" s="4" t="n"/>
-      <c r="X281" s="4" t="n"/>
+      <c r="T281" s="41" t="inlineStr">
+        <is>
+          <t>吉林省白山市</t>
+        </is>
+      </c>
+      <c r="U281" s="2" t="inlineStr">
+        <is>
+          <t>吉林省</t>
+        </is>
+      </c>
+      <c r="V281" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="W281" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="X281" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="Y281" s="4" t="n"/>
-      <c r="Z281" s="2" t="n"/>
-      <c r="AA281" s="2" t="n"/>
+      <c r="Z281" s="2" t="inlineStr">
+        <is>
+          <t>白山市</t>
+        </is>
+      </c>
+      <c r="AA281" s="2" t="inlineStr">
+        <is>
+          <t>靖宇县</t>
+        </is>
+      </c>
       <c r="AB281" s="2" t="n"/>
       <c r="AC281" s="2" t="n"/>
-      <c r="AD281" s="2" t="n"/>
-      <c r="AE281" s="4" t="n"/>
+      <c r="AD281" s="2" t="inlineStr">
+        <is>
+          <t>中国</t>
+        </is>
+      </c>
+      <c r="AE281" s="4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
       <c r="AF281" s="4" t="n"/>
       <c r="AG281" s="2" t="n"/>
       <c r="AH281" s="2" t="n"/>

--- a/气象/For_Python_站点信息和记录.xlsx
+++ b/气象/For_Python_站点信息和记录.xlsx
@@ -790,8 +790,8 @@
     <col width="18.59765625" customWidth="1" style="8" min="25" max="25"/>
     <col width="12.59765625" customWidth="1" style="5" min="26" max="30"/>
     <col width="12.59765625" customWidth="1" style="8" min="31" max="32"/>
-    <col width="12.59765625" customWidth="1" style="5" min="33" max="236"/>
-    <col width="12.59765625" customWidth="1" style="5" min="237" max="16384"/>
+    <col width="12.59765625" customWidth="1" style="5" min="33" max="238"/>
+    <col width="12.59765625" customWidth="1" style="5" min="239" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.75" customFormat="1" customHeight="1" s="11">
@@ -1014,13 +1014,13 @@
         </is>
       </c>
       <c r="O2" s="32" t="n">
-        <v>-42.3</v>
+        <v>-40.2</v>
       </c>
       <c r="P2" s="32" t="n">
-        <v>-31.1</v>
+        <v>-27.6</v>
       </c>
       <c r="Q2" s="32" t="n">
-        <v>-37.84</v>
+        <v>-33.49</v>
       </c>
       <c r="R2" s="23" t="inlineStr">
         <is>
@@ -1124,10 +1124,10 @@
         </is>
       </c>
       <c r="O3" s="32" t="n">
-        <v>-42.5</v>
+        <v>-41</v>
       </c>
       <c r="P3" s="32" t="n">
-        <v>-29.1</v>
+        <v>-27.3</v>
       </c>
       <c r="Q3" s="32" t="n"/>
       <c r="R3" s="23" t="n"/>
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="O4" s="32" t="n">
-        <v>-41.4</v>
+        <v>-38.4</v>
       </c>
       <c r="P4" s="32" t="n">
-        <v>-25.1</v>
+        <v>-21.9</v>
       </c>
       <c r="Q4" s="32" t="n"/>
       <c r="R4" s="23" t="n"/>
@@ -1320,10 +1320,10 @@
       </c>
       <c r="N5" s="2" t="n"/>
       <c r="O5" s="32" t="n">
-        <v>-38.4</v>
+        <v>-36.6</v>
       </c>
       <c r="P5" s="32" t="n">
-        <v>-26</v>
+        <v>-22.5</v>
       </c>
       <c r="Q5" s="32" t="n"/>
       <c r="R5" s="23" t="n"/>
@@ -1420,10 +1420,10 @@
         </is>
       </c>
       <c r="O6" s="32" t="n">
-        <v>-40.5</v>
+        <v>-40.6</v>
       </c>
       <c r="P6" s="32" t="n">
-        <v>-24.8</v>
+        <v>-23.2</v>
       </c>
       <c r="Q6" s="32" t="n"/>
       <c r="R6" s="23" t="n"/>
@@ -1520,11 +1520,9 @@
         </is>
       </c>
       <c r="O7" s="32" t="n">
-        <v>-40.4</v>
-      </c>
-      <c r="P7" s="32" t="n">
-        <v>-27.4</v>
-      </c>
+        <v>-38.9</v>
+      </c>
+      <c r="P7" s="32" t="n"/>
       <c r="Q7" s="32" t="n"/>
       <c r="R7" s="23" t="n"/>
       <c r="S7" s="37" t="n"/>
@@ -1628,13 +1626,13 @@
       </c>
       <c r="N8" s="2" t="n"/>
       <c r="O8" s="32" t="n">
-        <v>-36.4</v>
+        <v>-35.9</v>
       </c>
       <c r="P8" s="32" t="n">
-        <v>-21.6</v>
+        <v>-19.7</v>
       </c>
       <c r="Q8" s="32" t="n">
-        <v>-30.15</v>
+        <v>-29.02</v>
       </c>
       <c r="R8" s="23" t="inlineStr">
         <is>
@@ -1740,13 +1738,13 @@
       </c>
       <c r="N9" s="2" t="n"/>
       <c r="O9" s="32" t="n">
-        <v>-37.6</v>
+        <v>-34.5</v>
       </c>
       <c r="P9" s="32" t="n">
-        <v>-24.7</v>
+        <v>-23.5</v>
       </c>
       <c r="Q9" s="32" t="n">
-        <v>-32.05</v>
+        <v>-29.76</v>
       </c>
       <c r="R9" s="23" t="inlineStr">
         <is>
@@ -1856,13 +1854,13 @@
       </c>
       <c r="N10" s="3" t="n"/>
       <c r="O10" s="32" t="n">
-        <v>-40.9</v>
+        <v>-38.3</v>
       </c>
       <c r="P10" s="32" t="n">
-        <v>-23.5</v>
+        <v>-22.3</v>
       </c>
       <c r="Q10" s="32" t="n">
-        <v>-33.65</v>
+        <v>-30.39</v>
       </c>
       <c r="R10" s="23" t="inlineStr">
         <is>
@@ -1972,13 +1970,13 @@
         </is>
       </c>
       <c r="O11" s="32" t="n">
-        <v>-37.6</v>
+        <v>-31.5</v>
       </c>
       <c r="P11" s="32" t="n">
-        <v>-14</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="Q11" s="32" t="n">
-        <v>-28.22</v>
+        <v>-18.05</v>
       </c>
       <c r="R11" s="23" t="inlineStr">
         <is>
@@ -2084,13 +2082,13 @@
       </c>
       <c r="N12" s="2" t="n"/>
       <c r="O12" s="32" t="n">
-        <v>-39.5</v>
+        <v>-38.1</v>
       </c>
       <c r="P12" s="32" t="n">
-        <v>-24.6</v>
+        <v>-20.9</v>
       </c>
       <c r="Q12" s="32" t="n">
-        <v>-33.76</v>
+        <v>-31.41</v>
       </c>
       <c r="R12" s="23" t="inlineStr">
         <is>
@@ -2200,13 +2198,13 @@
         </is>
       </c>
       <c r="O13" s="32" t="n">
-        <v>-40.5</v>
+        <v>-39.7</v>
       </c>
       <c r="P13" s="32" t="n">
-        <v>-28.4</v>
+        <v>-26.2</v>
       </c>
       <c r="Q13" s="32" t="n">
-        <v>-35.51</v>
+        <v>-33.61</v>
       </c>
       <c r="R13" s="23" t="inlineStr">
         <is>
@@ -2316,13 +2314,13 @@
       </c>
       <c r="N14" s="2" t="n"/>
       <c r="O14" s="32" t="n">
-        <v>-23.8</v>
+        <v>-20.9</v>
       </c>
       <c r="P14" s="32" t="n">
-        <v>-11.1</v>
+        <v>-6.9</v>
       </c>
       <c r="Q14" s="32" t="n">
-        <v>-18.93</v>
+        <v>-15.46</v>
       </c>
       <c r="R14" s="23" t="inlineStr">
         <is>
@@ -2518,13 +2516,13 @@
       </c>
       <c r="N16" s="2" t="n"/>
       <c r="O16" s="32" t="n">
-        <v>-33.2</v>
+        <v>-32.6</v>
       </c>
       <c r="P16" s="32" t="n">
-        <v>-11.2</v>
+        <v>-7.7</v>
       </c>
       <c r="Q16" s="32" t="n">
-        <v>-24.46</v>
+        <v>-22.12</v>
       </c>
       <c r="R16" s="23" t="inlineStr">
         <is>
@@ -2707,8 +2705,12 @@
         </is>
       </c>
       <c r="N18" s="2" t="n"/>
-      <c r="O18" s="32" t="n"/>
-      <c r="P18" s="32" t="n"/>
+      <c r="O18" s="32" t="n">
+        <v>-37.7</v>
+      </c>
+      <c r="P18" s="32" t="n">
+        <v>-21.5</v>
+      </c>
       <c r="Q18" s="32" t="n"/>
       <c r="R18" s="23" t="n"/>
       <c r="S18" s="37" t="n"/>
@@ -4707,12 +4709,8 @@
         </is>
       </c>
       <c r="N40" s="3" t="n"/>
-      <c r="O40" s="32" t="n">
-        <v>-35.1</v>
-      </c>
-      <c r="P40" s="32" t="n">
-        <v>-20.1</v>
-      </c>
+      <c r="O40" s="32" t="n"/>
+      <c r="P40" s="32" t="n"/>
       <c r="Q40" s="32" t="n"/>
       <c r="R40" s="23" t="n"/>
       <c r="S40" s="37" t="n"/>
@@ -4799,8 +4797,12 @@
         </is>
       </c>
       <c r="N41" s="2" t="n"/>
-      <c r="O41" s="32" t="n"/>
-      <c r="P41" s="32" t="n"/>
+      <c r="O41" s="32" t="n">
+        <v>-36.3</v>
+      </c>
+      <c r="P41" s="32" t="n">
+        <v>-18.3</v>
+      </c>
       <c r="Q41" s="32" t="n"/>
       <c r="R41" s="23" t="n"/>
       <c r="S41" s="37" t="n"/>
@@ -4972,10 +4974,10 @@
       </c>
       <c r="N43" s="2" t="n"/>
       <c r="O43" s="32" t="n">
-        <v>-34.6</v>
+        <v>-34</v>
       </c>
       <c r="P43" s="32" t="n">
-        <v>-29.4</v>
+        <v>-29.1</v>
       </c>
       <c r="Q43" s="32" t="n"/>
       <c r="R43" s="23" t="n"/>
@@ -6571,12 +6573,8 @@
         </is>
       </c>
       <c r="N61" s="2" t="n"/>
-      <c r="O61" s="32" t="n">
-        <v>-36.9</v>
-      </c>
-      <c r="P61" s="32" t="n">
-        <v>-20.2</v>
-      </c>
+      <c r="O61" s="32" t="n"/>
+      <c r="P61" s="32" t="n"/>
       <c r="Q61" s="32" t="n"/>
       <c r="R61" s="23" t="n"/>
       <c r="S61" s="37" t="n"/>
@@ -7838,13 +7836,13 @@
       </c>
       <c r="N75" s="2" t="n"/>
       <c r="O75" s="32" t="n">
-        <v>-31.5</v>
+        <v>-35.1</v>
       </c>
       <c r="P75" s="32" t="n">
-        <v>-19.9</v>
+        <v>-14.5</v>
       </c>
       <c r="Q75" s="32" t="n">
-        <v>-25.96</v>
+        <v>-26.41</v>
       </c>
       <c r="R75" s="23" t="inlineStr">
         <is>
@@ -7950,13 +7948,13 @@
       </c>
       <c r="N76" s="2" t="n"/>
       <c r="O76" s="32" t="n">
-        <v>-37.6</v>
+        <v>-40.4</v>
       </c>
       <c r="P76" s="32" t="n">
-        <v>-23</v>
+        <v>-23.5</v>
       </c>
       <c r="Q76" s="32" t="n">
-        <v>-31</v>
+        <v>-32.65</v>
       </c>
       <c r="R76" s="23" t="inlineStr">
         <is>
@@ -8066,13 +8064,13 @@
         </is>
       </c>
       <c r="O77" s="32" t="n">
-        <v>-38.3</v>
+        <v>-41</v>
       </c>
       <c r="P77" s="32" t="n">
-        <v>-19.6</v>
+        <v>-21.2</v>
       </c>
       <c r="Q77" s="32" t="n">
-        <v>-30.84</v>
+        <v>-32.73</v>
       </c>
       <c r="R77" s="23" t="inlineStr">
         <is>
@@ -8182,13 +8180,13 @@
       </c>
       <c r="N78" s="2" t="n"/>
       <c r="O78" s="32" t="n">
-        <v>-32.4</v>
+        <v>-38.8</v>
       </c>
       <c r="P78" s="32" t="n">
-        <v>-18.1</v>
+        <v>-20.1</v>
       </c>
       <c r="Q78" s="32" t="n">
-        <v>-27.52</v>
+        <v>-30.41</v>
       </c>
       <c r="R78" s="23" t="inlineStr">
         <is>
@@ -8298,13 +8296,13 @@
         </is>
       </c>
       <c r="O79" s="32" t="n">
-        <v>-36</v>
+        <v>-40.5</v>
       </c>
       <c r="P79" s="32" t="n">
-        <v>-15</v>
+        <v>-18.7</v>
       </c>
       <c r="Q79" s="32" t="n">
-        <v>-28.09</v>
+        <v>-31.92</v>
       </c>
       <c r="R79" s="23" t="inlineStr">
         <is>
@@ -8410,13 +8408,13 @@
       </c>
       <c r="N80" s="2" t="n"/>
       <c r="O80" s="32" t="n">
-        <v>-33.5</v>
+        <v>-25</v>
       </c>
       <c r="P80" s="32" t="n">
-        <v>-18.8</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="Q80" s="32" t="n">
-        <v>-26.36</v>
+        <v>-17.65</v>
       </c>
       <c r="R80" s="23" t="inlineStr">
         <is>
@@ -8526,13 +8524,13 @@
         </is>
       </c>
       <c r="O81" s="32" t="n">
-        <v>-39.8</v>
+        <v>-27.9</v>
       </c>
       <c r="P81" s="32" t="n">
-        <v>-19.7</v>
+        <v>-6.2</v>
       </c>
       <c r="Q81" s="32" t="n">
-        <v>-31.01</v>
+        <v>-19</v>
       </c>
       <c r="R81" s="23" t="inlineStr">
         <is>
@@ -8647,13 +8645,13 @@
         </is>
       </c>
       <c r="O82" s="32" t="n">
-        <v>-40</v>
+        <v>-26</v>
       </c>
       <c r="P82" s="32" t="n">
-        <v>-13.6</v>
+        <v>-4.2</v>
       </c>
       <c r="Q82" s="32" t="n">
-        <v>-29.91</v>
+        <v>-17.8</v>
       </c>
       <c r="R82" s="23" t="inlineStr">
         <is>
@@ -8763,13 +8761,13 @@
       </c>
       <c r="N83" s="2" t="n"/>
       <c r="O83" s="32" t="n">
-        <v>-35.3</v>
+        <v>-31.9</v>
       </c>
       <c r="P83" s="32" t="n">
-        <v>-24.7</v>
+        <v>-19.9</v>
       </c>
       <c r="Q83" s="32" t="n">
-        <v>-30.65</v>
+        <v>-27.07</v>
       </c>
       <c r="R83" s="23" t="inlineStr">
         <is>
@@ -8883,13 +8881,13 @@
         </is>
       </c>
       <c r="O84" s="32" t="n">
-        <v>-35.7</v>
+        <v>-31.3</v>
       </c>
       <c r="P84" s="32" t="n">
-        <v>-23.1</v>
+        <v>-17.1</v>
       </c>
       <c r="Q84" s="32" t="n">
-        <v>-30.48</v>
+        <v>-23.9</v>
       </c>
       <c r="R84" s="23" t="inlineStr">
         <is>
@@ -9003,13 +9001,13 @@
         </is>
       </c>
       <c r="O85" s="32" t="n">
-        <v>-41.9</v>
+        <v>-38.5</v>
       </c>
       <c r="P85" s="32" t="n">
-        <v>-23.8</v>
+        <v>-20</v>
       </c>
       <c r="Q85" s="32" t="n">
-        <v>-34.35</v>
+        <v>-29.46</v>
       </c>
       <c r="R85" s="23" t="inlineStr">
         <is>
@@ -9115,13 +9113,13 @@
       </c>
       <c r="N86" s="2" t="n"/>
       <c r="O86" s="32" t="n">
-        <v>-37.3</v>
+        <v>-33.4</v>
       </c>
       <c r="P86" s="32" t="n">
-        <v>-24.2</v>
+        <v>-19.7</v>
       </c>
       <c r="Q86" s="32" t="n">
-        <v>-32.1</v>
+        <v>-27.44</v>
       </c>
       <c r="R86" s="23" t="inlineStr">
         <is>
@@ -9239,13 +9237,13 @@
         </is>
       </c>
       <c r="O87" s="32" t="n">
-        <v>-39.7</v>
+        <v>-39</v>
       </c>
       <c r="P87" s="32" t="n">
-        <v>-25.7</v>
+        <v>-24.3</v>
       </c>
       <c r="Q87" s="32" t="n">
-        <v>-33.82</v>
+        <v>-31.7</v>
       </c>
       <c r="R87" s="23" t="inlineStr">
         <is>
@@ -9351,13 +9349,13 @@
       </c>
       <c r="N88" s="2" t="n"/>
       <c r="O88" s="32" t="n">
-        <v>-34.3</v>
+        <v>-31.4</v>
       </c>
       <c r="P88" s="32" t="n">
-        <v>-21.6</v>
+        <v>-18.3</v>
       </c>
       <c r="Q88" s="32" t="n">
-        <v>-30.18</v>
+        <v>-24.89</v>
       </c>
       <c r="R88" s="23" t="inlineStr">
         <is>
@@ -9569,13 +9567,13 @@
         </is>
       </c>
       <c r="O90" s="32" t="n">
-        <v>-6.2</v>
+        <v>-16.5</v>
       </c>
       <c r="P90" s="32" t="n">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="Q90" s="32" t="n">
-        <v>-5.69</v>
+        <v>-8.470000000000001</v>
       </c>
       <c r="R90" s="23" t="inlineStr">
         <is>
@@ -9677,13 +9675,13 @@
       </c>
       <c r="N91" s="2" t="n"/>
       <c r="O91" s="32" t="n">
-        <v>-19.2</v>
+        <v>-17.6</v>
       </c>
       <c r="P91" s="32" t="n">
-        <v>-8.5</v>
+        <v>-6.9</v>
       </c>
       <c r="Q91" s="32" t="n">
-        <v>-12.11</v>
+        <v>-12.71</v>
       </c>
       <c r="R91" s="23" t="inlineStr">
         <is>
@@ -9785,13 +9783,13 @@
       </c>
       <c r="N92" s="2" t="n"/>
       <c r="O92" s="32" t="n">
-        <v>-30.5</v>
+        <v>-32</v>
       </c>
       <c r="P92" s="32" t="n">
-        <v>-18.4</v>
+        <v>-15.7</v>
       </c>
       <c r="Q92" s="32" t="n">
-        <v>-25.49</v>
+        <v>-24.22</v>
       </c>
       <c r="R92" s="23" t="inlineStr">
         <is>
@@ -9897,13 +9895,13 @@
       </c>
       <c r="N93" s="2" t="n"/>
       <c r="O93" s="32" t="n">
-        <v>-23.4</v>
+        <v>-22.5</v>
       </c>
       <c r="P93" s="32" t="n">
-        <v>-11.5</v>
+        <v>-4.3</v>
       </c>
       <c r="Q93" s="32" t="n">
-        <v>-17.24</v>
+        <v>-13.54</v>
       </c>
       <c r="R93" s="23" t="inlineStr">
         <is>
@@ -10017,10 +10015,10 @@
         </is>
       </c>
       <c r="O94" s="32" t="n">
-        <v>-32.2</v>
+        <v>-31.4</v>
       </c>
       <c r="P94" s="32" t="n">
-        <v>-13.8</v>
+        <v>-7.7</v>
       </c>
       <c r="Q94" s="32" t="n"/>
       <c r="R94" s="23" t="inlineStr">
@@ -10135,12 +10133,14 @@
       </c>
       <c r="N95" s="2" t="n"/>
       <c r="O95" s="32" t="n">
-        <v>-23.7</v>
+        <v>-23.6</v>
       </c>
       <c r="P95" s="32" t="n">
-        <v>-15.2</v>
-      </c>
-      <c r="Q95" s="32" t="n"/>
+        <v>-9.6</v>
+      </c>
+      <c r="Q95" s="32" t="n">
+        <v>-15.4</v>
+      </c>
       <c r="R95" s="23" t="inlineStr">
         <is>
           <t>Y</t>
@@ -10261,10 +10261,10 @@
         </is>
       </c>
       <c r="O96" s="32" t="n">
-        <v>-34.5</v>
+        <v>-32.5</v>
       </c>
       <c r="P96" s="32" t="n">
-        <v>-15.5</v>
+        <v>-10.7</v>
       </c>
       <c r="Q96" s="32" t="n"/>
       <c r="R96" s="23" t="inlineStr">
@@ -10379,13 +10379,13 @@
       </c>
       <c r="N97" s="2" t="n"/>
       <c r="O97" s="32" t="n">
-        <v>-32.8</v>
+        <v>-21.9</v>
       </c>
       <c r="P97" s="32" t="n">
-        <v>-16.4</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="Q97" s="32" t="n">
-        <v>-23.24</v>
+        <v>-16.2</v>
       </c>
       <c r="R97" s="23" t="inlineStr">
         <is>
@@ -10495,10 +10495,10 @@
       </c>
       <c r="N98" s="2" t="n"/>
       <c r="O98" s="32" t="n">
-        <v>-34.8</v>
+        <v>-35.9</v>
       </c>
       <c r="P98" s="32" t="n">
-        <v>-19</v>
+        <v>-15.5</v>
       </c>
       <c r="Q98" s="32" t="n"/>
       <c r="R98" s="23" t="inlineStr">
@@ -10613,13 +10613,13 @@
       </c>
       <c r="N99" s="2" t="n"/>
       <c r="O99" s="32" t="n">
-        <v>-32.7</v>
+        <v>-32</v>
       </c>
       <c r="P99" s="32" t="n">
-        <v>-15.8</v>
+        <v>-13.9</v>
       </c>
       <c r="Q99" s="32" t="n">
-        <v>-25.1</v>
+        <v>-24.28</v>
       </c>
       <c r="R99" s="23" t="inlineStr">
         <is>
@@ -10830,12 +10830,8 @@
         </is>
       </c>
       <c r="N101" s="2" t="n"/>
-      <c r="O101" s="32" t="n">
-        <v>-39.2</v>
-      </c>
-      <c r="P101" s="32" t="n">
-        <v>-13.2</v>
-      </c>
+      <c r="O101" s="32" t="n"/>
+      <c r="P101" s="32" t="n"/>
       <c r="Q101" s="32" t="n"/>
       <c r="R101" s="23" t="inlineStr">
         <is>
@@ -10949,13 +10945,13 @@
       </c>
       <c r="N102" s="2" t="n"/>
       <c r="O102" s="32" t="n">
-        <v>-38.3</v>
+        <v>-27.6</v>
       </c>
       <c r="P102" s="32" t="n">
-        <v>-14.7</v>
+        <v>-5.7</v>
       </c>
       <c r="Q102" s="32" t="n">
-        <v>-27.66</v>
+        <v>-18.11</v>
       </c>
       <c r="R102" s="23" t="inlineStr">
         <is>
@@ -11065,10 +11061,10 @@
       </c>
       <c r="N103" s="2" t="n"/>
       <c r="O103" s="32" t="n">
-        <v>-35</v>
+        <v>-22.5</v>
       </c>
       <c r="P103" s="32" t="n">
-        <v>-17.1</v>
+        <v>-7.5</v>
       </c>
       <c r="Q103" s="32" t="n"/>
       <c r="R103" s="23" t="inlineStr">
@@ -11175,10 +11171,10 @@
       </c>
       <c r="N104" s="2" t="n"/>
       <c r="O104" s="32" t="n">
-        <v>-36.2</v>
+        <v>-32.9</v>
       </c>
       <c r="P104" s="32" t="n">
-        <v>-17.5</v>
+        <v>-15.5</v>
       </c>
       <c r="Q104" s="32" t="n"/>
       <c r="R104" s="23" t="inlineStr">
@@ -11297,13 +11293,13 @@
         </is>
       </c>
       <c r="O105" s="32" t="n">
-        <v>-34.8</v>
+        <v>-33.2</v>
       </c>
       <c r="P105" s="32" t="n">
-        <v>-17.7</v>
+        <v>-15.4</v>
       </c>
       <c r="Q105" s="32" t="n">
-        <v>-27.05</v>
+        <v>-25.74</v>
       </c>
       <c r="R105" s="23" t="inlineStr">
         <is>
@@ -11417,10 +11413,10 @@
         </is>
       </c>
       <c r="O106" s="32" t="n">
-        <v>-34.4</v>
+        <v>-32.5</v>
       </c>
       <c r="P106" s="32" t="n">
-        <v>-22</v>
+        <v>-17.1</v>
       </c>
       <c r="Q106" s="32" t="n"/>
       <c r="R106" s="23" t="inlineStr">
@@ -11641,13 +11637,13 @@
       </c>
       <c r="N108" s="2" t="n"/>
       <c r="O108" s="32" t="n">
-        <v>-35.3</v>
+        <v>-28.4</v>
       </c>
       <c r="P108" s="32" t="n">
-        <v>-23.4</v>
+        <v>-13.9</v>
       </c>
       <c r="Q108" s="32" t="n">
-        <v>-29.55</v>
+        <v>-21.81</v>
       </c>
       <c r="R108" s="23" t="inlineStr">
         <is>
@@ -11854,12 +11850,8 @@
         </is>
       </c>
       <c r="N110" s="2" t="n"/>
-      <c r="O110" s="32" t="n">
-        <v>-36</v>
-      </c>
-      <c r="P110" s="32" t="n">
-        <v>-23.8</v>
-      </c>
+      <c r="O110" s="32" t="n"/>
+      <c r="P110" s="32" t="n"/>
       <c r="Q110" s="32" t="n"/>
       <c r="R110" s="23" t="inlineStr">
         <is>
@@ -11973,13 +11965,13 @@
       </c>
       <c r="N111" s="2" t="n"/>
       <c r="O111" s="32" t="n">
-        <v>-38</v>
+        <v>-32</v>
       </c>
       <c r="P111" s="32" t="n">
-        <v>-22.6</v>
+        <v>-10.3</v>
       </c>
       <c r="Q111" s="32" t="n">
-        <v>-31.68</v>
+        <v>-24.23</v>
       </c>
       <c r="R111" s="23" t="inlineStr">
         <is>
@@ -12085,10 +12077,10 @@
       </c>
       <c r="N112" s="2" t="n"/>
       <c r="O112" s="32" t="n">
-        <v>-26.1</v>
+        <v>-25.9</v>
       </c>
       <c r="P112" s="32" t="n">
-        <v>-14.1</v>
+        <v>0.6</v>
       </c>
       <c r="Q112" s="32" t="n"/>
       <c r="R112" s="23" t="inlineStr">
@@ -12191,10 +12183,10 @@
       </c>
       <c r="N113" s="2" t="n"/>
       <c r="O113" s="32" t="n">
-        <v>-20.3</v>
+        <v>-10.8</v>
       </c>
       <c r="P113" s="32" t="n">
-        <v>-1.5</v>
+        <v>-4.6</v>
       </c>
       <c r="Q113" s="32" t="n"/>
       <c r="R113" s="23" t="inlineStr">
@@ -12305,10 +12297,10 @@
         </is>
       </c>
       <c r="O114" s="32" t="n">
-        <v>-26.3</v>
+        <v>-19.6</v>
       </c>
       <c r="P114" s="32" t="n">
-        <v>-1.4</v>
+        <v>-1.9</v>
       </c>
       <c r="Q114" s="32" t="n"/>
       <c r="R114" s="23" t="inlineStr">
@@ -12427,10 +12419,10 @@
         </is>
       </c>
       <c r="O115" s="32" t="n">
-        <v>-22.3</v>
+        <v>-20.7</v>
       </c>
       <c r="P115" s="32" t="n">
-        <v>-4.8</v>
+        <v>-6.3</v>
       </c>
       <c r="Q115" s="32" t="n"/>
       <c r="R115" s="23" t="inlineStr">
@@ -12545,13 +12537,13 @@
       </c>
       <c r="N116" s="2" t="n"/>
       <c r="O116" s="32" t="n">
-        <v>-24.8</v>
+        <v>-21.6</v>
       </c>
       <c r="P116" s="32" t="n">
-        <v>-3.7</v>
+        <v>-0.2</v>
       </c>
       <c r="Q116" s="32" t="n">
-        <v>-15.83</v>
+        <v>-12</v>
       </c>
       <c r="R116" s="23" t="inlineStr">
         <is>
@@ -12657,10 +12649,10 @@
       </c>
       <c r="N117" s="2" t="n"/>
       <c r="O117" s="32" t="n">
-        <v>-23</v>
+        <v>-20.2</v>
       </c>
       <c r="P117" s="32" t="n">
-        <v>-8</v>
+        <v>-4.8</v>
       </c>
       <c r="Q117" s="32" t="n"/>
       <c r="R117" s="23" t="inlineStr">
@@ -12771,10 +12763,10 @@
         </is>
       </c>
       <c r="O118" s="32" t="n">
-        <v>-31.6</v>
+        <v>-25.1</v>
       </c>
       <c r="P118" s="32" t="n">
-        <v>-11.4</v>
+        <v>-8</v>
       </c>
       <c r="Q118" s="32" t="n"/>
       <c r="R118" s="23" t="inlineStr">
@@ -12889,13 +12881,13 @@
       </c>
       <c r="N119" s="2" t="n"/>
       <c r="O119" s="32" t="n">
-        <v>-18.5</v>
+        <v>-15.4</v>
       </c>
       <c r="P119" s="32" t="n">
-        <v>-4.6</v>
+        <v>-7.5</v>
       </c>
       <c r="Q119" s="32" t="n">
-        <v>-12.19</v>
+        <v>-11.81</v>
       </c>
       <c r="R119" s="23" t="inlineStr">
         <is>
@@ -13119,13 +13111,13 @@
       </c>
       <c r="N121" s="2" t="n"/>
       <c r="O121" s="32" t="n">
-        <v>-9.9</v>
+        <v>-11.9</v>
       </c>
       <c r="P121" s="32" t="n">
-        <v>-5.1</v>
+        <v>-5.4</v>
       </c>
       <c r="Q121" s="32" t="n">
-        <v>-8.32</v>
+        <v>-8.140000000000001</v>
       </c>
       <c r="R121" s="23" t="inlineStr">
         <is>
@@ -13243,10 +13235,10 @@
       </c>
       <c r="N122" s="2" t="n"/>
       <c r="O122" s="32" t="n">
-        <v>-23.3</v>
+        <v>-22.6</v>
       </c>
       <c r="P122" s="32" t="n">
-        <v>-10.2</v>
+        <v>-7</v>
       </c>
       <c r="Q122" s="32" t="n"/>
       <c r="R122" s="23" t="inlineStr">
@@ -13471,13 +13463,13 @@
       </c>
       <c r="N124" s="2" t="n"/>
       <c r="O124" s="32" t="n">
-        <v>-18.7</v>
+        <v>-16</v>
       </c>
       <c r="P124" s="32" t="n">
-        <v>-2.8</v>
+        <v>-0.3</v>
       </c>
       <c r="Q124" s="32" t="n">
-        <v>-11.24</v>
+        <v>-9</v>
       </c>
       <c r="R124" s="23" t="inlineStr">
         <is>
@@ -13595,13 +13587,13 @@
       </c>
       <c r="N125" s="2" t="n"/>
       <c r="O125" s="32" t="n">
-        <v>-10.5</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="P125" s="32" t="n">
-        <v>0.8</v>
+        <v>5.2</v>
       </c>
       <c r="Q125" s="32" t="n">
-        <v>-4.4</v>
+        <v>-2.96</v>
       </c>
       <c r="R125" s="23" t="inlineStr">
         <is>
@@ -13695,10 +13687,10 @@
       </c>
       <c r="N126" s="2" t="n"/>
       <c r="O126" s="32" t="n">
-        <v>-7.1</v>
+        <v>-7.7</v>
       </c>
       <c r="P126" s="32" t="n">
-        <v>0.2</v>
+        <v>5.9</v>
       </c>
       <c r="Q126" s="32" t="n"/>
       <c r="R126" s="23" t="inlineStr">
@@ -13805,13 +13797,13 @@
       </c>
       <c r="N127" s="2" t="n"/>
       <c r="O127" s="32" t="n">
-        <v>-12</v>
+        <v>-12.9</v>
       </c>
       <c r="P127" s="32" t="n">
-        <v>1</v>
+        <v>5.7</v>
       </c>
       <c r="Q127" s="32" t="n">
-        <v>-6.54</v>
+        <v>-4.68</v>
       </c>
       <c r="R127" s="23" t="inlineStr">
         <is>
@@ -13925,10 +13917,10 @@
       </c>
       <c r="N128" s="2" t="n"/>
       <c r="O128" s="32" t="n">
-        <v>-8.5</v>
+        <v>-7.1</v>
       </c>
       <c r="P128" s="32" t="n">
-        <v>4.2</v>
+        <v>8.5</v>
       </c>
       <c r="Q128" s="32" t="n"/>
       <c r="R128" s="23" t="inlineStr">
@@ -14035,13 +14027,13 @@
       </c>
       <c r="N129" s="2" t="n"/>
       <c r="O129" s="32" t="n">
-        <v>-14.5</v>
+        <v>-13.9</v>
       </c>
       <c r="P129" s="32" t="n">
-        <v>2.4</v>
+        <v>7.6</v>
       </c>
       <c r="Q129" s="32" t="n">
-        <v>-6.34</v>
+        <v>-4.89</v>
       </c>
       <c r="R129" s="23" t="inlineStr">
         <is>
@@ -14155,13 +14147,13 @@
       </c>
       <c r="N130" s="2" t="n"/>
       <c r="O130" s="32" t="n">
-        <v>-11.6</v>
+        <v>-11.8</v>
       </c>
       <c r="P130" s="32" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q130" s="32" t="n">
-        <v>-6.26</v>
+        <v>-5.44</v>
       </c>
       <c r="R130" s="23" t="inlineStr">
         <is>
@@ -14275,13 +14267,13 @@
       </c>
       <c r="N131" s="2" t="n"/>
       <c r="O131" s="32" t="n">
-        <v>-7.4</v>
+        <v>-7.1</v>
       </c>
       <c r="P131" s="32" t="n">
-        <v>0.9</v>
+        <v>6.4</v>
       </c>
       <c r="Q131" s="32" t="n">
-        <v>-3.81</v>
+        <v>-1.1</v>
       </c>
       <c r="R131" s="23" t="inlineStr">
         <is>
@@ -14391,13 +14383,13 @@
       </c>
       <c r="N132" s="2" t="n"/>
       <c r="O132" s="32" t="n">
-        <v>-4</v>
+        <v>-4.3</v>
       </c>
       <c r="P132" s="32" t="n">
-        <v>8.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Q132" s="32" t="n">
-        <v>1.24</v>
+        <v>2.63</v>
       </c>
       <c r="R132" s="23" t="inlineStr">
         <is>
@@ -14507,13 +14499,13 @@
       </c>
       <c r="N133" s="2" t="n"/>
       <c r="O133" s="32" t="n">
-        <v>0.3</v>
+        <v>-4.1</v>
       </c>
       <c r="P133" s="32" t="n">
-        <v>8.1</v>
+        <v>8.6</v>
       </c>
       <c r="Q133" s="32" t="n">
-        <v>4.1</v>
+        <v>2.69</v>
       </c>
       <c r="R133" s="23" t="inlineStr">
         <is>
@@ -14729,13 +14721,13 @@
       </c>
       <c r="N135" s="2" t="n"/>
       <c r="O135" s="32" t="n">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="P135" s="32" t="n">
-        <v>8</v>
+        <v>10.4</v>
       </c>
       <c r="Q135" s="32" t="n">
-        <v>5.2</v>
+        <v>5.91</v>
       </c>
       <c r="R135" s="23" t="inlineStr">
         <is>
@@ -14845,13 +14837,13 @@
       </c>
       <c r="N136" s="2" t="n"/>
       <c r="O136" s="32" t="n">
-        <v>4.1</v>
+        <v>1.6</v>
       </c>
       <c r="P136" s="32" t="n">
-        <v>6.2</v>
+        <v>9.6</v>
       </c>
       <c r="Q136" s="32" t="n">
-        <v>4.97</v>
+        <v>5.44</v>
       </c>
       <c r="R136" s="23" t="inlineStr">
         <is>
@@ -14961,13 +14953,13 @@
       </c>
       <c r="N137" s="2" t="n"/>
       <c r="O137" s="32" t="n">
-        <v>3</v>
+        <v>-3.1</v>
       </c>
       <c r="P137" s="32" t="n">
-        <v>7.9</v>
+        <v>9.5</v>
       </c>
       <c r="Q137" s="32" t="n">
-        <v>4.76</v>
+        <v>3.09</v>
       </c>
       <c r="R137" s="23" t="inlineStr">
         <is>
@@ -15077,10 +15069,10 @@
       </c>
       <c r="N138" s="2" t="n"/>
       <c r="O138" s="32" t="n">
-        <v>-0.3</v>
+        <v>-5.6</v>
       </c>
       <c r="P138" s="32" t="n">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q138" s="32" t="n"/>
       <c r="R138" s="23" t="inlineStr">
@@ -15191,13 +15183,13 @@
       </c>
       <c r="N139" s="2" t="n"/>
       <c r="O139" s="32" t="n">
-        <v>-1.2</v>
+        <v>-3.5</v>
       </c>
       <c r="P139" s="32" t="n">
-        <v>3.1</v>
+        <v>5.3</v>
       </c>
       <c r="Q139" s="32" t="n">
-        <v>0.52</v>
+        <v>0.73</v>
       </c>
       <c r="R139" s="23" t="inlineStr">
         <is>
@@ -15307,13 +15299,13 @@
       </c>
       <c r="N140" s="2" t="n"/>
       <c r="O140" s="32" t="n">
-        <v>1.8</v>
+        <v>-1.6</v>
       </c>
       <c r="P140" s="32" t="n">
-        <v>2.8</v>
+        <v>6.4</v>
       </c>
       <c r="Q140" s="32" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="R140" s="23" t="inlineStr">
         <is>
@@ -15525,13 +15517,13 @@
       </c>
       <c r="N142" s="2" t="n"/>
       <c r="O142" s="32" t="n">
-        <v>9.199999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="P142" s="32" t="n">
-        <v>12.8</v>
+        <v>14.2</v>
       </c>
       <c r="Q142" s="32" t="n">
-        <v>10.5</v>
+        <v>9.26</v>
       </c>
       <c r="R142" s="23" t="inlineStr">
         <is>
@@ -15641,13 +15633,13 @@
       </c>
       <c r="N143" s="2" t="n"/>
       <c r="O143" s="32" t="n">
-        <v>16.6</v>
+        <v>11.5</v>
       </c>
       <c r="P143" s="32" t="n">
-        <v>23.1</v>
+        <v>18.3</v>
       </c>
       <c r="Q143" s="32" t="n">
-        <v>18.94</v>
+        <v>14.34</v>
       </c>
       <c r="R143" s="23" t="inlineStr">
         <is>
@@ -15957,13 +15949,13 @@
       </c>
       <c r="N146" s="2" t="n"/>
       <c r="O146" s="32" t="n">
-        <v>21.8</v>
+        <v>20.8</v>
       </c>
       <c r="P146" s="32" t="n">
-        <v>26.3</v>
+        <v>27.7</v>
       </c>
       <c r="Q146" s="32" t="n">
-        <v>23.56</v>
+        <v>23.2</v>
       </c>
       <c r="R146" s="23" t="inlineStr">
         <is>
@@ -16065,13 +16057,13 @@
       </c>
       <c r="N147" s="2" t="n"/>
       <c r="O147" s="32" t="n">
-        <v>14.4</v>
+        <v>9.1</v>
       </c>
       <c r="P147" s="32" t="n">
-        <v>21.6</v>
+        <v>15.6</v>
       </c>
       <c r="Q147" s="32" t="n">
-        <v>16.76</v>
+        <v>11.19</v>
       </c>
       <c r="R147" s="23" t="inlineStr">
         <is>
@@ -16283,13 +16275,13 @@
       </c>
       <c r="N149" s="2" t="n"/>
       <c r="O149" s="32" t="n">
-        <v>5</v>
+        <v>6.8</v>
       </c>
       <c r="P149" s="32" t="n">
-        <v>20.5</v>
+        <v>15.4</v>
       </c>
       <c r="Q149" s="32" t="n">
-        <v>12.39</v>
+        <v>9.35</v>
       </c>
       <c r="R149" s="23" t="inlineStr">
         <is>
@@ -16399,13 +16391,13 @@
       </c>
       <c r="N150" s="2" t="n"/>
       <c r="O150" s="32" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="P150" s="32" t="n">
         <v>3.4</v>
       </c>
-      <c r="P150" s="32" t="n">
-        <v>9.9</v>
-      </c>
       <c r="Q150" s="32" t="n">
-        <v>5.54</v>
+        <v>0.8</v>
       </c>
       <c r="R150" s="23" t="inlineStr">
         <is>
@@ -16515,13 +16507,13 @@
       </c>
       <c r="N151" s="2" t="n"/>
       <c r="O151" s="32" t="n">
-        <v>10.5</v>
+        <v>8.1</v>
       </c>
       <c r="P151" s="32" t="n">
-        <v>14.4</v>
+        <v>11.2</v>
       </c>
       <c r="Q151" s="32" t="n">
-        <v>11.8</v>
+        <v>9.81</v>
       </c>
       <c r="R151" s="23" t="inlineStr">
         <is>
@@ -16721,13 +16713,13 @@
       </c>
       <c r="N153" s="2" t="n"/>
       <c r="O153" s="32" t="n">
-        <v>8.300000000000001</v>
+        <v>5.8</v>
       </c>
       <c r="P153" s="32" t="n">
-        <v>12.8</v>
+        <v>8.6</v>
       </c>
       <c r="Q153" s="32" t="n">
-        <v>10.15</v>
+        <v>7</v>
       </c>
       <c r="R153" s="23" t="inlineStr">
         <is>
@@ -16841,13 +16833,13 @@
       </c>
       <c r="N154" s="2" t="n"/>
       <c r="O154" s="32" t="n">
-        <v>-5.2</v>
+        <v>-2.5</v>
       </c>
       <c r="P154" s="32" t="n">
-        <v>11.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Q154" s="32" t="n">
-        <v>1.88</v>
+        <v>3.59</v>
       </c>
       <c r="R154" s="23" t="inlineStr">
         <is>
@@ -17043,10 +17035,10 @@
       </c>
       <c r="N156" s="2" t="n"/>
       <c r="O156" s="32" t="n">
-        <v>-25.5</v>
+        <v>-23.4</v>
       </c>
       <c r="P156" s="32" t="n">
-        <v>-6.4</v>
+        <v>1.9</v>
       </c>
       <c r="Q156" s="32" t="n"/>
       <c r="R156" s="23" t="inlineStr">
@@ -17149,10 +17141,10 @@
       </c>
       <c r="N157" s="2" t="n"/>
       <c r="O157" s="32" t="n">
-        <v>1.5</v>
+        <v>-0.7</v>
       </c>
       <c r="P157" s="32" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Q157" s="32" t="n"/>
       <c r="R157" s="23" t="inlineStr">
@@ -17533,10 +17525,10 @@
       </c>
       <c r="N161" s="2" t="n"/>
       <c r="O161" s="32" t="n">
-        <v>-6.4</v>
+        <v>-7</v>
       </c>
       <c r="P161" s="32" t="n">
-        <v>4.9</v>
+        <v>6.5</v>
       </c>
       <c r="Q161" s="32" t="n"/>
       <c r="R161" s="23" t="inlineStr">
@@ -17647,10 +17639,10 @@
         </is>
       </c>
       <c r="O162" s="32" t="n">
-        <v>-41.6</v>
+        <v>-34</v>
       </c>
       <c r="P162" s="32" t="n">
-        <v>-13.9</v>
+        <v>-6.5</v>
       </c>
       <c r="Q162" s="32" t="n"/>
       <c r="R162" s="23" t="inlineStr">
@@ -17977,10 +17969,10 @@
         </is>
       </c>
       <c r="O165" s="32" t="n">
-        <v>-42.9</v>
+        <v>-37</v>
       </c>
       <c r="P165" s="32" t="n">
-        <v>-27.1</v>
+        <v>-16.8</v>
       </c>
       <c r="Q165" s="32" t="n"/>
       <c r="R165" s="23" t="inlineStr">
@@ -18299,10 +18291,10 @@
         </is>
       </c>
       <c r="O168" s="32" t="n">
-        <v>-28.3</v>
+        <v>-25.2</v>
       </c>
       <c r="P168" s="32" t="n">
-        <v>-8.199999999999999</v>
+        <v>-5.2</v>
       </c>
       <c r="Q168" s="32" t="n"/>
       <c r="R168" s="23" t="inlineStr">
@@ -18413,10 +18405,10 @@
         </is>
       </c>
       <c r="O169" s="32" t="n">
-        <v>-33.2</v>
+        <v>-29.1</v>
       </c>
       <c r="P169" s="32" t="n">
-        <v>-12</v>
+        <v>-8.6</v>
       </c>
       <c r="Q169" s="32" t="n"/>
       <c r="R169" s="23" t="inlineStr">
@@ -18731,10 +18723,10 @@
       </c>
       <c r="N172" s="3" t="n"/>
       <c r="O172" s="32" t="n">
-        <v>-22.4</v>
+        <v>-22.2</v>
       </c>
       <c r="P172" s="32" t="n">
-        <v>-6.4</v>
+        <v>-6.8</v>
       </c>
       <c r="Q172" s="32" t="n"/>
       <c r="R172" s="23" t="inlineStr">
@@ -18841,10 +18833,10 @@
       </c>
       <c r="N173" s="2" t="n"/>
       <c r="O173" s="32" t="n">
-        <v>-32.2</v>
+        <v>-32.7</v>
       </c>
       <c r="P173" s="32" t="n">
-        <v>-19.9</v>
+        <v>-4.7</v>
       </c>
       <c r="Q173" s="32" t="n"/>
       <c r="R173" s="23" t="inlineStr">
@@ -19159,10 +19151,10 @@
       </c>
       <c r="N176" s="2" t="n"/>
       <c r="O176" s="32" t="n">
-        <v>-10</v>
+        <v>-13.4</v>
       </c>
       <c r="P176" s="32" t="n">
-        <v>-2.2</v>
+        <v>-4.1</v>
       </c>
       <c r="Q176" s="32" t="n"/>
       <c r="R176" s="23" t="inlineStr">
@@ -19257,10 +19249,10 @@
       </c>
       <c r="N177" s="2" t="n"/>
       <c r="O177" s="32" t="n">
-        <v>-33.9</v>
+        <v>-34.2</v>
       </c>
       <c r="P177" s="32" t="n">
-        <v>-28.6</v>
+        <v>-20.4</v>
       </c>
       <c r="Q177" s="32" t="n"/>
       <c r="R177" s="23" t="inlineStr">
@@ -20136,13 +20128,13 @@
       </c>
       <c r="N186" s="2" t="n"/>
       <c r="O186" s="32" t="n">
-        <v>-49.9</v>
+        <v>-52.1</v>
       </c>
       <c r="P186" s="32" t="n">
-        <v>-37.7</v>
+        <v>-38.7</v>
       </c>
       <c r="Q186" s="32" t="n">
-        <v>-45.14</v>
+        <v>-47.91</v>
       </c>
       <c r="R186" s="23" t="inlineStr">
         <is>
@@ -20245,13 +20237,13 @@
       </c>
       <c r="N187" s="2" t="n"/>
       <c r="O187" s="32" t="n">
-        <v>-49.1</v>
+        <v>-51.6</v>
       </c>
       <c r="P187" s="32" t="n">
-        <v>-42.7</v>
+        <v>-43.4</v>
       </c>
       <c r="Q187" s="32" t="n">
-        <v>-46.67</v>
+        <v>-48.09</v>
       </c>
       <c r="R187" s="23" t="inlineStr">
         <is>
@@ -20349,13 +20341,13 @@
       </c>
       <c r="N188" s="2" t="n"/>
       <c r="O188" s="32" t="n">
-        <v>-48.4</v>
+        <v>-50.5</v>
       </c>
       <c r="P188" s="32" t="n">
-        <v>-40.2</v>
+        <v>-42</v>
       </c>
       <c r="Q188" s="32" t="n">
-        <v>-45.15</v>
+        <v>-47.29</v>
       </c>
       <c r="R188" s="23" t="inlineStr">
         <is>
@@ -20453,13 +20445,13 @@
       </c>
       <c r="N189" s="2" t="n"/>
       <c r="O189" s="32" t="n">
-        <v>-53.1</v>
+        <v>-53.2</v>
       </c>
       <c r="P189" s="32" t="n">
-        <v>-41.2</v>
+        <v>-41.8</v>
       </c>
       <c r="Q189" s="32" t="n">
-        <v>-48.28</v>
+        <v>-47.9</v>
       </c>
       <c r="R189" s="23" t="inlineStr">
         <is>
@@ -20557,13 +20549,13 @@
       </c>
       <c r="N190" s="2" t="n"/>
       <c r="O190" s="32" t="n">
+        <v>-49.3</v>
+      </c>
+      <c r="P190" s="32" t="n">
         <v>-43.2</v>
       </c>
-      <c r="P190" s="32" t="n">
-        <v>-36.1</v>
-      </c>
       <c r="Q190" s="32" t="n">
-        <v>-38.88</v>
+        <v>-46.5</v>
       </c>
       <c r="R190" s="23" t="inlineStr">
         <is>
@@ -20661,13 +20653,13 @@
       </c>
       <c r="N191" s="2" t="n"/>
       <c r="O191" s="32" t="n">
-        <v>-48.8</v>
+        <v>-50.8</v>
       </c>
       <c r="P191" s="32" t="n">
-        <v>-38.8</v>
+        <v>-40.8</v>
       </c>
       <c r="Q191" s="32" t="n">
-        <v>-44.15</v>
+        <v>-46.72</v>
       </c>
       <c r="R191" s="23" t="inlineStr">
         <is>
@@ -20761,13 +20753,13 @@
       </c>
       <c r="N192" s="2" t="n"/>
       <c r="O192" s="32" t="n">
-        <v>-45.6</v>
+        <v>-47.3</v>
       </c>
       <c r="P192" s="32" t="n">
-        <v>-35.3</v>
+        <v>-38.8</v>
       </c>
       <c r="Q192" s="32" t="n">
-        <v>-42.41</v>
+        <v>-43.69</v>
       </c>
       <c r="R192" s="23" t="inlineStr">
         <is>
@@ -20866,13 +20858,13 @@
       </c>
       <c r="N193" s="2" t="n"/>
       <c r="O193" s="32" t="n">
-        <v>-40.4</v>
+        <v>-38.9</v>
       </c>
       <c r="P193" s="32" t="n">
-        <v>-36.9</v>
+        <v>-30.3</v>
       </c>
       <c r="Q193" s="32" t="n">
-        <v>-38.8</v>
+        <v>-34.33</v>
       </c>
       <c r="R193" s="23" t="inlineStr">
         <is>
@@ -20974,10 +20966,10 @@
       </c>
       <c r="N194" s="2" t="n"/>
       <c r="O194" s="32" t="n">
+        <v>-50</v>
+      </c>
+      <c r="P194" s="32" t="n">
         <v>-44.1</v>
-      </c>
-      <c r="P194" s="32" t="n">
-        <v>-30.8</v>
       </c>
       <c r="Q194" s="32" t="n"/>
       <c r="R194" s="23" t="inlineStr">
@@ -21072,13 +21064,13 @@
       </c>
       <c r="N195" s="2" t="n"/>
       <c r="O195" s="32" t="n">
-        <v>-46.5</v>
+        <v>-37.4</v>
       </c>
       <c r="P195" s="32" t="n">
-        <v>-34.8</v>
+        <v>-29.8</v>
       </c>
       <c r="Q195" s="32" t="n">
-        <v>-41.1</v>
+        <v>-32.49</v>
       </c>
       <c r="R195" s="23" t="inlineStr">
         <is>
@@ -21176,13 +21168,13 @@
       </c>
       <c r="N196" s="2" t="n"/>
       <c r="O196" s="32" t="n">
-        <v>-42.8</v>
+        <v>-48.6</v>
       </c>
       <c r="P196" s="32" t="n">
-        <v>-29.7</v>
+        <v>-35.1</v>
       </c>
       <c r="Q196" s="32" t="n">
-        <v>-35.52</v>
+        <v>-42.85</v>
       </c>
       <c r="R196" s="23" t="inlineStr">
         <is>
@@ -21280,13 +21272,13 @@
       </c>
       <c r="N197" s="24" t="n"/>
       <c r="O197" s="32" t="n">
-        <v>-19.6</v>
+        <v>-27</v>
       </c>
       <c r="P197" s="32" t="n">
-        <v>-14.6</v>
+        <v>-17.1</v>
       </c>
       <c r="Q197" s="32" t="n">
-        <v>-16.39</v>
+        <v>-20.51</v>
       </c>
       <c r="R197" s="23" t="inlineStr">
         <is>
@@ -22480,10 +22472,10 @@
       </c>
       <c r="N209" s="2" t="n"/>
       <c r="O209" s="32" t="n">
-        <v>-38.5</v>
+        <v>-35.4</v>
       </c>
       <c r="P209" s="32" t="n">
-        <v>-18.3</v>
+        <v>-13.8</v>
       </c>
       <c r="Q209" s="32" t="n"/>
       <c r="R209" s="23" t="inlineStr">
@@ -24859,12 +24851,8 @@
         </is>
       </c>
       <c r="N233" s="2" t="n"/>
-      <c r="O233" s="32" t="n">
-        <v>-38.3</v>
-      </c>
-      <c r="P233" s="32" t="n">
-        <v>-27.9</v>
-      </c>
+      <c r="O233" s="32" t="n"/>
+      <c r="P233" s="32" t="n"/>
       <c r="Q233" s="32" t="n"/>
       <c r="R233" s="23" t="inlineStr">
         <is>
@@ -26214,13 +26202,13 @@
       </c>
       <c r="N247" s="2" t="n"/>
       <c r="O247" s="32" t="n">
-        <v>-14.3</v>
+        <v>-18.4</v>
       </c>
       <c r="P247" s="32" t="n">
-        <v>-10.5</v>
+        <v>-8</v>
       </c>
       <c r="Q247" s="32" t="n">
-        <v>-12.43</v>
+        <v>-14.56</v>
       </c>
       <c r="R247" s="23" t="inlineStr">
         <is>
@@ -26326,13 +26314,13 @@
       </c>
       <c r="N248" s="2" t="n"/>
       <c r="O248" s="32" t="n">
-        <v>-20.1</v>
+        <v>-11.6</v>
       </c>
       <c r="P248" s="32" t="n">
-        <v>-5.1</v>
+        <v>-4.8</v>
       </c>
       <c r="Q248" s="32" t="n">
-        <v>-10.96</v>
+        <v>-7.14</v>
       </c>
       <c r="R248" s="23" t="inlineStr">
         <is>
@@ -26434,13 +26422,13 @@
       </c>
       <c r="N249" s="2" t="n"/>
       <c r="O249" s="32" t="n">
-        <v>-22.3</v>
+        <v>-20.9</v>
       </c>
       <c r="P249" s="32" t="n">
-        <v>-15.8</v>
+        <v>-10.9</v>
       </c>
       <c r="Q249" s="32" t="n">
-        <v>-19.62</v>
+        <v>-16.93</v>
       </c>
       <c r="R249" s="23" t="inlineStr">
         <is>
@@ -26546,13 +26534,13 @@
       </c>
       <c r="N250" s="2" t="n"/>
       <c r="O250" s="32" t="n">
-        <v>-30.2</v>
+        <v>-29.1</v>
       </c>
       <c r="P250" s="32" t="n">
-        <v>-19.5</v>
+        <v>-17.8</v>
       </c>
       <c r="Q250" s="32" t="n">
-        <v>-25.04</v>
+        <v>-23.93</v>
       </c>
       <c r="R250" s="23" t="inlineStr">
         <is>
@@ -26666,10 +26654,10 @@
         </is>
       </c>
       <c r="O251" s="32" t="n">
-        <v>-20.2</v>
+        <v>-30.7</v>
       </c>
       <c r="P251" s="32" t="n">
-        <v>-12.2</v>
+        <v>-17</v>
       </c>
       <c r="Q251" s="32" t="n"/>
       <c r="R251" s="23" t="inlineStr">
@@ -26764,13 +26752,13 @@
       </c>
       <c r="N252" s="2" t="n"/>
       <c r="O252" s="32" t="n">
-        <v>-3.2</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="P252" s="32" t="n">
-        <v>-0.4</v>
+        <v>-1.4</v>
       </c>
       <c r="Q252" s="32" t="n">
-        <v>-1.9</v>
+        <v>-5.35</v>
       </c>
       <c r="R252" s="23" t="inlineStr">
         <is>
@@ -26962,13 +26950,13 @@
       </c>
       <c r="N254" s="2" t="n"/>
       <c r="O254" s="32" t="n">
-        <v>-40.1</v>
+        <v>-27.7</v>
       </c>
       <c r="P254" s="32" t="n">
-        <v>-24.5</v>
+        <v>-25.5</v>
       </c>
       <c r="Q254" s="32" t="n">
-        <v>-28.11</v>
+        <v>-26.65</v>
       </c>
       <c r="R254" s="23" t="inlineStr">
         <is>
@@ -27536,13 +27524,13 @@
       </c>
       <c r="N260" s="2" t="n"/>
       <c r="O260" s="32" t="n">
-        <v>-38.6</v>
+        <v>-32.3</v>
       </c>
       <c r="P260" s="32" t="n">
-        <v>-11.2</v>
+        <v>-9.4</v>
       </c>
       <c r="Q260" s="32" t="n">
-        <v>-27.79</v>
+        <v>-22.64</v>
       </c>
       <c r="R260" s="23" t="inlineStr">
         <is>
@@ -27644,13 +27632,13 @@
       </c>
       <c r="N261" s="2" t="n"/>
       <c r="O261" s="32" t="n">
-        <v>-35.5</v>
+        <v>-29.7</v>
       </c>
       <c r="P261" s="32" t="n">
-        <v>-17.2</v>
+        <v>-6.2</v>
       </c>
       <c r="Q261" s="32" t="n">
-        <v>-27.99</v>
+        <v>-20.31</v>
       </c>
       <c r="R261" s="23" t="inlineStr">
         <is>
@@ -27756,13 +27744,13 @@
       </c>
       <c r="N262" s="2" t="n"/>
       <c r="O262" s="32" t="n">
+        <v>-13.8</v>
+      </c>
+      <c r="P262" s="32" t="n">
         <v>-8.5</v>
       </c>
-      <c r="P262" s="32" t="n">
-        <v>0.1</v>
-      </c>
       <c r="Q262" s="32" t="n">
-        <v>-4.95</v>
+        <v>-11.62</v>
       </c>
       <c r="R262" s="23" t="inlineStr">
         <is>
@@ -27962,13 +27950,13 @@
       </c>
       <c r="N264" s="2" t="n"/>
       <c r="O264" s="32" t="n">
-        <v>-20.8</v>
+        <v>-23.9</v>
       </c>
       <c r="P264" s="32" t="n">
-        <v>-14.7</v>
+        <v>-14.2</v>
       </c>
       <c r="Q264" s="32" t="n">
-        <v>-18.85</v>
+        <v>-18.86</v>
       </c>
       <c r="R264" s="23" t="inlineStr">
         <is>
@@ -28082,10 +28070,10 @@
       </c>
       <c r="N265" s="2" t="n"/>
       <c r="O265" s="32" t="n">
-        <v>-43.6</v>
+        <v>-45.7</v>
       </c>
       <c r="P265" s="32" t="n">
-        <v>-37.8</v>
+        <v>-33.8</v>
       </c>
       <c r="Q265" s="32" t="n"/>
       <c r="R265" s="23" t="inlineStr">
@@ -28923,8 +28911,12 @@
         </is>
       </c>
       <c r="N274" s="2" t="n"/>
-      <c r="O274" s="32" t="n"/>
-      <c r="P274" s="32" t="n"/>
+      <c r="O274" s="32" t="n">
+        <v>-35.6</v>
+      </c>
+      <c r="P274" s="32" t="n">
+        <v>-14.1</v>
+      </c>
       <c r="Q274" s="32" t="n"/>
       <c r="R274" s="23" t="inlineStr">
         <is>
@@ -29122,13 +29114,13 @@
       </c>
       <c r="N276" s="2" t="n"/>
       <c r="O276" s="32" t="n">
-        <v>-42.6</v>
+        <v>-28.2</v>
       </c>
       <c r="P276" s="32" t="n">
-        <v>-28.2</v>
+        <v>-24</v>
       </c>
       <c r="Q276" s="32" t="n">
-        <v>-35.44</v>
+        <v>-26.2</v>
       </c>
       <c r="R276" s="23" t="inlineStr">
         <is>
@@ -29306,10 +29298,10 @@
       </c>
       <c r="N278" s="2" t="n"/>
       <c r="O278" s="32" t="n">
-        <v>-37.9</v>
+        <v>-36</v>
       </c>
       <c r="P278" s="32" t="n">
-        <v>-16</v>
+        <v>-11.7</v>
       </c>
       <c r="Q278" s="32" t="n"/>
       <c r="R278" s="23" t="inlineStr">
@@ -29577,12 +29569,8 @@
         </is>
       </c>
       <c r="N281" s="2" t="n"/>
-      <c r="O281" s="32" t="n">
-        <v>-40.6</v>
-      </c>
-      <c r="P281" s="32" t="n">
-        <v>-16</v>
-      </c>
+      <c r="O281" s="32" t="n"/>
+      <c r="P281" s="32" t="n"/>
       <c r="Q281" s="32" t="n"/>
       <c r="R281" s="23" t="inlineStr">
         <is>

--- a/气象/For_Python_站点信息和记录.xlsx
+++ b/气象/For_Python_站点信息和记录.xlsx
@@ -790,8 +790,8 @@
     <col width="18.59765625" customWidth="1" style="8" min="25" max="25"/>
     <col width="12.59765625" customWidth="1" style="5" min="26" max="30"/>
     <col width="12.59765625" customWidth="1" style="8" min="31" max="32"/>
-    <col width="12.59765625" customWidth="1" style="5" min="33" max="238"/>
-    <col width="12.59765625" customWidth="1" style="5" min="239" max="16384"/>
+    <col width="12.59765625" customWidth="1" style="5" min="33" max="240"/>
+    <col width="12.59765625" customWidth="1" style="5" min="241" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.75" customFormat="1" customHeight="1" s="11">
@@ -1014,13 +1014,13 @@
         </is>
       </c>
       <c r="O2" s="32" t="n">
-        <v>-40.2</v>
+        <v>-38.7</v>
       </c>
       <c r="P2" s="32" t="n">
-        <v>-27.6</v>
+        <v>-26.7</v>
       </c>
       <c r="Q2" s="32" t="n">
-        <v>-33.49</v>
+        <v>-31.8</v>
       </c>
       <c r="R2" s="23" t="inlineStr">
         <is>
@@ -1124,10 +1124,10 @@
         </is>
       </c>
       <c r="O3" s="32" t="n">
-        <v>-41</v>
+        <v>-38.5</v>
       </c>
       <c r="P3" s="32" t="n">
-        <v>-27.3</v>
+        <v>-26.2</v>
       </c>
       <c r="Q3" s="32" t="n"/>
       <c r="R3" s="23" t="n"/>
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="O4" s="32" t="n">
-        <v>-38.4</v>
+        <v>-35.2</v>
       </c>
       <c r="P4" s="32" t="n">
-        <v>-21.9</v>
+        <v>-21.6</v>
       </c>
       <c r="Q4" s="32" t="n"/>
       <c r="R4" s="23" t="n"/>
@@ -1320,10 +1320,10 @@
       </c>
       <c r="N5" s="2" t="n"/>
       <c r="O5" s="32" t="n">
-        <v>-36.6</v>
+        <v>-31.3</v>
       </c>
       <c r="P5" s="32" t="n">
-        <v>-22.5</v>
+        <v>-18</v>
       </c>
       <c r="Q5" s="32" t="n"/>
       <c r="R5" s="23" t="n"/>
@@ -1420,10 +1420,10 @@
         </is>
       </c>
       <c r="O6" s="32" t="n">
-        <v>-40.6</v>
+        <v>-31.9</v>
       </c>
       <c r="P6" s="32" t="n">
-        <v>-23.2</v>
+        <v>-18</v>
       </c>
       <c r="Q6" s="32" t="n"/>
       <c r="R6" s="23" t="n"/>
@@ -1520,9 +1520,11 @@
         </is>
       </c>
       <c r="O7" s="32" t="n">
-        <v>-38.9</v>
-      </c>
-      <c r="P7" s="32" t="n"/>
+        <v>-33.3</v>
+      </c>
+      <c r="P7" s="32" t="n">
+        <v>-22.9</v>
+      </c>
       <c r="Q7" s="32" t="n"/>
       <c r="R7" s="23" t="n"/>
       <c r="S7" s="37" t="n"/>
@@ -1626,13 +1628,13 @@
       </c>
       <c r="N8" s="2" t="n"/>
       <c r="O8" s="32" t="n">
-        <v>-35.9</v>
+        <v>-28.6</v>
       </c>
       <c r="P8" s="32" t="n">
-        <v>-19.7</v>
+        <v>-17.1</v>
       </c>
       <c r="Q8" s="32" t="n">
-        <v>-29.02</v>
+        <v>-24.27</v>
       </c>
       <c r="R8" s="23" t="inlineStr">
         <is>
@@ -1738,13 +1740,13 @@
       </c>
       <c r="N9" s="2" t="n"/>
       <c r="O9" s="32" t="n">
-        <v>-34.5</v>
+        <v>-36.3</v>
       </c>
       <c r="P9" s="32" t="n">
-        <v>-23.5</v>
+        <v>-23.7</v>
       </c>
       <c r="Q9" s="32" t="n">
-        <v>-29.76</v>
+        <v>-30.25</v>
       </c>
       <c r="R9" s="23" t="inlineStr">
         <is>
@@ -1854,13 +1856,13 @@
       </c>
       <c r="N10" s="3" t="n"/>
       <c r="O10" s="32" t="n">
-        <v>-38.3</v>
+        <v>-38.1</v>
       </c>
       <c r="P10" s="32" t="n">
-        <v>-22.3</v>
+        <v>-23.1</v>
       </c>
       <c r="Q10" s="32" t="n">
-        <v>-30.39</v>
+        <v>-30.81</v>
       </c>
       <c r="R10" s="23" t="inlineStr">
         <is>
@@ -1970,13 +1972,13 @@
         </is>
       </c>
       <c r="O11" s="32" t="n">
-        <v>-31.5</v>
+        <v>-32.4</v>
       </c>
       <c r="P11" s="32" t="n">
-        <v>-8.199999999999999</v>
+        <v>-14.9</v>
       </c>
       <c r="Q11" s="32" t="n">
-        <v>-18.05</v>
+        <v>-25.09</v>
       </c>
       <c r="R11" s="23" t="inlineStr">
         <is>
@@ -2082,13 +2084,13 @@
       </c>
       <c r="N12" s="2" t="n"/>
       <c r="O12" s="32" t="n">
-        <v>-38.1</v>
+        <v>-32.9</v>
       </c>
       <c r="P12" s="32" t="n">
-        <v>-20.9</v>
+        <v>-16.9</v>
       </c>
       <c r="Q12" s="32" t="n">
-        <v>-31.41</v>
+        <v>-27.38</v>
       </c>
       <c r="R12" s="23" t="inlineStr">
         <is>
@@ -2198,13 +2200,13 @@
         </is>
       </c>
       <c r="O13" s="32" t="n">
-        <v>-39.7</v>
+        <v>-34.4</v>
       </c>
       <c r="P13" s="32" t="n">
-        <v>-26.2</v>
+        <v>-24.5</v>
       </c>
       <c r="Q13" s="32" t="n">
-        <v>-33.61</v>
+        <v>-29.42</v>
       </c>
       <c r="R13" s="23" t="inlineStr">
         <is>
@@ -2314,13 +2316,13 @@
       </c>
       <c r="N14" s="2" t="n"/>
       <c r="O14" s="32" t="n">
-        <v>-20.9</v>
+        <v>-20.2</v>
       </c>
       <c r="P14" s="32" t="n">
-        <v>-6.9</v>
+        <v>-5.1</v>
       </c>
       <c r="Q14" s="32" t="n">
-        <v>-15.46</v>
+        <v>-14.7</v>
       </c>
       <c r="R14" s="23" t="inlineStr">
         <is>
@@ -2516,13 +2518,13 @@
       </c>
       <c r="N16" s="2" t="n"/>
       <c r="O16" s="32" t="n">
-        <v>-32.6</v>
+        <v>-28</v>
       </c>
       <c r="P16" s="32" t="n">
-        <v>-7.7</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="Q16" s="32" t="n">
-        <v>-22.12</v>
+        <v>-18.25</v>
       </c>
       <c r="R16" s="23" t="inlineStr">
         <is>
@@ -2705,12 +2707,8 @@
         </is>
       </c>
       <c r="N18" s="2" t="n"/>
-      <c r="O18" s="32" t="n">
-        <v>-37.7</v>
-      </c>
-      <c r="P18" s="32" t="n">
-        <v>-21.5</v>
-      </c>
+      <c r="O18" s="32" t="n"/>
+      <c r="P18" s="32" t="n"/>
       <c r="Q18" s="32" t="n"/>
       <c r="R18" s="23" t="n"/>
       <c r="S18" s="37" t="n"/>
@@ -4797,12 +4795,8 @@
         </is>
       </c>
       <c r="N41" s="2" t="n"/>
-      <c r="O41" s="32" t="n">
-        <v>-36.3</v>
-      </c>
-      <c r="P41" s="32" t="n">
-        <v>-18.3</v>
-      </c>
+      <c r="O41" s="32" t="n"/>
+      <c r="P41" s="32" t="n"/>
       <c r="Q41" s="32" t="n"/>
       <c r="R41" s="23" t="n"/>
       <c r="S41" s="37" t="n"/>
@@ -4974,10 +4968,10 @@
       </c>
       <c r="N43" s="2" t="n"/>
       <c r="O43" s="32" t="n">
-        <v>-34</v>
+        <v>-34.1</v>
       </c>
       <c r="P43" s="32" t="n">
-        <v>-29.1</v>
+        <v>-28.4</v>
       </c>
       <c r="Q43" s="32" t="n"/>
       <c r="R43" s="23" t="n"/>
@@ -7836,13 +7830,13 @@
       </c>
       <c r="N75" s="2" t="n"/>
       <c r="O75" s="32" t="n">
-        <v>-35.1</v>
+        <v>-29.6</v>
       </c>
       <c r="P75" s="32" t="n">
-        <v>-14.5</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="Q75" s="32" t="n">
-        <v>-26.41</v>
+        <v>-20.88</v>
       </c>
       <c r="R75" s="23" t="inlineStr">
         <is>
@@ -7948,13 +7942,13 @@
       </c>
       <c r="N76" s="2" t="n"/>
       <c r="O76" s="32" t="n">
-        <v>-40.4</v>
+        <v>-35.7</v>
       </c>
       <c r="P76" s="32" t="n">
-        <v>-23.5</v>
+        <v>-19.7</v>
       </c>
       <c r="Q76" s="32" t="n">
-        <v>-32.65</v>
+        <v>-27.62</v>
       </c>
       <c r="R76" s="23" t="inlineStr">
         <is>
@@ -8064,14 +8058,12 @@
         </is>
       </c>
       <c r="O77" s="32" t="n">
-        <v>-41</v>
+        <v>-38.8</v>
       </c>
       <c r="P77" s="32" t="n">
-        <v>-21.2</v>
-      </c>
-      <c r="Q77" s="32" t="n">
-        <v>-32.73</v>
-      </c>
+        <v>-18.2</v>
+      </c>
+      <c r="Q77" s="32" t="n"/>
       <c r="R77" s="23" t="inlineStr">
         <is>
           <t>Y</t>
@@ -8180,13 +8172,13 @@
       </c>
       <c r="N78" s="2" t="n"/>
       <c r="O78" s="32" t="n">
-        <v>-38.8</v>
+        <v>-33.9</v>
       </c>
       <c r="P78" s="32" t="n">
-        <v>-20.1</v>
+        <v>-16.8</v>
       </c>
       <c r="Q78" s="32" t="n">
-        <v>-30.41</v>
+        <v>-27</v>
       </c>
       <c r="R78" s="23" t="inlineStr">
         <is>
@@ -8296,13 +8288,13 @@
         </is>
       </c>
       <c r="O79" s="32" t="n">
-        <v>-40.5</v>
+        <v>-40.3</v>
       </c>
       <c r="P79" s="32" t="n">
-        <v>-18.7</v>
+        <v>-18</v>
       </c>
       <c r="Q79" s="32" t="n">
-        <v>-31.92</v>
+        <v>-31.01</v>
       </c>
       <c r="R79" s="23" t="inlineStr">
         <is>
@@ -8408,13 +8400,13 @@
       </c>
       <c r="N80" s="2" t="n"/>
       <c r="O80" s="32" t="n">
-        <v>-25</v>
+        <v>-23.9</v>
       </c>
       <c r="P80" s="32" t="n">
-        <v>-8.199999999999999</v>
+        <v>-7</v>
       </c>
       <c r="Q80" s="32" t="n">
-        <v>-17.65</v>
+        <v>-15.79</v>
       </c>
       <c r="R80" s="23" t="inlineStr">
         <is>
@@ -8524,13 +8516,13 @@
         </is>
       </c>
       <c r="O81" s="32" t="n">
-        <v>-27.9</v>
+        <v>-31.9</v>
       </c>
       <c r="P81" s="32" t="n">
-        <v>-6.2</v>
+        <v>-11.1</v>
       </c>
       <c r="Q81" s="32" t="n">
-        <v>-19</v>
+        <v>-22.72</v>
       </c>
       <c r="R81" s="23" t="inlineStr">
         <is>
@@ -8645,13 +8637,13 @@
         </is>
       </c>
       <c r="O82" s="32" t="n">
-        <v>-26</v>
+        <v>-27.7</v>
       </c>
       <c r="P82" s="32" t="n">
-        <v>-4.2</v>
+        <v>-5.4</v>
       </c>
       <c r="Q82" s="32" t="n">
-        <v>-17.8</v>
+        <v>-20.01</v>
       </c>
       <c r="R82" s="23" t="inlineStr">
         <is>
@@ -8761,13 +8753,13 @@
       </c>
       <c r="N83" s="2" t="n"/>
       <c r="O83" s="32" t="n">
-        <v>-31.9</v>
+        <v>-28.6</v>
       </c>
       <c r="P83" s="32" t="n">
-        <v>-19.9</v>
+        <v>-11</v>
       </c>
       <c r="Q83" s="32" t="n">
-        <v>-27.07</v>
+        <v>-22.31</v>
       </c>
       <c r="R83" s="23" t="inlineStr">
         <is>
@@ -8881,13 +8873,13 @@
         </is>
       </c>
       <c r="O84" s="32" t="n">
-        <v>-31.3</v>
+        <v>-22.3</v>
       </c>
       <c r="P84" s="32" t="n">
-        <v>-17.1</v>
+        <v>-10.3</v>
       </c>
       <c r="Q84" s="32" t="n">
-        <v>-23.9</v>
+        <v>-15.95</v>
       </c>
       <c r="R84" s="23" t="inlineStr">
         <is>
@@ -9001,13 +8993,13 @@
         </is>
       </c>
       <c r="O85" s="32" t="n">
-        <v>-38.5</v>
+        <v>-33.6</v>
       </c>
       <c r="P85" s="32" t="n">
-        <v>-20</v>
+        <v>-19.1</v>
       </c>
       <c r="Q85" s="32" t="n">
-        <v>-29.46</v>
+        <v>-25.04</v>
       </c>
       <c r="R85" s="23" t="inlineStr">
         <is>
@@ -9113,13 +9105,13 @@
       </c>
       <c r="N86" s="2" t="n"/>
       <c r="O86" s="32" t="n">
-        <v>-33.4</v>
+        <v>-30.4</v>
       </c>
       <c r="P86" s="32" t="n">
-        <v>-19.7</v>
+        <v>-19</v>
       </c>
       <c r="Q86" s="32" t="n">
-        <v>-27.44</v>
+        <v>-24.17</v>
       </c>
       <c r="R86" s="23" t="inlineStr">
         <is>
@@ -9237,13 +9229,13 @@
         </is>
       </c>
       <c r="O87" s="32" t="n">
-        <v>-39</v>
+        <v>-36.2</v>
       </c>
       <c r="P87" s="32" t="n">
-        <v>-24.3</v>
+        <v>-23.6</v>
       </c>
       <c r="Q87" s="32" t="n">
-        <v>-31.7</v>
+        <v>-29.9</v>
       </c>
       <c r="R87" s="23" t="inlineStr">
         <is>
@@ -9349,13 +9341,13 @@
       </c>
       <c r="N88" s="2" t="n"/>
       <c r="O88" s="32" t="n">
-        <v>-31.4</v>
+        <v>-33.2</v>
       </c>
       <c r="P88" s="32" t="n">
-        <v>-18.3</v>
+        <v>-19.4</v>
       </c>
       <c r="Q88" s="32" t="n">
-        <v>-24.89</v>
+        <v>-27.62</v>
       </c>
       <c r="R88" s="23" t="inlineStr">
         <is>
@@ -9567,13 +9559,13 @@
         </is>
       </c>
       <c r="O90" s="32" t="n">
-        <v>-16.5</v>
+        <v>-22.5</v>
       </c>
       <c r="P90" s="32" t="n">
-        <v>-6</v>
+        <v>-8.5</v>
       </c>
       <c r="Q90" s="32" t="n">
-        <v>-8.470000000000001</v>
+        <v>-14.9</v>
       </c>
       <c r="R90" s="23" t="inlineStr">
         <is>
@@ -9675,13 +9667,13 @@
       </c>
       <c r="N91" s="2" t="n"/>
       <c r="O91" s="32" t="n">
-        <v>-17.6</v>
+        <v>-28.6</v>
       </c>
       <c r="P91" s="32" t="n">
-        <v>-6.9</v>
+        <v>-8.9</v>
       </c>
       <c r="Q91" s="32" t="n">
-        <v>-12.71</v>
+        <v>-18.45</v>
       </c>
       <c r="R91" s="23" t="inlineStr">
         <is>
@@ -9783,13 +9775,13 @@
       </c>
       <c r="N92" s="2" t="n"/>
       <c r="O92" s="32" t="n">
-        <v>-32</v>
+        <v>-24</v>
       </c>
       <c r="P92" s="32" t="n">
-        <v>-15.7</v>
+        <v>-3</v>
       </c>
       <c r="Q92" s="32" t="n">
-        <v>-24.22</v>
+        <v>-14</v>
       </c>
       <c r="R92" s="23" t="inlineStr">
         <is>
@@ -9895,13 +9887,13 @@
       </c>
       <c r="N93" s="2" t="n"/>
       <c r="O93" s="32" t="n">
-        <v>-22.5</v>
+        <v>-14.8</v>
       </c>
       <c r="P93" s="32" t="n">
-        <v>-4.3</v>
+        <v>5.4</v>
       </c>
       <c r="Q93" s="32" t="n">
-        <v>-13.54</v>
+        <v>-5.04</v>
       </c>
       <c r="R93" s="23" t="inlineStr">
         <is>
@@ -10015,10 +10007,10 @@
         </is>
       </c>
       <c r="O94" s="32" t="n">
-        <v>-31.4</v>
+        <v>-23.4</v>
       </c>
       <c r="P94" s="32" t="n">
-        <v>-7.7</v>
+        <v>2.6</v>
       </c>
       <c r="Q94" s="32" t="n"/>
       <c r="R94" s="23" t="inlineStr">
@@ -10133,13 +10125,13 @@
       </c>
       <c r="N95" s="2" t="n"/>
       <c r="O95" s="32" t="n">
-        <v>-23.6</v>
+        <v>-10.4</v>
       </c>
       <c r="P95" s="32" t="n">
-        <v>-9.6</v>
+        <v>1</v>
       </c>
       <c r="Q95" s="32" t="n">
-        <v>-15.4</v>
+        <v>-5.36</v>
       </c>
       <c r="R95" s="23" t="inlineStr">
         <is>
@@ -10261,10 +10253,10 @@
         </is>
       </c>
       <c r="O96" s="32" t="n">
-        <v>-32.5</v>
+        <v>-26.1</v>
       </c>
       <c r="P96" s="32" t="n">
-        <v>-10.7</v>
+        <v>0.2</v>
       </c>
       <c r="Q96" s="32" t="n"/>
       <c r="R96" s="23" t="inlineStr">
@@ -10379,13 +10371,13 @@
       </c>
       <c r="N97" s="2" t="n"/>
       <c r="O97" s="32" t="n">
-        <v>-21.9</v>
+        <v>-13.6</v>
       </c>
       <c r="P97" s="32" t="n">
-        <v>-9.300000000000001</v>
+        <v>-3.7</v>
       </c>
       <c r="Q97" s="32" t="n">
-        <v>-16.2</v>
+        <v>-9.109999999999999</v>
       </c>
       <c r="R97" s="23" t="inlineStr">
         <is>
@@ -10495,10 +10487,10 @@
       </c>
       <c r="N98" s="2" t="n"/>
       <c r="O98" s="32" t="n">
-        <v>-35.9</v>
+        <v>-29.7</v>
       </c>
       <c r="P98" s="32" t="n">
-        <v>-15.5</v>
+        <v>-11.9</v>
       </c>
       <c r="Q98" s="32" t="n"/>
       <c r="R98" s="23" t="inlineStr">
@@ -10613,13 +10605,13 @@
       </c>
       <c r="N99" s="2" t="n"/>
       <c r="O99" s="32" t="n">
-        <v>-32</v>
+        <v>-29.6</v>
       </c>
       <c r="P99" s="32" t="n">
-        <v>-13.9</v>
+        <v>-11.4</v>
       </c>
       <c r="Q99" s="32" t="n">
-        <v>-24.28</v>
+        <v>-23.19</v>
       </c>
       <c r="R99" s="23" t="inlineStr">
         <is>
@@ -10945,13 +10937,13 @@
       </c>
       <c r="N102" s="2" t="n"/>
       <c r="O102" s="32" t="n">
-        <v>-27.6</v>
+        <v>-32</v>
       </c>
       <c r="P102" s="32" t="n">
-        <v>-5.7</v>
+        <v>-8.4</v>
       </c>
       <c r="Q102" s="32" t="n">
-        <v>-18.11</v>
+        <v>-22.74</v>
       </c>
       <c r="R102" s="23" t="inlineStr">
         <is>
@@ -11061,10 +11053,10 @@
       </c>
       <c r="N103" s="2" t="n"/>
       <c r="O103" s="32" t="n">
-        <v>-22.5</v>
+        <v>-30.8</v>
       </c>
       <c r="P103" s="32" t="n">
-        <v>-7.5</v>
+        <v>-12.5</v>
       </c>
       <c r="Q103" s="32" t="n"/>
       <c r="R103" s="23" t="inlineStr">
@@ -11171,10 +11163,10 @@
       </c>
       <c r="N104" s="2" t="n"/>
       <c r="O104" s="32" t="n">
-        <v>-32.9</v>
+        <v>-28.8</v>
       </c>
       <c r="P104" s="32" t="n">
-        <v>-15.5</v>
+        <v>-9.1</v>
       </c>
       <c r="Q104" s="32" t="n"/>
       <c r="R104" s="23" t="inlineStr">
@@ -11293,13 +11285,13 @@
         </is>
       </c>
       <c r="O105" s="32" t="n">
-        <v>-33.2</v>
+        <v>-31.8</v>
       </c>
       <c r="P105" s="32" t="n">
-        <v>-15.4</v>
+        <v>-9.6</v>
       </c>
       <c r="Q105" s="32" t="n">
-        <v>-25.74</v>
+        <v>-23.26</v>
       </c>
       <c r="R105" s="23" t="inlineStr">
         <is>
@@ -11413,10 +11405,10 @@
         </is>
       </c>
       <c r="O106" s="32" t="n">
-        <v>-32.5</v>
+        <v>-29.3</v>
       </c>
       <c r="P106" s="32" t="n">
-        <v>-17.1</v>
+        <v>-18.4</v>
       </c>
       <c r="Q106" s="32" t="n"/>
       <c r="R106" s="23" t="inlineStr">
@@ -11637,13 +11629,13 @@
       </c>
       <c r="N108" s="2" t="n"/>
       <c r="O108" s="32" t="n">
-        <v>-28.4</v>
+        <v>-25</v>
       </c>
       <c r="P108" s="32" t="n">
-        <v>-13.9</v>
+        <v>-14.7</v>
       </c>
       <c r="Q108" s="32" t="n">
-        <v>-21.81</v>
+        <v>-19.93</v>
       </c>
       <c r="R108" s="23" t="inlineStr">
         <is>
@@ -11850,8 +11842,12 @@
         </is>
       </c>
       <c r="N110" s="2" t="n"/>
-      <c r="O110" s="32" t="n"/>
-      <c r="P110" s="32" t="n"/>
+      <c r="O110" s="32" t="n">
+        <v>-30.3</v>
+      </c>
+      <c r="P110" s="32" t="n">
+        <v>-13.2</v>
+      </c>
       <c r="Q110" s="32" t="n"/>
       <c r="R110" s="23" t="inlineStr">
         <is>
@@ -11965,13 +11961,13 @@
       </c>
       <c r="N111" s="2" t="n"/>
       <c r="O111" s="32" t="n">
-        <v>-32</v>
+        <v>-26.1</v>
       </c>
       <c r="P111" s="32" t="n">
-        <v>-10.3</v>
+        <v>-7.1</v>
       </c>
       <c r="Q111" s="32" t="n">
-        <v>-24.23</v>
+        <v>-18.51</v>
       </c>
       <c r="R111" s="23" t="inlineStr">
         <is>
@@ -12077,10 +12073,10 @@
       </c>
       <c r="N112" s="2" t="n"/>
       <c r="O112" s="32" t="n">
-        <v>-25.9</v>
+        <v>-18.9</v>
       </c>
       <c r="P112" s="32" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q112" s="32" t="n"/>
       <c r="R112" s="23" t="inlineStr">
@@ -12183,10 +12179,10 @@
       </c>
       <c r="N113" s="2" t="n"/>
       <c r="O113" s="32" t="n">
-        <v>-10.8</v>
+        <v>-20.8</v>
       </c>
       <c r="P113" s="32" t="n">
-        <v>-4.6</v>
+        <v>0</v>
       </c>
       <c r="Q113" s="32" t="n"/>
       <c r="R113" s="23" t="inlineStr">
@@ -12297,10 +12293,10 @@
         </is>
       </c>
       <c r="O114" s="32" t="n">
-        <v>-19.6</v>
+        <v>-25.5</v>
       </c>
       <c r="P114" s="32" t="n">
-        <v>-1.9</v>
+        <v>-1</v>
       </c>
       <c r="Q114" s="32" t="n"/>
       <c r="R114" s="23" t="inlineStr">
@@ -12422,7 +12418,7 @@
         <v>-20.7</v>
       </c>
       <c r="P115" s="32" t="n">
-        <v>-6.3</v>
+        <v>-3.5</v>
       </c>
       <c r="Q115" s="32" t="n"/>
       <c r="R115" s="23" t="inlineStr">
@@ -12537,13 +12533,13 @@
       </c>
       <c r="N116" s="2" t="n"/>
       <c r="O116" s="32" t="n">
-        <v>-21.6</v>
+        <v>-14.1</v>
       </c>
       <c r="P116" s="32" t="n">
-        <v>-0.2</v>
+        <v>-4.3</v>
       </c>
       <c r="Q116" s="32" t="n">
-        <v>-12</v>
+        <v>-9.44</v>
       </c>
       <c r="R116" s="23" t="inlineStr">
         <is>
@@ -12649,7 +12645,7 @@
       </c>
       <c r="N117" s="2" t="n"/>
       <c r="O117" s="32" t="n">
-        <v>-20.2</v>
+        <v>-13.4</v>
       </c>
       <c r="P117" s="32" t="n">
         <v>-4.8</v>
@@ -12763,10 +12759,10 @@
         </is>
       </c>
       <c r="O118" s="32" t="n">
-        <v>-25.1</v>
+        <v>-29</v>
       </c>
       <c r="P118" s="32" t="n">
-        <v>-8</v>
+        <v>-10.7</v>
       </c>
       <c r="Q118" s="32" t="n"/>
       <c r="R118" s="23" t="inlineStr">
@@ -12881,13 +12877,13 @@
       </c>
       <c r="N119" s="2" t="n"/>
       <c r="O119" s="32" t="n">
-        <v>-15.4</v>
+        <v>-22</v>
       </c>
       <c r="P119" s="32" t="n">
-        <v>-7.5</v>
+        <v>-6.4</v>
       </c>
       <c r="Q119" s="32" t="n">
-        <v>-11.81</v>
+        <v>-14.32</v>
       </c>
       <c r="R119" s="23" t="inlineStr">
         <is>
@@ -13111,13 +13107,13 @@
       </c>
       <c r="N121" s="2" t="n"/>
       <c r="O121" s="32" t="n">
-        <v>-11.9</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="P121" s="32" t="n">
-        <v>-5.4</v>
+        <v>0.7</v>
       </c>
       <c r="Q121" s="32" t="n">
-        <v>-8.140000000000001</v>
+        <v>-5.99</v>
       </c>
       <c r="R121" s="23" t="inlineStr">
         <is>
@@ -13235,10 +13231,10 @@
       </c>
       <c r="N122" s="2" t="n"/>
       <c r="O122" s="32" t="n">
-        <v>-22.6</v>
+        <v>-30.3</v>
       </c>
       <c r="P122" s="32" t="n">
-        <v>-7</v>
+        <v>-11.9</v>
       </c>
       <c r="Q122" s="32" t="n"/>
       <c r="R122" s="23" t="inlineStr">
@@ -13463,13 +13459,13 @@
       </c>
       <c r="N124" s="2" t="n"/>
       <c r="O124" s="32" t="n">
-        <v>-16</v>
+        <v>-11.5</v>
       </c>
       <c r="P124" s="32" t="n">
-        <v>-0.3</v>
+        <v>3</v>
       </c>
       <c r="Q124" s="32" t="n">
-        <v>-9</v>
+        <v>-4.69</v>
       </c>
       <c r="R124" s="23" t="inlineStr">
         <is>
@@ -13587,13 +13583,13 @@
       </c>
       <c r="N125" s="2" t="n"/>
       <c r="O125" s="32" t="n">
-        <v>-9.300000000000001</v>
+        <v>-7.1</v>
       </c>
       <c r="P125" s="32" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="Q125" s="32" t="n">
-        <v>-2.96</v>
+        <v>-1.39</v>
       </c>
       <c r="R125" s="23" t="inlineStr">
         <is>
@@ -13687,10 +13683,10 @@
       </c>
       <c r="N126" s="2" t="n"/>
       <c r="O126" s="32" t="n">
-        <v>-7.7</v>
+        <v>-2.6</v>
       </c>
       <c r="P126" s="32" t="n">
-        <v>5.9</v>
+        <v>7.4</v>
       </c>
       <c r="Q126" s="32" t="n"/>
       <c r="R126" s="23" t="inlineStr">
@@ -13797,13 +13793,13 @@
       </c>
       <c r="N127" s="2" t="n"/>
       <c r="O127" s="32" t="n">
-        <v>-12.9</v>
+        <v>-6.5</v>
       </c>
       <c r="P127" s="32" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="Q127" s="32" t="n">
-        <v>-4.68</v>
+        <v>-1.27</v>
       </c>
       <c r="R127" s="23" t="inlineStr">
         <is>
@@ -13917,10 +13913,10 @@
       </c>
       <c r="N128" s="2" t="n"/>
       <c r="O128" s="32" t="n">
-        <v>-7.1</v>
+        <v>-4.7</v>
       </c>
       <c r="P128" s="32" t="n">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q128" s="32" t="n"/>
       <c r="R128" s="23" t="inlineStr">
@@ -14027,13 +14023,13 @@
       </c>
       <c r="N129" s="2" t="n"/>
       <c r="O129" s="32" t="n">
-        <v>-13.9</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="P129" s="32" t="n">
-        <v>7.6</v>
+        <v>2.1</v>
       </c>
       <c r="Q129" s="32" t="n">
-        <v>-4.89</v>
+        <v>-4.36</v>
       </c>
       <c r="R129" s="23" t="inlineStr">
         <is>
@@ -14147,13 +14143,13 @@
       </c>
       <c r="N130" s="2" t="n"/>
       <c r="O130" s="32" t="n">
-        <v>-11.8</v>
+        <v>-10.3</v>
       </c>
       <c r="P130" s="32" t="n">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="Q130" s="32" t="n">
-        <v>-5.44</v>
+        <v>-3.07</v>
       </c>
       <c r="R130" s="23" t="inlineStr">
         <is>
@@ -14267,13 +14263,13 @@
       </c>
       <c r="N131" s="2" t="n"/>
       <c r="O131" s="32" t="n">
-        <v>-7.1</v>
+        <v>1</v>
       </c>
       <c r="P131" s="32" t="n">
-        <v>6.4</v>
+        <v>8.4</v>
       </c>
       <c r="Q131" s="32" t="n">
-        <v>-1.1</v>
+        <v>4.28</v>
       </c>
       <c r="R131" s="23" t="inlineStr">
         <is>
@@ -14383,13 +14379,13 @@
       </c>
       <c r="N132" s="2" t="n"/>
       <c r="O132" s="32" t="n">
-        <v>-4.3</v>
+        <v>-0.5</v>
       </c>
       <c r="P132" s="32" t="n">
-        <v>9.4</v>
+        <v>7.5</v>
       </c>
       <c r="Q132" s="32" t="n">
-        <v>2.63</v>
+        <v>4</v>
       </c>
       <c r="R132" s="23" t="inlineStr">
         <is>
@@ -14499,13 +14495,13 @@
       </c>
       <c r="N133" s="2" t="n"/>
       <c r="O133" s="32" t="n">
-        <v>-4.1</v>
+        <v>3</v>
       </c>
       <c r="P133" s="32" t="n">
-        <v>8.6</v>
+        <v>12.2</v>
       </c>
       <c r="Q133" s="32" t="n">
-        <v>2.69</v>
+        <v>7.02</v>
       </c>
       <c r="R133" s="23" t="inlineStr">
         <is>
@@ -14721,13 +14717,13 @@
       </c>
       <c r="N135" s="2" t="n"/>
       <c r="O135" s="32" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="P135" s="32" t="n">
-        <v>10.4</v>
+        <v>6.3</v>
       </c>
       <c r="Q135" s="32" t="n">
-        <v>5.91</v>
+        <v>3.71</v>
       </c>
       <c r="R135" s="23" t="inlineStr">
         <is>
@@ -14837,13 +14833,13 @@
       </c>
       <c r="N136" s="2" t="n"/>
       <c r="O136" s="32" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="P136" s="32" t="n">
-        <v>9.6</v>
+        <v>6.7</v>
       </c>
       <c r="Q136" s="32" t="n">
-        <v>5.44</v>
+        <v>3.51</v>
       </c>
       <c r="R136" s="23" t="inlineStr">
         <is>
@@ -14953,13 +14949,13 @@
       </c>
       <c r="N137" s="2" t="n"/>
       <c r="O137" s="32" t="n">
-        <v>-3.1</v>
+        <v>0.1</v>
       </c>
       <c r="P137" s="32" t="n">
-        <v>9.5</v>
+        <v>4.6</v>
       </c>
       <c r="Q137" s="32" t="n">
-        <v>3.09</v>
+        <v>3.24</v>
       </c>
       <c r="R137" s="23" t="inlineStr">
         <is>
@@ -15069,10 +15065,10 @@
       </c>
       <c r="N138" s="2" t="n"/>
       <c r="O138" s="32" t="n">
-        <v>-5.6</v>
+        <v>-4.7</v>
       </c>
       <c r="P138" s="32" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="Q138" s="32" t="n"/>
       <c r="R138" s="23" t="inlineStr">
@@ -15183,13 +15179,13 @@
       </c>
       <c r="N139" s="2" t="n"/>
       <c r="O139" s="32" t="n">
-        <v>-3.5</v>
+        <v>-2.3</v>
       </c>
       <c r="P139" s="32" t="n">
-        <v>5.3</v>
+        <v>7.2</v>
       </c>
       <c r="Q139" s="32" t="n">
-        <v>0.73</v>
+        <v>1.96</v>
       </c>
       <c r="R139" s="23" t="inlineStr">
         <is>
@@ -15299,13 +15295,13 @@
       </c>
       <c r="N140" s="2" t="n"/>
       <c r="O140" s="32" t="n">
-        <v>-1.6</v>
+        <v>-2.9</v>
       </c>
       <c r="P140" s="32" t="n">
-        <v>6.4</v>
+        <v>10.5</v>
       </c>
       <c r="Q140" s="32" t="n">
-        <v>2.35</v>
+        <v>3.37</v>
       </c>
       <c r="R140" s="23" t="inlineStr">
         <is>
@@ -15517,13 +15513,13 @@
       </c>
       <c r="N142" s="2" t="n"/>
       <c r="O142" s="32" t="n">
-        <v>6.9</v>
+        <v>5.1</v>
       </c>
       <c r="P142" s="32" t="n">
-        <v>14.2</v>
+        <v>12.3</v>
       </c>
       <c r="Q142" s="32" t="n">
-        <v>9.26</v>
+        <v>8.24</v>
       </c>
       <c r="R142" s="23" t="inlineStr">
         <is>
@@ -15633,13 +15629,13 @@
       </c>
       <c r="N143" s="2" t="n"/>
       <c r="O143" s="32" t="n">
-        <v>11.5</v>
+        <v>9.9</v>
       </c>
       <c r="P143" s="32" t="n">
-        <v>18.3</v>
+        <v>17.9</v>
       </c>
       <c r="Q143" s="32" t="n">
-        <v>14.34</v>
+        <v>13.45</v>
       </c>
       <c r="R143" s="23" t="inlineStr">
         <is>
@@ -15949,13 +15945,13 @@
       </c>
       <c r="N146" s="2" t="n"/>
       <c r="O146" s="32" t="n">
-        <v>20.8</v>
+        <v>18.5</v>
       </c>
       <c r="P146" s="32" t="n">
-        <v>27.7</v>
+        <v>25.3</v>
       </c>
       <c r="Q146" s="32" t="n">
-        <v>23.2</v>
+        <v>21.65</v>
       </c>
       <c r="R146" s="23" t="inlineStr">
         <is>
@@ -16057,13 +16053,13 @@
       </c>
       <c r="N147" s="2" t="n"/>
       <c r="O147" s="32" t="n">
-        <v>9.1</v>
+        <v>8.5</v>
       </c>
       <c r="P147" s="32" t="n">
-        <v>15.6</v>
+        <v>12.8</v>
       </c>
       <c r="Q147" s="32" t="n">
-        <v>11.19</v>
+        <v>10.24</v>
       </c>
       <c r="R147" s="23" t="inlineStr">
         <is>
@@ -16275,13 +16271,13 @@
       </c>
       <c r="N149" s="2" t="n"/>
       <c r="O149" s="32" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="P149" s="32" t="n">
-        <v>15.4</v>
+        <v>19.4</v>
       </c>
       <c r="Q149" s="32" t="n">
-        <v>9.35</v>
+        <v>11.91</v>
       </c>
       <c r="R149" s="23" t="inlineStr">
         <is>
@@ -16391,13 +16387,13 @@
       </c>
       <c r="N150" s="2" t="n"/>
       <c r="O150" s="32" t="n">
-        <v>-0.1</v>
+        <v>0.7</v>
       </c>
       <c r="P150" s="32" t="n">
-        <v>3.4</v>
+        <v>5.1</v>
       </c>
       <c r="Q150" s="32" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="R150" s="23" t="inlineStr">
         <is>
@@ -16507,10 +16503,10 @@
       </c>
       <c r="N151" s="2" t="n"/>
       <c r="O151" s="32" t="n">
-        <v>8.1</v>
+        <v>8.5</v>
       </c>
       <c r="P151" s="32" t="n">
-        <v>11.2</v>
+        <v>11.4</v>
       </c>
       <c r="Q151" s="32" t="n">
         <v>9.81</v>
@@ -16713,13 +16709,13 @@
       </c>
       <c r="N153" s="2" t="n"/>
       <c r="O153" s="32" t="n">
-        <v>5.8</v>
+        <v>4.7</v>
       </c>
       <c r="P153" s="32" t="n">
-        <v>8.6</v>
+        <v>7.3</v>
       </c>
       <c r="Q153" s="32" t="n">
-        <v>7</v>
+        <v>5.53</v>
       </c>
       <c r="R153" s="23" t="inlineStr">
         <is>
@@ -16833,13 +16829,13 @@
       </c>
       <c r="N154" s="2" t="n"/>
       <c r="O154" s="32" t="n">
-        <v>-2.5</v>
+        <v>-6.8</v>
       </c>
       <c r="P154" s="32" t="n">
-        <v>8.800000000000001</v>
+        <v>10.3</v>
       </c>
       <c r="Q154" s="32" t="n">
-        <v>3.59</v>
+        <v>0.61</v>
       </c>
       <c r="R154" s="23" t="inlineStr">
         <is>
@@ -17035,10 +17031,10 @@
       </c>
       <c r="N156" s="2" t="n"/>
       <c r="O156" s="32" t="n">
-        <v>-23.4</v>
+        <v>-21.1</v>
       </c>
       <c r="P156" s="32" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="Q156" s="32" t="n"/>
       <c r="R156" s="23" t="inlineStr">
@@ -17141,10 +17137,10 @@
       </c>
       <c r="N157" s="2" t="n"/>
       <c r="O157" s="32" t="n">
-        <v>-0.7</v>
+        <v>-0.8</v>
       </c>
       <c r="P157" s="32" t="n">
-        <v>4.7</v>
+        <v>7.8</v>
       </c>
       <c r="Q157" s="32" t="n"/>
       <c r="R157" s="23" t="inlineStr">
@@ -17525,10 +17521,10 @@
       </c>
       <c r="N161" s="2" t="n"/>
       <c r="O161" s="32" t="n">
-        <v>-7</v>
+        <v>-4.6</v>
       </c>
       <c r="P161" s="32" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="Q161" s="32" t="n"/>
       <c r="R161" s="23" t="inlineStr">
@@ -17639,10 +17635,10 @@
         </is>
       </c>
       <c r="O162" s="32" t="n">
-        <v>-34</v>
+        <v>-32.9</v>
       </c>
       <c r="P162" s="32" t="n">
-        <v>-6.5</v>
+        <v>-7.4</v>
       </c>
       <c r="Q162" s="32" t="n"/>
       <c r="R162" s="23" t="inlineStr">
@@ -17969,10 +17965,10 @@
         </is>
       </c>
       <c r="O165" s="32" t="n">
-        <v>-37</v>
+        <v>-32.8</v>
       </c>
       <c r="P165" s="32" t="n">
-        <v>-16.8</v>
+        <v>-14.4</v>
       </c>
       <c r="Q165" s="32" t="n"/>
       <c r="R165" s="23" t="inlineStr">
@@ -18291,10 +18287,10 @@
         </is>
       </c>
       <c r="O168" s="32" t="n">
-        <v>-25.2</v>
+        <v>-28.8</v>
       </c>
       <c r="P168" s="32" t="n">
-        <v>-5.2</v>
+        <v>-8</v>
       </c>
       <c r="Q168" s="32" t="n"/>
       <c r="R168" s="23" t="inlineStr">
@@ -18405,10 +18401,10 @@
         </is>
       </c>
       <c r="O169" s="32" t="n">
-        <v>-29.1</v>
+        <v>-34.4</v>
       </c>
       <c r="P169" s="32" t="n">
-        <v>-8.6</v>
+        <v>-10.1</v>
       </c>
       <c r="Q169" s="32" t="n"/>
       <c r="R169" s="23" t="inlineStr">
@@ -18723,10 +18719,10 @@
       </c>
       <c r="N172" s="3" t="n"/>
       <c r="O172" s="32" t="n">
-        <v>-22.2</v>
+        <v>-27.4</v>
       </c>
       <c r="P172" s="32" t="n">
-        <v>-6.8</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="Q172" s="32" t="n"/>
       <c r="R172" s="23" t="inlineStr">
@@ -18833,10 +18829,10 @@
       </c>
       <c r="N173" s="2" t="n"/>
       <c r="O173" s="32" t="n">
-        <v>-32.7</v>
+        <v>-23.1</v>
       </c>
       <c r="P173" s="32" t="n">
-        <v>-4.7</v>
+        <v>1.5</v>
       </c>
       <c r="Q173" s="32" t="n"/>
       <c r="R173" s="23" t="inlineStr">
@@ -19151,10 +19147,10 @@
       </c>
       <c r="N176" s="2" t="n"/>
       <c r="O176" s="32" t="n">
-        <v>-13.4</v>
+        <v>-6.2</v>
       </c>
       <c r="P176" s="32" t="n">
-        <v>-4.1</v>
+        <v>1.3</v>
       </c>
       <c r="Q176" s="32" t="n"/>
       <c r="R176" s="23" t="inlineStr">
@@ -19249,10 +19245,10 @@
       </c>
       <c r="N177" s="2" t="n"/>
       <c r="O177" s="32" t="n">
-        <v>-34.2</v>
+        <v>-20.5</v>
       </c>
       <c r="P177" s="32" t="n">
-        <v>-20.4</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="Q177" s="32" t="n"/>
       <c r="R177" s="23" t="inlineStr">
@@ -20128,13 +20124,13 @@
       </c>
       <c r="N186" s="2" t="n"/>
       <c r="O186" s="32" t="n">
-        <v>-52.1</v>
+        <v>-53.9</v>
       </c>
       <c r="P186" s="32" t="n">
-        <v>-38.7</v>
+        <v>-40.9</v>
       </c>
       <c r="Q186" s="32" t="n">
-        <v>-47.91</v>
+        <v>-49.54</v>
       </c>
       <c r="R186" s="23" t="inlineStr">
         <is>
@@ -20237,13 +20233,13 @@
       </c>
       <c r="N187" s="2" t="n"/>
       <c r="O187" s="32" t="n">
-        <v>-51.6</v>
+        <v>-47.1</v>
       </c>
       <c r="P187" s="32" t="n">
-        <v>-43.4</v>
+        <v>-40.6</v>
       </c>
       <c r="Q187" s="32" t="n">
-        <v>-48.09</v>
+        <v>-42.93</v>
       </c>
       <c r="R187" s="23" t="inlineStr">
         <is>
@@ -20341,13 +20337,13 @@
       </c>
       <c r="N188" s="2" t="n"/>
       <c r="O188" s="32" t="n">
-        <v>-50.5</v>
+        <v>-46.1</v>
       </c>
       <c r="P188" s="32" t="n">
-        <v>-42</v>
+        <v>-41.5</v>
       </c>
       <c r="Q188" s="32" t="n">
-        <v>-47.29</v>
+        <v>-43.71</v>
       </c>
       <c r="R188" s="23" t="inlineStr">
         <is>
@@ -20445,13 +20441,13 @@
       </c>
       <c r="N189" s="2" t="n"/>
       <c r="O189" s="32" t="n">
-        <v>-53.2</v>
+        <v>-49.6</v>
       </c>
       <c r="P189" s="32" t="n">
-        <v>-41.8</v>
+        <v>-38.2</v>
       </c>
       <c r="Q189" s="32" t="n">
-        <v>-47.9</v>
+        <v>-42.51</v>
       </c>
       <c r="R189" s="23" t="inlineStr">
         <is>
@@ -20549,13 +20545,13 @@
       </c>
       <c r="N190" s="2" t="n"/>
       <c r="O190" s="32" t="n">
-        <v>-49.3</v>
+        <v>-48.8</v>
       </c>
       <c r="P190" s="32" t="n">
-        <v>-43.2</v>
+        <v>-39.2</v>
       </c>
       <c r="Q190" s="32" t="n">
-        <v>-46.5</v>
+        <v>-43.85</v>
       </c>
       <c r="R190" s="23" t="inlineStr">
         <is>
@@ -20653,13 +20649,13 @@
       </c>
       <c r="N191" s="2" t="n"/>
       <c r="O191" s="32" t="n">
-        <v>-50.8</v>
+        <v>-53.5</v>
       </c>
       <c r="P191" s="32" t="n">
-        <v>-40.8</v>
+        <v>-42.4</v>
       </c>
       <c r="Q191" s="32" t="n">
-        <v>-46.72</v>
+        <v>-48.99</v>
       </c>
       <c r="R191" s="23" t="inlineStr">
         <is>
@@ -20753,13 +20749,13 @@
       </c>
       <c r="N192" s="2" t="n"/>
       <c r="O192" s="32" t="n">
-        <v>-47.3</v>
+        <v>-42.3</v>
       </c>
       <c r="P192" s="32" t="n">
-        <v>-38.8</v>
+        <v>-34.8</v>
       </c>
       <c r="Q192" s="32" t="n">
-        <v>-43.69</v>
+        <v>-37.66</v>
       </c>
       <c r="R192" s="23" t="inlineStr">
         <is>
@@ -20858,13 +20854,13 @@
       </c>
       <c r="N193" s="2" t="n"/>
       <c r="O193" s="32" t="n">
-        <v>-38.9</v>
+        <v>-37.5</v>
       </c>
       <c r="P193" s="32" t="n">
-        <v>-30.3</v>
+        <v>-31.5</v>
       </c>
       <c r="Q193" s="32" t="n">
-        <v>-34.33</v>
+        <v>-34.8</v>
       </c>
       <c r="R193" s="23" t="inlineStr">
         <is>
@@ -20966,10 +20962,10 @@
       </c>
       <c r="N194" s="2" t="n"/>
       <c r="O194" s="32" t="n">
-        <v>-50</v>
+        <v>-50.5</v>
       </c>
       <c r="P194" s="32" t="n">
-        <v>-44.1</v>
+        <v>-44.3</v>
       </c>
       <c r="Q194" s="32" t="n"/>
       <c r="R194" s="23" t="inlineStr">
@@ -21064,13 +21060,13 @@
       </c>
       <c r="N195" s="2" t="n"/>
       <c r="O195" s="32" t="n">
-        <v>-37.4</v>
+        <v>-30.1</v>
       </c>
       <c r="P195" s="32" t="n">
-        <v>-29.8</v>
+        <v>-25.6</v>
       </c>
       <c r="Q195" s="32" t="n">
-        <v>-32.49</v>
+        <v>-27.59</v>
       </c>
       <c r="R195" s="23" t="inlineStr">
         <is>
@@ -21168,13 +21164,13 @@
       </c>
       <c r="N196" s="2" t="n"/>
       <c r="O196" s="32" t="n">
-        <v>-48.6</v>
+        <v>-48</v>
       </c>
       <c r="P196" s="32" t="n">
-        <v>-35.1</v>
+        <v>-32.3</v>
       </c>
       <c r="Q196" s="32" t="n">
-        <v>-42.85</v>
+        <v>-40.31</v>
       </c>
       <c r="R196" s="23" t="inlineStr">
         <is>
@@ -21272,13 +21268,13 @@
       </c>
       <c r="N197" s="24" t="n"/>
       <c r="O197" s="32" t="n">
-        <v>-27</v>
+        <v>-28.5</v>
       </c>
       <c r="P197" s="32" t="n">
-        <v>-17.1</v>
+        <v>-20</v>
       </c>
       <c r="Q197" s="32" t="n">
-        <v>-20.51</v>
+        <v>-26.31</v>
       </c>
       <c r="R197" s="23" t="inlineStr">
         <is>
@@ -22471,12 +22467,8 @@
         </is>
       </c>
       <c r="N209" s="2" t="n"/>
-      <c r="O209" s="32" t="n">
-        <v>-35.4</v>
-      </c>
-      <c r="P209" s="32" t="n">
-        <v>-13.8</v>
-      </c>
+      <c r="O209" s="32" t="n"/>
+      <c r="P209" s="32" t="n"/>
       <c r="Q209" s="32" t="n"/>
       <c r="R209" s="23" t="inlineStr">
         <is>
@@ -25631,8 +25623,12 @@
         </is>
       </c>
       <c r="N241" s="2" t="n"/>
-      <c r="O241" s="32" t="n"/>
-      <c r="P241" s="32" t="n"/>
+      <c r="O241" s="32" t="n">
+        <v>-36.1</v>
+      </c>
+      <c r="P241" s="32" t="n">
+        <v>-12.2</v>
+      </c>
       <c r="Q241" s="32" t="n"/>
       <c r="R241" s="23" t="inlineStr">
         <is>
@@ -26202,13 +26198,13 @@
       </c>
       <c r="N247" s="2" t="n"/>
       <c r="O247" s="32" t="n">
-        <v>-18.4</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="P247" s="32" t="n">
-        <v>-8</v>
+        <v>-0.8</v>
       </c>
       <c r="Q247" s="32" t="n">
-        <v>-14.56</v>
+        <v>-5.01</v>
       </c>
       <c r="R247" s="23" t="inlineStr">
         <is>
@@ -26314,13 +26310,13 @@
       </c>
       <c r="N248" s="2" t="n"/>
       <c r="O248" s="32" t="n">
+        <v>-18.9</v>
+      </c>
+      <c r="P248" s="32" t="n">
         <v>-11.6</v>
       </c>
-      <c r="P248" s="32" t="n">
-        <v>-4.8</v>
-      </c>
       <c r="Q248" s="32" t="n">
-        <v>-7.14</v>
+        <v>-15.61</v>
       </c>
       <c r="R248" s="23" t="inlineStr">
         <is>
@@ -26422,13 +26418,13 @@
       </c>
       <c r="N249" s="2" t="n"/>
       <c r="O249" s="32" t="n">
-        <v>-20.9</v>
+        <v>-12.9</v>
       </c>
       <c r="P249" s="32" t="n">
-        <v>-10.9</v>
+        <v>-3.5</v>
       </c>
       <c r="Q249" s="32" t="n">
-        <v>-16.93</v>
+        <v>-9.1</v>
       </c>
       <c r="R249" s="23" t="inlineStr">
         <is>
@@ -26534,13 +26530,13 @@
       </c>
       <c r="N250" s="2" t="n"/>
       <c r="O250" s="32" t="n">
-        <v>-29.1</v>
+        <v>-22.2</v>
       </c>
       <c r="P250" s="32" t="n">
-        <v>-17.8</v>
+        <v>-10.4</v>
       </c>
       <c r="Q250" s="32" t="n">
-        <v>-23.93</v>
+        <v>-17.24</v>
       </c>
       <c r="R250" s="23" t="inlineStr">
         <is>
@@ -26654,10 +26650,10 @@
         </is>
       </c>
       <c r="O251" s="32" t="n">
-        <v>-30.7</v>
+        <v>-33.3</v>
       </c>
       <c r="P251" s="32" t="n">
-        <v>-17</v>
+        <v>-20.4</v>
       </c>
       <c r="Q251" s="32" t="n"/>
       <c r="R251" s="23" t="inlineStr">
@@ -26752,13 +26748,13 @@
       </c>
       <c r="N252" s="2" t="n"/>
       <c r="O252" s="32" t="n">
-        <v>-8.199999999999999</v>
+        <v>-12.1</v>
       </c>
       <c r="P252" s="32" t="n">
-        <v>-1.4</v>
+        <v>-4</v>
       </c>
       <c r="Q252" s="32" t="n">
-        <v>-5.35</v>
+        <v>-8.140000000000001</v>
       </c>
       <c r="R252" s="23" t="inlineStr">
         <is>
@@ -26950,13 +26946,13 @@
       </c>
       <c r="N254" s="2" t="n"/>
       <c r="O254" s="32" t="n">
+        <v>-40.8</v>
+      </c>
+      <c r="P254" s="32" t="n">
         <v>-27.7</v>
       </c>
-      <c r="P254" s="32" t="n">
-        <v>-25.5</v>
-      </c>
       <c r="Q254" s="32" t="n">
-        <v>-26.65</v>
+        <v>-35.2</v>
       </c>
       <c r="R254" s="23" t="inlineStr">
         <is>
@@ -27524,13 +27520,13 @@
       </c>
       <c r="N260" s="2" t="n"/>
       <c r="O260" s="32" t="n">
-        <v>-32.3</v>
+        <v>-30</v>
       </c>
       <c r="P260" s="32" t="n">
-        <v>-9.4</v>
+        <v>-5.9</v>
       </c>
       <c r="Q260" s="32" t="n">
-        <v>-22.64</v>
+        <v>-19.08</v>
       </c>
       <c r="R260" s="23" t="inlineStr">
         <is>
@@ -27632,13 +27628,13 @@
       </c>
       <c r="N261" s="2" t="n"/>
       <c r="O261" s="32" t="n">
-        <v>-29.7</v>
+        <v>-26</v>
       </c>
       <c r="P261" s="32" t="n">
-        <v>-6.2</v>
+        <v>-5.1</v>
       </c>
       <c r="Q261" s="32" t="n">
-        <v>-20.31</v>
+        <v>-17.05</v>
       </c>
       <c r="R261" s="23" t="inlineStr">
         <is>
@@ -27744,13 +27740,13 @@
       </c>
       <c r="N262" s="2" t="n"/>
       <c r="O262" s="32" t="n">
-        <v>-13.8</v>
+        <v>-13.7</v>
       </c>
       <c r="P262" s="32" t="n">
-        <v>-8.5</v>
+        <v>-3.7</v>
       </c>
       <c r="Q262" s="32" t="n">
-        <v>-11.62</v>
+        <v>-10.1</v>
       </c>
       <c r="R262" s="23" t="inlineStr">
         <is>
@@ -27950,13 +27946,13 @@
       </c>
       <c r="N264" s="2" t="n"/>
       <c r="O264" s="32" t="n">
-        <v>-23.9</v>
+        <v>-15.6</v>
       </c>
       <c r="P264" s="32" t="n">
-        <v>-14.2</v>
+        <v>-6.6</v>
       </c>
       <c r="Q264" s="32" t="n">
-        <v>-18.86</v>
+        <v>-11.9</v>
       </c>
       <c r="R264" s="23" t="inlineStr">
         <is>
@@ -28070,10 +28066,10 @@
       </c>
       <c r="N265" s="2" t="n"/>
       <c r="O265" s="32" t="n">
-        <v>-45.7</v>
+        <v>-52.5</v>
       </c>
       <c r="P265" s="32" t="n">
-        <v>-33.8</v>
+        <v>-40.2</v>
       </c>
       <c r="Q265" s="32" t="n"/>
       <c r="R265" s="23" t="inlineStr">
@@ -28911,12 +28907,8 @@
         </is>
       </c>
       <c r="N274" s="2" t="n"/>
-      <c r="O274" s="32" t="n">
-        <v>-35.6</v>
-      </c>
-      <c r="P274" s="32" t="n">
-        <v>-14.1</v>
-      </c>
+      <c r="O274" s="32" t="n"/>
+      <c r="P274" s="32" t="n"/>
       <c r="Q274" s="32" t="n"/>
       <c r="R274" s="23" t="inlineStr">
         <is>
@@ -29114,13 +29106,13 @@
       </c>
       <c r="N276" s="2" t="n"/>
       <c r="O276" s="32" t="n">
-        <v>-28.2</v>
+        <v>-26.8</v>
       </c>
       <c r="P276" s="32" t="n">
-        <v>-24</v>
+        <v>-12</v>
       </c>
       <c r="Q276" s="32" t="n">
-        <v>-26.2</v>
+        <v>-13.04</v>
       </c>
       <c r="R276" s="23" t="inlineStr">
         <is>
@@ -29297,12 +29289,8 @@
         </is>
       </c>
       <c r="N278" s="2" t="n"/>
-      <c r="O278" s="32" t="n">
-        <v>-36</v>
-      </c>
-      <c r="P278" s="32" t="n">
-        <v>-11.7</v>
-      </c>
+      <c r="O278" s="32" t="n"/>
+      <c r="P278" s="32" t="n"/>
       <c r="Q278" s="32" t="n"/>
       <c r="R278" s="23" t="inlineStr">
         <is>
@@ -29631,7 +29619,9 @@
       <c r="AH281" s="2" t="n"/>
     </row>
     <row r="282" ht="24" customHeight="1" s="44">
-      <c r="A282" s="2" t="n"/>
+      <c r="A282" s="2" t="n">
+        <v>281</v>
+      </c>
       <c r="B282" s="2" t="n"/>
       <c r="C282" s="27" t="n"/>
       <c r="D282" s="2" t="n"/>
@@ -29640,28 +29630,74 @@
       <c r="G282" s="29" t="n"/>
       <c r="H282" s="29" t="n"/>
       <c r="I282" s="2" t="n"/>
-      <c r="J282" s="27" t="n"/>
-      <c r="K282" s="4" t="n"/>
+      <c r="J282" s="27" t="n">
+        <v>12</v>
+      </c>
+      <c r="K282" s="31" t="inlineStr">
+        <is>
+          <t>🇨🇳</t>
+        </is>
+      </c>
       <c r="L282" s="2" t="n"/>
-      <c r="M282" s="14" t="n"/>
+      <c r="M282" s="14" t="inlineStr">
+        <is>
+          <t>库都尔</t>
+        </is>
+      </c>
       <c r="N282" s="2" t="n"/>
-      <c r="O282" s="32" t="n"/>
-      <c r="P282" s="32" t="n"/>
+      <c r="O282" s="32" t="n">
+        <v>-33.7</v>
+      </c>
+      <c r="P282" s="32" t="n">
+        <v>-9</v>
+      </c>
       <c r="Q282" s="32" t="n"/>
-      <c r="R282" s="23" t="n"/>
+      <c r="R282" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S282" s="37" t="n"/>
-      <c r="T282" s="41" t="n"/>
-      <c r="U282" s="2" t="n"/>
-      <c r="V282" s="4" t="n"/>
-      <c r="W282" s="4" t="n"/>
-      <c r="X282" s="4" t="n"/>
+      <c r="T282" s="41" t="inlineStr">
+        <is>
+          <t>呼伦贝尔</t>
+        </is>
+      </c>
+      <c r="U282" s="2" t="inlineStr">
+        <is>
+          <t>内蒙古</t>
+        </is>
+      </c>
+      <c r="V282" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="W282" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="X282" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="Y282" s="4" t="n"/>
       <c r="Z282" s="2" t="n"/>
       <c r="AA282" s="2" t="n"/>
       <c r="AB282" s="2" t="n"/>
       <c r="AC282" s="2" t="n"/>
-      <c r="AD282" s="2" t="n"/>
-      <c r="AE282" s="4" t="n"/>
+      <c r="AD282" s="2" t="inlineStr">
+        <is>
+          <t>中国</t>
+        </is>
+      </c>
+      <c r="AE282" s="4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
       <c r="AF282" s="4" t="n"/>
       <c r="AG282" s="2" t="n"/>
       <c r="AH282" s="2" t="n"/>

--- a/气象/For_Python_站点信息和记录.xlsx
+++ b/气象/For_Python_站点信息和记录.xlsx
@@ -761,7 +761,7 @@
   </sheetPr>
   <dimension ref="A1:AH401"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
@@ -790,8 +790,8 @@
     <col width="18.59765625" customWidth="1" style="8" min="25" max="25"/>
     <col width="12.59765625" customWidth="1" style="5" min="26" max="30"/>
     <col width="12.59765625" customWidth="1" style="8" min="31" max="32"/>
-    <col width="12.59765625" customWidth="1" style="5" min="33" max="240"/>
-    <col width="12.59765625" customWidth="1" style="5" min="241" max="16384"/>
+    <col width="12.59765625" customWidth="1" style="5" min="33" max="244"/>
+    <col width="12.59765625" customWidth="1" style="5" min="245" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.75" customFormat="1" customHeight="1" s="11">
@@ -1014,13 +1014,13 @@
         </is>
       </c>
       <c r="O2" s="32" t="n">
-        <v>-38.7</v>
+        <v>-31.2</v>
       </c>
       <c r="P2" s="32" t="n">
-        <v>-26.7</v>
+        <v>-23.4</v>
       </c>
       <c r="Q2" s="32" t="n">
-        <v>-31.8</v>
+        <v>-28.1</v>
       </c>
       <c r="R2" s="23" t="inlineStr">
         <is>
@@ -1124,10 +1124,10 @@
         </is>
       </c>
       <c r="O3" s="32" t="n">
-        <v>-38.5</v>
+        <v>-32.2</v>
       </c>
       <c r="P3" s="32" t="n">
-        <v>-26.2</v>
+        <v>-21.5</v>
       </c>
       <c r="Q3" s="32" t="n"/>
       <c r="R3" s="23" t="n"/>
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="O4" s="32" t="n">
-        <v>-35.2</v>
+        <v>-31.3</v>
       </c>
       <c r="P4" s="32" t="n">
-        <v>-21.6</v>
+        <v>-17.6</v>
       </c>
       <c r="Q4" s="32" t="n"/>
       <c r="R4" s="23" t="n"/>
@@ -1320,10 +1320,10 @@
       </c>
       <c r="N5" s="2" t="n"/>
       <c r="O5" s="32" t="n">
-        <v>-31.3</v>
+        <v>-28.8</v>
       </c>
       <c r="P5" s="32" t="n">
-        <v>-18</v>
+        <v>-16.6</v>
       </c>
       <c r="Q5" s="32" t="n"/>
       <c r="R5" s="23" t="n"/>
@@ -1420,10 +1420,10 @@
         </is>
       </c>
       <c r="O6" s="32" t="n">
-        <v>-31.9</v>
+        <v>-32.8</v>
       </c>
       <c r="P6" s="32" t="n">
-        <v>-18</v>
+        <v>-16.4</v>
       </c>
       <c r="Q6" s="32" t="n"/>
       <c r="R6" s="23" t="n"/>
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="O7" s="32" t="n">
-        <v>-33.3</v>
+        <v>-31.5</v>
       </c>
       <c r="P7" s="32" t="n">
-        <v>-22.9</v>
+        <v>-17.6</v>
       </c>
       <c r="Q7" s="32" t="n"/>
       <c r="R7" s="23" t="n"/>
@@ -1628,13 +1628,13 @@
       </c>
       <c r="N8" s="2" t="n"/>
       <c r="O8" s="32" t="n">
-        <v>-28.6</v>
+        <v>-28.2</v>
       </c>
       <c r="P8" s="32" t="n">
-        <v>-17.1</v>
+        <v>-11.8</v>
       </c>
       <c r="Q8" s="32" t="n">
-        <v>-24.27</v>
+        <v>-20.73</v>
       </c>
       <c r="R8" s="23" t="inlineStr">
         <is>
@@ -1740,13 +1740,13 @@
       </c>
       <c r="N9" s="2" t="n"/>
       <c r="O9" s="32" t="n">
-        <v>-36.3</v>
+        <v>-29.5</v>
       </c>
       <c r="P9" s="32" t="n">
-        <v>-23.7</v>
+        <v>-18.8</v>
       </c>
       <c r="Q9" s="32" t="n">
-        <v>-30.25</v>
+        <v>-25.58</v>
       </c>
       <c r="R9" s="23" t="inlineStr">
         <is>
@@ -1856,13 +1856,13 @@
       </c>
       <c r="N10" s="3" t="n"/>
       <c r="O10" s="32" t="n">
-        <v>-38.1</v>
+        <v>-30.4</v>
       </c>
       <c r="P10" s="32" t="n">
-        <v>-23.1</v>
+        <v>-14.7</v>
       </c>
       <c r="Q10" s="32" t="n">
-        <v>-30.81</v>
+        <v>-23.44</v>
       </c>
       <c r="R10" s="23" t="inlineStr">
         <is>
@@ -1972,13 +1972,13 @@
         </is>
       </c>
       <c r="O11" s="32" t="n">
-        <v>-32.4</v>
+        <v>-20.2</v>
       </c>
       <c r="P11" s="32" t="n">
-        <v>-14.9</v>
+        <v>-3.3</v>
       </c>
       <c r="Q11" s="32" t="n">
-        <v>-25.09</v>
+        <v>-14</v>
       </c>
       <c r="R11" s="23" t="inlineStr">
         <is>
@@ -2084,13 +2084,13 @@
       </c>
       <c r="N12" s="2" t="n"/>
       <c r="O12" s="32" t="n">
-        <v>-32.9</v>
+        <v>-30.1</v>
       </c>
       <c r="P12" s="32" t="n">
-        <v>-16.9</v>
+        <v>-14.4</v>
       </c>
       <c r="Q12" s="32" t="n">
-        <v>-27.38</v>
+        <v>-24.19</v>
       </c>
       <c r="R12" s="23" t="inlineStr">
         <is>
@@ -2200,13 +2200,13 @@
         </is>
       </c>
       <c r="O13" s="32" t="n">
-        <v>-34.4</v>
+        <v>-32</v>
       </c>
       <c r="P13" s="32" t="n">
-        <v>-24.5</v>
+        <v>-18.1</v>
       </c>
       <c r="Q13" s="32" t="n">
-        <v>-29.42</v>
+        <v>-26</v>
       </c>
       <c r="R13" s="23" t="inlineStr">
         <is>
@@ -2316,13 +2316,13 @@
       </c>
       <c r="N14" s="2" t="n"/>
       <c r="O14" s="32" t="n">
-        <v>-20.2</v>
+        <v>-18.5</v>
       </c>
       <c r="P14" s="32" t="n">
-        <v>-5.1</v>
+        <v>-4.8</v>
       </c>
       <c r="Q14" s="32" t="n">
-        <v>-14.7</v>
+        <v>-12.91</v>
       </c>
       <c r="R14" s="23" t="inlineStr">
         <is>
@@ -2417,8 +2417,12 @@
         </is>
       </c>
       <c r="N15" s="2" t="n"/>
-      <c r="O15" s="32" t="n"/>
-      <c r="P15" s="32" t="n"/>
+      <c r="O15" s="32" t="n">
+        <v>-26.4</v>
+      </c>
+      <c r="P15" s="32" t="n">
+        <v>-7.7</v>
+      </c>
       <c r="Q15" s="32" t="n"/>
       <c r="R15" s="23" t="n"/>
       <c r="S15" s="37" t="n"/>
@@ -2518,19 +2522,15 @@
       </c>
       <c r="N16" s="2" t="n"/>
       <c r="O16" s="32" t="n">
-        <v>-28</v>
+        <v>-26.2</v>
       </c>
       <c r="P16" s="32" t="n">
-        <v>-8.199999999999999</v>
+        <v>-3.1</v>
       </c>
       <c r="Q16" s="32" t="n">
-        <v>-18.25</v>
-      </c>
-      <c r="R16" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+        <v>-16.3</v>
+      </c>
+      <c r="R16" s="23" t="n"/>
       <c r="S16" s="37" t="n"/>
       <c r="T16" s="41" t="inlineStr">
         <is>
@@ -4968,10 +4968,10 @@
       </c>
       <c r="N43" s="2" t="n"/>
       <c r="O43" s="32" t="n">
-        <v>-34.1</v>
+        <v>-30.3</v>
       </c>
       <c r="P43" s="32" t="n">
-        <v>-28.4</v>
+        <v>-25.3</v>
       </c>
       <c r="Q43" s="32" t="n"/>
       <c r="R43" s="23" t="n"/>
@@ -7830,13 +7830,13 @@
       </c>
       <c r="N75" s="2" t="n"/>
       <c r="O75" s="32" t="n">
-        <v>-29.6</v>
+        <v>-26.2</v>
       </c>
       <c r="P75" s="32" t="n">
-        <v>-8.300000000000001</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="Q75" s="32" t="n">
-        <v>-20.88</v>
+        <v>-19.21</v>
       </c>
       <c r="R75" s="23" t="inlineStr">
         <is>
@@ -7942,13 +7942,13 @@
       </c>
       <c r="N76" s="2" t="n"/>
       <c r="O76" s="32" t="n">
-        <v>-35.7</v>
+        <v>-34.8</v>
       </c>
       <c r="P76" s="32" t="n">
-        <v>-19.7</v>
+        <v>-18.7</v>
       </c>
       <c r="Q76" s="32" t="n">
-        <v>-27.62</v>
+        <v>-27.99</v>
       </c>
       <c r="R76" s="23" t="inlineStr">
         <is>
@@ -8058,12 +8058,14 @@
         </is>
       </c>
       <c r="O77" s="32" t="n">
-        <v>-38.8</v>
+        <v>-38.5</v>
       </c>
       <c r="P77" s="32" t="n">
-        <v>-18.2</v>
-      </c>
-      <c r="Q77" s="32" t="n"/>
+        <v>-17.3</v>
+      </c>
+      <c r="Q77" s="32" t="n">
+        <v>-29.21</v>
+      </c>
       <c r="R77" s="23" t="inlineStr">
         <is>
           <t>Y</t>
@@ -8172,13 +8174,13 @@
       </c>
       <c r="N78" s="2" t="n"/>
       <c r="O78" s="32" t="n">
-        <v>-33.9</v>
+        <v>-35.9</v>
       </c>
       <c r="P78" s="32" t="n">
-        <v>-16.8</v>
+        <v>-15.4</v>
       </c>
       <c r="Q78" s="32" t="n">
-        <v>-27</v>
+        <v>-26.56</v>
       </c>
       <c r="R78" s="23" t="inlineStr">
         <is>
@@ -8288,13 +8290,13 @@
         </is>
       </c>
       <c r="O79" s="32" t="n">
-        <v>-40.3</v>
+        <v>-36.5</v>
       </c>
       <c r="P79" s="32" t="n">
-        <v>-18</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="Q79" s="32" t="n">
-        <v>-31.01</v>
+        <v>-24.95</v>
       </c>
       <c r="R79" s="23" t="inlineStr">
         <is>
@@ -8400,13 +8402,13 @@
       </c>
       <c r="N80" s="2" t="n"/>
       <c r="O80" s="32" t="n">
-        <v>-23.9</v>
+        <v>-27.8</v>
       </c>
       <c r="P80" s="32" t="n">
         <v>-7</v>
       </c>
       <c r="Q80" s="32" t="n">
-        <v>-15.79</v>
+        <v>-18.3</v>
       </c>
       <c r="R80" s="23" t="inlineStr">
         <is>
@@ -8516,13 +8518,13 @@
         </is>
       </c>
       <c r="O81" s="32" t="n">
-        <v>-31.9</v>
+        <v>-35.8</v>
       </c>
       <c r="P81" s="32" t="n">
         <v>-11.1</v>
       </c>
       <c r="Q81" s="32" t="n">
-        <v>-22.72</v>
+        <v>-24.91</v>
       </c>
       <c r="R81" s="23" t="inlineStr">
         <is>
@@ -8637,13 +8639,13 @@
         </is>
       </c>
       <c r="O82" s="32" t="n">
-        <v>-27.7</v>
+        <v>-32.5</v>
       </c>
       <c r="P82" s="32" t="n">
-        <v>-5.4</v>
+        <v>-4.8</v>
       </c>
       <c r="Q82" s="32" t="n">
-        <v>-20.01</v>
+        <v>-21.7</v>
       </c>
       <c r="R82" s="23" t="inlineStr">
         <is>
@@ -8753,13 +8755,13 @@
       </c>
       <c r="N83" s="2" t="n"/>
       <c r="O83" s="32" t="n">
-        <v>-28.6</v>
+        <v>-28.2</v>
       </c>
       <c r="P83" s="32" t="n">
-        <v>-11</v>
+        <v>-15.1</v>
       </c>
       <c r="Q83" s="32" t="n">
-        <v>-22.31</v>
+        <v>-21.36</v>
       </c>
       <c r="R83" s="23" t="inlineStr">
         <is>
@@ -8873,13 +8875,13 @@
         </is>
       </c>
       <c r="O84" s="32" t="n">
-        <v>-22.3</v>
+        <v>-28.2</v>
       </c>
       <c r="P84" s="32" t="n">
-        <v>-10.3</v>
+        <v>-11.8</v>
       </c>
       <c r="Q84" s="32" t="n">
-        <v>-15.95</v>
+        <v>-19.36</v>
       </c>
       <c r="R84" s="23" t="inlineStr">
         <is>
@@ -8993,13 +8995,13 @@
         </is>
       </c>
       <c r="O85" s="32" t="n">
-        <v>-33.6</v>
+        <v>-27</v>
       </c>
       <c r="P85" s="32" t="n">
-        <v>-19.1</v>
+        <v>-13</v>
       </c>
       <c r="Q85" s="32" t="n">
-        <v>-25.04</v>
+        <v>-20.16</v>
       </c>
       <c r="R85" s="23" t="inlineStr">
         <is>
@@ -9105,13 +9107,13 @@
       </c>
       <c r="N86" s="2" t="n"/>
       <c r="O86" s="32" t="n">
-        <v>-30.4</v>
+        <v>-22.8</v>
       </c>
       <c r="P86" s="32" t="n">
-        <v>-19</v>
+        <v>-12.7</v>
       </c>
       <c r="Q86" s="32" t="n">
-        <v>-24.17</v>
+        <v>-18.34</v>
       </c>
       <c r="R86" s="23" t="inlineStr">
         <is>
@@ -9229,13 +9231,13 @@
         </is>
       </c>
       <c r="O87" s="32" t="n">
-        <v>-36.2</v>
+        <v>-30.6</v>
       </c>
       <c r="P87" s="32" t="n">
-        <v>-23.6</v>
+        <v>-20.6</v>
       </c>
       <c r="Q87" s="32" t="n">
-        <v>-29.9</v>
+        <v>-26.41</v>
       </c>
       <c r="R87" s="23" t="inlineStr">
         <is>
@@ -9341,13 +9343,13 @@
       </c>
       <c r="N88" s="2" t="n"/>
       <c r="O88" s="32" t="n">
-        <v>-33.2</v>
+        <v>-23.5</v>
       </c>
       <c r="P88" s="32" t="n">
-        <v>-19.4</v>
+        <v>-7.7</v>
       </c>
       <c r="Q88" s="32" t="n">
-        <v>-27.62</v>
+        <v>-17.19</v>
       </c>
       <c r="R88" s="23" t="inlineStr">
         <is>
@@ -9559,13 +9561,13 @@
         </is>
       </c>
       <c r="O90" s="32" t="n">
-        <v>-22.5</v>
+        <v>-4.9</v>
       </c>
       <c r="P90" s="32" t="n">
-        <v>-8.5</v>
+        <v>-1.3</v>
       </c>
       <c r="Q90" s="32" t="n">
-        <v>-14.9</v>
+        <v>-3.21</v>
       </c>
       <c r="R90" s="23" t="inlineStr">
         <is>
@@ -9667,13 +9669,13 @@
       </c>
       <c r="N91" s="2" t="n"/>
       <c r="O91" s="32" t="n">
-        <v>-28.6</v>
+        <v>-9</v>
       </c>
       <c r="P91" s="32" t="n">
-        <v>-8.9</v>
+        <v>-2.4</v>
       </c>
       <c r="Q91" s="32" t="n">
-        <v>-18.45</v>
+        <v>-5.41</v>
       </c>
       <c r="R91" s="23" t="inlineStr">
         <is>
@@ -9775,13 +9777,13 @@
       </c>
       <c r="N92" s="2" t="n"/>
       <c r="O92" s="32" t="n">
-        <v>-24</v>
+        <v>-21</v>
       </c>
       <c r="P92" s="32" t="n">
-        <v>-3</v>
+        <v>-5.5</v>
       </c>
       <c r="Q92" s="32" t="n">
-        <v>-14</v>
+        <v>-11.21</v>
       </c>
       <c r="R92" s="23" t="inlineStr">
         <is>
@@ -9887,13 +9889,13 @@
       </c>
       <c r="N93" s="2" t="n"/>
       <c r="O93" s="32" t="n">
-        <v>-14.8</v>
+        <v>-11.9</v>
       </c>
       <c r="P93" s="32" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="Q93" s="32" t="n">
-        <v>-5.04</v>
+        <v>-3.46</v>
       </c>
       <c r="R93" s="23" t="inlineStr">
         <is>
@@ -10007,10 +10009,10 @@
         </is>
       </c>
       <c r="O94" s="32" t="n">
-        <v>-23.4</v>
+        <v>-20.6</v>
       </c>
       <c r="P94" s="32" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="Q94" s="32" t="n"/>
       <c r="R94" s="23" t="inlineStr">
@@ -10125,13 +10127,13 @@
       </c>
       <c r="N95" s="2" t="n"/>
       <c r="O95" s="32" t="n">
-        <v>-10.4</v>
+        <v>-12.7</v>
       </c>
       <c r="P95" s="32" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="Q95" s="32" t="n">
-        <v>-5.36</v>
+        <v>-5.97</v>
       </c>
       <c r="R95" s="23" t="inlineStr">
         <is>
@@ -10253,10 +10255,10 @@
         </is>
       </c>
       <c r="O96" s="32" t="n">
-        <v>-26.1</v>
+        <v>-21.4</v>
       </c>
       <c r="P96" s="32" t="n">
-        <v>0.2</v>
+        <v>-0.6</v>
       </c>
       <c r="Q96" s="32" t="n"/>
       <c r="R96" s="23" t="inlineStr">
@@ -10371,13 +10373,13 @@
       </c>
       <c r="N97" s="2" t="n"/>
       <c r="O97" s="32" t="n">
-        <v>-13.6</v>
+        <v>-18.7</v>
       </c>
       <c r="P97" s="32" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="Q97" s="32" t="n">
-        <v>-9.109999999999999</v>
+        <v>-10.99</v>
       </c>
       <c r="R97" s="23" t="inlineStr">
         <is>
@@ -10487,10 +10489,10 @@
       </c>
       <c r="N98" s="2" t="n"/>
       <c r="O98" s="32" t="n">
-        <v>-29.7</v>
+        <v>-26.2</v>
       </c>
       <c r="P98" s="32" t="n">
-        <v>-11.9</v>
+        <v>-10.6</v>
       </c>
       <c r="Q98" s="32" t="n"/>
       <c r="R98" s="23" t="inlineStr">
@@ -10605,13 +10607,13 @@
       </c>
       <c r="N99" s="2" t="n"/>
       <c r="O99" s="32" t="n">
-        <v>-29.6</v>
+        <v>-29.3</v>
       </c>
       <c r="P99" s="32" t="n">
-        <v>-11.4</v>
+        <v>-7.9</v>
       </c>
       <c r="Q99" s="32" t="n">
-        <v>-23.19</v>
+        <v>-20.66</v>
       </c>
       <c r="R99" s="23" t="inlineStr">
         <is>
@@ -10822,8 +10824,12 @@
         </is>
       </c>
       <c r="N101" s="2" t="n"/>
-      <c r="O101" s="32" t="n"/>
-      <c r="P101" s="32" t="n"/>
+      <c r="O101" s="32" t="n">
+        <v>-34.1</v>
+      </c>
+      <c r="P101" s="32" t="n">
+        <v>-7.5</v>
+      </c>
       <c r="Q101" s="32" t="n"/>
       <c r="R101" s="23" t="inlineStr">
         <is>
@@ -10937,13 +10943,13 @@
       </c>
       <c r="N102" s="2" t="n"/>
       <c r="O102" s="32" t="n">
-        <v>-32</v>
+        <v>-34.4</v>
       </c>
       <c r="P102" s="32" t="n">
-        <v>-8.4</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="Q102" s="32" t="n">
-        <v>-22.74</v>
+        <v>-23.4</v>
       </c>
       <c r="R102" s="23" t="inlineStr">
         <is>
@@ -11053,10 +11059,10 @@
       </c>
       <c r="N103" s="2" t="n"/>
       <c r="O103" s="32" t="n">
-        <v>-30.8</v>
+        <v>-33.7</v>
       </c>
       <c r="P103" s="32" t="n">
-        <v>-12.5</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="Q103" s="32" t="n"/>
       <c r="R103" s="23" t="inlineStr">
@@ -11163,10 +11169,10 @@
       </c>
       <c r="N104" s="2" t="n"/>
       <c r="O104" s="32" t="n">
-        <v>-28.8</v>
+        <v>-31.1</v>
       </c>
       <c r="P104" s="32" t="n">
-        <v>-9.1</v>
+        <v>-5.9</v>
       </c>
       <c r="Q104" s="32" t="n"/>
       <c r="R104" s="23" t="inlineStr">
@@ -11285,13 +11291,13 @@
         </is>
       </c>
       <c r="O105" s="32" t="n">
-        <v>-31.8</v>
+        <v>-32.6</v>
       </c>
       <c r="P105" s="32" t="n">
-        <v>-9.6</v>
+        <v>-7.9</v>
       </c>
       <c r="Q105" s="32" t="n">
-        <v>-23.26</v>
+        <v>-21.75</v>
       </c>
       <c r="R105" s="23" t="inlineStr">
         <is>
@@ -11405,10 +11411,10 @@
         </is>
       </c>
       <c r="O106" s="32" t="n">
-        <v>-29.3</v>
+        <v>-31.1</v>
       </c>
       <c r="P106" s="32" t="n">
-        <v>-18.4</v>
+        <v>-17.1</v>
       </c>
       <c r="Q106" s="32" t="n"/>
       <c r="R106" s="23" t="inlineStr">
@@ -11629,13 +11635,13 @@
       </c>
       <c r="N108" s="2" t="n"/>
       <c r="O108" s="32" t="n">
-        <v>-25</v>
+        <v>-23.2</v>
       </c>
       <c r="P108" s="32" t="n">
-        <v>-14.7</v>
+        <v>-13.7</v>
       </c>
       <c r="Q108" s="32" t="n">
-        <v>-19.93</v>
+        <v>-18.49</v>
       </c>
       <c r="R108" s="23" t="inlineStr">
         <is>
@@ -11842,12 +11848,8 @@
         </is>
       </c>
       <c r="N110" s="2" t="n"/>
-      <c r="O110" s="32" t="n">
-        <v>-30.3</v>
-      </c>
-      <c r="P110" s="32" t="n">
-        <v>-13.2</v>
-      </c>
+      <c r="O110" s="32" t="n"/>
+      <c r="P110" s="32" t="n"/>
       <c r="Q110" s="32" t="n"/>
       <c r="R110" s="23" t="inlineStr">
         <is>
@@ -11961,13 +11963,13 @@
       </c>
       <c r="N111" s="2" t="n"/>
       <c r="O111" s="32" t="n">
-        <v>-26.1</v>
+        <v>-21.9</v>
       </c>
       <c r="P111" s="32" t="n">
-        <v>-7.1</v>
+        <v>-6.9</v>
       </c>
       <c r="Q111" s="32" t="n">
-        <v>-18.51</v>
+        <v>-15.74</v>
       </c>
       <c r="R111" s="23" t="inlineStr">
         <is>
@@ -12073,10 +12075,10 @@
       </c>
       <c r="N112" s="2" t="n"/>
       <c r="O112" s="32" t="n">
-        <v>-18.9</v>
+        <v>-20.6</v>
       </c>
       <c r="P112" s="32" t="n">
-        <v>2.5</v>
+        <v>5.1</v>
       </c>
       <c r="Q112" s="32" t="n"/>
       <c r="R112" s="23" t="inlineStr">
@@ -12179,10 +12181,10 @@
       </c>
       <c r="N113" s="2" t="n"/>
       <c r="O113" s="32" t="n">
-        <v>-20.8</v>
+        <v>-14.6</v>
       </c>
       <c r="P113" s="32" t="n">
-        <v>0</v>
+        <v>-1.8</v>
       </c>
       <c r="Q113" s="32" t="n"/>
       <c r="R113" s="23" t="inlineStr">
@@ -12293,10 +12295,10 @@
         </is>
       </c>
       <c r="O114" s="32" t="n">
-        <v>-25.5</v>
+        <v>-17.8</v>
       </c>
       <c r="P114" s="32" t="n">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Q114" s="32" t="n"/>
       <c r="R114" s="23" t="inlineStr">
@@ -12415,10 +12417,10 @@
         </is>
       </c>
       <c r="O115" s="32" t="n">
-        <v>-20.7</v>
+        <v>-17.8</v>
       </c>
       <c r="P115" s="32" t="n">
-        <v>-3.5</v>
+        <v>-2.8</v>
       </c>
       <c r="Q115" s="32" t="n"/>
       <c r="R115" s="23" t="inlineStr">
@@ -12533,13 +12535,13 @@
       </c>
       <c r="N116" s="2" t="n"/>
       <c r="O116" s="32" t="n">
-        <v>-14.1</v>
+        <v>-13.8</v>
       </c>
       <c r="P116" s="32" t="n">
-        <v>-4.3</v>
+        <v>6</v>
       </c>
       <c r="Q116" s="32" t="n">
-        <v>-9.44</v>
+        <v>-4.5</v>
       </c>
       <c r="R116" s="23" t="inlineStr">
         <is>
@@ -12645,10 +12647,10 @@
       </c>
       <c r="N117" s="2" t="n"/>
       <c r="O117" s="32" t="n">
-        <v>-13.4</v>
+        <v>-18.3</v>
       </c>
       <c r="P117" s="32" t="n">
-        <v>-4.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q117" s="32" t="n"/>
       <c r="R117" s="23" t="inlineStr">
@@ -12759,10 +12761,10 @@
         </is>
       </c>
       <c r="O118" s="32" t="n">
-        <v>-29</v>
+        <v>-21.7</v>
       </c>
       <c r="P118" s="32" t="n">
-        <v>-10.7</v>
+        <v>-4.7</v>
       </c>
       <c r="Q118" s="32" t="n"/>
       <c r="R118" s="23" t="inlineStr">
@@ -12877,13 +12879,13 @@
       </c>
       <c r="N119" s="2" t="n"/>
       <c r="O119" s="32" t="n">
-        <v>-22</v>
+        <v>-14.2</v>
       </c>
       <c r="P119" s="32" t="n">
-        <v>-6.4</v>
+        <v>-0.7</v>
       </c>
       <c r="Q119" s="32" t="n">
-        <v>-14.32</v>
+        <v>-6.76</v>
       </c>
       <c r="R119" s="23" t="inlineStr">
         <is>
@@ -13107,13 +13109,13 @@
       </c>
       <c r="N121" s="2" t="n"/>
       <c r="O121" s="32" t="n">
-        <v>-8.800000000000001</v>
+        <v>-10</v>
       </c>
       <c r="P121" s="32" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="Q121" s="32" t="n">
-        <v>-5.99</v>
+        <v>-5.71</v>
       </c>
       <c r="R121" s="23" t="inlineStr">
         <is>
@@ -13231,10 +13233,10 @@
       </c>
       <c r="N122" s="2" t="n"/>
       <c r="O122" s="32" t="n">
-        <v>-30.3</v>
+        <v>-23.8</v>
       </c>
       <c r="P122" s="32" t="n">
-        <v>-11.9</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="Q122" s="32" t="n"/>
       <c r="R122" s="23" t="inlineStr">
@@ -13459,14 +13461,12 @@
       </c>
       <c r="N124" s="2" t="n"/>
       <c r="O124" s="32" t="n">
-        <v>-11.5</v>
+        <v>-13.9</v>
       </c>
       <c r="P124" s="32" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q124" s="32" t="n">
-        <v>-4.69</v>
-      </c>
+        <v>3.7</v>
+      </c>
+      <c r="Q124" s="32" t="n"/>
       <c r="R124" s="23" t="inlineStr">
         <is>
           <t>Y</t>
@@ -13583,13 +13583,13 @@
       </c>
       <c r="N125" s="2" t="n"/>
       <c r="O125" s="32" t="n">
-        <v>-7.1</v>
+        <v>-4.2</v>
       </c>
       <c r="P125" s="32" t="n">
-        <v>5</v>
+        <v>10.9</v>
       </c>
       <c r="Q125" s="32" t="n">
-        <v>-1.39</v>
+        <v>4.45</v>
       </c>
       <c r="R125" s="23" t="inlineStr">
         <is>
@@ -13683,10 +13683,10 @@
       </c>
       <c r="N126" s="2" t="n"/>
       <c r="O126" s="32" t="n">
-        <v>-2.6</v>
+        <v>-3</v>
       </c>
       <c r="P126" s="32" t="n">
-        <v>7.4</v>
+        <v>11.5</v>
       </c>
       <c r="Q126" s="32" t="n"/>
       <c r="R126" s="23" t="inlineStr">
@@ -13793,13 +13793,13 @@
       </c>
       <c r="N127" s="2" t="n"/>
       <c r="O127" s="32" t="n">
-        <v>-6.5</v>
+        <v>-8</v>
       </c>
       <c r="P127" s="32" t="n">
-        <v>5.3</v>
+        <v>7.5</v>
       </c>
       <c r="Q127" s="32" t="n">
-        <v>-1.27</v>
+        <v>-1.3</v>
       </c>
       <c r="R127" s="23" t="inlineStr">
         <is>
@@ -13913,10 +13913,10 @@
       </c>
       <c r="N128" s="2" t="n"/>
       <c r="O128" s="32" t="n">
-        <v>-4.7</v>
+        <v>-2.1</v>
       </c>
       <c r="P128" s="32" t="n">
-        <v>5.5</v>
+        <v>13.3</v>
       </c>
       <c r="Q128" s="32" t="n"/>
       <c r="R128" s="23" t="inlineStr">
@@ -14023,13 +14023,13 @@
       </c>
       <c r="N129" s="2" t="n"/>
       <c r="O129" s="32" t="n">
-        <v>-9.800000000000001</v>
+        <v>-10.9</v>
       </c>
       <c r="P129" s="32" t="n">
-        <v>2.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Q129" s="32" t="n">
-        <v>-4.36</v>
+        <v>-1.31</v>
       </c>
       <c r="R129" s="23" t="inlineStr">
         <is>
@@ -14143,13 +14143,13 @@
       </c>
       <c r="N130" s="2" t="n"/>
       <c r="O130" s="32" t="n">
-        <v>-10.3</v>
+        <v>-11.2</v>
       </c>
       <c r="P130" s="32" t="n">
-        <v>7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Q130" s="32" t="n">
-        <v>-3.07</v>
+        <v>-1.23</v>
       </c>
       <c r="R130" s="23" t="inlineStr">
         <is>
@@ -14263,13 +14263,13 @@
       </c>
       <c r="N131" s="2" t="n"/>
       <c r="O131" s="32" t="n">
-        <v>1</v>
+        <v>-0.9</v>
       </c>
       <c r="P131" s="32" t="n">
-        <v>8.4</v>
+        <v>13.6</v>
       </c>
       <c r="Q131" s="32" t="n">
-        <v>4.28</v>
+        <v>5.82</v>
       </c>
       <c r="R131" s="23" t="inlineStr">
         <is>
@@ -14379,13 +14379,13 @@
       </c>
       <c r="N132" s="2" t="n"/>
       <c r="O132" s="32" t="n">
-        <v>-0.5</v>
+        <v>-1.6</v>
       </c>
       <c r="P132" s="32" t="n">
-        <v>7.5</v>
+        <v>15.4</v>
       </c>
       <c r="Q132" s="32" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R132" s="23" t="inlineStr">
         <is>
@@ -14495,13 +14495,13 @@
       </c>
       <c r="N133" s="2" t="n"/>
       <c r="O133" s="32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P133" s="32" t="n">
-        <v>12.2</v>
+        <v>12.8</v>
       </c>
       <c r="Q133" s="32" t="n">
-        <v>7.02</v>
+        <v>6.44</v>
       </c>
       <c r="R133" s="23" t="inlineStr">
         <is>
@@ -14717,13 +14717,13 @@
       </c>
       <c r="N135" s="2" t="n"/>
       <c r="O135" s="32" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="P135" s="32" t="n">
-        <v>6.3</v>
+        <v>14.8</v>
       </c>
       <c r="Q135" s="32" t="n">
-        <v>3.71</v>
+        <v>8.35</v>
       </c>
       <c r="R135" s="23" t="inlineStr">
         <is>
@@ -14833,13 +14833,13 @@
       </c>
       <c r="N136" s="2" t="n"/>
       <c r="O136" s="32" t="n">
-        <v>1.3</v>
+        <v>5.1</v>
       </c>
       <c r="P136" s="32" t="n">
-        <v>6.7</v>
+        <v>12.8</v>
       </c>
       <c r="Q136" s="32" t="n">
-        <v>3.51</v>
+        <v>7.39</v>
       </c>
       <c r="R136" s="23" t="inlineStr">
         <is>
@@ -14949,13 +14949,13 @@
       </c>
       <c r="N137" s="2" t="n"/>
       <c r="O137" s="32" t="n">
-        <v>0.1</v>
+        <v>-1.4</v>
       </c>
       <c r="P137" s="32" t="n">
-        <v>4.6</v>
+        <v>14.4</v>
       </c>
       <c r="Q137" s="32" t="n">
-        <v>3.24</v>
+        <v>5.05</v>
       </c>
       <c r="R137" s="23" t="inlineStr">
         <is>
@@ -15065,10 +15065,10 @@
       </c>
       <c r="N138" s="2" t="n"/>
       <c r="O138" s="32" t="n">
-        <v>-4.7</v>
+        <v>-1.4</v>
       </c>
       <c r="P138" s="32" t="n">
-        <v>6.1</v>
+        <v>15.2</v>
       </c>
       <c r="Q138" s="32" t="n"/>
       <c r="R138" s="23" t="inlineStr">
@@ -15179,13 +15179,13 @@
       </c>
       <c r="N139" s="2" t="n"/>
       <c r="O139" s="32" t="n">
-        <v>-2.3</v>
+        <v>0.5</v>
       </c>
       <c r="P139" s="32" t="n">
-        <v>7.2</v>
+        <v>14.3</v>
       </c>
       <c r="Q139" s="32" t="n">
-        <v>1.96</v>
+        <v>6.58</v>
       </c>
       <c r="R139" s="23" t="inlineStr">
         <is>
@@ -15295,13 +15295,13 @@
       </c>
       <c r="N140" s="2" t="n"/>
       <c r="O140" s="32" t="n">
-        <v>-2.9</v>
+        <v>3.8</v>
       </c>
       <c r="P140" s="32" t="n">
-        <v>10.5</v>
+        <v>15.2</v>
       </c>
       <c r="Q140" s="32" t="n">
-        <v>3.37</v>
+        <v>9.15</v>
       </c>
       <c r="R140" s="23" t="inlineStr">
         <is>
@@ -15513,13 +15513,13 @@
       </c>
       <c r="N142" s="2" t="n"/>
       <c r="O142" s="32" t="n">
-        <v>5.1</v>
+        <v>11.1</v>
       </c>
       <c r="P142" s="32" t="n">
-        <v>12.3</v>
+        <v>17</v>
       </c>
       <c r="Q142" s="32" t="n">
-        <v>8.24</v>
+        <v>12.75</v>
       </c>
       <c r="R142" s="23" t="inlineStr">
         <is>
@@ -15629,13 +15629,13 @@
       </c>
       <c r="N143" s="2" t="n"/>
       <c r="O143" s="32" t="n">
-        <v>9.9</v>
+        <v>15.7</v>
       </c>
       <c r="P143" s="32" t="n">
-        <v>17.9</v>
+        <v>25.4</v>
       </c>
       <c r="Q143" s="32" t="n">
-        <v>13.45</v>
+        <v>19.02</v>
       </c>
       <c r="R143" s="23" t="inlineStr">
         <is>
@@ -15945,13 +15945,13 @@
       </c>
       <c r="N146" s="2" t="n"/>
       <c r="O146" s="32" t="n">
-        <v>18.5</v>
+        <v>21.1</v>
       </c>
       <c r="P146" s="32" t="n">
-        <v>25.3</v>
+        <v>25.9</v>
       </c>
       <c r="Q146" s="32" t="n">
-        <v>21.65</v>
+        <v>23.19</v>
       </c>
       <c r="R146" s="23" t="inlineStr">
         <is>
@@ -16053,13 +16053,13 @@
       </c>
       <c r="N147" s="2" t="n"/>
       <c r="O147" s="32" t="n">
-        <v>8.5</v>
+        <v>10.9</v>
       </c>
       <c r="P147" s="32" t="n">
-        <v>12.8</v>
+        <v>15.6</v>
       </c>
       <c r="Q147" s="32" t="n">
-        <v>10.24</v>
+        <v>13.01</v>
       </c>
       <c r="R147" s="23" t="inlineStr">
         <is>
@@ -16271,13 +16271,13 @@
       </c>
       <c r="N149" s="2" t="n"/>
       <c r="O149" s="32" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="P149" s="32" t="n">
-        <v>19.4</v>
+        <v>20.6</v>
       </c>
       <c r="Q149" s="32" t="n">
-        <v>11.91</v>
+        <v>13</v>
       </c>
       <c r="R149" s="23" t="inlineStr">
         <is>
@@ -16387,13 +16387,13 @@
       </c>
       <c r="N150" s="2" t="n"/>
       <c r="O150" s="32" t="n">
-        <v>0.7</v>
+        <v>4.2</v>
       </c>
       <c r="P150" s="32" t="n">
-        <v>5.1</v>
+        <v>11.1</v>
       </c>
       <c r="Q150" s="32" t="n">
-        <v>2.7</v>
+        <v>6.89</v>
       </c>
       <c r="R150" s="23" t="inlineStr">
         <is>
@@ -16503,13 +16503,13 @@
       </c>
       <c r="N151" s="2" t="n"/>
       <c r="O151" s="32" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="P151" s="32" t="n">
-        <v>11.4</v>
+        <v>16.6</v>
       </c>
       <c r="Q151" s="32" t="n">
-        <v>9.81</v>
+        <v>11.21</v>
       </c>
       <c r="R151" s="23" t="inlineStr">
         <is>
@@ -16709,13 +16709,13 @@
       </c>
       <c r="N153" s="2" t="n"/>
       <c r="O153" s="32" t="n">
-        <v>4.7</v>
+        <v>1.1</v>
       </c>
       <c r="P153" s="32" t="n">
-        <v>7.3</v>
+        <v>15</v>
       </c>
       <c r="Q153" s="32" t="n">
-        <v>5.53</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="R153" s="23" t="inlineStr">
         <is>
@@ -16829,13 +16829,13 @@
       </c>
       <c r="N154" s="2" t="n"/>
       <c r="O154" s="32" t="n">
-        <v>-6.8</v>
+        <v>-5.1</v>
       </c>
       <c r="P154" s="32" t="n">
-        <v>10.3</v>
+        <v>11.9</v>
       </c>
       <c r="Q154" s="32" t="n">
-        <v>0.61</v>
+        <v>2.24</v>
       </c>
       <c r="R154" s="23" t="inlineStr">
         <is>
@@ -17031,10 +17031,10 @@
       </c>
       <c r="N156" s="2" t="n"/>
       <c r="O156" s="32" t="n">
-        <v>-21.1</v>
+        <v>-21.3</v>
       </c>
       <c r="P156" s="32" t="n">
-        <v>2.1</v>
+        <v>6.6</v>
       </c>
       <c r="Q156" s="32" t="n"/>
       <c r="R156" s="23" t="inlineStr">
@@ -17137,10 +17137,10 @@
       </c>
       <c r="N157" s="2" t="n"/>
       <c r="O157" s="32" t="n">
-        <v>-0.8</v>
+        <v>4.5</v>
       </c>
       <c r="P157" s="32" t="n">
-        <v>7.8</v>
+        <v>13.5</v>
       </c>
       <c r="Q157" s="32" t="n"/>
       <c r="R157" s="23" t="inlineStr">
@@ -17521,10 +17521,10 @@
       </c>
       <c r="N161" s="2" t="n"/>
       <c r="O161" s="32" t="n">
-        <v>-4.6</v>
+        <v>-6.5</v>
       </c>
       <c r="P161" s="32" t="n">
-        <v>6.3</v>
+        <v>11.7</v>
       </c>
       <c r="Q161" s="32" t="n"/>
       <c r="R161" s="23" t="inlineStr">
@@ -17634,12 +17634,8 @@
           <t>⚡</t>
         </is>
       </c>
-      <c r="O162" s="32" t="n">
-        <v>-32.9</v>
-      </c>
-      <c r="P162" s="32" t="n">
-        <v>-7.4</v>
-      </c>
+      <c r="O162" s="32" t="n"/>
+      <c r="P162" s="32" t="n"/>
       <c r="Q162" s="32" t="n"/>
       <c r="R162" s="23" t="inlineStr">
         <is>
@@ -17965,10 +17961,10 @@
         </is>
       </c>
       <c r="O165" s="32" t="n">
-        <v>-32.8</v>
+        <v>-32.9</v>
       </c>
       <c r="P165" s="32" t="n">
-        <v>-14.4</v>
+        <v>-15.3</v>
       </c>
       <c r="Q165" s="32" t="n"/>
       <c r="R165" s="23" t="inlineStr">
@@ -18287,10 +18283,10 @@
         </is>
       </c>
       <c r="O168" s="32" t="n">
-        <v>-28.8</v>
+        <v>-18.5</v>
       </c>
       <c r="P168" s="32" t="n">
-        <v>-8</v>
+        <v>-2.9</v>
       </c>
       <c r="Q168" s="32" t="n"/>
       <c r="R168" s="23" t="inlineStr">
@@ -18401,10 +18397,10 @@
         </is>
       </c>
       <c r="O169" s="32" t="n">
-        <v>-34.4</v>
+        <v>-24.3</v>
       </c>
       <c r="P169" s="32" t="n">
-        <v>-10.1</v>
+        <v>-3.6</v>
       </c>
       <c r="Q169" s="32" t="n"/>
       <c r="R169" s="23" t="inlineStr">
@@ -18514,8 +18510,12 @@
           <t>⚡</t>
         </is>
       </c>
-      <c r="O170" s="32" t="n"/>
-      <c r="P170" s="32" t="n"/>
+      <c r="O170" s="32" t="n">
+        <v>-27.8</v>
+      </c>
+      <c r="P170" s="32" t="n">
+        <v>-5.9</v>
+      </c>
       <c r="Q170" s="32" t="n"/>
       <c r="R170" s="23" t="inlineStr">
         <is>
@@ -18719,10 +18719,10 @@
       </c>
       <c r="N172" s="3" t="n"/>
       <c r="O172" s="32" t="n">
-        <v>-27.4</v>
+        <v>-23.9</v>
       </c>
       <c r="P172" s="32" t="n">
-        <v>-9.300000000000001</v>
+        <v>-4</v>
       </c>
       <c r="Q172" s="32" t="n"/>
       <c r="R172" s="23" t="inlineStr">
@@ -18829,10 +18829,10 @@
       </c>
       <c r="N173" s="2" t="n"/>
       <c r="O173" s="32" t="n">
-        <v>-23.1</v>
+        <v>-25.4</v>
       </c>
       <c r="P173" s="32" t="n">
-        <v>1.5</v>
+        <v>-0.3</v>
       </c>
       <c r="Q173" s="32" t="n"/>
       <c r="R173" s="23" t="inlineStr">
@@ -19147,10 +19147,10 @@
       </c>
       <c r="N176" s="2" t="n"/>
       <c r="O176" s="32" t="n">
-        <v>-6.2</v>
+        <v>-5.4</v>
       </c>
       <c r="P176" s="32" t="n">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q176" s="32" t="n"/>
       <c r="R176" s="23" t="inlineStr">
@@ -19245,10 +19245,10 @@
       </c>
       <c r="N177" s="2" t="n"/>
       <c r="O177" s="32" t="n">
-        <v>-20.5</v>
+        <v>-21.8</v>
       </c>
       <c r="P177" s="32" t="n">
-        <v>-9.800000000000001</v>
+        <v>-16.7</v>
       </c>
       <c r="Q177" s="32" t="n"/>
       <c r="R177" s="23" t="inlineStr">
@@ -20124,13 +20124,13 @@
       </c>
       <c r="N186" s="2" t="n"/>
       <c r="O186" s="32" t="n">
-        <v>-53.9</v>
+        <v>-35.6</v>
       </c>
       <c r="P186" s="32" t="n">
-        <v>-40.9</v>
+        <v>-29.3</v>
       </c>
       <c r="Q186" s="32" t="n">
-        <v>-49.54</v>
+        <v>-32.99</v>
       </c>
       <c r="R186" s="23" t="inlineStr">
         <is>
@@ -20233,13 +20233,13 @@
       </c>
       <c r="N187" s="2" t="n"/>
       <c r="O187" s="32" t="n">
-        <v>-47.1</v>
+        <v>-36.3</v>
       </c>
       <c r="P187" s="32" t="n">
-        <v>-40.6</v>
+        <v>-28.8</v>
       </c>
       <c r="Q187" s="32" t="n">
-        <v>-42.93</v>
+        <v>-32.31</v>
       </c>
       <c r="R187" s="23" t="inlineStr">
         <is>
@@ -20337,13 +20337,13 @@
       </c>
       <c r="N188" s="2" t="n"/>
       <c r="O188" s="32" t="n">
-        <v>-46.1</v>
+        <v>-36</v>
       </c>
       <c r="P188" s="32" t="n">
-        <v>-41.5</v>
+        <v>-28.6</v>
       </c>
       <c r="Q188" s="32" t="n">
-        <v>-43.71</v>
+        <v>-32.67</v>
       </c>
       <c r="R188" s="23" t="inlineStr">
         <is>
@@ -20441,13 +20441,13 @@
       </c>
       <c r="N189" s="2" t="n"/>
       <c r="O189" s="32" t="n">
-        <v>-49.6</v>
+        <v>-33.6</v>
       </c>
       <c r="P189" s="32" t="n">
-        <v>-38.2</v>
+        <v>-23.6</v>
       </c>
       <c r="Q189" s="32" t="n">
-        <v>-42.51</v>
+        <v>-28.19</v>
       </c>
       <c r="R189" s="23" t="inlineStr">
         <is>
@@ -20545,13 +20545,13 @@
       </c>
       <c r="N190" s="2" t="n"/>
       <c r="O190" s="32" t="n">
-        <v>-48.8</v>
+        <v>-44.6</v>
       </c>
       <c r="P190" s="32" t="n">
-        <v>-39.2</v>
+        <v>-33.4</v>
       </c>
       <c r="Q190" s="32" t="n">
-        <v>-43.85</v>
+        <v>-37.87</v>
       </c>
       <c r="R190" s="23" t="inlineStr">
         <is>
@@ -20649,13 +20649,13 @@
       </c>
       <c r="N191" s="2" t="n"/>
       <c r="O191" s="32" t="n">
-        <v>-53.5</v>
+        <v>-37.7</v>
       </c>
       <c r="P191" s="32" t="n">
-        <v>-42.4</v>
+        <v>-29.4</v>
       </c>
       <c r="Q191" s="32" t="n">
-        <v>-48.99</v>
+        <v>-33.69</v>
       </c>
       <c r="R191" s="23" t="inlineStr">
         <is>
@@ -20749,13 +20749,13 @@
       </c>
       <c r="N192" s="2" t="n"/>
       <c r="O192" s="32" t="n">
-        <v>-42.3</v>
+        <v>-32.4</v>
       </c>
       <c r="P192" s="32" t="n">
-        <v>-34.8</v>
+        <v>-26.2</v>
       </c>
       <c r="Q192" s="32" t="n">
-        <v>-37.66</v>
+        <v>-28.94</v>
       </c>
       <c r="R192" s="23" t="inlineStr">
         <is>
@@ -20854,13 +20854,13 @@
       </c>
       <c r="N193" s="2" t="n"/>
       <c r="O193" s="32" t="n">
-        <v>-37.5</v>
+        <v>-38.6</v>
       </c>
       <c r="P193" s="32" t="n">
-        <v>-31.5</v>
+        <v>-27.7</v>
       </c>
       <c r="Q193" s="32" t="n">
-        <v>-34.8</v>
+        <v>-32.3</v>
       </c>
       <c r="R193" s="23" t="inlineStr">
         <is>
@@ -20962,10 +20962,10 @@
       </c>
       <c r="N194" s="2" t="n"/>
       <c r="O194" s="32" t="n">
-        <v>-50.5</v>
+        <v>-43.5</v>
       </c>
       <c r="P194" s="32" t="n">
-        <v>-44.3</v>
+        <v>-29</v>
       </c>
       <c r="Q194" s="32" t="n"/>
       <c r="R194" s="23" t="inlineStr">
@@ -21060,13 +21060,13 @@
       </c>
       <c r="N195" s="2" t="n"/>
       <c r="O195" s="32" t="n">
-        <v>-30.1</v>
+        <v>-27.3</v>
       </c>
       <c r="P195" s="32" t="n">
-        <v>-25.6</v>
+        <v>-19.8</v>
       </c>
       <c r="Q195" s="32" t="n">
-        <v>-27.59</v>
+        <v>-22.6</v>
       </c>
       <c r="R195" s="23" t="inlineStr">
         <is>
@@ -21164,13 +21164,13 @@
       </c>
       <c r="N196" s="2" t="n"/>
       <c r="O196" s="32" t="n">
-        <v>-48</v>
+        <v>-37.7</v>
       </c>
       <c r="P196" s="32" t="n">
-        <v>-32.3</v>
+        <v>-22.1</v>
       </c>
       <c r="Q196" s="32" t="n">
-        <v>-40.31</v>
+        <v>-26</v>
       </c>
       <c r="R196" s="23" t="inlineStr">
         <is>
@@ -21268,13 +21268,13 @@
       </c>
       <c r="N197" s="24" t="n"/>
       <c r="O197" s="32" t="n">
-        <v>-28.5</v>
+        <v>-30.4</v>
       </c>
       <c r="P197" s="32" t="n">
-        <v>-20</v>
+        <v>-17.2</v>
       </c>
       <c r="Q197" s="32" t="n">
-        <v>-26.31</v>
+        <v>-23.07</v>
       </c>
       <c r="R197" s="23" t="inlineStr">
         <is>
@@ -21363,8 +21363,12 @@
         </is>
       </c>
       <c r="N198" s="2" t="n"/>
-      <c r="O198" s="32" t="n"/>
-      <c r="P198" s="32" t="n"/>
+      <c r="O198" s="32" t="n">
+        <v>-35.4</v>
+      </c>
+      <c r="P198" s="32" t="n">
+        <v>-10.4</v>
+      </c>
       <c r="Q198" s="32" t="n"/>
       <c r="R198" s="23" t="inlineStr">
         <is>
@@ -23075,8 +23079,12 @@
         </is>
       </c>
       <c r="N215" s="2" t="n"/>
-      <c r="O215" s="32" t="n"/>
-      <c r="P215" s="32" t="n"/>
+      <c r="O215" s="32" t="n">
+        <v>-36.1</v>
+      </c>
+      <c r="P215" s="32" t="n">
+        <v>-6.2</v>
+      </c>
       <c r="Q215" s="32" t="n"/>
       <c r="R215" s="23" t="inlineStr">
         <is>
@@ -25623,12 +25631,8 @@
         </is>
       </c>
       <c r="N241" s="2" t="n"/>
-      <c r="O241" s="32" t="n">
-        <v>-36.1</v>
-      </c>
-      <c r="P241" s="32" t="n">
-        <v>-12.2</v>
-      </c>
+      <c r="O241" s="32" t="n"/>
+      <c r="P241" s="32" t="n"/>
       <c r="Q241" s="32" t="n"/>
       <c r="R241" s="23" t="inlineStr">
         <is>
@@ -26198,13 +26202,13 @@
       </c>
       <c r="N247" s="2" t="n"/>
       <c r="O247" s="32" t="n">
-        <v>-8.199999999999999</v>
+        <v>-17.2</v>
       </c>
       <c r="P247" s="32" t="n">
         <v>-0.8</v>
       </c>
       <c r="Q247" s="32" t="n">
-        <v>-5.01</v>
+        <v>-10.99</v>
       </c>
       <c r="R247" s="23" t="inlineStr">
         <is>
@@ -26310,13 +26314,13 @@
       </c>
       <c r="N248" s="2" t="n"/>
       <c r="O248" s="32" t="n">
-        <v>-18.9</v>
+        <v>-14</v>
       </c>
       <c r="P248" s="32" t="n">
-        <v>-11.6</v>
+        <v>-2.8</v>
       </c>
       <c r="Q248" s="32" t="n">
-        <v>-15.61</v>
+        <v>-6.46</v>
       </c>
       <c r="R248" s="23" t="inlineStr">
         <is>
@@ -26418,13 +26422,13 @@
       </c>
       <c r="N249" s="2" t="n"/>
       <c r="O249" s="32" t="n">
-        <v>-12.9</v>
+        <v>-7.8</v>
       </c>
       <c r="P249" s="32" t="n">
-        <v>-3.5</v>
+        <v>-1.3</v>
       </c>
       <c r="Q249" s="32" t="n">
-        <v>-9.1</v>
+        <v>-4.4</v>
       </c>
       <c r="R249" s="23" t="inlineStr">
         <is>
@@ -26530,13 +26534,13 @@
       </c>
       <c r="N250" s="2" t="n"/>
       <c r="O250" s="32" t="n">
-        <v>-22.2</v>
+        <v>-21.2</v>
       </c>
       <c r="P250" s="32" t="n">
-        <v>-10.4</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="Q250" s="32" t="n">
-        <v>-17.24</v>
+        <v>-15.15</v>
       </c>
       <c r="R250" s="23" t="inlineStr">
         <is>
@@ -26650,10 +26654,10 @@
         </is>
       </c>
       <c r="O251" s="32" t="n">
-        <v>-33.3</v>
+        <v>-23.7</v>
       </c>
       <c r="P251" s="32" t="n">
-        <v>-20.4</v>
+        <v>-8.5</v>
       </c>
       <c r="Q251" s="32" t="n"/>
       <c r="R251" s="23" t="inlineStr">
@@ -26748,13 +26752,13 @@
       </c>
       <c r="N252" s="2" t="n"/>
       <c r="O252" s="32" t="n">
-        <v>-12.1</v>
+        <v>1.5</v>
       </c>
       <c r="P252" s="32" t="n">
-        <v>-4</v>
+        <v>6.4</v>
       </c>
       <c r="Q252" s="32" t="n">
-        <v>-8.140000000000001</v>
+        <v>3.34</v>
       </c>
       <c r="R252" s="23" t="inlineStr">
         <is>
@@ -26946,13 +26950,13 @@
       </c>
       <c r="N254" s="2" t="n"/>
       <c r="O254" s="32" t="n">
-        <v>-40.8</v>
+        <v>-48.2</v>
       </c>
       <c r="P254" s="32" t="n">
-        <v>-27.7</v>
+        <v>-42</v>
       </c>
       <c r="Q254" s="32" t="n">
-        <v>-35.2</v>
+        <v>-45.44</v>
       </c>
       <c r="R254" s="23" t="inlineStr">
         <is>
@@ -27520,13 +27524,13 @@
       </c>
       <c r="N260" s="2" t="n"/>
       <c r="O260" s="32" t="n">
-        <v>-30</v>
+        <v>-22.6</v>
       </c>
       <c r="P260" s="32" t="n">
-        <v>-5.9</v>
+        <v>0.3</v>
       </c>
       <c r="Q260" s="32" t="n">
-        <v>-19.08</v>
+        <v>-12.98</v>
       </c>
       <c r="R260" s="23" t="inlineStr">
         <is>
@@ -27628,13 +27632,13 @@
       </c>
       <c r="N261" s="2" t="n"/>
       <c r="O261" s="32" t="n">
-        <v>-26</v>
+        <v>-24.8</v>
       </c>
       <c r="P261" s="32" t="n">
-        <v>-5.1</v>
+        <v>-7.6</v>
       </c>
       <c r="Q261" s="32" t="n">
-        <v>-17.05</v>
+        <v>-17.81</v>
       </c>
       <c r="R261" s="23" t="inlineStr">
         <is>
@@ -27740,13 +27744,13 @@
       </c>
       <c r="N262" s="2" t="n"/>
       <c r="O262" s="32" t="n">
-        <v>-13.7</v>
+        <v>-6.3</v>
       </c>
       <c r="P262" s="32" t="n">
-        <v>-3.7</v>
+        <v>1.8</v>
       </c>
       <c r="Q262" s="32" t="n">
-        <v>-10.1</v>
+        <v>0.21</v>
       </c>
       <c r="R262" s="23" t="inlineStr">
         <is>
@@ -27946,13 +27950,13 @@
       </c>
       <c r="N264" s="2" t="n"/>
       <c r="O264" s="32" t="n">
-        <v>-15.6</v>
+        <v>-12.4</v>
       </c>
       <c r="P264" s="32" t="n">
-        <v>-6.6</v>
+        <v>-3.9</v>
       </c>
       <c r="Q264" s="32" t="n">
-        <v>-11.9</v>
+        <v>-8.84</v>
       </c>
       <c r="R264" s="23" t="inlineStr">
         <is>
@@ -28066,10 +28070,10 @@
       </c>
       <c r="N265" s="2" t="n"/>
       <c r="O265" s="32" t="n">
-        <v>-52.5</v>
+        <v>-49.6</v>
       </c>
       <c r="P265" s="32" t="n">
-        <v>-40.2</v>
+        <v>-37</v>
       </c>
       <c r="Q265" s="32" t="n"/>
       <c r="R265" s="23" t="inlineStr">
@@ -29106,13 +29110,13 @@
       </c>
       <c r="N276" s="2" t="n"/>
       <c r="O276" s="32" t="n">
-        <v>-26.8</v>
+        <v>-37.6</v>
       </c>
       <c r="P276" s="32" t="n">
-        <v>-12</v>
+        <v>-20.6</v>
       </c>
       <c r="Q276" s="32" t="n">
-        <v>-13.04</v>
+        <v>-29.74</v>
       </c>
       <c r="R276" s="23" t="inlineStr">
         <is>
@@ -29645,12 +29649,8 @@
         </is>
       </c>
       <c r="N282" s="2" t="n"/>
-      <c r="O282" s="32" t="n">
-        <v>-33.7</v>
-      </c>
-      <c r="P282" s="32" t="n">
-        <v>-9</v>
-      </c>
+      <c r="O282" s="32" t="n"/>
+      <c r="P282" s="32" t="n"/>
       <c r="Q282" s="32" t="n"/>
       <c r="R282" s="23" t="inlineStr">
         <is>

--- a/气象/For_Python_站点信息和记录.xlsx
+++ b/气象/For_Python_站点信息和记录.xlsx
@@ -761,7 +761,7 @@
   </sheetPr>
   <dimension ref="A1:AH401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
@@ -790,8 +790,8 @@
     <col width="18.59765625" customWidth="1" style="8" min="25" max="25"/>
     <col width="12.59765625" customWidth="1" style="5" min="26" max="30"/>
     <col width="12.59765625" customWidth="1" style="8" min="31" max="32"/>
-    <col width="12.59765625" customWidth="1" style="5" min="33" max="244"/>
-    <col width="12.59765625" customWidth="1" style="5" min="245" max="16384"/>
+    <col width="12.59765625" customWidth="1" style="5" min="33" max="246"/>
+    <col width="12.59765625" customWidth="1" style="5" min="247" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.75" customFormat="1" customHeight="1" s="11">
@@ -1014,13 +1014,13 @@
         </is>
       </c>
       <c r="O2" s="32" t="n">
-        <v>-31.2</v>
+        <v>-28.3</v>
       </c>
       <c r="P2" s="32" t="n">
-        <v>-23.4</v>
+        <v>-20.7</v>
       </c>
       <c r="Q2" s="32" t="n">
-        <v>-28.1</v>
+        <v>-24.94</v>
       </c>
       <c r="R2" s="23" t="inlineStr">
         <is>
@@ -1124,10 +1124,10 @@
         </is>
       </c>
       <c r="O3" s="32" t="n">
-        <v>-32.2</v>
+        <v>-29</v>
       </c>
       <c r="P3" s="32" t="n">
-        <v>-21.5</v>
+        <v>-18.2</v>
       </c>
       <c r="Q3" s="32" t="n"/>
       <c r="R3" s="23" t="n"/>
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="O4" s="32" t="n">
-        <v>-31.3</v>
+        <v>-24</v>
       </c>
       <c r="P4" s="32" t="n">
-        <v>-17.6</v>
+        <v>-13.5</v>
       </c>
       <c r="Q4" s="32" t="n"/>
       <c r="R4" s="23" t="n"/>
@@ -1320,10 +1320,10 @@
       </c>
       <c r="N5" s="2" t="n"/>
       <c r="O5" s="32" t="n">
-        <v>-28.8</v>
+        <v>-25.6</v>
       </c>
       <c r="P5" s="32" t="n">
-        <v>-16.6</v>
+        <v>-8.9</v>
       </c>
       <c r="Q5" s="32" t="n"/>
       <c r="R5" s="23" t="n"/>
@@ -1420,10 +1420,10 @@
         </is>
       </c>
       <c r="O6" s="32" t="n">
-        <v>-32.8</v>
+        <v>-31.3</v>
       </c>
       <c r="P6" s="32" t="n">
-        <v>-16.4</v>
+        <v>-17.4</v>
       </c>
       <c r="Q6" s="32" t="n"/>
       <c r="R6" s="23" t="n"/>
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="O7" s="32" t="n">
-        <v>-31.5</v>
+        <v>-25.8</v>
       </c>
       <c r="P7" s="32" t="n">
-        <v>-17.6</v>
+        <v>-15.5</v>
       </c>
       <c r="Q7" s="32" t="n"/>
       <c r="R7" s="23" t="n"/>
@@ -1628,13 +1628,13 @@
       </c>
       <c r="N8" s="2" t="n"/>
       <c r="O8" s="32" t="n">
-        <v>-28.2</v>
+        <v>-24.6</v>
       </c>
       <c r="P8" s="32" t="n">
-        <v>-11.8</v>
+        <v>-11.4</v>
       </c>
       <c r="Q8" s="32" t="n">
-        <v>-20.73</v>
+        <v>-18.59</v>
       </c>
       <c r="R8" s="23" t="inlineStr">
         <is>
@@ -1740,13 +1740,13 @@
       </c>
       <c r="N9" s="2" t="n"/>
       <c r="O9" s="32" t="n">
-        <v>-29.5</v>
+        <v>-27.6</v>
       </c>
       <c r="P9" s="32" t="n">
-        <v>-18.8</v>
+        <v>-17.7</v>
       </c>
       <c r="Q9" s="32" t="n">
-        <v>-25.58</v>
+        <v>-24.21</v>
       </c>
       <c r="R9" s="23" t="inlineStr">
         <is>
@@ -1856,13 +1856,13 @@
       </c>
       <c r="N10" s="3" t="n"/>
       <c r="O10" s="32" t="n">
-        <v>-30.4</v>
+        <v>-24</v>
       </c>
       <c r="P10" s="32" t="n">
-        <v>-14.7</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="Q10" s="32" t="n">
-        <v>-23.44</v>
+        <v>-17.15</v>
       </c>
       <c r="R10" s="23" t="inlineStr">
         <is>
@@ -1972,13 +1972,13 @@
         </is>
       </c>
       <c r="O11" s="32" t="n">
-        <v>-20.2</v>
+        <v>-11.5</v>
       </c>
       <c r="P11" s="32" t="n">
-        <v>-3.3</v>
+        <v>0.5</v>
       </c>
       <c r="Q11" s="32" t="n">
-        <v>-14</v>
+        <v>-8.15</v>
       </c>
       <c r="R11" s="23" t="inlineStr">
         <is>
@@ -2084,13 +2084,13 @@
       </c>
       <c r="N12" s="2" t="n"/>
       <c r="O12" s="32" t="n">
-        <v>-30.1</v>
+        <v>-26.7</v>
       </c>
       <c r="P12" s="32" t="n">
-        <v>-14.4</v>
+        <v>-11.3</v>
       </c>
       <c r="Q12" s="32" t="n">
-        <v>-24.19</v>
+        <v>-19.66</v>
       </c>
       <c r="R12" s="23" t="inlineStr">
         <is>
@@ -2200,13 +2200,13 @@
         </is>
       </c>
       <c r="O13" s="32" t="n">
-        <v>-32</v>
+        <v>-25.9</v>
       </c>
       <c r="P13" s="32" t="n">
-        <v>-18.1</v>
+        <v>-14.2</v>
       </c>
       <c r="Q13" s="32" t="n">
-        <v>-26</v>
+        <v>-21.09</v>
       </c>
       <c r="R13" s="23" t="inlineStr">
         <is>
@@ -2316,13 +2316,13 @@
       </c>
       <c r="N14" s="2" t="n"/>
       <c r="O14" s="32" t="n">
-        <v>-18.5</v>
+        <v>-15.4</v>
       </c>
       <c r="P14" s="32" t="n">
-        <v>-4.8</v>
+        <v>-1.1</v>
       </c>
       <c r="Q14" s="32" t="n">
-        <v>-12.91</v>
+        <v>-9.029999999999999</v>
       </c>
       <c r="R14" s="23" t="inlineStr">
         <is>
@@ -2417,12 +2417,8 @@
         </is>
       </c>
       <c r="N15" s="2" t="n"/>
-      <c r="O15" s="32" t="n">
-        <v>-26.4</v>
-      </c>
-      <c r="P15" s="32" t="n">
-        <v>-7.7</v>
-      </c>
+      <c r="O15" s="32" t="n"/>
+      <c r="P15" s="32" t="n"/>
       <c r="Q15" s="32" t="n"/>
       <c r="R15" s="23" t="n"/>
       <c r="S15" s="37" t="n"/>
@@ -2521,16 +2517,14 @@
         </is>
       </c>
       <c r="N16" s="2" t="n"/>
-      <c r="O16" s="32" t="n">
-        <v>-26.2</v>
-      </c>
-      <c r="P16" s="32" t="n">
-        <v>-3.1</v>
-      </c>
-      <c r="Q16" s="32" t="n">
-        <v>-16.3</v>
-      </c>
-      <c r="R16" s="23" t="n"/>
+      <c r="O16" s="32" t="n"/>
+      <c r="P16" s="32" t="n"/>
+      <c r="Q16" s="32" t="n"/>
+      <c r="R16" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S16" s="37" t="n"/>
       <c r="T16" s="41" t="inlineStr">
         <is>
@@ -4967,11 +4961,9 @@
         </is>
       </c>
       <c r="N43" s="2" t="n"/>
-      <c r="O43" s="32" t="n">
-        <v>-30.3</v>
-      </c>
+      <c r="O43" s="32" t="n"/>
       <c r="P43" s="32" t="n">
-        <v>-25.3</v>
+        <v>-22.8</v>
       </c>
       <c r="Q43" s="32" t="n"/>
       <c r="R43" s="23" t="n"/>
@@ -7830,13 +7822,13 @@
       </c>
       <c r="N75" s="2" t="n"/>
       <c r="O75" s="32" t="n">
-        <v>-26.2</v>
+        <v>-27.2</v>
       </c>
       <c r="P75" s="32" t="n">
-        <v>-9.300000000000001</v>
+        <v>-7.5</v>
       </c>
       <c r="Q75" s="32" t="n">
-        <v>-19.21</v>
+        <v>-19.79</v>
       </c>
       <c r="R75" s="23" t="inlineStr">
         <is>
@@ -7942,13 +7934,13 @@
       </c>
       <c r="N76" s="2" t="n"/>
       <c r="O76" s="32" t="n">
-        <v>-34.8</v>
+        <v>-34.9</v>
       </c>
       <c r="P76" s="32" t="n">
-        <v>-18.7</v>
+        <v>-16</v>
       </c>
       <c r="Q76" s="32" t="n">
-        <v>-27.99</v>
+        <v>-25.56</v>
       </c>
       <c r="R76" s="23" t="inlineStr">
         <is>
@@ -8058,13 +8050,13 @@
         </is>
       </c>
       <c r="O77" s="32" t="n">
-        <v>-38.5</v>
+        <v>-38</v>
       </c>
       <c r="P77" s="32" t="n">
-        <v>-17.3</v>
+        <v>-18.4</v>
       </c>
       <c r="Q77" s="32" t="n">
-        <v>-29.21</v>
+        <v>-27.24</v>
       </c>
       <c r="R77" s="23" t="inlineStr">
         <is>
@@ -8174,13 +8166,13 @@
       </c>
       <c r="N78" s="2" t="n"/>
       <c r="O78" s="32" t="n">
-        <v>-35.9</v>
+        <v>-35.2</v>
       </c>
       <c r="P78" s="32" t="n">
-        <v>-15.4</v>
+        <v>-17.5</v>
       </c>
       <c r="Q78" s="32" t="n">
-        <v>-26.56</v>
+        <v>-26</v>
       </c>
       <c r="R78" s="23" t="inlineStr">
         <is>
@@ -8290,13 +8282,13 @@
         </is>
       </c>
       <c r="O79" s="32" t="n">
-        <v>-36.5</v>
+        <v>-37</v>
       </c>
       <c r="P79" s="32" t="n">
-        <v>-9.800000000000001</v>
+        <v>-14.2</v>
       </c>
       <c r="Q79" s="32" t="n">
-        <v>-24.95</v>
+        <v>-26.38</v>
       </c>
       <c r="R79" s="23" t="inlineStr">
         <is>
@@ -8402,13 +8394,13 @@
       </c>
       <c r="N80" s="2" t="n"/>
       <c r="O80" s="32" t="n">
-        <v>-27.8</v>
+        <v>-16.2</v>
       </c>
       <c r="P80" s="32" t="n">
-        <v>-7</v>
+        <v>-2.2</v>
       </c>
       <c r="Q80" s="32" t="n">
-        <v>-18.3</v>
+        <v>-11.38</v>
       </c>
       <c r="R80" s="23" t="inlineStr">
         <is>
@@ -8518,13 +8510,13 @@
         </is>
       </c>
       <c r="O81" s="32" t="n">
-        <v>-35.8</v>
+        <v>-21.1</v>
       </c>
       <c r="P81" s="32" t="n">
-        <v>-11.1</v>
+        <v>-2.8</v>
       </c>
       <c r="Q81" s="32" t="n">
-        <v>-24.91</v>
+        <v>-14.36</v>
       </c>
       <c r="R81" s="23" t="inlineStr">
         <is>
@@ -8639,13 +8631,13 @@
         </is>
       </c>
       <c r="O82" s="32" t="n">
-        <v>-32.5</v>
+        <v>-22.3</v>
       </c>
       <c r="P82" s="32" t="n">
-        <v>-4.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q82" s="32" t="n">
-        <v>-21.7</v>
+        <v>-13.34</v>
       </c>
       <c r="R82" s="23" t="inlineStr">
         <is>
@@ -8755,13 +8747,13 @@
       </c>
       <c r="N83" s="2" t="n"/>
       <c r="O83" s="32" t="n">
-        <v>-28.2</v>
+        <v>-23.9</v>
       </c>
       <c r="P83" s="32" t="n">
-        <v>-15.1</v>
+        <v>-10.9</v>
       </c>
       <c r="Q83" s="32" t="n">
-        <v>-21.36</v>
+        <v>-17.84</v>
       </c>
       <c r="R83" s="23" t="inlineStr">
         <is>
@@ -8875,13 +8867,13 @@
         </is>
       </c>
       <c r="O84" s="32" t="n">
-        <v>-28.2</v>
+        <v>-22.5</v>
       </c>
       <c r="P84" s="32" t="n">
-        <v>-11.8</v>
+        <v>-2.8</v>
       </c>
       <c r="Q84" s="32" t="n">
-        <v>-19.36</v>
+        <v>-14.56</v>
       </c>
       <c r="R84" s="23" t="inlineStr">
         <is>
@@ -8995,13 +8987,13 @@
         </is>
       </c>
       <c r="O85" s="32" t="n">
-        <v>-27</v>
+        <v>-21.9</v>
       </c>
       <c r="P85" s="32" t="n">
-        <v>-13</v>
+        <v>-10.6</v>
       </c>
       <c r="Q85" s="32" t="n">
-        <v>-20.16</v>
+        <v>-15.06</v>
       </c>
       <c r="R85" s="23" t="inlineStr">
         <is>
@@ -9107,13 +9099,13 @@
       </c>
       <c r="N86" s="2" t="n"/>
       <c r="O86" s="32" t="n">
-        <v>-22.8</v>
+        <v>-18.6</v>
       </c>
       <c r="P86" s="32" t="n">
-        <v>-12.7</v>
+        <v>-9.4</v>
       </c>
       <c r="Q86" s="32" t="n">
-        <v>-18.34</v>
+        <v>-14.77</v>
       </c>
       <c r="R86" s="23" t="inlineStr">
         <is>
@@ -9231,13 +9223,13 @@
         </is>
       </c>
       <c r="O87" s="32" t="n">
-        <v>-30.6</v>
+        <v>-26.9</v>
       </c>
       <c r="P87" s="32" t="n">
-        <v>-20.6</v>
+        <v>-17.4</v>
       </c>
       <c r="Q87" s="32" t="n">
-        <v>-26.41</v>
+        <v>-23.47</v>
       </c>
       <c r="R87" s="23" t="inlineStr">
         <is>
@@ -9343,13 +9335,13 @@
       </c>
       <c r="N88" s="2" t="n"/>
       <c r="O88" s="32" t="n">
-        <v>-23.5</v>
+        <v>-13.3</v>
       </c>
       <c r="P88" s="32" t="n">
-        <v>-7.7</v>
+        <v>-5.5</v>
       </c>
       <c r="Q88" s="32" t="n">
-        <v>-17.19</v>
+        <v>-8.25</v>
       </c>
       <c r="R88" s="23" t="inlineStr">
         <is>
@@ -9561,13 +9553,13 @@
         </is>
       </c>
       <c r="O90" s="32" t="n">
-        <v>-4.9</v>
+        <v>-14.8</v>
       </c>
       <c r="P90" s="32" t="n">
-        <v>-1.3</v>
+        <v>-2</v>
       </c>
       <c r="Q90" s="32" t="n">
-        <v>-3.21</v>
+        <v>-10.7</v>
       </c>
       <c r="R90" s="23" t="inlineStr">
         <is>
@@ -9669,13 +9661,13 @@
       </c>
       <c r="N91" s="2" t="n"/>
       <c r="O91" s="32" t="n">
-        <v>-9</v>
+        <v>-15.2</v>
       </c>
       <c r="P91" s="32" t="n">
-        <v>-2.4</v>
+        <v>-4.9</v>
       </c>
       <c r="Q91" s="32" t="n">
-        <v>-5.41</v>
+        <v>-9.15</v>
       </c>
       <c r="R91" s="23" t="inlineStr">
         <is>
@@ -9777,13 +9769,13 @@
       </c>
       <c r="N92" s="2" t="n"/>
       <c r="O92" s="32" t="n">
-        <v>-21</v>
+        <v>-13.2</v>
       </c>
       <c r="P92" s="32" t="n">
-        <v>-5.5</v>
+        <v>-1.1</v>
       </c>
       <c r="Q92" s="32" t="n">
-        <v>-11.21</v>
+        <v>-7.35</v>
       </c>
       <c r="R92" s="23" t="inlineStr">
         <is>
@@ -9889,13 +9881,13 @@
       </c>
       <c r="N93" s="2" t="n"/>
       <c r="O93" s="32" t="n">
-        <v>-11.9</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="P93" s="32" t="n">
-        <v>4.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="Q93" s="32" t="n">
-        <v>-3.46</v>
+        <v>-0.85</v>
       </c>
       <c r="R93" s="23" t="inlineStr">
         <is>
@@ -10009,10 +10001,10 @@
         </is>
       </c>
       <c r="O94" s="32" t="n">
-        <v>-20.6</v>
+        <v>-17.4</v>
       </c>
       <c r="P94" s="32" t="n">
-        <v>1.4</v>
+        <v>5.3</v>
       </c>
       <c r="Q94" s="32" t="n"/>
       <c r="R94" s="23" t="inlineStr">
@@ -10127,13 +10119,13 @@
       </c>
       <c r="N95" s="2" t="n"/>
       <c r="O95" s="32" t="n">
-        <v>-12.7</v>
+        <v>-13</v>
       </c>
       <c r="P95" s="32" t="n">
-        <v>0.1</v>
+        <v>2.6</v>
       </c>
       <c r="Q95" s="32" t="n">
-        <v>-5.97</v>
+        <v>-4.65</v>
       </c>
       <c r="R95" s="23" t="inlineStr">
         <is>
@@ -10255,10 +10247,10 @@
         </is>
       </c>
       <c r="O96" s="32" t="n">
-        <v>-21.4</v>
+        <v>-20.1</v>
       </c>
       <c r="P96" s="32" t="n">
-        <v>-0.6</v>
+        <v>1.8</v>
       </c>
       <c r="Q96" s="32" t="n"/>
       <c r="R96" s="23" t="inlineStr">
@@ -10373,13 +10365,13 @@
       </c>
       <c r="N97" s="2" t="n"/>
       <c r="O97" s="32" t="n">
-        <v>-18.7</v>
+        <v>-21.7</v>
       </c>
       <c r="P97" s="32" t="n">
-        <v>-3.5</v>
+        <v>-0.2</v>
       </c>
       <c r="Q97" s="32" t="n">
-        <v>-10.99</v>
+        <v>-10.07</v>
       </c>
       <c r="R97" s="23" t="inlineStr">
         <is>
@@ -10489,7 +10481,7 @@
       </c>
       <c r="N98" s="2" t="n"/>
       <c r="O98" s="32" t="n">
-        <v>-26.2</v>
+        <v>-31.1</v>
       </c>
       <c r="P98" s="32" t="n">
         <v>-10.6</v>
@@ -10607,13 +10599,13 @@
       </c>
       <c r="N99" s="2" t="n"/>
       <c r="O99" s="32" t="n">
-        <v>-29.3</v>
+        <v>-32.1</v>
       </c>
       <c r="P99" s="32" t="n">
-        <v>-7.9</v>
+        <v>-10.9</v>
       </c>
       <c r="Q99" s="32" t="n">
-        <v>-20.66</v>
+        <v>-22.98</v>
       </c>
       <c r="R99" s="23" t="inlineStr">
         <is>
@@ -10824,12 +10816,8 @@
         </is>
       </c>
       <c r="N101" s="2" t="n"/>
-      <c r="O101" s="32" t="n">
-        <v>-34.1</v>
-      </c>
-      <c r="P101" s="32" t="n">
-        <v>-7.5</v>
-      </c>
+      <c r="O101" s="32" t="n"/>
+      <c r="P101" s="32" t="n"/>
       <c r="Q101" s="32" t="n"/>
       <c r="R101" s="23" t="inlineStr">
         <is>
@@ -10943,13 +10931,13 @@
       </c>
       <c r="N102" s="2" t="n"/>
       <c r="O102" s="32" t="n">
-        <v>-34.4</v>
+        <v>-22</v>
       </c>
       <c r="P102" s="32" t="n">
-        <v>-8.800000000000001</v>
+        <v>-6.3</v>
       </c>
       <c r="Q102" s="32" t="n">
-        <v>-23.4</v>
+        <v>-15.94</v>
       </c>
       <c r="R102" s="23" t="inlineStr">
         <is>
@@ -11059,10 +11047,10 @@
       </c>
       <c r="N103" s="2" t="n"/>
       <c r="O103" s="32" t="n">
-        <v>-33.7</v>
+        <v>-23.8</v>
       </c>
       <c r="P103" s="32" t="n">
-        <v>-9.300000000000001</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="Q103" s="32" t="n"/>
       <c r="R103" s="23" t="inlineStr">
@@ -11169,10 +11157,10 @@
       </c>
       <c r="N104" s="2" t="n"/>
       <c r="O104" s="32" t="n">
-        <v>-31.1</v>
+        <v>-22.8</v>
       </c>
       <c r="P104" s="32" t="n">
-        <v>-5.9</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="Q104" s="32" t="n"/>
       <c r="R104" s="23" t="inlineStr">
@@ -11291,13 +11279,13 @@
         </is>
       </c>
       <c r="O105" s="32" t="n">
-        <v>-32.6</v>
+        <v>-27.5</v>
       </c>
       <c r="P105" s="32" t="n">
-        <v>-7.9</v>
+        <v>-9.1</v>
       </c>
       <c r="Q105" s="32" t="n">
-        <v>-21.75</v>
+        <v>-19.31</v>
       </c>
       <c r="R105" s="23" t="inlineStr">
         <is>
@@ -11411,10 +11399,10 @@
         </is>
       </c>
       <c r="O106" s="32" t="n">
-        <v>-31.1</v>
+        <v>-27.5</v>
       </c>
       <c r="P106" s="32" t="n">
-        <v>-17.1</v>
+        <v>-10.1</v>
       </c>
       <c r="Q106" s="32" t="n"/>
       <c r="R106" s="23" t="inlineStr">
@@ -11635,13 +11623,13 @@
       </c>
       <c r="N108" s="2" t="n"/>
       <c r="O108" s="32" t="n">
-        <v>-23.2</v>
+        <v>-22.4</v>
       </c>
       <c r="P108" s="32" t="n">
-        <v>-13.7</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="Q108" s="32" t="n">
-        <v>-18.49</v>
+        <v>-15.54</v>
       </c>
       <c r="R108" s="23" t="inlineStr">
         <is>
@@ -11963,13 +11951,13 @@
       </c>
       <c r="N111" s="2" t="n"/>
       <c r="O111" s="32" t="n">
-        <v>-21.9</v>
+        <v>-24.5</v>
       </c>
       <c r="P111" s="32" t="n">
-        <v>-6.9</v>
+        <v>-4.3</v>
       </c>
       <c r="Q111" s="32" t="n">
-        <v>-15.74</v>
+        <v>-16.05</v>
       </c>
       <c r="R111" s="23" t="inlineStr">
         <is>
@@ -12075,10 +12063,10 @@
       </c>
       <c r="N112" s="2" t="n"/>
       <c r="O112" s="32" t="n">
-        <v>-20.6</v>
+        <v>-15.1</v>
       </c>
       <c r="P112" s="32" t="n">
-        <v>5.1</v>
+        <v>4.3</v>
       </c>
       <c r="Q112" s="32" t="n"/>
       <c r="R112" s="23" t="inlineStr">
@@ -12181,10 +12169,10 @@
       </c>
       <c r="N113" s="2" t="n"/>
       <c r="O113" s="32" t="n">
-        <v>-14.6</v>
+        <v>-14.7</v>
       </c>
       <c r="P113" s="32" t="n">
-        <v>-1.8</v>
+        <v>-4.8</v>
       </c>
       <c r="Q113" s="32" t="n"/>
       <c r="R113" s="23" t="inlineStr">
@@ -12295,10 +12283,10 @@
         </is>
       </c>
       <c r="O114" s="32" t="n">
-        <v>-17.8</v>
+        <v>-15.4</v>
       </c>
       <c r="P114" s="32" t="n">
-        <v>1.5</v>
+        <v>-2.3</v>
       </c>
       <c r="Q114" s="32" t="n"/>
       <c r="R114" s="23" t="inlineStr">
@@ -12417,10 +12405,10 @@
         </is>
       </c>
       <c r="O115" s="32" t="n">
-        <v>-17.8</v>
+        <v>-20.7</v>
       </c>
       <c r="P115" s="32" t="n">
-        <v>-2.8</v>
+        <v>-6.1</v>
       </c>
       <c r="Q115" s="32" t="n"/>
       <c r="R115" s="23" t="inlineStr">
@@ -12535,13 +12523,13 @@
       </c>
       <c r="N116" s="2" t="n"/>
       <c r="O116" s="32" t="n">
-        <v>-13.8</v>
+        <v>-6.4</v>
       </c>
       <c r="P116" s="32" t="n">
-        <v>6</v>
+        <v>10.6</v>
       </c>
       <c r="Q116" s="32" t="n">
-        <v>-4.5</v>
+        <v>0.67</v>
       </c>
       <c r="R116" s="23" t="inlineStr">
         <is>
@@ -12647,10 +12635,10 @@
       </c>
       <c r="N117" s="2" t="n"/>
       <c r="O117" s="32" t="n">
-        <v>-18.3</v>
+        <v>-11.3</v>
       </c>
       <c r="P117" s="32" t="n">
-        <v>3.5</v>
+        <v>0.8</v>
       </c>
       <c r="Q117" s="32" t="n"/>
       <c r="R117" s="23" t="inlineStr">
@@ -12761,10 +12749,10 @@
         </is>
       </c>
       <c r="O118" s="32" t="n">
-        <v>-21.7</v>
+        <v>-15.1</v>
       </c>
       <c r="P118" s="32" t="n">
-        <v>-4.7</v>
+        <v>-3.4</v>
       </c>
       <c r="Q118" s="32" t="n"/>
       <c r="R118" s="23" t="inlineStr">
@@ -12879,13 +12867,13 @@
       </c>
       <c r="N119" s="2" t="n"/>
       <c r="O119" s="32" t="n">
-        <v>-14.2</v>
+        <v>-6.4</v>
       </c>
       <c r="P119" s="32" t="n">
-        <v>-0.7</v>
+        <v>-1.9</v>
       </c>
       <c r="Q119" s="32" t="n">
-        <v>-6.76</v>
+        <v>-4.59</v>
       </c>
       <c r="R119" s="23" t="inlineStr">
         <is>
@@ -13109,13 +13097,13 @@
       </c>
       <c r="N121" s="2" t="n"/>
       <c r="O121" s="32" t="n">
-        <v>-10</v>
+        <v>-11.5</v>
       </c>
       <c r="P121" s="32" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="Q121" s="32" t="n">
-        <v>-5.71</v>
+        <v>-5.42</v>
       </c>
       <c r="R121" s="23" t="inlineStr">
         <is>
@@ -13233,10 +13221,10 @@
       </c>
       <c r="N122" s="2" t="n"/>
       <c r="O122" s="32" t="n">
-        <v>-23.8</v>
+        <v>-22.1</v>
       </c>
       <c r="P122" s="32" t="n">
-        <v>-8.199999999999999</v>
+        <v>-5.8</v>
       </c>
       <c r="Q122" s="32" t="n"/>
       <c r="R122" s="23" t="inlineStr">
@@ -13461,12 +13449,14 @@
       </c>
       <c r="N124" s="2" t="n"/>
       <c r="O124" s="32" t="n">
-        <v>-13.9</v>
+        <v>-11</v>
       </c>
       <c r="P124" s="32" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="Q124" s="32" t="n"/>
+        <v>5.3</v>
+      </c>
+      <c r="Q124" s="32" t="n">
+        <v>-3.12</v>
+      </c>
       <c r="R124" s="23" t="inlineStr">
         <is>
           <t>Y</t>
@@ -13583,13 +13573,13 @@
       </c>
       <c r="N125" s="2" t="n"/>
       <c r="O125" s="32" t="n">
-        <v>-4.2</v>
+        <v>-3.5</v>
       </c>
       <c r="P125" s="32" t="n">
-        <v>10.9</v>
+        <v>14.4</v>
       </c>
       <c r="Q125" s="32" t="n">
-        <v>4.45</v>
+        <v>4.66</v>
       </c>
       <c r="R125" s="23" t="inlineStr">
         <is>
@@ -13683,10 +13673,10 @@
       </c>
       <c r="N126" s="2" t="n"/>
       <c r="O126" s="32" t="n">
-        <v>-3</v>
+        <v>-2.3</v>
       </c>
       <c r="P126" s="32" t="n">
-        <v>11.5</v>
+        <v>15.2</v>
       </c>
       <c r="Q126" s="32" t="n"/>
       <c r="R126" s="23" t="inlineStr">
@@ -13793,13 +13783,13 @@
       </c>
       <c r="N127" s="2" t="n"/>
       <c r="O127" s="32" t="n">
-        <v>-8</v>
+        <v>-7.5</v>
       </c>
       <c r="P127" s="32" t="n">
-        <v>7.5</v>
+        <v>10.2</v>
       </c>
       <c r="Q127" s="32" t="n">
-        <v>-1.3</v>
+        <v>-0.16</v>
       </c>
       <c r="R127" s="23" t="inlineStr">
         <is>
@@ -13913,10 +13903,10 @@
       </c>
       <c r="N128" s="2" t="n"/>
       <c r="O128" s="32" t="n">
-        <v>-2.1</v>
+        <v>-1</v>
       </c>
       <c r="P128" s="32" t="n">
-        <v>13.3</v>
+        <v>15.5</v>
       </c>
       <c r="Q128" s="32" t="n"/>
       <c r="R128" s="23" t="inlineStr">
@@ -14023,13 +14013,13 @@
       </c>
       <c r="N129" s="2" t="n"/>
       <c r="O129" s="32" t="n">
-        <v>-10.9</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="P129" s="32" t="n">
-        <v>9.800000000000001</v>
+        <v>13.7</v>
       </c>
       <c r="Q129" s="32" t="n">
-        <v>-1.31</v>
+        <v>0.85</v>
       </c>
       <c r="R129" s="23" t="inlineStr">
         <is>
@@ -14143,13 +14133,13 @@
       </c>
       <c r="N130" s="2" t="n"/>
       <c r="O130" s="32" t="n">
-        <v>-11.2</v>
+        <v>-7.1</v>
       </c>
       <c r="P130" s="32" t="n">
-        <v>9.800000000000001</v>
+        <v>6.6</v>
       </c>
       <c r="Q130" s="32" t="n">
-        <v>-1.23</v>
+        <v>-0.36</v>
       </c>
       <c r="R130" s="23" t="inlineStr">
         <is>
@@ -14263,13 +14253,13 @@
       </c>
       <c r="N131" s="2" t="n"/>
       <c r="O131" s="32" t="n">
-        <v>-0.9</v>
+        <v>8.1</v>
       </c>
       <c r="P131" s="32" t="n">
-        <v>13.6</v>
+        <v>15.9</v>
       </c>
       <c r="Q131" s="32" t="n">
-        <v>5.82</v>
+        <v>11.27</v>
       </c>
       <c r="R131" s="23" t="inlineStr">
         <is>
@@ -14379,13 +14369,13 @@
       </c>
       <c r="N132" s="2" t="n"/>
       <c r="O132" s="32" t="n">
-        <v>-1.6</v>
+        <v>1.2</v>
       </c>
       <c r="P132" s="32" t="n">
-        <v>15.4</v>
+        <v>18.8</v>
       </c>
       <c r="Q132" s="32" t="n">
-        <v>8</v>
+        <v>10.08</v>
       </c>
       <c r="R132" s="23" t="inlineStr">
         <is>
@@ -14495,13 +14485,13 @@
       </c>
       <c r="N133" s="2" t="n"/>
       <c r="O133" s="32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P133" s="32" t="n">
-        <v>12.8</v>
+        <v>15.7</v>
       </c>
       <c r="Q133" s="32" t="n">
-        <v>6.44</v>
+        <v>9.59</v>
       </c>
       <c r="R133" s="23" t="inlineStr">
         <is>
@@ -14717,13 +14707,13 @@
       </c>
       <c r="N135" s="2" t="n"/>
       <c r="O135" s="32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P135" s="32" t="n">
-        <v>14.8</v>
+        <v>9.9</v>
       </c>
       <c r="Q135" s="32" t="n">
-        <v>8.35</v>
+        <v>6.9</v>
       </c>
       <c r="R135" s="23" t="inlineStr">
         <is>
@@ -14833,13 +14823,13 @@
       </c>
       <c r="N136" s="2" t="n"/>
       <c r="O136" s="32" t="n">
-        <v>5.1</v>
+        <v>3.1</v>
       </c>
       <c r="P136" s="32" t="n">
-        <v>12.8</v>
+        <v>14.8</v>
       </c>
       <c r="Q136" s="32" t="n">
-        <v>7.39</v>
+        <v>8.69</v>
       </c>
       <c r="R136" s="23" t="inlineStr">
         <is>
@@ -14949,13 +14939,13 @@
       </c>
       <c r="N137" s="2" t="n"/>
       <c r="O137" s="32" t="n">
-        <v>-1.4</v>
+        <v>-0.3</v>
       </c>
       <c r="P137" s="32" t="n">
-        <v>14.4</v>
+        <v>17.3</v>
       </c>
       <c r="Q137" s="32" t="n">
-        <v>5.05</v>
+        <v>7.19</v>
       </c>
       <c r="R137" s="23" t="inlineStr">
         <is>
@@ -15065,10 +15055,10 @@
       </c>
       <c r="N138" s="2" t="n"/>
       <c r="O138" s="32" t="n">
-        <v>-1.4</v>
+        <v>-1.5</v>
       </c>
       <c r="P138" s="32" t="n">
-        <v>15.2</v>
+        <v>16.9</v>
       </c>
       <c r="Q138" s="32" t="n"/>
       <c r="R138" s="23" t="inlineStr">
@@ -15179,13 +15169,13 @@
       </c>
       <c r="N139" s="2" t="n"/>
       <c r="O139" s="32" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="P139" s="32" t="n">
-        <v>14.3</v>
+        <v>16.4</v>
       </c>
       <c r="Q139" s="32" t="n">
-        <v>6.58</v>
+        <v>7.94</v>
       </c>
       <c r="R139" s="23" t="inlineStr">
         <is>
@@ -15295,13 +15285,13 @@
       </c>
       <c r="N140" s="2" t="n"/>
       <c r="O140" s="32" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P140" s="32" t="n">
-        <v>15.2</v>
+        <v>17.1</v>
       </c>
       <c r="Q140" s="32" t="n">
-        <v>9.15</v>
+        <v>9.6</v>
       </c>
       <c r="R140" s="23" t="inlineStr">
         <is>
@@ -15513,13 +15503,13 @@
       </c>
       <c r="N142" s="2" t="n"/>
       <c r="O142" s="32" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="P142" s="32" t="n">
-        <v>17</v>
+        <v>19.3</v>
       </c>
       <c r="Q142" s="32" t="n">
-        <v>12.75</v>
+        <v>13.54</v>
       </c>
       <c r="R142" s="23" t="inlineStr">
         <is>
@@ -15629,13 +15619,13 @@
       </c>
       <c r="N143" s="2" t="n"/>
       <c r="O143" s="32" t="n">
-        <v>15.7</v>
+        <v>14.9</v>
       </c>
       <c r="P143" s="32" t="n">
-        <v>25.4</v>
+        <v>21.7</v>
       </c>
       <c r="Q143" s="32" t="n">
-        <v>19.02</v>
+        <v>17.96</v>
       </c>
       <c r="R143" s="23" t="inlineStr">
         <is>
@@ -15945,13 +15935,13 @@
       </c>
       <c r="N146" s="2" t="n"/>
       <c r="O146" s="32" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="P146" s="32" t="n">
-        <v>25.9</v>
+        <v>26.3</v>
       </c>
       <c r="Q146" s="32" t="n">
-        <v>23.19</v>
+        <v>23.29</v>
       </c>
       <c r="R146" s="23" t="inlineStr">
         <is>
@@ -16053,13 +16043,13 @@
       </c>
       <c r="N147" s="2" t="n"/>
       <c r="O147" s="32" t="n">
-        <v>10.9</v>
+        <v>11.9</v>
       </c>
       <c r="P147" s="32" t="n">
-        <v>15.6</v>
+        <v>17</v>
       </c>
       <c r="Q147" s="32" t="n">
-        <v>13.01</v>
+        <v>13.74</v>
       </c>
       <c r="R147" s="23" t="inlineStr">
         <is>
@@ -16271,13 +16261,13 @@
       </c>
       <c r="N149" s="2" t="n"/>
       <c r="O149" s="32" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="P149" s="32" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="Q149" s="32" t="n">
-        <v>13</v>
+        <v>13.89</v>
       </c>
       <c r="R149" s="23" t="inlineStr">
         <is>
@@ -16387,13 +16377,13 @@
       </c>
       <c r="N150" s="2" t="n"/>
       <c r="O150" s="32" t="n">
-        <v>4.2</v>
+        <v>6.3</v>
       </c>
       <c r="P150" s="32" t="n">
-        <v>11.1</v>
+        <v>11.8</v>
       </c>
       <c r="Q150" s="32" t="n">
-        <v>6.89</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="R150" s="23" t="inlineStr">
         <is>
@@ -16503,13 +16493,13 @@
       </c>
       <c r="N151" s="2" t="n"/>
       <c r="O151" s="32" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="P151" s="32" t="n">
-        <v>16.6</v>
+        <v>14.1</v>
       </c>
       <c r="Q151" s="32" t="n">
-        <v>11.21</v>
+        <v>11.04</v>
       </c>
       <c r="R151" s="23" t="inlineStr">
         <is>
@@ -16709,13 +16699,13 @@
       </c>
       <c r="N153" s="2" t="n"/>
       <c r="O153" s="32" t="n">
-        <v>1.1</v>
+        <v>4.8</v>
       </c>
       <c r="P153" s="32" t="n">
-        <v>15</v>
+        <v>17.2</v>
       </c>
       <c r="Q153" s="32" t="n">
-        <v>8.210000000000001</v>
+        <v>10.51</v>
       </c>
       <c r="R153" s="23" t="inlineStr">
         <is>
@@ -16829,13 +16819,13 @@
       </c>
       <c r="N154" s="2" t="n"/>
       <c r="O154" s="32" t="n">
-        <v>-5.1</v>
+        <v>0.4</v>
       </c>
       <c r="P154" s="32" t="n">
-        <v>11.9</v>
+        <v>8.6</v>
       </c>
       <c r="Q154" s="32" t="n">
-        <v>2.24</v>
+        <v>4.46</v>
       </c>
       <c r="R154" s="23" t="inlineStr">
         <is>
@@ -17031,10 +17021,10 @@
       </c>
       <c r="N156" s="2" t="n"/>
       <c r="O156" s="32" t="n">
-        <v>-21.3</v>
+        <v>-17.6</v>
       </c>
       <c r="P156" s="32" t="n">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="Q156" s="32" t="n"/>
       <c r="R156" s="23" t="inlineStr">
@@ -17137,10 +17127,10 @@
       </c>
       <c r="N157" s="2" t="n"/>
       <c r="O157" s="32" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="P157" s="32" t="n">
-        <v>13.5</v>
+        <v>14.9</v>
       </c>
       <c r="Q157" s="32" t="n"/>
       <c r="R157" s="23" t="inlineStr">
@@ -17521,10 +17511,10 @@
       </c>
       <c r="N161" s="2" t="n"/>
       <c r="O161" s="32" t="n">
-        <v>-6.5</v>
+        <v>-4.5</v>
       </c>
       <c r="P161" s="32" t="n">
-        <v>11.7</v>
+        <v>7.4</v>
       </c>
       <c r="Q161" s="32" t="n"/>
       <c r="R161" s="23" t="inlineStr">
@@ -17961,10 +17951,10 @@
         </is>
       </c>
       <c r="O165" s="32" t="n">
-        <v>-32.9</v>
+        <v>-30.5</v>
       </c>
       <c r="P165" s="32" t="n">
-        <v>-15.3</v>
+        <v>-9.6</v>
       </c>
       <c r="Q165" s="32" t="n"/>
       <c r="R165" s="23" t="inlineStr">
@@ -18283,10 +18273,10 @@
         </is>
       </c>
       <c r="O168" s="32" t="n">
-        <v>-18.5</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="P168" s="32" t="n">
-        <v>-2.9</v>
+        <v>-0.4</v>
       </c>
       <c r="Q168" s="32" t="n"/>
       <c r="R168" s="23" t="inlineStr">
@@ -18397,10 +18387,10 @@
         </is>
       </c>
       <c r="O169" s="32" t="n">
-        <v>-24.3</v>
+        <v>-16.6</v>
       </c>
       <c r="P169" s="32" t="n">
-        <v>-3.6</v>
+        <v>-3.9</v>
       </c>
       <c r="Q169" s="32" t="n"/>
       <c r="R169" s="23" t="inlineStr">
@@ -18510,12 +18500,8 @@
           <t>⚡</t>
         </is>
       </c>
-      <c r="O170" s="32" t="n">
-        <v>-27.8</v>
-      </c>
-      <c r="P170" s="32" t="n">
-        <v>-5.9</v>
-      </c>
+      <c r="O170" s="32" t="n"/>
+      <c r="P170" s="32" t="n"/>
       <c r="Q170" s="32" t="n"/>
       <c r="R170" s="23" t="inlineStr">
         <is>
@@ -18719,10 +18705,10 @@
       </c>
       <c r="N172" s="3" t="n"/>
       <c r="O172" s="32" t="n">
-        <v>-23.9</v>
+        <v>-21.6</v>
       </c>
       <c r="P172" s="32" t="n">
-        <v>-4</v>
+        <v>-2.7</v>
       </c>
       <c r="Q172" s="32" t="n"/>
       <c r="R172" s="23" t="inlineStr">
@@ -18829,10 +18815,10 @@
       </c>
       <c r="N173" s="2" t="n"/>
       <c r="O173" s="32" t="n">
-        <v>-25.4</v>
+        <v>-21.2</v>
       </c>
       <c r="P173" s="32" t="n">
-        <v>-0.3</v>
+        <v>1.7</v>
       </c>
       <c r="Q173" s="32" t="n"/>
       <c r="R173" s="23" t="inlineStr">
@@ -19147,10 +19133,10 @@
       </c>
       <c r="N176" s="2" t="n"/>
       <c r="O176" s="32" t="n">
-        <v>-5.4</v>
+        <v>-1.3</v>
       </c>
       <c r="P176" s="32" t="n">
-        <v>3.4</v>
+        <v>7.1</v>
       </c>
       <c r="Q176" s="32" t="n"/>
       <c r="R176" s="23" t="inlineStr">
@@ -19245,10 +19231,10 @@
       </c>
       <c r="N177" s="2" t="n"/>
       <c r="O177" s="32" t="n">
-        <v>-21.8</v>
+        <v>-19.1</v>
       </c>
       <c r="P177" s="32" t="n">
-        <v>-16.7</v>
+        <v>-11.9</v>
       </c>
       <c r="Q177" s="32" t="n"/>
       <c r="R177" s="23" t="inlineStr">
@@ -20124,13 +20110,13 @@
       </c>
       <c r="N186" s="2" t="n"/>
       <c r="O186" s="32" t="n">
-        <v>-35.6</v>
+        <v>-45.3</v>
       </c>
       <c r="P186" s="32" t="n">
-        <v>-29.3</v>
+        <v>-29.5</v>
       </c>
       <c r="Q186" s="32" t="n">
-        <v>-32.99</v>
+        <v>-36.11</v>
       </c>
       <c r="R186" s="23" t="inlineStr">
         <is>
@@ -20233,13 +20219,13 @@
       </c>
       <c r="N187" s="2" t="n"/>
       <c r="O187" s="32" t="n">
-        <v>-36.3</v>
+        <v>-42.2</v>
       </c>
       <c r="P187" s="32" t="n">
         <v>-28.8</v>
       </c>
       <c r="Q187" s="32" t="n">
-        <v>-32.31</v>
+        <v>-36.4</v>
       </c>
       <c r="R187" s="23" t="inlineStr">
         <is>
@@ -20337,13 +20323,13 @@
       </c>
       <c r="N188" s="2" t="n"/>
       <c r="O188" s="32" t="n">
-        <v>-36</v>
+        <v>-44.4</v>
       </c>
       <c r="P188" s="32" t="n">
-        <v>-28.6</v>
+        <v>-29.6</v>
       </c>
       <c r="Q188" s="32" t="n">
-        <v>-32.67</v>
+        <v>-36.85</v>
       </c>
       <c r="R188" s="23" t="inlineStr">
         <is>
@@ -20441,13 +20427,13 @@
       </c>
       <c r="N189" s="2" t="n"/>
       <c r="O189" s="32" t="n">
-        <v>-33.6</v>
+        <v>-46</v>
       </c>
       <c r="P189" s="32" t="n">
-        <v>-23.6</v>
+        <v>-26.5</v>
       </c>
       <c r="Q189" s="32" t="n">
-        <v>-28.19</v>
+        <v>-38.94</v>
       </c>
       <c r="R189" s="23" t="inlineStr">
         <is>
@@ -20548,10 +20534,10 @@
         <v>-44.6</v>
       </c>
       <c r="P190" s="32" t="n">
-        <v>-33.4</v>
+        <v>-33.7</v>
       </c>
       <c r="Q190" s="32" t="n">
-        <v>-37.87</v>
+        <v>-41.58</v>
       </c>
       <c r="R190" s="23" t="inlineStr">
         <is>
@@ -20649,13 +20635,13 @@
       </c>
       <c r="N191" s="2" t="n"/>
       <c r="O191" s="32" t="n">
-        <v>-37.7</v>
+        <v>-43.4</v>
       </c>
       <c r="P191" s="32" t="n">
-        <v>-29.4</v>
+        <v>-32</v>
       </c>
       <c r="Q191" s="32" t="n">
-        <v>-33.69</v>
+        <v>-36.88</v>
       </c>
       <c r="R191" s="23" t="inlineStr">
         <is>
@@ -20749,13 +20735,13 @@
       </c>
       <c r="N192" s="2" t="n"/>
       <c r="O192" s="32" t="n">
-        <v>-32.4</v>
+        <v>-37.6</v>
       </c>
       <c r="P192" s="32" t="n">
-        <v>-26.2</v>
+        <v>-26.1</v>
       </c>
       <c r="Q192" s="32" t="n">
-        <v>-28.94</v>
+        <v>-32.36</v>
       </c>
       <c r="R192" s="23" t="inlineStr">
         <is>
@@ -20854,13 +20840,13 @@
       </c>
       <c r="N193" s="2" t="n"/>
       <c r="O193" s="32" t="n">
-        <v>-38.6</v>
+        <v>-35.8</v>
       </c>
       <c r="P193" s="32" t="n">
-        <v>-27.7</v>
+        <v>-29.4</v>
       </c>
       <c r="Q193" s="32" t="n">
-        <v>-32.3</v>
+        <v>-32.31</v>
       </c>
       <c r="R193" s="23" t="inlineStr">
         <is>
@@ -20962,7 +20948,7 @@
       </c>
       <c r="N194" s="2" t="n"/>
       <c r="O194" s="32" t="n">
-        <v>-43.5</v>
+        <v>-41.3</v>
       </c>
       <c r="P194" s="32" t="n">
         <v>-29</v>
@@ -21060,13 +21046,13 @@
       </c>
       <c r="N195" s="2" t="n"/>
       <c r="O195" s="32" t="n">
-        <v>-27.3</v>
+        <v>-38</v>
       </c>
       <c r="P195" s="32" t="n">
-        <v>-19.8</v>
+        <v>-20.4</v>
       </c>
       <c r="Q195" s="32" t="n">
-        <v>-22.6</v>
+        <v>-30.2</v>
       </c>
       <c r="R195" s="23" t="inlineStr">
         <is>
@@ -21164,13 +21150,13 @@
       </c>
       <c r="N196" s="2" t="n"/>
       <c r="O196" s="32" t="n">
-        <v>-37.7</v>
+        <v>-43.4</v>
       </c>
       <c r="P196" s="32" t="n">
-        <v>-22.1</v>
+        <v>-28.8</v>
       </c>
       <c r="Q196" s="32" t="n">
-        <v>-26</v>
+        <v>-36.01</v>
       </c>
       <c r="R196" s="23" t="inlineStr">
         <is>
@@ -21268,13 +21254,13 @@
       </c>
       <c r="N197" s="24" t="n"/>
       <c r="O197" s="32" t="n">
-        <v>-30.4</v>
+        <v>-22.3</v>
       </c>
       <c r="P197" s="32" t="n">
-        <v>-17.2</v>
+        <v>-13.9</v>
       </c>
       <c r="Q197" s="32" t="n">
-        <v>-23.07</v>
+        <v>-17.28</v>
       </c>
       <c r="R197" s="23" t="inlineStr">
         <is>
@@ -21363,12 +21349,8 @@
         </is>
       </c>
       <c r="N198" s="2" t="n"/>
-      <c r="O198" s="32" t="n">
-        <v>-35.4</v>
-      </c>
-      <c r="P198" s="32" t="n">
-        <v>-10.4</v>
-      </c>
+      <c r="O198" s="32" t="n"/>
+      <c r="P198" s="32" t="n"/>
       <c r="Q198" s="32" t="n"/>
       <c r="R198" s="23" t="inlineStr">
         <is>
@@ -22077,8 +22059,12 @@
         </is>
       </c>
       <c r="N205" s="2" t="n"/>
-      <c r="O205" s="32" t="n"/>
-      <c r="P205" s="32" t="n"/>
+      <c r="O205" s="32" t="n">
+        <v>-33.2</v>
+      </c>
+      <c r="P205" s="32" t="n">
+        <v>-5.3</v>
+      </c>
       <c r="Q205" s="32" t="n"/>
       <c r="R205" s="23" t="inlineStr">
         <is>
@@ -23079,12 +23065,8 @@
         </is>
       </c>
       <c r="N215" s="2" t="n"/>
-      <c r="O215" s="32" t="n">
-        <v>-36.1</v>
-      </c>
-      <c r="P215" s="32" t="n">
-        <v>-6.2</v>
-      </c>
+      <c r="O215" s="32" t="n"/>
+      <c r="P215" s="32" t="n"/>
       <c r="Q215" s="32" t="n"/>
       <c r="R215" s="23" t="inlineStr">
         <is>
@@ -26202,13 +26184,13 @@
       </c>
       <c r="N247" s="2" t="n"/>
       <c r="O247" s="32" t="n">
-        <v>-17.2</v>
+        <v>-23.3</v>
       </c>
       <c r="P247" s="32" t="n">
-        <v>-0.8</v>
+        <v>-16.1</v>
       </c>
       <c r="Q247" s="32" t="n">
-        <v>-10.99</v>
+        <v>-19.26</v>
       </c>
       <c r="R247" s="23" t="inlineStr">
         <is>
@@ -26314,13 +26296,13 @@
       </c>
       <c r="N248" s="2" t="n"/>
       <c r="O248" s="32" t="n">
-        <v>-14</v>
+        <v>-13.8</v>
       </c>
       <c r="P248" s="32" t="n">
-        <v>-2.8</v>
+        <v>1.9</v>
       </c>
       <c r="Q248" s="32" t="n">
-        <v>-6.46</v>
+        <v>-7.21</v>
       </c>
       <c r="R248" s="23" t="inlineStr">
         <is>
@@ -26425,10 +26407,10 @@
         <v>-7.8</v>
       </c>
       <c r="P249" s="32" t="n">
-        <v>-1.3</v>
+        <v>-0.2</v>
       </c>
       <c r="Q249" s="32" t="n">
-        <v>-4.4</v>
+        <v>-4.81</v>
       </c>
       <c r="R249" s="23" t="inlineStr">
         <is>
@@ -26534,13 +26516,13 @@
       </c>
       <c r="N250" s="2" t="n"/>
       <c r="O250" s="32" t="n">
-        <v>-21.2</v>
+        <v>-21.1</v>
       </c>
       <c r="P250" s="32" t="n">
-        <v>-8.800000000000001</v>
+        <v>-10.5</v>
       </c>
       <c r="Q250" s="32" t="n">
-        <v>-15.15</v>
+        <v>-16.05</v>
       </c>
       <c r="R250" s="23" t="inlineStr">
         <is>
@@ -26654,10 +26636,10 @@
         </is>
       </c>
       <c r="O251" s="32" t="n">
-        <v>-23.7</v>
+        <v>-13.5</v>
       </c>
       <c r="P251" s="32" t="n">
-        <v>-8.5</v>
+        <v>-7.1</v>
       </c>
       <c r="Q251" s="32" t="n"/>
       <c r="R251" s="23" t="inlineStr">
@@ -26752,13 +26734,13 @@
       </c>
       <c r="N252" s="2" t="n"/>
       <c r="O252" s="32" t="n">
-        <v>1.5</v>
+        <v>-10.8</v>
       </c>
       <c r="P252" s="32" t="n">
-        <v>6.4</v>
+        <v>4.9</v>
       </c>
       <c r="Q252" s="32" t="n">
-        <v>3.34</v>
+        <v>-3.26</v>
       </c>
       <c r="R252" s="23" t="inlineStr">
         <is>
@@ -26950,13 +26932,13 @@
       </c>
       <c r="N254" s="2" t="n"/>
       <c r="O254" s="32" t="n">
-        <v>-48.2</v>
+        <v>-48.1</v>
       </c>
       <c r="P254" s="32" t="n">
-        <v>-42</v>
+        <v>-41.7</v>
       </c>
       <c r="Q254" s="32" t="n">
-        <v>-45.44</v>
+        <v>-45.24</v>
       </c>
       <c r="R254" s="23" t="inlineStr">
         <is>
@@ -27524,13 +27506,13 @@
       </c>
       <c r="N260" s="2" t="n"/>
       <c r="O260" s="32" t="n">
-        <v>-22.6</v>
+        <v>-16.3</v>
       </c>
       <c r="P260" s="32" t="n">
-        <v>0.3</v>
+        <v>-5</v>
       </c>
       <c r="Q260" s="32" t="n">
-        <v>-12.98</v>
+        <v>-10.11</v>
       </c>
       <c r="R260" s="23" t="inlineStr">
         <is>
@@ -27632,13 +27614,13 @@
       </c>
       <c r="N261" s="2" t="n"/>
       <c r="O261" s="32" t="n">
-        <v>-24.8</v>
+        <v>-22.6</v>
       </c>
       <c r="P261" s="32" t="n">
-        <v>-7.6</v>
+        <v>-3.7</v>
       </c>
       <c r="Q261" s="32" t="n">
-        <v>-17.81</v>
+        <v>-14.88</v>
       </c>
       <c r="R261" s="23" t="inlineStr">
         <is>
@@ -27744,13 +27726,13 @@
       </c>
       <c r="N262" s="2" t="n"/>
       <c r="O262" s="32" t="n">
+        <v>-15.6</v>
+      </c>
+      <c r="P262" s="32" t="n">
         <v>-6.3</v>
       </c>
-      <c r="P262" s="32" t="n">
-        <v>1.8</v>
-      </c>
       <c r="Q262" s="32" t="n">
-        <v>0.21</v>
+        <v>-13.97</v>
       </c>
       <c r="R262" s="23" t="inlineStr">
         <is>
@@ -27950,13 +27932,13 @@
       </c>
       <c r="N264" s="2" t="n"/>
       <c r="O264" s="32" t="n">
-        <v>-12.4</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="P264" s="32" t="n">
-        <v>-3.9</v>
+        <v>-0.4</v>
       </c>
       <c r="Q264" s="32" t="n">
-        <v>-8.84</v>
+        <v>-6.2</v>
       </c>
       <c r="R264" s="23" t="inlineStr">
         <is>
@@ -28070,10 +28052,10 @@
       </c>
       <c r="N265" s="2" t="n"/>
       <c r="O265" s="32" t="n">
-        <v>-49.6</v>
+        <v>-46.8</v>
       </c>
       <c r="P265" s="32" t="n">
-        <v>-37</v>
+        <v>-38.7</v>
       </c>
       <c r="Q265" s="32" t="n"/>
       <c r="R265" s="23" t="inlineStr">
@@ -29110,13 +29092,13 @@
       </c>
       <c r="N276" s="2" t="n"/>
       <c r="O276" s="32" t="n">
-        <v>-37.6</v>
+        <v>-43.7</v>
       </c>
       <c r="P276" s="32" t="n">
-        <v>-20.6</v>
+        <v>-32.9</v>
       </c>
       <c r="Q276" s="32" t="n">
-        <v>-29.74</v>
+        <v>-40.14</v>
       </c>
       <c r="R276" s="23" t="inlineStr">
         <is>

--- a/气象/For_Python_站点信息和记录.xlsx
+++ b/气象/For_Python_站点信息和记录.xlsx
@@ -790,8 +790,8 @@
     <col width="18.59765625" customWidth="1" style="8" min="25" max="25"/>
     <col width="12.59765625" customWidth="1" style="5" min="26" max="30"/>
     <col width="12.59765625" customWidth="1" style="8" min="31" max="32"/>
-    <col width="12.59765625" customWidth="1" style="5" min="33" max="246"/>
-    <col width="12.59765625" customWidth="1" style="5" min="247" max="16384"/>
+    <col width="12.59765625" customWidth="1" style="5" min="33" max="248"/>
+    <col width="12.59765625" customWidth="1" style="5" min="249" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.75" customFormat="1" customHeight="1" s="11">
@@ -1014,13 +1014,13 @@
         </is>
       </c>
       <c r="O2" s="32" t="n">
-        <v>-28.3</v>
+        <v>-31</v>
       </c>
       <c r="P2" s="32" t="n">
         <v>-20.7</v>
       </c>
       <c r="Q2" s="32" t="n">
-        <v>-24.94</v>
+        <v>-25.28</v>
       </c>
       <c r="R2" s="23" t="inlineStr">
         <is>
@@ -1124,10 +1124,10 @@
         </is>
       </c>
       <c r="O3" s="32" t="n">
-        <v>-29</v>
+        <v>-31.2</v>
       </c>
       <c r="P3" s="32" t="n">
-        <v>-18.2</v>
+        <v>-18.5</v>
       </c>
       <c r="Q3" s="32" t="n"/>
       <c r="R3" s="23" t="n"/>
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="O4" s="32" t="n">
-        <v>-24</v>
+        <v>-31.1</v>
       </c>
       <c r="P4" s="32" t="n">
-        <v>-13.5</v>
+        <v>-17.1</v>
       </c>
       <c r="Q4" s="32" t="n"/>
       <c r="R4" s="23" t="n"/>
@@ -1320,10 +1320,10 @@
       </c>
       <c r="N5" s="2" t="n"/>
       <c r="O5" s="32" t="n">
-        <v>-25.6</v>
+        <v>-22.2</v>
       </c>
       <c r="P5" s="32" t="n">
-        <v>-8.9</v>
+        <v>-12.5</v>
       </c>
       <c r="Q5" s="32" t="n"/>
       <c r="R5" s="23" t="n"/>
@@ -1420,10 +1420,10 @@
         </is>
       </c>
       <c r="O6" s="32" t="n">
-        <v>-31.3</v>
+        <v>-20.6</v>
       </c>
       <c r="P6" s="32" t="n">
-        <v>-17.4</v>
+        <v>-11</v>
       </c>
       <c r="Q6" s="32" t="n"/>
       <c r="R6" s="23" t="n"/>
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="O7" s="32" t="n">
-        <v>-25.8</v>
+        <v>-20.7</v>
       </c>
       <c r="P7" s="32" t="n">
-        <v>-15.5</v>
+        <v>-16</v>
       </c>
       <c r="Q7" s="32" t="n"/>
       <c r="R7" s="23" t="n"/>
@@ -1628,13 +1628,13 @@
       </c>
       <c r="N8" s="2" t="n"/>
       <c r="O8" s="32" t="n">
-        <v>-24.6</v>
+        <v>-18.2</v>
       </c>
       <c r="P8" s="32" t="n">
-        <v>-11.4</v>
+        <v>-4.2</v>
       </c>
       <c r="Q8" s="32" t="n">
-        <v>-18.59</v>
+        <v>-11.75</v>
       </c>
       <c r="R8" s="23" t="inlineStr">
         <is>
@@ -1740,13 +1740,13 @@
       </c>
       <c r="N9" s="2" t="n"/>
       <c r="O9" s="32" t="n">
-        <v>-27.6</v>
+        <v>-30.5</v>
       </c>
       <c r="P9" s="32" t="n">
-        <v>-17.7</v>
+        <v>-17.1</v>
       </c>
       <c r="Q9" s="32" t="n">
-        <v>-24.21</v>
+        <v>-24.5</v>
       </c>
       <c r="R9" s="23" t="inlineStr">
         <is>
@@ -1856,13 +1856,13 @@
       </c>
       <c r="N10" s="3" t="n"/>
       <c r="O10" s="32" t="n">
-        <v>-24</v>
+        <v>-24.6</v>
       </c>
       <c r="P10" s="32" t="n">
-        <v>-8.699999999999999</v>
+        <v>-16.1</v>
       </c>
       <c r="Q10" s="32" t="n">
-        <v>-17.15</v>
+        <v>-21.56</v>
       </c>
       <c r="R10" s="23" t="inlineStr">
         <is>
@@ -1972,13 +1972,13 @@
         </is>
       </c>
       <c r="O11" s="32" t="n">
-        <v>-11.5</v>
+        <v>-25</v>
       </c>
       <c r="P11" s="32" t="n">
-        <v>0.5</v>
+        <v>-6.8</v>
       </c>
       <c r="Q11" s="32" t="n">
-        <v>-8.15</v>
+        <v>-16.26</v>
       </c>
       <c r="R11" s="23" t="inlineStr">
         <is>
@@ -2084,13 +2084,13 @@
       </c>
       <c r="N12" s="2" t="n"/>
       <c r="O12" s="32" t="n">
-        <v>-26.7</v>
+        <v>-23.7</v>
       </c>
       <c r="P12" s="32" t="n">
         <v>-11.3</v>
       </c>
       <c r="Q12" s="32" t="n">
-        <v>-19.66</v>
+        <v>-17.15</v>
       </c>
       <c r="R12" s="23" t="inlineStr">
         <is>
@@ -2200,13 +2200,13 @@
         </is>
       </c>
       <c r="O13" s="32" t="n">
-        <v>-25.9</v>
+        <v>-20.3</v>
       </c>
       <c r="P13" s="32" t="n">
-        <v>-14.2</v>
+        <v>-14.1</v>
       </c>
       <c r="Q13" s="32" t="n">
-        <v>-21.09</v>
+        <v>-17.43</v>
       </c>
       <c r="R13" s="23" t="inlineStr">
         <is>
@@ -2316,13 +2316,13 @@
       </c>
       <c r="N14" s="2" t="n"/>
       <c r="O14" s="32" t="n">
-        <v>-15.4</v>
+        <v>-11.5</v>
       </c>
       <c r="P14" s="32" t="n">
-        <v>-1.1</v>
+        <v>-4.3</v>
       </c>
       <c r="Q14" s="32" t="n">
-        <v>-9.029999999999999</v>
+        <v>-8.550000000000001</v>
       </c>
       <c r="R14" s="23" t="inlineStr">
         <is>
@@ -2517,9 +2517,15 @@
         </is>
       </c>
       <c r="N16" s="2" t="n"/>
-      <c r="O16" s="32" t="n"/>
-      <c r="P16" s="32" t="n"/>
-      <c r="Q16" s="32" t="n"/>
+      <c r="O16" s="32" t="n">
+        <v>-16.5</v>
+      </c>
+      <c r="P16" s="32" t="n">
+        <v>-5.1</v>
+      </c>
+      <c r="Q16" s="32" t="n">
+        <v>-10.64</v>
+      </c>
       <c r="R16" s="23" t="inlineStr">
         <is>
           <t>Y</t>
@@ -4962,9 +4968,7 @@
       </c>
       <c r="N43" s="2" t="n"/>
       <c r="O43" s="32" t="n"/>
-      <c r="P43" s="32" t="n">
-        <v>-22.8</v>
-      </c>
+      <c r="P43" s="32" t="n"/>
       <c r="Q43" s="32" t="n"/>
       <c r="R43" s="23" t="n"/>
       <c r="S43" s="37" t="n"/>
@@ -7822,13 +7826,13 @@
       </c>
       <c r="N75" s="2" t="n"/>
       <c r="O75" s="32" t="n">
-        <v>-27.2</v>
+        <v>-23.7</v>
       </c>
       <c r="P75" s="32" t="n">
-        <v>-7.5</v>
+        <v>-5.7</v>
       </c>
       <c r="Q75" s="32" t="n">
-        <v>-19.79</v>
+        <v>-15.34</v>
       </c>
       <c r="R75" s="23" t="inlineStr">
         <is>
@@ -7937,10 +7941,10 @@
         <v>-34.9</v>
       </c>
       <c r="P76" s="32" t="n">
-        <v>-16</v>
+        <v>-16.6</v>
       </c>
       <c r="Q76" s="32" t="n">
-        <v>-25.56</v>
+        <v>-26.46</v>
       </c>
       <c r="R76" s="23" t="inlineStr">
         <is>
@@ -8050,13 +8054,13 @@
         </is>
       </c>
       <c r="O77" s="32" t="n">
-        <v>-38</v>
+        <v>-37.6</v>
       </c>
       <c r="P77" s="32" t="n">
-        <v>-18.4</v>
+        <v>-17.2</v>
       </c>
       <c r="Q77" s="32" t="n">
-        <v>-27.24</v>
+        <v>-28.66</v>
       </c>
       <c r="R77" s="23" t="inlineStr">
         <is>
@@ -8166,13 +8170,13 @@
       </c>
       <c r="N78" s="2" t="n"/>
       <c r="O78" s="32" t="n">
-        <v>-35.2</v>
+        <v>-34.4</v>
       </c>
       <c r="P78" s="32" t="n">
-        <v>-17.5</v>
+        <v>-16.2</v>
       </c>
       <c r="Q78" s="32" t="n">
-        <v>-26</v>
+        <v>-25.84</v>
       </c>
       <c r="R78" s="23" t="inlineStr">
         <is>
@@ -8285,10 +8289,10 @@
         <v>-37</v>
       </c>
       <c r="P79" s="32" t="n">
-        <v>-14.2</v>
+        <v>-12.4</v>
       </c>
       <c r="Q79" s="32" t="n">
-        <v>-26.38</v>
+        <v>-26.96</v>
       </c>
       <c r="R79" s="23" t="inlineStr">
         <is>
@@ -8394,13 +8398,13 @@
       </c>
       <c r="N80" s="2" t="n"/>
       <c r="O80" s="32" t="n">
-        <v>-16.2</v>
+        <v>-21.4</v>
       </c>
       <c r="P80" s="32" t="n">
-        <v>-2.2</v>
+        <v>-2.9</v>
       </c>
       <c r="Q80" s="32" t="n">
-        <v>-11.38</v>
+        <v>-12.65</v>
       </c>
       <c r="R80" s="23" t="inlineStr">
         <is>
@@ -8510,13 +8514,13 @@
         </is>
       </c>
       <c r="O81" s="32" t="n">
-        <v>-21.1</v>
+        <v>-27</v>
       </c>
       <c r="P81" s="32" t="n">
-        <v>-2.8</v>
+        <v>-7.4</v>
       </c>
       <c r="Q81" s="32" t="n">
-        <v>-14.36</v>
+        <v>-16.8</v>
       </c>
       <c r="R81" s="23" t="inlineStr">
         <is>
@@ -8631,13 +8635,13 @@
         </is>
       </c>
       <c r="O82" s="32" t="n">
-        <v>-22.3</v>
+        <v>-21.1</v>
       </c>
       <c r="P82" s="32" t="n">
-        <v>2.1</v>
+        <v>-5.4</v>
       </c>
       <c r="Q82" s="32" t="n">
-        <v>-13.34</v>
+        <v>-12.78</v>
       </c>
       <c r="R82" s="23" t="inlineStr">
         <is>
@@ -8747,13 +8751,13 @@
       </c>
       <c r="N83" s="2" t="n"/>
       <c r="O83" s="32" t="n">
-        <v>-23.9</v>
+        <v>-18.8</v>
       </c>
       <c r="P83" s="32" t="n">
-        <v>-10.9</v>
+        <v>-4.4</v>
       </c>
       <c r="Q83" s="32" t="n">
-        <v>-17.84</v>
+        <v>-11.59</v>
       </c>
       <c r="R83" s="23" t="inlineStr">
         <is>
@@ -8867,13 +8871,13 @@
         </is>
       </c>
       <c r="O84" s="32" t="n">
-        <v>-22.5</v>
+        <v>-14.4</v>
       </c>
       <c r="P84" s="32" t="n">
-        <v>-2.8</v>
+        <v>-1.7</v>
       </c>
       <c r="Q84" s="32" t="n">
-        <v>-14.56</v>
+        <v>-8.26</v>
       </c>
       <c r="R84" s="23" t="inlineStr">
         <is>
@@ -8987,13 +8991,13 @@
         </is>
       </c>
       <c r="O85" s="32" t="n">
-        <v>-21.9</v>
+        <v>-27.6</v>
       </c>
       <c r="P85" s="32" t="n">
-        <v>-10.6</v>
+        <v>-11.5</v>
       </c>
       <c r="Q85" s="32" t="n">
-        <v>-15.06</v>
+        <v>-17.99</v>
       </c>
       <c r="R85" s="23" t="inlineStr">
         <is>
@@ -9099,13 +9103,13 @@
       </c>
       <c r="N86" s="2" t="n"/>
       <c r="O86" s="32" t="n">
-        <v>-18.6</v>
+        <v>-21.1</v>
       </c>
       <c r="P86" s="32" t="n">
-        <v>-9.4</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="Q86" s="32" t="n">
-        <v>-14.77</v>
+        <v>-13.74</v>
       </c>
       <c r="R86" s="23" t="inlineStr">
         <is>
@@ -9223,13 +9227,13 @@
         </is>
       </c>
       <c r="O87" s="32" t="n">
-        <v>-26.9</v>
+        <v>-29.7</v>
       </c>
       <c r="P87" s="32" t="n">
-        <v>-17.4</v>
+        <v>-16.4</v>
       </c>
       <c r="Q87" s="32" t="n">
-        <v>-23.47</v>
+        <v>-25.1</v>
       </c>
       <c r="R87" s="23" t="inlineStr">
         <is>
@@ -9335,13 +9339,13 @@
       </c>
       <c r="N88" s="2" t="n"/>
       <c r="O88" s="32" t="n">
-        <v>-13.3</v>
+        <v>-27.9</v>
       </c>
       <c r="P88" s="32" t="n">
-        <v>-5.5</v>
+        <v>-12.4</v>
       </c>
       <c r="Q88" s="32" t="n">
-        <v>-8.25</v>
+        <v>-21.15</v>
       </c>
       <c r="R88" s="23" t="inlineStr">
         <is>
@@ -9553,13 +9557,13 @@
         </is>
       </c>
       <c r="O90" s="32" t="n">
-        <v>-14.8</v>
+        <v>-30</v>
       </c>
       <c r="P90" s="32" t="n">
-        <v>-2</v>
+        <v>-13.6</v>
       </c>
       <c r="Q90" s="32" t="n">
-        <v>-10.7</v>
+        <v>-22.19</v>
       </c>
       <c r="R90" s="23" t="inlineStr">
         <is>
@@ -9661,13 +9665,13 @@
       </c>
       <c r="N91" s="2" t="n"/>
       <c r="O91" s="32" t="n">
+        <v>-29.9</v>
+      </c>
+      <c r="P91" s="32" t="n">
         <v>-15.2</v>
       </c>
-      <c r="P91" s="32" t="n">
-        <v>-4.9</v>
-      </c>
       <c r="Q91" s="32" t="n">
-        <v>-9.15</v>
+        <v>-22.27</v>
       </c>
       <c r="R91" s="23" t="inlineStr">
         <is>
@@ -9769,13 +9773,13 @@
       </c>
       <c r="N92" s="2" t="n"/>
       <c r="O92" s="32" t="n">
-        <v>-13.2</v>
+        <v>-9.4</v>
       </c>
       <c r="P92" s="32" t="n">
-        <v>-1.1</v>
+        <v>2.6</v>
       </c>
       <c r="Q92" s="32" t="n">
-        <v>-7.35</v>
+        <v>-3.76</v>
       </c>
       <c r="R92" s="23" t="inlineStr">
         <is>
@@ -9881,13 +9885,13 @@
       </c>
       <c r="N93" s="2" t="n"/>
       <c r="O93" s="32" t="n">
-        <v>-8.800000000000001</v>
+        <v>-7</v>
       </c>
       <c r="P93" s="32" t="n">
-        <v>8.699999999999999</v>
+        <v>10.6</v>
       </c>
       <c r="Q93" s="32" t="n">
-        <v>-0.85</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="R93" s="23" t="inlineStr">
         <is>
@@ -10001,10 +10005,10 @@
         </is>
       </c>
       <c r="O94" s="32" t="n">
-        <v>-17.4</v>
+        <v>-13.3</v>
       </c>
       <c r="P94" s="32" t="n">
-        <v>5.3</v>
+        <v>8.5</v>
       </c>
       <c r="Q94" s="32" t="n"/>
       <c r="R94" s="23" t="inlineStr">
@@ -10119,13 +10123,13 @@
       </c>
       <c r="N95" s="2" t="n"/>
       <c r="O95" s="32" t="n">
-        <v>-13</v>
+        <v>-3.4</v>
       </c>
       <c r="P95" s="32" t="n">
-        <v>2.6</v>
+        <v>6.9</v>
       </c>
       <c r="Q95" s="32" t="n">
-        <v>-4.65</v>
+        <v>0.29</v>
       </c>
       <c r="R95" s="23" t="inlineStr">
         <is>
@@ -10247,10 +10251,10 @@
         </is>
       </c>
       <c r="O96" s="32" t="n">
-        <v>-20.1</v>
+        <v>-16.9</v>
       </c>
       <c r="P96" s="32" t="n">
-        <v>1.8</v>
+        <v>6.4</v>
       </c>
       <c r="Q96" s="32" t="n"/>
       <c r="R96" s="23" t="inlineStr">
@@ -10365,13 +10369,13 @@
       </c>
       <c r="N97" s="2" t="n"/>
       <c r="O97" s="32" t="n">
-        <v>-21.7</v>
+        <v>-10.3</v>
       </c>
       <c r="P97" s="32" t="n">
-        <v>-0.2</v>
+        <v>0.8</v>
       </c>
       <c r="Q97" s="32" t="n">
-        <v>-10.07</v>
+        <v>-3.75</v>
       </c>
       <c r="R97" s="23" t="inlineStr">
         <is>
@@ -10481,10 +10485,10 @@
       </c>
       <c r="N98" s="2" t="n"/>
       <c r="O98" s="32" t="n">
-        <v>-31.1</v>
+        <v>-23.2</v>
       </c>
       <c r="P98" s="32" t="n">
-        <v>-10.6</v>
+        <v>-7.5</v>
       </c>
       <c r="Q98" s="32" t="n"/>
       <c r="R98" s="23" t="inlineStr">
@@ -10599,13 +10603,13 @@
       </c>
       <c r="N99" s="2" t="n"/>
       <c r="O99" s="32" t="n">
-        <v>-32.1</v>
+        <v>-26.3</v>
       </c>
       <c r="P99" s="32" t="n">
-        <v>-10.9</v>
+        <v>-8.4</v>
       </c>
       <c r="Q99" s="32" t="n">
-        <v>-22.98</v>
+        <v>-17.46</v>
       </c>
       <c r="R99" s="23" t="inlineStr">
         <is>
@@ -10931,13 +10935,13 @@
       </c>
       <c r="N102" s="2" t="n"/>
       <c r="O102" s="32" t="n">
-        <v>-22</v>
+        <v>-28.2</v>
       </c>
       <c r="P102" s="32" t="n">
-        <v>-6.3</v>
+        <v>-2.6</v>
       </c>
       <c r="Q102" s="32" t="n">
-        <v>-15.94</v>
+        <v>-17.8</v>
       </c>
       <c r="R102" s="23" t="inlineStr">
         <is>
@@ -11047,10 +11051,10 @@
       </c>
       <c r="N103" s="2" t="n"/>
       <c r="O103" s="32" t="n">
-        <v>-23.8</v>
+        <v>-26</v>
       </c>
       <c r="P103" s="32" t="n">
-        <v>-9.800000000000001</v>
+        <v>-5.1</v>
       </c>
       <c r="Q103" s="32" t="n"/>
       <c r="R103" s="23" t="inlineStr">
@@ -11157,10 +11161,10 @@
       </c>
       <c r="N104" s="2" t="n"/>
       <c r="O104" s="32" t="n">
-        <v>-22.8</v>
+        <v>-26.3</v>
       </c>
       <c r="P104" s="32" t="n">
-        <v>-9.199999999999999</v>
+        <v>-7.3</v>
       </c>
       <c r="Q104" s="32" t="n"/>
       <c r="R104" s="23" t="inlineStr">
@@ -11279,13 +11283,13 @@
         </is>
       </c>
       <c r="O105" s="32" t="n">
-        <v>-27.5</v>
+        <v>-29.3</v>
       </c>
       <c r="P105" s="32" t="n">
-        <v>-9.1</v>
+        <v>-6.6</v>
       </c>
       <c r="Q105" s="32" t="n">
-        <v>-19.31</v>
+        <v>-17.85</v>
       </c>
       <c r="R105" s="23" t="inlineStr">
         <is>
@@ -11399,10 +11403,10 @@
         </is>
       </c>
       <c r="O106" s="32" t="n">
-        <v>-27.5</v>
+        <v>-25.3</v>
       </c>
       <c r="P106" s="32" t="n">
-        <v>-10.1</v>
+        <v>-11.2</v>
       </c>
       <c r="Q106" s="32" t="n"/>
       <c r="R106" s="23" t="inlineStr">
@@ -11623,13 +11627,13 @@
       </c>
       <c r="N108" s="2" t="n"/>
       <c r="O108" s="32" t="n">
-        <v>-22.4</v>
+        <v>-20.6</v>
       </c>
       <c r="P108" s="32" t="n">
-        <v>-9.300000000000001</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="Q108" s="32" t="n">
-        <v>-15.54</v>
+        <v>-15.09</v>
       </c>
       <c r="R108" s="23" t="inlineStr">
         <is>
@@ -11951,13 +11955,13 @@
       </c>
       <c r="N111" s="2" t="n"/>
       <c r="O111" s="32" t="n">
-        <v>-24.5</v>
+        <v>-19.8</v>
       </c>
       <c r="P111" s="32" t="n">
-        <v>-4.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q111" s="32" t="n">
-        <v>-16.05</v>
+        <v>-10.38</v>
       </c>
       <c r="R111" s="23" t="inlineStr">
         <is>
@@ -12063,10 +12067,10 @@
       </c>
       <c r="N112" s="2" t="n"/>
       <c r="O112" s="32" t="n">
-        <v>-15.1</v>
+        <v>-17.5</v>
       </c>
       <c r="P112" s="32" t="n">
-        <v>4.3</v>
+        <v>9.1</v>
       </c>
       <c r="Q112" s="32" t="n"/>
       <c r="R112" s="23" t="inlineStr">
@@ -12169,10 +12173,10 @@
       </c>
       <c r="N113" s="2" t="n"/>
       <c r="O113" s="32" t="n">
-        <v>-14.7</v>
+        <v>-18.9</v>
       </c>
       <c r="P113" s="32" t="n">
-        <v>-4.8</v>
+        <v>-1.7</v>
       </c>
       <c r="Q113" s="32" t="n"/>
       <c r="R113" s="23" t="inlineStr">
@@ -12283,10 +12287,10 @@
         </is>
       </c>
       <c r="O114" s="32" t="n">
-        <v>-15.4</v>
+        <v>-25.5</v>
       </c>
       <c r="P114" s="32" t="n">
-        <v>-2.3</v>
+        <v>-2.6</v>
       </c>
       <c r="Q114" s="32" t="n"/>
       <c r="R114" s="23" t="inlineStr">
@@ -12405,10 +12409,10 @@
         </is>
       </c>
       <c r="O115" s="32" t="n">
-        <v>-20.7</v>
+        <v>-20.5</v>
       </c>
       <c r="P115" s="32" t="n">
-        <v>-6.1</v>
+        <v>-2.2</v>
       </c>
       <c r="Q115" s="32" t="n"/>
       <c r="R115" s="23" t="inlineStr">
@@ -12523,13 +12527,13 @@
       </c>
       <c r="N116" s="2" t="n"/>
       <c r="O116" s="32" t="n">
-        <v>-6.4</v>
+        <v>-12.1</v>
       </c>
       <c r="P116" s="32" t="n">
-        <v>10.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q116" s="32" t="n">
-        <v>0.67</v>
+        <v>-4.15</v>
       </c>
       <c r="R116" s="23" t="inlineStr">
         <is>
@@ -12635,10 +12639,10 @@
       </c>
       <c r="N117" s="2" t="n"/>
       <c r="O117" s="32" t="n">
-        <v>-11.3</v>
+        <v>-13.5</v>
       </c>
       <c r="P117" s="32" t="n">
-        <v>0.8</v>
+        <v>-2.1</v>
       </c>
       <c r="Q117" s="32" t="n"/>
       <c r="R117" s="23" t="inlineStr">
@@ -12749,10 +12753,10 @@
         </is>
       </c>
       <c r="O118" s="32" t="n">
-        <v>-15.1</v>
+        <v>-19.8</v>
       </c>
       <c r="P118" s="32" t="n">
-        <v>-3.4</v>
+        <v>-6.3</v>
       </c>
       <c r="Q118" s="32" t="n"/>
       <c r="R118" s="23" t="inlineStr">
@@ -12867,13 +12871,13 @@
       </c>
       <c r="N119" s="2" t="n"/>
       <c r="O119" s="32" t="n">
-        <v>-6.4</v>
+        <v>-18.6</v>
       </c>
       <c r="P119" s="32" t="n">
-        <v>-1.9</v>
+        <v>-5.3</v>
       </c>
       <c r="Q119" s="32" t="n">
-        <v>-4.59</v>
+        <v>-14.53</v>
       </c>
       <c r="R119" s="23" t="inlineStr">
         <is>
@@ -13097,13 +13101,13 @@
       </c>
       <c r="N121" s="2" t="n"/>
       <c r="O121" s="32" t="n">
-        <v>-11.5</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="P121" s="32" t="n">
-        <v>2.6</v>
+        <v>-4.4</v>
       </c>
       <c r="Q121" s="32" t="n">
-        <v>-5.42</v>
+        <v>-6.62</v>
       </c>
       <c r="R121" s="23" t="inlineStr">
         <is>
@@ -13221,10 +13225,10 @@
       </c>
       <c r="N122" s="2" t="n"/>
       <c r="O122" s="32" t="n">
-        <v>-22.1</v>
+        <v>-16.2</v>
       </c>
       <c r="P122" s="32" t="n">
-        <v>-5.8</v>
+        <v>-2.8</v>
       </c>
       <c r="Q122" s="32" t="n"/>
       <c r="R122" s="23" t="inlineStr">
@@ -13449,13 +13453,13 @@
       </c>
       <c r="N124" s="2" t="n"/>
       <c r="O124" s="32" t="n">
-        <v>-11</v>
+        <v>-8.6</v>
       </c>
       <c r="P124" s="32" t="n">
-        <v>5.3</v>
+        <v>8.5</v>
       </c>
       <c r="Q124" s="32" t="n">
-        <v>-3.12</v>
+        <v>-1.14</v>
       </c>
       <c r="R124" s="23" t="inlineStr">
         <is>
@@ -13573,13 +13577,13 @@
       </c>
       <c r="N125" s="2" t="n"/>
       <c r="O125" s="32" t="n">
-        <v>-3.5</v>
+        <v>-3</v>
       </c>
       <c r="P125" s="32" t="n">
-        <v>14.4</v>
+        <v>16.5</v>
       </c>
       <c r="Q125" s="32" t="n">
-        <v>4.66</v>
+        <v>5.59</v>
       </c>
       <c r="R125" s="23" t="inlineStr">
         <is>
@@ -13673,10 +13677,10 @@
       </c>
       <c r="N126" s="2" t="n"/>
       <c r="O126" s="32" t="n">
-        <v>-2.3</v>
+        <v>-1.4</v>
       </c>
       <c r="P126" s="32" t="n">
-        <v>15.2</v>
+        <v>16.4</v>
       </c>
       <c r="Q126" s="32" t="n"/>
       <c r="R126" s="23" t="inlineStr">
@@ -13783,13 +13787,13 @@
       </c>
       <c r="N127" s="2" t="n"/>
       <c r="O127" s="32" t="n">
-        <v>-7.5</v>
+        <v>-7.3</v>
       </c>
       <c r="P127" s="32" t="n">
-        <v>10.2</v>
+        <v>15.7</v>
       </c>
       <c r="Q127" s="32" t="n">
-        <v>-0.16</v>
+        <v>2.52</v>
       </c>
       <c r="R127" s="23" t="inlineStr">
         <is>
@@ -13903,10 +13907,10 @@
       </c>
       <c r="N128" s="2" t="n"/>
       <c r="O128" s="32" t="n">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="P128" s="32" t="n">
-        <v>15.5</v>
+        <v>17.3</v>
       </c>
       <c r="Q128" s="32" t="n"/>
       <c r="R128" s="23" t="inlineStr">
@@ -14013,13 +14017,13 @@
       </c>
       <c r="N129" s="2" t="n"/>
       <c r="O129" s="32" t="n">
-        <v>-8.300000000000001</v>
+        <v>-6.8</v>
       </c>
       <c r="P129" s="32" t="n">
-        <v>13.7</v>
+        <v>15.7</v>
       </c>
       <c r="Q129" s="32" t="n">
-        <v>0.85</v>
+        <v>3.64</v>
       </c>
       <c r="R129" s="23" t="inlineStr">
         <is>
@@ -14133,13 +14137,13 @@
       </c>
       <c r="N130" s="2" t="n"/>
       <c r="O130" s="32" t="n">
-        <v>-7.1</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="P130" s="32" t="n">
-        <v>6.6</v>
+        <v>13.9</v>
       </c>
       <c r="Q130" s="32" t="n">
-        <v>-0.36</v>
+        <v>1.32</v>
       </c>
       <c r="R130" s="23" t="inlineStr">
         <is>
@@ -14253,13 +14257,13 @@
       </c>
       <c r="N131" s="2" t="n"/>
       <c r="O131" s="32" t="n">
-        <v>8.1</v>
+        <v>5.9</v>
       </c>
       <c r="P131" s="32" t="n">
-        <v>15.9</v>
+        <v>19.4</v>
       </c>
       <c r="Q131" s="32" t="n">
-        <v>11.27</v>
+        <v>12.25</v>
       </c>
       <c r="R131" s="23" t="inlineStr">
         <is>
@@ -14369,13 +14373,13 @@
       </c>
       <c r="N132" s="2" t="n"/>
       <c r="O132" s="32" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="P132" s="32" t="n">
-        <v>18.8</v>
+        <v>20</v>
       </c>
       <c r="Q132" s="32" t="n">
-        <v>10.08</v>
+        <v>11.26</v>
       </c>
       <c r="R132" s="23" t="inlineStr">
         <is>
@@ -14485,13 +14489,13 @@
       </c>
       <c r="N133" s="2" t="n"/>
       <c r="O133" s="32" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P133" s="32" t="n">
-        <v>15.7</v>
+        <v>19</v>
       </c>
       <c r="Q133" s="32" t="n">
-        <v>9.59</v>
+        <v>11.01</v>
       </c>
       <c r="R133" s="23" t="inlineStr">
         <is>
@@ -14707,13 +14711,13 @@
       </c>
       <c r="N135" s="2" t="n"/>
       <c r="O135" s="32" t="n">
-        <v>4</v>
+        <v>7.4</v>
       </c>
       <c r="P135" s="32" t="n">
-        <v>9.9</v>
+        <v>11.9</v>
       </c>
       <c r="Q135" s="32" t="n">
-        <v>6.9</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="R135" s="23" t="inlineStr">
         <is>
@@ -14823,13 +14827,13 @@
       </c>
       <c r="N136" s="2" t="n"/>
       <c r="O136" s="32" t="n">
-        <v>3.1</v>
+        <v>9.4</v>
       </c>
       <c r="P136" s="32" t="n">
-        <v>14.8</v>
+        <v>14.2</v>
       </c>
       <c r="Q136" s="32" t="n">
-        <v>8.69</v>
+        <v>11.1</v>
       </c>
       <c r="R136" s="23" t="inlineStr">
         <is>
@@ -14939,13 +14943,13 @@
       </c>
       <c r="N137" s="2" t="n"/>
       <c r="O137" s="32" t="n">
-        <v>-0.3</v>
+        <v>2.4</v>
       </c>
       <c r="P137" s="32" t="n">
-        <v>17.3</v>
+        <v>18.4</v>
       </c>
       <c r="Q137" s="32" t="n">
-        <v>7.19</v>
+        <v>9.1</v>
       </c>
       <c r="R137" s="23" t="inlineStr">
         <is>
@@ -15055,10 +15059,10 @@
       </c>
       <c r="N138" s="2" t="n"/>
       <c r="O138" s="32" t="n">
-        <v>-1.5</v>
+        <v>-0.2</v>
       </c>
       <c r="P138" s="32" t="n">
-        <v>16.9</v>
+        <v>19.9</v>
       </c>
       <c r="Q138" s="32" t="n"/>
       <c r="R138" s="23" t="inlineStr">
@@ -15169,13 +15173,13 @@
       </c>
       <c r="N139" s="2" t="n"/>
       <c r="O139" s="32" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="P139" s="32" t="n">
-        <v>16.4</v>
+        <v>19</v>
       </c>
       <c r="Q139" s="32" t="n">
-        <v>7.94</v>
+        <v>10.85</v>
       </c>
       <c r="R139" s="23" t="inlineStr">
         <is>
@@ -15285,13 +15289,13 @@
       </c>
       <c r="N140" s="2" t="n"/>
       <c r="O140" s="32" t="n">
-        <v>3</v>
+        <v>5.7</v>
       </c>
       <c r="P140" s="32" t="n">
-        <v>17.1</v>
+        <v>14</v>
       </c>
       <c r="Q140" s="32" t="n">
-        <v>9.6</v>
+        <v>10.34</v>
       </c>
       <c r="R140" s="23" t="inlineStr">
         <is>
@@ -15503,13 +15507,13 @@
       </c>
       <c r="N142" s="2" t="n"/>
       <c r="O142" s="32" t="n">
-        <v>10.9</v>
+        <v>11.7</v>
       </c>
       <c r="P142" s="32" t="n">
-        <v>19.3</v>
+        <v>23.6</v>
       </c>
       <c r="Q142" s="32" t="n">
-        <v>13.54</v>
+        <v>16.15</v>
       </c>
       <c r="R142" s="23" t="inlineStr">
         <is>
@@ -15619,13 +15623,13 @@
       </c>
       <c r="N143" s="2" t="n"/>
       <c r="O143" s="32" t="n">
-        <v>14.9</v>
+        <v>14.5</v>
       </c>
       <c r="P143" s="32" t="n">
-        <v>21.7</v>
+        <v>25.9</v>
       </c>
       <c r="Q143" s="32" t="n">
-        <v>17.96</v>
+        <v>18.85</v>
       </c>
       <c r="R143" s="23" t="inlineStr">
         <is>
@@ -15935,13 +15939,13 @@
       </c>
       <c r="N146" s="2" t="n"/>
       <c r="O146" s="32" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="P146" s="32" t="n">
-        <v>26.3</v>
+        <v>27.3</v>
       </c>
       <c r="Q146" s="32" t="n">
-        <v>23.29</v>
+        <v>24.02</v>
       </c>
       <c r="R146" s="23" t="inlineStr">
         <is>
@@ -16043,13 +16047,13 @@
       </c>
       <c r="N147" s="2" t="n"/>
       <c r="O147" s="32" t="n">
-        <v>11.9</v>
+        <v>15.2</v>
       </c>
       <c r="P147" s="32" t="n">
-        <v>17</v>
+        <v>21.5</v>
       </c>
       <c r="Q147" s="32" t="n">
-        <v>13.74</v>
+        <v>17.85</v>
       </c>
       <c r="R147" s="23" t="inlineStr">
         <is>
@@ -16261,13 +16265,13 @@
       </c>
       <c r="N149" s="2" t="n"/>
       <c r="O149" s="32" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="P149" s="32" t="n">
         <v>20.8</v>
       </c>
       <c r="Q149" s="32" t="n">
-        <v>13.89</v>
+        <v>13.49</v>
       </c>
       <c r="R149" s="23" t="inlineStr">
         <is>
@@ -16377,13 +16381,13 @@
       </c>
       <c r="N150" s="2" t="n"/>
       <c r="O150" s="32" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="P150" s="32" t="n">
-        <v>11.8</v>
+        <v>18.7</v>
       </c>
       <c r="Q150" s="32" t="n">
-        <v>8.619999999999999</v>
+        <v>10.91</v>
       </c>
       <c r="R150" s="23" t="inlineStr">
         <is>
@@ -16493,13 +16497,13 @@
       </c>
       <c r="N151" s="2" t="n"/>
       <c r="O151" s="32" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="P151" s="32" t="n">
-        <v>14.1</v>
+        <v>18.8</v>
       </c>
       <c r="Q151" s="32" t="n">
-        <v>11.04</v>
+        <v>12.11</v>
       </c>
       <c r="R151" s="23" t="inlineStr">
         <is>
@@ -16699,13 +16703,13 @@
       </c>
       <c r="N153" s="2" t="n"/>
       <c r="O153" s="32" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="P153" s="32" t="n">
-        <v>17.2</v>
+        <v>18.9</v>
       </c>
       <c r="Q153" s="32" t="n">
-        <v>10.51</v>
+        <v>11.56</v>
       </c>
       <c r="R153" s="23" t="inlineStr">
         <is>
@@ -16819,13 +16823,13 @@
       </c>
       <c r="N154" s="2" t="n"/>
       <c r="O154" s="32" t="n">
-        <v>0.4</v>
+        <v>-4.4</v>
       </c>
       <c r="P154" s="32" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="Q154" s="32" t="n">
-        <v>4.46</v>
+        <v>2.06</v>
       </c>
       <c r="R154" s="23" t="inlineStr">
         <is>
@@ -17021,10 +17025,10 @@
       </c>
       <c r="N156" s="2" t="n"/>
       <c r="O156" s="32" t="n">
-        <v>-17.6</v>
+        <v>-16.3</v>
       </c>
       <c r="P156" s="32" t="n">
-        <v>7.3</v>
+        <v>12.3</v>
       </c>
       <c r="Q156" s="32" t="n"/>
       <c r="R156" s="23" t="inlineStr">
@@ -17127,10 +17131,10 @@
       </c>
       <c r="N157" s="2" t="n"/>
       <c r="O157" s="32" t="n">
-        <v>4.3</v>
+        <v>7</v>
       </c>
       <c r="P157" s="32" t="n">
-        <v>14.9</v>
+        <v>18.6</v>
       </c>
       <c r="Q157" s="32" t="n"/>
       <c r="R157" s="23" t="inlineStr">
@@ -17511,10 +17515,10 @@
       </c>
       <c r="N161" s="2" t="n"/>
       <c r="O161" s="32" t="n">
-        <v>-4.5</v>
+        <v>-5.2</v>
       </c>
       <c r="P161" s="32" t="n">
-        <v>7.4</v>
+        <v>16.2</v>
       </c>
       <c r="Q161" s="32" t="n"/>
       <c r="R161" s="23" t="inlineStr">
@@ -17624,8 +17628,12 @@
           <t>⚡</t>
         </is>
       </c>
-      <c r="O162" s="32" t="n"/>
-      <c r="P162" s="32" t="n"/>
+      <c r="O162" s="32" t="n">
+        <v>-29.5</v>
+      </c>
+      <c r="P162" s="32" t="n">
+        <v>-1.5</v>
+      </c>
       <c r="Q162" s="32" t="n"/>
       <c r="R162" s="23" t="inlineStr">
         <is>
@@ -17951,10 +17959,10 @@
         </is>
       </c>
       <c r="O165" s="32" t="n">
-        <v>-30.5</v>
+        <v>-30.1</v>
       </c>
       <c r="P165" s="32" t="n">
-        <v>-9.6</v>
+        <v>-6.6</v>
       </c>
       <c r="Q165" s="32" t="n"/>
       <c r="R165" s="23" t="inlineStr">
@@ -18273,10 +18281,10 @@
         </is>
       </c>
       <c r="O168" s="32" t="n">
-        <v>-9.300000000000001</v>
+        <v>-30.2</v>
       </c>
       <c r="P168" s="32" t="n">
-        <v>-0.4</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="Q168" s="32" t="n"/>
       <c r="R168" s="23" t="inlineStr">
@@ -18387,10 +18395,10 @@
         </is>
       </c>
       <c r="O169" s="32" t="n">
-        <v>-16.6</v>
+        <v>-22.7</v>
       </c>
       <c r="P169" s="32" t="n">
-        <v>-3.9</v>
+        <v>-7</v>
       </c>
       <c r="Q169" s="32" t="n"/>
       <c r="R169" s="23" t="inlineStr">
@@ -18705,10 +18713,10 @@
       </c>
       <c r="N172" s="3" t="n"/>
       <c r="O172" s="32" t="n">
-        <v>-21.6</v>
+        <v>-19</v>
       </c>
       <c r="P172" s="32" t="n">
-        <v>-2.7</v>
+        <v>-0.7</v>
       </c>
       <c r="Q172" s="32" t="n"/>
       <c r="R172" s="23" t="inlineStr">
@@ -18815,10 +18823,10 @@
       </c>
       <c r="N173" s="2" t="n"/>
       <c r="O173" s="32" t="n">
-        <v>-21.2</v>
+        <v>-19.2</v>
       </c>
       <c r="P173" s="32" t="n">
-        <v>1.7</v>
+        <v>7.3</v>
       </c>
       <c r="Q173" s="32" t="n"/>
       <c r="R173" s="23" t="inlineStr">
@@ -19133,10 +19141,10 @@
       </c>
       <c r="N176" s="2" t="n"/>
       <c r="O176" s="32" t="n">
-        <v>-1.3</v>
+        <v>1.8</v>
       </c>
       <c r="P176" s="32" t="n">
-        <v>7.1</v>
+        <v>5.8</v>
       </c>
       <c r="Q176" s="32" t="n"/>
       <c r="R176" s="23" t="inlineStr">
@@ -19231,10 +19239,10 @@
       </c>
       <c r="N177" s="2" t="n"/>
       <c r="O177" s="32" t="n">
-        <v>-19.1</v>
+        <v>-16.5</v>
       </c>
       <c r="P177" s="32" t="n">
-        <v>-11.9</v>
+        <v>-7</v>
       </c>
       <c r="Q177" s="32" t="n"/>
       <c r="R177" s="23" t="inlineStr">
@@ -19336,8 +19344,12 @@
         </is>
       </c>
       <c r="N178" s="2" t="n"/>
-      <c r="O178" s="32" t="n"/>
-      <c r="P178" s="32" t="n"/>
+      <c r="O178" s="32" t="n">
+        <v>-30.6</v>
+      </c>
+      <c r="P178" s="32" t="n">
+        <v>-9.800000000000001</v>
+      </c>
       <c r="Q178" s="32" t="n"/>
       <c r="R178" s="23" t="inlineStr">
         <is>
@@ -20110,13 +20122,13 @@
       </c>
       <c r="N186" s="2" t="n"/>
       <c r="O186" s="32" t="n">
-        <v>-45.3</v>
+        <v>-40.2</v>
       </c>
       <c r="P186" s="32" t="n">
-        <v>-29.5</v>
+        <v>-31.8</v>
       </c>
       <c r="Q186" s="32" t="n">
-        <v>-36.11</v>
+        <v>-35.5</v>
       </c>
       <c r="R186" s="23" t="inlineStr">
         <is>
@@ -20219,13 +20231,13 @@
       </c>
       <c r="N187" s="2" t="n"/>
       <c r="O187" s="32" t="n">
-        <v>-42.2</v>
+        <v>-44.5</v>
       </c>
       <c r="P187" s="32" t="n">
-        <v>-28.8</v>
+        <v>-32.8</v>
       </c>
       <c r="Q187" s="32" t="n">
-        <v>-36.4</v>
+        <v>-40.07</v>
       </c>
       <c r="R187" s="23" t="inlineStr">
         <is>
@@ -20323,13 +20335,13 @@
       </c>
       <c r="N188" s="2" t="n"/>
       <c r="O188" s="32" t="n">
-        <v>-44.4</v>
+        <v>-41.2</v>
       </c>
       <c r="P188" s="32" t="n">
-        <v>-29.6</v>
+        <v>-32.8</v>
       </c>
       <c r="Q188" s="32" t="n">
-        <v>-36.85</v>
+        <v>-35.48</v>
       </c>
       <c r="R188" s="23" t="inlineStr">
         <is>
@@ -20427,13 +20439,13 @@
       </c>
       <c r="N189" s="2" t="n"/>
       <c r="O189" s="32" t="n">
-        <v>-46</v>
+        <v>-42.6</v>
       </c>
       <c r="P189" s="32" t="n">
-        <v>-26.5</v>
+        <v>-26.2</v>
       </c>
       <c r="Q189" s="32" t="n">
-        <v>-38.94</v>
+        <v>-34.17</v>
       </c>
       <c r="R189" s="23" t="inlineStr">
         <is>
@@ -20531,13 +20543,13 @@
       </c>
       <c r="N190" s="2" t="n"/>
       <c r="O190" s="32" t="n">
-        <v>-44.6</v>
+        <v>-47.6</v>
       </c>
       <c r="P190" s="32" t="n">
-        <v>-33.7</v>
+        <v>-38.5</v>
       </c>
       <c r="Q190" s="32" t="n">
-        <v>-41.58</v>
+        <v>-44.22</v>
       </c>
       <c r="R190" s="23" t="inlineStr">
         <is>
@@ -20635,13 +20647,13 @@
       </c>
       <c r="N191" s="2" t="n"/>
       <c r="O191" s="32" t="n">
-        <v>-43.4</v>
+        <v>-40</v>
       </c>
       <c r="P191" s="32" t="n">
-        <v>-32</v>
+        <v>-29.4</v>
       </c>
       <c r="Q191" s="32" t="n">
-        <v>-36.88</v>
+        <v>-35.3</v>
       </c>
       <c r="R191" s="23" t="inlineStr">
         <is>
@@ -20735,13 +20747,13 @@
       </c>
       <c r="N192" s="2" t="n"/>
       <c r="O192" s="32" t="n">
-        <v>-37.6</v>
+        <v>-41.6</v>
       </c>
       <c r="P192" s="32" t="n">
-        <v>-26.1</v>
+        <v>-32.5</v>
       </c>
       <c r="Q192" s="32" t="n">
-        <v>-32.36</v>
+        <v>-38.27</v>
       </c>
       <c r="R192" s="23" t="inlineStr">
         <is>
@@ -20840,13 +20852,13 @@
       </c>
       <c r="N193" s="2" t="n"/>
       <c r="O193" s="32" t="n">
-        <v>-35.8</v>
+        <v>-39.8</v>
       </c>
       <c r="P193" s="32" t="n">
-        <v>-29.4</v>
+        <v>-30.4</v>
       </c>
       <c r="Q193" s="32" t="n">
-        <v>-32.31</v>
+        <v>-36.36</v>
       </c>
       <c r="R193" s="23" t="inlineStr">
         <is>
@@ -20948,10 +20960,10 @@
       </c>
       <c r="N194" s="2" t="n"/>
       <c r="O194" s="32" t="n">
+        <v>-47.1</v>
+      </c>
+      <c r="P194" s="32" t="n">
         <v>-41.3</v>
-      </c>
-      <c r="P194" s="32" t="n">
-        <v>-29</v>
       </c>
       <c r="Q194" s="32" t="n"/>
       <c r="R194" s="23" t="inlineStr">
@@ -21046,13 +21058,13 @@
       </c>
       <c r="N195" s="2" t="n"/>
       <c r="O195" s="32" t="n">
-        <v>-38</v>
+        <v>-44.5</v>
       </c>
       <c r="P195" s="32" t="n">
-        <v>-20.4</v>
+        <v>-33.4</v>
       </c>
       <c r="Q195" s="32" t="n">
-        <v>-30.2</v>
+        <v>-39.51</v>
       </c>
       <c r="R195" s="23" t="inlineStr">
         <is>
@@ -21150,13 +21162,13 @@
       </c>
       <c r="N196" s="2" t="n"/>
       <c r="O196" s="32" t="n">
-        <v>-43.4</v>
+        <v>-40.2</v>
       </c>
       <c r="P196" s="32" t="n">
-        <v>-28.8</v>
+        <v>-26.5</v>
       </c>
       <c r="Q196" s="32" t="n">
-        <v>-36.01</v>
+        <v>-33.42</v>
       </c>
       <c r="R196" s="23" t="inlineStr">
         <is>
@@ -21254,13 +21266,13 @@
       </c>
       <c r="N197" s="24" t="n"/>
       <c r="O197" s="32" t="n">
-        <v>-22.3</v>
+        <v>-21.3</v>
       </c>
       <c r="P197" s="32" t="n">
-        <v>-13.9</v>
+        <v>-13.3</v>
       </c>
       <c r="Q197" s="32" t="n">
-        <v>-17.28</v>
+        <v>-16.99</v>
       </c>
       <c r="R197" s="23" t="inlineStr">
         <is>
@@ -22059,12 +22071,8 @@
         </is>
       </c>
       <c r="N205" s="2" t="n"/>
-      <c r="O205" s="32" t="n">
-        <v>-33.2</v>
-      </c>
-      <c r="P205" s="32" t="n">
-        <v>-5.3</v>
-      </c>
+      <c r="O205" s="32" t="n"/>
+      <c r="P205" s="32" t="n"/>
       <c r="Q205" s="32" t="n"/>
       <c r="R205" s="23" t="inlineStr">
         <is>
@@ -23065,8 +23073,12 @@
         </is>
       </c>
       <c r="N215" s="2" t="n"/>
-      <c r="O215" s="32" t="n"/>
-      <c r="P215" s="32" t="n"/>
+      <c r="O215" s="32" t="n">
+        <v>-30.7</v>
+      </c>
+      <c r="P215" s="32" t="n">
+        <v>-5.8</v>
+      </c>
       <c r="Q215" s="32" t="n"/>
       <c r="R215" s="23" t="inlineStr">
         <is>
@@ -26184,13 +26196,13 @@
       </c>
       <c r="N247" s="2" t="n"/>
       <c r="O247" s="32" t="n">
-        <v>-23.3</v>
+        <v>-21.2</v>
       </c>
       <c r="P247" s="32" t="n">
-        <v>-16.1</v>
+        <v>-9.4</v>
       </c>
       <c r="Q247" s="32" t="n">
-        <v>-19.26</v>
+        <v>-16.39</v>
       </c>
       <c r="R247" s="23" t="inlineStr">
         <is>
@@ -26296,13 +26308,13 @@
       </c>
       <c r="N248" s="2" t="n"/>
       <c r="O248" s="32" t="n">
+        <v>-31.7</v>
+      </c>
+      <c r="P248" s="32" t="n">
         <v>-13.8</v>
       </c>
-      <c r="P248" s="32" t="n">
-        <v>1.9</v>
-      </c>
       <c r="Q248" s="32" t="n">
-        <v>-7.21</v>
+        <v>-24.56</v>
       </c>
       <c r="R248" s="23" t="inlineStr">
         <is>
@@ -26404,13 +26416,13 @@
       </c>
       <c r="N249" s="2" t="n"/>
       <c r="O249" s="32" t="n">
-        <v>-7.8</v>
+        <v>-4.5</v>
       </c>
       <c r="P249" s="32" t="n">
-        <v>-0.2</v>
+        <v>5.8</v>
       </c>
       <c r="Q249" s="32" t="n">
-        <v>-4.81</v>
+        <v>-0.05</v>
       </c>
       <c r="R249" s="23" t="inlineStr">
         <is>
@@ -26516,13 +26528,13 @@
       </c>
       <c r="N250" s="2" t="n"/>
       <c r="O250" s="32" t="n">
-        <v>-21.1</v>
+        <v>-13.5</v>
       </c>
       <c r="P250" s="32" t="n">
-        <v>-10.5</v>
+        <v>-5.6</v>
       </c>
       <c r="Q250" s="32" t="n">
-        <v>-16.05</v>
+        <v>-9.279999999999999</v>
       </c>
       <c r="R250" s="23" t="inlineStr">
         <is>
@@ -26636,7 +26648,7 @@
         </is>
       </c>
       <c r="O251" s="32" t="n">
-        <v>-13.5</v>
+        <v>-26.5</v>
       </c>
       <c r="P251" s="32" t="n">
         <v>-7.1</v>
@@ -26734,13 +26746,13 @@
       </c>
       <c r="N252" s="2" t="n"/>
       <c r="O252" s="32" t="n">
-        <v>-10.8</v>
+        <v>-15.3</v>
       </c>
       <c r="P252" s="32" t="n">
-        <v>4.9</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="Q252" s="32" t="n">
-        <v>-3.26</v>
+        <v>-12.16</v>
       </c>
       <c r="R252" s="23" t="inlineStr">
         <is>
@@ -26932,13 +26944,13 @@
       </c>
       <c r="N254" s="2" t="n"/>
       <c r="O254" s="32" t="n">
-        <v>-48.1</v>
+        <v>-47</v>
       </c>
       <c r="P254" s="32" t="n">
-        <v>-41.7</v>
+        <v>-40.1</v>
       </c>
       <c r="Q254" s="32" t="n">
-        <v>-45.24</v>
+        <v>-43.44</v>
       </c>
       <c r="R254" s="23" t="inlineStr">
         <is>
@@ -27506,13 +27518,13 @@
       </c>
       <c r="N260" s="2" t="n"/>
       <c r="O260" s="32" t="n">
-        <v>-16.3</v>
+        <v>-27.8</v>
       </c>
       <c r="P260" s="32" t="n">
-        <v>-5</v>
+        <v>-7.7</v>
       </c>
       <c r="Q260" s="32" t="n">
-        <v>-10.11</v>
+        <v>-17.4</v>
       </c>
       <c r="R260" s="23" t="inlineStr">
         <is>
@@ -27614,13 +27626,13 @@
       </c>
       <c r="N261" s="2" t="n"/>
       <c r="O261" s="32" t="n">
-        <v>-22.6</v>
+        <v>-16.8</v>
       </c>
       <c r="P261" s="32" t="n">
-        <v>-3.7</v>
+        <v>-4.6</v>
       </c>
       <c r="Q261" s="32" t="n">
-        <v>-14.88</v>
+        <v>-11.26</v>
       </c>
       <c r="R261" s="23" t="inlineStr">
         <is>
@@ -27726,13 +27738,13 @@
       </c>
       <c r="N262" s="2" t="n"/>
       <c r="O262" s="32" t="n">
-        <v>-15.6</v>
+        <v>-21.8</v>
       </c>
       <c r="P262" s="32" t="n">
-        <v>-6.3</v>
+        <v>-12</v>
       </c>
       <c r="Q262" s="32" t="n">
-        <v>-13.97</v>
+        <v>-17.66</v>
       </c>
       <c r="R262" s="23" t="inlineStr">
         <is>
@@ -27932,13 +27944,13 @@
       </c>
       <c r="N264" s="2" t="n"/>
       <c r="O264" s="32" t="n">
-        <v>-9.699999999999999</v>
+        <v>-12.4</v>
       </c>
       <c r="P264" s="32" t="n">
-        <v>-0.4</v>
+        <v>-1.7</v>
       </c>
       <c r="Q264" s="32" t="n">
-        <v>-6.2</v>
+        <v>-6.78</v>
       </c>
       <c r="R264" s="23" t="inlineStr">
         <is>
@@ -28052,10 +28064,10 @@
       </c>
       <c r="N265" s="2" t="n"/>
       <c r="O265" s="32" t="n">
-        <v>-46.8</v>
+        <v>-53.6</v>
       </c>
       <c r="P265" s="32" t="n">
-        <v>-38.7</v>
+        <v>-42.2</v>
       </c>
       <c r="Q265" s="32" t="n"/>
       <c r="R265" s="23" t="inlineStr">
@@ -29092,13 +29104,13 @@
       </c>
       <c r="N276" s="2" t="n"/>
       <c r="O276" s="32" t="n">
-        <v>-43.7</v>
+        <v>-49</v>
       </c>
       <c r="P276" s="32" t="n">
-        <v>-32.9</v>
+        <v>-40.3</v>
       </c>
       <c r="Q276" s="32" t="n">
-        <v>-40.14</v>
+        <v>-45.66</v>
       </c>
       <c r="R276" s="23" t="inlineStr">
         <is>
@@ -29685,37 +29697,97 @@
       <c r="AH282" s="2" t="n"/>
     </row>
     <row r="283" ht="24" customHeight="1" s="44">
-      <c r="A283" s="2" t="n"/>
+      <c r="A283" s="2" t="n">
+        <v>282</v>
+      </c>
       <c r="B283" s="2" t="n"/>
-      <c r="C283" s="27" t="n"/>
+      <c r="C283" s="27" t="n">
+        <v>50779</v>
+      </c>
       <c r="D283" s="2" t="n"/>
-      <c r="E283" s="4" t="n"/>
+      <c r="E283" s="4" t="n">
+        <v>99999</v>
+      </c>
       <c r="F283" s="39" t="n"/>
       <c r="G283" s="29" t="n"/>
       <c r="H283" s="29" t="n"/>
       <c r="I283" s="2" t="n"/>
-      <c r="J283" s="27" t="n"/>
-      <c r="K283" s="4" t="n"/>
+      <c r="J283" s="27" t="n">
+        <v>12</v>
+      </c>
+      <c r="K283" s="31" t="inlineStr">
+        <is>
+          <t>🇨🇳</t>
+        </is>
+      </c>
       <c r="L283" s="2" t="n"/>
-      <c r="M283" s="14" t="n"/>
+      <c r="M283" s="14" t="inlineStr">
+        <is>
+          <t>抚远</t>
+        </is>
+      </c>
       <c r="N283" s="2" t="n"/>
-      <c r="O283" s="32" t="n"/>
-      <c r="P283" s="32" t="n"/>
+      <c r="O283" s="32" t="n">
+        <v>-27.5</v>
+      </c>
+      <c r="P283" s="32" t="n">
+        <v>-8</v>
+      </c>
       <c r="Q283" s="32" t="n"/>
-      <c r="R283" s="23" t="n"/>
+      <c r="R283" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S283" s="37" t="n"/>
-      <c r="T283" s="41" t="n"/>
-      <c r="U283" s="2" t="n"/>
-      <c r="V283" s="4" t="n"/>
-      <c r="W283" s="4" t="n"/>
-      <c r="X283" s="4" t="n"/>
+      <c r="T283" s="41" t="inlineStr">
+        <is>
+          <t>佳木斯</t>
+        </is>
+      </c>
+      <c r="U283" s="2" t="inlineStr">
+        <is>
+          <t>黑龙江</t>
+        </is>
+      </c>
+      <c r="V283" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="W283" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="X283" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="Y283" s="4" t="n"/>
-      <c r="Z283" s="2" t="n"/>
-      <c r="AA283" s="2" t="n"/>
+      <c r="Z283" s="2" t="inlineStr">
+        <is>
+          <t>佳木斯市</t>
+        </is>
+      </c>
+      <c r="AA283" s="2" t="inlineStr">
+        <is>
+          <t>抚远县</t>
+        </is>
+      </c>
       <c r="AB283" s="2" t="n"/>
       <c r="AC283" s="2" t="n"/>
-      <c r="AD283" s="2" t="n"/>
-      <c r="AE283" s="4" t="n"/>
+      <c r="AD283" s="2" t="inlineStr">
+        <is>
+          <t>中国</t>
+        </is>
+      </c>
+      <c r="AE283" s="4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
       <c r="AF283" s="4" t="n"/>
       <c r="AG283" s="2" t="n"/>
       <c r="AH283" s="2" t="n"/>

--- a/气象/For_Python_站点信息和记录.xlsx
+++ b/气象/For_Python_站点信息和记录.xlsx
@@ -790,8 +790,8 @@
     <col width="18.59765625" customWidth="1" style="8" min="25" max="25"/>
     <col width="12.59765625" customWidth="1" style="5" min="26" max="30"/>
     <col width="12.59765625" customWidth="1" style="8" min="31" max="32"/>
-    <col width="12.59765625" customWidth="1" style="5" min="33" max="248"/>
-    <col width="12.59765625" customWidth="1" style="5" min="249" max="16384"/>
+    <col width="12.59765625" customWidth="1" style="5" min="33" max="250"/>
+    <col width="12.59765625" customWidth="1" style="5" min="251" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.75" customFormat="1" customHeight="1" s="11">
@@ -1014,13 +1014,13 @@
         </is>
       </c>
       <c r="O2" s="32" t="n">
-        <v>-31</v>
+        <v>-38.3</v>
       </c>
       <c r="P2" s="32" t="n">
-        <v>-20.7</v>
+        <v>-24.2</v>
       </c>
       <c r="Q2" s="32" t="n">
-        <v>-25.28</v>
+        <v>-31.73</v>
       </c>
       <c r="R2" s="23" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="T2" s="41" t="inlineStr">
         <is>
-          <t>东亚昼温王&lt;br&gt;特斯河</t>
+          <t>东亚昼温王&lt;br&gt;特斯河 乌布苏省</t>
         </is>
       </c>
       <c r="U2" s="2" t="inlineStr">
@@ -1124,10 +1124,10 @@
         </is>
       </c>
       <c r="O3" s="32" t="n">
-        <v>-31.2</v>
+        <v>-39.2</v>
       </c>
       <c r="P3" s="32" t="n">
-        <v>-18.5</v>
+        <v>-23.6</v>
       </c>
       <c r="Q3" s="32" t="n"/>
       <c r="R3" s="23" t="n"/>
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="O4" s="32" t="n">
-        <v>-31.1</v>
+        <v>-38.3</v>
       </c>
       <c r="P4" s="32" t="n">
-        <v>-17.1</v>
+        <v>-20.6</v>
       </c>
       <c r="Q4" s="32" t="n"/>
       <c r="R4" s="23" t="n"/>
@@ -1320,10 +1320,10 @@
       </c>
       <c r="N5" s="2" t="n"/>
       <c r="O5" s="32" t="n">
-        <v>-22.2</v>
+        <v>-35.5</v>
       </c>
       <c r="P5" s="32" t="n">
-        <v>-12.5</v>
+        <v>-19.8</v>
       </c>
       <c r="Q5" s="32" t="n"/>
       <c r="R5" s="23" t="n"/>
@@ -1420,10 +1420,10 @@
         </is>
       </c>
       <c r="O6" s="32" t="n">
-        <v>-20.6</v>
+        <v>-36.4</v>
       </c>
       <c r="P6" s="32" t="n">
-        <v>-11</v>
+        <v>-18.6</v>
       </c>
       <c r="Q6" s="32" t="n"/>
       <c r="R6" s="23" t="n"/>
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="O7" s="32" t="n">
-        <v>-20.7</v>
+        <v>-32.3</v>
       </c>
       <c r="P7" s="32" t="n">
-        <v>-16</v>
+        <v>-19.9</v>
       </c>
       <c r="Q7" s="32" t="n"/>
       <c r="R7" s="23" t="n"/>
@@ -1628,13 +1628,13 @@
       </c>
       <c r="N8" s="2" t="n"/>
       <c r="O8" s="32" t="n">
-        <v>-18.2</v>
+        <v>-31.2</v>
       </c>
       <c r="P8" s="32" t="n">
-        <v>-4.2</v>
+        <v>-12.9</v>
       </c>
       <c r="Q8" s="32" t="n">
-        <v>-11.75</v>
+        <v>-21.89</v>
       </c>
       <c r="R8" s="23" t="inlineStr">
         <is>
@@ -1740,13 +1740,13 @@
       </c>
       <c r="N9" s="2" t="n"/>
       <c r="O9" s="32" t="n">
-        <v>-30.5</v>
+        <v>-34.4</v>
       </c>
       <c r="P9" s="32" t="n">
-        <v>-17.1</v>
+        <v>-19.5</v>
       </c>
       <c r="Q9" s="32" t="n">
-        <v>-24.5</v>
+        <v>-28.69</v>
       </c>
       <c r="R9" s="23" t="inlineStr">
         <is>
@@ -1856,13 +1856,13 @@
       </c>
       <c r="N10" s="3" t="n"/>
       <c r="O10" s="32" t="n">
-        <v>-24.6</v>
+        <v>-38.5</v>
       </c>
       <c r="P10" s="32" t="n">
-        <v>-16.1</v>
+        <v>-21.1</v>
       </c>
       <c r="Q10" s="32" t="n">
-        <v>-21.56</v>
+        <v>-30.19</v>
       </c>
       <c r="R10" s="23" t="inlineStr">
         <is>
@@ -1972,13 +1972,13 @@
         </is>
       </c>
       <c r="O11" s="32" t="n">
-        <v>-25</v>
+        <v>-38.2</v>
       </c>
       <c r="P11" s="32" t="n">
-        <v>-6.8</v>
+        <v>-17.4</v>
       </c>
       <c r="Q11" s="32" t="n">
-        <v>-16.26</v>
+        <v>-30.5</v>
       </c>
       <c r="R11" s="23" t="inlineStr">
         <is>
@@ -2084,13 +2084,13 @@
       </c>
       <c r="N12" s="2" t="n"/>
       <c r="O12" s="32" t="n">
-        <v>-23.7</v>
+        <v>-35.5</v>
       </c>
       <c r="P12" s="32" t="n">
-        <v>-11.3</v>
+        <v>-19.1</v>
       </c>
       <c r="Q12" s="32" t="n">
-        <v>-17.15</v>
+        <v>-29.93</v>
       </c>
       <c r="R12" s="23" t="inlineStr">
         <is>
@@ -2200,13 +2200,13 @@
         </is>
       </c>
       <c r="O13" s="32" t="n">
+        <v>-36.6</v>
+      </c>
+      <c r="P13" s="32" t="n">
         <v>-20.3</v>
       </c>
-      <c r="P13" s="32" t="n">
-        <v>-14.1</v>
-      </c>
       <c r="Q13" s="32" t="n">
-        <v>-17.43</v>
+        <v>-29.85</v>
       </c>
       <c r="R13" s="23" t="inlineStr">
         <is>
@@ -2316,13 +2316,13 @@
       </c>
       <c r="N14" s="2" t="n"/>
       <c r="O14" s="32" t="n">
+        <v>-21</v>
+      </c>
+      <c r="P14" s="32" t="n">
         <v>-11.5</v>
       </c>
-      <c r="P14" s="32" t="n">
-        <v>-4.3</v>
-      </c>
       <c r="Q14" s="32" t="n">
-        <v>-8.550000000000001</v>
+        <v>-16.98</v>
       </c>
       <c r="R14" s="23" t="inlineStr">
         <is>
@@ -2518,13 +2518,13 @@
       </c>
       <c r="N16" s="2" t="n"/>
       <c r="O16" s="32" t="n">
-        <v>-16.5</v>
+        <v>-23.4</v>
       </c>
       <c r="P16" s="32" t="n">
-        <v>-5.1</v>
+        <v>-12</v>
       </c>
       <c r="Q16" s="32" t="n">
-        <v>-10.64</v>
+        <v>-18.15</v>
       </c>
       <c r="R16" s="23" t="inlineStr">
         <is>
@@ -7826,13 +7826,13 @@
       </c>
       <c r="N75" s="2" t="n"/>
       <c r="O75" s="32" t="n">
-        <v>-23.7</v>
+        <v>-19.4</v>
       </c>
       <c r="P75" s="32" t="n">
-        <v>-5.7</v>
+        <v>-7.4</v>
       </c>
       <c r="Q75" s="32" t="n">
-        <v>-15.34</v>
+        <v>-13.93</v>
       </c>
       <c r="R75" s="23" t="inlineStr">
         <is>
@@ -7938,13 +7938,13 @@
       </c>
       <c r="N76" s="2" t="n"/>
       <c r="O76" s="32" t="n">
-        <v>-34.9</v>
+        <v>-35.2</v>
       </c>
       <c r="P76" s="32" t="n">
-        <v>-16.6</v>
+        <v>-19.4</v>
       </c>
       <c r="Q76" s="32" t="n">
-        <v>-26.46</v>
+        <v>-27.98</v>
       </c>
       <c r="R76" s="23" t="inlineStr">
         <is>
@@ -8054,13 +8054,13 @@
         </is>
       </c>
       <c r="O77" s="32" t="n">
-        <v>-37.6</v>
+        <v>-38.2</v>
       </c>
       <c r="P77" s="32" t="n">
-        <v>-17.2</v>
+        <v>-13.9</v>
       </c>
       <c r="Q77" s="32" t="n">
-        <v>-28.66</v>
+        <v>-28.82</v>
       </c>
       <c r="R77" s="23" t="inlineStr">
         <is>
@@ -8170,13 +8170,13 @@
       </c>
       <c r="N78" s="2" t="n"/>
       <c r="O78" s="32" t="n">
-        <v>-34.4</v>
+        <v>-34.8</v>
       </c>
       <c r="P78" s="32" t="n">
-        <v>-16.2</v>
+        <v>-14.7</v>
       </c>
       <c r="Q78" s="32" t="n">
-        <v>-25.84</v>
+        <v>-25.66</v>
       </c>
       <c r="R78" s="23" t="inlineStr">
         <is>
@@ -8286,13 +8286,13 @@
         </is>
       </c>
       <c r="O79" s="32" t="n">
-        <v>-37</v>
+        <v>-38.1</v>
       </c>
       <c r="P79" s="32" t="n">
-        <v>-12.4</v>
+        <v>-12.3</v>
       </c>
       <c r="Q79" s="32" t="n">
-        <v>-26.96</v>
+        <v>-27.68</v>
       </c>
       <c r="R79" s="23" t="inlineStr">
         <is>
@@ -8398,13 +8398,13 @@
       </c>
       <c r="N80" s="2" t="n"/>
       <c r="O80" s="32" t="n">
-        <v>-21.4</v>
+        <v>-13.4</v>
       </c>
       <c r="P80" s="32" t="n">
-        <v>-2.9</v>
+        <v>-6.1</v>
       </c>
       <c r="Q80" s="32" t="n">
-        <v>-12.65</v>
+        <v>-11.09</v>
       </c>
       <c r="R80" s="23" t="inlineStr">
         <is>
@@ -8514,13 +8514,13 @@
         </is>
       </c>
       <c r="O81" s="32" t="n">
-        <v>-27</v>
+        <v>-19.1</v>
       </c>
       <c r="P81" s="32" t="n">
-        <v>-7.4</v>
+        <v>-6.4</v>
       </c>
       <c r="Q81" s="32" t="n">
-        <v>-16.8</v>
+        <v>-10.39</v>
       </c>
       <c r="R81" s="23" t="inlineStr">
         <is>
@@ -8635,13 +8635,13 @@
         </is>
       </c>
       <c r="O82" s="32" t="n">
-        <v>-21.1</v>
+        <v>-20</v>
       </c>
       <c r="P82" s="32" t="n">
-        <v>-5.4</v>
+        <v>-6.7</v>
       </c>
       <c r="Q82" s="32" t="n">
-        <v>-12.78</v>
+        <v>-10.45</v>
       </c>
       <c r="R82" s="23" t="inlineStr">
         <is>
@@ -8751,13 +8751,13 @@
       </c>
       <c r="N83" s="2" t="n"/>
       <c r="O83" s="32" t="n">
-        <v>-18.8</v>
+        <v>-19.6</v>
       </c>
       <c r="P83" s="32" t="n">
-        <v>-4.4</v>
+        <v>-8.5</v>
       </c>
       <c r="Q83" s="32" t="n">
-        <v>-11.59</v>
+        <v>-13.09</v>
       </c>
       <c r="R83" s="23" t="inlineStr">
         <is>
@@ -8871,13 +8871,13 @@
         </is>
       </c>
       <c r="O84" s="32" t="n">
+        <v>-33.6</v>
+      </c>
+      <c r="P84" s="32" t="n">
         <v>-14.4</v>
       </c>
-      <c r="P84" s="32" t="n">
-        <v>-1.7</v>
-      </c>
       <c r="Q84" s="32" t="n">
-        <v>-8.26</v>
+        <v>-24.37</v>
       </c>
       <c r="R84" s="23" t="inlineStr">
         <is>
@@ -8991,13 +8991,13 @@
         </is>
       </c>
       <c r="O85" s="32" t="n">
-        <v>-27.6</v>
+        <v>-33.2</v>
       </c>
       <c r="P85" s="32" t="n">
-        <v>-11.5</v>
+        <v>-18.5</v>
       </c>
       <c r="Q85" s="32" t="n">
-        <v>-17.99</v>
+        <v>-27</v>
       </c>
       <c r="R85" s="23" t="inlineStr">
         <is>
@@ -9103,13 +9103,13 @@
       </c>
       <c r="N86" s="2" t="n"/>
       <c r="O86" s="32" t="n">
-        <v>-21.1</v>
+        <v>-29.2</v>
       </c>
       <c r="P86" s="32" t="n">
-        <v>-8.800000000000001</v>
+        <v>-16.4</v>
       </c>
       <c r="Q86" s="32" t="n">
-        <v>-13.74</v>
+        <v>-23.42</v>
       </c>
       <c r="R86" s="23" t="inlineStr">
         <is>
@@ -9227,13 +9227,13 @@
         </is>
       </c>
       <c r="O87" s="32" t="n">
-        <v>-29.7</v>
+        <v>-31.9</v>
       </c>
       <c r="P87" s="32" t="n">
-        <v>-16.4</v>
+        <v>-17.8</v>
       </c>
       <c r="Q87" s="32" t="n">
-        <v>-25.1</v>
+        <v>-25.86</v>
       </c>
       <c r="R87" s="23" t="inlineStr">
         <is>
@@ -9339,13 +9339,13 @@
       </c>
       <c r="N88" s="2" t="n"/>
       <c r="O88" s="32" t="n">
-        <v>-27.9</v>
+        <v>-32.6</v>
       </c>
       <c r="P88" s="32" t="n">
-        <v>-12.4</v>
+        <v>-17.7</v>
       </c>
       <c r="Q88" s="32" t="n">
-        <v>-21.15</v>
+        <v>-26.2</v>
       </c>
       <c r="R88" s="23" t="inlineStr">
         <is>
@@ -9557,13 +9557,13 @@
         </is>
       </c>
       <c r="O90" s="32" t="n">
-        <v>-30</v>
+        <v>-32</v>
       </c>
       <c r="P90" s="32" t="n">
-        <v>-13.6</v>
+        <v>-13.4</v>
       </c>
       <c r="Q90" s="32" t="n">
-        <v>-22.19</v>
+        <v>-24.46</v>
       </c>
       <c r="R90" s="23" t="inlineStr">
         <is>
@@ -9665,13 +9665,13 @@
       </c>
       <c r="N91" s="2" t="n"/>
       <c r="O91" s="32" t="n">
-        <v>-29.9</v>
+        <v>-33.5</v>
       </c>
       <c r="P91" s="32" t="n">
-        <v>-15.2</v>
+        <v>-18.4</v>
       </c>
       <c r="Q91" s="32" t="n">
-        <v>-22.27</v>
+        <v>-26.05</v>
       </c>
       <c r="R91" s="23" t="inlineStr">
         <is>
@@ -9773,13 +9773,13 @@
       </c>
       <c r="N92" s="2" t="n"/>
       <c r="O92" s="32" t="n">
-        <v>-9.4</v>
+        <v>-7.8</v>
       </c>
       <c r="P92" s="32" t="n">
-        <v>2.6</v>
+        <v>5.7</v>
       </c>
       <c r="Q92" s="32" t="n">
-        <v>-3.76</v>
+        <v>-2.16</v>
       </c>
       <c r="R92" s="23" t="inlineStr">
         <is>
@@ -9885,13 +9885,13 @@
       </c>
       <c r="N93" s="2" t="n"/>
       <c r="O93" s="32" t="n">
-        <v>-7</v>
+        <v>-3.3</v>
       </c>
       <c r="P93" s="32" t="n">
-        <v>10.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Q93" s="32" t="n">
-        <v>0.9399999999999999</v>
+        <v>3.51</v>
       </c>
       <c r="R93" s="23" t="inlineStr">
         <is>
@@ -10005,10 +10005,10 @@
         </is>
       </c>
       <c r="O94" s="32" t="n">
-        <v>-13.3</v>
+        <v>-5.8</v>
       </c>
       <c r="P94" s="32" t="n">
-        <v>8.5</v>
+        <v>7.2</v>
       </c>
       <c r="Q94" s="32" t="n"/>
       <c r="R94" s="23" t="inlineStr">
@@ -10123,14 +10123,12 @@
       </c>
       <c r="N95" s="2" t="n"/>
       <c r="O95" s="32" t="n">
-        <v>-3.4</v>
+        <v>-2.3</v>
       </c>
       <c r="P95" s="32" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="Q95" s="32" t="n">
-        <v>0.29</v>
-      </c>
+        <v>4.9</v>
+      </c>
+      <c r="Q95" s="32" t="n"/>
       <c r="R95" s="23" t="inlineStr">
         <is>
           <t>Y</t>
@@ -10251,10 +10249,10 @@
         </is>
       </c>
       <c r="O96" s="32" t="n">
-        <v>-16.9</v>
+        <v>-13.1</v>
       </c>
       <c r="P96" s="32" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="Q96" s="32" t="n"/>
       <c r="R96" s="23" t="inlineStr">
@@ -10369,13 +10367,13 @@
       </c>
       <c r="N97" s="2" t="n"/>
       <c r="O97" s="32" t="n">
-        <v>-10.3</v>
+        <v>-10.1</v>
       </c>
       <c r="P97" s="32" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="Q97" s="32" t="n">
-        <v>-3.75</v>
+        <v>-4.96</v>
       </c>
       <c r="R97" s="23" t="inlineStr">
         <is>
@@ -10485,10 +10483,10 @@
       </c>
       <c r="N98" s="2" t="n"/>
       <c r="O98" s="32" t="n">
-        <v>-23.2</v>
+        <v>-22.6</v>
       </c>
       <c r="P98" s="32" t="n">
-        <v>-7.5</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="Q98" s="32" t="n"/>
       <c r="R98" s="23" t="inlineStr">
@@ -10603,13 +10601,13 @@
       </c>
       <c r="N99" s="2" t="n"/>
       <c r="O99" s="32" t="n">
-        <v>-26.3</v>
+        <v>-26.6</v>
       </c>
       <c r="P99" s="32" t="n">
-        <v>-8.4</v>
+        <v>-13.6</v>
       </c>
       <c r="Q99" s="32" t="n">
-        <v>-17.46</v>
+        <v>-20.19</v>
       </c>
       <c r="R99" s="23" t="inlineStr">
         <is>
@@ -10935,13 +10933,13 @@
       </c>
       <c r="N102" s="2" t="n"/>
       <c r="O102" s="32" t="n">
-        <v>-28.2</v>
+        <v>-20.1</v>
       </c>
       <c r="P102" s="32" t="n">
-        <v>-2.6</v>
+        <v>-10.7</v>
       </c>
       <c r="Q102" s="32" t="n">
-        <v>-17.8</v>
+        <v>-15.38</v>
       </c>
       <c r="R102" s="23" t="inlineStr">
         <is>
@@ -11051,10 +11049,10 @@
       </c>
       <c r="N103" s="2" t="n"/>
       <c r="O103" s="32" t="n">
-        <v>-26</v>
+        <v>-19.8</v>
       </c>
       <c r="P103" s="32" t="n">
-        <v>-5.1</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="Q103" s="32" t="n"/>
       <c r="R103" s="23" t="inlineStr">
@@ -11161,10 +11159,10 @@
       </c>
       <c r="N104" s="2" t="n"/>
       <c r="O104" s="32" t="n">
-        <v>-26.3</v>
+        <v>-12.6</v>
       </c>
       <c r="P104" s="32" t="n">
-        <v>-7.3</v>
+        <v>-7.4</v>
       </c>
       <c r="Q104" s="32" t="n"/>
       <c r="R104" s="23" t="inlineStr">
@@ -11283,13 +11281,13 @@
         </is>
       </c>
       <c r="O105" s="32" t="n">
-        <v>-29.3</v>
+        <v>-17.7</v>
       </c>
       <c r="P105" s="32" t="n">
-        <v>-6.6</v>
+        <v>-6.8</v>
       </c>
       <c r="Q105" s="32" t="n">
-        <v>-17.85</v>
+        <v>-10.3</v>
       </c>
       <c r="R105" s="23" t="inlineStr">
         <is>
@@ -11403,10 +11401,10 @@
         </is>
       </c>
       <c r="O106" s="32" t="n">
-        <v>-25.3</v>
+        <v>-16.8</v>
       </c>
       <c r="P106" s="32" t="n">
-        <v>-11.2</v>
+        <v>-6.3</v>
       </c>
       <c r="Q106" s="32" t="n"/>
       <c r="R106" s="23" t="inlineStr">
@@ -11627,13 +11625,13 @@
       </c>
       <c r="N108" s="2" t="n"/>
       <c r="O108" s="32" t="n">
-        <v>-20.6</v>
+        <v>-15</v>
       </c>
       <c r="P108" s="32" t="n">
-        <v>-8.699999999999999</v>
+        <v>-8.5</v>
       </c>
       <c r="Q108" s="32" t="n">
-        <v>-15.09</v>
+        <v>-12.81</v>
       </c>
       <c r="R108" s="23" t="inlineStr">
         <is>
@@ -11955,13 +11953,13 @@
       </c>
       <c r="N111" s="2" t="n"/>
       <c r="O111" s="32" t="n">
-        <v>-19.8</v>
+        <v>-14.9</v>
       </c>
       <c r="P111" s="32" t="n">
-        <v>2.5</v>
+        <v>-2.4</v>
       </c>
       <c r="Q111" s="32" t="n">
-        <v>-10.38</v>
+        <v>-11.84</v>
       </c>
       <c r="R111" s="23" t="inlineStr">
         <is>
@@ -12067,10 +12065,10 @@
       </c>
       <c r="N112" s="2" t="n"/>
       <c r="O112" s="32" t="n">
-        <v>-17.5</v>
+        <v>-11.4</v>
       </c>
       <c r="P112" s="32" t="n">
-        <v>9.1</v>
+        <v>0.8</v>
       </c>
       <c r="Q112" s="32" t="n"/>
       <c r="R112" s="23" t="inlineStr">
@@ -12173,10 +12171,10 @@
       </c>
       <c r="N113" s="2" t="n"/>
       <c r="O113" s="32" t="n">
-        <v>-18.9</v>
+        <v>-12.7</v>
       </c>
       <c r="P113" s="32" t="n">
-        <v>-1.7</v>
+        <v>-5.1</v>
       </c>
       <c r="Q113" s="32" t="n"/>
       <c r="R113" s="23" t="inlineStr">
@@ -12287,10 +12285,10 @@
         </is>
       </c>
       <c r="O114" s="32" t="n">
-        <v>-25.5</v>
+        <v>-26.1</v>
       </c>
       <c r="P114" s="32" t="n">
-        <v>-2.6</v>
+        <v>0</v>
       </c>
       <c r="Q114" s="32" t="n"/>
       <c r="R114" s="23" t="inlineStr">
@@ -12409,10 +12407,10 @@
         </is>
       </c>
       <c r="O115" s="32" t="n">
-        <v>-20.5</v>
+        <v>-14.8</v>
       </c>
       <c r="P115" s="32" t="n">
-        <v>-2.2</v>
+        <v>-4.7</v>
       </c>
       <c r="Q115" s="32" t="n"/>
       <c r="R115" s="23" t="inlineStr">
@@ -12527,13 +12525,13 @@
       </c>
       <c r="N116" s="2" t="n"/>
       <c r="O116" s="32" t="n">
-        <v>-12.1</v>
+        <v>-12.2</v>
       </c>
       <c r="P116" s="32" t="n">
-        <v>4.2</v>
+        <v>-0.1</v>
       </c>
       <c r="Q116" s="32" t="n">
-        <v>-4.15</v>
+        <v>-5.94</v>
       </c>
       <c r="R116" s="23" t="inlineStr">
         <is>
@@ -12639,10 +12637,10 @@
       </c>
       <c r="N117" s="2" t="n"/>
       <c r="O117" s="32" t="n">
-        <v>-13.5</v>
+        <v>-16.1</v>
       </c>
       <c r="P117" s="32" t="n">
-        <v>-2.1</v>
+        <v>-2.8</v>
       </c>
       <c r="Q117" s="32" t="n"/>
       <c r="R117" s="23" t="inlineStr">
@@ -12753,10 +12751,10 @@
         </is>
       </c>
       <c r="O118" s="32" t="n">
-        <v>-19.8</v>
+        <v>-27.4</v>
       </c>
       <c r="P118" s="32" t="n">
-        <v>-6.3</v>
+        <v>-7.8</v>
       </c>
       <c r="Q118" s="32" t="n"/>
       <c r="R118" s="23" t="inlineStr">
@@ -12871,13 +12869,13 @@
       </c>
       <c r="N119" s="2" t="n"/>
       <c r="O119" s="32" t="n">
-        <v>-18.6</v>
+        <v>-23.9</v>
       </c>
       <c r="P119" s="32" t="n">
-        <v>-5.3</v>
+        <v>-6.4</v>
       </c>
       <c r="Q119" s="32" t="n">
-        <v>-14.53</v>
+        <v>-16.76</v>
       </c>
       <c r="R119" s="23" t="inlineStr">
         <is>
@@ -13101,13 +13099,13 @@
       </c>
       <c r="N121" s="2" t="n"/>
       <c r="O121" s="32" t="n">
-        <v>-8.199999999999999</v>
+        <v>-10.2</v>
       </c>
       <c r="P121" s="32" t="n">
-        <v>-4.4</v>
+        <v>-4.2</v>
       </c>
       <c r="Q121" s="32" t="n">
-        <v>-6.62</v>
+        <v>-8.25</v>
       </c>
       <c r="R121" s="23" t="inlineStr">
         <is>
@@ -13225,10 +13223,10 @@
       </c>
       <c r="N122" s="2" t="n"/>
       <c r="O122" s="32" t="n">
-        <v>-16.2</v>
+        <v>-17.5</v>
       </c>
       <c r="P122" s="32" t="n">
-        <v>-2.8</v>
+        <v>-2.2</v>
       </c>
       <c r="Q122" s="32" t="n"/>
       <c r="R122" s="23" t="inlineStr">
@@ -13453,13 +13451,13 @@
       </c>
       <c r="N124" s="2" t="n"/>
       <c r="O124" s="32" t="n">
-        <v>-8.6</v>
+        <v>-5.7</v>
       </c>
       <c r="P124" s="32" t="n">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q124" s="32" t="n">
-        <v>-1.14</v>
+        <v>-1.31</v>
       </c>
       <c r="R124" s="23" t="inlineStr">
         <is>
@@ -13577,13 +13575,13 @@
       </c>
       <c r="N125" s="2" t="n"/>
       <c r="O125" s="32" t="n">
-        <v>-3</v>
+        <v>-1.6</v>
       </c>
       <c r="P125" s="32" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Q125" s="32" t="n">
-        <v>5.59</v>
+        <v>6.66</v>
       </c>
       <c r="R125" s="23" t="inlineStr">
         <is>
@@ -13677,10 +13675,10 @@
       </c>
       <c r="N126" s="2" t="n"/>
       <c r="O126" s="32" t="n">
-        <v>-1.4</v>
+        <v>1.5</v>
       </c>
       <c r="P126" s="32" t="n">
-        <v>16.4</v>
+        <v>16.8</v>
       </c>
       <c r="Q126" s="32" t="n"/>
       <c r="R126" s="23" t="inlineStr">
@@ -13787,13 +13785,13 @@
       </c>
       <c r="N127" s="2" t="n"/>
       <c r="O127" s="32" t="n">
-        <v>-7.3</v>
+        <v>-2.5</v>
       </c>
       <c r="P127" s="32" t="n">
-        <v>15.7</v>
+        <v>7.3</v>
       </c>
       <c r="Q127" s="32" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="R127" s="23" t="inlineStr">
         <is>
@@ -13910,7 +13908,7 @@
         <v>1.1</v>
       </c>
       <c r="P128" s="32" t="n">
-        <v>17.3</v>
+        <v>17</v>
       </c>
       <c r="Q128" s="32" t="n"/>
       <c r="R128" s="23" t="inlineStr">
@@ -14017,13 +14015,13 @@
       </c>
       <c r="N129" s="2" t="n"/>
       <c r="O129" s="32" t="n">
-        <v>-6.8</v>
+        <v>-5.1</v>
       </c>
       <c r="P129" s="32" t="n">
-        <v>15.7</v>
+        <v>17.2</v>
       </c>
       <c r="Q129" s="32" t="n">
-        <v>3.64</v>
+        <v>4.73</v>
       </c>
       <c r="R129" s="23" t="inlineStr">
         <is>
@@ -14137,13 +14135,13 @@
       </c>
       <c r="N130" s="2" t="n"/>
       <c r="O130" s="32" t="n">
-        <v>-8.699999999999999</v>
+        <v>-8.5</v>
       </c>
       <c r="P130" s="32" t="n">
-        <v>13.9</v>
+        <v>8.9</v>
       </c>
       <c r="Q130" s="32" t="n">
-        <v>1.32</v>
+        <v>-0.1</v>
       </c>
       <c r="R130" s="23" t="inlineStr">
         <is>
@@ -14257,13 +14255,13 @@
       </c>
       <c r="N131" s="2" t="n"/>
       <c r="O131" s="32" t="n">
-        <v>5.9</v>
+        <v>10.8</v>
       </c>
       <c r="P131" s="32" t="n">
-        <v>19.4</v>
+        <v>22.2</v>
       </c>
       <c r="Q131" s="32" t="n">
-        <v>12.25</v>
+        <v>15.24</v>
       </c>
       <c r="R131" s="23" t="inlineStr">
         <is>
@@ -14373,13 +14371,13 @@
       </c>
       <c r="N132" s="2" t="n"/>
       <c r="O132" s="32" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="P132" s="32" t="n">
-        <v>20</v>
+        <v>24.3</v>
       </c>
       <c r="Q132" s="32" t="n">
-        <v>11.26</v>
+        <v>12.1</v>
       </c>
       <c r="R132" s="23" t="inlineStr">
         <is>
@@ -14489,13 +14487,13 @@
       </c>
       <c r="N133" s="2" t="n"/>
       <c r="O133" s="32" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="P133" s="32" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="Q133" s="32" t="n">
-        <v>11.01</v>
+        <v>10.34</v>
       </c>
       <c r="R133" s="23" t="inlineStr">
         <is>
@@ -14711,13 +14709,13 @@
       </c>
       <c r="N135" s="2" t="n"/>
       <c r="O135" s="32" t="n">
-        <v>7.4</v>
+        <v>9.9</v>
       </c>
       <c r="P135" s="32" t="n">
-        <v>11.9</v>
+        <v>23.7</v>
       </c>
       <c r="Q135" s="32" t="n">
-        <v>9.210000000000001</v>
+        <v>14.64</v>
       </c>
       <c r="R135" s="23" t="inlineStr">
         <is>
@@ -14827,13 +14825,13 @@
       </c>
       <c r="N136" s="2" t="n"/>
       <c r="O136" s="32" t="n">
-        <v>9.4</v>
+        <v>10.9</v>
       </c>
       <c r="P136" s="32" t="n">
-        <v>14.2</v>
+        <v>20.1</v>
       </c>
       <c r="Q136" s="32" t="n">
-        <v>11.1</v>
+        <v>13.84</v>
       </c>
       <c r="R136" s="23" t="inlineStr">
         <is>
@@ -14943,13 +14941,13 @@
       </c>
       <c r="N137" s="2" t="n"/>
       <c r="O137" s="32" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="P137" s="32" t="n">
-        <v>18.4</v>
+        <v>21.7</v>
       </c>
       <c r="Q137" s="32" t="n">
-        <v>9.1</v>
+        <v>11.21</v>
       </c>
       <c r="R137" s="23" t="inlineStr">
         <is>
@@ -15059,10 +15057,10 @@
       </c>
       <c r="N138" s="2" t="n"/>
       <c r="O138" s="32" t="n">
-        <v>-0.2</v>
+        <v>1.4</v>
       </c>
       <c r="P138" s="32" t="n">
-        <v>19.9</v>
+        <v>22.2</v>
       </c>
       <c r="Q138" s="32" t="n"/>
       <c r="R138" s="23" t="inlineStr">
@@ -15173,13 +15171,13 @@
       </c>
       <c r="N139" s="2" t="n"/>
       <c r="O139" s="32" t="n">
-        <v>3.1</v>
+        <v>5.9</v>
       </c>
       <c r="P139" s="32" t="n">
-        <v>19</v>
+        <v>21.9</v>
       </c>
       <c r="Q139" s="32" t="n">
-        <v>10.85</v>
+        <v>12.96</v>
       </c>
       <c r="R139" s="23" t="inlineStr">
         <is>
@@ -15289,13 +15287,13 @@
       </c>
       <c r="N140" s="2" t="n"/>
       <c r="O140" s="32" t="n">
-        <v>5.7</v>
+        <v>10.8</v>
       </c>
       <c r="P140" s="32" t="n">
-        <v>14</v>
+        <v>22.1</v>
       </c>
       <c r="Q140" s="32" t="n">
-        <v>10.34</v>
+        <v>15.19</v>
       </c>
       <c r="R140" s="23" t="inlineStr">
         <is>
@@ -15507,13 +15505,13 @@
       </c>
       <c r="N142" s="2" t="n"/>
       <c r="O142" s="32" t="n">
-        <v>11.7</v>
+        <v>13.7</v>
       </c>
       <c r="P142" s="32" t="n">
-        <v>23.6</v>
+        <v>28.7</v>
       </c>
       <c r="Q142" s="32" t="n">
-        <v>16.15</v>
+        <v>19.48</v>
       </c>
       <c r="R142" s="23" t="inlineStr">
         <is>
@@ -15623,13 +15621,13 @@
       </c>
       <c r="N143" s="2" t="n"/>
       <c r="O143" s="32" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="P143" s="32" t="n">
-        <v>25.9</v>
+        <v>28.2</v>
       </c>
       <c r="Q143" s="32" t="n">
-        <v>18.85</v>
+        <v>19.71</v>
       </c>
       <c r="R143" s="23" t="inlineStr">
         <is>
@@ -15942,10 +15940,10 @@
         <v>21.1</v>
       </c>
       <c r="P146" s="32" t="n">
-        <v>27.3</v>
+        <v>26.5</v>
       </c>
       <c r="Q146" s="32" t="n">
-        <v>24.02</v>
+        <v>23.8</v>
       </c>
       <c r="R146" s="23" t="inlineStr">
         <is>
@@ -16047,13 +16045,13 @@
       </c>
       <c r="N147" s="2" t="n"/>
       <c r="O147" s="32" t="n">
-        <v>15.2</v>
+        <v>16.9</v>
       </c>
       <c r="P147" s="32" t="n">
-        <v>21.5</v>
+        <v>26</v>
       </c>
       <c r="Q147" s="32" t="n">
-        <v>17.85</v>
+        <v>21.1</v>
       </c>
       <c r="R147" s="23" t="inlineStr">
         <is>
@@ -16265,13 +16263,13 @@
       </c>
       <c r="N149" s="2" t="n"/>
       <c r="O149" s="32" t="n">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="P149" s="32" t="n">
-        <v>20.8</v>
+        <v>21.5</v>
       </c>
       <c r="Q149" s="32" t="n">
-        <v>13.49</v>
+        <v>13.81</v>
       </c>
       <c r="R149" s="23" t="inlineStr">
         <is>
@@ -16381,13 +16379,13 @@
       </c>
       <c r="N150" s="2" t="n"/>
       <c r="O150" s="32" t="n">
-        <v>6.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="P150" s="32" t="n">
-        <v>18.7</v>
+        <v>20.8</v>
       </c>
       <c r="Q150" s="32" t="n">
-        <v>10.91</v>
+        <v>13.38</v>
       </c>
       <c r="R150" s="23" t="inlineStr">
         <is>
@@ -16497,13 +16495,13 @@
       </c>
       <c r="N151" s="2" t="n"/>
       <c r="O151" s="32" t="n">
-        <v>7.5</v>
+        <v>8.1</v>
       </c>
       <c r="P151" s="32" t="n">
-        <v>18.8</v>
+        <v>22.2</v>
       </c>
       <c r="Q151" s="32" t="n">
-        <v>12.11</v>
+        <v>13.85</v>
       </c>
       <c r="R151" s="23" t="inlineStr">
         <is>
@@ -16703,13 +16701,13 @@
       </c>
       <c r="N153" s="2" t="n"/>
       <c r="O153" s="32" t="n">
-        <v>5.4</v>
+        <v>3.4</v>
       </c>
       <c r="P153" s="32" t="n">
-        <v>18.9</v>
+        <v>18.2</v>
       </c>
       <c r="Q153" s="32" t="n">
-        <v>11.56</v>
+        <v>10.22</v>
       </c>
       <c r="R153" s="23" t="inlineStr">
         <is>
@@ -16823,13 +16821,13 @@
       </c>
       <c r="N154" s="2" t="n"/>
       <c r="O154" s="32" t="n">
-        <v>-4.4</v>
+        <v>-5.1</v>
       </c>
       <c r="P154" s="32" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="Q154" s="32" t="n">
-        <v>2.06</v>
+        <v>1.89</v>
       </c>
       <c r="R154" s="23" t="inlineStr">
         <is>
@@ -17025,10 +17023,10 @@
       </c>
       <c r="N156" s="2" t="n"/>
       <c r="O156" s="32" t="n">
-        <v>-16.3</v>
+        <v>-12.3</v>
       </c>
       <c r="P156" s="32" t="n">
-        <v>12.3</v>
+        <v>5.6</v>
       </c>
       <c r="Q156" s="32" t="n"/>
       <c r="R156" s="23" t="inlineStr">
@@ -17131,10 +17129,10 @@
       </c>
       <c r="N157" s="2" t="n"/>
       <c r="O157" s="32" t="n">
-        <v>7</v>
+        <v>11.6</v>
       </c>
       <c r="P157" s="32" t="n">
-        <v>18.6</v>
+        <v>22</v>
       </c>
       <c r="Q157" s="32" t="n"/>
       <c r="R157" s="23" t="inlineStr">
@@ -17515,10 +17513,10 @@
       </c>
       <c r="N161" s="2" t="n"/>
       <c r="O161" s="32" t="n">
-        <v>-5.2</v>
+        <v>-4.8</v>
       </c>
       <c r="P161" s="32" t="n">
-        <v>16.2</v>
+        <v>10.3</v>
       </c>
       <c r="Q161" s="32" t="n"/>
       <c r="R161" s="23" t="inlineStr">
@@ -17628,12 +17626,8 @@
           <t>⚡</t>
         </is>
       </c>
-      <c r="O162" s="32" t="n">
-        <v>-29.5</v>
-      </c>
-      <c r="P162" s="32" t="n">
-        <v>-1.5</v>
-      </c>
+      <c r="O162" s="32" t="n"/>
+      <c r="P162" s="32" t="n"/>
       <c r="Q162" s="32" t="n"/>
       <c r="R162" s="23" t="inlineStr">
         <is>
@@ -17742,8 +17736,12 @@
           <t>▼</t>
         </is>
       </c>
-      <c r="O163" s="32" t="n"/>
-      <c r="P163" s="32" t="n"/>
+      <c r="O163" s="32" t="n">
+        <v>-21.3</v>
+      </c>
+      <c r="P163" s="32" t="n">
+        <v>-11.5</v>
+      </c>
       <c r="Q163" s="32" t="n"/>
       <c r="R163" s="23" t="inlineStr">
         <is>
@@ -17959,10 +17957,10 @@
         </is>
       </c>
       <c r="O165" s="32" t="n">
-        <v>-30.1</v>
+        <v>-16.4</v>
       </c>
       <c r="P165" s="32" t="n">
-        <v>-6.6</v>
+        <v>-4.5</v>
       </c>
       <c r="Q165" s="32" t="n"/>
       <c r="R165" s="23" t="inlineStr">
@@ -18281,10 +18279,10 @@
         </is>
       </c>
       <c r="O168" s="32" t="n">
-        <v>-30.2</v>
+        <v>-32</v>
       </c>
       <c r="P168" s="32" t="n">
-        <v>-8.800000000000001</v>
+        <v>-7.3</v>
       </c>
       <c r="Q168" s="32" t="n"/>
       <c r="R168" s="23" t="inlineStr">
@@ -18395,10 +18393,10 @@
         </is>
       </c>
       <c r="O169" s="32" t="n">
-        <v>-22.7</v>
+        <v>-32.1</v>
       </c>
       <c r="P169" s="32" t="n">
-        <v>-7</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="Q169" s="32" t="n"/>
       <c r="R169" s="23" t="inlineStr">
@@ -18508,8 +18506,12 @@
           <t>⚡</t>
         </is>
       </c>
-      <c r="O170" s="32" t="n"/>
-      <c r="P170" s="32" t="n"/>
+      <c r="O170" s="32" t="n">
+        <v>-39.3</v>
+      </c>
+      <c r="P170" s="32" t="n">
+        <v>-16.5</v>
+      </c>
       <c r="Q170" s="32" t="n"/>
       <c r="R170" s="23" t="inlineStr">
         <is>
@@ -18713,7 +18715,7 @@
       </c>
       <c r="N172" s="3" t="n"/>
       <c r="O172" s="32" t="n">
-        <v>-19</v>
+        <v>-16.3</v>
       </c>
       <c r="P172" s="32" t="n">
         <v>-0.7</v>
@@ -18823,10 +18825,10 @@
       </c>
       <c r="N173" s="2" t="n"/>
       <c r="O173" s="32" t="n">
-        <v>-19.2</v>
+        <v>-14.3</v>
       </c>
       <c r="P173" s="32" t="n">
-        <v>7.3</v>
+        <v>-4.1</v>
       </c>
       <c r="Q173" s="32" t="n"/>
       <c r="R173" s="23" t="inlineStr">
@@ -19141,10 +19143,10 @@
       </c>
       <c r="N176" s="2" t="n"/>
       <c r="O176" s="32" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="P176" s="32" t="n">
-        <v>5.8</v>
+        <v>10.3</v>
       </c>
       <c r="Q176" s="32" t="n"/>
       <c r="R176" s="23" t="inlineStr">
@@ -19239,10 +19241,10 @@
       </c>
       <c r="N177" s="2" t="n"/>
       <c r="O177" s="32" t="n">
-        <v>-16.5</v>
+        <v>-12.2</v>
       </c>
       <c r="P177" s="32" t="n">
-        <v>-7</v>
+        <v>-7.1</v>
       </c>
       <c r="Q177" s="32" t="n"/>
       <c r="R177" s="23" t="inlineStr">
@@ -19345,10 +19347,10 @@
       </c>
       <c r="N178" s="2" t="n"/>
       <c r="O178" s="32" t="n">
-        <v>-30.6</v>
+        <v>-31.7</v>
       </c>
       <c r="P178" s="32" t="n">
-        <v>-9.800000000000001</v>
+        <v>-11.7</v>
       </c>
       <c r="Q178" s="32" t="n"/>
       <c r="R178" s="23" t="inlineStr">
@@ -20122,13 +20124,13 @@
       </c>
       <c r="N186" s="2" t="n"/>
       <c r="O186" s="32" t="n">
-        <v>-40.2</v>
+        <v>-48.9</v>
       </c>
       <c r="P186" s="32" t="n">
-        <v>-31.8</v>
+        <v>-34.5</v>
       </c>
       <c r="Q186" s="32" t="n">
-        <v>-35.5</v>
+        <v>-43.84</v>
       </c>
       <c r="R186" s="23" t="inlineStr">
         <is>
@@ -20231,13 +20233,13 @@
       </c>
       <c r="N187" s="2" t="n"/>
       <c r="O187" s="32" t="n">
-        <v>-44.5</v>
+        <v>-45.4</v>
       </c>
       <c r="P187" s="32" t="n">
-        <v>-32.8</v>
+        <v>-34.9</v>
       </c>
       <c r="Q187" s="32" t="n">
-        <v>-40.07</v>
+        <v>-40.61</v>
       </c>
       <c r="R187" s="23" t="inlineStr">
         <is>
@@ -20335,13 +20337,13 @@
       </c>
       <c r="N188" s="2" t="n"/>
       <c r="O188" s="32" t="n">
-        <v>-41.2</v>
+        <v>-44</v>
       </c>
       <c r="P188" s="32" t="n">
-        <v>-32.8</v>
+        <v>-36</v>
       </c>
       <c r="Q188" s="32" t="n">
-        <v>-35.48</v>
+        <v>-40.94</v>
       </c>
       <c r="R188" s="23" t="inlineStr">
         <is>
@@ -20439,13 +20441,13 @@
       </c>
       <c r="N189" s="2" t="n"/>
       <c r="O189" s="32" t="n">
-        <v>-42.6</v>
+        <v>-48</v>
       </c>
       <c r="P189" s="32" t="n">
-        <v>-26.2</v>
+        <v>-27.3</v>
       </c>
       <c r="Q189" s="32" t="n">
-        <v>-34.17</v>
+        <v>-41.95</v>
       </c>
       <c r="R189" s="23" t="inlineStr">
         <is>
@@ -20543,13 +20545,13 @@
       </c>
       <c r="N190" s="2" t="n"/>
       <c r="O190" s="32" t="n">
-        <v>-47.6</v>
+        <v>-47.9</v>
       </c>
       <c r="P190" s="32" t="n">
-        <v>-38.5</v>
+        <v>-40.4</v>
       </c>
       <c r="Q190" s="32" t="n">
-        <v>-44.22</v>
+        <v>-45.55</v>
       </c>
       <c r="R190" s="23" t="inlineStr">
         <is>
@@ -20647,13 +20649,13 @@
       </c>
       <c r="N191" s="2" t="n"/>
       <c r="O191" s="32" t="n">
-        <v>-40</v>
+        <v>-47</v>
       </c>
       <c r="P191" s="32" t="n">
-        <v>-29.4</v>
+        <v>-34.2</v>
       </c>
       <c r="Q191" s="32" t="n">
-        <v>-35.3</v>
+        <v>-42.27</v>
       </c>
       <c r="R191" s="23" t="inlineStr">
         <is>
@@ -20747,13 +20749,13 @@
       </c>
       <c r="N192" s="2" t="n"/>
       <c r="O192" s="32" t="n">
-        <v>-41.6</v>
+        <v>-39.5</v>
       </c>
       <c r="P192" s="32" t="n">
-        <v>-32.5</v>
+        <v>-31.6</v>
       </c>
       <c r="Q192" s="32" t="n">
-        <v>-38.27</v>
+        <v>-34.5</v>
       </c>
       <c r="R192" s="23" t="inlineStr">
         <is>
@@ -20852,13 +20854,13 @@
       </c>
       <c r="N193" s="2" t="n"/>
       <c r="O193" s="32" t="n">
-        <v>-39.8</v>
+        <v>-38.5</v>
       </c>
       <c r="P193" s="32" t="n">
-        <v>-30.4</v>
+        <v>-28.8</v>
       </c>
       <c r="Q193" s="32" t="n">
-        <v>-36.36</v>
+        <v>-34.14</v>
       </c>
       <c r="R193" s="23" t="inlineStr">
         <is>
@@ -20960,10 +20962,10 @@
       </c>
       <c r="N194" s="2" t="n"/>
       <c r="O194" s="32" t="n">
-        <v>-47.1</v>
+        <v>-48</v>
       </c>
       <c r="P194" s="32" t="n">
-        <v>-41.3</v>
+        <v>-43.1</v>
       </c>
       <c r="Q194" s="32" t="n"/>
       <c r="R194" s="23" t="inlineStr">
@@ -21058,13 +21060,13 @@
       </c>
       <c r="N195" s="2" t="n"/>
       <c r="O195" s="32" t="n">
-        <v>-44.5</v>
+        <v>-48.8</v>
       </c>
       <c r="P195" s="32" t="n">
-        <v>-33.4</v>
+        <v>-36.1</v>
       </c>
       <c r="Q195" s="32" t="n">
-        <v>-39.51</v>
+        <v>-43.01</v>
       </c>
       <c r="R195" s="23" t="inlineStr">
         <is>
@@ -21162,13 +21164,13 @@
       </c>
       <c r="N196" s="2" t="n"/>
       <c r="O196" s="32" t="n">
-        <v>-40.2</v>
+        <v>-38.7</v>
       </c>
       <c r="P196" s="32" t="n">
-        <v>-26.5</v>
+        <v>-24.5</v>
       </c>
       <c r="Q196" s="32" t="n">
-        <v>-33.42</v>
+        <v>-33.62</v>
       </c>
       <c r="R196" s="23" t="inlineStr">
         <is>
@@ -21266,13 +21268,13 @@
       </c>
       <c r="N197" s="24" t="n"/>
       <c r="O197" s="32" t="n">
+        <v>-35.7</v>
+      </c>
+      <c r="P197" s="32" t="n">
         <v>-21.3</v>
       </c>
-      <c r="P197" s="32" t="n">
-        <v>-13.3</v>
-      </c>
       <c r="Q197" s="32" t="n">
-        <v>-16.99</v>
+        <v>-30.21</v>
       </c>
       <c r="R197" s="23" t="inlineStr">
         <is>
@@ -22071,8 +22073,12 @@
         </is>
       </c>
       <c r="N205" s="2" t="n"/>
-      <c r="O205" s="32" t="n"/>
-      <c r="P205" s="32" t="n"/>
+      <c r="O205" s="32" t="n">
+        <v>-31.4</v>
+      </c>
+      <c r="P205" s="32" t="n">
+        <v>-12</v>
+      </c>
       <c r="Q205" s="32" t="n"/>
       <c r="R205" s="23" t="inlineStr">
         <is>
@@ -23073,12 +23079,8 @@
         </is>
       </c>
       <c r="N215" s="2" t="n"/>
-      <c r="O215" s="32" t="n">
-        <v>-30.7</v>
-      </c>
-      <c r="P215" s="32" t="n">
-        <v>-5.8</v>
-      </c>
+      <c r="O215" s="32" t="n"/>
+      <c r="P215" s="32" t="n"/>
       <c r="Q215" s="32" t="n"/>
       <c r="R215" s="23" t="inlineStr">
         <is>
@@ -26196,13 +26198,13 @@
       </c>
       <c r="N247" s="2" t="n"/>
       <c r="O247" s="32" t="n">
-        <v>-21.2</v>
+        <v>-17.8</v>
       </c>
       <c r="P247" s="32" t="n">
-        <v>-9.4</v>
+        <v>-6.9</v>
       </c>
       <c r="Q247" s="32" t="n">
-        <v>-16.39</v>
+        <v>-12.79</v>
       </c>
       <c r="R247" s="23" t="inlineStr">
         <is>
@@ -26308,13 +26310,13 @@
       </c>
       <c r="N248" s="2" t="n"/>
       <c r="O248" s="32" t="n">
-        <v>-31.7</v>
+        <v>-33.5</v>
       </c>
       <c r="P248" s="32" t="n">
-        <v>-13.8</v>
+        <v>-17.3</v>
       </c>
       <c r="Q248" s="32" t="n">
-        <v>-24.56</v>
+        <v>-26.6</v>
       </c>
       <c r="R248" s="23" t="inlineStr">
         <is>
@@ -26416,13 +26418,13 @@
       </c>
       <c r="N249" s="2" t="n"/>
       <c r="O249" s="32" t="n">
-        <v>-4.5</v>
+        <v>-4.1</v>
       </c>
       <c r="P249" s="32" t="n">
-        <v>5.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q249" s="32" t="n">
-        <v>-0.05</v>
+        <v>-0.03</v>
       </c>
       <c r="R249" s="23" t="inlineStr">
         <is>
@@ -26528,13 +26530,13 @@
       </c>
       <c r="N250" s="2" t="n"/>
       <c r="O250" s="32" t="n">
-        <v>-13.5</v>
+        <v>-17.1</v>
       </c>
       <c r="P250" s="32" t="n">
-        <v>-5.6</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="Q250" s="32" t="n">
-        <v>-9.279999999999999</v>
+        <v>-13.75</v>
       </c>
       <c r="R250" s="23" t="inlineStr">
         <is>
@@ -26648,10 +26650,10 @@
         </is>
       </c>
       <c r="O251" s="32" t="n">
-        <v>-26.5</v>
+        <v>-37.1</v>
       </c>
       <c r="P251" s="32" t="n">
-        <v>-7.1</v>
+        <v>-15.1</v>
       </c>
       <c r="Q251" s="32" t="n"/>
       <c r="R251" s="23" t="inlineStr">
@@ -26746,14 +26748,12 @@
       </c>
       <c r="N252" s="2" t="n"/>
       <c r="O252" s="32" t="n">
-        <v>-15.3</v>
+        <v>-12</v>
       </c>
       <c r="P252" s="32" t="n">
-        <v>-8.800000000000001</v>
-      </c>
-      <c r="Q252" s="32" t="n">
-        <v>-12.16</v>
-      </c>
+        <v>-4.3</v>
+      </c>
+      <c r="Q252" s="32" t="n"/>
       <c r="R252" s="23" t="inlineStr">
         <is>
           <t>Y</t>
@@ -26944,13 +26944,13 @@
       </c>
       <c r="N254" s="2" t="n"/>
       <c r="O254" s="32" t="n">
-        <v>-47</v>
+        <v>-40.1</v>
       </c>
       <c r="P254" s="32" t="n">
-        <v>-40.1</v>
+        <v>-29.5</v>
       </c>
       <c r="Q254" s="32" t="n">
-        <v>-43.44</v>
+        <v>-34.7</v>
       </c>
       <c r="R254" s="23" t="inlineStr">
         <is>
@@ -27518,13 +27518,13 @@
       </c>
       <c r="N260" s="2" t="n"/>
       <c r="O260" s="32" t="n">
-        <v>-27.8</v>
+        <v>-37.1</v>
       </c>
       <c r="P260" s="32" t="n">
-        <v>-7.7</v>
+        <v>-10.3</v>
       </c>
       <c r="Q260" s="32" t="n">
-        <v>-17.4</v>
+        <v>-25.35</v>
       </c>
       <c r="R260" s="23" t="inlineStr">
         <is>
@@ -27626,13 +27626,13 @@
       </c>
       <c r="N261" s="2" t="n"/>
       <c r="O261" s="32" t="n">
-        <v>-16.8</v>
+        <v>-10.8</v>
       </c>
       <c r="P261" s="32" t="n">
-        <v>-4.6</v>
+        <v>-6.8</v>
       </c>
       <c r="Q261" s="32" t="n">
-        <v>-11.26</v>
+        <v>-9.4</v>
       </c>
       <c r="R261" s="23" t="inlineStr">
         <is>
@@ -27738,13 +27738,13 @@
       </c>
       <c r="N262" s="2" t="n"/>
       <c r="O262" s="32" t="n">
-        <v>-21.8</v>
+        <v>-19.4</v>
       </c>
       <c r="P262" s="32" t="n">
-        <v>-12</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="Q262" s="32" t="n">
-        <v>-17.66</v>
+        <v>-14.67</v>
       </c>
       <c r="R262" s="23" t="inlineStr">
         <is>
@@ -27944,13 +27944,13 @@
       </c>
       <c r="N264" s="2" t="n"/>
       <c r="O264" s="32" t="n">
-        <v>-12.4</v>
+        <v>-23.8</v>
       </c>
       <c r="P264" s="32" t="n">
-        <v>-1.7</v>
+        <v>-6.9</v>
       </c>
       <c r="Q264" s="32" t="n">
-        <v>-6.78</v>
+        <v>-15.45</v>
       </c>
       <c r="R264" s="23" t="inlineStr">
         <is>
@@ -28064,10 +28064,10 @@
       </c>
       <c r="N265" s="2" t="n"/>
       <c r="O265" s="32" t="n">
-        <v>-53.6</v>
+        <v>-55.8</v>
       </c>
       <c r="P265" s="32" t="n">
-        <v>-42.2</v>
+        <v>-41.5</v>
       </c>
       <c r="Q265" s="32" t="n"/>
       <c r="R265" s="23" t="inlineStr">
@@ -28811,8 +28811,12 @@
         </is>
       </c>
       <c r="N273" s="2" t="n"/>
-      <c r="O273" s="32" t="n"/>
-      <c r="P273" s="32" t="n"/>
+      <c r="O273" s="32" t="n">
+        <v>-27.3</v>
+      </c>
+      <c r="P273" s="32" t="n">
+        <v>-9.699999999999999</v>
+      </c>
       <c r="Q273" s="32" t="n"/>
       <c r="R273" s="23" t="n"/>
       <c r="S273" s="37" t="n"/>
@@ -29104,13 +29108,13 @@
       </c>
       <c r="N276" s="2" t="n"/>
       <c r="O276" s="32" t="n">
-        <v>-49</v>
+        <v>-52</v>
       </c>
       <c r="P276" s="32" t="n">
-        <v>-40.3</v>
+        <v>-35.6</v>
       </c>
       <c r="Q276" s="32" t="n">
-        <v>-45.66</v>
+        <v>-44.61</v>
       </c>
       <c r="R276" s="23" t="inlineStr">
         <is>
@@ -29728,10 +29732,10 @@
       </c>
       <c r="N283" s="2" t="n"/>
       <c r="O283" s="32" t="n">
-        <v>-27.5</v>
+        <v>-26.6</v>
       </c>
       <c r="P283" s="32" t="n">
-        <v>-8</v>
+        <v>-10.5</v>
       </c>
       <c r="Q283" s="32" t="n"/>
       <c r="R283" s="23" t="inlineStr">
@@ -29793,37 +29797,91 @@
       <c r="AH283" s="2" t="n"/>
     </row>
     <row r="284" ht="24" customHeight="1" s="44">
-      <c r="A284" s="2" t="n"/>
+      <c r="A284" s="2" t="n">
+        <v>283</v>
+      </c>
       <c r="B284" s="2" t="n"/>
-      <c r="C284" s="27" t="n"/>
+      <c r="C284" s="27" t="n">
+        <v>51058</v>
+      </c>
       <c r="D284" s="2" t="n"/>
       <c r="E284" s="4" t="n"/>
       <c r="F284" s="39" t="n"/>
       <c r="G284" s="29" t="n"/>
       <c r="H284" s="29" t="n"/>
       <c r="I284" s="2" t="n"/>
-      <c r="J284" s="27" t="n"/>
-      <c r="K284" s="4" t="n"/>
+      <c r="J284" s="27" t="n">
+        <v>12</v>
+      </c>
+      <c r="K284" s="31" t="inlineStr">
+        <is>
+          <t>🇨🇳</t>
+        </is>
+      </c>
       <c r="L284" s="2" t="n"/>
-      <c r="M284" s="14" t="n"/>
+      <c r="M284" s="14" t="inlineStr">
+        <is>
+          <t>阿克达拉</t>
+        </is>
+      </c>
       <c r="N284" s="2" t="n"/>
-      <c r="O284" s="32" t="n"/>
-      <c r="P284" s="32" t="n"/>
+      <c r="O284" s="32" t="n">
+        <v>-28.8</v>
+      </c>
+      <c r="P284" s="32" t="n">
+        <v>-10.6</v>
+      </c>
       <c r="Q284" s="32" t="n"/>
-      <c r="R284" s="23" t="n"/>
+      <c r="R284" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S284" s="37" t="n"/>
-      <c r="T284" s="41" t="n"/>
-      <c r="U284" s="2" t="n"/>
-      <c r="V284" s="4" t="n"/>
-      <c r="W284" s="4" t="n"/>
-      <c r="X284" s="4" t="n"/>
+      <c r="T284" s="41" t="inlineStr">
+        <is>
+          <t>阿勒泰&lt;br&gt;乌伦古湖</t>
+        </is>
+      </c>
+      <c r="U284" s="2" t="inlineStr">
+        <is>
+          <t>新疆</t>
+        </is>
+      </c>
+      <c r="V284" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="W284" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="X284" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="Y284" s="4" t="n"/>
-      <c r="Z284" s="2" t="n"/>
+      <c r="Z284" s="2" t="inlineStr">
+        <is>
+          <t>阿勒泰地区</t>
+        </is>
+      </c>
       <c r="AA284" s="2" t="n"/>
       <c r="AB284" s="2" t="n"/>
       <c r="AC284" s="2" t="n"/>
-      <c r="AD284" s="2" t="n"/>
-      <c r="AE284" s="4" t="n"/>
+      <c r="AD284" s="2" t="inlineStr">
+        <is>
+          <t>中国</t>
+        </is>
+      </c>
+      <c r="AE284" s="4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
       <c r="AF284" s="4" t="n"/>
       <c r="AG284" s="2" t="n"/>
       <c r="AH284" s="2" t="n"/>

--- a/气象/For_Python_站点信息和记录.xlsx
+++ b/气象/For_Python_站点信息和记录.xlsx
@@ -790,8 +790,8 @@
     <col width="18.59765625" customWidth="1" style="8" min="25" max="25"/>
     <col width="12.59765625" customWidth="1" style="5" min="26" max="30"/>
     <col width="12.59765625" customWidth="1" style="8" min="31" max="32"/>
-    <col width="12.59765625" customWidth="1" style="5" min="33" max="250"/>
-    <col width="12.59765625" customWidth="1" style="5" min="251" max="16384"/>
+    <col width="12.59765625" customWidth="1" style="5" min="33" max="258"/>
+    <col width="12.59765625" customWidth="1" style="5" min="259" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.75" customFormat="1" customHeight="1" s="11">
@@ -1014,13 +1014,13 @@
         </is>
       </c>
       <c r="O2" s="32" t="n">
-        <v>-38.3</v>
+        <v>-39.4</v>
       </c>
       <c r="P2" s="32" t="n">
-        <v>-24.2</v>
+        <v>-27</v>
       </c>
       <c r="Q2" s="32" t="n">
-        <v>-31.73</v>
+        <v>-34.16</v>
       </c>
       <c r="R2" s="23" t="inlineStr">
         <is>
@@ -1124,10 +1124,10 @@
         </is>
       </c>
       <c r="O3" s="32" t="n">
-        <v>-39.2</v>
+        <v>-42</v>
       </c>
       <c r="P3" s="32" t="n">
-        <v>-23.6</v>
+        <v>-24.4</v>
       </c>
       <c r="Q3" s="32" t="n"/>
       <c r="R3" s="23" t="n"/>
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="O4" s="32" t="n">
-        <v>-38.3</v>
+        <v>-41.4</v>
       </c>
       <c r="P4" s="32" t="n">
-        <v>-20.6</v>
+        <v>-22.2</v>
       </c>
       <c r="Q4" s="32" t="n"/>
       <c r="R4" s="23" t="n"/>
@@ -1320,10 +1320,10 @@
       </c>
       <c r="N5" s="2" t="n"/>
       <c r="O5" s="32" t="n">
-        <v>-35.5</v>
+        <v>-37</v>
       </c>
       <c r="P5" s="32" t="n">
-        <v>-19.8</v>
+        <v>-23.6</v>
       </c>
       <c r="Q5" s="32" t="n"/>
       <c r="R5" s="23" t="n"/>
@@ -1420,10 +1420,10 @@
         </is>
       </c>
       <c r="O6" s="32" t="n">
-        <v>-36.4</v>
+        <v>-39.2</v>
       </c>
       <c r="P6" s="32" t="n">
-        <v>-18.6</v>
+        <v>-20.4</v>
       </c>
       <c r="Q6" s="32" t="n"/>
       <c r="R6" s="23" t="n"/>
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="O7" s="32" t="n">
-        <v>-32.3</v>
+        <v>-30.8</v>
       </c>
       <c r="P7" s="32" t="n">
-        <v>-19.9</v>
+        <v>-17.3</v>
       </c>
       <c r="Q7" s="32" t="n"/>
       <c r="R7" s="23" t="n"/>
@@ -1628,13 +1628,13 @@
       </c>
       <c r="N8" s="2" t="n"/>
       <c r="O8" s="32" t="n">
-        <v>-31.2</v>
+        <v>-20.1</v>
       </c>
       <c r="P8" s="32" t="n">
-        <v>-12.9</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="Q8" s="32" t="n">
-        <v>-21.89</v>
+        <v>-14.91</v>
       </c>
       <c r="R8" s="23" t="inlineStr">
         <is>
@@ -1740,13 +1740,13 @@
       </c>
       <c r="N9" s="2" t="n"/>
       <c r="O9" s="32" t="n">
-        <v>-34.4</v>
+        <v>-36.3</v>
       </c>
       <c r="P9" s="32" t="n">
-        <v>-19.5</v>
+        <v>-22.6</v>
       </c>
       <c r="Q9" s="32" t="n">
-        <v>-28.69</v>
+        <v>-30.44</v>
       </c>
       <c r="R9" s="23" t="inlineStr">
         <is>
@@ -1856,13 +1856,13 @@
       </c>
       <c r="N10" s="3" t="n"/>
       <c r="O10" s="32" t="n">
-        <v>-38.5</v>
+        <v>-38.6</v>
       </c>
       <c r="P10" s="32" t="n">
-        <v>-21.1</v>
+        <v>-20.5</v>
       </c>
       <c r="Q10" s="32" t="n">
-        <v>-30.19</v>
+        <v>-30.11</v>
       </c>
       <c r="R10" s="23" t="inlineStr">
         <is>
@@ -1972,13 +1972,13 @@
         </is>
       </c>
       <c r="O11" s="32" t="n">
-        <v>-38.2</v>
+        <v>-37.2</v>
       </c>
       <c r="P11" s="32" t="n">
-        <v>-17.4</v>
+        <v>-14.1</v>
       </c>
       <c r="Q11" s="32" t="n">
-        <v>-30.5</v>
+        <v>-28.02</v>
       </c>
       <c r="R11" s="23" t="inlineStr">
         <is>
@@ -2084,13 +2084,13 @@
       </c>
       <c r="N12" s="2" t="n"/>
       <c r="O12" s="32" t="n">
-        <v>-35.5</v>
+        <v>-36.6</v>
       </c>
       <c r="P12" s="32" t="n">
-        <v>-19.1</v>
+        <v>-21.1</v>
       </c>
       <c r="Q12" s="32" t="n">
-        <v>-29.93</v>
+        <v>-30.76</v>
       </c>
       <c r="R12" s="23" t="inlineStr">
         <is>
@@ -2200,13 +2200,13 @@
         </is>
       </c>
       <c r="O13" s="32" t="n">
-        <v>-36.6</v>
+        <v>-31.6</v>
       </c>
       <c r="P13" s="32" t="n">
-        <v>-20.3</v>
+        <v>-17.3</v>
       </c>
       <c r="Q13" s="32" t="n">
-        <v>-29.85</v>
+        <v>-26.56</v>
       </c>
       <c r="R13" s="23" t="inlineStr">
         <is>
@@ -2316,13 +2316,13 @@
       </c>
       <c r="N14" s="2" t="n"/>
       <c r="O14" s="32" t="n">
-        <v>-21</v>
+        <v>-18.6</v>
       </c>
       <c r="P14" s="32" t="n">
-        <v>-11.5</v>
+        <v>-3.5</v>
       </c>
       <c r="Q14" s="32" t="n">
-        <v>-16.98</v>
+        <v>-11.94</v>
       </c>
       <c r="R14" s="23" t="inlineStr">
         <is>
@@ -2518,13 +2518,13 @@
       </c>
       <c r="N16" s="2" t="n"/>
       <c r="O16" s="32" t="n">
-        <v>-23.4</v>
+        <v>-25.3</v>
       </c>
       <c r="P16" s="32" t="n">
-        <v>-12</v>
+        <v>-2.3</v>
       </c>
       <c r="Q16" s="32" t="n">
-        <v>-18.15</v>
+        <v>-15.26</v>
       </c>
       <c r="R16" s="23" t="inlineStr">
         <is>
@@ -7826,13 +7826,13 @@
       </c>
       <c r="N75" s="2" t="n"/>
       <c r="O75" s="32" t="n">
-        <v>-19.4</v>
+        <v>-21.8</v>
       </c>
       <c r="P75" s="32" t="n">
-        <v>-7.4</v>
+        <v>-6.7</v>
       </c>
       <c r="Q75" s="32" t="n">
-        <v>-13.93</v>
+        <v>-15.69</v>
       </c>
       <c r="R75" s="23" t="inlineStr">
         <is>
@@ -7938,13 +7938,13 @@
       </c>
       <c r="N76" s="2" t="n"/>
       <c r="O76" s="32" t="n">
-        <v>-35.2</v>
+        <v>-27.1</v>
       </c>
       <c r="P76" s="32" t="n">
-        <v>-19.4</v>
+        <v>-11.3</v>
       </c>
       <c r="Q76" s="32" t="n">
-        <v>-27.98</v>
+        <v>-18.95</v>
       </c>
       <c r="R76" s="23" t="inlineStr">
         <is>
@@ -8054,13 +8054,13 @@
         </is>
       </c>
       <c r="O77" s="32" t="n">
-        <v>-38.2</v>
+        <v>-30</v>
       </c>
       <c r="P77" s="32" t="n">
-        <v>-13.9</v>
+        <v>-14.7</v>
       </c>
       <c r="Q77" s="32" t="n">
-        <v>-28.82</v>
+        <v>-22.19</v>
       </c>
       <c r="R77" s="23" t="inlineStr">
         <is>
@@ -8170,13 +8170,13 @@
       </c>
       <c r="N78" s="2" t="n"/>
       <c r="O78" s="32" t="n">
-        <v>-34.8</v>
+        <v>-28.1</v>
       </c>
       <c r="P78" s="32" t="n">
-        <v>-14.7</v>
+        <v>-13.5</v>
       </c>
       <c r="Q78" s="32" t="n">
-        <v>-25.66</v>
+        <v>-20.79</v>
       </c>
       <c r="R78" s="23" t="inlineStr">
         <is>
@@ -8286,13 +8286,13 @@
         </is>
       </c>
       <c r="O79" s="32" t="n">
-        <v>-38.1</v>
+        <v>-30.6</v>
       </c>
       <c r="P79" s="32" t="n">
-        <v>-12.3</v>
+        <v>-11.2</v>
       </c>
       <c r="Q79" s="32" t="n">
-        <v>-27.68</v>
+        <v>-20.43</v>
       </c>
       <c r="R79" s="23" t="inlineStr">
         <is>
@@ -8398,13 +8398,13 @@
       </c>
       <c r="N80" s="2" t="n"/>
       <c r="O80" s="32" t="n">
-        <v>-13.4</v>
+        <v>-28.1</v>
       </c>
       <c r="P80" s="32" t="n">
-        <v>-6.1</v>
+        <v>-13.2</v>
       </c>
       <c r="Q80" s="32" t="n">
-        <v>-11.09</v>
+        <v>-19.88</v>
       </c>
       <c r="R80" s="23" t="inlineStr">
         <is>
@@ -8514,13 +8514,13 @@
         </is>
       </c>
       <c r="O81" s="32" t="n">
-        <v>-19.1</v>
+        <v>-39</v>
       </c>
       <c r="P81" s="32" t="n">
-        <v>-6.4</v>
+        <v>-10.4</v>
       </c>
       <c r="Q81" s="32" t="n">
-        <v>-10.39</v>
+        <v>-26.01</v>
       </c>
       <c r="R81" s="23" t="inlineStr">
         <is>
@@ -8635,13 +8635,13 @@
         </is>
       </c>
       <c r="O82" s="32" t="n">
-        <v>-20</v>
+        <v>-39</v>
       </c>
       <c r="P82" s="32" t="n">
-        <v>-6.7</v>
+        <v>-11</v>
       </c>
       <c r="Q82" s="32" t="n">
-        <v>-10.45</v>
+        <v>-26.75</v>
       </c>
       <c r="R82" s="23" t="inlineStr">
         <is>
@@ -8754,10 +8754,10 @@
         <v>-19.6</v>
       </c>
       <c r="P83" s="32" t="n">
-        <v>-8.5</v>
+        <v>-10.2</v>
       </c>
       <c r="Q83" s="32" t="n">
-        <v>-13.09</v>
+        <v>-14.19</v>
       </c>
       <c r="R83" s="23" t="inlineStr">
         <is>
@@ -8871,13 +8871,13 @@
         </is>
       </c>
       <c r="O84" s="32" t="n">
-        <v>-33.6</v>
+        <v>-14.8</v>
       </c>
       <c r="P84" s="32" t="n">
-        <v>-14.4</v>
+        <v>-3.5</v>
       </c>
       <c r="Q84" s="32" t="n">
-        <v>-24.37</v>
+        <v>-9.01</v>
       </c>
       <c r="R84" s="23" t="inlineStr">
         <is>
@@ -8991,13 +8991,13 @@
         </is>
       </c>
       <c r="O85" s="32" t="n">
-        <v>-33.2</v>
+        <v>-37.3</v>
       </c>
       <c r="P85" s="32" t="n">
-        <v>-18.5</v>
+        <v>-19</v>
       </c>
       <c r="Q85" s="32" t="n">
-        <v>-27</v>
+        <v>-29.24</v>
       </c>
       <c r="R85" s="23" t="inlineStr">
         <is>
@@ -9103,13 +9103,13 @@
       </c>
       <c r="N86" s="2" t="n"/>
       <c r="O86" s="32" t="n">
-        <v>-29.2</v>
+        <v>-32.3</v>
       </c>
       <c r="P86" s="32" t="n">
-        <v>-16.4</v>
+        <v>-19.4</v>
       </c>
       <c r="Q86" s="32" t="n">
-        <v>-23.42</v>
+        <v>-26.51</v>
       </c>
       <c r="R86" s="23" t="inlineStr">
         <is>
@@ -9227,13 +9227,13 @@
         </is>
       </c>
       <c r="O87" s="32" t="n">
-        <v>-31.9</v>
+        <v>-36.1</v>
       </c>
       <c r="P87" s="32" t="n">
-        <v>-17.8</v>
+        <v>-22</v>
       </c>
       <c r="Q87" s="32" t="n">
-        <v>-25.86</v>
+        <v>-29.57</v>
       </c>
       <c r="R87" s="23" t="inlineStr">
         <is>
@@ -9339,13 +9339,13 @@
       </c>
       <c r="N88" s="2" t="n"/>
       <c r="O88" s="32" t="n">
-        <v>-32.6</v>
+        <v>-33.9</v>
       </c>
       <c r="P88" s="32" t="n">
-        <v>-17.7</v>
+        <v>-16.4</v>
       </c>
       <c r="Q88" s="32" t="n">
-        <v>-26.2</v>
+        <v>-26.51</v>
       </c>
       <c r="R88" s="23" t="inlineStr">
         <is>
@@ -9557,13 +9557,13 @@
         </is>
       </c>
       <c r="O90" s="32" t="n">
-        <v>-32</v>
+        <v>-22.3</v>
       </c>
       <c r="P90" s="32" t="n">
-        <v>-13.4</v>
+        <v>-3.8</v>
       </c>
       <c r="Q90" s="32" t="n">
-        <v>-24.46</v>
+        <v>-13.8</v>
       </c>
       <c r="R90" s="23" t="inlineStr">
         <is>
@@ -9665,13 +9665,13 @@
       </c>
       <c r="N91" s="2" t="n"/>
       <c r="O91" s="32" t="n">
-        <v>-33.5</v>
+        <v>-27.8</v>
       </c>
       <c r="P91" s="32" t="n">
-        <v>-18.4</v>
+        <v>-14.4</v>
       </c>
       <c r="Q91" s="32" t="n">
-        <v>-26.05</v>
+        <v>-21.28</v>
       </c>
       <c r="R91" s="23" t="inlineStr">
         <is>
@@ -9773,13 +9773,13 @@
       </c>
       <c r="N92" s="2" t="n"/>
       <c r="O92" s="32" t="n">
-        <v>-7.8</v>
+        <v>-15.5</v>
       </c>
       <c r="P92" s="32" t="n">
-        <v>5.7</v>
+        <v>-2</v>
       </c>
       <c r="Q92" s="32" t="n">
-        <v>-2.16</v>
+        <v>-10.04</v>
       </c>
       <c r="R92" s="23" t="inlineStr">
         <is>
@@ -9885,13 +9885,13 @@
       </c>
       <c r="N93" s="2" t="n"/>
       <c r="O93" s="32" t="n">
-        <v>-3.3</v>
+        <v>-11.6</v>
       </c>
       <c r="P93" s="32" t="n">
-        <v>8.800000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="Q93" s="32" t="n">
-        <v>3.51</v>
+        <v>-1.5</v>
       </c>
       <c r="R93" s="23" t="inlineStr">
         <is>
@@ -10005,10 +10005,10 @@
         </is>
       </c>
       <c r="O94" s="32" t="n">
-        <v>-5.8</v>
+        <v>-15.6</v>
       </c>
       <c r="P94" s="32" t="n">
-        <v>7.2</v>
+        <v>3.7</v>
       </c>
       <c r="Q94" s="32" t="n"/>
       <c r="R94" s="23" t="inlineStr">
@@ -10123,12 +10123,14 @@
       </c>
       <c r="N95" s="2" t="n"/>
       <c r="O95" s="32" t="n">
-        <v>-2.3</v>
+        <v>-8</v>
       </c>
       <c r="P95" s="32" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="Q95" s="32" t="n"/>
+        <v>-0.3</v>
+      </c>
+      <c r="Q95" s="32" t="n">
+        <v>-4.53</v>
+      </c>
       <c r="R95" s="23" t="inlineStr">
         <is>
           <t>Y</t>
@@ -10249,10 +10251,10 @@
         </is>
       </c>
       <c r="O96" s="32" t="n">
-        <v>-13.1</v>
+        <v>-18.1</v>
       </c>
       <c r="P96" s="32" t="n">
-        <v>7.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q96" s="32" t="n"/>
       <c r="R96" s="23" t="inlineStr">
@@ -10367,13 +10369,13 @@
       </c>
       <c r="N97" s="2" t="n"/>
       <c r="O97" s="32" t="n">
-        <v>-10.1</v>
+        <v>-11.9</v>
       </c>
       <c r="P97" s="32" t="n">
-        <v>1.9</v>
+        <v>-2.6</v>
       </c>
       <c r="Q97" s="32" t="n">
-        <v>-4.96</v>
+        <v>-7.01</v>
       </c>
       <c r="R97" s="23" t="inlineStr">
         <is>
@@ -10483,10 +10485,10 @@
       </c>
       <c r="N98" s="2" t="n"/>
       <c r="O98" s="32" t="n">
-        <v>-22.6</v>
+        <v>-23.5</v>
       </c>
       <c r="P98" s="32" t="n">
-        <v>-9.699999999999999</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="Q98" s="32" t="n"/>
       <c r="R98" s="23" t="inlineStr">
@@ -10601,13 +10603,13 @@
       </c>
       <c r="N99" s="2" t="n"/>
       <c r="O99" s="32" t="n">
-        <v>-26.6</v>
+        <v>-19.5</v>
       </c>
       <c r="P99" s="32" t="n">
-        <v>-13.6</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="Q99" s="32" t="n">
-        <v>-20.19</v>
+        <v>-14.63</v>
       </c>
       <c r="R99" s="23" t="inlineStr">
         <is>
@@ -10818,8 +10820,12 @@
         </is>
       </c>
       <c r="N101" s="2" t="n"/>
-      <c r="O101" s="32" t="n"/>
-      <c r="P101" s="32" t="n"/>
+      <c r="O101" s="32" t="n">
+        <v>-33.8</v>
+      </c>
+      <c r="P101" s="32" t="n">
+        <v>-12.7</v>
+      </c>
       <c r="Q101" s="32" t="n"/>
       <c r="R101" s="23" t="inlineStr">
         <is>
@@ -10933,13 +10939,13 @@
       </c>
       <c r="N102" s="2" t="n"/>
       <c r="O102" s="32" t="n">
-        <v>-20.1</v>
+        <v>-34</v>
       </c>
       <c r="P102" s="32" t="n">
-        <v>-10.7</v>
+        <v>-13.3</v>
       </c>
       <c r="Q102" s="32" t="n">
-        <v>-15.38</v>
+        <v>-23.15</v>
       </c>
       <c r="R102" s="23" t="inlineStr">
         <is>
@@ -11049,10 +11055,10 @@
       </c>
       <c r="N103" s="2" t="n"/>
       <c r="O103" s="32" t="n">
-        <v>-19.8</v>
+        <v>-33</v>
       </c>
       <c r="P103" s="32" t="n">
-        <v>-8.800000000000001</v>
+        <v>-12.4</v>
       </c>
       <c r="Q103" s="32" t="n"/>
       <c r="R103" s="23" t="inlineStr">
@@ -11159,10 +11165,10 @@
       </c>
       <c r="N104" s="2" t="n"/>
       <c r="O104" s="32" t="n">
-        <v>-12.6</v>
+        <v>-31.7</v>
       </c>
       <c r="P104" s="32" t="n">
-        <v>-7.4</v>
+        <v>-11</v>
       </c>
       <c r="Q104" s="32" t="n"/>
       <c r="R104" s="23" t="inlineStr">
@@ -11281,13 +11287,13 @@
         </is>
       </c>
       <c r="O105" s="32" t="n">
-        <v>-17.7</v>
+        <v>-35.5</v>
       </c>
       <c r="P105" s="32" t="n">
-        <v>-6.8</v>
+        <v>-12.2</v>
       </c>
       <c r="Q105" s="32" t="n">
-        <v>-10.3</v>
+        <v>-22.82</v>
       </c>
       <c r="R105" s="23" t="inlineStr">
         <is>
@@ -11401,10 +11407,10 @@
         </is>
       </c>
       <c r="O106" s="32" t="n">
-        <v>-16.8</v>
+        <v>-32.2</v>
       </c>
       <c r="P106" s="32" t="n">
-        <v>-6.3</v>
+        <v>-11.8</v>
       </c>
       <c r="Q106" s="32" t="n"/>
       <c r="R106" s="23" t="inlineStr">
@@ -11625,13 +11631,13 @@
       </c>
       <c r="N108" s="2" t="n"/>
       <c r="O108" s="32" t="n">
-        <v>-15</v>
+        <v>-20.7</v>
       </c>
       <c r="P108" s="32" t="n">
-        <v>-8.5</v>
+        <v>-9.9</v>
       </c>
       <c r="Q108" s="32" t="n">
-        <v>-12.81</v>
+        <v>-15.21</v>
       </c>
       <c r="R108" s="23" t="inlineStr">
         <is>
@@ -11953,13 +11959,13 @@
       </c>
       <c r="N111" s="2" t="n"/>
       <c r="O111" s="32" t="n">
-        <v>-14.9</v>
+        <v>-19.9</v>
       </c>
       <c r="P111" s="32" t="n">
-        <v>-2.4</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="Q111" s="32" t="n">
-        <v>-11.84</v>
+        <v>-13.1</v>
       </c>
       <c r="R111" s="23" t="inlineStr">
         <is>
@@ -12065,10 +12071,10 @@
       </c>
       <c r="N112" s="2" t="n"/>
       <c r="O112" s="32" t="n">
-        <v>-11.4</v>
+        <v>-22.1</v>
       </c>
       <c r="P112" s="32" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="Q112" s="32" t="n"/>
       <c r="R112" s="23" t="inlineStr">
@@ -12171,10 +12177,10 @@
       </c>
       <c r="N113" s="2" t="n"/>
       <c r="O113" s="32" t="n">
-        <v>-12.7</v>
+        <v>-20</v>
       </c>
       <c r="P113" s="32" t="n">
-        <v>-5.1</v>
+        <v>0.9</v>
       </c>
       <c r="Q113" s="32" t="n"/>
       <c r="R113" s="23" t="inlineStr">
@@ -12285,10 +12291,10 @@
         </is>
       </c>
       <c r="O114" s="32" t="n">
-        <v>-26.1</v>
+        <v>-23.9</v>
       </c>
       <c r="P114" s="32" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="Q114" s="32" t="n"/>
       <c r="R114" s="23" t="inlineStr">
@@ -12407,10 +12413,10 @@
         </is>
       </c>
       <c r="O115" s="32" t="n">
-        <v>-14.8</v>
+        <v>-19</v>
       </c>
       <c r="P115" s="32" t="n">
-        <v>-4.7</v>
+        <v>-2.3</v>
       </c>
       <c r="Q115" s="32" t="n"/>
       <c r="R115" s="23" t="inlineStr">
@@ -12525,13 +12531,13 @@
       </c>
       <c r="N116" s="2" t="n"/>
       <c r="O116" s="32" t="n">
-        <v>-12.2</v>
+        <v>-14.8</v>
       </c>
       <c r="P116" s="32" t="n">
-        <v>-0.1</v>
+        <v>4.4</v>
       </c>
       <c r="Q116" s="32" t="n">
-        <v>-5.94</v>
+        <v>-5.56</v>
       </c>
       <c r="R116" s="23" t="inlineStr">
         <is>
@@ -12637,10 +12643,10 @@
       </c>
       <c r="N117" s="2" t="n"/>
       <c r="O117" s="32" t="n">
-        <v>-16.1</v>
+        <v>-17.3</v>
       </c>
       <c r="P117" s="32" t="n">
-        <v>-2.8</v>
+        <v>0.8</v>
       </c>
       <c r="Q117" s="32" t="n"/>
       <c r="R117" s="23" t="inlineStr">
@@ -12751,10 +12757,10 @@
         </is>
       </c>
       <c r="O118" s="32" t="n">
-        <v>-27.4</v>
+        <v>-24.7</v>
       </c>
       <c r="P118" s="32" t="n">
-        <v>-7.8</v>
+        <v>-4.4</v>
       </c>
       <c r="Q118" s="32" t="n"/>
       <c r="R118" s="23" t="inlineStr">
@@ -12869,13 +12875,13 @@
       </c>
       <c r="N119" s="2" t="n"/>
       <c r="O119" s="32" t="n">
-        <v>-23.9</v>
+        <v>-12.3</v>
       </c>
       <c r="P119" s="32" t="n">
-        <v>-6.4</v>
+        <v>1</v>
       </c>
       <c r="Q119" s="32" t="n">
-        <v>-16.76</v>
+        <v>-5.66</v>
       </c>
       <c r="R119" s="23" t="inlineStr">
         <is>
@@ -13099,13 +13105,13 @@
       </c>
       <c r="N121" s="2" t="n"/>
       <c r="O121" s="32" t="n">
-        <v>-10.2</v>
+        <v>-9</v>
       </c>
       <c r="P121" s="32" t="n">
-        <v>-4.2</v>
+        <v>-1.1</v>
       </c>
       <c r="Q121" s="32" t="n">
-        <v>-8.25</v>
+        <v>-5.96</v>
       </c>
       <c r="R121" s="23" t="inlineStr">
         <is>
@@ -13223,10 +13229,10 @@
       </c>
       <c r="N122" s="2" t="n"/>
       <c r="O122" s="32" t="n">
-        <v>-17.5</v>
+        <v>-14.3</v>
       </c>
       <c r="P122" s="32" t="n">
-        <v>-2.2</v>
+        <v>-7</v>
       </c>
       <c r="Q122" s="32" t="n"/>
       <c r="R122" s="23" t="inlineStr">
@@ -13451,13 +13457,13 @@
       </c>
       <c r="N124" s="2" t="n"/>
       <c r="O124" s="32" t="n">
-        <v>-5.7</v>
+        <v>-14.8</v>
       </c>
       <c r="P124" s="32" t="n">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="Q124" s="32" t="n">
-        <v>-1.31</v>
+        <v>-7.26</v>
       </c>
       <c r="R124" s="23" t="inlineStr">
         <is>
@@ -13575,13 +13581,13 @@
       </c>
       <c r="N125" s="2" t="n"/>
       <c r="O125" s="32" t="n">
-        <v>-1.6</v>
+        <v>-7.7</v>
       </c>
       <c r="P125" s="32" t="n">
-        <v>16</v>
+        <v>12.7</v>
       </c>
       <c r="Q125" s="32" t="n">
-        <v>6.66</v>
+        <v>2.75</v>
       </c>
       <c r="R125" s="23" t="inlineStr">
         <is>
@@ -13675,10 +13681,10 @@
       </c>
       <c r="N126" s="2" t="n"/>
       <c r="O126" s="32" t="n">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="P126" s="32" t="n">
-        <v>16.8</v>
+        <v>12.1</v>
       </c>
       <c r="Q126" s="32" t="n"/>
       <c r="R126" s="23" t="inlineStr">
@@ -13785,13 +13791,13 @@
       </c>
       <c r="N127" s="2" t="n"/>
       <c r="O127" s="32" t="n">
-        <v>-2.5</v>
+        <v>-5.3</v>
       </c>
       <c r="P127" s="32" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="Q127" s="32" t="n">
-        <v>2.44</v>
+        <v>0.09</v>
       </c>
       <c r="R127" s="23" t="inlineStr">
         <is>
@@ -13905,10 +13911,10 @@
       </c>
       <c r="N128" s="2" t="n"/>
       <c r="O128" s="32" t="n">
-        <v>1.1</v>
+        <v>-3.4</v>
       </c>
       <c r="P128" s="32" t="n">
-        <v>17</v>
+        <v>14.2</v>
       </c>
       <c r="Q128" s="32" t="n"/>
       <c r="R128" s="23" t="inlineStr">
@@ -14015,13 +14021,13 @@
       </c>
       <c r="N129" s="2" t="n"/>
       <c r="O129" s="32" t="n">
-        <v>-5.1</v>
+        <v>-7.9</v>
       </c>
       <c r="P129" s="32" t="n">
-        <v>17.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="Q129" s="32" t="n">
-        <v>4.73</v>
+        <v>0.26</v>
       </c>
       <c r="R129" s="23" t="inlineStr">
         <is>
@@ -14135,13 +14141,13 @@
       </c>
       <c r="N130" s="2" t="n"/>
       <c r="O130" s="32" t="n">
-        <v>-8.5</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="P130" s="32" t="n">
-        <v>8.9</v>
+        <v>8.6</v>
       </c>
       <c r="Q130" s="32" t="n">
-        <v>-0.1</v>
+        <v>-1.15</v>
       </c>
       <c r="R130" s="23" t="inlineStr">
         <is>
@@ -14255,13 +14261,13 @@
       </c>
       <c r="N131" s="2" t="n"/>
       <c r="O131" s="32" t="n">
-        <v>10.8</v>
+        <v>-1.8</v>
       </c>
       <c r="P131" s="32" t="n">
-        <v>22.2</v>
+        <v>10.9</v>
       </c>
       <c r="Q131" s="32" t="n">
-        <v>15.24</v>
+        <v>3.93</v>
       </c>
       <c r="R131" s="23" t="inlineStr">
         <is>
@@ -14371,13 +14377,13 @@
       </c>
       <c r="N132" s="2" t="n"/>
       <c r="O132" s="32" t="n">
-        <v>2</v>
+        <v>-3.2</v>
       </c>
       <c r="P132" s="32" t="n">
-        <v>24.3</v>
+        <v>14.5</v>
       </c>
       <c r="Q132" s="32" t="n">
-        <v>12.1</v>
+        <v>4.6</v>
       </c>
       <c r="R132" s="23" t="inlineStr">
         <is>
@@ -14487,13 +14493,13 @@
       </c>
       <c r="N133" s="2" t="n"/>
       <c r="O133" s="32" t="n">
-        <v>2.7</v>
+        <v>-1.2</v>
       </c>
       <c r="P133" s="32" t="n">
-        <v>19.3</v>
+        <v>11.1</v>
       </c>
       <c r="Q133" s="32" t="n">
-        <v>10.34</v>
+        <v>4.73</v>
       </c>
       <c r="R133" s="23" t="inlineStr">
         <is>
@@ -14709,13 +14715,13 @@
       </c>
       <c r="N135" s="2" t="n"/>
       <c r="O135" s="32" t="n">
-        <v>9.9</v>
+        <v>1.6</v>
       </c>
       <c r="P135" s="32" t="n">
-        <v>23.7</v>
+        <v>4.9</v>
       </c>
       <c r="Q135" s="32" t="n">
-        <v>14.64</v>
+        <v>2.95</v>
       </c>
       <c r="R135" s="23" t="inlineStr">
         <is>
@@ -14825,13 +14831,13 @@
       </c>
       <c r="N136" s="2" t="n"/>
       <c r="O136" s="32" t="n">
-        <v>10.9</v>
+        <v>3.4</v>
       </c>
       <c r="P136" s="32" t="n">
-        <v>20.1</v>
+        <v>8.1</v>
       </c>
       <c r="Q136" s="32" t="n">
-        <v>13.84</v>
+        <v>5.22</v>
       </c>
       <c r="R136" s="23" t="inlineStr">
         <is>
@@ -14941,13 +14947,13 @@
       </c>
       <c r="N137" s="2" t="n"/>
       <c r="O137" s="32" t="n">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="P137" s="32" t="n">
-        <v>21.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Q137" s="32" t="n">
-        <v>11.21</v>
+        <v>4.14</v>
       </c>
       <c r="R137" s="23" t="inlineStr">
         <is>
@@ -15057,10 +15063,10 @@
       </c>
       <c r="N138" s="2" t="n"/>
       <c r="O138" s="32" t="n">
-        <v>1.4</v>
+        <v>-0.5</v>
       </c>
       <c r="P138" s="32" t="n">
-        <v>22.2</v>
+        <v>8.4</v>
       </c>
       <c r="Q138" s="32" t="n"/>
       <c r="R138" s="23" t="inlineStr">
@@ -15171,13 +15177,13 @@
       </c>
       <c r="N139" s="2" t="n"/>
       <c r="O139" s="32" t="n">
-        <v>5.9</v>
+        <v>3.2</v>
       </c>
       <c r="P139" s="32" t="n">
-        <v>21.9</v>
+        <v>10.5</v>
       </c>
       <c r="Q139" s="32" t="n">
-        <v>12.96</v>
+        <v>6.08</v>
       </c>
       <c r="R139" s="23" t="inlineStr">
         <is>
@@ -15287,13 +15293,13 @@
       </c>
       <c r="N140" s="2" t="n"/>
       <c r="O140" s="32" t="n">
-        <v>10.8</v>
+        <v>4</v>
       </c>
       <c r="P140" s="32" t="n">
-        <v>22.1</v>
+        <v>8.5</v>
       </c>
       <c r="Q140" s="32" t="n">
-        <v>15.19</v>
+        <v>5.9</v>
       </c>
       <c r="R140" s="23" t="inlineStr">
         <is>
@@ -15505,13 +15511,13 @@
       </c>
       <c r="N142" s="2" t="n"/>
       <c r="O142" s="32" t="n">
-        <v>13.7</v>
+        <v>10.6</v>
       </c>
       <c r="P142" s="32" t="n">
-        <v>28.7</v>
+        <v>12.9</v>
       </c>
       <c r="Q142" s="32" t="n">
-        <v>19.48</v>
+        <v>11.31</v>
       </c>
       <c r="R142" s="23" t="inlineStr">
         <is>
@@ -15621,13 +15627,13 @@
       </c>
       <c r="N143" s="2" t="n"/>
       <c r="O143" s="32" t="n">
-        <v>14</v>
+        <v>15.1</v>
       </c>
       <c r="P143" s="32" t="n">
-        <v>28.2</v>
+        <v>21.1</v>
       </c>
       <c r="Q143" s="32" t="n">
-        <v>19.71</v>
+        <v>17.07</v>
       </c>
       <c r="R143" s="23" t="inlineStr">
         <is>
@@ -15937,13 +15943,13 @@
       </c>
       <c r="N146" s="2" t="n"/>
       <c r="O146" s="32" t="n">
-        <v>21.1</v>
+        <v>22.6</v>
       </c>
       <c r="P146" s="32" t="n">
-        <v>26.5</v>
+        <v>28.6</v>
       </c>
       <c r="Q146" s="32" t="n">
-        <v>23.8</v>
+        <v>24.77</v>
       </c>
       <c r="R146" s="23" t="inlineStr">
         <is>
@@ -16045,13 +16051,13 @@
       </c>
       <c r="N147" s="2" t="n"/>
       <c r="O147" s="32" t="n">
-        <v>16.9</v>
+        <v>12.3</v>
       </c>
       <c r="P147" s="32" t="n">
-        <v>26</v>
+        <v>22.6</v>
       </c>
       <c r="Q147" s="32" t="n">
-        <v>21.1</v>
+        <v>14.24</v>
       </c>
       <c r="R147" s="23" t="inlineStr">
         <is>
@@ -16263,13 +16269,13 @@
       </c>
       <c r="N149" s="2" t="n"/>
       <c r="O149" s="32" t="n">
-        <v>6.7</v>
+        <v>5.3</v>
       </c>
       <c r="P149" s="32" t="n">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
       <c r="Q149" s="32" t="n">
-        <v>13.81</v>
+        <v>13.6</v>
       </c>
       <c r="R149" s="23" t="inlineStr">
         <is>
@@ -16379,13 +16385,13 @@
       </c>
       <c r="N150" s="2" t="n"/>
       <c r="O150" s="32" t="n">
-        <v>8.699999999999999</v>
+        <v>3.1</v>
       </c>
       <c r="P150" s="32" t="n">
-        <v>20.8</v>
+        <v>12.5</v>
       </c>
       <c r="Q150" s="32" t="n">
-        <v>13.38</v>
+        <v>6.79</v>
       </c>
       <c r="R150" s="23" t="inlineStr">
         <is>
@@ -16495,13 +16501,13 @@
       </c>
       <c r="N151" s="2" t="n"/>
       <c r="O151" s="32" t="n">
-        <v>8.1</v>
+        <v>10.7</v>
       </c>
       <c r="P151" s="32" t="n">
-        <v>22.2</v>
+        <v>15.6</v>
       </c>
       <c r="Q151" s="32" t="n">
-        <v>13.85</v>
+        <v>12.64</v>
       </c>
       <c r="R151" s="23" t="inlineStr">
         <is>
@@ -16701,13 +16707,13 @@
       </c>
       <c r="N153" s="2" t="n"/>
       <c r="O153" s="32" t="n">
-        <v>3.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="P153" s="32" t="n">
-        <v>18.2</v>
+        <v>12.2</v>
       </c>
       <c r="Q153" s="32" t="n">
-        <v>10.22</v>
+        <v>10.54</v>
       </c>
       <c r="R153" s="23" t="inlineStr">
         <is>
@@ -16821,14 +16827,12 @@
       </c>
       <c r="N154" s="2" t="n"/>
       <c r="O154" s="32" t="n">
-        <v>-5.1</v>
+        <v>-4.8</v>
       </c>
       <c r="P154" s="32" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="Q154" s="32" t="n">
-        <v>1.89</v>
-      </c>
+        <v>12.9</v>
+      </c>
+      <c r="Q154" s="32" t="n"/>
       <c r="R154" s="23" t="inlineStr">
         <is>
           <t>Y</t>
@@ -17023,10 +17027,10 @@
       </c>
       <c r="N156" s="2" t="n"/>
       <c r="O156" s="32" t="n">
-        <v>-12.3</v>
+        <v>-23.6</v>
       </c>
       <c r="P156" s="32" t="n">
-        <v>5.6</v>
+        <v>2</v>
       </c>
       <c r="Q156" s="32" t="n"/>
       <c r="R156" s="23" t="inlineStr">
@@ -17129,10 +17133,10 @@
       </c>
       <c r="N157" s="2" t="n"/>
       <c r="O157" s="32" t="n">
-        <v>11.6</v>
+        <v>4.5</v>
       </c>
       <c r="P157" s="32" t="n">
-        <v>22</v>
+        <v>10.6</v>
       </c>
       <c r="Q157" s="32" t="n"/>
       <c r="R157" s="23" t="inlineStr">
@@ -17513,10 +17517,10 @@
       </c>
       <c r="N161" s="2" t="n"/>
       <c r="O161" s="32" t="n">
-        <v>-4.8</v>
+        <v>-3.6</v>
       </c>
       <c r="P161" s="32" t="n">
-        <v>10.3</v>
+        <v>11</v>
       </c>
       <c r="Q161" s="32" t="n"/>
       <c r="R161" s="23" t="inlineStr">
@@ -17626,8 +17630,12 @@
           <t>⚡</t>
         </is>
       </c>
-      <c r="O162" s="32" t="n"/>
-      <c r="P162" s="32" t="n"/>
+      <c r="O162" s="32" t="n">
+        <v>-37</v>
+      </c>
+      <c r="P162" s="32" t="n">
+        <v>-13.5</v>
+      </c>
       <c r="Q162" s="32" t="n"/>
       <c r="R162" s="23" t="inlineStr">
         <is>
@@ -17736,12 +17744,8 @@
           <t>▼</t>
         </is>
       </c>
-      <c r="O163" s="32" t="n">
-        <v>-21.3</v>
-      </c>
-      <c r="P163" s="32" t="n">
-        <v>-11.5</v>
-      </c>
+      <c r="O163" s="32" t="n"/>
+      <c r="P163" s="32" t="n"/>
       <c r="Q163" s="32" t="n"/>
       <c r="R163" s="23" t="inlineStr">
         <is>
@@ -17957,10 +17961,10 @@
         </is>
       </c>
       <c r="O165" s="32" t="n">
-        <v>-16.4</v>
+        <v>-32.2</v>
       </c>
       <c r="P165" s="32" t="n">
-        <v>-4.5</v>
+        <v>-11.4</v>
       </c>
       <c r="Q165" s="32" t="n"/>
       <c r="R165" s="23" t="inlineStr">
@@ -18279,10 +18283,10 @@
         </is>
       </c>
       <c r="O168" s="32" t="n">
-        <v>-32</v>
+        <v>-28.3</v>
       </c>
       <c r="P168" s="32" t="n">
-        <v>-7.3</v>
+        <v>-4.5</v>
       </c>
       <c r="Q168" s="32" t="n"/>
       <c r="R168" s="23" t="inlineStr">
@@ -18393,10 +18397,10 @@
         </is>
       </c>
       <c r="O169" s="32" t="n">
-        <v>-32.1</v>
+        <v>-29.6</v>
       </c>
       <c r="P169" s="32" t="n">
-        <v>-8.300000000000001</v>
+        <v>-5.1</v>
       </c>
       <c r="Q169" s="32" t="n"/>
       <c r="R169" s="23" t="inlineStr">
@@ -18507,10 +18511,10 @@
         </is>
       </c>
       <c r="O170" s="32" t="n">
-        <v>-39.3</v>
+        <v>-39</v>
       </c>
       <c r="P170" s="32" t="n">
-        <v>-16.5</v>
+        <v>-13.9</v>
       </c>
       <c r="Q170" s="32" t="n"/>
       <c r="R170" s="23" t="inlineStr">
@@ -18715,10 +18719,10 @@
       </c>
       <c r="N172" s="3" t="n"/>
       <c r="O172" s="32" t="n">
-        <v>-16.3</v>
+        <v>-13.9</v>
       </c>
       <c r="P172" s="32" t="n">
-        <v>-0.7</v>
+        <v>-3.8</v>
       </c>
       <c r="Q172" s="32" t="n"/>
       <c r="R172" s="23" t="inlineStr">
@@ -18825,10 +18829,10 @@
       </c>
       <c r="N173" s="2" t="n"/>
       <c r="O173" s="32" t="n">
-        <v>-14.3</v>
+        <v>-23</v>
       </c>
       <c r="P173" s="32" t="n">
-        <v>-4.1</v>
+        <v>-2.4</v>
       </c>
       <c r="Q173" s="32" t="n"/>
       <c r="R173" s="23" t="inlineStr">
@@ -19143,10 +19147,10 @@
       </c>
       <c r="N176" s="2" t="n"/>
       <c r="O176" s="32" t="n">
-        <v>3.8</v>
+        <v>-2.8</v>
       </c>
       <c r="P176" s="32" t="n">
-        <v>10.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q176" s="32" t="n"/>
       <c r="R176" s="23" t="inlineStr">
@@ -19241,10 +19245,10 @@
       </c>
       <c r="N177" s="2" t="n"/>
       <c r="O177" s="32" t="n">
-        <v>-12.2</v>
+        <v>-19.2</v>
       </c>
       <c r="P177" s="32" t="n">
-        <v>-7.1</v>
+        <v>-14.5</v>
       </c>
       <c r="Q177" s="32" t="n"/>
       <c r="R177" s="23" t="inlineStr">
@@ -19346,12 +19350,8 @@
         </is>
       </c>
       <c r="N178" s="2" t="n"/>
-      <c r="O178" s="32" t="n">
-        <v>-31.7</v>
-      </c>
-      <c r="P178" s="32" t="n">
-        <v>-11.7</v>
-      </c>
+      <c r="O178" s="32" t="n"/>
+      <c r="P178" s="32" t="n"/>
       <c r="Q178" s="32" t="n"/>
       <c r="R178" s="23" t="inlineStr">
         <is>
@@ -20124,13 +20124,13 @@
       </c>
       <c r="N186" s="2" t="n"/>
       <c r="O186" s="32" t="n">
-        <v>-48.9</v>
+        <v>-43.7</v>
       </c>
       <c r="P186" s="32" t="n">
-        <v>-34.5</v>
+        <v>-36</v>
       </c>
       <c r="Q186" s="32" t="n">
-        <v>-43.84</v>
+        <v>-39.19</v>
       </c>
       <c r="R186" s="23" t="inlineStr">
         <is>
@@ -20233,13 +20233,13 @@
       </c>
       <c r="N187" s="2" t="n"/>
       <c r="O187" s="32" t="n">
-        <v>-45.4</v>
+        <v>-48.7</v>
       </c>
       <c r="P187" s="32" t="n">
-        <v>-34.9</v>
+        <v>-37.7</v>
       </c>
       <c r="Q187" s="32" t="n">
-        <v>-40.61</v>
+        <v>-42.88</v>
       </c>
       <c r="R187" s="23" t="inlineStr">
         <is>
@@ -20337,13 +20337,13 @@
       </c>
       <c r="N188" s="2" t="n"/>
       <c r="O188" s="32" t="n">
-        <v>-44</v>
+        <v>-47</v>
       </c>
       <c r="P188" s="32" t="n">
-        <v>-36</v>
+        <v>-38</v>
       </c>
       <c r="Q188" s="32" t="n">
-        <v>-40.94</v>
+        <v>-41.07</v>
       </c>
       <c r="R188" s="23" t="inlineStr">
         <is>
@@ -20441,13 +20441,13 @@
       </c>
       <c r="N189" s="2" t="n"/>
       <c r="O189" s="32" t="n">
-        <v>-48</v>
+        <v>-49</v>
       </c>
       <c r="P189" s="32" t="n">
-        <v>-27.3</v>
+        <v>-37.4</v>
       </c>
       <c r="Q189" s="32" t="n">
-        <v>-41.95</v>
+        <v>-43.86</v>
       </c>
       <c r="R189" s="23" t="inlineStr">
         <is>
@@ -20545,13 +20545,13 @@
       </c>
       <c r="N190" s="2" t="n"/>
       <c r="O190" s="32" t="n">
-        <v>-47.9</v>
+        <v>-50.1</v>
       </c>
       <c r="P190" s="32" t="n">
-        <v>-40.4</v>
+        <v>-40.9</v>
       </c>
       <c r="Q190" s="32" t="n">
-        <v>-45.55</v>
+        <v>-46.38</v>
       </c>
       <c r="R190" s="23" t="inlineStr">
         <is>
@@ -20649,13 +20649,13 @@
       </c>
       <c r="N191" s="2" t="n"/>
       <c r="O191" s="32" t="n">
-        <v>-47</v>
+        <v>-46</v>
       </c>
       <c r="P191" s="32" t="n">
-        <v>-34.2</v>
+        <v>-35</v>
       </c>
       <c r="Q191" s="32" t="n">
-        <v>-42.27</v>
+        <v>-39.59</v>
       </c>
       <c r="R191" s="23" t="inlineStr">
         <is>
@@ -20749,13 +20749,13 @@
       </c>
       <c r="N192" s="2" t="n"/>
       <c r="O192" s="32" t="n">
-        <v>-39.5</v>
+        <v>-47.3</v>
       </c>
       <c r="P192" s="32" t="n">
-        <v>-31.6</v>
+        <v>-35</v>
       </c>
       <c r="Q192" s="32" t="n">
-        <v>-34.5</v>
+        <v>-42.95</v>
       </c>
       <c r="R192" s="23" t="inlineStr">
         <is>
@@ -20854,13 +20854,13 @@
       </c>
       <c r="N193" s="2" t="n"/>
       <c r="O193" s="32" t="n">
-        <v>-38.5</v>
+        <v>-33.2</v>
       </c>
       <c r="P193" s="32" t="n">
-        <v>-28.8</v>
+        <v>-26.6</v>
       </c>
       <c r="Q193" s="32" t="n">
-        <v>-34.14</v>
+        <v>-30.79</v>
       </c>
       <c r="R193" s="23" t="inlineStr">
         <is>
@@ -20965,7 +20965,7 @@
         <v>-48</v>
       </c>
       <c r="P194" s="32" t="n">
-        <v>-43.1</v>
+        <v>-36.1</v>
       </c>
       <c r="Q194" s="32" t="n"/>
       <c r="R194" s="23" t="inlineStr">
@@ -21060,13 +21060,13 @@
       </c>
       <c r="N195" s="2" t="n"/>
       <c r="O195" s="32" t="n">
-        <v>-48.8</v>
+        <v>-46.6</v>
       </c>
       <c r="P195" s="32" t="n">
-        <v>-36.1</v>
+        <v>-35.4</v>
       </c>
       <c r="Q195" s="32" t="n">
-        <v>-43.01</v>
+        <v>-41.96</v>
       </c>
       <c r="R195" s="23" t="inlineStr">
         <is>
@@ -21164,13 +21164,13 @@
       </c>
       <c r="N196" s="2" t="n"/>
       <c r="O196" s="32" t="n">
-        <v>-38.7</v>
+        <v>-50.2</v>
       </c>
       <c r="P196" s="32" t="n">
-        <v>-24.5</v>
+        <v>-33.2</v>
       </c>
       <c r="Q196" s="32" t="n">
-        <v>-33.62</v>
+        <v>-44.4</v>
       </c>
       <c r="R196" s="23" t="inlineStr">
         <is>
@@ -21268,13 +21268,13 @@
       </c>
       <c r="N197" s="24" t="n"/>
       <c r="O197" s="32" t="n">
-        <v>-35.7</v>
+        <v>-37.3</v>
       </c>
       <c r="P197" s="32" t="n">
-        <v>-21.3</v>
+        <v>-12.3</v>
       </c>
       <c r="Q197" s="32" t="n">
-        <v>-30.21</v>
+        <v>-24.81</v>
       </c>
       <c r="R197" s="23" t="inlineStr">
         <is>
@@ -22073,12 +22073,8 @@
         </is>
       </c>
       <c r="N205" s="2" t="n"/>
-      <c r="O205" s="32" t="n">
-        <v>-31.4</v>
-      </c>
-      <c r="P205" s="32" t="n">
-        <v>-12</v>
-      </c>
+      <c r="O205" s="32" t="n"/>
+      <c r="P205" s="32" t="n"/>
       <c r="Q205" s="32" t="n"/>
       <c r="R205" s="23" t="inlineStr">
         <is>
@@ -22875,8 +22871,12 @@
         </is>
       </c>
       <c r="N213" s="2" t="n"/>
-      <c r="O213" s="32" t="n"/>
-      <c r="P213" s="32" t="n"/>
+      <c r="O213" s="32" t="n">
+        <v>-39.4</v>
+      </c>
+      <c r="P213" s="32" t="n">
+        <v>-14.6</v>
+      </c>
       <c r="Q213" s="32" t="n"/>
       <c r="R213" s="23" t="inlineStr">
         <is>
@@ -22886,7 +22886,7 @@
       <c r="S213" s="37" t="n"/>
       <c r="T213" s="41" t="inlineStr">
         <is>
-          <t>呼伦贝尔</t>
+          <t>呼伦贝尔根河</t>
         </is>
       </c>
       <c r="U213" s="2" t="inlineStr">
@@ -26198,13 +26198,13 @@
       </c>
       <c r="N247" s="2" t="n"/>
       <c r="O247" s="32" t="n">
-        <v>-17.8</v>
+        <v>-3.1</v>
       </c>
       <c r="P247" s="32" t="n">
-        <v>-6.9</v>
+        <v>0.2</v>
       </c>
       <c r="Q247" s="32" t="n">
-        <v>-12.79</v>
+        <v>-1.48</v>
       </c>
       <c r="R247" s="23" t="inlineStr">
         <is>
@@ -26310,13 +26310,13 @@
       </c>
       <c r="N248" s="2" t="n"/>
       <c r="O248" s="32" t="n">
-        <v>-33.5</v>
+        <v>-29.3</v>
       </c>
       <c r="P248" s="32" t="n">
-        <v>-17.3</v>
+        <v>-11.7</v>
       </c>
       <c r="Q248" s="32" t="n">
-        <v>-26.6</v>
+        <v>-21.5</v>
       </c>
       <c r="R248" s="23" t="inlineStr">
         <is>
@@ -26418,13 +26418,13 @@
       </c>
       <c r="N249" s="2" t="n"/>
       <c r="O249" s="32" t="n">
-        <v>-4.1</v>
+        <v>-6.6</v>
       </c>
       <c r="P249" s="32" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="Q249" s="32" t="n">
-        <v>-0.03</v>
+        <v>-2.95</v>
       </c>
       <c r="R249" s="23" t="inlineStr">
         <is>
@@ -26530,13 +26530,13 @@
       </c>
       <c r="N250" s="2" t="n"/>
       <c r="O250" s="32" t="n">
-        <v>-17.1</v>
+        <v>-8.1</v>
       </c>
       <c r="P250" s="32" t="n">
-        <v>-9.699999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="Q250" s="32" t="n">
-        <v>-13.75</v>
+        <v>-5.48</v>
       </c>
       <c r="R250" s="23" t="inlineStr">
         <is>
@@ -26650,10 +26650,10 @@
         </is>
       </c>
       <c r="O251" s="32" t="n">
-        <v>-37.1</v>
+        <v>-38.6</v>
       </c>
       <c r="P251" s="32" t="n">
-        <v>-15.1</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="Q251" s="32" t="n"/>
       <c r="R251" s="23" t="inlineStr">
@@ -26748,12 +26748,14 @@
       </c>
       <c r="N252" s="2" t="n"/>
       <c r="O252" s="32" t="n">
-        <v>-12</v>
+        <v>-2.9</v>
       </c>
       <c r="P252" s="32" t="n">
-        <v>-4.3</v>
-      </c>
-      <c r="Q252" s="32" t="n"/>
+        <v>2.8</v>
+      </c>
+      <c r="Q252" s="32" t="n">
+        <v>-0.4</v>
+      </c>
       <c r="R252" s="23" t="inlineStr">
         <is>
           <t>Y</t>
@@ -26944,13 +26946,13 @@
       </c>
       <c r="N254" s="2" t="n"/>
       <c r="O254" s="32" t="n">
-        <v>-40.1</v>
+        <v>-52</v>
       </c>
       <c r="P254" s="32" t="n">
-        <v>-29.5</v>
+        <v>-44.3</v>
       </c>
       <c r="Q254" s="32" t="n">
-        <v>-34.7</v>
+        <v>-48.45</v>
       </c>
       <c r="R254" s="23" t="inlineStr">
         <is>
@@ -27518,13 +27520,13 @@
       </c>
       <c r="N260" s="2" t="n"/>
       <c r="O260" s="32" t="n">
-        <v>-37.1</v>
+        <v>-30.2</v>
       </c>
       <c r="P260" s="32" t="n">
-        <v>-10.3</v>
+        <v>-1.6</v>
       </c>
       <c r="Q260" s="32" t="n">
-        <v>-25.35</v>
+        <v>-18.34</v>
       </c>
       <c r="R260" s="23" t="inlineStr">
         <is>
@@ -27626,13 +27628,13 @@
       </c>
       <c r="N261" s="2" t="n"/>
       <c r="O261" s="32" t="n">
-        <v>-10.8</v>
+        <v>-18.5</v>
       </c>
       <c r="P261" s="32" t="n">
-        <v>-6.8</v>
+        <v>-6.5</v>
       </c>
       <c r="Q261" s="32" t="n">
-        <v>-9.4</v>
+        <v>-11.89</v>
       </c>
       <c r="R261" s="23" t="inlineStr">
         <is>
@@ -27738,13 +27740,13 @@
       </c>
       <c r="N262" s="2" t="n"/>
       <c r="O262" s="32" t="n">
-        <v>-19.4</v>
+        <v>-6.8</v>
       </c>
       <c r="P262" s="32" t="n">
-        <v>-8.199999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="Q262" s="32" t="n">
-        <v>-14.67</v>
+        <v>-2.84</v>
       </c>
       <c r="R262" s="23" t="inlineStr">
         <is>
@@ -27944,13 +27946,13 @@
       </c>
       <c r="N264" s="2" t="n"/>
       <c r="O264" s="32" t="n">
-        <v>-23.8</v>
+        <v>-13.9</v>
       </c>
       <c r="P264" s="32" t="n">
-        <v>-6.9</v>
+        <v>3.6</v>
       </c>
       <c r="Q264" s="32" t="n">
-        <v>-15.45</v>
+        <v>-5.46</v>
       </c>
       <c r="R264" s="23" t="inlineStr">
         <is>
@@ -28064,10 +28066,10 @@
       </c>
       <c r="N265" s="2" t="n"/>
       <c r="O265" s="32" t="n">
-        <v>-55.8</v>
+        <v>-55.5</v>
       </c>
       <c r="P265" s="32" t="n">
-        <v>-41.5</v>
+        <v>-42.6</v>
       </c>
       <c r="Q265" s="32" t="n"/>
       <c r="R265" s="23" t="inlineStr">
@@ -28811,12 +28813,8 @@
         </is>
       </c>
       <c r="N273" s="2" t="n"/>
-      <c r="O273" s="32" t="n">
-        <v>-27.3</v>
-      </c>
-      <c r="P273" s="32" t="n">
-        <v>-9.699999999999999</v>
-      </c>
+      <c r="O273" s="32" t="n"/>
+      <c r="P273" s="32" t="n"/>
       <c r="Q273" s="32" t="n"/>
       <c r="R273" s="23" t="n"/>
       <c r="S273" s="37" t="n"/>
@@ -29108,13 +29106,13 @@
       </c>
       <c r="N276" s="2" t="n"/>
       <c r="O276" s="32" t="n">
-        <v>-52</v>
+        <v>-43.3</v>
       </c>
       <c r="P276" s="32" t="n">
-        <v>-35.6</v>
+        <v>-20.6</v>
       </c>
       <c r="Q276" s="32" t="n">
-        <v>-44.61</v>
+        <v>-32.93</v>
       </c>
       <c r="R276" s="23" t="inlineStr">
         <is>
@@ -29647,8 +29645,12 @@
         </is>
       </c>
       <c r="N282" s="2" t="n"/>
-      <c r="O282" s="32" t="n"/>
-      <c r="P282" s="32" t="n"/>
+      <c r="O282" s="32" t="n">
+        <v>-38.4</v>
+      </c>
+      <c r="P282" s="32" t="n">
+        <v>-11.7</v>
+      </c>
       <c r="Q282" s="32" t="n"/>
       <c r="R282" s="23" t="inlineStr">
         <is>
@@ -29731,12 +29733,8 @@
         </is>
       </c>
       <c r="N283" s="2" t="n"/>
-      <c r="O283" s="32" t="n">
-        <v>-26.6</v>
-      </c>
-      <c r="P283" s="32" t="n">
-        <v>-10.5</v>
-      </c>
+      <c r="O283" s="32" t="n"/>
+      <c r="P283" s="32" t="n"/>
       <c r="Q283" s="32" t="n"/>
       <c r="R283" s="23" t="inlineStr">
         <is>
@@ -29825,12 +29823,8 @@
         </is>
       </c>
       <c r="N284" s="2" t="n"/>
-      <c r="O284" s="32" t="n">
-        <v>-28.8</v>
-      </c>
-      <c r="P284" s="32" t="n">
-        <v>-10.6</v>
-      </c>
+      <c r="O284" s="32" t="n"/>
+      <c r="P284" s="32" t="n"/>
       <c r="Q284" s="32" t="n"/>
       <c r="R284" s="23" t="inlineStr">
         <is>
@@ -29887,147 +29881,407 @@
       <c r="AH284" s="2" t="n"/>
     </row>
     <row r="285" ht="24" customHeight="1" s="44">
-      <c r="A285" s="2" t="n"/>
+      <c r="A285" s="2" t="n">
+        <v>284</v>
+      </c>
       <c r="B285" s="2" t="n"/>
-      <c r="C285" s="27" t="n"/>
+      <c r="C285" s="27" t="n">
+        <v>51068</v>
+      </c>
       <c r="D285" s="2" t="n"/>
-      <c r="E285" s="4" t="n"/>
+      <c r="E285" s="4" t="n">
+        <v>99999</v>
+      </c>
       <c r="F285" s="39" t="n"/>
-      <c r="G285" s="29" t="n"/>
-      <c r="H285" s="29" t="n"/>
-      <c r="I285" s="2" t="n"/>
-      <c r="J285" s="27" t="n"/>
-      <c r="K285" s="4" t="n"/>
+      <c r="G285" s="29" t="n">
+        <v>47.125</v>
+      </c>
+      <c r="H285" s="29" t="n">
+        <v>87.48139999999999</v>
+      </c>
+      <c r="I285" s="2" t="n">
+        <v>497.1</v>
+      </c>
+      <c r="J285" s="27" t="n">
+        <v>12</v>
+      </c>
+      <c r="K285" s="31" t="inlineStr">
+        <is>
+          <t>🇨🇳</t>
+        </is>
+      </c>
       <c r="L285" s="2" t="n"/>
-      <c r="M285" s="14" t="n"/>
+      <c r="M285" s="14" t="inlineStr">
+        <is>
+          <t>福海</t>
+        </is>
+      </c>
       <c r="N285" s="2" t="n"/>
       <c r="O285" s="32" t="n"/>
       <c r="P285" s="32" t="n"/>
       <c r="Q285" s="32" t="n"/>
-      <c r="R285" s="23" t="n"/>
+      <c r="R285" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S285" s="37" t="n"/>
-      <c r="T285" s="41" t="n"/>
-      <c r="U285" s="2" t="n"/>
-      <c r="V285" s="4" t="n"/>
-      <c r="W285" s="4" t="n"/>
-      <c r="X285" s="4" t="n"/>
+      <c r="T285" s="41" t="inlineStr">
+        <is>
+          <t>阿勒泰&lt;br&gt;乌伦古湖</t>
+        </is>
+      </c>
+      <c r="U285" s="2" t="inlineStr">
+        <is>
+          <t>新疆</t>
+        </is>
+      </c>
+      <c r="V285" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="W285" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="X285" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="Y285" s="4" t="n"/>
-      <c r="Z285" s="2" t="n"/>
-      <c r="AA285" s="2" t="n"/>
+      <c r="Z285" s="2" t="inlineStr">
+        <is>
+          <t>阿勒泰地区</t>
+        </is>
+      </c>
+      <c r="AA285" s="2" t="inlineStr">
+        <is>
+          <t>福海县</t>
+        </is>
+      </c>
       <c r="AB285" s="2" t="n"/>
       <c r="AC285" s="2" t="n"/>
-      <c r="AD285" s="2" t="n"/>
-      <c r="AE285" s="4" t="n"/>
+      <c r="AD285" s="2" t="inlineStr">
+        <is>
+          <t>中国</t>
+        </is>
+      </c>
+      <c r="AE285" s="4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
       <c r="AF285" s="4" t="n"/>
-      <c r="AG285" s="2" t="n"/>
+      <c r="AG285" s="2" t="inlineStr">
+        <is>
+          <t>乌伦古湖</t>
+        </is>
+      </c>
       <c r="AH285" s="2" t="n"/>
     </row>
     <row r="286" ht="24" customHeight="1" s="44">
-      <c r="A286" s="2" t="n"/>
+      <c r="A286" s="2" t="n">
+        <v>285</v>
+      </c>
       <c r="B286" s="2" t="n"/>
-      <c r="C286" s="27" t="n"/>
+      <c r="C286" s="27" t="n">
+        <v>50429</v>
+      </c>
       <c r="D286" s="2" t="n"/>
-      <c r="E286" s="4" t="n"/>
+      <c r="E286" s="4" t="n">
+        <v>99999</v>
+      </c>
       <c r="F286" s="39" t="n"/>
-      <c r="G286" s="29" t="n"/>
-      <c r="H286" s="29" t="n"/>
-      <c r="I286" s="2" t="n"/>
-      <c r="J286" s="27" t="n"/>
-      <c r="K286" s="4" t="n"/>
+      <c r="G286" s="29" t="n">
+        <v>51.2869</v>
+      </c>
+      <c r="H286" s="29" t="n">
+        <v>120.7311</v>
+      </c>
+      <c r="I286" s="2" t="n">
+        <v>666.4</v>
+      </c>
+      <c r="J286" s="27" t="n">
+        <v>12</v>
+      </c>
+      <c r="K286" s="31" t="inlineStr">
+        <is>
+          <t>🇨🇳</t>
+        </is>
+      </c>
       <c r="L286" s="2" t="n"/>
-      <c r="M286" s="14" t="n"/>
+      <c r="M286" s="14" t="inlineStr">
+        <is>
+          <t>莫尔道嘎</t>
+        </is>
+      </c>
       <c r="N286" s="2" t="n"/>
       <c r="O286" s="32" t="n"/>
       <c r="P286" s="32" t="n"/>
       <c r="Q286" s="32" t="n"/>
-      <c r="R286" s="23" t="n"/>
+      <c r="R286" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S286" s="37" t="n"/>
-      <c r="T286" s="41" t="n"/>
-      <c r="U286" s="2" t="n"/>
-      <c r="V286" s="4" t="n"/>
-      <c r="W286" s="4" t="n"/>
-      <c r="X286" s="4" t="n"/>
+      <c r="T286" s="41" t="inlineStr">
+        <is>
+          <t>呼伦贝尔</t>
+        </is>
+      </c>
+      <c r="U286" s="2" t="inlineStr">
+        <is>
+          <t>内蒙古</t>
+        </is>
+      </c>
+      <c r="V286" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="W286" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="X286" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="Y286" s="4" t="n"/>
-      <c r="Z286" s="2" t="n"/>
-      <c r="AA286" s="2" t="n"/>
+      <c r="Z286" s="2" t="inlineStr">
+        <is>
+          <t>呼伦贝尔市</t>
+        </is>
+      </c>
+      <c r="AA286" s="2" t="inlineStr">
+        <is>
+          <t>额尔古纳市</t>
+        </is>
+      </c>
       <c r="AB286" s="2" t="n"/>
       <c r="AC286" s="2" t="n"/>
-      <c r="AD286" s="2" t="n"/>
-      <c r="AE286" s="4" t="n"/>
+      <c r="AD286" s="2" t="inlineStr">
+        <is>
+          <t>中国</t>
+        </is>
+      </c>
+      <c r="AE286" s="4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
       <c r="AF286" s="4" t="n"/>
-      <c r="AG286" s="2" t="n"/>
+      <c r="AG286" s="2" t="inlineStr">
+        <is>
+          <t>大兴安岭</t>
+        </is>
+      </c>
       <c r="AH286" s="2" t="n"/>
     </row>
     <row r="287" ht="24" customHeight="1" s="44">
-      <c r="A287" s="2" t="n"/>
+      <c r="A287" s="2" t="n">
+        <v>286</v>
+      </c>
       <c r="B287" s="2" t="n"/>
       <c r="C287" s="27" t="n"/>
       <c r="D287" s="2" t="n"/>
       <c r="E287" s="4" t="n"/>
-      <c r="F287" s="39" t="n"/>
-      <c r="G287" s="29" t="n"/>
-      <c r="H287" s="29" t="n"/>
-      <c r="I287" s="2" t="n"/>
-      <c r="J287" s="27" t="n"/>
-      <c r="K287" s="4" t="n"/>
+      <c r="F287" s="39" t="inlineStr">
+        <is>
+          <t>Y6758</t>
+        </is>
+      </c>
+      <c r="G287" s="29" t="n">
+        <v>48.0197</v>
+      </c>
+      <c r="H287" s="29" t="n">
+        <v>87.5517</v>
+      </c>
+      <c r="I287" s="2" t="n">
+        <v>1194</v>
+      </c>
+      <c r="J287" s="27" t="n">
+        <v>12</v>
+      </c>
+      <c r="K287" s="31" t="inlineStr">
+        <is>
+          <t>🇨🇳</t>
+        </is>
+      </c>
       <c r="L287" s="2" t="n"/>
-      <c r="M287" s="14" t="n"/>
+      <c r="M287" s="14" t="inlineStr">
+        <is>
+          <t>齐背岭水库</t>
+        </is>
+      </c>
       <c r="N287" s="2" t="n"/>
       <c r="O287" s="32" t="n"/>
       <c r="P287" s="32" t="n"/>
       <c r="Q287" s="32" t="n"/>
-      <c r="R287" s="23" t="n"/>
+      <c r="R287" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S287" s="37" t="n"/>
-      <c r="T287" s="41" t="n"/>
-      <c r="U287" s="2" t="n"/>
-      <c r="V287" s="4" t="n"/>
-      <c r="W287" s="4" t="n"/>
+      <c r="T287" s="41" t="inlineStr">
+        <is>
+          <t>阿勒泰</t>
+        </is>
+      </c>
+      <c r="U287" s="2" t="inlineStr">
+        <is>
+          <t>新疆</t>
+        </is>
+      </c>
+      <c r="V287" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="W287" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="X287" s="4" t="n"/>
       <c r="Y287" s="4" t="n"/>
-      <c r="Z287" s="2" t="n"/>
-      <c r="AA287" s="2" t="n"/>
+      <c r="Z287" s="2" t="inlineStr">
+        <is>
+          <t>阿勒泰地区</t>
+        </is>
+      </c>
+      <c r="AA287" s="2" t="inlineStr">
+        <is>
+          <t>阿勒泰市</t>
+        </is>
+      </c>
       <c r="AB287" s="2" t="n"/>
       <c r="AC287" s="2" t="n"/>
-      <c r="AD287" s="2" t="n"/>
-      <c r="AE287" s="4" t="n"/>
+      <c r="AD287" s="2" t="inlineStr">
+        <is>
+          <t>中国</t>
+        </is>
+      </c>
+      <c r="AE287" s="4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
       <c r="AF287" s="4" t="n"/>
-      <c r="AG287" s="2" t="n"/>
+      <c r="AG287" s="2" t="inlineStr">
+        <is>
+          <t>阿尔泰山</t>
+        </is>
+      </c>
       <c r="AH287" s="2" t="n"/>
     </row>
     <row r="288" ht="24" customHeight="1" s="44">
-      <c r="A288" s="2" t="n"/>
+      <c r="A288" s="2" t="n">
+        <v>287</v>
+      </c>
       <c r="B288" s="2" t="n"/>
       <c r="C288" s="27" t="n"/>
       <c r="D288" s="2" t="n"/>
       <c r="E288" s="4" t="n"/>
-      <c r="F288" s="39" t="n"/>
-      <c r="G288" s="29" t="n"/>
-      <c r="H288" s="29" t="n"/>
-      <c r="I288" s="2" t="n"/>
-      <c r="J288" s="27" t="n"/>
-      <c r="K288" s="4" t="n"/>
+      <c r="F288" s="39" t="inlineStr">
+        <is>
+          <t>Y5347</t>
+        </is>
+      </c>
+      <c r="G288" s="29" t="n">
+        <v>46.1772</v>
+      </c>
+      <c r="H288" s="29" t="n">
+        <v>90.5356</v>
+      </c>
+      <c r="I288" s="2" t="n">
+        <v>1071.1</v>
+      </c>
+      <c r="J288" s="27" t="n">
+        <v>12</v>
+      </c>
+      <c r="K288" s="31" t="inlineStr">
+        <is>
+          <t>🇨🇳</t>
+        </is>
+      </c>
       <c r="L288" s="2" t="n"/>
-      <c r="M288" s="14" t="n"/>
+      <c r="M288" s="14" t="inlineStr">
+        <is>
+          <t>塔克什肯镇</t>
+        </is>
+      </c>
       <c r="N288" s="2" t="n"/>
       <c r="O288" s="32" t="n"/>
       <c r="P288" s="32" t="n"/>
       <c r="Q288" s="32" t="n"/>
-      <c r="R288" s="23" t="n"/>
+      <c r="R288" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="S288" s="37" t="n"/>
-      <c r="T288" s="41" t="n"/>
-      <c r="U288" s="2" t="n"/>
-      <c r="V288" s="4" t="n"/>
-      <c r="W288" s="4" t="n"/>
-      <c r="X288" s="4" t="n"/>
+      <c r="T288" s="41" t="inlineStr">
+        <is>
+          <t>阿勒泰青河县</t>
+        </is>
+      </c>
+      <c r="U288" s="2" t="inlineStr">
+        <is>
+          <t>新疆</t>
+        </is>
+      </c>
+      <c r="V288" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="W288" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="X288" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="Y288" s="4" t="n"/>
-      <c r="Z288" s="2" t="n"/>
-      <c r="AA288" s="2" t="n"/>
+      <c r="Z288" s="2" t="inlineStr">
+        <is>
+          <t>阿勒泰地区</t>
+        </is>
+      </c>
+      <c r="AA288" s="2" t="inlineStr">
+        <is>
+          <t>青河县</t>
+        </is>
+      </c>
       <c r="AB288" s="2" t="n"/>
       <c r="AC288" s="2" t="n"/>
-      <c r="AD288" s="2" t="n"/>
-      <c r="AE288" s="4" t="n"/>
+      <c r="AD288" s="2" t="inlineStr">
+        <is>
+          <t>中国</t>
+        </is>
+      </c>
+      <c r="AE288" s="4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
       <c r="AF288" s="4" t="n"/>
-      <c r="AG288" s="2" t="n"/>
+      <c r="AG288" s="2" t="inlineStr">
+        <is>
+          <t>阿尔泰山</t>
+        </is>
+      </c>
       <c r="AH288" s="2" t="n"/>
     </row>
     <row r="289" ht="24" customHeight="1" s="44">

--- a/气象/For_Python_站点信息和记录.xlsx
+++ b/气象/For_Python_站点信息和记录.xlsx
@@ -228,7 +228,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -361,6 +361,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -763,7 +766,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.59765625" defaultRowHeight="20.25"/>
@@ -790,8 +793,8 @@
     <col width="18.59765625" customWidth="1" style="8" min="25" max="25"/>
     <col width="12.59765625" customWidth="1" style="5" min="26" max="30"/>
     <col width="12.59765625" customWidth="1" style="8" min="31" max="32"/>
-    <col width="12.59765625" customWidth="1" style="5" min="33" max="264"/>
-    <col width="12.59765625" customWidth="1" style="5" min="265" max="16384"/>
+    <col width="12.59765625" customWidth="1" style="5" min="33" max="268"/>
+    <col width="12.59765625" customWidth="1" style="5" min="269" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.75" customFormat="1" customHeight="1" s="11">
@@ -966,7 +969,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="24" customHeight="1" s="44">
+    <row r="2" ht="24" customHeight="1" s="45">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
@@ -1014,24 +1017,20 @@
         </is>
       </c>
       <c r="O2" s="32" t="n">
-        <v>-27.1</v>
+        <v>-37.7</v>
       </c>
       <c r="P2" s="32" t="n">
-        <v>-21.8</v>
+        <v>-18.9</v>
       </c>
       <c r="Q2" s="32" t="n">
-        <v>-24.29</v>
+        <v>-27.96</v>
       </c>
       <c r="R2" s="23" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="S2" s="37" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="S2" s="37" t="n"/>
       <c r="T2" s="41" t="inlineStr">
         <is>
           <t>东亚昼温王&lt;br&gt;特斯河 乌布苏省</t>
@@ -1084,7 +1083,7 @@
       </c>
       <c r="AH2" s="2" t="n"/>
     </row>
-    <row r="3" ht="24" customHeight="1" s="44">
+    <row r="3" ht="24" customHeight="1" s="45">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
@@ -1124,14 +1123,18 @@
         </is>
       </c>
       <c r="O3" s="32" t="n">
-        <v>-25.7</v>
+        <v>-33.8</v>
       </c>
       <c r="P3" s="32" t="n">
-        <v>-20.6</v>
+        <v>-19.9</v>
       </c>
       <c r="Q3" s="32" t="n"/>
       <c r="R3" s="23" t="n"/>
-      <c r="S3" s="37" t="n"/>
+      <c r="S3" s="37" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="T3" s="41" t="inlineStr">
         <is>
           <t>东亚一均王&lt;br&gt;乌布苏盆地</t>
@@ -1184,7 +1187,7 @@
       </c>
       <c r="AH3" s="2" t="n"/>
     </row>
-    <row r="4" ht="24" customHeight="1" s="44">
+    <row r="4" ht="24" customHeight="1" s="45">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
@@ -1224,10 +1227,10 @@
         </is>
       </c>
       <c r="O4" s="32" t="n">
-        <v>-28.2</v>
+        <v>-30.9</v>
       </c>
       <c r="P4" s="32" t="n">
-        <v>-15.5</v>
+        <v>-17.2</v>
       </c>
       <c r="Q4" s="32" t="n"/>
       <c r="R4" s="23" t="n"/>
@@ -1284,7 +1287,7 @@
       </c>
       <c r="AH4" s="2" t="n"/>
     </row>
-    <row r="5" ht="24" customHeight="1" s="44">
+    <row r="5" ht="24" customHeight="1" s="45">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
@@ -1320,10 +1323,10 @@
       </c>
       <c r="N5" s="2" t="n"/>
       <c r="O5" s="32" t="n">
-        <v>-28</v>
+        <v>-24.4</v>
       </c>
       <c r="P5" s="32" t="n">
-        <v>-9.800000000000001</v>
+        <v>-13.5</v>
       </c>
       <c r="Q5" s="32" t="n"/>
       <c r="R5" s="23" t="n"/>
@@ -1380,7 +1383,7 @@
       </c>
       <c r="AH5" s="2" t="n"/>
     </row>
-    <row r="6" ht="24" customHeight="1" s="44">
+    <row r="6" ht="24" customHeight="1" s="45">
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
@@ -1420,10 +1423,10 @@
         </is>
       </c>
       <c r="O6" s="32" t="n">
-        <v>-30.1</v>
+        <v>-28.9</v>
       </c>
       <c r="P6" s="32" t="n">
-        <v>-13.5</v>
+        <v>-11.9</v>
       </c>
       <c r="Q6" s="32" t="n"/>
       <c r="R6" s="23" t="n"/>
@@ -1480,7 +1483,7 @@
       </c>
       <c r="AH6" s="2" t="n"/>
     </row>
-    <row r="7" ht="24" customHeight="1" s="44">
+    <row r="7" ht="24" customHeight="1" s="45">
       <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
@@ -1520,10 +1523,10 @@
         </is>
       </c>
       <c r="O7" s="32" t="n">
-        <v>-20.2</v>
+        <v>-22.6</v>
       </c>
       <c r="P7" s="32" t="n">
-        <v>-4.7</v>
+        <v>-16.9</v>
       </c>
       <c r="Q7" s="32" t="n"/>
       <c r="R7" s="23" t="n"/>
@@ -1580,7 +1583,7 @@
       </c>
       <c r="AH7" s="2" t="n"/>
     </row>
-    <row r="8" ht="24" customHeight="1" s="44">
+    <row r="8" ht="24" customHeight="1" s="45">
       <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
@@ -1628,13 +1631,13 @@
       </c>
       <c r="N8" s="2" t="n"/>
       <c r="O8" s="32" t="n">
-        <v>-22.2</v>
+        <v>-17.6</v>
       </c>
       <c r="P8" s="32" t="n">
-        <v>-0.4</v>
+        <v>-7.1</v>
       </c>
       <c r="Q8" s="32" t="n">
-        <v>-13.54</v>
+        <v>-12.79</v>
       </c>
       <c r="R8" s="23" t="inlineStr">
         <is>
@@ -1694,7 +1697,7 @@
       </c>
       <c r="AH8" s="2" t="n"/>
     </row>
-    <row r="9" ht="24" customHeight="1" s="44">
+    <row r="9" ht="24" customHeight="1" s="45">
       <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
@@ -1740,13 +1743,13 @@
       </c>
       <c r="N9" s="2" t="n"/>
       <c r="O9" s="32" t="n">
-        <v>-26.8</v>
+        <v>-29.5</v>
       </c>
       <c r="P9" s="32" t="n">
-        <v>-17.7</v>
+        <v>-13.9</v>
       </c>
       <c r="Q9" s="32" t="n">
-        <v>-24.11</v>
+        <v>-22.21</v>
       </c>
       <c r="R9" s="23" t="inlineStr">
         <is>
@@ -1810,7 +1813,7 @@
       </c>
       <c r="AH9" s="2" t="n"/>
     </row>
-    <row r="10" ht="24" customHeight="1" s="44">
+    <row r="10" ht="24" customHeight="1" s="45">
       <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
@@ -1856,13 +1859,13 @@
       </c>
       <c r="N10" s="3" t="n"/>
       <c r="O10" s="32" t="n">
-        <v>-27.8</v>
+        <v>-24.9</v>
       </c>
       <c r="P10" s="32" t="n">
-        <v>-9.6</v>
+        <v>-14</v>
       </c>
       <c r="Q10" s="32" t="n">
-        <v>-17.74</v>
+        <v>-21.19</v>
       </c>
       <c r="R10" s="23" t="inlineStr">
         <is>
@@ -1922,7 +1925,7 @@
       </c>
       <c r="AH10" s="2" t="n"/>
     </row>
-    <row r="11" ht="24" customHeight="1" s="44">
+    <row r="11" ht="24" customHeight="1" s="45">
       <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
@@ -1972,13 +1975,13 @@
         </is>
       </c>
       <c r="O11" s="32" t="n">
-        <v>-14.8</v>
+        <v>-29.3</v>
       </c>
       <c r="P11" s="32" t="n">
-        <v>1.3</v>
+        <v>-18.4</v>
       </c>
       <c r="Q11" s="32" t="n">
-        <v>-2.99</v>
+        <v>-23.46</v>
       </c>
       <c r="R11" s="23" t="inlineStr">
         <is>
@@ -2038,7 +2041,7 @@
       </c>
       <c r="AH11" s="2" t="n"/>
     </row>
-    <row r="12" ht="24" customHeight="1" s="44">
+    <row r="12" ht="24" customHeight="1" s="45">
       <c r="A12" s="2" t="n">
         <v>11</v>
       </c>
@@ -2084,13 +2087,13 @@
       </c>
       <c r="N12" s="2" t="n"/>
       <c r="O12" s="32" t="n">
-        <v>-28</v>
+        <v>-25.3</v>
       </c>
       <c r="P12" s="32" t="n">
-        <v>-11.3</v>
+        <v>-13.6</v>
       </c>
       <c r="Q12" s="32" t="n">
-        <v>-20.77</v>
+        <v>-20.5</v>
       </c>
       <c r="R12" s="23" t="inlineStr">
         <is>
@@ -2150,7 +2153,7 @@
       </c>
       <c r="AH12" s="2" t="n"/>
     </row>
-    <row r="13" ht="24" customHeight="1" s="44">
+    <row r="13" ht="24" customHeight="1" s="45">
       <c r="A13" s="2" t="n">
         <v>12</v>
       </c>
@@ -2200,24 +2203,20 @@
         </is>
       </c>
       <c r="O13" s="32" t="n">
-        <v>-21.9</v>
+        <v>-25.9</v>
       </c>
       <c r="P13" s="32" t="n">
-        <v>-2.3</v>
+        <v>-15.1</v>
       </c>
       <c r="Q13" s="32" t="n">
-        <v>-14.54</v>
+        <v>-22.09</v>
       </c>
       <c r="R13" s="23" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="S13" s="37" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="S13" s="37" t="n"/>
       <c r="T13" s="41" t="inlineStr">
         <is>
           <t>蒙古最冷交换站&lt;br&gt;库苏古尔湖</t>
@@ -2270,7 +2269,7 @@
       </c>
       <c r="AH13" s="2" t="n"/>
     </row>
-    <row r="14" ht="24" customHeight="1" s="44">
+    <row r="14" ht="24" customHeight="1" s="45">
       <c r="A14" s="2" t="n">
         <v>13</v>
       </c>
@@ -2316,20 +2315,24 @@
       </c>
       <c r="N14" s="2" t="n"/>
       <c r="O14" s="32" t="n">
-        <v>-15</v>
+        <v>-17</v>
       </c>
       <c r="P14" s="32" t="n">
-        <v>1.6</v>
+        <v>-4.3</v>
       </c>
       <c r="Q14" s="32" t="n">
-        <v>-7.94</v>
+        <v>-12.46</v>
       </c>
       <c r="R14" s="23" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="S14" s="37" t="n"/>
+      <c r="S14" s="37" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="T14" s="41" t="inlineStr">
         <is>
           <t>世界最冷首都</t>
@@ -2382,7 +2385,7 @@
       </c>
       <c r="AH14" s="2" t="n"/>
     </row>
-    <row r="15" ht="24" customHeight="1" s="44">
+    <row r="15" ht="24" customHeight="1" s="45">
       <c r="A15" s="2" t="n">
         <v>14</v>
       </c>
@@ -2470,7 +2473,7 @@
       </c>
       <c r="AH15" s="2" t="n"/>
     </row>
-    <row r="16" ht="24" customHeight="1" s="44">
+    <row r="16" ht="24" customHeight="1" s="45">
       <c r="A16" s="2" t="n">
         <v>15</v>
       </c>
@@ -2517,20 +2520,10 @@
         </is>
       </c>
       <c r="N16" s="2" t="n"/>
-      <c r="O16" s="32" t="n">
-        <v>-22.4</v>
-      </c>
-      <c r="P16" s="32" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Q16" s="32" t="n">
-        <v>-12.06</v>
-      </c>
-      <c r="R16" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="O16" s="32" t="n"/>
+      <c r="P16" s="32" t="n"/>
+      <c r="Q16" s="32" t="n"/>
+      <c r="R16" s="23" t="n"/>
       <c r="S16" s="37" t="n"/>
       <c r="T16" s="41" t="inlineStr">
         <is>
@@ -2580,7 +2573,7 @@
       </c>
       <c r="AH16" s="2" t="n"/>
     </row>
-    <row r="17" ht="24" customHeight="1" s="44">
+    <row r="17" ht="24" customHeight="1" s="45">
       <c r="A17" s="2" t="n">
         <v>16</v>
       </c>
@@ -2672,7 +2665,7 @@
       </c>
       <c r="AH17" s="2" t="n"/>
     </row>
-    <row r="18" ht="24" customHeight="1" s="44">
+    <row r="18" ht="24" customHeight="1" s="45">
       <c r="A18" s="2" t="n">
         <v>17</v>
       </c>
@@ -2760,7 +2753,7 @@
       </c>
       <c r="AH18" s="2" t="n"/>
     </row>
-    <row r="19" ht="24" customHeight="1" s="44">
+    <row r="19" ht="24" customHeight="1" s="45">
       <c r="A19" s="2" t="n">
         <v>18</v>
       </c>
@@ -2860,7 +2853,7 @@
       </c>
       <c r="AH19" s="2" t="n"/>
     </row>
-    <row r="20" ht="24" customHeight="1" s="44">
+    <row r="20" ht="24" customHeight="1" s="45">
       <c r="A20" s="2" t="n">
         <v>19</v>
       </c>
@@ -2960,7 +2953,7 @@
       </c>
       <c r="AH20" s="2" t="n"/>
     </row>
-    <row r="21" ht="24" customHeight="1" s="44">
+    <row r="21" ht="24" customHeight="1" s="45">
       <c r="A21" s="2" t="n">
         <v>20</v>
       </c>
@@ -3048,7 +3041,7 @@
       </c>
       <c r="AH21" s="2" t="n"/>
     </row>
-    <row r="22" ht="24" customHeight="1" s="44">
+    <row r="22" ht="24" customHeight="1" s="45">
       <c r="A22" s="2" t="n">
         <v>21</v>
       </c>
@@ -3136,7 +3129,7 @@
       </c>
       <c r="AH22" s="2" t="n"/>
     </row>
-    <row r="23" ht="24" customHeight="1" s="44">
+    <row r="23" ht="24" customHeight="1" s="45">
       <c r="A23" s="2" t="n">
         <v>22</v>
       </c>
@@ -3224,7 +3217,7 @@
       </c>
       <c r="AH23" s="2" t="n"/>
     </row>
-    <row r="24" ht="24" customHeight="1" s="44">
+    <row r="24" ht="24" customHeight="1" s="45">
       <c r="A24" s="2" t="n">
         <v>23</v>
       </c>
@@ -3324,7 +3317,7 @@
       </c>
       <c r="AH24" s="2" t="n"/>
     </row>
-    <row r="25" ht="24" customHeight="1" s="44">
+    <row r="25" ht="24" customHeight="1" s="45">
       <c r="A25" s="2" t="n">
         <v>24</v>
       </c>
@@ -3412,7 +3405,7 @@
       </c>
       <c r="AH25" s="2" t="n"/>
     </row>
-    <row r="26" ht="24" customHeight="1" s="44">
+    <row r="26" ht="24" customHeight="1" s="45">
       <c r="A26" s="2" t="n">
         <v>25</v>
       </c>
@@ -3500,7 +3493,7 @@
       </c>
       <c r="AH26" s="2" t="n"/>
     </row>
-    <row r="27" ht="24" customHeight="1" s="44">
+    <row r="27" ht="24" customHeight="1" s="45">
       <c r="A27" s="2" t="n">
         <v>26</v>
       </c>
@@ -3604,7 +3597,7 @@
       </c>
       <c r="AH27" s="2" t="n"/>
     </row>
-    <row r="28" ht="24" customHeight="1" s="44">
+    <row r="28" ht="24" customHeight="1" s="45">
       <c r="A28" s="2" t="n">
         <v>27</v>
       </c>
@@ -3688,7 +3681,7 @@
       <c r="AG28" s="2" t="n"/>
       <c r="AH28" s="2" t="n"/>
     </row>
-    <row r="29" ht="24" customHeight="1" s="44">
+    <row r="29" ht="24" customHeight="1" s="45">
       <c r="A29" s="2" t="n">
         <v>28</v>
       </c>
@@ -3776,7 +3769,7 @@
       </c>
       <c r="AH29" s="2" t="n"/>
     </row>
-    <row r="30" ht="24" customHeight="1" s="44">
+    <row r="30" ht="24" customHeight="1" s="45">
       <c r="A30" s="2" t="n">
         <v>29</v>
       </c>
@@ -3864,7 +3857,7 @@
       </c>
       <c r="AH30" s="2" t="n"/>
     </row>
-    <row r="31" ht="24" customHeight="1" s="44">
+    <row r="31" ht="24" customHeight="1" s="45">
       <c r="A31" s="2" t="n">
         <v>30</v>
       </c>
@@ -3952,7 +3945,7 @@
       </c>
       <c r="AH31" s="2" t="n"/>
     </row>
-    <row r="32" ht="24" customHeight="1" s="44">
+    <row r="32" ht="24" customHeight="1" s="45">
       <c r="A32" s="2" t="n">
         <v>31</v>
       </c>
@@ -4052,7 +4045,7 @@
       </c>
       <c r="AH32" s="2" t="n"/>
     </row>
-    <row r="33" ht="24" customHeight="1" s="44">
+    <row r="33" ht="24" customHeight="1" s="45">
       <c r="A33" s="2" t="n">
         <v>32</v>
       </c>
@@ -4152,7 +4145,7 @@
       <c r="AG33" s="2" t="n"/>
       <c r="AH33" s="2" t="n"/>
     </row>
-    <row r="34" ht="24" customHeight="1" s="44">
+    <row r="34" ht="24" customHeight="1" s="45">
       <c r="A34" s="2" t="n">
         <v>33</v>
       </c>
@@ -4236,7 +4229,7 @@
       <c r="AG34" s="2" t="n"/>
       <c r="AH34" s="2" t="n"/>
     </row>
-    <row r="35" ht="24" customHeight="1" s="44">
+    <row r="35" ht="24" customHeight="1" s="45">
       <c r="A35" s="2" t="n">
         <v>34</v>
       </c>
@@ -4324,7 +4317,7 @@
       </c>
       <c r="AH35" s="2" t="n"/>
     </row>
-    <row r="36" ht="24" customHeight="1" s="44">
+    <row r="36" ht="24" customHeight="1" s="45">
       <c r="A36" s="2" t="n">
         <v>35</v>
       </c>
@@ -4412,7 +4405,7 @@
       </c>
       <c r="AH36" s="2" t="n"/>
     </row>
-    <row r="37" ht="24" customHeight="1" s="44">
+    <row r="37" ht="24" customHeight="1" s="45">
       <c r="A37" s="2" t="n">
         <v>36</v>
       </c>
@@ -4500,7 +4493,7 @@
       </c>
       <c r="AH37" s="2" t="n"/>
     </row>
-    <row r="38" ht="24" customHeight="1" s="44">
+    <row r="38" ht="24" customHeight="1" s="45">
       <c r="A38" s="2" t="n">
         <v>37</v>
       </c>
@@ -4588,7 +4581,7 @@
       </c>
       <c r="AH38" s="2" t="n"/>
     </row>
-    <row r="39" ht="24" customHeight="1" s="44">
+    <row r="39" ht="24" customHeight="1" s="45">
       <c r="A39" s="2" t="n">
         <v>38</v>
       </c>
@@ -4672,7 +4665,7 @@
       <c r="AG39" s="2" t="n"/>
       <c r="AH39" s="2" t="n"/>
     </row>
-    <row r="40" ht="24" customHeight="1" s="44">
+    <row r="40" ht="24" customHeight="1" s="45">
       <c r="A40" s="2" t="n">
         <v>39</v>
       </c>
@@ -4760,7 +4753,7 @@
       </c>
       <c r="AH40" s="2" t="n"/>
     </row>
-    <row r="41" ht="24" customHeight="1" s="44">
+    <row r="41" ht="24" customHeight="1" s="45">
       <c r="A41" s="2" t="n">
         <v>40</v>
       </c>
@@ -4844,7 +4837,7 @@
       <c r="AG41" s="2" t="n"/>
       <c r="AH41" s="2" t="n"/>
     </row>
-    <row r="42" ht="24" customHeight="1" s="44">
+    <row r="42" ht="24" customHeight="1" s="45">
       <c r="A42" s="2" t="n">
         <v>41</v>
       </c>
@@ -4932,7 +4925,7 @@
       </c>
       <c r="AH42" s="2" t="n"/>
     </row>
-    <row r="43" ht="24" customHeight="1" s="44">
+    <row r="43" ht="24" customHeight="1" s="45">
       <c r="A43" s="2" t="n">
         <v>42</v>
       </c>
@@ -4967,12 +4960,8 @@
         </is>
       </c>
       <c r="N43" s="2" t="n"/>
-      <c r="O43" s="32" t="n">
-        <v>-28.6</v>
-      </c>
-      <c r="P43" s="32" t="n">
-        <v>-20.8</v>
-      </c>
+      <c r="O43" s="32" t="n"/>
+      <c r="P43" s="32" t="n"/>
       <c r="Q43" s="32" t="n"/>
       <c r="R43" s="23" t="n"/>
       <c r="S43" s="37" t="n"/>
@@ -5024,7 +5013,7 @@
       </c>
       <c r="AH43" s="2" t="n"/>
     </row>
-    <row r="44" ht="24" customHeight="1" s="44">
+    <row r="44" ht="24" customHeight="1" s="45">
       <c r="A44" s="2" t="n">
         <v>43</v>
       </c>
@@ -5112,7 +5101,7 @@
       </c>
       <c r="AH44" s="2" t="n"/>
     </row>
-    <row r="45" ht="24" customHeight="1" s="44">
+    <row r="45" ht="24" customHeight="1" s="45">
       <c r="A45" s="2" t="n">
         <v>44</v>
       </c>
@@ -5212,7 +5201,7 @@
       </c>
       <c r="AH45" s="2" t="n"/>
     </row>
-    <row r="46" ht="24" customHeight="1" s="44">
+    <row r="46" ht="24" customHeight="1" s="45">
       <c r="A46" s="2" t="n">
         <v>45</v>
       </c>
@@ -5247,12 +5236,8 @@
         </is>
       </c>
       <c r="N46" s="2" t="n"/>
-      <c r="O46" s="32" t="n">
-        <v>-27.9</v>
-      </c>
-      <c r="P46" s="32" t="n">
-        <v>-22.2</v>
-      </c>
+      <c r="O46" s="32" t="n"/>
+      <c r="P46" s="32" t="n"/>
       <c r="Q46" s="32" t="n"/>
       <c r="R46" s="23" t="n"/>
       <c r="S46" s="37" t="n"/>
@@ -5304,7 +5289,7 @@
       </c>
       <c r="AH46" s="2" t="n"/>
     </row>
-    <row r="47" ht="24" customHeight="1" s="44">
+    <row r="47" ht="24" customHeight="1" s="45">
       <c r="A47" s="2" t="n">
         <v>46</v>
       </c>
@@ -5392,7 +5377,7 @@
       </c>
       <c r="AH47" s="2" t="n"/>
     </row>
-    <row r="48" ht="24" customHeight="1" s="44">
+    <row r="48" ht="24" customHeight="1" s="45">
       <c r="A48" s="2" t="n">
         <v>47</v>
       </c>
@@ -5492,7 +5477,7 @@
       </c>
       <c r="AH48" s="2" t="n"/>
     </row>
-    <row r="49" ht="24" customHeight="1" s="44">
+    <row r="49" ht="24" customHeight="1" s="45">
       <c r="A49" s="2" t="n">
         <v>48</v>
       </c>
@@ -5580,7 +5565,7 @@
       </c>
       <c r="AH49" s="2" t="n"/>
     </row>
-    <row r="50" ht="24" customHeight="1" s="44">
+    <row r="50" ht="24" customHeight="1" s="45">
       <c r="A50" s="2" t="n">
         <v>49</v>
       </c>
@@ -5664,7 +5649,7 @@
       <c r="AG50" s="2" t="n"/>
       <c r="AH50" s="2" t="n"/>
     </row>
-    <row r="51" ht="24" customHeight="1" s="44">
+    <row r="51" ht="24" customHeight="1" s="45">
       <c r="A51" s="2" t="n">
         <v>50</v>
       </c>
@@ -5748,7 +5733,7 @@
       <c r="AG51" s="2" t="n"/>
       <c r="AH51" s="2" t="n"/>
     </row>
-    <row r="52" ht="24" customHeight="1" s="44">
+    <row r="52" ht="24" customHeight="1" s="45">
       <c r="A52" s="2" t="n">
         <v>51</v>
       </c>
@@ -5836,7 +5821,7 @@
       </c>
       <c r="AH52" s="2" t="n"/>
     </row>
-    <row r="53" ht="24" customHeight="1" s="44">
+    <row r="53" ht="24" customHeight="1" s="45">
       <c r="A53" s="2" t="n">
         <v>52</v>
       </c>
@@ -5924,7 +5909,7 @@
       </c>
       <c r="AH53" s="2" t="n"/>
     </row>
-    <row r="54" ht="24" customHeight="1" s="44">
+    <row r="54" ht="24" customHeight="1" s="45">
       <c r="A54" s="2" t="n">
         <v>53</v>
       </c>
@@ -6012,7 +5997,7 @@
       </c>
       <c r="AH54" s="2" t="n"/>
     </row>
-    <row r="55" ht="24" customHeight="1" s="44">
+    <row r="55" ht="24" customHeight="1" s="45">
       <c r="A55" s="2" t="n">
         <v>54</v>
       </c>
@@ -6100,7 +6085,7 @@
       </c>
       <c r="AH55" s="2" t="n"/>
     </row>
-    <row r="56" ht="24" customHeight="1" s="44">
+    <row r="56" ht="24" customHeight="1" s="45">
       <c r="A56" s="2" t="n">
         <v>55</v>
       </c>
@@ -6188,7 +6173,7 @@
       </c>
       <c r="AH56" s="2" t="n"/>
     </row>
-    <row r="57" ht="24" customHeight="1" s="44">
+    <row r="57" ht="24" customHeight="1" s="45">
       <c r="A57" s="2" t="n">
         <v>56</v>
       </c>
@@ -6272,7 +6257,7 @@
       <c r="AG57" s="2" t="n"/>
       <c r="AH57" s="2" t="n"/>
     </row>
-    <row r="58" ht="24" customHeight="1" s="44">
+    <row r="58" ht="24" customHeight="1" s="45">
       <c r="A58" s="2" t="n">
         <v>57</v>
       </c>
@@ -6360,7 +6345,7 @@
       </c>
       <c r="AH58" s="2" t="n"/>
     </row>
-    <row r="59" ht="24" customHeight="1" s="44">
+    <row r="59" ht="24" customHeight="1" s="45">
       <c r="A59" s="2" t="n">
         <v>58</v>
       </c>
@@ -6448,7 +6433,7 @@
       </c>
       <c r="AH59" s="2" t="n"/>
     </row>
-    <row r="60" ht="24" customHeight="1" s="44">
+    <row r="60" ht="24" customHeight="1" s="45">
       <c r="A60" s="2" t="n">
         <v>59</v>
       </c>
@@ -6536,7 +6521,7 @@
       </c>
       <c r="AH60" s="2" t="n"/>
     </row>
-    <row r="61" ht="24" customHeight="1" s="44">
+    <row r="61" ht="24" customHeight="1" s="45">
       <c r="A61" s="2" t="n">
         <v>60</v>
       </c>
@@ -6624,7 +6609,7 @@
       </c>
       <c r="AH61" s="2" t="n"/>
     </row>
-    <row r="62" ht="24" customHeight="1" s="44">
+    <row r="62" ht="24" customHeight="1" s="45">
       <c r="A62" s="2" t="n">
         <v>61</v>
       </c>
@@ -6712,7 +6697,7 @@
       </c>
       <c r="AH62" s="2" t="n"/>
     </row>
-    <row r="63" ht="24" customHeight="1" s="44">
+    <row r="63" ht="24" customHeight="1" s="45">
       <c r="A63" s="2" t="n">
         <v>62</v>
       </c>
@@ -6812,7 +6797,7 @@
       </c>
       <c r="AH63" s="2" t="n"/>
     </row>
-    <row r="64" ht="24" customHeight="1" s="44">
+    <row r="64" ht="24" customHeight="1" s="45">
       <c r="A64" s="2" t="n">
         <v>63</v>
       </c>
@@ -6900,7 +6885,7 @@
       </c>
       <c r="AH64" s="2" t="n"/>
     </row>
-    <row r="65" ht="24" customHeight="1" s="44">
+    <row r="65" ht="24" customHeight="1" s="45">
       <c r="A65" s="2" t="n">
         <v>64</v>
       </c>
@@ -6988,7 +6973,7 @@
       </c>
       <c r="AH65" s="2" t="n"/>
     </row>
-    <row r="66" ht="24" customHeight="1" s="44">
+    <row r="66" ht="24" customHeight="1" s="45">
       <c r="A66" s="2" t="n">
         <v>65</v>
       </c>
@@ -7076,7 +7061,7 @@
       </c>
       <c r="AH66" s="2" t="n"/>
     </row>
-    <row r="67" ht="24" customHeight="1" s="44">
+    <row r="67" ht="24" customHeight="1" s="45">
       <c r="A67" s="2" t="n">
         <v>66</v>
       </c>
@@ -7164,7 +7149,7 @@
       </c>
       <c r="AH67" s="2" t="n"/>
     </row>
-    <row r="68" ht="24" customHeight="1" s="44">
+    <row r="68" ht="24" customHeight="1" s="45">
       <c r="A68" s="2" t="n">
         <v>67</v>
       </c>
@@ -7264,7 +7249,7 @@
       </c>
       <c r="AH68" s="2" t="n"/>
     </row>
-    <row r="69" ht="24" customHeight="1" s="44">
+    <row r="69" ht="24" customHeight="1" s="45">
       <c r="A69" s="2" t="n">
         <v>68</v>
       </c>
@@ -7352,7 +7337,7 @@
       </c>
       <c r="AH69" s="2" t="n"/>
     </row>
-    <row r="70" ht="24" customHeight="1" s="44">
+    <row r="70" ht="24" customHeight="1" s="45">
       <c r="A70" s="2" t="n">
         <v>69</v>
       </c>
@@ -7440,7 +7425,7 @@
       </c>
       <c r="AH70" s="2" t="n"/>
     </row>
-    <row r="71" ht="24" customHeight="1" s="44">
+    <row r="71" ht="24" customHeight="1" s="45">
       <c r="A71" s="2" t="n">
         <v>70</v>
       </c>
@@ -7528,7 +7513,7 @@
       </c>
       <c r="AH71" s="2" t="n"/>
     </row>
-    <row r="72" ht="24" customHeight="1" s="44">
+    <row r="72" ht="24" customHeight="1" s="45">
       <c r="A72" s="2" t="n">
         <v>71</v>
       </c>
@@ -7616,7 +7601,7 @@
       </c>
       <c r="AH72" s="2" t="n"/>
     </row>
-    <row r="73" ht="24" customHeight="1" s="44">
+    <row r="73" ht="24" customHeight="1" s="45">
       <c r="A73" s="2" t="n">
         <v>72</v>
       </c>
@@ -7704,7 +7689,7 @@
       </c>
       <c r="AH73" s="2" t="n"/>
     </row>
-    <row r="74" ht="24" customHeight="1" s="44">
+    <row r="74" ht="24" customHeight="1" s="45">
       <c r="A74" s="2" t="n">
         <v>73</v>
       </c>
@@ -7788,7 +7773,7 @@
       <c r="AG74" s="2" t="n"/>
       <c r="AH74" s="2" t="n"/>
     </row>
-    <row r="75" ht="24" customHeight="1" s="44">
+    <row r="75" ht="24" customHeight="1" s="45">
       <c r="A75" s="2" t="n">
         <v>74</v>
       </c>
@@ -7834,13 +7819,13 @@
       </c>
       <c r="N75" s="2" t="n"/>
       <c r="O75" s="32" t="n">
-        <v>-26.7</v>
+        <v>-19.1</v>
       </c>
       <c r="P75" s="32" t="n">
-        <v>-5.5</v>
+        <v>1.6</v>
       </c>
       <c r="Q75" s="32" t="n">
-        <v>-18.16</v>
+        <v>-8.119999999999999</v>
       </c>
       <c r="R75" s="23" t="inlineStr">
         <is>
@@ -7900,7 +7885,7 @@
       </c>
       <c r="AH75" s="2" t="n"/>
     </row>
-    <row r="76" ht="24" customHeight="1" s="44">
+    <row r="76" ht="24" customHeight="1" s="45">
       <c r="A76" s="2" t="n">
         <v>75</v>
       </c>
@@ -7946,13 +7931,13 @@
       </c>
       <c r="N76" s="2" t="n"/>
       <c r="O76" s="32" t="n">
-        <v>-29.5</v>
+        <v>-18.7</v>
       </c>
       <c r="P76" s="32" t="n">
-        <v>-11.6</v>
+        <v>-3.6</v>
       </c>
       <c r="Q76" s="32" t="n">
-        <v>-21.44</v>
+        <v>-11.56</v>
       </c>
       <c r="R76" s="23" t="inlineStr">
         <is>
@@ -8012,7 +7997,7 @@
       </c>
       <c r="AH76" s="2" t="n"/>
     </row>
-    <row r="77" ht="24" customHeight="1" s="44">
+    <row r="77" ht="24" customHeight="1" s="45">
       <c r="A77" s="2" t="n">
         <v>76</v>
       </c>
@@ -8062,24 +8047,20 @@
         </is>
       </c>
       <c r="O77" s="32" t="n">
-        <v>-31.9</v>
+        <v>-16.8</v>
       </c>
       <c r="P77" s="32" t="n">
-        <v>-14.4</v>
+        <v>-3</v>
       </c>
       <c r="Q77" s="32" t="n">
-        <v>-23.49</v>
+        <v>-10.04</v>
       </c>
       <c r="R77" s="23" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="S77" s="37" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="S77" s="37" t="n"/>
       <c r="T77" s="41" t="inlineStr">
         <is>
           <t>谢列姆贾明星站&lt;br&gt;外东北东部</t>
@@ -8132,7 +8113,7 @@
       </c>
       <c r="AH77" s="2" t="n"/>
     </row>
-    <row r="78" ht="24" customHeight="1" s="44">
+    <row r="78" ht="24" customHeight="1" s="45">
       <c r="A78" s="2" t="n">
         <v>77</v>
       </c>
@@ -8178,13 +8159,13 @@
       </c>
       <c r="N78" s="2" t="n"/>
       <c r="O78" s="32" t="n">
-        <v>-24.5</v>
+        <v>-9.9</v>
       </c>
       <c r="P78" s="32" t="n">
-        <v>-12.2</v>
+        <v>-2.2</v>
       </c>
       <c r="Q78" s="32" t="n">
-        <v>-18.77</v>
+        <v>-7.71</v>
       </c>
       <c r="R78" s="23" t="inlineStr">
         <is>
@@ -8244,7 +8225,7 @@
       </c>
       <c r="AH78" s="2" t="n"/>
     </row>
-    <row r="79" ht="24" customHeight="1" s="44">
+    <row r="79" ht="24" customHeight="1" s="45">
       <c r="A79" s="2" t="n">
         <v>78</v>
       </c>
@@ -8294,13 +8275,13 @@
         </is>
       </c>
       <c r="O79" s="32" t="n">
-        <v>-31.2</v>
+        <v>-21.7</v>
       </c>
       <c r="P79" s="32" t="n">
-        <v>-11.5</v>
+        <v>-5.9</v>
       </c>
       <c r="Q79" s="32" t="n">
-        <v>-21.91</v>
+        <v>-13.61</v>
       </c>
       <c r="R79" s="23" t="inlineStr">
         <is>
@@ -8360,7 +8341,7 @@
       </c>
       <c r="AH79" s="2" t="n"/>
     </row>
-    <row r="80" ht="24" customHeight="1" s="44">
+    <row r="80" ht="24" customHeight="1" s="45">
       <c r="A80" s="2" t="n">
         <v>79</v>
       </c>
@@ -8406,13 +8387,13 @@
       </c>
       <c r="N80" s="2" t="n"/>
       <c r="O80" s="32" t="n">
-        <v>-21.7</v>
+        <v>-14.8</v>
       </c>
       <c r="P80" s="32" t="n">
-        <v>-2.2</v>
+        <v>-5.2</v>
       </c>
       <c r="Q80" s="32" t="n">
-        <v>-13.24</v>
+        <v>-11.59</v>
       </c>
       <c r="R80" s="23" t="inlineStr">
         <is>
@@ -8472,7 +8453,7 @@
       </c>
       <c r="AH80" s="2" t="n"/>
     </row>
-    <row r="81" ht="24" customHeight="1" s="44">
+    <row r="81" ht="24" customHeight="1" s="45">
       <c r="A81" s="2" t="n">
         <v>80</v>
       </c>
@@ -8522,13 +8503,13 @@
         </is>
       </c>
       <c r="O81" s="32" t="n">
-        <v>-28.9</v>
+        <v>-18.7</v>
       </c>
       <c r="P81" s="32" t="n">
-        <v>1.2</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="Q81" s="32" t="n">
-        <v>-15.5</v>
+        <v>-14.19</v>
       </c>
       <c r="R81" s="23" t="inlineStr">
         <is>
@@ -8593,7 +8574,7 @@
         </is>
       </c>
     </row>
-    <row r="82" ht="24" customHeight="1" s="44">
+    <row r="82" ht="24" customHeight="1" s="45">
       <c r="A82" s="2" t="n">
         <v>81</v>
       </c>
@@ -8643,24 +8624,20 @@
         </is>
       </c>
       <c r="O82" s="32" t="n">
-        <v>-19</v>
+        <v>-30</v>
       </c>
       <c r="P82" s="32" t="n">
-        <v>1.9</v>
+        <v>-7.9</v>
       </c>
       <c r="Q82" s="32" t="n">
-        <v>-5.74</v>
+        <v>-20.49</v>
       </c>
       <c r="R82" s="23" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="S82" s="37" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="S82" s="37" t="n"/>
       <c r="T82" s="41" t="inlineStr">
         <is>
           <t>后贝加尔明星站</t>
@@ -8713,7 +8690,7 @@
       </c>
       <c r="AH82" s="2" t="n"/>
     </row>
-    <row r="83" ht="24" customHeight="1" s="44">
+    <row r="83" ht="24" customHeight="1" s="45">
       <c r="A83" s="2" t="n">
         <v>82</v>
       </c>
@@ -8759,24 +8736,20 @@
       </c>
       <c r="N83" s="2" t="n"/>
       <c r="O83" s="32" t="n">
-        <v>-3.3</v>
+        <v>-16.9</v>
       </c>
       <c r="P83" s="32" t="n">
-        <v>5.6</v>
+        <v>-11.5</v>
       </c>
       <c r="Q83" s="32" t="n">
-        <v>1.5</v>
+        <v>-13.8</v>
       </c>
       <c r="R83" s="23" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="S83" s="37" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="S83" s="37" t="n"/>
       <c r="T83" s="41" t="inlineStr">
         <is>
           <t>布里亚特&lt;br&gt;贝加尔湖东岸</t>
@@ -8829,7 +8802,7 @@
       </c>
       <c r="AH83" s="2" t="n"/>
     </row>
-    <row r="84" ht="24" customHeight="1" s="44">
+    <row r="84" ht="24" customHeight="1" s="45">
       <c r="A84" s="2" t="n">
         <v>83</v>
       </c>
@@ -8879,24 +8852,20 @@
         </is>
       </c>
       <c r="O84" s="32" t="n">
-        <v>-8.6</v>
+        <v>-27</v>
       </c>
       <c r="P84" s="32" t="n">
-        <v>8.699999999999999</v>
+        <v>-13.9</v>
       </c>
       <c r="Q84" s="32" t="n">
-        <v>-2.51</v>
+        <v>-19.39</v>
       </c>
       <c r="R84" s="23" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="S84" s="37" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="S84" s="37" t="n"/>
       <c r="T84" s="41" t="inlineStr">
         <is>
           <t>东亚爆发王&lt;br&gt;贝加尔湖西岸</t>
@@ -8949,7 +8918,7 @@
       </c>
       <c r="AH84" s="2" t="n"/>
     </row>
-    <row r="85" ht="24" customHeight="1" s="44">
+    <row r="85" ht="24" customHeight="1" s="45">
       <c r="A85" s="2" t="n">
         <v>84</v>
       </c>
@@ -8999,13 +8968,13 @@
         </is>
       </c>
       <c r="O85" s="32" t="n">
-        <v>-17.5</v>
+        <v>-24</v>
       </c>
       <c r="P85" s="32" t="n">
-        <v>-9.1</v>
+        <v>-8.1</v>
       </c>
       <c r="Q85" s="32" t="n">
-        <v>-12.5</v>
+        <v>-16.04</v>
       </c>
       <c r="R85" s="23" t="inlineStr">
         <is>
@@ -9065,7 +9034,7 @@
       </c>
       <c r="AH85" s="2" t="n"/>
     </row>
-    <row r="86" ht="24" customHeight="1" s="44">
+    <row r="86" ht="24" customHeight="1" s="45">
       <c r="A86" s="2" t="n">
         <v>85</v>
       </c>
@@ -9111,13 +9080,13 @@
       </c>
       <c r="N86" s="2" t="n"/>
       <c r="O86" s="32" t="n">
-        <v>-17</v>
+        <v>-23.7</v>
       </c>
       <c r="P86" s="32" t="n">
-        <v>-9.800000000000001</v>
+        <v>-8.6</v>
       </c>
       <c r="Q86" s="32" t="n">
-        <v>-13.3</v>
+        <v>-15.88</v>
       </c>
       <c r="R86" s="23" t="inlineStr">
         <is>
@@ -9185,7 +9154,7 @@
       </c>
       <c r="AH86" s="2" t="n"/>
     </row>
-    <row r="87" ht="24" customHeight="1" s="44">
+    <row r="87" ht="24" customHeight="1" s="45">
       <c r="A87" s="2" t="n">
         <v>86</v>
       </c>
@@ -9235,13 +9204,13 @@
         </is>
       </c>
       <c r="O87" s="32" t="n">
-        <v>-24.4</v>
+        <v>-28.1</v>
       </c>
       <c r="P87" s="32" t="n">
-        <v>-19.2</v>
+        <v>-16.9</v>
       </c>
       <c r="Q87" s="32" t="n">
-        <v>-22.29</v>
+        <v>-22.21</v>
       </c>
       <c r="R87" s="23" t="inlineStr">
         <is>
@@ -9301,7 +9270,7 @@
       </c>
       <c r="AH87" s="2" t="n"/>
     </row>
-    <row r="88" ht="24" customHeight="1" s="44">
+    <row r="88" ht="24" customHeight="1" s="45">
       <c r="A88" s="2" t="n">
         <v>87</v>
       </c>
@@ -9347,13 +9316,13 @@
       </c>
       <c r="N88" s="2" t="n"/>
       <c r="O88" s="32" t="n">
-        <v>-16.9</v>
+        <v>-28.2</v>
       </c>
       <c r="P88" s="32" t="n">
-        <v>3.4</v>
+        <v>-11.8</v>
       </c>
       <c r="Q88" s="32" t="n">
-        <v>-9.26</v>
+        <v>-20.71</v>
       </c>
       <c r="R88" s="23" t="inlineStr">
         <is>
@@ -9413,7 +9382,7 @@
       </c>
       <c r="AH88" s="2" t="n"/>
     </row>
-    <row r="89" ht="24" customHeight="1" s="44">
+    <row r="89" ht="24" customHeight="1" s="45">
       <c r="A89" s="2" t="n">
         <v>88</v>
       </c>
@@ -9515,7 +9484,7 @@
       </c>
       <c r="AH89" s="2" t="n"/>
     </row>
-    <row r="90" ht="24" customHeight="1" s="44">
+    <row r="90" ht="24" customHeight="1" s="45">
       <c r="A90" s="2" t="n">
         <v>89</v>
       </c>
@@ -9565,13 +9534,13 @@
         </is>
       </c>
       <c r="O90" s="32" t="n">
-        <v>-4.5</v>
+        <v>-28.4</v>
       </c>
       <c r="P90" s="32" t="n">
-        <v>-1.1</v>
+        <v>-14.4</v>
       </c>
       <c r="Q90" s="32" t="n">
-        <v>-2.61</v>
+        <v>-20.95</v>
       </c>
       <c r="R90" s="23" t="inlineStr">
         <is>
@@ -9627,7 +9596,7 @@
       <c r="AG90" s="2" t="n"/>
       <c r="AH90" s="2" t="n"/>
     </row>
-    <row r="91" ht="24" customHeight="1" s="44">
+    <row r="91" ht="24" customHeight="1" s="45">
       <c r="A91" s="2" t="n">
         <v>90</v>
       </c>
@@ -9673,13 +9642,13 @@
       </c>
       <c r="N91" s="2" t="n"/>
       <c r="O91" s="32" t="n">
-        <v>-15</v>
+        <v>-27.1</v>
       </c>
       <c r="P91" s="32" t="n">
-        <v>-5.3</v>
+        <v>-9.4</v>
       </c>
       <c r="Q91" s="32" t="n">
-        <v>-9.449999999999999</v>
+        <v>-20.85</v>
       </c>
       <c r="R91" s="23" t="inlineStr">
         <is>
@@ -9735,7 +9704,7 @@
       </c>
       <c r="AH91" s="2" t="n"/>
     </row>
-    <row r="92" ht="24" customHeight="1" s="44">
+    <row r="92" ht="24" customHeight="1" s="45">
       <c r="A92" s="2" t="n">
         <v>91</v>
       </c>
@@ -9781,13 +9750,13 @@
       </c>
       <c r="N92" s="2" t="n"/>
       <c r="O92" s="32" t="n">
-        <v>-16.4</v>
+        <v>-5.4</v>
       </c>
       <c r="P92" s="32" t="n">
-        <v>0.5</v>
+        <v>6.9</v>
       </c>
       <c r="Q92" s="32" t="n">
-        <v>-9.859999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="R92" s="23" t="inlineStr">
         <is>
@@ -9847,7 +9816,7 @@
       </c>
       <c r="AH92" s="2" t="n"/>
     </row>
-    <row r="93" ht="24" customHeight="1" s="44">
+    <row r="93" ht="24" customHeight="1" s="45">
       <c r="A93" s="2" t="n">
         <v>92</v>
       </c>
@@ -9893,13 +9862,13 @@
       </c>
       <c r="N93" s="2" t="n"/>
       <c r="O93" s="32" t="n">
-        <v>-6.9</v>
+        <v>-1</v>
       </c>
       <c r="P93" s="32" t="n">
-        <v>11.3</v>
+        <v>14</v>
       </c>
       <c r="Q93" s="32" t="n">
-        <v>2.55</v>
+        <v>7.26</v>
       </c>
       <c r="R93" s="23" t="inlineStr">
         <is>
@@ -9971,7 +9940,7 @@
       </c>
       <c r="AH93" s="2" t="n"/>
     </row>
-    <row r="94" ht="24" customHeight="1" s="44">
+    <row r="94" ht="24" customHeight="1" s="45">
       <c r="A94" s="2" t="n">
         <v>93</v>
       </c>
@@ -10013,10 +9982,10 @@
         </is>
       </c>
       <c r="O94" s="32" t="n">
-        <v>-11.3</v>
+        <v>-1.3</v>
       </c>
       <c r="P94" s="32" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Q94" s="32" t="n"/>
       <c r="R94" s="23" t="inlineStr">
@@ -10085,7 +10054,7 @@
       </c>
       <c r="AH94" s="2" t="n"/>
     </row>
-    <row r="95" ht="24" customHeight="1" s="44">
+    <row r="95" ht="24" customHeight="1" s="45">
       <c r="A95" s="2" t="n">
         <v>94</v>
       </c>
@@ -10131,13 +10100,13 @@
       </c>
       <c r="N95" s="2" t="n"/>
       <c r="O95" s="32" t="n">
-        <v>-6.9</v>
+        <v>3.6</v>
       </c>
       <c r="P95" s="32" t="n">
-        <v>6.3</v>
+        <v>15.3</v>
       </c>
       <c r="Q95" s="32" t="n">
-        <v>-0.89</v>
+        <v>8.41</v>
       </c>
       <c r="R95" s="23" t="inlineStr">
         <is>
@@ -10209,7 +10178,7 @@
       </c>
       <c r="AH95" s="2" t="n"/>
     </row>
-    <row r="96" ht="24" customHeight="1" s="44">
+    <row r="96" ht="24" customHeight="1" s="45">
       <c r="A96" s="2" t="n">
         <v>95</v>
       </c>
@@ -10259,10 +10228,10 @@
         </is>
       </c>
       <c r="O96" s="32" t="n">
-        <v>-15.4</v>
+        <v>-4.9</v>
       </c>
       <c r="P96" s="32" t="n">
-        <v>5.5</v>
+        <v>13.2</v>
       </c>
       <c r="Q96" s="32" t="n"/>
       <c r="R96" s="23" t="inlineStr">
@@ -10331,7 +10300,7 @@
       </c>
       <c r="AH96" s="2" t="n"/>
     </row>
-    <row r="97" ht="24" customHeight="1" s="44">
+    <row r="97" ht="24" customHeight="1" s="45">
       <c r="A97" s="2" t="n">
         <v>96</v>
       </c>
@@ -10377,20 +10346,24 @@
       </c>
       <c r="N97" s="2" t="n"/>
       <c r="O97" s="32" t="n">
-        <v>-16.5</v>
+        <v>-1.6</v>
       </c>
       <c r="P97" s="32" t="n">
-        <v>0.7</v>
+        <v>10.9</v>
       </c>
       <c r="Q97" s="32" t="n">
-        <v>-7.38</v>
+        <v>5.98</v>
       </c>
       <c r="R97" s="23" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="S97" s="37" t="n"/>
+      <c r="S97" s="37" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="T97" s="41" t="inlineStr">
         <is>
           <t>松花江</t>
@@ -10455,7 +10428,7 @@
       </c>
       <c r="AH97" s="2" t="n"/>
     </row>
-    <row r="98" ht="24" customHeight="1" s="44">
+    <row r="98" ht="24" customHeight="1" s="45">
       <c r="A98" s="2" t="n">
         <v>97</v>
       </c>
@@ -10493,10 +10466,10 @@
       </c>
       <c r="N98" s="2" t="n"/>
       <c r="O98" s="32" t="n">
-        <v>-26.8</v>
+        <v>-11.6</v>
       </c>
       <c r="P98" s="32" t="n">
-        <v>-4.6</v>
+        <v>-0.1</v>
       </c>
       <c r="Q98" s="32" t="n"/>
       <c r="R98" s="23" t="inlineStr">
@@ -10565,7 +10538,7 @@
       </c>
       <c r="AH98" s="2" t="n"/>
     </row>
-    <row r="99" ht="24" customHeight="1" s="44">
+    <row r="99" ht="24" customHeight="1" s="45">
       <c r="A99" s="2" t="n">
         <v>98</v>
       </c>
@@ -10611,13 +10584,13 @@
       </c>
       <c r="N99" s="2" t="n"/>
       <c r="O99" s="32" t="n">
-        <v>-25.7</v>
+        <v>-16.4</v>
       </c>
       <c r="P99" s="32" t="n">
-        <v>-4.7</v>
+        <v>-4.8</v>
       </c>
       <c r="Q99" s="32" t="n">
-        <v>-14.49</v>
+        <v>-9.69</v>
       </c>
       <c r="R99" s="23" t="inlineStr">
         <is>
@@ -10685,7 +10658,7 @@
       </c>
       <c r="AH99" s="2" t="n"/>
     </row>
-    <row r="100" ht="24" customHeight="1" s="44">
+    <row r="100" ht="24" customHeight="1" s="45">
       <c r="A100" s="2" t="n">
         <v>99</v>
       </c>
@@ -10791,7 +10764,7 @@
       </c>
       <c r="AH100" s="2" t="n"/>
     </row>
-    <row r="101" ht="24" customHeight="1" s="44">
+    <row r="101" ht="24" customHeight="1" s="45">
       <c r="A101" s="2" t="n">
         <v>100</v>
       </c>
@@ -10897,7 +10870,7 @@
       </c>
       <c r="AH101" s="2" t="n"/>
     </row>
-    <row r="102" ht="24" customHeight="1" s="44">
+    <row r="102" ht="24" customHeight="1" s="45">
       <c r="A102" s="2" t="n">
         <v>101</v>
       </c>
@@ -10943,13 +10916,13 @@
       </c>
       <c r="N102" s="2" t="n"/>
       <c r="O102" s="32" t="n">
-        <v>-27.4</v>
+        <v>-18.7</v>
       </c>
       <c r="P102" s="32" t="n">
-        <v>0.3</v>
+        <v>-7.4</v>
       </c>
       <c r="Q102" s="32" t="n">
-        <v>-14.86</v>
+        <v>-11.46</v>
       </c>
       <c r="R102" s="23" t="inlineStr">
         <is>
@@ -11021,7 +10994,7 @@
       </c>
       <c r="AH102" s="2" t="n"/>
     </row>
-    <row r="103" ht="24" customHeight="1" s="44">
+    <row r="103" ht="24" customHeight="1" s="45">
       <c r="A103" s="2" t="n">
         <v>102</v>
       </c>
@@ -11059,10 +11032,10 @@
       </c>
       <c r="N103" s="2" t="n"/>
       <c r="O103" s="32" t="n">
-        <v>-26.5</v>
+        <v>-20.2</v>
       </c>
       <c r="P103" s="32" t="n">
-        <v>-9.4</v>
+        <v>-7</v>
       </c>
       <c r="Q103" s="32" t="n"/>
       <c r="R103" s="23" t="inlineStr">
@@ -11131,7 +11104,7 @@
       </c>
       <c r="AH103" s="2" t="n"/>
     </row>
-    <row r="104" ht="24" customHeight="1" s="44">
+    <row r="104" ht="24" customHeight="1" s="45">
       <c r="A104" s="2" t="n">
         <v>103</v>
       </c>
@@ -11169,10 +11142,10 @@
       </c>
       <c r="N104" s="2" t="n"/>
       <c r="O104" s="32" t="n">
-        <v>-28</v>
+        <v>-21.1</v>
       </c>
       <c r="P104" s="32" t="n">
-        <v>-4.7</v>
+        <v>-4.1</v>
       </c>
       <c r="Q104" s="32" t="n"/>
       <c r="R104" s="23" t="inlineStr">
@@ -11180,7 +11153,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S104" s="37" t="n"/>
+      <c r="S104" s="37" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="T104" s="41" t="inlineStr">
         <is>
           <t>国家站最冷单月</t>
@@ -11241,7 +11218,7 @@
       </c>
       <c r="AH104" s="2" t="n"/>
     </row>
-    <row r="105" ht="24" customHeight="1" s="44">
+    <row r="105" ht="24" customHeight="1" s="45">
       <c r="A105" s="2" t="n">
         <v>104</v>
       </c>
@@ -11291,24 +11268,20 @@
         </is>
       </c>
       <c r="O105" s="32" t="n">
-        <v>-30.7</v>
+        <v>-24.3</v>
       </c>
       <c r="P105" s="32" t="n">
-        <v>-3.6</v>
+        <v>-3.2</v>
       </c>
       <c r="Q105" s="32" t="n">
-        <v>-18.66</v>
+        <v>-13.26</v>
       </c>
       <c r="R105" s="23" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="S105" s="37" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="S105" s="37" t="n"/>
       <c r="T105" s="41" t="inlineStr">
         <is>
           <t>国家站一均王&lt;br&gt;呼伦贝尔 大兴安岭</t>
@@ -11369,7 +11342,7 @@
       </c>
       <c r="AH105" s="2" t="n"/>
     </row>
-    <row r="106" ht="24" customHeight="1" s="44">
+    <row r="106" ht="24" customHeight="1" s="45">
       <c r="A106" s="2" t="n">
         <v>105</v>
       </c>
@@ -11411,10 +11384,10 @@
         </is>
       </c>
       <c r="O106" s="32" t="n">
-        <v>-27.2</v>
+        <v>-19.4</v>
       </c>
       <c r="P106" s="32" t="n">
-        <v>-7.1</v>
+        <v>-5.6</v>
       </c>
       <c r="Q106" s="32" t="n"/>
       <c r="R106" s="23" t="inlineStr">
@@ -11422,11 +11395,7 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S106" s="37" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="S106" s="37" t="n"/>
       <c r="T106" s="41" t="inlineStr">
         <is>
           <t>国家站昼温王&lt;br&gt;呼伦贝尔</t>
@@ -11487,7 +11456,7 @@
       </c>
       <c r="AH106" s="2" t="n"/>
     </row>
-    <row r="107" ht="24" customHeight="1" s="44">
+    <row r="107" ht="24" customHeight="1" s="45">
       <c r="A107" s="2" t="n">
         <v>106</v>
       </c>
@@ -11589,7 +11558,7 @@
       </c>
       <c r="AH107" s="2" t="n"/>
     </row>
-    <row r="108" ht="24" customHeight="1" s="44">
+    <row r="108" ht="24" customHeight="1" s="45">
       <c r="A108" s="2" t="n">
         <v>107</v>
       </c>
@@ -11635,13 +11604,13 @@
       </c>
       <c r="N108" s="2" t="n"/>
       <c r="O108" s="32" t="n">
-        <v>-17.7</v>
+        <v>-11.4</v>
       </c>
       <c r="P108" s="32" t="n">
-        <v>-3.8</v>
+        <v>-5.7</v>
       </c>
       <c r="Q108" s="32" t="n">
-        <v>-11.26</v>
+        <v>-8.529999999999999</v>
       </c>
       <c r="R108" s="23" t="inlineStr">
         <is>
@@ -11709,7 +11678,7 @@
       </c>
       <c r="AH108" s="2" t="n"/>
     </row>
-    <row r="109" ht="24" customHeight="1" s="44">
+    <row r="109" ht="24" customHeight="1" s="45">
       <c r="A109" s="2" t="n">
         <v>108</v>
       </c>
@@ -11811,7 +11780,7 @@
       </c>
       <c r="AH109" s="2" t="n"/>
     </row>
-    <row r="110" ht="24" customHeight="1" s="44">
+    <row r="110" ht="24" customHeight="1" s="45">
       <c r="A110" s="2" t="n">
         <v>109</v>
       </c>
@@ -11917,7 +11886,7 @@
       </c>
       <c r="AH110" s="2" t="n"/>
     </row>
-    <row r="111" ht="24" customHeight="1" s="44">
+    <row r="111" ht="24" customHeight="1" s="45">
       <c r="A111" s="2" t="n">
         <v>110</v>
       </c>
@@ -11963,13 +11932,13 @@
       </c>
       <c r="N111" s="2" t="n"/>
       <c r="O111" s="32" t="n">
-        <v>-19.5</v>
+        <v>-10.5</v>
       </c>
       <c r="P111" s="32" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="Q111" s="32" t="n">
-        <v>-11.27</v>
+        <v>-5.11</v>
       </c>
       <c r="R111" s="23" t="inlineStr">
         <is>
@@ -12037,7 +12006,7 @@
       </c>
       <c r="AH111" s="2" t="n"/>
     </row>
-    <row r="112" ht="24" customHeight="1" s="44">
+    <row r="112" ht="24" customHeight="1" s="45">
       <c r="A112" s="2" t="n">
         <v>111</v>
       </c>
@@ -12075,10 +12044,10 @@
       </c>
       <c r="N112" s="2" t="n"/>
       <c r="O112" s="32" t="n">
-        <v>-16.1</v>
+        <v>-11.9</v>
       </c>
       <c r="P112" s="32" t="n">
-        <v>6.2</v>
+        <v>5</v>
       </c>
       <c r="Q112" s="32" t="n"/>
       <c r="R112" s="23" t="inlineStr">
@@ -12143,7 +12112,7 @@
       <c r="AG112" s="2" t="n"/>
       <c r="AH112" s="2" t="n"/>
     </row>
-    <row r="113" ht="24" customHeight="1" s="44">
+    <row r="113" ht="24" customHeight="1" s="45">
       <c r="A113" s="2" t="n">
         <v>112</v>
       </c>
@@ -12181,10 +12150,10 @@
       </c>
       <c r="N113" s="2" t="n"/>
       <c r="O113" s="32" t="n">
-        <v>-13.3</v>
+        <v>-17.9</v>
       </c>
       <c r="P113" s="32" t="n">
-        <v>0.2</v>
+        <v>1.9</v>
       </c>
       <c r="Q113" s="32" t="n"/>
       <c r="R113" s="23" t="inlineStr">
@@ -12253,7 +12222,7 @@
       </c>
       <c r="AH113" s="2" t="n"/>
     </row>
-    <row r="114" ht="24" customHeight="1" s="44">
+    <row r="114" ht="24" customHeight="1" s="45">
       <c r="A114" s="2" t="n">
         <v>113</v>
       </c>
@@ -12295,10 +12264,10 @@
         </is>
       </c>
       <c r="O114" s="32" t="n">
-        <v>-23.3</v>
+        <v>-25.1</v>
       </c>
       <c r="P114" s="32" t="n">
-        <v>-0.7</v>
+        <v>2.4</v>
       </c>
       <c r="Q114" s="32" t="n"/>
       <c r="R114" s="23" t="inlineStr">
@@ -12367,7 +12336,7 @@
       </c>
       <c r="AH114" s="2" t="n"/>
     </row>
-    <row r="115" ht="24" customHeight="1" s="44">
+    <row r="115" ht="24" customHeight="1" s="45">
       <c r="A115" s="2" t="n">
         <v>114</v>
       </c>
@@ -12417,10 +12386,10 @@
         </is>
       </c>
       <c r="O115" s="32" t="n">
-        <v>-22.3</v>
+        <v>-18.1</v>
       </c>
       <c r="P115" s="32" t="n">
-        <v>-2.5</v>
+        <v>0.2</v>
       </c>
       <c r="Q115" s="32" t="n"/>
       <c r="R115" s="23" t="inlineStr">
@@ -12489,7 +12458,7 @@
       </c>
       <c r="AH115" s="2" t="n"/>
     </row>
-    <row r="116" ht="24" customHeight="1" s="44">
+    <row r="116" ht="24" customHeight="1" s="45">
       <c r="A116" s="2" t="n">
         <v>115</v>
       </c>
@@ -12535,13 +12504,13 @@
       </c>
       <c r="N116" s="2" t="n"/>
       <c r="O116" s="32" t="n">
-        <v>-1.7</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="P116" s="32" t="n">
-        <v>9.300000000000001</v>
+        <v>5.3</v>
       </c>
       <c r="Q116" s="32" t="n">
-        <v>2.66</v>
+        <v>-5.58</v>
       </c>
       <c r="R116" s="23" t="inlineStr">
         <is>
@@ -12609,7 +12578,7 @@
       </c>
       <c r="AH116" s="2" t="n"/>
     </row>
-    <row r="117" ht="24" customHeight="1" s="44">
+    <row r="117" ht="24" customHeight="1" s="45">
       <c r="A117" s="2" t="n">
         <v>116</v>
       </c>
@@ -12647,10 +12616,10 @@
       </c>
       <c r="N117" s="2" t="n"/>
       <c r="O117" s="32" t="n">
-        <v>-8.4</v>
+        <v>-6.8</v>
       </c>
       <c r="P117" s="32" t="n">
-        <v>8.699999999999999</v>
+        <v>-0.1</v>
       </c>
       <c r="Q117" s="32" t="n"/>
       <c r="R117" s="23" t="inlineStr">
@@ -12719,7 +12688,7 @@
       </c>
       <c r="AH117" s="2" t="n"/>
     </row>
-    <row r="118" ht="24" customHeight="1" s="44">
+    <row r="118" ht="24" customHeight="1" s="45">
       <c r="A118" s="2" t="n">
         <v>117</v>
       </c>
@@ -12761,10 +12730,10 @@
         </is>
       </c>
       <c r="O118" s="32" t="n">
-        <v>-17.7</v>
+        <v>-28.7</v>
       </c>
       <c r="P118" s="32" t="n">
-        <v>-0.1</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="Q118" s="32" t="n"/>
       <c r="R118" s="23" t="inlineStr">
@@ -12833,7 +12802,7 @@
       </c>
       <c r="AH118" s="2" t="n"/>
     </row>
-    <row r="119" ht="24" customHeight="1" s="44">
+    <row r="119" ht="24" customHeight="1" s="45">
       <c r="A119" s="2" t="n">
         <v>118</v>
       </c>
@@ -12879,20 +12848,24 @@
       </c>
       <c r="N119" s="2" t="n"/>
       <c r="O119" s="32" t="n">
-        <v>-4</v>
+        <v>-20.7</v>
       </c>
       <c r="P119" s="32" t="n">
-        <v>5.1</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="Q119" s="32" t="n">
-        <v>0.16</v>
+        <v>-15.04</v>
       </c>
       <c r="R119" s="23" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="S119" s="37" t="n"/>
+      <c r="S119" s="37" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="T119" s="41" t="inlineStr">
         <is>
           <t>阿苇滩雪都机场&lt;br&gt;阿尔泰山</t>
@@ -12957,7 +12930,7 @@
       </c>
       <c r="AH119" s="2" t="n"/>
     </row>
-    <row r="120" ht="24" customHeight="1" s="44">
+    <row r="120" ht="24" customHeight="1" s="45">
       <c r="A120" s="2" t="n">
         <v>119</v>
       </c>
@@ -13063,7 +13036,7 @@
       </c>
       <c r="AH120" s="2" t="n"/>
     </row>
-    <row r="121" ht="24" customHeight="1" s="44">
+    <row r="121" ht="24" customHeight="1" s="45">
       <c r="A121" s="2" t="n">
         <v>120</v>
       </c>
@@ -13109,13 +13082,13 @@
       </c>
       <c r="N121" s="2" t="n"/>
       <c r="O121" s="32" t="n">
-        <v>-8.4</v>
+        <v>-7.8</v>
       </c>
       <c r="P121" s="32" t="n">
-        <v>6.9</v>
+        <v>3.8</v>
       </c>
       <c r="Q121" s="32" t="n">
-        <v>-1.5</v>
+        <v>-3.61</v>
       </c>
       <c r="R121" s="23" t="inlineStr">
         <is>
@@ -13187,7 +13160,7 @@
       </c>
       <c r="AH121" s="2" t="n"/>
     </row>
-    <row r="122" ht="24" customHeight="1" s="44">
+    <row r="122" ht="24" customHeight="1" s="45">
       <c r="A122" s="2" t="n">
         <v>121</v>
       </c>
@@ -13233,10 +13206,10 @@
       </c>
       <c r="N122" s="2" t="n"/>
       <c r="O122" s="32" t="n">
-        <v>-15.1</v>
+        <v>-25.3</v>
       </c>
       <c r="P122" s="32" t="n">
-        <v>-6.1</v>
+        <v>-1.9</v>
       </c>
       <c r="Q122" s="32" t="n"/>
       <c r="R122" s="23" t="inlineStr">
@@ -13244,11 +13217,7 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S122" s="37" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="S122" s="37" t="n"/>
       <c r="T122" s="41" t="inlineStr">
         <is>
           <t>新疆最冷国家站&lt;br&gt;天山</t>
@@ -13309,7 +13278,7 @@
       </c>
       <c r="AH122" s="2" t="n"/>
     </row>
-    <row r="123" ht="24" customHeight="1" s="44">
+    <row r="123" ht="24" customHeight="1" s="45">
       <c r="A123" s="2" t="n">
         <v>122</v>
       </c>
@@ -13415,7 +13384,7 @@
       </c>
       <c r="AH123" s="2" t="n"/>
     </row>
-    <row r="124" ht="24" customHeight="1" s="44">
+    <row r="124" ht="24" customHeight="1" s="45">
       <c r="A124" s="2" t="n">
         <v>123</v>
       </c>
@@ -13461,13 +13430,13 @@
       </c>
       <c r="N124" s="2" t="n"/>
       <c r="O124" s="32" t="n">
-        <v>-12.7</v>
+        <v>-5.8</v>
       </c>
       <c r="P124" s="32" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="Q124" s="32" t="n">
-        <v>-3.52</v>
+        <v>0.8</v>
       </c>
       <c r="R124" s="23" t="inlineStr">
         <is>
@@ -13539,7 +13508,7 @@
       </c>
       <c r="AH124" s="2" t="n"/>
     </row>
-    <row r="125" ht="24" customHeight="1" s="44">
+    <row r="125" ht="24" customHeight="1" s="45">
       <c r="A125" s="2" t="n">
         <v>124</v>
       </c>
@@ -13585,20 +13554,24 @@
       </c>
       <c r="N125" s="2" t="n"/>
       <c r="O125" s="32" t="n">
-        <v>-4</v>
+        <v>1.4</v>
       </c>
       <c r="P125" s="32" t="n">
-        <v>14.9</v>
+        <v>19.8</v>
       </c>
       <c r="Q125" s="32" t="n">
-        <v>4.97</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="R125" s="23" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="S125" s="37" t="n"/>
+      <c r="S125" s="37" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="T125" s="41" t="inlineStr">
         <is>
           <t>北京大兴区</t>
@@ -13647,7 +13620,7 @@
       <c r="AG125" s="2" t="n"/>
       <c r="AH125" s="2" t="n"/>
     </row>
-    <row r="126" ht="24" customHeight="1" s="44">
+    <row r="126" ht="24" customHeight="1" s="45">
       <c r="A126" s="2" t="n">
         <v>125</v>
       </c>
@@ -13685,10 +13658,10 @@
       </c>
       <c r="N126" s="2" t="n"/>
       <c r="O126" s="32" t="n">
-        <v>-1.5</v>
+        <v>5.9</v>
       </c>
       <c r="P126" s="32" t="n">
-        <v>15.6</v>
+        <v>23</v>
       </c>
       <c r="Q126" s="32" t="n"/>
       <c r="R126" s="23" t="inlineStr">
@@ -13749,7 +13722,7 @@
         </is>
       </c>
     </row>
-    <row r="127" ht="24" customHeight="1" s="44">
+    <row r="127" ht="24" customHeight="1" s="45">
       <c r="A127" s="2" t="n">
         <v>126</v>
       </c>
@@ -13795,13 +13768,13 @@
       </c>
       <c r="N127" s="2" t="n"/>
       <c r="O127" s="32" t="n">
-        <v>-4</v>
+        <v>5.3</v>
       </c>
       <c r="P127" s="32" t="n">
-        <v>14.9</v>
+        <v>15.5</v>
       </c>
       <c r="Q127" s="32" t="n">
-        <v>5.04</v>
+        <v>10.53</v>
       </c>
       <c r="R127" s="23" t="inlineStr">
         <is>
@@ -13869,7 +13842,7 @@
       </c>
       <c r="AH127" s="2" t="n"/>
     </row>
-    <row r="128" ht="24" customHeight="1" s="44">
+    <row r="128" ht="24" customHeight="1" s="45">
       <c r="A128" s="2" t="n">
         <v>127</v>
       </c>
@@ -13915,10 +13888,10 @@
       </c>
       <c r="N128" s="2" t="n"/>
       <c r="O128" s="32" t="n">
-        <v>3.2</v>
+        <v>9.9</v>
       </c>
       <c r="P128" s="32" t="n">
-        <v>20.6</v>
+        <v>26</v>
       </c>
       <c r="Q128" s="32" t="n"/>
       <c r="R128" s="23" t="inlineStr">
@@ -13979,7 +13952,7 @@
       <c r="AG128" s="2" t="n"/>
       <c r="AH128" s="2" t="n"/>
     </row>
-    <row r="129" ht="24" customHeight="1" s="44">
+    <row r="129" ht="24" customHeight="1" s="45">
       <c r="A129" s="2" t="n">
         <v>128</v>
       </c>
@@ -14025,13 +13998,13 @@
       </c>
       <c r="N129" s="2" t="n"/>
       <c r="O129" s="32" t="n">
-        <v>-4.4</v>
+        <v>-1.7</v>
       </c>
       <c r="P129" s="32" t="n">
-        <v>15.2</v>
+        <v>18.4</v>
       </c>
       <c r="Q129" s="32" t="n">
-        <v>5.14</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="R129" s="23" t="inlineStr">
         <is>
@@ -14099,7 +14072,7 @@
       </c>
       <c r="AH129" s="2" t="n"/>
     </row>
-    <row r="130" ht="24" customHeight="1" s="44">
+    <row r="130" ht="24" customHeight="1" s="45">
       <c r="A130" s="2" t="n">
         <v>129</v>
       </c>
@@ -14145,13 +14118,13 @@
       </c>
       <c r="N130" s="2" t="n"/>
       <c r="O130" s="32" t="n">
-        <v>-7.8</v>
+        <v>-3.8</v>
       </c>
       <c r="P130" s="32" t="n">
-        <v>12</v>
+        <v>13.9</v>
       </c>
       <c r="Q130" s="32" t="n">
-        <v>0.84</v>
+        <v>5.66</v>
       </c>
       <c r="R130" s="23" t="inlineStr">
         <is>
@@ -14219,7 +14192,7 @@
       </c>
       <c r="AH130" s="2" t="n"/>
     </row>
-    <row r="131" ht="24" customHeight="1" s="44">
+    <row r="131" ht="24" customHeight="1" s="45">
       <c r="A131" s="2" t="n">
         <v>130</v>
       </c>
@@ -14265,13 +14238,13 @@
       </c>
       <c r="N131" s="2" t="n"/>
       <c r="O131" s="32" t="n">
-        <v>5.5</v>
+        <v>13.7</v>
       </c>
       <c r="P131" s="32" t="n">
-        <v>16.5</v>
+        <v>23.4</v>
       </c>
       <c r="Q131" s="32" t="n">
-        <v>11.26</v>
+        <v>18.45</v>
       </c>
       <c r="R131" s="23" t="inlineStr">
         <is>
@@ -14335,7 +14308,7 @@
       </c>
       <c r="AH131" s="2" t="n"/>
     </row>
-    <row r="132" ht="24" customHeight="1" s="44">
+    <row r="132" ht="24" customHeight="1" s="45">
       <c r="A132" s="2" t="n">
         <v>131</v>
       </c>
@@ -14381,13 +14354,13 @@
       </c>
       <c r="N132" s="2" t="n"/>
       <c r="O132" s="32" t="n">
-        <v>1.4</v>
+        <v>5.4</v>
       </c>
       <c r="P132" s="32" t="n">
-        <v>19.8</v>
+        <v>27.7</v>
       </c>
       <c r="Q132" s="32" t="n">
-        <v>10.76</v>
+        <v>17.06</v>
       </c>
       <c r="R132" s="23" t="inlineStr">
         <is>
@@ -14451,7 +14424,7 @@
       </c>
       <c r="AH132" s="2" t="n"/>
     </row>
-    <row r="133" ht="24" customHeight="1" s="44">
+    <row r="133" ht="24" customHeight="1" s="45">
       <c r="A133" s="2" t="n">
         <v>132</v>
       </c>
@@ -14497,13 +14470,13 @@
       </c>
       <c r="N133" s="2" t="n"/>
       <c r="O133" s="32" t="n">
-        <v>3.9</v>
+        <v>9.9</v>
       </c>
       <c r="P133" s="32" t="n">
-        <v>19.2</v>
+        <v>23.8</v>
       </c>
       <c r="Q133" s="32" t="n">
-        <v>10.85</v>
+        <v>16.41</v>
       </c>
       <c r="R133" s="23" t="inlineStr">
         <is>
@@ -14571,7 +14544,7 @@
         </is>
       </c>
     </row>
-    <row r="134" ht="24" customHeight="1" s="44">
+    <row r="134" ht="24" customHeight="1" s="45">
       <c r="A134" s="2" t="n">
         <v>133</v>
       </c>
@@ -14673,7 +14646,7 @@
       </c>
       <c r="AH134" s="2" t="n"/>
     </row>
-    <row r="135" ht="24" customHeight="1" s="44">
+    <row r="135" ht="24" customHeight="1" s="45">
       <c r="A135" s="2" t="n">
         <v>134</v>
       </c>
@@ -14719,13 +14692,13 @@
       </c>
       <c r="N135" s="2" t="n"/>
       <c r="O135" s="32" t="n">
-        <v>6.2</v>
+        <v>6.9</v>
       </c>
       <c r="P135" s="32" t="n">
-        <v>11.9</v>
+        <v>19.8</v>
       </c>
       <c r="Q135" s="32" t="n">
-        <v>7.79</v>
+        <v>12.56</v>
       </c>
       <c r="R135" s="23" t="inlineStr">
         <is>
@@ -14789,7 +14762,7 @@
       </c>
       <c r="AH135" s="2" t="n"/>
     </row>
-    <row r="136" ht="24" customHeight="1" s="44">
+    <row r="136" ht="24" customHeight="1" s="45">
       <c r="A136" s="2" t="n">
         <v>135</v>
       </c>
@@ -14838,10 +14811,10 @@
         <v>4.5</v>
       </c>
       <c r="P136" s="32" t="n">
-        <v>8.199999999999999</v>
+        <v>19.8</v>
       </c>
       <c r="Q136" s="32" t="n">
-        <v>6.71</v>
+        <v>10.05</v>
       </c>
       <c r="R136" s="23" t="inlineStr">
         <is>
@@ -14905,7 +14878,7 @@
       </c>
       <c r="AH136" s="2" t="n"/>
     </row>
-    <row r="137" ht="24" customHeight="1" s="44">
+    <row r="137" ht="24" customHeight="1" s="45">
       <c r="A137" s="2" t="n">
         <v>136</v>
       </c>
@@ -14951,13 +14924,13 @@
       </c>
       <c r="N137" s="2" t="n"/>
       <c r="O137" s="32" t="n">
-        <v>6.5</v>
+        <v>4.8</v>
       </c>
       <c r="P137" s="32" t="n">
-        <v>16.6</v>
+        <v>23.5</v>
       </c>
       <c r="Q137" s="32" t="n">
-        <v>10.45</v>
+        <v>13.95</v>
       </c>
       <c r="R137" s="23" t="inlineStr">
         <is>
@@ -15021,7 +14994,7 @@
       </c>
       <c r="AH137" s="2" t="n"/>
     </row>
-    <row r="138" ht="24" customHeight="1" s="44">
+    <row r="138" ht="24" customHeight="1" s="45">
       <c r="A138" s="2" t="n">
         <v>137</v>
       </c>
@@ -15067,10 +15040,10 @@
       </c>
       <c r="N138" s="2" t="n"/>
       <c r="O138" s="32" t="n">
-        <v>0.9</v>
+        <v>4.8</v>
       </c>
       <c r="P138" s="32" t="n">
-        <v>17</v>
+        <v>23.9</v>
       </c>
       <c r="Q138" s="32" t="n"/>
       <c r="R138" s="23" t="inlineStr">
@@ -15135,7 +15108,7 @@
       </c>
       <c r="AH138" s="2" t="n"/>
     </row>
-    <row r="139" ht="24" customHeight="1" s="44">
+    <row r="139" ht="24" customHeight="1" s="45">
       <c r="A139" s="2" t="n">
         <v>138</v>
       </c>
@@ -15181,13 +15154,13 @@
       </c>
       <c r="N139" s="2" t="n"/>
       <c r="O139" s="32" t="n">
-        <v>2.8</v>
+        <v>6.1</v>
       </c>
       <c r="P139" s="32" t="n">
-        <v>14.4</v>
+        <v>23.3</v>
       </c>
       <c r="Q139" s="32" t="n">
-        <v>8.15</v>
+        <v>15.06</v>
       </c>
       <c r="R139" s="23" t="inlineStr">
         <is>
@@ -15251,7 +15224,7 @@
       </c>
       <c r="AH139" s="2" t="n"/>
     </row>
-    <row r="140" ht="24" customHeight="1" s="44">
+    <row r="140" ht="24" customHeight="1" s="45">
       <c r="A140" s="2" t="n">
         <v>139</v>
       </c>
@@ -15297,13 +15270,13 @@
       </c>
       <c r="N140" s="2" t="n"/>
       <c r="O140" s="32" t="n">
-        <v>4.8</v>
+        <v>6.9</v>
       </c>
       <c r="P140" s="32" t="n">
-        <v>14.1</v>
+        <v>24.2</v>
       </c>
       <c r="Q140" s="32" t="n">
-        <v>9.32</v>
+        <v>14.94</v>
       </c>
       <c r="R140" s="23" t="inlineStr">
         <is>
@@ -15367,7 +15340,7 @@
       </c>
       <c r="AH140" s="2" t="n"/>
     </row>
-    <row r="141" ht="24" customHeight="1" s="44">
+    <row r="141" ht="24" customHeight="1" s="45">
       <c r="A141" s="2" t="n">
         <v>140</v>
       </c>
@@ -15469,7 +15442,7 @@
       </c>
       <c r="AH141" s="2" t="n"/>
     </row>
-    <row r="142" ht="24" customHeight="1" s="44">
+    <row r="142" ht="24" customHeight="1" s="45">
       <c r="A142" s="2" t="n">
         <v>141</v>
       </c>
@@ -15515,13 +15488,13 @@
       </c>
       <c r="N142" s="2" t="n"/>
       <c r="O142" s="32" t="n">
-        <v>8.5</v>
+        <v>10.1</v>
       </c>
       <c r="P142" s="32" t="n">
-        <v>19</v>
+        <v>25.2</v>
       </c>
       <c r="Q142" s="32" t="n">
-        <v>12.98</v>
+        <v>16.25</v>
       </c>
       <c r="R142" s="23" t="inlineStr">
         <is>
@@ -15585,7 +15558,7 @@
       </c>
       <c r="AH142" s="2" t="n"/>
     </row>
-    <row r="143" ht="24" customHeight="1" s="44">
+    <row r="143" ht="24" customHeight="1" s="45">
       <c r="A143" s="2" t="n">
         <v>142</v>
       </c>
@@ -15631,13 +15604,13 @@
       </c>
       <c r="N143" s="2" t="n"/>
       <c r="O143" s="32" t="n">
-        <v>11.6</v>
+        <v>13.4</v>
       </c>
       <c r="P143" s="32" t="n">
-        <v>23.8</v>
+        <v>24.7</v>
       </c>
       <c r="Q143" s="32" t="n">
-        <v>16.7</v>
+        <v>18.5</v>
       </c>
       <c r="R143" s="23" t="inlineStr">
         <is>
@@ -15701,7 +15674,7 @@
       </c>
       <c r="AH143" s="2" t="n"/>
     </row>
-    <row r="144" ht="24" customHeight="1" s="44">
+    <row r="144" ht="24" customHeight="1" s="45">
       <c r="A144" s="2" t="n">
         <v>143</v>
       </c>
@@ -15803,7 +15776,7 @@
       <c r="AG144" s="2" t="n"/>
       <c r="AH144" s="2" t="n"/>
     </row>
-    <row r="145" ht="24" customHeight="1" s="44">
+    <row r="145" ht="24" customHeight="1" s="45">
       <c r="A145" s="2" t="n">
         <v>144</v>
       </c>
@@ -15901,7 +15874,7 @@
       <c r="AG145" s="2" t="n"/>
       <c r="AH145" s="2" t="n"/>
     </row>
-    <row r="146" ht="24" customHeight="1" s="44">
+    <row r="146" ht="24" customHeight="1" s="45">
       <c r="A146" s="2" t="n">
         <v>145</v>
       </c>
@@ -15947,13 +15920,13 @@
       </c>
       <c r="N146" s="2" t="n"/>
       <c r="O146" s="32" t="n">
-        <v>20.2</v>
+        <v>19.8</v>
       </c>
       <c r="P146" s="32" t="n">
         <v>27.3</v>
       </c>
       <c r="Q146" s="32" t="n">
-        <v>23.39</v>
+        <v>23.47</v>
       </c>
       <c r="R146" s="23" t="inlineStr">
         <is>
@@ -16009,7 +15982,7 @@
       <c r="AG146" s="2" t="n"/>
       <c r="AH146" s="2" t="n"/>
     </row>
-    <row r="147" ht="24" customHeight="1" s="44">
+    <row r="147" ht="24" customHeight="1" s="45">
       <c r="A147" s="2" t="n">
         <v>146</v>
       </c>
@@ -16055,13 +16028,13 @@
       </c>
       <c r="N147" s="2" t="n"/>
       <c r="O147" s="32" t="n">
-        <v>12.4</v>
+        <v>14.2</v>
       </c>
       <c r="P147" s="32" t="n">
-        <v>15.5</v>
+        <v>23.2</v>
       </c>
       <c r="Q147" s="32" t="n">
-        <v>13.56</v>
+        <v>18.73</v>
       </c>
       <c r="R147" s="23" t="inlineStr">
         <is>
@@ -16125,7 +16098,7 @@
       </c>
       <c r="AH147" s="2" t="n"/>
     </row>
-    <row r="148" ht="24" customHeight="1" s="44">
+    <row r="148" ht="24" customHeight="1" s="45">
       <c r="A148" s="2" t="n">
         <v>147</v>
       </c>
@@ -16227,7 +16200,7 @@
       </c>
       <c r="AH148" s="2" t="n"/>
     </row>
-    <row r="149" ht="24" customHeight="1" s="44">
+    <row r="149" ht="24" customHeight="1" s="45">
       <c r="A149" s="2" t="n">
         <v>148</v>
       </c>
@@ -16273,13 +16246,13 @@
       </c>
       <c r="N149" s="2" t="n"/>
       <c r="O149" s="32" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="P149" s="32" t="n">
-        <v>23.1</v>
+        <v>22.8</v>
       </c>
       <c r="Q149" s="32" t="n">
-        <v>15.35</v>
+        <v>16.74</v>
       </c>
       <c r="R149" s="23" t="inlineStr">
         <is>
@@ -16343,7 +16316,7 @@
       </c>
       <c r="AH149" s="2" t="n"/>
     </row>
-    <row r="150" ht="24" customHeight="1" s="44">
+    <row r="150" ht="24" customHeight="1" s="45">
       <c r="A150" s="2" t="n">
         <v>149</v>
       </c>
@@ -16389,13 +16362,13 @@
       </c>
       <c r="N150" s="2" t="n"/>
       <c r="O150" s="32" t="n">
-        <v>4.4</v>
+        <v>12</v>
       </c>
       <c r="P150" s="32" t="n">
-        <v>12.3</v>
+        <v>22.4</v>
       </c>
       <c r="Q150" s="32" t="n">
-        <v>7.27</v>
+        <v>15.49</v>
       </c>
       <c r="R150" s="23" t="inlineStr">
         <is>
@@ -16459,7 +16432,7 @@
       </c>
       <c r="AH150" s="2" t="n"/>
     </row>
-    <row r="151" ht="24" customHeight="1" s="44">
+    <row r="151" ht="24" customHeight="1" s="45">
       <c r="A151" s="2" t="n">
         <v>150</v>
       </c>
@@ -16505,13 +16478,13 @@
       </c>
       <c r="N151" s="2" t="n"/>
       <c r="O151" s="32" t="n">
-        <v>12.3</v>
+        <v>11.3</v>
       </c>
       <c r="P151" s="32" t="n">
-        <v>19.7</v>
+        <v>25</v>
       </c>
       <c r="Q151" s="32" t="n">
-        <v>15.41</v>
+        <v>17.02</v>
       </c>
       <c r="R151" s="23" t="inlineStr">
         <is>
@@ -16571,7 +16544,7 @@
       </c>
       <c r="AH151" s="2" t="n"/>
     </row>
-    <row r="152" ht="24" customHeight="1" s="44">
+    <row r="152" ht="24" customHeight="1" s="45">
       <c r="A152" s="2" t="n">
         <v>151</v>
       </c>
@@ -16665,7 +16638,7 @@
       </c>
       <c r="AH152" s="2" t="n"/>
     </row>
-    <row r="153" ht="24" customHeight="1" s="44">
+    <row r="153" ht="24" customHeight="1" s="45">
       <c r="A153" s="2" t="n">
         <v>152</v>
       </c>
@@ -16711,13 +16684,13 @@
       </c>
       <c r="N153" s="2" t="n"/>
       <c r="O153" s="32" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="P153" s="32" t="n">
-        <v>19.7</v>
+        <v>22.2</v>
       </c>
       <c r="Q153" s="32" t="n">
-        <v>12.25</v>
+        <v>12.65</v>
       </c>
       <c r="R153" s="23" t="inlineStr">
         <is>
@@ -16785,7 +16758,7 @@
         </is>
       </c>
     </row>
-    <row r="154" ht="24" customHeight="1" s="44">
+    <row r="154" ht="24" customHeight="1" s="45">
       <c r="A154" s="2" t="n">
         <v>153</v>
       </c>
@@ -16831,13 +16804,13 @@
       </c>
       <c r="N154" s="2" t="n"/>
       <c r="O154" s="32" t="n">
-        <v>-2.4</v>
+        <v>-2.2</v>
       </c>
       <c r="P154" s="32" t="n">
-        <v>12.8</v>
+        <v>11.6</v>
       </c>
       <c r="Q154" s="32" t="n">
-        <v>5.06</v>
+        <v>4.34</v>
       </c>
       <c r="R154" s="23" t="inlineStr">
         <is>
@@ -16901,7 +16874,7 @@
       </c>
       <c r="AH154" s="2" t="n"/>
     </row>
-    <row r="155" ht="24" customHeight="1" s="44">
+    <row r="155" ht="24" customHeight="1" s="45">
       <c r="A155" s="2" t="n">
         <v>154</v>
       </c>
@@ -16995,7 +16968,7 @@
       </c>
       <c r="AH155" s="2" t="n"/>
     </row>
-    <row r="156" ht="24" customHeight="1" s="44">
+    <row r="156" ht="24" customHeight="1" s="45">
       <c r="A156" s="2" t="n">
         <v>155</v>
       </c>
@@ -17033,10 +17006,10 @@
       </c>
       <c r="N156" s="2" t="n"/>
       <c r="O156" s="32" t="n">
-        <v>-18.5</v>
+        <v>-4</v>
       </c>
       <c r="P156" s="32" t="n">
-        <v>7.6</v>
+        <v>8.5</v>
       </c>
       <c r="Q156" s="32" t="n"/>
       <c r="R156" s="23" t="inlineStr">
@@ -17101,7 +17074,7 @@
       <c r="AG156" s="2" t="n"/>
       <c r="AH156" s="2" t="n"/>
     </row>
-    <row r="157" ht="24" customHeight="1" s="44">
+    <row r="157" ht="24" customHeight="1" s="45">
       <c r="A157" s="2" t="n">
         <v>156</v>
       </c>
@@ -17139,10 +17112,10 @@
       </c>
       <c r="N157" s="2" t="n"/>
       <c r="O157" s="32" t="n">
-        <v>4.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P157" s="32" t="n">
-        <v>14</v>
+        <v>22.7</v>
       </c>
       <c r="Q157" s="32" t="n"/>
       <c r="R157" s="23" t="inlineStr">
@@ -17150,7 +17123,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S157" s="37" t="n"/>
+      <c r="S157" s="37" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="T157" s="41" t="inlineStr">
         <is>
           <t>上海徐家汇</t>
@@ -17203,7 +17180,7 @@
       </c>
       <c r="AH157" s="2" t="n"/>
     </row>
-    <row r="158" ht="24" customHeight="1" s="44">
+    <row r="158" ht="24" customHeight="1" s="45">
       <c r="A158" s="2" t="n">
         <v>157</v>
       </c>
@@ -17297,7 +17274,7 @@
       </c>
       <c r="AH158" s="2" t="n"/>
     </row>
-    <row r="159" ht="24" customHeight="1" s="44">
+    <row r="159" ht="24" customHeight="1" s="45">
       <c r="A159" s="2" t="n">
         <v>158</v>
       </c>
@@ -17391,7 +17368,7 @@
       </c>
       <c r="AH159" s="2" t="n"/>
     </row>
-    <row r="160" ht="24" customHeight="1" s="44">
+    <row r="160" ht="24" customHeight="1" s="45">
       <c r="A160" s="2" t="n">
         <v>159</v>
       </c>
@@ -17485,7 +17462,7 @@
       </c>
       <c r="AH160" s="2" t="n"/>
     </row>
-    <row r="161" ht="24" customHeight="1" s="44">
+    <row r="161" ht="24" customHeight="1" s="45">
       <c r="A161" s="2" t="n">
         <v>160</v>
       </c>
@@ -17523,10 +17500,10 @@
       </c>
       <c r="N161" s="2" t="n"/>
       <c r="O161" s="32" t="n">
-        <v>-1.7</v>
+        <v>-1.3</v>
       </c>
       <c r="P161" s="32" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="Q161" s="32" t="n"/>
       <c r="R161" s="23" t="inlineStr">
@@ -17595,7 +17572,7 @@
         </is>
       </c>
     </row>
-    <row r="162" ht="24" customHeight="1" s="44">
+    <row r="162" ht="24" customHeight="1" s="45">
       <c r="A162" s="2" t="n">
         <v>161</v>
       </c>
@@ -17637,10 +17614,10 @@
         </is>
       </c>
       <c r="O162" s="32" t="n">
-        <v>-29.9</v>
+        <v>-26.1</v>
       </c>
       <c r="P162" s="32" t="n">
-        <v>1.8</v>
+        <v>-6.4</v>
       </c>
       <c r="Q162" s="32" t="n"/>
       <c r="R162" s="23" t="inlineStr">
@@ -17709,7 +17686,7 @@
         </is>
       </c>
     </row>
-    <row r="163" ht="24" customHeight="1" s="44">
+    <row r="163" ht="24" customHeight="1" s="45">
       <c r="A163" s="2" t="n">
         <v>162</v>
       </c>
@@ -17815,7 +17792,7 @@
       </c>
       <c r="AH163" s="2" t="n"/>
     </row>
-    <row r="164" ht="24" customHeight="1" s="44">
+    <row r="164" ht="24" customHeight="1" s="45">
       <c r="A164" s="2" t="n">
         <v>163</v>
       </c>
@@ -17925,7 +17902,7 @@
       </c>
       <c r="AH164" s="2" t="n"/>
     </row>
-    <row r="165" ht="24" customHeight="1" s="44">
+    <row r="165" ht="24" customHeight="1" s="45">
       <c r="A165" s="2" t="n">
         <v>164</v>
       </c>
@@ -17967,10 +17944,10 @@
         </is>
       </c>
       <c r="O165" s="32" t="n">
-        <v>-30.4</v>
+        <v>-17.2</v>
       </c>
       <c r="P165" s="32" t="n">
-        <v>-6.3</v>
+        <v>-3.6</v>
       </c>
       <c r="Q165" s="32" t="n"/>
       <c r="R165" s="23" t="inlineStr">
@@ -17978,10 +17955,14 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S165" s="37" t="n"/>
-      <c r="T165" s="41" t="inlineStr">
-        <is>
-          <t>呼伦贝尔明星站</t>
+      <c r="S165" s="37" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="T165" s="44" t="inlineStr">
+        <is>
+          <t>呼伦贝尔明星站&lt;br&gt;国内一均王</t>
         </is>
       </c>
       <c r="U165" s="2" t="inlineStr">
@@ -18035,7 +18016,7 @@
       </c>
       <c r="AH165" s="2" t="n"/>
     </row>
-    <row r="166" ht="24" customHeight="1" s="44">
+    <row r="166" ht="24" customHeight="1" s="45">
       <c r="A166" s="2" t="n">
         <v>165</v>
       </c>
@@ -18145,7 +18126,7 @@
         </is>
       </c>
     </row>
-    <row r="167" ht="24" customHeight="1" s="44">
+    <row r="167" ht="24" customHeight="1" s="45">
       <c r="A167" s="2" t="n">
         <v>166</v>
       </c>
@@ -18247,7 +18228,7 @@
       </c>
       <c r="AH167" s="2" t="n"/>
     </row>
-    <row r="168" ht="24" customHeight="1" s="44">
+    <row r="168" ht="24" customHeight="1" s="45">
       <c r="A168" s="2" t="n">
         <v>167</v>
       </c>
@@ -18289,10 +18270,10 @@
         </is>
       </c>
       <c r="O168" s="32" t="n">
-        <v>-10.3</v>
+        <v>-30.4</v>
       </c>
       <c r="P168" s="32" t="n">
-        <v>2.5</v>
+        <v>-7.9</v>
       </c>
       <c r="Q168" s="32" t="n"/>
       <c r="R168" s="23" t="inlineStr">
@@ -18361,7 +18342,7 @@
       </c>
       <c r="AH168" s="2" t="n"/>
     </row>
-    <row r="169" ht="24" customHeight="1" s="44">
+    <row r="169" ht="24" customHeight="1" s="45">
       <c r="A169" s="2" t="n">
         <v>168</v>
       </c>
@@ -18403,10 +18384,10 @@
         </is>
       </c>
       <c r="O169" s="32" t="n">
-        <v>-17.1</v>
+        <v>-38.4</v>
       </c>
       <c r="P169" s="32" t="n">
-        <v>2</v>
+        <v>-11.3</v>
       </c>
       <c r="Q169" s="32" t="n"/>
       <c r="R169" s="23" t="inlineStr">
@@ -18475,7 +18456,7 @@
       </c>
       <c r="AH169" s="2" t="n"/>
     </row>
-    <row r="170" ht="24" customHeight="1" s="44">
+    <row r="170" ht="24" customHeight="1" s="45">
       <c r="A170" s="2" t="n">
         <v>169</v>
       </c>
@@ -18516,12 +18497,8 @@
           <t>⚡</t>
         </is>
       </c>
-      <c r="O170" s="32" t="n">
-        <v>-23</v>
-      </c>
-      <c r="P170" s="32" t="n">
-        <v>-0.5</v>
-      </c>
+      <c r="O170" s="32" t="n"/>
+      <c r="P170" s="32" t="n"/>
       <c r="Q170" s="32" t="n"/>
       <c r="R170" s="23" t="inlineStr">
         <is>
@@ -18549,7 +18526,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="X170" s="4" t="n"/>
+      <c r="X170" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="Y170" s="4" t="n"/>
       <c r="Z170" s="2" t="inlineStr">
         <is>
@@ -18585,7 +18566,7 @@
         </is>
       </c>
     </row>
-    <row r="171" ht="24" customHeight="1" s="44">
+    <row r="171" ht="24" customHeight="1" s="45">
       <c r="A171" s="2" t="n">
         <v>170</v>
       </c>
@@ -18651,7 +18632,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="X171" s="4" t="n"/>
+      <c r="X171" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="Y171" s="4" t="n"/>
       <c r="Z171" s="2" t="inlineStr">
         <is>
@@ -18687,7 +18672,7 @@
         </is>
       </c>
     </row>
-    <row r="172" ht="24" customHeight="1" s="44">
+    <row r="172" ht="24" customHeight="1" s="45">
       <c r="A172" s="2" t="n">
         <v>171</v>
       </c>
@@ -18725,10 +18710,10 @@
       </c>
       <c r="N172" s="3" t="n"/>
       <c r="O172" s="32" t="n">
-        <v>-15.4</v>
+        <v>-17.1</v>
       </c>
       <c r="P172" s="32" t="n">
-        <v>-7</v>
+        <v>2.5</v>
       </c>
       <c r="Q172" s="32" t="n"/>
       <c r="R172" s="23" t="inlineStr">
@@ -18797,7 +18782,7 @@
       </c>
       <c r="AH172" s="2" t="n"/>
     </row>
-    <row r="173" ht="24" customHeight="1" s="44">
+    <row r="173" ht="24" customHeight="1" s="45">
       <c r="A173" s="2" t="n">
         <v>172</v>
       </c>
@@ -18835,10 +18820,10 @@
       </c>
       <c r="N173" s="2" t="n"/>
       <c r="O173" s="32" t="n">
-        <v>-19</v>
+        <v>-13</v>
       </c>
       <c r="P173" s="32" t="n">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q173" s="32" t="n"/>
       <c r="R173" s="23" t="inlineStr">
@@ -18903,7 +18888,7 @@
       <c r="AG173" s="2" t="n"/>
       <c r="AH173" s="2" t="n"/>
     </row>
-    <row r="174" ht="24" customHeight="1" s="44">
+    <row r="174" ht="24" customHeight="1" s="45">
       <c r="A174" s="2" t="n">
         <v>173</v>
       </c>
@@ -18969,7 +18954,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="X174" s="4" t="n"/>
+      <c r="X174" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="Y174" s="4" t="n"/>
       <c r="Z174" s="2" t="inlineStr">
         <is>
@@ -19005,7 +18994,7 @@
         </is>
       </c>
     </row>
-    <row r="175" ht="24" customHeight="1" s="44">
+    <row r="175" ht="24" customHeight="1" s="45">
       <c r="A175" s="2" t="n">
         <v>174</v>
       </c>
@@ -19107,7 +19096,7 @@
       </c>
       <c r="AH175" s="2" t="n"/>
     </row>
-    <row r="176" ht="24" customHeight="1" s="44">
+    <row r="176" ht="24" customHeight="1" s="45">
       <c r="A176" s="2" t="n">
         <v>175</v>
       </c>
@@ -19153,10 +19142,10 @@
       </c>
       <c r="N176" s="2" t="n"/>
       <c r="O176" s="32" t="n">
-        <v>-0.8</v>
+        <v>3</v>
       </c>
       <c r="P176" s="32" t="n">
-        <v>3.9</v>
+        <v>11.9</v>
       </c>
       <c r="Q176" s="32" t="n"/>
       <c r="R176" s="23" t="inlineStr">
@@ -19181,7 +19170,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="X176" s="4" t="n"/>
+      <c r="X176" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="Y176" s="4" t="n"/>
       <c r="Z176" s="2" t="inlineStr">
         <is>
@@ -19213,7 +19206,7 @@
         </is>
       </c>
     </row>
-    <row r="177" ht="24" customHeight="1" s="44">
+    <row r="177" ht="24" customHeight="1" s="45">
       <c r="A177" s="2" t="n">
         <v>176</v>
       </c>
@@ -19251,10 +19244,10 @@
       </c>
       <c r="N177" s="2" t="n"/>
       <c r="O177" s="32" t="n">
-        <v>-17.1</v>
+        <v>-11.4</v>
       </c>
       <c r="P177" s="32" t="n">
-        <v>-11.3</v>
+        <v>-4.2</v>
       </c>
       <c r="Q177" s="32" t="n"/>
       <c r="R177" s="23" t="inlineStr">
@@ -19262,7 +19255,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S177" s="37" t="n"/>
+      <c r="S177" s="37" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="T177" s="41" t="inlineStr">
         <is>
           <t>国家站年均王&lt;br&gt;吉林省延边</t>
@@ -19283,7 +19280,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="X177" s="4" t="n"/>
+      <c r="X177" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="Y177" s="4" t="n"/>
       <c r="Z177" s="2" t="inlineStr">
         <is>
@@ -19319,7 +19320,7 @@
         </is>
       </c>
     </row>
-    <row r="178" ht="24" customHeight="1" s="44">
+    <row r="178" ht="24" customHeight="1" s="45">
       <c r="A178" s="2" t="n">
         <v>177</v>
       </c>
@@ -19429,7 +19430,7 @@
         </is>
       </c>
     </row>
-    <row r="179" ht="24" customHeight="1" s="44">
+    <row r="179" ht="24" customHeight="1" s="45">
       <c r="A179" s="2" t="n">
         <v>178</v>
       </c>
@@ -19535,7 +19536,7 @@
         </is>
       </c>
     </row>
-    <row r="180" ht="24" customHeight="1" s="44">
+    <row r="180" ht="24" customHeight="1" s="45">
       <c r="A180" s="2" t="n">
         <v>179</v>
       </c>
@@ -19597,7 +19598,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="X180" s="4" t="n"/>
+      <c r="X180" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="Y180" s="4" t="n"/>
       <c r="Z180" s="2" t="inlineStr">
         <is>
@@ -19633,7 +19638,7 @@
         </is>
       </c>
     </row>
-    <row r="181" ht="24" customHeight="1" s="44">
+    <row r="181" ht="24" customHeight="1" s="45">
       <c r="A181" s="2" t="n">
         <v>180</v>
       </c>
@@ -19731,7 +19736,7 @@
         </is>
       </c>
     </row>
-    <row r="182" ht="24" customHeight="1" s="44">
+    <row r="182" ht="24" customHeight="1" s="45">
       <c r="A182" s="2" t="n">
         <v>181</v>
       </c>
@@ -19817,7 +19822,7 @@
       <c r="AG182" s="2" t="n"/>
       <c r="AH182" s="2" t="n"/>
     </row>
-    <row r="183" ht="24" customHeight="1" s="44">
+    <row r="183" ht="24" customHeight="1" s="45">
       <c r="A183" s="2" t="n">
         <v>182</v>
       </c>
@@ -19899,7 +19904,7 @@
       <c r="AG183" s="2" t="n"/>
       <c r="AH183" s="2" t="n"/>
     </row>
-    <row r="184" ht="24" customHeight="1" s="44">
+    <row r="184" ht="24" customHeight="1" s="45">
       <c r="A184" s="2" t="n">
         <v>183</v>
       </c>
@@ -19981,7 +19986,7 @@
       <c r="AG184" s="2" t="n"/>
       <c r="AH184" s="2" t="n"/>
     </row>
-    <row r="185" ht="24" customHeight="1" s="44">
+    <row r="185" ht="24" customHeight="1" s="45">
       <c r="A185" s="2" t="n">
         <v>184</v>
       </c>
@@ -20084,7 +20089,7 @@
         </is>
       </c>
     </row>
-    <row r="186" ht="24" customHeight="1" s="44">
+    <row r="186" ht="24" customHeight="1" s="45">
       <c r="A186" s="2" t="n">
         <v>185</v>
       </c>
@@ -20130,13 +20135,13 @@
       </c>
       <c r="N186" s="2" t="n"/>
       <c r="O186" s="32" t="n">
-        <v>-51.3</v>
+        <v>-47.5</v>
       </c>
       <c r="P186" s="32" t="n">
-        <v>-37.1</v>
+        <v>-35.3</v>
       </c>
       <c r="Q186" s="32" t="n">
-        <v>-46.16</v>
+        <v>-42.8</v>
       </c>
       <c r="R186" s="23" t="inlineStr">
         <is>
@@ -20193,7 +20198,7 @@
         </is>
       </c>
     </row>
-    <row r="187" ht="24" customHeight="1" s="44">
+    <row r="187" ht="24" customHeight="1" s="45">
       <c r="A187" s="2" t="n">
         <v>186</v>
       </c>
@@ -20239,13 +20244,13 @@
       </c>
       <c r="N187" s="2" t="n"/>
       <c r="O187" s="32" t="n">
-        <v>-48.7</v>
+        <v>-46</v>
       </c>
       <c r="P187" s="32" t="n">
-        <v>-37.7</v>
+        <v>-33</v>
       </c>
       <c r="Q187" s="32" t="n">
-        <v>-45.16</v>
+        <v>-41.31</v>
       </c>
       <c r="R187" s="23" t="inlineStr">
         <is>
@@ -20297,7 +20302,7 @@
       </c>
       <c r="AH187" s="2" t="n"/>
     </row>
-    <row r="188" ht="24" customHeight="1" s="44">
+    <row r="188" ht="24" customHeight="1" s="45">
       <c r="A188" s="2" t="n">
         <v>187</v>
       </c>
@@ -20343,13 +20348,13 @@
       </c>
       <c r="N188" s="2" t="n"/>
       <c r="O188" s="32" t="n">
-        <v>-52</v>
+        <v>-48</v>
       </c>
       <c r="P188" s="32" t="n">
-        <v>-40.8</v>
+        <v>-36.4</v>
       </c>
       <c r="Q188" s="32" t="n">
-        <v>-46.5</v>
+        <v>-42.31</v>
       </c>
       <c r="R188" s="23" t="inlineStr">
         <is>
@@ -20401,7 +20406,7 @@
       </c>
       <c r="AH188" s="2" t="n"/>
     </row>
-    <row r="189" ht="24" customHeight="1" s="44">
+    <row r="189" ht="24" customHeight="1" s="45">
       <c r="A189" s="2" t="n">
         <v>188</v>
       </c>
@@ -20447,13 +20452,13 @@
       </c>
       <c r="N189" s="2" t="n"/>
       <c r="O189" s="32" t="n">
-        <v>-54.7</v>
+        <v>-51.9</v>
       </c>
       <c r="P189" s="32" t="n">
-        <v>-34</v>
+        <v>-31.2</v>
       </c>
       <c r="Q189" s="32" t="n">
-        <v>-46.88</v>
+        <v>-43.65</v>
       </c>
       <c r="R189" s="23" t="inlineStr">
         <is>
@@ -20505,7 +20510,7 @@
       </c>
       <c r="AH189" s="2" t="n"/>
     </row>
-    <row r="190" ht="24" customHeight="1" s="44">
+    <row r="190" ht="24" customHeight="1" s="45">
       <c r="A190" s="2" t="n">
         <v>189</v>
       </c>
@@ -20551,13 +20556,13 @@
       </c>
       <c r="N190" s="2" t="n"/>
       <c r="O190" s="32" t="n">
-        <v>-53.3</v>
+        <v>-51.9</v>
       </c>
       <c r="P190" s="32" t="n">
-        <v>-43.3</v>
+        <v>-41.7</v>
       </c>
       <c r="Q190" s="32" t="n">
-        <v>-50.05</v>
+        <v>-48.48</v>
       </c>
       <c r="R190" s="23" t="inlineStr">
         <is>
@@ -20609,7 +20614,7 @@
       </c>
       <c r="AH190" s="2" t="n"/>
     </row>
-    <row r="191" ht="24" customHeight="1" s="44">
+    <row r="191" ht="24" customHeight="1" s="45">
       <c r="A191" s="2" t="n">
         <v>190</v>
       </c>
@@ -20655,13 +20660,13 @@
       </c>
       <c r="N191" s="2" t="n"/>
       <c r="O191" s="32" t="n">
-        <v>-51</v>
+        <v>-47.6</v>
       </c>
       <c r="P191" s="32" t="n">
-        <v>-37.8</v>
+        <v>-30.6</v>
       </c>
       <c r="Q191" s="32" t="n">
-        <v>-46.58</v>
+        <v>-42.32</v>
       </c>
       <c r="R191" s="23" t="inlineStr">
         <is>
@@ -20709,7 +20714,7 @@
       <c r="AG191" s="2" t="n"/>
       <c r="AH191" s="2" t="n"/>
     </row>
-    <row r="192" ht="24" customHeight="1" s="44">
+    <row r="192" ht="24" customHeight="1" s="45">
       <c r="A192" s="2" t="n">
         <v>191</v>
       </c>
@@ -20755,13 +20760,13 @@
       </c>
       <c r="N192" s="2" t="n"/>
       <c r="O192" s="32" t="n">
-        <v>-48.3</v>
+        <v>-47.1</v>
       </c>
       <c r="P192" s="32" t="n">
-        <v>-36</v>
+        <v>-34.6</v>
       </c>
       <c r="Q192" s="32" t="n">
-        <v>-43.29</v>
+        <v>-42.1</v>
       </c>
       <c r="R192" s="23" t="inlineStr">
         <is>
@@ -20814,7 +20819,7 @@
       </c>
       <c r="AH192" s="2" t="n"/>
     </row>
-    <row r="193" ht="24" customHeight="1" s="44">
+    <row r="193" ht="24" customHeight="1" s="45">
       <c r="A193" s="2" t="n">
         <v>192</v>
       </c>
@@ -20860,13 +20865,13 @@
       </c>
       <c r="N193" s="2" t="n"/>
       <c r="O193" s="32" t="n">
-        <v>-35.2</v>
+        <v>-23.8</v>
       </c>
       <c r="P193" s="32" t="n">
-        <v>-24.8</v>
+        <v>-17.1</v>
       </c>
       <c r="Q193" s="32" t="n">
-        <v>-30.76</v>
+        <v>-20.69</v>
       </c>
       <c r="R193" s="23" t="inlineStr">
         <is>
@@ -20922,7 +20927,7 @@
       </c>
       <c r="AH193" s="2" t="n"/>
     </row>
-    <row r="194" ht="24" customHeight="1" s="44">
+    <row r="194" ht="24" customHeight="1" s="45">
       <c r="A194" s="2" t="n">
         <v>193</v>
       </c>
@@ -20968,10 +20973,10 @@
       </c>
       <c r="N194" s="2" t="n"/>
       <c r="O194" s="32" t="n">
-        <v>-53</v>
+        <v>-42.8</v>
       </c>
       <c r="P194" s="32" t="n">
-        <v>-46.3</v>
+        <v>-36.6</v>
       </c>
       <c r="Q194" s="32" t="n"/>
       <c r="R194" s="23" t="inlineStr">
@@ -21020,7 +21025,7 @@
       <c r="AG194" s="2" t="n"/>
       <c r="AH194" s="2" t="n"/>
     </row>
-    <row r="195" ht="24" customHeight="1" s="44">
+    <row r="195" ht="24" customHeight="1" s="45">
       <c r="A195" s="2" t="n">
         <v>194</v>
       </c>
@@ -21066,13 +21071,13 @@
       </c>
       <c r="N195" s="2" t="n"/>
       <c r="O195" s="32" t="n">
-        <v>-39.8</v>
+        <v>-19.5</v>
       </c>
       <c r="P195" s="32" t="n">
-        <v>-30.1</v>
+        <v>-16.2</v>
       </c>
       <c r="Q195" s="32" t="n">
-        <v>-35.11</v>
+        <v>-17.48</v>
       </c>
       <c r="R195" s="23" t="inlineStr">
         <is>
@@ -21124,7 +21129,7 @@
       </c>
       <c r="AH195" s="2" t="n"/>
     </row>
-    <row r="196" ht="24" customHeight="1" s="44">
+    <row r="196" ht="24" customHeight="1" s="45">
       <c r="A196" s="2" t="n">
         <v>195</v>
       </c>
@@ -21170,12 +21175,14 @@
       </c>
       <c r="N196" s="2" t="n"/>
       <c r="O196" s="32" t="n">
-        <v>-48.9</v>
+        <v>-47.7</v>
       </c>
       <c r="P196" s="32" t="n">
-        <v>-31.8</v>
-      </c>
-      <c r="Q196" s="32" t="n"/>
+        <v>-30.4</v>
+      </c>
+      <c r="Q196" s="32" t="n">
+        <v>-40.35</v>
+      </c>
       <c r="R196" s="23" t="inlineStr">
         <is>
           <t>Y</t>
@@ -21226,7 +21233,7 @@
       </c>
       <c r="AH196" s="2" t="n"/>
     </row>
-    <row r="197" ht="24" customHeight="1" s="44">
+    <row r="197" ht="24" customHeight="1" s="45">
       <c r="A197" s="2" t="n">
         <v>196</v>
       </c>
@@ -21272,13 +21279,13 @@
       </c>
       <c r="N197" s="24" t="n"/>
       <c r="O197" s="32" t="n">
-        <v>-33.5</v>
+        <v>-43.3</v>
       </c>
       <c r="P197" s="32" t="n">
-        <v>-24.5</v>
+        <v>-32.4</v>
       </c>
       <c r="Q197" s="32" t="n">
-        <v>-29.36</v>
+        <v>-38.84</v>
       </c>
       <c r="R197" s="23" t="inlineStr">
         <is>
@@ -21330,7 +21337,7 @@
       </c>
       <c r="AH197" s="2" t="n"/>
     </row>
-    <row r="198" ht="24" customHeight="1" s="44">
+    <row r="198" ht="24" customHeight="1" s="45">
       <c r="A198" s="2" t="n">
         <v>197</v>
       </c>
@@ -21432,7 +21439,7 @@
       </c>
       <c r="AH198" s="2" t="n"/>
     </row>
-    <row r="199" ht="24" customHeight="1" s="44">
+    <row r="199" ht="24" customHeight="1" s="45">
       <c r="A199" s="2" t="n">
         <v>198</v>
       </c>
@@ -21530,7 +21537,7 @@
       </c>
       <c r="AH199" s="2" t="n"/>
     </row>
-    <row r="200" ht="24" customHeight="1" s="44">
+    <row r="200" ht="24" customHeight="1" s="45">
       <c r="A200" s="2" t="n">
         <v>199</v>
       </c>
@@ -21632,7 +21639,7 @@
       </c>
       <c r="AH200" s="2" t="n"/>
     </row>
-    <row r="201" ht="24" customHeight="1" s="44">
+    <row r="201" ht="24" customHeight="1" s="45">
       <c r="A201" s="2" t="n">
         <v>200</v>
       </c>
@@ -21734,7 +21741,7 @@
       </c>
       <c r="AH201" s="2" t="n"/>
     </row>
-    <row r="202" ht="24" customHeight="1" s="44">
+    <row r="202" ht="24" customHeight="1" s="45">
       <c r="A202" s="2" t="n">
         <v>201</v>
       </c>
@@ -21836,7 +21843,7 @@
       </c>
       <c r="AH202" s="2" t="n"/>
     </row>
-    <row r="203" ht="24" customHeight="1" s="44">
+    <row r="203" ht="24" customHeight="1" s="45">
       <c r="A203" s="2" t="n">
         <v>202</v>
       </c>
@@ -21938,7 +21945,7 @@
       </c>
       <c r="AH203" s="2" t="n"/>
     </row>
-    <row r="204" ht="24" customHeight="1" s="44">
+    <row r="204" ht="24" customHeight="1" s="45">
       <c r="A204" s="2" t="n">
         <v>203</v>
       </c>
@@ -22040,7 +22047,7 @@
       </c>
       <c r="AH204" s="2" t="n"/>
     </row>
-    <row r="205" ht="24" customHeight="1" s="44">
+    <row r="205" ht="24" customHeight="1" s="45">
       <c r="A205" s="2" t="n">
         <v>204</v>
       </c>
@@ -22077,12 +22084,8 @@
         </is>
       </c>
       <c r="N205" s="2" t="n"/>
-      <c r="O205" s="32" t="n">
-        <v>-30</v>
-      </c>
-      <c r="P205" s="32" t="n">
-        <v>-8.6</v>
-      </c>
+      <c r="O205" s="32" t="n"/>
+      <c r="P205" s="32" t="n"/>
       <c r="Q205" s="32" t="n"/>
       <c r="R205" s="23" t="inlineStr">
         <is>
@@ -22146,7 +22149,7 @@
       </c>
       <c r="AH205" s="2" t="n"/>
     </row>
-    <row r="206" ht="24" customHeight="1" s="44">
+    <row r="206" ht="24" customHeight="1" s="45">
       <c r="A206" s="2" t="n">
         <v>205</v>
       </c>
@@ -22248,7 +22251,7 @@
       </c>
       <c r="AH206" s="2" t="n"/>
     </row>
-    <row r="207" ht="24" customHeight="1" s="44">
+    <row r="207" ht="24" customHeight="1" s="45">
       <c r="A207" s="2" t="n">
         <v>206</v>
       </c>
@@ -22346,7 +22349,7 @@
       <c r="AG207" s="2" t="n"/>
       <c r="AH207" s="2" t="n"/>
     </row>
-    <row r="208" ht="24" customHeight="1" s="44">
+    <row r="208" ht="24" customHeight="1" s="45">
       <c r="A208" s="2" t="n">
         <v>207</v>
       </c>
@@ -22438,7 +22441,7 @@
       </c>
       <c r="AH208" s="2" t="n"/>
     </row>
-    <row r="209" ht="24" customHeight="1" s="44">
+    <row r="209" ht="24" customHeight="1" s="45">
       <c r="A209" s="2" t="n">
         <v>208</v>
       </c>
@@ -22540,7 +22543,7 @@
       <c r="AG209" s="2" t="n"/>
       <c r="AH209" s="2" t="n"/>
     </row>
-    <row r="210" ht="24" customHeight="1" s="44">
+    <row r="210" ht="24" customHeight="1" s="45">
       <c r="A210" s="2" t="n">
         <v>209</v>
       </c>
@@ -22638,7 +22641,7 @@
       </c>
       <c r="AH210" s="2" t="n"/>
     </row>
-    <row r="211" ht="24" customHeight="1" s="44">
+    <row r="211" ht="24" customHeight="1" s="45">
       <c r="A211" s="2" t="n">
         <v>210</v>
       </c>
@@ -22740,7 +22743,7 @@
       </c>
       <c r="AH211" s="2" t="n"/>
     </row>
-    <row r="212" ht="24" customHeight="1" s="44">
+    <row r="212" ht="24" customHeight="1" s="45">
       <c r="A212" s="2" t="n">
         <v>211</v>
       </c>
@@ -22777,12 +22780,8 @@
         </is>
       </c>
       <c r="N212" s="2" t="n"/>
-      <c r="O212" s="32" t="n">
-        <v>-32.1</v>
-      </c>
-      <c r="P212" s="32" t="n">
-        <v>-4.8</v>
-      </c>
+      <c r="O212" s="32" t="n"/>
+      <c r="P212" s="32" t="n"/>
       <c r="Q212" s="32" t="n"/>
       <c r="R212" s="23" t="inlineStr">
         <is>
@@ -22846,7 +22845,7 @@
       </c>
       <c r="AH212" s="2" t="n"/>
     </row>
-    <row r="213" ht="24" customHeight="1" s="44">
+    <row r="213" ht="24" customHeight="1" s="45">
       <c r="A213" s="2" t="n">
         <v>212</v>
       </c>
@@ -22948,7 +22947,7 @@
       </c>
       <c r="AH213" s="2" t="n"/>
     </row>
-    <row r="214" ht="24" customHeight="1" s="44">
+    <row r="214" ht="24" customHeight="1" s="45">
       <c r="A214" s="2" t="n">
         <v>213</v>
       </c>
@@ -23050,7 +23049,7 @@
       </c>
       <c r="AH214" s="2" t="n"/>
     </row>
-    <row r="215" ht="24" customHeight="1" s="44">
+    <row r="215" ht="24" customHeight="1" s="45">
       <c r="A215" s="2" t="n">
         <v>214</v>
       </c>
@@ -23152,7 +23151,7 @@
       </c>
       <c r="AH215" s="2" t="n"/>
     </row>
-    <row r="216" ht="24" customHeight="1" s="44">
+    <row r="216" ht="24" customHeight="1" s="45">
       <c r="A216" s="2" t="n">
         <v>215</v>
       </c>
@@ -23254,7 +23253,7 @@
       </c>
       <c r="AH216" s="2" t="n"/>
     </row>
-    <row r="217" ht="24" customHeight="1" s="44">
+    <row r="217" ht="24" customHeight="1" s="45">
       <c r="A217" s="2" t="n">
         <v>216</v>
       </c>
@@ -23342,7 +23341,7 @@
       </c>
       <c r="AH217" s="2" t="n"/>
     </row>
-    <row r="218" ht="24" customHeight="1" s="44">
+    <row r="218" ht="24" customHeight="1" s="45">
       <c r="A218" s="2" t="n">
         <v>217</v>
       </c>
@@ -23444,7 +23443,7 @@
       </c>
       <c r="AH218" s="2" t="n"/>
     </row>
-    <row r="219" ht="24" customHeight="1" s="44">
+    <row r="219" ht="24" customHeight="1" s="45">
       <c r="A219" s="2" t="n">
         <v>218</v>
       </c>
@@ -23546,7 +23545,7 @@
       </c>
       <c r="AH219" s="2" t="n"/>
     </row>
-    <row r="220" ht="24" customHeight="1" s="44">
+    <row r="220" ht="24" customHeight="1" s="45">
       <c r="A220" s="2" t="n">
         <v>219</v>
       </c>
@@ -23648,7 +23647,7 @@
       </c>
       <c r="AH220" s="2" t="n"/>
     </row>
-    <row r="221" ht="24" customHeight="1" s="44">
+    <row r="221" ht="24" customHeight="1" s="45">
       <c r="A221" s="2" t="n">
         <v>220</v>
       </c>
@@ -23740,7 +23739,7 @@
       </c>
       <c r="AH221" s="2" t="n"/>
     </row>
-    <row r="222" ht="24" customHeight="1" s="44">
+    <row r="222" ht="24" customHeight="1" s="45">
       <c r="A222" s="2" t="n">
         <v>221</v>
       </c>
@@ -23840,7 +23839,7 @@
       </c>
       <c r="AH222" s="2" t="n"/>
     </row>
-    <row r="223" ht="24" customHeight="1" s="44">
+    <row r="223" ht="24" customHeight="1" s="45">
       <c r="A223" s="2" t="n">
         <v>222</v>
       </c>
@@ -23942,7 +23941,7 @@
       </c>
       <c r="AH223" s="2" t="n"/>
     </row>
-    <row r="224" ht="24" customHeight="1" s="44">
+    <row r="224" ht="24" customHeight="1" s="45">
       <c r="A224" s="2" t="n">
         <v>223</v>
       </c>
@@ -24044,7 +24043,7 @@
       </c>
       <c r="AH224" s="2" t="n"/>
     </row>
-    <row r="225" ht="24" customHeight="1" s="44">
+    <row r="225" ht="24" customHeight="1" s="45">
       <c r="A225" s="2" t="n">
         <v>224</v>
       </c>
@@ -24146,7 +24145,7 @@
       </c>
       <c r="AH225" s="2" t="n"/>
     </row>
-    <row r="226" ht="24" customHeight="1" s="44">
+    <row r="226" ht="24" customHeight="1" s="45">
       <c r="A226" s="2" t="n">
         <v>225</v>
       </c>
@@ -24248,7 +24247,7 @@
       <c r="AG226" s="2" t="n"/>
       <c r="AH226" s="2" t="n"/>
     </row>
-    <row r="227" ht="24" customHeight="1" s="44">
+    <row r="227" ht="24" customHeight="1" s="45">
       <c r="A227" s="2" t="n">
         <v>226</v>
       </c>
@@ -24350,7 +24349,7 @@
       </c>
       <c r="AH227" s="2" t="n"/>
     </row>
-    <row r="228" ht="24" customHeight="1" s="44">
+    <row r="228" ht="24" customHeight="1" s="45">
       <c r="A228" s="2" t="n">
         <v>227</v>
       </c>
@@ -24456,7 +24455,7 @@
       </c>
       <c r="AH228" s="2" t="n"/>
     </row>
-    <row r="229" ht="24" customHeight="1" s="44">
+    <row r="229" ht="24" customHeight="1" s="45">
       <c r="A229" s="2" t="n">
         <v>228</v>
       </c>
@@ -24552,7 +24551,7 @@
       </c>
       <c r="AH229" s="2" t="n"/>
     </row>
-    <row r="230" ht="24" customHeight="1" s="44">
+    <row r="230" ht="24" customHeight="1" s="45">
       <c r="A230" s="2" t="n">
         <v>229</v>
       </c>
@@ -24648,7 +24647,7 @@
       </c>
       <c r="AH230" s="2" t="n"/>
     </row>
-    <row r="231" ht="24" customHeight="1" s="44">
+    <row r="231" ht="24" customHeight="1" s="45">
       <c r="A231" s="2" t="n">
         <v>230</v>
       </c>
@@ -24736,7 +24735,7 @@
       </c>
       <c r="AH231" s="2" t="n"/>
     </row>
-    <row r="232" ht="24" customHeight="1" s="44">
+    <row r="232" ht="24" customHeight="1" s="45">
       <c r="A232" s="2" t="n">
         <v>231</v>
       </c>
@@ -24828,7 +24827,7 @@
       </c>
       <c r="AH232" s="2" t="n"/>
     </row>
-    <row r="233" ht="24" customHeight="1" s="44">
+    <row r="233" ht="24" customHeight="1" s="45">
       <c r="A233" s="2" t="n">
         <v>232</v>
       </c>
@@ -24920,7 +24919,7 @@
       </c>
       <c r="AH233" s="2" t="n"/>
     </row>
-    <row r="234" ht="24" customHeight="1" s="44">
+    <row r="234" ht="24" customHeight="1" s="45">
       <c r="A234" s="2" t="n">
         <v>233</v>
       </c>
@@ -25016,7 +25015,7 @@
       </c>
       <c r="AH234" s="2" t="n"/>
     </row>
-    <row r="235" ht="24" customHeight="1" s="44">
+    <row r="235" ht="24" customHeight="1" s="45">
       <c r="A235" s="2" t="n">
         <v>234</v>
       </c>
@@ -25112,7 +25111,7 @@
       </c>
       <c r="AH235" s="2" t="n"/>
     </row>
-    <row r="236" ht="24" customHeight="1" s="44">
+    <row r="236" ht="24" customHeight="1" s="45">
       <c r="A236" s="2" t="n">
         <v>235</v>
       </c>
@@ -25204,7 +25203,7 @@
       </c>
       <c r="AH236" s="2" t="n"/>
     </row>
-    <row r="237" ht="24" customHeight="1" s="44">
+    <row r="237" ht="24" customHeight="1" s="45">
       <c r="A237" s="2" t="n">
         <v>236</v>
       </c>
@@ -25306,7 +25305,7 @@
       </c>
       <c r="AH237" s="2" t="n"/>
     </row>
-    <row r="238" ht="24" customHeight="1" s="44">
+    <row r="238" ht="24" customHeight="1" s="45">
       <c r="A238" s="2" t="n">
         <v>237</v>
       </c>
@@ -25408,7 +25407,7 @@
       </c>
       <c r="AH238" s="2" t="n"/>
     </row>
-    <row r="239" ht="24" customHeight="1" s="44">
+    <row r="239" ht="24" customHeight="1" s="45">
       <c r="A239" s="2" t="n">
         <v>238</v>
       </c>
@@ -25506,7 +25505,7 @@
       <c r="AG239" s="2" t="n"/>
       <c r="AH239" s="2" t="n"/>
     </row>
-    <row r="240" ht="24" customHeight="1" s="44">
+    <row r="240" ht="24" customHeight="1" s="45">
       <c r="A240" s="2" t="n">
         <v>239</v>
       </c>
@@ -25566,7 +25565,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="X240" s="4" t="n"/>
+      <c r="X240" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="Y240" s="4" t="n"/>
       <c r="Z240" s="2" t="inlineStr">
         <is>
@@ -25598,7 +25601,7 @@
       </c>
       <c r="AH240" s="2" t="n"/>
     </row>
-    <row r="241" ht="24" customHeight="1" s="44">
+    <row r="241" ht="24" customHeight="1" s="45">
       <c r="A241" s="2" t="n">
         <v>240</v>
       </c>
@@ -25664,7 +25667,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="X241" s="4" t="n"/>
+      <c r="X241" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="Y241" s="4" t="n"/>
       <c r="Z241" s="2" t="inlineStr">
         <is>
@@ -25696,7 +25703,7 @@
       </c>
       <c r="AH241" s="2" t="n"/>
     </row>
-    <row r="242" ht="24" customHeight="1" s="44">
+    <row r="242" ht="24" customHeight="1" s="45">
       <c r="A242" s="2" t="n">
         <v>241</v>
       </c>
@@ -25786,7 +25793,7 @@
       <c r="AG242" s="2" t="n"/>
       <c r="AH242" s="2" t="n"/>
     </row>
-    <row r="243" ht="24" customHeight="1" s="44">
+    <row r="243" ht="24" customHeight="1" s="45">
       <c r="A243" s="2" t="n">
         <v>242</v>
       </c>
@@ -25884,7 +25891,7 @@
       <c r="AG243" s="2" t="n"/>
       <c r="AH243" s="2" t="n"/>
     </row>
-    <row r="244" ht="24" customHeight="1" s="44">
+    <row r="244" ht="24" customHeight="1" s="45">
       <c r="A244" s="2" t="n">
         <v>243</v>
       </c>
@@ -25980,7 +25987,7 @@
       </c>
       <c r="AH244" s="2" t="n"/>
     </row>
-    <row r="245" ht="24" customHeight="1" s="44">
+    <row r="245" ht="24" customHeight="1" s="45">
       <c r="A245" s="2" t="n">
         <v>244</v>
       </c>
@@ -26072,7 +26079,7 @@
       <c r="AG245" s="2" t="n"/>
       <c r="AH245" s="2" t="n"/>
     </row>
-    <row r="246" ht="24" customHeight="1" s="44">
+    <row r="246" ht="24" customHeight="1" s="45">
       <c r="A246" s="2" t="n">
         <v>245</v>
       </c>
@@ -26160,7 +26167,7 @@
       <c r="AG246" s="2" t="n"/>
       <c r="AH246" s="2" t="n"/>
     </row>
-    <row r="247" ht="24" customHeight="1" s="44">
+    <row r="247" ht="24" customHeight="1" s="45">
       <c r="A247" s="2" t="n">
         <v>246</v>
       </c>
@@ -26206,13 +26213,13 @@
       </c>
       <c r="N247" s="2" t="n"/>
       <c r="O247" s="32" t="n">
-        <v>-12.5</v>
+        <v>-12.6</v>
       </c>
       <c r="P247" s="32" t="n">
-        <v>0.5</v>
+        <v>-5</v>
       </c>
       <c r="Q247" s="32" t="n">
-        <v>-7.85</v>
+        <v>-9.69</v>
       </c>
       <c r="R247" s="23" t="inlineStr">
         <is>
@@ -26272,7 +26279,7 @@
       <c r="AG247" s="2" t="n"/>
       <c r="AH247" s="2" t="n"/>
     </row>
-    <row r="248" ht="24" customHeight="1" s="44">
+    <row r="248" ht="24" customHeight="1" s="45">
       <c r="A248" s="2" t="n">
         <v>247</v>
       </c>
@@ -26318,13 +26325,13 @@
       </c>
       <c r="N248" s="2" t="n"/>
       <c r="O248" s="32" t="n">
-        <v>-4.8</v>
+        <v>-33.6</v>
       </c>
       <c r="P248" s="32" t="n">
-        <v>-1.1</v>
+        <v>-14.8</v>
       </c>
       <c r="Q248" s="32" t="n">
-        <v>-2.8</v>
+        <v>-24.84</v>
       </c>
       <c r="R248" s="23" t="inlineStr">
         <is>
@@ -26380,7 +26387,7 @@
       </c>
       <c r="AH248" s="2" t="n"/>
     </row>
-    <row r="249" ht="24" customHeight="1" s="44">
+    <row r="249" ht="24" customHeight="1" s="45">
       <c r="A249" s="2" t="n">
         <v>248</v>
       </c>
@@ -26426,13 +26433,13 @@
       </c>
       <c r="N249" s="2" t="n"/>
       <c r="O249" s="32" t="n">
-        <v>-13.4</v>
+        <v>-2.1</v>
       </c>
       <c r="P249" s="32" t="n">
-        <v>-4</v>
+        <v>2.1</v>
       </c>
       <c r="Q249" s="32" t="n">
-        <v>-9.140000000000001</v>
+        <v>-0.09</v>
       </c>
       <c r="R249" s="23" t="inlineStr">
         <is>
@@ -26492,7 +26499,7 @@
       <c r="AG249" s="2" t="n"/>
       <c r="AH249" s="2" t="n"/>
     </row>
-    <row r="250" ht="24" customHeight="1" s="44">
+    <row r="250" ht="24" customHeight="1" s="45">
       <c r="A250" s="2" t="n">
         <v>249</v>
       </c>
@@ -26538,13 +26545,13 @@
       </c>
       <c r="N250" s="2" t="n"/>
       <c r="O250" s="32" t="n">
-        <v>-15.3</v>
+        <v>-19.7</v>
       </c>
       <c r="P250" s="32" t="n">
-        <v>1.3</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="Q250" s="32" t="n">
-        <v>-7.64</v>
+        <v>-14.39</v>
       </c>
       <c r="R250" s="23" t="inlineStr">
         <is>
@@ -26608,7 +26615,7 @@
       </c>
       <c r="AH250" s="2" t="n"/>
     </row>
-    <row r="251" ht="24" customHeight="1" s="44">
+    <row r="251" ht="24" customHeight="1" s="45">
       <c r="A251" s="2" t="n">
         <v>250</v>
       </c>
@@ -26658,10 +26665,10 @@
         </is>
       </c>
       <c r="O251" s="32" t="n">
-        <v>-24.5</v>
+        <v>-49.6</v>
       </c>
       <c r="P251" s="32" t="n">
-        <v>-16.2</v>
+        <v>-29.6</v>
       </c>
       <c r="Q251" s="32" t="n"/>
       <c r="R251" s="23" t="inlineStr">
@@ -26710,7 +26717,7 @@
       <c r="AG251" s="2" t="n"/>
       <c r="AH251" s="2" t="n"/>
     </row>
-    <row r="252" ht="24" customHeight="1" s="44">
+    <row r="252" ht="24" customHeight="1" s="45">
       <c r="A252" s="2" t="n">
         <v>251</v>
       </c>
@@ -26756,13 +26763,13 @@
       </c>
       <c r="N252" s="2" t="n"/>
       <c r="O252" s="32" t="n">
-        <v>-9.6</v>
+        <v>-24.3</v>
       </c>
       <c r="P252" s="32" t="n">
-        <v>5.2</v>
+        <v>-15.3</v>
       </c>
       <c r="Q252" s="32" t="n">
-        <v>-1.11</v>
+        <v>-20.23</v>
       </c>
       <c r="R252" s="23" t="inlineStr">
         <is>
@@ -26822,7 +26829,7 @@
       <c r="AG252" s="2" t="n"/>
       <c r="AH252" s="2" t="n"/>
     </row>
-    <row r="253" ht="24" customHeight="1" s="44">
+    <row r="253" ht="24" customHeight="1" s="45">
       <c r="A253" s="2" t="n">
         <v>252</v>
       </c>
@@ -26908,7 +26915,7 @@
       <c r="AG253" s="2" t="n"/>
       <c r="AH253" s="2" t="n"/>
     </row>
-    <row r="254" ht="24" customHeight="1" s="44">
+    <row r="254" ht="24" customHeight="1" s="45">
       <c r="A254" s="2" t="n">
         <v>253</v>
       </c>
@@ -26954,13 +26961,13 @@
       </c>
       <c r="N254" s="2" t="n"/>
       <c r="O254" s="32" t="n">
-        <v>-45</v>
+        <v>-52</v>
       </c>
       <c r="P254" s="32" t="n">
-        <v>-32.5</v>
+        <v>-38.7</v>
       </c>
       <c r="Q254" s="32" t="n">
-        <v>-39.2</v>
+        <v>-45.69</v>
       </c>
       <c r="R254" s="23" t="inlineStr">
         <is>
@@ -27012,7 +27019,7 @@
       <c r="AG254" s="2" t="n"/>
       <c r="AH254" s="2" t="n"/>
     </row>
-    <row r="255" ht="24" customHeight="1" s="44">
+    <row r="255" ht="24" customHeight="1" s="45">
       <c r="A255" s="2" t="n">
         <v>254</v>
       </c>
@@ -27106,7 +27113,7 @@
       <c r="AG255" s="2" t="n"/>
       <c r="AH255" s="2" t="n"/>
     </row>
-    <row r="256" ht="24" customHeight="1" s="44">
+    <row r="256" ht="24" customHeight="1" s="45">
       <c r="A256" s="2" t="n">
         <v>255</v>
       </c>
@@ -27204,7 +27211,7 @@
       </c>
       <c r="AH256" s="2" t="n"/>
     </row>
-    <row r="257" ht="24" customHeight="1" s="44">
+    <row r="257" ht="24" customHeight="1" s="45">
       <c r="A257" s="2" t="n">
         <v>256</v>
       </c>
@@ -27302,7 +27309,7 @@
       </c>
       <c r="AH257" s="2" t="n"/>
     </row>
-    <row r="258" ht="24" customHeight="1" s="44">
+    <row r="258" ht="24" customHeight="1" s="45">
       <c r="A258" s="2" t="n">
         <v>257</v>
       </c>
@@ -27392,7 +27399,7 @@
       <c r="AG258" s="2" t="n"/>
       <c r="AH258" s="2" t="n"/>
     </row>
-    <row r="259" ht="24" customHeight="1" s="44">
+    <row r="259" ht="24" customHeight="1" s="45">
       <c r="A259" s="2" t="n">
         <v>258</v>
       </c>
@@ -27482,7 +27489,7 @@
       <c r="AG259" s="2" t="n"/>
       <c r="AH259" s="2" t="n"/>
     </row>
-    <row r="260" ht="24" customHeight="1" s="44">
+    <row r="260" ht="24" customHeight="1" s="45">
       <c r="A260" s="2" t="n">
         <v>259</v>
       </c>
@@ -27528,13 +27535,13 @@
       </c>
       <c r="N260" s="2" t="n"/>
       <c r="O260" s="32" t="n">
-        <v>-11.9</v>
+        <v>-26</v>
       </c>
       <c r="P260" s="32" t="n">
-        <v>2.6</v>
+        <v>-12.3</v>
       </c>
       <c r="Q260" s="32" t="n">
-        <v>-5.01</v>
+        <v>-18.75</v>
       </c>
       <c r="R260" s="23" t="inlineStr">
         <is>
@@ -27590,7 +27597,7 @@
       </c>
       <c r="AH260" s="2" t="n"/>
     </row>
-    <row r="261" ht="24" customHeight="1" s="44">
+    <row r="261" ht="24" customHeight="1" s="45">
       <c r="A261" s="2" t="n">
         <v>260</v>
       </c>
@@ -27636,13 +27643,13 @@
       </c>
       <c r="N261" s="2" t="n"/>
       <c r="O261" s="32" t="n">
-        <v>-5.4</v>
+        <v>-21.5</v>
       </c>
       <c r="P261" s="32" t="n">
-        <v>2.8</v>
+        <v>-7.7</v>
       </c>
       <c r="Q261" s="32" t="n">
-        <v>-2.09</v>
+        <v>-14.07</v>
       </c>
       <c r="R261" s="23" t="inlineStr">
         <is>
@@ -27702,7 +27709,7 @@
       <c r="AG261" s="2" t="n"/>
       <c r="AH261" s="2" t="n"/>
     </row>
-    <row r="262" ht="24" customHeight="1" s="44">
+    <row r="262" ht="24" customHeight="1" s="45">
       <c r="A262" s="2" t="n">
         <v>261</v>
       </c>
@@ -27748,13 +27755,13 @@
       </c>
       <c r="N262" s="2" t="n"/>
       <c r="O262" s="32" t="n">
-        <v>-11.3</v>
+        <v>-30.1</v>
       </c>
       <c r="P262" s="32" t="n">
-        <v>1.1</v>
+        <v>-15.5</v>
       </c>
       <c r="Q262" s="32" t="n">
-        <v>-5.92</v>
+        <v>-21.16</v>
       </c>
       <c r="R262" s="23" t="inlineStr">
         <is>
@@ -27814,7 +27821,7 @@
       <c r="AG262" s="2" t="n"/>
       <c r="AH262" s="2" t="n"/>
     </row>
-    <row r="263" ht="24" customHeight="1" s="44">
+    <row r="263" ht="24" customHeight="1" s="45">
       <c r="A263" s="2" t="n">
         <v>262</v>
       </c>
@@ -27908,7 +27915,7 @@
       </c>
       <c r="AH263" s="2" t="n"/>
     </row>
-    <row r="264" ht="24" customHeight="1" s="44">
+    <row r="264" ht="24" customHeight="1" s="45">
       <c r="A264" s="2" t="n">
         <v>263</v>
       </c>
@@ -27954,13 +27961,13 @@
       </c>
       <c r="N264" s="2" t="n"/>
       <c r="O264" s="32" t="n">
-        <v>-4.3</v>
+        <v>-14.7</v>
       </c>
       <c r="P264" s="32" t="n">
-        <v>13.8</v>
+        <v>-9.6</v>
       </c>
       <c r="Q264" s="32" t="n">
-        <v>2.26</v>
+        <v>-12.6</v>
       </c>
       <c r="R264" s="23" t="inlineStr">
         <is>
@@ -28024,7 +28031,7 @@
       </c>
       <c r="AH264" s="2" t="n"/>
     </row>
-    <row r="265" ht="24" customHeight="1" s="44">
+    <row r="265" ht="24" customHeight="1" s="45">
       <c r="A265" s="2" t="n">
         <v>264</v>
       </c>
@@ -28074,10 +28081,10 @@
       </c>
       <c r="N265" s="2" t="n"/>
       <c r="O265" s="32" t="n">
-        <v>-52.2</v>
+        <v>-32.5</v>
       </c>
       <c r="P265" s="32" t="n">
-        <v>-40.9</v>
+        <v>-24.8</v>
       </c>
       <c r="Q265" s="32" t="n"/>
       <c r="R265" s="23" t="inlineStr">
@@ -28098,7 +28105,11 @@
         </is>
       </c>
       <c r="W265" s="4" t="n"/>
-      <c r="X265" s="4" t="n"/>
+      <c r="X265" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="Y265" s="4" t="n"/>
       <c r="Z265" s="2" t="n"/>
       <c r="AA265" s="2" t="n"/>
@@ -28122,7 +28133,7 @@
       </c>
       <c r="AH265" s="2" t="n"/>
     </row>
-    <row r="266" ht="24" customHeight="1" s="44">
+    <row r="266" ht="24" customHeight="1" s="45">
       <c r="A266" s="2" t="n">
         <v>265</v>
       </c>
@@ -28214,7 +28225,7 @@
       <c r="AG266" s="2" t="n"/>
       <c r="AH266" s="2" t="n"/>
     </row>
-    <row r="267" ht="24" customHeight="1" s="44">
+    <row r="267" ht="24" customHeight="1" s="45">
       <c r="A267" s="2" t="n">
         <v>266</v>
       </c>
@@ -28300,7 +28311,7 @@
       <c r="AG267" s="2" t="n"/>
       <c r="AH267" s="2" t="n"/>
     </row>
-    <row r="268" ht="24" customHeight="1" s="44">
+    <row r="268" ht="24" customHeight="1" s="45">
       <c r="A268" s="2" t="n">
         <v>267</v>
       </c>
@@ -28392,7 +28403,7 @@
       <c r="AG268" s="2" t="n"/>
       <c r="AH268" s="2" t="n"/>
     </row>
-    <row r="269" ht="24" customHeight="1" s="44">
+    <row r="269" ht="24" customHeight="1" s="45">
       <c r="A269" s="2" t="n">
         <v>268</v>
       </c>
@@ -28490,7 +28501,7 @@
       <c r="AG269" s="2" t="n"/>
       <c r="AH269" s="2" t="n"/>
     </row>
-    <row r="270" ht="24" customHeight="1" s="44">
+    <row r="270" ht="24" customHeight="1" s="45">
       <c r="A270" s="2" t="n">
         <v>269</v>
       </c>
@@ -28584,7 +28595,7 @@
       <c r="AG270" s="2" t="n"/>
       <c r="AH270" s="2" t="n"/>
     </row>
-    <row r="271" ht="24" customHeight="1" s="44">
+    <row r="271" ht="24" customHeight="1" s="45">
       <c r="A271" s="2" t="n">
         <v>270</v>
       </c>
@@ -28682,7 +28693,7 @@
       <c r="AG271" s="2" t="n"/>
       <c r="AH271" s="2" t="n"/>
     </row>
-    <row r="272" ht="24" customHeight="1" s="44">
+    <row r="272" ht="24" customHeight="1" s="45">
       <c r="A272" s="2" t="n">
         <v>271</v>
       </c>
@@ -28784,7 +28795,7 @@
       </c>
       <c r="AH272" s="2" t="n"/>
     </row>
-    <row r="273" ht="24" customHeight="1" s="44">
+    <row r="273" ht="24" customHeight="1" s="45">
       <c r="A273" s="2" t="n">
         <v>272</v>
       </c>
@@ -28878,7 +28889,7 @@
       </c>
       <c r="AH273" s="2" t="n"/>
     </row>
-    <row r="274" ht="24" customHeight="1" s="44">
+    <row r="274" ht="24" customHeight="1" s="45">
       <c r="A274" s="2" t="n">
         <v>273</v>
       </c>
@@ -28980,7 +28991,7 @@
       </c>
       <c r="AH274" s="2" t="n"/>
     </row>
-    <row r="275" ht="24" customHeight="1" s="44">
+    <row r="275" ht="24" customHeight="1" s="45">
       <c r="A275" s="2" t="n">
         <v>274</v>
       </c>
@@ -29068,7 +29079,7 @@
       <c r="AG275" s="2" t="n"/>
       <c r="AH275" s="2" t="n"/>
     </row>
-    <row r="276" ht="24" customHeight="1" s="44">
+    <row r="276" ht="24" customHeight="1" s="45">
       <c r="A276" s="2" t="n">
         <v>275</v>
       </c>
@@ -29114,13 +29125,13 @@
       </c>
       <c r="N276" s="2" t="n"/>
       <c r="O276" s="32" t="n">
-        <v>-37.1</v>
+        <v>-25.5</v>
       </c>
       <c r="P276" s="32" t="n">
-        <v>-31.3</v>
+        <v>-8.1</v>
       </c>
       <c r="Q276" s="32" t="n">
-        <v>-34.25</v>
+        <v>-12.47</v>
       </c>
       <c r="R276" s="23" t="inlineStr">
         <is>
@@ -29172,7 +29183,7 @@
       <c r="AG276" s="2" t="n"/>
       <c r="AH276" s="2" t="n"/>
     </row>
-    <row r="277" ht="24" customHeight="1" s="44">
+    <row r="277" ht="24" customHeight="1" s="45">
       <c r="A277" s="2" t="n">
         <v>276</v>
       </c>
@@ -29260,7 +29271,7 @@
       <c r="AG277" s="2" t="n"/>
       <c r="AH277" s="2" t="n"/>
     </row>
-    <row r="278" ht="24" customHeight="1" s="44">
+    <row r="278" ht="24" customHeight="1" s="45">
       <c r="A278" s="2" t="n">
         <v>277</v>
       </c>
@@ -29358,7 +29369,7 @@
       <c r="AG278" s="2" t="n"/>
       <c r="AH278" s="2" t="n"/>
     </row>
-    <row r="279" ht="24" customHeight="1" s="44">
+    <row r="279" ht="24" customHeight="1" s="45">
       <c r="A279" s="2" t="n">
         <v>278</v>
       </c>
@@ -29450,7 +29461,7 @@
       <c r="AG279" s="2" t="n"/>
       <c r="AH279" s="2" t="n"/>
     </row>
-    <row r="280" ht="24" customHeight="1" s="44">
+    <row r="280" ht="24" customHeight="1" s="45">
       <c r="A280" s="2" t="n">
         <v>279</v>
       </c>
@@ -29534,7 +29545,7 @@
       <c r="AG280" s="2" t="n"/>
       <c r="AH280" s="2" t="n"/>
     </row>
-    <row r="281" ht="24" customHeight="1" s="44">
+    <row r="281" ht="24" customHeight="1" s="45">
       <c r="A281" s="2" t="n">
         <v>280</v>
       </c>
@@ -29626,7 +29637,7 @@
       <c r="AG281" s="2" t="n"/>
       <c r="AH281" s="2" t="n"/>
     </row>
-    <row r="282" ht="24" customHeight="1" s="44">
+    <row r="282" ht="24" customHeight="1" s="45">
       <c r="A282" s="2" t="n">
         <v>281</v>
       </c>
@@ -29706,7 +29717,7 @@
       <c r="AG282" s="2" t="n"/>
       <c r="AH282" s="2" t="n"/>
     </row>
-    <row r="283" ht="24" customHeight="1" s="44">
+    <row r="283" ht="24" customHeight="1" s="45">
       <c r="A283" s="2" t="n">
         <v>282</v>
       </c>
@@ -29798,7 +29809,7 @@
       <c r="AG283" s="2" t="n"/>
       <c r="AH283" s="2" t="n"/>
     </row>
-    <row r="284" ht="24" customHeight="1" s="44">
+    <row r="284" ht="24" customHeight="1" s="45">
       <c r="A284" s="2" t="n">
         <v>283</v>
       </c>
@@ -29884,7 +29895,7 @@
       <c r="AG284" s="2" t="n"/>
       <c r="AH284" s="2" t="n"/>
     </row>
-    <row r="285" ht="24" customHeight="1" s="44">
+    <row r="285" ht="24" customHeight="1" s="45">
       <c r="A285" s="2" t="n">
         <v>284</v>
       </c>
@@ -29986,7 +29997,7 @@
       </c>
       <c r="AH285" s="2" t="n"/>
     </row>
-    <row r="286" ht="24" customHeight="1" s="44">
+    <row r="286" ht="24" customHeight="1" s="45">
       <c r="A286" s="2" t="n">
         <v>285</v>
       </c>
@@ -30023,8 +30034,12 @@
         </is>
       </c>
       <c r="N286" s="2" t="n"/>
-      <c r="O286" s="32" t="n"/>
-      <c r="P286" s="32" t="n"/>
+      <c r="O286" s="32" t="n">
+        <v>-26.9</v>
+      </c>
+      <c r="P286" s="32" t="n">
+        <v>-6.2</v>
+      </c>
       <c r="Q286" s="32" t="n"/>
       <c r="R286" s="23" t="inlineStr">
         <is>
@@ -30088,7 +30103,7 @@
       </c>
       <c r="AH286" s="2" t="n"/>
     </row>
-    <row r="287" ht="24" customHeight="1" s="44">
+    <row r="287" ht="24" customHeight="1" s="45">
       <c r="A287" s="2" t="n">
         <v>286</v>
       </c>
@@ -30154,7 +30169,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="X287" s="4" t="n"/>
+      <c r="X287" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="Y287" s="4" t="n"/>
       <c r="Z287" s="2" t="inlineStr">
         <is>
@@ -30186,7 +30205,7 @@
       </c>
       <c r="AH287" s="2" t="n"/>
     </row>
-    <row r="288" ht="24" customHeight="1" s="44">
+    <row r="288" ht="24" customHeight="1" s="45">
       <c r="A288" s="2" t="n">
         <v>287</v>
       </c>
@@ -30288,7 +30307,7 @@
       </c>
       <c r="AH288" s="2" t="n"/>
     </row>
-    <row r="289" ht="24" customHeight="1" s="44">
+    <row r="289" ht="24" customHeight="1" s="45">
       <c r="A289" s="2" t="n"/>
       <c r="B289" s="2" t="n"/>
       <c r="C289" s="27" t="n"/>
@@ -30324,7 +30343,7 @@
       <c r="AG289" s="2" t="n"/>
       <c r="AH289" s="2" t="n"/>
     </row>
-    <row r="290" ht="24" customHeight="1" s="44">
+    <row r="290" ht="24" customHeight="1" s="45">
       <c r="A290" s="2" t="n"/>
       <c r="B290" s="2" t="n"/>
       <c r="C290" s="27" t="n"/>
@@ -30360,7 +30379,7 @@
       <c r="AG290" s="2" t="n"/>
       <c r="AH290" s="2" t="n"/>
     </row>
-    <row r="291" ht="24" customHeight="1" s="44">
+    <row r="291" ht="24" customHeight="1" s="45">
       <c r="A291" s="2" t="n"/>
       <c r="B291" s="2" t="n"/>
       <c r="C291" s="27" t="n"/>
@@ -30396,7 +30415,7 @@
       <c r="AG291" s="2" t="n"/>
       <c r="AH291" s="2" t="n"/>
     </row>
-    <row r="292" ht="24" customHeight="1" s="44">
+    <row r="292" ht="24" customHeight="1" s="45">
       <c r="A292" s="2" t="n"/>
       <c r="B292" s="2" t="n"/>
       <c r="C292" s="27" t="n"/>
@@ -30432,7 +30451,7 @@
       <c r="AG292" s="2" t="n"/>
       <c r="AH292" s="2" t="n"/>
     </row>
-    <row r="293" ht="24" customHeight="1" s="44">
+    <row r="293" ht="24" customHeight="1" s="45">
       <c r="A293" s="2" t="n"/>
       <c r="B293" s="2" t="n"/>
       <c r="C293" s="27" t="n"/>
@@ -30468,7 +30487,7 @@
       <c r="AG293" s="2" t="n"/>
       <c r="AH293" s="2" t="n"/>
     </row>
-    <row r="294" ht="24" customHeight="1" s="44">
+    <row r="294" ht="24" customHeight="1" s="45">
       <c r="A294" s="2" t="n"/>
       <c r="B294" s="2" t="n"/>
       <c r="C294" s="27" t="n"/>
@@ -30504,7 +30523,7 @@
       <c r="AG294" s="2" t="n"/>
       <c r="AH294" s="2" t="n"/>
     </row>
-    <row r="295" ht="24" customHeight="1" s="44">
+    <row r="295" ht="24" customHeight="1" s="45">
       <c r="A295" s="2" t="n"/>
       <c r="B295" s="2" t="n"/>
       <c r="C295" s="27" t="n"/>
@@ -30540,7 +30559,7 @@
       <c r="AG295" s="2" t="n"/>
       <c r="AH295" s="2" t="n"/>
     </row>
-    <row r="296" ht="24" customHeight="1" s="44">
+    <row r="296" ht="24" customHeight="1" s="45">
       <c r="A296" s="2" t="n"/>
       <c r="B296" s="2" t="n"/>
       <c r="C296" s="27" t="n"/>
@@ -30576,7 +30595,7 @@
       <c r="AG296" s="2" t="n"/>
       <c r="AH296" s="2" t="n"/>
     </row>
-    <row r="297" ht="24" customHeight="1" s="44">
+    <row r="297" ht="24" customHeight="1" s="45">
       <c r="A297" s="2" t="n"/>
       <c r="B297" s="2" t="n"/>
       <c r="C297" s="27" t="n"/>
@@ -30612,7 +30631,7 @@
       <c r="AG297" s="2" t="n"/>
       <c r="AH297" s="2" t="n"/>
     </row>
-    <row r="298" ht="24" customHeight="1" s="44">
+    <row r="298" ht="24" customHeight="1" s="45">
       <c r="A298" s="2" t="n"/>
       <c r="B298" s="2" t="n"/>
       <c r="C298" s="27" t="n"/>
@@ -30648,7 +30667,7 @@
       <c r="AG298" s="2" t="n"/>
       <c r="AH298" s="2" t="n"/>
     </row>
-    <row r="299" ht="24" customHeight="1" s="44">
+    <row r="299" ht="24" customHeight="1" s="45">
       <c r="A299" s="2" t="n"/>
       <c r="B299" s="2" t="n"/>
       <c r="C299" s="27" t="n"/>
@@ -30684,7 +30703,7 @@
       <c r="AG299" s="2" t="n"/>
       <c r="AH299" s="2" t="n"/>
     </row>
-    <row r="300" ht="24" customHeight="1" s="44">
+    <row r="300" ht="24" customHeight="1" s="45">
       <c r="A300" s="2" t="n"/>
       <c r="B300" s="2" t="n"/>
       <c r="C300" s="27" t="n"/>
@@ -30720,7 +30739,7 @@
       <c r="AG300" s="2" t="n"/>
       <c r="AH300" s="2" t="n"/>
     </row>
-    <row r="301" ht="24" customHeight="1" s="44">
+    <row r="301" ht="24" customHeight="1" s="45">
       <c r="A301" s="2" t="n"/>
       <c r="B301" s="2" t="n"/>
       <c r="C301" s="27" t="n"/>
@@ -30756,7 +30775,7 @@
       <c r="AG301" s="2" t="n"/>
       <c r="AH301" s="2" t="n"/>
     </row>
-    <row r="302" ht="24" customHeight="1" s="44">
+    <row r="302" ht="24" customHeight="1" s="45">
       <c r="A302" s="2" t="n"/>
       <c r="B302" s="2" t="n"/>
       <c r="C302" s="27" t="n"/>
@@ -30792,7 +30811,7 @@
       <c r="AG302" s="2" t="n"/>
       <c r="AH302" s="2" t="n"/>
     </row>
-    <row r="303" ht="24" customHeight="1" s="44">
+    <row r="303" ht="24" customHeight="1" s="45">
       <c r="A303" s="2" t="n"/>
       <c r="B303" s="2" t="n"/>
       <c r="C303" s="27" t="n"/>
@@ -30828,7 +30847,7 @@
       <c r="AG303" s="2" t="n"/>
       <c r="AH303" s="2" t="n"/>
     </row>
-    <row r="304" ht="24" customHeight="1" s="44">
+    <row r="304" ht="24" customHeight="1" s="45">
       <c r="A304" s="2" t="n"/>
       <c r="B304" s="2" t="n"/>
       <c r="C304" s="27" t="n"/>
@@ -30864,7 +30883,7 @@
       <c r="AG304" s="2" t="n"/>
       <c r="AH304" s="2" t="n"/>
     </row>
-    <row r="305" ht="24" customHeight="1" s="44">
+    <row r="305" ht="24" customHeight="1" s="45">
       <c r="A305" s="2" t="n"/>
       <c r="B305" s="2" t="n"/>
       <c r="C305" s="27" t="n"/>
@@ -30900,7 +30919,7 @@
       <c r="AG305" s="2" t="n"/>
       <c r="AH305" s="2" t="n"/>
     </row>
-    <row r="306" ht="24" customHeight="1" s="44">
+    <row r="306" ht="24" customHeight="1" s="45">
       <c r="A306" s="2" t="n"/>
       <c r="B306" s="2" t="n"/>
       <c r="C306" s="27" t="n"/>
@@ -30936,7 +30955,7 @@
       <c r="AG306" s="2" t="n"/>
       <c r="AH306" s="2" t="n"/>
     </row>
-    <row r="307" ht="24" customHeight="1" s="44">
+    <row r="307" ht="24" customHeight="1" s="45">
       <c r="A307" s="2" t="n"/>
       <c r="B307" s="2" t="n"/>
       <c r="C307" s="27" t="n"/>
@@ -30972,7 +30991,7 @@
       <c r="AG307" s="2" t="n"/>
       <c r="AH307" s="2" t="n"/>
     </row>
-    <row r="308" ht="24" customHeight="1" s="44">
+    <row r="308" ht="24" customHeight="1" s="45">
       <c r="A308" s="2" t="n"/>
       <c r="B308" s="2" t="n"/>
       <c r="C308" s="27" t="n"/>
@@ -31008,7 +31027,7 @@
       <c r="AG308" s="2" t="n"/>
       <c r="AH308" s="2" t="n"/>
     </row>
-    <row r="309" ht="24" customHeight="1" s="44">
+    <row r="309" ht="24" customHeight="1" s="45">
       <c r="A309" s="2" t="n"/>
       <c r="B309" s="2" t="n"/>
       <c r="C309" s="27" t="n"/>
@@ -31044,7 +31063,7 @@
       <c r="AG309" s="2" t="n"/>
       <c r="AH309" s="2" t="n"/>
     </row>
-    <row r="310" ht="24" customHeight="1" s="44">
+    <row r="310" ht="24" customHeight="1" s="45">
       <c r="A310" s="2" t="n"/>
       <c r="B310" s="2" t="n"/>
       <c r="C310" s="27" t="n"/>
@@ -31080,7 +31099,7 @@
       <c r="AG310" s="2" t="n"/>
       <c r="AH310" s="2" t="n"/>
     </row>
-    <row r="311" ht="24" customHeight="1" s="44">
+    <row r="311" ht="24" customHeight="1" s="45">
       <c r="A311" s="2" t="n"/>
       <c r="B311" s="2" t="n"/>
       <c r="C311" s="27" t="n"/>
@@ -31116,7 +31135,7 @@
       <c r="AG311" s="2" t="n"/>
       <c r="AH311" s="2" t="n"/>
     </row>
-    <row r="312" ht="24" customHeight="1" s="44">
+    <row r="312" ht="24" customHeight="1" s="45">
       <c r="A312" s="2" t="n"/>
       <c r="B312" s="2" t="n"/>
       <c r="C312" s="27" t="n"/>
@@ -31152,7 +31171,7 @@
       <c r="AG312" s="2" t="n"/>
       <c r="AH312" s="2" t="n"/>
     </row>
-    <row r="313" ht="24" customHeight="1" s="44">
+    <row r="313" ht="24" customHeight="1" s="45">
       <c r="A313" s="2" t="n"/>
       <c r="B313" s="2" t="n"/>
       <c r="C313" s="27" t="n"/>
@@ -31188,7 +31207,7 @@
       <c r="AG313" s="2" t="n"/>
       <c r="AH313" s="2" t="n"/>
     </row>
-    <row r="314" ht="24" customHeight="1" s="44">
+    <row r="314" ht="24" customHeight="1" s="45">
       <c r="A314" s="2" t="n"/>
       <c r="B314" s="2" t="n"/>
       <c r="C314" s="27" t="n"/>
@@ -31224,7 +31243,7 @@
       <c r="AG314" s="2" t="n"/>
       <c r="AH314" s="2" t="n"/>
     </row>
-    <row r="315" ht="24" customHeight="1" s="44">
+    <row r="315" ht="24" customHeight="1" s="45">
       <c r="A315" s="2" t="n"/>
       <c r="B315" s="2" t="n"/>
       <c r="C315" s="27" t="n"/>
@@ -31260,7 +31279,7 @@
       <c r="AG315" s="2" t="n"/>
       <c r="AH315" s="2" t="n"/>
     </row>
-    <row r="316" ht="24" customHeight="1" s="44">
+    <row r="316" ht="24" customHeight="1" s="45">
       <c r="A316" s="2" t="n"/>
       <c r="B316" s="2" t="n"/>
       <c r="C316" s="27" t="n"/>
@@ -31296,7 +31315,7 @@
       <c r="AG316" s="2" t="n"/>
       <c r="AH316" s="2" t="n"/>
     </row>
-    <row r="317" ht="24" customHeight="1" s="44">
+    <row r="317" ht="24" customHeight="1" s="45">
       <c r="A317" s="2" t="n"/>
       <c r="B317" s="2" t="n"/>
       <c r="C317" s="27" t="n"/>
@@ -31332,7 +31351,7 @@
       <c r="AG317" s="2" t="n"/>
       <c r="AH317" s="2" t="n"/>
     </row>
-    <row r="318" ht="24" customHeight="1" s="44">
+    <row r="318" ht="24" customHeight="1" s="45">
       <c r="A318" s="2" t="n"/>
       <c r="B318" s="2" t="n"/>
       <c r="C318" s="27" t="n"/>
@@ -31368,7 +31387,7 @@
       <c r="AG318" s="2" t="n"/>
       <c r="AH318" s="2" t="n"/>
     </row>
-    <row r="319" ht="24" customHeight="1" s="44">
+    <row r="319" ht="24" customHeight="1" s="45">
       <c r="A319" s="2" t="n"/>
       <c r="B319" s="2" t="n"/>
       <c r="C319" s="27" t="n"/>
@@ -31404,7 +31423,7 @@
       <c r="AG319" s="2" t="n"/>
       <c r="AH319" s="2" t="n"/>
     </row>
-    <row r="320" ht="24" customHeight="1" s="44">
+    <row r="320" ht="24" customHeight="1" s="45">
       <c r="A320" s="2" t="n"/>
       <c r="B320" s="2" t="n"/>
       <c r="C320" s="27" t="n"/>
@@ -31440,7 +31459,7 @@
       <c r="AG320" s="2" t="n"/>
       <c r="AH320" s="2" t="n"/>
     </row>
-    <row r="321" ht="24" customHeight="1" s="44">
+    <row r="321" ht="24" customHeight="1" s="45">
       <c r="A321" s="2" t="n"/>
       <c r="B321" s="2" t="n"/>
       <c r="C321" s="27" t="n"/>
@@ -31476,7 +31495,7 @@
       <c r="AG321" s="2" t="n"/>
       <c r="AH321" s="2" t="n"/>
     </row>
-    <row r="322" ht="24" customHeight="1" s="44">
+    <row r="322" ht="24" customHeight="1" s="45">
       <c r="A322" s="2" t="n"/>
       <c r="B322" s="2" t="n"/>
       <c r="C322" s="27" t="n"/>
@@ -31512,7 +31531,7 @@
       <c r="AG322" s="2" t="n"/>
       <c r="AH322" s="2" t="n"/>
     </row>
-    <row r="323" ht="24" customHeight="1" s="44">
+    <row r="323" ht="24" customHeight="1" s="45">
       <c r="A323" s="2" t="n"/>
       <c r="B323" s="2" t="n"/>
       <c r="C323" s="27" t="n"/>
@@ -31548,7 +31567,7 @@
       <c r="AG323" s="2" t="n"/>
       <c r="AH323" s="2" t="n"/>
     </row>
-    <row r="324" ht="24" customHeight="1" s="44">
+    <row r="324" ht="24" customHeight="1" s="45">
       <c r="A324" s="2" t="n"/>
       <c r="B324" s="2" t="n"/>
       <c r="C324" s="27" t="n"/>
@@ -31584,7 +31603,7 @@
       <c r="AG324" s="2" t="n"/>
       <c r="AH324" s="2" t="n"/>
     </row>
-    <row r="325" ht="24" customHeight="1" s="44">
+    <row r="325" ht="24" customHeight="1" s="45">
       <c r="A325" s="2" t="n"/>
       <c r="B325" s="2" t="n"/>
       <c r="C325" s="27" t="n"/>
@@ -31620,7 +31639,7 @@
       <c r="AG325" s="2" t="n"/>
       <c r="AH325" s="2" t="n"/>
     </row>
-    <row r="326" ht="24" customHeight="1" s="44">
+    <row r="326" ht="24" customHeight="1" s="45">
       <c r="A326" s="2" t="n"/>
       <c r="B326" s="2" t="n"/>
       <c r="C326" s="27" t="n"/>
@@ -31656,7 +31675,7 @@
       <c r="AG326" s="2" t="n"/>
       <c r="AH326" s="2" t="n"/>
     </row>
-    <row r="327" ht="24" customHeight="1" s="44">
+    <row r="327" ht="24" customHeight="1" s="45">
       <c r="A327" s="2" t="n"/>
       <c r="B327" s="2" t="n"/>
       <c r="C327" s="27" t="n"/>
@@ -31692,7 +31711,7 @@
       <c r="AG327" s="2" t="n"/>
       <c r="AH327" s="2" t="n"/>
     </row>
-    <row r="328" ht="24" customHeight="1" s="44">
+    <row r="328" ht="24" customHeight="1" s="45">
       <c r="A328" s="2" t="n"/>
       <c r="B328" s="2" t="n"/>
       <c r="C328" s="27" t="n"/>
@@ -31728,7 +31747,7 @@
       <c r="AG328" s="2" t="n"/>
       <c r="AH328" s="2" t="n"/>
     </row>
-    <row r="329" ht="24" customHeight="1" s="44">
+    <row r="329" ht="24" customHeight="1" s="45">
       <c r="A329" s="2" t="n"/>
       <c r="B329" s="2" t="n"/>
       <c r="C329" s="27" t="n"/>
@@ -31764,7 +31783,7 @@
       <c r="AG329" s="2" t="n"/>
       <c r="AH329" s="2" t="n"/>
     </row>
-    <row r="330" ht="24" customHeight="1" s="44">
+    <row r="330" ht="24" customHeight="1" s="45">
       <c r="A330" s="2" t="n"/>
       <c r="B330" s="2" t="n"/>
       <c r="C330" s="27" t="n"/>
@@ -31800,7 +31819,7 @@
       <c r="AG330" s="2" t="n"/>
       <c r="AH330" s="2" t="n"/>
     </row>
-    <row r="331" ht="24" customHeight="1" s="44">
+    <row r="331" ht="24" customHeight="1" s="45">
       <c r="A331" s="2" t="n"/>
       <c r="B331" s="2" t="n"/>
       <c r="C331" s="27" t="n"/>
@@ -31836,7 +31855,7 @@
       <c r="AG331" s="2" t="n"/>
       <c r="AH331" s="2" t="n"/>
     </row>
-    <row r="332" ht="24" customHeight="1" s="44">
+    <row r="332" ht="24" customHeight="1" s="45">
       <c r="A332" s="2" t="n"/>
       <c r="B332" s="2" t="n"/>
       <c r="C332" s="27" t="n"/>
@@ -31872,7 +31891,7 @@
       <c r="AG332" s="2" t="n"/>
       <c r="AH332" s="2" t="n"/>
     </row>
-    <row r="333" ht="24" customHeight="1" s="44">
+    <row r="333" ht="24" customHeight="1" s="45">
       <c r="A333" s="2" t="n"/>
       <c r="B333" s="2" t="n"/>
       <c r="C333" s="27" t="n"/>
@@ -31908,7 +31927,7 @@
       <c r="AG333" s="2" t="n"/>
       <c r="AH333" s="2" t="n"/>
     </row>
-    <row r="334" ht="24" customHeight="1" s="44">
+    <row r="334" ht="24" customHeight="1" s="45">
       <c r="A334" s="2" t="n"/>
       <c r="B334" s="2" t="n"/>
       <c r="C334" s="27" t="n"/>
@@ -31944,7 +31963,7 @@
       <c r="AG334" s="2" t="n"/>
       <c r="AH334" s="2" t="n"/>
     </row>
-    <row r="335" ht="24" customHeight="1" s="44">
+    <row r="335" ht="24" customHeight="1" s="45">
       <c r="A335" s="2" t="n"/>
       <c r="B335" s="2" t="n"/>
       <c r="C335" s="27" t="n"/>
@@ -31980,7 +31999,7 @@
       <c r="AG335" s="2" t="n"/>
       <c r="AH335" s="2" t="n"/>
     </row>
-    <row r="336" ht="24" customHeight="1" s="44">
+    <row r="336" ht="24" customHeight="1" s="45">
       <c r="A336" s="2" t="n"/>
       <c r="B336" s="2" t="n"/>
       <c r="C336" s="27" t="n"/>
@@ -32016,7 +32035,7 @@
       <c r="AG336" s="2" t="n"/>
       <c r="AH336" s="2" t="n"/>
     </row>
-    <row r="337" ht="24" customHeight="1" s="44">
+    <row r="337" ht="24" customHeight="1" s="45">
       <c r="A337" s="2" t="n"/>
       <c r="B337" s="2" t="n"/>
       <c r="C337" s="27" t="n"/>
@@ -32052,7 +32071,7 @@
       <c r="AG337" s="2" t="n"/>
       <c r="AH337" s="2" t="n"/>
     </row>
-    <row r="338" ht="24" customHeight="1" s="44">
+    <row r="338" ht="24" customHeight="1" s="45">
       <c r="A338" s="2" t="n"/>
       <c r="B338" s="2" t="n"/>
       <c r="C338" s="27" t="n"/>
@@ -32088,7 +32107,7 @@
       <c r="AG338" s="2" t="n"/>
       <c r="AH338" s="2" t="n"/>
     </row>
-    <row r="339" ht="24" customHeight="1" s="44">
+    <row r="339" ht="24" customHeight="1" s="45">
       <c r="A339" s="2" t="n"/>
       <c r="B339" s="2" t="n"/>
       <c r="C339" s="27" t="n"/>
@@ -32124,7 +32143,7 @@
       <c r="AG339" s="2" t="n"/>
       <c r="AH339" s="2" t="n"/>
     </row>
-    <row r="340" ht="24" customHeight="1" s="44">
+    <row r="340" ht="24" customHeight="1" s="45">
       <c r="A340" s="2" t="n"/>
       <c r="B340" s="2" t="n"/>
       <c r="C340" s="27" t="n"/>
@@ -32160,7 +32179,7 @@
       <c r="AG340" s="2" t="n"/>
       <c r="AH340" s="2" t="n"/>
     </row>
-    <row r="341" ht="24" customHeight="1" s="44">
+    <row r="341" ht="24" customHeight="1" s="45">
       <c r="A341" s="2" t="n"/>
       <c r="B341" s="2" t="n"/>
       <c r="C341" s="27" t="n"/>
@@ -32196,7 +32215,7 @@
       <c r="AG341" s="2" t="n"/>
       <c r="AH341" s="2" t="n"/>
     </row>
-    <row r="342" ht="24" customHeight="1" s="44">
+    <row r="342" ht="24" customHeight="1" s="45">
       <c r="A342" s="2" t="n"/>
       <c r="B342" s="2" t="n"/>
       <c r="C342" s="27" t="n"/>
@@ -32232,7 +32251,7 @@
       <c r="AG342" s="2" t="n"/>
       <c r="AH342" s="2" t="n"/>
     </row>
-    <row r="343" ht="24" customHeight="1" s="44">
+    <row r="343" ht="24" customHeight="1" s="45">
       <c r="A343" s="2" t="n"/>
       <c r="B343" s="2" t="n"/>
       <c r="C343" s="27" t="n"/>
@@ -32268,7 +32287,7 @@
       <c r="AG343" s="2" t="n"/>
       <c r="AH343" s="2" t="n"/>
     </row>
-    <row r="344" ht="24" customHeight="1" s="44">
+    <row r="344" ht="24" customHeight="1" s="45">
       <c r="A344" s="2" t="n"/>
       <c r="B344" s="2" t="n"/>
       <c r="C344" s="27" t="n"/>
@@ -32304,7 +32323,7 @@
       <c r="AG344" s="2" t="n"/>
       <c r="AH344" s="2" t="n"/>
     </row>
-    <row r="345" ht="24" customHeight="1" s="44">
+    <row r="345" ht="24" customHeight="1" s="45">
       <c r="A345" s="2" t="n"/>
       <c r="B345" s="2" t="n"/>
       <c r="C345" s="27" t="n"/>
@@ -32340,7 +32359,7 @@
       <c r="AG345" s="2" t="n"/>
       <c r="AH345" s="2" t="n"/>
     </row>
-    <row r="346" ht="24" customHeight="1" s="44">
+    <row r="346" ht="24" customHeight="1" s="45">
       <c r="A346" s="2" t="n"/>
       <c r="B346" s="2" t="n"/>
       <c r="C346" s="27" t="n"/>
@@ -32376,7 +32395,7 @@
       <c r="AG346" s="2" t="n"/>
       <c r="AH346" s="2" t="n"/>
     </row>
-    <row r="347" ht="24" customHeight="1" s="44">
+    <row r="347" ht="24" customHeight="1" s="45">
       <c r="A347" s="2" t="n"/>
       <c r="B347" s="2" t="n"/>
       <c r="C347" s="27" t="n"/>
@@ -32412,7 +32431,7 @@
       <c r="AG347" s="2" t="n"/>
       <c r="AH347" s="2" t="n"/>
     </row>
-    <row r="348" ht="24" customHeight="1" s="44">
+    <row r="348" ht="24" customHeight="1" s="45">
       <c r="A348" s="2" t="n"/>
       <c r="B348" s="2" t="n"/>
       <c r="C348" s="27" t="n"/>
@@ -32448,7 +32467,7 @@
       <c r="AG348" s="2" t="n"/>
       <c r="AH348" s="2" t="n"/>
     </row>
-    <row r="349" ht="24" customHeight="1" s="44">
+    <row r="349" ht="24" customHeight="1" s="45">
       <c r="A349" s="2" t="n"/>
       <c r="B349" s="2" t="n"/>
       <c r="C349" s="27" t="n"/>
@@ -32484,7 +32503,7 @@
       <c r="AG349" s="2" t="n"/>
       <c r="AH349" s="2" t="n"/>
     </row>
-    <row r="350" ht="24" customHeight="1" s="44">
+    <row r="350" ht="24" customHeight="1" s="45">
       <c r="A350" s="2" t="n"/>
       <c r="B350" s="2" t="n"/>
       <c r="C350" s="27" t="n"/>
@@ -32520,7 +32539,7 @@
       <c r="AG350" s="2" t="n"/>
       <c r="AH350" s="2" t="n"/>
     </row>
-    <row r="351" ht="24" customHeight="1" s="44">
+    <row r="351" ht="24" customHeight="1" s="45">
       <c r="A351" s="14" t="n"/>
       <c r="B351" s="2" t="n"/>
       <c r="C351" s="27" t="n"/>
@@ -32556,7 +32575,7 @@
       <c r="AG351" s="2" t="n"/>
       <c r="AH351" s="2" t="n"/>
     </row>
-    <row r="352" ht="24" customHeight="1" s="44">
+    <row r="352" ht="24" customHeight="1" s="45">
       <c r="A352" s="13" t="n"/>
       <c r="B352" s="2" t="n"/>
       <c r="C352" s="27" t="n"/>
@@ -32592,7 +32611,7 @@
       <c r="AG352" s="2" t="n"/>
       <c r="AH352" s="2" t="n"/>
     </row>
-    <row r="353" ht="24" customHeight="1" s="44">
+    <row r="353" ht="24" customHeight="1" s="45">
       <c r="A353" s="13" t="n"/>
       <c r="B353" s="2" t="n"/>
       <c r="C353" s="27" t="n"/>
@@ -32628,7 +32647,7 @@
       <c r="AG353" s="2" t="n"/>
       <c r="AH353" s="2" t="n"/>
     </row>
-    <row r="354" ht="24" customHeight="1" s="44">
+    <row r="354" ht="24" customHeight="1" s="45">
       <c r="A354" s="13" t="n"/>
       <c r="B354" s="2" t="n"/>
       <c r="C354" s="27" t="n"/>
@@ -32664,7 +32683,7 @@
       <c r="AG354" s="2" t="n"/>
       <c r="AH354" s="2" t="n"/>
     </row>
-    <row r="355" ht="24" customHeight="1" s="44">
+    <row r="355" ht="24" customHeight="1" s="45">
       <c r="A355" s="13" t="n"/>
       <c r="B355" s="2" t="n"/>
       <c r="C355" s="27" t="n"/>
@@ -32700,7 +32719,7 @@
       <c r="AG355" s="2" t="n"/>
       <c r="AH355" s="2" t="n"/>
     </row>
-    <row r="356" ht="24" customHeight="1" s="44">
+    <row r="356" ht="24" customHeight="1" s="45">
       <c r="A356" s="13" t="n"/>
       <c r="B356" s="2" t="n"/>
       <c r="C356" s="27" t="n"/>
@@ -32736,7 +32755,7 @@
       <c r="AG356" s="2" t="n"/>
       <c r="AH356" s="2" t="n"/>
     </row>
-    <row r="357" ht="24" customHeight="1" s="44">
+    <row r="357" ht="24" customHeight="1" s="45">
       <c r="A357" s="13" t="n"/>
       <c r="B357" s="2" t="n"/>
       <c r="C357" s="27" t="n"/>
@@ -32772,7 +32791,7 @@
       <c r="AG357" s="2" t="n"/>
       <c r="AH357" s="2" t="n"/>
     </row>
-    <row r="358" ht="24" customHeight="1" s="44">
+    <row r="358" ht="24" customHeight="1" s="45">
       <c r="A358" s="13" t="n"/>
       <c r="B358" s="2" t="n"/>
       <c r="C358" s="27" t="n"/>
@@ -32808,7 +32827,7 @@
       <c r="AG358" s="2" t="n"/>
       <c r="AH358" s="2" t="n"/>
     </row>
-    <row r="359" ht="24" customHeight="1" s="44">
+    <row r="359" ht="24" customHeight="1" s="45">
       <c r="A359" s="13" t="n"/>
       <c r="B359" s="2" t="n"/>
       <c r="C359" s="27" t="n"/>
@@ -32844,7 +32863,7 @@
       <c r="AG359" s="2" t="n"/>
       <c r="AH359" s="2" t="n"/>
     </row>
-    <row r="360" ht="24" customHeight="1" s="44">
+    <row r="360" ht="24" customHeight="1" s="45">
       <c r="A360" s="13" t="n"/>
       <c r="B360" s="2" t="n"/>
       <c r="C360" s="27" t="n"/>
@@ -32880,7 +32899,7 @@
       <c r="AG360" s="2" t="n"/>
       <c r="AH360" s="2" t="n"/>
     </row>
-    <row r="361" ht="24" customHeight="1" s="44">
+    <row r="361" ht="24" customHeight="1" s="45">
       <c r="A361" s="13" t="n"/>
       <c r="B361" s="2" t="n"/>
       <c r="C361" s="27" t="n"/>
@@ -32916,7 +32935,7 @@
       <c r="AG361" s="2" t="n"/>
       <c r="AH361" s="2" t="n"/>
     </row>
-    <row r="362" ht="24" customHeight="1" s="44">
+    <row r="362" ht="24" customHeight="1" s="45">
       <c r="A362" s="13" t="n"/>
       <c r="B362" s="2" t="n"/>
       <c r="C362" s="27" t="n"/>
@@ -32952,7 +32971,7 @@
       <c r="AG362" s="2" t="n"/>
       <c r="AH362" s="2" t="n"/>
     </row>
-    <row r="363" ht="24" customHeight="1" s="44">
+    <row r="363" ht="24" customHeight="1" s="45">
       <c r="A363" s="13" t="n"/>
       <c r="B363" s="2" t="n"/>
       <c r="C363" s="27" t="n"/>
@@ -32988,7 +33007,7 @@
       <c r="AG363" s="2" t="n"/>
       <c r="AH363" s="2" t="n"/>
     </row>
-    <row r="364" ht="24" customHeight="1" s="44">
+    <row r="364" ht="24" customHeight="1" s="45">
       <c r="A364" s="13" t="n"/>
       <c r="B364" s="2" t="n"/>
       <c r="C364" s="27" t="n"/>
@@ -33024,7 +33043,7 @@
       <c r="AG364" s="2" t="n"/>
       <c r="AH364" s="2" t="n"/>
     </row>
-    <row r="365" ht="24" customHeight="1" s="44">
+    <row r="365" ht="24" customHeight="1" s="45">
       <c r="A365" s="13" t="n"/>
       <c r="B365" s="2" t="n"/>
       <c r="C365" s="27" t="n"/>
@@ -33060,7 +33079,7 @@
       <c r="AG365" s="2" t="n"/>
       <c r="AH365" s="2" t="n"/>
     </row>
-    <row r="366" ht="24" customHeight="1" s="44">
+    <row r="366" ht="24" customHeight="1" s="45">
       <c r="A366" s="13" t="n"/>
       <c r="B366" s="2" t="n"/>
       <c r="C366" s="27" t="n"/>
@@ -33096,7 +33115,7 @@
       <c r="AG366" s="2" t="n"/>
       <c r="AH366" s="2" t="n"/>
     </row>
-    <row r="367" ht="24" customHeight="1" s="44">
+    <row r="367" ht="24" customHeight="1" s="45">
       <c r="A367" s="13" t="n"/>
       <c r="B367" s="2" t="n"/>
       <c r="C367" s="27" t="n"/>
@@ -33132,7 +33151,7 @@
       <c r="AG367" s="2" t="n"/>
       <c r="AH367" s="2" t="n"/>
     </row>
-    <row r="368" ht="24" customHeight="1" s="44">
+    <row r="368" ht="24" customHeight="1" s="45">
       <c r="A368" s="13" t="n"/>
       <c r="B368" s="2" t="n"/>
       <c r="C368" s="27" t="n"/>
@@ -33168,7 +33187,7 @@
       <c r="AG368" s="2" t="n"/>
       <c r="AH368" s="2" t="n"/>
     </row>
-    <row r="369" ht="24" customHeight="1" s="44">
+    <row r="369" ht="24" customHeight="1" s="45">
       <c r="A369" s="13" t="n"/>
       <c r="B369" s="2" t="n"/>
       <c r="C369" s="27" t="n"/>
@@ -33204,7 +33223,7 @@
       <c r="AG369" s="2" t="n"/>
       <c r="AH369" s="2" t="n"/>
     </row>
-    <row r="370" ht="24" customHeight="1" s="44">
+    <row r="370" ht="24" customHeight="1" s="45">
       <c r="A370" s="13" t="n"/>
       <c r="B370" s="2" t="n"/>
       <c r="C370" s="27" t="n"/>
@@ -33240,7 +33259,7 @@
       <c r="AG370" s="2" t="n"/>
       <c r="AH370" s="2" t="n"/>
     </row>
-    <row r="371" ht="24" customHeight="1" s="44">
+    <row r="371" ht="24" customHeight="1" s="45">
       <c r="A371" s="13" t="n"/>
       <c r="B371" s="2" t="n"/>
       <c r="C371" s="27" t="n"/>
@@ -33276,7 +33295,7 @@
       <c r="AG371" s="2" t="n"/>
       <c r="AH371" s="2" t="n"/>
     </row>
-    <row r="372" ht="24" customHeight="1" s="44">
+    <row r="372" ht="24" customHeight="1" s="45">
       <c r="A372" s="13" t="n"/>
       <c r="B372" s="2" t="n"/>
       <c r="C372" s="27" t="n"/>
@@ -33312,7 +33331,7 @@
       <c r="AG372" s="2" t="n"/>
       <c r="AH372" s="2" t="n"/>
     </row>
-    <row r="373" ht="24" customHeight="1" s="44">
+    <row r="373" ht="24" customHeight="1" s="45">
       <c r="A373" s="13" t="n"/>
       <c r="B373" s="2" t="n"/>
       <c r="C373" s="27" t="n"/>
@@ -33348,7 +33367,7 @@
       <c r="AG373" s="2" t="n"/>
       <c r="AH373" s="2" t="n"/>
     </row>
-    <row r="374" ht="24" customHeight="1" s="44">
+    <row r="374" ht="24" customHeight="1" s="45">
       <c r="A374" s="13" t="n"/>
       <c r="B374" s="2" t="n"/>
       <c r="C374" s="27" t="n"/>
@@ -33384,7 +33403,7 @@
       <c r="AG374" s="2" t="n"/>
       <c r="AH374" s="2" t="n"/>
     </row>
-    <row r="375" ht="24" customHeight="1" s="44">
+    <row r="375" ht="24" customHeight="1" s="45">
       <c r="A375" s="13" t="n"/>
       <c r="B375" s="2" t="n"/>
       <c r="C375" s="27" t="n"/>
@@ -33420,7 +33439,7 @@
       <c r="AG375" s="2" t="n"/>
       <c r="AH375" s="2" t="n"/>
     </row>
-    <row r="376" ht="24" customHeight="1" s="44">
+    <row r="376" ht="24" customHeight="1" s="45">
       <c r="A376" s="13" t="n"/>
       <c r="B376" s="2" t="n"/>
       <c r="C376" s="27" t="n"/>
@@ -33456,7 +33475,7 @@
       <c r="AG376" s="2" t="n"/>
       <c r="AH376" s="2" t="n"/>
     </row>
-    <row r="377" ht="24" customHeight="1" s="44">
+    <row r="377" ht="24" customHeight="1" s="45">
       <c r="A377" s="13" t="n"/>
       <c r="B377" s="2" t="n"/>
       <c r="C377" s="27" t="n"/>
@@ -33492,7 +33511,7 @@
       <c r="AG377" s="2" t="n"/>
       <c r="AH377" s="2" t="n"/>
     </row>
-    <row r="378" ht="24" customHeight="1" s="44">
+    <row r="378" ht="24" customHeight="1" s="45">
       <c r="A378" s="13" t="n"/>
       <c r="B378" s="2" t="n"/>
       <c r="C378" s="27" t="n"/>
@@ -33528,7 +33547,7 @@
       <c r="AG378" s="2" t="n"/>
       <c r="AH378" s="2" t="n"/>
     </row>
-    <row r="379" ht="24" customHeight="1" s="44">
+    <row r="379" ht="24" customHeight="1" s="45">
       <c r="A379" s="13" t="n"/>
       <c r="B379" s="2" t="n"/>
       <c r="C379" s="27" t="n"/>
@@ -33564,7 +33583,7 @@
       <c r="AG379" s="2" t="n"/>
       <c r="AH379" s="2" t="n"/>
     </row>
-    <row r="380" ht="24" customHeight="1" s="44">
+    <row r="380" ht="24" customHeight="1" s="45">
       <c r="A380" s="13" t="n"/>
       <c r="B380" s="2" t="n"/>
       <c r="C380" s="27" t="n"/>
@@ -33600,7 +33619,7 @@
       <c r="AG380" s="2" t="n"/>
       <c r="AH380" s="2" t="n"/>
     </row>
-    <row r="381" ht="24" customHeight="1" s="44">
+    <row r="381" ht="24" customHeight="1" s="45">
       <c r="A381" s="13" t="n"/>
       <c r="B381" s="2" t="n"/>
       <c r="C381" s="27" t="n"/>
@@ -33636,7 +33655,7 @@
       <c r="AG381" s="2" t="n"/>
       <c r="AH381" s="2" t="n"/>
     </row>
-    <row r="382" ht="24" customHeight="1" s="44">
+    <row r="382" ht="24" customHeight="1" s="45">
       <c r="A382" s="13" t="n"/>
       <c r="B382" s="2" t="n"/>
       <c r="C382" s="27" t="n"/>
@@ -33672,7 +33691,7 @@
       <c r="AG382" s="2" t="n"/>
       <c r="AH382" s="2" t="n"/>
     </row>
-    <row r="383" ht="24" customHeight="1" s="44">
+    <row r="383" ht="24" customHeight="1" s="45">
       <c r="A383" s="13" t="n"/>
       <c r="B383" s="2" t="n"/>
       <c r="C383" s="27" t="n"/>
@@ -33708,7 +33727,7 @@
       <c r="AG383" s="2" t="n"/>
       <c r="AH383" s="2" t="n"/>
     </row>
-    <row r="384" ht="24" customHeight="1" s="44">
+    <row r="384" ht="24" customHeight="1" s="45">
       <c r="A384" s="13" t="n"/>
       <c r="B384" s="2" t="n"/>
       <c r="C384" s="27" t="n"/>
@@ -33744,7 +33763,7 @@
       <c r="AG384" s="2" t="n"/>
       <c r="AH384" s="2" t="n"/>
     </row>
-    <row r="385" ht="24" customHeight="1" s="44">
+    <row r="385" ht="24" customHeight="1" s="45">
       <c r="A385" s="13" t="n"/>
       <c r="B385" s="2" t="n"/>
       <c r="C385" s="27" t="n"/>
@@ -33780,7 +33799,7 @@
       <c r="AG385" s="2" t="n"/>
       <c r="AH385" s="2" t="n"/>
     </row>
-    <row r="386" ht="24" customHeight="1" s="44">
+    <row r="386" ht="24" customHeight="1" s="45">
       <c r="A386" s="13" t="n"/>
       <c r="B386" s="2" t="n"/>
       <c r="C386" s="27" t="n"/>
@@ -33816,7 +33835,7 @@
       <c r="AG386" s="2" t="n"/>
       <c r="AH386" s="2" t="n"/>
     </row>
-    <row r="387" ht="24" customHeight="1" s="44">
+    <row r="387" ht="24" customHeight="1" s="45">
       <c r="A387" s="13" t="n"/>
       <c r="B387" s="2" t="n"/>
       <c r="C387" s="27" t="n"/>
@@ -33852,7 +33871,7 @@
       <c r="AG387" s="2" t="n"/>
       <c r="AH387" s="2" t="n"/>
     </row>
-    <row r="388" ht="24" customHeight="1" s="44">
+    <row r="388" ht="24" customHeight="1" s="45">
       <c r="A388" s="13" t="n"/>
       <c r="B388" s="2" t="n"/>
       <c r="C388" s="27" t="n"/>
@@ -33888,7 +33907,7 @@
       <c r="AG388" s="2" t="n"/>
       <c r="AH388" s="2" t="n"/>
     </row>
-    <row r="389" ht="24" customHeight="1" s="44">
+    <row r="389" ht="24" customHeight="1" s="45">
       <c r="A389" s="13" t="n"/>
       <c r="B389" s="2" t="n"/>
       <c r="C389" s="27" t="n"/>
@@ -33924,7 +33943,7 @@
       <c r="AG389" s="2" t="n"/>
       <c r="AH389" s="2" t="n"/>
     </row>
-    <row r="390" ht="24" customHeight="1" s="44">
+    <row r="390" ht="24" customHeight="1" s="45">
       <c r="A390" s="13" t="n"/>
       <c r="B390" s="2" t="n"/>
       <c r="C390" s="27" t="n"/>
@@ -33960,7 +33979,7 @@
       <c r="AG390" s="2" t="n"/>
       <c r="AH390" s="2" t="n"/>
     </row>
-    <row r="391" ht="24" customHeight="1" s="44">
+    <row r="391" ht="24" customHeight="1" s="45">
       <c r="A391" s="13" t="n"/>
       <c r="B391" s="2" t="n"/>
       <c r="C391" s="27" t="n"/>
@@ -33996,7 +34015,7 @@
       <c r="AG391" s="2" t="n"/>
       <c r="AH391" s="2" t="n"/>
     </row>
-    <row r="392" ht="24" customHeight="1" s="44">
+    <row r="392" ht="24" customHeight="1" s="45">
       <c r="A392" s="13" t="n"/>
       <c r="B392" s="2" t="n"/>
       <c r="C392" s="27" t="n"/>
@@ -34032,7 +34051,7 @@
       <c r="AG392" s="2" t="n"/>
       <c r="AH392" s="2" t="n"/>
     </row>
-    <row r="393" ht="24" customHeight="1" s="44">
+    <row r="393" ht="24" customHeight="1" s="45">
       <c r="A393" s="13" t="n"/>
       <c r="B393" s="2" t="n"/>
       <c r="C393" s="27" t="n"/>
@@ -34068,7 +34087,7 @@
       <c r="AG393" s="2" t="n"/>
       <c r="AH393" s="2" t="n"/>
     </row>
-    <row r="394" ht="24" customHeight="1" s="44">
+    <row r="394" ht="24" customHeight="1" s="45">
       <c r="A394" s="13" t="n"/>
       <c r="B394" s="2" t="n"/>
       <c r="C394" s="27" t="n"/>
@@ -34104,7 +34123,7 @@
       <c r="AG394" s="2" t="n"/>
       <c r="AH394" s="2" t="n"/>
     </row>
-    <row r="395" ht="24" customHeight="1" s="44">
+    <row r="395" ht="24" customHeight="1" s="45">
       <c r="A395" s="13" t="n"/>
       <c r="B395" s="2" t="n"/>
       <c r="C395" s="27" t="n"/>
@@ -34140,7 +34159,7 @@
       <c r="AG395" s="2" t="n"/>
       <c r="AH395" s="2" t="n"/>
     </row>
-    <row r="396" ht="24" customHeight="1" s="44">
+    <row r="396" ht="24" customHeight="1" s="45">
       <c r="A396" s="13" t="n"/>
       <c r="B396" s="2" t="n"/>
       <c r="C396" s="27" t="n"/>
@@ -34176,7 +34195,7 @@
       <c r="AG396" s="2" t="n"/>
       <c r="AH396" s="2" t="n"/>
     </row>
-    <row r="397" ht="24" customHeight="1" s="44">
+    <row r="397" ht="24" customHeight="1" s="45">
       <c r="A397" s="13" t="n"/>
       <c r="B397" s="2" t="n"/>
       <c r="C397" s="27" t="n"/>
@@ -34212,7 +34231,7 @@
       <c r="AG397" s="2" t="n"/>
       <c r="AH397" s="2" t="n"/>
     </row>
-    <row r="398" ht="24" customHeight="1" s="44">
+    <row r="398" ht="24" customHeight="1" s="45">
       <c r="A398" s="13" t="n"/>
       <c r="B398" s="2" t="n"/>
       <c r="C398" s="27" t="n"/>
@@ -34248,7 +34267,7 @@
       <c r="AG398" s="2" t="n"/>
       <c r="AH398" s="2" t="n"/>
     </row>
-    <row r="399" ht="24" customHeight="1" s="44">
+    <row r="399" ht="24" customHeight="1" s="45">
       <c r="A399" s="13" t="n"/>
       <c r="B399" s="2" t="n"/>
       <c r="C399" s="27" t="n"/>
@@ -34284,7 +34303,7 @@
       <c r="AG399" s="2" t="n"/>
       <c r="AH399" s="2" t="n"/>
     </row>
-    <row r="400" ht="24" customHeight="1" s="44">
+    <row r="400" ht="24" customHeight="1" s="45">
       <c r="A400" s="13" t="n"/>
       <c r="B400" s="2" t="n"/>
       <c r="C400" s="27" t="n"/>
@@ -34320,7 +34339,7 @@
       <c r="AG400" s="2" t="n"/>
       <c r="AH400" s="2" t="n"/>
     </row>
-    <row r="401" ht="24" customHeight="1" s="44">
+    <row r="401" ht="24" customHeight="1" s="45">
       <c r="A401" s="12" t="n">
         <v>400</v>
       </c>
@@ -34556,7 +34575,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.75" customHeight="1" s="44">
+    <row r="2" ht="27.75" customHeight="1" s="45">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -34635,7 +34654,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.75" customHeight="1" s="44">
+    <row r="3" ht="27.75" customHeight="1" s="45">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
@@ -35081,7 +35100,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.9"/>
   <cols>
-    <col width="18.59765625" customWidth="1" style="45" min="11" max="11"/>
+    <col width="18.59765625" customWidth="1" style="46" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -35135,7 +35154,7 @@
           <t>level2</t>
         </is>
       </c>
-      <c r="K1" s="45" t="inlineStr">
+      <c r="K1" s="46" t="inlineStr">
         <is>
           <t>date</t>
         </is>
@@ -35180,7 +35199,7 @@
           <t>大兴安岭地区</t>
         </is>
       </c>
-      <c r="K2" s="45" t="n">
+      <c r="K2" s="46" t="n">
         <v>25199</v>
       </c>
     </row>
@@ -35220,7 +35239,7 @@
           <t>呼伦贝尔市</t>
         </is>
       </c>
-      <c r="K3" s="45" t="n">
+      <c r="K3" s="46" t="n">
         <v>45993</v>
       </c>
     </row>
@@ -35260,7 +35279,7 @@
           <t>阿勒泰地区</t>
         </is>
       </c>
-      <c r="K4" s="45" t="n">
+      <c r="K4" s="46" t="n">
         <v>45995</v>
       </c>
     </row>
